--- a/717A11_output.xlsx
+++ b/717A11_output.xlsx
@@ -397,8 +397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/717A11_output.xlsx
+++ b/717A11_output.xlsx
@@ -16,9 +16,9 @@
   </sheets>
   <definedNames>
     <definedName name="BusDemand">Sheet2!#REF!</definedName>
-    <definedName name="Gen">Sheet2!$B$4:$B$23</definedName>
+    <definedName name="Gen">Sheet2!$B$3:$AA$22</definedName>
     <definedName name="LineCapacity">Sheet2!#REF!</definedName>
-    <definedName name="LineFlow">Sheet2!$E$4:$E$6</definedName>
+    <definedName name="LineFlow">Sheet2!$B$26:$AA$28</definedName>
     <definedName name="LineFromBus">Sheet2!#REF!</definedName>
     <definedName name="LineReactance">Sheet2!#REF!</definedName>
     <definedName name="LineToBus">Sheet2!#REF!</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Line</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Gen (MW)</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -395,207 +398,876 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>2020</v>
+      </c>
+      <c r="C2">
+        <v>2021</v>
+      </c>
+      <c r="D2">
+        <v>2022</v>
+      </c>
+      <c r="E2">
+        <v>2023</v>
+      </c>
+      <c r="F2">
+        <v>2024</v>
+      </c>
+      <c r="G2">
+        <v>2025</v>
+      </c>
+      <c r="H2">
+        <v>2026</v>
+      </c>
+      <c r="I2">
+        <v>2027</v>
+      </c>
+      <c r="J2">
+        <v>2028</v>
+      </c>
+      <c r="K2">
+        <v>2029</v>
+      </c>
+      <c r="L2">
+        <v>2030</v>
+      </c>
+      <c r="M2">
+        <v>2031</v>
+      </c>
+      <c r="N2">
+        <v>2032</v>
+      </c>
+      <c r="O2">
+        <v>2033</v>
+      </c>
+      <c r="P2">
+        <v>2034</v>
+      </c>
+      <c r="Q2">
+        <v>2035</v>
+      </c>
+      <c r="R2">
+        <v>2036</v>
+      </c>
+      <c r="S2">
+        <v>2037</v>
+      </c>
+      <c r="T2">
+        <v>2038</v>
+      </c>
+      <c r="U2">
+        <v>2039</v>
+      </c>
+      <c r="V2">
+        <v>2040</v>
+      </c>
+      <c r="W2">
+        <v>2041</v>
+      </c>
+      <c r="X2">
+        <v>2042</v>
+      </c>
+      <c r="Y2">
+        <v>2043</v>
+      </c>
+      <c r="Z2">
+        <v>2044</v>
+      </c>
+      <c r="AA2">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>665.6</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>212</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B7" s="3">
+        <v>349.19999999999982</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>84.6</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>684.04999999999984</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>665.6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3">
-        <v>-771.44999999999993</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>650</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3">
-        <v>87.399999999999991</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>349.19999999999982</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3">
-        <v>84.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3">
+        <v>277</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3">
+        <v>257</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2269.6</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>17</v>
-      </c>
-      <c r="B20" s="3">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21" s="3">
-        <v>2269.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>20</v>
-      </c>
-      <c r="B23" s="3">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3">
+        <v>684.04999999999984</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="3">
+        <v>-771.44999999999993</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="3">
+        <v>87.399999999999991</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/717A11_output.xlsx
+++ b/717A11_output.xlsx
@@ -28,6 +28,7 @@
     <definedName name="NumBuses">Sheet2!#REF!</definedName>
     <definedName name="NumLines">Sheet2!#REF!</definedName>
     <definedName name="NumUnits">Sheet2!#REF!</definedName>
+    <definedName name="TotalCost">Sheet2!$B$30</definedName>
     <definedName name="UnitsByBus">Sheet2!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Line</t>
   </si>
@@ -64,6 +65,27 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>Total Cost ($)</t>
+  </si>
+  <si>
+    <t>Total Emissions</t>
+  </si>
+  <si>
+    <t>NOx (lb/MWh):</t>
+  </si>
+  <si>
+    <t>SO2 (lb/MWh):</t>
+  </si>
+  <si>
+    <t>CO2 (lb/MWh):</t>
+  </si>
+  <si>
+    <t>CH4 (lb/MWh):</t>
+  </si>
+  <si>
+    <t>N2O (lb/MWh):</t>
   </si>
 </sst>
 </file>
@@ -96,7 +118,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,15 +420,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA28"/>
+  <dimension ref="A1:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.35">
@@ -837,13 +859,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>464</v>
+        <v>339.19999999999982</v>
       </c>
       <c r="C7" s="3">
-        <v>464</v>
+        <v>392.08500000099912</v>
       </c>
       <c r="D7" s="3">
-        <v>464</v>
+        <v>435.35596500099882</v>
       </c>
       <c r="E7" s="3">
         <v>464</v>
@@ -1501,19 +1523,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="3">
-        <v>95.199999999999818</v>
+        <v>277</v>
       </c>
       <c r="C15" s="3">
-        <v>138.08499999999913</v>
+        <v>276.99999999900001</v>
       </c>
       <c r="D15" s="3">
-        <v>181.35596499999883</v>
+        <v>276.99999999900001</v>
       </c>
       <c r="E15" s="3">
-        <v>225.01636868499827</v>
+        <v>277</v>
       </c>
       <c r="F15" s="3">
-        <v>269.06971600316319</v>
+        <v>277</v>
       </c>
       <c r="G15" s="3">
         <v>313.5195434471907</v>
@@ -1750,19 +1772,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="C18" s="3">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D18" s="3">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>67</v>
+        <v>15.016368684998724</v>
       </c>
       <c r="F18" s="3">
-        <v>67</v>
+        <v>59.069716003163649</v>
       </c>
       <c r="G18" s="3">
         <v>67</v>
@@ -2175,82 +2197,82 @@
         <v>1</v>
       </c>
       <c r="B26" s="3">
-        <v>782.91666666666697</v>
+        <v>680.71666666666647</v>
       </c>
       <c r="C26" s="3">
-        <v>773.6249166666671</v>
+        <v>703.34825000066633</v>
       </c>
       <c r="D26" s="3">
-        <v>764.24954091666712</v>
+        <v>722.82018425066622</v>
       </c>
       <c r="E26" s="3">
-        <v>754.78978678491717</v>
+        <v>737.4619096799164</v>
       </c>
       <c r="F26" s="3">
-        <v>745.24489486598134</v>
+        <v>742.6014668670357</v>
       </c>
       <c r="G26" s="3">
-        <v>735.61409891977564</v>
+        <v>735.61409891977553</v>
       </c>
       <c r="H26" s="3">
-        <v>725.89662581005359</v>
+        <v>725.89662581005348</v>
       </c>
       <c r="I26" s="3">
-        <v>716.0916954423443</v>
+        <v>716.09169544234408</v>
       </c>
       <c r="J26" s="3">
-        <v>706.19852070132492</v>
+        <v>706.19852070132515</v>
       </c>
       <c r="K26" s="3">
-        <v>696.21630738763747</v>
+        <v>696.21630738763736</v>
       </c>
       <c r="L26" s="3">
-        <v>686.14425415412632</v>
+        <v>686.1442541541262</v>
       </c>
       <c r="M26" s="3">
         <v>675.98155244151349</v>
       </c>
       <c r="N26" s="3">
-        <v>665.72738641348769</v>
+        <v>665.72738641348747</v>
       </c>
       <c r="O26" s="3">
-        <v>655.38093289120911</v>
+        <v>655.380932891209</v>
       </c>
       <c r="P26" s="3">
-        <v>644.94136128723005</v>
+        <v>644.94136128722982</v>
       </c>
       <c r="Q26" s="3">
-        <v>634.40783353881443</v>
+        <v>634.40783353881466</v>
       </c>
       <c r="R26" s="3">
-        <v>623.77950404066473</v>
+        <v>623.77950404066451</v>
       </c>
       <c r="S26" s="3">
-        <v>613.05551957703096</v>
+        <v>613.05551957703074</v>
       </c>
       <c r="T26" s="3">
-        <v>602.23501925322444</v>
+        <v>602.2350192532241</v>
       </c>
       <c r="U26" s="3">
-        <v>591.31713442650346</v>
+        <v>591.31713442650323</v>
       </c>
       <c r="V26" s="3">
-        <v>580.30098863634225</v>
+        <v>580.30098863634191</v>
       </c>
       <c r="W26" s="3">
-        <v>569.18569753406894</v>
+        <v>569.18569753406882</v>
       </c>
       <c r="X26" s="3">
-        <v>557.97036881187614</v>
+        <v>557.9703688118758</v>
       </c>
       <c r="Y26" s="3">
-        <v>546.65410213118321</v>
+        <v>546.65410213118298</v>
       </c>
       <c r="Z26" s="3">
-        <v>535.23598905036408</v>
+        <v>535.23598905036374</v>
       </c>
       <c r="AA26" s="3">
-        <v>523.71511295181722</v>
+        <v>523.71511295181745</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.35">
@@ -2258,82 +2280,82 @@
         <v>2</v>
       </c>
       <c r="B27" s="3">
-        <v>-854.38333333333321</v>
+        <v>-774.7833333333333</v>
       </c>
       <c r="C27" s="3">
-        <v>-842.23258333333342</v>
+        <v>-773.59425000033332</v>
       </c>
       <c r="D27" s="3">
-        <v>-829.97247658333356</v>
+        <v>-775.75779825033328</v>
       </c>
       <c r="E27" s="3">
-        <v>-817.60202887258379</v>
+        <v>-782.94627466258282</v>
       </c>
       <c r="F27" s="3">
-        <v>-805.12024713243716</v>
+        <v>-799.83339113454599</v>
       </c>
       <c r="G27" s="3">
-        <v>-792.52612935662955</v>
+        <v>-792.52612935662967</v>
       </c>
       <c r="H27" s="3">
-        <v>-779.81866452083932</v>
+        <v>-779.81866452083943</v>
       </c>
       <c r="I27" s="3">
-        <v>-766.99683250152691</v>
+        <v>-766.99683250152714</v>
       </c>
       <c r="J27" s="3">
-        <v>-754.05960399404057</v>
+        <v>-754.05960399404034</v>
       </c>
       <c r="K27" s="3">
-        <v>-741.0059404299875</v>
+        <v>-741.00594042998762</v>
       </c>
       <c r="L27" s="3">
-        <v>-727.83479389385741</v>
+        <v>-727.83479389385752</v>
       </c>
       <c r="M27" s="3">
         <v>-714.54510703890219</v>
       </c>
       <c r="N27" s="3">
-        <v>-701.13581300225269</v>
+        <v>-701.13581300225292</v>
       </c>
       <c r="O27" s="3">
-        <v>-687.60583531927318</v>
+        <v>-687.6058353192733</v>
       </c>
       <c r="P27" s="3">
-        <v>-673.95408783714663</v>
+        <v>-673.95408783714686</v>
       </c>
       <c r="Q27" s="3">
-        <v>-660.17947462768097</v>
+        <v>-660.17947462768075</v>
       </c>
       <c r="R27" s="3">
-        <v>-646.28088989933053</v>
+        <v>-646.28088989933076</v>
       </c>
       <c r="S27" s="3">
-        <v>-632.25721790842476</v>
+        <v>-632.25721790842499</v>
       </c>
       <c r="T27" s="3">
-        <v>-618.10733286960067</v>
+        <v>-618.10733286960101</v>
       </c>
       <c r="U27" s="3">
-        <v>-603.8300988654272</v>
+        <v>-603.83009886542743</v>
       </c>
       <c r="V27" s="3">
-        <v>-589.42436975521628</v>
+        <v>-589.42436975521662</v>
       </c>
       <c r="W27" s="3">
-        <v>-574.88898908301314</v>
+        <v>-574.88898908301326</v>
       </c>
       <c r="X27" s="3">
-        <v>-560.22278998476077</v>
+        <v>-560.22278998476111</v>
       </c>
       <c r="Y27" s="3">
-        <v>-545.42459509462378</v>
+        <v>-545.42459509462401</v>
       </c>
       <c r="Z27" s="3">
-        <v>-530.49321645047564</v>
+        <v>-530.49321645047598</v>
       </c>
       <c r="AA27" s="3">
-        <v>-515.42745539853036</v>
+        <v>-515.42745539853013</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.35">
@@ -2341,82 +2363,120 @@
         <v>3</v>
       </c>
       <c r="B28" s="3">
-        <v>71.466666666666697</v>
+        <v>94.066666666666649</v>
       </c>
       <c r="C28" s="3">
-        <v>68.607666666666546</v>
+        <v>70.245999999667106</v>
       </c>
       <c r="D28" s="3">
-        <v>65.722935666666558</v>
+        <v>52.937613999667178</v>
       </c>
       <c r="E28" s="3">
-        <v>62.812242087666618</v>
+        <v>45.484364982666079</v>
       </c>
       <c r="F28" s="3">
-        <v>59.875352266455707</v>
+        <v>57.231924267510067</v>
       </c>
       <c r="G28" s="3">
-        <v>56.912030436853456</v>
+        <v>56.912030436854138</v>
       </c>
       <c r="H28" s="3">
-        <v>53.922038710785273</v>
+        <v>53.922038710785728</v>
       </c>
       <c r="I28" s="3">
-        <v>50.905137059182493</v>
+        <v>50.905137059182834</v>
       </c>
       <c r="J28" s="3">
         <v>47.861083292715421</v>
       </c>
       <c r="K28" s="3">
-        <v>44.789633042349578</v>
+        <v>44.789633042350033</v>
       </c>
       <c r="L28" s="3">
-        <v>41.69053973973098</v>
+        <v>41.690539739731207</v>
       </c>
       <c r="M28" s="3">
-        <v>38.563554597388702</v>
+        <v>38.563554597388816</v>
       </c>
       <c r="N28" s="3">
-        <v>35.408426588764996</v>
+        <v>35.408426588765565</v>
       </c>
       <c r="O28" s="3">
-        <v>32.224902428063842</v>
+        <v>32.224902428064524</v>
       </c>
       <c r="P28" s="3">
-        <v>29.012726549916692</v>
+        <v>29.01272654991692</v>
       </c>
       <c r="Q28" s="3">
-        <v>25.77164108886609</v>
+        <v>25.771641088865863</v>
       </c>
       <c r="R28" s="3">
-        <v>22.501385858665572</v>
+        <v>22.50138585866614</v>
       </c>
       <c r="S28" s="3">
-        <v>19.201698331393573</v>
+        <v>19.201698331394255</v>
       </c>
       <c r="T28" s="3">
-        <v>15.872313616376232</v>
+        <v>15.8723136163768</v>
       </c>
       <c r="U28" s="3">
-        <v>12.512964438923632</v>
+        <v>12.5129644389242</v>
       </c>
       <c r="V28" s="3">
-        <v>9.1233811188740219</v>
+        <v>9.1233811188745904</v>
       </c>
       <c r="W28" s="3">
-        <v>5.7032915489440938</v>
+        <v>5.7032915489442075</v>
       </c>
       <c r="X28" s="3">
-        <v>2.2524211728843966</v>
+        <v>2.252421172884965</v>
       </c>
       <c r="Y28" s="3">
-        <v>-1.2295070365594256</v>
+        <v>-1.2295070365588572</v>
       </c>
       <c r="Z28" s="3">
-        <v>-4.7427725998885535</v>
+        <v>-4.7427725998878714</v>
       </c>
       <c r="AA28" s="3">
-        <v>-8.2876575532867491</v>
+        <v>-8.2876575532873176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="3">
+        <v>3274802.0340343192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/717A11_output.xlsx
+++ b/717A11_output.xlsx
@@ -15,26 +15,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="BusDemand">Sheet2!#REF!</definedName>
-    <definedName name="CH4_total">Sheet2!$B$36</definedName>
-    <definedName name="CO2_total">Sheet2!$B$35</definedName>
-    <definedName name="Gen">Sheet2!$B$3:$AA$22</definedName>
-    <definedName name="LineCapacity">Sheet2!#REF!</definedName>
-    <definedName name="LineFlow">Sheet2!$B$26:$AA$28</definedName>
-    <definedName name="LineFromBus">Sheet2!#REF!</definedName>
-    <definedName name="LineReactance">Sheet2!#REF!</definedName>
-    <definedName name="LineToBus">Sheet2!#REF!</definedName>
-    <definedName name="MarginalC">Sheet2!#REF!</definedName>
-    <definedName name="MaxGen">Sheet2!#REF!</definedName>
-    <definedName name="MinGen">Sheet2!#REF!</definedName>
-    <definedName name="N2O_total">Sheet2!$B$37</definedName>
-    <definedName name="NOx_total">Sheet2!$B$33</definedName>
-    <definedName name="NumBuses">Sheet2!#REF!</definedName>
-    <definedName name="NumLines">Sheet2!#REF!</definedName>
-    <definedName name="NumUnits">Sheet2!#REF!</definedName>
-    <definedName name="SO2_total">Sheet2!$B$34</definedName>
-    <definedName name="TotalCost">Sheet2!$B$30</definedName>
-    <definedName name="UnitsByBus">Sheet2!#REF!</definedName>
+    <definedName name="CH4_total">Sheet2!$B$56</definedName>
+    <definedName name="CO2_total">Sheet2!$B$55</definedName>
+    <definedName name="Gen">Sheet2!$B$3:$AA$42</definedName>
+    <definedName name="LineFlow">Sheet2!$B$46:$AA$48</definedName>
+    <definedName name="N2O_total">Sheet2!$B$57</definedName>
+    <definedName name="NOx_total">Sheet2!$B$53</definedName>
+    <definedName name="SO2_total">Sheet2!$B$54</definedName>
+    <definedName name="TotalCost">Sheet2!$B$50</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -569,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA37"/>
+  <dimension ref="A1:AA57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -866,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="11">
-        <v>0</v>
+        <v>20.483750609269187</v>
       </c>
       <c r="K5" s="11">
-        <v>0</v>
+        <v>38.555504364752068</v>
       </c>
       <c r="L5" s="11">
         <v>0</v>
@@ -1008,25 +996,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="10">
-        <v>339.19999999999982</v>
+        <v>197.39999999999978</v>
       </c>
       <c r="C7" s="11">
-        <v>392.08500000099912</v>
+        <v>240.28499999999914</v>
       </c>
       <c r="D7" s="11">
-        <v>435.35596500099882</v>
+        <v>283.55596499999888</v>
       </c>
       <c r="E7" s="11">
-        <v>464</v>
+        <v>327.21636868499832</v>
       </c>
       <c r="F7" s="11">
-        <v>464</v>
+        <v>371.26971600316318</v>
       </c>
       <c r="G7" s="11">
-        <v>464</v>
+        <v>415.7195434471916</v>
       </c>
       <c r="H7" s="11">
-        <v>464</v>
+        <v>460.56941933821616</v>
       </c>
       <c r="I7" s="11">
         <v>464</v>
@@ -1038,13 +1026,13 @@
         <v>464</v>
       </c>
       <c r="L7" s="11">
-        <v>464</v>
+        <v>367.04190390503413</v>
       </c>
       <c r="M7" s="11">
-        <v>464</v>
+        <v>413.94668104017018</v>
       </c>
       <c r="N7" s="11">
-        <v>464</v>
+        <v>461.27360116952258</v>
       </c>
       <c r="O7" s="11">
         <v>464</v>
@@ -1450,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="11">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L12" s="11">
         <v>0</v>
@@ -1672,82 +1660,82 @@
         <v>13</v>
       </c>
       <c r="B15" s="10">
+        <v>0</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0</v>
+      </c>
+      <c r="L15" s="11">
+        <v>276.99999999900001</v>
+      </c>
+      <c r="M15" s="11">
+        <v>276.99999999900001</v>
+      </c>
+      <c r="N15" s="11">
+        <v>276.99999999900001</v>
+      </c>
+      <c r="O15" s="11">
         <v>277</v>
       </c>
-      <c r="C15" s="11">
-        <v>276.99999999900001</v>
-      </c>
-      <c r="D15" s="11">
-        <v>276.99999999900001</v>
-      </c>
-      <c r="E15" s="11">
-        <v>277</v>
-      </c>
-      <c r="F15" s="11">
-        <v>277</v>
-      </c>
-      <c r="G15" s="11">
-        <v>313.51954344719161</v>
-      </c>
-      <c r="H15" s="11">
-        <v>358.36941933821618</v>
-      </c>
-      <c r="I15" s="11">
-        <v>403.62294411225957</v>
-      </c>
-      <c r="J15" s="11">
-        <v>449.28375060926919</v>
-      </c>
-      <c r="K15" s="11">
-        <v>495.35550436475205</v>
-      </c>
-      <c r="L15" s="11">
-        <v>541.84190390403455</v>
-      </c>
-      <c r="M15" s="11">
-        <v>588.74668103917065</v>
-      </c>
-      <c r="N15" s="11">
-        <v>636.07360116852306</v>
-      </c>
-      <c r="O15" s="11">
-        <v>683.82646357903923</v>
-      </c>
       <c r="P15" s="11">
-        <v>732.00910175125045</v>
+        <v>303.20910175125044</v>
       </c>
       <c r="Q15" s="11">
-        <v>780.62538366701028</v>
+        <v>351.82538366701033</v>
       </c>
       <c r="R15" s="11">
-        <v>829.67921212001329</v>
+        <v>400.87921212001322</v>
       </c>
       <c r="S15" s="11">
-        <v>879.17452502909282</v>
+        <v>450.37452502909287</v>
       </c>
       <c r="T15" s="11">
-        <v>929.11529575435407</v>
+        <v>500.315295754354</v>
       </c>
       <c r="U15" s="11">
-        <v>979.50553341614295</v>
+        <v>550.705533416143</v>
       </c>
       <c r="V15" s="11">
-        <v>1030.3492832168872</v>
+        <v>601.54928321688715</v>
       </c>
       <c r="W15" s="11">
-        <v>1081.6506267658383</v>
+        <v>652.85062676583823</v>
       </c>
       <c r="X15" s="11">
-        <v>1133.4136824067305</v>
+        <v>704.61368240673039</v>
       </c>
       <c r="Y15" s="11">
-        <v>1185.6426055483903</v>
+        <v>756.84260554839022</v>
       </c>
       <c r="Z15" s="11">
-        <v>1238.3415889983248</v>
+        <v>809.54158899832498</v>
       </c>
       <c r="AA15" s="12">
-        <v>1291.5148632993091</v>
+        <v>862.71486329930906</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.35">
@@ -1921,7 +1909,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C18" s="11">
         <v>0</v>
@@ -1930,19 +1918,19 @@
         <v>0</v>
       </c>
       <c r="E18" s="11">
-        <v>15.016368684998724</v>
+        <v>0</v>
       </c>
       <c r="F18" s="11">
-        <v>59.069716003163649</v>
+        <v>0</v>
       </c>
       <c r="G18" s="11">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="H18" s="11">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
-        <v>67</v>
+        <v>41.822944112259563</v>
       </c>
       <c r="J18" s="11">
         <v>67</v>
@@ -1951,16 +1939,16 @@
         <v>67</v>
       </c>
       <c r="L18" s="11">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="M18" s="11">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="N18" s="11">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="O18" s="11">
-        <v>67</v>
+        <v>45.026463579039273</v>
       </c>
       <c r="P18" s="11">
         <v>67</v>
@@ -2252,395 +2240,2055 @@
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="13">
-        <v>0</v>
-      </c>
-      <c r="C22" s="14">
-        <v>0</v>
-      </c>
-      <c r="D22" s="14">
-        <v>0</v>
-      </c>
-      <c r="E22" s="14">
-        <v>0</v>
-      </c>
-      <c r="F22" s="14">
-        <v>0</v>
-      </c>
-      <c r="G22" s="14">
-        <v>0</v>
-      </c>
-      <c r="H22" s="14">
-        <v>0</v>
-      </c>
-      <c r="I22" s="14">
-        <v>0</v>
-      </c>
-      <c r="J22" s="14">
-        <v>0</v>
-      </c>
-      <c r="K22" s="14">
-        <v>0</v>
-      </c>
-      <c r="L22" s="14">
-        <v>0</v>
-      </c>
-      <c r="M22" s="14">
-        <v>0</v>
-      </c>
-      <c r="N22" s="14">
-        <v>0</v>
-      </c>
-      <c r="O22" s="14">
-        <v>0</v>
-      </c>
-      <c r="P22" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="14">
-        <v>0</v>
-      </c>
-      <c r="R22" s="14">
-        <v>0</v>
-      </c>
-      <c r="S22" s="14">
-        <v>0</v>
-      </c>
-      <c r="T22" s="14">
-        <v>0</v>
-      </c>
-      <c r="U22" s="14">
-        <v>0</v>
-      </c>
-      <c r="V22" s="14">
-        <v>0</v>
-      </c>
-      <c r="W22" s="14">
-        <v>0</v>
-      </c>
-      <c r="X22" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="15">
-        <v>0</v>
+      <c r="B22" s="10">
+        <v>0</v>
+      </c>
+      <c r="C22" s="11">
+        <v>0</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0</v>
+      </c>
+      <c r="J22" s="11">
+        <v>0</v>
+      </c>
+      <c r="K22" s="11">
+        <v>0</v>
+      </c>
+      <c r="L22" s="11">
+        <v>0</v>
+      </c>
+      <c r="M22" s="11">
+        <v>0</v>
+      </c>
+      <c r="N22" s="11">
+        <v>0</v>
+      </c>
+      <c r="O22" s="11">
+        <v>0</v>
+      </c>
+      <c r="P22" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>0</v>
+      </c>
+      <c r="R22" s="11">
+        <v>0</v>
+      </c>
+      <c r="S22" s="11">
+        <v>0</v>
+      </c>
+      <c r="T22" s="11">
+        <v>0</v>
+      </c>
+      <c r="U22" s="11">
+        <v>0</v>
+      </c>
+      <c r="V22" s="11">
+        <v>0</v>
+      </c>
+      <c r="W22" s="11">
+        <v>0</v>
+      </c>
+      <c r="X22" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="10">
+        <v>28.1</v>
+      </c>
+      <c r="C23" s="11">
+        <v>28.1</v>
+      </c>
+      <c r="D23" s="11">
+        <v>28.1</v>
+      </c>
+      <c r="E23" s="11">
+        <v>28.1</v>
+      </c>
+      <c r="F23" s="11">
+        <v>28.1</v>
+      </c>
+      <c r="G23" s="11">
+        <v>28.100000000000009</v>
+      </c>
+      <c r="H23" s="11">
+        <v>28.100000000000009</v>
+      </c>
+      <c r="I23" s="11">
+        <v>28.100000000000009</v>
+      </c>
+      <c r="J23" s="11">
+        <v>28.100000000000009</v>
+      </c>
+      <c r="K23" s="11">
+        <v>28.100000000000009</v>
+      </c>
+      <c r="L23" s="11">
+        <v>28.100000000000009</v>
+      </c>
+      <c r="M23" s="11">
+        <v>28.099999999999994</v>
+      </c>
+      <c r="N23" s="11">
+        <v>28.099999999999994</v>
+      </c>
+      <c r="O23" s="11">
+        <v>28.1</v>
+      </c>
+      <c r="P23" s="11">
+        <v>28.100000000000009</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>28.1</v>
+      </c>
+      <c r="R23" s="11">
+        <v>28.100000000000009</v>
+      </c>
+      <c r="S23" s="11">
+        <v>28.099999999999994</v>
+      </c>
+      <c r="T23" s="11">
+        <v>28.100000000000009</v>
+      </c>
+      <c r="U23" s="11">
+        <v>28.099999999999994</v>
+      </c>
+      <c r="V23" s="11">
+        <v>28.1</v>
+      </c>
+      <c r="W23" s="11">
+        <v>28.099999999999994</v>
+      </c>
+      <c r="X23" s="11">
+        <v>28.1</v>
+      </c>
+      <c r="Y23" s="11">
+        <v>28.099999999999994</v>
+      </c>
+      <c r="Z23" s="11">
+        <v>28.099999999999994</v>
+      </c>
+      <c r="AA23" s="12">
+        <v>28.1</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="10">
+        <v>25</v>
+      </c>
+      <c r="C24" s="11">
+        <v>25</v>
+      </c>
+      <c r="D24" s="11">
+        <v>25</v>
+      </c>
+      <c r="E24" s="11">
+        <v>25</v>
+      </c>
+      <c r="F24" s="11">
+        <v>25</v>
+      </c>
+      <c r="G24" s="11">
+        <v>25</v>
+      </c>
+      <c r="H24" s="11">
+        <v>25</v>
+      </c>
+      <c r="I24" s="11">
+        <v>25</v>
+      </c>
+      <c r="J24" s="11">
+        <v>25</v>
+      </c>
+      <c r="K24" s="11">
+        <v>25</v>
+      </c>
+      <c r="L24" s="11">
+        <v>25</v>
+      </c>
+      <c r="M24" s="11">
+        <v>25</v>
+      </c>
+      <c r="N24" s="11">
+        <v>25</v>
+      </c>
+      <c r="O24" s="11">
+        <v>25</v>
+      </c>
+      <c r="P24" s="11">
+        <v>25</v>
+      </c>
+      <c r="Q24" s="11">
+        <v>25</v>
+      </c>
+      <c r="R24" s="11">
+        <v>25</v>
+      </c>
+      <c r="S24" s="11">
+        <v>25</v>
+      </c>
+      <c r="T24" s="11">
+        <v>25</v>
+      </c>
+      <c r="U24" s="11">
+        <v>25</v>
+      </c>
+      <c r="V24" s="11">
+        <v>25</v>
+      </c>
+      <c r="W24" s="11">
+        <v>25</v>
+      </c>
+      <c r="X24" s="11">
+        <v>25</v>
+      </c>
+      <c r="Y24" s="11">
+        <v>25</v>
+      </c>
+      <c r="Z24" s="11">
+        <v>25</v>
+      </c>
+      <c r="AA24" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="10">
+        <v>70</v>
+      </c>
+      <c r="C25" s="11">
+        <v>70</v>
+      </c>
+      <c r="D25" s="11">
+        <v>70</v>
+      </c>
+      <c r="E25" s="11">
+        <v>70</v>
+      </c>
+      <c r="F25" s="11">
+        <v>70</v>
+      </c>
+      <c r="G25" s="11">
+        <v>70</v>
+      </c>
+      <c r="H25" s="11">
+        <v>70</v>
+      </c>
+      <c r="I25" s="11">
+        <v>70</v>
+      </c>
+      <c r="J25" s="11">
+        <v>70</v>
+      </c>
+      <c r="K25" s="11">
+        <v>70</v>
+      </c>
+      <c r="L25" s="11">
+        <v>70</v>
+      </c>
+      <c r="M25" s="11">
+        <v>70</v>
+      </c>
+      <c r="N25" s="11">
+        <v>70</v>
+      </c>
+      <c r="O25" s="11">
+        <v>70</v>
+      </c>
+      <c r="P25" s="11">
+        <v>70</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>70</v>
+      </c>
+      <c r="R25" s="11">
+        <v>70</v>
+      </c>
+      <c r="S25" s="11">
+        <v>70</v>
+      </c>
+      <c r="T25" s="11">
+        <v>70</v>
+      </c>
+      <c r="U25" s="11">
+        <v>70</v>
+      </c>
+      <c r="V25" s="11">
+        <v>70</v>
+      </c>
+      <c r="W25" s="11">
+        <v>70</v>
+      </c>
+      <c r="X25" s="11">
+        <v>70</v>
+      </c>
+      <c r="Y25" s="11">
+        <v>70</v>
+      </c>
+      <c r="Z25" s="11">
+        <v>70</v>
+      </c>
+      <c r="AA25" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="10">
+        <v>30.6</v>
+      </c>
+      <c r="C26" s="11">
+        <v>30.6</v>
+      </c>
+      <c r="D26" s="11">
+        <v>30.6</v>
+      </c>
+      <c r="E26" s="11">
+        <v>30.6</v>
+      </c>
+      <c r="F26" s="11">
+        <v>30.6</v>
+      </c>
+      <c r="G26" s="11">
+        <v>30.6</v>
+      </c>
+      <c r="H26" s="11">
+        <v>30.6</v>
+      </c>
+      <c r="I26" s="11">
+        <v>30.6</v>
+      </c>
+      <c r="J26" s="11">
+        <v>30.6</v>
+      </c>
+      <c r="K26" s="11">
+        <v>30.599999999999998</v>
+      </c>
+      <c r="L26" s="11">
+        <v>30.6</v>
+      </c>
+      <c r="M26" s="11">
+        <v>30.6</v>
+      </c>
+      <c r="N26" s="11">
+        <v>30.6</v>
+      </c>
+      <c r="O26" s="11">
+        <v>30.6</v>
+      </c>
+      <c r="P26" s="11">
+        <v>30.6</v>
+      </c>
+      <c r="Q26" s="11">
+        <v>30.6</v>
+      </c>
+      <c r="R26" s="11">
+        <v>30.6</v>
+      </c>
+      <c r="S26" s="11">
+        <v>30.6</v>
+      </c>
+      <c r="T26" s="11">
+        <v>30.599999999999998</v>
+      </c>
+      <c r="U26" s="11">
+        <v>30.599999999999998</v>
+      </c>
+      <c r="V26" s="11">
+        <v>30.6</v>
+      </c>
+      <c r="W26" s="11">
+        <v>30.6</v>
+      </c>
+      <c r="X26" s="11">
+        <v>30.6</v>
+      </c>
+      <c r="Y26" s="11">
+        <v>30.6</v>
+      </c>
+      <c r="Z26" s="11">
+        <v>30.6</v>
+      </c>
+      <c r="AA26" s="12">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="10">
+        <v>10.000000000000014</v>
+      </c>
+      <c r="C27" s="11">
+        <v>10</v>
+      </c>
+      <c r="D27" s="11">
+        <v>10</v>
+      </c>
+      <c r="E27" s="11">
+        <v>10</v>
+      </c>
+      <c r="F27" s="11">
+        <v>10</v>
+      </c>
+      <c r="G27" s="11">
+        <v>10</v>
+      </c>
+      <c r="H27" s="11">
+        <v>10</v>
+      </c>
+      <c r="I27" s="11">
+        <v>10</v>
+      </c>
+      <c r="J27" s="11">
+        <v>10</v>
+      </c>
+      <c r="K27" s="11">
+        <v>10</v>
+      </c>
+      <c r="L27" s="11">
+        <v>10</v>
+      </c>
+      <c r="M27" s="11">
+        <v>10</v>
+      </c>
+      <c r="N27" s="11">
+        <v>10</v>
+      </c>
+      <c r="O27" s="11">
+        <v>10</v>
+      </c>
+      <c r="P27" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>10</v>
+      </c>
+      <c r="R27" s="11">
+        <v>10</v>
+      </c>
+      <c r="S27" s="11">
+        <v>10</v>
+      </c>
+      <c r="T27" s="11">
+        <v>10</v>
+      </c>
+      <c r="U27" s="11">
+        <v>10</v>
+      </c>
+      <c r="V27" s="11">
+        <v>10</v>
+      </c>
+      <c r="W27" s="11">
+        <v>10</v>
+      </c>
+      <c r="X27" s="11">
+        <v>10</v>
+      </c>
+      <c r="Y27" s="11">
+        <v>10</v>
+      </c>
+      <c r="Z27" s="11">
+        <v>10</v>
+      </c>
+      <c r="AA27" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="10">
+        <v>10</v>
+      </c>
+      <c r="C28" s="11">
+        <v>10</v>
+      </c>
+      <c r="D28" s="11">
+        <v>10</v>
+      </c>
+      <c r="E28" s="11">
+        <v>10</v>
+      </c>
+      <c r="F28" s="11">
+        <v>10</v>
+      </c>
+      <c r="G28" s="11">
+        <v>10</v>
+      </c>
+      <c r="H28" s="11">
+        <v>10</v>
+      </c>
+      <c r="I28" s="11">
+        <v>10</v>
+      </c>
+      <c r="J28" s="11">
+        <v>10</v>
+      </c>
+      <c r="K28" s="11">
+        <v>10</v>
+      </c>
+      <c r="L28" s="11">
+        <v>10</v>
+      </c>
+      <c r="M28" s="11">
+        <v>10</v>
+      </c>
+      <c r="N28" s="11">
+        <v>10</v>
+      </c>
+      <c r="O28" s="11">
+        <v>10</v>
+      </c>
+      <c r="P28" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="11">
+        <v>10</v>
+      </c>
+      <c r="R28" s="11">
+        <v>10</v>
+      </c>
+      <c r="S28" s="11">
+        <v>10</v>
+      </c>
+      <c r="T28" s="11">
+        <v>10</v>
+      </c>
+      <c r="U28" s="11">
+        <v>10</v>
+      </c>
+      <c r="V28" s="11">
+        <v>10</v>
+      </c>
+      <c r="W28" s="11">
+        <v>10</v>
+      </c>
+      <c r="X28" s="11">
+        <v>10</v>
+      </c>
+      <c r="Y28" s="11">
+        <v>10</v>
+      </c>
+      <c r="Z28" s="11">
+        <v>10</v>
+      </c>
+      <c r="AA28" s="12">
+        <v>9.9999999999999929</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="10">
+        <v>10</v>
+      </c>
+      <c r="C29" s="11">
+        <v>10</v>
+      </c>
+      <c r="D29" s="11">
+        <v>10</v>
+      </c>
+      <c r="E29" s="11">
+        <v>10</v>
+      </c>
+      <c r="F29" s="11">
+        <v>10</v>
+      </c>
+      <c r="G29" s="11">
+        <v>10</v>
+      </c>
+      <c r="H29" s="11">
+        <v>10</v>
+      </c>
+      <c r="I29" s="11">
+        <v>10</v>
+      </c>
+      <c r="J29" s="11">
+        <v>10</v>
+      </c>
+      <c r="K29" s="11">
+        <v>10</v>
+      </c>
+      <c r="L29" s="11">
+        <v>10</v>
+      </c>
+      <c r="M29" s="11">
+        <v>10</v>
+      </c>
+      <c r="N29" s="11">
+        <v>10</v>
+      </c>
+      <c r="O29" s="11">
+        <v>10</v>
+      </c>
+      <c r="P29" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>10</v>
+      </c>
+      <c r="R29" s="11">
+        <v>10</v>
+      </c>
+      <c r="S29" s="11">
+        <v>10</v>
+      </c>
+      <c r="T29" s="11">
+        <v>10</v>
+      </c>
+      <c r="U29" s="11">
+        <v>10</v>
+      </c>
+      <c r="V29" s="11">
+        <v>10</v>
+      </c>
+      <c r="W29" s="11">
+        <v>10</v>
+      </c>
+      <c r="X29" s="11">
+        <v>10</v>
+      </c>
+      <c r="Y29" s="11">
+        <v>10</v>
+      </c>
+      <c r="Z29" s="11">
+        <v>10</v>
+      </c>
+      <c r="AA29" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="10">
+        <v>52.2</v>
+      </c>
+      <c r="C30" s="11">
+        <v>52.20000000000001</v>
+      </c>
+      <c r="D30" s="11">
+        <v>52.20000000000001</v>
+      </c>
+      <c r="E30" s="11">
+        <v>52.20000000000001</v>
+      </c>
+      <c r="F30" s="11">
+        <v>52.20000000000001</v>
+      </c>
+      <c r="G30" s="11">
+        <v>52.2</v>
+      </c>
+      <c r="H30" s="11">
+        <v>52.2</v>
+      </c>
+      <c r="I30" s="11">
+        <v>52.2</v>
+      </c>
+      <c r="J30" s="11">
+        <v>52.2</v>
+      </c>
+      <c r="K30" s="11">
+        <v>52.2</v>
+      </c>
+      <c r="L30" s="11">
+        <v>52.2</v>
+      </c>
+      <c r="M30" s="11">
+        <v>52.200000000000017</v>
+      </c>
+      <c r="N30" s="11">
+        <v>52.200000000000017</v>
+      </c>
+      <c r="O30" s="11">
+        <v>52.20000000000001</v>
+      </c>
+      <c r="P30" s="11">
+        <v>52.2</v>
+      </c>
+      <c r="Q30" s="11">
+        <v>52.20000000000001</v>
+      </c>
+      <c r="R30" s="11">
+        <v>52.2</v>
+      </c>
+      <c r="S30" s="11">
+        <v>52.200000000000017</v>
+      </c>
+      <c r="T30" s="11">
+        <v>52.2</v>
+      </c>
+      <c r="U30" s="11">
+        <v>52.200000000000017</v>
+      </c>
+      <c r="V30" s="11">
+        <v>52.20000000000001</v>
+      </c>
+      <c r="W30" s="11">
+        <v>52.200000000000017</v>
+      </c>
+      <c r="X30" s="11">
+        <v>52.20000000000001</v>
+      </c>
+      <c r="Y30" s="11">
+        <v>52.2</v>
+      </c>
+      <c r="Z30" s="11">
+        <v>52.199999999999989</v>
+      </c>
+      <c r="AA30" s="12">
+        <v>52.200000000000017</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="10">
+        <v>10</v>
+      </c>
+      <c r="C31" s="11">
+        <v>10</v>
+      </c>
+      <c r="D31" s="11">
+        <v>10</v>
+      </c>
+      <c r="E31" s="11">
+        <v>10</v>
+      </c>
+      <c r="F31" s="11">
+        <v>10</v>
+      </c>
+      <c r="G31" s="11">
+        <v>10</v>
+      </c>
+      <c r="H31" s="11">
+        <v>10</v>
+      </c>
+      <c r="I31" s="11">
+        <v>10</v>
+      </c>
+      <c r="J31" s="11">
+        <v>10</v>
+      </c>
+      <c r="K31" s="11">
+        <v>10</v>
+      </c>
+      <c r="L31" s="11">
+        <v>10</v>
+      </c>
+      <c r="M31" s="11">
+        <v>10</v>
+      </c>
+      <c r="N31" s="11">
+        <v>10</v>
+      </c>
+      <c r="O31" s="11">
+        <v>10</v>
+      </c>
+      <c r="P31" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="11">
+        <v>10</v>
+      </c>
+      <c r="R31" s="11">
+        <v>10</v>
+      </c>
+      <c r="S31" s="11">
+        <v>10</v>
+      </c>
+      <c r="T31" s="11">
+        <v>10</v>
+      </c>
+      <c r="U31" s="11">
+        <v>10</v>
+      </c>
+      <c r="V31" s="11">
+        <v>10</v>
+      </c>
+      <c r="W31" s="11">
+        <v>10</v>
+      </c>
+      <c r="X31" s="11">
+        <v>10</v>
+      </c>
+      <c r="Y31" s="11">
+        <v>10</v>
+      </c>
+      <c r="Z31" s="11">
+        <v>10</v>
+      </c>
+      <c r="AA31" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="10">
+        <v>20.200000000000003</v>
+      </c>
+      <c r="C32" s="11">
+        <v>20.200000000000003</v>
+      </c>
+      <c r="D32" s="11">
+        <v>20.2</v>
+      </c>
+      <c r="E32" s="11">
+        <v>20.200000000000003</v>
+      </c>
+      <c r="F32" s="11">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="G32" s="11">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="H32" s="11">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="I32" s="11">
+        <v>20.200000000000003</v>
+      </c>
+      <c r="J32" s="11">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="K32" s="11">
+        <v>20.2</v>
+      </c>
+      <c r="L32" s="11">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="M32" s="11">
+        <v>20.2</v>
+      </c>
+      <c r="N32" s="11">
+        <v>20.2</v>
+      </c>
+      <c r="O32" s="11">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="P32" s="11">
+        <v>20.200000000000003</v>
+      </c>
+      <c r="Q32" s="11">
+        <v>20.2</v>
+      </c>
+      <c r="R32" s="11">
+        <v>20.200000000000003</v>
+      </c>
+      <c r="S32" s="11">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="T32" s="11">
+        <v>20.2</v>
+      </c>
+      <c r="U32" s="11">
+        <v>20.2</v>
+      </c>
+      <c r="V32" s="11">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="W32" s="11">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="X32" s="11">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="Y32" s="11">
+        <v>20.200000000000003</v>
+      </c>
+      <c r="Z32" s="11">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="AA32" s="12">
+        <v>20.199999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="10">
+        <v>70</v>
+      </c>
+      <c r="C33" s="11">
+        <v>70</v>
+      </c>
+      <c r="D33" s="11">
+        <v>70</v>
+      </c>
+      <c r="E33" s="11">
+        <v>70</v>
+      </c>
+      <c r="F33" s="11">
+        <v>70</v>
+      </c>
+      <c r="G33" s="11">
+        <v>70</v>
+      </c>
+      <c r="H33" s="11">
+        <v>70</v>
+      </c>
+      <c r="I33" s="11">
+        <v>70</v>
+      </c>
+      <c r="J33" s="11">
+        <v>70</v>
+      </c>
+      <c r="K33" s="11">
+        <v>70</v>
+      </c>
+      <c r="L33" s="11">
+        <v>70</v>
+      </c>
+      <c r="M33" s="11">
+        <v>70</v>
+      </c>
+      <c r="N33" s="11">
+        <v>70</v>
+      </c>
+      <c r="O33" s="11">
+        <v>70</v>
+      </c>
+      <c r="P33" s="11">
+        <v>70</v>
+      </c>
+      <c r="Q33" s="11">
+        <v>70</v>
+      </c>
+      <c r="R33" s="11">
+        <v>70</v>
+      </c>
+      <c r="S33" s="11">
+        <v>70</v>
+      </c>
+      <c r="T33" s="11">
+        <v>70</v>
+      </c>
+      <c r="U33" s="11">
+        <v>70</v>
+      </c>
+      <c r="V33" s="11">
+        <v>70</v>
+      </c>
+      <c r="W33" s="11">
+        <v>70</v>
+      </c>
+      <c r="X33" s="11">
+        <v>70</v>
+      </c>
+      <c r="Y33" s="11">
+        <v>70</v>
+      </c>
+      <c r="Z33" s="11">
+        <v>70</v>
+      </c>
+      <c r="AA33" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="10">
+        <v>10.5</v>
+      </c>
+      <c r="C34" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="D34" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="E34" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="F34" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="G34" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="H34" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="I34" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="J34" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="K34" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="L34" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="M34" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="N34" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="O34" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="P34" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="R34" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="S34" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="T34" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="U34" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="V34" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="W34" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="X34" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="Y34" s="11">
+        <v>10.499999999999986</v>
+      </c>
+      <c r="Z34" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="AA34" s="12">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="10">
+        <v>9.9999999999999929</v>
+      </c>
+      <c r="C35" s="11">
+        <v>10</v>
+      </c>
+      <c r="D35" s="11">
+        <v>10</v>
+      </c>
+      <c r="E35" s="11">
+        <v>10</v>
+      </c>
+      <c r="F35" s="11">
+        <v>10</v>
+      </c>
+      <c r="G35" s="11">
+        <v>10</v>
+      </c>
+      <c r="H35" s="11">
+        <v>10</v>
+      </c>
+      <c r="I35" s="11">
+        <v>10</v>
+      </c>
+      <c r="J35" s="11">
+        <v>10</v>
+      </c>
+      <c r="K35" s="11">
+        <v>10</v>
+      </c>
+      <c r="L35" s="11">
+        <v>10</v>
+      </c>
+      <c r="M35" s="11">
+        <v>10</v>
+      </c>
+      <c r="N35" s="11">
+        <v>10</v>
+      </c>
+      <c r="O35" s="11">
+        <v>10</v>
+      </c>
+      <c r="P35" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="11">
+        <v>10</v>
+      </c>
+      <c r="R35" s="11">
+        <v>10</v>
+      </c>
+      <c r="S35" s="11">
+        <v>10</v>
+      </c>
+      <c r="T35" s="11">
+        <v>10</v>
+      </c>
+      <c r="U35" s="11">
+        <v>10</v>
+      </c>
+      <c r="V35" s="11">
+        <v>10</v>
+      </c>
+      <c r="W35" s="11">
+        <v>10</v>
+      </c>
+      <c r="X35" s="11">
+        <v>10</v>
+      </c>
+      <c r="Y35" s="11">
+        <v>10</v>
+      </c>
+      <c r="Z35" s="11">
+        <v>10</v>
+      </c>
+      <c r="AA35" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="10">
+        <v>10</v>
+      </c>
+      <c r="C36" s="11">
+        <v>10</v>
+      </c>
+      <c r="D36" s="11">
+        <v>10</v>
+      </c>
+      <c r="E36" s="11">
+        <v>10</v>
+      </c>
+      <c r="F36" s="11">
+        <v>10</v>
+      </c>
+      <c r="G36" s="11">
+        <v>10</v>
+      </c>
+      <c r="H36" s="11">
+        <v>10</v>
+      </c>
+      <c r="I36" s="11">
+        <v>10</v>
+      </c>
+      <c r="J36" s="11">
+        <v>10</v>
+      </c>
+      <c r="K36" s="11">
+        <v>10</v>
+      </c>
+      <c r="L36" s="11">
+        <v>10</v>
+      </c>
+      <c r="M36" s="11">
+        <v>10</v>
+      </c>
+      <c r="N36" s="11">
+        <v>10</v>
+      </c>
+      <c r="O36" s="11">
+        <v>10</v>
+      </c>
+      <c r="P36" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>10</v>
+      </c>
+      <c r="R36" s="11">
+        <v>10</v>
+      </c>
+      <c r="S36" s="11">
+        <v>10</v>
+      </c>
+      <c r="T36" s="11">
+        <v>10</v>
+      </c>
+      <c r="U36" s="11">
+        <v>10</v>
+      </c>
+      <c r="V36" s="11">
+        <v>10</v>
+      </c>
+      <c r="W36" s="11">
+        <v>10</v>
+      </c>
+      <c r="X36" s="11">
+        <v>10</v>
+      </c>
+      <c r="Y36" s="11">
+        <v>10</v>
+      </c>
+      <c r="Z36" s="11">
+        <v>10</v>
+      </c>
+      <c r="AA36" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="10">
+        <v>10</v>
+      </c>
+      <c r="C37" s="11">
+        <v>10</v>
+      </c>
+      <c r="D37" s="11">
+        <v>10</v>
+      </c>
+      <c r="E37" s="11">
+        <v>10</v>
+      </c>
+      <c r="F37" s="11">
+        <v>10</v>
+      </c>
+      <c r="G37" s="11">
+        <v>10</v>
+      </c>
+      <c r="H37" s="11">
+        <v>10</v>
+      </c>
+      <c r="I37" s="11">
+        <v>10</v>
+      </c>
+      <c r="J37" s="11">
+        <v>10</v>
+      </c>
+      <c r="K37" s="11">
+        <v>10</v>
+      </c>
+      <c r="L37" s="11">
+        <v>10</v>
+      </c>
+      <c r="M37" s="11">
+        <v>10</v>
+      </c>
+      <c r="N37" s="11">
+        <v>10</v>
+      </c>
+      <c r="O37" s="11">
+        <v>10</v>
+      </c>
+      <c r="P37" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="11">
+        <v>10</v>
+      </c>
+      <c r="R37" s="11">
+        <v>10</v>
+      </c>
+      <c r="S37" s="11">
+        <v>10</v>
+      </c>
+      <c r="T37" s="11">
+        <v>10</v>
+      </c>
+      <c r="U37" s="11">
+        <v>10.000000000000002</v>
+      </c>
+      <c r="V37" s="11">
+        <v>10</v>
+      </c>
+      <c r="W37" s="11">
+        <v>10</v>
+      </c>
+      <c r="X37" s="11">
+        <v>10</v>
+      </c>
+      <c r="Y37" s="11">
+        <v>10</v>
+      </c>
+      <c r="Z37" s="11">
+        <v>10</v>
+      </c>
+      <c r="AA37" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="10">
+        <v>10</v>
+      </c>
+      <c r="C38" s="11">
+        <v>10</v>
+      </c>
+      <c r="D38" s="11">
+        <v>10</v>
+      </c>
+      <c r="E38" s="11">
+        <v>10</v>
+      </c>
+      <c r="F38" s="11">
+        <v>10</v>
+      </c>
+      <c r="G38" s="11">
+        <v>10</v>
+      </c>
+      <c r="H38" s="11">
+        <v>10</v>
+      </c>
+      <c r="I38" s="11">
+        <v>10</v>
+      </c>
+      <c r="J38" s="11">
+        <v>10</v>
+      </c>
+      <c r="K38" s="11">
+        <v>10</v>
+      </c>
+      <c r="L38" s="11">
+        <v>10</v>
+      </c>
+      <c r="M38" s="11">
+        <v>10</v>
+      </c>
+      <c r="N38" s="11">
+        <v>9.9999999999999929</v>
+      </c>
+      <c r="O38" s="11">
+        <v>10</v>
+      </c>
+      <c r="P38" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="11">
+        <v>10</v>
+      </c>
+      <c r="R38" s="11">
+        <v>10</v>
+      </c>
+      <c r="S38" s="11">
+        <v>10</v>
+      </c>
+      <c r="T38" s="11">
+        <v>10</v>
+      </c>
+      <c r="U38" s="11">
+        <v>10</v>
+      </c>
+      <c r="V38" s="11">
+        <v>10</v>
+      </c>
+      <c r="W38" s="11">
+        <v>10</v>
+      </c>
+      <c r="X38" s="11">
+        <v>10</v>
+      </c>
+      <c r="Y38" s="11">
+        <v>10</v>
+      </c>
+      <c r="Z38" s="11">
+        <v>10</v>
+      </c>
+      <c r="AA38" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="10">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="C39" s="11">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="D39" s="11">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="E39" s="11">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="F39" s="11">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="G39" s="11">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="H39" s="11">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="I39" s="11">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="J39" s="11">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="K39" s="11">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="L39" s="11">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="M39" s="11">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="N39" s="11">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="O39" s="11">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="P39" s="11">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="Q39" s="11">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="R39" s="11">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="S39" s="11">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="T39" s="11">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="U39" s="11">
+        <v>10.1</v>
+      </c>
+      <c r="V39" s="11">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="W39" s="11">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="X39" s="11">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="Y39" s="11">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="Z39" s="11">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="AA39" s="12">
+        <v>10.099999999999994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="10">
+        <v>10.1</v>
+      </c>
+      <c r="C40" s="11">
+        <v>10.1</v>
+      </c>
+      <c r="D40" s="11">
+        <v>10.099999999999998</v>
+      </c>
+      <c r="E40" s="11">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="F40" s="11">
+        <v>10.1</v>
+      </c>
+      <c r="G40" s="11">
+        <v>10.1</v>
+      </c>
+      <c r="H40" s="11">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="I40" s="11">
+        <v>10.1</v>
+      </c>
+      <c r="J40" s="11">
+        <v>10.1</v>
+      </c>
+      <c r="K40" s="11">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="L40" s="11">
+        <v>10.1</v>
+      </c>
+      <c r="M40" s="11">
+        <v>10.099999999999998</v>
+      </c>
+      <c r="N40" s="11">
+        <v>10.099999999999998</v>
+      </c>
+      <c r="O40" s="11">
+        <v>10.1</v>
+      </c>
+      <c r="P40" s="11">
+        <v>10.1</v>
+      </c>
+      <c r="Q40" s="11">
+        <v>10.099999999999998</v>
+      </c>
+      <c r="R40" s="11">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="S40" s="11">
+        <v>10.1</v>
+      </c>
+      <c r="T40" s="11">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="U40" s="11">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="V40" s="11">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="W40" s="11">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="X40" s="11">
+        <v>10.1</v>
+      </c>
+      <c r="Y40" s="11">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="Z40" s="11">
+        <v>10.1</v>
+      </c>
+      <c r="AA40" s="12">
+        <v>10.100000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="10">
+        <v>10</v>
+      </c>
+      <c r="C41" s="11">
+        <v>10</v>
+      </c>
+      <c r="D41" s="11">
+        <v>10</v>
+      </c>
+      <c r="E41" s="11">
+        <v>10</v>
+      </c>
+      <c r="F41" s="11">
+        <v>10</v>
+      </c>
+      <c r="G41" s="11">
+        <v>10</v>
+      </c>
+      <c r="H41" s="11">
+        <v>10</v>
+      </c>
+      <c r="I41" s="11">
+        <v>10</v>
+      </c>
+      <c r="J41" s="11">
+        <v>10</v>
+      </c>
+      <c r="K41" s="11">
+        <v>10</v>
+      </c>
+      <c r="L41" s="11">
+        <v>10</v>
+      </c>
+      <c r="M41" s="11">
+        <v>10</v>
+      </c>
+      <c r="N41" s="11">
+        <v>10</v>
+      </c>
+      <c r="O41" s="11">
+        <v>10</v>
+      </c>
+      <c r="P41" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q41" s="11">
+        <v>10</v>
+      </c>
+      <c r="R41" s="11">
+        <v>10</v>
+      </c>
+      <c r="S41" s="11">
+        <v>10</v>
+      </c>
+      <c r="T41" s="11">
+        <v>10</v>
+      </c>
+      <c r="U41" s="11">
+        <v>10</v>
+      </c>
+      <c r="V41" s="11">
+        <v>10</v>
+      </c>
+      <c r="W41" s="11">
+        <v>10</v>
+      </c>
+      <c r="X41" s="11">
+        <v>10</v>
+      </c>
+      <c r="Y41" s="11">
+        <v>10</v>
+      </c>
+      <c r="Z41" s="11">
+        <v>10</v>
+      </c>
+      <c r="AA41" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="13">
+        <v>12</v>
+      </c>
+      <c r="C42" s="14">
+        <v>12</v>
+      </c>
+      <c r="D42" s="14">
+        <v>12</v>
+      </c>
+      <c r="E42" s="14">
+        <v>12</v>
+      </c>
+      <c r="F42" s="14">
+        <v>12</v>
+      </c>
+      <c r="G42" s="14">
+        <v>12</v>
+      </c>
+      <c r="H42" s="14">
+        <v>12</v>
+      </c>
+      <c r="I42" s="14">
+        <v>12</v>
+      </c>
+      <c r="J42" s="14">
+        <v>12</v>
+      </c>
+      <c r="K42" s="14">
+        <v>12</v>
+      </c>
+      <c r="L42" s="14">
+        <v>12</v>
+      </c>
+      <c r="M42" s="14">
+        <v>12</v>
+      </c>
+      <c r="N42" s="14">
+        <v>12</v>
+      </c>
+      <c r="O42" s="14">
+        <v>12</v>
+      </c>
+      <c r="P42" s="14">
+        <v>12</v>
+      </c>
+      <c r="Q42" s="14">
+        <v>12</v>
+      </c>
+      <c r="R42" s="14">
+        <v>12</v>
+      </c>
+      <c r="S42" s="14">
+        <v>12</v>
+      </c>
+      <c r="T42" s="14">
+        <v>12</v>
+      </c>
+      <c r="U42" s="14">
+        <v>12</v>
+      </c>
+      <c r="V42" s="14">
+        <v>12</v>
+      </c>
+      <c r="W42" s="14">
+        <v>12</v>
+      </c>
+      <c r="X42" s="14">
+        <v>12</v>
+      </c>
+      <c r="Y42" s="14">
+        <v>12</v>
+      </c>
+      <c r="Z42" s="14">
+        <v>12</v>
+      </c>
+      <c r="AA42" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="7">
-        <v>680.71666666666647</v>
-      </c>
-      <c r="C26" s="8">
-        <v>703.34825000066633</v>
-      </c>
-      <c r="D26" s="8">
-        <v>722.82018425066622</v>
-      </c>
-      <c r="E26" s="8">
-        <v>737.4619096799164</v>
-      </c>
-      <c r="F26" s="8">
-        <v>742.6014668670357</v>
-      </c>
-      <c r="G26" s="8">
-        <v>735.61409891977507</v>
-      </c>
-      <c r="H26" s="8">
-        <v>725.89662581005314</v>
-      </c>
-      <c r="I26" s="8">
-        <v>716.09169544234373</v>
-      </c>
-      <c r="J26" s="8">
-        <v>706.19852070132504</v>
-      </c>
-      <c r="K26" s="8">
-        <v>696.21630738763702</v>
-      </c>
-      <c r="L26" s="8">
-        <v>686.14425415412586</v>
-      </c>
-      <c r="M26" s="8">
-        <v>675.98155244151303</v>
-      </c>
-      <c r="N26" s="8">
-        <v>665.72738641348667</v>
-      </c>
-      <c r="O26" s="8">
-        <v>655.38093289120809</v>
-      </c>
-      <c r="P26" s="8">
-        <v>644.94136128722903</v>
-      </c>
-      <c r="Q26" s="8">
-        <v>634.40783353881454</v>
-      </c>
-      <c r="R26" s="8">
-        <v>623.77950404066382</v>
-      </c>
-      <c r="S26" s="8">
-        <v>613.05551957702994</v>
-      </c>
-      <c r="T26" s="8">
-        <v>602.23501925322341</v>
-      </c>
-      <c r="U26" s="8">
-        <v>591.31713442650243</v>
-      </c>
-      <c r="V26" s="8">
-        <v>580.30098863634123</v>
-      </c>
-      <c r="W26" s="8">
-        <v>569.18569753406848</v>
-      </c>
-      <c r="X26" s="8">
-        <v>557.97036881187523</v>
-      </c>
-      <c r="Y26" s="8">
-        <v>546.65410213118219</v>
-      </c>
-      <c r="Z26" s="8">
-        <v>535.23598905036306</v>
-      </c>
-      <c r="AA26" s="9">
-        <v>523.71511295181665</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="B46" s="7">
+        <v>739.88333333333321</v>
+      </c>
+      <c r="C46" s="8">
+        <v>759.18158333333292</v>
+      </c>
+      <c r="D46" s="8">
+        <v>778.65351758333293</v>
+      </c>
+      <c r="E46" s="8">
+        <v>798.30069924158261</v>
+      </c>
+      <c r="F46" s="8">
+        <v>818.12470553475669</v>
+      </c>
+      <c r="G46" s="8">
+        <v>838.12712788456952</v>
+      </c>
+      <c r="H46" s="8">
+        <v>858.30957203553066</v>
+      </c>
+      <c r="I46" s="8">
+        <v>864.73267681309699</v>
+      </c>
+      <c r="J46" s="8">
+        <v>876.88768777417124</v>
+      </c>
+      <c r="K46" s="8">
+        <v>878.95331029747183</v>
+      </c>
+      <c r="L46" s="8">
+        <v>756.20552342414862</v>
+      </c>
+      <c r="M46" s="8">
+        <v>777.31267313495971</v>
+      </c>
+      <c r="N46" s="8">
+        <v>798.60978719316847</v>
+      </c>
+      <c r="O46" s="8">
+        <v>805.08975408422134</v>
+      </c>
+      <c r="P46" s="8">
+        <v>801.97469462056245</v>
+      </c>
+      <c r="Q46" s="8">
+        <v>791.44116687214762</v>
+      </c>
+      <c r="R46" s="8">
+        <v>780.81283737399713</v>
+      </c>
+      <c r="S46" s="8">
+        <v>770.08885291036313</v>
+      </c>
+      <c r="T46" s="8">
+        <v>759.26835258655649</v>
+      </c>
+      <c r="U46" s="8">
+        <v>748.35046775983562</v>
+      </c>
+      <c r="V46" s="8">
+        <v>737.33432196967442</v>
+      </c>
+      <c r="W46" s="8">
+        <v>726.21903086740167</v>
+      </c>
+      <c r="X46" s="8">
+        <v>715.00370214520831</v>
+      </c>
+      <c r="Y46" s="8">
+        <v>703.68743546451526</v>
+      </c>
+      <c r="Z46" s="8">
+        <v>692.26932238369625</v>
+      </c>
+      <c r="AA46" s="9">
+        <v>680.74844628514961</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="10">
-        <v>-774.7833333333333</v>
-      </c>
-      <c r="C27" s="11">
-        <v>-773.59425000033332</v>
-      </c>
-      <c r="D27" s="11">
-        <v>-775.75779825033328</v>
-      </c>
-      <c r="E27" s="11">
-        <v>-782.94627466258282</v>
-      </c>
-      <c r="F27" s="11">
-        <v>-799.83339113454599</v>
-      </c>
-      <c r="G27" s="11">
-        <v>-792.52612935662921</v>
-      </c>
-      <c r="H27" s="11">
-        <v>-779.81866452083887</v>
-      </c>
-      <c r="I27" s="11">
-        <v>-766.99683250152657</v>
-      </c>
-      <c r="J27" s="11">
-        <v>-754.05960399404046</v>
-      </c>
-      <c r="K27" s="11">
-        <v>-741.00594042998705</v>
-      </c>
-      <c r="L27" s="11">
-        <v>-727.83479389385695</v>
-      </c>
-      <c r="M27" s="11">
-        <v>-714.54510703890173</v>
-      </c>
-      <c r="N27" s="11">
-        <v>-701.13581300225189</v>
-      </c>
-      <c r="O27" s="11">
-        <v>-687.60583531927239</v>
-      </c>
-      <c r="P27" s="11">
-        <v>-673.95408783714583</v>
-      </c>
-      <c r="Q27" s="11">
-        <v>-660.17947462768086</v>
-      </c>
-      <c r="R27" s="11">
-        <v>-646.28088989932962</v>
-      </c>
-      <c r="S27" s="11">
-        <v>-632.25721790842397</v>
-      </c>
-      <c r="T27" s="11">
-        <v>-618.10733286959987</v>
-      </c>
-      <c r="U27" s="11">
-        <v>-603.83009886542641</v>
-      </c>
-      <c r="V27" s="11">
-        <v>-589.42436975521548</v>
-      </c>
-      <c r="W27" s="11">
-        <v>-574.88898908301269</v>
-      </c>
-      <c r="X27" s="11">
-        <v>-560.22278998475986</v>
-      </c>
-      <c r="Y27" s="11">
-        <v>-545.42459509462299</v>
-      </c>
-      <c r="Z27" s="11">
-        <v>-530.49321645047485</v>
-      </c>
-      <c r="AA27" s="12">
-        <v>-515.42745539852899</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="B47" s="10">
+        <v>-829.81666666666661</v>
+      </c>
+      <c r="C47" s="11">
+        <v>-831.96091666666655</v>
+      </c>
+      <c r="D47" s="11">
+        <v>-834.12446491666651</v>
+      </c>
+      <c r="E47" s="11">
+        <v>-836.30748510091655</v>
+      </c>
+      <c r="F47" s="11">
+        <v>-838.51015246682482</v>
+      </c>
+      <c r="G47" s="11">
+        <v>-840.73264383902608</v>
+      </c>
+      <c r="H47" s="11">
+        <v>-842.97513763357745</v>
+      </c>
+      <c r="I47" s="11">
+        <v>-859.17879524303282</v>
+      </c>
+      <c r="J47" s="11">
+        <v>-869.85418753046338</v>
+      </c>
+      <c r="K47" s="11">
+        <v>-862.82444188490433</v>
+      </c>
+      <c r="L47" s="11">
+        <v>-759.81542852886821</v>
+      </c>
+      <c r="M47" s="11">
+        <v>-762.16066738562506</v>
+      </c>
+      <c r="N47" s="11">
+        <v>-764.52701339209261</v>
+      </c>
+      <c r="O47" s="11">
+        <v>-781.92347770529841</v>
+      </c>
+      <c r="P47" s="11">
+        <v>-782.92075450381242</v>
+      </c>
+      <c r="Q47" s="11">
+        <v>-769.14614129434688</v>
+      </c>
+      <c r="R47" s="11">
+        <v>-755.24755656599632</v>
+      </c>
+      <c r="S47" s="11">
+        <v>-741.22388457509032</v>
+      </c>
+      <c r="T47" s="11">
+        <v>-727.07399953626634</v>
+      </c>
+      <c r="U47" s="11">
+        <v>-712.79676553209265</v>
+      </c>
+      <c r="V47" s="11">
+        <v>-698.39103642188184</v>
+      </c>
+      <c r="W47" s="11">
+        <v>-683.85565574967893</v>
+      </c>
+      <c r="X47" s="11">
+        <v>-669.18945665142633</v>
+      </c>
+      <c r="Y47" s="11">
+        <v>-654.39126176128912</v>
+      </c>
+      <c r="Z47" s="11">
+        <v>-639.4598831171412</v>
+      </c>
+      <c r="AA47" s="12">
+        <v>-624.39412206519546</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="13">
-        <v>94.066666666666649</v>
-      </c>
-      <c r="C28" s="14">
-        <v>70.245999999666992</v>
-      </c>
-      <c r="D28" s="14">
-        <v>52.937613999667178</v>
-      </c>
-      <c r="E28" s="14">
-        <v>45.484364982666079</v>
-      </c>
-      <c r="F28" s="14">
-        <v>57.23192426751018</v>
-      </c>
-      <c r="G28" s="14">
-        <v>56.912030436853797</v>
-      </c>
-      <c r="H28" s="14">
-        <v>53.9220387107855</v>
-      </c>
-      <c r="I28" s="14">
-        <v>50.905137059182607</v>
-      </c>
-      <c r="J28" s="14">
-        <v>47.861083292715421</v>
-      </c>
-      <c r="K28" s="14">
-        <v>44.789633042349806</v>
-      </c>
-      <c r="L28" s="14">
-        <v>41.69053973973098</v>
-      </c>
-      <c r="M28" s="14">
-        <v>38.563554597388588</v>
-      </c>
-      <c r="N28" s="14">
-        <v>35.40842658876511</v>
-      </c>
-      <c r="O28" s="14">
-        <v>32.224902428063956</v>
-      </c>
-      <c r="P28" s="14">
-        <v>29.012726549916579</v>
-      </c>
-      <c r="Q28" s="14">
-        <v>25.771641088866204</v>
-      </c>
-      <c r="R28" s="14">
-        <v>22.501385858665799</v>
-      </c>
-      <c r="S28" s="14">
-        <v>19.201698331393914</v>
-      </c>
-      <c r="T28" s="14">
-        <v>15.872313616376573</v>
-      </c>
-      <c r="U28" s="14">
-        <v>12.512964438923859</v>
-      </c>
-      <c r="V28" s="14">
-        <v>9.123381118874363</v>
-      </c>
-      <c r="W28" s="14">
-        <v>5.7032915489442075</v>
-      </c>
-      <c r="X28" s="14">
-        <v>2.2524211728848513</v>
-      </c>
-      <c r="Y28" s="14">
-        <v>-1.2295070365591982</v>
-      </c>
-      <c r="Z28" s="14">
-        <v>-4.7427725998882124</v>
-      </c>
-      <c r="AA28" s="15">
-        <v>-8.2876575532876018</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+      <c r="B48" s="13">
+        <v>89.933333333333337</v>
+      </c>
+      <c r="C48" s="14">
+        <v>72.779333333333653</v>
+      </c>
+      <c r="D48" s="14">
+        <v>55.470947333333761</v>
+      </c>
+      <c r="E48" s="14">
+        <v>38.006785859334016</v>
+      </c>
+      <c r="F48" s="14">
+        <v>20.385446932068067</v>
+      </c>
+      <c r="G48" s="14">
+        <v>2.6055159544566679</v>
+      </c>
+      <c r="H48" s="14">
+        <v>-15.33443440195313</v>
+      </c>
+      <c r="I48" s="14">
+        <v>-5.553881570064191</v>
+      </c>
+      <c r="J48" s="14">
+        <v>-7.0335002437076826</v>
+      </c>
+      <c r="K48" s="14">
+        <v>-16.128868412567478</v>
+      </c>
+      <c r="L48" s="14">
+        <v>3.6099051047196911</v>
+      </c>
+      <c r="M48" s="14">
+        <v>-15.152005749334828</v>
+      </c>
+      <c r="N48" s="14">
+        <v>-34.082773801075675</v>
+      </c>
+      <c r="O48" s="14">
+        <v>-23.166276378922863</v>
+      </c>
+      <c r="P48" s="14">
+        <v>-19.053940116749999</v>
+      </c>
+      <c r="Q48" s="14">
+        <v>-22.29502557780075</v>
+      </c>
+      <c r="R48" s="14">
+        <v>-25.565280808000871</v>
+      </c>
+      <c r="S48" s="14">
+        <v>-28.864968335272888</v>
+      </c>
+      <c r="T48" s="14">
+        <v>-32.194353050290324</v>
+      </c>
+      <c r="U48" s="14">
+        <v>-35.553702227743003</v>
+      </c>
+      <c r="V48" s="14">
+        <v>-38.943285547792499</v>
+      </c>
+      <c r="W48" s="14">
+        <v>-42.363375117722669</v>
+      </c>
+      <c r="X48" s="14">
+        <v>-45.814245493782046</v>
+      </c>
+      <c r="Y48" s="14">
+        <v>-49.296173703226145</v>
+      </c>
+      <c r="Z48" s="14">
+        <v>-52.809439266555053</v>
+      </c>
+      <c r="AA48" s="15">
+        <v>-56.35432421995408</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="3">
-        <v>3274802.0340343202</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+      <c r="B50" s="3">
+        <v>2984434.2658852255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="4">
-        <v>159356.40751318654</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="4">
+        <v>133480.4640845384</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="5">
-        <v>42675.177221961967</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
+      <c r="B54" s="5">
+        <v>37397.35954357584</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="5">
-        <v>242162106.74134582</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
+      <c r="B55" s="5">
+        <v>215741460.0598028</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="5">
-        <v>20736.701973587995</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
+      <c r="B56" s="5">
+        <v>18005.859222547522</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="6">
-        <v>2964.9311146407326</v>
+      <c r="B57" s="6">
+        <v>2566.7184018013213</v>
       </c>
     </row>
   </sheetData>

--- a/717A11_output.xlsx
+++ b/717A11_output.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CH4_total">Sheet2!$B$57:$AA$57</definedName>
-    <definedName name="CO2_total">Sheet2!$B$56:$AA$56</definedName>
-    <definedName name="Gen">Sheet2!$B$3:$AA$42</definedName>
-    <definedName name="LineFlow">Sheet2!$B$46:$AA$48</definedName>
-    <definedName name="N2O_total">Sheet2!$B$58:$AA$58</definedName>
-    <definedName name="NOx_total">Sheet2!$B$54:$AA$54</definedName>
-    <definedName name="SO2_total">Sheet2!$B$55:$AA$55</definedName>
-    <definedName name="TotalCost">Sheet2!$B$51:$AA$51</definedName>
+    <definedName name="CH4_total">Sheet2!$B$59:$AA$59</definedName>
+    <definedName name="CO2_total">Sheet2!$B$58:$AA$58</definedName>
+    <definedName name="Gen">Sheet2!$B$3:$AA$44</definedName>
+    <definedName name="LineFlow">Sheet2!$B$48:$AA$50</definedName>
+    <definedName name="N2O_total">Sheet2!$B$60:$AA$60</definedName>
+    <definedName name="NOx_total">Sheet2!$B$56:$AA$56</definedName>
+    <definedName name="SO2_total">Sheet2!$B$57:$AA$57</definedName>
+    <definedName name="TotalCost">Sheet2!$B$53:$AA$53</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Line</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>Discounted Total Cost (t=0)</t>
+  </si>
+  <si>
+    <t>*New Solar</t>
+  </si>
+  <si>
+    <t>*New Wind</t>
   </si>
 </sst>
 </file>
@@ -603,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB58"/>
+  <dimension ref="A1:AB60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF32" sqref="AF32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -710,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <v>365.04891975213604</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
@@ -743,22 +749,22 @@
         <v>0</v>
       </c>
       <c r="M3" s="4">
-        <v>0</v>
+        <v>481.45168914065289</v>
       </c>
       <c r="N3" s="4">
-        <v>0</v>
+        <v>464.33476455688356</v>
       </c>
       <c r="O3" s="4">
-        <v>0</v>
+        <v>409.03162304285524</v>
       </c>
       <c r="P3" s="4">
-        <v>0</v>
+        <v>332.65396798141501</v>
       </c>
       <c r="Q3" s="4">
-        <v>0</v>
+        <v>350.60922019104152</v>
       </c>
       <c r="R3" s="4">
-        <v>0</v>
+        <v>-5.6843418860808015E-13</v>
       </c>
       <c r="S3" s="4">
         <v>0</v>
@@ -767,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="U3" s="4">
-        <v>0</v>
+        <v>107.2575114466056</v>
       </c>
       <c r="V3" s="4">
         <v>0</v>
@@ -793,22 +799,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="C4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="F4" s="7">
-        <v>665.6</v>
+        <v>163.6497444789718</v>
       </c>
       <c r="G4" s="7">
-        <v>665.6</v>
+        <v>524.84030747409724</v>
       </c>
       <c r="H4" s="7">
         <v>665.6</v>
@@ -897,61 +903,61 @@
         <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>24.086418477904772</v>
       </c>
       <c r="J5" s="7">
-        <v>20.48375060926918</v>
+        <v>46.5</v>
       </c>
       <c r="K5" s="7">
-        <v>38.555504364752039</v>
+        <v>46.5</v>
       </c>
       <c r="L5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="O5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="P5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="Q5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="R5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="S5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="T5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="U5" s="7">
         <v>0</v>
       </c>
       <c r="V5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="W5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="X5" s="7">
-        <v>0</v>
+        <v>30.616411473329208</v>
       </c>
       <c r="Y5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="Z5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="AA5" s="8">
-        <v>0</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.35">
@@ -959,13 +965,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="C6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>212</v>
+        <v>187.72274980598741</v>
       </c>
       <c r="E6" s="7">
         <v>212</v>
@@ -1042,25 +1048,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>197.39999999999984</v>
+        <v>0</v>
       </c>
       <c r="C7" s="7">
-        <v>240.28499999999914</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>283.55596499999888</v>
+        <v>70</v>
       </c>
       <c r="E7" s="7">
-        <v>327.21636868499832</v>
+        <v>0</v>
       </c>
       <c r="F7" s="7">
-        <v>371.26971600316324</v>
+        <v>0</v>
       </c>
       <c r="G7" s="7">
-        <v>415.71954344719165</v>
+        <v>0</v>
       </c>
       <c r="H7" s="7">
-        <v>460.56941933821622</v>
+        <v>212.33606232690681</v>
       </c>
       <c r="I7" s="7">
         <v>464</v>
@@ -1072,13 +1078,13 @@
         <v>464</v>
       </c>
       <c r="L7" s="7">
-        <v>367.04190390503413</v>
+        <v>464</v>
       </c>
       <c r="M7" s="7">
-        <v>413.94668104017023</v>
+        <v>464</v>
       </c>
       <c r="N7" s="7">
-        <v>461.27360116952264</v>
+        <v>464</v>
       </c>
       <c r="O7" s="7">
         <v>464</v>
@@ -1155,28 +1161,28 @@
         <v>0</v>
       </c>
       <c r="L8" s="7">
-        <v>0</v>
+        <v>86.672646369179233</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="O8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="P8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="Q8" s="7">
         <v>0</v>
       </c>
       <c r="R8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="S8" s="7">
-        <v>0</v>
+        <v>95.959789929334946</v>
       </c>
       <c r="T8" s="7">
         <v>0</v>
@@ -1208,10 +1214,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="6">
-        <v>84.6</v>
+        <v>0</v>
       </c>
       <c r="C9" s="7">
-        <v>84.6</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
         <v>84.6</v>
@@ -1318,46 +1324,46 @@
         <v>0</v>
       </c>
       <c r="K10" s="7">
-        <v>0</v>
+        <v>67.712631081779591</v>
       </c>
       <c r="L10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="O10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="P10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="Q10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="R10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="S10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="T10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="U10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="V10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="W10" s="7">
-        <v>0</v>
+        <v>30.452766434035766</v>
       </c>
       <c r="X10" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y10" s="7">
         <v>0</v>
@@ -1374,16 +1380,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="6">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="C11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7">
-        <v>650</v>
+        <v>437.04936810761319</v>
       </c>
       <c r="F11" s="7">
         <v>650</v>
@@ -1460,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>33.205480803073442</v>
       </c>
       <c r="D12" s="7">
         <v>0</v>
@@ -1481,58 +1487,58 @@
         <v>0</v>
       </c>
       <c r="J12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="K12" s="7">
-        <v>28</v>
+        <v>186</v>
       </c>
       <c r="L12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="O12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="P12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="Q12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="R12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="S12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="T12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="U12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="V12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="W12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="X12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="Y12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="Z12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="AA12" s="8">
-        <v>0</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
@@ -1570,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="L13" s="7">
-        <v>0</v>
+        <v>23.000000000000281</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="O13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="P13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="Q13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="R13" s="7">
-        <v>0</v>
+        <v>122.06589880278398</v>
       </c>
       <c r="S13" s="7">
         <v>0</v>
@@ -1650,46 +1656,46 @@
         <v>0</v>
       </c>
       <c r="K14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="O14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="P14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="Q14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="R14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="S14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="T14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="U14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="V14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="W14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="X14" s="7">
-        <v>0</v>
+        <v>145.49727093340192</v>
       </c>
       <c r="Y14" s="7">
         <v>0</v>
@@ -1706,25 +1712,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="6">
-        <v>0</v>
+        <v>1848</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
+        <v>1848</v>
       </c>
       <c r="D15" s="7">
-        <v>0</v>
+        <v>1553.4332151940112</v>
       </c>
       <c r="E15" s="7">
-        <v>0</v>
+        <v>1205.767000577385</v>
       </c>
       <c r="F15" s="7">
-        <v>0</v>
+        <v>873.21997152419135</v>
       </c>
       <c r="G15" s="7">
-        <v>0</v>
+        <v>556.47923597309432</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="I15" s="7">
         <v>0</v>
@@ -1736,52 +1742,52 @@
         <v>0</v>
       </c>
       <c r="L15" s="7">
-        <v>276.99999999900001</v>
+        <v>0</v>
       </c>
       <c r="M15" s="7">
-        <v>276.99999999900001</v>
+        <v>0</v>
       </c>
       <c r="N15" s="7">
-        <v>276.99999999900001</v>
+        <v>0</v>
       </c>
       <c r="O15" s="7">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="P15" s="7">
-        <v>303.2091017512505</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="7">
-        <v>351.82538366701033</v>
+        <v>0</v>
       </c>
       <c r="R15" s="7">
-        <v>400.87921212001334</v>
+        <v>0</v>
       </c>
       <c r="S15" s="7">
-        <v>450.37452502909287</v>
+        <v>0</v>
       </c>
       <c r="T15" s="7">
-        <v>500.31529575435411</v>
+        <v>0</v>
       </c>
       <c r="U15" s="7">
-        <v>550.705533416143</v>
+        <v>0</v>
       </c>
       <c r="V15" s="7">
-        <v>601.54928321688726</v>
+        <v>0</v>
       </c>
       <c r="W15" s="7">
-        <v>652.85062676583834</v>
+        <v>0</v>
       </c>
       <c r="X15" s="7">
-        <v>704.6136824067305</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="7">
-        <v>756.84260554839034</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="7">
-        <v>809.54158899832487</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="8">
-        <v>862.71486329930917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.35">
@@ -1813,58 +1819,58 @@
         <v>0</v>
       </c>
       <c r="J16" s="7">
-        <v>0</v>
+        <v>317.66336542315139</v>
       </c>
       <c r="K16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="L16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="O16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="P16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="Q16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="R16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="S16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="T16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="U16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="V16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="W16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="X16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="Y16" s="7">
-        <v>0</v>
+        <v>611.94260554839025</v>
       </c>
       <c r="Z16" s="7">
-        <v>0</v>
+        <v>553.64158899832455</v>
       </c>
       <c r="AA16" s="8">
-        <v>0</v>
+        <v>436.81486329930931</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.35">
@@ -1902,31 +1908,31 @@
         <v>0</v>
       </c>
       <c r="L17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="O17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="P17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="Q17" s="7">
-        <v>0</v>
+        <v>48.91616347596937</v>
       </c>
       <c r="R17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="S17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="T17" s="7">
-        <v>0</v>
+        <v>12.949799968483603</v>
       </c>
       <c r="U17" s="7">
         <v>0</v>
@@ -1976,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>41.822944112259563</v>
+        <v>67</v>
       </c>
       <c r="J18" s="7">
         <v>67</v>
@@ -1985,16 +1991,16 @@
         <v>67</v>
       </c>
       <c r="L18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="O18" s="7">
-        <v>45.026463579039273</v>
+        <v>67</v>
       </c>
       <c r="P18" s="7">
         <v>67</v>
@@ -2062,58 +2068,58 @@
         <v>257</v>
       </c>
       <c r="J19" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="K19" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="L19" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="M19" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>257</v>
+        <v>238.83883661163964</v>
       </c>
       <c r="O19" s="7">
-        <v>257</v>
+        <v>141.89484053618463</v>
       </c>
       <c r="P19" s="7">
-        <v>257</v>
+        <v>66.455133769835811</v>
       </c>
       <c r="Q19" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="R19" s="7">
-        <v>257</v>
+        <v>78.713313317228454</v>
       </c>
       <c r="S19" s="7">
-        <v>257</v>
+        <v>55.814735099758309</v>
       </c>
       <c r="T19" s="7">
-        <v>257</v>
+        <v>39.065495785870404</v>
       </c>
       <c r="U19" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="V19" s="7">
-        <v>257</v>
+        <v>40.989870779806267</v>
       </c>
       <c r="W19" s="7">
-        <v>257</v>
+        <v>60.39786033180259</v>
       </c>
       <c r="X19" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="7">
-        <v>257</v>
+        <v>39</v>
       </c>
       <c r="Z19" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="AA19" s="8">
-        <v>257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.35">
@@ -2139,64 +2145,64 @@
         <v>2269.6</v>
       </c>
       <c r="H20" s="7">
-        <v>2269.6</v>
+        <v>2240.8333570113091</v>
       </c>
       <c r="I20" s="7">
-        <v>2269.6</v>
+        <v>2220.3365256343545</v>
       </c>
       <c r="J20" s="7">
-        <v>2269.6</v>
+        <v>1996.9203851861175</v>
       </c>
       <c r="K20" s="7">
-        <v>2269.6</v>
+        <v>1486.8428732829725</v>
       </c>
       <c r="L20" s="7">
-        <v>2269.6</v>
+        <v>954.76925753485523</v>
       </c>
       <c r="M20" s="7">
-        <v>2269.6</v>
+        <v>374.39499189851779</v>
       </c>
       <c r="N20" s="7">
-        <v>2269.6</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7">
-        <v>2269.6</v>
+        <v>0</v>
       </c>
       <c r="P20" s="7">
-        <v>2269.6</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="7">
-        <v>2269.6</v>
+        <v>0</v>
       </c>
       <c r="R20" s="7">
-        <v>2269.6</v>
+        <v>-1.1368683772161603E-13</v>
       </c>
       <c r="S20" s="7">
-        <v>2269.6</v>
+        <v>0</v>
       </c>
       <c r="T20" s="7">
-        <v>2269.6</v>
+        <v>0</v>
       </c>
       <c r="U20" s="7">
-        <v>2269.6</v>
+        <v>0</v>
       </c>
       <c r="V20" s="7">
-        <v>2269.6</v>
+        <v>0</v>
       </c>
       <c r="W20" s="7">
-        <v>2269.6</v>
+        <v>0</v>
       </c>
       <c r="X20" s="7">
-        <v>2269.6</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="7">
-        <v>2269.6</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="7">
-        <v>2269.6</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="8">
-        <v>2269.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.35">
@@ -2204,7 +2210,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6">
-        <v>0</v>
+        <v>25.351080247864047</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -2317,37 +2323,37 @@
         <v>0</v>
       </c>
       <c r="L22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="O22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="P22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="Q22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="R22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="S22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="T22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="U22" s="7">
-        <v>0</v>
+        <v>239.94802196953606</v>
       </c>
       <c r="V22" s="7">
-        <v>0</v>
+        <v>110.55941243708094</v>
       </c>
       <c r="W22" s="7">
         <v>0</v>
@@ -2370,10 +2376,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="6">
-        <v>28.1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="7">
-        <v>28.1</v>
+        <v>28.100000000000009</v>
       </c>
       <c r="D23" s="7">
         <v>28.1</v>
@@ -2385,58 +2391,58 @@
         <v>28.1</v>
       </c>
       <c r="G23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.099999999999994</v>
       </c>
       <c r="H23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.099999999999994</v>
       </c>
       <c r="I23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.1</v>
       </c>
       <c r="J23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.099999999999994</v>
       </c>
       <c r="K23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.1</v>
       </c>
       <c r="L23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.1</v>
       </c>
       <c r="M23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.1</v>
       </c>
       <c r="N23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.1</v>
       </c>
       <c r="O23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.1</v>
       </c>
       <c r="P23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.1</v>
       </c>
       <c r="Q23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.1</v>
       </c>
       <c r="R23" s="7">
         <v>28.100000000000009</v>
       </c>
       <c r="S23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.1</v>
       </c>
       <c r="T23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.1</v>
       </c>
       <c r="U23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.1</v>
       </c>
       <c r="V23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.1</v>
       </c>
       <c r="W23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.1</v>
       </c>
       <c r="X23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.1</v>
       </c>
       <c r="Y23" s="7">
         <v>28.1</v>
@@ -2453,7 +2459,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="6">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C24" s="7">
         <v>25</v>
@@ -2536,7 +2542,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="6">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C25" s="7">
         <v>70</v>
@@ -2619,10 +2625,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="6">
-        <v>30.6</v>
+        <v>0</v>
       </c>
       <c r="C26" s="7">
-        <v>30.6</v>
+        <v>1.8795191969259548</v>
       </c>
       <c r="D26" s="7">
         <v>30.6</v>
@@ -2631,7 +2637,7 @@
         <v>30.6</v>
       </c>
       <c r="F26" s="7">
-        <v>30.6</v>
+        <v>30.599999999999998</v>
       </c>
       <c r="G26" s="7">
         <v>30.6</v>
@@ -2643,7 +2649,7 @@
         <v>30.6</v>
       </c>
       <c r="J26" s="7">
-        <v>30.6</v>
+        <v>30.599999999999998</v>
       </c>
       <c r="K26" s="7">
         <v>30.6</v>
@@ -2670,7 +2676,7 @@
         <v>30.6</v>
       </c>
       <c r="S26" s="7">
-        <v>30.6</v>
+        <v>30.599999999999998</v>
       </c>
       <c r="T26" s="7">
         <v>30.6</v>
@@ -2702,7 +2708,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C27" s="7">
         <v>10</v>
@@ -2723,7 +2729,7 @@
         <v>10</v>
       </c>
       <c r="I27" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="J27" s="7">
         <v>10</v>
@@ -2756,7 +2762,7 @@
         <v>10</v>
       </c>
       <c r="T27" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="U27" s="7">
         <v>10</v>
@@ -2785,7 +2791,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C28" s="7">
         <v>10</v>
@@ -2868,7 +2874,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C29" s="7">
         <v>10</v>
@@ -2877,7 +2883,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="F29" s="7">
         <v>10</v>
@@ -2898,7 +2904,7 @@
         <v>10</v>
       </c>
       <c r="L29" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -2913,7 +2919,7 @@
         <v>10</v>
       </c>
       <c r="Q29" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="R29" s="7">
         <v>10</v>
@@ -2951,10 +2957,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="6">
-        <v>52.200000000000017</v>
+        <v>0</v>
       </c>
       <c r="C30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.2</v>
       </c>
       <c r="D30" s="7">
         <v>52.200000000000017</v>
@@ -2963,64 +2969,64 @@
         <v>52.200000000000017</v>
       </c>
       <c r="F30" s="7">
+        <v>52.2</v>
+      </c>
+      <c r="G30" s="7">
         <v>52.200000000000017</v>
       </c>
-      <c r="G30" s="7">
-        <v>52.2</v>
-      </c>
       <c r="H30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="I30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="J30" s="7">
         <v>52.2</v>
       </c>
       <c r="K30" s="7">
-        <v>52.2</v>
+        <v>52.20000000000001</v>
       </c>
       <c r="L30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="M30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="N30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="O30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="P30" s="7">
-        <v>52.2</v>
+        <v>52.20000000000001</v>
       </c>
       <c r="Q30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="R30" s="7">
         <v>52.2</v>
       </c>
       <c r="S30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="T30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="U30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="V30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="W30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="X30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="Y30" s="7">
-        <v>52.20000000000001</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="Z30" s="7">
         <v>52.2</v>
@@ -3034,13 +3040,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C31" s="7">
         <v>10</v>
       </c>
       <c r="D31" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="E31" s="7">
         <v>10</v>
@@ -3067,7 +3073,7 @@
         <v>10</v>
       </c>
       <c r="M31" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="N31" s="7">
         <v>10</v>
@@ -3085,7 +3091,7 @@
         <v>10</v>
       </c>
       <c r="S31" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="T31" s="7">
         <v>10</v>
@@ -3100,10 +3106,10 @@
         <v>10</v>
       </c>
       <c r="X31" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="Y31" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="Z31" s="7">
         <v>10</v>
@@ -3117,7 +3123,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="6">
-        <v>20.2</v>
+        <v>0</v>
       </c>
       <c r="C32" s="7">
         <v>20.2</v>
@@ -3135,13 +3141,13 @@
         <v>20.200000000000003</v>
       </c>
       <c r="H32" s="7">
-        <v>20.200000000000003</v>
+        <v>20.2</v>
       </c>
       <c r="I32" s="7">
-        <v>20.200000000000003</v>
+        <v>20.2</v>
       </c>
       <c r="J32" s="7">
-        <v>20.200000000000003</v>
+        <v>20.2</v>
       </c>
       <c r="K32" s="7">
         <v>20.200000000000003</v>
@@ -3153,7 +3159,7 @@
         <v>20.200000000000003</v>
       </c>
       <c r="N32" s="7">
-        <v>20.200000000000003</v>
+        <v>20.2</v>
       </c>
       <c r="O32" s="7">
         <v>20.200000000000003</v>
@@ -3165,16 +3171,16 @@
         <v>20.200000000000003</v>
       </c>
       <c r="R32" s="7">
-        <v>20.200000000000003</v>
+        <v>20.2</v>
       </c>
       <c r="S32" s="7">
-        <v>20.200000000000003</v>
+        <v>20.2</v>
       </c>
       <c r="T32" s="7">
         <v>20.200000000000003</v>
       </c>
       <c r="U32" s="7">
-        <v>20.200000000000003</v>
+        <v>20.2</v>
       </c>
       <c r="V32" s="7">
         <v>20.200000000000003</v>
@@ -3189,18 +3195,18 @@
         <v>20.200000000000003</v>
       </c>
       <c r="Z32" s="7">
-        <v>20.199999999999996</v>
+        <v>20.2</v>
       </c>
       <c r="AA32" s="8">
-        <v>20.199999999999996</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+        <v>20.200000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" s="6">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C33" s="7">
         <v>70</v>
@@ -3278,21 +3284,21 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" s="6">
-        <v>10.499999999999993</v>
+        <v>0</v>
       </c>
       <c r="C34" s="7">
-        <v>10.499999999999993</v>
+        <v>10.5</v>
       </c>
       <c r="D34" s="7">
-        <v>10.499999999999993</v>
+        <v>10.5</v>
       </c>
       <c r="E34" s="7">
-        <v>10.499999999999993</v>
+        <v>10.5</v>
       </c>
       <c r="F34" s="7">
         <v>10.499999999999993</v>
@@ -3340,10 +3346,10 @@
         <v>10.5</v>
       </c>
       <c r="U34" s="7">
-        <v>10.5</v>
+        <v>10.499999999999993</v>
       </c>
       <c r="V34" s="7">
-        <v>10.5</v>
+        <v>10.499999999999993</v>
       </c>
       <c r="W34" s="7">
         <v>10.5</v>
@@ -3361,12 +3367,12 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C35" s="7">
         <v>10</v>
@@ -3378,7 +3384,7 @@
         <v>10</v>
       </c>
       <c r="F35" s="7">
-        <v>10</v>
+        <v>10.000000000000014</v>
       </c>
       <c r="G35" s="7">
         <v>10</v>
@@ -3390,7 +3396,7 @@
         <v>10</v>
       </c>
       <c r="J35" s="7">
-        <v>10</v>
+        <v>10.000000000000014</v>
       </c>
       <c r="K35" s="7">
         <v>10</v>
@@ -3402,7 +3408,7 @@
         <v>10</v>
       </c>
       <c r="N35" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="O35" s="7">
         <v>10</v>
@@ -3444,12 +3450,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C36" s="7">
         <v>10</v>
@@ -3476,7 +3482,7 @@
         <v>10</v>
       </c>
       <c r="K36" s="7">
-        <v>10</v>
+        <v>10.000000000000002</v>
       </c>
       <c r="L36" s="7">
         <v>10</v>
@@ -3491,7 +3497,7 @@
         <v>10</v>
       </c>
       <c r="P36" s="7">
-        <v>10</v>
+        <v>10.000000000000002</v>
       </c>
       <c r="Q36" s="7">
         <v>10</v>
@@ -3515,10 +3521,10 @@
         <v>10</v>
       </c>
       <c r="X36" s="7">
-        <v>10</v>
+        <v>10.000000000000002</v>
       </c>
       <c r="Y36" s="7">
-        <v>10</v>
+        <v>10.000000000000002</v>
       </c>
       <c r="Z36" s="7">
         <v>10</v>
@@ -3527,12 +3533,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C37" s="7">
         <v>10</v>
@@ -3610,12 +3616,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C38" s="7">
         <v>10</v>
@@ -3693,39 +3699,39 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" s="6">
-        <v>10.099999999999994</v>
+        <v>0</v>
       </c>
       <c r="C39" s="7">
         <v>10.099999999999994</v>
       </c>
       <c r="D39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.1</v>
       </c>
       <c r="E39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="F39" s="7">
         <v>10.099999999999994</v>
       </c>
       <c r="G39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="H39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="I39" s="7">
         <v>10.099999999999994</v>
       </c>
       <c r="J39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="K39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.1</v>
       </c>
       <c r="L39" s="7">
         <v>10.099999999999994</v>
@@ -3740,7 +3746,7 @@
         <v>10.099999999999994</v>
       </c>
       <c r="P39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.1</v>
       </c>
       <c r="Q39" s="7">
         <v>10.099999999999994</v>
@@ -3764,10 +3770,10 @@
         <v>10.099999999999994</v>
       </c>
       <c r="X39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.1</v>
       </c>
       <c r="Y39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.1</v>
       </c>
       <c r="Z39" s="7">
         <v>10.099999999999994</v>
@@ -3776,12 +3782,12 @@
         <v>10.099999999999994</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" s="6">
-        <v>10.099999999999998</v>
+        <v>0</v>
       </c>
       <c r="C40" s="7">
         <v>10.099999999999998</v>
@@ -3793,78 +3799,78 @@
         <v>10.099999999999998</v>
       </c>
       <c r="F40" s="7">
-        <v>10.099999999999998</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="G40" s="7">
         <v>10.1</v>
       </c>
       <c r="H40" s="7">
-        <v>10.1</v>
+        <v>10.099999999999998</v>
       </c>
       <c r="I40" s="7">
-        <v>10.1</v>
+        <v>10.099999999999998</v>
       </c>
       <c r="J40" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="K40" s="7">
         <v>10.1</v>
       </c>
       <c r="L40" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="M40" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="N40" s="7">
-        <v>10.1</v>
+        <v>10.099999999999998</v>
       </c>
       <c r="O40" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="P40" s="7">
         <v>10.1</v>
       </c>
       <c r="Q40" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="R40" s="7">
-        <v>10.1</v>
+        <v>10.099999999999998</v>
       </c>
       <c r="S40" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="T40" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="U40" s="7">
-        <v>10.1</v>
+        <v>10.099999999999998</v>
       </c>
       <c r="V40" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="W40" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="X40" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="Y40" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="Z40" s="7">
-        <v>10.1</v>
+        <v>10.099999999999998</v>
       </c>
       <c r="AA40" s="8">
         <v>10.1</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C41" s="7">
         <v>10</v>
@@ -3942,1037 +3948,1209 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="6">
+        <v>0</v>
+      </c>
+      <c r="C42" s="7">
         <v>12</v>
       </c>
-      <c r="C42" s="10">
+      <c r="D42" s="7">
         <v>12</v>
       </c>
-      <c r="D42" s="10">
+      <c r="E42" s="7">
         <v>12</v>
       </c>
-      <c r="E42" s="10">
+      <c r="F42" s="7">
         <v>12</v>
       </c>
-      <c r="F42" s="10">
+      <c r="G42" s="7">
         <v>12</v>
       </c>
-      <c r="G42" s="10">
+      <c r="H42" s="7">
         <v>12</v>
       </c>
-      <c r="H42" s="10">
+      <c r="I42" s="7">
         <v>12</v>
       </c>
-      <c r="I42" s="10">
+      <c r="J42" s="7">
         <v>12</v>
       </c>
-      <c r="J42" s="10">
+      <c r="K42" s="7">
         <v>12</v>
       </c>
-      <c r="K42" s="10">
+      <c r="L42" s="7">
         <v>12</v>
       </c>
-      <c r="L42" s="10">
+      <c r="M42" s="7">
         <v>12</v>
       </c>
-      <c r="M42" s="10">
+      <c r="N42" s="7">
         <v>12</v>
       </c>
-      <c r="N42" s="10">
+      <c r="O42" s="7">
+        <v>11.999999999999993</v>
+      </c>
+      <c r="P42" s="7">
         <v>12</v>
       </c>
-      <c r="O42" s="10">
+      <c r="Q42" s="7">
         <v>12</v>
       </c>
-      <c r="P42" s="10">
+      <c r="R42" s="7">
         <v>12</v>
       </c>
-      <c r="Q42" s="10">
+      <c r="S42" s="7">
         <v>12</v>
       </c>
-      <c r="R42" s="10">
+      <c r="T42" s="7">
         <v>12</v>
       </c>
-      <c r="S42" s="10">
+      <c r="U42" s="7">
         <v>12</v>
       </c>
-      <c r="T42" s="10">
+      <c r="V42" s="7">
         <v>12</v>
       </c>
-      <c r="U42" s="10">
+      <c r="W42" s="7">
+        <v>11.999999999999993</v>
+      </c>
+      <c r="X42" s="7">
         <v>12</v>
       </c>
-      <c r="V42" s="10">
+      <c r="Y42" s="7">
         <v>12</v>
       </c>
-      <c r="W42" s="10">
+      <c r="Z42" s="7">
         <v>12</v>
       </c>
-      <c r="X42" s="10">
+      <c r="AA42" s="8">
         <v>12</v>
       </c>
-      <c r="Y42" s="10">
-        <v>12</v>
-      </c>
-      <c r="Z42" s="10">
-        <v>12</v>
-      </c>
-      <c r="AA42" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="6">
+        <v>0</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0</v>
+      </c>
+      <c r="D43" s="7">
+        <v>0</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0</v>
+      </c>
+      <c r="G43" s="7">
+        <v>0</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7">
+        <v>0</v>
+      </c>
+      <c r="K43" s="7">
+        <v>0</v>
+      </c>
+      <c r="L43" s="7">
+        <v>0</v>
+      </c>
+      <c r="M43" s="7">
+        <v>0</v>
+      </c>
+      <c r="N43" s="7">
+        <v>200</v>
+      </c>
+      <c r="O43" s="7">
+        <v>400</v>
+      </c>
+      <c r="P43" s="7">
+        <v>600</v>
+      </c>
+      <c r="Q43" s="7">
+        <v>800</v>
+      </c>
+      <c r="R43" s="7">
+        <v>1050</v>
+      </c>
+      <c r="S43" s="7">
+        <v>1250</v>
+      </c>
+      <c r="T43" s="7">
+        <v>1450.0000000000002</v>
+      </c>
+      <c r="U43" s="7">
+        <v>1650</v>
+      </c>
+      <c r="V43" s="7">
+        <v>1849.9999999999998</v>
+      </c>
+      <c r="W43" s="7">
+        <v>2050</v>
+      </c>
+      <c r="X43" s="7">
+        <v>2200</v>
+      </c>
+      <c r="Y43" s="7">
+        <v>2399.9999999999991</v>
+      </c>
+      <c r="Z43" s="7">
+        <v>2550</v>
+      </c>
+      <c r="AA43" s="8">
+        <v>2700</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="9">
+        <v>0</v>
+      </c>
+      <c r="C44" s="10">
+        <v>0</v>
+      </c>
+      <c r="D44" s="10">
+        <v>0</v>
+      </c>
+      <c r="E44" s="10">
+        <v>0</v>
+      </c>
+      <c r="F44" s="10">
+        <v>0</v>
+      </c>
+      <c r="G44" s="10">
+        <v>0</v>
+      </c>
+      <c r="H44" s="10">
+        <v>0</v>
+      </c>
+      <c r="I44" s="10">
+        <v>0</v>
+      </c>
+      <c r="J44" s="10">
+        <v>0</v>
+      </c>
+      <c r="K44" s="10">
+        <v>0</v>
+      </c>
+      <c r="L44" s="10">
+        <v>0</v>
+      </c>
+      <c r="M44" s="10">
+        <v>0</v>
+      </c>
+      <c r="N44" s="10">
+        <v>0</v>
+      </c>
+      <c r="O44" s="10">
+        <v>0</v>
+      </c>
+      <c r="P44" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="10">
+        <v>0</v>
+      </c>
+      <c r="R44" s="10">
+        <v>0</v>
+      </c>
+      <c r="S44" s="10">
+        <v>0</v>
+      </c>
+      <c r="T44" s="10">
+        <v>0</v>
+      </c>
+      <c r="U44" s="10">
+        <v>0</v>
+      </c>
+      <c r="V44" s="10">
+        <v>0</v>
+      </c>
+      <c r="W44" s="10">
+        <v>0</v>
+      </c>
+      <c r="X44" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="11">
+        <v>20</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="3">
-        <v>739.88333333333321</v>
-      </c>
-      <c r="C46" s="4">
-        <v>759.18158333333292</v>
-      </c>
-      <c r="D46" s="4">
-        <v>778.65351758333293</v>
-      </c>
-      <c r="E46" s="4">
-        <v>798.30069924158261</v>
-      </c>
-      <c r="F46" s="4">
-        <v>818.1247055347568</v>
-      </c>
-      <c r="G46" s="4">
-        <v>838.12712788456952</v>
-      </c>
-      <c r="H46" s="4">
-        <v>858.30957203553066</v>
-      </c>
-      <c r="I46" s="4">
-        <v>864.73267681309699</v>
-      </c>
-      <c r="J46" s="4">
-        <v>876.88768777417124</v>
-      </c>
-      <c r="K46" s="4">
-        <v>878.95331029747183</v>
-      </c>
-      <c r="L46" s="4">
-        <v>756.20552342414862</v>
-      </c>
-      <c r="M46" s="4">
-        <v>777.31267313495982</v>
-      </c>
-      <c r="N46" s="4">
-        <v>798.60978719316847</v>
-      </c>
-      <c r="O46" s="4">
-        <v>805.08975408422134</v>
-      </c>
-      <c r="P46" s="4">
-        <v>801.97469462056245</v>
-      </c>
-      <c r="Q46" s="4">
-        <v>791.44116687214762</v>
-      </c>
-      <c r="R46" s="4">
-        <v>780.81283737399713</v>
-      </c>
-      <c r="S46" s="4">
-        <v>770.08885291036313</v>
-      </c>
-      <c r="T46" s="4">
-        <v>759.26835258655649</v>
-      </c>
-      <c r="U46" s="4">
-        <v>748.35046775983562</v>
-      </c>
-      <c r="V46" s="4">
-        <v>737.33432196967442</v>
-      </c>
-      <c r="W46" s="4">
-        <v>726.21903086740167</v>
-      </c>
-      <c r="X46" s="4">
-        <v>715.00370214520831</v>
-      </c>
-      <c r="Y46" s="4">
-        <v>703.68743546451526</v>
-      </c>
-      <c r="Z46" s="4">
-        <v>692.26932238369625</v>
-      </c>
-      <c r="AA46" s="5">
-        <v>680.74844628514961</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="B48" s="3">
+        <v>61.599639917378695</v>
+      </c>
+      <c r="C48" s="4">
+        <v>-52.048576934357918</v>
+      </c>
+      <c r="D48" s="4">
+        <v>176.36470745399197</v>
+      </c>
+      <c r="E48" s="4">
+        <v>136.42312011825035</v>
+      </c>
+      <c r="F48" s="4">
+        <v>235.97805785196249</v>
+      </c>
+      <c r="G48" s="4">
+        <v>467.14097056917342</v>
+      </c>
+      <c r="H48" s="4">
+        <v>683.23178636509431</v>
+      </c>
+      <c r="I48" s="4">
+        <v>872.76148297239877</v>
+      </c>
+      <c r="J48" s="4">
+        <v>717.67198243003099</v>
+      </c>
+      <c r="K48" s="4">
+        <v>582.80568586981428</v>
+      </c>
+      <c r="L48" s="4">
+        <v>616.21577091186373</v>
+      </c>
+      <c r="M48" s="4">
+        <v>743.44767583478756</v>
+      </c>
+      <c r="N48" s="4">
+        <v>676.59684165528893</v>
+      </c>
+      <c r="O48" s="4">
+        <v>597.06696176517278</v>
+      </c>
+      <c r="P48" s="4">
+        <v>510.5623845314509</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>421.7193681581652</v>
+      </c>
+      <c r="R48" s="4">
+        <v>271.71727514640668</v>
+      </c>
+      <c r="S48" s="4">
+        <v>249.66695789650601</v>
+      </c>
+      <c r="T48" s="4">
+        <v>156.8401178380081</v>
+      </c>
+      <c r="U48" s="4">
+        <v>116.30481604741868</v>
+      </c>
+      <c r="V48" s="4">
+        <v>35.317416375303821</v>
+      </c>
+      <c r="W48" s="4">
+        <v>-44.546504732639811</v>
+      </c>
+      <c r="X48" s="4">
+        <v>-98.118690205905409</v>
+      </c>
+      <c r="Y48" s="4">
+        <v>-94.512564535484046</v>
+      </c>
+      <c r="Z48" s="4">
+        <v>-118.9306776163034</v>
+      </c>
+      <c r="AA48" s="5">
+        <v>-123.78488704818358</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="6">
-        <v>-829.81666666666661</v>
-      </c>
-      <c r="C47" s="7">
-        <v>-831.96091666666655</v>
-      </c>
-      <c r="D47" s="7">
-        <v>-834.12446491666651</v>
-      </c>
-      <c r="E47" s="7">
-        <v>-836.30748510091655</v>
-      </c>
-      <c r="F47" s="7">
-        <v>-838.51015246682482</v>
-      </c>
-      <c r="G47" s="7">
-        <v>-840.73264383902608</v>
-      </c>
-      <c r="H47" s="7">
-        <v>-842.97513763357745</v>
-      </c>
-      <c r="I47" s="7">
-        <v>-859.17879524303282</v>
-      </c>
-      <c r="J47" s="7">
-        <v>-869.85418753046338</v>
-      </c>
-      <c r="K47" s="7">
-        <v>-862.82444188490422</v>
-      </c>
-      <c r="L47" s="7">
-        <v>-759.81542852886821</v>
-      </c>
-      <c r="M47" s="7">
-        <v>-762.16066738562506</v>
-      </c>
-      <c r="N47" s="7">
-        <v>-764.52701339209261</v>
-      </c>
-      <c r="O47" s="7">
-        <v>-781.92347770529841</v>
-      </c>
-      <c r="P47" s="7">
-        <v>-782.92075450381242</v>
-      </c>
-      <c r="Q47" s="7">
-        <v>-769.14614129434688</v>
-      </c>
-      <c r="R47" s="7">
-        <v>-755.24755656599632</v>
-      </c>
-      <c r="S47" s="7">
-        <v>-741.22388457509032</v>
-      </c>
-      <c r="T47" s="7">
-        <v>-727.07399953626634</v>
-      </c>
-      <c r="U47" s="7">
-        <v>-712.79676553209265</v>
-      </c>
-      <c r="V47" s="7">
-        <v>-698.39103642188184</v>
-      </c>
-      <c r="W47" s="7">
-        <v>-683.85565574967893</v>
-      </c>
-      <c r="X47" s="7">
-        <v>-669.18945665142633</v>
-      </c>
-      <c r="Y47" s="7">
-        <v>-654.39126176128912</v>
-      </c>
-      <c r="Z47" s="7">
-        <v>-639.4598831171412</v>
-      </c>
-      <c r="AA47" s="8">
-        <v>-624.39412206519546</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="B49" s="6">
+        <v>-472.90036008262132</v>
+      </c>
+      <c r="C49" s="7">
+        <v>-411.98559613128413</v>
+      </c>
+      <c r="D49" s="7">
+        <v>-532.9800598519962</v>
+      </c>
+      <c r="E49" s="7">
+        <v>-505.36869553925044</v>
+      </c>
+      <c r="F49" s="7">
+        <v>-547.43682862542755</v>
+      </c>
+      <c r="G49" s="7">
+        <v>-655.23956518132832</v>
+      </c>
+      <c r="H49" s="7">
+        <v>-741.05292330401392</v>
+      </c>
+      <c r="I49" s="7">
+        <v>-851.14998908373116</v>
+      </c>
+      <c r="J49" s="7">
+        <v>-525.40652745145235</v>
+      </c>
+      <c r="K49" s="7">
+        <v>-194.87206631256171</v>
+      </c>
+      <c r="L49" s="7">
+        <v>-161.70518104015332</v>
+      </c>
+      <c r="M49" s="7">
+        <v>73.074335315202234</v>
+      </c>
+      <c r="N49" s="7">
+        <v>182.56004107102729</v>
+      </c>
+      <c r="O49" s="7">
+        <v>279.15372997565322</v>
+      </c>
+      <c r="P49" s="7">
+        <v>368.55783365582562</v>
+      </c>
+      <c r="Q49" s="7">
+        <v>455.40667632465954</v>
+      </c>
+      <c r="R49" s="7">
+        <v>498.94356788918384</v>
+      </c>
+      <c r="S49" s="7">
+        <v>530.07969538195903</v>
+      </c>
+      <c r="T49" s="7">
+        <v>612.28246996083078</v>
+      </c>
+      <c r="U49" s="7">
+        <v>746.55204933934692</v>
+      </c>
+      <c r="V49" s="7">
+        <v>840.14277476685936</v>
+      </c>
+      <c r="W49" s="7">
+        <v>934.62818188444055</v>
+      </c>
+      <c r="X49" s="7">
+        <v>1000.6717395241305</v>
+      </c>
+      <c r="Y49" s="7">
+        <v>988.50873823870961</v>
+      </c>
+      <c r="Z49" s="7">
+        <v>1029.4401168828581</v>
+      </c>
+      <c r="AA49" s="8">
+        <v>1031.1725446014709</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="9">
-        <v>89.933333333333337</v>
-      </c>
-      <c r="C48" s="10">
-        <v>72.779333333333653</v>
-      </c>
-      <c r="D48" s="10">
-        <v>55.470947333333761</v>
-      </c>
-      <c r="E48" s="10">
-        <v>38.006785859334016</v>
-      </c>
-      <c r="F48" s="10">
-        <v>20.385446932068017</v>
-      </c>
-      <c r="G48" s="10">
-        <v>2.6055159544566679</v>
-      </c>
-      <c r="H48" s="10">
-        <v>-15.33443440195313</v>
-      </c>
-      <c r="I48" s="10">
-        <v>-5.553881570064191</v>
-      </c>
-      <c r="J48" s="10">
-        <v>-7.0335002437076826</v>
-      </c>
-      <c r="K48" s="10">
-        <v>-16.128868412567432</v>
-      </c>
-      <c r="L48" s="10">
-        <v>3.6099051047196911</v>
-      </c>
-      <c r="M48" s="10">
-        <v>-15.152005749334874</v>
-      </c>
-      <c r="N48" s="10">
-        <v>-34.082773801075675</v>
-      </c>
-      <c r="O48" s="10">
-        <v>-23.166276378922863</v>
-      </c>
-      <c r="P48" s="10">
-        <v>-19.053940116749999</v>
-      </c>
-      <c r="Q48" s="10">
-        <v>-22.29502557780075</v>
-      </c>
-      <c r="R48" s="10">
-        <v>-25.565280808000871</v>
-      </c>
-      <c r="S48" s="10">
-        <v>-28.864968335272888</v>
-      </c>
-      <c r="T48" s="10">
-        <v>-32.194353050290324</v>
-      </c>
-      <c r="U48" s="10">
-        <v>-35.553702227743003</v>
-      </c>
-      <c r="V48" s="10">
-        <v>-38.943285547792499</v>
-      </c>
-      <c r="W48" s="10">
-        <v>-42.363375117722669</v>
-      </c>
-      <c r="X48" s="10">
-        <v>-45.814245493782046</v>
-      </c>
-      <c r="Y48" s="10">
-        <v>-49.296173703226145</v>
-      </c>
-      <c r="Z48" s="10">
-        <v>-52.809439266555053</v>
-      </c>
-      <c r="AA48" s="11">
-        <v>-56.35432421995408</v>
-      </c>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="B50">
+      <c r="B50" s="9">
+        <v>411.30072016524264</v>
+      </c>
+      <c r="C50" s="10">
+        <v>464.03417306564199</v>
+      </c>
+      <c r="D50" s="10">
+        <v>356.61535239800423</v>
+      </c>
+      <c r="E50" s="10">
+        <v>368.94557542100006</v>
+      </c>
+      <c r="F50" s="10">
+        <v>311.45877077346523</v>
+      </c>
+      <c r="G50" s="10">
+        <v>188.0985946121549</v>
+      </c>
+      <c r="H50" s="10">
+        <v>57.821136938919949</v>
+      </c>
+      <c r="I50" s="10">
+        <v>-21.611493888667269</v>
+      </c>
+      <c r="J50" s="10">
+        <v>-192.26545497857865</v>
+      </c>
+      <c r="K50" s="10">
+        <v>-387.93361955725254</v>
+      </c>
+      <c r="L50" s="10">
+        <v>-454.51058987171041</v>
+      </c>
+      <c r="M50" s="10">
+        <v>-816.52201114998968</v>
+      </c>
+      <c r="N50" s="10">
+        <v>-859.1568827263161</v>
+      </c>
+      <c r="O50" s="10">
+        <v>-876.22069174082571</v>
+      </c>
+      <c r="P50" s="10">
+        <v>-879.12021818727646</v>
+      </c>
+      <c r="Q50" s="10">
+        <v>-877.12604448282468</v>
+      </c>
+      <c r="R50" s="10">
+        <v>-770.66084303559057</v>
+      </c>
+      <c r="S50" s="10">
+        <v>-779.74665327846503</v>
+      </c>
+      <c r="T50" s="10">
+        <v>-769.12258779883882</v>
+      </c>
+      <c r="U50" s="10">
+        <v>-862.85686538676555</v>
+      </c>
+      <c r="V50" s="10">
+        <v>-875.46019114216301</v>
+      </c>
+      <c r="W50" s="10">
+        <v>-890.0816771518007</v>
+      </c>
+      <c r="X50" s="10">
+        <v>-902.55304931822502</v>
+      </c>
+      <c r="Y50" s="10">
+        <v>-893.9961737032254</v>
+      </c>
+      <c r="Z50" s="10">
+        <v>-910.50943926655464</v>
+      </c>
+      <c r="AA50" s="11">
+        <v>-907.38765755328723</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B52">
         <v>2020</v>
       </c>
-      <c r="C50">
+      <c r="C52">
         <v>2021</v>
       </c>
-      <c r="D50">
+      <c r="D52">
         <v>2022</v>
       </c>
-      <c r="E50">
+      <c r="E52">
         <v>2023</v>
       </c>
-      <c r="F50">
+      <c r="F52">
         <v>2024</v>
       </c>
-      <c r="G50">
+      <c r="G52">
         <v>2025</v>
       </c>
-      <c r="H50">
+      <c r="H52">
         <v>2026</v>
       </c>
-      <c r="I50">
+      <c r="I52">
         <v>2027</v>
       </c>
-      <c r="J50">
+      <c r="J52">
         <v>2028</v>
       </c>
-      <c r="K50">
+      <c r="K52">
         <v>2029</v>
       </c>
-      <c r="L50">
+      <c r="L52">
         <v>2030</v>
       </c>
-      <c r="M50">
+      <c r="M52">
         <v>2031</v>
       </c>
-      <c r="N50">
+      <c r="N52">
         <v>2032</v>
       </c>
-      <c r="O50">
+      <c r="O52">
         <v>2033</v>
       </c>
-      <c r="P50">
+      <c r="P52">
         <v>2034</v>
       </c>
-      <c r="Q50">
+      <c r="Q52">
         <v>2035</v>
       </c>
-      <c r="R50">
+      <c r="R52">
         <v>2036</v>
       </c>
-      <c r="S50">
+      <c r="S52">
         <v>2037</v>
       </c>
-      <c r="T50">
+      <c r="T52">
         <v>2038</v>
       </c>
-      <c r="U50">
+      <c r="U52">
         <v>2039</v>
       </c>
-      <c r="V50">
+      <c r="V52">
         <v>2040</v>
       </c>
-      <c r="W50">
+      <c r="W52">
         <v>2041</v>
       </c>
-      <c r="X50">
+      <c r="X52">
         <v>2042</v>
       </c>
-      <c r="Y50">
+      <c r="Y52">
         <v>2043</v>
       </c>
-      <c r="Z50">
+      <c r="Z52">
         <v>2044</v>
       </c>
-      <c r="AA50">
+      <c r="AA52">
         <v>2045</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AB52" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="15">
-        <v>91068.496265454538</v>
-      </c>
-      <c r="C51" s="16">
-        <v>83638.078137520628</v>
-      </c>
-      <c r="D51" s="16">
-        <v>76812.955491126631</v>
-      </c>
-      <c r="E51" s="16">
-        <v>70543.908676927618</v>
-      </c>
-      <c r="F51" s="16">
-        <v>64785.712144293881</v>
-      </c>
-      <c r="G51" s="16">
-        <v>59496.811084838904</v>
-      </c>
-      <c r="H51" s="16">
-        <v>54639.024184126407</v>
-      </c>
-      <c r="I51" s="16">
-        <v>50205.80830844189</v>
-      </c>
-      <c r="J51" s="16">
-        <v>46157.137681740744</v>
-      </c>
-      <c r="K51" s="16">
-        <v>42498.127340100807</v>
-      </c>
-      <c r="L51" s="16">
-        <v>39086.718688016481</v>
-      </c>
-      <c r="M51" s="16">
-        <v>35891.192808096901</v>
-      </c>
-      <c r="N51" s="16">
-        <v>32956.568454879918</v>
-      </c>
-      <c r="O51" s="16">
-        <v>30278.918917480696</v>
-      </c>
-      <c r="P51" s="16">
-        <v>27824.86899347293</v>
-      </c>
-      <c r="Q51" s="16">
-        <v>25573.485274723822</v>
-      </c>
-      <c r="R51" s="16">
-        <v>23503.762226609906</v>
-      </c>
-      <c r="S51" s="16">
-        <v>21601.088844949503</v>
-      </c>
-      <c r="T51" s="16">
-        <v>19852.024918846706</v>
-      </c>
-      <c r="U51" s="16">
-        <v>18244.207622814283</v>
-      </c>
-      <c r="V51" s="16">
-        <v>16766.265522761121</v>
-      </c>
-      <c r="W51" s="16">
-        <v>15407.739411016686</v>
-      </c>
-      <c r="X51" s="16">
-        <v>14159.009431355211</v>
-      </c>
-      <c r="Y51" s="16">
-        <v>13011.22799721987</v>
-      </c>
-      <c r="Z51" s="16">
-        <v>11956.258045304778</v>
-      </c>
-      <c r="AA51" s="17">
-        <v>10986.61620258197</v>
-      </c>
-      <c r="AB51" s="18">
-        <f>SUM(TotalCost)</f>
-        <v>996946.01267470303</v>
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53">
-        <v>2020</v>
-      </c>
-      <c r="C53">
-        <v>2021</v>
-      </c>
-      <c r="D53">
-        <v>2022</v>
-      </c>
-      <c r="E53">
-        <v>2023</v>
-      </c>
-      <c r="F53">
-        <v>2024</v>
-      </c>
-      <c r="G53">
-        <v>2025</v>
-      </c>
-      <c r="H53">
-        <v>2026</v>
-      </c>
-      <c r="I53">
-        <v>2027</v>
-      </c>
-      <c r="J53">
-        <v>2028</v>
-      </c>
-      <c r="K53">
-        <v>2029</v>
-      </c>
-      <c r="L53">
-        <v>2030</v>
-      </c>
-      <c r="M53">
-        <v>2031</v>
-      </c>
-      <c r="N53">
-        <v>2032</v>
-      </c>
-      <c r="O53">
-        <v>2033</v>
-      </c>
-      <c r="P53">
-        <v>2034</v>
-      </c>
-      <c r="Q53">
-        <v>2035</v>
-      </c>
-      <c r="R53">
-        <v>2036</v>
-      </c>
-      <c r="S53">
-        <v>2037</v>
-      </c>
-      <c r="T53">
-        <v>2038</v>
-      </c>
-      <c r="U53">
-        <v>2039</v>
-      </c>
-      <c r="V53">
-        <v>2040</v>
-      </c>
-      <c r="W53">
-        <v>2041</v>
-      </c>
-      <c r="X53">
-        <v>2042</v>
-      </c>
-      <c r="Y53">
-        <v>2043</v>
-      </c>
-      <c r="Z53">
-        <v>2044</v>
-      </c>
-      <c r="AA53">
-        <v>2045</v>
-      </c>
-      <c r="AB53" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" s="3">
-        <v>4186.8807999999999</v>
-      </c>
-      <c r="C54" s="4">
-        <v>4191.9412299999995</v>
-      </c>
-      <c r="D54" s="4">
-        <v>4197.0472038699991</v>
-      </c>
-      <c r="E54" s="4">
-        <v>4202.199131504829</v>
-      </c>
-      <c r="F54" s="4">
-        <v>4207.3974264883727</v>
-      </c>
-      <c r="G54" s="4">
-        <v>4212.6425061267682</v>
-      </c>
-      <c r="H54" s="4">
-        <v>4217.9347914819091</v>
-      </c>
-      <c r="I54" s="4">
-        <v>4233.2703910480759</v>
-      </c>
-      <c r="J54" s="4">
-        <v>4750.4809363665772</v>
-      </c>
-      <c r="K54" s="4">
-        <v>5235.4272187938623</v>
-      </c>
-      <c r="L54" s="4">
-        <v>4965.8785446580532</v>
-      </c>
-      <c r="M54" s="4">
-        <v>4971.4133083599991</v>
-      </c>
-      <c r="N54" s="4">
-        <v>4976.9978849352628</v>
-      </c>
-      <c r="O54" s="4">
-        <v>4993.3940474977171</v>
-      </c>
-      <c r="P54" s="4">
-        <v>5073.051538798426</v>
-      </c>
-      <c r="Q54" s="4">
-        <v>5206.2601512476085</v>
-      </c>
-      <c r="R54" s="4">
-        <v>5340.6676412088364</v>
-      </c>
-      <c r="S54" s="4">
-        <v>5476.2847985797143</v>
-      </c>
-      <c r="T54" s="4">
-        <v>5613.1225103669294</v>
-      </c>
-      <c r="U54" s="4">
-        <v>5751.1917615602315</v>
-      </c>
-      <c r="V54" s="4">
-        <v>5890.5036360142713</v>
-      </c>
-      <c r="W54" s="4">
-        <v>6031.069317338397</v>
-      </c>
-      <c r="X54" s="4">
-        <v>6172.9000897944406</v>
-      </c>
-      <c r="Y54" s="4">
-        <v>6316.0073392025897</v>
-      </c>
-      <c r="Z54" s="4">
-        <v>6460.4025538554106</v>
-      </c>
-      <c r="AA54" s="5">
-        <v>6606.0973254401069</v>
-      </c>
-      <c r="AB54" s="12">
-        <f>SUM(B54:AA54)</f>
-        <v>133480.46408453837</v>
+        <v>8</v>
+      </c>
+      <c r="B53" s="15">
+        <v>116763.48744655377</v>
+      </c>
+      <c r="C53" s="16">
+        <v>90355.803112659269</v>
+      </c>
+      <c r="D53" s="16">
+        <v>79973.151665145138</v>
+      </c>
+      <c r="E53" s="16">
+        <v>72689.989065084112</v>
+      </c>
+      <c r="F53" s="16">
+        <v>66159.850287131791</v>
+      </c>
+      <c r="G53" s="16">
+        <v>60260.107150621363</v>
+      </c>
+      <c r="H53" s="16">
+        <v>54977.105237063413</v>
+      </c>
+      <c r="I53" s="16">
+        <v>50276.638343813902</v>
+      </c>
+      <c r="J53" s="16">
+        <v>48360.549722609212</v>
+      </c>
+      <c r="K53" s="16">
+        <v>46893.834401428663</v>
+      </c>
+      <c r="L53" s="16">
+        <v>45776.487695566531</v>
+      </c>
+      <c r="M53" s="16">
+        <v>45135.373903860811</v>
+      </c>
+      <c r="N53" s="16">
+        <v>1190857.5227171669</v>
+      </c>
+      <c r="O53" s="16">
+        <v>2127752.2935679611</v>
+      </c>
+      <c r="P53" s="16">
+        <v>2884381.3776492137</v>
+      </c>
+      <c r="Q53" s="16">
+        <v>3485861.2935474073</v>
+      </c>
+      <c r="R53" s="16">
+        <v>4149764.9619313418</v>
+      </c>
+      <c r="S53" s="16">
+        <v>4486180.8727207016</v>
+      </c>
+      <c r="T53" s="16">
+        <v>4727141.5298287524</v>
+      </c>
+      <c r="U53" s="16">
+        <v>4887388.0682644937</v>
+      </c>
+      <c r="V53" s="16">
+        <v>4979099.2111890381</v>
+      </c>
+      <c r="W53" s="16">
+        <v>5013869.9729762459</v>
+      </c>
+      <c r="X53" s="16">
+        <v>4890575.8213660102</v>
+      </c>
+      <c r="Y53" s="16">
+        <v>4848786.4685050547</v>
+      </c>
+      <c r="Z53" s="16">
+        <v>4682765.3724788623</v>
+      </c>
+      <c r="AA53" s="17">
+        <v>4579861.5051296409</v>
+      </c>
+      <c r="AB53" s="18">
+        <f>SUM(TotalCost)</f>
+        <v>57711908.649903439</v>
       </c>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="6">
-        <v>1271.8700000000001</v>
-      </c>
-      <c r="C55" s="7">
-        <v>1272.084425</v>
-      </c>
-      <c r="D55" s="7">
-        <v>1272.3007798250001</v>
-      </c>
-      <c r="E55" s="7">
-        <v>1272.5190818434251</v>
-      </c>
-      <c r="F55" s="7">
-        <v>1272.739348580016</v>
-      </c>
-      <c r="G55" s="7">
-        <v>1272.9615977172361</v>
-      </c>
-      <c r="H55" s="7">
-        <v>1273.1858470966913</v>
-      </c>
-      <c r="I55" s="7">
-        <v>1273.4121147205615</v>
-      </c>
-      <c r="J55" s="7">
-        <v>1274.132028767669</v>
-      </c>
-      <c r="K55" s="7">
-        <v>1274.9361096265779</v>
-      </c>
-      <c r="L55" s="7">
-        <v>1420.3592095189924</v>
-      </c>
-      <c r="M55" s="7">
-        <v>1420.593733404668</v>
-      </c>
-      <c r="N55" s="7">
-        <v>1420.8303680053148</v>
-      </c>
-      <c r="O55" s="7">
-        <v>1421.0691323178953</v>
-      </c>
-      <c r="P55" s="7">
-        <v>1435.1484512334166</v>
-      </c>
-      <c r="Q55" s="7">
-        <v>1461.0609294945166</v>
-      </c>
-      <c r="R55" s="7">
-        <v>1487.2066200599672</v>
-      </c>
-      <c r="S55" s="7">
-        <v>1513.5876218405065</v>
-      </c>
-      <c r="T55" s="7">
-        <v>1540.206052637071</v>
-      </c>
-      <c r="U55" s="7">
-        <v>1567.0640493108044</v>
-      </c>
-      <c r="V55" s="7">
-        <v>1594.1637679546011</v>
-      </c>
-      <c r="W55" s="7">
-        <v>1621.5073840661921</v>
-      </c>
-      <c r="X55" s="7">
-        <v>1649.0970927227877</v>
-      </c>
-      <c r="Y55" s="7">
-        <v>1676.9351087572923</v>
-      </c>
-      <c r="Z55" s="7">
-        <v>1705.0236669361075</v>
-      </c>
-      <c r="AA55" s="8">
-        <v>1733.3650221385319</v>
-      </c>
-      <c r="AB55" s="13">
-        <f t="shared" ref="AB55:AB58" si="0">SUM(B55:AA55)</f>
-        <v>37397.359543575833</v>
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <v>2020</v>
+      </c>
+      <c r="C55">
+        <v>2021</v>
+      </c>
+      <c r="D55">
+        <v>2022</v>
+      </c>
+      <c r="E55">
+        <v>2023</v>
+      </c>
+      <c r="F55">
+        <v>2024</v>
+      </c>
+      <c r="G55">
+        <v>2025</v>
+      </c>
+      <c r="H55">
+        <v>2026</v>
+      </c>
+      <c r="I55">
+        <v>2027</v>
+      </c>
+      <c r="J55">
+        <v>2028</v>
+      </c>
+      <c r="K55">
+        <v>2029</v>
+      </c>
+      <c r="L55">
+        <v>2030</v>
+      </c>
+      <c r="M55">
+        <v>2031</v>
+      </c>
+      <c r="N55">
+        <v>2032</v>
+      </c>
+      <c r="O55">
+        <v>2033</v>
+      </c>
+      <c r="P55">
+        <v>2034</v>
+      </c>
+      <c r="Q55">
+        <v>2035</v>
+      </c>
+      <c r="R55">
+        <v>2036</v>
+      </c>
+      <c r="S55">
+        <v>2037</v>
+      </c>
+      <c r="T55">
+        <v>2038</v>
+      </c>
+      <c r="U55">
+        <v>2039</v>
+      </c>
+      <c r="V55">
+        <v>2040</v>
+      </c>
+      <c r="W55">
+        <v>2041</v>
+      </c>
+      <c r="X55">
+        <v>2042</v>
+      </c>
+      <c r="Y55">
+        <v>2043</v>
+      </c>
+      <c r="Z55">
+        <v>2044</v>
+      </c>
+      <c r="AA55">
+        <v>2045</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56" s="6">
-        <v>7256200.8565999996</v>
-      </c>
-      <c r="C56" s="7">
-        <v>7296084.8071849989</v>
-      </c>
-      <c r="D56" s="7">
-        <v>7336327.7133252639</v>
-      </c>
-      <c r="E56" s="7">
-        <v>7376932.8056207905</v>
-      </c>
-      <c r="F56" s="7">
-        <v>7417903.3437469779</v>
-      </c>
-      <c r="G56" s="7">
-        <v>7459242.6167163011</v>
-      </c>
-      <c r="H56" s="7">
-        <v>7500953.943142347</v>
-      </c>
-      <c r="I56" s="7">
-        <v>7545412.7016044986</v>
-      </c>
-      <c r="J56" s="7">
-        <v>7592253.907524311</v>
-      </c>
-      <c r="K56" s="7">
-        <v>7646250.9658914292</v>
-      </c>
-      <c r="L56" s="7">
-        <v>8120763.4817091115</v>
-      </c>
-      <c r="M56" s="7">
-        <v>8164385.9094451088</v>
-      </c>
-      <c r="N56" s="7">
-        <v>8208400.9390307292</v>
-      </c>
-      <c r="O56" s="7">
-        <v>8255365.82479259</v>
-      </c>
-      <c r="P56" s="7">
-        <v>8343922.9653920829</v>
-      </c>
-      <c r="Q56" s="7">
-        <v>8467972.0758632086</v>
-      </c>
-      <c r="R56" s="7">
-        <v>8593137.6283285767</v>
-      </c>
-      <c r="S56" s="7">
-        <v>8719429.6707661338</v>
-      </c>
-      <c r="T56" s="7">
-        <v>8846858.3415856268</v>
-      </c>
-      <c r="U56" s="7">
-        <v>8975433.8704424966</v>
-      </c>
-      <c r="V56" s="7">
-        <v>9105166.5790590756</v>
-      </c>
-      <c r="W56" s="7">
-        <v>9236066.8820532057</v>
-      </c>
-      <c r="X56" s="7">
-        <v>9368145.2877742834</v>
-      </c>
-      <c r="Y56" s="7">
-        <v>9501412.3991468512</v>
-      </c>
-      <c r="Z56" s="7">
-        <v>9635878.9145217687</v>
-      </c>
-      <c r="AA56" s="8">
-        <v>9771555.6285350639</v>
-      </c>
-      <c r="AB56" s="13">
-        <f t="shared" si="0"/>
-        <v>215741460.05980286</v>
+        <v>10</v>
+      </c>
+      <c r="B56" s="3">
+        <v>9846.2285557236974</v>
+      </c>
+      <c r="C56" s="4">
+        <v>8960.0107579288142</v>
+      </c>
+      <c r="D56" s="4">
+        <v>8316.7034334267137</v>
+      </c>
+      <c r="E56" s="4">
+        <v>7417.3128297668591</v>
+      </c>
+      <c r="F56" s="4">
+        <v>6531.6147594557542</v>
+      </c>
+      <c r="G56" s="4">
+        <v>5681.4434816325083</v>
+      </c>
+      <c r="H56" s="4">
+        <v>4911.1183854019255</v>
+      </c>
+      <c r="I56" s="4">
+        <v>4777.351379885291</v>
+      </c>
+      <c r="J56" s="4">
+        <v>4443.4247179507893</v>
+      </c>
+      <c r="K56" s="4">
+        <v>4077.6823392334873</v>
+      </c>
+      <c r="L56" s="4">
+        <v>4627.6091423306898</v>
+      </c>
+      <c r="M56" s="4">
+        <v>4989.6132220143372</v>
+      </c>
+      <c r="N56" s="4">
+        <v>5394.152792079909</v>
+      </c>
+      <c r="O56" s="4">
+        <v>4947.6522085825782</v>
+      </c>
+      <c r="P56" s="4">
+        <v>4552.2827884418912</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>4207.0176091725716</v>
+      </c>
+      <c r="R56" s="4">
+        <v>4025.600684954914</v>
+      </c>
+      <c r="S56" s="4">
+        <v>3569.2892909682573</v>
+      </c>
+      <c r="T56" s="4">
+        <v>3252.7629391227379</v>
+      </c>
+      <c r="U56" s="4">
+        <v>1722.0608861287371</v>
+      </c>
+      <c r="V56" s="4">
+        <v>2604.8561357150902</v>
+      </c>
+      <c r="W56" s="4">
+        <v>2371.0699483468852</v>
+      </c>
+      <c r="X56" s="4">
+        <v>1723.7547606893327</v>
+      </c>
+      <c r="Y56" s="4">
+        <v>2171.4613735583234</v>
+      </c>
+      <c r="Z56" s="4">
+        <v>2001.1282781203481</v>
+      </c>
+      <c r="AA56" s="5">
+        <v>1955.682681823431</v>
+      </c>
+      <c r="AB56" s="12">
+        <f>SUM(B56:AA56)</f>
+        <v>119078.88538245586</v>
       </c>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B57" s="6">
-        <v>603.33339999999998</v>
+        <v>2481.6700200702808</v>
       </c>
       <c r="C57" s="7">
-        <v>604.01955999999996</v>
+        <v>2250.7698548080307</v>
       </c>
       <c r="D57" s="7">
-        <v>604.71189543999992</v>
+        <v>2094.5345946976322</v>
       </c>
       <c r="E57" s="7">
-        <v>605.41046189895997</v>
+        <v>1911.1608581482842</v>
       </c>
       <c r="F57" s="7">
-        <v>606.11531545605055</v>
+        <v>1735.3053443113522</v>
       </c>
       <c r="G57" s="7">
-        <v>606.82651269515509</v>
+        <v>1567.2049133886076</v>
       </c>
       <c r="H57" s="7">
-        <v>607.54411070941137</v>
+        <v>1407.992723187192</v>
       </c>
       <c r="I57" s="7">
-        <v>608.30999004990838</v>
+        <v>1254.3833259665043</v>
       </c>
       <c r="J57" s="7">
-        <v>609.14767501218535</v>
+        <v>818.27525878796757</v>
       </c>
       <c r="K57" s="7">
-        <v>610.181110087295</v>
+        <v>616.67477898169227</v>
       </c>
       <c r="L57" s="7">
-        <v>681.94567046220652</v>
+        <v>407.34521078654672</v>
       </c>
       <c r="M57" s="7">
-        <v>682.69614689636865</v>
+        <v>178.35399524822787</v>
       </c>
       <c r="N57" s="7">
-        <v>683.45337761843837</v>
+        <v>353.35089009134322</v>
       </c>
       <c r="O57" s="7">
-        <v>684.26244988084363</v>
+        <v>220.57991031623487</v>
       </c>
       <c r="P57" s="7">
-        <v>691.81729387984262</v>
+        <v>116.9936893396772</v>
       </c>
       <c r="Q57" s="7">
-        <v>705.13815512476083</v>
+        <v>26.372104137091135</v>
       </c>
       <c r="R57" s="7">
-        <v>718.57890412088364</v>
+        <v>130.80939986843907</v>
       </c>
       <c r="S57" s="7">
-        <v>732.14061985797139</v>
+        <v>98.576313411170091</v>
       </c>
       <c r="T57" s="7">
-        <v>745.82439103669299</v>
+        <v>74.256943946483958</v>
       </c>
       <c r="U57" s="7">
-        <v>759.6313161560231</v>
+        <v>18.828596245359599</v>
       </c>
       <c r="V57" s="7">
-        <v>773.56250360142712</v>
+        <v>74.364489501495129</v>
       </c>
       <c r="W57" s="7">
-        <v>787.61907173383975</v>
+        <v>99.62210148438281</v>
       </c>
       <c r="X57" s="7">
-        <v>801.80214897944415</v>
+        <v>16.547256829260363</v>
       </c>
       <c r="Y57" s="7">
-        <v>816.11287392025895</v>
+        <v>68.811298238838731</v>
       </c>
       <c r="Z57" s="7">
-        <v>830.55239538554099</v>
+        <v>15.168191122988272</v>
       </c>
       <c r="AA57" s="8">
-        <v>845.12187254401067</v>
+        <v>14.350404043095166</v>
       </c>
       <c r="AB57" s="13">
-        <f t="shared" si="0"/>
-        <v>18005.859222547526</v>
+        <f t="shared" ref="AB57:AB60" si="0">SUM(B57:AA57)</f>
+        <v>18052.302466958176</v>
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="6">
+        <v>11035578.509819515</v>
+      </c>
+      <c r="C58" s="7">
+        <v>10440292.919611424</v>
+      </c>
+      <c r="D58" s="7">
+        <v>9877118.4628245775</v>
+      </c>
+      <c r="E58" s="7">
+        <v>9344322.9878555089</v>
+      </c>
+      <c r="F58" s="7">
+        <v>8840267.7795154117</v>
+      </c>
+      <c r="G58" s="7">
+        <v>8363402.5188456802</v>
+      </c>
+      <c r="H58" s="7">
+        <v>7912260.5148130991</v>
+      </c>
+      <c r="I58" s="7">
+        <v>7485454.1932188449</v>
+      </c>
+      <c r="J58" s="7">
+        <v>7081670.8289465569</v>
+      </c>
+      <c r="K58" s="7">
+        <v>6699668.5084231906</v>
+      </c>
+      <c r="L58" s="7">
+        <v>6338272.3098744247</v>
+      </c>
+      <c r="M58" s="7">
+        <v>5996370.6896262551</v>
+      </c>
+      <c r="N58" s="7">
+        <v>5672912.0633381596</v>
+      </c>
+      <c r="O58" s="7">
+        <v>5366901.5716527477</v>
+      </c>
+      <c r="P58" s="7">
+        <v>5077398.0203140266</v>
+      </c>
+      <c r="Q58" s="7">
+        <v>4803510.98534304</v>
+      </c>
+      <c r="R58" s="7">
+        <v>4544398.0743672717</v>
+      </c>
+      <c r="S58" s="7">
+        <v>4299262.335680523</v>
+      </c>
+      <c r="T58" s="7">
+        <v>4067349.8070643097</v>
+      </c>
+      <c r="U58" s="7">
+        <v>3847947.1968317241</v>
+      </c>
+      <c r="V58" s="7">
+        <v>3640379.6899613487</v>
+      </c>
+      <c r="W58" s="7">
+        <v>3444008.8725735778</v>
+      </c>
+      <c r="X58" s="7">
+        <v>3258230.7683656649</v>
+      </c>
+      <c r="Y58" s="7">
+        <v>3082473.9809661768</v>
+      </c>
+      <c r="Z58" s="7">
+        <v>2914799.6919594705</v>
+      </c>
+      <c r="AA58" s="8">
+        <v>2756800.4242827054</v>
+      </c>
+      <c r="AB58" s="13">
+        <f t="shared" si="0"/>
+        <v>156191053.70607525</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="6">
+        <v>1088.2184015432993</v>
+      </c>
+      <c r="C59" s="7">
+        <v>1077.2627315392738</v>
+      </c>
+      <c r="D59" s="7">
+        <v>1003.9548924581147</v>
+      </c>
+      <c r="E59" s="7">
+        <v>916.07244678414054</v>
+      </c>
+      <c r="F59" s="7">
+        <v>831.40606810929194</v>
+      </c>
+      <c r="G59" s="7">
+        <v>750.39815557621341</v>
+      </c>
+      <c r="H59" s="7">
+        <v>673.05541561075245</v>
+      </c>
+      <c r="I59" s="7">
+        <v>598.23397358601915</v>
+      </c>
+      <c r="J59" s="7">
+        <v>497.59069339750613</v>
+      </c>
+      <c r="K59" s="7">
+        <v>398.37100178131095</v>
+      </c>
+      <c r="L59" s="7">
+        <v>295.44937852860971</v>
+      </c>
+      <c r="M59" s="7">
+        <v>181.66392373274513</v>
+      </c>
+      <c r="N59" s="7">
+        <v>157.23390466566346</v>
+      </c>
+      <c r="O59" s="7">
+        <v>131.76757424653849</v>
+      </c>
+      <c r="P59" s="7">
+        <v>111.15002354024307</v>
+      </c>
+      <c r="Q59" s="7">
+        <v>92.154257698436169</v>
+      </c>
+      <c r="R59" s="7">
+        <v>105.32446018246777</v>
+      </c>
+      <c r="S59" s="7">
+        <v>96.049743157861187</v>
+      </c>
+      <c r="T59" s="7">
+        <v>88.183853049830788</v>
+      </c>
+      <c r="U59" s="7">
+        <v>75.47557686789601</v>
+      </c>
+      <c r="V59" s="7">
+        <v>80.544381959972938</v>
+      </c>
+      <c r="W59" s="7">
+        <v>80.838091916337802</v>
+      </c>
+      <c r="X59" s="7">
+        <v>64.893057273735025</v>
+      </c>
+      <c r="Y59" s="7">
+        <v>69.639707744258146</v>
+      </c>
+      <c r="Z59" s="7">
+        <v>58.41288131395644</v>
+      </c>
+      <c r="AA59" s="8">
+        <v>55.375386445782041</v>
+      </c>
+      <c r="AB59" s="13">
+        <f t="shared" si="0"/>
+        <v>9578.7199827102559</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="9">
-        <v>85.795000000000002</v>
-      </c>
-      <c r="C58" s="10">
-        <v>85.880769999999998</v>
-      </c>
-      <c r="D58" s="10">
-        <v>85.967311929999994</v>
-      </c>
-      <c r="E58" s="10">
-        <v>86.05463273737</v>
-      </c>
-      <c r="F58" s="10">
-        <v>86.142739432006323</v>
-      </c>
-      <c r="G58" s="10">
-        <v>86.23163908689439</v>
-      </c>
-      <c r="H58" s="10">
-        <v>86.321338838676439</v>
-      </c>
-      <c r="I58" s="10">
-        <v>86.411845888224519</v>
-      </c>
-      <c r="J58" s="10">
-        <v>86.503167501218542</v>
-      </c>
-      <c r="K58" s="10">
-        <v>86.623311008729502</v>
-      </c>
-      <c r="L58" s="10">
-        <v>97.214283807770073</v>
-      </c>
-      <c r="M58" s="10">
-        <v>97.308093362040339</v>
-      </c>
-      <c r="N58" s="10">
-        <v>97.402747202299054</v>
-      </c>
-      <c r="O58" s="10">
-        <v>97.498252927158077</v>
-      </c>
-      <c r="P58" s="10">
-        <v>98.590564070050021</v>
-      </c>
-      <c r="Q58" s="10">
-        <v>100.53521534668042</v>
-      </c>
-      <c r="R58" s="10">
-        <v>102.49736848480053</v>
-      </c>
-      <c r="S58" s="10">
-        <v>104.47718100116371</v>
-      </c>
-      <c r="T58" s="10">
-        <v>106.47481183017416</v>
-      </c>
-      <c r="U58" s="10">
-        <v>108.49042133664572</v>
-      </c>
-      <c r="V58" s="10">
-        <v>110.52417132867549</v>
-      </c>
-      <c r="W58" s="10">
-        <v>112.57622507063354</v>
-      </c>
-      <c r="X58" s="10">
-        <v>114.64674729626923</v>
-      </c>
-      <c r="Y58" s="10">
-        <v>116.73590422193561</v>
-      </c>
-      <c r="Z58" s="10">
-        <v>118.84386355993298</v>
-      </c>
-      <c r="AA58" s="11">
-        <v>120.97079453197236</v>
-      </c>
-      <c r="AB58" s="14">
+      <c r="B60" s="9">
+        <v>157.13772376545302</v>
+      </c>
+      <c r="C60" s="10">
+        <v>155.89881644240921</v>
+      </c>
+      <c r="D60" s="10">
+        <v>144.97349685717842</v>
+      </c>
+      <c r="E60" s="10">
+        <v>131.87377875931062</v>
+      </c>
+      <c r="F60" s="10">
+        <v>119.3250983499256</v>
+      </c>
+      <c r="G60" s="10">
+        <v>107.37785005387197</v>
+      </c>
+      <c r="H60" s="10">
+        <v>95.984339549015715</v>
+      </c>
+      <c r="I60" s="10">
+        <v>84.933941657255161</v>
+      </c>
+      <c r="J60" s="10">
+        <v>70.088442422225214</v>
+      </c>
+      <c r="K60" s="10">
+        <v>55.434409838300461</v>
+      </c>
+      <c r="L60" s="10">
+        <v>40.1437341802229</v>
+      </c>
+      <c r="M60" s="10">
+        <v>22.972143119033877</v>
+      </c>
+      <c r="N60" s="10">
+        <v>19.555467647132794</v>
+      </c>
+      <c r="O60" s="10">
+        <v>15.954877505388357</v>
+      </c>
+      <c r="P60" s="10">
+        <v>13.086292751676922</v>
+      </c>
+      <c r="Q60" s="10">
+        <v>10.421166930809992</v>
+      </c>
+      <c r="R60" s="10">
+        <v>12.766476975828573</v>
+      </c>
+      <c r="S60" s="10">
+        <v>11.559309833379304</v>
+      </c>
+      <c r="T60" s="10">
+        <v>10.556407248196786</v>
+      </c>
+      <c r="U60" s="10">
+        <v>8.7576590888018195</v>
+      </c>
+      <c r="V60" s="10">
+        <v>9.7236135853842676</v>
+      </c>
+      <c r="W60" s="10">
+        <v>9.917981271247001</v>
+      </c>
+      <c r="X60" s="10">
+        <v>7.6460246357468646</v>
+      </c>
+      <c r="Y60" s="10">
+        <v>8.473827816645171</v>
+      </c>
+      <c r="Z60" s="10">
+        <v>6.8949247669949738</v>
+      </c>
+      <c r="AA60" s="11">
+        <v>6.5444445898979282</v>
+      </c>
+      <c r="AB60" s="14">
         <f t="shared" si="0"/>
-        <v>2566.7184018013209</v>
+        <v>1338.0022496413333</v>
       </c>
     </row>
   </sheetData>

--- a/717A11_output.xlsx
+++ b/717A11_output.xlsx
@@ -612,7 +612,7 @@
   <dimension ref="A1:AB60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF32" sqref="AF32"/>
+      <selection activeCell="AJ41" sqref="AJ41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/717A11_output.xlsx
+++ b/717A11_output.xlsx
@@ -4170,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="R44" s="10">
-        <v>0</v>
+        <v>4.5474735088646412E-13</v>
       </c>
       <c r="S44" s="10">
         <v>0</v>

--- a/717A11_output.xlsx
+++ b/717A11_output.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CH4_total">Sheet2!$B$59:$AA$59</definedName>
-    <definedName name="CO2_total">Sheet2!$B$58:$AA$58</definedName>
-    <definedName name="Gen">Sheet2!$B$3:$AA$44</definedName>
-    <definedName name="LineFlow">Sheet2!$B$48:$AA$50</definedName>
-    <definedName name="N2O_total">Sheet2!$B$60:$AA$60</definedName>
-    <definedName name="NOx_total">Sheet2!$B$56:$AA$56</definedName>
-    <definedName name="SO2_total">Sheet2!$B$57:$AA$57</definedName>
-    <definedName name="TotalCost">Sheet2!$B$53:$AA$53</definedName>
+    <definedName name="CH4_total">Sheet2!$B$60:$AA$60</definedName>
+    <definedName name="CO2_total">Sheet2!$B$59:$AA$59</definedName>
+    <definedName name="Gen">Sheet2!$B$3:$AA$45</definedName>
+    <definedName name="LineFlow">Sheet2!$B$49:$AA$51</definedName>
+    <definedName name="N2O_total">Sheet2!$B$61:$AA$61</definedName>
+    <definedName name="NOx_total">Sheet2!$B$57:$AA$57</definedName>
+    <definedName name="SO2_total">Sheet2!$B$58:$AA$58</definedName>
+    <definedName name="TotalCost">Sheet2!$B$54:$AA$54</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Line</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>*New Wind</t>
+  </si>
+  <si>
+    <t>*New Grid Storage</t>
   </si>
 </sst>
 </file>
@@ -609,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB60"/>
+  <dimension ref="A1:AB61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ41" sqref="AJ41"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:AA44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -716,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>365.04891975213604</v>
+        <v>368.75585706197899</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
@@ -749,31 +752,31 @@
         <v>0</v>
       </c>
       <c r="M3" s="4">
-        <v>481.45168914065289</v>
+        <v>485.36785633291584</v>
       </c>
       <c r="N3" s="4">
-        <v>464.33476455688356</v>
+        <v>467.88310899710496</v>
       </c>
       <c r="O3" s="4">
-        <v>409.03162304285524</v>
+        <v>412.38856126794144</v>
       </c>
       <c r="P3" s="4">
-        <v>332.65396798141501</v>
+        <v>335.82982490198754</v>
       </c>
       <c r="Q3" s="4">
-        <v>350.60922019104152</v>
+        <v>323.56120986041867</v>
       </c>
       <c r="R3" s="4">
-        <v>-5.6843418860808015E-13</v>
+        <v>-1.5631940186722204E-12</v>
       </c>
       <c r="S3" s="4">
-        <v>0</v>
+        <v>-3.637978807091713E-12</v>
       </c>
       <c r="T3" s="4">
-        <v>0</v>
+        <v>134.70813434014786</v>
       </c>
       <c r="U3" s="4">
-        <v>107.2575114466056</v>
+        <v>0</v>
       </c>
       <c r="V3" s="4">
         <v>0</v>
@@ -785,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="Y3" s="4">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="Z3" s="4">
         <v>0</v>
@@ -811,10 +814,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="7">
-        <v>163.6497444789718</v>
+        <v>166.14273881549684</v>
       </c>
       <c r="G4" s="7">
-        <v>524.84030747409724</v>
+        <v>527.1988237129226</v>
       </c>
       <c r="H4" s="7">
         <v>665.6</v>
@@ -903,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>24.086418477904772</v>
+        <v>27.028611603798709</v>
       </c>
       <c r="J5" s="7">
         <v>46.5</v>
@@ -936,7 +939,7 @@
         <v>46.5</v>
       </c>
       <c r="T5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="U5" s="7">
         <v>0</v>
@@ -948,10 +951,10 @@
         <v>46.5</v>
       </c>
       <c r="X5" s="7">
-        <v>30.616411473329208</v>
+        <v>35.437398327474511</v>
       </c>
       <c r="Y5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="7">
         <v>46.5</v>
@@ -971,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>187.72274980598741</v>
+        <v>190.39139449682554</v>
       </c>
       <c r="E6" s="7">
         <v>212</v>
@@ -1054,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>70</v>
+        <v>70.000000000001137</v>
       </c>
       <c r="E7" s="7">
         <v>0</v>
@@ -1066,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="7">
-        <v>212.33606232690681</v>
+        <v>215.10604979721984</v>
       </c>
       <c r="I7" s="7">
         <v>464</v>
@@ -1161,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="7">
-        <v>86.672646369179233</v>
+        <v>90.387640613800613</v>
       </c>
       <c r="M8" s="7">
         <v>101.5</v>
@@ -1176,13 +1179,13 @@
         <v>101.5</v>
       </c>
       <c r="Q8" s="7">
-        <v>0</v>
+        <v>25.664173806588224</v>
       </c>
       <c r="R8" s="7">
         <v>101.5</v>
       </c>
       <c r="S8" s="7">
-        <v>95.959789929334946</v>
+        <v>98.383687634352128</v>
       </c>
       <c r="T8" s="7">
         <v>0</v>
@@ -1324,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="7">
-        <v>67.712631081779591</v>
+        <v>71.469521669994037</v>
       </c>
       <c r="L10" s="7">
         <v>88</v>
@@ -1360,7 +1363,7 @@
         <v>88</v>
       </c>
       <c r="W10" s="7">
-        <v>30.452766434035766</v>
+        <v>32.313520885503749</v>
       </c>
       <c r="X10" s="7">
         <v>13</v>
@@ -1389,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="7">
-        <v>437.04936810761319</v>
+        <v>439.67699965579504</v>
       </c>
       <c r="F11" s="7">
         <v>650</v>
@@ -1466,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="7">
-        <v>33.205480803073442</v>
+        <v>29.310467566032457</v>
       </c>
       <c r="D12" s="7">
         <v>0</v>
@@ -1576,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="7">
-        <v>23.000000000000281</v>
+        <v>23.000000000002856</v>
       </c>
       <c r="M13" s="7">
         <v>154</v>
@@ -1594,7 +1597,7 @@
         <v>154</v>
       </c>
       <c r="R13" s="7">
-        <v>122.06589880278398</v>
+        <v>124.81114499355454</v>
       </c>
       <c r="S13" s="7">
         <v>0</v>
@@ -1603,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="U13" s="7">
-        <v>0</v>
+        <v>33.519953591382603</v>
       </c>
       <c r="V13" s="7">
         <v>0</v>
@@ -1615,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="Y13" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z13" s="7">
         <v>0</v>
@@ -1695,10 +1698,10 @@
         <v>150</v>
       </c>
       <c r="X14" s="7">
-        <v>145.49727093340192</v>
+        <v>140.6762840792554</v>
       </c>
       <c r="Y14" s="7">
-        <v>0</v>
+        <v>70.894920918229047</v>
       </c>
       <c r="Z14" s="7">
         <v>0</v>
@@ -1718,16 +1721,16 @@
         <v>1848</v>
       </c>
       <c r="D15" s="7">
-        <v>1553.4332151940112</v>
+        <v>1550.7645705031723</v>
       </c>
       <c r="E15" s="7">
-        <v>1205.767000577385</v>
+        <v>1203.1393690292032</v>
       </c>
       <c r="F15" s="7">
-        <v>873.21997152419135</v>
+        <v>870.72697718766631</v>
       </c>
       <c r="G15" s="7">
-        <v>556.47923597309432</v>
+        <v>554.12071973426896</v>
       </c>
       <c r="H15" s="7">
         <v>277</v>
@@ -1819,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="7">
-        <v>317.66336542315139</v>
+        <v>321.31391087705333</v>
       </c>
       <c r="K16" s="7">
         <v>656.1</v>
@@ -1852,7 +1855,7 @@
         <v>656.1</v>
       </c>
       <c r="U16" s="7">
-        <v>656.1</v>
+        <v>571.48557982475904</v>
       </c>
       <c r="V16" s="7">
         <v>656.1</v>
@@ -1864,13 +1867,13 @@
         <v>656.1</v>
       </c>
       <c r="Y16" s="7">
-        <v>611.94260554839025</v>
+        <v>525.5476846301608</v>
       </c>
       <c r="Z16" s="7">
-        <v>553.64158899832455</v>
+        <v>553.64158899830977</v>
       </c>
       <c r="AA16" s="8">
-        <v>436.81486329930931</v>
+        <v>436.8148632993084</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.35">
@@ -1923,7 +1926,7 @@
         <v>50.3</v>
       </c>
       <c r="Q17" s="7">
-        <v>48.91616347596937</v>
+        <v>50.3</v>
       </c>
       <c r="R17" s="7">
         <v>50.3</v>
@@ -1932,7 +1935,7 @@
         <v>50.3</v>
       </c>
       <c r="T17" s="7">
-        <v>12.949799968483603</v>
+        <v>0</v>
       </c>
       <c r="U17" s="7">
         <v>0</v>
@@ -1950,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="Z17" s="7">
-        <v>0</v>
+        <v>1.4551915228366852E-11</v>
       </c>
       <c r="AA17" s="8">
         <v>0</v>
@@ -1967,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>-1.6164847238542279E-13</v>
       </c>
       <c r="E18" s="7">
         <v>0</v>
@@ -2080,40 +2083,40 @@
         <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>238.83883661163964</v>
+        <v>235.29049217141892</v>
       </c>
       <c r="O19" s="7">
-        <v>141.89484053618463</v>
+        <v>138.53790231109792</v>
       </c>
       <c r="P19" s="7">
-        <v>66.455133769835811</v>
+        <v>63.279276849262715</v>
       </c>
       <c r="Q19" s="7">
         <v>0</v>
       </c>
       <c r="R19" s="7">
-        <v>78.713313317228454</v>
+        <v>75.968067126459459</v>
       </c>
       <c r="S19" s="7">
-        <v>55.814735099758309</v>
+        <v>53.390837394744516</v>
       </c>
       <c r="T19" s="7">
-        <v>39.065495785870404</v>
+        <v>0</v>
       </c>
       <c r="U19" s="7">
         <v>0</v>
       </c>
       <c r="V19" s="7">
-        <v>40.989870779806267</v>
+        <v>39</v>
       </c>
       <c r="W19" s="7">
-        <v>60.39786033180259</v>
+        <v>58.537105880331154</v>
       </c>
       <c r="X19" s="7">
         <v>0</v>
       </c>
       <c r="Y19" s="7">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="7">
         <v>0</v>
@@ -2145,22 +2148,22 @@
         <v>2269.6</v>
       </c>
       <c r="H20" s="7">
-        <v>2240.8333570113091</v>
+        <v>2238.0633695409961</v>
       </c>
       <c r="I20" s="7">
-        <v>2220.3365256343545</v>
+        <v>2217.3943325084606</v>
       </c>
       <c r="J20" s="7">
-        <v>1996.9203851861175</v>
+        <v>1993.2698397322156</v>
       </c>
       <c r="K20" s="7">
-        <v>1486.8428732829725</v>
+        <v>1483.0859826947581</v>
       </c>
       <c r="L20" s="7">
-        <v>954.76925753485523</v>
+        <v>951.05426329023123</v>
       </c>
       <c r="M20" s="7">
-        <v>374.39499189851779</v>
+        <v>370.47882470625495</v>
       </c>
       <c r="N20" s="7">
         <v>0</v>
@@ -2175,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="7">
-        <v>-1.1368683772161603E-13</v>
+        <v>0</v>
       </c>
       <c r="S20" s="7">
         <v>0</v>
@@ -2190,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="7">
-        <v>0</v>
+        <v>2.7284841053187847E-12</v>
       </c>
       <c r="X20" s="7">
         <v>0</v>
@@ -2210,7 +2213,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6">
-        <v>25.351080247864047</v>
+        <v>21.644142938021105</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -2255,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="7">
-        <v>0</v>
+        <v>3.19122506198255E-12</v>
       </c>
       <c r="R21" s="7">
         <v>0</v>
@@ -2347,13 +2350,13 @@
         <v>398.3</v>
       </c>
       <c r="T22" s="7">
+        <v>362.10716141420562</v>
+      </c>
+      <c r="U22" s="7">
         <v>398.3</v>
       </c>
-      <c r="U22" s="7">
-        <v>239.94802196953606</v>
-      </c>
       <c r="V22" s="7">
-        <v>110.55941243708094</v>
+        <v>112.54928321688749</v>
       </c>
       <c r="W22" s="7">
         <v>0</v>
@@ -2379,25 +2382,25 @@
         <v>0</v>
       </c>
       <c r="C23" s="7">
+        <v>28.1</v>
+      </c>
+      <c r="D23" s="7">
         <v>28.100000000000009</v>
       </c>
-      <c r="D23" s="7">
+      <c r="E23" s="7">
+        <v>28.100000000000009</v>
+      </c>
+      <c r="F23" s="7">
+        <v>28.099999999999994</v>
+      </c>
+      <c r="G23" s="7">
         <v>28.1</v>
-      </c>
-      <c r="E23" s="7">
-        <v>28.1</v>
-      </c>
-      <c r="F23" s="7">
-        <v>28.1</v>
-      </c>
-      <c r="G23" s="7">
-        <v>28.099999999999994</v>
       </c>
       <c r="H23" s="7">
         <v>28.099999999999994</v>
       </c>
       <c r="I23" s="7">
-        <v>28.1</v>
+        <v>28.100000000000009</v>
       </c>
       <c r="J23" s="7">
         <v>28.099999999999994</v>
@@ -2424,13 +2427,13 @@
         <v>28.1</v>
       </c>
       <c r="R23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.1</v>
       </c>
       <c r="S23" s="7">
         <v>28.1</v>
       </c>
       <c r="T23" s="7">
-        <v>28.1</v>
+        <v>28.100000000000009</v>
       </c>
       <c r="U23" s="7">
         <v>28.1</v>
@@ -2448,10 +2451,10 @@
         <v>28.1</v>
       </c>
       <c r="Z23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.1</v>
       </c>
       <c r="AA23" s="8">
-        <v>28.100000000000009</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.35">
@@ -2628,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="7">
-        <v>1.8795191969259548</v>
+        <v>30.6</v>
       </c>
       <c r="D26" s="7">
         <v>30.6</v>
@@ -2637,25 +2640,25 @@
         <v>30.6</v>
       </c>
       <c r="F26" s="7">
+        <v>30.6</v>
+      </c>
+      <c r="G26" s="7">
         <v>30.599999999999998</v>
-      </c>
-      <c r="G26" s="7">
-        <v>30.6</v>
       </c>
       <c r="H26" s="7">
         <v>30.6</v>
       </c>
       <c r="I26" s="7">
+        <v>30.599999999999998</v>
+      </c>
+      <c r="J26" s="7">
         <v>30.6</v>
       </c>
-      <c r="J26" s="7">
+      <c r="K26" s="7">
         <v>30.599999999999998</v>
       </c>
-      <c r="K26" s="7">
-        <v>30.6</v>
-      </c>
       <c r="L26" s="7">
-        <v>30.6</v>
+        <v>30.599999999999998</v>
       </c>
       <c r="M26" s="7">
         <v>30.6</v>
@@ -2676,13 +2679,13 @@
         <v>30.6</v>
       </c>
       <c r="S26" s="7">
-        <v>30.599999999999998</v>
+        <v>30.6</v>
       </c>
       <c r="T26" s="7">
         <v>30.6</v>
       </c>
       <c r="U26" s="7">
-        <v>30.6</v>
+        <v>30.599999999999998</v>
       </c>
       <c r="V26" s="7">
         <v>30.6</v>
@@ -2729,46 +2732,46 @@
         <v>10</v>
       </c>
       <c r="I27" s="7">
+        <v>10</v>
+      </c>
+      <c r="J27" s="7">
+        <v>10</v>
+      </c>
+      <c r="K27" s="7">
+        <v>10</v>
+      </c>
+      <c r="L27" s="7">
+        <v>10</v>
+      </c>
+      <c r="M27" s="7">
+        <v>10</v>
+      </c>
+      <c r="N27" s="7">
+        <v>10</v>
+      </c>
+      <c r="O27" s="7">
+        <v>10</v>
+      </c>
+      <c r="P27" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>10</v>
+      </c>
+      <c r="R27" s="7">
+        <v>10</v>
+      </c>
+      <c r="S27" s="7">
+        <v>10</v>
+      </c>
+      <c r="T27" s="7">
+        <v>10</v>
+      </c>
+      <c r="U27" s="7">
+        <v>10</v>
+      </c>
+      <c r="V27" s="7">
         <v>9.9999999999999929</v>
-      </c>
-      <c r="J27" s="7">
-        <v>10</v>
-      </c>
-      <c r="K27" s="7">
-        <v>10</v>
-      </c>
-      <c r="L27" s="7">
-        <v>10</v>
-      </c>
-      <c r="M27" s="7">
-        <v>10</v>
-      </c>
-      <c r="N27" s="7">
-        <v>10</v>
-      </c>
-      <c r="O27" s="7">
-        <v>10</v>
-      </c>
-      <c r="P27" s="7">
-        <v>10</v>
-      </c>
-      <c r="Q27" s="7">
-        <v>10</v>
-      </c>
-      <c r="R27" s="7">
-        <v>10</v>
-      </c>
-      <c r="S27" s="7">
-        <v>10</v>
-      </c>
-      <c r="T27" s="7">
-        <v>9.9999999999999929</v>
-      </c>
-      <c r="U27" s="7">
-        <v>10</v>
-      </c>
-      <c r="V27" s="7">
-        <v>10</v>
       </c>
       <c r="W27" s="7">
         <v>10</v>
@@ -2883,49 +2886,49 @@
         <v>10</v>
       </c>
       <c r="E29" s="7">
+        <v>10</v>
+      </c>
+      <c r="F29" s="7">
+        <v>10</v>
+      </c>
+      <c r="G29" s="7">
+        <v>10</v>
+      </c>
+      <c r="H29" s="7">
+        <v>10</v>
+      </c>
+      <c r="I29" s="7">
+        <v>10</v>
+      </c>
+      <c r="J29" s="7">
+        <v>10</v>
+      </c>
+      <c r="K29" s="7">
+        <v>10</v>
+      </c>
+      <c r="L29" s="7">
+        <v>10</v>
+      </c>
+      <c r="M29" s="7">
+        <v>10</v>
+      </c>
+      <c r="N29" s="7">
         <v>9.9999999999999929</v>
       </c>
-      <c r="F29" s="7">
-        <v>10</v>
-      </c>
-      <c r="G29" s="7">
-        <v>10</v>
-      </c>
-      <c r="H29" s="7">
-        <v>10</v>
-      </c>
-      <c r="I29" s="7">
-        <v>10</v>
-      </c>
-      <c r="J29" s="7">
-        <v>10</v>
-      </c>
-      <c r="K29" s="7">
-        <v>10</v>
-      </c>
-      <c r="L29" s="7">
+      <c r="O29" s="7">
+        <v>10</v>
+      </c>
+      <c r="P29" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>10</v>
+      </c>
+      <c r="R29" s="7">
+        <v>10</v>
+      </c>
+      <c r="S29" s="7">
         <v>9.9999999999999929</v>
-      </c>
-      <c r="M29" s="7">
-        <v>10</v>
-      </c>
-      <c r="N29" s="7">
-        <v>10</v>
-      </c>
-      <c r="O29" s="7">
-        <v>10</v>
-      </c>
-      <c r="P29" s="7">
-        <v>10</v>
-      </c>
-      <c r="Q29" s="7">
-        <v>9.9999999999999929</v>
-      </c>
-      <c r="R29" s="7">
-        <v>10</v>
-      </c>
-      <c r="S29" s="7">
-        <v>10</v>
       </c>
       <c r="T29" s="7">
         <v>10</v>
@@ -2960,37 +2963,37 @@
         <v>0</v>
       </c>
       <c r="C30" s="7">
+        <v>52.200000000000017</v>
+      </c>
+      <c r="D30" s="7">
         <v>52.2</v>
       </c>
-      <c r="D30" s="7">
-        <v>52.200000000000017</v>
-      </c>
       <c r="E30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.2</v>
       </c>
       <c r="F30" s="7">
         <v>52.2</v>
       </c>
       <c r="G30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.2</v>
       </c>
       <c r="H30" s="7">
         <v>52.200000000000017</v>
       </c>
       <c r="I30" s="7">
+        <v>52.2</v>
+      </c>
+      <c r="J30" s="7">
         <v>52.200000000000017</v>
       </c>
-      <c r="J30" s="7">
+      <c r="K30" s="7">
         <v>52.2</v>
       </c>
-      <c r="K30" s="7">
+      <c r="L30" s="7">
+        <v>52.2</v>
+      </c>
+      <c r="M30" s="7">
         <v>52.20000000000001</v>
-      </c>
-      <c r="L30" s="7">
-        <v>52.200000000000017</v>
-      </c>
-      <c r="M30" s="7">
-        <v>52.200000000000017</v>
       </c>
       <c r="N30" s="7">
         <v>52.200000000000017</v>
@@ -2999,19 +3002,19 @@
         <v>52.200000000000017</v>
       </c>
       <c r="P30" s="7">
-        <v>52.20000000000001</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="Q30" s="7">
         <v>52.200000000000017</v>
       </c>
       <c r="R30" s="7">
-        <v>52.2</v>
+        <v>52.20000000000001</v>
       </c>
       <c r="S30" s="7">
         <v>52.200000000000017</v>
       </c>
       <c r="T30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.2</v>
       </c>
       <c r="U30" s="7">
         <v>52.200000000000017</v>
@@ -3029,10 +3032,10 @@
         <v>52.200000000000017</v>
       </c>
       <c r="Z30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="AA30" s="8">
-        <v>52.2</v>
+        <v>52.20000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.35">
@@ -3043,44 +3046,44 @@
         <v>0</v>
       </c>
       <c r="C31" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="D31" s="7">
+        <v>10</v>
+      </c>
+      <c r="E31" s="7">
+        <v>10</v>
+      </c>
+      <c r="F31" s="7">
+        <v>10</v>
+      </c>
+      <c r="G31" s="7">
+        <v>10</v>
+      </c>
+      <c r="H31" s="7">
+        <v>10</v>
+      </c>
+      <c r="I31" s="7">
+        <v>10</v>
+      </c>
+      <c r="J31" s="7">
+        <v>10</v>
+      </c>
+      <c r="K31" s="7">
+        <v>10</v>
+      </c>
+      <c r="L31" s="7">
         <v>9.9999999999999929</v>
       </c>
-      <c r="E31" s="7">
-        <v>10</v>
-      </c>
-      <c r="F31" s="7">
-        <v>10</v>
-      </c>
-      <c r="G31" s="7">
-        <v>10</v>
-      </c>
-      <c r="H31" s="7">
-        <v>10</v>
-      </c>
-      <c r="I31" s="7">
-        <v>10</v>
-      </c>
-      <c r="J31" s="7">
-        <v>10</v>
-      </c>
-      <c r="K31" s="7">
-        <v>10</v>
-      </c>
-      <c r="L31" s="7">
-        <v>10</v>
-      </c>
       <c r="M31" s="7">
+        <v>10</v>
+      </c>
+      <c r="N31" s="7">
+        <v>10</v>
+      </c>
+      <c r="O31" s="7">
         <v>9.9999999999999929</v>
       </c>
-      <c r="N31" s="7">
-        <v>10</v>
-      </c>
-      <c r="O31" s="7">
-        <v>10</v>
-      </c>
       <c r="P31" s="7">
         <v>10</v>
       </c>
@@ -3091,14 +3094,14 @@
         <v>10</v>
       </c>
       <c r="S31" s="7">
+        <v>10</v>
+      </c>
+      <c r="T31" s="7">
+        <v>10</v>
+      </c>
+      <c r="U31" s="7">
         <v>9.9999999999999929</v>
       </c>
-      <c r="T31" s="7">
-        <v>10</v>
-      </c>
-      <c r="U31" s="7">
-        <v>10</v>
-      </c>
       <c r="V31" s="7">
         <v>10</v>
       </c>
@@ -3106,13 +3109,13 @@
         <v>10</v>
       </c>
       <c r="X31" s="7">
+        <v>10</v>
+      </c>
+      <c r="Y31" s="7">
+        <v>10</v>
+      </c>
+      <c r="Z31" s="7">
         <v>9.9999999999999929</v>
-      </c>
-      <c r="Y31" s="7">
-        <v>9.9999999999999929</v>
-      </c>
-      <c r="Z31" s="7">
-        <v>10</v>
       </c>
       <c r="AA31" s="8">
         <v>10</v>
@@ -3126,19 +3129,19 @@
         <v>0</v>
       </c>
       <c r="C32" s="7">
-        <v>20.2</v>
+        <v>5.4745324339669352</v>
       </c>
       <c r="D32" s="7">
-        <v>20.2</v>
+        <v>20.200000000000003</v>
       </c>
       <c r="E32" s="7">
-        <v>20.2</v>
+        <v>20.200000000000003</v>
       </c>
       <c r="F32" s="7">
         <v>20.2</v>
       </c>
       <c r="G32" s="7">
-        <v>20.200000000000003</v>
+        <v>20.2</v>
       </c>
       <c r="H32" s="7">
         <v>20.2</v>
@@ -3150,34 +3153,34 @@
         <v>20.2</v>
       </c>
       <c r="K32" s="7">
-        <v>20.200000000000003</v>
+        <v>20.2</v>
       </c>
       <c r="L32" s="7">
-        <v>20.200000000000003</v>
+        <v>20.2</v>
       </c>
       <c r="M32" s="7">
         <v>20.200000000000003</v>
       </c>
       <c r="N32" s="7">
-        <v>20.2</v>
+        <v>20.200000000000003</v>
       </c>
       <c r="O32" s="7">
         <v>20.200000000000003</v>
       </c>
       <c r="P32" s="7">
-        <v>20.200000000000003</v>
+        <v>20.2</v>
       </c>
       <c r="Q32" s="7">
         <v>20.200000000000003</v>
       </c>
       <c r="R32" s="7">
+        <v>20.200000000000003</v>
+      </c>
+      <c r="S32" s="7">
+        <v>20.200000000000003</v>
+      </c>
+      <c r="T32" s="7">
         <v>20.2</v>
-      </c>
-      <c r="S32" s="7">
-        <v>20.2</v>
-      </c>
-      <c r="T32" s="7">
-        <v>20.200000000000003</v>
       </c>
       <c r="U32" s="7">
         <v>20.2</v>
@@ -3186,7 +3189,7 @@
         <v>20.200000000000003</v>
       </c>
       <c r="W32" s="7">
-        <v>20.200000000000003</v>
+        <v>20.2</v>
       </c>
       <c r="X32" s="7">
         <v>20.200000000000003</v>
@@ -3195,10 +3198,10 @@
         <v>20.200000000000003</v>
       </c>
       <c r="Z32" s="7">
-        <v>20.2</v>
+        <v>20.200000000000003</v>
       </c>
       <c r="AA32" s="8">
-        <v>20.200000000000003</v>
+        <v>20.199999999999996</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.35">
@@ -3301,10 +3304,10 @@
         <v>10.5</v>
       </c>
       <c r="F34" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="G34" s="7">
         <v>10.499999999999993</v>
-      </c>
-      <c r="G34" s="7">
-        <v>10.5</v>
       </c>
       <c r="H34" s="7">
         <v>10.5</v>
@@ -3346,16 +3349,16 @@
         <v>10.5</v>
       </c>
       <c r="U34" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="V34" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="W34" s="7">
         <v>10.499999999999993</v>
       </c>
-      <c r="V34" s="7">
+      <c r="X34" s="7">
         <v>10.499999999999993</v>
-      </c>
-      <c r="W34" s="7">
-        <v>10.5</v>
-      </c>
-      <c r="X34" s="7">
-        <v>10.5</v>
       </c>
       <c r="Y34" s="7">
         <v>10.5</v>
@@ -3387,7 +3390,7 @@
         <v>10.000000000000014</v>
       </c>
       <c r="G35" s="7">
-        <v>10</v>
+        <v>10.000000000000014</v>
       </c>
       <c r="H35" s="7">
         <v>10</v>
@@ -3396,25 +3399,25 @@
         <v>10</v>
       </c>
       <c r="J35" s="7">
+        <v>10</v>
+      </c>
+      <c r="K35" s="7">
         <v>10.000000000000014</v>
       </c>
-      <c r="K35" s="7">
-        <v>10</v>
-      </c>
       <c r="L35" s="7">
-        <v>10</v>
+        <v>10.000000000000014</v>
       </c>
       <c r="M35" s="7">
         <v>10</v>
       </c>
       <c r="N35" s="7">
+        <v>10</v>
+      </c>
+      <c r="O35" s="7">
+        <v>10</v>
+      </c>
+      <c r="P35" s="7">
         <v>9.9999999999999929</v>
-      </c>
-      <c r="O35" s="7">
-        <v>10</v>
-      </c>
-      <c r="P35" s="7">
-        <v>10</v>
       </c>
       <c r="Q35" s="7">
         <v>10</v>
@@ -3458,13 +3461,13 @@
         <v>0</v>
       </c>
       <c r="C36" s="7">
-        <v>10</v>
+        <v>10.000000000000002</v>
       </c>
       <c r="D36" s="7">
-        <v>10</v>
+        <v>10.000000000000002</v>
       </c>
       <c r="E36" s="7">
-        <v>10</v>
+        <v>10.000000000000002</v>
       </c>
       <c r="F36" s="7">
         <v>10</v>
@@ -3482,14 +3485,14 @@
         <v>10</v>
       </c>
       <c r="K36" s="7">
+        <v>10</v>
+      </c>
+      <c r="L36" s="7">
+        <v>10</v>
+      </c>
+      <c r="M36" s="7">
         <v>10.000000000000002</v>
       </c>
-      <c r="L36" s="7">
-        <v>10</v>
-      </c>
-      <c r="M36" s="7">
-        <v>10</v>
-      </c>
       <c r="N36" s="7">
         <v>10</v>
       </c>
@@ -3497,14 +3500,14 @@
         <v>10</v>
       </c>
       <c r="P36" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>10</v>
+      </c>
+      <c r="R36" s="7">
         <v>10.000000000000002</v>
       </c>
-      <c r="Q36" s="7">
-        <v>10</v>
-      </c>
-      <c r="R36" s="7">
-        <v>10</v>
-      </c>
       <c r="S36" s="7">
         <v>10</v>
       </c>
@@ -3521,13 +3524,13 @@
         <v>10</v>
       </c>
       <c r="X36" s="7">
+        <v>10</v>
+      </c>
+      <c r="Y36" s="7">
+        <v>10</v>
+      </c>
+      <c r="Z36" s="7">
         <v>10.000000000000002</v>
-      </c>
-      <c r="Y36" s="7">
-        <v>10.000000000000002</v>
-      </c>
-      <c r="Z36" s="7">
-        <v>10</v>
       </c>
       <c r="AA36" s="8">
         <v>10</v>
@@ -3707,37 +3710,37 @@
         <v>0</v>
       </c>
       <c r="C39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.1</v>
       </c>
       <c r="D39" s="7">
         <v>10.1</v>
       </c>
       <c r="E39" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="F39" s="7">
         <v>10.100000000000001</v>
       </c>
-      <c r="F39" s="7">
+      <c r="G39" s="7">
         <v>10.099999999999994</v>
-      </c>
-      <c r="G39" s="7">
-        <v>10.100000000000001</v>
       </c>
       <c r="H39" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="I39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.1</v>
       </c>
       <c r="J39" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="K39" s="7">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="L39" s="7">
         <v>10.1</v>
       </c>
-      <c r="L39" s="7">
-        <v>10.099999999999994</v>
-      </c>
       <c r="M39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.1</v>
       </c>
       <c r="N39" s="7">
         <v>10.099999999999994</v>
@@ -3746,13 +3749,13 @@
         <v>10.099999999999994</v>
       </c>
       <c r="P39" s="7">
-        <v>10.1</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="Q39" s="7">
         <v>10.099999999999994</v>
       </c>
       <c r="R39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.1</v>
       </c>
       <c r="S39" s="7">
         <v>10.099999999999994</v>
@@ -3770,16 +3773,16 @@
         <v>10.099999999999994</v>
       </c>
       <c r="X39" s="7">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="Y39" s="7">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="Z39" s="7">
         <v>10.1</v>
       </c>
-      <c r="Y39" s="7">
+      <c r="AA39" s="8">
         <v>10.1</v>
-      </c>
-      <c r="Z39" s="7">
-        <v>10.099999999999994</v>
-      </c>
-      <c r="AA39" s="8">
-        <v>10.099999999999994</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.35">
@@ -3790,67 +3793,67 @@
         <v>0</v>
       </c>
       <c r="C40" s="7">
+        <v>0</v>
+      </c>
+      <c r="D40" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="E40" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="F40" s="7">
         <v>10.099999999999998</v>
       </c>
-      <c r="D40" s="7">
-        <v>10.099999999999998</v>
-      </c>
-      <c r="E40" s="7">
-        <v>10.099999999999998</v>
-      </c>
-      <c r="F40" s="7">
+      <c r="G40" s="7">
         <v>10.100000000000001</v>
-      </c>
-      <c r="G40" s="7">
-        <v>10.1</v>
       </c>
       <c r="H40" s="7">
         <v>10.099999999999998</v>
       </c>
       <c r="I40" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="J40" s="7">
         <v>10.099999999999998</v>
       </c>
-      <c r="J40" s="7">
+      <c r="K40" s="7">
         <v>10.100000000000001</v>
-      </c>
-      <c r="K40" s="7">
-        <v>10.1</v>
       </c>
       <c r="L40" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="M40" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="N40" s="7">
         <v>10.100000000000001</v>
-      </c>
-      <c r="N40" s="7">
-        <v>10.099999999999998</v>
       </c>
       <c r="O40" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="P40" s="7">
-        <v>10.1</v>
+        <v>10.099999999999998</v>
       </c>
       <c r="Q40" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="R40" s="7">
-        <v>10.099999999999998</v>
+        <v>10.1</v>
       </c>
       <c r="S40" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="T40" s="7">
+        <v>10.099999999999998</v>
+      </c>
+      <c r="U40" s="7">
         <v>10.100000000000001</v>
-      </c>
-      <c r="U40" s="7">
-        <v>10.099999999999998</v>
       </c>
       <c r="V40" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="W40" s="7">
-        <v>10.100000000000001</v>
+        <v>10.099999999999998</v>
       </c>
       <c r="X40" s="7">
         <v>10.100000000000001</v>
@@ -3859,10 +3862,10 @@
         <v>10.100000000000001</v>
       </c>
       <c r="Z40" s="7">
-        <v>10.099999999999998</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="AA40" s="8">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.35">
@@ -3980,7 +3983,7 @@
         <v>12</v>
       </c>
       <c r="K42" s="7">
-        <v>12</v>
+        <v>11.999999999999993</v>
       </c>
       <c r="L42" s="7">
         <v>12</v>
@@ -3992,13 +3995,13 @@
         <v>12</v>
       </c>
       <c r="O42" s="7">
-        <v>11.999999999999993</v>
+        <v>12</v>
       </c>
       <c r="P42" s="7">
         <v>12</v>
       </c>
       <c r="Q42" s="7">
-        <v>12</v>
+        <v>11.999999999999993</v>
       </c>
       <c r="R42" s="7">
         <v>12</v>
@@ -4016,13 +4019,13 @@
         <v>12</v>
       </c>
       <c r="W42" s="7">
-        <v>11.999999999999993</v>
+        <v>12</v>
       </c>
       <c r="X42" s="7">
         <v>12</v>
       </c>
       <c r="Y42" s="7">
-        <v>12</v>
+        <v>11.999999999999993</v>
       </c>
       <c r="Z42" s="7">
         <v>12</v>
@@ -4072,46 +4075,46 @@
         <v>0</v>
       </c>
       <c r="N43" s="7">
-        <v>200</v>
+        <v>200.00000000000026</v>
       </c>
       <c r="O43" s="7">
-        <v>400</v>
+        <v>400.00000000000023</v>
       </c>
       <c r="P43" s="7">
-        <v>600</v>
+        <v>600.00000000000023</v>
       </c>
       <c r="Q43" s="7">
-        <v>800</v>
+        <v>800.00000000000023</v>
       </c>
       <c r="R43" s="7">
-        <v>1050</v>
+        <v>1050.0000000000002</v>
       </c>
       <c r="S43" s="7">
-        <v>1250</v>
+        <v>1250.0000000000002</v>
       </c>
       <c r="T43" s="7">
         <v>1450.0000000000002</v>
       </c>
       <c r="U43" s="7">
-        <v>1650</v>
+        <v>1650.0000000000002</v>
       </c>
       <c r="V43" s="7">
-        <v>1849.9999999999998</v>
+        <v>1850.0000000000002</v>
       </c>
       <c r="W43" s="7">
-        <v>2050</v>
+        <v>2050.0000000000005</v>
       </c>
       <c r="X43" s="7">
-        <v>2200</v>
+        <v>2200.0000000000005</v>
       </c>
       <c r="Y43" s="7">
-        <v>2399.9999999999991</v>
+        <v>2400.0000000000005</v>
       </c>
       <c r="Z43" s="7">
-        <v>2550</v>
+        <v>2550.0000000000005</v>
       </c>
       <c r="AA43" s="8">
-        <v>2700</v>
+        <v>2700.0000000000005</v>
       </c>
       <c r="AB43" t="s">
         <v>17</v>
@@ -4121,1036 +4124,1122 @@
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" s="9">
-        <v>0</v>
-      </c>
-      <c r="C44" s="10">
-        <v>0</v>
-      </c>
-      <c r="D44" s="10">
-        <v>0</v>
-      </c>
-      <c r="E44" s="10">
-        <v>0</v>
-      </c>
-      <c r="F44" s="10">
-        <v>0</v>
-      </c>
-      <c r="G44" s="10">
-        <v>0</v>
-      </c>
-      <c r="H44" s="10">
-        <v>0</v>
-      </c>
-      <c r="I44" s="10">
-        <v>0</v>
-      </c>
-      <c r="J44" s="10">
-        <v>0</v>
-      </c>
-      <c r="K44" s="10">
-        <v>0</v>
-      </c>
-      <c r="L44" s="10">
-        <v>0</v>
-      </c>
-      <c r="M44" s="10">
-        <v>0</v>
-      </c>
-      <c r="N44" s="10">
-        <v>0</v>
-      </c>
-      <c r="O44" s="10">
-        <v>0</v>
-      </c>
-      <c r="P44" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="10">
-        <v>0</v>
-      </c>
-      <c r="R44" s="10">
-        <v>4.5474735088646412E-13</v>
-      </c>
-      <c r="S44" s="10">
-        <v>0</v>
-      </c>
-      <c r="T44" s="10">
-        <v>0</v>
-      </c>
-      <c r="U44" s="10">
-        <v>0</v>
-      </c>
-      <c r="V44" s="10">
-        <v>0</v>
-      </c>
-      <c r="W44" s="10">
-        <v>0</v>
-      </c>
-      <c r="X44" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="11">
+      <c r="B44" s="6">
+        <v>0</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0</v>
+      </c>
+      <c r="J44" s="7">
+        <v>0</v>
+      </c>
+      <c r="K44" s="7">
+        <v>0</v>
+      </c>
+      <c r="L44" s="7">
+        <v>0</v>
+      </c>
+      <c r="M44" s="7">
+        <v>0</v>
+      </c>
+      <c r="N44" s="7">
+        <v>0</v>
+      </c>
+      <c r="O44" s="7">
+        <v>0</v>
+      </c>
+      <c r="P44" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="7">
+        <v>0</v>
+      </c>
+      <c r="R44" s="7">
+        <v>0</v>
+      </c>
+      <c r="S44" s="7">
+        <v>0</v>
+      </c>
+      <c r="T44" s="7">
+        <v>0</v>
+      </c>
+      <c r="U44" s="7">
+        <v>0</v>
+      </c>
+      <c r="V44" s="7">
+        <v>0</v>
+      </c>
+      <c r="W44" s="7">
+        <v>0</v>
+      </c>
+      <c r="X44" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="8">
         <v>20</v>
       </c>
       <c r="AB44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="9">
+        <v>0</v>
+      </c>
+      <c r="C45" s="10">
+        <v>0</v>
+      </c>
+      <c r="D45" s="10">
+        <v>0</v>
+      </c>
+      <c r="E45" s="10">
+        <v>0</v>
+      </c>
+      <c r="F45" s="10">
+        <v>0</v>
+      </c>
+      <c r="G45" s="10">
+        <v>0</v>
+      </c>
+      <c r="H45" s="10">
+        <v>0</v>
+      </c>
+      <c r="I45" s="10">
+        <v>0</v>
+      </c>
+      <c r="J45" s="10">
+        <v>0</v>
+      </c>
+      <c r="K45" s="10">
+        <v>0</v>
+      </c>
+      <c r="L45" s="10">
+        <v>0</v>
+      </c>
+      <c r="M45" s="10">
+        <v>0</v>
+      </c>
+      <c r="N45" s="10">
+        <v>0</v>
+      </c>
+      <c r="O45" s="10">
+        <v>0</v>
+      </c>
+      <c r="P45" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="10">
+        <v>0</v>
+      </c>
+      <c r="R45" s="10">
+        <v>0</v>
+      </c>
+      <c r="S45" s="10">
+        <v>0</v>
+      </c>
+      <c r="T45" s="10">
+        <v>0</v>
+      </c>
+      <c r="U45" s="10">
+        <v>0</v>
+      </c>
+      <c r="V45" s="10">
+        <v>0</v>
+      </c>
+      <c r="W45" s="10">
+        <v>0</v>
+      </c>
+      <c r="X45" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="3">
-        <v>61.599639917378695</v>
-      </c>
-      <c r="C48" s="4">
-        <v>-52.048576934357918</v>
-      </c>
-      <c r="D48" s="4">
-        <v>176.36470745399197</v>
-      </c>
-      <c r="E48" s="4">
-        <v>136.42312011825035</v>
-      </c>
-      <c r="F48" s="4">
-        <v>235.97805785196249</v>
-      </c>
-      <c r="G48" s="4">
-        <v>467.14097056917342</v>
-      </c>
-      <c r="H48" s="4">
-        <v>683.23178636509431</v>
-      </c>
-      <c r="I48" s="4">
-        <v>872.76148297239877</v>
-      </c>
-      <c r="J48" s="4">
-        <v>717.67198243003099</v>
-      </c>
-      <c r="K48" s="4">
-        <v>582.80568586981428</v>
-      </c>
-      <c r="L48" s="4">
-        <v>616.21577091186373</v>
-      </c>
-      <c r="M48" s="4">
-        <v>743.44767583478756</v>
-      </c>
-      <c r="N48" s="4">
-        <v>676.59684165528893</v>
-      </c>
-      <c r="O48" s="4">
-        <v>597.06696176517278</v>
-      </c>
-      <c r="P48" s="4">
-        <v>510.5623845314509</v>
-      </c>
-      <c r="Q48" s="4">
-        <v>421.7193681581652</v>
-      </c>
-      <c r="R48" s="4">
-        <v>271.71727514640668</v>
-      </c>
-      <c r="S48" s="4">
-        <v>249.66695789650601</v>
-      </c>
-      <c r="T48" s="4">
-        <v>156.8401178380081</v>
-      </c>
-      <c r="U48" s="4">
-        <v>116.30481604741868</v>
-      </c>
-      <c r="V48" s="4">
-        <v>35.317416375303821</v>
-      </c>
-      <c r="W48" s="4">
-        <v>-44.546504732639811</v>
-      </c>
-      <c r="X48" s="4">
-        <v>-98.118690205905409</v>
-      </c>
-      <c r="Y48" s="4">
-        <v>-94.512564535484046</v>
-      </c>
-      <c r="Z48" s="4">
-        <v>-118.9306776163034</v>
-      </c>
-      <c r="AA48" s="5">
-        <v>-123.78488704818358</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="6">
-        <v>-472.90036008262132</v>
-      </c>
-      <c r="C49" s="7">
-        <v>-411.98559613128413</v>
-      </c>
-      <c r="D49" s="7">
-        <v>-532.9800598519962</v>
-      </c>
-      <c r="E49" s="7">
-        <v>-505.36869553925044</v>
-      </c>
-      <c r="F49" s="7">
-        <v>-547.43682862542755</v>
-      </c>
-      <c r="G49" s="7">
-        <v>-655.23956518132832</v>
-      </c>
-      <c r="H49" s="7">
-        <v>-741.05292330401392</v>
-      </c>
-      <c r="I49" s="7">
-        <v>-851.14998908373116</v>
-      </c>
-      <c r="J49" s="7">
-        <v>-525.40652745145235</v>
-      </c>
-      <c r="K49" s="7">
-        <v>-194.87206631256171</v>
-      </c>
-      <c r="L49" s="7">
-        <v>-161.70518104015332</v>
-      </c>
-      <c r="M49" s="7">
-        <v>73.074335315202234</v>
-      </c>
-      <c r="N49" s="7">
-        <v>182.56004107102729</v>
-      </c>
-      <c r="O49" s="7">
-        <v>279.15372997565322</v>
-      </c>
-      <c r="P49" s="7">
-        <v>368.55783365582562</v>
-      </c>
-      <c r="Q49" s="7">
-        <v>455.40667632465954</v>
-      </c>
-      <c r="R49" s="7">
-        <v>498.94356788918384</v>
-      </c>
-      <c r="S49" s="7">
-        <v>530.07969538195903</v>
-      </c>
-      <c r="T49" s="7">
-        <v>612.28246996083078</v>
-      </c>
-      <c r="U49" s="7">
-        <v>746.55204933934692</v>
-      </c>
-      <c r="V49" s="7">
-        <v>840.14277476685936</v>
-      </c>
-      <c r="W49" s="7">
-        <v>934.62818188444055</v>
-      </c>
-      <c r="X49" s="7">
-        <v>1000.6717395241305</v>
-      </c>
-      <c r="Y49" s="7">
-        <v>988.50873823870961</v>
-      </c>
-      <c r="Z49" s="7">
-        <v>1029.4401168828581</v>
-      </c>
-      <c r="AA49" s="8">
-        <v>1031.1725446014709</v>
+      <c r="B49" s="3">
+        <v>62.835285687326341</v>
+      </c>
+      <c r="C49" s="4">
+        <v>-50.75023918867759</v>
+      </c>
+      <c r="D49" s="4">
+        <v>178.1438039145512</v>
+      </c>
+      <c r="E49" s="4">
+        <v>136.42312011825047</v>
+      </c>
+      <c r="F49" s="4">
+        <v>237.64005407631254</v>
+      </c>
+      <c r="G49" s="4">
+        <v>468.71331472839029</v>
+      </c>
+      <c r="H49" s="4">
+        <v>684.15511552186535</v>
+      </c>
+      <c r="I49" s="4">
+        <v>873.74221401436341</v>
+      </c>
+      <c r="J49" s="4">
+        <v>716.45513394539705</v>
+      </c>
+      <c r="K49" s="4">
+        <v>584.05798273255243</v>
+      </c>
+      <c r="L49" s="4">
+        <v>617.45410232673657</v>
+      </c>
+      <c r="M49" s="4">
+        <v>744.7530648988751</v>
+      </c>
+      <c r="N49" s="4">
+        <v>677.77962313536261</v>
+      </c>
+      <c r="O49" s="4">
+        <v>598.18594117353473</v>
+      </c>
+      <c r="P49" s="4">
+        <v>511.62100350497496</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>421.25808931682013</v>
+      </c>
+      <c r="R49" s="4">
+        <v>270.80219308281619</v>
+      </c>
+      <c r="S49" s="4">
+        <v>250.47492379817709</v>
+      </c>
+      <c r="T49" s="4">
+        <v>186.24282928472405</v>
+      </c>
+      <c r="U49" s="4">
+        <v>97.583801093169598</v>
+      </c>
+      <c r="V49" s="4">
+        <v>35.317416375303594</v>
+      </c>
+      <c r="W49" s="4">
+        <v>-43.926253248817375</v>
+      </c>
+      <c r="X49" s="4">
+        <v>-94.904698969808408</v>
+      </c>
+      <c r="Y49" s="4">
+        <v>-86.512564535484387</v>
+      </c>
+      <c r="Z49" s="4">
+        <v>-118.93067761629862</v>
+      </c>
+      <c r="AA49" s="5">
+        <v>-123.78488704818335</v>
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="6">
+        <v>-471.66471431267365</v>
+      </c>
+      <c r="C50" s="7">
+        <v>-414.58227162264478</v>
+      </c>
+      <c r="D50" s="7">
+        <v>-533.8696080822757</v>
+      </c>
+      <c r="E50" s="7">
+        <v>-505.36869553925067</v>
+      </c>
+      <c r="F50" s="7">
+        <v>-548.2678267376026</v>
+      </c>
+      <c r="G50" s="7">
+        <v>-656.02573726093669</v>
+      </c>
+      <c r="H50" s="7">
+        <v>-740.12959414724287</v>
+      </c>
+      <c r="I50" s="7">
+        <v>-850.16925804176651</v>
+      </c>
+      <c r="J50" s="7">
+        <v>-522.97283048218446</v>
+      </c>
+      <c r="K50" s="7">
+        <v>-193.61976944982356</v>
+      </c>
+      <c r="L50" s="7">
+        <v>-160.46684962527786</v>
+      </c>
+      <c r="M50" s="7">
+        <v>74.379724379289769</v>
+      </c>
+      <c r="N50" s="7">
+        <v>183.74282255110126</v>
+      </c>
+      <c r="O50" s="7">
+        <v>280.27270938401534</v>
+      </c>
+      <c r="P50" s="7">
+        <v>369.61645262934991</v>
+      </c>
+      <c r="Q50" s="7">
+        <v>454.94539748331476</v>
+      </c>
+      <c r="R50" s="7">
+        <v>500.77373201636402</v>
+      </c>
+      <c r="S50" s="7">
+        <v>530.88766128363045</v>
+      </c>
+      <c r="T50" s="7">
+        <v>641.68518140754668</v>
+      </c>
+      <c r="U50" s="7">
+        <v>676.73656780123952</v>
+      </c>
+      <c r="V50" s="7">
+        <v>840.14277476685982</v>
+      </c>
+      <c r="W50" s="7">
+        <v>935.24843336826348</v>
+      </c>
+      <c r="X50" s="7">
+        <v>999.06474390608184</v>
+      </c>
+      <c r="Y50" s="7">
+        <v>1004.0087382387102</v>
+      </c>
+      <c r="Z50" s="7">
+        <v>1029.4401168828485</v>
+      </c>
+      <c r="AA50" s="8">
+        <v>1031.1725446014705</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="9">
-        <v>411.30072016524264</v>
-      </c>
-      <c r="C50" s="10">
-        <v>464.03417306564199</v>
-      </c>
-      <c r="D50" s="10">
-        <v>356.61535239800423</v>
-      </c>
-      <c r="E50" s="10">
-        <v>368.94557542100006</v>
-      </c>
-      <c r="F50" s="10">
-        <v>311.45877077346523</v>
-      </c>
-      <c r="G50" s="10">
-        <v>188.0985946121549</v>
-      </c>
-      <c r="H50" s="10">
-        <v>57.821136938919949</v>
-      </c>
-      <c r="I50" s="10">
-        <v>-21.611493888667269</v>
-      </c>
-      <c r="J50" s="10">
-        <v>-192.26545497857865</v>
-      </c>
-      <c r="K50" s="10">
-        <v>-387.93361955725254</v>
-      </c>
-      <c r="L50" s="10">
-        <v>-454.51058987171041</v>
-      </c>
-      <c r="M50" s="10">
-        <v>-816.52201114998968</v>
-      </c>
-      <c r="N50" s="10">
-        <v>-859.1568827263161</v>
-      </c>
-      <c r="O50" s="10">
-        <v>-876.22069174082571</v>
-      </c>
-      <c r="P50" s="10">
-        <v>-879.12021818727646</v>
-      </c>
-      <c r="Q50" s="10">
-        <v>-877.12604448282468</v>
-      </c>
-      <c r="R50" s="10">
-        <v>-770.66084303559057</v>
-      </c>
-      <c r="S50" s="10">
-        <v>-779.74665327846503</v>
-      </c>
-      <c r="T50" s="10">
-        <v>-769.12258779883882</v>
-      </c>
-      <c r="U50" s="10">
-        <v>-862.85686538676555</v>
-      </c>
-      <c r="V50" s="10">
-        <v>-875.46019114216301</v>
-      </c>
-      <c r="W50" s="10">
-        <v>-890.0816771518007</v>
-      </c>
-      <c r="X50" s="10">
-        <v>-902.55304931822502</v>
-      </c>
-      <c r="Y50" s="10">
-        <v>-893.9961737032254</v>
-      </c>
-      <c r="Z50" s="10">
-        <v>-910.50943926655464</v>
-      </c>
-      <c r="AA50" s="11">
-        <v>-907.38765755328723</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="B52">
+      <c r="B51" s="9">
+        <v>408.82942862534736</v>
+      </c>
+      <c r="C51" s="10">
+        <v>465.33251081132232</v>
+      </c>
+      <c r="D51" s="10">
+        <v>355.7258041677245</v>
+      </c>
+      <c r="E51" s="10">
+        <v>368.94557542100017</v>
+      </c>
+      <c r="F51" s="10">
+        <v>310.62777266129024</v>
+      </c>
+      <c r="G51" s="10">
+        <v>187.31242253254641</v>
+      </c>
+      <c r="H51" s="10">
+        <v>55.974478625377969</v>
+      </c>
+      <c r="I51" s="10">
+        <v>-23.57295597259656</v>
+      </c>
+      <c r="J51" s="10">
+        <v>-193.48230346321259</v>
+      </c>
+      <c r="K51" s="10">
+        <v>-390.43821328272884</v>
+      </c>
+      <c r="L51" s="10">
+        <v>-456.98725270145871</v>
+      </c>
+      <c r="M51" s="10">
+        <v>-819.13278927816498</v>
+      </c>
+      <c r="N51" s="10">
+        <v>-861.52244568646381</v>
+      </c>
+      <c r="O51" s="10">
+        <v>-878.45865055755007</v>
+      </c>
+      <c r="P51" s="10">
+        <v>-881.23745613432482</v>
+      </c>
+      <c r="Q51" s="10">
+        <v>-876.2034868001349</v>
+      </c>
+      <c r="R51" s="10">
+        <v>-771.57592509918015</v>
+      </c>
+      <c r="S51" s="10">
+        <v>-781.36258508180754</v>
+      </c>
+      <c r="T51" s="10">
+        <v>-827.92801069227073</v>
+      </c>
+      <c r="U51" s="10">
+        <v>-774.32036889440906</v>
+      </c>
+      <c r="V51" s="10">
+        <v>-875.46019114216324</v>
+      </c>
+      <c r="W51" s="10">
+        <v>-891.3221801194461</v>
+      </c>
+      <c r="X51" s="10">
+        <v>-904.16004493627338</v>
+      </c>
+      <c r="Y51" s="10">
+        <v>-917.49617370322585</v>
+      </c>
+      <c r="Z51" s="10">
+        <v>-910.50943926654986</v>
+      </c>
+      <c r="AA51" s="11">
+        <v>-907.387657553287</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B53">
         <v>2020</v>
       </c>
-      <c r="C52">
+      <c r="C53">
         <v>2021</v>
       </c>
-      <c r="D52">
+      <c r="D53">
         <v>2022</v>
       </c>
-      <c r="E52">
+      <c r="E53">
         <v>2023</v>
       </c>
-      <c r="F52">
+      <c r="F53">
         <v>2024</v>
       </c>
-      <c r="G52">
+      <c r="G53">
         <v>2025</v>
       </c>
-      <c r="H52">
+      <c r="H53">
         <v>2026</v>
       </c>
-      <c r="I52">
+      <c r="I53">
         <v>2027</v>
       </c>
-      <c r="J52">
+      <c r="J53">
         <v>2028</v>
       </c>
-      <c r="K52">
+      <c r="K53">
         <v>2029</v>
       </c>
-      <c r="L52">
+      <c r="L53">
         <v>2030</v>
       </c>
-      <c r="M52">
+      <c r="M53">
         <v>2031</v>
       </c>
-      <c r="N52">
+      <c r="N53">
         <v>2032</v>
       </c>
-      <c r="O52">
+      <c r="O53">
         <v>2033</v>
       </c>
-      <c r="P52">
+      <c r="P53">
         <v>2034</v>
       </c>
-      <c r="Q52">
+      <c r="Q53">
         <v>2035</v>
       </c>
-      <c r="R52">
+      <c r="R53">
         <v>2036</v>
       </c>
-      <c r="S52">
+      <c r="S53">
         <v>2037</v>
       </c>
-      <c r="T52">
+      <c r="T53">
         <v>2038</v>
       </c>
-      <c r="U52">
+      <c r="U53">
         <v>2039</v>
       </c>
-      <c r="V52">
+      <c r="V53">
         <v>2040</v>
       </c>
-      <c r="W52">
+      <c r="W53">
         <v>2041</v>
       </c>
-      <c r="X52">
+      <c r="X53">
         <v>2042</v>
       </c>
-      <c r="Y52">
+      <c r="Y53">
         <v>2043</v>
       </c>
-      <c r="Z52">
+      <c r="Z53">
         <v>2044</v>
       </c>
-      <c r="AA52">
+      <c r="AA53">
         <v>2045</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AB53" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="15">
-        <v>116763.48744655377</v>
-      </c>
-      <c r="C53" s="16">
-        <v>90355.803112659269</v>
-      </c>
-      <c r="D53" s="16">
-        <v>79973.151665145138</v>
-      </c>
-      <c r="E53" s="16">
-        <v>72689.989065084112</v>
-      </c>
-      <c r="F53" s="16">
-        <v>66159.850287131791</v>
-      </c>
-      <c r="G53" s="16">
-        <v>60260.107150621363</v>
-      </c>
-      <c r="H53" s="16">
-        <v>54977.105237063413</v>
-      </c>
-      <c r="I53" s="16">
-        <v>50276.638343813902</v>
-      </c>
-      <c r="J53" s="16">
-        <v>48360.549722609212</v>
-      </c>
-      <c r="K53" s="16">
-        <v>46893.834401428663</v>
-      </c>
-      <c r="L53" s="16">
-        <v>45776.487695566531</v>
-      </c>
-      <c r="M53" s="16">
-        <v>45135.373903860811</v>
-      </c>
-      <c r="N53" s="16">
-        <v>1190857.5227171669</v>
-      </c>
-      <c r="O53" s="16">
-        <v>2127752.2935679611</v>
-      </c>
-      <c r="P53" s="16">
-        <v>2884381.3776492137</v>
-      </c>
-      <c r="Q53" s="16">
-        <v>3485861.2935474073</v>
-      </c>
-      <c r="R53" s="16">
-        <v>4149764.9619313418</v>
-      </c>
-      <c r="S53" s="16">
-        <v>4486180.8727207016</v>
-      </c>
-      <c r="T53" s="16">
-        <v>4727141.5298287524</v>
-      </c>
-      <c r="U53" s="16">
-        <v>4887388.0682644937</v>
-      </c>
-      <c r="V53" s="16">
-        <v>4979099.2111890381</v>
-      </c>
-      <c r="W53" s="16">
-        <v>5013869.9729762459</v>
-      </c>
-      <c r="X53" s="16">
-        <v>4890575.8213660102</v>
-      </c>
-      <c r="Y53" s="16">
-        <v>4848786.4685050547</v>
-      </c>
-      <c r="Z53" s="16">
-        <v>4682765.3724788623</v>
-      </c>
-      <c r="AA53" s="17">
-        <v>4579861.5051296409</v>
-      </c>
-      <c r="AB53" s="18">
+      <c r="B54" s="15">
+        <v>116142.31171541518</v>
+      </c>
+      <c r="C54" s="16">
+        <v>90254.060409618192</v>
+      </c>
+      <c r="D54" s="16">
+        <v>79964.10032811109</v>
+      </c>
+      <c r="E54" s="16">
+        <v>72684.973431360268</v>
+      </c>
+      <c r="F54" s="16">
+        <v>66155.713722375527</v>
+      </c>
+      <c r="G54" s="16">
+        <v>60256.549488325407</v>
+      </c>
+      <c r="H54" s="16">
+        <v>54977.522799735438</v>
+      </c>
+      <c r="I54" s="16">
+        <v>50282.770369670689</v>
+      </c>
+      <c r="J54" s="16">
+        <v>48377.846167733675</v>
+      </c>
+      <c r="K54" s="16">
+        <v>46912.706872976756</v>
+      </c>
+      <c r="L54" s="16">
+        <v>45795.469250573748</v>
+      </c>
+      <c r="M54" s="16">
+        <v>45155.362721937687</v>
+      </c>
+      <c r="N54" s="16">
+        <v>1190874.18742252</v>
+      </c>
+      <c r="O54" s="16">
+        <v>2127766.6260871897</v>
+      </c>
+      <c r="P54" s="16">
+        <v>2884393.7043662528</v>
+      </c>
+      <c r="Q54" s="16">
+        <v>3485852.6354892431</v>
+      </c>
+      <c r="R54" s="16">
+        <v>4149773.4040325773</v>
+      </c>
+      <c r="S54" s="16">
+        <v>4486187.3128162324</v>
+      </c>
+      <c r="T54" s="16">
+        <v>4727353.3866679231</v>
+      </c>
+      <c r="U54" s="16">
+        <v>4887381.3008786822</v>
+      </c>
+      <c r="V54" s="16">
+        <v>4979102.8352828175</v>
+      </c>
+      <c r="W54" s="16">
+        <v>5013872.9957726207</v>
+      </c>
+      <c r="X54" s="16">
+        <v>4890571.6004691469</v>
+      </c>
+      <c r="Y54" s="16">
+        <v>4848919.4336687829</v>
+      </c>
+      <c r="Z54" s="16">
+        <v>4682765.3724788632</v>
+      </c>
+      <c r="AA54" s="17">
+        <v>4579861.5051296419</v>
+      </c>
+      <c r="AB54" s="18">
         <f>SUM(TotalCost)</f>
-        <v>57711908.649903439</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55">
-        <v>2020</v>
-      </c>
-      <c r="C55">
-        <v>2021</v>
-      </c>
-      <c r="D55">
-        <v>2022</v>
-      </c>
-      <c r="E55">
-        <v>2023</v>
-      </c>
-      <c r="F55">
-        <v>2024</v>
-      </c>
-      <c r="G55">
-        <v>2025</v>
-      </c>
-      <c r="H55">
-        <v>2026</v>
-      </c>
-      <c r="I55">
-        <v>2027</v>
-      </c>
-      <c r="J55">
-        <v>2028</v>
-      </c>
-      <c r="K55">
-        <v>2029</v>
-      </c>
-      <c r="L55">
-        <v>2030</v>
-      </c>
-      <c r="M55">
-        <v>2031</v>
-      </c>
-      <c r="N55">
-        <v>2032</v>
-      </c>
-      <c r="O55">
-        <v>2033</v>
-      </c>
-      <c r="P55">
-        <v>2034</v>
-      </c>
-      <c r="Q55">
-        <v>2035</v>
-      </c>
-      <c r="R55">
-        <v>2036</v>
-      </c>
-      <c r="S55">
-        <v>2037</v>
-      </c>
-      <c r="T55">
-        <v>2038</v>
-      </c>
-      <c r="U55">
-        <v>2039</v>
-      </c>
-      <c r="V55">
-        <v>2040</v>
-      </c>
-      <c r="W55">
-        <v>2041</v>
-      </c>
-      <c r="X55">
-        <v>2042</v>
-      </c>
-      <c r="Y55">
-        <v>2043</v>
-      </c>
-      <c r="Z55">
-        <v>2044</v>
-      </c>
-      <c r="AA55">
-        <v>2045</v>
-      </c>
-      <c r="AB55" t="s">
-        <v>15</v>
+        <v>57711635.687840335</v>
       </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" s="3">
-        <v>9846.2285557236974</v>
-      </c>
-      <c r="C56" s="4">
-        <v>8960.0107579288142</v>
-      </c>
-      <c r="D56" s="4">
-        <v>8316.7034334267137</v>
-      </c>
-      <c r="E56" s="4">
-        <v>7417.3128297668591</v>
-      </c>
-      <c r="F56" s="4">
-        <v>6531.6147594557542</v>
-      </c>
-      <c r="G56" s="4">
-        <v>5681.4434816325083</v>
-      </c>
-      <c r="H56" s="4">
-        <v>4911.1183854019255</v>
-      </c>
-      <c r="I56" s="4">
-        <v>4777.351379885291</v>
-      </c>
-      <c r="J56" s="4">
-        <v>4443.4247179507893</v>
-      </c>
-      <c r="K56" s="4">
-        <v>4077.6823392334873</v>
-      </c>
-      <c r="L56" s="4">
-        <v>4627.6091423306898</v>
-      </c>
-      <c r="M56" s="4">
-        <v>4989.6132220143372</v>
-      </c>
-      <c r="N56" s="4">
-        <v>5394.152792079909</v>
-      </c>
-      <c r="O56" s="4">
-        <v>4947.6522085825782</v>
-      </c>
-      <c r="P56" s="4">
-        <v>4552.2827884418912</v>
-      </c>
-      <c r="Q56" s="4">
-        <v>4207.0176091725716</v>
-      </c>
-      <c r="R56" s="4">
-        <v>4025.600684954914</v>
-      </c>
-      <c r="S56" s="4">
-        <v>3569.2892909682573</v>
-      </c>
-      <c r="T56" s="4">
-        <v>3252.7629391227379</v>
-      </c>
-      <c r="U56" s="4">
-        <v>1722.0608861287371</v>
-      </c>
-      <c r="V56" s="4">
-        <v>2604.8561357150902</v>
-      </c>
-      <c r="W56" s="4">
-        <v>2371.0699483468852</v>
-      </c>
-      <c r="X56" s="4">
-        <v>1723.7547606893327</v>
-      </c>
-      <c r="Y56" s="4">
-        <v>2171.4613735583234</v>
-      </c>
-      <c r="Z56" s="4">
-        <v>2001.1282781203481</v>
-      </c>
-      <c r="AA56" s="5">
-        <v>1955.682681823431</v>
-      </c>
-      <c r="AB56" s="12">
-        <f>SUM(B56:AA56)</f>
-        <v>119078.88538245586</v>
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <v>2020</v>
+      </c>
+      <c r="C56">
+        <v>2021</v>
+      </c>
+      <c r="D56">
+        <v>2022</v>
+      </c>
+      <c r="E56">
+        <v>2023</v>
+      </c>
+      <c r="F56">
+        <v>2024</v>
+      </c>
+      <c r="G56">
+        <v>2025</v>
+      </c>
+      <c r="H56">
+        <v>2026</v>
+      </c>
+      <c r="I56">
+        <v>2027</v>
+      </c>
+      <c r="J56">
+        <v>2028</v>
+      </c>
+      <c r="K56">
+        <v>2029</v>
+      </c>
+      <c r="L56">
+        <v>2030</v>
+      </c>
+      <c r="M56">
+        <v>2031</v>
+      </c>
+      <c r="N56">
+        <v>2032</v>
+      </c>
+      <c r="O56">
+        <v>2033</v>
+      </c>
+      <c r="P56">
+        <v>2034</v>
+      </c>
+      <c r="Q56">
+        <v>2035</v>
+      </c>
+      <c r="R56">
+        <v>2036</v>
+      </c>
+      <c r="S56">
+        <v>2037</v>
+      </c>
+      <c r="T56">
+        <v>2038</v>
+      </c>
+      <c r="U56">
+        <v>2039</v>
+      </c>
+      <c r="V56">
+        <v>2040</v>
+      </c>
+      <c r="W56">
+        <v>2041</v>
+      </c>
+      <c r="X56">
+        <v>2042</v>
+      </c>
+      <c r="Y56">
+        <v>2043</v>
+      </c>
+      <c r="Z56">
+        <v>2044</v>
+      </c>
+      <c r="AA56">
+        <v>2045</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57" s="6">
-        <v>2481.6700200702808</v>
-      </c>
-      <c r="C57" s="7">
-        <v>2250.7698548080307</v>
-      </c>
-      <c r="D57" s="7">
-        <v>2094.5345946976322</v>
-      </c>
-      <c r="E57" s="7">
-        <v>1911.1608581482842</v>
-      </c>
-      <c r="F57" s="7">
-        <v>1735.3053443113522</v>
-      </c>
-      <c r="G57" s="7">
-        <v>1567.2049133886076</v>
-      </c>
-      <c r="H57" s="7">
-        <v>1407.992723187192</v>
-      </c>
-      <c r="I57" s="7">
-        <v>1254.3833259665043</v>
-      </c>
-      <c r="J57" s="7">
-        <v>818.27525878796757</v>
-      </c>
-      <c r="K57" s="7">
-        <v>616.67477898169227</v>
-      </c>
-      <c r="L57" s="7">
-        <v>407.34521078654672</v>
-      </c>
-      <c r="M57" s="7">
-        <v>178.35399524822787</v>
-      </c>
-      <c r="N57" s="7">
-        <v>353.35089009134322</v>
-      </c>
-      <c r="O57" s="7">
-        <v>220.57991031623487</v>
-      </c>
-      <c r="P57" s="7">
-        <v>116.9936893396772</v>
-      </c>
-      <c r="Q57" s="7">
-        <v>26.372104137091135</v>
-      </c>
-      <c r="R57" s="7">
-        <v>130.80939986843907</v>
-      </c>
-      <c r="S57" s="7">
-        <v>98.576313411170091</v>
-      </c>
-      <c r="T57" s="7">
-        <v>74.256943946483958</v>
-      </c>
-      <c r="U57" s="7">
-        <v>18.828596245359599</v>
-      </c>
-      <c r="V57" s="7">
-        <v>74.364489501495129</v>
-      </c>
-      <c r="W57" s="7">
-        <v>99.62210148438281</v>
-      </c>
-      <c r="X57" s="7">
-        <v>16.547256829260363</v>
-      </c>
-      <c r="Y57" s="7">
-        <v>68.811298238838731</v>
-      </c>
-      <c r="Z57" s="7">
-        <v>15.168191122988272</v>
-      </c>
-      <c r="AA57" s="8">
-        <v>14.350404043095166</v>
-      </c>
-      <c r="AB57" s="13">
-        <f t="shared" ref="AB57:AB60" si="0">SUM(B57:AA57)</f>
-        <v>18052.302466958176</v>
+        <v>10</v>
+      </c>
+      <c r="B57" s="3">
+        <v>9792.3333941758901</v>
+      </c>
+      <c r="C57" s="4">
+        <v>8954.9238706412398</v>
+      </c>
+      <c r="D57" s="4">
+        <v>8312.2094357673395</v>
+      </c>
+      <c r="E57" s="4">
+        <v>7410.3285851117926</v>
+      </c>
+      <c r="F57" s="4">
+        <v>6524.9061116961648</v>
+      </c>
+      <c r="G57" s="4">
+        <v>5675.0967144338301</v>
+      </c>
+      <c r="H57" s="4">
+        <v>4907.9301298235951</v>
+      </c>
+      <c r="I57" s="4">
+        <v>4846.616490455086</v>
+      </c>
+      <c r="J57" s="4">
+        <v>4440.2122379513548</v>
+      </c>
+      <c r="K57" s="4">
+        <v>4077.8025597323099</v>
+      </c>
+      <c r="L57" s="4">
+        <v>4627.0704681652242</v>
+      </c>
+      <c r="M57" s="4">
+        <v>4990.2711381026375</v>
+      </c>
+      <c r="N57" s="4">
+        <v>5385.8177309898319</v>
+      </c>
+      <c r="O57" s="4">
+        <v>4939.7667606918485</v>
+      </c>
+      <c r="P57" s="4">
+        <v>4544.8227005354656</v>
+      </c>
+      <c r="Q57" s="4">
+        <v>4202.3778899280769</v>
+      </c>
+      <c r="R57" s="4">
+        <v>4023.3797807865844</v>
+      </c>
+      <c r="S57" s="4">
+        <v>3562.8368752775086</v>
+      </c>
+      <c r="T57" s="4">
+        <v>2018.2859423394527</v>
+      </c>
+      <c r="U57" s="4">
+        <v>1967.6615923933773</v>
+      </c>
+      <c r="V57" s="4">
+        <v>2601.5051933218974</v>
+      </c>
+      <c r="W57" s="4">
+        <v>2366.4459735349774</v>
+      </c>
+      <c r="X57" s="4">
+        <v>1841.3820189436233</v>
+      </c>
+      <c r="Y57" s="4">
+        <v>1046.2539567394429</v>
+      </c>
+      <c r="Z57" s="4">
+        <v>2001.1282781203988</v>
+      </c>
+      <c r="AA57" s="5">
+        <v>1955.6826818234308</v>
+      </c>
+      <c r="AB57" s="12">
+        <f>SUM(B57:AA57)</f>
+        <v>117017.04851148235</v>
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B58" s="6">
-        <v>11035578.509819515</v>
+        <v>2448.3149981563142</v>
       </c>
       <c r="C58" s="7">
-        <v>10440292.919611424</v>
+        <v>2250.7309046756604</v>
       </c>
       <c r="D58" s="7">
-        <v>9877118.4628245775</v>
+        <v>2093.1228816561784</v>
       </c>
       <c r="E58" s="7">
-        <v>9344322.9878555089</v>
+        <v>1909.7734686908443</v>
       </c>
       <c r="F58" s="7">
-        <v>8840267.7795154117</v>
+        <v>1733.9815643186571</v>
       </c>
       <c r="G58" s="7">
-        <v>8363402.5188456802</v>
+        <v>1565.9525412657913</v>
       </c>
       <c r="H58" s="7">
-        <v>7912260.5148130991</v>
+        <v>1406.8902681740076</v>
       </c>
       <c r="I58" s="7">
-        <v>7485454.1932188449</v>
+        <v>1253.2829457374201</v>
       </c>
       <c r="J58" s="7">
-        <v>7081670.8289465569</v>
+        <v>816.82964278822237</v>
       </c>
       <c r="K58" s="7">
-        <v>6699668.5084231906</v>
+        <v>615.19080719934755</v>
       </c>
       <c r="L58" s="7">
-        <v>6338272.3098744247</v>
+        <v>405.84806810596325</v>
       </c>
       <c r="M58" s="7">
-        <v>5996370.6896262551</v>
+        <v>176.8071092072841</v>
       </c>
       <c r="N58" s="7">
-        <v>5672912.0633381596</v>
+        <v>348.53578668596367</v>
       </c>
       <c r="O58" s="7">
-        <v>5366901.5716527477</v>
+        <v>216.02454514479223</v>
       </c>
       <c r="P58" s="7">
-        <v>5077398.0203140266</v>
+        <v>112.68405149845951</v>
       </c>
       <c r="Q58" s="7">
-        <v>4803510.98534304</v>
+        <v>26.209689678912092</v>
       </c>
       <c r="R58" s="7">
-        <v>4544398.0743672717</v>
+        <v>127.08410078756559</v>
       </c>
       <c r="S58" s="7">
-        <v>4299262.335680523</v>
+        <v>95.267693043826242</v>
       </c>
       <c r="T58" s="7">
-        <v>4067349.8070643097</v>
+        <v>19.903315204620622</v>
       </c>
       <c r="U58" s="7">
-        <v>3847947.1968317241</v>
+        <v>18.754858687504374</v>
       </c>
       <c r="V58" s="7">
-        <v>3640379.6899613487</v>
+        <v>71.662244982518217</v>
       </c>
       <c r="W58" s="7">
-        <v>3444008.8725735778</v>
+        <v>97.097057693737156</v>
       </c>
       <c r="X58" s="7">
-        <v>3258230.7683656649</v>
+        <v>16.653318540051551</v>
       </c>
       <c r="Y58" s="7">
-        <v>3082473.9809661768</v>
+        <v>14.927298238838731</v>
       </c>
       <c r="Z58" s="7">
-        <v>2914799.6919594705</v>
+        <v>15.168191122988734</v>
       </c>
       <c r="AA58" s="8">
-        <v>2756800.4242827054</v>
+        <v>14.350404043095159</v>
       </c>
       <c r="AB58" s="13">
-        <f t="shared" si="0"/>
-        <v>156191053.70607525</v>
+        <f t="shared" ref="AB58:AB61" si="0">SUM(B58:AA58)</f>
+        <v>17871.047755328564</v>
       </c>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B59" s="6">
-        <v>1088.2184015432993</v>
+        <v>11030492.52510554</v>
       </c>
       <c r="C59" s="7">
-        <v>1077.2627315392738</v>
+        <v>10435481.285119284</v>
       </c>
       <c r="D59" s="7">
-        <v>1003.9548924581147</v>
+        <v>9872566.3794448655</v>
       </c>
       <c r="E59" s="7">
-        <v>916.07244678414054</v>
+        <v>9340016.4547782987</v>
       </c>
       <c r="F59" s="7">
-        <v>831.40606810929194</v>
+        <v>8836193.5511680655</v>
       </c>
       <c r="G59" s="7">
-        <v>750.39815557621341</v>
+        <v>8359548.0641535381</v>
       </c>
       <c r="H59" s="7">
-        <v>673.05541561075245</v>
+        <v>7908613.978657743</v>
       </c>
       <c r="I59" s="7">
-        <v>598.23397358601915</v>
+        <v>7482004.3599753957</v>
       </c>
       <c r="J59" s="7">
-        <v>497.59069339750613</v>
+        <v>7078407.0879878597</v>
       </c>
       <c r="K59" s="7">
-        <v>398.37100178131095</v>
+        <v>6696580.8214847837</v>
       </c>
       <c r="L59" s="7">
-        <v>295.44937852860971</v>
+        <v>6335351.1801799228</v>
       </c>
       <c r="M59" s="7">
-        <v>181.66392373274513</v>
+        <v>5993607.1326781856</v>
       </c>
       <c r="N59" s="7">
-        <v>157.23390466566346</v>
+        <v>5670297.5792844063</v>
       </c>
       <c r="O59" s="7">
-        <v>131.76757424653849</v>
+        <v>5364428.1191436155</v>
       </c>
       <c r="P59" s="7">
-        <v>111.15002354024307</v>
+        <v>5075057.9917695234</v>
       </c>
       <c r="Q59" s="7">
-        <v>92.154257698436169</v>
+        <v>4801297.1835542955</v>
       </c>
       <c r="R59" s="7">
-        <v>105.32446018246777</v>
+        <v>4542303.6903601345</v>
       </c>
       <c r="S59" s="7">
-        <v>96.049743157861187</v>
+        <v>4297280.9277732521</v>
       </c>
       <c r="T59" s="7">
-        <v>88.183853049830788</v>
+        <v>4065475.2810549363</v>
       </c>
       <c r="U59" s="7">
-        <v>75.47557686789601</v>
+        <v>3846173.7872541589</v>
       </c>
       <c r="V59" s="7">
-        <v>80.544381959972938</v>
+        <v>3638701.9423525804</v>
       </c>
       <c r="W59" s="7">
-        <v>80.838091916337802</v>
+        <v>3442421.6266974206</v>
       </c>
       <c r="X59" s="7">
-        <v>64.893057273735025</v>
+        <v>3256668.5275755776</v>
       </c>
       <c r="Y59" s="7">
-        <v>69.639707744258146</v>
+        <v>3080996.0111936848</v>
       </c>
       <c r="Z59" s="7">
-        <v>58.41288131395644</v>
+        <v>2914799.691959471</v>
       </c>
       <c r="AA59" s="8">
-        <v>55.375386445782041</v>
+        <v>2756800.4242827035</v>
       </c>
       <c r="AB59" s="13">
         <f t="shared" si="0"/>
-        <v>9578.7199827102559</v>
+        <v>156121565.60498923</v>
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="6">
+        <v>1087.869949436174</v>
+      </c>
+      <c r="C60" s="7">
+        <v>1077.1692512215848</v>
+      </c>
+      <c r="D60" s="7">
+        <v>1003.2930685747867</v>
+      </c>
+      <c r="E60" s="7">
+        <v>915.39977310780603</v>
+      </c>
+      <c r="F60" s="7">
+        <v>830.76287557046851</v>
+      </c>
+      <c r="G60" s="7">
+        <v>749.78965838659644</v>
+      </c>
+      <c r="H60" s="7">
+        <v>672.48202820439769</v>
+      </c>
+      <c r="I60" s="7">
+        <v>597.63670838146265</v>
+      </c>
+      <c r="J60" s="7">
+        <v>496.87153594308745</v>
+      </c>
+      <c r="K60" s="7">
+        <v>397.63465122602088</v>
+      </c>
+      <c r="L60" s="7">
+        <v>294.7249546509081</v>
+      </c>
+      <c r="M60" s="7">
+        <v>180.88460646148485</v>
+      </c>
+      <c r="N60" s="7">
+        <v>156.43552716661384</v>
+      </c>
+      <c r="O60" s="7">
+        <v>131.01226314589397</v>
+      </c>
+      <c r="P60" s="7">
+        <v>110.43545573311411</v>
+      </c>
+      <c r="Q60" s="7">
+        <v>92.261065903234879</v>
+      </c>
+      <c r="R60" s="7">
+        <v>104.71776077430789</v>
+      </c>
+      <c r="S60" s="7">
+        <v>95.514061765053142</v>
+      </c>
+      <c r="T60" s="7">
+        <v>79.432688582347097</v>
+      </c>
+      <c r="U60" s="7">
+        <v>75.915483776002446</v>
+      </c>
+      <c r="V60" s="7">
+        <v>80.102630646855957</v>
+      </c>
+      <c r="W60" s="7">
+        <v>80.425004428111677</v>
+      </c>
+      <c r="X60" s="7">
+        <v>64.864131352610116</v>
+      </c>
+      <c r="Y60" s="7">
+        <v>61.111707744258133</v>
+      </c>
+      <c r="Z60" s="7">
+        <v>58.412881313956447</v>
+      </c>
+      <c r="AA60" s="8">
+        <v>55.37538644578202</v>
+      </c>
+      <c r="AB60" s="13">
+        <f t="shared" si="0"/>
+        <v>9550.5351099429154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B60" s="9">
-        <v>157.13772376545302</v>
-      </c>
-      <c r="C60" s="10">
-        <v>155.89881644240921</v>
-      </c>
-      <c r="D60" s="10">
-        <v>144.97349685717842</v>
-      </c>
-      <c r="E60" s="10">
-        <v>131.87377875931062</v>
-      </c>
-      <c r="F60" s="10">
-        <v>119.3250983499256</v>
-      </c>
-      <c r="G60" s="10">
-        <v>107.37785005387197</v>
-      </c>
-      <c r="H60" s="10">
-        <v>95.984339549015715</v>
-      </c>
-      <c r="I60" s="10">
-        <v>84.933941657255161</v>
-      </c>
-      <c r="J60" s="10">
-        <v>70.088442422225214</v>
-      </c>
-      <c r="K60" s="10">
-        <v>55.434409838300461</v>
-      </c>
-      <c r="L60" s="10">
-        <v>40.1437341802229</v>
-      </c>
-      <c r="M60" s="10">
-        <v>22.972143119033877</v>
-      </c>
-      <c r="N60" s="10">
-        <v>19.555467647132794</v>
-      </c>
-      <c r="O60" s="10">
-        <v>15.954877505388357</v>
-      </c>
-      <c r="P60" s="10">
-        <v>13.086292751676922</v>
-      </c>
-      <c r="Q60" s="10">
-        <v>10.421166930809992</v>
-      </c>
-      <c r="R60" s="10">
-        <v>12.766476975828573</v>
-      </c>
-      <c r="S60" s="10">
-        <v>11.559309833379304</v>
-      </c>
-      <c r="T60" s="10">
-        <v>10.556407248196786</v>
-      </c>
-      <c r="U60" s="10">
-        <v>8.7576590888018195</v>
-      </c>
-      <c r="V60" s="10">
-        <v>9.7236135853842676</v>
-      </c>
-      <c r="W60" s="10">
-        <v>9.917981271247001</v>
-      </c>
-      <c r="X60" s="10">
-        <v>7.6460246357468646</v>
-      </c>
-      <c r="Y60" s="10">
-        <v>8.473827816645171</v>
-      </c>
-      <c r="Z60" s="10">
+      <c r="B61" s="9">
+        <v>157.05617114463647</v>
+      </c>
+      <c r="C61" s="10">
+        <v>155.88713140269812</v>
+      </c>
+      <c r="D61" s="10">
+        <v>144.87475700361736</v>
+      </c>
+      <c r="E61" s="10">
+        <v>131.77392876047972</v>
+      </c>
+      <c r="F61" s="10">
+        <v>119.23036456513765</v>
+      </c>
+      <c r="G61" s="10">
+        <v>107.28822643679661</v>
+      </c>
+      <c r="H61" s="10">
+        <v>95.901239924906307</v>
+      </c>
+      <c r="I61" s="10">
+        <v>84.845675863478348</v>
+      </c>
+      <c r="J61" s="10">
+        <v>69.982576604062061</v>
+      </c>
+      <c r="K61" s="10">
+        <v>55.325460011242242</v>
+      </c>
+      <c r="L61" s="10">
+        <v>40.035999347128808</v>
+      </c>
+      <c r="M61" s="10">
+        <v>22.854658103265994</v>
+      </c>
+      <c r="N61" s="10">
+        <v>19.434823936165291</v>
+      </c>
+      <c r="O61" s="10">
+        <v>15.84074160573541</v>
+      </c>
+      <c r="P61" s="10">
+        <v>12.978313616377434</v>
+      </c>
+      <c r="Q61" s="10">
+        <v>10.448214941140678</v>
+      </c>
+      <c r="R61" s="10">
+        <v>12.675883851533202</v>
+      </c>
+      <c r="S61" s="10">
+        <v>11.479321209113852</v>
+      </c>
+      <c r="T61" s="10">
+        <v>9.1790377529229126</v>
+      </c>
+      <c r="U61" s="10">
+        <v>8.8649166002484261</v>
+      </c>
+      <c r="V61" s="10">
+        <v>9.6579478496506628</v>
+      </c>
+      <c r="W61" s="10">
+        <v>9.8565763743485189</v>
+      </c>
+      <c r="X61" s="10">
+        <v>7.6412036488927155</v>
+      </c>
+      <c r="Y61" s="10">
+        <v>7.155327816645169</v>
+      </c>
+      <c r="Z61" s="10">
         <v>6.8949247669949738</v>
       </c>
-      <c r="AA60" s="11">
-        <v>6.5444445898979282</v>
-      </c>
-      <c r="AB60" s="14">
+      <c r="AA61" s="11">
+        <v>6.5444445898979247</v>
+      </c>
+      <c r="AB61" s="14">
         <f t="shared" si="0"/>
-        <v>1338.0022496413333</v>
+        <v>1333.7078677271172</v>
       </c>
     </row>
   </sheetData>

--- a/717A11_output.xlsx
+++ b/717A11_output.xlsx
@@ -719,10 +719,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>368.75585706197899</v>
+        <v>519.20000000000005</v>
       </c>
       <c r="C3" s="4">
-        <v>0</v>
+        <v>519.20000000000005</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -734,61 +734,61 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>0</v>
+        <v>476.58096263724519</v>
       </c>
       <c r="H3" s="4">
-        <v>0</v>
+        <v>377.70348649883817</v>
       </c>
       <c r="I3" s="4">
-        <v>0</v>
+        <v>403.6033688231114</v>
       </c>
       <c r="J3" s="4">
-        <v>0</v>
+        <v>389.91049839802554</v>
       </c>
       <c r="K3" s="4">
-        <v>0</v>
+        <v>498.05101802736908</v>
       </c>
       <c r="L3" s="4">
-        <v>0</v>
+        <v>411.81888815108755</v>
       </c>
       <c r="M3" s="4">
-        <v>485.36785633291584</v>
+        <v>451.5761073350717</v>
       </c>
       <c r="N3" s="4">
-        <v>467.88310899710496</v>
+        <v>460.06517014815483</v>
       </c>
       <c r="O3" s="4">
-        <v>412.38856126794144</v>
+        <v>439.09701579602279</v>
       </c>
       <c r="P3" s="4">
-        <v>335.82982490198754</v>
+        <v>390.38601541551793</v>
       </c>
       <c r="Q3" s="4">
-        <v>323.56120986041867</v>
+        <v>474.72572062991969</v>
       </c>
       <c r="R3" s="4">
-        <v>-1.5631940186722204E-12</v>
+        <v>375.31168377619906</v>
       </c>
       <c r="S3" s="4">
-        <v>-3.637978807091713E-12</v>
+        <v>435.13960772483927</v>
       </c>
       <c r="T3" s="4">
-        <v>134.70813434014786</v>
+        <v>243.27367851252768</v>
       </c>
       <c r="U3" s="4">
-        <v>0</v>
+        <v>78.059328724965241</v>
       </c>
       <c r="V3" s="4">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="W3" s="4">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X3" s="4">
         <v>0</v>
       </c>
       <c r="Y3" s="4">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="4">
         <v>0</v>
@@ -805,19 +805,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>149.65758779768657</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>606.04188169902409</v>
       </c>
       <c r="E4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="F4" s="7">
-        <v>166.14273881549684</v>
+        <v>665.6</v>
       </c>
       <c r="G4" s="7">
-        <v>527.1988237129226</v>
+        <v>665.6</v>
       </c>
       <c r="H4" s="7">
         <v>665.6</v>
@@ -885,7 +885,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="E5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="F5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="G5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="I5" s="7">
-        <v>27.028611603798709</v>
+        <v>46.5</v>
       </c>
       <c r="J5" s="7">
         <v>46.5</v>
@@ -936,13 +936,13 @@
         <v>46.5</v>
       </c>
       <c r="S5" s="7">
+        <v>26.78797256508085</v>
+      </c>
+      <c r="T5" s="7">
         <v>46.5</v>
       </c>
-      <c r="T5" s="7">
-        <v>0</v>
-      </c>
       <c r="U5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="V5" s="7">
         <v>46.5</v>
@@ -951,10 +951,10 @@
         <v>46.5</v>
       </c>
       <c r="X5" s="7">
-        <v>35.437398327474511</v>
+        <v>43.188165168928066</v>
       </c>
       <c r="Y5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="Z5" s="7">
         <v>46.5</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="D6" s="7">
-        <v>190.39139449682554</v>
+        <v>212</v>
       </c>
       <c r="E6" s="7">
         <v>212</v>
@@ -1051,25 +1051,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>0</v>
+        <v>183.18806320475795</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="D7" s="7">
-        <v>70.000000000001137</v>
+        <v>464</v>
       </c>
       <c r="E7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="F7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="G7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="H7" s="7">
-        <v>215.10604979721984</v>
+        <v>464</v>
       </c>
       <c r="I7" s="7">
         <v>464</v>
@@ -1134,7 +1134,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1149,22 +1149,22 @@
         <v>0</v>
       </c>
       <c r="G8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="J8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="K8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="L8" s="7">
-        <v>90.387640613800613</v>
+        <v>101.5</v>
       </c>
       <c r="M8" s="7">
         <v>101.5</v>
@@ -1179,25 +1179,25 @@
         <v>101.5</v>
       </c>
       <c r="Q8" s="7">
-        <v>25.664173806588224</v>
+        <v>101.5</v>
       </c>
       <c r="R8" s="7">
         <v>101.5</v>
       </c>
       <c r="S8" s="7">
-        <v>98.383687634352128</v>
+        <v>0</v>
       </c>
       <c r="T8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="U8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="V8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="W8" s="7">
-        <v>0</v>
+        <v>38.087889959494504</v>
       </c>
       <c r="X8" s="7">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1312,22 +1312,22 @@
         <v>0</v>
       </c>
       <c r="F10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="J10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="K10" s="7">
-        <v>71.469521669994037</v>
+        <v>88</v>
       </c>
       <c r="L10" s="7">
         <v>88</v>
@@ -1363,16 +1363,16 @@
         <v>88</v>
       </c>
       <c r="W10" s="7">
-        <v>32.313520885503749</v>
+        <v>88</v>
       </c>
       <c r="X10" s="7">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="Y10" s="7">
-        <v>0</v>
+        <v>85.513755621299993</v>
       </c>
       <c r="Z10" s="7">
-        <v>0</v>
+        <v>16.480629421891308</v>
       </c>
       <c r="AA10" s="8">
         <v>0</v>
@@ -1386,13 +1386,13 @@
         <v>0</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E11" s="7">
-        <v>439.67699965579504</v>
+        <v>650</v>
       </c>
       <c r="F11" s="7">
         <v>650</v>
@@ -1466,28 +1466,28 @@
         <v>10</v>
       </c>
       <c r="B12" s="6">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="C12" s="7">
-        <v>29.310467566032457</v>
+        <v>186</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="E12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="F12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="G12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="J12" s="7">
         <v>186</v>
@@ -1549,10 +1549,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="6">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="D13" s="7">
         <v>0</v>
@@ -1564,22 +1564,22 @@
         <v>0</v>
       </c>
       <c r="G13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="J13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="K13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="L13" s="7">
-        <v>23.000000000002856</v>
+        <v>154</v>
       </c>
       <c r="M13" s="7">
         <v>154</v>
@@ -1597,28 +1597,28 @@
         <v>154</v>
       </c>
       <c r="R13" s="7">
-        <v>124.81114499355454</v>
+        <v>154</v>
       </c>
       <c r="S13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="T13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="U13" s="7">
-        <v>33.519953591382603</v>
+        <v>154</v>
       </c>
       <c r="V13" s="7">
-        <v>0</v>
+        <v>126.02157994995193</v>
       </c>
       <c r="W13" s="7">
         <v>0</v>
       </c>
       <c r="X13" s="7">
-        <v>0</v>
+        <v>121.59457918513726</v>
       </c>
       <c r="Y13" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="7">
         <v>0</v>
@@ -1632,31 +1632,31 @@
         <v>12</v>
       </c>
       <c r="B14" s="6">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>120.52511830097376</v>
       </c>
       <c r="E14" s="7">
         <v>0</v>
       </c>
       <c r="F14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="K14" s="7">
         <v>150</v>
@@ -1698,13 +1698,13 @@
         <v>150</v>
       </c>
       <c r="X14" s="7">
-        <v>140.6762840792554</v>
+        <v>150</v>
       </c>
       <c r="Y14" s="7">
-        <v>70.894920918229047</v>
+        <v>150</v>
       </c>
       <c r="Z14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AA14" s="8">
         <v>0</v>
@@ -1721,19 +1721,19 @@
         <v>1848</v>
       </c>
       <c r="D15" s="7">
-        <v>1550.7645705031723</v>
+        <v>1848</v>
       </c>
       <c r="E15" s="7">
-        <v>1203.1393690292032</v>
+        <v>1267.9555255442774</v>
       </c>
       <c r="F15" s="7">
-        <v>870.72697718766631</v>
+        <v>621.3425041496921</v>
       </c>
       <c r="G15" s="7">
-        <v>554.12071973426896</v>
+        <v>0</v>
       </c>
       <c r="H15" s="7">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="I15" s="7">
         <v>0</v>
@@ -1748,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="M15" s="7">
-        <v>0</v>
+        <v>-1.2050804798491299E-11</v>
       </c>
       <c r="N15" s="7">
-        <v>0</v>
+        <v>-7.9580786405131221E-12</v>
       </c>
       <c r="O15" s="7">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="6">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -1807,22 +1807,22 @@
         <v>0</v>
       </c>
       <c r="E16" s="7">
-        <v>0</v>
+        <v>591.6505774557188</v>
       </c>
       <c r="F16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="G16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="J16" s="7">
-        <v>321.31391087705333</v>
+        <v>656.1</v>
       </c>
       <c r="K16" s="7">
         <v>656.1</v>
@@ -1855,7 +1855,7 @@
         <v>656.1</v>
       </c>
       <c r="U16" s="7">
-        <v>571.48557982475904</v>
+        <v>656.1</v>
       </c>
       <c r="V16" s="7">
         <v>656.1</v>
@@ -1867,13 +1867,13 @@
         <v>656.1</v>
       </c>
       <c r="Y16" s="7">
-        <v>525.5476846301608</v>
+        <v>656.1</v>
       </c>
       <c r="Z16" s="7">
-        <v>553.64158899830977</v>
+        <v>656.1</v>
       </c>
       <c r="AA16" s="8">
-        <v>436.8148632993084</v>
+        <v>651.55241017337903</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.35">
@@ -1881,7 +1881,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="6">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -1893,22 +1893,22 @@
         <v>0</v>
       </c>
       <c r="F17" s="7">
-        <v>0</v>
+        <v>10.579953777303217</v>
       </c>
       <c r="G17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="J17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="K17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="L17" s="7">
         <v>50.3</v>
@@ -1932,19 +1932,19 @@
         <v>50.3</v>
       </c>
       <c r="S17" s="7">
+        <v>28.366370434876508</v>
+      </c>
+      <c r="T17" s="7">
         <v>50.3</v>
       </c>
-      <c r="T17" s="7">
-        <v>0</v>
-      </c>
       <c r="U17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="V17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="W17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="X17" s="7">
         <v>0</v>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="Z17" s="7">
-        <v>1.4551915228366852E-11</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="8">
         <v>0</v>
@@ -1964,25 +1964,25 @@
         <v>16</v>
       </c>
       <c r="B18" s="6">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D18" s="7">
-        <v>-1.6164847238542279E-13</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="F18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I18" s="7">
         <v>67</v>
@@ -2062,67 +2062,67 @@
         <v>257</v>
       </c>
       <c r="G19" s="7">
+        <v>171.84029741109225</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <v>7.2759576141834259E-12</v>
+      </c>
+      <c r="N19" s="7">
+        <v>-4.3655745685100555E-11</v>
+      </c>
+      <c r="O19" s="7">
+        <v>3.0240698833949864E-11</v>
+      </c>
+      <c r="P19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>0</v>
+      </c>
+      <c r="R19" s="7">
+        <v>0</v>
+      </c>
+      <c r="S19" s="7">
         <v>257</v>
       </c>
-      <c r="H19" s="7">
-        <v>257</v>
-      </c>
-      <c r="I19" s="7">
-        <v>257</v>
-      </c>
-      <c r="J19" s="7">
-        <v>0</v>
-      </c>
-      <c r="K19" s="7">
-        <v>0</v>
-      </c>
-      <c r="L19" s="7">
-        <v>0</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>235.29049217141892</v>
-      </c>
-      <c r="O19" s="7">
-        <v>138.53790231109792</v>
-      </c>
-      <c r="P19" s="7">
-        <v>63.279276849262715</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>0</v>
-      </c>
-      <c r="R19" s="7">
-        <v>75.968067126459459</v>
-      </c>
-      <c r="S19" s="7">
-        <v>53.390837394744516</v>
-      </c>
       <c r="T19" s="7">
-        <v>0</v>
+        <v>169.0855177687904</v>
       </c>
       <c r="U19" s="7">
-        <v>0</v>
+        <v>158.32540032288483</v>
       </c>
       <c r="V19" s="7">
-        <v>39</v>
+        <v>61.054911659327445</v>
       </c>
       <c r="W19" s="7">
-        <v>58.537105880331154</v>
+        <v>75.852590074266118</v>
       </c>
       <c r="X19" s="7">
         <v>0</v>
       </c>
       <c r="Y19" s="7">
-        <v>0</v>
+        <v>42.858822277240506</v>
       </c>
       <c r="Z19" s="7">
         <v>0</v>
       </c>
       <c r="AA19" s="8">
-        <v>0</v>
+        <v>48.222203806046309</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.35">
@@ -2148,37 +2148,37 @@
         <v>2269.6</v>
       </c>
       <c r="H20" s="7">
-        <v>2238.0633695409961</v>
+        <v>2256.2042648899333</v>
       </c>
       <c r="I20" s="7">
-        <v>2217.3943325084606</v>
+        <v>1996.7838523281605</v>
       </c>
       <c r="J20" s="7">
-        <v>1993.2698397322156</v>
+        <v>1777.5545077436095</v>
       </c>
       <c r="K20" s="7">
-        <v>1483.0859826947581</v>
+        <v>1487.0954731695394</v>
       </c>
       <c r="L20" s="7">
-        <v>951.05426329023123</v>
+        <v>1341.618221466593</v>
       </c>
       <c r="M20" s="7">
-        <v>370.47882470625495</v>
+        <v>1120.7662362691731</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>931.80255454857161</v>
       </c>
       <c r="O20" s="7">
-        <v>0</v>
+        <v>772.92181842289301</v>
       </c>
       <c r="P20" s="7">
-        <v>0</v>
+        <v>642.41528831139897</v>
       </c>
       <c r="Q20" s="7">
-        <v>0</v>
+        <v>429.4950948305368</v>
       </c>
       <c r="R20" s="7">
-        <v>0</v>
+        <v>350.97141902340167</v>
       </c>
       <c r="S20" s="7">
         <v>0</v>
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="7">
-        <v>2.7284841053187847E-12</v>
+        <v>0</v>
       </c>
       <c r="X20" s="7">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6">
-        <v>21.644142938021105</v>
+        <v>25.311936795242218</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="7">
-        <v>0</v>
+        <v>-1.7053025658242404E-12</v>
       </c>
       <c r="O21" s="7">
         <v>0</v>
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="7">
-        <v>3.19122506198255E-12</v>
+        <v>0</v>
       </c>
       <c r="R21" s="7">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="6">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -2308,22 +2308,22 @@
         <v>0</v>
       </c>
       <c r="F22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="G22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="J22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="K22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="L22" s="7">
         <v>398.3</v>
@@ -2350,28 +2350,28 @@
         <v>398.3</v>
       </c>
       <c r="T22" s="7">
-        <v>362.10716141420562</v>
+        <v>398.3</v>
       </c>
       <c r="U22" s="7">
         <v>398.3</v>
       </c>
       <c r="V22" s="7">
-        <v>112.54928321688749</v>
+        <v>398.3</v>
       </c>
       <c r="W22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="X22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="Y22" s="7">
-        <v>0</v>
+        <v>302.93681115470872</v>
       </c>
       <c r="Z22" s="7">
-        <v>0</v>
+        <v>292.24594413283558</v>
       </c>
       <c r="AA22" s="8">
-        <v>0</v>
+        <v>243.16589873729515</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.35">
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D24" s="7">
         <v>25</v>
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="7">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
         <v>70</v>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="7">
-        <v>30.6</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
         <v>30.6</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
         <v>10</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="7">
-        <v>10</v>
+        <v>5.7424122023118684</v>
       </c>
       <c r="D29" s="7">
         <v>10</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="7">
-        <v>5.4745324339669352</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
         <v>20.200000000000003</v>
@@ -3212,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="7">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D33" s="7">
         <v>70</v>
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="7">
-        <v>10.000000000000002</v>
+        <v>0</v>
       </c>
       <c r="D36" s="7">
         <v>10.000000000000002</v>
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D37" s="7">
         <v>10</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D38" s="7">
         <v>10</v>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="7">
-        <v>10.1</v>
+        <v>0</v>
       </c>
       <c r="D39" s="7">
         <v>10.1</v>
@@ -3959,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D42" s="7">
         <v>12</v>
@@ -4057,64 +4057,64 @@
         <v>0</v>
       </c>
       <c r="H43" s="7">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="I43" s="7">
-        <v>0</v>
+        <v>649.99999999999523</v>
       </c>
       <c r="J43" s="7">
-        <v>0</v>
+        <v>949.99999999999272</v>
       </c>
       <c r="K43" s="7">
-        <v>0</v>
+        <v>1199.9999999999927</v>
       </c>
       <c r="L43" s="7">
-        <v>0</v>
+        <v>1499.9999999999927</v>
       </c>
       <c r="M43" s="7">
-        <v>0</v>
+        <v>1749.9999999999927</v>
       </c>
       <c r="N43" s="7">
-        <v>200.00000000000026</v>
+        <v>1999.9999999999959</v>
       </c>
       <c r="O43" s="7">
-        <v>400.00000000000023</v>
+        <v>2249.9999999999927</v>
       </c>
       <c r="P43" s="7">
-        <v>600.00000000000023</v>
+        <v>2499.9999999999927</v>
       </c>
       <c r="Q43" s="7">
-        <v>800.00000000000023</v>
+        <v>2699.9999999999927</v>
       </c>
       <c r="R43" s="7">
-        <v>1050.0000000000002</v>
+        <v>2949.9999999999927</v>
       </c>
       <c r="S43" s="7">
-        <v>1250.0000000000002</v>
+        <v>3199.9999999999927</v>
       </c>
       <c r="T43" s="7">
-        <v>1450.0000000000002</v>
+        <v>3399.9999999999923</v>
       </c>
       <c r="U43" s="7">
-        <v>1650.0000000000002</v>
+        <v>3649.9999999999927</v>
       </c>
       <c r="V43" s="7">
-        <v>1850.0000000000002</v>
+        <v>3849.9999999999927</v>
       </c>
       <c r="W43" s="7">
-        <v>2050.0000000000005</v>
+        <v>4099.9999999999927</v>
       </c>
       <c r="X43" s="7">
-        <v>2200.0000000000005</v>
+        <v>4299.9999999999927</v>
       </c>
       <c r="Y43" s="7">
-        <v>2400.0000000000005</v>
+        <v>4549.9999999999927</v>
       </c>
       <c r="Z43" s="7">
-        <v>2550.0000000000005</v>
+        <v>4749.9999999999927</v>
       </c>
       <c r="AA43" s="8">
-        <v>2700.0000000000005</v>
+        <v>4999.9999999999927</v>
       </c>
       <c r="AB43" t="s">
         <v>17</v>
@@ -4146,61 +4146,61 @@
         <v>0</v>
       </c>
       <c r="I44" s="7">
-        <v>0</v>
+        <v>1.5276668818842154E-12</v>
       </c>
       <c r="J44" s="7">
-        <v>0</v>
+        <v>1.5276668818842154E-12</v>
       </c>
       <c r="K44" s="7">
-        <v>0</v>
+        <v>1.5276668818842154E-12</v>
       </c>
       <c r="L44" s="7">
-        <v>0</v>
+        <v>1.5276668818842154E-12</v>
       </c>
       <c r="M44" s="7">
-        <v>0</v>
+        <v>1.5276668818842154E-12</v>
       </c>
       <c r="N44" s="7">
-        <v>0</v>
+        <v>1.5276668818842154E-12</v>
       </c>
       <c r="O44" s="7">
-        <v>0</v>
+        <v>1.5276668818842154E-12</v>
       </c>
       <c r="P44" s="7">
-        <v>0</v>
+        <v>1.5276668818842154E-12</v>
       </c>
       <c r="Q44" s="7">
-        <v>0</v>
+        <v>1.5276668818842154E-12</v>
       </c>
       <c r="R44" s="7">
-        <v>0</v>
+        <v>1.5276668818842154E-12</v>
       </c>
       <c r="S44" s="7">
-        <v>0</v>
+        <v>1.5276668818842154E-12</v>
       </c>
       <c r="T44" s="7">
-        <v>0</v>
+        <v>10.000000000001364</v>
       </c>
       <c r="U44" s="7">
-        <v>0</v>
+        <v>10.000000000001528</v>
       </c>
       <c r="V44" s="7">
-        <v>0</v>
+        <v>10.000000000001528</v>
       </c>
       <c r="W44" s="7">
-        <v>0</v>
+        <v>10.000000000001528</v>
       </c>
       <c r="X44" s="7">
-        <v>0</v>
+        <v>10.000000000001528</v>
       </c>
       <c r="Y44" s="7">
-        <v>0</v>
+        <v>10.000000000001528</v>
       </c>
       <c r="Z44" s="7">
-        <v>0</v>
+        <v>10.000000000002728</v>
       </c>
       <c r="AA44" s="8">
-        <v>20</v>
+        <v>10.000000000001528</v>
       </c>
       <c r="AB44" t="s">
         <v>18</v>
@@ -4307,82 +4307,82 @@
         <v>1</v>
       </c>
       <c r="B49" s="3">
-        <v>62.835285687326341</v>
+        <v>131.42935440158607</v>
       </c>
       <c r="C49" s="4">
-        <v>-50.75023918867759</v>
+        <v>230.78839186512482</v>
       </c>
       <c r="D49" s="4">
-        <v>178.1438039145512</v>
+        <v>366.23840446601673</v>
       </c>
       <c r="E49" s="4">
-        <v>136.42312011825047</v>
+        <v>445.3803443500006</v>
       </c>
       <c r="F49" s="4">
-        <v>237.64005407631254</v>
+        <v>626.31845204158526</v>
       </c>
       <c r="G49" s="4">
-        <v>468.71331472839029</v>
+        <v>982.41113455138793</v>
       </c>
       <c r="H49" s="4">
-        <v>684.15511552186535</v>
+        <v>840.47206649496934</v>
       </c>
       <c r="I49" s="4">
-        <v>873.74221401436341</v>
+        <v>756.86129874202049</v>
       </c>
       <c r="J49" s="4">
-        <v>716.45513394539705</v>
+        <v>660.12275018253536</v>
       </c>
       <c r="K49" s="4">
-        <v>584.05798273255243</v>
+        <v>620.73242998209787</v>
       </c>
       <c r="L49" s="4">
-        <v>617.45410232673657</v>
+        <v>499.95562550576074</v>
       </c>
       <c r="M49" s="4">
-        <v>744.7530648988751</v>
+        <v>437.91364253219143</v>
       </c>
       <c r="N49" s="4">
-        <v>677.77962313536261</v>
+        <v>365.52129126400126</v>
       </c>
       <c r="O49" s="4">
-        <v>598.18594117353473</v>
+        <v>283.38286925755358</v>
       </c>
       <c r="P49" s="4">
-        <v>511.62100350497496</v>
+        <v>192.07049057331494</v>
       </c>
       <c r="Q49" s="4">
-        <v>421.25808931682013</v>
+        <v>161.84933534702861</v>
       </c>
       <c r="R49" s="4">
-        <v>270.80219308281619</v>
+        <v>53.785256585355228</v>
       </c>
       <c r="S49" s="4">
-        <v>250.47492379817709</v>
+        <v>-41.526512318798495</v>
       </c>
       <c r="T49" s="4">
-        <v>186.24282928472405</v>
+        <v>-123.18520092966764</v>
       </c>
       <c r="U49" s="4">
-        <v>97.583801093169598</v>
+        <v>-252.95367203609396</v>
       </c>
       <c r="V49" s="4">
-        <v>35.317416375303594</v>
+        <v>-301.59993596223268</v>
       </c>
       <c r="W49" s="4">
-        <v>-43.926253248817375</v>
+        <v>-355.27098067622768</v>
       </c>
       <c r="X49" s="4">
-        <v>-94.904698969808408</v>
+        <v>-493.39748449742729</v>
       </c>
       <c r="Y49" s="4">
-        <v>-86.512564535484387</v>
+        <v>-526.97265273668495</v>
       </c>
       <c r="Z49" s="4">
-        <v>-118.93067761629862</v>
+        <v>-607.61835661131522</v>
       </c>
       <c r="AA49" s="5">
-        <v>-123.78488704818335</v>
+        <v>-635.81607690750707</v>
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.35">
@@ -4390,82 +4390,82 @@
         <v>2</v>
       </c>
       <c r="B50" s="6">
-        <v>-471.66471431267365</v>
+        <v>-374.47064559841419</v>
       </c>
       <c r="C50" s="7">
-        <v>-414.58227162264478</v>
+        <v>-176.16919593256281</v>
       </c>
       <c r="D50" s="7">
-        <v>-533.8696080822757</v>
+        <v>-229.71997723300865</v>
       </c>
       <c r="E50" s="7">
-        <v>-505.36869553925067</v>
+        <v>-291.56660415000079</v>
       </c>
       <c r="F50" s="7">
-        <v>-548.2678267376026</v>
+        <v>-575.15027277221986</v>
       </c>
       <c r="G50" s="7">
-        <v>-656.02573726093669</v>
+        <v>-719.0494954727817</v>
       </c>
       <c r="H50" s="7">
-        <v>-740.12959414724287</v>
+        <v>-543.93180919941642</v>
       </c>
       <c r="I50" s="7">
-        <v>-850.16925804176651</v>
+        <v>-360.7823118336201</v>
       </c>
       <c r="J50" s="7">
-        <v>-522.97283048218446</v>
+        <v>-191.05975288828813</v>
       </c>
       <c r="K50" s="7">
-        <v>-193.61976944982356</v>
+        <v>-14.290815616362408</v>
       </c>
       <c r="L50" s="7">
-        <v>-160.46684962527786</v>
+        <v>130.78707069691475</v>
       </c>
       <c r="M50" s="7">
-        <v>74.379724379289769</v>
+        <v>284.29247073005416</v>
       </c>
       <c r="N50" s="7">
-        <v>183.74282255110126</v>
+        <v>427.13742891565283</v>
       </c>
       <c r="O50" s="7">
-        <v>280.27270938401534</v>
+        <v>559.92345214807517</v>
       </c>
       <c r="P50" s="7">
-        <v>369.61645262934991</v>
+        <v>683.2198387098515</v>
       </c>
       <c r="Q50" s="7">
-        <v>454.94539748331476</v>
+        <v>817.28892761679458</v>
       </c>
       <c r="R50" s="7">
-        <v>500.77373201636402</v>
+        <v>923.19370518555002</v>
       </c>
       <c r="S50" s="7">
-        <v>530.88766128363045</v>
+        <v>1041.5265123187985</v>
       </c>
       <c r="T50" s="7">
-        <v>641.68518140754668</v>
+        <v>1123.1852009296676</v>
       </c>
       <c r="U50" s="7">
-        <v>676.73656780123952</v>
+        <v>1206.4039634399765</v>
       </c>
       <c r="V50" s="7">
-        <v>840.14277476685982</v>
+        <v>1292.4333981830744</v>
       </c>
       <c r="W50" s="7">
-        <v>935.24843336826348</v>
+        <v>1325.0587793068864</v>
       </c>
       <c r="X50" s="7">
-        <v>999.06474390608184</v>
+        <v>1470.5057225106732</v>
       </c>
       <c r="Y50" s="7">
-        <v>1004.0087382387102</v>
+        <v>1526.9726527366849</v>
       </c>
       <c r="Z50" s="7">
-        <v>1029.4401168828485</v>
+        <v>1607.6183566113152</v>
       </c>
       <c r="AA50" s="8">
-        <v>1031.1725446014705</v>
+        <v>1635.8160769075071</v>
       </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.35">
@@ -4473,82 +4473,82 @@
         <v>3</v>
       </c>
       <c r="B51" s="9">
-        <v>408.82942862534736</v>
+        <v>243.0412911968281</v>
       </c>
       <c r="C51" s="10">
-        <v>465.33251081132232</v>
+        <v>-54.619195932561979</v>
       </c>
       <c r="D51" s="10">
-        <v>355.7258041677245</v>
+        <v>-136.51842723300805</v>
       </c>
       <c r="E51" s="10">
-        <v>368.94557542100017</v>
+        <v>-153.81374019999981</v>
       </c>
       <c r="F51" s="10">
-        <v>310.62777266129024</v>
+        <v>-51.168179269365396</v>
       </c>
       <c r="G51" s="10">
-        <v>187.31242253254641</v>
+        <v>-263.36163907860646</v>
       </c>
       <c r="H51" s="10">
-        <v>55.974478625377969</v>
+        <v>-296.54025729555292</v>
       </c>
       <c r="I51" s="10">
-        <v>-23.57295597259656</v>
+        <v>-396.07898690840022</v>
       </c>
       <c r="J51" s="10">
-        <v>-193.48230346321259</v>
+        <v>-469.06299729424722</v>
       </c>
       <c r="K51" s="10">
-        <v>-390.43821328272884</v>
+        <v>-606.44161436573552</v>
       </c>
       <c r="L51" s="10">
-        <v>-456.98725270145871</v>
+        <v>-630.74269620267546</v>
       </c>
       <c r="M51" s="10">
-        <v>-819.13278927816498</v>
+        <v>-722.20611326224559</v>
       </c>
       <c r="N51" s="10">
-        <v>-861.52244568646381</v>
+        <v>-792.6587201796541</v>
       </c>
       <c r="O51" s="10">
-        <v>-878.45865055755007</v>
+        <v>-843.30632140562898</v>
       </c>
       <c r="P51" s="10">
-        <v>-881.23745613432482</v>
+        <v>-875.29032928316622</v>
       </c>
       <c r="Q51" s="10">
-        <v>-876.2034868001349</v>
+        <v>-979.13826296382319</v>
       </c>
       <c r="R51" s="10">
-        <v>-771.57592509918015</v>
+        <v>-976.97896177090524</v>
       </c>
       <c r="S51" s="10">
-        <v>-781.36258508180754</v>
+        <v>-1000</v>
       </c>
       <c r="T51" s="10">
-        <v>-827.92801069227073</v>
+        <v>-1000</v>
       </c>
       <c r="U51" s="10">
-        <v>-774.32036889440906</v>
+        <v>-953.45029140388249</v>
       </c>
       <c r="V51" s="10">
-        <v>-875.46019114216324</v>
+        <v>-990.83346222084174</v>
       </c>
       <c r="W51" s="10">
-        <v>-891.3221801194461</v>
+        <v>-969.7877986306587</v>
       </c>
       <c r="X51" s="10">
-        <v>-904.16004493627338</v>
+        <v>-977.10823801324636</v>
       </c>
       <c r="Y51" s="10">
-        <v>-917.49617370322585</v>
+        <v>-1000</v>
       </c>
       <c r="Z51" s="10">
-        <v>-910.50943926654986</v>
+        <v>-1000</v>
       </c>
       <c r="AA51" s="11">
-        <v>-907.387657553287</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.35">
@@ -4639,86 +4639,86 @@
         <v>8</v>
       </c>
       <c r="B54" s="15">
-        <v>116142.31171541518</v>
+        <v>187067.81092078245</v>
       </c>
       <c r="C54" s="16">
-        <v>90254.060409618192</v>
+        <v>150732.88932861568</v>
       </c>
       <c r="D54" s="16">
-        <v>79964.10032811109</v>
+        <v>123175.51953414564</v>
       </c>
       <c r="E54" s="16">
-        <v>72684.973431360268</v>
+        <v>115689.69506787832</v>
       </c>
       <c r="F54" s="16">
-        <v>66155.713722375527</v>
+        <v>110744.52859723844</v>
       </c>
       <c r="G54" s="16">
-        <v>60256.549488325407</v>
+        <v>107424.10359766634</v>
       </c>
       <c r="H54" s="16">
-        <v>54977.522799735438</v>
+        <v>3661670.1339732334</v>
       </c>
       <c r="I54" s="16">
-        <v>50282.770369670689</v>
+        <v>6106867.0528585901</v>
       </c>
       <c r="J54" s="16">
-        <v>48377.846167733675</v>
+        <v>8076957.997792678</v>
       </c>
       <c r="K54" s="16">
-        <v>46912.706872976756</v>
+        <v>9256611.1456463076</v>
       </c>
       <c r="L54" s="16">
-        <v>45795.469250573748</v>
+        <v>10501696.110261483</v>
       </c>
       <c r="M54" s="16">
-        <v>45155.362721937687</v>
+        <v>11128410.409977544</v>
       </c>
       <c r="N54" s="16">
-        <v>1190874.18742252</v>
+        <v>11554244.936863484</v>
       </c>
       <c r="O54" s="16">
-        <v>2127766.6260871897</v>
+        <v>11810564.306614228</v>
       </c>
       <c r="P54" s="16">
-        <v>2884393.7043662528</v>
+        <v>11924687.711666334</v>
       </c>
       <c r="Q54" s="16">
-        <v>3485852.6354892431</v>
+        <v>11704993.803017179</v>
       </c>
       <c r="R54" s="16">
-        <v>4149773.4040325773</v>
+        <v>11622410.792931966</v>
       </c>
       <c r="S54" s="16">
-        <v>4486187.3128162324</v>
+        <v>11458222.771363657</v>
       </c>
       <c r="T54" s="16">
-        <v>4727353.3866679231</v>
+        <v>11136757.908128934</v>
       </c>
       <c r="U54" s="16">
-        <v>4887381.3008786822</v>
+        <v>10861596.891806329</v>
       </c>
       <c r="V54" s="16">
-        <v>4979102.8352828175</v>
+        <v>10410656.179152189</v>
       </c>
       <c r="W54" s="16">
-        <v>5013872.9957726207</v>
+        <v>10073525.415561445</v>
       </c>
       <c r="X54" s="16">
-        <v>4890571.6004691469</v>
+        <v>9601097.70867154</v>
       </c>
       <c r="Y54" s="16">
-        <v>4848919.4336687829</v>
+        <v>9231791.2591375373</v>
       </c>
       <c r="Z54" s="16">
-        <v>4682765.3724788632</v>
+        <v>8758907.2165259589</v>
       </c>
       <c r="AA54" s="17">
-        <v>4579861.5051296419</v>
+        <v>8378810.8095743293</v>
       </c>
       <c r="AB54" s="18">
         <f>SUM(TotalCost)</f>
-        <v>57711635.687840335</v>
+        <v>198055315.10857129</v>
       </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.35">
@@ -4812,86 +4812,86 @@
         <v>10</v>
       </c>
       <c r="B57" s="3">
-        <v>9792.3333941758901</v>
+        <v>13546.179193698952</v>
       </c>
       <c r="C57" s="4">
-        <v>8954.9238706412398</v>
+        <v>10789.085021802086</v>
       </c>
       <c r="D57" s="4">
-        <v>8312.2094357673395</v>
+        <v>9571.5136009432536</v>
       </c>
       <c r="E57" s="4">
-        <v>7410.3285851117926</v>
+        <v>9343.2363146215939</v>
       </c>
       <c r="F57" s="4">
-        <v>6524.9061116961648</v>
+        <v>8651.2475016100889</v>
       </c>
       <c r="G57" s="4">
-        <v>5675.0967144338301</v>
+        <v>8038.2165093081167</v>
       </c>
       <c r="H57" s="4">
-        <v>4907.9301298235951</v>
+        <v>7228.5430222441555</v>
       </c>
       <c r="I57" s="4">
-        <v>4846.616490455086</v>
+        <v>6936.5566496032461</v>
       </c>
       <c r="J57" s="4">
-        <v>4440.2122379513548</v>
+        <v>6638.6779565246034</v>
       </c>
       <c r="K57" s="4">
-        <v>4077.8025597323099</v>
+        <v>6425.4833683574752</v>
       </c>
       <c r="L57" s="4">
-        <v>4627.0704681652242</v>
+        <v>6116.9571653142193</v>
       </c>
       <c r="M57" s="4">
-        <v>4990.2711381026375</v>
+        <v>5893.8271200660729</v>
       </c>
       <c r="N57" s="4">
-        <v>5385.8177309898319</v>
+        <v>5666.2309912248211</v>
       </c>
       <c r="O57" s="4">
-        <v>4939.7667606918485</v>
+        <v>5434.4800992776509</v>
       </c>
       <c r="P57" s="4">
-        <v>4544.8227005354656</v>
+        <v>5198.8696050192648</v>
       </c>
       <c r="Q57" s="4">
-        <v>4202.3778899280769</v>
+        <v>5049.8700358851456</v>
       </c>
       <c r="R57" s="4">
-        <v>4023.3797807865844</v>
+        <v>4807.3655203270955</v>
       </c>
       <c r="S57" s="4">
-        <v>3562.8368752775086</v>
+        <v>4732.4965182340493</v>
       </c>
       <c r="T57" s="4">
-        <v>2018.2859423394527</v>
+        <v>4812.4019462951419</v>
       </c>
       <c r="U57" s="4">
-        <v>1967.6615923933773</v>
+        <v>4534.2511210002167</v>
       </c>
       <c r="V57" s="4">
-        <v>2601.5051933218974</v>
+        <v>4082.6080390532206</v>
       </c>
       <c r="W57" s="4">
-        <v>2366.4459735349774</v>
+        <v>3692.1905943356433</v>
       </c>
       <c r="X57" s="4">
-        <v>1841.3820189436233</v>
+        <v>3334.3163282404275</v>
       </c>
       <c r="Y57" s="4">
-        <v>1046.2539567394429</v>
+        <v>3013.074674252141</v>
       </c>
       <c r="Z57" s="4">
-        <v>2001.1282781203988</v>
+        <v>2738.5268734451006</v>
       </c>
       <c r="AA57" s="5">
-        <v>1955.6826818234308</v>
+        <v>2732.9195703129299</v>
       </c>
       <c r="AB57" s="12">
         <f>SUM(B57:AA57)</f>
-        <v>117017.04851148235</v>
+        <v>159009.12534099666</v>
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.35">
@@ -4899,86 +4899,86 @@
         <v>11</v>
       </c>
       <c r="B58" s="6">
-        <v>2448.3149981563142</v>
+        <v>2499.3386430939754</v>
       </c>
       <c r="C58" s="7">
-        <v>2250.7309046756604</v>
+        <v>2265.7857151755957</v>
       </c>
       <c r="D58" s="7">
-        <v>2093.1228816561784</v>
+        <v>2260.7715595915051</v>
       </c>
       <c r="E58" s="7">
-        <v>1909.7734686908443</v>
+        <v>1956.7083491572898</v>
       </c>
       <c r="F58" s="7">
-        <v>1733.9815643186571</v>
+        <v>1617.4694729091009</v>
       </c>
       <c r="G58" s="7">
-        <v>1565.9525412657913</v>
+        <v>1176.644653667239</v>
       </c>
       <c r="H58" s="7">
-        <v>1406.8902681740076</v>
+        <v>935.89314664263384</v>
       </c>
       <c r="I58" s="7">
-        <v>1253.2829457374201</v>
+        <v>831.55391943883365</v>
       </c>
       <c r="J58" s="7">
-        <v>816.82964278822237</v>
+        <v>743.09495060785889</v>
       </c>
       <c r="K58" s="7">
-        <v>615.19080719934755</v>
+        <v>626.90508383154338</v>
       </c>
       <c r="L58" s="7">
-        <v>405.84806810596325</v>
+        <v>567.58789435624578</v>
       </c>
       <c r="M58" s="7">
-        <v>176.8071092072841</v>
+        <v>478.90260207516081</v>
       </c>
       <c r="N58" s="7">
-        <v>348.53578668596367</v>
+        <v>402.81815084418042</v>
       </c>
       <c r="O58" s="7">
-        <v>216.02454514479223</v>
+        <v>338.62146895083538</v>
       </c>
       <c r="P58" s="7">
-        <v>112.68405149845951</v>
+        <v>285.63764931281798</v>
       </c>
       <c r="Q58" s="7">
-        <v>26.209689678912092</v>
+        <v>200.50552898174573</v>
       </c>
       <c r="R58" s="7">
-        <v>127.08410078756559</v>
+        <v>168.06517533664049</v>
       </c>
       <c r="S58" s="7">
-        <v>95.267693043826242</v>
+        <v>376.48025651314629</v>
       </c>
       <c r="T58" s="7">
-        <v>19.903315204620622</v>
+        <v>256.3691211824991</v>
       </c>
       <c r="U58" s="7">
-        <v>18.754858687504374</v>
+        <v>240.35984607053751</v>
       </c>
       <c r="V58" s="7">
-        <v>71.662244982518217</v>
+        <v>107.36132705458158</v>
       </c>
       <c r="W58" s="7">
-        <v>97.097057693737156</v>
+        <v>126.55198545137324</v>
       </c>
       <c r="X58" s="7">
-        <v>16.653318540051551</v>
+        <v>21.304213423380013</v>
       </c>
       <c r="Y58" s="7">
-        <v>14.927298238838731</v>
+        <v>78.242360131486649</v>
       </c>
       <c r="Z58" s="7">
-        <v>15.168191122988734</v>
+        <v>19.112966644304979</v>
       </c>
       <c r="AA58" s="8">
-        <v>14.350404043095159</v>
+        <v>83.379036357627911</v>
       </c>
       <c r="AB58" s="13">
         <f t="shared" ref="AB58:AB61" si="0">SUM(B58:AA58)</f>
-        <v>17871.047755328564</v>
+        <v>18665.465076802142</v>
       </c>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.35">
@@ -4986,86 +4986,86 @@
         <v>12</v>
       </c>
       <c r="B59" s="6">
-        <v>11030492.52510554</v>
+        <v>14036617.048186619</v>
       </c>
       <c r="C59" s="7">
-        <v>10435481.285119284</v>
+        <v>13279448.236726513</v>
       </c>
       <c r="D59" s="7">
-        <v>9872566.3794448655</v>
+        <v>12563122.928161718</v>
       </c>
       <c r="E59" s="7">
-        <v>9340016.4547782987</v>
+        <v>11885437.925921649</v>
       </c>
       <c r="F59" s="7">
-        <v>8836193.5511680655</v>
+        <v>11244308.879146414</v>
       </c>
       <c r="G59" s="7">
-        <v>8359548.0641535381</v>
+        <v>10637763.871863946</v>
       </c>
       <c r="H59" s="7">
-        <v>7908613.978657743</v>
+        <v>10063937.357982313</v>
       </c>
       <c r="I59" s="7">
-        <v>7482004.3599753957</v>
+        <v>9521064.4234430883</v>
       </c>
       <c r="J59" s="7">
-        <v>7078407.0879878597</v>
+        <v>9007475.3578879535</v>
       </c>
       <c r="K59" s="7">
-        <v>6696580.8214847837</v>
+        <v>8521590.5191426184</v>
       </c>
       <c r="L59" s="7">
-        <v>6335351.1801799228</v>
+        <v>8061915.4747228203</v>
       </c>
       <c r="M59" s="7">
-        <v>5993607.1326781856</v>
+        <v>7627036.4054191327</v>
       </c>
       <c r="N59" s="7">
-        <v>5670297.5792844063</v>
+        <v>7215615.7568234513</v>
       </c>
       <c r="O59" s="7">
-        <v>5364428.1191436155</v>
+        <v>6826388.1254225783</v>
       </c>
       <c r="P59" s="7">
-        <v>5075057.9917695234</v>
+        <v>6458156.3666057838</v>
       </c>
       <c r="Q59" s="7">
-        <v>4801297.1835542955</v>
+        <v>6109787.9126157882</v>
       </c>
       <c r="R59" s="7">
-        <v>4542303.6903601345</v>
+        <v>5780211.289118303</v>
       </c>
       <c r="S59" s="7">
-        <v>4297280.9277732521</v>
+        <v>5468412.8196761673</v>
       </c>
       <c r="T59" s="7">
-        <v>4065475.2810549363</v>
+        <v>5173433.5079920683</v>
       </c>
       <c r="U59" s="7">
-        <v>3846173.7872541589</v>
+        <v>4894366.0883305576</v>
       </c>
       <c r="V59" s="7">
-        <v>3638701.9423525804</v>
+        <v>4630352.2350473953</v>
       </c>
       <c r="W59" s="7">
-        <v>3442421.6266974206</v>
+        <v>4380579.9226435749</v>
       </c>
       <c r="X59" s="7">
-        <v>3256668.5275755776</v>
+        <v>4140395.2704786304</v>
       </c>
       <c r="Y59" s="7">
-        <v>3080996.0111936848</v>
+        <v>3917052.4126403639</v>
       </c>
       <c r="Z59" s="7">
-        <v>2914799.691959471</v>
+        <v>3705757.2045767521</v>
       </c>
       <c r="AA59" s="8">
-        <v>2756800.4242827035</v>
+        <v>3505859.7671445911</v>
       </c>
       <c r="AB59" s="13">
         <f t="shared" si="0"/>
-        <v>156121565.60498923</v>
+        <v>198656087.10772076</v>
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.35">
@@ -5073,86 +5073,86 @@
         <v>13</v>
       </c>
       <c r="B60" s="6">
-        <v>1087.869949436174</v>
+        <v>1143.9782175531147</v>
       </c>
       <c r="C60" s="7">
-        <v>1077.1692512215848</v>
+        <v>1129.7721214047631</v>
       </c>
       <c r="D60" s="7">
-        <v>1003.2930685747867</v>
+        <v>1120.5957231830098</v>
       </c>
       <c r="E60" s="7">
-        <v>915.39977310780603</v>
+        <v>976.93472901298071</v>
       </c>
       <c r="F60" s="7">
-        <v>830.76287557046851</v>
+        <v>818.75420488900284</v>
       </c>
       <c r="G60" s="7">
-        <v>749.78965838659644</v>
+        <v>646.96597715865585</v>
       </c>
       <c r="H60" s="7">
-        <v>672.48202820439769</v>
+        <v>598.81743474642724</v>
       </c>
       <c r="I60" s="7">
-        <v>597.63670838146265</v>
+        <v>541.5882799209345</v>
       </c>
       <c r="J60" s="7">
-        <v>496.87153594308745</v>
+        <v>492.37150718837751</v>
       </c>
       <c r="K60" s="7">
-        <v>397.63465122602088</v>
+        <v>430.19451494946418</v>
       </c>
       <c r="L60" s="7">
-        <v>294.7249546509081</v>
+        <v>395.68351670267634</v>
       </c>
       <c r="M60" s="7">
-        <v>180.88460646148485</v>
+        <v>347.38769726406582</v>
       </c>
       <c r="N60" s="7">
-        <v>156.43552716661384</v>
+        <v>305.45253374787387</v>
       </c>
       <c r="O60" s="7">
-        <v>131.01226314589397</v>
+        <v>269.51889388741722</v>
       </c>
       <c r="P60" s="7">
-        <v>110.43545573311411</v>
+        <v>239.24687366341439</v>
       </c>
       <c r="Q60" s="7">
-        <v>92.261065903234879</v>
+        <v>193.78982344232776</v>
       </c>
       <c r="R60" s="7">
-        <v>104.71776077430789</v>
+        <v>173.89310685284732</v>
       </c>
       <c r="S60" s="7">
-        <v>95.514061765053142</v>
+        <v>157.22690203843942</v>
       </c>
       <c r="T60" s="7">
-        <v>79.432688582347097</v>
+        <v>134.55986220872947</v>
       </c>
       <c r="U60" s="7">
-        <v>75.915483776002446</v>
+        <v>127.91544856979749</v>
       </c>
       <c r="V60" s="7">
-        <v>80.102630646855957</v>
+        <v>102.91027724177117</v>
       </c>
       <c r="W60" s="7">
-        <v>80.425004428111677</v>
+        <v>101.29075584735811</v>
       </c>
       <c r="X60" s="7">
-        <v>64.864131352610116</v>
+        <v>81.445311520562399</v>
       </c>
       <c r="Y60" s="7">
-        <v>61.111707744258133</v>
+        <v>86.13681204998511</v>
       </c>
       <c r="Z60" s="7">
-        <v>58.412881313956447</v>
+        <v>73.312417485977619</v>
       </c>
       <c r="AA60" s="8">
-        <v>55.37538644578202</v>
+        <v>79.531370678120368</v>
       </c>
       <c r="AB60" s="13">
         <f t="shared" si="0"/>
-        <v>9550.5351099429154</v>
+        <v>10769.274313208094</v>
       </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.35">
@@ -5160,86 +5160,86 @@
         <v>14</v>
       </c>
       <c r="B61" s="9">
-        <v>157.05617114463647</v>
+        <v>163.39106260949535</v>
       </c>
       <c r="C61" s="10">
-        <v>155.88713140269812</v>
+        <v>161.60491517559535</v>
       </c>
       <c r="D61" s="10">
-        <v>144.87475700361736</v>
+        <v>161.04865911830098</v>
       </c>
       <c r="E61" s="10">
-        <v>131.77392876047972</v>
+        <v>139.60637275413825</v>
       </c>
       <c r="F61" s="10">
-        <v>119.23036456513765</v>
+        <v>115.8758400273196</v>
       </c>
       <c r="G61" s="10">
-        <v>107.28822643679661</v>
+        <v>89.795212632073813</v>
       </c>
       <c r="H61" s="10">
-        <v>95.901239924906307</v>
+        <v>82.982543449475557</v>
       </c>
       <c r="I61" s="10">
-        <v>84.845675863478348</v>
+        <v>74.732890012147365</v>
       </c>
       <c r="J61" s="10">
-        <v>69.982576604062061</v>
+        <v>67.690165244591554</v>
       </c>
       <c r="K61" s="10">
-        <v>55.325460011242242</v>
+        <v>58.611757177479994</v>
       </c>
       <c r="L61" s="10">
-        <v>40.035999347128808</v>
+        <v>53.784020863233145</v>
       </c>
       <c r="M61" s="10">
-        <v>22.854658103265994</v>
+        <v>46.796271775283458</v>
       </c>
       <c r="N61" s="10">
-        <v>19.434823936165291</v>
+        <v>40.766412085848664</v>
       </c>
       <c r="O61" s="10">
-        <v>15.84074160573541</v>
+        <v>35.640292221125712</v>
       </c>
       <c r="P61" s="10">
-        <v>12.978313616377434</v>
+        <v>31.366661256795805</v>
       </c>
       <c r="Q61" s="10">
-        <v>10.448214941140678</v>
+        <v>24.721894475837018</v>
       </c>
       <c r="R61" s="10">
-        <v>12.675883851533202</v>
+        <v>22.010308776301255</v>
       </c>
       <c r="S61" s="10">
-        <v>11.479321209113852</v>
+        <v>19.741154271884469</v>
       </c>
       <c r="T61" s="10">
-        <v>9.1790377529229126</v>
+        <v>16.60222599670151</v>
       </c>
       <c r="U61" s="10">
-        <v>8.8649166002484261</v>
+        <v>15.884433069073784</v>
       </c>
       <c r="V61" s="10">
-        <v>9.6579478496506628</v>
+        <v>12.298641559585645</v>
       </c>
       <c r="W61" s="10">
-        <v>9.8565763743485189</v>
+        <v>12.263056912552065</v>
       </c>
       <c r="X61" s="10">
-        <v>7.6412036488927155</v>
+        <v>9.4693600678932679</v>
       </c>
       <c r="Y61" s="10">
-        <v>7.155327816645169</v>
+        <v>10.360569302308685</v>
       </c>
       <c r="Z61" s="10">
-        <v>6.8949247669949738</v>
+        <v>8.5784797206641805</v>
       </c>
       <c r="AA61" s="11">
-        <v>6.5444445898979247</v>
+        <v>9.6541542637496889</v>
       </c>
       <c r="AB61" s="14">
         <f t="shared" si="0"/>
-        <v>1333.7078677271172</v>
+        <v>1485.2773548194559</v>
       </c>
     </row>
   </sheetData>

--- a/717A11_output.xlsx
+++ b/717A11_output.xlsx
@@ -734,55 +734,55 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>476.58096263724519</v>
+        <v>495.91917837746996</v>
       </c>
       <c r="H3" s="4">
-        <v>377.70348649883817</v>
+        <v>396.80584595544178</v>
       </c>
       <c r="I3" s="4">
-        <v>403.6033688231114</v>
+        <v>421.675301164948</v>
       </c>
       <c r="J3" s="4">
-        <v>389.91049839802554</v>
+        <v>407.00758733670227</v>
       </c>
       <c r="K3" s="4">
-        <v>498.05101802736908</v>
+        <v>514.22584895567979</v>
       </c>
       <c r="L3" s="4">
-        <v>411.81888815108755</v>
+        <v>427.12120987952767</v>
       </c>
       <c r="M3" s="4">
-        <v>451.5761073350717</v>
+        <v>466.05298510390912</v>
       </c>
       <c r="N3" s="4">
-        <v>460.06517014815483</v>
+        <v>473.7611303856429</v>
       </c>
       <c r="O3" s="4">
-        <v>439.09701579602279</v>
+        <v>452.05418306798219</v>
       </c>
       <c r="P3" s="4">
-        <v>390.38601541551793</v>
+        <v>402.64424198762845</v>
       </c>
       <c r="Q3" s="4">
-        <v>474.72572062991969</v>
+        <v>486.3227090409838</v>
       </c>
       <c r="R3" s="4">
-        <v>375.31168377619906</v>
+        <v>386.28310279959442</v>
       </c>
       <c r="S3" s="4">
-        <v>435.13960772483927</v>
+        <v>419.45037015797629</v>
       </c>
       <c r="T3" s="4">
-        <v>243.27367851252768</v>
+        <v>129.0329188223846</v>
       </c>
       <c r="U3" s="4">
-        <v>78.059328724965241</v>
+        <v>117.86808104206557</v>
       </c>
       <c r="V3" s="4">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="W3" s="4">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="X3" s="4">
         <v>0</v>
@@ -805,10 +805,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="7">
-        <v>149.65758779768657</v>
+        <v>130.26735234473381</v>
       </c>
       <c r="D4" s="7">
-        <v>606.04188169902409</v>
+        <v>641.05189162051852</v>
       </c>
       <c r="E4" s="7">
         <v>665.6</v>
@@ -936,7 +936,7 @@
         <v>46.5</v>
       </c>
       <c r="S5" s="7">
-        <v>26.78797256508085</v>
+        <v>42.477210131940573</v>
       </c>
       <c r="T5" s="7">
         <v>46.5</v>
@@ -951,7 +951,7 @@
         <v>46.5</v>
       </c>
       <c r="X5" s="7">
-        <v>43.188165168928066</v>
+        <v>46.5</v>
       </c>
       <c r="Y5" s="7">
         <v>46.5</v>
@@ -1051,7 +1051,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>183.18806320475795</v>
+        <v>192.67035526309945</v>
       </c>
       <c r="C7" s="7">
         <v>464</v>
@@ -1197,7 +1197,7 @@
         <v>101.5</v>
       </c>
       <c r="W8" s="7">
-        <v>38.087889959494504</v>
+        <v>101.5</v>
       </c>
       <c r="X8" s="7">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         <v>88</v>
       </c>
       <c r="Y10" s="7">
-        <v>85.513755621299993</v>
+        <v>85.513755621296582</v>
       </c>
       <c r="Z10" s="7">
-        <v>16.480629421891308</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="8">
         <v>0</v>
@@ -1609,13 +1609,13 @@
         <v>154</v>
       </c>
       <c r="V13" s="7">
-        <v>126.02157994995193</v>
+        <v>90.066924690421729</v>
       </c>
       <c r="W13" s="7">
-        <v>0</v>
+        <v>44.93222638095358</v>
       </c>
       <c r="X13" s="7">
-        <v>121.59457918513726</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="7">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         <v>150</v>
       </c>
       <c r="D14" s="7">
-        <v>120.52511830097376</v>
+        <v>85.515108379479386</v>
       </c>
       <c r="E14" s="7">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>150</v>
       </c>
       <c r="Z14" s="7">
-        <v>150</v>
+        <v>132.96125884377764</v>
       </c>
       <c r="AA14" s="8">
         <v>0</v>
@@ -1724,10 +1724,10 @@
         <v>1848</v>
       </c>
       <c r="E15" s="7">
-        <v>1267.9555255442774</v>
+        <v>1254.6797472637281</v>
       </c>
       <c r="F15" s="7">
-        <v>621.3425041496921</v>
+        <v>607.83770948546044</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -1748,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="M15" s="7">
-        <v>-1.2050804798491299E-11</v>
+        <v>0</v>
       </c>
       <c r="N15" s="7">
-        <v>-7.9580786405131221E-12</v>
+        <v>0</v>
       </c>
       <c r="O15" s="7">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="7">
-        <v>591.6505774557188</v>
+        <v>604.92635573626785</v>
       </c>
       <c r="F16" s="7">
         <v>656.1</v>
@@ -1873,7 +1873,7 @@
         <v>656.1</v>
       </c>
       <c r="AA16" s="8">
-        <v>651.55241017337903</v>
+        <v>651.55241017337175</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.35">
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="7">
-        <v>10.579953777303217</v>
+        <v>24.084748441534884</v>
       </c>
       <c r="G17" s="7">
         <v>50.3</v>
@@ -1932,7 +1932,7 @@
         <v>50.3</v>
       </c>
       <c r="S17" s="7">
-        <v>28.366370434876508</v>
+        <v>28.366370434874398</v>
       </c>
       <c r="T17" s="7">
         <v>50.3</v>
@@ -2062,7 +2062,7 @@
         <v>257</v>
       </c>
       <c r="G19" s="7">
-        <v>171.84029741109225</v>
+        <v>152.50208167086748</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         <v>0</v>
       </c>
       <c r="M19" s="7">
-        <v>7.2759576141834259E-12</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>-4.3655745685100555E-11</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7">
-        <v>3.0240698833949864E-11</v>
+        <v>0</v>
       </c>
       <c r="P19" s="7">
         <v>0</v>
@@ -2101,28 +2101,28 @@
         <v>257</v>
       </c>
       <c r="T19" s="7">
-        <v>169.0855177687904</v>
+        <v>243.3262774589266</v>
       </c>
       <c r="U19" s="7">
-        <v>158.32540032288483</v>
+        <v>128.51664800577811</v>
       </c>
       <c r="V19" s="7">
-        <v>61.054911659327445</v>
+        <v>135.00956691885096</v>
       </c>
       <c r="W19" s="7">
-        <v>75.852590074266118</v>
+        <v>55.50825365280177</v>
       </c>
       <c r="X19" s="7">
-        <v>0</v>
+        <v>79.064458690961146</v>
       </c>
       <c r="Y19" s="7">
-        <v>42.858822277240506</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="7">
-        <v>0</v>
+        <v>42.671387508931296</v>
       </c>
       <c r="AA19" s="8">
-        <v>48.222203806046309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.35">
@@ -2148,37 +2148,37 @@
         <v>2269.6</v>
       </c>
       <c r="H20" s="7">
-        <v>2256.2042648899333</v>
+        <v>2237.1019054333301</v>
       </c>
       <c r="I20" s="7">
-        <v>1996.7838523281605</v>
+        <v>1978.7119199863209</v>
       </c>
       <c r="J20" s="7">
-        <v>1777.5545077436095</v>
+        <v>1760.4574188049276</v>
       </c>
       <c r="K20" s="7">
-        <v>1487.0954731695394</v>
+        <v>1470.920642241224</v>
       </c>
       <c r="L20" s="7">
-        <v>1341.618221466593</v>
+        <v>1326.3158997381474</v>
       </c>
       <c r="M20" s="7">
-        <v>1120.7662362691731</v>
+        <v>1106.2893585003244</v>
       </c>
       <c r="N20" s="7">
-        <v>931.80255454857161</v>
+        <v>918.10659431102636</v>
       </c>
       <c r="O20" s="7">
-        <v>772.92181842289301</v>
+        <v>759.96465115095816</v>
       </c>
       <c r="P20" s="7">
-        <v>642.41528831139897</v>
+        <v>630.15706173928265</v>
       </c>
       <c r="Q20" s="7">
-        <v>429.4950948305368</v>
+        <v>417.89810641946679</v>
       </c>
       <c r="R20" s="7">
-        <v>350.97141902340167</v>
+        <v>340</v>
       </c>
       <c r="S20" s="7">
         <v>0</v>
@@ -2187,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="7">
-        <v>0</v>
+        <v>-1.9895196601282805E-13</v>
       </c>
       <c r="V20" s="7">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6">
-        <v>25.311936795242218</v>
+        <v>15.829644736899297</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="7">
-        <v>-1.7053025658242404E-12</v>
+        <v>0</v>
       </c>
       <c r="O21" s="7">
         <v>0</v>
@@ -2362,16 +2362,16 @@
         <v>398.3</v>
       </c>
       <c r="X22" s="7">
-        <v>398.3</v>
+        <v>397.51828566309814</v>
       </c>
       <c r="Y22" s="7">
-        <v>302.93681115470872</v>
+        <v>355.79563343194695</v>
       </c>
       <c r="Z22" s="7">
-        <v>292.24594413283558</v>
+        <v>243.09392720201456</v>
       </c>
       <c r="AA22" s="8">
-        <v>243.16589873729515</v>
+        <v>301.38810254334294</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.35">
@@ -2382,16 +2382,16 @@
         <v>0</v>
       </c>
       <c r="C23" s="7">
-        <v>28.1</v>
+        <v>21.232647655264202</v>
       </c>
       <c r="D23" s="7">
         <v>28.100000000000009</v>
       </c>
       <c r="E23" s="7">
+        <v>28.099999999999994</v>
+      </c>
+      <c r="F23" s="7">
         <v>28.100000000000009</v>
-      </c>
-      <c r="F23" s="7">
-        <v>28.099999999999994</v>
       </c>
       <c r="G23" s="7">
         <v>28.1</v>
@@ -2400,7 +2400,7 @@
         <v>28.099999999999994</v>
       </c>
       <c r="I23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.099999999999994</v>
       </c>
       <c r="J23" s="7">
         <v>28.099999999999994</v>
@@ -2409,28 +2409,28 @@
         <v>28.1</v>
       </c>
       <c r="L23" s="7">
-        <v>28.1</v>
+        <v>28.100000000000009</v>
       </c>
       <c r="M23" s="7">
-        <v>28.1</v>
+        <v>28.100000000000009</v>
       </c>
       <c r="N23" s="7">
-        <v>28.1</v>
+        <v>28.100000000000009</v>
       </c>
       <c r="O23" s="7">
-        <v>28.1</v>
+        <v>28.099999999999994</v>
       </c>
       <c r="P23" s="7">
-        <v>28.1</v>
+        <v>28.099999999999994</v>
       </c>
       <c r="Q23" s="7">
-        <v>28.1</v>
+        <v>28.100000000000009</v>
       </c>
       <c r="R23" s="7">
-        <v>28.1</v>
+        <v>28.100000000000009</v>
       </c>
       <c r="S23" s="7">
-        <v>28.1</v>
+        <v>28.100000000000009</v>
       </c>
       <c r="T23" s="7">
         <v>28.100000000000009</v>
@@ -2448,13 +2448,13 @@
         <v>28.1</v>
       </c>
       <c r="Y23" s="7">
-        <v>28.1</v>
+        <v>28.100000000000009</v>
       </c>
       <c r="Z23" s="7">
         <v>28.1</v>
       </c>
       <c r="AA23" s="8">
-        <v>28.1</v>
+        <v>28.099999999999994</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.35">
@@ -2646,10 +2646,10 @@
         <v>30.599999999999998</v>
       </c>
       <c r="H26" s="7">
+        <v>30.599999999999998</v>
+      </c>
+      <c r="I26" s="7">
         <v>30.6</v>
-      </c>
-      <c r="I26" s="7">
-        <v>30.599999999999998</v>
       </c>
       <c r="J26" s="7">
         <v>30.6</v>
@@ -2658,7 +2658,7 @@
         <v>30.599999999999998</v>
       </c>
       <c r="L26" s="7">
-        <v>30.599999999999998</v>
+        <v>30.6</v>
       </c>
       <c r="M26" s="7">
         <v>30.6</v>
@@ -2703,7 +2703,7 @@
         <v>30.6</v>
       </c>
       <c r="AA26" s="8">
-        <v>30.6</v>
+        <v>30.599999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.35">
@@ -2732,7 +2732,7 @@
         <v>10</v>
       </c>
       <c r="I27" s="7">
-        <v>10</v>
+        <v>9.9999999999999858</v>
       </c>
       <c r="J27" s="7">
         <v>10</v>
@@ -2771,10 +2771,10 @@
         <v>10</v>
       </c>
       <c r="V27" s="7">
+        <v>10</v>
+      </c>
+      <c r="W27" s="7">
         <v>9.9999999999999929</v>
-      </c>
-      <c r="W27" s="7">
-        <v>10</v>
       </c>
       <c r="X27" s="7">
         <v>10</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D28" s="7">
         <v>10</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="7">
-        <v>5.7424122023118684</v>
+        <v>10</v>
       </c>
       <c r="D29" s="7">
         <v>10</v>
@@ -2913,7 +2913,7 @@
         <v>10</v>
       </c>
       <c r="N29" s="7">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
       <c r="O29" s="7">
         <v>10</v>
@@ -2928,7 +2928,7 @@
         <v>10</v>
       </c>
       <c r="S29" s="7">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
       <c r="T29" s="7">
         <v>10</v>
@@ -2963,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.2</v>
       </c>
       <c r="D30" s="7">
         <v>52.2</v>
@@ -2975,7 +2975,7 @@
         <v>52.2</v>
       </c>
       <c r="G30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="H30" s="7">
         <v>52.200000000000017</v>
@@ -2987,40 +2987,40 @@
         <v>52.200000000000017</v>
       </c>
       <c r="K30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="L30" s="7">
         <v>52.2</v>
       </c>
       <c r="M30" s="7">
-        <v>52.20000000000001</v>
+        <v>52.2</v>
       </c>
       <c r="N30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.2</v>
       </c>
       <c r="O30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.2</v>
       </c>
       <c r="P30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.2</v>
       </c>
       <c r="Q30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.2</v>
       </c>
       <c r="R30" s="7">
-        <v>52.20000000000001</v>
+        <v>52.2</v>
       </c>
       <c r="S30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.2</v>
       </c>
       <c r="T30" s="7">
         <v>52.2</v>
       </c>
       <c r="U30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.20000000000001</v>
       </c>
       <c r="V30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.2</v>
       </c>
       <c r="W30" s="7">
         <v>52.200000000000017</v>
@@ -3029,13 +3029,13 @@
         <v>52.200000000000017</v>
       </c>
       <c r="Y30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.2</v>
       </c>
       <c r="Z30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.20000000000001</v>
       </c>
       <c r="AA30" s="8">
-        <v>52.20000000000001</v>
+        <v>52.2</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.35">
@@ -3046,20 +3046,20 @@
         <v>0</v>
       </c>
       <c r="C31" s="7">
+        <v>10</v>
+      </c>
+      <c r="D31" s="7">
+        <v>10</v>
+      </c>
+      <c r="E31" s="7">
+        <v>9.9999999999999858</v>
+      </c>
+      <c r="F31" s="7">
+        <v>10</v>
+      </c>
+      <c r="G31" s="7">
         <v>9.9999999999999929</v>
       </c>
-      <c r="D31" s="7">
-        <v>10</v>
-      </c>
-      <c r="E31" s="7">
-        <v>10</v>
-      </c>
-      <c r="F31" s="7">
-        <v>10</v>
-      </c>
-      <c r="G31" s="7">
-        <v>10</v>
-      </c>
       <c r="H31" s="7">
         <v>10</v>
       </c>
@@ -3070,10 +3070,10 @@
         <v>10</v>
       </c>
       <c r="K31" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="L31" s="7">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -3082,7 +3082,7 @@
         <v>10</v>
       </c>
       <c r="O31" s="7">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
       <c r="P31" s="7">
         <v>10</v>
@@ -3100,10 +3100,10 @@
         <v>10</v>
       </c>
       <c r="U31" s="7">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
       <c r="V31" s="7">
-        <v>10</v>
+        <v>10.000000000000014</v>
       </c>
       <c r="W31" s="7">
         <v>10</v>
@@ -3115,7 +3115,7 @@
         <v>10</v>
       </c>
       <c r="Z31" s="7">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
       <c r="AA31" s="8">
         <v>10</v>
@@ -3132,13 +3132,13 @@
         <v>0</v>
       </c>
       <c r="D32" s="7">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="E32" s="7">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="F32" s="7">
         <v>20.200000000000003</v>
-      </c>
-      <c r="E32" s="7">
-        <v>20.200000000000003</v>
-      </c>
-      <c r="F32" s="7">
-        <v>20.2</v>
       </c>
       <c r="G32" s="7">
         <v>20.2</v>
@@ -3147,10 +3147,10 @@
         <v>20.2</v>
       </c>
       <c r="I32" s="7">
-        <v>20.2</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="J32" s="7">
-        <v>20.2</v>
+        <v>20.200000000000003</v>
       </c>
       <c r="K32" s="7">
         <v>20.2</v>
@@ -3159,49 +3159,49 @@
         <v>20.2</v>
       </c>
       <c r="M32" s="7">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="N32" s="7">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="O32" s="7">
+        <v>20.2</v>
+      </c>
+      <c r="P32" s="7">
         <v>20.200000000000003</v>
-      </c>
-      <c r="N32" s="7">
-        <v>20.200000000000003</v>
-      </c>
-      <c r="O32" s="7">
-        <v>20.200000000000003</v>
-      </c>
-      <c r="P32" s="7">
-        <v>20.2</v>
       </c>
       <c r="Q32" s="7">
         <v>20.200000000000003</v>
       </c>
       <c r="R32" s="7">
-        <v>20.200000000000003</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="S32" s="7">
-        <v>20.200000000000003</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="T32" s="7">
-        <v>20.2</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="U32" s="7">
         <v>20.2</v>
       </c>
       <c r="V32" s="7">
-        <v>20.200000000000003</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="W32" s="7">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="X32" s="7">
         <v>20.2</v>
-      </c>
-      <c r="X32" s="7">
-        <v>20.200000000000003</v>
       </c>
       <c r="Y32" s="7">
         <v>20.200000000000003</v>
       </c>
       <c r="Z32" s="7">
-        <v>20.200000000000003</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="AA32" s="8">
-        <v>20.199999999999996</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.35">
@@ -3307,7 +3307,7 @@
         <v>10.5</v>
       </c>
       <c r="G34" s="7">
-        <v>10.499999999999993</v>
+        <v>10.5</v>
       </c>
       <c r="H34" s="7">
         <v>10.5</v>
@@ -3331,10 +3331,10 @@
         <v>10.5</v>
       </c>
       <c r="O34" s="7">
-        <v>10.5</v>
+        <v>10.499999999999986</v>
       </c>
       <c r="P34" s="7">
-        <v>10.5</v>
+        <v>10.499999999999986</v>
       </c>
       <c r="Q34" s="7">
         <v>10.5</v>
@@ -3355,7 +3355,7 @@
         <v>10.5</v>
       </c>
       <c r="W34" s="7">
-        <v>10.499999999999993</v>
+        <v>10.5</v>
       </c>
       <c r="X34" s="7">
         <v>10.499999999999993</v>
@@ -3367,7 +3367,7 @@
         <v>10.5</v>
       </c>
       <c r="AA34" s="8">
-        <v>10.5</v>
+        <v>10.499999999999986</v>
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.35">
@@ -3387,10 +3387,10 @@
         <v>10</v>
       </c>
       <c r="F35" s="7">
-        <v>10.000000000000014</v>
+        <v>10</v>
       </c>
       <c r="G35" s="7">
-        <v>10.000000000000014</v>
+        <v>10</v>
       </c>
       <c r="H35" s="7">
         <v>10</v>
@@ -3402,10 +3402,10 @@
         <v>10</v>
       </c>
       <c r="K35" s="7">
-        <v>10.000000000000014</v>
+        <v>10</v>
       </c>
       <c r="L35" s="7">
-        <v>10.000000000000014</v>
+        <v>10</v>
       </c>
       <c r="M35" s="7">
         <v>10</v>
@@ -3417,25 +3417,25 @@
         <v>10</v>
       </c>
       <c r="P35" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>10</v>
+      </c>
+      <c r="R35" s="7">
+        <v>10</v>
+      </c>
+      <c r="S35" s="7">
+        <v>10</v>
+      </c>
+      <c r="T35" s="7">
+        <v>10</v>
+      </c>
+      <c r="U35" s="7">
+        <v>10</v>
+      </c>
+      <c r="V35" s="7">
         <v>9.9999999999999929</v>
-      </c>
-      <c r="Q35" s="7">
-        <v>10</v>
-      </c>
-      <c r="R35" s="7">
-        <v>10</v>
-      </c>
-      <c r="S35" s="7">
-        <v>10</v>
-      </c>
-      <c r="T35" s="7">
-        <v>10</v>
-      </c>
-      <c r="U35" s="7">
-        <v>10</v>
-      </c>
-      <c r="V35" s="7">
-        <v>10</v>
       </c>
       <c r="W35" s="7">
         <v>10</v>
@@ -3464,10 +3464,10 @@
         <v>0</v>
       </c>
       <c r="D36" s="7">
-        <v>10.000000000000002</v>
+        <v>10</v>
       </c>
       <c r="E36" s="7">
-        <v>10.000000000000002</v>
+        <v>10</v>
       </c>
       <c r="F36" s="7">
         <v>10</v>
@@ -3491,7 +3491,7 @@
         <v>10</v>
       </c>
       <c r="M36" s="7">
-        <v>10.000000000000002</v>
+        <v>10</v>
       </c>
       <c r="N36" s="7">
         <v>10</v>
@@ -3506,7 +3506,7 @@
         <v>10</v>
       </c>
       <c r="R36" s="7">
-        <v>10.000000000000002</v>
+        <v>10</v>
       </c>
       <c r="S36" s="7">
         <v>10</v>
@@ -3530,7 +3530,7 @@
         <v>10</v>
       </c>
       <c r="Z36" s="7">
-        <v>10.000000000000002</v>
+        <v>10</v>
       </c>
       <c r="AA36" s="8">
         <v>10</v>
@@ -3693,7 +3693,7 @@
         <v>10</v>
       </c>
       <c r="Y38" s="7">
-        <v>10</v>
+        <v>10.000000000000002</v>
       </c>
       <c r="Z38" s="7">
         <v>10</v>
@@ -3716,37 +3716,37 @@
         <v>10.1</v>
       </c>
       <c r="E39" s="7">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="F39" s="7">
         <v>10.1</v>
       </c>
-      <c r="F39" s="7">
+      <c r="G39" s="7">
         <v>10.100000000000001</v>
       </c>
-      <c r="G39" s="7">
+      <c r="H39" s="7">
         <v>10.099999999999994</v>
-      </c>
-      <c r="H39" s="7">
-        <v>10.100000000000001</v>
       </c>
       <c r="I39" s="7">
         <v>10.1</v>
       </c>
       <c r="J39" s="7">
-        <v>10.100000000000001</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="K39" s="7">
         <v>10.099999999999994</v>
       </c>
       <c r="L39" s="7">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="M39" s="7">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="N39" s="7">
         <v>10.1</v>
       </c>
-      <c r="M39" s="7">
-        <v>10.1</v>
-      </c>
-      <c r="N39" s="7">
-        <v>10.099999999999994</v>
-      </c>
       <c r="O39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="P39" s="7">
         <v>10.099999999999994</v>
@@ -3755,16 +3755,16 @@
         <v>10.099999999999994</v>
       </c>
       <c r="R39" s="7">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="S39" s="7">
         <v>10.1</v>
       </c>
-      <c r="S39" s="7">
-        <v>10.099999999999994</v>
-      </c>
       <c r="T39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.1</v>
       </c>
       <c r="U39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="V39" s="7">
         <v>10.099999999999994</v>
@@ -3776,13 +3776,13 @@
         <v>10.099999999999994</v>
       </c>
       <c r="Y39" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="Z39" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="AA39" s="8">
         <v>10.099999999999994</v>
-      </c>
-      <c r="Z39" s="7">
-        <v>10.1</v>
-      </c>
-      <c r="AA39" s="8">
-        <v>10.1</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.35">
@@ -3796,55 +3796,55 @@
         <v>0</v>
       </c>
       <c r="D40" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="E40" s="7">
         <v>10.100000000000001</v>
       </c>
-      <c r="E40" s="7">
-        <v>10.1</v>
-      </c>
       <c r="F40" s="7">
-        <v>10.099999999999998</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="G40" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="H40" s="7">
-        <v>10.099999999999998</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="I40" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="J40" s="7">
         <v>10.100000000000001</v>
-      </c>
-      <c r="J40" s="7">
-        <v>10.099999999999998</v>
       </c>
       <c r="K40" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="L40" s="7">
+        <v>10.099999999999998</v>
+      </c>
+      <c r="M40" s="7">
         <v>10.100000000000001</v>
       </c>
-      <c r="M40" s="7">
+      <c r="N40" s="7">
         <v>10.1</v>
       </c>
-      <c r="N40" s="7">
+      <c r="O40" s="7">
+        <v>10.099999999999998</v>
+      </c>
+      <c r="P40" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="Q40" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="R40" s="7">
         <v>10.100000000000001</v>
       </c>
-      <c r="O40" s="7">
-        <v>10.100000000000001</v>
-      </c>
-      <c r="P40" s="7">
-        <v>10.099999999999998</v>
-      </c>
-      <c r="Q40" s="7">
-        <v>10.100000000000001</v>
-      </c>
-      <c r="R40" s="7">
+      <c r="S40" s="7">
         <v>10.1</v>
       </c>
-      <c r="S40" s="7">
-        <v>10.100000000000001</v>
-      </c>
       <c r="T40" s="7">
-        <v>10.099999999999998</v>
+        <v>10.1</v>
       </c>
       <c r="U40" s="7">
         <v>10.100000000000001</v>
@@ -3853,16 +3853,16 @@
         <v>10.100000000000001</v>
       </c>
       <c r="W40" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="X40" s="7">
         <v>10.099999999999998</v>
-      </c>
-      <c r="X40" s="7">
-        <v>10.100000000000001</v>
       </c>
       <c r="Y40" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="Z40" s="7">
-        <v>10.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="AA40" s="8">
         <v>10.100000000000001</v>
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="7">
-        <v>10</v>
+        <v>9.9999999999999858</v>
       </c>
       <c r="D41" s="7">
         <v>10</v>
@@ -3959,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D42" s="7">
         <v>12</v>
@@ -3983,7 +3983,7 @@
         <v>12</v>
       </c>
       <c r="K42" s="7">
-        <v>11.999999999999993</v>
+        <v>12</v>
       </c>
       <c r="L42" s="7">
         <v>12</v>
@@ -4001,7 +4001,7 @@
         <v>12</v>
       </c>
       <c r="Q42" s="7">
-        <v>11.999999999999993</v>
+        <v>12</v>
       </c>
       <c r="R42" s="7">
         <v>12</v>
@@ -4025,7 +4025,7 @@
         <v>12</v>
       </c>
       <c r="Y42" s="7">
-        <v>11.999999999999993</v>
+        <v>12</v>
       </c>
       <c r="Z42" s="7">
         <v>12</v>
@@ -4060,61 +4060,61 @@
         <v>350</v>
       </c>
       <c r="I43" s="7">
-        <v>649.99999999999523</v>
+        <v>650</v>
       </c>
       <c r="J43" s="7">
-        <v>949.99999999999272</v>
+        <v>950</v>
       </c>
       <c r="K43" s="7">
-        <v>1199.9999999999927</v>
+        <v>1200</v>
       </c>
       <c r="L43" s="7">
-        <v>1499.9999999999927</v>
+        <v>1500</v>
       </c>
       <c r="M43" s="7">
-        <v>1749.9999999999927</v>
+        <v>1750</v>
       </c>
       <c r="N43" s="7">
-        <v>1999.9999999999959</v>
+        <v>2000</v>
       </c>
       <c r="O43" s="7">
-        <v>2249.9999999999927</v>
+        <v>2250</v>
       </c>
       <c r="P43" s="7">
-        <v>2499.9999999999927</v>
+        <v>2500</v>
       </c>
       <c r="Q43" s="7">
-        <v>2699.9999999999927</v>
+        <v>2700</v>
       </c>
       <c r="R43" s="7">
-        <v>2949.9999999999927</v>
+        <v>2950</v>
       </c>
       <c r="S43" s="7">
-        <v>3199.9999999999927</v>
+        <v>3200</v>
       </c>
       <c r="T43" s="7">
-        <v>3399.9999999999923</v>
+        <v>3450</v>
       </c>
       <c r="U43" s="7">
-        <v>3649.9999999999927</v>
+        <v>3650</v>
       </c>
       <c r="V43" s="7">
-        <v>3849.9999999999927</v>
+        <v>3900</v>
       </c>
       <c r="W43" s="7">
-        <v>4099.9999999999927</v>
+        <v>4100</v>
       </c>
       <c r="X43" s="7">
-        <v>4299.9999999999927</v>
+        <v>4350</v>
       </c>
       <c r="Y43" s="7">
-        <v>4549.9999999999927</v>
+        <v>4550</v>
       </c>
       <c r="Z43" s="7">
-        <v>4749.9999999999927</v>
+        <v>4800</v>
       </c>
       <c r="AA43" s="8">
-        <v>4999.9999999999927</v>
+        <v>5000</v>
       </c>
       <c r="AB43" t="s">
         <v>17</v>
@@ -4146,61 +4146,61 @@
         <v>0</v>
       </c>
       <c r="I44" s="7">
-        <v>1.5276668818842154E-12</v>
+        <v>0</v>
       </c>
       <c r="J44" s="7">
-        <v>1.5276668818842154E-12</v>
+        <v>0</v>
       </c>
       <c r="K44" s="7">
-        <v>1.5276668818842154E-12</v>
+        <v>0</v>
       </c>
       <c r="L44" s="7">
-        <v>1.5276668818842154E-12</v>
+        <v>0</v>
       </c>
       <c r="M44" s="7">
-        <v>1.5276668818842154E-12</v>
+        <v>0</v>
       </c>
       <c r="N44" s="7">
-        <v>1.5276668818842154E-12</v>
+        <v>0</v>
       </c>
       <c r="O44" s="7">
-        <v>1.5276668818842154E-12</v>
+        <v>0</v>
       </c>
       <c r="P44" s="7">
-        <v>1.5276668818842154E-12</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="7">
-        <v>1.5276668818842154E-12</v>
+        <v>0</v>
       </c>
       <c r="R44" s="7">
-        <v>1.5276668818842154E-12</v>
+        <v>0</v>
       </c>
       <c r="S44" s="7">
-        <v>1.5276668818842154E-12</v>
+        <v>0</v>
       </c>
       <c r="T44" s="7">
-        <v>10.000000000001364</v>
+        <v>0</v>
       </c>
       <c r="U44" s="7">
-        <v>10.000000000001528</v>
+        <v>0</v>
       </c>
       <c r="V44" s="7">
-        <v>10.000000000001528</v>
+        <v>0</v>
       </c>
       <c r="W44" s="7">
-        <v>10.000000000001528</v>
+        <v>0</v>
       </c>
       <c r="X44" s="7">
-        <v>10.000000000001528</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="7">
-        <v>10.000000000001528</v>
+        <v>0</v>
       </c>
       <c r="Z44" s="7">
-        <v>10.000000000002728</v>
+        <v>0</v>
       </c>
       <c r="AA44" s="8">
-        <v>10.000000000001528</v>
+        <v>0</v>
       </c>
       <c r="AB44" t="s">
         <v>18</v>
@@ -4307,79 +4307,79 @@
         <v>1</v>
       </c>
       <c r="B49" s="3">
-        <v>131.42935440158607</v>
+        <v>134.59011842103354</v>
       </c>
       <c r="C49" s="4">
-        <v>230.78839186512482</v>
+        <v>217.86156822982312</v>
       </c>
       <c r="D49" s="4">
-        <v>366.23840446601673</v>
+        <v>389.57841108034609</v>
       </c>
       <c r="E49" s="4">
-        <v>445.3803443500006</v>
+        <v>445.38034435000162</v>
       </c>
       <c r="F49" s="4">
-        <v>626.31845204158526</v>
+        <v>630.82005026299578</v>
       </c>
       <c r="G49" s="4">
-        <v>982.41113455138793</v>
+        <v>988.85720646479581</v>
       </c>
       <c r="H49" s="4">
-        <v>840.47206649496934</v>
+        <v>846.83951964717062</v>
       </c>
       <c r="I49" s="4">
-        <v>756.86129874202049</v>
+        <v>762.88527618929709</v>
       </c>
       <c r="J49" s="4">
-        <v>660.12275018253536</v>
+        <v>665.82177982875828</v>
       </c>
       <c r="K49" s="4">
-        <v>620.73242998209787</v>
+        <v>626.12404029153174</v>
       </c>
       <c r="L49" s="4">
-        <v>499.95562550576074</v>
+        <v>505.05639941523867</v>
       </c>
       <c r="M49" s="4">
-        <v>437.91364253219143</v>
+        <v>442.73926845513012</v>
       </c>
       <c r="N49" s="4">
-        <v>365.52129126400126</v>
+        <v>370.08661134316026</v>
       </c>
       <c r="O49" s="4">
-        <v>283.38286925755358</v>
+        <v>287.70192501487048</v>
       </c>
       <c r="P49" s="4">
-        <v>192.07049057331494</v>
+        <v>196.15656609734955</v>
       </c>
       <c r="Q49" s="4">
-        <v>161.84933534702861</v>
+        <v>165.71499815071411</v>
       </c>
       <c r="R49" s="4">
-        <v>53.785256585355228</v>
+        <v>57.442396259818224</v>
       </c>
       <c r="S49" s="4">
-        <v>-41.526512318798495</v>
+        <v>-41.526512318802133</v>
       </c>
       <c r="T49" s="4">
-        <v>-123.18520092966764</v>
+        <v>-177.93212082638502</v>
       </c>
       <c r="U49" s="4">
-        <v>-252.95367203609396</v>
+        <v>-239.68408793039606</v>
       </c>
       <c r="V49" s="4">
-        <v>-301.59993596223268</v>
+        <v>-332.28171754239145</v>
       </c>
       <c r="W49" s="4">
-        <v>-355.27098067622768</v>
+        <v>-375.11101945637927</v>
       </c>
       <c r="X49" s="4">
-        <v>-493.39748449742729</v>
+        <v>-468.42867982535995</v>
       </c>
       <c r="Y49" s="4">
-        <v>-526.97265273668495</v>
+        <v>-526.97265273668859</v>
       </c>
       <c r="Z49" s="4">
-        <v>-607.61835661131522</v>
+        <v>-624.09898603320767</v>
       </c>
       <c r="AA49" s="5">
         <v>-635.81607690750707</v>
@@ -4390,79 +4390,79 @@
         <v>2</v>
       </c>
       <c r="B50" s="6">
-        <v>-374.47064559841419</v>
+        <v>-371.30988157896644</v>
       </c>
       <c r="C50" s="7">
-        <v>-176.16919593256281</v>
+        <v>-169.70578411491221</v>
       </c>
       <c r="D50" s="7">
-        <v>-229.71997723300865</v>
+        <v>-241.38998054017338</v>
       </c>
       <c r="E50" s="7">
-        <v>-291.56660415000079</v>
+        <v>-291.56660415000135</v>
       </c>
       <c r="F50" s="7">
-        <v>-575.15027277221986</v>
+        <v>-584.15346921504101</v>
       </c>
       <c r="G50" s="7">
-        <v>-719.0494954727817</v>
+        <v>-712.60342355937246</v>
       </c>
       <c r="H50" s="7">
-        <v>-543.93180919941642</v>
+        <v>-537.56435604721537</v>
       </c>
       <c r="I50" s="7">
-        <v>-360.7823118336201</v>
+        <v>-354.75833438633686</v>
       </c>
       <c r="J50" s="7">
-        <v>-191.05975288828813</v>
+        <v>-185.3607232420577</v>
       </c>
       <c r="K50" s="7">
-        <v>-14.290815616362408</v>
+        <v>-8.8992053069193844</v>
       </c>
       <c r="L50" s="7">
-        <v>130.78707069691475</v>
+        <v>135.88784460639994</v>
       </c>
       <c r="M50" s="7">
-        <v>284.29247073005416</v>
+        <v>289.11809665301365</v>
       </c>
       <c r="N50" s="7">
-        <v>427.13742891565283</v>
+        <v>431.70274899482411</v>
       </c>
       <c r="O50" s="7">
-        <v>559.92345214807517</v>
+        <v>564.24250790540009</v>
       </c>
       <c r="P50" s="7">
-        <v>683.2198387098515</v>
+        <v>687.30591423389353</v>
       </c>
       <c r="Q50" s="7">
-        <v>817.28892761679458</v>
+        <v>821.15459042048769</v>
       </c>
       <c r="R50" s="7">
-        <v>923.19370518555002</v>
+        <v>926.85084486002006</v>
       </c>
       <c r="S50" s="7">
-        <v>1041.5265123187985</v>
+        <v>1041.5265123188021</v>
       </c>
       <c r="T50" s="7">
-        <v>1123.1852009296676</v>
+        <v>1118.4382810329578</v>
       </c>
       <c r="U50" s="7">
-        <v>1206.4039634399765</v>
+        <v>1219.673547545681</v>
       </c>
       <c r="V50" s="7">
-        <v>1292.4333981830744</v>
+        <v>1275.7969613433931</v>
       </c>
       <c r="W50" s="7">
-        <v>1325.0587793068864</v>
+        <v>1350.1509669076961</v>
       </c>
       <c r="X50" s="7">
-        <v>1470.5057225106732</v>
+        <v>1423.879947997611</v>
       </c>
       <c r="Y50" s="7">
-        <v>1526.9726527366849</v>
+        <v>1526.9726527366886</v>
       </c>
       <c r="Z50" s="7">
-        <v>1607.6183566113152</v>
+        <v>1624.0989860332077</v>
       </c>
       <c r="AA50" s="8">
         <v>1635.8160769075071</v>
@@ -4473,73 +4473,73 @@
         <v>3</v>
       </c>
       <c r="B51" s="9">
-        <v>243.0412911968281</v>
+        <v>236.7197631579329</v>
       </c>
       <c r="C51" s="10">
-        <v>-54.619195932561979</v>
+        <v>-48.155784114910915</v>
       </c>
       <c r="D51" s="10">
-        <v>-136.51842723300805</v>
+        <v>-148.1884305401727</v>
       </c>
       <c r="E51" s="10">
-        <v>-153.81374019999981</v>
+        <v>-153.81374020000032</v>
       </c>
       <c r="F51" s="10">
-        <v>-51.168179269365396</v>
+        <v>-46.666581047954878</v>
       </c>
       <c r="G51" s="10">
-        <v>-263.36163907860646</v>
+        <v>-276.25378290542335</v>
       </c>
       <c r="H51" s="10">
-        <v>-296.54025729555292</v>
+        <v>-309.27516359995525</v>
       </c>
       <c r="I51" s="10">
-        <v>-396.07898690840022</v>
+        <v>-408.12694180296023</v>
       </c>
       <c r="J51" s="10">
-        <v>-469.06299729424722</v>
+        <v>-480.46105658670058</v>
       </c>
       <c r="K51" s="10">
-        <v>-606.44161436573552</v>
+        <v>-617.22483498461236</v>
       </c>
       <c r="L51" s="10">
-        <v>-630.74269620267546</v>
+        <v>-640.94424402163861</v>
       </c>
       <c r="M51" s="10">
-        <v>-722.20611326224559</v>
+        <v>-731.85736510814377</v>
       </c>
       <c r="N51" s="10">
-        <v>-792.6587201796541</v>
+        <v>-801.78936033798436</v>
       </c>
       <c r="O51" s="10">
-        <v>-843.30632140562898</v>
+        <v>-851.94443292027063</v>
       </c>
       <c r="P51" s="10">
-        <v>-875.29032928316622</v>
+        <v>-883.46248033124311</v>
       </c>
       <c r="Q51" s="10">
-        <v>-979.13826296382319</v>
+        <v>-986.8695885712018</v>
       </c>
       <c r="R51" s="10">
-        <v>-976.97896177090524</v>
+        <v>-984.29324111983806</v>
       </c>
       <c r="S51" s="10">
         <v>-1000</v>
       </c>
       <c r="T51" s="10">
-        <v>-1000</v>
+        <v>-940.50616020657276</v>
       </c>
       <c r="U51" s="10">
-        <v>-953.45029140388249</v>
+        <v>-979.98945961528489</v>
       </c>
       <c r="V51" s="10">
-        <v>-990.83346222084174</v>
+        <v>-943.5152438010017</v>
       </c>
       <c r="W51" s="10">
-        <v>-969.7877986306587</v>
+        <v>-975.03994745131683</v>
       </c>
       <c r="X51" s="10">
-        <v>-977.10823801324636</v>
+        <v>-955.45126817225093</v>
       </c>
       <c r="Y51" s="10">
         <v>-1000</v>
@@ -4639,86 +4639,86 @@
         <v>8</v>
       </c>
       <c r="B54" s="15">
-        <v>187067.81092078245</v>
+        <v>185343.2957730343</v>
       </c>
       <c r="C54" s="16">
-        <v>150732.88932861568</v>
+        <v>150354.42590554856</v>
       </c>
       <c r="D54" s="16">
-        <v>123175.51953414564</v>
+        <v>122850.98857876577</v>
       </c>
       <c r="E54" s="16">
-        <v>115689.69506787832</v>
+        <v>115767.04458876407</v>
       </c>
       <c r="F54" s="16">
-        <v>110744.52859723844</v>
+        <v>110839.76863109934</v>
       </c>
       <c r="G54" s="16">
-        <v>107424.10359766634</v>
+        <v>107601.0888445216</v>
       </c>
       <c r="H54" s="16">
-        <v>3661670.1339732334</v>
+        <v>4801787.6002829252</v>
       </c>
       <c r="I54" s="16">
-        <v>6106867.0528585901</v>
+        <v>7143329.7763654375</v>
       </c>
       <c r="J54" s="16">
-        <v>8076957.997792678</v>
+        <v>9019190.2145876419</v>
       </c>
       <c r="K54" s="16">
-        <v>9256611.1456463076</v>
+        <v>10113180.192269597</v>
       </c>
       <c r="L54" s="16">
-        <v>10501696.110261483</v>
+        <v>11280390.344767999</v>
       </c>
       <c r="M54" s="16">
-        <v>11128410.409977544</v>
+        <v>11836310.046315253</v>
       </c>
       <c r="N54" s="16">
-        <v>11554244.936863484</v>
+        <v>12197786.437222462</v>
       </c>
       <c r="O54" s="16">
-        <v>11810564.306614228</v>
+        <v>12395598.917741014</v>
       </c>
       <c r="P54" s="16">
-        <v>11924687.711666334</v>
+        <v>12456534.677815856</v>
       </c>
       <c r="Q54" s="16">
-        <v>11704993.803017179</v>
+        <v>12188488.739747677</v>
       </c>
       <c r="R54" s="16">
-        <v>11622410.792931966</v>
+        <v>12061949.661892131</v>
       </c>
       <c r="S54" s="16">
-        <v>11458222.771363657</v>
+        <v>11857739.354170015</v>
       </c>
       <c r="T54" s="16">
-        <v>11136757.908128934</v>
+        <v>11590726.403390428</v>
       </c>
       <c r="U54" s="16">
-        <v>10861596.891806329</v>
+        <v>11127184.463038474</v>
       </c>
       <c r="V54" s="16">
-        <v>10410656.179152189</v>
+        <v>10785840.636510139</v>
       </c>
       <c r="W54" s="16">
-        <v>10073525.415561445</v>
+        <v>10292985.498904472</v>
       </c>
       <c r="X54" s="16">
-        <v>9601097.70867154</v>
+        <v>9911160.63153263</v>
       </c>
       <c r="Y54" s="16">
-        <v>9231791.2591375373</v>
+        <v>9413197.9445184693</v>
       </c>
       <c r="Z54" s="16">
-        <v>8758907.2165259589</v>
+        <v>9015230.6338730641</v>
       </c>
       <c r="AA54" s="17">
-        <v>8378810.8095743293</v>
+        <v>8528739.7553199679</v>
       </c>
       <c r="AB54" s="18">
         <f>SUM(TotalCost)</f>
-        <v>198055315.10857129</v>
+        <v>208810108.5425874</v>
       </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.35">
@@ -4812,86 +4812,86 @@
         <v>10</v>
       </c>
       <c r="B57" s="3">
-        <v>13546.179193698952</v>
+        <v>13395.809006237749</v>
       </c>
       <c r="C57" s="4">
-        <v>10789.085021802086</v>
+        <v>10788.134900264893</v>
       </c>
       <c r="D57" s="4">
-        <v>9571.5136009432536</v>
+        <v>9558.8049673417518</v>
       </c>
       <c r="E57" s="4">
-        <v>9343.2363146215939</v>
+        <v>9312.0249598840237</v>
       </c>
       <c r="F57" s="4">
-        <v>8651.2475016100889</v>
+        <v>8666.7645106792916</v>
       </c>
       <c r="G57" s="4">
-        <v>8038.2165093081167</v>
+        <v>7992.7910405343282</v>
       </c>
       <c r="H57" s="4">
-        <v>7228.5430222441555</v>
+        <v>7231.7522186328661</v>
       </c>
       <c r="I57" s="4">
-        <v>6936.5566496032461</v>
+        <v>6939.5927342366713</v>
       </c>
       <c r="J57" s="4">
-        <v>6638.6779565246034</v>
+        <v>6641.5502674662948</v>
       </c>
       <c r="K57" s="4">
-        <v>6425.4833683574752</v>
+        <v>6428.200739953425</v>
       </c>
       <c r="L57" s="4">
-        <v>6116.9571653142193</v>
+        <v>6119.5279553645905</v>
       </c>
       <c r="M57" s="4">
-        <v>5893.8271200660729</v>
+        <v>5896.259235531229</v>
       </c>
       <c r="N57" s="4">
-        <v>5666.2309912248211</v>
+        <v>5668.5319125448614</v>
       </c>
       <c r="O57" s="4">
-        <v>5434.4800992776509</v>
+        <v>5436.6569033792557</v>
       </c>
       <c r="P57" s="4">
-        <v>5198.8696050192648</v>
+        <v>5200.9289870833718</v>
       </c>
       <c r="Q57" s="4">
-        <v>5049.8700358851456</v>
+        <v>5051.8183299381972</v>
       </c>
       <c r="R57" s="4">
-        <v>4807.3655203270955</v>
+        <v>4809.2087187230172</v>
       </c>
       <c r="S57" s="4">
-        <v>4732.4965182340493</v>
+        <v>5099.216757121816</v>
       </c>
       <c r="T57" s="4">
-        <v>4812.4019462951419</v>
+        <v>4929.3134908072625</v>
       </c>
       <c r="U57" s="4">
-        <v>4534.2511210002167</v>
+        <v>4478.6003618073237</v>
       </c>
       <c r="V57" s="4">
-        <v>4082.6080390532206</v>
+        <v>4143.4773551581548</v>
       </c>
       <c r="W57" s="4">
-        <v>3692.1905943356433</v>
+        <v>3708.119386265606</v>
       </c>
       <c r="X57" s="4">
-        <v>3334.3163282404275</v>
+        <v>3352.1940770678111</v>
       </c>
       <c r="Y57" s="4">
-        <v>3013.074674252141</v>
+        <v>2961.9204175372593</v>
       </c>
       <c r="Z57" s="4">
-        <v>2738.5268734451006</v>
+        <v>2768.3019467310851</v>
       </c>
       <c r="AA57" s="5">
-        <v>2732.9195703129299</v>
+        <v>2672.733379103548</v>
       </c>
       <c r="AB57" s="12">
         <f>SUM(B57:AA57)</f>
-        <v>159009.12534099666</v>
+        <v>159252.2345593957</v>
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.35">
@@ -4899,86 +4899,86 @@
         <v>11</v>
       </c>
       <c r="B58" s="6">
-        <v>2499.3386430939754</v>
+        <v>2413.9885322768305</v>
       </c>
       <c r="C58" s="7">
-        <v>2265.7857151755957</v>
+        <v>2265.7469347046895</v>
       </c>
       <c r="D58" s="7">
-        <v>2260.7715595915051</v>
+        <v>2260.5965095418974</v>
       </c>
       <c r="E58" s="7">
-        <v>1956.7083491572898</v>
+        <v>1949.7252897817209</v>
       </c>
       <c r="F58" s="7">
-        <v>1617.4694729091009</v>
+        <v>1610.7981043449702</v>
       </c>
       <c r="G58" s="7">
-        <v>1176.644653667239</v>
+        <v>1150.402694907754</v>
       </c>
       <c r="H58" s="7">
-        <v>935.89314664263384</v>
+        <v>928.34771465727567</v>
       </c>
       <c r="I58" s="7">
-        <v>831.55391943883365</v>
+        <v>824.41550616380698</v>
       </c>
       <c r="J58" s="7">
-        <v>743.09495060785889</v>
+        <v>736.3416004770794</v>
       </c>
       <c r="K58" s="7">
-        <v>626.90508383154338</v>
+        <v>620.51602561485879</v>
       </c>
       <c r="L58" s="7">
-        <v>567.58789435624578</v>
+        <v>561.54347727350978</v>
       </c>
       <c r="M58" s="7">
-        <v>478.90260207516081</v>
+        <v>473.18423535646207</v>
       </c>
       <c r="N58" s="7">
-        <v>402.81815084418042</v>
+        <v>397.40824655042883</v>
       </c>
       <c r="O58" s="7">
-        <v>338.62146895083538</v>
+        <v>333.50338787838001</v>
       </c>
       <c r="P58" s="7">
-        <v>285.63764931281798</v>
+        <v>280.795649816832</v>
       </c>
       <c r="Q58" s="7">
-        <v>200.50552898174573</v>
+        <v>195.92471855937299</v>
       </c>
       <c r="R58" s="7">
-        <v>168.06517533664049</v>
+        <v>163.73146482239679</v>
       </c>
       <c r="S58" s="7">
-        <v>376.48025651314629</v>
+        <v>376.80973050205012</v>
       </c>
       <c r="T58" s="7">
-        <v>256.3691211824991</v>
+        <v>356.79383208201386</v>
       </c>
       <c r="U58" s="7">
-        <v>240.35984607053751</v>
+        <v>199.98936917622353</v>
       </c>
       <c r="V58" s="7">
-        <v>107.36132705458158</v>
+        <v>207.39779424175492</v>
       </c>
       <c r="W58" s="7">
-        <v>126.55198545137324</v>
+        <v>98.517424047122049</v>
       </c>
       <c r="X58" s="7">
-        <v>21.304213423380013</v>
+        <v>128.34501411280365</v>
       </c>
       <c r="Y58" s="7">
-        <v>78.242360131486649</v>
+        <v>20.110079478994006</v>
       </c>
       <c r="Z58" s="7">
-        <v>19.112966644304979</v>
+        <v>76.764230252011771</v>
       </c>
       <c r="AA58" s="8">
-        <v>83.379036357627911</v>
+        <v>17.963283589017003</v>
       </c>
       <c r="AB58" s="13">
         <f t="shared" ref="AB58:AB61" si="0">SUM(B58:AA58)</f>
-        <v>18665.465076802142</v>
+        <v>18649.660850210254</v>
       </c>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.35">
@@ -4986,86 +4986,86 @@
         <v>12</v>
       </c>
       <c r="B59" s="6">
-        <v>14036617.048186619</v>
+        <v>14017815.711210009</v>
       </c>
       <c r="C59" s="7">
-        <v>13279448.236726513</v>
+        <v>13261661.088989634</v>
       </c>
       <c r="D59" s="7">
-        <v>12563122.928161718</v>
+        <v>12546295.261862919</v>
       </c>
       <c r="E59" s="7">
-        <v>11885437.925921649</v>
+        <v>11869517.984329404</v>
       </c>
       <c r="F59" s="7">
-        <v>11244308.879146414</v>
+        <v>11229247.697411515</v>
       </c>
       <c r="G59" s="7">
-        <v>10637763.871863946</v>
+        <v>10623515.126418665</v>
       </c>
       <c r="H59" s="7">
-        <v>10063937.357982313</v>
+        <v>10050457.224063339</v>
       </c>
       <c r="I59" s="7">
-        <v>9521064.4234430883</v>
+        <v>9508311.4403000269</v>
       </c>
       <c r="J59" s="7">
-        <v>9007475.3578879535</v>
+        <v>8995410.3012627866</v>
       </c>
       <c r="K59" s="7">
-        <v>8521590.5191426184</v>
+        <v>8510176.2806279492</v>
       </c>
       <c r="L59" s="7">
-        <v>8061915.4747228203</v>
+        <v>8051116.9476278042</v>
       </c>
       <c r="M59" s="7">
-        <v>7627036.4054191327</v>
+        <v>7616820.3767920863</v>
       </c>
       <c r="N59" s="7">
-        <v>7215615.7568234513</v>
+        <v>7205950.8052990176</v>
       </c>
       <c r="O59" s="7">
-        <v>6826388.1254225783</v>
+        <v>6817244.5245792558</v>
       </c>
       <c r="P59" s="7">
-        <v>6458156.3666057838</v>
+        <v>6449505.9935365925</v>
       </c>
       <c r="Q59" s="7">
-        <v>6109787.9126157882</v>
+        <v>6101604.1614308441</v>
       </c>
       <c r="R59" s="7">
-        <v>5780211.289118303</v>
+        <v>5772468.9891132778</v>
       </c>
       <c r="S59" s="7">
-        <v>5468412.8196761673</v>
+        <v>5461088.1579149337</v>
       </c>
       <c r="T59" s="7">
-        <v>5173433.5079920683</v>
+        <v>5166503.9560654238</v>
       </c>
       <c r="U59" s="7">
-        <v>4894366.0883305576</v>
+        <v>4887810.3330657603</v>
       </c>
       <c r="V59" s="7">
-        <v>4630352.2350473953</v>
+        <v>4624150.1129553942</v>
       </c>
       <c r="W59" s="7">
-        <v>4380579.9226435749</v>
+        <v>4374712.3579023099</v>
       </c>
       <c r="X59" s="7">
-        <v>4140395.2704786304</v>
+        <v>4138729.8740074006</v>
       </c>
       <c r="Y59" s="7">
-        <v>3917052.4126403639</v>
+        <v>3895260.8637902341</v>
       </c>
       <c r="Z59" s="7">
-        <v>3705757.2045767521</v>
+        <v>3685141.1441713162</v>
       </c>
       <c r="AA59" s="8">
-        <v>3505859.7671445911</v>
+        <v>3479546.1153387381</v>
       </c>
       <c r="AB59" s="13">
         <f t="shared" si="0"/>
-        <v>198656087.10772076</v>
+        <v>198340062.83006662</v>
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.35">
@@ -5073,86 +5073,86 @@
         <v>13</v>
       </c>
       <c r="B60" s="6">
-        <v>1143.9782175531147</v>
+        <v>1143.0110237631638</v>
       </c>
       <c r="C60" s="7">
-        <v>1129.7721214047631</v>
+        <v>1129.461877637516</v>
       </c>
       <c r="D60" s="7">
-        <v>1120.5957231830098</v>
+        <v>1120.245623083795</v>
       </c>
       <c r="E60" s="7">
-        <v>976.93472901298071</v>
+        <v>973.64233599940439</v>
       </c>
       <c r="F60" s="7">
-        <v>818.75420488900284</v>
+        <v>815.41852060693759</v>
       </c>
       <c r="G60" s="7">
-        <v>646.96597715865585</v>
+        <v>642.61487861710532</v>
       </c>
       <c r="H60" s="7">
-        <v>598.81743474642724</v>
+        <v>595.01606521456324</v>
       </c>
       <c r="I60" s="7">
-        <v>541.5882799209345</v>
+        <v>537.99196538490833</v>
       </c>
       <c r="J60" s="7">
-        <v>492.37150718837751</v>
+        <v>488.96918648957967</v>
       </c>
       <c r="K60" s="7">
-        <v>430.19451494946418</v>
+        <v>426.97572359472923</v>
       </c>
       <c r="L60" s="7">
-        <v>395.68351670267634</v>
+        <v>392.63835467871553</v>
       </c>
       <c r="M60" s="7">
-        <v>347.38769726406582</v>
+        <v>344.50679858806615</v>
       </c>
       <c r="N60" s="7">
-        <v>305.45253374787387</v>
+        <v>302.72703766061431</v>
       </c>
       <c r="O60" s="7">
-        <v>269.51889388741722</v>
+        <v>266.94041760029523</v>
       </c>
       <c r="P60" s="7">
-        <v>239.24687366341439</v>
+        <v>236.8074865755631</v>
       </c>
       <c r="Q60" s="7">
-        <v>193.78982344232776</v>
+        <v>191.48202274852468</v>
       </c>
       <c r="R60" s="7">
-        <v>173.89310685284732</v>
+        <v>171.70979446719025</v>
       </c>
       <c r="S60" s="7">
-        <v>157.22690203843942</v>
+        <v>157.16414508817184</v>
       </c>
       <c r="T60" s="7">
-        <v>134.55986220872947</v>
+        <v>150.30403313900993</v>
       </c>
       <c r="U60" s="7">
-        <v>127.91544856979749</v>
+        <v>121.44847929844828</v>
       </c>
       <c r="V60" s="7">
-        <v>102.91027724177117</v>
+        <v>118.44625605412568</v>
       </c>
       <c r="W60" s="7">
-        <v>101.29075584735811</v>
+        <v>97.386657498214333</v>
       </c>
       <c r="X60" s="7">
-        <v>81.445311520562399</v>
+        <v>97.772843926952973</v>
       </c>
       <c r="Y60" s="7">
-        <v>86.13681204998511</v>
+        <v>76.892153504437573</v>
       </c>
       <c r="Z60" s="7">
-        <v>73.312417485977619</v>
+        <v>81.722504254116501</v>
       </c>
       <c r="AA60" s="8">
-        <v>79.531370678120368</v>
+        <v>69.096041433177916</v>
       </c>
       <c r="AB60" s="13">
         <f t="shared" si="0"/>
-        <v>10769.274313208094</v>
+        <v>10750.392226907325</v>
       </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.35">
@@ -5160,86 +5160,86 @@
         <v>14</v>
       </c>
       <c r="B61" s="9">
-        <v>163.39106260949535</v>
+        <v>163.18245218421177</v>
       </c>
       <c r="C61" s="10">
-        <v>161.60491517559535</v>
+        <v>161.56613470468946</v>
       </c>
       <c r="D61" s="10">
-        <v>161.04865911830098</v>
+        <v>161.01364910837947</v>
       </c>
       <c r="E61" s="10">
-        <v>139.60637275413825</v>
+        <v>139.11516895775793</v>
       </c>
       <c r="F61" s="10">
-        <v>115.8758400273196</v>
+        <v>115.37616262474303</v>
       </c>
       <c r="G61" s="10">
-        <v>89.795212632073813</v>
+        <v>89.137713296906171</v>
       </c>
       <c r="H61" s="10">
-        <v>82.982543449475557</v>
+        <v>82.409472665777457</v>
       </c>
       <c r="I61" s="10">
-        <v>74.732890012147365</v>
+        <v>74.190732041892176</v>
       </c>
       <c r="J61" s="10">
-        <v>67.690165244591554</v>
+        <v>67.177252576431087</v>
       </c>
       <c r="K61" s="10">
-        <v>58.611757177479994</v>
+        <v>58.12651224963053</v>
       </c>
       <c r="L61" s="10">
-        <v>53.784020863233145</v>
+        <v>53.324951211379776</v>
       </c>
       <c r="M61" s="10">
-        <v>46.796271775283458</v>
+        <v>46.361965442218199</v>
       </c>
       <c r="N61" s="10">
-        <v>40.766412085848664</v>
+        <v>40.355533278724131</v>
       </c>
       <c r="O61" s="10">
-        <v>35.640292221125712</v>
+        <v>35.251577202966622</v>
       </c>
       <c r="P61" s="10">
-        <v>31.366661256795805</v>
+        <v>30.998914459632303</v>
       </c>
       <c r="Q61" s="10">
-        <v>24.721894475837018</v>
+        <v>24.373984823504905</v>
       </c>
       <c r="R61" s="10">
-        <v>22.010308776301255</v>
+        <v>21.681166205599194</v>
       </c>
       <c r="S61" s="10">
-        <v>19.741154271884469</v>
+        <v>19.741154271884458</v>
       </c>
       <c r="T61" s="10">
-        <v>16.60222599670151</v>
+        <v>19.046411826166125</v>
       </c>
       <c r="U61" s="10">
-        <v>15.884433069073784</v>
+        <v>14.890935490292136</v>
       </c>
       <c r="V61" s="10">
-        <v>12.298641559585645</v>
+        <v>14.6971451831499</v>
       </c>
       <c r="W61" s="10">
-        <v>12.263056912552065</v>
+        <v>11.699693810643726</v>
       </c>
       <c r="X61" s="10">
-        <v>9.4693600678932679</v>
+        <v>11.955175369863897</v>
       </c>
       <c r="Y61" s="10">
-        <v>10.360569302308685</v>
+        <v>8.9762281671597304</v>
       </c>
       <c r="Z61" s="10">
-        <v>8.5784797206641805</v>
+        <v>9.8666355084589021</v>
       </c>
       <c r="AA61" s="11">
-        <v>9.6541542637496889</v>
+        <v>8.0928215381501456</v>
       </c>
       <c r="AB61" s="14">
         <f t="shared" si="0"/>
-        <v>1485.2773548194559</v>
+        <v>1482.6095442002131</v>
       </c>
     </row>
   </sheetData>

--- a/717A11_output.xlsx
+++ b/717A11_output.xlsx
@@ -734,49 +734,49 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>495.91917837746996</v>
+        <v>495.91917837712617</v>
       </c>
       <c r="H3" s="4">
-        <v>396.80584595544178</v>
+        <v>396.80584595510163</v>
       </c>
       <c r="I3" s="4">
-        <v>421.675301164948</v>
+        <v>421.67530116462831</v>
       </c>
       <c r="J3" s="4">
-        <v>407.00758733670227</v>
+        <v>407.00758733640032</v>
       </c>
       <c r="K3" s="4">
-        <v>514.22584895567979</v>
+        <v>514.22584895539239</v>
       </c>
       <c r="L3" s="4">
-        <v>427.12120987952767</v>
+        <v>427.1212098795404</v>
       </c>
       <c r="M3" s="4">
-        <v>466.05298510390912</v>
+        <v>466.05298510393641</v>
       </c>
       <c r="N3" s="4">
-        <v>473.7611303856429</v>
+        <v>473.76113038568474</v>
       </c>
       <c r="O3" s="4">
-        <v>452.05418306798219</v>
+        <v>452.05418306809133</v>
       </c>
       <c r="P3" s="4">
-        <v>402.64424198762845</v>
+        <v>402.64424198769484</v>
       </c>
       <c r="Q3" s="4">
-        <v>486.3227090409838</v>
+        <v>486.32270904106326</v>
       </c>
       <c r="R3" s="4">
-        <v>386.28310279959442</v>
+        <v>386.283102799684</v>
       </c>
       <c r="S3" s="4">
-        <v>419.45037015797629</v>
+        <v>419.45037015801773</v>
       </c>
       <c r="T3" s="4">
-        <v>129.0329188223846</v>
+        <v>129.03291882249778</v>
       </c>
       <c r="U3" s="4">
-        <v>117.86808104206557</v>
+        <v>117.86808104218653</v>
       </c>
       <c r="V3" s="4">
         <v>0</v>
@@ -805,10 +805,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="7">
-        <v>130.26735234473381</v>
+        <v>130.26735234507942</v>
       </c>
       <c r="D4" s="7">
-        <v>641.05189162051852</v>
+        <v>641.05189161989256</v>
       </c>
       <c r="E4" s="7">
         <v>665.6</v>
@@ -936,7 +936,7 @@
         <v>46.5</v>
       </c>
       <c r="S5" s="7">
-        <v>42.477210131940573</v>
+        <v>42.477210131942854</v>
       </c>
       <c r="T5" s="7">
         <v>46.5</v>
@@ -1051,7 +1051,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>192.67035526309945</v>
+        <v>192.67035526293165</v>
       </c>
       <c r="C7" s="7">
         <v>464</v>
@@ -1369,7 +1369,7 @@
         <v>88</v>
       </c>
       <c r="Y10" s="7">
-        <v>85.513755621296582</v>
+        <v>85.51375562134217</v>
       </c>
       <c r="Z10" s="7">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>154</v>
       </c>
       <c r="U13" s="7">
-        <v>154</v>
+        <v>153.99999999999915</v>
       </c>
       <c r="V13" s="7">
-        <v>90.066924690421729</v>
+        <v>90.066924690545818</v>
       </c>
       <c r="W13" s="7">
-        <v>44.93222638095358</v>
+        <v>44.932226381084035</v>
       </c>
       <c r="X13" s="7">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         <v>150</v>
       </c>
       <c r="D14" s="7">
-        <v>85.515108379479386</v>
+        <v>85.515108380104778</v>
       </c>
       <c r="E14" s="7">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>150</v>
       </c>
       <c r="Z14" s="7">
-        <v>132.96125884377764</v>
+        <v>132.96125884386629</v>
       </c>
       <c r="AA14" s="8">
         <v>0</v>
@@ -1724,10 +1724,10 @@
         <v>1848</v>
       </c>
       <c r="E15" s="7">
-        <v>1254.6797472637281</v>
+        <v>1254.6797472639628</v>
       </c>
       <c r="F15" s="7">
-        <v>607.83770948546044</v>
+        <v>607.83770948570236</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="7">
-        <v>0</v>
+        <v>1.2983036867808551E-10</v>
       </c>
       <c r="P15" s="7">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="7">
-        <v>604.92635573626785</v>
+        <v>604.9263557360332</v>
       </c>
       <c r="F16" s="7">
         <v>656.1</v>
@@ -1873,7 +1873,7 @@
         <v>656.1</v>
       </c>
       <c r="AA16" s="8">
-        <v>651.55241017337175</v>
+        <v>651.55241017346088</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.35">
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="7">
-        <v>24.084748441534884</v>
+        <v>24.084748441292959</v>
       </c>
       <c r="G17" s="7">
         <v>50.3</v>
@@ -1932,7 +1932,7 @@
         <v>50.3</v>
       </c>
       <c r="S17" s="7">
-        <v>28.366370434874398</v>
+        <v>28.36637043491919</v>
       </c>
       <c r="T17" s="7">
         <v>50.3</v>
@@ -2062,7 +2062,7 @@
         <v>257</v>
       </c>
       <c r="G19" s="7">
-        <v>152.50208167086748</v>
+        <v>152.50208167121127</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2101,25 +2101,25 @@
         <v>257</v>
       </c>
       <c r="T19" s="7">
-        <v>243.3262774589266</v>
+        <v>243.32627745890423</v>
       </c>
       <c r="U19" s="7">
-        <v>128.51664800577811</v>
+        <v>128.51664800574724</v>
       </c>
       <c r="V19" s="7">
-        <v>135.00956691885096</v>
+        <v>135.00956691881674</v>
       </c>
       <c r="W19" s="7">
-        <v>55.50825365280177</v>
+        <v>55.508253652760686</v>
       </c>
       <c r="X19" s="7">
-        <v>79.064458690961146</v>
+        <v>79.064458690925079</v>
       </c>
       <c r="Y19" s="7">
         <v>0</v>
       </c>
       <c r="Z19" s="7">
-        <v>42.671387508931296</v>
+        <v>42.671387508837597</v>
       </c>
       <c r="AA19" s="8">
         <v>0</v>
@@ -2148,34 +2148,34 @@
         <v>2269.6</v>
       </c>
       <c r="H20" s="7">
-        <v>2237.1019054333301</v>
+        <v>2237.1019054336703</v>
       </c>
       <c r="I20" s="7">
-        <v>1978.7119199863209</v>
+        <v>1978.7119199866411</v>
       </c>
       <c r="J20" s="7">
-        <v>1760.4574188049276</v>
+        <v>1760.4574188052297</v>
       </c>
       <c r="K20" s="7">
-        <v>1470.920642241224</v>
+        <v>1470.9206422415118</v>
       </c>
       <c r="L20" s="7">
-        <v>1326.3158997381474</v>
+        <v>1326.3158997382245</v>
       </c>
       <c r="M20" s="7">
-        <v>1106.2893585003244</v>
+        <v>1106.2893585003872</v>
       </c>
       <c r="N20" s="7">
-        <v>918.10659431102636</v>
+        <v>918.10659431107456</v>
       </c>
       <c r="O20" s="7">
-        <v>759.96465115095816</v>
+        <v>759.96465115080866</v>
       </c>
       <c r="P20" s="7">
-        <v>630.15706173928265</v>
+        <v>630.15706173930619</v>
       </c>
       <c r="Q20" s="7">
-        <v>417.89810641946679</v>
+        <v>417.8981064194777</v>
       </c>
       <c r="R20" s="7">
         <v>340</v>
@@ -2187,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="7">
-        <v>-1.9895196601282805E-13</v>
+        <v>0</v>
       </c>
       <c r="V20" s="7">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6">
-        <v>15.829644736899297</v>
+        <v>15.82964473706852</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -2362,13 +2362,13 @@
         <v>398.3</v>
       </c>
       <c r="X22" s="7">
-        <v>397.51828566309814</v>
+        <v>397.51828566322365</v>
       </c>
       <c r="Y22" s="7">
-        <v>355.79563343194695</v>
+        <v>355.79563343199152</v>
       </c>
       <c r="Z22" s="7">
-        <v>243.09392720201456</v>
+        <v>243.09392720210826</v>
       </c>
       <c r="AA22" s="8">
         <v>301.38810254334294</v>
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="7">
-        <v>21.232647655264202</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
         <v>28.100000000000009</v>
@@ -2394,31 +2394,31 @@
         <v>28.100000000000009</v>
       </c>
       <c r="G23" s="7">
+        <v>28.099999999999994</v>
+      </c>
+      <c r="H23" s="7">
         <v>28.1</v>
       </c>
-      <c r="H23" s="7">
+      <c r="I23" s="7">
+        <v>28.100000000000009</v>
+      </c>
+      <c r="J23" s="7">
+        <v>28.100000000000009</v>
+      </c>
+      <c r="K23" s="7">
+        <v>28.100000000000009</v>
+      </c>
+      <c r="L23" s="7">
         <v>28.099999999999994</v>
-      </c>
-      <c r="I23" s="7">
-        <v>28.099999999999994</v>
-      </c>
-      <c r="J23" s="7">
-        <v>28.099999999999994</v>
-      </c>
-      <c r="K23" s="7">
-        <v>28.1</v>
-      </c>
-      <c r="L23" s="7">
-        <v>28.100000000000009</v>
       </c>
       <c r="M23" s="7">
         <v>28.100000000000009</v>
       </c>
       <c r="N23" s="7">
+        <v>28.099999999999994</v>
+      </c>
+      <c r="O23" s="7">
         <v>28.100000000000009</v>
-      </c>
-      <c r="O23" s="7">
-        <v>28.099999999999994</v>
       </c>
       <c r="P23" s="7">
         <v>28.099999999999994</v>
@@ -2445,16 +2445,16 @@
         <v>28.1</v>
       </c>
       <c r="X23" s="7">
+        <v>28.099999999999994</v>
+      </c>
+      <c r="Y23" s="7">
         <v>28.1</v>
       </c>
-      <c r="Y23" s="7">
+      <c r="Z23" s="7">
         <v>28.100000000000009</v>
       </c>
-      <c r="Z23" s="7">
+      <c r="AA23" s="8">
         <v>28.1</v>
-      </c>
-      <c r="AA23" s="8">
-        <v>28.099999999999994</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.35">
@@ -2631,13 +2631,13 @@
         <v>0</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>30.6</v>
       </c>
       <c r="D26" s="7">
         <v>30.6</v>
       </c>
       <c r="E26" s="7">
-        <v>30.6</v>
+        <v>30.599999999999998</v>
       </c>
       <c r="F26" s="7">
         <v>30.6</v>
@@ -2646,19 +2646,19 @@
         <v>30.599999999999998</v>
       </c>
       <c r="H26" s="7">
-        <v>30.599999999999998</v>
+        <v>30.6</v>
       </c>
       <c r="I26" s="7">
         <v>30.6</v>
       </c>
       <c r="J26" s="7">
+        <v>30.599999999999998</v>
+      </c>
+      <c r="K26" s="7">
         <v>30.6</v>
       </c>
-      <c r="K26" s="7">
+      <c r="L26" s="7">
         <v>30.599999999999998</v>
-      </c>
-      <c r="L26" s="7">
-        <v>30.6</v>
       </c>
       <c r="M26" s="7">
         <v>30.6</v>
@@ -2691,7 +2691,7 @@
         <v>30.6</v>
       </c>
       <c r="W26" s="7">
-        <v>30.6</v>
+        <v>30.599999999999998</v>
       </c>
       <c r="X26" s="7">
         <v>30.6</v>
@@ -2700,10 +2700,10 @@
         <v>30.6</v>
       </c>
       <c r="Z26" s="7">
+        <v>30.599999999999998</v>
+      </c>
+      <c r="AA26" s="8">
         <v>30.6</v>
-      </c>
-      <c r="AA26" s="8">
-        <v>30.599999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.35">
@@ -2732,7 +2732,7 @@
         <v>10</v>
       </c>
       <c r="I27" s="7">
-        <v>9.9999999999999858</v>
+        <v>10</v>
       </c>
       <c r="J27" s="7">
         <v>10</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="W27" s="7">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
       <c r="X27" s="7">
         <v>10</v>
@@ -2851,7 +2851,7 @@
         <v>10</v>
       </c>
       <c r="U28" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="V28" s="7">
         <v>10</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D29" s="7">
         <v>10</v>
@@ -2969,28 +2969,28 @@
         <v>52.2</v>
       </c>
       <c r="E30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="F30" s="7">
         <v>52.2</v>
       </c>
       <c r="G30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.199999999999989</v>
       </c>
       <c r="H30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.20000000000001</v>
       </c>
       <c r="I30" s="7">
         <v>52.2</v>
       </c>
       <c r="J30" s="7">
+        <v>52.2</v>
+      </c>
+      <c r="K30" s="7">
+        <v>52.2</v>
+      </c>
+      <c r="L30" s="7">
         <v>52.200000000000017</v>
-      </c>
-      <c r="K30" s="7">
-        <v>52.200000000000017</v>
-      </c>
-      <c r="L30" s="7">
-        <v>52.2</v>
       </c>
       <c r="M30" s="7">
         <v>52.2</v>
@@ -3017,25 +3017,25 @@
         <v>52.2</v>
       </c>
       <c r="U30" s="7">
+        <v>52.200000000000017</v>
+      </c>
+      <c r="V30" s="7">
         <v>52.20000000000001</v>
       </c>
-      <c r="V30" s="7">
+      <c r="W30" s="7">
+        <v>52.20000000000001</v>
+      </c>
+      <c r="X30" s="7">
         <v>52.2</v>
-      </c>
-      <c r="W30" s="7">
-        <v>52.200000000000017</v>
-      </c>
-      <c r="X30" s="7">
-        <v>52.200000000000017</v>
       </c>
       <c r="Y30" s="7">
         <v>52.2</v>
       </c>
       <c r="Z30" s="7">
-        <v>52.20000000000001</v>
+        <v>52.2</v>
       </c>
       <c r="AA30" s="8">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.35">
@@ -3046,70 +3046,70 @@
         <v>0</v>
       </c>
       <c r="C31" s="7">
-        <v>10</v>
+        <v>0.83264765491848891</v>
       </c>
       <c r="D31" s="7">
         <v>10</v>
       </c>
       <c r="E31" s="7">
+        <v>10</v>
+      </c>
+      <c r="F31" s="7">
+        <v>10</v>
+      </c>
+      <c r="G31" s="7">
+        <v>10</v>
+      </c>
+      <c r="H31" s="7">
+        <v>10</v>
+      </c>
+      <c r="I31" s="7">
+        <v>10</v>
+      </c>
+      <c r="J31" s="7">
+        <v>10</v>
+      </c>
+      <c r="K31" s="7">
+        <v>10</v>
+      </c>
+      <c r="L31" s="7">
+        <v>10</v>
+      </c>
+      <c r="M31" s="7">
+        <v>10</v>
+      </c>
+      <c r="N31" s="7">
+        <v>10</v>
+      </c>
+      <c r="O31" s="7">
+        <v>10</v>
+      </c>
+      <c r="P31" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>10</v>
+      </c>
+      <c r="R31" s="7">
+        <v>10</v>
+      </c>
+      <c r="S31" s="7">
+        <v>10</v>
+      </c>
+      <c r="T31" s="7">
+        <v>10</v>
+      </c>
+      <c r="U31" s="7">
+        <v>10</v>
+      </c>
+      <c r="V31" s="7">
+        <v>10</v>
+      </c>
+      <c r="W31" s="7">
+        <v>10</v>
+      </c>
+      <c r="X31" s="7">
         <v>9.9999999999999858</v>
-      </c>
-      <c r="F31" s="7">
-        <v>10</v>
-      </c>
-      <c r="G31" s="7">
-        <v>9.9999999999999929</v>
-      </c>
-      <c r="H31" s="7">
-        <v>10</v>
-      </c>
-      <c r="I31" s="7">
-        <v>10</v>
-      </c>
-      <c r="J31" s="7">
-        <v>10</v>
-      </c>
-      <c r="K31" s="7">
-        <v>9.9999999999999929</v>
-      </c>
-      <c r="L31" s="7">
-        <v>10</v>
-      </c>
-      <c r="M31" s="7">
-        <v>10</v>
-      </c>
-      <c r="N31" s="7">
-        <v>10</v>
-      </c>
-      <c r="O31" s="7">
-        <v>10</v>
-      </c>
-      <c r="P31" s="7">
-        <v>10</v>
-      </c>
-      <c r="Q31" s="7">
-        <v>10</v>
-      </c>
-      <c r="R31" s="7">
-        <v>10</v>
-      </c>
-      <c r="S31" s="7">
-        <v>10</v>
-      </c>
-      <c r="T31" s="7">
-        <v>10</v>
-      </c>
-      <c r="U31" s="7">
-        <v>10</v>
-      </c>
-      <c r="V31" s="7">
-        <v>10.000000000000014</v>
-      </c>
-      <c r="W31" s="7">
-        <v>10</v>
-      </c>
-      <c r="X31" s="7">
-        <v>10</v>
       </c>
       <c r="Y31" s="7">
         <v>10</v>
@@ -3129,28 +3129,28 @@
         <v>0</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>20.2</v>
       </c>
       <c r="D32" s="7">
         <v>20.199999999999996</v>
       </c>
       <c r="E32" s="7">
+        <v>20.2</v>
+      </c>
+      <c r="F32" s="7">
         <v>20.199999999999996</v>
-      </c>
-      <c r="F32" s="7">
-        <v>20.200000000000003</v>
       </c>
       <c r="G32" s="7">
         <v>20.2</v>
       </c>
       <c r="H32" s="7">
+        <v>20.200000000000003</v>
+      </c>
+      <c r="I32" s="7">
+        <v>20.200000000000003</v>
+      </c>
+      <c r="J32" s="7">
         <v>20.2</v>
-      </c>
-      <c r="I32" s="7">
-        <v>20.199999999999996</v>
-      </c>
-      <c r="J32" s="7">
-        <v>20.200000000000003</v>
       </c>
       <c r="K32" s="7">
         <v>20.2</v>
@@ -3162,25 +3162,25 @@
         <v>20.199999999999996</v>
       </c>
       <c r="N32" s="7">
+        <v>20.200000000000003</v>
+      </c>
+      <c r="O32" s="7">
         <v>20.199999999999996</v>
       </c>
-      <c r="O32" s="7">
+      <c r="P32" s="7">
         <v>20.2</v>
-      </c>
-      <c r="P32" s="7">
-        <v>20.200000000000003</v>
       </c>
       <c r="Q32" s="7">
         <v>20.200000000000003</v>
       </c>
       <c r="R32" s="7">
-        <v>20.199999999999996</v>
+        <v>20.200000000000003</v>
       </c>
       <c r="S32" s="7">
-        <v>20.199999999999996</v>
+        <v>20.200000000000003</v>
       </c>
       <c r="T32" s="7">
-        <v>20.199999999999996</v>
+        <v>20.200000000000003</v>
       </c>
       <c r="U32" s="7">
         <v>20.2</v>
@@ -3189,19 +3189,19 @@
         <v>20.199999999999996</v>
       </c>
       <c r="W32" s="7">
+        <v>20.2</v>
+      </c>
+      <c r="X32" s="7">
+        <v>20.200000000000003</v>
+      </c>
+      <c r="Y32" s="7">
+        <v>20.2</v>
+      </c>
+      <c r="Z32" s="7">
+        <v>20.2</v>
+      </c>
+      <c r="AA32" s="8">
         <v>20.199999999999996</v>
-      </c>
-      <c r="X32" s="7">
-        <v>20.2</v>
-      </c>
-      <c r="Y32" s="7">
-        <v>20.200000000000003</v>
-      </c>
-      <c r="Z32" s="7">
-        <v>20.199999999999996</v>
-      </c>
-      <c r="AA32" s="8">
-        <v>20.2</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.35">
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="7">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="D34" s="7">
         <v>10.5</v>
@@ -3328,10 +3328,10 @@
         <v>10.5</v>
       </c>
       <c r="N34" s="7">
+        <v>10.499999999999986</v>
+      </c>
+      <c r="O34" s="7">
         <v>10.5</v>
-      </c>
-      <c r="O34" s="7">
-        <v>10.499999999999986</v>
       </c>
       <c r="P34" s="7">
         <v>10.499999999999986</v>
@@ -3358,7 +3358,7 @@
         <v>10.5</v>
       </c>
       <c r="X34" s="7">
-        <v>10.499999999999993</v>
+        <v>10.5</v>
       </c>
       <c r="Y34" s="7">
         <v>10.5</v>
@@ -3367,7 +3367,7 @@
         <v>10.5</v>
       </c>
       <c r="AA34" s="8">
-        <v>10.499999999999986</v>
+        <v>10.499999999999993</v>
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.35">
@@ -3435,7 +3435,7 @@
         <v>10</v>
       </c>
       <c r="V35" s="7">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
       <c r="W35" s="7">
         <v>10</v>
@@ -3464,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="7">
-        <v>10</v>
+        <v>10.000000000000002</v>
       </c>
       <c r="E36" s="7">
         <v>10</v>
@@ -3642,7 +3642,7 @@
         <v>10</v>
       </c>
       <c r="H38" s="7">
-        <v>10</v>
+        <v>10.000000000000002</v>
       </c>
       <c r="I38" s="7">
         <v>10</v>
@@ -3693,7 +3693,7 @@
         <v>10</v>
       </c>
       <c r="Y38" s="7">
-        <v>10.000000000000002</v>
+        <v>10</v>
       </c>
       <c r="Z38" s="7">
         <v>10</v>
@@ -3722,16 +3722,16 @@
         <v>10.1</v>
       </c>
       <c r="G39" s="7">
-        <v>10.100000000000001</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="H39" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="I39" s="7">
         <v>10.099999999999994</v>
       </c>
-      <c r="I39" s="7">
+      <c r="J39" s="7">
         <v>10.1</v>
-      </c>
-      <c r="J39" s="7">
-        <v>10.099999999999994</v>
       </c>
       <c r="K39" s="7">
         <v>10.099999999999994</v>
@@ -3740,16 +3740,16 @@
         <v>10.099999999999994</v>
       </c>
       <c r="M39" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="N39" s="7">
         <v>10.099999999999994</v>
       </c>
-      <c r="N39" s="7">
-        <v>10.1</v>
-      </c>
       <c r="O39" s="7">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="P39" s="7">
         <v>10.100000000000001</v>
-      </c>
-      <c r="P39" s="7">
-        <v>10.099999999999994</v>
       </c>
       <c r="Q39" s="7">
         <v>10.099999999999994</v>
@@ -3758,31 +3758,31 @@
         <v>10.099999999999994</v>
       </c>
       <c r="S39" s="7">
-        <v>10.1</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="T39" s="7">
-        <v>10.1</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="U39" s="7">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="V39" s="7">
         <v>10.100000000000001</v>
       </c>
-      <c r="V39" s="7">
-        <v>10.099999999999994</v>
-      </c>
       <c r="W39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="X39" s="7">
         <v>10.099999999999994</v>
       </c>
       <c r="Y39" s="7">
-        <v>10.1</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="Z39" s="7">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="AA39" s="8">
         <v>10.100000000000001</v>
-      </c>
-      <c r="AA39" s="8">
-        <v>10.099999999999994</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.35">
@@ -3793,52 +3793,52 @@
         <v>0</v>
       </c>
       <c r="C40" s="7">
-        <v>0</v>
+        <v>10.099999999999998</v>
       </c>
       <c r="D40" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="E40" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="F40" s="7">
-        <v>10.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="G40" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="H40" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="I40" s="7">
         <v>10.100000000000001</v>
-      </c>
-      <c r="I40" s="7">
-        <v>10.1</v>
       </c>
       <c r="J40" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="K40" s="7">
+        <v>10.099999999999998</v>
+      </c>
+      <c r="L40" s="7">
         <v>10.100000000000001</v>
       </c>
-      <c r="L40" s="7">
-        <v>10.099999999999998</v>
-      </c>
       <c r="M40" s="7">
-        <v>10.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="N40" s="7">
         <v>10.1</v>
       </c>
       <c r="O40" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="P40" s="7">
         <v>10.099999999999998</v>
-      </c>
-      <c r="P40" s="7">
-        <v>10.1</v>
       </c>
       <c r="Q40" s="7">
         <v>10.1</v>
       </c>
       <c r="R40" s="7">
-        <v>10.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="S40" s="7">
         <v>10.1</v>
@@ -3850,19 +3850,19 @@
         <v>10.100000000000001</v>
       </c>
       <c r="V40" s="7">
-        <v>10.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="W40" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="X40" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="Y40" s="7">
         <v>10.099999999999998</v>
       </c>
-      <c r="Y40" s="7">
+      <c r="Z40" s="7">
         <v>10.100000000000001</v>
-      </c>
-      <c r="Z40" s="7">
-        <v>10.1</v>
       </c>
       <c r="AA40" s="8">
         <v>10.100000000000001</v>
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="7">
-        <v>9.9999999999999858</v>
+        <v>0</v>
       </c>
       <c r="D41" s="7">
         <v>10</v>
@@ -3942,7 +3942,7 @@
         <v>10</v>
       </c>
       <c r="Y41" s="7">
-        <v>10</v>
+        <v>10.000000000000014</v>
       </c>
       <c r="Z41" s="7">
         <v>10</v>
@@ -4025,7 +4025,7 @@
         <v>12</v>
       </c>
       <c r="Y42" s="7">
-        <v>12</v>
+        <v>11.999999999999993</v>
       </c>
       <c r="Z42" s="7">
         <v>12</v>
@@ -4069,52 +4069,52 @@
         <v>1200</v>
       </c>
       <c r="L43" s="7">
-        <v>1500</v>
+        <v>1499.9999999999104</v>
       </c>
       <c r="M43" s="7">
-        <v>1750</v>
+        <v>1749.9999999999104</v>
       </c>
       <c r="N43" s="7">
-        <v>2000</v>
+        <v>1999.9999999999104</v>
       </c>
       <c r="O43" s="7">
-        <v>2250</v>
+        <v>2249.9999999999113</v>
       </c>
       <c r="P43" s="7">
-        <v>2500</v>
+        <v>2499.9999999999104</v>
       </c>
       <c r="Q43" s="7">
-        <v>2700</v>
+        <v>2699.9999999999104</v>
       </c>
       <c r="R43" s="7">
-        <v>2950</v>
+        <v>2949.9999999999104</v>
       </c>
       <c r="S43" s="7">
-        <v>3200</v>
+        <v>3199.9999999999104</v>
       </c>
       <c r="T43" s="7">
-        <v>3450</v>
+        <v>3449.9999999999104</v>
       </c>
       <c r="U43" s="7">
-        <v>3650</v>
+        <v>3649.9999999999104</v>
       </c>
       <c r="V43" s="7">
-        <v>3900</v>
+        <v>3899.9999999999104</v>
       </c>
       <c r="W43" s="7">
-        <v>4100</v>
+        <v>4099.9999999999109</v>
       </c>
       <c r="X43" s="7">
-        <v>4350</v>
+        <v>4349.9999999999109</v>
       </c>
       <c r="Y43" s="7">
-        <v>4550</v>
+        <v>4549.9999999999109</v>
       </c>
       <c r="Z43" s="7">
-        <v>4800</v>
+        <v>4799.9999999999109</v>
       </c>
       <c r="AA43" s="8">
-        <v>5000</v>
+        <v>4999.9999999999109</v>
       </c>
       <c r="AB43" t="s">
         <v>17</v>
@@ -4307,79 +4307,79 @@
         <v>1</v>
       </c>
       <c r="B49" s="3">
-        <v>134.59011842103354</v>
+        <v>134.59011842097732</v>
       </c>
       <c r="C49" s="4">
-        <v>217.86156822982312</v>
+        <v>238.16156823005394</v>
       </c>
       <c r="D49" s="4">
-        <v>389.57841108034609</v>
+        <v>389.57841107992863</v>
       </c>
       <c r="E49" s="4">
-        <v>445.38034435000162</v>
+        <v>445.3803443500006</v>
       </c>
       <c r="F49" s="4">
-        <v>630.82005026299578</v>
+        <v>630.82005026291517</v>
       </c>
       <c r="G49" s="4">
-        <v>988.85720646479581</v>
+        <v>988.85720646468121</v>
       </c>
       <c r="H49" s="4">
-        <v>846.83951964717062</v>
+        <v>846.83951964705727</v>
       </c>
       <c r="I49" s="4">
-        <v>762.88527618929709</v>
+        <v>762.88527618919079</v>
       </c>
       <c r="J49" s="4">
-        <v>665.82177982875828</v>
+        <v>665.82177982865755</v>
       </c>
       <c r="K49" s="4">
-        <v>626.12404029153174</v>
+        <v>626.12404029143613</v>
       </c>
       <c r="L49" s="4">
-        <v>505.05639941523867</v>
+        <v>505.05639941527193</v>
       </c>
       <c r="M49" s="4">
-        <v>442.73926845513012</v>
+        <v>442.73926845516922</v>
       </c>
       <c r="N49" s="4">
-        <v>370.08661134316026</v>
+        <v>370.08661134320266</v>
       </c>
       <c r="O49" s="4">
-        <v>287.70192501487048</v>
+        <v>287.70192501489339</v>
       </c>
       <c r="P49" s="4">
-        <v>196.15656609734955</v>
+        <v>196.15656609740131</v>
       </c>
       <c r="Q49" s="4">
-        <v>165.71499815071411</v>
+        <v>165.71499815077061</v>
       </c>
       <c r="R49" s="4">
-        <v>57.442396259818224</v>
+        <v>57.442396259877796</v>
       </c>
       <c r="S49" s="4">
-        <v>-41.526512318802133</v>
+        <v>-41.526512318757341</v>
       </c>
       <c r="T49" s="4">
-        <v>-177.93212082638502</v>
+        <v>-177.9321208263168</v>
       </c>
       <c r="U49" s="4">
-        <v>-239.68408793039606</v>
+        <v>-239.6840879303258</v>
       </c>
       <c r="V49" s="4">
-        <v>-332.28171754239145</v>
+        <v>-332.28171754240321</v>
       </c>
       <c r="W49" s="4">
-        <v>-375.11101945637927</v>
+        <v>-375.11101945639325</v>
       </c>
       <c r="X49" s="4">
-        <v>-468.42867982535995</v>
+        <v>-468.42867982533005</v>
       </c>
       <c r="Y49" s="4">
-        <v>-526.97265273668859</v>
+        <v>-526.97265273664402</v>
       </c>
       <c r="Z49" s="4">
-        <v>-624.09898603320767</v>
+        <v>-624.09898603320744</v>
       </c>
       <c r="AA49" s="5">
         <v>-635.81607690750707</v>
@@ -4390,79 +4390,79 @@
         <v>2</v>
       </c>
       <c r="B50" s="6">
-        <v>-371.30988157896644</v>
+        <v>-371.30988157902294</v>
       </c>
       <c r="C50" s="7">
-        <v>-169.70578411491221</v>
+        <v>-210.30578411502711</v>
       </c>
       <c r="D50" s="7">
-        <v>-241.38998054017338</v>
+        <v>-241.38998053996465</v>
       </c>
       <c r="E50" s="7">
-        <v>-291.56660415000135</v>
+        <v>-291.56660415000079</v>
       </c>
       <c r="F50" s="7">
-        <v>-584.15346921504101</v>
+        <v>-584.15346921487969</v>
       </c>
       <c r="G50" s="7">
-        <v>-712.60342355937246</v>
+        <v>-712.60342355948706</v>
       </c>
       <c r="H50" s="7">
-        <v>-537.56435604721537</v>
+        <v>-537.56435604732883</v>
       </c>
       <c r="I50" s="7">
-        <v>-354.75833438633686</v>
+        <v>-354.75833438644372</v>
       </c>
       <c r="J50" s="7">
-        <v>-185.3607232420577</v>
+        <v>-185.36072324215866</v>
       </c>
       <c r="K50" s="7">
-        <v>-8.8992053069193844</v>
+        <v>-8.8992053070156771</v>
       </c>
       <c r="L50" s="7">
-        <v>135.88784460639994</v>
+        <v>135.88784460634497</v>
       </c>
       <c r="M50" s="7">
-        <v>289.11809665301365</v>
+        <v>289.11809665296278</v>
       </c>
       <c r="N50" s="7">
-        <v>431.70274899482411</v>
+        <v>431.70274899477863</v>
       </c>
       <c r="O50" s="7">
-        <v>564.24250790540009</v>
+        <v>564.24250790546353</v>
       </c>
       <c r="P50" s="7">
-        <v>687.30591423389353</v>
+        <v>687.30591423385556</v>
       </c>
       <c r="Q50" s="7">
-        <v>821.15459042048769</v>
+        <v>821.15459042045427</v>
       </c>
       <c r="R50" s="7">
-        <v>926.85084486002006</v>
+        <v>926.85084485999027</v>
       </c>
       <c r="S50" s="7">
-        <v>1041.5265123188021</v>
+        <v>1041.5265123187573</v>
       </c>
       <c r="T50" s="7">
-        <v>1118.4382810329578</v>
+        <v>1118.4382810329359</v>
       </c>
       <c r="U50" s="7">
-        <v>1219.673547545681</v>
+        <v>1219.6735475456614</v>
       </c>
       <c r="V50" s="7">
-        <v>1275.7969613433931</v>
+        <v>1275.7969613434154</v>
       </c>
       <c r="W50" s="7">
-        <v>1350.1509669076961</v>
+        <v>1350.1509669077232</v>
       </c>
       <c r="X50" s="7">
-        <v>1423.879947997611</v>
+        <v>1423.879947997551</v>
       </c>
       <c r="Y50" s="7">
-        <v>1526.9726527366886</v>
+        <v>1526.972652736644</v>
       </c>
       <c r="Z50" s="7">
-        <v>1624.0989860332077</v>
+        <v>1624.0989860332074</v>
       </c>
       <c r="AA50" s="8">
         <v>1635.8160769075071</v>
@@ -4473,73 +4473,73 @@
         <v>3</v>
       </c>
       <c r="B51" s="9">
-        <v>236.7197631579329</v>
+        <v>236.71976315804562</v>
       </c>
       <c r="C51" s="10">
-        <v>-48.155784114910915</v>
+        <v>-27.855784115026836</v>
       </c>
       <c r="D51" s="10">
-        <v>-148.1884305401727</v>
+        <v>-148.18843053996397</v>
       </c>
       <c r="E51" s="10">
-        <v>-153.81374020000032</v>
+        <v>-153.81374019999981</v>
       </c>
       <c r="F51" s="10">
-        <v>-46.666581047954878</v>
+        <v>-46.666581048035482</v>
       </c>
       <c r="G51" s="10">
-        <v>-276.25378290542335</v>
+        <v>-276.25378290519416</v>
       </c>
       <c r="H51" s="10">
-        <v>-309.27516359995525</v>
+        <v>-309.2751635997285</v>
       </c>
       <c r="I51" s="10">
-        <v>-408.12694180296023</v>
+        <v>-408.12694180274707</v>
       </c>
       <c r="J51" s="10">
-        <v>-480.46105658670058</v>
+        <v>-480.46105658649958</v>
       </c>
       <c r="K51" s="10">
-        <v>-617.22483498461236</v>
+        <v>-617.22483498442045</v>
       </c>
       <c r="L51" s="10">
-        <v>-640.94424402163861</v>
+        <v>-640.9442440216169</v>
       </c>
       <c r="M51" s="10">
-        <v>-731.85736510814377</v>
+        <v>-731.85736510813194</v>
       </c>
       <c r="N51" s="10">
-        <v>-801.78936033798436</v>
+        <v>-801.78936033798141</v>
       </c>
       <c r="O51" s="10">
-        <v>-851.94443292027063</v>
+        <v>-851.9444329203568</v>
       </c>
       <c r="P51" s="10">
-        <v>-883.46248033124311</v>
+        <v>-883.46248033125687</v>
       </c>
       <c r="Q51" s="10">
-        <v>-986.8695885712018</v>
+        <v>-986.86958857122488</v>
       </c>
       <c r="R51" s="10">
-        <v>-984.29324111983806</v>
+        <v>-984.29324111986784</v>
       </c>
       <c r="S51" s="10">
         <v>-1000</v>
       </c>
       <c r="T51" s="10">
-        <v>-940.50616020657276</v>
+        <v>-940.50616020661914</v>
       </c>
       <c r="U51" s="10">
-        <v>-979.98945961528489</v>
+        <v>-979.98945961533559</v>
       </c>
       <c r="V51" s="10">
-        <v>-943.5152438010017</v>
+        <v>-943.51524380101228</v>
       </c>
       <c r="W51" s="10">
-        <v>-975.03994745131683</v>
+        <v>-975.03994745132979</v>
       </c>
       <c r="X51" s="10">
-        <v>-955.45126817225093</v>
+        <v>-955.45126817222103</v>
       </c>
       <c r="Y51" s="10">
         <v>-1000</v>
@@ -4639,86 +4639,86 @@
         <v>8</v>
       </c>
       <c r="B54" s="15">
-        <v>185343.2957730343</v>
+        <v>185343.29577306513</v>
       </c>
       <c r="C54" s="16">
-        <v>150354.42590554856</v>
+        <v>150354.42590555531</v>
       </c>
       <c r="D54" s="16">
-        <v>122850.98857876577</v>
+        <v>122850.98857877156</v>
       </c>
       <c r="E54" s="16">
-        <v>115767.04458876407</v>
+        <v>115767.04458876268</v>
       </c>
       <c r="F54" s="16">
-        <v>110839.76863109934</v>
+        <v>110839.76863109763</v>
       </c>
       <c r="G54" s="16">
-        <v>107601.0888445216</v>
+        <v>107601.08884451845</v>
       </c>
       <c r="H54" s="16">
-        <v>4801787.6002829252</v>
+        <v>4801787.6002829224</v>
       </c>
       <c r="I54" s="16">
-        <v>7143329.7763654375</v>
+        <v>7143329.7763654348</v>
       </c>
       <c r="J54" s="16">
-        <v>9019190.2145876419</v>
+        <v>9019190.2145876382</v>
       </c>
       <c r="K54" s="16">
-        <v>10113180.192269597</v>
+        <v>10113180.192269593</v>
       </c>
       <c r="L54" s="16">
-        <v>11280390.344767999</v>
+        <v>11280390.344767375</v>
       </c>
       <c r="M54" s="16">
-        <v>11836310.046315253</v>
+        <v>11836310.046314687</v>
       </c>
       <c r="N54" s="16">
-        <v>12197786.437222462</v>
+        <v>12197786.437221948</v>
       </c>
       <c r="O54" s="16">
-        <v>12395598.917741014</v>
+        <v>12395598.917740546</v>
       </c>
       <c r="P54" s="16">
-        <v>12456534.677815856</v>
+        <v>12456534.677815432</v>
       </c>
       <c r="Q54" s="16">
-        <v>12188488.739747677</v>
+        <v>12188488.739747291</v>
       </c>
       <c r="R54" s="16">
-        <v>12061949.661892131</v>
+        <v>12061949.661891779</v>
       </c>
       <c r="S54" s="16">
-        <v>11857739.354170015</v>
+        <v>11857739.354169697</v>
       </c>
       <c r="T54" s="16">
-        <v>11590726.403390428</v>
+        <v>11590726.403390139</v>
       </c>
       <c r="U54" s="16">
-        <v>11127184.463038474</v>
+        <v>11127184.463038208</v>
       </c>
       <c r="V54" s="16">
-        <v>10785840.636510139</v>
+        <v>10785840.636509897</v>
       </c>
       <c r="W54" s="16">
-        <v>10292985.498904472</v>
+        <v>10292985.498904256</v>
       </c>
       <c r="X54" s="16">
-        <v>9911160.63153263</v>
+        <v>9911160.6315323785</v>
       </c>
       <c r="Y54" s="16">
-        <v>9413197.9445184693</v>
+        <v>9413197.9445182905</v>
       </c>
       <c r="Z54" s="16">
-        <v>9015230.6338730641</v>
+        <v>9015230.6338729039</v>
       </c>
       <c r="AA54" s="17">
-        <v>8528739.7553199679</v>
+        <v>8528739.7553198207</v>
       </c>
       <c r="AB54" s="18">
         <f>SUM(TotalCost)</f>
-        <v>208810108.5425874</v>
+        <v>208810108.54258201</v>
       </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.35">
@@ -4812,86 +4812,86 @@
         <v>10</v>
       </c>
       <c r="B57" s="3">
-        <v>13395.809006237749</v>
+        <v>13395.809006240432</v>
       </c>
       <c r="C57" s="4">
-        <v>10788.134900264893</v>
+        <v>10788.134900264909</v>
       </c>
       <c r="D57" s="4">
-        <v>9558.8049673417518</v>
+        <v>9558.8049673419791</v>
       </c>
       <c r="E57" s="4">
-        <v>9312.0249598840237</v>
+        <v>9312.0249598845749</v>
       </c>
       <c r="F57" s="4">
-        <v>8666.7645106792916</v>
+        <v>8666.7645106790133</v>
       </c>
       <c r="G57" s="4">
-        <v>7992.7910405343282</v>
+        <v>7992.7910405351358</v>
       </c>
       <c r="H57" s="4">
-        <v>7231.7522186328661</v>
+        <v>7231.7522186328079</v>
       </c>
       <c r="I57" s="4">
-        <v>6939.5927342366713</v>
+        <v>6939.5927342366176</v>
       </c>
       <c r="J57" s="4">
-        <v>6641.5502674662948</v>
+        <v>6641.5502674662439</v>
       </c>
       <c r="K57" s="4">
-        <v>6428.200739953425</v>
+        <v>6428.2007399533768</v>
       </c>
       <c r="L57" s="4">
-        <v>6119.5279553645905</v>
+        <v>6119.527955364706</v>
       </c>
       <c r="M57" s="4">
-        <v>5896.259235531229</v>
+        <v>5896.2592355313482</v>
       </c>
       <c r="N57" s="4">
-        <v>5668.5319125448614</v>
+        <v>5668.5319125449823</v>
       </c>
       <c r="O57" s="4">
-        <v>5436.6569033792557</v>
+        <v>5436.6569033795795</v>
       </c>
       <c r="P57" s="4">
-        <v>5200.9289870833718</v>
+        <v>5200.9289870834973</v>
       </c>
       <c r="Q57" s="4">
-        <v>5051.8183299381972</v>
+        <v>5051.8183299383254</v>
       </c>
       <c r="R57" s="4">
-        <v>4809.2087187230172</v>
+        <v>4809.2087187231464</v>
       </c>
       <c r="S57" s="4">
-        <v>5099.216757121816</v>
+        <v>5099.2167571221062</v>
       </c>
       <c r="T57" s="4">
-        <v>4929.3134908072625</v>
+        <v>4929.3134908073407</v>
       </c>
       <c r="U57" s="4">
-        <v>4478.6003618073237</v>
+        <v>4478.6003618073782</v>
       </c>
       <c r="V57" s="4">
-        <v>4143.4773551581548</v>
+        <v>4143.4773551583949</v>
       </c>
       <c r="W57" s="4">
-        <v>3708.119386265606</v>
+        <v>3708.1193862658388</v>
       </c>
       <c r="X57" s="4">
-        <v>3352.1940770678111</v>
+        <v>3352.194077067938</v>
       </c>
       <c r="Y57" s="4">
-        <v>2961.9204175372593</v>
+        <v>2961.920417537412</v>
       </c>
       <c r="Z57" s="4">
-        <v>2768.3019467310851</v>
+        <v>2768.3019467309637</v>
       </c>
       <c r="AA57" s="5">
-        <v>2672.733379103548</v>
+        <v>2672.7333791035826</v>
       </c>
       <c r="AB57" s="12">
         <f>SUM(B57:AA57)</f>
-        <v>159252.2345593957</v>
+        <v>159252.2345594017</v>
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.35">
@@ -4899,86 +4899,86 @@
         <v>11</v>
       </c>
       <c r="B58" s="6">
-        <v>2413.9885322768305</v>
+        <v>2413.9885322783543</v>
       </c>
       <c r="C58" s="7">
-        <v>2265.7469347046895</v>
+        <v>2265.7469347046904</v>
       </c>
       <c r="D58" s="7">
-        <v>2260.5965095418974</v>
+        <v>2260.5965095419006</v>
       </c>
       <c r="E58" s="7">
-        <v>1949.7252897817209</v>
+        <v>1949.7252897818444</v>
       </c>
       <c r="F58" s="7">
-        <v>1610.7981043449702</v>
+        <v>1610.7981043450898</v>
       </c>
       <c r="G58" s="7">
-        <v>1150.402694907754</v>
+        <v>1150.4026949082204</v>
       </c>
       <c r="H58" s="7">
-        <v>928.34771465727567</v>
+        <v>928.34771465741005</v>
       </c>
       <c r="I58" s="7">
-        <v>824.41550616380698</v>
+        <v>824.4155061639334</v>
       </c>
       <c r="J58" s="7">
-        <v>736.3416004770794</v>
+        <v>736.34160047719888</v>
       </c>
       <c r="K58" s="7">
-        <v>620.51602561485879</v>
+        <v>620.51602561497248</v>
       </c>
       <c r="L58" s="7">
-        <v>561.54347727350978</v>
+        <v>561.54347727354082</v>
       </c>
       <c r="M58" s="7">
-        <v>473.18423535646207</v>
+        <v>473.18423535648759</v>
       </c>
       <c r="N58" s="7">
-        <v>397.40824655042883</v>
+        <v>397.40824655044855</v>
       </c>
       <c r="O58" s="7">
-        <v>333.50338787838001</v>
+        <v>333.5033878783899</v>
       </c>
       <c r="P58" s="7">
-        <v>280.795649816832</v>
+        <v>280.795649816842</v>
       </c>
       <c r="Q58" s="7">
-        <v>195.92471855937299</v>
+        <v>195.92471855937799</v>
       </c>
       <c r="R58" s="7">
-        <v>163.73146482239679</v>
+        <v>163.73146482239747</v>
       </c>
       <c r="S58" s="7">
-        <v>376.80973050205012</v>
+        <v>376.80973050205228</v>
       </c>
       <c r="T58" s="7">
-        <v>356.79383208201386</v>
+        <v>356.79383208198431</v>
       </c>
       <c r="U58" s="7">
-        <v>199.98936917622353</v>
+        <v>199.98936917618249</v>
       </c>
       <c r="V58" s="7">
-        <v>207.39779424175492</v>
+        <v>207.39779424170922</v>
       </c>
       <c r="W58" s="7">
-        <v>98.517424047122049</v>
+        <v>98.51742404706701</v>
       </c>
       <c r="X58" s="7">
-        <v>128.34501411280365</v>
+        <v>128.34501411275528</v>
       </c>
       <c r="Y58" s="7">
-        <v>20.110079478994006</v>
+        <v>20.110079478994678</v>
       </c>
       <c r="Z58" s="7">
-        <v>76.764230252011771</v>
+        <v>76.764230251885152</v>
       </c>
       <c r="AA58" s="8">
-        <v>17.963283589017003</v>
+        <v>17.963283589017625</v>
       </c>
       <c r="AB58" s="13">
         <f t="shared" ref="AB58:AB61" si="0">SUM(B58:AA58)</f>
-        <v>18649.660850210254</v>
+        <v>18649.660850212746</v>
       </c>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.35">
@@ -4986,86 +4986,86 @@
         <v>12</v>
       </c>
       <c r="B59" s="6">
-        <v>14017815.711210009</v>
+        <v>14017815.711210344</v>
       </c>
       <c r="C59" s="7">
-        <v>13261661.088989634</v>
+        <v>13261661.088989951</v>
       </c>
       <c r="D59" s="7">
-        <v>12546295.261862919</v>
+        <v>12546295.261863219</v>
       </c>
       <c r="E59" s="7">
-        <v>11869517.984329404</v>
+        <v>11869517.984329687</v>
       </c>
       <c r="F59" s="7">
-        <v>11229247.697411515</v>
+        <v>11229247.697411783</v>
       </c>
       <c r="G59" s="7">
-        <v>10623515.126418665</v>
+        <v>10623515.126418918</v>
       </c>
       <c r="H59" s="7">
-        <v>10050457.224063339</v>
+        <v>10050457.224063579</v>
       </c>
       <c r="I59" s="7">
-        <v>9508311.4403000269</v>
+        <v>9508311.4403002523</v>
       </c>
       <c r="J59" s="7">
-        <v>8995410.3012627866</v>
+        <v>8995410.3012630008</v>
       </c>
       <c r="K59" s="7">
-        <v>8510176.2806279492</v>
+        <v>8510176.2806281522</v>
       </c>
       <c r="L59" s="7">
-        <v>8051116.9476278042</v>
+        <v>8051116.947627997</v>
       </c>
       <c r="M59" s="7">
-        <v>7616820.3767920863</v>
+        <v>7616820.3767922688</v>
       </c>
       <c r="N59" s="7">
-        <v>7205950.8052990176</v>
+        <v>7205950.8052991899</v>
       </c>
       <c r="O59" s="7">
-        <v>6817244.5245792558</v>
+        <v>6817244.5245794188</v>
       </c>
       <c r="P59" s="7">
-        <v>6449505.9935365925</v>
+        <v>6449505.9935367461</v>
       </c>
       <c r="Q59" s="7">
-        <v>6101604.1614308441</v>
+        <v>6101604.1614309903</v>
       </c>
       <c r="R59" s="7">
-        <v>5772468.9891132778</v>
+        <v>5772468.9891134156</v>
       </c>
       <c r="S59" s="7">
-        <v>5461088.1579149337</v>
+        <v>5461088.1579150641</v>
       </c>
       <c r="T59" s="7">
-        <v>5166503.9560654238</v>
+        <v>5166503.9560655467</v>
       </c>
       <c r="U59" s="7">
-        <v>4887810.3330657603</v>
+        <v>4887810.3330658767</v>
       </c>
       <c r="V59" s="7">
-        <v>4624150.1129553942</v>
+        <v>4624150.1129555041</v>
       </c>
       <c r="W59" s="7">
-        <v>4374712.3579023099</v>
+        <v>4374712.3579024132</v>
       </c>
       <c r="X59" s="7">
-        <v>4138729.8740074006</v>
+        <v>4138729.8740074984</v>
       </c>
       <c r="Y59" s="7">
-        <v>3895260.8637902341</v>
+        <v>3895260.8637903598</v>
       </c>
       <c r="Z59" s="7">
-        <v>3685141.1441713162</v>
+        <v>3685141.1441713599</v>
       </c>
       <c r="AA59" s="8">
-        <v>3479546.1153387381</v>
+        <v>3479546.1153388587</v>
       </c>
       <c r="AB59" s="13">
         <f t="shared" si="0"/>
-        <v>198340062.83006662</v>
+        <v>198340062.83007136</v>
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.35">
@@ -5073,86 +5073,86 @@
         <v>13</v>
       </c>
       <c r="B60" s="6">
-        <v>1143.0110237631638</v>
+        <v>1143.0110237631811</v>
       </c>
       <c r="C60" s="7">
-        <v>1129.461877637516</v>
+        <v>1129.4618776375214</v>
       </c>
       <c r="D60" s="7">
-        <v>1120.245623083795</v>
+        <v>1120.2456230838011</v>
       </c>
       <c r="E60" s="7">
-        <v>973.64233599940439</v>
+        <v>973.6423359994626</v>
       </c>
       <c r="F60" s="7">
-        <v>815.41852060693759</v>
+        <v>815.41852060699728</v>
       </c>
       <c r="G60" s="7">
-        <v>642.61487861710532</v>
+        <v>642.61487861718263</v>
       </c>
       <c r="H60" s="7">
-        <v>595.01606521456324</v>
+        <v>595.01606521463088</v>
       </c>
       <c r="I60" s="7">
-        <v>537.99196538490833</v>
+        <v>537.9919653849721</v>
       </c>
       <c r="J60" s="7">
-        <v>488.96918648957967</v>
+        <v>488.96918648963981</v>
       </c>
       <c r="K60" s="7">
-        <v>426.97572359472923</v>
+        <v>426.97572359478653</v>
       </c>
       <c r="L60" s="7">
-        <v>392.63835467871553</v>
+        <v>392.63835467873298</v>
       </c>
       <c r="M60" s="7">
-        <v>344.50679858806615</v>
+        <v>344.50679858808076</v>
       </c>
       <c r="N60" s="7">
-        <v>302.72703766061431</v>
+        <v>302.72703766062602</v>
       </c>
       <c r="O60" s="7">
-        <v>266.94041760029523</v>
+        <v>266.94041760030007</v>
       </c>
       <c r="P60" s="7">
-        <v>236.8074865755631</v>
+        <v>236.80748657556995</v>
       </c>
       <c r="Q60" s="7">
-        <v>191.48202274852468</v>
+        <v>191.48202274852903</v>
       </c>
       <c r="R60" s="7">
-        <v>171.70979446719025</v>
+        <v>171.70979446719241</v>
       </c>
       <c r="S60" s="7">
-        <v>157.16414508817184</v>
+        <v>157.16414508817408</v>
       </c>
       <c r="T60" s="7">
-        <v>150.30403313900993</v>
+        <v>150.30403313900709</v>
       </c>
       <c r="U60" s="7">
-        <v>121.44847929844828</v>
+        <v>121.44847929844349</v>
       </c>
       <c r="V60" s="7">
-        <v>118.44625605412568</v>
+        <v>118.44625605412062</v>
       </c>
       <c r="W60" s="7">
-        <v>97.386657498214333</v>
+        <v>97.386657498207754</v>
       </c>
       <c r="X60" s="7">
-        <v>97.772843926952973</v>
+        <v>97.772843926947388</v>
       </c>
       <c r="Y60" s="7">
-        <v>76.892153504437573</v>
+        <v>76.892153504440003</v>
       </c>
       <c r="Z60" s="7">
-        <v>81.722504254116501</v>
+        <v>81.722504254098013</v>
       </c>
       <c r="AA60" s="8">
-        <v>69.096041433177916</v>
+        <v>69.096041433180247</v>
       </c>
       <c r="AB60" s="13">
         <f t="shared" si="0"/>
-        <v>10750.392226907325</v>
+        <v>10750.392226907827</v>
       </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.35">
@@ -5160,86 +5160,86 @@
         <v>14</v>
       </c>
       <c r="B61" s="9">
-        <v>163.18245218421177</v>
+        <v>163.18245218421549</v>
       </c>
       <c r="C61" s="10">
-        <v>161.56613470468946</v>
+        <v>161.56613470469017</v>
       </c>
       <c r="D61" s="10">
-        <v>161.01364910837947</v>
+        <v>161.01364910838009</v>
       </c>
       <c r="E61" s="10">
-        <v>139.11516895775793</v>
+        <v>139.11516895776663</v>
       </c>
       <c r="F61" s="10">
-        <v>115.37616262474303</v>
+        <v>115.37616262475198</v>
       </c>
       <c r="G61" s="10">
-        <v>89.137713296906171</v>
+        <v>89.137713296917866</v>
       </c>
       <c r="H61" s="10">
-        <v>82.409472665777457</v>
+        <v>82.409472665787661</v>
       </c>
       <c r="I61" s="10">
-        <v>74.190732041892176</v>
+        <v>74.190732041901782</v>
       </c>
       <c r="J61" s="10">
-        <v>67.177252576431087</v>
+        <v>67.177252576440154</v>
       </c>
       <c r="K61" s="10">
-        <v>58.12651224963053</v>
+        <v>58.126512249639156</v>
       </c>
       <c r="L61" s="10">
-        <v>53.324951211379776</v>
+        <v>53.324951211382263</v>
       </c>
       <c r="M61" s="10">
-        <v>46.361965442218199</v>
+        <v>46.36196544222026</v>
       </c>
       <c r="N61" s="10">
-        <v>40.355533278724131</v>
+        <v>40.355533278725751</v>
       </c>
       <c r="O61" s="10">
-        <v>35.251577202966622</v>
+        <v>35.251577202967248</v>
       </c>
       <c r="P61" s="10">
-        <v>30.998914459632303</v>
+        <v>30.998914459633188</v>
       </c>
       <c r="Q61" s="10">
-        <v>24.373984823504905</v>
+        <v>24.373984823505413</v>
       </c>
       <c r="R61" s="10">
-        <v>21.681166205599194</v>
+        <v>21.681166205599371</v>
       </c>
       <c r="S61" s="10">
-        <v>19.741154271884458</v>
+        <v>19.741154271884678</v>
       </c>
       <c r="T61" s="10">
-        <v>19.046411826166125</v>
+        <v>19.046411826165549</v>
       </c>
       <c r="U61" s="10">
-        <v>14.890935490292136</v>
+        <v>14.890935490291273</v>
       </c>
       <c r="V61" s="10">
-        <v>14.6971451831499</v>
+        <v>14.697145183149042</v>
       </c>
       <c r="W61" s="10">
-        <v>11.699693810643726</v>
+        <v>11.699693810642639</v>
       </c>
       <c r="X61" s="10">
-        <v>11.955175369863897</v>
+        <v>11.955175369862973</v>
       </c>
       <c r="Y61" s="10">
-        <v>8.9762281671597304</v>
+        <v>8.9762281671600022</v>
       </c>
       <c r="Z61" s="10">
-        <v>9.8666355084589021</v>
+        <v>9.8666355084560777</v>
       </c>
       <c r="AA61" s="11">
-        <v>8.0928215381501456</v>
+        <v>8.0928215381504121</v>
       </c>
       <c r="AB61" s="14">
         <f t="shared" si="0"/>
-        <v>1482.6095442002131</v>
+        <v>1482.609544200287</v>
       </c>
     </row>
   </sheetData>

--- a/717A11_output.xlsx
+++ b/717A11_output.xlsx
@@ -734,49 +734,49 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>495.91917837712617</v>
+        <v>495.91917837745905</v>
       </c>
       <c r="H3" s="4">
-        <v>396.80584595510163</v>
+        <v>396.80584595542996</v>
       </c>
       <c r="I3" s="4">
-        <v>421.67530116462831</v>
+        <v>421.67530116494368</v>
       </c>
       <c r="J3" s="4">
-        <v>407.00758733640032</v>
+        <v>407.00758733669591</v>
       </c>
       <c r="K3" s="4">
-        <v>514.22584895539239</v>
+        <v>514.22584895567445</v>
       </c>
       <c r="L3" s="4">
-        <v>427.1212098795404</v>
+        <v>427.12120987952449</v>
       </c>
       <c r="M3" s="4">
-        <v>466.05298510393641</v>
+        <v>466.05298510390321</v>
       </c>
       <c r="N3" s="4">
-        <v>473.76113038568474</v>
+        <v>473.76113038564222</v>
       </c>
       <c r="O3" s="4">
-        <v>452.05418306809133</v>
+        <v>452.05418306797833</v>
       </c>
       <c r="P3" s="4">
-        <v>402.64424198769484</v>
+        <v>402.64424198762526</v>
       </c>
       <c r="Q3" s="4">
-        <v>486.32270904106326</v>
+        <v>486.32270904100915</v>
       </c>
       <c r="R3" s="4">
-        <v>386.283102799684</v>
+        <v>386.28310279959442</v>
       </c>
       <c r="S3" s="4">
-        <v>419.45037015801773</v>
+        <v>419.45037015797897</v>
       </c>
       <c r="T3" s="4">
-        <v>129.03291882249778</v>
+        <v>129.03291882238841</v>
       </c>
       <c r="U3" s="4">
-        <v>117.86808104218653</v>
+        <v>117.86808104206888</v>
       </c>
       <c r="V3" s="4">
         <v>0</v>
@@ -805,10 +805,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="7">
-        <v>130.26735234507942</v>
+        <v>130.26735234474739</v>
       </c>
       <c r="D4" s="7">
-        <v>641.05189161989256</v>
+        <v>641.05189162049885</v>
       </c>
       <c r="E4" s="7">
         <v>665.6</v>
@@ -936,7 +936,7 @@
         <v>46.5</v>
       </c>
       <c r="S5" s="7">
-        <v>42.477210131942854</v>
+        <v>42.477210131936829</v>
       </c>
       <c r="T5" s="7">
         <v>46.5</v>
@@ -1051,7 +1051,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>192.67035526293165</v>
+        <v>192.67035526309442</v>
       </c>
       <c r="C7" s="7">
         <v>464</v>
@@ -1369,7 +1369,7 @@
         <v>88</v>
       </c>
       <c r="Y10" s="7">
-        <v>85.51375562134217</v>
+        <v>85.51375562129715</v>
       </c>
       <c r="Z10" s="7">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>154</v>
       </c>
       <c r="U13" s="7">
-        <v>153.99999999999915</v>
+        <v>153.99999999999935</v>
       </c>
       <c r="V13" s="7">
-        <v>90.066924690545818</v>
+        <v>90.066924690423036</v>
       </c>
       <c r="W13" s="7">
-        <v>44.932226381084035</v>
+        <v>44.932226380952073</v>
       </c>
       <c r="X13" s="7">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         <v>150</v>
       </c>
       <c r="D14" s="7">
-        <v>85.515108380104778</v>
+        <v>85.515108379499111</v>
       </c>
       <c r="E14" s="7">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>150</v>
       </c>
       <c r="Z14" s="7">
-        <v>132.96125884386629</v>
+        <v>132.96125884377807</v>
       </c>
       <c r="AA14" s="8">
         <v>0</v>
@@ -1724,10 +1724,10 @@
         <v>1848</v>
       </c>
       <c r="E15" s="7">
-        <v>1254.6797472639628</v>
+        <v>1254.6797472637363</v>
       </c>
       <c r="F15" s="7">
-        <v>607.83770948570236</v>
+        <v>607.83770948546908</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="7">
-        <v>1.2983036867808551E-10</v>
+        <v>0</v>
       </c>
       <c r="P15" s="7">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="7">
-        <v>604.9263557360332</v>
+        <v>604.92635573625989</v>
       </c>
       <c r="F16" s="7">
         <v>656.1</v>
@@ -1873,7 +1873,7 @@
         <v>656.1</v>
       </c>
       <c r="AA16" s="8">
-        <v>651.55241017346088</v>
+        <v>651.55241017337175</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.35">
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="7">
-        <v>24.084748441292959</v>
+        <v>24.084748441526244</v>
       </c>
       <c r="G17" s="7">
         <v>50.3</v>
@@ -1932,7 +1932,7 @@
         <v>50.3</v>
       </c>
       <c r="S17" s="7">
-        <v>28.36637043491919</v>
+        <v>28.366370434874398</v>
       </c>
       <c r="T17" s="7">
         <v>50.3</v>
@@ -2062,7 +2062,7 @@
         <v>257</v>
       </c>
       <c r="G19" s="7">
-        <v>152.50208167121127</v>
+        <v>152.5020816708784</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2101,25 +2101,25 @@
         <v>257</v>
       </c>
       <c r="T19" s="7">
-        <v>243.32627745890423</v>
+        <v>243.3262774589241</v>
       </c>
       <c r="U19" s="7">
-        <v>128.51664800574724</v>
+        <v>128.51664800577601</v>
       </c>
       <c r="V19" s="7">
-        <v>135.00956691881674</v>
+        <v>135.00956691885</v>
       </c>
       <c r="W19" s="7">
-        <v>55.508253652760686</v>
+        <v>55.50825365280312</v>
       </c>
       <c r="X19" s="7">
-        <v>79.064458690925079</v>
+        <v>79.06445869096126</v>
       </c>
       <c r="Y19" s="7">
         <v>0</v>
       </c>
       <c r="Z19" s="7">
-        <v>42.671387508837597</v>
+        <v>42.671387508933805</v>
       </c>
       <c r="AA19" s="8">
         <v>0</v>
@@ -2148,34 +2148,34 @@
         <v>2269.6</v>
       </c>
       <c r="H20" s="7">
-        <v>2237.1019054336703</v>
+        <v>2237.1019054333419</v>
       </c>
       <c r="I20" s="7">
-        <v>1978.7119199866411</v>
+        <v>1978.7119199863257</v>
       </c>
       <c r="J20" s="7">
-        <v>1760.4574188052297</v>
+        <v>1760.4574188049342</v>
       </c>
       <c r="K20" s="7">
-        <v>1470.9206422415118</v>
+        <v>1470.9206422412299</v>
       </c>
       <c r="L20" s="7">
-        <v>1326.3158997382245</v>
+        <v>1326.3158997381511</v>
       </c>
       <c r="M20" s="7">
-        <v>1106.2893585003872</v>
+        <v>1106.2893585003299</v>
       </c>
       <c r="N20" s="7">
-        <v>918.10659431107456</v>
+        <v>918.10659431102772</v>
       </c>
       <c r="O20" s="7">
-        <v>759.96465115080866</v>
+        <v>759.96465115096203</v>
       </c>
       <c r="P20" s="7">
-        <v>630.15706173930619</v>
+        <v>630.15706173928584</v>
       </c>
       <c r="Q20" s="7">
-        <v>417.8981064194777</v>
+        <v>417.89810641941591</v>
       </c>
       <c r="R20" s="7">
         <v>340</v>
@@ -2187,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="7">
-        <v>0</v>
+        <v>-6.8212102632969618E-13</v>
       </c>
       <c r="V20" s="7">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6">
-        <v>15.82964473706852</v>
+        <v>15.829644736905736</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="7">
-        <v>0</v>
+        <v>2.6275825063407099E-11</v>
       </c>
       <c r="R21" s="7">
         <v>0</v>
@@ -2362,13 +2362,13 @@
         <v>398.3</v>
       </c>
       <c r="X22" s="7">
-        <v>397.51828566322365</v>
+        <v>397.51828566309803</v>
       </c>
       <c r="Y22" s="7">
-        <v>355.79563343199152</v>
+        <v>355.79563343194741</v>
       </c>
       <c r="Z22" s="7">
-        <v>243.09392720210826</v>
+        <v>243.0939272020116</v>
       </c>
       <c r="AA22" s="8">
         <v>301.38810254334294</v>
@@ -2394,31 +2394,31 @@
         <v>28.100000000000009</v>
       </c>
       <c r="G23" s="7">
+        <v>28.1</v>
+      </c>
+      <c r="H23" s="7">
         <v>28.099999999999994</v>
       </c>
-      <c r="H23" s="7">
+      <c r="I23" s="7">
+        <v>28.099999999999994</v>
+      </c>
+      <c r="J23" s="7">
+        <v>28.099999999999994</v>
+      </c>
+      <c r="K23" s="7">
         <v>28.1</v>
       </c>
-      <c r="I23" s="7">
+      <c r="L23" s="7">
         <v>28.100000000000009</v>
-      </c>
-      <c r="J23" s="7">
-        <v>28.100000000000009</v>
-      </c>
-      <c r="K23" s="7">
-        <v>28.100000000000009</v>
-      </c>
-      <c r="L23" s="7">
-        <v>28.099999999999994</v>
       </c>
       <c r="M23" s="7">
         <v>28.100000000000009</v>
       </c>
       <c r="N23" s="7">
+        <v>28.100000000000009</v>
+      </c>
+      <c r="O23" s="7">
         <v>28.099999999999994</v>
-      </c>
-      <c r="O23" s="7">
-        <v>28.100000000000009</v>
       </c>
       <c r="P23" s="7">
         <v>28.099999999999994</v>
@@ -2445,13 +2445,13 @@
         <v>28.1</v>
       </c>
       <c r="X23" s="7">
+        <v>28.1</v>
+      </c>
+      <c r="Y23" s="7">
         <v>28.099999999999994</v>
       </c>
-      <c r="Y23" s="7">
-        <v>28.1</v>
-      </c>
       <c r="Z23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.099999999999994</v>
       </c>
       <c r="AA23" s="8">
         <v>28.1</v>
@@ -2631,13 +2631,13 @@
         <v>0</v>
       </c>
       <c r="C26" s="7">
-        <v>30.6</v>
+        <v>30.599999999999998</v>
       </c>
       <c r="D26" s="7">
         <v>30.6</v>
       </c>
       <c r="E26" s="7">
-        <v>30.599999999999998</v>
+        <v>30.6</v>
       </c>
       <c r="F26" s="7">
         <v>30.6</v>
@@ -2646,19 +2646,19 @@
         <v>30.599999999999998</v>
       </c>
       <c r="H26" s="7">
-        <v>30.6</v>
+        <v>30.599999999999998</v>
       </c>
       <c r="I26" s="7">
         <v>30.6</v>
       </c>
       <c r="J26" s="7">
+        <v>30.6</v>
+      </c>
+      <c r="K26" s="7">
         <v>30.599999999999998</v>
       </c>
-      <c r="K26" s="7">
+      <c r="L26" s="7">
         <v>30.6</v>
-      </c>
-      <c r="L26" s="7">
-        <v>30.599999999999998</v>
       </c>
       <c r="M26" s="7">
         <v>30.6</v>
@@ -2691,7 +2691,7 @@
         <v>30.6</v>
       </c>
       <c r="W26" s="7">
-        <v>30.599999999999998</v>
+        <v>30.6</v>
       </c>
       <c r="X26" s="7">
         <v>30.6</v>
@@ -2703,7 +2703,7 @@
         <v>30.599999999999998</v>
       </c>
       <c r="AA26" s="8">
-        <v>30.6</v>
+        <v>30.599999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.35">
@@ -2732,7 +2732,7 @@
         <v>10</v>
       </c>
       <c r="I27" s="7">
-        <v>10</v>
+        <v>9.9999999999999858</v>
       </c>
       <c r="J27" s="7">
         <v>10</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="W27" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="X27" s="7">
         <v>10</v>
@@ -2786,7 +2786,7 @@
         <v>10</v>
       </c>
       <c r="AA27" s="8">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.35">
@@ -2851,7 +2851,7 @@
         <v>10</v>
       </c>
       <c r="U28" s="7">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
       <c r="V28" s="7">
         <v>10</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>0.83264765525105133</v>
       </c>
       <c r="D29" s="7">
         <v>10</v>
@@ -2969,28 +2969,28 @@
         <v>52.2</v>
       </c>
       <c r="E30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.2</v>
       </c>
       <c r="F30" s="7">
         <v>52.2</v>
       </c>
       <c r="G30" s="7">
-        <v>52.199999999999989</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="H30" s="7">
-        <v>52.20000000000001</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="I30" s="7">
         <v>52.2</v>
       </c>
       <c r="J30" s="7">
+        <v>52.200000000000017</v>
+      </c>
+      <c r="K30" s="7">
+        <v>52.200000000000017</v>
+      </c>
+      <c r="L30" s="7">
         <v>52.2</v>
-      </c>
-      <c r="K30" s="7">
-        <v>52.2</v>
-      </c>
-      <c r="L30" s="7">
-        <v>52.200000000000017</v>
       </c>
       <c r="M30" s="7">
         <v>52.2</v>
@@ -3017,16 +3017,16 @@
         <v>52.2</v>
       </c>
       <c r="U30" s="7">
+        <v>52.20000000000001</v>
+      </c>
+      <c r="V30" s="7">
+        <v>52.2</v>
+      </c>
+      <c r="W30" s="7">
         <v>52.200000000000017</v>
       </c>
-      <c r="V30" s="7">
-        <v>52.20000000000001</v>
-      </c>
-      <c r="W30" s="7">
-        <v>52.20000000000001</v>
-      </c>
       <c r="X30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="Y30" s="7">
         <v>52.2</v>
@@ -3046,19 +3046,19 @@
         <v>0</v>
       </c>
       <c r="C31" s="7">
-        <v>0.83264765491848891</v>
+        <v>10</v>
       </c>
       <c r="D31" s="7">
         <v>10</v>
       </c>
       <c r="E31" s="7">
-        <v>10</v>
+        <v>9.9999999999999858</v>
       </c>
       <c r="F31" s="7">
         <v>10</v>
       </c>
       <c r="G31" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="H31" s="7">
         <v>10</v>
@@ -3070,7 +3070,7 @@
         <v>10</v>
       </c>
       <c r="K31" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="L31" s="7">
         <v>10</v>
@@ -3103,16 +3103,16 @@
         <v>10</v>
       </c>
       <c r="V31" s="7">
-        <v>10</v>
+        <v>10.000000000000014</v>
       </c>
       <c r="W31" s="7">
         <v>10</v>
       </c>
       <c r="X31" s="7">
+        <v>10</v>
+      </c>
+      <c r="Y31" s="7">
         <v>9.9999999999999858</v>
-      </c>
-      <c r="Y31" s="7">
-        <v>10</v>
       </c>
       <c r="Z31" s="7">
         <v>10</v>
@@ -3135,22 +3135,22 @@
         <v>20.199999999999996</v>
       </c>
       <c r="E32" s="7">
-        <v>20.2</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="F32" s="7">
-        <v>20.199999999999996</v>
+        <v>20.200000000000003</v>
       </c>
       <c r="G32" s="7">
         <v>20.2</v>
       </c>
       <c r="H32" s="7">
+        <v>20.2</v>
+      </c>
+      <c r="I32" s="7">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="J32" s="7">
         <v>20.200000000000003</v>
-      </c>
-      <c r="I32" s="7">
-        <v>20.200000000000003</v>
-      </c>
-      <c r="J32" s="7">
-        <v>20.2</v>
       </c>
       <c r="K32" s="7">
         <v>20.2</v>
@@ -3162,25 +3162,25 @@
         <v>20.199999999999996</v>
       </c>
       <c r="N32" s="7">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="O32" s="7">
+        <v>20.2</v>
+      </c>
+      <c r="P32" s="7">
         <v>20.200000000000003</v>
-      </c>
-      <c r="O32" s="7">
-        <v>20.199999999999996</v>
-      </c>
-      <c r="P32" s="7">
-        <v>20.2</v>
       </c>
       <c r="Q32" s="7">
         <v>20.200000000000003</v>
       </c>
       <c r="R32" s="7">
-        <v>20.200000000000003</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="S32" s="7">
-        <v>20.200000000000003</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="T32" s="7">
-        <v>20.200000000000003</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="U32" s="7">
         <v>20.2</v>
@@ -3189,19 +3189,19 @@
         <v>20.199999999999996</v>
       </c>
       <c r="W32" s="7">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="X32" s="7">
         <v>20.2</v>
       </c>
-      <c r="X32" s="7">
-        <v>20.200000000000003</v>
-      </c>
       <c r="Y32" s="7">
-        <v>20.2</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="Z32" s="7">
         <v>20.2</v>
       </c>
       <c r="AA32" s="8">
-        <v>20.199999999999996</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.35">
@@ -3328,10 +3328,10 @@
         <v>10.5</v>
       </c>
       <c r="N34" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="O34" s="7">
         <v>10.499999999999986</v>
-      </c>
-      <c r="O34" s="7">
-        <v>10.5</v>
       </c>
       <c r="P34" s="7">
         <v>10.499999999999986</v>
@@ -3358,7 +3358,7 @@
         <v>10.5</v>
       </c>
       <c r="X34" s="7">
-        <v>10.5</v>
+        <v>10.499999999999993</v>
       </c>
       <c r="Y34" s="7">
         <v>10.5</v>
@@ -3367,7 +3367,7 @@
         <v>10.5</v>
       </c>
       <c r="AA34" s="8">
-        <v>10.499999999999993</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.35">
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D35" s="7">
         <v>10</v>
@@ -3435,7 +3435,7 @@
         <v>10</v>
       </c>
       <c r="V35" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="W35" s="7">
         <v>10</v>
@@ -3464,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="7">
-        <v>10.000000000000002</v>
+        <v>10</v>
       </c>
       <c r="E36" s="7">
         <v>10</v>
@@ -3642,7 +3642,7 @@
         <v>10</v>
       </c>
       <c r="H38" s="7">
-        <v>10.000000000000002</v>
+        <v>10</v>
       </c>
       <c r="I38" s="7">
         <v>10</v>
@@ -3722,16 +3722,16 @@
         <v>10.1</v>
       </c>
       <c r="G39" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="H39" s="7">
         <v>10.099999999999994</v>
       </c>
-      <c r="H39" s="7">
+      <c r="I39" s="7">
         <v>10.1</v>
       </c>
-      <c r="I39" s="7">
+      <c r="J39" s="7">
         <v>10.099999999999994</v>
-      </c>
-      <c r="J39" s="7">
-        <v>10.1</v>
       </c>
       <c r="K39" s="7">
         <v>10.099999999999994</v>
@@ -3740,16 +3740,16 @@
         <v>10.099999999999994</v>
       </c>
       <c r="M39" s="7">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="N39" s="7">
         <v>10.1</v>
       </c>
-      <c r="N39" s="7">
+      <c r="O39" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="P39" s="7">
         <v>10.099999999999994</v>
-      </c>
-      <c r="O39" s="7">
-        <v>10.099999999999994</v>
-      </c>
-      <c r="P39" s="7">
-        <v>10.100000000000001</v>
       </c>
       <c r="Q39" s="7">
         <v>10.099999999999994</v>
@@ -3758,19 +3758,19 @@
         <v>10.099999999999994</v>
       </c>
       <c r="S39" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="T39" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="U39" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="V39" s="7">
         <v>10.099999999999994</v>
       </c>
-      <c r="T39" s="7">
+      <c r="W39" s="7">
         <v>10.099999999999994</v>
-      </c>
-      <c r="U39" s="7">
-        <v>10.099999999999994</v>
-      </c>
-      <c r="V39" s="7">
-        <v>10.100000000000001</v>
-      </c>
-      <c r="W39" s="7">
-        <v>10.100000000000001</v>
       </c>
       <c r="X39" s="7">
         <v>10.099999999999994</v>
@@ -3782,7 +3782,7 @@
         <v>10.099999999999994</v>
       </c>
       <c r="AA39" s="8">
-        <v>10.100000000000001</v>
+        <v>10.099999999999994</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.35">
@@ -3793,52 +3793,52 @@
         <v>0</v>
       </c>
       <c r="C40" s="7">
-        <v>10.099999999999998</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="D40" s="7">
-        <v>10.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="E40" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="F40" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="G40" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="H40" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="I40" s="7">
         <v>10.1</v>
-      </c>
-      <c r="I40" s="7">
-        <v>10.100000000000001</v>
       </c>
       <c r="J40" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="K40" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="L40" s="7">
         <v>10.099999999999998</v>
       </c>
-      <c r="L40" s="7">
+      <c r="M40" s="7">
         <v>10.100000000000001</v>
-      </c>
-      <c r="M40" s="7">
-        <v>10.1</v>
       </c>
       <c r="N40" s="7">
         <v>10.1</v>
       </c>
       <c r="O40" s="7">
-        <v>10.100000000000001</v>
+        <v>10.099999999999998</v>
       </c>
       <c r="P40" s="7">
-        <v>10.099999999999998</v>
+        <v>10.1</v>
       </c>
       <c r="Q40" s="7">
         <v>10.1</v>
       </c>
       <c r="R40" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="S40" s="7">
         <v>10.1</v>
@@ -3850,16 +3850,16 @@
         <v>10.100000000000001</v>
       </c>
       <c r="V40" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="W40" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="X40" s="7">
-        <v>10.100000000000001</v>
+        <v>10.099999999999998</v>
       </c>
       <c r="Y40" s="7">
-        <v>10.099999999999998</v>
+        <v>10.1</v>
       </c>
       <c r="Z40" s="7">
         <v>10.100000000000001</v>
@@ -3942,10 +3942,10 @@
         <v>10</v>
       </c>
       <c r="Y41" s="7">
-        <v>10.000000000000014</v>
+        <v>10</v>
       </c>
       <c r="Z41" s="7">
-        <v>10</v>
+        <v>9.9999999999999858</v>
       </c>
       <c r="AA41" s="8">
         <v>10</v>
@@ -4025,7 +4025,7 @@
         <v>12</v>
       </c>
       <c r="Y42" s="7">
-        <v>11.999999999999993</v>
+        <v>12</v>
       </c>
       <c r="Z42" s="7">
         <v>12</v>
@@ -4069,52 +4069,52 @@
         <v>1200</v>
       </c>
       <c r="L43" s="7">
-        <v>1499.9999999999104</v>
+        <v>1500</v>
       </c>
       <c r="M43" s="7">
-        <v>1749.9999999999104</v>
+        <v>1750</v>
       </c>
       <c r="N43" s="7">
-        <v>1999.9999999999104</v>
+        <v>2000</v>
       </c>
       <c r="O43" s="7">
-        <v>2249.9999999999113</v>
+        <v>2250</v>
       </c>
       <c r="P43" s="7">
-        <v>2499.9999999999104</v>
+        <v>2500</v>
       </c>
       <c r="Q43" s="7">
-        <v>2699.9999999999104</v>
+        <v>2700</v>
       </c>
       <c r="R43" s="7">
-        <v>2949.9999999999104</v>
+        <v>2950</v>
       </c>
       <c r="S43" s="7">
-        <v>3199.9999999999104</v>
+        <v>3200</v>
       </c>
       <c r="T43" s="7">
-        <v>3449.9999999999104</v>
+        <v>3450</v>
       </c>
       <c r="U43" s="7">
-        <v>3649.9999999999104</v>
+        <v>3650</v>
       </c>
       <c r="V43" s="7">
-        <v>3899.9999999999104</v>
+        <v>3900</v>
       </c>
       <c r="W43" s="7">
-        <v>4099.9999999999109</v>
+        <v>4100</v>
       </c>
       <c r="X43" s="7">
-        <v>4349.9999999999109</v>
+        <v>4350</v>
       </c>
       <c r="Y43" s="7">
-        <v>4549.9999999999109</v>
+        <v>4550</v>
       </c>
       <c r="Z43" s="7">
-        <v>4799.9999999999109</v>
+        <v>4800</v>
       </c>
       <c r="AA43" s="8">
-        <v>4999.9999999999109</v>
+        <v>5000</v>
       </c>
       <c r="AB43" t="s">
         <v>17</v>
@@ -4307,79 +4307,79 @@
         <v>1</v>
       </c>
       <c r="B49" s="3">
-        <v>134.59011842097732</v>
+        <v>134.59011842103158</v>
       </c>
       <c r="C49" s="4">
-        <v>238.16156823005394</v>
+        <v>238.16156822983203</v>
       </c>
       <c r="D49" s="4">
-        <v>389.57841107992863</v>
+        <v>389.57841108033307</v>
       </c>
       <c r="E49" s="4">
-        <v>445.3803443500006</v>
+        <v>445.38034435000094</v>
       </c>
       <c r="F49" s="4">
-        <v>630.82005026291517</v>
+        <v>630.82005026299339</v>
       </c>
       <c r="G49" s="4">
-        <v>988.85720646468121</v>
+        <v>988.85720646479319</v>
       </c>
       <c r="H49" s="4">
-        <v>846.83951964705727</v>
+        <v>846.83951964716664</v>
       </c>
       <c r="I49" s="4">
-        <v>762.88527618919079</v>
+        <v>762.88527618929629</v>
       </c>
       <c r="J49" s="4">
-        <v>665.82177982865755</v>
+        <v>665.82177982875533</v>
       </c>
       <c r="K49" s="4">
-        <v>626.12404029143613</v>
+        <v>626.12404029153095</v>
       </c>
       <c r="L49" s="4">
-        <v>505.05639941527193</v>
+        <v>505.05639941523725</v>
       </c>
       <c r="M49" s="4">
-        <v>442.73926845516922</v>
+        <v>442.73926845512926</v>
       </c>
       <c r="N49" s="4">
-        <v>370.08661134320266</v>
+        <v>370.0866113431598</v>
       </c>
       <c r="O49" s="4">
-        <v>287.70192501489339</v>
+        <v>287.7019250148694</v>
       </c>
       <c r="P49" s="4">
-        <v>196.15656609740131</v>
+        <v>196.1565660973481</v>
       </c>
       <c r="Q49" s="4">
-        <v>165.71499815077061</v>
+        <v>165.71499815072264</v>
       </c>
       <c r="R49" s="4">
-        <v>57.442396259877796</v>
+        <v>57.442396259817713</v>
       </c>
       <c r="S49" s="4">
-        <v>-41.526512318757341</v>
+        <v>-41.526512318802133</v>
       </c>
       <c r="T49" s="4">
-        <v>-177.9321208263168</v>
+        <v>-177.93212082638382</v>
       </c>
       <c r="U49" s="4">
-        <v>-239.6840879303258</v>
+        <v>-239.68408793039487</v>
       </c>
       <c r="V49" s="4">
-        <v>-332.28171754240321</v>
+        <v>-332.28171754239202</v>
       </c>
       <c r="W49" s="4">
-        <v>-375.11101945639325</v>
+        <v>-375.11101945637904</v>
       </c>
       <c r="X49" s="4">
-        <v>-468.42867982533005</v>
+        <v>-468.42867982535927</v>
       </c>
       <c r="Y49" s="4">
-        <v>-526.97265273664402</v>
+        <v>-526.97265273668881</v>
       </c>
       <c r="Z49" s="4">
-        <v>-624.09898603320744</v>
+        <v>-624.09898603320789</v>
       </c>
       <c r="AA49" s="5">
         <v>-635.81607690750707</v>
@@ -4390,79 +4390,79 @@
         <v>2</v>
       </c>
       <c r="B50" s="6">
-        <v>-371.30988157902294</v>
+        <v>-371.30988157896866</v>
       </c>
       <c r="C50" s="7">
-        <v>-210.30578411502711</v>
+        <v>-210.30578411491643</v>
       </c>
       <c r="D50" s="7">
-        <v>-241.38998053996465</v>
+        <v>-241.38998054016702</v>
       </c>
       <c r="E50" s="7">
-        <v>-291.56660415000079</v>
+        <v>-291.56660415000147</v>
       </c>
       <c r="F50" s="7">
-        <v>-584.15346921487969</v>
+        <v>-584.15346921503601</v>
       </c>
       <c r="G50" s="7">
-        <v>-712.60342355948706</v>
+        <v>-712.60342355937644</v>
       </c>
       <c r="H50" s="7">
-        <v>-537.56435604732883</v>
+        <v>-537.56435604721923</v>
       </c>
       <c r="I50" s="7">
-        <v>-354.75833438644372</v>
+        <v>-354.75833438633958</v>
       </c>
       <c r="J50" s="7">
-        <v>-185.36072324215866</v>
+        <v>-185.36072324205941</v>
       </c>
       <c r="K50" s="7">
-        <v>-8.8992053070156771</v>
+        <v>-8.8992053069221129</v>
       </c>
       <c r="L50" s="7">
-        <v>135.88784460634497</v>
+        <v>135.88784460639855</v>
       </c>
       <c r="M50" s="7">
-        <v>289.11809665296278</v>
+        <v>289.11809665301132</v>
       </c>
       <c r="N50" s="7">
-        <v>431.70274899477863</v>
+        <v>431.70274899482342</v>
       </c>
       <c r="O50" s="7">
-        <v>564.24250790546353</v>
+        <v>564.24250790539827</v>
       </c>
       <c r="P50" s="7">
-        <v>687.30591423385556</v>
+        <v>687.30591423389239</v>
       </c>
       <c r="Q50" s="7">
-        <v>821.15459042045427</v>
+        <v>821.15459042049599</v>
       </c>
       <c r="R50" s="7">
-        <v>926.85084485999027</v>
+        <v>926.85084486001972</v>
       </c>
       <c r="S50" s="7">
-        <v>1041.5265123187573</v>
+        <v>1041.5265123188021</v>
       </c>
       <c r="T50" s="7">
-        <v>1118.4382810329359</v>
+        <v>1118.4382810329591</v>
       </c>
       <c r="U50" s="7">
-        <v>1219.6735475456614</v>
+        <v>1219.6735475456819</v>
       </c>
       <c r="V50" s="7">
-        <v>1275.7969613434154</v>
+        <v>1275.7969613433938</v>
       </c>
       <c r="W50" s="7">
-        <v>1350.1509669077232</v>
+        <v>1350.1509669076947</v>
       </c>
       <c r="X50" s="7">
-        <v>1423.879947997551</v>
+        <v>1423.8799479976105</v>
       </c>
       <c r="Y50" s="7">
-        <v>1526.972652736644</v>
+        <v>1526.9726527366884</v>
       </c>
       <c r="Z50" s="7">
-        <v>1624.0989860332074</v>
+        <v>1624.0989860332079</v>
       </c>
       <c r="AA50" s="8">
         <v>1635.8160769075071</v>
@@ -4473,73 +4473,73 @@
         <v>3</v>
       </c>
       <c r="B51" s="9">
-        <v>236.71976315804562</v>
+        <v>236.71976315793711</v>
       </c>
       <c r="C51" s="10">
-        <v>-27.855784115026836</v>
+        <v>-27.855784114915593</v>
       </c>
       <c r="D51" s="10">
-        <v>-148.18843053996397</v>
+        <v>-148.18843054016605</v>
       </c>
       <c r="E51" s="10">
-        <v>-153.81374019999981</v>
+        <v>-153.81374019999947</v>
       </c>
       <c r="F51" s="10">
-        <v>-46.666581048035482</v>
+        <v>-46.666581047957266</v>
       </c>
       <c r="G51" s="10">
-        <v>-276.25378290519416</v>
+        <v>-276.25378290541647</v>
       </c>
       <c r="H51" s="10">
-        <v>-309.2751635997285</v>
+        <v>-309.27516359994735</v>
       </c>
       <c r="I51" s="10">
-        <v>-408.12694180274707</v>
+        <v>-408.12694180295694</v>
       </c>
       <c r="J51" s="10">
-        <v>-480.46105658649958</v>
+        <v>-480.46105658669592</v>
       </c>
       <c r="K51" s="10">
-        <v>-617.22483498442045</v>
+        <v>-617.22483498460883</v>
       </c>
       <c r="L51" s="10">
-        <v>-640.9442440216169</v>
+        <v>-640.94424402163565</v>
       </c>
       <c r="M51" s="10">
-        <v>-731.85736510813194</v>
+        <v>-731.85736510814058</v>
       </c>
       <c r="N51" s="10">
-        <v>-801.78936033798141</v>
+        <v>-801.78936033798323</v>
       </c>
       <c r="O51" s="10">
-        <v>-851.9444329203568</v>
+        <v>-851.94443292026767</v>
       </c>
       <c r="P51" s="10">
-        <v>-883.46248033125687</v>
+        <v>-883.4624803312405</v>
       </c>
       <c r="Q51" s="10">
-        <v>-986.86958857122488</v>
+        <v>-986.86958857121863</v>
       </c>
       <c r="R51" s="10">
-        <v>-984.29324111986784</v>
+        <v>-984.29324111983738</v>
       </c>
       <c r="S51" s="10">
         <v>-1000</v>
       </c>
       <c r="T51" s="10">
-        <v>-940.50616020661914</v>
+        <v>-940.50616020657537</v>
       </c>
       <c r="U51" s="10">
-        <v>-979.98945961533559</v>
+        <v>-979.98945961528705</v>
       </c>
       <c r="V51" s="10">
-        <v>-943.51524380101228</v>
+        <v>-943.51524380100182</v>
       </c>
       <c r="W51" s="10">
-        <v>-975.03994745132979</v>
+        <v>-975.03994745131558</v>
       </c>
       <c r="X51" s="10">
-        <v>-955.45126817222103</v>
+        <v>-955.45126817225139</v>
       </c>
       <c r="Y51" s="10">
         <v>-1000</v>
@@ -4639,86 +4639,86 @@
         <v>8</v>
       </c>
       <c r="B54" s="15">
-        <v>185343.29577306513</v>
+        <v>185343.2957730355</v>
       </c>
       <c r="C54" s="16">
-        <v>150354.42590555531</v>
+        <v>150354.42590554882</v>
       </c>
       <c r="D54" s="16">
-        <v>122850.98857877156</v>
+        <v>122850.98857876594</v>
       </c>
       <c r="E54" s="16">
-        <v>115767.04458876268</v>
+        <v>115767.04458876402</v>
       </c>
       <c r="F54" s="16">
-        <v>110839.76863109763</v>
+        <v>110839.76863109929</v>
       </c>
       <c r="G54" s="16">
-        <v>107601.08884451845</v>
+        <v>107601.0888445215</v>
       </c>
       <c r="H54" s="16">
-        <v>4801787.6002829224</v>
+        <v>11641550.231811121</v>
       </c>
       <c r="I54" s="16">
-        <v>7143329.7763654348</v>
+        <v>12324968.133583765</v>
       </c>
       <c r="J54" s="16">
-        <v>9019190.2145876382</v>
+        <v>13729770.539331574</v>
       </c>
       <c r="K54" s="16">
-        <v>10113180.192269593</v>
+        <v>13539056.792083366</v>
       </c>
       <c r="L54" s="16">
-        <v>11280390.344767375</v>
+        <v>15173431.935465464</v>
       </c>
       <c r="M54" s="16">
-        <v>11836310.046314687</v>
+        <v>14667613.021367956</v>
       </c>
       <c r="N54" s="16">
-        <v>12197786.437221948</v>
+        <v>14771698.232724916</v>
       </c>
       <c r="O54" s="16">
-        <v>12395598.917740546</v>
+        <v>14735518.731834156</v>
       </c>
       <c r="P54" s="16">
-        <v>12456534.677815432</v>
+        <v>14583734.508809622</v>
       </c>
       <c r="Q54" s="16">
-        <v>12188488.739747291</v>
+        <v>13638852.260879792</v>
       </c>
       <c r="R54" s="16">
-        <v>12061949.661891779</v>
+        <v>13819966.051143175</v>
       </c>
       <c r="S54" s="16">
-        <v>11857739.354169697</v>
+        <v>13455936.071670964</v>
       </c>
       <c r="T54" s="16">
-        <v>11590726.403390139</v>
+        <v>13043632.510209475</v>
       </c>
       <c r="U54" s="16">
-        <v>11127184.463038208</v>
+        <v>12117802.26314237</v>
       </c>
       <c r="V54" s="16">
-        <v>10785840.636509897</v>
+        <v>11986589.48512092</v>
       </c>
       <c r="W54" s="16">
-        <v>10292985.498904256</v>
+        <v>11111677.895684551</v>
       </c>
       <c r="X54" s="16">
-        <v>9911160.6315323785</v>
+        <v>10903515.051872116</v>
       </c>
       <c r="Y54" s="16">
-        <v>9413197.9445182905</v>
+        <v>10089803.231113574</v>
       </c>
       <c r="Z54" s="16">
-        <v>9015230.6338729039</v>
+        <v>9835358.2539883424</v>
       </c>
       <c r="AA54" s="17">
-        <v>8528739.7553198207</v>
+        <v>9087917.6781258415</v>
       </c>
       <c r="AB54" s="18">
         <f>SUM(TotalCost)</f>
-        <v>208810108.54258201</v>
+        <v>255051149.4922848</v>
       </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.35">
@@ -4812,86 +4812,86 @@
         <v>10</v>
       </c>
       <c r="B57" s="3">
-        <v>13395.809006240432</v>
+        <v>13395.809006237852</v>
       </c>
       <c r="C57" s="4">
-        <v>10788.134900264909</v>
+        <v>10788.134900264893</v>
       </c>
       <c r="D57" s="4">
-        <v>9558.8049673419791</v>
+        <v>9558.804967341759</v>
       </c>
       <c r="E57" s="4">
-        <v>9312.0249598845749</v>
+        <v>9312.0249598840437</v>
       </c>
       <c r="F57" s="4">
-        <v>8666.7645106790133</v>
+        <v>8666.7645106792806</v>
       </c>
       <c r="G57" s="4">
-        <v>7992.7910405351358</v>
+        <v>7992.7910405343537</v>
       </c>
       <c r="H57" s="4">
-        <v>7231.7522186328079</v>
+        <v>7231.7522186328642</v>
       </c>
       <c r="I57" s="4">
-        <v>6939.5927342366176</v>
+        <v>6939.5927342366704</v>
       </c>
       <c r="J57" s="4">
-        <v>6641.5502674662439</v>
+        <v>6641.5502674662939</v>
       </c>
       <c r="K57" s="4">
-        <v>6428.2007399533768</v>
+        <v>6428.200739953425</v>
       </c>
       <c r="L57" s="4">
-        <v>6119.527955364706</v>
+        <v>6119.5279553645905</v>
       </c>
       <c r="M57" s="4">
-        <v>5896.2592355313482</v>
+        <v>5896.2592355312281</v>
       </c>
       <c r="N57" s="4">
-        <v>5668.5319125449823</v>
+        <v>5668.5319125448623</v>
       </c>
       <c r="O57" s="4">
-        <v>5436.6569033795795</v>
+        <v>5436.6569033792557</v>
       </c>
       <c r="P57" s="4">
-        <v>5200.9289870834973</v>
+        <v>5200.9289870833718</v>
       </c>
       <c r="Q57" s="4">
-        <v>5051.8183299383254</v>
+        <v>5051.8183299385892</v>
       </c>
       <c r="R57" s="4">
-        <v>4809.2087187231464</v>
+        <v>4809.2087187230172</v>
       </c>
       <c r="S57" s="4">
-        <v>5099.2167571221062</v>
+        <v>5099.2167571217269</v>
       </c>
       <c r="T57" s="4">
-        <v>4929.3134908073407</v>
+        <v>4929.3134908072589</v>
       </c>
       <c r="U57" s="4">
-        <v>4478.6003618073782</v>
+        <v>4478.6003618073182</v>
       </c>
       <c r="V57" s="4">
-        <v>4143.4773551583949</v>
+        <v>4143.4773551581557</v>
       </c>
       <c r="W57" s="4">
-        <v>3708.1193862658388</v>
+        <v>3708.1193862656064</v>
       </c>
       <c r="X57" s="4">
-        <v>3352.194077067938</v>
+        <v>3352.1940770678111</v>
       </c>
       <c r="Y57" s="4">
-        <v>2961.920417537412</v>
+        <v>2961.9204175372606</v>
       </c>
       <c r="Z57" s="4">
-        <v>2768.3019467309637</v>
+        <v>2768.3019467310883</v>
       </c>
       <c r="AA57" s="5">
-        <v>2672.7333791035826</v>
+        <v>2672.733379103548</v>
       </c>
       <c r="AB57" s="12">
         <f>SUM(B57:AA57)</f>
-        <v>159252.2345594017</v>
+        <v>159252.23455939617</v>
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.35">
@@ -4899,86 +4899,86 @@
         <v>11</v>
       </c>
       <c r="B58" s="6">
-        <v>2413.9885322783543</v>
+        <v>2413.9885322768887</v>
       </c>
       <c r="C58" s="7">
-        <v>2265.7469347046904</v>
+        <v>2265.7469347046895</v>
       </c>
       <c r="D58" s="7">
-        <v>2260.5965095419006</v>
+        <v>2260.5965095418974</v>
       </c>
       <c r="E58" s="7">
-        <v>1949.7252897818444</v>
+        <v>1949.7252897817255</v>
       </c>
       <c r="F58" s="7">
-        <v>1610.7981043450898</v>
+        <v>1610.7981043449747</v>
       </c>
       <c r="G58" s="7">
-        <v>1150.4026949082204</v>
+        <v>1150.4026949077688</v>
       </c>
       <c r="H58" s="7">
-        <v>928.34771465741005</v>
+        <v>928.34771465728033</v>
       </c>
       <c r="I58" s="7">
-        <v>824.4155061639334</v>
+        <v>824.41550616380891</v>
       </c>
       <c r="J58" s="7">
-        <v>736.34160047719888</v>
+        <v>736.34160047708212</v>
       </c>
       <c r="K58" s="7">
-        <v>620.51602561497248</v>
+        <v>620.51602561486106</v>
       </c>
       <c r="L58" s="7">
-        <v>561.54347727354082</v>
+        <v>561.54347727351114</v>
       </c>
       <c r="M58" s="7">
-        <v>473.18423535648759</v>
+        <v>473.18423535646423</v>
       </c>
       <c r="N58" s="7">
-        <v>397.40824655044855</v>
+        <v>397.40824655042934</v>
       </c>
       <c r="O58" s="7">
-        <v>333.5033878783899</v>
+        <v>333.50338787838155</v>
       </c>
       <c r="P58" s="7">
-        <v>280.795649816842</v>
+        <v>280.79564981683325</v>
       </c>
       <c r="Q58" s="7">
-        <v>195.92471855937799</v>
+        <v>195.92471855958934</v>
       </c>
       <c r="R58" s="7">
-        <v>163.73146482239747</v>
+        <v>163.73146482239679</v>
       </c>
       <c r="S58" s="7">
-        <v>376.80973050205228</v>
+        <v>376.80973050205012</v>
       </c>
       <c r="T58" s="7">
-        <v>356.79383208198431</v>
+        <v>356.79383208201045</v>
       </c>
       <c r="U58" s="7">
-        <v>199.98936917618249</v>
+        <v>199.98936917622052</v>
       </c>
       <c r="V58" s="7">
-        <v>207.39779424170922</v>
+        <v>207.39779424175362</v>
       </c>
       <c r="W58" s="7">
-        <v>98.51742404706701</v>
+        <v>98.517424047123882</v>
       </c>
       <c r="X58" s="7">
-        <v>128.34501411275528</v>
+        <v>128.3450141128038</v>
       </c>
       <c r="Y58" s="7">
-        <v>20.110079478994678</v>
+        <v>20.11007947899401</v>
       </c>
       <c r="Z58" s="7">
-        <v>76.764230251885152</v>
+        <v>76.764230252015167</v>
       </c>
       <c r="AA58" s="8">
-        <v>17.963283589017625</v>
+        <v>17.963283589017003</v>
       </c>
       <c r="AB58" s="13">
         <f t="shared" ref="AB58:AB61" si="0">SUM(B58:AA58)</f>
-        <v>18649.660850212746</v>
+        <v>18649.660850210566</v>
       </c>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.35">
@@ -4986,86 +4986,86 @@
         <v>12</v>
       </c>
       <c r="B59" s="6">
-        <v>14017815.711210344</v>
+        <v>14017815.71121002</v>
       </c>
       <c r="C59" s="7">
-        <v>13261661.088989951</v>
+        <v>13261661.088989645</v>
       </c>
       <c r="D59" s="7">
-        <v>12546295.261863219</v>
+        <v>12546295.26186293</v>
       </c>
       <c r="E59" s="7">
-        <v>11869517.984329687</v>
+        <v>11869517.984329415</v>
       </c>
       <c r="F59" s="7">
-        <v>11229247.697411783</v>
+        <v>11229247.697411524</v>
       </c>
       <c r="G59" s="7">
-        <v>10623515.126418918</v>
+        <v>10623515.126418673</v>
       </c>
       <c r="H59" s="7">
-        <v>10050457.224063579</v>
+        <v>10050457.224063346</v>
       </c>
       <c r="I59" s="7">
-        <v>9508311.4403002523</v>
+        <v>9508311.4403000306</v>
       </c>
       <c r="J59" s="7">
-        <v>8995410.3012630008</v>
+        <v>8995410.3012627903</v>
       </c>
       <c r="K59" s="7">
-        <v>8510176.2806281522</v>
+        <v>8510176.2806279529</v>
       </c>
       <c r="L59" s="7">
-        <v>8051116.947627997</v>
+        <v>8051116.947627808</v>
       </c>
       <c r="M59" s="7">
-        <v>7616820.3767922688</v>
+        <v>7616820.3767920891</v>
       </c>
       <c r="N59" s="7">
-        <v>7205950.8052991899</v>
+        <v>7205950.8052990194</v>
       </c>
       <c r="O59" s="7">
-        <v>6817244.5245794188</v>
+        <v>6817244.5245792577</v>
       </c>
       <c r="P59" s="7">
-        <v>6449505.9935367461</v>
+        <v>6449505.9935365934</v>
       </c>
       <c r="Q59" s="7">
-        <v>6101604.1614309903</v>
+        <v>6101604.161430845</v>
       </c>
       <c r="R59" s="7">
-        <v>5772468.9891134156</v>
+        <v>5772468.9891132778</v>
       </c>
       <c r="S59" s="7">
-        <v>5461088.1579150641</v>
+        <v>5461088.1579149337</v>
       </c>
       <c r="T59" s="7">
-        <v>5166503.9560655467</v>
+        <v>5166503.9560654238</v>
       </c>
       <c r="U59" s="7">
-        <v>4887810.3330658767</v>
+        <v>4887810.3330657603</v>
       </c>
       <c r="V59" s="7">
-        <v>4624150.1129555041</v>
+        <v>4624150.1129553942</v>
       </c>
       <c r="W59" s="7">
-        <v>4374712.3579024132</v>
+        <v>4374712.3579023099</v>
       </c>
       <c r="X59" s="7">
-        <v>4138729.8740074984</v>
+        <v>4138729.8740074006</v>
       </c>
       <c r="Y59" s="7">
-        <v>3895260.8637903598</v>
+        <v>3895260.8637902355</v>
       </c>
       <c r="Z59" s="7">
-        <v>3685141.1441713599</v>
+        <v>3685141.1441713171</v>
       </c>
       <c r="AA59" s="8">
-        <v>3479546.1153388587</v>
+        <v>3479546.1153387381</v>
       </c>
       <c r="AB59" s="13">
         <f t="shared" si="0"/>
-        <v>198340062.83007136</v>
+        <v>198340062.83006674</v>
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.35">
@@ -5073,86 +5073,86 @@
         <v>13</v>
       </c>
       <c r="B60" s="6">
-        <v>1143.0110237631811</v>
+        <v>1143.0110237631643</v>
       </c>
       <c r="C60" s="7">
-        <v>1129.4618776375214</v>
+        <v>1129.461877637516</v>
       </c>
       <c r="D60" s="7">
-        <v>1120.2456230838011</v>
+        <v>1120.2456230837952</v>
       </c>
       <c r="E60" s="7">
-        <v>973.6423359994626</v>
+        <v>973.64233599940644</v>
       </c>
       <c r="F60" s="7">
-        <v>815.41852060699728</v>
+        <v>815.41852060693975</v>
       </c>
       <c r="G60" s="7">
-        <v>642.61487861718263</v>
+        <v>642.61487861710771</v>
       </c>
       <c r="H60" s="7">
-        <v>595.01606521463088</v>
+        <v>595.01606521456551</v>
       </c>
       <c r="I60" s="7">
-        <v>537.9919653849721</v>
+        <v>537.99196538490924</v>
       </c>
       <c r="J60" s="7">
-        <v>488.96918648963981</v>
+        <v>488.96918648958103</v>
       </c>
       <c r="K60" s="7">
-        <v>426.97572359478653</v>
+        <v>426.97572359473043</v>
       </c>
       <c r="L60" s="7">
-        <v>392.63835467873298</v>
+        <v>392.63835467871627</v>
       </c>
       <c r="M60" s="7">
-        <v>344.50679858808076</v>
+        <v>344.50679858806723</v>
       </c>
       <c r="N60" s="7">
-        <v>302.72703766062602</v>
+        <v>302.7270376606146</v>
       </c>
       <c r="O60" s="7">
-        <v>266.94041760030007</v>
+        <v>266.94041760029597</v>
       </c>
       <c r="P60" s="7">
-        <v>236.80748657556995</v>
+        <v>236.80748657556373</v>
       </c>
       <c r="Q60" s="7">
-        <v>191.48202274852903</v>
+        <v>191.48202274851704</v>
       </c>
       <c r="R60" s="7">
-        <v>171.70979446719241</v>
+        <v>171.70979446719025</v>
       </c>
       <c r="S60" s="7">
-        <v>157.16414508817408</v>
+        <v>157.16414508817184</v>
       </c>
       <c r="T60" s="7">
-        <v>150.30403313900709</v>
+        <v>150.30403313900942</v>
       </c>
       <c r="U60" s="7">
-        <v>121.44847929844349</v>
+        <v>121.44847929844768</v>
       </c>
       <c r="V60" s="7">
-        <v>118.44625605412062</v>
+        <v>118.44625605412547</v>
       </c>
       <c r="W60" s="7">
-        <v>97.386657498207754</v>
+        <v>97.386657498214618</v>
       </c>
       <c r="X60" s="7">
-        <v>97.772843926947388</v>
+        <v>97.772843926953001</v>
       </c>
       <c r="Y60" s="7">
-        <v>76.892153504440003</v>
+        <v>76.892153504437616</v>
       </c>
       <c r="Z60" s="7">
-        <v>81.722504254098013</v>
+        <v>81.722504254117055</v>
       </c>
       <c r="AA60" s="8">
-        <v>69.096041433180247</v>
+        <v>69.096041433177916</v>
       </c>
       <c r="AB60" s="13">
         <f t="shared" si="0"/>
-        <v>10750.392226907827</v>
+        <v>10750.392226907335</v>
       </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.35">
@@ -5160,86 +5160,86 @@
         <v>14</v>
       </c>
       <c r="B61" s="9">
-        <v>163.18245218421549</v>
+        <v>163.18245218421194</v>
       </c>
       <c r="C61" s="10">
-        <v>161.56613470469017</v>
+        <v>161.56613470468949</v>
       </c>
       <c r="D61" s="10">
-        <v>161.01364910838009</v>
+        <v>161.01364910837947</v>
       </c>
       <c r="E61" s="10">
-        <v>139.11516895776663</v>
+        <v>139.11516895775821</v>
       </c>
       <c r="F61" s="10">
-        <v>115.37616262475198</v>
+        <v>115.37616262474334</v>
       </c>
       <c r="G61" s="10">
-        <v>89.137713296917866</v>
+        <v>89.13771329690654</v>
       </c>
       <c r="H61" s="10">
-        <v>82.409472665787661</v>
+        <v>82.409472665777812</v>
       </c>
       <c r="I61" s="10">
-        <v>74.190732041901782</v>
+        <v>74.190732041892318</v>
       </c>
       <c r="J61" s="10">
-        <v>67.177252576440154</v>
+        <v>67.177252576431286</v>
       </c>
       <c r="K61" s="10">
-        <v>58.126512249639156</v>
+        <v>58.126512249630707</v>
       </c>
       <c r="L61" s="10">
-        <v>53.324951211382263</v>
+        <v>53.324951211379876</v>
       </c>
       <c r="M61" s="10">
-        <v>46.36196544222026</v>
+        <v>46.361965442218363</v>
       </c>
       <c r="N61" s="10">
-        <v>40.355533278725751</v>
+        <v>40.355533278724167</v>
       </c>
       <c r="O61" s="10">
-        <v>35.251577202967248</v>
+        <v>35.251577202966736</v>
       </c>
       <c r="P61" s="10">
-        <v>30.998914459633188</v>
+        <v>30.998914459632399</v>
       </c>
       <c r="Q61" s="10">
-        <v>24.373984823505413</v>
+        <v>24.373984823503964</v>
       </c>
       <c r="R61" s="10">
-        <v>21.681166205599371</v>
+        <v>21.681166205599194</v>
       </c>
       <c r="S61" s="10">
-        <v>19.741154271884678</v>
+        <v>19.741154271884454</v>
       </c>
       <c r="T61" s="10">
-        <v>19.046411826165549</v>
+        <v>19.046411826166047</v>
       </c>
       <c r="U61" s="10">
-        <v>14.890935490291273</v>
+        <v>14.890935490292053</v>
       </c>
       <c r="V61" s="10">
-        <v>14.697145183149042</v>
+        <v>14.697145183149871</v>
       </c>
       <c r="W61" s="10">
-        <v>11.699693810642639</v>
+        <v>11.699693810643769</v>
       </c>
       <c r="X61" s="10">
-        <v>11.955175369862973</v>
+        <v>11.955175369863898</v>
       </c>
       <c r="Y61" s="10">
-        <v>8.9762281671600022</v>
+        <v>8.9762281671597339</v>
       </c>
       <c r="Z61" s="10">
-        <v>9.8666355084560777</v>
+        <v>9.8666355084589856</v>
       </c>
       <c r="AA61" s="11">
-        <v>8.0928215381504121</v>
+        <v>8.0928215381501456</v>
       </c>
       <c r="AB61" s="14">
         <f t="shared" si="0"/>
-        <v>1482.609544200287</v>
+        <v>1482.6095442002145</v>
       </c>
     </row>
   </sheetData>

--- a/717A11_output.xlsx
+++ b/717A11_output.xlsx
@@ -734,49 +734,49 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>495.91917837745905</v>
+        <v>495.9191783774736</v>
       </c>
       <c r="H3" s="4">
-        <v>396.80584595542996</v>
+        <v>396.80584595544178</v>
       </c>
       <c r="I3" s="4">
-        <v>421.67530116494368</v>
+        <v>421.67530116495027</v>
       </c>
       <c r="J3" s="4">
-        <v>407.00758733669591</v>
+        <v>407.00758733670591</v>
       </c>
       <c r="K3" s="4">
-        <v>514.22584895567445</v>
+        <v>514.22584895567707</v>
       </c>
       <c r="L3" s="4">
-        <v>427.12120987952449</v>
+        <v>427.12120987953153</v>
       </c>
       <c r="M3" s="4">
-        <v>466.05298510390321</v>
+        <v>466.05298510391117</v>
       </c>
       <c r="N3" s="4">
-        <v>473.76113038564222</v>
+        <v>473.76113038564449</v>
       </c>
       <c r="O3" s="4">
-        <v>452.05418306797833</v>
+        <v>452.05418306798612</v>
       </c>
       <c r="P3" s="4">
-        <v>402.64424198762526</v>
+        <v>402.64424198762902</v>
       </c>
       <c r="Q3" s="4">
-        <v>486.32270904100915</v>
+        <v>486.3227090409855</v>
       </c>
       <c r="R3" s="4">
-        <v>386.28310279959442</v>
+        <v>386.28310279959396</v>
       </c>
       <c r="S3" s="4">
-        <v>419.45037015797897</v>
+        <v>419.45037015797811</v>
       </c>
       <c r="T3" s="4">
-        <v>129.03291882238841</v>
+        <v>129.03291882239137</v>
       </c>
       <c r="U3" s="4">
-        <v>117.86808104206888</v>
+        <v>117.86808104206641</v>
       </c>
       <c r="V3" s="4">
         <v>0</v>
@@ -805,10 +805,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="7">
-        <v>130.26735234474739</v>
+        <v>130.26735234473745</v>
       </c>
       <c r="D4" s="7">
-        <v>641.05189162049885</v>
+        <v>641.0518916205184</v>
       </c>
       <c r="E4" s="7">
         <v>665.6</v>
@@ -936,7 +936,7 @@
         <v>46.5</v>
       </c>
       <c r="S5" s="7">
-        <v>42.477210131936829</v>
+        <v>42.477210131937454</v>
       </c>
       <c r="T5" s="7">
         <v>46.5</v>
@@ -1051,7 +1051,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>192.67035526309442</v>
+        <v>192.67035526309974</v>
       </c>
       <c r="C7" s="7">
         <v>464</v>
@@ -1369,7 +1369,7 @@
         <v>88</v>
       </c>
       <c r="Y10" s="7">
-        <v>85.51375562129715</v>
+        <v>85.513755621295331</v>
       </c>
       <c r="Z10" s="7">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>154</v>
       </c>
       <c r="U13" s="7">
-        <v>153.99999999999935</v>
+        <v>154</v>
       </c>
       <c r="V13" s="7">
-        <v>90.066924690423036</v>
+        <v>90.066924690421729</v>
       </c>
       <c r="W13" s="7">
-        <v>44.932226380952073</v>
+        <v>44.932226380950823</v>
       </c>
       <c r="X13" s="7">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         <v>150</v>
       </c>
       <c r="D14" s="7">
-        <v>85.515108379499111</v>
+        <v>85.515108379479443</v>
       </c>
       <c r="E14" s="7">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>150</v>
       </c>
       <c r="Z14" s="7">
-        <v>132.96125884377807</v>
+        <v>132.9612588437767</v>
       </c>
       <c r="AA14" s="8">
         <v>0</v>
@@ -1724,10 +1724,10 @@
         <v>1848</v>
       </c>
       <c r="E15" s="7">
-        <v>1254.6797472637363</v>
+        <v>1254.6797472637277</v>
       </c>
       <c r="F15" s="7">
-        <v>607.83770948546908</v>
+        <v>607.83770948545941</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="7">
-        <v>604.92635573625989</v>
+        <v>604.92635573626876</v>
       </c>
       <c r="F16" s="7">
         <v>656.1</v>
@@ -1873,7 +1873,7 @@
         <v>656.1</v>
       </c>
       <c r="AA16" s="8">
-        <v>651.55241017337175</v>
+        <v>651.55241017337084</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.35">
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="7">
-        <v>24.084748441526244</v>
+        <v>24.084748441537158</v>
       </c>
       <c r="G17" s="7">
         <v>50.3</v>
@@ -1932,7 +1932,7 @@
         <v>50.3</v>
       </c>
       <c r="S17" s="7">
-        <v>28.366370434874398</v>
+        <v>28.36637043487417</v>
       </c>
       <c r="T17" s="7">
         <v>50.3</v>
@@ -2062,7 +2062,7 @@
         <v>257</v>
       </c>
       <c r="G19" s="7">
-        <v>152.5020816708784</v>
+        <v>152.50208167086572</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2083,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>-5.2295945351943374E-12</v>
       </c>
       <c r="O19" s="7">
-        <v>0</v>
+        <v>-1.3642420526593924E-11</v>
       </c>
       <c r="P19" s="7">
-        <v>0</v>
+        <v>-7.1622707764618099E-12</v>
       </c>
       <c r="Q19" s="7">
         <v>0</v>
@@ -2101,16 +2101,16 @@
         <v>257</v>
       </c>
       <c r="T19" s="7">
-        <v>243.3262774589241</v>
+        <v>243.32627745892165</v>
       </c>
       <c r="U19" s="7">
-        <v>128.51664800577601</v>
+        <v>128.51664800577859</v>
       </c>
       <c r="V19" s="7">
-        <v>135.00956691885</v>
+        <v>135.00956691885051</v>
       </c>
       <c r="W19" s="7">
-        <v>55.50825365280312</v>
+        <v>55.508253652803432</v>
       </c>
       <c r="X19" s="7">
         <v>79.06445869096126</v>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="Z19" s="7">
-        <v>42.671387508933805</v>
+        <v>42.67138750893254</v>
       </c>
       <c r="AA19" s="8">
         <v>0</v>
@@ -2148,34 +2148,34 @@
         <v>2269.6</v>
       </c>
       <c r="H20" s="7">
-        <v>2237.1019054333419</v>
+        <v>2237.1019054333301</v>
       </c>
       <c r="I20" s="7">
-        <v>1978.7119199863257</v>
+        <v>1978.7119199863191</v>
       </c>
       <c r="J20" s="7">
-        <v>1760.4574188049342</v>
+        <v>1760.4574188049241</v>
       </c>
       <c r="K20" s="7">
-        <v>1470.9206422412299</v>
+        <v>1470.9206422412265</v>
       </c>
       <c r="L20" s="7">
-        <v>1326.3158997381511</v>
+        <v>1326.3158997381433</v>
       </c>
       <c r="M20" s="7">
-        <v>1106.2893585003299</v>
+        <v>1106.2893585003221</v>
       </c>
       <c r="N20" s="7">
-        <v>918.10659431102772</v>
+        <v>918.10659431102954</v>
       </c>
       <c r="O20" s="7">
-        <v>759.96465115096203</v>
+        <v>759.96465115096896</v>
       </c>
       <c r="P20" s="7">
-        <v>630.15706173928584</v>
+        <v>630.15706173928947</v>
       </c>
       <c r="Q20" s="7">
-        <v>417.89810641941591</v>
+        <v>417.89810641946508</v>
       </c>
       <c r="R20" s="7">
         <v>340</v>
@@ -2187,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="7">
-        <v>-6.8212102632969618E-13</v>
+        <v>-1.7621459846850485E-12</v>
       </c>
       <c r="V20" s="7">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6">
-        <v>15.829644736905736</v>
+        <v>15.829644736900207</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="7">
-        <v>2.6275825063407099E-11</v>
+        <v>0</v>
       </c>
       <c r="R21" s="7">
         <v>0</v>
@@ -2362,13 +2362,13 @@
         <v>398.3</v>
       </c>
       <c r="X22" s="7">
-        <v>397.51828566309803</v>
+        <v>397.51828566309723</v>
       </c>
       <c r="Y22" s="7">
-        <v>355.79563343194741</v>
+        <v>355.79563343194718</v>
       </c>
       <c r="Z22" s="7">
-        <v>243.0939272020116</v>
+        <v>243.09392720201333</v>
       </c>
       <c r="AA22" s="8">
         <v>301.38810254334294</v>
@@ -2385,22 +2385,22 @@
         <v>0</v>
       </c>
       <c r="D23" s="7">
+        <v>28.1</v>
+      </c>
+      <c r="E23" s="7">
+        <v>28.1</v>
+      </c>
+      <c r="F23" s="7">
+        <v>28.1</v>
+      </c>
+      <c r="G23" s="7">
         <v>28.100000000000009</v>
       </c>
-      <c r="E23" s="7">
-        <v>28.099999999999994</v>
-      </c>
-      <c r="F23" s="7">
+      <c r="H23" s="7">
         <v>28.100000000000009</v>
       </c>
-      <c r="G23" s="7">
-        <v>28.1</v>
-      </c>
-      <c r="H23" s="7">
-        <v>28.099999999999994</v>
-      </c>
       <c r="I23" s="7">
-        <v>28.099999999999994</v>
+        <v>28.100000000000009</v>
       </c>
       <c r="J23" s="7">
         <v>28.099999999999994</v>
@@ -2412,7 +2412,7 @@
         <v>28.100000000000009</v>
       </c>
       <c r="M23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.099999999999994</v>
       </c>
       <c r="N23" s="7">
         <v>28.100000000000009</v>
@@ -2430,13 +2430,13 @@
         <v>28.100000000000009</v>
       </c>
       <c r="S23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.099999999999994</v>
       </c>
       <c r="T23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.099999999999994</v>
       </c>
       <c r="U23" s="7">
-        <v>28.1</v>
+        <v>28.099999999999994</v>
       </c>
       <c r="V23" s="7">
         <v>28.1</v>
@@ -2445,13 +2445,13 @@
         <v>28.1</v>
       </c>
       <c r="X23" s="7">
-        <v>28.1</v>
+        <v>28.099999999999994</v>
       </c>
       <c r="Y23" s="7">
         <v>28.099999999999994</v>
       </c>
       <c r="Z23" s="7">
-        <v>28.099999999999994</v>
+        <v>28.100000000000009</v>
       </c>
       <c r="AA23" s="8">
         <v>28.1</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>5.9326476552607801</v>
       </c>
       <c r="D24" s="7">
         <v>25</v>
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D25" s="7">
         <v>70</v>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="7">
-        <v>30.599999999999998</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
         <v>30.6</v>
@@ -2643,10 +2643,10 @@
         <v>30.6</v>
       </c>
       <c r="G26" s="7">
-        <v>30.599999999999998</v>
+        <v>30.6</v>
       </c>
       <c r="H26" s="7">
-        <v>30.599999999999998</v>
+        <v>30.6</v>
       </c>
       <c r="I26" s="7">
         <v>30.6</v>
@@ -2655,7 +2655,7 @@
         <v>30.6</v>
       </c>
       <c r="K26" s="7">
-        <v>30.599999999999998</v>
+        <v>30.6</v>
       </c>
       <c r="L26" s="7">
         <v>30.6</v>
@@ -2697,13 +2697,13 @@
         <v>30.6</v>
       </c>
       <c r="Y26" s="7">
+        <v>30.599999999999998</v>
+      </c>
+      <c r="Z26" s="7">
         <v>30.6</v>
       </c>
-      <c r="Z26" s="7">
-        <v>30.599999999999998</v>
-      </c>
       <c r="AA26" s="8">
-        <v>30.599999999999998</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.35">
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D27" s="7">
         <v>10</v>
@@ -2732,7 +2732,7 @@
         <v>10</v>
       </c>
       <c r="I27" s="7">
-        <v>9.9999999999999858</v>
+        <v>10</v>
       </c>
       <c r="J27" s="7">
         <v>10</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="W27" s="7">
-        <v>9.9999999999999929</v>
+        <v>10.000000000000014</v>
       </c>
       <c r="X27" s="7">
         <v>10</v>
@@ -2786,7 +2786,7 @@
         <v>10</v>
       </c>
       <c r="AA27" s="8">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.35">
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
         <v>10</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="7">
-        <v>0.83264765525105133</v>
+        <v>0</v>
       </c>
       <c r="D29" s="7">
         <v>10</v>
@@ -2889,7 +2889,7 @@
         <v>10</v>
       </c>
       <c r="F29" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="G29" s="7">
         <v>10</v>
@@ -2916,10 +2916,10 @@
         <v>10</v>
       </c>
       <c r="O29" s="7">
-        <v>10</v>
+        <v>9.9999999999999858</v>
       </c>
       <c r="P29" s="7">
-        <v>10</v>
+        <v>9.9999999999999858</v>
       </c>
       <c r="Q29" s="7">
         <v>10</v>
@@ -2931,7 +2931,7 @@
         <v>10</v>
       </c>
       <c r="T29" s="7">
-        <v>10</v>
+        <v>9.9999999999999858</v>
       </c>
       <c r="U29" s="7">
         <v>10</v>
@@ -2963,22 +2963,22 @@
         <v>0</v>
       </c>
       <c r="C30" s="7">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
+        <v>52.20000000000001</v>
+      </c>
+      <c r="E30" s="7">
+        <v>52.200000000000017</v>
+      </c>
+      <c r="F30" s="7">
+        <v>52.200000000000017</v>
+      </c>
+      <c r="G30" s="7">
         <v>52.2</v>
       </c>
-      <c r="D30" s="7">
+      <c r="H30" s="7">
         <v>52.2</v>
-      </c>
-      <c r="E30" s="7">
-        <v>52.2</v>
-      </c>
-      <c r="F30" s="7">
-        <v>52.2</v>
-      </c>
-      <c r="G30" s="7">
-        <v>52.200000000000017</v>
-      </c>
-      <c r="H30" s="7">
-        <v>52.200000000000017</v>
       </c>
       <c r="I30" s="7">
         <v>52.2</v>
@@ -2987,13 +2987,13 @@
         <v>52.200000000000017</v>
       </c>
       <c r="K30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.20000000000001</v>
       </c>
       <c r="L30" s="7">
         <v>52.2</v>
       </c>
       <c r="M30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="N30" s="7">
         <v>52.2</v>
@@ -3017,19 +3017,19 @@
         <v>52.2</v>
       </c>
       <c r="U30" s="7">
+        <v>52.200000000000017</v>
+      </c>
+      <c r="V30" s="7">
         <v>52.20000000000001</v>
       </c>
-      <c r="V30" s="7">
+      <c r="W30" s="7">
         <v>52.2</v>
-      </c>
-      <c r="W30" s="7">
-        <v>52.200000000000017</v>
       </c>
       <c r="X30" s="7">
         <v>52.200000000000017</v>
       </c>
       <c r="Y30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="Z30" s="7">
         <v>52.2</v>
@@ -3046,79 +3046,79 @@
         <v>0</v>
       </c>
       <c r="C31" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7">
         <v>10</v>
       </c>
       <c r="E31" s="7">
-        <v>9.9999999999999858</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="F31" s="7">
         <v>10</v>
       </c>
       <c r="G31" s="7">
+        <v>10</v>
+      </c>
+      <c r="H31" s="7">
+        <v>10</v>
+      </c>
+      <c r="I31" s="7">
+        <v>10</v>
+      </c>
+      <c r="J31" s="7">
+        <v>10</v>
+      </c>
+      <c r="K31" s="7">
+        <v>10</v>
+      </c>
+      <c r="L31" s="7">
+        <v>10</v>
+      </c>
+      <c r="M31" s="7">
+        <v>10</v>
+      </c>
+      <c r="N31" s="7">
+        <v>10</v>
+      </c>
+      <c r="O31" s="7">
+        <v>10</v>
+      </c>
+      <c r="P31" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>10</v>
+      </c>
+      <c r="R31" s="7">
+        <v>10</v>
+      </c>
+      <c r="S31" s="7">
+        <v>10</v>
+      </c>
+      <c r="T31" s="7">
+        <v>10</v>
+      </c>
+      <c r="U31" s="7">
+        <v>10</v>
+      </c>
+      <c r="V31" s="7">
+        <v>10</v>
+      </c>
+      <c r="W31" s="7">
+        <v>10</v>
+      </c>
+      <c r="X31" s="7">
+        <v>10</v>
+      </c>
+      <c r="Y31" s="7">
+        <v>10</v>
+      </c>
+      <c r="Z31" s="7">
+        <v>10</v>
+      </c>
+      <c r="AA31" s="8">
         <v>9.9999999999999929</v>
-      </c>
-      <c r="H31" s="7">
-        <v>10</v>
-      </c>
-      <c r="I31" s="7">
-        <v>10</v>
-      </c>
-      <c r="J31" s="7">
-        <v>10</v>
-      </c>
-      <c r="K31" s="7">
-        <v>9.9999999999999929</v>
-      </c>
-      <c r="L31" s="7">
-        <v>10</v>
-      </c>
-      <c r="M31" s="7">
-        <v>10</v>
-      </c>
-      <c r="N31" s="7">
-        <v>10</v>
-      </c>
-      <c r="O31" s="7">
-        <v>10</v>
-      </c>
-      <c r="P31" s="7">
-        <v>10</v>
-      </c>
-      <c r="Q31" s="7">
-        <v>10</v>
-      </c>
-      <c r="R31" s="7">
-        <v>10</v>
-      </c>
-      <c r="S31" s="7">
-        <v>10</v>
-      </c>
-      <c r="T31" s="7">
-        <v>10</v>
-      </c>
-      <c r="U31" s="7">
-        <v>10</v>
-      </c>
-      <c r="V31" s="7">
-        <v>10.000000000000014</v>
-      </c>
-      <c r="W31" s="7">
-        <v>10</v>
-      </c>
-      <c r="X31" s="7">
-        <v>10</v>
-      </c>
-      <c r="Y31" s="7">
-        <v>9.9999999999999858</v>
-      </c>
-      <c r="Z31" s="7">
-        <v>10</v>
-      </c>
-      <c r="AA31" s="8">
-        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.35">
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="7">
-        <v>20.2</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
         <v>20.199999999999996</v>
@@ -3138,31 +3138,31 @@
         <v>20.199999999999996</v>
       </c>
       <c r="F32" s="7">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="G32" s="7">
         <v>20.200000000000003</v>
       </c>
-      <c r="G32" s="7">
+      <c r="H32" s="7">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="I32" s="7">
         <v>20.2</v>
-      </c>
-      <c r="H32" s="7">
-        <v>20.2</v>
-      </c>
-      <c r="I32" s="7">
-        <v>20.199999999999996</v>
       </c>
       <c r="J32" s="7">
         <v>20.200000000000003</v>
       </c>
       <c r="K32" s="7">
-        <v>20.2</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="L32" s="7">
-        <v>20.2</v>
+        <v>20.200000000000003</v>
       </c>
       <c r="M32" s="7">
         <v>20.199999999999996</v>
       </c>
       <c r="N32" s="7">
-        <v>20.199999999999996</v>
+        <v>20.200000000000003</v>
       </c>
       <c r="O32" s="7">
         <v>20.2</v>
@@ -3180,28 +3180,28 @@
         <v>20.199999999999996</v>
       </c>
       <c r="T32" s="7">
-        <v>20.199999999999996</v>
+        <v>20.2</v>
       </c>
       <c r="U32" s="7">
         <v>20.2</v>
       </c>
       <c r="V32" s="7">
+        <v>20.200000000000003</v>
+      </c>
+      <c r="W32" s="7">
+        <v>20.200000000000003</v>
+      </c>
+      <c r="X32" s="7">
         <v>20.199999999999996</v>
       </c>
-      <c r="W32" s="7">
+      <c r="Y32" s="7">
+        <v>20.2</v>
+      </c>
+      <c r="Z32" s="7">
+        <v>20.200000000000003</v>
+      </c>
+      <c r="AA32" s="8">
         <v>20.199999999999996</v>
-      </c>
-      <c r="X32" s="7">
-        <v>20.2</v>
-      </c>
-      <c r="Y32" s="7">
-        <v>20.199999999999996</v>
-      </c>
-      <c r="Z32" s="7">
-        <v>20.2</v>
-      </c>
-      <c r="AA32" s="8">
-        <v>20.2</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.35">
@@ -3212,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D33" s="7">
         <v>70</v>
@@ -3331,10 +3331,10 @@
         <v>10.5</v>
       </c>
       <c r="O34" s="7">
-        <v>10.499999999999986</v>
+        <v>10.5</v>
       </c>
       <c r="P34" s="7">
-        <v>10.499999999999986</v>
+        <v>10.5</v>
       </c>
       <c r="Q34" s="7">
         <v>10.5</v>
@@ -3343,7 +3343,7 @@
         <v>10.5</v>
       </c>
       <c r="S34" s="7">
-        <v>10.5</v>
+        <v>10.499999999999986</v>
       </c>
       <c r="T34" s="7">
         <v>10.5</v>
@@ -3358,7 +3358,7 @@
         <v>10.5</v>
       </c>
       <c r="X34" s="7">
-        <v>10.499999999999993</v>
+        <v>10.5</v>
       </c>
       <c r="Y34" s="7">
         <v>10.5</v>
@@ -3435,7 +3435,7 @@
         <v>10</v>
       </c>
       <c r="V35" s="7">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
       <c r="W35" s="7">
         <v>10</v>
@@ -3476,7 +3476,7 @@
         <v>10</v>
       </c>
       <c r="H36" s="7">
-        <v>10</v>
+        <v>10.000000000000002</v>
       </c>
       <c r="I36" s="7">
         <v>10</v>
@@ -3515,7 +3515,7 @@
         <v>10</v>
       </c>
       <c r="U36" s="7">
-        <v>10</v>
+        <v>10.000000000000002</v>
       </c>
       <c r="V36" s="7">
         <v>10</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D38" s="7">
         <v>10</v>
@@ -3713,22 +3713,22 @@
         <v>0</v>
       </c>
       <c r="D39" s="7">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="E39" s="7">
         <v>10.1</v>
       </c>
-      <c r="E39" s="7">
+      <c r="F39" s="7">
         <v>10.099999999999994</v>
       </c>
-      <c r="F39" s="7">
+      <c r="G39" s="7">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="H39" s="7">
         <v>10.1</v>
       </c>
-      <c r="G39" s="7">
+      <c r="I39" s="7">
         <v>10.100000000000001</v>
-      </c>
-      <c r="H39" s="7">
-        <v>10.099999999999994</v>
-      </c>
-      <c r="I39" s="7">
-        <v>10.1</v>
       </c>
       <c r="J39" s="7">
         <v>10.099999999999994</v>
@@ -3743,10 +3743,10 @@
         <v>10.099999999999994</v>
       </c>
       <c r="N39" s="7">
-        <v>10.1</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="O39" s="7">
-        <v>10.100000000000001</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="P39" s="7">
         <v>10.099999999999994</v>
@@ -3761,13 +3761,13 @@
         <v>10.1</v>
       </c>
       <c r="T39" s="7">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="U39" s="7">
         <v>10.1</v>
       </c>
-      <c r="U39" s="7">
-        <v>10.100000000000001</v>
-      </c>
       <c r="V39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.1</v>
       </c>
       <c r="W39" s="7">
         <v>10.099999999999994</v>
@@ -3793,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="C40" s="7">
-        <v>10.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="D40" s="7">
         <v>10.1</v>
       </c>
       <c r="E40" s="7">
-        <v>10.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="F40" s="7">
         <v>10.100000000000001</v>
@@ -3811,16 +3811,16 @@
         <v>10.100000000000001</v>
       </c>
       <c r="I40" s="7">
+        <v>10.099999999999998</v>
+      </c>
+      <c r="J40" s="7">
         <v>10.1</v>
       </c>
-      <c r="J40" s="7">
-        <v>10.100000000000001</v>
-      </c>
       <c r="K40" s="7">
-        <v>10.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="L40" s="7">
-        <v>10.099999999999998</v>
+        <v>10.1</v>
       </c>
       <c r="M40" s="7">
         <v>10.100000000000001</v>
@@ -3844,25 +3844,25 @@
         <v>10.1</v>
       </c>
       <c r="T40" s="7">
-        <v>10.1</v>
+        <v>10.099999999999998</v>
       </c>
       <c r="U40" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="V40" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="W40" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="X40" s="7">
         <v>10.100000000000001</v>
       </c>
-      <c r="W40" s="7">
+      <c r="Y40" s="7">
         <v>10.100000000000001</v>
       </c>
-      <c r="X40" s="7">
-        <v>10.099999999999998</v>
-      </c>
-      <c r="Y40" s="7">
+      <c r="Z40" s="7">
         <v>10.1</v>
-      </c>
-      <c r="Z40" s="7">
-        <v>10.100000000000001</v>
       </c>
       <c r="AA40" s="8">
         <v>10.100000000000001</v>
@@ -3936,7 +3936,7 @@
         <v>10</v>
       </c>
       <c r="W41" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="X41" s="7">
         <v>10</v>
@@ -3945,7 +3945,7 @@
         <v>10</v>
       </c>
       <c r="Z41" s="7">
-        <v>9.9999999999999858</v>
+        <v>10</v>
       </c>
       <c r="AA41" s="8">
         <v>10</v>
@@ -3959,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D42" s="7">
         <v>12</v>
@@ -4066,55 +4066,55 @@
         <v>950</v>
       </c>
       <c r="K43" s="7">
-        <v>1200</v>
+        <v>1200.0000000000007</v>
       </c>
       <c r="L43" s="7">
-        <v>1500</v>
+        <v>1500.0000000000007</v>
       </c>
       <c r="M43" s="7">
-        <v>1750</v>
+        <v>1749.9999999999998</v>
       </c>
       <c r="N43" s="7">
-        <v>2000</v>
+        <v>2000.0000000000005</v>
       </c>
       <c r="O43" s="7">
-        <v>2250</v>
+        <v>2249.9999999999995</v>
       </c>
       <c r="P43" s="7">
-        <v>2500</v>
+        <v>2500.0000000000005</v>
       </c>
       <c r="Q43" s="7">
-        <v>2700</v>
+        <v>2700.0000000000009</v>
       </c>
       <c r="R43" s="7">
-        <v>2950</v>
+        <v>2950.0000000000005</v>
       </c>
       <c r="S43" s="7">
-        <v>3200</v>
+        <v>3200.0000000000005</v>
       </c>
       <c r="T43" s="7">
-        <v>3450</v>
+        <v>3450.0000000000005</v>
       </c>
       <c r="U43" s="7">
-        <v>3650</v>
+        <v>3650.0000000000005</v>
       </c>
       <c r="V43" s="7">
-        <v>3900</v>
+        <v>3900.0000000000009</v>
       </c>
       <c r="W43" s="7">
-        <v>4100</v>
+        <v>4100.0000000000009</v>
       </c>
       <c r="X43" s="7">
-        <v>4350</v>
+        <v>4350.0000000000009</v>
       </c>
       <c r="Y43" s="7">
         <v>4550</v>
       </c>
       <c r="Z43" s="7">
-        <v>4800</v>
+        <v>4800.0000000000009</v>
       </c>
       <c r="AA43" s="8">
-        <v>5000</v>
+        <v>5000.0000000000009</v>
       </c>
       <c r="AB43" t="s">
         <v>17</v>
@@ -4307,79 +4307,79 @@
         <v>1</v>
       </c>
       <c r="B49" s="3">
-        <v>134.59011842103158</v>
+        <v>134.59011842103328</v>
       </c>
       <c r="C49" s="4">
-        <v>238.16156822983203</v>
+        <v>321.81666666666598</v>
       </c>
       <c r="D49" s="4">
-        <v>389.57841108033307</v>
+        <v>389.57841108034597</v>
       </c>
       <c r="E49" s="4">
-        <v>445.38034435000094</v>
+        <v>445.38034435000066</v>
       </c>
       <c r="F49" s="4">
-        <v>630.82005026299339</v>
+        <v>630.82005026299657</v>
       </c>
       <c r="G49" s="4">
-        <v>988.85720646479319</v>
+        <v>988.85720646479751</v>
       </c>
       <c r="H49" s="4">
-        <v>846.83951964716664</v>
+        <v>846.83951964717062</v>
       </c>
       <c r="I49" s="4">
-        <v>762.88527618929629</v>
+        <v>762.88527618929811</v>
       </c>
       <c r="J49" s="4">
-        <v>665.82177982875533</v>
+        <v>665.82177982875953</v>
       </c>
       <c r="K49" s="4">
-        <v>626.12404029153095</v>
+        <v>626.12404029153163</v>
       </c>
       <c r="L49" s="4">
-        <v>505.05639941523725</v>
+        <v>505.05639941523896</v>
       </c>
       <c r="M49" s="4">
-        <v>442.73926845512926</v>
+        <v>442.73926845513068</v>
       </c>
       <c r="N49" s="4">
-        <v>370.0866113431598</v>
+        <v>370.08661134315912</v>
       </c>
       <c r="O49" s="4">
-        <v>287.7019250148694</v>
+        <v>287.70192501487213</v>
       </c>
       <c r="P49" s="4">
-        <v>196.1565660973481</v>
+        <v>196.15656609734944</v>
       </c>
       <c r="Q49" s="4">
-        <v>165.71499815072264</v>
+        <v>165.71499815071456</v>
       </c>
       <c r="R49" s="4">
-        <v>57.442396259817713</v>
+        <v>57.44239625981777</v>
       </c>
       <c r="S49" s="4">
-        <v>-41.526512318802133</v>
+        <v>-41.526512318802361</v>
       </c>
       <c r="T49" s="4">
-        <v>-177.93212082638382</v>
+        <v>-177.9321208263826</v>
       </c>
       <c r="U49" s="4">
-        <v>-239.68408793039487</v>
+        <v>-239.68408793039612</v>
       </c>
       <c r="V49" s="4">
-        <v>-332.28171754239202</v>
+        <v>-332.28171754239207</v>
       </c>
       <c r="W49" s="4">
-        <v>-375.11101945637904</v>
+        <v>-375.11101945637893</v>
       </c>
       <c r="X49" s="4">
-        <v>-468.42867982535927</v>
+        <v>-468.42867982536023</v>
       </c>
       <c r="Y49" s="4">
-        <v>-526.97265273668881</v>
+        <v>-526.97265273668859</v>
       </c>
       <c r="Z49" s="4">
-        <v>-624.09898603320789</v>
+        <v>-624.09898603320767</v>
       </c>
       <c r="AA49" s="5">
         <v>-635.81607690750707</v>
@@ -4390,79 +4390,79 @@
         <v>2</v>
       </c>
       <c r="B50" s="6">
-        <v>-371.30988157896866</v>
+        <v>-371.30988157896684</v>
       </c>
       <c r="C50" s="7">
-        <v>-210.30578411491643</v>
+        <v>-221.68333333333354</v>
       </c>
       <c r="D50" s="7">
-        <v>-241.38998054016702</v>
+        <v>-241.38998054017327</v>
       </c>
       <c r="E50" s="7">
-        <v>-291.56660415000147</v>
+        <v>-291.5666041500009</v>
       </c>
       <c r="F50" s="7">
-        <v>-584.15346921503601</v>
+        <v>-584.15346921504249</v>
       </c>
       <c r="G50" s="7">
-        <v>-712.60342355937644</v>
+        <v>-712.60342355937212</v>
       </c>
       <c r="H50" s="7">
-        <v>-537.56435604721923</v>
+        <v>-537.56435604721537</v>
       </c>
       <c r="I50" s="7">
-        <v>-354.75833438633958</v>
+        <v>-354.7583343863364</v>
       </c>
       <c r="J50" s="7">
-        <v>-185.36072324205941</v>
+        <v>-185.36072324205668</v>
       </c>
       <c r="K50" s="7">
-        <v>-8.8992053069221129</v>
+        <v>-8.8992053069208055</v>
       </c>
       <c r="L50" s="7">
-        <v>135.88784460639855</v>
+        <v>135.88784460640204</v>
       </c>
       <c r="M50" s="7">
-        <v>289.11809665301132</v>
+        <v>289.1180966530145</v>
       </c>
       <c r="N50" s="7">
-        <v>431.70274899482342</v>
+        <v>431.70274899482547</v>
       </c>
       <c r="O50" s="7">
-        <v>564.24250790539827</v>
+        <v>564.24250790540077</v>
       </c>
       <c r="P50" s="7">
-        <v>687.30591423389239</v>
+        <v>687.30591423389342</v>
       </c>
       <c r="Q50" s="7">
-        <v>821.15459042049599</v>
+        <v>821.1545904204886</v>
       </c>
       <c r="R50" s="7">
-        <v>926.85084486001972</v>
+        <v>926.85084486002029</v>
       </c>
       <c r="S50" s="7">
-        <v>1041.5265123188021</v>
+        <v>1041.5265123188024</v>
       </c>
       <c r="T50" s="7">
-        <v>1118.4382810329591</v>
+        <v>1118.4382810329603</v>
       </c>
       <c r="U50" s="7">
         <v>1219.6735475456819</v>
       </c>
       <c r="V50" s="7">
-        <v>1275.7969613433938</v>
+        <v>1275.7969613433931</v>
       </c>
       <c r="W50" s="7">
-        <v>1350.1509669076947</v>
+        <v>1350.1509669076945</v>
       </c>
       <c r="X50" s="7">
-        <v>1423.8799479976105</v>
+        <v>1423.8799479976115</v>
       </c>
       <c r="Y50" s="7">
-        <v>1526.9726527366884</v>
+        <v>1526.9726527366886</v>
       </c>
       <c r="Z50" s="7">
-        <v>1624.0989860332079</v>
+        <v>1624.0989860332077</v>
       </c>
       <c r="AA50" s="8">
         <v>1635.8160769075071</v>
@@ -4473,73 +4473,73 @@
         <v>3</v>
       </c>
       <c r="B51" s="9">
-        <v>236.71976315793711</v>
+        <v>236.71976315793358</v>
       </c>
       <c r="C51" s="10">
-        <v>-27.855784114915593</v>
+        <v>-100.13333333333244</v>
       </c>
       <c r="D51" s="10">
-        <v>-148.18843054016605</v>
+        <v>-148.1884305401727</v>
       </c>
       <c r="E51" s="10">
-        <v>-153.81374019999947</v>
+        <v>-153.81374019999976</v>
       </c>
       <c r="F51" s="10">
-        <v>-46.666581047957266</v>
+        <v>-46.666581047954082</v>
       </c>
       <c r="G51" s="10">
-        <v>-276.25378290541647</v>
+        <v>-276.2537829054254</v>
       </c>
       <c r="H51" s="10">
-        <v>-309.27516359994735</v>
+        <v>-309.27516359995525</v>
       </c>
       <c r="I51" s="10">
-        <v>-408.12694180295694</v>
+        <v>-408.12694180296171</v>
       </c>
       <c r="J51" s="10">
-        <v>-480.46105658669592</v>
+        <v>-480.46105658670285</v>
       </c>
       <c r="K51" s="10">
-        <v>-617.22483498460883</v>
+        <v>-617.22483498461077</v>
       </c>
       <c r="L51" s="10">
-        <v>-640.94424402163565</v>
+        <v>-640.944244021641</v>
       </c>
       <c r="M51" s="10">
-        <v>-731.85736510814058</v>
+        <v>-731.85736510814525</v>
       </c>
       <c r="N51" s="10">
-        <v>-801.78936033798323</v>
+        <v>-801.78936033798459</v>
       </c>
       <c r="O51" s="10">
-        <v>-851.94443292026767</v>
+        <v>-851.9444329202729</v>
       </c>
       <c r="P51" s="10">
-        <v>-883.4624803312405</v>
+        <v>-883.46248033124289</v>
       </c>
       <c r="Q51" s="10">
-        <v>-986.86958857121863</v>
+        <v>-986.86958857120317</v>
       </c>
       <c r="R51" s="10">
-        <v>-984.29324111983738</v>
+        <v>-984.29324111983783</v>
       </c>
       <c r="S51" s="10">
         <v>-1000</v>
       </c>
       <c r="T51" s="10">
-        <v>-940.50616020657537</v>
+        <v>-940.50616020657753</v>
       </c>
       <c r="U51" s="10">
-        <v>-979.98945961528705</v>
+        <v>-979.9894596152858</v>
       </c>
       <c r="V51" s="10">
-        <v>-943.51524380100182</v>
+        <v>-943.51524380100113</v>
       </c>
       <c r="W51" s="10">
-        <v>-975.03994745131558</v>
+        <v>-975.03994745131547</v>
       </c>
       <c r="X51" s="10">
-        <v>-955.45126817225139</v>
+        <v>-955.45126817225128</v>
       </c>
       <c r="Y51" s="10">
         <v>-1000</v>
@@ -4639,22 +4639,22 @@
         <v>8</v>
       </c>
       <c r="B54" s="15">
-        <v>185343.2957730355</v>
+        <v>185343.29577303451</v>
       </c>
       <c r="C54" s="16">
-        <v>150354.42590554882</v>
+        <v>150354.42590554862</v>
       </c>
       <c r="D54" s="16">
-        <v>122850.98857876594</v>
+        <v>122850.98857876577</v>
       </c>
       <c r="E54" s="16">
-        <v>115767.04458876402</v>
+        <v>115767.04458876408</v>
       </c>
       <c r="F54" s="16">
-        <v>110839.76863109929</v>
+        <v>110839.76863109937</v>
       </c>
       <c r="G54" s="16">
-        <v>107601.0888445215</v>
+        <v>107601.08884452166</v>
       </c>
       <c r="H54" s="16">
         <v>11641550.231811121</v>
@@ -4666,34 +4666,34 @@
         <v>13729770.539331574</v>
       </c>
       <c r="K54" s="16">
-        <v>13539056.792083366</v>
+        <v>13539056.792083383</v>
       </c>
       <c r="L54" s="16">
-        <v>15173431.935465464</v>
+        <v>15173431.935465468</v>
       </c>
       <c r="M54" s="16">
-        <v>14667613.021367956</v>
+        <v>14667613.021367941</v>
       </c>
       <c r="N54" s="16">
-        <v>14771698.232724916</v>
+        <v>14771698.232724929</v>
       </c>
       <c r="O54" s="16">
-        <v>14735518.731834156</v>
+        <v>14735518.731834147</v>
       </c>
       <c r="P54" s="16">
-        <v>14583734.508809622</v>
+        <v>14583734.508809632</v>
       </c>
       <c r="Q54" s="16">
         <v>13638852.260879792</v>
       </c>
       <c r="R54" s="16">
-        <v>13819966.051143175</v>
+        <v>13819966.051143177</v>
       </c>
       <c r="S54" s="16">
-        <v>13455936.071670964</v>
+        <v>13455936.071670968</v>
       </c>
       <c r="T54" s="16">
-        <v>13043632.510209475</v>
+        <v>13043632.510209477</v>
       </c>
       <c r="U54" s="16">
         <v>12117802.26314237</v>
@@ -4812,86 +4812,86 @@
         <v>10</v>
       </c>
       <c r="B57" s="3">
-        <v>13395.809006237852</v>
+        <v>13395.809006237763</v>
       </c>
       <c r="C57" s="4">
         <v>10788.134900264893</v>
       </c>
       <c r="D57" s="4">
-        <v>9558.804967341759</v>
+        <v>9558.8049673417518</v>
       </c>
       <c r="E57" s="4">
-        <v>9312.0249598840437</v>
+        <v>9312.0249598840237</v>
       </c>
       <c r="F57" s="4">
-        <v>8666.7645106792806</v>
+        <v>8666.764510679297</v>
       </c>
       <c r="G57" s="4">
-        <v>7992.7910405343537</v>
+        <v>7992.7910405343282</v>
       </c>
       <c r="H57" s="4">
-        <v>7231.7522186328642</v>
+        <v>7231.7522186328661</v>
       </c>
       <c r="I57" s="4">
-        <v>6939.5927342366704</v>
+        <v>6939.5927342366722</v>
       </c>
       <c r="J57" s="4">
-        <v>6641.5502674662939</v>
+        <v>6641.5502674662948</v>
       </c>
       <c r="K57" s="4">
-        <v>6428.200739953425</v>
+        <v>6428.2007399534241</v>
       </c>
       <c r="L57" s="4">
         <v>6119.5279553645905</v>
       </c>
       <c r="M57" s="4">
-        <v>5896.2592355312281</v>
+        <v>5896.259235531229</v>
       </c>
       <c r="N57" s="4">
-        <v>5668.5319125448623</v>
+        <v>5668.5319125448477</v>
       </c>
       <c r="O57" s="4">
-        <v>5436.6569033792557</v>
+        <v>5436.6569033792239</v>
       </c>
       <c r="P57" s="4">
-        <v>5200.9289870833718</v>
+        <v>5200.9289870833545</v>
       </c>
       <c r="Q57" s="4">
-        <v>5051.8183299385892</v>
+        <v>5051.8183299381972</v>
       </c>
       <c r="R57" s="4">
-        <v>4809.2087187230172</v>
+        <v>4809.2087187230163</v>
       </c>
       <c r="S57" s="4">
-        <v>5099.2167571217269</v>
+        <v>5099.2167571217396</v>
       </c>
       <c r="T57" s="4">
-        <v>4929.3134908072589</v>
+        <v>4929.3134908072534</v>
       </c>
       <c r="U57" s="4">
-        <v>4478.6003618073182</v>
+        <v>4478.6003618073246</v>
       </c>
       <c r="V57" s="4">
-        <v>4143.4773551581557</v>
+        <v>4143.4773551581529</v>
       </c>
       <c r="W57" s="4">
-        <v>3708.1193862656064</v>
+        <v>3708.1193862656041</v>
       </c>
       <c r="X57" s="4">
-        <v>3352.1940770678111</v>
+        <v>3352.1940770678093</v>
       </c>
       <c r="Y57" s="4">
-        <v>2961.9204175372606</v>
+        <v>2961.9204175372579</v>
       </c>
       <c r="Z57" s="4">
-        <v>2768.3019467310883</v>
+        <v>2768.3019467310864</v>
       </c>
       <c r="AA57" s="5">
         <v>2672.733379103548</v>
       </c>
       <c r="AB57" s="12">
         <f>SUM(B57:AA57)</f>
-        <v>159252.23455939617</v>
+        <v>159252.23455939555</v>
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.35">
@@ -4899,7 +4899,7 @@
         <v>11</v>
       </c>
       <c r="B58" s="6">
-        <v>2413.9885322768887</v>
+        <v>2413.9885322768387</v>
       </c>
       <c r="C58" s="7">
         <v>2265.7469347046895</v>
@@ -4908,43 +4908,43 @@
         <v>2260.5965095418974</v>
       </c>
       <c r="E58" s="7">
-        <v>1949.7252897817255</v>
+        <v>1949.7252897817209</v>
       </c>
       <c r="F58" s="7">
-        <v>1610.7981043449747</v>
+        <v>1610.7981043449699</v>
       </c>
       <c r="G58" s="7">
-        <v>1150.4026949077688</v>
+        <v>1150.4026949077515</v>
       </c>
       <c r="H58" s="7">
-        <v>928.34771465728033</v>
+        <v>928.34771465727567</v>
       </c>
       <c r="I58" s="7">
-        <v>824.41550616380891</v>
+        <v>824.4155061638063</v>
       </c>
       <c r="J58" s="7">
-        <v>736.34160047708212</v>
+        <v>736.34160047707815</v>
       </c>
       <c r="K58" s="7">
-        <v>620.51602561486106</v>
+        <v>620.5160256148597</v>
       </c>
       <c r="L58" s="7">
-        <v>561.54347727351114</v>
+        <v>561.54347727350807</v>
       </c>
       <c r="M58" s="7">
-        <v>473.18423535646423</v>
+        <v>473.18423535646116</v>
       </c>
       <c r="N58" s="7">
-        <v>397.40824655042934</v>
+        <v>397.40824655042297</v>
       </c>
       <c r="O58" s="7">
-        <v>333.50338787838155</v>
+        <v>333.5033878783658</v>
       </c>
       <c r="P58" s="7">
-        <v>280.79564981683325</v>
+        <v>280.79564981682495</v>
       </c>
       <c r="Q58" s="7">
-        <v>195.92471855958934</v>
+        <v>195.92471855937231</v>
       </c>
       <c r="R58" s="7">
         <v>163.73146482239679</v>
@@ -4953,32 +4953,32 @@
         <v>376.80973050205012</v>
       </c>
       <c r="T58" s="7">
-        <v>356.79383208201045</v>
+        <v>356.79383208200716</v>
       </c>
       <c r="U58" s="7">
-        <v>199.98936917622052</v>
+        <v>199.98936917622359</v>
       </c>
       <c r="V58" s="7">
-        <v>207.39779424175362</v>
+        <v>207.3977942417543</v>
       </c>
       <c r="W58" s="7">
-        <v>98.517424047123882</v>
+        <v>98.517424047124294</v>
       </c>
       <c r="X58" s="7">
         <v>128.3450141128038</v>
       </c>
       <c r="Y58" s="7">
-        <v>20.11007947899401</v>
+        <v>20.110079478993992</v>
       </c>
       <c r="Z58" s="7">
-        <v>76.764230252015167</v>
+        <v>76.764230252013448</v>
       </c>
       <c r="AA58" s="8">
-        <v>17.963283589017003</v>
+        <v>17.963283589016996</v>
       </c>
       <c r="AB58" s="13">
         <f t="shared" ref="AB58:AB61" si="0">SUM(B58:AA58)</f>
-        <v>18649.660850210566</v>
+        <v>18649.660850210232</v>
       </c>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.35">
@@ -4986,86 +4986,86 @@
         <v>12</v>
       </c>
       <c r="B59" s="6">
-        <v>14017815.71121002</v>
+        <v>14017815.711210009</v>
       </c>
       <c r="C59" s="7">
-        <v>13261661.088989645</v>
+        <v>13261661.088989636</v>
       </c>
       <c r="D59" s="7">
-        <v>12546295.26186293</v>
+        <v>12546295.261862921</v>
       </c>
       <c r="E59" s="7">
-        <v>11869517.984329415</v>
+        <v>11869517.984329406</v>
       </c>
       <c r="F59" s="7">
-        <v>11229247.697411524</v>
+        <v>11229247.697411515</v>
       </c>
       <c r="G59" s="7">
-        <v>10623515.126418673</v>
+        <v>10623515.126418665</v>
       </c>
       <c r="H59" s="7">
-        <v>10050457.224063346</v>
+        <v>10050457.224063339</v>
       </c>
       <c r="I59" s="7">
-        <v>9508311.4403000306</v>
+        <v>9508311.440300025</v>
       </c>
       <c r="J59" s="7">
-        <v>8995410.3012627903</v>
+        <v>8995410.3012627847</v>
       </c>
       <c r="K59" s="7">
-        <v>8510176.2806279529</v>
+        <v>8510176.2806279473</v>
       </c>
       <c r="L59" s="7">
-        <v>8051116.947627808</v>
+        <v>8051116.9476278024</v>
       </c>
       <c r="M59" s="7">
-        <v>7616820.3767920891</v>
+        <v>7616820.3767920844</v>
       </c>
       <c r="N59" s="7">
-        <v>7205950.8052990194</v>
+        <v>7205950.8052990157</v>
       </c>
       <c r="O59" s="7">
-        <v>6817244.5245792577</v>
+        <v>6817244.524579254</v>
       </c>
       <c r="P59" s="7">
-        <v>6449505.9935365934</v>
+        <v>6449505.9935365906</v>
       </c>
       <c r="Q59" s="7">
-        <v>6101604.161430845</v>
+        <v>6101604.1614308432</v>
       </c>
       <c r="R59" s="7">
-        <v>5772468.9891132778</v>
+        <v>5772468.9891132768</v>
       </c>
       <c r="S59" s="7">
-        <v>5461088.1579149337</v>
+        <v>5461088.1579149328</v>
       </c>
       <c r="T59" s="7">
-        <v>5166503.9560654238</v>
+        <v>5166503.9560654229</v>
       </c>
       <c r="U59" s="7">
-        <v>4887810.3330657603</v>
+        <v>4887810.3330657594</v>
       </c>
       <c r="V59" s="7">
-        <v>4624150.1129553942</v>
+        <v>4624150.1129553933</v>
       </c>
       <c r="W59" s="7">
-        <v>4374712.3579023099</v>
+        <v>4374712.3579023089</v>
       </c>
       <c r="X59" s="7">
-        <v>4138729.8740074006</v>
+        <v>4138729.8740073997</v>
       </c>
       <c r="Y59" s="7">
-        <v>3895260.8637902355</v>
+        <v>3895260.8637902332</v>
       </c>
       <c r="Z59" s="7">
-        <v>3685141.1441713171</v>
+        <v>3685141.1441713148</v>
       </c>
       <c r="AA59" s="8">
-        <v>3479546.1153387381</v>
+        <v>3479546.1153387371</v>
       </c>
       <c r="AB59" s="13">
         <f t="shared" si="0"/>
-        <v>198340062.83006674</v>
+        <v>198340062.83006662</v>
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.35">
@@ -5073,86 +5073,86 @@
         <v>13</v>
       </c>
       <c r="B60" s="6">
-        <v>1143.0110237631643</v>
+        <v>1143.0110237631638</v>
       </c>
       <c r="C60" s="7">
         <v>1129.461877637516</v>
       </c>
       <c r="D60" s="7">
-        <v>1120.2456230837952</v>
+        <v>1120.245623083795</v>
       </c>
       <c r="E60" s="7">
-        <v>973.64233599940644</v>
+        <v>973.64233599940439</v>
       </c>
       <c r="F60" s="7">
-        <v>815.41852060693975</v>
+        <v>815.41852060693736</v>
       </c>
       <c r="G60" s="7">
-        <v>642.61487861710771</v>
+        <v>642.61487861710486</v>
       </c>
       <c r="H60" s="7">
-        <v>595.01606521456551</v>
+        <v>595.01606521456324</v>
       </c>
       <c r="I60" s="7">
-        <v>537.99196538490924</v>
+        <v>537.99196538490799</v>
       </c>
       <c r="J60" s="7">
-        <v>488.96918648958103</v>
+        <v>488.96918648957904</v>
       </c>
       <c r="K60" s="7">
-        <v>426.97572359473043</v>
+        <v>426.97572359472974</v>
       </c>
       <c r="L60" s="7">
-        <v>392.63835467871627</v>
+        <v>392.63835467871473</v>
       </c>
       <c r="M60" s="7">
-        <v>344.50679858806723</v>
+        <v>344.50679858806569</v>
       </c>
       <c r="N60" s="7">
-        <v>302.7270376606146</v>
+        <v>302.72703766061375</v>
       </c>
       <c r="O60" s="7">
-        <v>266.94041760029597</v>
+        <v>266.94041760029432</v>
       </c>
       <c r="P60" s="7">
-        <v>236.80748657556373</v>
+        <v>236.80748657556288</v>
       </c>
       <c r="Q60" s="7">
-        <v>191.48202274851704</v>
+        <v>191.48202274852434</v>
       </c>
       <c r="R60" s="7">
         <v>171.70979446719025</v>
       </c>
       <c r="S60" s="7">
-        <v>157.16414508817184</v>
+        <v>157.16414508817181</v>
       </c>
       <c r="T60" s="7">
-        <v>150.30403313900942</v>
+        <v>150.30403313900888</v>
       </c>
       <c r="U60" s="7">
-        <v>121.44847929844768</v>
+        <v>121.44847929844805</v>
       </c>
       <c r="V60" s="7">
-        <v>118.44625605412547</v>
+        <v>118.44625605412557</v>
       </c>
       <c r="W60" s="7">
-        <v>97.386657498214618</v>
+        <v>97.38665749821466</v>
       </c>
       <c r="X60" s="7">
-        <v>97.772843926953001</v>
+        <v>97.772843926952973</v>
       </c>
       <c r="Y60" s="7">
-        <v>76.892153504437616</v>
+        <v>76.892153504437545</v>
       </c>
       <c r="Z60" s="7">
-        <v>81.722504254117055</v>
+        <v>81.722504254116757</v>
       </c>
       <c r="AA60" s="8">
-        <v>69.096041433177916</v>
+        <v>69.096041433177902</v>
       </c>
       <c r="AB60" s="13">
         <f t="shared" si="0"/>
-        <v>10750.392226907335</v>
+        <v>10750.392226907323</v>
       </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.35">
@@ -5160,86 +5160,86 @@
         <v>14</v>
       </c>
       <c r="B61" s="9">
-        <v>163.18245218421194</v>
+        <v>163.1824521842118</v>
       </c>
       <c r="C61" s="10">
-        <v>161.56613470468949</v>
+        <v>161.56613470468946</v>
       </c>
       <c r="D61" s="10">
         <v>161.01364910837947</v>
       </c>
       <c r="E61" s="10">
-        <v>139.11516895775821</v>
+        <v>139.11516895775793</v>
       </c>
       <c r="F61" s="10">
-        <v>115.37616262474334</v>
+        <v>115.37616262474299</v>
       </c>
       <c r="G61" s="10">
-        <v>89.13771329690654</v>
+        <v>89.137713296906114</v>
       </c>
       <c r="H61" s="10">
-        <v>82.409472665777812</v>
+        <v>82.409472665777457</v>
       </c>
       <c r="I61" s="10">
-        <v>74.190732041892318</v>
+        <v>74.190732041892119</v>
       </c>
       <c r="J61" s="10">
-        <v>67.177252576431286</v>
+        <v>67.177252576430988</v>
       </c>
       <c r="K61" s="10">
-        <v>58.126512249630707</v>
+        <v>58.126512249630601</v>
       </c>
       <c r="L61" s="10">
-        <v>53.324951211379876</v>
+        <v>53.324951211379648</v>
       </c>
       <c r="M61" s="10">
-        <v>46.361965442218363</v>
+        <v>46.361965442218128</v>
       </c>
       <c r="N61" s="10">
-        <v>40.355533278724167</v>
+        <v>40.355533278724046</v>
       </c>
       <c r="O61" s="10">
-        <v>35.251577202966736</v>
+        <v>35.251577202966487</v>
       </c>
       <c r="P61" s="10">
-        <v>30.998914459632399</v>
+        <v>30.998914459632267</v>
       </c>
       <c r="Q61" s="10">
-        <v>24.373984823503964</v>
+        <v>24.373984823504852</v>
       </c>
       <c r="R61" s="10">
-        <v>21.681166205599194</v>
+        <v>21.68116620559919</v>
       </c>
       <c r="S61" s="10">
-        <v>19.741154271884454</v>
+        <v>19.741154271884451</v>
       </c>
       <c r="T61" s="10">
-        <v>19.046411826166047</v>
+        <v>19.046411826165961</v>
       </c>
       <c r="U61" s="10">
-        <v>14.890935490292053</v>
+        <v>14.890935490292108</v>
       </c>
       <c r="V61" s="10">
-        <v>14.697145183149871</v>
+        <v>14.697145183149884</v>
       </c>
       <c r="W61" s="10">
-        <v>11.699693810643769</v>
+        <v>11.699693810643776</v>
       </c>
       <c r="X61" s="10">
-        <v>11.955175369863898</v>
+        <v>11.955175369863897</v>
       </c>
       <c r="Y61" s="10">
-        <v>8.9762281671597339</v>
+        <v>8.9762281671597286</v>
       </c>
       <c r="Z61" s="10">
-        <v>9.8666355084589856</v>
+        <v>9.866635508458943</v>
       </c>
       <c r="AA61" s="11">
-        <v>8.0928215381501456</v>
+        <v>8.092821538150142</v>
       </c>
       <c r="AB61" s="14">
         <f t="shared" si="0"/>
-        <v>1482.6095442002145</v>
+        <v>1482.6095442002122</v>
       </c>
     </row>
   </sheetData>

--- a/717A11_output.xlsx
+++ b/717A11_output.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jawessel\opl\ENV717A11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lfi\Google Drive\School\College\Semester 6 (Spring 2020)\ENV 717\Assignments\Assignment 11 (group project)\ENV717A11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:AA44"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -719,10 +719,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>519.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4">
-        <v>519.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -734,49 +734,49 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>495.91917837745905</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4">
-        <v>396.80584595542996</v>
+        <v>0</v>
       </c>
       <c r="I3" s="4">
-        <v>421.67530116494368</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4">
-        <v>407.00758733669591</v>
+        <v>0</v>
       </c>
       <c r="K3" s="4">
-        <v>514.22584895567445</v>
+        <v>0</v>
       </c>
       <c r="L3" s="4">
-        <v>427.12120987952449</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4">
-        <v>466.05298510390321</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4">
-        <v>473.76113038564222</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4">
-        <v>452.05418306797833</v>
+        <v>0</v>
       </c>
       <c r="P3" s="4">
-        <v>402.64424198762526</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="4">
-        <v>486.32270904100915</v>
+        <v>0</v>
       </c>
       <c r="R3" s="4">
-        <v>386.28310279959442</v>
+        <v>0</v>
       </c>
       <c r="S3" s="4">
-        <v>419.45037015797897</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4">
-        <v>129.03291882238841</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4">
-        <v>117.86808104206888</v>
+        <v>0</v>
       </c>
       <c r="V3" s="4">
         <v>0</v>
@@ -805,79 +805,79 @@
         <v>0</v>
       </c>
       <c r="C4" s="7">
-        <v>130.26735234474739</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>641.05189162049885</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="F4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="G4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="H4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="K4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="L4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="M4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="P4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="R4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="S4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="T4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="U4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="V4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="W4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="X4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="8">
-        <v>665.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
@@ -885,7 +885,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -894,73 +894,73 @@
         <v>0</v>
       </c>
       <c r="E5" s="7">
-        <v>46.5</v>
+        <v>7</v>
       </c>
       <c r="F5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="G5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="H5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="K5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="L5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="M5" s="7">
-        <v>46.5</v>
+        <v>1.3145040611561853E-13</v>
       </c>
       <c r="N5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="P5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="R5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="S5" s="7">
-        <v>42.477210131936829</v>
+        <v>0</v>
       </c>
       <c r="T5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="U5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="V5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="W5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="X5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="8">
-        <v>46.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.35">
@@ -968,82 +968,82 @@
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>0</v>
+        <v>119.84999999999815</v>
       </c>
       <c r="C6" s="7">
-        <v>212</v>
+        <v>100.32499999999959</v>
       </c>
       <c r="D6" s="7">
-        <v>212</v>
+        <v>65.984274999999343</v>
       </c>
       <c r="E6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="F6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="G6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="H6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="K6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="L6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="M6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="P6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="R6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="S6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="T6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="U6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="V6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="W6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="X6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="8">
-        <v>212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
@@ -1051,82 +1051,82 @@
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>192.67035526309442</v>
+        <v>0</v>
       </c>
       <c r="C7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="F7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="G7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="H7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="K7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="L7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="M7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="P7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="R7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="S7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="T7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="U7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="V7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="W7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="X7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="8">
-        <v>464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
@@ -1134,7 +1134,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1149,55 +1149,55 @@
         <v>0</v>
       </c>
       <c r="G8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="H8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="K8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="L8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="M8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="P8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="R8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="S8" s="7">
         <v>0</v>
       </c>
       <c r="T8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="U8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="V8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="W8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="X8" s="7">
         <v>0</v>
@@ -1217,82 +1217,82 @@
         <v>7</v>
       </c>
       <c r="B9" s="6">
-        <v>0</v>
+        <v>84.6</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>84.6</v>
       </c>
       <c r="D9" s="7">
         <v>84.6</v>
       </c>
       <c r="E9" s="7">
-        <v>84.6</v>
+        <v>84.429483474999074</v>
       </c>
       <c r="F9" s="7">
-        <v>84.6</v>
+        <v>82.462298826273468</v>
       </c>
       <c r="G9" s="7">
-        <v>84.6</v>
+        <v>83.684409515709945</v>
       </c>
       <c r="H9" s="7">
-        <v>84.6</v>
+        <v>77.807751388771521</v>
       </c>
       <c r="I9" s="7">
-        <v>84.6</v>
+        <v>81.703346874163003</v>
       </c>
       <c r="J9" s="7">
-        <v>84.6</v>
+        <v>81.365006141633444</v>
       </c>
       <c r="K9" s="7">
-        <v>84.6</v>
+        <v>80.500109638994331</v>
       </c>
       <c r="L9" s="7">
-        <v>84.6</v>
+        <v>77.694560625744884</v>
       </c>
       <c r="M9" s="7">
-        <v>84.6</v>
+        <v>80.088761671376218</v>
       </c>
       <c r="N9" s="7">
-        <v>84.6</v>
+        <v>77.684510526418194</v>
       </c>
       <c r="O9" s="7">
-        <v>84.6</v>
+        <v>80.483621121155807</v>
       </c>
       <c r="P9" s="7">
-        <v>84.6</v>
+        <v>78.487923711246253</v>
       </c>
       <c r="Q9" s="7">
-        <v>84.6</v>
+        <v>81.699265024647161</v>
       </c>
       <c r="R9" s="7">
-        <v>84.6</v>
+        <v>80.183102799596782</v>
       </c>
       <c r="S9" s="7">
-        <v>84.6</v>
+        <v>83.750533985557126</v>
       </c>
       <c r="T9" s="7">
-        <v>84.6</v>
+        <v>77.59423879142696</v>
       </c>
       <c r="U9" s="7">
-        <v>84.6</v>
+        <v>81.65253694054968</v>
       </c>
       <c r="V9" s="7">
-        <v>84.6</v>
+        <v>70.927359773014132</v>
       </c>
       <c r="W9" s="7">
-        <v>84.6</v>
+        <v>80.420656010971015</v>
       </c>
       <c r="X9" s="7">
-        <v>84.6</v>
+        <v>76.382744354061288</v>
       </c>
       <c r="Y9" s="7">
-        <v>84.6</v>
+        <v>83.109389053225982</v>
       </c>
       <c r="Z9" s="7">
-        <v>84.6</v>
+        <v>20.526573554725474</v>
       </c>
       <c r="AA9" s="8">
-        <v>84.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.35">
@@ -1300,7 +1300,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1312,64 +1312,64 @@
         <v>0</v>
       </c>
       <c r="F10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="G10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="H10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="K10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="L10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="M10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="P10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="R10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="S10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="T10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="U10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="V10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="W10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="X10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="7">
-        <v>85.51375562129715</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="7">
         <v>0</v>
@@ -1386,79 +1386,79 @@
         <v>0</v>
       </c>
       <c r="C11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="F11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="G11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="H11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="K11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="L11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="M11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="P11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="R11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="S11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="T11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="U11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="V11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="W11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="X11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="8">
-        <v>650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.35">
@@ -1466,82 +1466,82 @@
         <v>10</v>
       </c>
       <c r="B12" s="6">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="C12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="G12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="H12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="K12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="L12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="M12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="P12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="R12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="S12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="T12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="U12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="V12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="W12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="X12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="8">
-        <v>186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
@@ -1549,10 +1549,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="6">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="C13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
         <v>0</v>
@@ -1564,55 +1564,55 @@
         <v>0</v>
       </c>
       <c r="G13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="H13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="K13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="L13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="M13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="P13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="R13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="S13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="T13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="U13" s="7">
-        <v>153.99999999999935</v>
+        <v>0</v>
       </c>
       <c r="V13" s="7">
-        <v>90.066924690423036</v>
+        <v>0</v>
       </c>
       <c r="W13" s="7">
-        <v>44.932226380952073</v>
+        <v>0</v>
       </c>
       <c r="X13" s="7">
         <v>0</v>
@@ -1632,79 +1632,79 @@
         <v>12</v>
       </c>
       <c r="B14" s="6">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="C14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>85.515108379499111</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7">
         <v>0</v>
       </c>
       <c r="F14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="H14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="K14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="L14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="M14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="P14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="R14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="S14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="T14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="U14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="V14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="W14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="X14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="7">
-        <v>132.96125884377807</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="8">
         <v>0</v>
@@ -1715,19 +1715,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="6">
-        <v>1848</v>
+        <v>0</v>
       </c>
       <c r="C15" s="7">
-        <v>1848</v>
+        <v>0</v>
       </c>
       <c r="D15" s="7">
-        <v>1848</v>
+        <v>0</v>
       </c>
       <c r="E15" s="7">
-        <v>1254.6797472637363</v>
+        <v>0</v>
       </c>
       <c r="F15" s="7">
-        <v>607.83770948546908</v>
+        <v>0</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="6">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -1807,73 +1807,73 @@
         <v>0</v>
       </c>
       <c r="E16" s="7">
-        <v>604.92635573625989</v>
+        <v>0</v>
       </c>
       <c r="F16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="U16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="V16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="W16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="X16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="8">
-        <v>651.55241017337175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.35">
@@ -1881,7 +1881,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="6">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -1893,58 +1893,58 @@
         <v>0</v>
       </c>
       <c r="F17" s="7">
-        <v>24.084748441526244</v>
+        <v>0</v>
       </c>
       <c r="G17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="H17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="K17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="L17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="M17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="P17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="R17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="S17" s="7">
-        <v>28.366370434874398</v>
+        <v>0</v>
       </c>
       <c r="T17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="U17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="V17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="W17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="X17" s="7">
         <v>0</v>
@@ -1964,82 +1964,82 @@
         <v>16</v>
       </c>
       <c r="B18" s="6">
-        <v>67</v>
+        <v>1.5916157281026244E-12</v>
       </c>
       <c r="C18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
         <v>0</v>
       </c>
       <c r="E18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="F18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="H18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="K18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="L18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="M18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="P18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="R18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="S18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="T18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="U18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="V18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="W18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="X18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="8">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.35">
@@ -2047,22 +2047,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="6">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="C19" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="F19" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="G19" s="7">
-        <v>152.5020816708784</v>
+        <v>0</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2098,28 +2098,28 @@
         <v>0</v>
       </c>
       <c r="S19" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="T19" s="7">
-        <v>243.3262774589241</v>
+        <v>0</v>
       </c>
       <c r="U19" s="7">
-        <v>128.51664800577601</v>
+        <v>0</v>
       </c>
       <c r="V19" s="7">
-        <v>135.00956691885</v>
+        <v>0</v>
       </c>
       <c r="W19" s="7">
-        <v>55.50825365280312</v>
+        <v>0</v>
       </c>
       <c r="X19" s="7">
-        <v>79.06445869096126</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="7">
         <v>0</v>
       </c>
       <c r="Z19" s="7">
-        <v>42.671387508933805</v>
+        <v>0</v>
       </c>
       <c r="AA19" s="8">
         <v>0</v>
@@ -2130,55 +2130,55 @@
         <v>18</v>
       </c>
       <c r="B20" s="6">
-        <v>2269.6</v>
+        <v>0</v>
       </c>
       <c r="C20" s="7">
-        <v>2269.6</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>2269.6</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7">
-        <v>2269.6</v>
+        <v>0</v>
       </c>
       <c r="F20" s="7">
-        <v>2269.6</v>
+        <v>0</v>
       </c>
       <c r="G20" s="7">
-        <v>2269.6</v>
+        <v>0</v>
       </c>
       <c r="H20" s="7">
-        <v>2237.1019054333419</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>1978.7119199863257</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7">
-        <v>1760.4574188049342</v>
+        <v>0</v>
       </c>
       <c r="K20" s="7">
-        <v>1470.9206422412299</v>
+        <v>0</v>
       </c>
       <c r="L20" s="7">
-        <v>1326.3158997381511</v>
+        <v>0</v>
       </c>
       <c r="M20" s="7">
-        <v>1106.2893585003299</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>918.10659431102772</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7">
-        <v>759.96465115096203</v>
+        <v>0</v>
       </c>
       <c r="P20" s="7">
-        <v>630.15706173928584</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="7">
-        <v>417.89810641941591</v>
+        <v>0</v>
       </c>
       <c r="R20" s="7">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="S20" s="7">
         <v>0</v>
@@ -2187,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="7">
-        <v>-6.8212102632969618E-13</v>
+        <v>0</v>
       </c>
       <c r="V20" s="7">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6">
-        <v>15.829644736905736</v>
+        <v>0</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="7">
-        <v>2.6275825063407099E-11</v>
+        <v>0</v>
       </c>
       <c r="R21" s="7">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="6">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -2308,70 +2308,70 @@
         <v>0</v>
       </c>
       <c r="F22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="G22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="H22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="K22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="L22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="M22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="P22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="R22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="S22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="T22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="U22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="V22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="W22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="X22" s="7">
-        <v>397.51828566309803</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="7">
-        <v>355.79563343194741</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="7">
-        <v>243.0939272020116</v>
+        <v>0</v>
       </c>
       <c r="AA22" s="8">
-        <v>301.38810254334294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.35">
@@ -2379,34 +2379,34 @@
         <v>21</v>
       </c>
       <c r="B23" s="6">
-        <v>0</v>
+        <v>28.100000000000009</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>28.100000000000009</v>
       </c>
       <c r="D23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.1</v>
       </c>
       <c r="E23" s="7">
-        <v>28.099999999999994</v>
+        <v>28.1</v>
       </c>
       <c r="F23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.1</v>
       </c>
       <c r="G23" s="7">
         <v>28.1</v>
       </c>
       <c r="H23" s="7">
-        <v>28.099999999999994</v>
+        <v>28.1</v>
       </c>
       <c r="I23" s="7">
-        <v>28.099999999999994</v>
+        <v>28.1</v>
       </c>
       <c r="J23" s="7">
         <v>28.099999999999994</v>
       </c>
       <c r="K23" s="7">
-        <v>28.1</v>
+        <v>28.099999999999994</v>
       </c>
       <c r="L23" s="7">
         <v>28.100000000000009</v>
@@ -2433,28 +2433,28 @@
         <v>28.100000000000009</v>
       </c>
       <c r="T23" s="7">
+        <v>28.099999999999994</v>
+      </c>
+      <c r="U23" s="7">
+        <v>28.099999999999994</v>
+      </c>
+      <c r="V23" s="7">
         <v>28.100000000000009</v>
       </c>
-      <c r="U23" s="7">
-        <v>28.1</v>
-      </c>
-      <c r="V23" s="7">
-        <v>28.1</v>
-      </c>
       <c r="W23" s="7">
-        <v>28.1</v>
+        <v>28.100000000000009</v>
       </c>
       <c r="X23" s="7">
-        <v>28.1</v>
+        <v>28.100000000000009</v>
       </c>
       <c r="Y23" s="7">
+        <v>28.100000000000009</v>
+      </c>
+      <c r="Z23" s="7">
+        <v>28.100000000000009</v>
+      </c>
+      <c r="AA23" s="8">
         <v>28.099999999999994</v>
-      </c>
-      <c r="Z23" s="7">
-        <v>28.099999999999994</v>
-      </c>
-      <c r="AA23" s="8">
-        <v>28.1</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.35">
@@ -2462,10 +2462,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="6">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D24" s="7">
         <v>25</v>
@@ -2545,10 +2545,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="6">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D25" s="7">
         <v>70</v>
@@ -2628,10 +2628,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="6">
-        <v>0</v>
+        <v>30.6</v>
       </c>
       <c r="C26" s="7">
-        <v>30.599999999999998</v>
+        <v>30.6</v>
       </c>
       <c r="D26" s="7">
         <v>30.6</v>
@@ -2643,10 +2643,10 @@
         <v>30.6</v>
       </c>
       <c r="G26" s="7">
-        <v>30.599999999999998</v>
+        <v>30.6</v>
       </c>
       <c r="H26" s="7">
-        <v>30.599999999999998</v>
+        <v>30.6</v>
       </c>
       <c r="I26" s="7">
         <v>30.6</v>
@@ -2655,7 +2655,7 @@
         <v>30.6</v>
       </c>
       <c r="K26" s="7">
-        <v>30.599999999999998</v>
+        <v>30.6</v>
       </c>
       <c r="L26" s="7">
         <v>30.6</v>
@@ -2685,7 +2685,7 @@
         <v>30.6</v>
       </c>
       <c r="U26" s="7">
-        <v>30.599999999999998</v>
+        <v>30.6</v>
       </c>
       <c r="V26" s="7">
         <v>30.6</v>
@@ -2700,7 +2700,7 @@
         <v>30.6</v>
       </c>
       <c r="Z26" s="7">
-        <v>30.599999999999998</v>
+        <v>30.6</v>
       </c>
       <c r="AA26" s="8">
         <v>30.599999999999998</v>
@@ -2711,7 +2711,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C27" s="7">
         <v>10</v>
@@ -2732,7 +2732,7 @@
         <v>10</v>
       </c>
       <c r="I27" s="7">
-        <v>9.9999999999999858</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="J27" s="7">
         <v>10</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="W27" s="7">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
       <c r="X27" s="7">
         <v>10</v>
@@ -2786,7 +2786,7 @@
         <v>10</v>
       </c>
       <c r="AA27" s="8">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.35">
@@ -2794,7 +2794,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C28" s="7">
         <v>10</v>
@@ -2877,10 +2877,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>0.83264765525105133</v>
+        <v>10</v>
       </c>
       <c r="D29" s="7">
         <v>10</v>
@@ -2892,19 +2892,19 @@
         <v>10</v>
       </c>
       <c r="G29" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
       </c>
       <c r="I29" s="7">
-        <v>10</v>
+        <v>10.000000000000014</v>
       </c>
       <c r="J29" s="7">
         <v>10</v>
       </c>
       <c r="K29" s="7">
-        <v>10</v>
+        <v>9.9999999999999858</v>
       </c>
       <c r="L29" s="7">
         <v>10</v>
@@ -2960,25 +2960,25 @@
         <v>28</v>
       </c>
       <c r="B30" s="6">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="C30" s="7">
         <v>52.2</v>
       </c>
       <c r="D30" s="7">
-        <v>52.2</v>
+        <v>52.20000000000001</v>
       </c>
       <c r="E30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="F30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="G30" s="7">
         <v>52.200000000000017</v>
       </c>
       <c r="H30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.20000000000001</v>
       </c>
       <c r="I30" s="7">
         <v>52.2</v>
@@ -2987,7 +2987,7 @@
         <v>52.200000000000017</v>
       </c>
       <c r="K30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.2</v>
       </c>
       <c r="L30" s="7">
         <v>52.2</v>
@@ -3017,16 +3017,16 @@
         <v>52.2</v>
       </c>
       <c r="U30" s="7">
-        <v>52.20000000000001</v>
+        <v>52.2</v>
       </c>
       <c r="V30" s="7">
         <v>52.2</v>
       </c>
       <c r="W30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.2</v>
       </c>
       <c r="X30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.2</v>
       </c>
       <c r="Y30" s="7">
         <v>52.2</v>
@@ -3043,7 +3043,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C31" s="7">
         <v>10</v>
@@ -3052,13 +3052,13 @@
         <v>10</v>
       </c>
       <c r="E31" s="7">
-        <v>9.9999999999999858</v>
+        <v>10</v>
       </c>
       <c r="F31" s="7">
         <v>10</v>
       </c>
       <c r="G31" s="7">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
       <c r="H31" s="7">
         <v>10</v>
@@ -3070,7 +3070,7 @@
         <v>10</v>
       </c>
       <c r="K31" s="7">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
       <c r="L31" s="7">
         <v>10</v>
@@ -3103,7 +3103,7 @@
         <v>10</v>
       </c>
       <c r="V31" s="7">
-        <v>10.000000000000014</v>
+        <v>10</v>
       </c>
       <c r="W31" s="7">
         <v>10</v>
@@ -3112,7 +3112,7 @@
         <v>10</v>
       </c>
       <c r="Y31" s="7">
-        <v>9.9999999999999858</v>
+        <v>10</v>
       </c>
       <c r="Z31" s="7">
         <v>10</v>
@@ -3126,37 +3126,37 @@
         <v>30</v>
       </c>
       <c r="B32" s="6">
-        <v>0</v>
+        <v>20.200000000000003</v>
       </c>
       <c r="C32" s="7">
-        <v>20.2</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="D32" s="7">
-        <v>20.199999999999996</v>
+        <v>20.200000000000003</v>
       </c>
       <c r="E32" s="7">
         <v>20.199999999999996</v>
       </c>
       <c r="F32" s="7">
-        <v>20.200000000000003</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="G32" s="7">
-        <v>20.2</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="H32" s="7">
-        <v>20.2</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="I32" s="7">
         <v>20.199999999999996</v>
       </c>
       <c r="J32" s="7">
-        <v>20.200000000000003</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="K32" s="7">
         <v>20.2</v>
       </c>
       <c r="L32" s="7">
-        <v>20.2</v>
+        <v>20.200000000000003</v>
       </c>
       <c r="M32" s="7">
         <v>20.199999999999996</v>
@@ -3180,25 +3180,25 @@
         <v>20.199999999999996</v>
       </c>
       <c r="T32" s="7">
-        <v>20.199999999999996</v>
+        <v>20.2</v>
       </c>
       <c r="U32" s="7">
-        <v>20.2</v>
+        <v>20.200000000000003</v>
       </c>
       <c r="V32" s="7">
-        <v>20.199999999999996</v>
+        <v>20.200000000000003</v>
       </c>
       <c r="W32" s="7">
         <v>20.199999999999996</v>
       </c>
       <c r="X32" s="7">
-        <v>20.2</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="Y32" s="7">
         <v>20.199999999999996</v>
       </c>
       <c r="Z32" s="7">
-        <v>20.2</v>
+        <v>20.200000000000003</v>
       </c>
       <c r="AA32" s="8">
         <v>20.2</v>
@@ -3209,10 +3209,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="6">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C33" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D33" s="7">
         <v>70</v>
@@ -3292,10 +3292,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="6">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="C34" s="7">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="D34" s="7">
         <v>10.5</v>
@@ -3346,10 +3346,10 @@
         <v>10.5</v>
       </c>
       <c r="T34" s="7">
-        <v>10.5</v>
+        <v>10.499999999999986</v>
       </c>
       <c r="U34" s="7">
-        <v>10.5</v>
+        <v>10.499999999999986</v>
       </c>
       <c r="V34" s="7">
         <v>10.5</v>
@@ -3358,7 +3358,7 @@
         <v>10.5</v>
       </c>
       <c r="X34" s="7">
-        <v>10.499999999999993</v>
+        <v>10.5</v>
       </c>
       <c r="Y34" s="7">
         <v>10.5</v>
@@ -3375,10 +3375,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C35" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D35" s="7">
         <v>10</v>
@@ -3435,7 +3435,7 @@
         <v>10</v>
       </c>
       <c r="V35" s="7">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
       <c r="W35" s="7">
         <v>10</v>
@@ -3458,10 +3458,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C36" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D36" s="7">
         <v>10</v>
@@ -3527,7 +3527,7 @@
         <v>10</v>
       </c>
       <c r="Y36" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="Z36" s="7">
         <v>10</v>
@@ -3541,10 +3541,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C37" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D37" s="7">
         <v>10</v>
@@ -3610,7 +3610,7 @@
         <v>10</v>
       </c>
       <c r="Y37" s="7">
-        <v>10</v>
+        <v>10.000000000000002</v>
       </c>
       <c r="Z37" s="7">
         <v>10</v>
@@ -3624,10 +3624,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C38" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D38" s="7">
         <v>10</v>
@@ -3707,28 +3707,28 @@
         <v>37</v>
       </c>
       <c r="B39" s="6">
-        <v>0</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="C39" s="7">
-        <v>0</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="D39" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="E39" s="7">
         <v>10.099999999999994</v>
       </c>
       <c r="F39" s="7">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="G39" s="7">
         <v>10.1</v>
-      </c>
-      <c r="G39" s="7">
-        <v>10.100000000000001</v>
       </c>
       <c r="H39" s="7">
         <v>10.099999999999994</v>
       </c>
       <c r="I39" s="7">
-        <v>10.1</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="J39" s="7">
         <v>10.099999999999994</v>
@@ -3758,13 +3758,13 @@
         <v>10.099999999999994</v>
       </c>
       <c r="S39" s="7">
-        <v>10.1</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="T39" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="U39" s="7">
-        <v>10.100000000000001</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="V39" s="7">
         <v>10.099999999999994</v>
@@ -3773,10 +3773,10 @@
         <v>10.099999999999994</v>
       </c>
       <c r="X39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.1</v>
       </c>
       <c r="Y39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.1</v>
       </c>
       <c r="Z39" s="7">
         <v>10.099999999999994</v>
@@ -3790,13 +3790,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="6">
-        <v>0</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="C40" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="D40" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="E40" s="7">
         <v>10.100000000000001</v>
@@ -3811,16 +3811,16 @@
         <v>10.100000000000001</v>
       </c>
       <c r="I40" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="J40" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="K40" s="7">
-        <v>10.100000000000001</v>
+        <v>10.099999999999998</v>
       </c>
       <c r="L40" s="7">
-        <v>10.099999999999998</v>
+        <v>10.1</v>
       </c>
       <c r="M40" s="7">
         <v>10.100000000000001</v>
@@ -3841,22 +3841,22 @@
         <v>10.100000000000001</v>
       </c>
       <c r="S40" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="T40" s="7">
+        <v>10.099999999999998</v>
+      </c>
+      <c r="U40" s="7">
         <v>10.1</v>
       </c>
-      <c r="T40" s="7">
+      <c r="V40" s="7">
         <v>10.1</v>
-      </c>
-      <c r="U40" s="7">
-        <v>10.100000000000001</v>
-      </c>
-      <c r="V40" s="7">
-        <v>10.100000000000001</v>
       </c>
       <c r="W40" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="X40" s="7">
-        <v>10.099999999999998</v>
+        <v>10.1</v>
       </c>
       <c r="Y40" s="7">
         <v>10.1</v>
@@ -3873,10 +3873,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C41" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D41" s="7">
         <v>10</v>
@@ -3945,7 +3945,7 @@
         <v>10</v>
       </c>
       <c r="Z41" s="7">
-        <v>9.9999999999999858</v>
+        <v>10</v>
       </c>
       <c r="AA41" s="8">
         <v>10</v>
@@ -3956,7 +3956,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C42" s="7">
         <v>12</v>
@@ -3965,10 +3965,10 @@
         <v>12</v>
       </c>
       <c r="E42" s="7">
-        <v>12</v>
+        <v>11.999999999999993</v>
       </c>
       <c r="F42" s="7">
-        <v>12</v>
+        <v>11.999999999999993</v>
       </c>
       <c r="G42" s="7">
         <v>12</v>
@@ -4039,82 +4039,82 @@
         <v>41</v>
       </c>
       <c r="B43" s="6">
-        <v>0</v>
+        <v>5996.7499999999991</v>
       </c>
       <c r="C43" s="7">
-        <v>0</v>
+        <v>5999.2749999999978</v>
       </c>
       <c r="D43" s="7">
-        <v>0</v>
+        <v>5987.1827249999988</v>
       </c>
       <c r="E43" s="7">
-        <v>0</v>
+        <v>5950.4766195249977</v>
       </c>
       <c r="F43" s="7">
-        <v>0</v>
+        <v>5964.160159100722</v>
       </c>
       <c r="G43" s="7">
-        <v>0</v>
+        <v>5988.2368505326276</v>
       </c>
       <c r="H43" s="7">
-        <v>350</v>
+        <v>6000.0000000000018</v>
       </c>
       <c r="I43" s="7">
-        <v>650</v>
+        <v>6032.5838742771075</v>
       </c>
       <c r="J43" s="7">
-        <v>950</v>
+        <v>6049.9999999999973</v>
       </c>
       <c r="K43" s="7">
-        <v>1200</v>
+        <v>6078.5463815579114</v>
       </c>
       <c r="L43" s="7">
-        <v>1500</v>
+        <v>6099.642548991932</v>
       </c>
       <c r="M43" s="7">
-        <v>1750</v>
+        <v>6126.1535819328583</v>
       </c>
       <c r="N43" s="7">
-        <v>2000</v>
+        <v>6148.0832141702531</v>
       </c>
       <c r="O43" s="7">
-        <v>2250</v>
+        <v>6175.4352130977859</v>
       </c>
       <c r="P43" s="7">
-        <v>2500</v>
+        <v>6198.2133800156662</v>
       </c>
       <c r="Q43" s="7">
-        <v>2700</v>
+        <v>6226.4215504358053</v>
       </c>
       <c r="R43" s="7">
-        <v>2950</v>
+        <v>6249.9999999999991</v>
       </c>
       <c r="S43" s="7">
-        <v>3200</v>
+        <v>6279.1434167392345</v>
       </c>
       <c r="T43" s="7">
-        <v>3450</v>
+        <v>6298.6649574898875</v>
       </c>
       <c r="U43" s="7">
-        <v>3650</v>
+        <v>6328.6321921072949</v>
       </c>
       <c r="V43" s="7">
-        <v>3900</v>
+        <v>6344.049131836261</v>
       </c>
       <c r="W43" s="7">
-        <v>4100</v>
+        <v>6379.9198240227852</v>
       </c>
       <c r="X43" s="7">
-        <v>4350</v>
+        <v>6400</v>
       </c>
       <c r="Y43" s="7">
-        <v>4550</v>
+        <v>6400.0000000000309</v>
       </c>
       <c r="Z43" s="7">
-        <v>4800</v>
+        <v>6400</v>
       </c>
       <c r="AA43" s="8">
-        <v>5000</v>
+        <v>6399.9999999999827</v>
       </c>
       <c r="AB43" t="s">
         <v>17</v>
@@ -4125,82 +4125,82 @@
         <v>42</v>
       </c>
       <c r="B44" s="6">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="C44" s="7">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="D44" s="7">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="E44" s="7">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="F44" s="7">
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="G44" s="7">
-        <v>0</v>
+        <v>820</v>
       </c>
       <c r="H44" s="7">
-        <v>0</v>
+        <v>880</v>
       </c>
       <c r="I44" s="7">
-        <v>0</v>
+        <v>910</v>
       </c>
       <c r="J44" s="7">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="K44" s="7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L44" s="7">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="M44" s="7">
-        <v>0</v>
+        <v>1090</v>
       </c>
       <c r="N44" s="7">
-        <v>0</v>
+        <v>1140</v>
       </c>
       <c r="O44" s="7">
-        <v>0</v>
+        <v>1180</v>
       </c>
       <c r="P44" s="7">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="Q44" s="7">
-        <v>0</v>
+        <v>1270</v>
       </c>
       <c r="R44" s="7">
-        <v>0</v>
+        <v>1320</v>
       </c>
       <c r="S44" s="7">
-        <v>0</v>
+        <v>1360</v>
       </c>
       <c r="T44" s="7">
-        <v>0</v>
+        <v>1420</v>
       </c>
       <c r="U44" s="7">
-        <v>0</v>
+        <v>1460</v>
       </c>
       <c r="V44" s="7">
-        <v>0</v>
+        <v>1530</v>
       </c>
       <c r="W44" s="7">
-        <v>0</v>
+        <v>1560</v>
       </c>
       <c r="X44" s="7">
-        <v>0</v>
+        <v>1620</v>
       </c>
       <c r="Y44" s="7">
-        <v>0</v>
+        <v>1689.9999999999902</v>
       </c>
       <c r="Z44" s="7">
-        <v>0</v>
+        <v>1830</v>
       </c>
       <c r="AA44" s="8">
-        <v>0</v>
+        <v>1928.6405127167338</v>
       </c>
       <c r="AB44" t="s">
         <v>18</v>
@@ -4307,82 +4307,82 @@
         <v>1</v>
       </c>
       <c r="B49" s="3">
-        <v>134.59011842103158</v>
+        <v>-1100.0000000000007</v>
       </c>
       <c r="C49" s="4">
-        <v>238.16156822983203</v>
+        <v>-1100</v>
       </c>
       <c r="D49" s="4">
-        <v>389.57841108033307</v>
+        <v>-1100</v>
       </c>
       <c r="E49" s="4">
-        <v>445.38034435000094</v>
+        <v>-1100</v>
       </c>
       <c r="F49" s="4">
-        <v>630.82005026299339</v>
+        <v>-1100</v>
       </c>
       <c r="G49" s="4">
-        <v>988.85720646479319</v>
+        <v>-1100</v>
       </c>
       <c r="H49" s="4">
-        <v>846.83951964716664</v>
+        <v>-1098.1931785417196</v>
       </c>
       <c r="I49" s="4">
-        <v>762.88527618929629</v>
+        <v>-1100</v>
       </c>
       <c r="J49" s="4">
-        <v>665.82177982875533</v>
+        <v>-1098.0924139029312</v>
       </c>
       <c r="K49" s="4">
-        <v>626.12404029153095</v>
+        <v>-1100</v>
       </c>
       <c r="L49" s="4">
-        <v>505.05639941523725</v>
+        <v>-1100</v>
       </c>
       <c r="M49" s="4">
-        <v>442.73926845512926</v>
+        <v>-1100</v>
       </c>
       <c r="N49" s="4">
-        <v>370.0866113431598</v>
+        <v>-1100</v>
       </c>
       <c r="O49" s="4">
-        <v>287.7019250148694</v>
+        <v>-1100</v>
       </c>
       <c r="P49" s="4">
-        <v>196.1565660973481</v>
+        <v>-1100</v>
       </c>
       <c r="Q49" s="4">
-        <v>165.71499815072264</v>
+        <v>-1100</v>
       </c>
       <c r="R49" s="4">
-        <v>57.442396259817713</v>
+        <v>-1099.9576037401812</v>
       </c>
       <c r="S49" s="4">
-        <v>-41.526512318802133</v>
+        <v>-1100</v>
       </c>
       <c r="T49" s="4">
-        <v>-177.93212082638382</v>
+        <v>-1100</v>
       </c>
       <c r="U49" s="4">
-        <v>-239.68408793039487</v>
+        <v>-1100</v>
       </c>
       <c r="V49" s="4">
-        <v>-332.28171754239202</v>
+        <v>-1100</v>
       </c>
       <c r="W49" s="4">
-        <v>-375.11101945637904</v>
+        <v>-1100</v>
       </c>
       <c r="X49" s="4">
-        <v>-468.42867982535927</v>
+        <v>-1099.1677650406721</v>
       </c>
       <c r="Y49" s="4">
-        <v>-526.97265273668881</v>
+        <v>-1087.9741082593891</v>
       </c>
       <c r="Z49" s="4">
-        <v>-624.09898603320789</v>
+        <v>-1099.8030419003735</v>
       </c>
       <c r="AA49" s="5">
-        <v>-635.81607690750707</v>
+        <v>-1097.5319401830441</v>
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.35">
@@ -4390,82 +4390,82 @@
         <v>2</v>
       </c>
       <c r="B50" s="6">
-        <v>-371.30988157896866</v>
+        <v>1559.5499999999995</v>
       </c>
       <c r="C50" s="7">
-        <v>-210.30578411491643</v>
+        <v>1530.5749999999998</v>
       </c>
       <c r="D50" s="7">
-        <v>-241.38998054016702</v>
+        <v>1486.6992249999996</v>
       </c>
       <c r="E50" s="7">
-        <v>-291.56660415000147</v>
+        <v>1417.9235680249994</v>
       </c>
       <c r="F50" s="7">
-        <v>-584.15346921503601</v>
+        <v>1399.2489301372245</v>
       </c>
       <c r="G50" s="7">
-        <v>-712.60342355937644</v>
+        <v>1390.6762205084592</v>
       </c>
       <c r="H50" s="7">
-        <v>-537.56435604721923</v>
+        <v>1371.302945763895</v>
       </c>
       <c r="I50" s="7">
-        <v>-354.75833438633958</v>
+        <v>1368.8402637014724</v>
       </c>
       <c r="J50" s="7">
-        <v>-185.36072324205941</v>
+        <v>1354.6250830262511</v>
       </c>
       <c r="K50" s="7">
-        <v>-8.8992053069221129</v>
+        <v>1347.4231359594585</v>
       </c>
       <c r="L50" s="7">
-        <v>135.88784460639855</v>
+        <v>1334.3739941830934</v>
       </c>
       <c r="M50" s="7">
-        <v>289.11809665301132</v>
+        <v>1326.4324101307411</v>
       </c>
       <c r="N50" s="7">
-        <v>431.70274899482342</v>
+        <v>1313.5993518219175</v>
       </c>
       <c r="O50" s="7">
-        <v>564.24250790539827</v>
+        <v>1305.8757959883146</v>
       </c>
       <c r="P50" s="7">
-        <v>687.30591423389239</v>
+        <v>1293.2627281522095</v>
       </c>
       <c r="Q50" s="7">
-        <v>821.15459042049599</v>
+        <v>1285.7611427055792</v>
       </c>
       <c r="R50" s="7">
-        <v>926.85084486001972</v>
+        <v>1273.3508448600198</v>
       </c>
       <c r="S50" s="7">
-        <v>1041.5265123188021</v>
+        <v>1266.0964413768384</v>
       </c>
       <c r="T50" s="7">
-        <v>1118.4382810329591</v>
+        <v>1248.9353593492299</v>
       </c>
       <c r="U50" s="7">
-        <v>1219.6735475456819</v>
+        <v>1241.8898275833728</v>
       </c>
       <c r="V50" s="7">
-        <v>1275.7969613433938</v>
+        <v>1219.960886031623</v>
       </c>
       <c r="W50" s="7">
-        <v>1350.1509669076947</v>
+        <v>1218.1495840059074</v>
       </c>
       <c r="X50" s="7">
-        <v>1423.8799479976105</v>
+        <v>1201.0408627822962</v>
       </c>
       <c r="Y50" s="7">
-        <v>1526.9726527366884</v>
+        <v>1173.8711972140172</v>
       </c>
       <c r="Z50" s="7">
-        <v>1624.0989860332079</v>
+        <v>1123.3336713222634</v>
       </c>
       <c r="AA50" s="8">
-        <v>1635.8160769075071</v>
+        <v>1086.5478034585801</v>
       </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.35">
@@ -4473,82 +4473,82 @@
         <v>3</v>
       </c>
       <c r="B51" s="9">
-        <v>236.71976315793711</v>
+        <v>-459.54999999999882</v>
       </c>
       <c r="C51" s="10">
-        <v>-27.855784114915593</v>
+        <v>-430.57499999999982</v>
       </c>
       <c r="D51" s="10">
-        <v>-148.18843054016605</v>
+        <v>-386.69922499999961</v>
       </c>
       <c r="E51" s="10">
-        <v>-153.81374019999947</v>
+        <v>-317.92356802499944</v>
       </c>
       <c r="F51" s="10">
-        <v>-46.666581047957266</v>
+        <v>-299.24893013722408</v>
       </c>
       <c r="G51" s="10">
-        <v>-276.25378290541647</v>
+        <v>-290.67622050845921</v>
       </c>
       <c r="H51" s="10">
-        <v>-309.27516359994735</v>
+        <v>-273.10976722217526</v>
       </c>
       <c r="I51" s="10">
-        <v>-408.12694180295694</v>
+        <v>-268.8402637014724</v>
       </c>
       <c r="J51" s="10">
-        <v>-480.46105658669592</v>
+        <v>-256.53266912331992</v>
       </c>
       <c r="K51" s="10">
-        <v>-617.22483498460883</v>
+        <v>-247.42313595945848</v>
       </c>
       <c r="L51" s="10">
-        <v>-640.94424402163565</v>
+        <v>-234.37399418309337</v>
       </c>
       <c r="M51" s="10">
-        <v>-731.85736510814058</v>
+        <v>-226.43241013074112</v>
       </c>
       <c r="N51" s="10">
-        <v>-801.78936033798323</v>
+        <v>-213.59935182191748</v>
       </c>
       <c r="O51" s="10">
-        <v>-851.94443292026767</v>
+        <v>-205.87579598831462</v>
       </c>
       <c r="P51" s="10">
-        <v>-883.4624803312405</v>
+        <v>-193.26272815220955</v>
       </c>
       <c r="Q51" s="10">
-        <v>-986.86958857121863</v>
+        <v>-185.76114270557923</v>
       </c>
       <c r="R51" s="10">
-        <v>-984.29324111983738</v>
+        <v>-173.39324111983865</v>
       </c>
       <c r="S51" s="10">
-        <v>-1000</v>
+        <v>-166.09644137683836</v>
       </c>
       <c r="T51" s="10">
-        <v>-940.50616020657537</v>
+        <v>-148.93535934922988</v>
       </c>
       <c r="U51" s="10">
-        <v>-979.98945961528705</v>
+        <v>-141.88982758337283</v>
       </c>
       <c r="V51" s="10">
-        <v>-943.51524380100182</v>
+        <v>-119.96088603162298</v>
       </c>
       <c r="W51" s="10">
-        <v>-975.03994745131558</v>
+        <v>-118.1495840059074</v>
       </c>
       <c r="X51" s="10">
-        <v>-955.45126817225139</v>
+        <v>-101.87309774162418</v>
       </c>
       <c r="Y51" s="10">
-        <v>-1000</v>
+        <v>-85.897088954628202</v>
       </c>
       <c r="Z51" s="10">
-        <v>-1000</v>
+        <v>-23.530629421889898</v>
       </c>
       <c r="AA51" s="11">
-        <v>-1000</v>
+        <v>10.984136724463951</v>
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.35">
@@ -4639,86 +4639,86 @@
         <v>8</v>
       </c>
       <c r="B54" s="15">
-        <v>185343.2957730355</v>
+        <v>419066448.64103276</v>
       </c>
       <c r="C54" s="16">
-        <v>150354.42590554882</v>
+        <v>125273086.48681155</v>
       </c>
       <c r="D54" s="16">
-        <v>122850.98857876594</v>
+        <v>121082739.88063765</v>
       </c>
       <c r="E54" s="16">
-        <v>115767.04458876402</v>
+        <v>120287243.3532899</v>
       </c>
       <c r="F54" s="16">
-        <v>110839.76863109929</v>
+        <v>101061042.67947546</v>
       </c>
       <c r="G54" s="16">
-        <v>107601.0888445215</v>
+        <v>91054722.542002589</v>
       </c>
       <c r="H54" s="16">
-        <v>11641550.231811121</v>
+        <v>85756835.58219102</v>
       </c>
       <c r="I54" s="16">
-        <v>12324968.133583765</v>
+        <v>77835636.33026889</v>
       </c>
       <c r="J54" s="16">
-        <v>13729770.539331574</v>
+        <v>72095477.491315469</v>
       </c>
       <c r="K54" s="16">
-        <v>13539056.792083366</v>
+        <v>66837002.123430684</v>
       </c>
       <c r="L54" s="16">
-        <v>15173431.935465464</v>
+        <v>61305279.967726842</v>
       </c>
       <c r="M54" s="16">
-        <v>14667613.021367956</v>
+        <v>56802866.981785446</v>
       </c>
       <c r="N54" s="16">
-        <v>14771698.232724916</v>
+        <v>52088861.87211591</v>
       </c>
       <c r="O54" s="16">
-        <v>14735518.731834156</v>
+        <v>48238464.927511126</v>
       </c>
       <c r="P54" s="16">
-        <v>14583734.508809622</v>
+        <v>44224961.578445897</v>
       </c>
       <c r="Q54" s="16">
-        <v>13638852.260879792</v>
+        <v>40935877.731673487</v>
       </c>
       <c r="R54" s="16">
-        <v>13819966.051143175</v>
+        <v>37521716.813343227</v>
       </c>
       <c r="S54" s="16">
-        <v>13455936.071670964</v>
+        <v>34715087.464546926</v>
       </c>
       <c r="T54" s="16">
-        <v>13043632.510209475</v>
+        <v>32145404.736540187</v>
       </c>
       <c r="U54" s="16">
-        <v>12117802.26314237</v>
+        <v>29485302.677763384</v>
       </c>
       <c r="V54" s="16">
-        <v>11986589.48512092</v>
+        <v>27563924.879889011</v>
       </c>
       <c r="W54" s="16">
-        <v>11111677.895684551</v>
+        <v>24829028.306883618</v>
       </c>
       <c r="X54" s="16">
-        <v>10903515.051872116</v>
+        <v>23150557.073793795</v>
       </c>
       <c r="Y54" s="16">
-        <v>10089803.231113574</v>
+        <v>21517631.109444827</v>
       </c>
       <c r="Z54" s="16">
-        <v>9835358.2539883424</v>
+        <v>21155858.060010906</v>
       </c>
       <c r="AA54" s="17">
-        <v>9087917.6781258415</v>
+        <v>19062229.216091473</v>
       </c>
       <c r="AB54" s="18">
         <f>SUM(TotalCost)</f>
-        <v>255051149.4922848</v>
+        <v>1855093288.5080221</v>
       </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.35">
@@ -4812,86 +4812,86 @@
         <v>10</v>
       </c>
       <c r="B57" s="3">
-        <v>13395.809006237852</v>
+        <v>127.23839999999862</v>
       </c>
       <c r="C57" s="4">
-        <v>10788.134900264893</v>
+        <v>106.61999999999958</v>
       </c>
       <c r="D57" s="4">
-        <v>9558.804967341759</v>
+        <v>70.35619439999931</v>
       </c>
       <c r="E57" s="4">
-        <v>9312.0249598840437</v>
+        <v>174.35243586779998</v>
       </c>
       <c r="F57" s="4">
-        <v>8666.7645106792806</v>
+        <v>0.65969839061018776</v>
       </c>
       <c r="G57" s="4">
-        <v>7992.7910405343537</v>
+        <v>0.66947527612567959</v>
       </c>
       <c r="H57" s="4">
-        <v>7231.7522186328642</v>
+        <v>0.62246201111017219</v>
       </c>
       <c r="I57" s="4">
-        <v>6939.5927342366704</v>
+        <v>0.65362677499330402</v>
       </c>
       <c r="J57" s="4">
-        <v>6641.5502674662939</v>
+        <v>0.65092004913306756</v>
       </c>
       <c r="K57" s="4">
-        <v>6428.200739953425</v>
+        <v>0.64400087711195464</v>
       </c>
       <c r="L57" s="4">
-        <v>6119.5279553645905</v>
+        <v>0.62155648500595906</v>
       </c>
       <c r="M57" s="4">
-        <v>5896.2592355312281</v>
+        <v>0.64071009337427121</v>
       </c>
       <c r="N57" s="4">
-        <v>5668.5319125448623</v>
+        <v>0.62147608421134559</v>
       </c>
       <c r="O57" s="4">
-        <v>5436.6569033792557</v>
+        <v>0.6438689689692465</v>
       </c>
       <c r="P57" s="4">
-        <v>5200.9289870833718</v>
+        <v>0.62790338968997006</v>
       </c>
       <c r="Q57" s="4">
-        <v>5051.8183299385892</v>
+        <v>0.65359412019717733</v>
       </c>
       <c r="R57" s="4">
-        <v>4809.2087187230172</v>
+        <v>0.64146482239677427</v>
       </c>
       <c r="S57" s="4">
-        <v>5099.2167571217269</v>
+        <v>0.67000427188445699</v>
       </c>
       <c r="T57" s="4">
-        <v>4929.3134908072589</v>
+        <v>0.62075391033141569</v>
       </c>
       <c r="U57" s="4">
-        <v>4478.6003618073182</v>
+        <v>0.65322029552439742</v>
       </c>
       <c r="V57" s="4">
-        <v>4143.4773551581557</v>
+        <v>0.56741887818411307</v>
       </c>
       <c r="W57" s="4">
-        <v>3708.1193862656064</v>
+        <v>0.64336524808776818</v>
       </c>
       <c r="X57" s="4">
-        <v>3352.1940770678111</v>
+        <v>0.61106195483249026</v>
       </c>
       <c r="Y57" s="4">
-        <v>2961.9204175372606</v>
+        <v>0.66487511242580788</v>
       </c>
       <c r="Z57" s="4">
-        <v>2768.3019467310883</v>
+        <v>0.16421258843780379</v>
       </c>
       <c r="AA57" s="5">
-        <v>2672.733379103548</v>
+        <v>0</v>
       </c>
       <c r="AB57" s="12">
         <f>SUM(B57:AA57)</f>
-        <v>159252.23455939617</v>
+        <v>491.5126998704348</v>
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.35">
@@ -4899,86 +4899,86 @@
         <v>11</v>
       </c>
       <c r="B58" s="6">
-        <v>2413.9885322768887</v>
+        <v>0.47940000000000055</v>
       </c>
       <c r="C58" s="7">
-        <v>2265.7469347046895</v>
+        <v>0.40129999999999838</v>
       </c>
       <c r="D58" s="7">
-        <v>2260.5965095418974</v>
+        <v>0.26393709999999737</v>
       </c>
       <c r="E58" s="7">
-        <v>1949.7252897817255</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="F58" s="7">
-        <v>1610.7981043449747</v>
+        <v>0</v>
       </c>
       <c r="G58" s="7">
-        <v>1150.4026949077688</v>
+        <v>0</v>
       </c>
       <c r="H58" s="7">
-        <v>928.34771465728033</v>
+        <v>0</v>
       </c>
       <c r="I58" s="7">
-        <v>824.41550616380891</v>
+        <v>0</v>
       </c>
       <c r="J58" s="7">
-        <v>736.34160047708212</v>
+        <v>0</v>
       </c>
       <c r="K58" s="7">
-        <v>620.51602561486106</v>
+        <v>0</v>
       </c>
       <c r="L58" s="7">
-        <v>561.54347727351114</v>
+        <v>0</v>
       </c>
       <c r="M58" s="7">
-        <v>473.18423535646423</v>
+        <v>3.8120617773529373E-15</v>
       </c>
       <c r="N58" s="7">
-        <v>397.40824655042934</v>
+        <v>0</v>
       </c>
       <c r="O58" s="7">
-        <v>333.50338787838155</v>
+        <v>0</v>
       </c>
       <c r="P58" s="7">
-        <v>280.79564981683325</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="7">
-        <v>195.92471855958934</v>
+        <v>0</v>
       </c>
       <c r="R58" s="7">
-        <v>163.73146482239679</v>
+        <v>0</v>
       </c>
       <c r="S58" s="7">
-        <v>376.80973050205012</v>
+        <v>0</v>
       </c>
       <c r="T58" s="7">
-        <v>356.79383208201045</v>
+        <v>0</v>
       </c>
       <c r="U58" s="7">
-        <v>199.98936917622052</v>
+        <v>0</v>
       </c>
       <c r="V58" s="7">
-        <v>207.39779424175362</v>
+        <v>0</v>
       </c>
       <c r="W58" s="7">
-        <v>98.517424047123882</v>
+        <v>0</v>
       </c>
       <c r="X58" s="7">
-        <v>128.3450141128038</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="7">
-        <v>20.11007947899401</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="7">
-        <v>76.764230252015167</v>
+        <v>0</v>
       </c>
       <c r="AA58" s="8">
-        <v>17.963283589017003</v>
+        <v>0</v>
       </c>
       <c r="AB58" s="13">
         <f t="shared" ref="AB58:AB61" si="0">SUM(B58:AA58)</f>
-        <v>18649.660850210566</v>
+        <v>1.3476371</v>
       </c>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.35">
@@ -4986,86 +4986,86 @@
         <v>12</v>
       </c>
       <c r="B59" s="6">
-        <v>14017815.71121002</v>
+        <v>106950.48810000002</v>
       </c>
       <c r="C59" s="7">
-        <v>13261661.088989645</v>
+        <v>90435.657349999659</v>
       </c>
       <c r="D59" s="7">
-        <v>12546295.26186293</v>
+        <v>61389.24192324945</v>
       </c>
       <c r="E59" s="7">
-        <v>11869517.984329415</v>
+        <v>13084.016274990165</v>
       </c>
       <c r="F59" s="7">
-        <v>11229247.697411524</v>
+        <v>5436.8218239150356</v>
       </c>
       <c r="G59" s="7">
-        <v>10623515.126418673</v>
+        <v>5517.3968037802724</v>
       </c>
       <c r="H59" s="7">
-        <v>10050457.224063346</v>
+        <v>5129.9428568130952</v>
       </c>
       <c r="I59" s="7">
-        <v>9508311.4403000306</v>
+        <v>5386.7833627604405</v>
       </c>
       <c r="J59" s="7">
-        <v>8995410.3012627903</v>
+        <v>5364.476219924034</v>
       </c>
       <c r="K59" s="7">
-        <v>8510176.2806279529</v>
+        <v>5307.4527286085349</v>
       </c>
       <c r="L59" s="7">
-        <v>8051116.947627808</v>
+        <v>5122.480076615986</v>
       </c>
       <c r="M59" s="7">
-        <v>7616820.3767920891</v>
+        <v>5280.3321457556458</v>
       </c>
       <c r="N59" s="7">
-        <v>7205950.8052990194</v>
+        <v>5121.8174635172782</v>
       </c>
       <c r="O59" s="7">
-        <v>6817244.5245792577</v>
+        <v>5306.3656241389235</v>
       </c>
       <c r="P59" s="7">
-        <v>6449505.9935365934</v>
+        <v>5174.7872982061763</v>
       </c>
       <c r="Q59" s="7">
-        <v>6101604.161430845</v>
+        <v>5386.5142423400121</v>
       </c>
       <c r="R59" s="7">
-        <v>5772468.9891132778</v>
+        <v>5286.5521506802152</v>
       </c>
       <c r="S59" s="7">
-        <v>5461088.1579149337</v>
+        <v>5521.7564562017669</v>
       </c>
       <c r="T59" s="7">
-        <v>5166503.9560654238</v>
+        <v>5115.8657577575705</v>
       </c>
       <c r="U59" s="7">
-        <v>4887810.3330657603</v>
+        <v>5383.433413027381</v>
       </c>
       <c r="V59" s="7">
-        <v>4624150.1129553942</v>
+        <v>4676.311757194595</v>
       </c>
       <c r="W59" s="7">
-        <v>4374712.3579023099</v>
+        <v>5302.2142714593301</v>
       </c>
       <c r="X59" s="7">
-        <v>4138729.8740074006</v>
+        <v>5035.9907180076143</v>
       </c>
       <c r="Y59" s="7">
-        <v>3895260.8637902355</v>
+        <v>5479.4851296682418</v>
       </c>
       <c r="Z59" s="7">
-        <v>3685141.1441713171</v>
+        <v>1353.337521036605</v>
       </c>
       <c r="AA59" s="8">
-        <v>3479546.1153387381</v>
+        <v>0</v>
       </c>
       <c r="AB59" s="13">
         <f t="shared" si="0"/>
-        <v>198340062.83006674</v>
+        <v>378549.52146964805</v>
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.35">
@@ -5073,86 +5073,86 @@
         <v>13</v>
       </c>
       <c r="B60" s="6">
-        <v>1143.0110237631643</v>
+        <v>5.3156999999999783</v>
       </c>
       <c r="C60" s="7">
-        <v>1129.461877637516</v>
+        <v>4.8080499999999891</v>
       </c>
       <c r="D60" s="7">
-        <v>1120.2456230837952</v>
+        <v>3.9151911499999823</v>
       </c>
       <c r="E60" s="7">
-        <v>973.64233599940644</v>
+        <v>2.3351665703499758</v>
       </c>
       <c r="F60" s="7">
-        <v>815.41852060693975</v>
+        <v>2.1440197694831102</v>
       </c>
       <c r="G60" s="7">
-        <v>642.61487861710771</v>
+        <v>2.1757946474084586</v>
       </c>
       <c r="H60" s="7">
-        <v>595.01606521456551</v>
+        <v>2.0230015361080596</v>
       </c>
       <c r="I60" s="7">
-        <v>537.99196538490924</v>
+        <v>2.1242870187282379</v>
       </c>
       <c r="J60" s="7">
-        <v>488.96918648958103</v>
+        <v>2.1154901596824693</v>
       </c>
       <c r="K60" s="7">
-        <v>426.97572359473043</v>
+        <v>2.0930028506138525</v>
       </c>
       <c r="L60" s="7">
-        <v>392.63835467871627</v>
+        <v>2.020058576269367</v>
       </c>
       <c r="M60" s="7">
-        <v>344.50679858806723</v>
+        <v>2.0823078034557843</v>
       </c>
       <c r="N60" s="7">
-        <v>302.7270376606146</v>
+        <v>2.0197972736868728</v>
       </c>
       <c r="O60" s="7">
-        <v>266.94041760029597</v>
+        <v>2.0925741491500509</v>
       </c>
       <c r="P60" s="7">
-        <v>236.80748657556373</v>
+        <v>2.0406860164924026</v>
       </c>
       <c r="Q60" s="7">
-        <v>191.48202274851704</v>
+        <v>2.1241808906408259</v>
       </c>
       <c r="R60" s="7">
-        <v>171.70979446719025</v>
+        <v>2.0847606727895163</v>
       </c>
       <c r="S60" s="7">
-        <v>157.16414508817184</v>
+        <v>2.1775138836244854</v>
       </c>
       <c r="T60" s="7">
-        <v>150.30403313900942</v>
+        <v>2.0174502085771007</v>
       </c>
       <c r="U60" s="7">
-        <v>121.44847929844768</v>
+        <v>2.1229659604542914</v>
       </c>
       <c r="V60" s="7">
-        <v>118.44625605412547</v>
+        <v>1.8441113540983674</v>
       </c>
       <c r="W60" s="7">
-        <v>97.386657498214618</v>
+        <v>2.0909370562852465</v>
       </c>
       <c r="X60" s="7">
-        <v>97.772843926953001</v>
+        <v>1.9859513532055935</v>
       </c>
       <c r="Y60" s="7">
-        <v>76.892153504437616</v>
+        <v>2.1608441153838753</v>
       </c>
       <c r="Z60" s="7">
-        <v>81.722504254117055</v>
+        <v>0.53369091242286226</v>
       </c>
       <c r="AA60" s="8">
-        <v>69.096041433177916</v>
+        <v>0</v>
       </c>
       <c r="AB60" s="13">
         <f t="shared" si="0"/>
-        <v>10750.392226907335</v>
+        <v>58.447533928910758</v>
       </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.35">
@@ -5160,86 +5160,86 @@
         <v>14</v>
       </c>
       <c r="B61" s="9">
-        <v>163.18245218421194</v>
+        <v>0.61334999999999762</v>
       </c>
       <c r="C61" s="10">
-        <v>161.56613470468949</v>
+        <v>0.55477499999999869</v>
       </c>
       <c r="D61" s="10">
-        <v>161.01364910837947</v>
+        <v>0.45175282499999803</v>
       </c>
       <c r="E61" s="10">
-        <v>139.11516895775821</v>
+        <v>0.26728845042499721</v>
       </c>
       <c r="F61" s="10">
-        <v>115.37616262474334</v>
+        <v>0.24738689647882042</v>
       </c>
       <c r="G61" s="10">
-        <v>89.13771329690654</v>
+        <v>0.25105322854712986</v>
       </c>
       <c r="H61" s="10">
-        <v>82.409472665777812</v>
+        <v>0.23342325416631457</v>
       </c>
       <c r="I61" s="10">
-        <v>74.190732041892318</v>
+        <v>0.24511004062248901</v>
       </c>
       <c r="J61" s="10">
-        <v>67.177252576431286</v>
+        <v>0.24409501842490033</v>
       </c>
       <c r="K61" s="10">
-        <v>58.126512249630707</v>
+        <v>0.241500328916983</v>
       </c>
       <c r="L61" s="10">
-        <v>53.324951211379876</v>
+        <v>0.23308368187723466</v>
       </c>
       <c r="M61" s="10">
-        <v>46.361965442218363</v>
+        <v>0.24026628501412892</v>
       </c>
       <c r="N61" s="10">
-        <v>40.355533278724167</v>
+        <v>0.2330535315792546</v>
       </c>
       <c r="O61" s="10">
-        <v>35.251577202966736</v>
+        <v>0.24145086336346744</v>
       </c>
       <c r="P61" s="10">
-        <v>30.998914459632399</v>
+        <v>0.23546377113373876</v>
       </c>
       <c r="Q61" s="10">
-        <v>24.373984823503964</v>
+        <v>0.2450977950739415</v>
       </c>
       <c r="R61" s="10">
-        <v>21.681166205599194</v>
+        <v>0.24054930839879035</v>
       </c>
       <c r="S61" s="10">
-        <v>19.741154271884454</v>
+        <v>0.2512516019566714</v>
       </c>
       <c r="T61" s="10">
-        <v>19.046411826166047</v>
+        <v>0.23278271637428088</v>
       </c>
       <c r="U61" s="10">
-        <v>14.890935490292053</v>
+        <v>0.24495761082164905</v>
       </c>
       <c r="V61" s="10">
-        <v>14.697145183149871</v>
+        <v>0.21278207931904239</v>
       </c>
       <c r="W61" s="10">
-        <v>11.699693810643769</v>
+        <v>0.24126196803291305</v>
       </c>
       <c r="X61" s="10">
-        <v>11.955175369863898</v>
+        <v>0.22914823306218388</v>
       </c>
       <c r="Y61" s="10">
-        <v>8.9762281671597339</v>
+        <v>0.24932816715967795</v>
       </c>
       <c r="Z61" s="10">
-        <v>9.8666355084589856</v>
+        <v>6.157972066417642E-2</v>
       </c>
       <c r="AA61" s="11">
-        <v>8.0928215381501456</v>
+        <v>0</v>
       </c>
       <c r="AB61" s="14">
         <f t="shared" si="0"/>
-        <v>1482.6095442002145</v>
+        <v>6.7417923764127794</v>
       </c>
     </row>
   </sheetData>

--- a/717A11_output.xlsx
+++ b/717A11_output.xlsx
@@ -15,14 +15,16 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CH4_total">Sheet2!$B$60:$AA$60</definedName>
-    <definedName name="CO2_total">Sheet2!$B$59:$AA$59</definedName>
-    <definedName name="Gen">Sheet2!$B$3:$AA$45</definedName>
-    <definedName name="LineFlow">Sheet2!$B$49:$AA$51</definedName>
-    <definedName name="N2O_total">Sheet2!$B$61:$AA$61</definedName>
-    <definedName name="NOx_total">Sheet2!$B$57:$AA$57</definedName>
-    <definedName name="SO2_total">Sheet2!$B$58:$AA$58</definedName>
-    <definedName name="TotalCost">Sheet2!$B$54:$AA$54</definedName>
+    <definedName name="CH4_total">Sheet2!$B$112:$AA$112</definedName>
+    <definedName name="CO2_total">Sheet2!$B$111:$AA$111</definedName>
+    <definedName name="N2O_total">Sheet2!$B$113:$AA$113</definedName>
+    <definedName name="NOx_total">Sheet2!$B$109:$AA$109</definedName>
+    <definedName name="OffGen">Sheet2!$B$49:$AA$91</definedName>
+    <definedName name="OffLineFlow">Sheet2!$B$101:$AA$103</definedName>
+    <definedName name="PeakGen">Sheet2!$B$3:$AA$45</definedName>
+    <definedName name="PeakLineFlow">Sheet2!$B$95:$AA$97</definedName>
+    <definedName name="SO2_total">Sheet2!$B$110:$AA$110</definedName>
+    <definedName name="TotalCost">Sheet2!$B$106:$AA$106</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Line</t>
   </si>
@@ -49,12 +51,6 @@
   </si>
   <si>
     <t>Unit</t>
-  </si>
-  <si>
-    <t>Line Flow (MW)</t>
-  </si>
-  <si>
-    <t>Gen (MW)</t>
   </si>
   <si>
     <t>Year</t>
@@ -94,6 +90,18 @@
   </si>
   <si>
     <t>*New Grid Storage</t>
+  </si>
+  <si>
+    <t>PeakGen (MW)</t>
+  </si>
+  <si>
+    <t>OffGen (MW)</t>
+  </si>
+  <si>
+    <t>Peak Line Flow (MW)</t>
+  </si>
+  <si>
+    <t>Off Line Flow (MW)</t>
   </si>
 </sst>
 </file>
@@ -612,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB61"/>
+  <dimension ref="A1:AB113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O48" sqref="O48"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105:XFD105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -625,10 +633,10 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
@@ -4117,7 +4125,7 @@
         <v>6399.9999999999827</v>
       </c>
       <c r="AB43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.35">
@@ -4203,7 +4211,7 @@
         <v>1928.6405127167338</v>
       </c>
       <c r="AB44" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.35">
@@ -4289,955 +4297,4883 @@
         <v>0</v>
       </c>
       <c r="AB45" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48">
+        <v>2020</v>
+      </c>
+      <c r="C48">
+        <v>2021</v>
+      </c>
+      <c r="D48">
+        <v>2022</v>
+      </c>
+      <c r="E48">
+        <v>2023</v>
+      </c>
+      <c r="F48">
+        <v>2024</v>
+      </c>
+      <c r="G48">
+        <v>2025</v>
+      </c>
+      <c r="H48">
+        <v>2026</v>
+      </c>
+      <c r="I48">
+        <v>2027</v>
+      </c>
+      <c r="J48">
+        <v>2028</v>
+      </c>
+      <c r="K48">
+        <v>2029</v>
+      </c>
+      <c r="L48">
+        <v>2030</v>
+      </c>
+      <c r="M48">
+        <v>2031</v>
+      </c>
+      <c r="N48">
+        <v>2032</v>
+      </c>
+      <c r="O48">
+        <v>2033</v>
+      </c>
+      <c r="P48">
+        <v>2034</v>
+      </c>
+      <c r="Q48">
+        <v>2035</v>
+      </c>
+      <c r="R48">
+        <v>2036</v>
+      </c>
+      <c r="S48">
+        <v>2037</v>
+      </c>
+      <c r="T48">
+        <v>2038</v>
+      </c>
+      <c r="U48">
+        <v>2039</v>
+      </c>
+      <c r="V48">
+        <v>2040</v>
+      </c>
+      <c r="W48">
+        <v>2041</v>
+      </c>
+      <c r="X48">
+        <v>2042</v>
+      </c>
+      <c r="Y48">
+        <v>2043</v>
+      </c>
+      <c r="Z48">
+        <v>2044</v>
+      </c>
+      <c r="AA48">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A49">
         <v>1</v>
       </c>
       <c r="B49" s="3">
+        <v>0</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0</v>
+      </c>
+      <c r="I49" s="4">
+        <v>0</v>
+      </c>
+      <c r="J49" s="4">
+        <v>0</v>
+      </c>
+      <c r="K49" s="4">
+        <v>0</v>
+      </c>
+      <c r="L49" s="4">
+        <v>0</v>
+      </c>
+      <c r="M49" s="4">
+        <v>0</v>
+      </c>
+      <c r="N49" s="4">
+        <v>0</v>
+      </c>
+      <c r="O49" s="4">
+        <v>0</v>
+      </c>
+      <c r="P49" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>0</v>
+      </c>
+      <c r="R49" s="4">
+        <v>0</v>
+      </c>
+      <c r="S49" s="4">
+        <v>0</v>
+      </c>
+      <c r="T49" s="4">
+        <v>0</v>
+      </c>
+      <c r="U49" s="4">
+        <v>0</v>
+      </c>
+      <c r="V49" s="4">
+        <v>0</v>
+      </c>
+      <c r="W49" s="4">
+        <v>0</v>
+      </c>
+      <c r="X49" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50" s="6">
+        <v>0</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0</v>
+      </c>
+      <c r="D50" s="7">
+        <v>0</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0</v>
+      </c>
+      <c r="G50" s="7">
+        <v>0</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0</v>
+      </c>
+      <c r="J50" s="7">
+        <v>0</v>
+      </c>
+      <c r="K50" s="7">
+        <v>0</v>
+      </c>
+      <c r="L50" s="7">
+        <v>0</v>
+      </c>
+      <c r="M50" s="7">
+        <v>0</v>
+      </c>
+      <c r="N50" s="7">
+        <v>0</v>
+      </c>
+      <c r="O50" s="7">
+        <v>0</v>
+      </c>
+      <c r="P50" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="7">
+        <v>0</v>
+      </c>
+      <c r="R50" s="7">
+        <v>0</v>
+      </c>
+      <c r="S50" s="7">
+        <v>0</v>
+      </c>
+      <c r="T50" s="7">
+        <v>0</v>
+      </c>
+      <c r="U50" s="7">
+        <v>0</v>
+      </c>
+      <c r="V50" s="7">
+        <v>0</v>
+      </c>
+      <c r="W50" s="7">
+        <v>0</v>
+      </c>
+      <c r="X50" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51" s="6">
+        <v>0</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0</v>
+      </c>
+      <c r="D51" s="7">
+        <v>0</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0</v>
+      </c>
+      <c r="G51" s="7">
+        <v>0</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0</v>
+      </c>
+      <c r="I51" s="7">
+        <v>0</v>
+      </c>
+      <c r="J51" s="7">
+        <v>0</v>
+      </c>
+      <c r="K51" s="7">
+        <v>0</v>
+      </c>
+      <c r="L51" s="7">
+        <v>0</v>
+      </c>
+      <c r="M51" s="7">
+        <v>0</v>
+      </c>
+      <c r="N51" s="7">
+        <v>0</v>
+      </c>
+      <c r="O51" s="7">
+        <v>0</v>
+      </c>
+      <c r="P51" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="7">
+        <v>0</v>
+      </c>
+      <c r="R51" s="7">
+        <v>0</v>
+      </c>
+      <c r="S51" s="7">
+        <v>0</v>
+      </c>
+      <c r="T51" s="7">
+        <v>0</v>
+      </c>
+      <c r="U51" s="7">
+        <v>0</v>
+      </c>
+      <c r="V51" s="7">
+        <v>0</v>
+      </c>
+      <c r="W51" s="7">
+        <v>0</v>
+      </c>
+      <c r="X51" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52" s="6">
+        <v>0</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0</v>
+      </c>
+      <c r="E52" s="7">
+        <v>0</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0</v>
+      </c>
+      <c r="G52" s="7">
+        <v>0</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0</v>
+      </c>
+      <c r="J52" s="7">
+        <v>0</v>
+      </c>
+      <c r="K52" s="7">
+        <v>0</v>
+      </c>
+      <c r="L52" s="7">
+        <v>0</v>
+      </c>
+      <c r="M52" s="7">
+        <v>0</v>
+      </c>
+      <c r="N52" s="7">
+        <v>0</v>
+      </c>
+      <c r="O52" s="7">
+        <v>0</v>
+      </c>
+      <c r="P52" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="7">
+        <v>0</v>
+      </c>
+      <c r="R52" s="7">
+        <v>0</v>
+      </c>
+      <c r="S52" s="7">
+        <v>0</v>
+      </c>
+      <c r="T52" s="7">
+        <v>0</v>
+      </c>
+      <c r="U52" s="7">
+        <v>0</v>
+      </c>
+      <c r="V52" s="7">
+        <v>0</v>
+      </c>
+      <c r="W52" s="7">
+        <v>0</v>
+      </c>
+      <c r="X52" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>5</v>
+      </c>
+      <c r="B53" s="6">
+        <v>0</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0</v>
+      </c>
+      <c r="D53" s="7">
+        <v>0</v>
+      </c>
+      <c r="E53" s="7">
+        <v>0</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0</v>
+      </c>
+      <c r="G53" s="7">
+        <v>0</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0</v>
+      </c>
+      <c r="I53" s="7">
+        <v>0</v>
+      </c>
+      <c r="J53" s="7">
+        <v>0</v>
+      </c>
+      <c r="K53" s="7">
+        <v>0</v>
+      </c>
+      <c r="L53" s="7">
+        <v>0</v>
+      </c>
+      <c r="M53" s="7">
+        <v>0</v>
+      </c>
+      <c r="N53" s="7">
+        <v>0</v>
+      </c>
+      <c r="O53" s="7">
+        <v>0</v>
+      </c>
+      <c r="P53" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="7">
+        <v>0</v>
+      </c>
+      <c r="R53" s="7">
+        <v>0</v>
+      </c>
+      <c r="S53" s="7">
+        <v>0</v>
+      </c>
+      <c r="T53" s="7">
+        <v>0</v>
+      </c>
+      <c r="U53" s="7">
+        <v>0</v>
+      </c>
+      <c r="V53" s="7">
+        <v>0</v>
+      </c>
+      <c r="W53" s="7">
+        <v>0</v>
+      </c>
+      <c r="X53" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>6</v>
+      </c>
+      <c r="B54" s="6">
+        <v>0</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0</v>
+      </c>
+      <c r="D54" s="7">
+        <v>0</v>
+      </c>
+      <c r="E54" s="7">
+        <v>0</v>
+      </c>
+      <c r="F54" s="7">
+        <v>0</v>
+      </c>
+      <c r="G54" s="7">
+        <v>0</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0</v>
+      </c>
+      <c r="I54" s="7">
+        <v>0</v>
+      </c>
+      <c r="J54" s="7">
+        <v>0</v>
+      </c>
+      <c r="K54" s="7">
+        <v>0</v>
+      </c>
+      <c r="L54" s="7">
+        <v>0</v>
+      </c>
+      <c r="M54" s="7">
+        <v>0</v>
+      </c>
+      <c r="N54" s="7">
+        <v>0</v>
+      </c>
+      <c r="O54" s="7">
+        <v>0</v>
+      </c>
+      <c r="P54" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="7">
+        <v>0</v>
+      </c>
+      <c r="R54" s="7">
+        <v>0</v>
+      </c>
+      <c r="S54" s="7">
+        <v>0</v>
+      </c>
+      <c r="T54" s="7">
+        <v>0</v>
+      </c>
+      <c r="U54" s="7">
+        <v>0</v>
+      </c>
+      <c r="V54" s="7">
+        <v>0</v>
+      </c>
+      <c r="W54" s="7">
+        <v>0</v>
+      </c>
+      <c r="X54" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>7</v>
+      </c>
+      <c r="B55" s="6">
+        <v>0</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0</v>
+      </c>
+      <c r="D55" s="7">
+        <v>0</v>
+      </c>
+      <c r="E55" s="7">
+        <v>0</v>
+      </c>
+      <c r="F55" s="7">
+        <v>0</v>
+      </c>
+      <c r="G55" s="7">
+        <v>0</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0</v>
+      </c>
+      <c r="I55" s="7">
+        <v>0</v>
+      </c>
+      <c r="J55" s="7">
+        <v>0</v>
+      </c>
+      <c r="K55" s="7">
+        <v>0</v>
+      </c>
+      <c r="L55" s="7">
+        <v>0</v>
+      </c>
+      <c r="M55" s="7">
+        <v>0</v>
+      </c>
+      <c r="N55" s="7">
+        <v>0</v>
+      </c>
+      <c r="O55" s="7">
+        <v>0</v>
+      </c>
+      <c r="P55" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="7">
+        <v>0</v>
+      </c>
+      <c r="R55" s="7">
+        <v>0</v>
+      </c>
+      <c r="S55" s="7">
+        <v>0</v>
+      </c>
+      <c r="T55" s="7">
+        <v>0</v>
+      </c>
+      <c r="U55" s="7">
+        <v>0</v>
+      </c>
+      <c r="V55" s="7">
+        <v>0</v>
+      </c>
+      <c r="W55" s="7">
+        <v>0</v>
+      </c>
+      <c r="X55" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>8</v>
+      </c>
+      <c r="B56" s="6">
+        <v>0</v>
+      </c>
+      <c r="C56" s="7">
+        <v>0</v>
+      </c>
+      <c r="D56" s="7">
+        <v>0</v>
+      </c>
+      <c r="E56" s="7">
+        <v>0</v>
+      </c>
+      <c r="F56" s="7">
+        <v>0</v>
+      </c>
+      <c r="G56" s="7">
+        <v>0</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="7">
+        <v>0</v>
+      </c>
+      <c r="J56" s="7">
+        <v>0</v>
+      </c>
+      <c r="K56" s="7">
+        <v>0</v>
+      </c>
+      <c r="L56" s="7">
+        <v>0</v>
+      </c>
+      <c r="M56" s="7">
+        <v>0</v>
+      </c>
+      <c r="N56" s="7">
+        <v>0</v>
+      </c>
+      <c r="O56" s="7">
+        <v>0</v>
+      </c>
+      <c r="P56" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="7">
+        <v>0</v>
+      </c>
+      <c r="R56" s="7">
+        <v>0</v>
+      </c>
+      <c r="S56" s="7">
+        <v>0</v>
+      </c>
+      <c r="T56" s="7">
+        <v>0</v>
+      </c>
+      <c r="U56" s="7">
+        <v>0</v>
+      </c>
+      <c r="V56" s="7">
+        <v>0</v>
+      </c>
+      <c r="W56" s="7">
+        <v>0</v>
+      </c>
+      <c r="X56" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>9</v>
+      </c>
+      <c r="B57" s="6">
+        <v>0</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0</v>
+      </c>
+      <c r="D57" s="7">
+        <v>0</v>
+      </c>
+      <c r="E57" s="7">
+        <v>0</v>
+      </c>
+      <c r="F57" s="7">
+        <v>0</v>
+      </c>
+      <c r="G57" s="7">
+        <v>0</v>
+      </c>
+      <c r="H57" s="7">
+        <v>0</v>
+      </c>
+      <c r="I57" s="7">
+        <v>0</v>
+      </c>
+      <c r="J57" s="7">
+        <v>0</v>
+      </c>
+      <c r="K57" s="7">
+        <v>0</v>
+      </c>
+      <c r="L57" s="7">
+        <v>0</v>
+      </c>
+      <c r="M57" s="7">
+        <v>0</v>
+      </c>
+      <c r="N57" s="7">
+        <v>0</v>
+      </c>
+      <c r="O57" s="7">
+        <v>0</v>
+      </c>
+      <c r="P57" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="7">
+        <v>0</v>
+      </c>
+      <c r="R57" s="7">
+        <v>0</v>
+      </c>
+      <c r="S57" s="7">
+        <v>0</v>
+      </c>
+      <c r="T57" s="7">
+        <v>0</v>
+      </c>
+      <c r="U57" s="7">
+        <v>0</v>
+      </c>
+      <c r="V57" s="7">
+        <v>0</v>
+      </c>
+      <c r="W57" s="7">
+        <v>0</v>
+      </c>
+      <c r="X57" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>10</v>
+      </c>
+      <c r="B58" s="6">
+        <v>0</v>
+      </c>
+      <c r="C58" s="7">
+        <v>0</v>
+      </c>
+      <c r="D58" s="7">
+        <v>0</v>
+      </c>
+      <c r="E58" s="7">
+        <v>0</v>
+      </c>
+      <c r="F58" s="7">
+        <v>0</v>
+      </c>
+      <c r="G58" s="7">
+        <v>0</v>
+      </c>
+      <c r="H58" s="7">
+        <v>0</v>
+      </c>
+      <c r="I58" s="7">
+        <v>0</v>
+      </c>
+      <c r="J58" s="7">
+        <v>0</v>
+      </c>
+      <c r="K58" s="7">
+        <v>0</v>
+      </c>
+      <c r="L58" s="7">
+        <v>0</v>
+      </c>
+      <c r="M58" s="7">
+        <v>0</v>
+      </c>
+      <c r="N58" s="7">
+        <v>0</v>
+      </c>
+      <c r="O58" s="7">
+        <v>0</v>
+      </c>
+      <c r="P58" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="7">
+        <v>0</v>
+      </c>
+      <c r="R58" s="7">
+        <v>0</v>
+      </c>
+      <c r="S58" s="7">
+        <v>0</v>
+      </c>
+      <c r="T58" s="7">
+        <v>0</v>
+      </c>
+      <c r="U58" s="7">
+        <v>0</v>
+      </c>
+      <c r="V58" s="7">
+        <v>0</v>
+      </c>
+      <c r="W58" s="7">
+        <v>0</v>
+      </c>
+      <c r="X58" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>11</v>
+      </c>
+      <c r="B59" s="6">
+        <v>0</v>
+      </c>
+      <c r="C59" s="7">
+        <v>0</v>
+      </c>
+      <c r="D59" s="7">
+        <v>0</v>
+      </c>
+      <c r="E59" s="7">
+        <v>0</v>
+      </c>
+      <c r="F59" s="7">
+        <v>0</v>
+      </c>
+      <c r="G59" s="7">
+        <v>0</v>
+      </c>
+      <c r="H59" s="7">
+        <v>0</v>
+      </c>
+      <c r="I59" s="7">
+        <v>0</v>
+      </c>
+      <c r="J59" s="7">
+        <v>0</v>
+      </c>
+      <c r="K59" s="7">
+        <v>0</v>
+      </c>
+      <c r="L59" s="7">
+        <v>0</v>
+      </c>
+      <c r="M59" s="7">
+        <v>0</v>
+      </c>
+      <c r="N59" s="7">
+        <v>0</v>
+      </c>
+      <c r="O59" s="7">
+        <v>0</v>
+      </c>
+      <c r="P59" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="7">
+        <v>0</v>
+      </c>
+      <c r="R59" s="7">
+        <v>0</v>
+      </c>
+      <c r="S59" s="7">
+        <v>0</v>
+      </c>
+      <c r="T59" s="7">
+        <v>0</v>
+      </c>
+      <c r="U59" s="7">
+        <v>0</v>
+      </c>
+      <c r="V59" s="7">
+        <v>0</v>
+      </c>
+      <c r="W59" s="7">
+        <v>0</v>
+      </c>
+      <c r="X59" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>12</v>
+      </c>
+      <c r="B60" s="6">
+        <v>0</v>
+      </c>
+      <c r="C60" s="7">
+        <v>0</v>
+      </c>
+      <c r="D60" s="7">
+        <v>0</v>
+      </c>
+      <c r="E60" s="7">
+        <v>0</v>
+      </c>
+      <c r="F60" s="7">
+        <v>0</v>
+      </c>
+      <c r="G60" s="7">
+        <v>0</v>
+      </c>
+      <c r="H60" s="7">
+        <v>0</v>
+      </c>
+      <c r="I60" s="7">
+        <v>0</v>
+      </c>
+      <c r="J60" s="7">
+        <v>0</v>
+      </c>
+      <c r="K60" s="7">
+        <v>0</v>
+      </c>
+      <c r="L60" s="7">
+        <v>0</v>
+      </c>
+      <c r="M60" s="7">
+        <v>0</v>
+      </c>
+      <c r="N60" s="7">
+        <v>0</v>
+      </c>
+      <c r="O60" s="7">
+        <v>0</v>
+      </c>
+      <c r="P60" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="7">
+        <v>0</v>
+      </c>
+      <c r="R60" s="7">
+        <v>0</v>
+      </c>
+      <c r="S60" s="7">
+        <v>0</v>
+      </c>
+      <c r="T60" s="7">
+        <v>0</v>
+      </c>
+      <c r="U60" s="7">
+        <v>0</v>
+      </c>
+      <c r="V60" s="7">
+        <v>0</v>
+      </c>
+      <c r="W60" s="7">
+        <v>0</v>
+      </c>
+      <c r="X60" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>13</v>
+      </c>
+      <c r="B61" s="6">
+        <v>0</v>
+      </c>
+      <c r="C61" s="7">
+        <v>0</v>
+      </c>
+      <c r="D61" s="7">
+        <v>0</v>
+      </c>
+      <c r="E61" s="7">
+        <v>0</v>
+      </c>
+      <c r="F61" s="7">
+        <v>0</v>
+      </c>
+      <c r="G61" s="7">
+        <v>0</v>
+      </c>
+      <c r="H61" s="7">
+        <v>0</v>
+      </c>
+      <c r="I61" s="7">
+        <v>0</v>
+      </c>
+      <c r="J61" s="7">
+        <v>0</v>
+      </c>
+      <c r="K61" s="7">
+        <v>0</v>
+      </c>
+      <c r="L61" s="7">
+        <v>0</v>
+      </c>
+      <c r="M61" s="7">
+        <v>0</v>
+      </c>
+      <c r="N61" s="7">
+        <v>0</v>
+      </c>
+      <c r="O61" s="7">
+        <v>0</v>
+      </c>
+      <c r="P61" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="7">
+        <v>0</v>
+      </c>
+      <c r="R61" s="7">
+        <v>0</v>
+      </c>
+      <c r="S61" s="7">
+        <v>0</v>
+      </c>
+      <c r="T61" s="7">
+        <v>0</v>
+      </c>
+      <c r="U61" s="7">
+        <v>0</v>
+      </c>
+      <c r="V61" s="7">
+        <v>0</v>
+      </c>
+      <c r="W61" s="7">
+        <v>0</v>
+      </c>
+      <c r="X61" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>14</v>
+      </c>
+      <c r="B62" s="6">
+        <v>0</v>
+      </c>
+      <c r="C62" s="7">
+        <v>0</v>
+      </c>
+      <c r="D62" s="7">
+        <v>0</v>
+      </c>
+      <c r="E62" s="7">
+        <v>0</v>
+      </c>
+      <c r="F62" s="7">
+        <v>0</v>
+      </c>
+      <c r="G62" s="7">
+        <v>0</v>
+      </c>
+      <c r="H62" s="7">
+        <v>0</v>
+      </c>
+      <c r="I62" s="7">
+        <v>0</v>
+      </c>
+      <c r="J62" s="7">
+        <v>0</v>
+      </c>
+      <c r="K62" s="7">
+        <v>0</v>
+      </c>
+      <c r="L62" s="7">
+        <v>0</v>
+      </c>
+      <c r="M62" s="7">
+        <v>0</v>
+      </c>
+      <c r="N62" s="7">
+        <v>0</v>
+      </c>
+      <c r="O62" s="7">
+        <v>0</v>
+      </c>
+      <c r="P62" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="7">
+        <v>0</v>
+      </c>
+      <c r="R62" s="7">
+        <v>0</v>
+      </c>
+      <c r="S62" s="7">
+        <v>0</v>
+      </c>
+      <c r="T62" s="7">
+        <v>0</v>
+      </c>
+      <c r="U62" s="7">
+        <v>0</v>
+      </c>
+      <c r="V62" s="7">
+        <v>0</v>
+      </c>
+      <c r="W62" s="7">
+        <v>0</v>
+      </c>
+      <c r="X62" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>15</v>
+      </c>
+      <c r="B63" s="6">
+        <v>0</v>
+      </c>
+      <c r="C63" s="7">
+        <v>0</v>
+      </c>
+      <c r="D63" s="7">
+        <v>0</v>
+      </c>
+      <c r="E63" s="7">
+        <v>0</v>
+      </c>
+      <c r="F63" s="7">
+        <v>0</v>
+      </c>
+      <c r="G63" s="7">
+        <v>0</v>
+      </c>
+      <c r="H63" s="7">
+        <v>0</v>
+      </c>
+      <c r="I63" s="7">
+        <v>0</v>
+      </c>
+      <c r="J63" s="7">
+        <v>0</v>
+      </c>
+      <c r="K63" s="7">
+        <v>0</v>
+      </c>
+      <c r="L63" s="7">
+        <v>0</v>
+      </c>
+      <c r="M63" s="7">
+        <v>0</v>
+      </c>
+      <c r="N63" s="7">
+        <v>0</v>
+      </c>
+      <c r="O63" s="7">
+        <v>0</v>
+      </c>
+      <c r="P63" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="7">
+        <v>0</v>
+      </c>
+      <c r="R63" s="7">
+        <v>0</v>
+      </c>
+      <c r="S63" s="7">
+        <v>0</v>
+      </c>
+      <c r="T63" s="7">
+        <v>0</v>
+      </c>
+      <c r="U63" s="7">
+        <v>0</v>
+      </c>
+      <c r="V63" s="7">
+        <v>0</v>
+      </c>
+      <c r="W63" s="7">
+        <v>0</v>
+      </c>
+      <c r="X63" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>16</v>
+      </c>
+      <c r="B64" s="6">
+        <v>0</v>
+      </c>
+      <c r="C64" s="7">
+        <v>0</v>
+      </c>
+      <c r="D64" s="7">
+        <v>0</v>
+      </c>
+      <c r="E64" s="7">
+        <v>0</v>
+      </c>
+      <c r="F64" s="7">
+        <v>0</v>
+      </c>
+      <c r="G64" s="7">
+        <v>0</v>
+      </c>
+      <c r="H64" s="7">
+        <v>0</v>
+      </c>
+      <c r="I64" s="7">
+        <v>0</v>
+      </c>
+      <c r="J64" s="7">
+        <v>0</v>
+      </c>
+      <c r="K64" s="7">
+        <v>0</v>
+      </c>
+      <c r="L64" s="7">
+        <v>0</v>
+      </c>
+      <c r="M64" s="7">
+        <v>0</v>
+      </c>
+      <c r="N64" s="7">
+        <v>0</v>
+      </c>
+      <c r="O64" s="7">
+        <v>0</v>
+      </c>
+      <c r="P64" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="7">
+        <v>0</v>
+      </c>
+      <c r="R64" s="7">
+        <v>0</v>
+      </c>
+      <c r="S64" s="7">
+        <v>0</v>
+      </c>
+      <c r="T64" s="7">
+        <v>0</v>
+      </c>
+      <c r="U64" s="7">
+        <v>0</v>
+      </c>
+      <c r="V64" s="7">
+        <v>0</v>
+      </c>
+      <c r="W64" s="7">
+        <v>0</v>
+      </c>
+      <c r="X64" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>17</v>
+      </c>
+      <c r="B65" s="6">
+        <v>0</v>
+      </c>
+      <c r="C65" s="7">
+        <v>0</v>
+      </c>
+      <c r="D65" s="7">
+        <v>0</v>
+      </c>
+      <c r="E65" s="7">
+        <v>0</v>
+      </c>
+      <c r="F65" s="7">
+        <v>0</v>
+      </c>
+      <c r="G65" s="7">
+        <v>0</v>
+      </c>
+      <c r="H65" s="7">
+        <v>0</v>
+      </c>
+      <c r="I65" s="7">
+        <v>0</v>
+      </c>
+      <c r="J65" s="7">
+        <v>0</v>
+      </c>
+      <c r="K65" s="7">
+        <v>0</v>
+      </c>
+      <c r="L65" s="7">
+        <v>0</v>
+      </c>
+      <c r="M65" s="7">
+        <v>0</v>
+      </c>
+      <c r="N65" s="7">
+        <v>0</v>
+      </c>
+      <c r="O65" s="7">
+        <v>0</v>
+      </c>
+      <c r="P65" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="7">
+        <v>0</v>
+      </c>
+      <c r="R65" s="7">
+        <v>0</v>
+      </c>
+      <c r="S65" s="7">
+        <v>0</v>
+      </c>
+      <c r="T65" s="7">
+        <v>0</v>
+      </c>
+      <c r="U65" s="7">
+        <v>0</v>
+      </c>
+      <c r="V65" s="7">
+        <v>0</v>
+      </c>
+      <c r="W65" s="7">
+        <v>0</v>
+      </c>
+      <c r="X65" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>18</v>
+      </c>
+      <c r="B66" s="6">
+        <v>0</v>
+      </c>
+      <c r="C66" s="7">
+        <v>0</v>
+      </c>
+      <c r="D66" s="7">
+        <v>0</v>
+      </c>
+      <c r="E66" s="7">
+        <v>0</v>
+      </c>
+      <c r="F66" s="7">
+        <v>0</v>
+      </c>
+      <c r="G66" s="7">
+        <v>0</v>
+      </c>
+      <c r="H66" s="7">
+        <v>0</v>
+      </c>
+      <c r="I66" s="7">
+        <v>0</v>
+      </c>
+      <c r="J66" s="7">
+        <v>0</v>
+      </c>
+      <c r="K66" s="7">
+        <v>0</v>
+      </c>
+      <c r="L66" s="7">
+        <v>0</v>
+      </c>
+      <c r="M66" s="7">
+        <v>0</v>
+      </c>
+      <c r="N66" s="7">
+        <v>0</v>
+      </c>
+      <c r="O66" s="7">
+        <v>0</v>
+      </c>
+      <c r="P66" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="7">
+        <v>0</v>
+      </c>
+      <c r="R66" s="7">
+        <v>0</v>
+      </c>
+      <c r="S66" s="7">
+        <v>0</v>
+      </c>
+      <c r="T66" s="7">
+        <v>0</v>
+      </c>
+      <c r="U66" s="7">
+        <v>0</v>
+      </c>
+      <c r="V66" s="7">
+        <v>0</v>
+      </c>
+      <c r="W66" s="7">
+        <v>0</v>
+      </c>
+      <c r="X66" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>19</v>
+      </c>
+      <c r="B67" s="6">
+        <v>0</v>
+      </c>
+      <c r="C67" s="7">
+        <v>0</v>
+      </c>
+      <c r="D67" s="7">
+        <v>0</v>
+      </c>
+      <c r="E67" s="7">
+        <v>0</v>
+      </c>
+      <c r="F67" s="7">
+        <v>0</v>
+      </c>
+      <c r="G67" s="7">
+        <v>0</v>
+      </c>
+      <c r="H67" s="7">
+        <v>0</v>
+      </c>
+      <c r="I67" s="7">
+        <v>0</v>
+      </c>
+      <c r="J67" s="7">
+        <v>0</v>
+      </c>
+      <c r="K67" s="7">
+        <v>0</v>
+      </c>
+      <c r="L67" s="7">
+        <v>0</v>
+      </c>
+      <c r="M67" s="7">
+        <v>0</v>
+      </c>
+      <c r="N67" s="7">
+        <v>0</v>
+      </c>
+      <c r="O67" s="7">
+        <v>0</v>
+      </c>
+      <c r="P67" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="7">
+        <v>0</v>
+      </c>
+      <c r="R67" s="7">
+        <v>0</v>
+      </c>
+      <c r="S67" s="7">
+        <v>0</v>
+      </c>
+      <c r="T67" s="7">
+        <v>0</v>
+      </c>
+      <c r="U67" s="7">
+        <v>0</v>
+      </c>
+      <c r="V67" s="7">
+        <v>0</v>
+      </c>
+      <c r="W67" s="7">
+        <v>0</v>
+      </c>
+      <c r="X67" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>20</v>
+      </c>
+      <c r="B68" s="6">
+        <v>0</v>
+      </c>
+      <c r="C68" s="7">
+        <v>0</v>
+      </c>
+      <c r="D68" s="7">
+        <v>0</v>
+      </c>
+      <c r="E68" s="7">
+        <v>0</v>
+      </c>
+      <c r="F68" s="7">
+        <v>0</v>
+      </c>
+      <c r="G68" s="7">
+        <v>0</v>
+      </c>
+      <c r="H68" s="7">
+        <v>0</v>
+      </c>
+      <c r="I68" s="7">
+        <v>0</v>
+      </c>
+      <c r="J68" s="7">
+        <v>0</v>
+      </c>
+      <c r="K68" s="7">
+        <v>0</v>
+      </c>
+      <c r="L68" s="7">
+        <v>0</v>
+      </c>
+      <c r="M68" s="7">
+        <v>0</v>
+      </c>
+      <c r="N68" s="7">
+        <v>0</v>
+      </c>
+      <c r="O68" s="7">
+        <v>0</v>
+      </c>
+      <c r="P68" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="7">
+        <v>0</v>
+      </c>
+      <c r="R68" s="7">
+        <v>0</v>
+      </c>
+      <c r="S68" s="7">
+        <v>0</v>
+      </c>
+      <c r="T68" s="7">
+        <v>0</v>
+      </c>
+      <c r="U68" s="7">
+        <v>0</v>
+      </c>
+      <c r="V68" s="7">
+        <v>0</v>
+      </c>
+      <c r="W68" s="7">
+        <v>0</v>
+      </c>
+      <c r="X68" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>21</v>
+      </c>
+      <c r="B69" s="6">
+        <v>0</v>
+      </c>
+      <c r="C69" s="7">
+        <v>0</v>
+      </c>
+      <c r="D69" s="7">
+        <v>0</v>
+      </c>
+      <c r="E69" s="7">
+        <v>0</v>
+      </c>
+      <c r="F69" s="7">
+        <v>0</v>
+      </c>
+      <c r="G69" s="7">
+        <v>0</v>
+      </c>
+      <c r="H69" s="7">
+        <v>0</v>
+      </c>
+      <c r="I69" s="7">
+        <v>0</v>
+      </c>
+      <c r="J69" s="7">
+        <v>0</v>
+      </c>
+      <c r="K69" s="7">
+        <v>0</v>
+      </c>
+      <c r="L69" s="7">
+        <v>0</v>
+      </c>
+      <c r="M69" s="7">
+        <v>0</v>
+      </c>
+      <c r="N69" s="7">
+        <v>0</v>
+      </c>
+      <c r="O69" s="7">
+        <v>0</v>
+      </c>
+      <c r="P69" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="7">
+        <v>0</v>
+      </c>
+      <c r="R69" s="7">
+        <v>0</v>
+      </c>
+      <c r="S69" s="7">
+        <v>0</v>
+      </c>
+      <c r="T69" s="7">
+        <v>0</v>
+      </c>
+      <c r="U69" s="7">
+        <v>0</v>
+      </c>
+      <c r="V69" s="7">
+        <v>0</v>
+      </c>
+      <c r="W69" s="7">
+        <v>0</v>
+      </c>
+      <c r="X69" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>22</v>
+      </c>
+      <c r="B70" s="6">
+        <v>0</v>
+      </c>
+      <c r="C70" s="7">
+        <v>0</v>
+      </c>
+      <c r="D70" s="7">
+        <v>0</v>
+      </c>
+      <c r="E70" s="7">
+        <v>0</v>
+      </c>
+      <c r="F70" s="7">
+        <v>0</v>
+      </c>
+      <c r="G70" s="7">
+        <v>0</v>
+      </c>
+      <c r="H70" s="7">
+        <v>0</v>
+      </c>
+      <c r="I70" s="7">
+        <v>0</v>
+      </c>
+      <c r="J70" s="7">
+        <v>0</v>
+      </c>
+      <c r="K70" s="7">
+        <v>0</v>
+      </c>
+      <c r="L70" s="7">
+        <v>0</v>
+      </c>
+      <c r="M70" s="7">
+        <v>0</v>
+      </c>
+      <c r="N70" s="7">
+        <v>0</v>
+      </c>
+      <c r="O70" s="7">
+        <v>0</v>
+      </c>
+      <c r="P70" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="7">
+        <v>0</v>
+      </c>
+      <c r="R70" s="7">
+        <v>0</v>
+      </c>
+      <c r="S70" s="7">
+        <v>0</v>
+      </c>
+      <c r="T70" s="7">
+        <v>0</v>
+      </c>
+      <c r="U70" s="7">
+        <v>0</v>
+      </c>
+      <c r="V70" s="7">
+        <v>0</v>
+      </c>
+      <c r="W70" s="7">
+        <v>0</v>
+      </c>
+      <c r="X70" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>23</v>
+      </c>
+      <c r="B71" s="6">
+        <v>0</v>
+      </c>
+      <c r="C71" s="7">
+        <v>0</v>
+      </c>
+      <c r="D71" s="7">
+        <v>0</v>
+      </c>
+      <c r="E71" s="7">
+        <v>0</v>
+      </c>
+      <c r="F71" s="7">
+        <v>0</v>
+      </c>
+      <c r="G71" s="7">
+        <v>0</v>
+      </c>
+      <c r="H71" s="7">
+        <v>0</v>
+      </c>
+      <c r="I71" s="7">
+        <v>0</v>
+      </c>
+      <c r="J71" s="7">
+        <v>0</v>
+      </c>
+      <c r="K71" s="7">
+        <v>0</v>
+      </c>
+      <c r="L71" s="7">
+        <v>0</v>
+      </c>
+      <c r="M71" s="7">
+        <v>0</v>
+      </c>
+      <c r="N71" s="7">
+        <v>0</v>
+      </c>
+      <c r="O71" s="7">
+        <v>0</v>
+      </c>
+      <c r="P71" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="7">
+        <v>0</v>
+      </c>
+      <c r="R71" s="7">
+        <v>0</v>
+      </c>
+      <c r="S71" s="7">
+        <v>0</v>
+      </c>
+      <c r="T71" s="7">
+        <v>0</v>
+      </c>
+      <c r="U71" s="7">
+        <v>0</v>
+      </c>
+      <c r="V71" s="7">
+        <v>0</v>
+      </c>
+      <c r="W71" s="7">
+        <v>0</v>
+      </c>
+      <c r="X71" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>24</v>
+      </c>
+      <c r="B72" s="6">
+        <v>0</v>
+      </c>
+      <c r="C72" s="7">
+        <v>0</v>
+      </c>
+      <c r="D72" s="7">
+        <v>0</v>
+      </c>
+      <c r="E72" s="7">
+        <v>0</v>
+      </c>
+      <c r="F72" s="7">
+        <v>0</v>
+      </c>
+      <c r="G72" s="7">
+        <v>0</v>
+      </c>
+      <c r="H72" s="7">
+        <v>0</v>
+      </c>
+      <c r="I72" s="7">
+        <v>0</v>
+      </c>
+      <c r="J72" s="7">
+        <v>0</v>
+      </c>
+      <c r="K72" s="7">
+        <v>0</v>
+      </c>
+      <c r="L72" s="7">
+        <v>0</v>
+      </c>
+      <c r="M72" s="7">
+        <v>0</v>
+      </c>
+      <c r="N72" s="7">
+        <v>0</v>
+      </c>
+      <c r="O72" s="7">
+        <v>0</v>
+      </c>
+      <c r="P72" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="7">
+        <v>0</v>
+      </c>
+      <c r="R72" s="7">
+        <v>0</v>
+      </c>
+      <c r="S72" s="7">
+        <v>0</v>
+      </c>
+      <c r="T72" s="7">
+        <v>0</v>
+      </c>
+      <c r="U72" s="7">
+        <v>0</v>
+      </c>
+      <c r="V72" s="7">
+        <v>0</v>
+      </c>
+      <c r="W72" s="7">
+        <v>0</v>
+      </c>
+      <c r="X72" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>25</v>
+      </c>
+      <c r="B73" s="6">
+        <v>0</v>
+      </c>
+      <c r="C73" s="7">
+        <v>0</v>
+      </c>
+      <c r="D73" s="7">
+        <v>0</v>
+      </c>
+      <c r="E73" s="7">
+        <v>0</v>
+      </c>
+      <c r="F73" s="7">
+        <v>0</v>
+      </c>
+      <c r="G73" s="7">
+        <v>0</v>
+      </c>
+      <c r="H73" s="7">
+        <v>0</v>
+      </c>
+      <c r="I73" s="7">
+        <v>0</v>
+      </c>
+      <c r="J73" s="7">
+        <v>0</v>
+      </c>
+      <c r="K73" s="7">
+        <v>0</v>
+      </c>
+      <c r="L73" s="7">
+        <v>0</v>
+      </c>
+      <c r="M73" s="7">
+        <v>0</v>
+      </c>
+      <c r="N73" s="7">
+        <v>0</v>
+      </c>
+      <c r="O73" s="7">
+        <v>0</v>
+      </c>
+      <c r="P73" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="7">
+        <v>0</v>
+      </c>
+      <c r="R73" s="7">
+        <v>0</v>
+      </c>
+      <c r="S73" s="7">
+        <v>0</v>
+      </c>
+      <c r="T73" s="7">
+        <v>0</v>
+      </c>
+      <c r="U73" s="7">
+        <v>0</v>
+      </c>
+      <c r="V73" s="7">
+        <v>0</v>
+      </c>
+      <c r="W73" s="7">
+        <v>0</v>
+      </c>
+      <c r="X73" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>26</v>
+      </c>
+      <c r="B74" s="6">
+        <v>0</v>
+      </c>
+      <c r="C74" s="7">
+        <v>0</v>
+      </c>
+      <c r="D74" s="7">
+        <v>0</v>
+      </c>
+      <c r="E74" s="7">
+        <v>0</v>
+      </c>
+      <c r="F74" s="7">
+        <v>0</v>
+      </c>
+      <c r="G74" s="7">
+        <v>0</v>
+      </c>
+      <c r="H74" s="7">
+        <v>0</v>
+      </c>
+      <c r="I74" s="7">
+        <v>0</v>
+      </c>
+      <c r="J74" s="7">
+        <v>0</v>
+      </c>
+      <c r="K74" s="7">
+        <v>0</v>
+      </c>
+      <c r="L74" s="7">
+        <v>0</v>
+      </c>
+      <c r="M74" s="7">
+        <v>0</v>
+      </c>
+      <c r="N74" s="7">
+        <v>0</v>
+      </c>
+      <c r="O74" s="7">
+        <v>0</v>
+      </c>
+      <c r="P74" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="7">
+        <v>0</v>
+      </c>
+      <c r="R74" s="7">
+        <v>0</v>
+      </c>
+      <c r="S74" s="7">
+        <v>0</v>
+      </c>
+      <c r="T74" s="7">
+        <v>0</v>
+      </c>
+      <c r="U74" s="7">
+        <v>0</v>
+      </c>
+      <c r="V74" s="7">
+        <v>0</v>
+      </c>
+      <c r="W74" s="7">
+        <v>0</v>
+      </c>
+      <c r="X74" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>27</v>
+      </c>
+      <c r="B75" s="6">
+        <v>0</v>
+      </c>
+      <c r="C75" s="7">
+        <v>0</v>
+      </c>
+      <c r="D75" s="7">
+        <v>0</v>
+      </c>
+      <c r="E75" s="7">
+        <v>0</v>
+      </c>
+      <c r="F75" s="7">
+        <v>0</v>
+      </c>
+      <c r="G75" s="7">
+        <v>0</v>
+      </c>
+      <c r="H75" s="7">
+        <v>0</v>
+      </c>
+      <c r="I75" s="7">
+        <v>0</v>
+      </c>
+      <c r="J75" s="7">
+        <v>0</v>
+      </c>
+      <c r="K75" s="7">
+        <v>0</v>
+      </c>
+      <c r="L75" s="7">
+        <v>0</v>
+      </c>
+      <c r="M75" s="7">
+        <v>0</v>
+      </c>
+      <c r="N75" s="7">
+        <v>0</v>
+      </c>
+      <c r="O75" s="7">
+        <v>0</v>
+      </c>
+      <c r="P75" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="7">
+        <v>0</v>
+      </c>
+      <c r="R75" s="7">
+        <v>0</v>
+      </c>
+      <c r="S75" s="7">
+        <v>0</v>
+      </c>
+      <c r="T75" s="7">
+        <v>0</v>
+      </c>
+      <c r="U75" s="7">
+        <v>0</v>
+      </c>
+      <c r="V75" s="7">
+        <v>0</v>
+      </c>
+      <c r="W75" s="7">
+        <v>0</v>
+      </c>
+      <c r="X75" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>28</v>
+      </c>
+      <c r="B76" s="6">
+        <v>0</v>
+      </c>
+      <c r="C76" s="7">
+        <v>0</v>
+      </c>
+      <c r="D76" s="7">
+        <v>0</v>
+      </c>
+      <c r="E76" s="7">
+        <v>0</v>
+      </c>
+      <c r="F76" s="7">
+        <v>0</v>
+      </c>
+      <c r="G76" s="7">
+        <v>0</v>
+      </c>
+      <c r="H76" s="7">
+        <v>0</v>
+      </c>
+      <c r="I76" s="7">
+        <v>0</v>
+      </c>
+      <c r="J76" s="7">
+        <v>0</v>
+      </c>
+      <c r="K76" s="7">
+        <v>0</v>
+      </c>
+      <c r="L76" s="7">
+        <v>0</v>
+      </c>
+      <c r="M76" s="7">
+        <v>0</v>
+      </c>
+      <c r="N76" s="7">
+        <v>0</v>
+      </c>
+      <c r="O76" s="7">
+        <v>0</v>
+      </c>
+      <c r="P76" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="7">
+        <v>0</v>
+      </c>
+      <c r="R76" s="7">
+        <v>0</v>
+      </c>
+      <c r="S76" s="7">
+        <v>0</v>
+      </c>
+      <c r="T76" s="7">
+        <v>0</v>
+      </c>
+      <c r="U76" s="7">
+        <v>0</v>
+      </c>
+      <c r="V76" s="7">
+        <v>0</v>
+      </c>
+      <c r="W76" s="7">
+        <v>0</v>
+      </c>
+      <c r="X76" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>29</v>
+      </c>
+      <c r="B77" s="6">
+        <v>0</v>
+      </c>
+      <c r="C77" s="7">
+        <v>0</v>
+      </c>
+      <c r="D77" s="7">
+        <v>0</v>
+      </c>
+      <c r="E77" s="7">
+        <v>0</v>
+      </c>
+      <c r="F77" s="7">
+        <v>0</v>
+      </c>
+      <c r="G77" s="7">
+        <v>0</v>
+      </c>
+      <c r="H77" s="7">
+        <v>0</v>
+      </c>
+      <c r="I77" s="7">
+        <v>0</v>
+      </c>
+      <c r="J77" s="7">
+        <v>0</v>
+      </c>
+      <c r="K77" s="7">
+        <v>0</v>
+      </c>
+      <c r="L77" s="7">
+        <v>0</v>
+      </c>
+      <c r="M77" s="7">
+        <v>0</v>
+      </c>
+      <c r="N77" s="7">
+        <v>0</v>
+      </c>
+      <c r="O77" s="7">
+        <v>0</v>
+      </c>
+      <c r="P77" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="7">
+        <v>0</v>
+      </c>
+      <c r="R77" s="7">
+        <v>0</v>
+      </c>
+      <c r="S77" s="7">
+        <v>0</v>
+      </c>
+      <c r="T77" s="7">
+        <v>0</v>
+      </c>
+      <c r="U77" s="7">
+        <v>0</v>
+      </c>
+      <c r="V77" s="7">
+        <v>0</v>
+      </c>
+      <c r="W77" s="7">
+        <v>0</v>
+      </c>
+      <c r="X77" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>30</v>
+      </c>
+      <c r="B78" s="6">
+        <v>0</v>
+      </c>
+      <c r="C78" s="7">
+        <v>0</v>
+      </c>
+      <c r="D78" s="7">
+        <v>0</v>
+      </c>
+      <c r="E78" s="7">
+        <v>0</v>
+      </c>
+      <c r="F78" s="7">
+        <v>0</v>
+      </c>
+      <c r="G78" s="7">
+        <v>0</v>
+      </c>
+      <c r="H78" s="7">
+        <v>0</v>
+      </c>
+      <c r="I78" s="7">
+        <v>0</v>
+      </c>
+      <c r="J78" s="7">
+        <v>0</v>
+      </c>
+      <c r="K78" s="7">
+        <v>0</v>
+      </c>
+      <c r="L78" s="7">
+        <v>0</v>
+      </c>
+      <c r="M78" s="7">
+        <v>0</v>
+      </c>
+      <c r="N78" s="7">
+        <v>0</v>
+      </c>
+      <c r="O78" s="7">
+        <v>0</v>
+      </c>
+      <c r="P78" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="7">
+        <v>0</v>
+      </c>
+      <c r="R78" s="7">
+        <v>0</v>
+      </c>
+      <c r="S78" s="7">
+        <v>0</v>
+      </c>
+      <c r="T78" s="7">
+        <v>0</v>
+      </c>
+      <c r="U78" s="7">
+        <v>0</v>
+      </c>
+      <c r="V78" s="7">
+        <v>0</v>
+      </c>
+      <c r="W78" s="7">
+        <v>0</v>
+      </c>
+      <c r="X78" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y78" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z78" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA78" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>31</v>
+      </c>
+      <c r="B79" s="6">
+        <v>0</v>
+      </c>
+      <c r="C79" s="7">
+        <v>0</v>
+      </c>
+      <c r="D79" s="7">
+        <v>0</v>
+      </c>
+      <c r="E79" s="7">
+        <v>0</v>
+      </c>
+      <c r="F79" s="7">
+        <v>0</v>
+      </c>
+      <c r="G79" s="7">
+        <v>0</v>
+      </c>
+      <c r="H79" s="7">
+        <v>0</v>
+      </c>
+      <c r="I79" s="7">
+        <v>0</v>
+      </c>
+      <c r="J79" s="7">
+        <v>0</v>
+      </c>
+      <c r="K79" s="7">
+        <v>0</v>
+      </c>
+      <c r="L79" s="7">
+        <v>0</v>
+      </c>
+      <c r="M79" s="7">
+        <v>0</v>
+      </c>
+      <c r="N79" s="7">
+        <v>0</v>
+      </c>
+      <c r="O79" s="7">
+        <v>0</v>
+      </c>
+      <c r="P79" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="7">
+        <v>0</v>
+      </c>
+      <c r="R79" s="7">
+        <v>0</v>
+      </c>
+      <c r="S79" s="7">
+        <v>0</v>
+      </c>
+      <c r="T79" s="7">
+        <v>0</v>
+      </c>
+      <c r="U79" s="7">
+        <v>0</v>
+      </c>
+      <c r="V79" s="7">
+        <v>0</v>
+      </c>
+      <c r="W79" s="7">
+        <v>0</v>
+      </c>
+      <c r="X79" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y79" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z79" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA79" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>32</v>
+      </c>
+      <c r="B80" s="6">
+        <v>0</v>
+      </c>
+      <c r="C80" s="7">
+        <v>0</v>
+      </c>
+      <c r="D80" s="7">
+        <v>0</v>
+      </c>
+      <c r="E80" s="7">
+        <v>0</v>
+      </c>
+      <c r="F80" s="7">
+        <v>0</v>
+      </c>
+      <c r="G80" s="7">
+        <v>0</v>
+      </c>
+      <c r="H80" s="7">
+        <v>0</v>
+      </c>
+      <c r="I80" s="7">
+        <v>0</v>
+      </c>
+      <c r="J80" s="7">
+        <v>0</v>
+      </c>
+      <c r="K80" s="7">
+        <v>0</v>
+      </c>
+      <c r="L80" s="7">
+        <v>0</v>
+      </c>
+      <c r="M80" s="7">
+        <v>0</v>
+      </c>
+      <c r="N80" s="7">
+        <v>0</v>
+      </c>
+      <c r="O80" s="7">
+        <v>0</v>
+      </c>
+      <c r="P80" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="7">
+        <v>0</v>
+      </c>
+      <c r="R80" s="7">
+        <v>0</v>
+      </c>
+      <c r="S80" s="7">
+        <v>0</v>
+      </c>
+      <c r="T80" s="7">
+        <v>0</v>
+      </c>
+      <c r="U80" s="7">
+        <v>0</v>
+      </c>
+      <c r="V80" s="7">
+        <v>0</v>
+      </c>
+      <c r="W80" s="7">
+        <v>0</v>
+      </c>
+      <c r="X80" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y80" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z80" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA80" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>33</v>
+      </c>
+      <c r="B81" s="6">
+        <v>0</v>
+      </c>
+      <c r="C81" s="7">
+        <v>0</v>
+      </c>
+      <c r="D81" s="7">
+        <v>0</v>
+      </c>
+      <c r="E81" s="7">
+        <v>0</v>
+      </c>
+      <c r="F81" s="7">
+        <v>0</v>
+      </c>
+      <c r="G81" s="7">
+        <v>0</v>
+      </c>
+      <c r="H81" s="7">
+        <v>0</v>
+      </c>
+      <c r="I81" s="7">
+        <v>0</v>
+      </c>
+      <c r="J81" s="7">
+        <v>0</v>
+      </c>
+      <c r="K81" s="7">
+        <v>0</v>
+      </c>
+      <c r="L81" s="7">
+        <v>0</v>
+      </c>
+      <c r="M81" s="7">
+        <v>0</v>
+      </c>
+      <c r="N81" s="7">
+        <v>0</v>
+      </c>
+      <c r="O81" s="7">
+        <v>0</v>
+      </c>
+      <c r="P81" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="7">
+        <v>0</v>
+      </c>
+      <c r="R81" s="7">
+        <v>0</v>
+      </c>
+      <c r="S81" s="7">
+        <v>0</v>
+      </c>
+      <c r="T81" s="7">
+        <v>0</v>
+      </c>
+      <c r="U81" s="7">
+        <v>0</v>
+      </c>
+      <c r="V81" s="7">
+        <v>0</v>
+      </c>
+      <c r="W81" s="7">
+        <v>0</v>
+      </c>
+      <c r="X81" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>34</v>
+      </c>
+      <c r="B82" s="6">
+        <v>0</v>
+      </c>
+      <c r="C82" s="7">
+        <v>0</v>
+      </c>
+      <c r="D82" s="7">
+        <v>0</v>
+      </c>
+      <c r="E82" s="7">
+        <v>0</v>
+      </c>
+      <c r="F82" s="7">
+        <v>0</v>
+      </c>
+      <c r="G82" s="7">
+        <v>0</v>
+      </c>
+      <c r="H82" s="7">
+        <v>0</v>
+      </c>
+      <c r="I82" s="7">
+        <v>0</v>
+      </c>
+      <c r="J82" s="7">
+        <v>0</v>
+      </c>
+      <c r="K82" s="7">
+        <v>0</v>
+      </c>
+      <c r="L82" s="7">
+        <v>0</v>
+      </c>
+      <c r="M82" s="7">
+        <v>0</v>
+      </c>
+      <c r="N82" s="7">
+        <v>0</v>
+      </c>
+      <c r="O82" s="7">
+        <v>0</v>
+      </c>
+      <c r="P82" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="7">
+        <v>0</v>
+      </c>
+      <c r="R82" s="7">
+        <v>0</v>
+      </c>
+      <c r="S82" s="7">
+        <v>0</v>
+      </c>
+      <c r="T82" s="7">
+        <v>0</v>
+      </c>
+      <c r="U82" s="7">
+        <v>0</v>
+      </c>
+      <c r="V82" s="7">
+        <v>0</v>
+      </c>
+      <c r="W82" s="7">
+        <v>0</v>
+      </c>
+      <c r="X82" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y82" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z82" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA82" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>35</v>
+      </c>
+      <c r="B83" s="6">
+        <v>0</v>
+      </c>
+      <c r="C83" s="7">
+        <v>0</v>
+      </c>
+      <c r="D83" s="7">
+        <v>0</v>
+      </c>
+      <c r="E83" s="7">
+        <v>0</v>
+      </c>
+      <c r="F83" s="7">
+        <v>0</v>
+      </c>
+      <c r="G83" s="7">
+        <v>0</v>
+      </c>
+      <c r="H83" s="7">
+        <v>0</v>
+      </c>
+      <c r="I83" s="7">
+        <v>0</v>
+      </c>
+      <c r="J83" s="7">
+        <v>0</v>
+      </c>
+      <c r="K83" s="7">
+        <v>0</v>
+      </c>
+      <c r="L83" s="7">
+        <v>0</v>
+      </c>
+      <c r="M83" s="7">
+        <v>0</v>
+      </c>
+      <c r="N83" s="7">
+        <v>0</v>
+      </c>
+      <c r="O83" s="7">
+        <v>0</v>
+      </c>
+      <c r="P83" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="7">
+        <v>0</v>
+      </c>
+      <c r="R83" s="7">
+        <v>0</v>
+      </c>
+      <c r="S83" s="7">
+        <v>0</v>
+      </c>
+      <c r="T83" s="7">
+        <v>0</v>
+      </c>
+      <c r="U83" s="7">
+        <v>0</v>
+      </c>
+      <c r="V83" s="7">
+        <v>0</v>
+      </c>
+      <c r="W83" s="7">
+        <v>0</v>
+      </c>
+      <c r="X83" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>36</v>
+      </c>
+      <c r="B84" s="6">
+        <v>0</v>
+      </c>
+      <c r="C84" s="7">
+        <v>0</v>
+      </c>
+      <c r="D84" s="7">
+        <v>0</v>
+      </c>
+      <c r="E84" s="7">
+        <v>0</v>
+      </c>
+      <c r="F84" s="7">
+        <v>0</v>
+      </c>
+      <c r="G84" s="7">
+        <v>0</v>
+      </c>
+      <c r="H84" s="7">
+        <v>0</v>
+      </c>
+      <c r="I84" s="7">
+        <v>0</v>
+      </c>
+      <c r="J84" s="7">
+        <v>0</v>
+      </c>
+      <c r="K84" s="7">
+        <v>0</v>
+      </c>
+      <c r="L84" s="7">
+        <v>0</v>
+      </c>
+      <c r="M84" s="7">
+        <v>0</v>
+      </c>
+      <c r="N84" s="7">
+        <v>0</v>
+      </c>
+      <c r="O84" s="7">
+        <v>0</v>
+      </c>
+      <c r="P84" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="7">
+        <v>0</v>
+      </c>
+      <c r="R84" s="7">
+        <v>0</v>
+      </c>
+      <c r="S84" s="7">
+        <v>0</v>
+      </c>
+      <c r="T84" s="7">
+        <v>0</v>
+      </c>
+      <c r="U84" s="7">
+        <v>0</v>
+      </c>
+      <c r="V84" s="7">
+        <v>0</v>
+      </c>
+      <c r="W84" s="7">
+        <v>0</v>
+      </c>
+      <c r="X84" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>37</v>
+      </c>
+      <c r="B85" s="6">
+        <v>0</v>
+      </c>
+      <c r="C85" s="7">
+        <v>0</v>
+      </c>
+      <c r="D85" s="7">
+        <v>0</v>
+      </c>
+      <c r="E85" s="7">
+        <v>0</v>
+      </c>
+      <c r="F85" s="7">
+        <v>0</v>
+      </c>
+      <c r="G85" s="7">
+        <v>0</v>
+      </c>
+      <c r="H85" s="7">
+        <v>0</v>
+      </c>
+      <c r="I85" s="7">
+        <v>0</v>
+      </c>
+      <c r="J85" s="7">
+        <v>0</v>
+      </c>
+      <c r="K85" s="7">
+        <v>0</v>
+      </c>
+      <c r="L85" s="7">
+        <v>0</v>
+      </c>
+      <c r="M85" s="7">
+        <v>0</v>
+      </c>
+      <c r="N85" s="7">
+        <v>0</v>
+      </c>
+      <c r="O85" s="7">
+        <v>0</v>
+      </c>
+      <c r="P85" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="7">
+        <v>0</v>
+      </c>
+      <c r="R85" s="7">
+        <v>0</v>
+      </c>
+      <c r="S85" s="7">
+        <v>0</v>
+      </c>
+      <c r="T85" s="7">
+        <v>0</v>
+      </c>
+      <c r="U85" s="7">
+        <v>0</v>
+      </c>
+      <c r="V85" s="7">
+        <v>0</v>
+      </c>
+      <c r="W85" s="7">
+        <v>0</v>
+      </c>
+      <c r="X85" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>38</v>
+      </c>
+      <c r="B86" s="6">
+        <v>0</v>
+      </c>
+      <c r="C86" s="7">
+        <v>0</v>
+      </c>
+      <c r="D86" s="7">
+        <v>0</v>
+      </c>
+      <c r="E86" s="7">
+        <v>0</v>
+      </c>
+      <c r="F86" s="7">
+        <v>0</v>
+      </c>
+      <c r="G86" s="7">
+        <v>0</v>
+      </c>
+      <c r="H86" s="7">
+        <v>0</v>
+      </c>
+      <c r="I86" s="7">
+        <v>0</v>
+      </c>
+      <c r="J86" s="7">
+        <v>0</v>
+      </c>
+      <c r="K86" s="7">
+        <v>0</v>
+      </c>
+      <c r="L86" s="7">
+        <v>0</v>
+      </c>
+      <c r="M86" s="7">
+        <v>0</v>
+      </c>
+      <c r="N86" s="7">
+        <v>0</v>
+      </c>
+      <c r="O86" s="7">
+        <v>0</v>
+      </c>
+      <c r="P86" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="7">
+        <v>0</v>
+      </c>
+      <c r="R86" s="7">
+        <v>0</v>
+      </c>
+      <c r="S86" s="7">
+        <v>0</v>
+      </c>
+      <c r="T86" s="7">
+        <v>0</v>
+      </c>
+      <c r="U86" s="7">
+        <v>0</v>
+      </c>
+      <c r="V86" s="7">
+        <v>0</v>
+      </c>
+      <c r="W86" s="7">
+        <v>0</v>
+      </c>
+      <c r="X86" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>39</v>
+      </c>
+      <c r="B87" s="6">
+        <v>0</v>
+      </c>
+      <c r="C87" s="7">
+        <v>0</v>
+      </c>
+      <c r="D87" s="7">
+        <v>0</v>
+      </c>
+      <c r="E87" s="7">
+        <v>0</v>
+      </c>
+      <c r="F87" s="7">
+        <v>0</v>
+      </c>
+      <c r="G87" s="7">
+        <v>0</v>
+      </c>
+      <c r="H87" s="7">
+        <v>0</v>
+      </c>
+      <c r="I87" s="7">
+        <v>0</v>
+      </c>
+      <c r="J87" s="7">
+        <v>0</v>
+      </c>
+      <c r="K87" s="7">
+        <v>0</v>
+      </c>
+      <c r="L87" s="7">
+        <v>0</v>
+      </c>
+      <c r="M87" s="7">
+        <v>0</v>
+      </c>
+      <c r="N87" s="7">
+        <v>0</v>
+      </c>
+      <c r="O87" s="7">
+        <v>0</v>
+      </c>
+      <c r="P87" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="7">
+        <v>0</v>
+      </c>
+      <c r="R87" s="7">
+        <v>0</v>
+      </c>
+      <c r="S87" s="7">
+        <v>0</v>
+      </c>
+      <c r="T87" s="7">
+        <v>0</v>
+      </c>
+      <c r="U87" s="7">
+        <v>0</v>
+      </c>
+      <c r="V87" s="7">
+        <v>0</v>
+      </c>
+      <c r="W87" s="7">
+        <v>0</v>
+      </c>
+      <c r="X87" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>40</v>
+      </c>
+      <c r="B88" s="6">
+        <v>0</v>
+      </c>
+      <c r="C88" s="7">
+        <v>0</v>
+      </c>
+      <c r="D88" s="7">
+        <v>0</v>
+      </c>
+      <c r="E88" s="7">
+        <v>0</v>
+      </c>
+      <c r="F88" s="7">
+        <v>0</v>
+      </c>
+      <c r="G88" s="7">
+        <v>0</v>
+      </c>
+      <c r="H88" s="7">
+        <v>0</v>
+      </c>
+      <c r="I88" s="7">
+        <v>0</v>
+      </c>
+      <c r="J88" s="7">
+        <v>0</v>
+      </c>
+      <c r="K88" s="7">
+        <v>0</v>
+      </c>
+      <c r="L88" s="7">
+        <v>0</v>
+      </c>
+      <c r="M88" s="7">
+        <v>0</v>
+      </c>
+      <c r="N88" s="7">
+        <v>0</v>
+      </c>
+      <c r="O88" s="7">
+        <v>0</v>
+      </c>
+      <c r="P88" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="7">
+        <v>0</v>
+      </c>
+      <c r="R88" s="7">
+        <v>0</v>
+      </c>
+      <c r="S88" s="7">
+        <v>0</v>
+      </c>
+      <c r="T88" s="7">
+        <v>0</v>
+      </c>
+      <c r="U88" s="7">
+        <v>0</v>
+      </c>
+      <c r="V88" s="7">
+        <v>0</v>
+      </c>
+      <c r="W88" s="7">
+        <v>0</v>
+      </c>
+      <c r="X88" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>41</v>
+      </c>
+      <c r="B89" s="6">
+        <v>0</v>
+      </c>
+      <c r="C89" s="7">
+        <v>0</v>
+      </c>
+      <c r="D89" s="7">
+        <v>0</v>
+      </c>
+      <c r="E89" s="7">
+        <v>0</v>
+      </c>
+      <c r="F89" s="7">
+        <v>0</v>
+      </c>
+      <c r="G89" s="7">
+        <v>0</v>
+      </c>
+      <c r="H89" s="7">
+        <v>0</v>
+      </c>
+      <c r="I89" s="7">
+        <v>0</v>
+      </c>
+      <c r="J89" s="7">
+        <v>0</v>
+      </c>
+      <c r="K89" s="7">
+        <v>0</v>
+      </c>
+      <c r="L89" s="7">
+        <v>0</v>
+      </c>
+      <c r="M89" s="7">
+        <v>0</v>
+      </c>
+      <c r="N89" s="7">
+        <v>0</v>
+      </c>
+      <c r="O89" s="7">
+        <v>0</v>
+      </c>
+      <c r="P89" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="7">
+        <v>0</v>
+      </c>
+      <c r="R89" s="7">
+        <v>0</v>
+      </c>
+      <c r="S89" s="7">
+        <v>0</v>
+      </c>
+      <c r="T89" s="7">
+        <v>0</v>
+      </c>
+      <c r="U89" s="7">
+        <v>0</v>
+      </c>
+      <c r="V89" s="7">
+        <v>0</v>
+      </c>
+      <c r="W89" s="7">
+        <v>0</v>
+      </c>
+      <c r="X89" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>42</v>
+      </c>
+      <c r="B90" s="6">
+        <v>0</v>
+      </c>
+      <c r="C90" s="7">
+        <v>0</v>
+      </c>
+      <c r="D90" s="7">
+        <v>0</v>
+      </c>
+      <c r="E90" s="7">
+        <v>0</v>
+      </c>
+      <c r="F90" s="7">
+        <v>0</v>
+      </c>
+      <c r="G90" s="7">
+        <v>0</v>
+      </c>
+      <c r="H90" s="7">
+        <v>0</v>
+      </c>
+      <c r="I90" s="7">
+        <v>0</v>
+      </c>
+      <c r="J90" s="7">
+        <v>0</v>
+      </c>
+      <c r="K90" s="7">
+        <v>0</v>
+      </c>
+      <c r="L90" s="7">
+        <v>0</v>
+      </c>
+      <c r="M90" s="7">
+        <v>0</v>
+      </c>
+      <c r="N90" s="7">
+        <v>0</v>
+      </c>
+      <c r="O90" s="7">
+        <v>0</v>
+      </c>
+      <c r="P90" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="7">
+        <v>0</v>
+      </c>
+      <c r="R90" s="7">
+        <v>0</v>
+      </c>
+      <c r="S90" s="7">
+        <v>0</v>
+      </c>
+      <c r="T90" s="7">
+        <v>0</v>
+      </c>
+      <c r="U90" s="7">
+        <v>0</v>
+      </c>
+      <c r="V90" s="7">
+        <v>0</v>
+      </c>
+      <c r="W90" s="7">
+        <v>0</v>
+      </c>
+      <c r="X90" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y90" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z90" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA90" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>43</v>
+      </c>
+      <c r="B91" s="9">
+        <v>0</v>
+      </c>
+      <c r="C91" s="10">
+        <v>0</v>
+      </c>
+      <c r="D91" s="10">
+        <v>0</v>
+      </c>
+      <c r="E91" s="10">
+        <v>0</v>
+      </c>
+      <c r="F91" s="10">
+        <v>0</v>
+      </c>
+      <c r="G91" s="10">
+        <v>0</v>
+      </c>
+      <c r="H91" s="10">
+        <v>0</v>
+      </c>
+      <c r="I91" s="10">
+        <v>0</v>
+      </c>
+      <c r="J91" s="10">
+        <v>0</v>
+      </c>
+      <c r="K91" s="10">
+        <v>0</v>
+      </c>
+      <c r="L91" s="10">
+        <v>0</v>
+      </c>
+      <c r="M91" s="10">
+        <v>0</v>
+      </c>
+      <c r="N91" s="10">
+        <v>0</v>
+      </c>
+      <c r="O91" s="10">
+        <v>0</v>
+      </c>
+      <c r="P91" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="10">
+        <v>0</v>
+      </c>
+      <c r="R91" s="10">
+        <v>0</v>
+      </c>
+      <c r="S91" s="10">
+        <v>0</v>
+      </c>
+      <c r="T91" s="10">
+        <v>0</v>
+      </c>
+      <c r="U91" s="10">
+        <v>0</v>
+      </c>
+      <c r="V91" s="10">
+        <v>0</v>
+      </c>
+      <c r="W91" s="10">
+        <v>0</v>
+      </c>
+      <c r="X91" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A93" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" s="3">
         <v>-1100.0000000000007</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C95" s="4">
         <v>-1100</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D95" s="4">
         <v>-1100</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E95" s="4">
         <v>-1100</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F95" s="4">
         <v>-1100</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G95" s="4">
         <v>-1100</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H95" s="4">
         <v>-1098.1931785417196</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I95" s="4">
         <v>-1100</v>
       </c>
-      <c r="J49" s="4">
+      <c r="J95" s="4">
         <v>-1098.0924139029312</v>
       </c>
-      <c r="K49" s="4">
+      <c r="K95" s="4">
         <v>-1100</v>
       </c>
-      <c r="L49" s="4">
+      <c r="L95" s="4">
         <v>-1100</v>
       </c>
-      <c r="M49" s="4">
+      <c r="M95" s="4">
         <v>-1100</v>
       </c>
-      <c r="N49" s="4">
+      <c r="N95" s="4">
         <v>-1100</v>
       </c>
-      <c r="O49" s="4">
+      <c r="O95" s="4">
         <v>-1100</v>
       </c>
-      <c r="P49" s="4">
+      <c r="P95" s="4">
         <v>-1100</v>
       </c>
-      <c r="Q49" s="4">
+      <c r="Q95" s="4">
         <v>-1100</v>
       </c>
-      <c r="R49" s="4">
+      <c r="R95" s="4">
         <v>-1099.9576037401812</v>
       </c>
-      <c r="S49" s="4">
+      <c r="S95" s="4">
         <v>-1100</v>
       </c>
-      <c r="T49" s="4">
+      <c r="T95" s="4">
         <v>-1100</v>
       </c>
-      <c r="U49" s="4">
+      <c r="U95" s="4">
         <v>-1100</v>
       </c>
-      <c r="V49" s="4">
+      <c r="V95" s="4">
         <v>-1100</v>
       </c>
-      <c r="W49" s="4">
+      <c r="W95" s="4">
         <v>-1100</v>
       </c>
-      <c r="X49" s="4">
+      <c r="X95" s="4">
         <v>-1099.1677650406721</v>
       </c>
-      <c r="Y49" s="4">
+      <c r="Y95" s="4">
         <v>-1087.9741082593891</v>
       </c>
-      <c r="Z49" s="4">
+      <c r="Z95" s="4">
         <v>-1099.8030419003735</v>
       </c>
-      <c r="AA49" s="5">
+      <c r="AA95" s="5">
         <v>-1097.5319401830441</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B96" s="6">
         <v>1559.5499999999995</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C96" s="7">
         <v>1530.5749999999998</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D96" s="7">
         <v>1486.6992249999996</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E96" s="7">
         <v>1417.9235680249994</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F96" s="7">
         <v>1399.2489301372245</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G96" s="7">
         <v>1390.6762205084592</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H96" s="7">
         <v>1371.302945763895</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I96" s="7">
         <v>1368.8402637014724</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J96" s="7">
         <v>1354.6250830262511</v>
       </c>
-      <c r="K50" s="7">
+      <c r="K96" s="7">
         <v>1347.4231359594585</v>
       </c>
-      <c r="L50" s="7">
+      <c r="L96" s="7">
         <v>1334.3739941830934</v>
       </c>
-      <c r="M50" s="7">
+      <c r="M96" s="7">
         <v>1326.4324101307411</v>
       </c>
-      <c r="N50" s="7">
+      <c r="N96" s="7">
         <v>1313.5993518219175</v>
       </c>
-      <c r="O50" s="7">
+      <c r="O96" s="7">
         <v>1305.8757959883146</v>
       </c>
-      <c r="P50" s="7">
+      <c r="P96" s="7">
         <v>1293.2627281522095</v>
       </c>
-      <c r="Q50" s="7">
+      <c r="Q96" s="7">
         <v>1285.7611427055792</v>
       </c>
-      <c r="R50" s="7">
+      <c r="R96" s="7">
         <v>1273.3508448600198</v>
       </c>
-      <c r="S50" s="7">
+      <c r="S96" s="7">
         <v>1266.0964413768384</v>
       </c>
-      <c r="T50" s="7">
+      <c r="T96" s="7">
         <v>1248.9353593492299</v>
       </c>
-      <c r="U50" s="7">
+      <c r="U96" s="7">
         <v>1241.8898275833728</v>
       </c>
-      <c r="V50" s="7">
+      <c r="V96" s="7">
         <v>1219.960886031623</v>
       </c>
-      <c r="W50" s="7">
+      <c r="W96" s="7">
         <v>1218.1495840059074</v>
       </c>
-      <c r="X50" s="7">
+      <c r="X96" s="7">
         <v>1201.0408627822962</v>
       </c>
-      <c r="Y50" s="7">
+      <c r="Y96" s="7">
         <v>1173.8711972140172</v>
       </c>
-      <c r="Z50" s="7">
+      <c r="Z96" s="7">
         <v>1123.3336713222634</v>
       </c>
-      <c r="AA50" s="8">
+      <c r="AA96" s="8">
         <v>1086.5478034585801</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B97" s="9">
         <v>-459.54999999999882</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C97" s="10">
         <v>-430.57499999999982</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D97" s="10">
         <v>-386.69922499999961</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E97" s="10">
         <v>-317.92356802499944</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F97" s="10">
         <v>-299.24893013722408</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G97" s="10">
         <v>-290.67622050845921</v>
       </c>
-      <c r="H51" s="10">
+      <c r="H97" s="10">
         <v>-273.10976722217526</v>
       </c>
-      <c r="I51" s="10">
+      <c r="I97" s="10">
         <v>-268.8402637014724</v>
       </c>
-      <c r="J51" s="10">
+      <c r="J97" s="10">
         <v>-256.53266912331992</v>
       </c>
-      <c r="K51" s="10">
+      <c r="K97" s="10">
         <v>-247.42313595945848</v>
       </c>
-      <c r="L51" s="10">
+      <c r="L97" s="10">
         <v>-234.37399418309337</v>
       </c>
-      <c r="M51" s="10">
+      <c r="M97" s="10">
         <v>-226.43241013074112</v>
       </c>
-      <c r="N51" s="10">
+      <c r="N97" s="10">
         <v>-213.59935182191748</v>
       </c>
-      <c r="O51" s="10">
+      <c r="O97" s="10">
         <v>-205.87579598831462</v>
       </c>
-      <c r="P51" s="10">
+      <c r="P97" s="10">
         <v>-193.26272815220955</v>
       </c>
-      <c r="Q51" s="10">
+      <c r="Q97" s="10">
         <v>-185.76114270557923</v>
       </c>
-      <c r="R51" s="10">
+      <c r="R97" s="10">
         <v>-173.39324111983865</v>
       </c>
-      <c r="S51" s="10">
+      <c r="S97" s="10">
         <v>-166.09644137683836</v>
       </c>
-      <c r="T51" s="10">
+      <c r="T97" s="10">
         <v>-148.93535934922988</v>
       </c>
-      <c r="U51" s="10">
+      <c r="U97" s="10">
         <v>-141.88982758337283</v>
       </c>
-      <c r="V51" s="10">
+      <c r="V97" s="10">
         <v>-119.96088603162298</v>
       </c>
-      <c r="W51" s="10">
+      <c r="W97" s="10">
         <v>-118.1495840059074</v>
       </c>
-      <c r="X51" s="10">
+      <c r="X97" s="10">
         <v>-101.87309774162418</v>
       </c>
-      <c r="Y51" s="10">
+      <c r="Y97" s="10">
         <v>-85.897088954628202</v>
       </c>
-      <c r="Z51" s="10">
+      <c r="Z97" s="10">
         <v>-23.530629421889898</v>
       </c>
-      <c r="AA51" s="11">
+      <c r="AA97" s="11">
         <v>10.984136724463951</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="B53">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A99" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="3">
+        <v>-1100.0000000000007</v>
+      </c>
+      <c r="C101" s="4">
+        <v>-1100</v>
+      </c>
+      <c r="D101" s="4">
+        <v>-1100</v>
+      </c>
+      <c r="E101" s="4">
+        <v>-1100</v>
+      </c>
+      <c r="F101" s="4">
+        <v>-1100</v>
+      </c>
+      <c r="G101" s="4">
+        <v>-1100</v>
+      </c>
+      <c r="H101" s="4">
+        <v>-1098.1931785417196</v>
+      </c>
+      <c r="I101" s="4">
+        <v>-1100</v>
+      </c>
+      <c r="J101" s="4">
+        <v>-1098.0924139029312</v>
+      </c>
+      <c r="K101" s="4">
+        <v>-1100</v>
+      </c>
+      <c r="L101" s="4">
+        <v>-1100</v>
+      </c>
+      <c r="M101" s="4">
+        <v>-1100</v>
+      </c>
+      <c r="N101" s="4">
+        <v>-1100</v>
+      </c>
+      <c r="O101" s="4">
+        <v>-1100</v>
+      </c>
+      <c r="P101" s="4">
+        <v>-1100</v>
+      </c>
+      <c r="Q101" s="4">
+        <v>-1100</v>
+      </c>
+      <c r="R101" s="4">
+        <v>-1099.9576037401812</v>
+      </c>
+      <c r="S101" s="4">
+        <v>-1100</v>
+      </c>
+      <c r="T101" s="4">
+        <v>-1100</v>
+      </c>
+      <c r="U101" s="4">
+        <v>-1100</v>
+      </c>
+      <c r="V101" s="4">
+        <v>-1100</v>
+      </c>
+      <c r="W101" s="4">
+        <v>-1100</v>
+      </c>
+      <c r="X101" s="4">
+        <v>-1099.1677650406721</v>
+      </c>
+      <c r="Y101" s="4">
+        <v>-1087.9741082593891</v>
+      </c>
+      <c r="Z101" s="4">
+        <v>-1099.8030419003735</v>
+      </c>
+      <c r="AA101" s="5">
+        <v>-1097.5319401830441</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102" s="6">
+        <v>1559.5499999999995</v>
+      </c>
+      <c r="C102" s="7">
+        <v>1530.5749999999998</v>
+      </c>
+      <c r="D102" s="7">
+        <v>1486.6992249999996</v>
+      </c>
+      <c r="E102" s="7">
+        <v>1417.9235680249994</v>
+      </c>
+      <c r="F102" s="7">
+        <v>1399.2489301372245</v>
+      </c>
+      <c r="G102" s="7">
+        <v>1390.6762205084592</v>
+      </c>
+      <c r="H102" s="7">
+        <v>1371.302945763895</v>
+      </c>
+      <c r="I102" s="7">
+        <v>1368.8402637014724</v>
+      </c>
+      <c r="J102" s="7">
+        <v>1354.6250830262511</v>
+      </c>
+      <c r="K102" s="7">
+        <v>1347.4231359594585</v>
+      </c>
+      <c r="L102" s="7">
+        <v>1334.3739941830934</v>
+      </c>
+      <c r="M102" s="7">
+        <v>1326.4324101307411</v>
+      </c>
+      <c r="N102" s="7">
+        <v>1313.5993518219175</v>
+      </c>
+      <c r="O102" s="7">
+        <v>1305.8757959883146</v>
+      </c>
+      <c r="P102" s="7">
+        <v>1293.2627281522095</v>
+      </c>
+      <c r="Q102" s="7">
+        <v>1285.7611427055792</v>
+      </c>
+      <c r="R102" s="7">
+        <v>1273.3508448600198</v>
+      </c>
+      <c r="S102" s="7">
+        <v>1266.0964413768384</v>
+      </c>
+      <c r="T102" s="7">
+        <v>1248.9353593492299</v>
+      </c>
+      <c r="U102" s="7">
+        <v>1241.8898275833728</v>
+      </c>
+      <c r="V102" s="7">
+        <v>1219.960886031623</v>
+      </c>
+      <c r="W102" s="7">
+        <v>1218.1495840059074</v>
+      </c>
+      <c r="X102" s="7">
+        <v>1201.0408627822962</v>
+      </c>
+      <c r="Y102" s="7">
+        <v>1173.8711972140172</v>
+      </c>
+      <c r="Z102" s="7">
+        <v>1123.3336713222634</v>
+      </c>
+      <c r="AA102" s="8">
+        <v>1086.5478034585801</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" s="9">
+        <v>-459.54999999999882</v>
+      </c>
+      <c r="C103" s="10">
+        <v>-430.57499999999982</v>
+      </c>
+      <c r="D103" s="10">
+        <v>-386.69922499999961</v>
+      </c>
+      <c r="E103" s="10">
+        <v>-317.92356802499944</v>
+      </c>
+      <c r="F103" s="10">
+        <v>-299.24893013722408</v>
+      </c>
+      <c r="G103" s="10">
+        <v>-290.67622050845921</v>
+      </c>
+      <c r="H103" s="10">
+        <v>-273.10976722217526</v>
+      </c>
+      <c r="I103" s="10">
+        <v>-268.8402637014724</v>
+      </c>
+      <c r="J103" s="10">
+        <v>-256.53266912331992</v>
+      </c>
+      <c r="K103" s="10">
+        <v>-247.42313595945848</v>
+      </c>
+      <c r="L103" s="10">
+        <v>-234.37399418309337</v>
+      </c>
+      <c r="M103" s="10">
+        <v>-226.43241013074112</v>
+      </c>
+      <c r="N103" s="10">
+        <v>-213.59935182191748</v>
+      </c>
+      <c r="O103" s="10">
+        <v>-205.87579598831462</v>
+      </c>
+      <c r="P103" s="10">
+        <v>-193.26272815220955</v>
+      </c>
+      <c r="Q103" s="10">
+        <v>-185.76114270557923</v>
+      </c>
+      <c r="R103" s="10">
+        <v>-173.39324111983865</v>
+      </c>
+      <c r="S103" s="10">
+        <v>-166.09644137683836</v>
+      </c>
+      <c r="T103" s="10">
+        <v>-148.93535934922988</v>
+      </c>
+      <c r="U103" s="10">
+        <v>-141.88982758337283</v>
+      </c>
+      <c r="V103" s="10">
+        <v>-119.96088603162298</v>
+      </c>
+      <c r="W103" s="10">
+        <v>-118.1495840059074</v>
+      </c>
+      <c r="X103" s="10">
+        <v>-101.87309774162418</v>
+      </c>
+      <c r="Y103" s="10">
+        <v>-85.897088954628202</v>
+      </c>
+      <c r="Z103" s="10">
+        <v>-23.530629421889898</v>
+      </c>
+      <c r="AA103" s="11">
+        <v>10.984136724463951</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B105">
         <v>2020</v>
       </c>
-      <c r="C53">
+      <c r="C105">
         <v>2021</v>
       </c>
-      <c r="D53">
+      <c r="D105">
         <v>2022</v>
       </c>
-      <c r="E53">
+      <c r="E105">
         <v>2023</v>
       </c>
-      <c r="F53">
+      <c r="F105">
         <v>2024</v>
       </c>
-      <c r="G53">
+      <c r="G105">
         <v>2025</v>
       </c>
-      <c r="H53">
+      <c r="H105">
         <v>2026</v>
       </c>
-      <c r="I53">
+      <c r="I105">
         <v>2027</v>
       </c>
-      <c r="J53">
+      <c r="J105">
         <v>2028</v>
       </c>
-      <c r="K53">
+      <c r="K105">
         <v>2029</v>
       </c>
-      <c r="L53">
+      <c r="L105">
         <v>2030</v>
       </c>
-      <c r="M53">
+      <c r="M105">
         <v>2031</v>
       </c>
-      <c r="N53">
+      <c r="N105">
         <v>2032</v>
       </c>
-      <c r="O53">
+      <c r="O105">
         <v>2033</v>
       </c>
-      <c r="P53">
+      <c r="P105">
         <v>2034</v>
       </c>
-      <c r="Q53">
+      <c r="Q105">
         <v>2035</v>
       </c>
-      <c r="R53">
+      <c r="R105">
         <v>2036</v>
       </c>
-      <c r="S53">
+      <c r="S105">
         <v>2037</v>
       </c>
-      <c r="T53">
+      <c r="T105">
         <v>2038</v>
       </c>
-      <c r="U53">
+      <c r="U105">
         <v>2039</v>
       </c>
-      <c r="V53">
+      <c r="V105">
         <v>2040</v>
       </c>
-      <c r="W53">
+      <c r="W105">
         <v>2041</v>
       </c>
-      <c r="X53">
+      <c r="X105">
         <v>2042</v>
       </c>
-      <c r="Y53">
+      <c r="Y105">
         <v>2043</v>
       </c>
-      <c r="Z53">
+      <c r="Z105">
         <v>2044</v>
       </c>
-      <c r="AA53">
+      <c r="AA105">
         <v>2045</v>
       </c>
-      <c r="AB53" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" s="15">
+      <c r="AB105" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" s="15">
         <v>419066448.64103276</v>
       </c>
-      <c r="C54" s="16">
+      <c r="C106" s="16">
         <v>125273086.48681155</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D106" s="16">
         <v>121082739.88063765</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E106" s="16">
         <v>120287243.3532899</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F106" s="16">
         <v>101061042.67947546</v>
       </c>
-      <c r="G54" s="16">
+      <c r="G106" s="16">
         <v>91054722.542002589</v>
       </c>
-      <c r="H54" s="16">
+      <c r="H106" s="16">
         <v>85756835.58219102</v>
       </c>
-      <c r="I54" s="16">
+      <c r="I106" s="16">
         <v>77835636.33026889</v>
       </c>
-      <c r="J54" s="16">
+      <c r="J106" s="16">
         <v>72095477.491315469</v>
       </c>
-      <c r="K54" s="16">
+      <c r="K106" s="16">
         <v>66837002.123430684</v>
       </c>
-      <c r="L54" s="16">
+      <c r="L106" s="16">
         <v>61305279.967726842</v>
       </c>
-      <c r="M54" s="16">
+      <c r="M106" s="16">
         <v>56802866.981785446</v>
       </c>
-      <c r="N54" s="16">
+      <c r="N106" s="16">
         <v>52088861.87211591</v>
       </c>
-      <c r="O54" s="16">
+      <c r="O106" s="16">
         <v>48238464.927511126</v>
       </c>
-      <c r="P54" s="16">
+      <c r="P106" s="16">
         <v>44224961.578445897</v>
       </c>
-      <c r="Q54" s="16">
+      <c r="Q106" s="16">
         <v>40935877.731673487</v>
       </c>
-      <c r="R54" s="16">
+      <c r="R106" s="16">
         <v>37521716.813343227</v>
       </c>
-      <c r="S54" s="16">
+      <c r="S106" s="16">
         <v>34715087.464546926</v>
       </c>
-      <c r="T54" s="16">
+      <c r="T106" s="16">
         <v>32145404.736540187</v>
       </c>
-      <c r="U54" s="16">
+      <c r="U106" s="16">
         <v>29485302.677763384</v>
       </c>
-      <c r="V54" s="16">
+      <c r="V106" s="16">
         <v>27563924.879889011</v>
       </c>
-      <c r="W54" s="16">
+      <c r="W106" s="16">
         <v>24829028.306883618</v>
       </c>
-      <c r="X54" s="16">
+      <c r="X106" s="16">
         <v>23150557.073793795</v>
       </c>
-      <c r="Y54" s="16">
+      <c r="Y106" s="16">
         <v>21517631.109444827</v>
       </c>
-      <c r="Z54" s="16">
+      <c r="Z106" s="16">
         <v>21155858.060010906</v>
       </c>
-      <c r="AA54" s="17">
+      <c r="AA106" s="17">
         <v>19062229.216091473</v>
       </c>
-      <c r="AB54" s="18">
+      <c r="AB106" s="18">
         <f>SUM(TotalCost)</f>
         <v>1855093288.5080221</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108">
+        <v>2020</v>
+      </c>
+      <c r="C108">
+        <v>2021</v>
+      </c>
+      <c r="D108">
+        <v>2022</v>
+      </c>
+      <c r="E108">
+        <v>2023</v>
+      </c>
+      <c r="F108">
+        <v>2024</v>
+      </c>
+      <c r="G108">
+        <v>2025</v>
+      </c>
+      <c r="H108">
+        <v>2026</v>
+      </c>
+      <c r="I108">
+        <v>2027</v>
+      </c>
+      <c r="J108">
+        <v>2028</v>
+      </c>
+      <c r="K108">
+        <v>2029</v>
+      </c>
+      <c r="L108">
+        <v>2030</v>
+      </c>
+      <c r="M108">
+        <v>2031</v>
+      </c>
+      <c r="N108">
+        <v>2032</v>
+      </c>
+      <c r="O108">
+        <v>2033</v>
+      </c>
+      <c r="P108">
+        <v>2034</v>
+      </c>
+      <c r="Q108">
+        <v>2035</v>
+      </c>
+      <c r="R108">
+        <v>2036</v>
+      </c>
+      <c r="S108">
+        <v>2037</v>
+      </c>
+      <c r="T108">
+        <v>2038</v>
+      </c>
+      <c r="U108">
+        <v>2039</v>
+      </c>
+      <c r="V108">
+        <v>2040</v>
+      </c>
+      <c r="W108">
+        <v>2041</v>
+      </c>
+      <c r="X108">
+        <v>2042</v>
+      </c>
+      <c r="Y108">
+        <v>2043</v>
+      </c>
+      <c r="Z108">
+        <v>2044</v>
+      </c>
+      <c r="AA108">
+        <v>2045</v>
+      </c>
+      <c r="AB108" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A109" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="3">
+        <v>127.23839999999862</v>
+      </c>
+      <c r="C109" s="4">
+        <v>106.61999999999958</v>
+      </c>
+      <c r="D109" s="4">
+        <v>70.35619439999931</v>
+      </c>
+      <c r="E109" s="4">
+        <v>174.35243586779998</v>
+      </c>
+      <c r="F109" s="4">
+        <v>0.65969839061018776</v>
+      </c>
+      <c r="G109" s="4">
+        <v>0.66947527612567959</v>
+      </c>
+      <c r="H109" s="4">
+        <v>0.62246201111017219</v>
+      </c>
+      <c r="I109" s="4">
+        <v>0.65362677499330402</v>
+      </c>
+      <c r="J109" s="4">
+        <v>0.65092004913306756</v>
+      </c>
+      <c r="K109" s="4">
+        <v>0.64400087711195464</v>
+      </c>
+      <c r="L109" s="4">
+        <v>0.62155648500595906</v>
+      </c>
+      <c r="M109" s="4">
+        <v>0.64071009337427121</v>
+      </c>
+      <c r="N109" s="4">
+        <v>0.62147608421134559</v>
+      </c>
+      <c r="O109" s="4">
+        <v>0.6438689689692465</v>
+      </c>
+      <c r="P109" s="4">
+        <v>0.62790338968997006</v>
+      </c>
+      <c r="Q109" s="4">
+        <v>0.65359412019717733</v>
+      </c>
+      <c r="R109" s="4">
+        <v>0.64146482239677427</v>
+      </c>
+      <c r="S109" s="4">
+        <v>0.67000427188445699</v>
+      </c>
+      <c r="T109" s="4">
+        <v>0.62075391033141569</v>
+      </c>
+      <c r="U109" s="4">
+        <v>0.65322029552439742</v>
+      </c>
+      <c r="V109" s="4">
+        <v>0.56741887818411307</v>
+      </c>
+      <c r="W109" s="4">
+        <v>0.64336524808776818</v>
+      </c>
+      <c r="X109" s="4">
+        <v>0.61106195483249026</v>
+      </c>
+      <c r="Y109" s="4">
+        <v>0.66487511242580788</v>
+      </c>
+      <c r="Z109" s="4">
+        <v>0.16421258843780379</v>
+      </c>
+      <c r="AA109" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB109" s="12">
+        <f>SUM(B109:AA109)</f>
+        <v>491.5126998704348</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A110" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B56">
-        <v>2020</v>
-      </c>
-      <c r="C56">
-        <v>2021</v>
-      </c>
-      <c r="D56">
-        <v>2022</v>
-      </c>
-      <c r="E56">
-        <v>2023</v>
-      </c>
-      <c r="F56">
-        <v>2024</v>
-      </c>
-      <c r="G56">
-        <v>2025</v>
-      </c>
-      <c r="H56">
-        <v>2026</v>
-      </c>
-      <c r="I56">
-        <v>2027</v>
-      </c>
-      <c r="J56">
-        <v>2028</v>
-      </c>
-      <c r="K56">
-        <v>2029</v>
-      </c>
-      <c r="L56">
-        <v>2030</v>
-      </c>
-      <c r="M56">
-        <v>2031</v>
-      </c>
-      <c r="N56">
-        <v>2032</v>
-      </c>
-      <c r="O56">
-        <v>2033</v>
-      </c>
-      <c r="P56">
-        <v>2034</v>
-      </c>
-      <c r="Q56">
-        <v>2035</v>
-      </c>
-      <c r="R56">
-        <v>2036</v>
-      </c>
-      <c r="S56">
-        <v>2037</v>
-      </c>
-      <c r="T56">
-        <v>2038</v>
-      </c>
-      <c r="U56">
-        <v>2039</v>
-      </c>
-      <c r="V56">
-        <v>2040</v>
-      </c>
-      <c r="W56">
-        <v>2041</v>
-      </c>
-      <c r="X56">
-        <v>2042</v>
-      </c>
-      <c r="Y56">
-        <v>2043</v>
-      </c>
-      <c r="Z56">
-        <v>2044</v>
-      </c>
-      <c r="AA56">
-        <v>2045</v>
-      </c>
-      <c r="AB56" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="3">
-        <v>127.23839999999862</v>
-      </c>
-      <c r="C57" s="4">
-        <v>106.61999999999958</v>
-      </c>
-      <c r="D57" s="4">
-        <v>70.35619439999931</v>
-      </c>
-      <c r="E57" s="4">
-        <v>174.35243586779998</v>
-      </c>
-      <c r="F57" s="4">
-        <v>0.65969839061018776</v>
-      </c>
-      <c r="G57" s="4">
-        <v>0.66947527612567959</v>
-      </c>
-      <c r="H57" s="4">
-        <v>0.62246201111017219</v>
-      </c>
-      <c r="I57" s="4">
-        <v>0.65362677499330402</v>
-      </c>
-      <c r="J57" s="4">
-        <v>0.65092004913306756</v>
-      </c>
-      <c r="K57" s="4">
-        <v>0.64400087711195464</v>
-      </c>
-      <c r="L57" s="4">
-        <v>0.62155648500595906</v>
-      </c>
-      <c r="M57" s="4">
-        <v>0.64071009337427121</v>
-      </c>
-      <c r="N57" s="4">
-        <v>0.62147608421134559</v>
-      </c>
-      <c r="O57" s="4">
-        <v>0.6438689689692465</v>
-      </c>
-      <c r="P57" s="4">
-        <v>0.62790338968997006</v>
-      </c>
-      <c r="Q57" s="4">
-        <v>0.65359412019717733</v>
-      </c>
-      <c r="R57" s="4">
-        <v>0.64146482239677427</v>
-      </c>
-      <c r="S57" s="4">
-        <v>0.67000427188445699</v>
-      </c>
-      <c r="T57" s="4">
-        <v>0.62075391033141569</v>
-      </c>
-      <c r="U57" s="4">
-        <v>0.65322029552439742</v>
-      </c>
-      <c r="V57" s="4">
-        <v>0.56741887818411307</v>
-      </c>
-      <c r="W57" s="4">
-        <v>0.64336524808776818</v>
-      </c>
-      <c r="X57" s="4">
-        <v>0.61106195483249026</v>
-      </c>
-      <c r="Y57" s="4">
-        <v>0.66487511242580788</v>
-      </c>
-      <c r="Z57" s="4">
-        <v>0.16421258843780379</v>
-      </c>
-      <c r="AA57" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="12">
-        <f>SUM(B57:AA57)</f>
-        <v>491.5126998704348</v>
-      </c>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B58" s="6">
+      <c r="B110" s="6">
         <v>0.47940000000000055</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C110" s="7">
         <v>0.40129999999999838</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D110" s="7">
         <v>0.26393709999999737</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E110" s="7">
         <v>0.20300000000000001</v>
       </c>
-      <c r="F58" s="7">
-        <v>0</v>
-      </c>
-      <c r="G58" s="7">
-        <v>0</v>
-      </c>
-      <c r="H58" s="7">
-        <v>0</v>
-      </c>
-      <c r="I58" s="7">
-        <v>0</v>
-      </c>
-      <c r="J58" s="7">
-        <v>0</v>
-      </c>
-      <c r="K58" s="7">
-        <v>0</v>
-      </c>
-      <c r="L58" s="7">
-        <v>0</v>
-      </c>
-      <c r="M58" s="7">
+      <c r="F110" s="7">
+        <v>0</v>
+      </c>
+      <c r="G110" s="7">
+        <v>0</v>
+      </c>
+      <c r="H110" s="7">
+        <v>0</v>
+      </c>
+      <c r="I110" s="7">
+        <v>0</v>
+      </c>
+      <c r="J110" s="7">
+        <v>0</v>
+      </c>
+      <c r="K110" s="7">
+        <v>0</v>
+      </c>
+      <c r="L110" s="7">
+        <v>0</v>
+      </c>
+      <c r="M110" s="7">
         <v>3.8120617773529373E-15</v>
       </c>
-      <c r="N58" s="7">
-        <v>0</v>
-      </c>
-      <c r="O58" s="7">
-        <v>0</v>
-      </c>
-      <c r="P58" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="7">
-        <v>0</v>
-      </c>
-      <c r="R58" s="7">
-        <v>0</v>
-      </c>
-      <c r="S58" s="7">
-        <v>0</v>
-      </c>
-      <c r="T58" s="7">
-        <v>0</v>
-      </c>
-      <c r="U58" s="7">
-        <v>0</v>
-      </c>
-      <c r="V58" s="7">
-        <v>0</v>
-      </c>
-      <c r="W58" s="7">
-        <v>0</v>
-      </c>
-      <c r="X58" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA58" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB58" s="13">
-        <f t="shared" ref="AB58:AB61" si="0">SUM(B58:AA58)</f>
+      <c r="N110" s="7">
+        <v>0</v>
+      </c>
+      <c r="O110" s="7">
+        <v>0</v>
+      </c>
+      <c r="P110" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="7">
+        <v>0</v>
+      </c>
+      <c r="R110" s="7">
+        <v>0</v>
+      </c>
+      <c r="S110" s="7">
+        <v>0</v>
+      </c>
+      <c r="T110" s="7">
+        <v>0</v>
+      </c>
+      <c r="U110" s="7">
+        <v>0</v>
+      </c>
+      <c r="V110" s="7">
+        <v>0</v>
+      </c>
+      <c r="W110" s="7">
+        <v>0</v>
+      </c>
+      <c r="X110" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y110" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z110" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA110" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB110" s="13">
+        <f t="shared" ref="AB110:AB113" si="0">SUM(B110:AA110)</f>
         <v>1.3476371</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B59" s="6">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B111" s="6">
         <v>106950.48810000002</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C111" s="7">
         <v>90435.657349999659</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D111" s="7">
         <v>61389.24192324945</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E111" s="7">
         <v>13084.016274990165</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F111" s="7">
         <v>5436.8218239150356</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G111" s="7">
         <v>5517.3968037802724</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H111" s="7">
         <v>5129.9428568130952</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I111" s="7">
         <v>5386.7833627604405</v>
       </c>
-      <c r="J59" s="7">
+      <c r="J111" s="7">
         <v>5364.476219924034</v>
       </c>
-      <c r="K59" s="7">
+      <c r="K111" s="7">
         <v>5307.4527286085349</v>
       </c>
-      <c r="L59" s="7">
+      <c r="L111" s="7">
         <v>5122.480076615986</v>
       </c>
-      <c r="M59" s="7">
+      <c r="M111" s="7">
         <v>5280.3321457556458</v>
       </c>
-      <c r="N59" s="7">
+      <c r="N111" s="7">
         <v>5121.8174635172782</v>
       </c>
-      <c r="O59" s="7">
+      <c r="O111" s="7">
         <v>5306.3656241389235</v>
       </c>
-      <c r="P59" s="7">
+      <c r="P111" s="7">
         <v>5174.7872982061763</v>
       </c>
-      <c r="Q59" s="7">
+      <c r="Q111" s="7">
         <v>5386.5142423400121</v>
       </c>
-      <c r="R59" s="7">
+      <c r="R111" s="7">
         <v>5286.5521506802152</v>
       </c>
-      <c r="S59" s="7">
+      <c r="S111" s="7">
         <v>5521.7564562017669</v>
       </c>
-      <c r="T59" s="7">
+      <c r="T111" s="7">
         <v>5115.8657577575705</v>
       </c>
-      <c r="U59" s="7">
+      <c r="U111" s="7">
         <v>5383.433413027381</v>
       </c>
-      <c r="V59" s="7">
+      <c r="V111" s="7">
         <v>4676.311757194595</v>
       </c>
-      <c r="W59" s="7">
+      <c r="W111" s="7">
         <v>5302.2142714593301</v>
       </c>
-      <c r="X59" s="7">
+      <c r="X111" s="7">
         <v>5035.9907180076143</v>
       </c>
-      <c r="Y59" s="7">
+      <c r="Y111" s="7">
         <v>5479.4851296682418</v>
       </c>
-      <c r="Z59" s="7">
+      <c r="Z111" s="7">
         <v>1353.337521036605</v>
       </c>
-      <c r="AA59" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB59" s="13">
+      <c r="AA111" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB111" s="13">
         <f t="shared" si="0"/>
         <v>378549.52146964805</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" s="6">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A112" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112" s="6">
         <v>5.3156999999999783</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C112" s="7">
         <v>4.8080499999999891</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D112" s="7">
         <v>3.9151911499999823</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E112" s="7">
         <v>2.3351665703499758</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F112" s="7">
         <v>2.1440197694831102</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G112" s="7">
         <v>2.1757946474084586</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H112" s="7">
         <v>2.0230015361080596</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I112" s="7">
         <v>2.1242870187282379</v>
       </c>
-      <c r="J60" s="7">
+      <c r="J112" s="7">
         <v>2.1154901596824693</v>
       </c>
-      <c r="K60" s="7">
+      <c r="K112" s="7">
         <v>2.0930028506138525</v>
       </c>
-      <c r="L60" s="7">
+      <c r="L112" s="7">
         <v>2.020058576269367</v>
       </c>
-      <c r="M60" s="7">
+      <c r="M112" s="7">
         <v>2.0823078034557843</v>
       </c>
-      <c r="N60" s="7">
+      <c r="N112" s="7">
         <v>2.0197972736868728</v>
       </c>
-      <c r="O60" s="7">
+      <c r="O112" s="7">
         <v>2.0925741491500509</v>
       </c>
-      <c r="P60" s="7">
+      <c r="P112" s="7">
         <v>2.0406860164924026</v>
       </c>
-      <c r="Q60" s="7">
+      <c r="Q112" s="7">
         <v>2.1241808906408259</v>
       </c>
-      <c r="R60" s="7">
+      <c r="R112" s="7">
         <v>2.0847606727895163</v>
       </c>
-      <c r="S60" s="7">
+      <c r="S112" s="7">
         <v>2.1775138836244854</v>
       </c>
-      <c r="T60" s="7">
+      <c r="T112" s="7">
         <v>2.0174502085771007</v>
       </c>
-      <c r="U60" s="7">
+      <c r="U112" s="7">
         <v>2.1229659604542914</v>
       </c>
-      <c r="V60" s="7">
+      <c r="V112" s="7">
         <v>1.8441113540983674</v>
       </c>
-      <c r="W60" s="7">
+      <c r="W112" s="7">
         <v>2.0909370562852465</v>
       </c>
-      <c r="X60" s="7">
+      <c r="X112" s="7">
         <v>1.9859513532055935</v>
       </c>
-      <c r="Y60" s="7">
+      <c r="Y112" s="7">
         <v>2.1608441153838753</v>
       </c>
-      <c r="Z60" s="7">
+      <c r="Z112" s="7">
         <v>0.53369091242286226</v>
       </c>
-      <c r="AA60" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB60" s="13">
+      <c r="AA112" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB112" s="13">
         <f t="shared" si="0"/>
         <v>58.447533928910758</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A61" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B61" s="9">
+    <row r="113" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B113" s="9">
         <v>0.61334999999999762</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C113" s="10">
         <v>0.55477499999999869</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D113" s="10">
         <v>0.45175282499999803</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E113" s="10">
         <v>0.26728845042499721</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F113" s="10">
         <v>0.24738689647882042</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G113" s="10">
         <v>0.25105322854712986</v>
       </c>
-      <c r="H61" s="10">
+      <c r="H113" s="10">
         <v>0.23342325416631457</v>
       </c>
-      <c r="I61" s="10">
+      <c r="I113" s="10">
         <v>0.24511004062248901</v>
       </c>
-      <c r="J61" s="10">
+      <c r="J113" s="10">
         <v>0.24409501842490033</v>
       </c>
-      <c r="K61" s="10">
+      <c r="K113" s="10">
         <v>0.241500328916983</v>
       </c>
-      <c r="L61" s="10">
+      <c r="L113" s="10">
         <v>0.23308368187723466</v>
       </c>
-      <c r="M61" s="10">
+      <c r="M113" s="10">
         <v>0.24026628501412892</v>
       </c>
-      <c r="N61" s="10">
+      <c r="N113" s="10">
         <v>0.2330535315792546</v>
       </c>
-      <c r="O61" s="10">
+      <c r="O113" s="10">
         <v>0.24145086336346744</v>
       </c>
-      <c r="P61" s="10">
+      <c r="P113" s="10">
         <v>0.23546377113373876</v>
       </c>
-      <c r="Q61" s="10">
+      <c r="Q113" s="10">
         <v>0.2450977950739415</v>
       </c>
-      <c r="R61" s="10">
+      <c r="R113" s="10">
         <v>0.24054930839879035</v>
       </c>
-      <c r="S61" s="10">
+      <c r="S113" s="10">
         <v>0.2512516019566714</v>
       </c>
-      <c r="T61" s="10">
+      <c r="T113" s="10">
         <v>0.23278271637428088</v>
       </c>
-      <c r="U61" s="10">
+      <c r="U113" s="10">
         <v>0.24495761082164905</v>
       </c>
-      <c r="V61" s="10">
+      <c r="V113" s="10">
         <v>0.21278207931904239</v>
       </c>
-      <c r="W61" s="10">
+      <c r="W113" s="10">
         <v>0.24126196803291305</v>
       </c>
-      <c r="X61" s="10">
+      <c r="X113" s="10">
         <v>0.22914823306218388</v>
       </c>
-      <c r="Y61" s="10">
+      <c r="Y113" s="10">
         <v>0.24932816715967795</v>
       </c>
-      <c r="Z61" s="10">
+      <c r="Z113" s="10">
         <v>6.157972066417642E-2</v>
       </c>
-      <c r="AA61" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="14">
+      <c r="AA113" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB113" s="14">
         <f t="shared" si="0"/>
         <v>6.7417923764127794</v>
       </c>

--- a/717A11_output.xlsx
+++ b/717A11_output.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lfi\Google Drive\School\College\Semester 6 (Spring 2020)\ENV 717\Assignments\Assignment 11 (group project)\ENV717A11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jawessel\opl\ENV717A11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -719,10 +719,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <v>519.20000000000005</v>
       </c>
       <c r="C3" s="4">
-        <v>0</v>
+        <v>519.20000000000005</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -734,49 +734,49 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>0</v>
+        <v>495.9191783774736</v>
       </c>
       <c r="H3" s="4">
-        <v>0</v>
+        <v>396.80584595544178</v>
       </c>
       <c r="I3" s="4">
-        <v>0</v>
+        <v>421.67530116495027</v>
       </c>
       <c r="J3" s="4">
-        <v>0</v>
+        <v>407.00758733670591</v>
       </c>
       <c r="K3" s="4">
-        <v>0</v>
+        <v>514.22584895567707</v>
       </c>
       <c r="L3" s="4">
-        <v>0</v>
+        <v>427.12120987953153</v>
       </c>
       <c r="M3" s="4">
-        <v>0</v>
+        <v>466.05298510391117</v>
       </c>
       <c r="N3" s="4">
-        <v>0</v>
+        <v>473.76113038564449</v>
       </c>
       <c r="O3" s="4">
-        <v>0</v>
+        <v>452.05418306798612</v>
       </c>
       <c r="P3" s="4">
-        <v>0</v>
+        <v>402.64424198762902</v>
       </c>
       <c r="Q3" s="4">
-        <v>0</v>
+        <v>486.3227090409855</v>
       </c>
       <c r="R3" s="4">
-        <v>0</v>
+        <v>386.28310279959396</v>
       </c>
       <c r="S3" s="4">
-        <v>0</v>
+        <v>419.45037015797811</v>
       </c>
       <c r="T3" s="4">
-        <v>0</v>
+        <v>129.03291882239137</v>
       </c>
       <c r="U3" s="4">
-        <v>0</v>
+        <v>117.86808104206641</v>
       </c>
       <c r="V3" s="4">
         <v>0</v>
@@ -805,79 +805,79 @@
         <v>0</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>130.26735234473745</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>641.0518916205184</v>
       </c>
       <c r="E4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="F4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="G4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="J4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="K4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="L4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="O4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="P4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="Q4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="R4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="S4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="T4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="U4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="V4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="W4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="X4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="Y4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="Z4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="AA4" s="8">
-        <v>0</v>
+        <v>665.6</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
@@ -885,7 +885,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -894,73 +894,73 @@
         <v>0</v>
       </c>
       <c r="E5" s="7">
-        <v>7</v>
+        <v>46.5</v>
       </c>
       <c r="F5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="G5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="J5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="K5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="L5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="M5" s="7">
-        <v>1.3145040611561853E-13</v>
+        <v>46.5</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="O5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="P5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="Q5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="R5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="S5" s="7">
-        <v>0</v>
+        <v>42.477210131937454</v>
       </c>
       <c r="T5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="U5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="V5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="W5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="X5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="Y5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="Z5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="AA5" s="8">
-        <v>0</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.35">
@@ -968,82 +968,82 @@
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>119.84999999999815</v>
+        <v>0</v>
       </c>
       <c r="C6" s="7">
-        <v>100.32499999999959</v>
+        <v>212</v>
       </c>
       <c r="D6" s="7">
-        <v>65.984274999999343</v>
+        <v>212</v>
       </c>
       <c r="E6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="F6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="G6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="J6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="K6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="L6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="O6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="P6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="Q6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="R6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="S6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="T6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="U6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="V6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="W6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="X6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="Y6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="Z6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="AA6" s="8">
-        <v>0</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
@@ -1051,82 +1051,82 @@
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>0</v>
+        <v>192.67035526309974</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="E7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="F7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="G7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="J7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="K7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="L7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="O7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="P7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="Q7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="R7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="S7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="T7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="U7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="V7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="W7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="X7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="Y7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="Z7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="AA7" s="8">
-        <v>0</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
@@ -1134,7 +1134,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1149,55 +1149,55 @@
         <v>0</v>
       </c>
       <c r="G8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="J8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="K8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="L8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="O8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="P8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="Q8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="R8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="S8" s="7">
         <v>0</v>
       </c>
       <c r="T8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="U8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="V8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="W8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="X8" s="7">
         <v>0</v>
@@ -1217,82 +1217,82 @@
         <v>7</v>
       </c>
       <c r="B9" s="6">
-        <v>84.6</v>
+        <v>0</v>
       </c>
       <c r="C9" s="7">
-        <v>84.6</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
         <v>84.6</v>
       </c>
       <c r="E9" s="7">
-        <v>84.429483474999074</v>
+        <v>84.6</v>
       </c>
       <c r="F9" s="7">
-        <v>82.462298826273468</v>
+        <v>84.6</v>
       </c>
       <c r="G9" s="7">
-        <v>83.684409515709945</v>
+        <v>84.6</v>
       </c>
       <c r="H9" s="7">
-        <v>77.807751388771521</v>
+        <v>84.6</v>
       </c>
       <c r="I9" s="7">
-        <v>81.703346874163003</v>
+        <v>84.6</v>
       </c>
       <c r="J9" s="7">
-        <v>81.365006141633444</v>
+        <v>84.6</v>
       </c>
       <c r="K9" s="7">
-        <v>80.500109638994331</v>
+        <v>84.6</v>
       </c>
       <c r="L9" s="7">
-        <v>77.694560625744884</v>
+        <v>84.6</v>
       </c>
       <c r="M9" s="7">
-        <v>80.088761671376218</v>
+        <v>84.6</v>
       </c>
       <c r="N9" s="7">
-        <v>77.684510526418194</v>
+        <v>84.6</v>
       </c>
       <c r="O9" s="7">
-        <v>80.483621121155807</v>
+        <v>84.6</v>
       </c>
       <c r="P9" s="7">
-        <v>78.487923711246253</v>
+        <v>84.6</v>
       </c>
       <c r="Q9" s="7">
-        <v>81.699265024647161</v>
+        <v>84.6</v>
       </c>
       <c r="R9" s="7">
-        <v>80.183102799596782</v>
+        <v>84.6</v>
       </c>
       <c r="S9" s="7">
-        <v>83.750533985557126</v>
+        <v>84.6</v>
       </c>
       <c r="T9" s="7">
-        <v>77.59423879142696</v>
+        <v>84.6</v>
       </c>
       <c r="U9" s="7">
-        <v>81.65253694054968</v>
+        <v>84.6</v>
       </c>
       <c r="V9" s="7">
-        <v>70.927359773014132</v>
+        <v>84.6</v>
       </c>
       <c r="W9" s="7">
-        <v>80.420656010971015</v>
+        <v>84.6</v>
       </c>
       <c r="X9" s="7">
-        <v>76.382744354061288</v>
+        <v>84.6</v>
       </c>
       <c r="Y9" s="7">
-        <v>83.109389053225982</v>
+        <v>84.6</v>
       </c>
       <c r="Z9" s="7">
-        <v>20.526573554725474</v>
+        <v>84.6</v>
       </c>
       <c r="AA9" s="8">
-        <v>0</v>
+        <v>84.6</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.35">
@@ -1300,7 +1300,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1312,64 +1312,64 @@
         <v>0</v>
       </c>
       <c r="F10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="J10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="K10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="L10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="O10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="P10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="Q10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="R10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="S10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="T10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="U10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="V10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="W10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="X10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="Y10" s="7">
-        <v>0</v>
+        <v>85.513755621295331</v>
       </c>
       <c r="Z10" s="7">
         <v>0</v>
@@ -1386,79 +1386,79 @@
         <v>0</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="F11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="G11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="J11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="K11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="L11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="O11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="P11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="Q11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="R11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="S11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="T11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="U11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="V11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="W11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="X11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="Y11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="Z11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="AA11" s="8">
-        <v>0</v>
+        <v>650</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.35">
@@ -1466,82 +1466,82 @@
         <v>10</v>
       </c>
       <c r="B12" s="6">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="E12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="F12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="G12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="J12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="K12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="L12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="O12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="P12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="Q12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="R12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="S12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="T12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="U12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="V12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="W12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="X12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="Y12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="Z12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="AA12" s="8">
-        <v>0</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
@@ -1549,10 +1549,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="6">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="D13" s="7">
         <v>0</v>
@@ -1564,55 +1564,55 @@
         <v>0</v>
       </c>
       <c r="G13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="J13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="K13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="L13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="O13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="P13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="Q13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="R13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="S13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="T13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="U13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="V13" s="7">
-        <v>0</v>
+        <v>90.066924690421729</v>
       </c>
       <c r="W13" s="7">
-        <v>0</v>
+        <v>44.932226380950823</v>
       </c>
       <c r="X13" s="7">
         <v>0</v>
@@ -1632,79 +1632,79 @@
         <v>12</v>
       </c>
       <c r="B14" s="6">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>85.515108379479443</v>
       </c>
       <c r="E14" s="7">
         <v>0</v>
       </c>
       <c r="F14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="K14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="O14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="P14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="Q14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="R14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="S14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="T14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="U14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="V14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="W14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="X14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="Y14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="Z14" s="7">
-        <v>0</v>
+        <v>132.9612588437767</v>
       </c>
       <c r="AA14" s="8">
         <v>0</v>
@@ -1715,19 +1715,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="6">
-        <v>0</v>
+        <v>1848</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
+        <v>1848</v>
       </c>
       <c r="D15" s="7">
-        <v>0</v>
+        <v>1848</v>
       </c>
       <c r="E15" s="7">
-        <v>0</v>
+        <v>1254.6797472637277</v>
       </c>
       <c r="F15" s="7">
-        <v>0</v>
+        <v>607.83770948545941</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="6">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -1807,73 +1807,73 @@
         <v>0</v>
       </c>
       <c r="E16" s="7">
-        <v>0</v>
+        <v>604.92635573626876</v>
       </c>
       <c r="F16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="G16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="J16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="K16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="L16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="O16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="P16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="Q16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="R16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="S16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="T16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="U16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="V16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="W16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="X16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="Y16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="Z16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="AA16" s="8">
-        <v>0</v>
+        <v>651.55241017337084</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.35">
@@ -1881,7 +1881,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="6">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -1893,58 +1893,58 @@
         <v>0</v>
       </c>
       <c r="F17" s="7">
-        <v>0</v>
+        <v>24.084748441537158</v>
       </c>
       <c r="G17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="J17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="K17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="L17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="O17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="P17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="Q17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="R17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="S17" s="7">
-        <v>0</v>
+        <v>28.36637043487417</v>
       </c>
       <c r="T17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="U17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="V17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="W17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="X17" s="7">
         <v>0</v>
@@ -1964,82 +1964,82 @@
         <v>16</v>
       </c>
       <c r="B18" s="6">
-        <v>1.5916157281026244E-12</v>
+        <v>67</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D18" s="7">
         <v>0</v>
       </c>
       <c r="E18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="F18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="L18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="O18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="P18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="Q18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="R18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="S18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="T18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="U18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="V18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="W18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="X18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="Y18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="Z18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="AA18" s="8">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.35">
@@ -2047,22 +2047,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="6">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="E19" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="F19" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="G19" s="7">
-        <v>0</v>
+        <v>152.50208167086572</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2083,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>-5.2295945351943374E-12</v>
       </c>
       <c r="O19" s="7">
-        <v>0</v>
+        <v>-1.3642420526593924E-11</v>
       </c>
       <c r="P19" s="7">
-        <v>0</v>
+        <v>-7.1622707764618099E-12</v>
       </c>
       <c r="Q19" s="7">
         <v>0</v>
@@ -2098,28 +2098,28 @@
         <v>0</v>
       </c>
       <c r="S19" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="T19" s="7">
-        <v>0</v>
+        <v>243.32627745892165</v>
       </c>
       <c r="U19" s="7">
-        <v>0</v>
+        <v>128.51664800577859</v>
       </c>
       <c r="V19" s="7">
-        <v>0</v>
+        <v>135.00956691885051</v>
       </c>
       <c r="W19" s="7">
-        <v>0</v>
+        <v>55.508253652803432</v>
       </c>
       <c r="X19" s="7">
-        <v>0</v>
+        <v>79.06445869096126</v>
       </c>
       <c r="Y19" s="7">
         <v>0</v>
       </c>
       <c r="Z19" s="7">
-        <v>0</v>
+        <v>42.67138750893254</v>
       </c>
       <c r="AA19" s="8">
         <v>0</v>
@@ -2130,55 +2130,55 @@
         <v>18</v>
       </c>
       <c r="B20" s="6">
-        <v>0</v>
+        <v>2269.6</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>2269.6</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>2269.6</v>
       </c>
       <c r="E20" s="7">
-        <v>0</v>
+        <v>2269.6</v>
       </c>
       <c r="F20" s="7">
-        <v>0</v>
+        <v>2269.6</v>
       </c>
       <c r="G20" s="7">
-        <v>0</v>
+        <v>2269.6</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>2237.1019054333301</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>1978.7119199863191</v>
       </c>
       <c r="J20" s="7">
-        <v>0</v>
+        <v>1760.4574188049241</v>
       </c>
       <c r="K20" s="7">
-        <v>0</v>
+        <v>1470.9206422412265</v>
       </c>
       <c r="L20" s="7">
-        <v>0</v>
+        <v>1326.3158997381433</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>1106.2893585003221</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>918.10659431102954</v>
       </c>
       <c r="O20" s="7">
-        <v>0</v>
+        <v>759.96465115096896</v>
       </c>
       <c r="P20" s="7">
-        <v>0</v>
+        <v>630.15706173928947</v>
       </c>
       <c r="Q20" s="7">
-        <v>0</v>
+        <v>417.89810641946508</v>
       </c>
       <c r="R20" s="7">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="S20" s="7">
         <v>0</v>
@@ -2187,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="7">
-        <v>0</v>
+        <v>-1.7621459846850485E-12</v>
       </c>
       <c r="V20" s="7">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6">
-        <v>0</v>
+        <v>15.829644736900207</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="6">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -2308,70 +2308,70 @@
         <v>0</v>
       </c>
       <c r="F22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="G22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="J22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="K22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="L22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="O22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="P22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="Q22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="R22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="S22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="T22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="U22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="V22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="W22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="X22" s="7">
-        <v>0</v>
+        <v>397.51828566309723</v>
       </c>
       <c r="Y22" s="7">
-        <v>0</v>
+        <v>355.79563343194718</v>
       </c>
       <c r="Z22" s="7">
-        <v>0</v>
+        <v>243.09392720201333</v>
       </c>
       <c r="AA22" s="8">
-        <v>0</v>
+        <v>301.38810254334294</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.35">
@@ -2379,10 +2379,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="6">
-        <v>28.100000000000009</v>
+        <v>0</v>
       </c>
       <c r="C23" s="7">
-        <v>28.100000000000009</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
         <v>28.1</v>
@@ -2394,25 +2394,25 @@
         <v>28.1</v>
       </c>
       <c r="G23" s="7">
-        <v>28.1</v>
+        <v>28.100000000000009</v>
       </c>
       <c r="H23" s="7">
-        <v>28.1</v>
+        <v>28.100000000000009</v>
       </c>
       <c r="I23" s="7">
-        <v>28.1</v>
+        <v>28.100000000000009</v>
       </c>
       <c r="J23" s="7">
         <v>28.099999999999994</v>
       </c>
       <c r="K23" s="7">
-        <v>28.099999999999994</v>
+        <v>28.1</v>
       </c>
       <c r="L23" s="7">
         <v>28.100000000000009</v>
       </c>
       <c r="M23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.099999999999994</v>
       </c>
       <c r="N23" s="7">
         <v>28.100000000000009</v>
@@ -2430,7 +2430,7 @@
         <v>28.100000000000009</v>
       </c>
       <c r="S23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.099999999999994</v>
       </c>
       <c r="T23" s="7">
         <v>28.099999999999994</v>
@@ -2439,22 +2439,22 @@
         <v>28.099999999999994</v>
       </c>
       <c r="V23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.1</v>
       </c>
       <c r="W23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.1</v>
       </c>
       <c r="X23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.099999999999994</v>
       </c>
       <c r="Y23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.099999999999994</v>
       </c>
       <c r="Z23" s="7">
         <v>28.100000000000009</v>
       </c>
       <c r="AA23" s="8">
-        <v>28.099999999999994</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.35">
@@ -2462,10 +2462,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="6">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C24" s="7">
-        <v>25</v>
+        <v>5.9326476552607801</v>
       </c>
       <c r="D24" s="7">
         <v>25</v>
@@ -2545,7 +2545,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="6">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C25" s="7">
         <v>70</v>
@@ -2628,10 +2628,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="6">
-        <v>30.6</v>
+        <v>0</v>
       </c>
       <c r="C26" s="7">
-        <v>30.6</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
         <v>30.6</v>
@@ -2685,7 +2685,7 @@
         <v>30.6</v>
       </c>
       <c r="U26" s="7">
-        <v>30.6</v>
+        <v>30.599999999999998</v>
       </c>
       <c r="V26" s="7">
         <v>30.6</v>
@@ -2697,13 +2697,13 @@
         <v>30.6</v>
       </c>
       <c r="Y26" s="7">
-        <v>30.6</v>
+        <v>30.599999999999998</v>
       </c>
       <c r="Z26" s="7">
         <v>30.6</v>
       </c>
       <c r="AA26" s="8">
-        <v>30.599999999999998</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.35">
@@ -2711,10 +2711,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C27" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D27" s="7">
         <v>10</v>
@@ -2732,7 +2732,7 @@
         <v>10</v>
       </c>
       <c r="I27" s="7">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
       <c r="J27" s="7">
         <v>10</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="W27" s="7">
-        <v>10</v>
+        <v>10.000000000000014</v>
       </c>
       <c r="X27" s="7">
         <v>10</v>
@@ -2794,10 +2794,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C28" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
         <v>10</v>
@@ -2877,10 +2877,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C29" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D29" s="7">
         <v>10</v>
@@ -2889,37 +2889,37 @@
         <v>10</v>
       </c>
       <c r="F29" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="G29" s="7">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
       </c>
       <c r="I29" s="7">
-        <v>10.000000000000014</v>
+        <v>10</v>
       </c>
       <c r="J29" s="7">
         <v>10</v>
       </c>
       <c r="K29" s="7">
+        <v>10</v>
+      </c>
+      <c r="L29" s="7">
+        <v>10</v>
+      </c>
+      <c r="M29" s="7">
+        <v>10</v>
+      </c>
+      <c r="N29" s="7">
+        <v>10</v>
+      </c>
+      <c r="O29" s="7">
         <v>9.9999999999999858</v>
       </c>
-      <c r="L29" s="7">
-        <v>10</v>
-      </c>
-      <c r="M29" s="7">
-        <v>10</v>
-      </c>
-      <c r="N29" s="7">
-        <v>10</v>
-      </c>
-      <c r="O29" s="7">
-        <v>10</v>
-      </c>
       <c r="P29" s="7">
-        <v>10</v>
+        <v>9.9999999999999858</v>
       </c>
       <c r="Q29" s="7">
         <v>10</v>
@@ -2931,7 +2931,7 @@
         <v>10</v>
       </c>
       <c r="T29" s="7">
-        <v>10</v>
+        <v>9.9999999999999858</v>
       </c>
       <c r="U29" s="7">
         <v>10</v>
@@ -2960,10 +2960,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="6">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="C30" s="7">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="D30" s="7">
         <v>52.20000000000001</v>
@@ -2975,10 +2975,10 @@
         <v>52.200000000000017</v>
       </c>
       <c r="G30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.2</v>
       </c>
       <c r="H30" s="7">
-        <v>52.20000000000001</v>
+        <v>52.2</v>
       </c>
       <c r="I30" s="7">
         <v>52.2</v>
@@ -2987,13 +2987,13 @@
         <v>52.200000000000017</v>
       </c>
       <c r="K30" s="7">
-        <v>52.2</v>
+        <v>52.20000000000001</v>
       </c>
       <c r="L30" s="7">
         <v>52.2</v>
       </c>
       <c r="M30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="N30" s="7">
         <v>52.2</v>
@@ -3017,19 +3017,19 @@
         <v>52.2</v>
       </c>
       <c r="U30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="V30" s="7">
-        <v>52.2</v>
+        <v>52.20000000000001</v>
       </c>
       <c r="W30" s="7">
         <v>52.2</v>
       </c>
       <c r="X30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="Y30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="Z30" s="7">
         <v>52.2</v>
@@ -3043,16 +3043,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C31" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7">
         <v>10</v>
       </c>
       <c r="E31" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="F31" s="7">
         <v>10</v>
@@ -3118,7 +3118,7 @@
         <v>10</v>
       </c>
       <c r="AA31" s="8">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.35">
@@ -3126,13 +3126,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="6">
-        <v>20.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
         <v>20.199999999999996</v>
-      </c>
-      <c r="D32" s="7">
-        <v>20.200000000000003</v>
       </c>
       <c r="E32" s="7">
         <v>20.199999999999996</v>
@@ -3141,19 +3141,19 @@
         <v>20.199999999999996</v>
       </c>
       <c r="G32" s="7">
-        <v>20.199999999999996</v>
+        <v>20.200000000000003</v>
       </c>
       <c r="H32" s="7">
         <v>20.199999999999996</v>
       </c>
       <c r="I32" s="7">
+        <v>20.2</v>
+      </c>
+      <c r="J32" s="7">
+        <v>20.200000000000003</v>
+      </c>
+      <c r="K32" s="7">
         <v>20.199999999999996</v>
-      </c>
-      <c r="J32" s="7">
-        <v>20.199999999999996</v>
-      </c>
-      <c r="K32" s="7">
-        <v>20.2</v>
       </c>
       <c r="L32" s="7">
         <v>20.200000000000003</v>
@@ -3162,7 +3162,7 @@
         <v>20.199999999999996</v>
       </c>
       <c r="N32" s="7">
-        <v>20.199999999999996</v>
+        <v>20.200000000000003</v>
       </c>
       <c r="O32" s="7">
         <v>20.2</v>
@@ -3183,25 +3183,25 @@
         <v>20.2</v>
       </c>
       <c r="U32" s="7">
-        <v>20.200000000000003</v>
+        <v>20.2</v>
       </c>
       <c r="V32" s="7">
         <v>20.200000000000003</v>
       </c>
       <c r="W32" s="7">
-        <v>20.199999999999996</v>
+        <v>20.200000000000003</v>
       </c>
       <c r="X32" s="7">
         <v>20.199999999999996</v>
       </c>
       <c r="Y32" s="7">
-        <v>20.199999999999996</v>
+        <v>20.2</v>
       </c>
       <c r="Z32" s="7">
         <v>20.200000000000003</v>
       </c>
       <c r="AA32" s="8">
-        <v>20.2</v>
+        <v>20.199999999999996</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.35">
@@ -3209,7 +3209,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="6">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C33" s="7">
         <v>70</v>
@@ -3292,10 +3292,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="6">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="C34" s="7">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="D34" s="7">
         <v>10.5</v>
@@ -3331,10 +3331,10 @@
         <v>10.5</v>
       </c>
       <c r="O34" s="7">
-        <v>10.499999999999986</v>
+        <v>10.5</v>
       </c>
       <c r="P34" s="7">
-        <v>10.499999999999986</v>
+        <v>10.5</v>
       </c>
       <c r="Q34" s="7">
         <v>10.5</v>
@@ -3343,13 +3343,13 @@
         <v>10.5</v>
       </c>
       <c r="S34" s="7">
+        <v>10.499999999999986</v>
+      </c>
+      <c r="T34" s="7">
         <v>10.5</v>
       </c>
-      <c r="T34" s="7">
-        <v>10.499999999999986</v>
-      </c>
       <c r="U34" s="7">
-        <v>10.499999999999986</v>
+        <v>10.5</v>
       </c>
       <c r="V34" s="7">
         <v>10.5</v>
@@ -3375,10 +3375,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C35" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D35" s="7">
         <v>10</v>
@@ -3458,10 +3458,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C36" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D36" s="7">
         <v>10</v>
@@ -3476,7 +3476,7 @@
         <v>10</v>
       </c>
       <c r="H36" s="7">
-        <v>10</v>
+        <v>10.000000000000002</v>
       </c>
       <c r="I36" s="7">
         <v>10</v>
@@ -3515,7 +3515,7 @@
         <v>10</v>
       </c>
       <c r="U36" s="7">
-        <v>10</v>
+        <v>10.000000000000002</v>
       </c>
       <c r="V36" s="7">
         <v>10</v>
@@ -3527,7 +3527,7 @@
         <v>10</v>
       </c>
       <c r="Y36" s="7">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
       <c r="Z36" s="7">
         <v>10</v>
@@ -3541,10 +3541,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C37" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D37" s="7">
         <v>10</v>
@@ -3610,7 +3610,7 @@
         <v>10</v>
       </c>
       <c r="Y37" s="7">
-        <v>10.000000000000002</v>
+        <v>10</v>
       </c>
       <c r="Z37" s="7">
         <v>10</v>
@@ -3624,7 +3624,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C38" s="7">
         <v>10</v>
@@ -3707,28 +3707,28 @@
         <v>37</v>
       </c>
       <c r="B39" s="6">
+        <v>0</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0</v>
+      </c>
+      <c r="D39" s="7">
         <v>10.099999999999994</v>
       </c>
-      <c r="C39" s="7">
-        <v>10.099999999999994</v>
-      </c>
-      <c r="D39" s="7">
-        <v>10.100000000000001</v>
-      </c>
       <c r="E39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.1</v>
       </c>
       <c r="F39" s="7">
         <v>10.099999999999994</v>
       </c>
       <c r="G39" s="7">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="H39" s="7">
         <v>10.1</v>
       </c>
-      <c r="H39" s="7">
-        <v>10.099999999999994</v>
-      </c>
       <c r="I39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="J39" s="7">
         <v>10.099999999999994</v>
@@ -3743,10 +3743,10 @@
         <v>10.099999999999994</v>
       </c>
       <c r="N39" s="7">
-        <v>10.1</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="O39" s="7">
-        <v>10.100000000000001</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="P39" s="7">
         <v>10.099999999999994</v>
@@ -3758,25 +3758,25 @@
         <v>10.099999999999994</v>
       </c>
       <c r="S39" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="T39" s="7">
         <v>10.099999999999994</v>
       </c>
-      <c r="T39" s="7">
-        <v>10.100000000000001</v>
-      </c>
       <c r="U39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.1</v>
       </c>
       <c r="V39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.1</v>
       </c>
       <c r="W39" s="7">
         <v>10.099999999999994</v>
       </c>
       <c r="X39" s="7">
-        <v>10.1</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="Y39" s="7">
-        <v>10.1</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="Z39" s="7">
         <v>10.099999999999994</v>
@@ -3790,16 +3790,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="6">
-        <v>10.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="C40" s="7">
-        <v>10.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="D40" s="7">
-        <v>10.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="E40" s="7">
-        <v>10.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="F40" s="7">
         <v>10.100000000000001</v>
@@ -3811,13 +3811,13 @@
         <v>10.100000000000001</v>
       </c>
       <c r="I40" s="7">
-        <v>10.100000000000001</v>
+        <v>10.099999999999998</v>
       </c>
       <c r="J40" s="7">
-        <v>10.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="K40" s="7">
-        <v>10.099999999999998</v>
+        <v>10.1</v>
       </c>
       <c r="L40" s="7">
         <v>10.1</v>
@@ -3841,28 +3841,28 @@
         <v>10.100000000000001</v>
       </c>
       <c r="S40" s="7">
-        <v>10.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="T40" s="7">
         <v>10.099999999999998</v>
       </c>
       <c r="U40" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="V40" s="7">
         <v>10.1</v>
       </c>
       <c r="W40" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="X40" s="7">
         <v>10.100000000000001</v>
       </c>
-      <c r="X40" s="7">
+      <c r="Y40" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="Z40" s="7">
         <v>10.1</v>
-      </c>
-      <c r="Y40" s="7">
-        <v>10.1</v>
-      </c>
-      <c r="Z40" s="7">
-        <v>10.100000000000001</v>
       </c>
       <c r="AA40" s="8">
         <v>10.100000000000001</v>
@@ -3873,10 +3873,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C41" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D41" s="7">
         <v>10</v>
@@ -3936,7 +3936,7 @@
         <v>10</v>
       </c>
       <c r="W41" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="X41" s="7">
         <v>10</v>
@@ -3956,19 +3956,19 @@
         <v>40</v>
       </c>
       <c r="B42" s="6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C42" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D42" s="7">
         <v>12</v>
       </c>
       <c r="E42" s="7">
-        <v>11.999999999999993</v>
+        <v>12</v>
       </c>
       <c r="F42" s="7">
-        <v>11.999999999999993</v>
+        <v>12</v>
       </c>
       <c r="G42" s="7">
         <v>12</v>
@@ -4039,82 +4039,82 @@
         <v>41</v>
       </c>
       <c r="B43" s="6">
-        <v>5996.7499999999991</v>
+        <v>0</v>
       </c>
       <c r="C43" s="7">
-        <v>5999.2749999999978</v>
+        <v>0</v>
       </c>
       <c r="D43" s="7">
-        <v>5987.1827249999988</v>
+        <v>0</v>
       </c>
       <c r="E43" s="7">
-        <v>5950.4766195249977</v>
+        <v>0</v>
       </c>
       <c r="F43" s="7">
-        <v>5964.160159100722</v>
+        <v>0</v>
       </c>
       <c r="G43" s="7">
-        <v>5988.2368505326276</v>
+        <v>0</v>
       </c>
       <c r="H43" s="7">
-        <v>6000.0000000000018</v>
+        <v>350</v>
       </c>
       <c r="I43" s="7">
-        <v>6032.5838742771075</v>
+        <v>650</v>
       </c>
       <c r="J43" s="7">
-        <v>6049.9999999999973</v>
+        <v>950</v>
       </c>
       <c r="K43" s="7">
-        <v>6078.5463815579114</v>
+        <v>1200.0000000000007</v>
       </c>
       <c r="L43" s="7">
-        <v>6099.642548991932</v>
+        <v>1500.0000000000007</v>
       </c>
       <c r="M43" s="7">
-        <v>6126.1535819328583</v>
+        <v>1749.9999999999998</v>
       </c>
       <c r="N43" s="7">
-        <v>6148.0832141702531</v>
+        <v>2000.0000000000005</v>
       </c>
       <c r="O43" s="7">
-        <v>6175.4352130977859</v>
+        <v>2249.9999999999995</v>
       </c>
       <c r="P43" s="7">
-        <v>6198.2133800156662</v>
+        <v>2500.0000000000005</v>
       </c>
       <c r="Q43" s="7">
-        <v>6226.4215504358053</v>
+        <v>2700.0000000000009</v>
       </c>
       <c r="R43" s="7">
-        <v>6249.9999999999991</v>
+        <v>2950.0000000000005</v>
       </c>
       <c r="S43" s="7">
-        <v>6279.1434167392345</v>
+        <v>3200.0000000000005</v>
       </c>
       <c r="T43" s="7">
-        <v>6298.6649574898875</v>
+        <v>3450.0000000000005</v>
       </c>
       <c r="U43" s="7">
-        <v>6328.6321921072949</v>
+        <v>3650.0000000000005</v>
       </c>
       <c r="V43" s="7">
-        <v>6344.049131836261</v>
+        <v>3900.0000000000009</v>
       </c>
       <c r="W43" s="7">
-        <v>6379.9198240227852</v>
+        <v>4100.0000000000009</v>
       </c>
       <c r="X43" s="7">
-        <v>6400</v>
+        <v>4350.0000000000009</v>
       </c>
       <c r="Y43" s="7">
-        <v>6400.0000000000309</v>
+        <v>4550</v>
       </c>
       <c r="Z43" s="7">
-        <v>6400</v>
+        <v>4800.0000000000009</v>
       </c>
       <c r="AA43" s="8">
-        <v>6399.9999999999827</v>
+        <v>5000.0000000000009</v>
       </c>
       <c r="AB43" t="s">
         <v>17</v>
@@ -4125,82 +4125,82 @@
         <v>42</v>
       </c>
       <c r="B44" s="6">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="C44" s="7">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="D44" s="7">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="E44" s="7">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="F44" s="7">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="G44" s="7">
-        <v>820</v>
+        <v>0</v>
       </c>
       <c r="H44" s="7">
-        <v>880</v>
+        <v>0</v>
       </c>
       <c r="I44" s="7">
-        <v>910</v>
+        <v>0</v>
       </c>
       <c r="J44" s="7">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="K44" s="7">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L44" s="7">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="M44" s="7">
-        <v>1090</v>
+        <v>0</v>
       </c>
       <c r="N44" s="7">
-        <v>1140</v>
+        <v>0</v>
       </c>
       <c r="O44" s="7">
-        <v>1180</v>
+        <v>0</v>
       </c>
       <c r="P44" s="7">
-        <v>1230</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="7">
-        <v>1270</v>
+        <v>0</v>
       </c>
       <c r="R44" s="7">
-        <v>1320</v>
+        <v>0</v>
       </c>
       <c r="S44" s="7">
-        <v>1360</v>
+        <v>0</v>
       </c>
       <c r="T44" s="7">
-        <v>1420</v>
+        <v>0</v>
       </c>
       <c r="U44" s="7">
-        <v>1460</v>
+        <v>0</v>
       </c>
       <c r="V44" s="7">
-        <v>1530</v>
+        <v>0</v>
       </c>
       <c r="W44" s="7">
-        <v>1560</v>
+        <v>0</v>
       </c>
       <c r="X44" s="7">
-        <v>1620</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="7">
-        <v>1689.9999999999902</v>
+        <v>0</v>
       </c>
       <c r="Z44" s="7">
-        <v>1830</v>
+        <v>0</v>
       </c>
       <c r="AA44" s="8">
-        <v>1928.6405127167338</v>
+        <v>0</v>
       </c>
       <c r="AB44" t="s">
         <v>18</v>
@@ -4307,82 +4307,82 @@
         <v>1</v>
       </c>
       <c r="B49" s="3">
-        <v>-1100.0000000000007</v>
+        <v>134.59011842103328</v>
       </c>
       <c r="C49" s="4">
-        <v>-1100</v>
+        <v>321.81666666666598</v>
       </c>
       <c r="D49" s="4">
-        <v>-1100</v>
+        <v>389.57841108034597</v>
       </c>
       <c r="E49" s="4">
-        <v>-1100</v>
+        <v>445.38034435000066</v>
       </c>
       <c r="F49" s="4">
-        <v>-1100</v>
+        <v>630.82005026299657</v>
       </c>
       <c r="G49" s="4">
-        <v>-1100</v>
+        <v>988.85720646479751</v>
       </c>
       <c r="H49" s="4">
-        <v>-1098.1931785417196</v>
+        <v>846.83951964717062</v>
       </c>
       <c r="I49" s="4">
-        <v>-1100</v>
+        <v>762.88527618929811</v>
       </c>
       <c r="J49" s="4">
-        <v>-1098.0924139029312</v>
+        <v>665.82177982875953</v>
       </c>
       <c r="K49" s="4">
-        <v>-1100</v>
+        <v>626.12404029153163</v>
       </c>
       <c r="L49" s="4">
-        <v>-1100</v>
+        <v>505.05639941523896</v>
       </c>
       <c r="M49" s="4">
-        <v>-1100</v>
+        <v>442.73926845513068</v>
       </c>
       <c r="N49" s="4">
-        <v>-1100</v>
+        <v>370.08661134315912</v>
       </c>
       <c r="O49" s="4">
-        <v>-1100</v>
+        <v>287.70192501487213</v>
       </c>
       <c r="P49" s="4">
-        <v>-1100</v>
+        <v>196.15656609734944</v>
       </c>
       <c r="Q49" s="4">
-        <v>-1100</v>
+        <v>165.71499815071456</v>
       </c>
       <c r="R49" s="4">
-        <v>-1099.9576037401812</v>
+        <v>57.44239625981777</v>
       </c>
       <c r="S49" s="4">
-        <v>-1100</v>
+        <v>-41.526512318802361</v>
       </c>
       <c r="T49" s="4">
-        <v>-1100</v>
+        <v>-177.9321208263826</v>
       </c>
       <c r="U49" s="4">
-        <v>-1100</v>
+        <v>-239.68408793039612</v>
       </c>
       <c r="V49" s="4">
-        <v>-1100</v>
+        <v>-332.28171754239207</v>
       </c>
       <c r="W49" s="4">
-        <v>-1100</v>
+        <v>-375.11101945637893</v>
       </c>
       <c r="X49" s="4">
-        <v>-1099.1677650406721</v>
+        <v>-468.42867982536023</v>
       </c>
       <c r="Y49" s="4">
-        <v>-1087.9741082593891</v>
+        <v>-526.97265273668859</v>
       </c>
       <c r="Z49" s="4">
-        <v>-1099.8030419003735</v>
+        <v>-624.09898603320767</v>
       </c>
       <c r="AA49" s="5">
-        <v>-1097.5319401830441</v>
+        <v>-635.81607690750707</v>
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.35">
@@ -4390,82 +4390,82 @@
         <v>2</v>
       </c>
       <c r="B50" s="6">
-        <v>1559.5499999999995</v>
+        <v>-371.30988157896684</v>
       </c>
       <c r="C50" s="7">
-        <v>1530.5749999999998</v>
+        <v>-221.68333333333354</v>
       </c>
       <c r="D50" s="7">
-        <v>1486.6992249999996</v>
+        <v>-241.38998054017327</v>
       </c>
       <c r="E50" s="7">
-        <v>1417.9235680249994</v>
+        <v>-291.5666041500009</v>
       </c>
       <c r="F50" s="7">
-        <v>1399.2489301372245</v>
+        <v>-584.15346921504249</v>
       </c>
       <c r="G50" s="7">
-        <v>1390.6762205084592</v>
+        <v>-712.60342355937212</v>
       </c>
       <c r="H50" s="7">
-        <v>1371.302945763895</v>
+        <v>-537.56435604721537</v>
       </c>
       <c r="I50" s="7">
-        <v>1368.8402637014724</v>
+        <v>-354.7583343863364</v>
       </c>
       <c r="J50" s="7">
-        <v>1354.6250830262511</v>
+        <v>-185.36072324205668</v>
       </c>
       <c r="K50" s="7">
-        <v>1347.4231359594585</v>
+        <v>-8.8992053069208055</v>
       </c>
       <c r="L50" s="7">
-        <v>1334.3739941830934</v>
+        <v>135.88784460640204</v>
       </c>
       <c r="M50" s="7">
-        <v>1326.4324101307411</v>
+        <v>289.1180966530145</v>
       </c>
       <c r="N50" s="7">
-        <v>1313.5993518219175</v>
+        <v>431.70274899482547</v>
       </c>
       <c r="O50" s="7">
-        <v>1305.8757959883146</v>
+        <v>564.24250790540077</v>
       </c>
       <c r="P50" s="7">
-        <v>1293.2627281522095</v>
+        <v>687.30591423389342</v>
       </c>
       <c r="Q50" s="7">
-        <v>1285.7611427055792</v>
+        <v>821.1545904204886</v>
       </c>
       <c r="R50" s="7">
-        <v>1273.3508448600198</v>
+        <v>926.85084486002029</v>
       </c>
       <c r="S50" s="7">
-        <v>1266.0964413768384</v>
+        <v>1041.5265123188024</v>
       </c>
       <c r="T50" s="7">
-        <v>1248.9353593492299</v>
+        <v>1118.4382810329603</v>
       </c>
       <c r="U50" s="7">
-        <v>1241.8898275833728</v>
+        <v>1219.6735475456819</v>
       </c>
       <c r="V50" s="7">
-        <v>1219.960886031623</v>
+        <v>1275.7969613433931</v>
       </c>
       <c r="W50" s="7">
-        <v>1218.1495840059074</v>
+        <v>1350.1509669076945</v>
       </c>
       <c r="X50" s="7">
-        <v>1201.0408627822962</v>
+        <v>1423.8799479976115</v>
       </c>
       <c r="Y50" s="7">
-        <v>1173.8711972140172</v>
+        <v>1526.9726527366886</v>
       </c>
       <c r="Z50" s="7">
-        <v>1123.3336713222634</v>
+        <v>1624.0989860332077</v>
       </c>
       <c r="AA50" s="8">
-        <v>1086.5478034585801</v>
+        <v>1635.8160769075071</v>
       </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.35">
@@ -4473,82 +4473,82 @@
         <v>3</v>
       </c>
       <c r="B51" s="9">
-        <v>-459.54999999999882</v>
+        <v>236.71976315793358</v>
       </c>
       <c r="C51" s="10">
-        <v>-430.57499999999982</v>
+        <v>-100.13333333333244</v>
       </c>
       <c r="D51" s="10">
-        <v>-386.69922499999961</v>
+        <v>-148.1884305401727</v>
       </c>
       <c r="E51" s="10">
-        <v>-317.92356802499944</v>
+        <v>-153.81374019999976</v>
       </c>
       <c r="F51" s="10">
-        <v>-299.24893013722408</v>
+        <v>-46.666581047954082</v>
       </c>
       <c r="G51" s="10">
-        <v>-290.67622050845921</v>
+        <v>-276.2537829054254</v>
       </c>
       <c r="H51" s="10">
-        <v>-273.10976722217526</v>
+        <v>-309.27516359995525</v>
       </c>
       <c r="I51" s="10">
-        <v>-268.8402637014724</v>
+        <v>-408.12694180296171</v>
       </c>
       <c r="J51" s="10">
-        <v>-256.53266912331992</v>
+        <v>-480.46105658670285</v>
       </c>
       <c r="K51" s="10">
-        <v>-247.42313595945848</v>
+        <v>-617.22483498461077</v>
       </c>
       <c r="L51" s="10">
-        <v>-234.37399418309337</v>
+        <v>-640.944244021641</v>
       </c>
       <c r="M51" s="10">
-        <v>-226.43241013074112</v>
+        <v>-731.85736510814525</v>
       </c>
       <c r="N51" s="10">
-        <v>-213.59935182191748</v>
+        <v>-801.78936033798459</v>
       </c>
       <c r="O51" s="10">
-        <v>-205.87579598831462</v>
+        <v>-851.9444329202729</v>
       </c>
       <c r="P51" s="10">
-        <v>-193.26272815220955</v>
+        <v>-883.46248033124289</v>
       </c>
       <c r="Q51" s="10">
-        <v>-185.76114270557923</v>
+        <v>-986.86958857120317</v>
       </c>
       <c r="R51" s="10">
-        <v>-173.39324111983865</v>
+        <v>-984.29324111983783</v>
       </c>
       <c r="S51" s="10">
-        <v>-166.09644137683836</v>
+        <v>-1000</v>
       </c>
       <c r="T51" s="10">
-        <v>-148.93535934922988</v>
+        <v>-940.50616020657753</v>
       </c>
       <c r="U51" s="10">
-        <v>-141.88982758337283</v>
+        <v>-979.9894596152858</v>
       </c>
       <c r="V51" s="10">
-        <v>-119.96088603162298</v>
+        <v>-943.51524380100113</v>
       </c>
       <c r="W51" s="10">
-        <v>-118.1495840059074</v>
+        <v>-975.03994745131547</v>
       </c>
       <c r="X51" s="10">
-        <v>-101.87309774162418</v>
+        <v>-955.45126817225128</v>
       </c>
       <c r="Y51" s="10">
-        <v>-85.897088954628202</v>
+        <v>-1000</v>
       </c>
       <c r="Z51" s="10">
-        <v>-23.530629421889898</v>
+        <v>-1000</v>
       </c>
       <c r="AA51" s="11">
-        <v>10.984136724463951</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.35">
@@ -4639,86 +4639,86 @@
         <v>8</v>
       </c>
       <c r="B54" s="15">
-        <v>419066448.64103276</v>
+        <v>185343.29577303451</v>
       </c>
       <c r="C54" s="16">
-        <v>125273086.48681155</v>
+        <v>150354.42590554862</v>
       </c>
       <c r="D54" s="16">
-        <v>121082739.88063765</v>
+        <v>122850.98857876577</v>
       </c>
       <c r="E54" s="16">
-        <v>120287243.3532899</v>
+        <v>115767.04458876408</v>
       </c>
       <c r="F54" s="16">
-        <v>101061042.67947546</v>
+        <v>110839.76863109937</v>
       </c>
       <c r="G54" s="16">
-        <v>91054722.542002589</v>
+        <v>107601.08884452166</v>
       </c>
       <c r="H54" s="16">
-        <v>85756835.58219102</v>
+        <v>11641550.231811121</v>
       </c>
       <c r="I54" s="16">
-        <v>77835636.33026889</v>
+        <v>12324968.133583765</v>
       </c>
       <c r="J54" s="16">
-        <v>72095477.491315469</v>
+        <v>13729770.539331574</v>
       </c>
       <c r="K54" s="16">
-        <v>66837002.123430684</v>
+        <v>13539056.792083383</v>
       </c>
       <c r="L54" s="16">
-        <v>61305279.967726842</v>
+        <v>15173431.935465468</v>
       </c>
       <c r="M54" s="16">
-        <v>56802866.981785446</v>
+        <v>14667613.021367941</v>
       </c>
       <c r="N54" s="16">
-        <v>52088861.87211591</v>
+        <v>14771698.232724929</v>
       </c>
       <c r="O54" s="16">
-        <v>48238464.927511126</v>
+        <v>14735518.731834147</v>
       </c>
       <c r="P54" s="16">
-        <v>44224961.578445897</v>
+        <v>14583734.508809632</v>
       </c>
       <c r="Q54" s="16">
-        <v>40935877.731673487</v>
+        <v>13638852.260879792</v>
       </c>
       <c r="R54" s="16">
-        <v>37521716.813343227</v>
+        <v>13819966.051143177</v>
       </c>
       <c r="S54" s="16">
-        <v>34715087.464546926</v>
+        <v>13455936.071670968</v>
       </c>
       <c r="T54" s="16">
-        <v>32145404.736540187</v>
+        <v>13043632.510209477</v>
       </c>
       <c r="U54" s="16">
-        <v>29485302.677763384</v>
+        <v>12117802.26314237</v>
       </c>
       <c r="V54" s="16">
-        <v>27563924.879889011</v>
+        <v>11986589.48512092</v>
       </c>
       <c r="W54" s="16">
-        <v>24829028.306883618</v>
+        <v>11111677.895684551</v>
       </c>
       <c r="X54" s="16">
-        <v>23150557.073793795</v>
+        <v>10903515.051872116</v>
       </c>
       <c r="Y54" s="16">
-        <v>21517631.109444827</v>
+        <v>10089803.231113574</v>
       </c>
       <c r="Z54" s="16">
-        <v>21155858.060010906</v>
+        <v>9835358.2539883424</v>
       </c>
       <c r="AA54" s="17">
-        <v>19062229.216091473</v>
+        <v>9087917.6781258415</v>
       </c>
       <c r="AB54" s="18">
         <f>SUM(TotalCost)</f>
-        <v>1855093288.5080221</v>
+        <v>255051149.4922848</v>
       </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.35">
@@ -4812,86 +4812,86 @@
         <v>10</v>
       </c>
       <c r="B57" s="3">
-        <v>127.23839999999862</v>
+        <v>13395.809006237763</v>
       </c>
       <c r="C57" s="4">
-        <v>106.61999999999958</v>
+        <v>10788.134900264893</v>
       </c>
       <c r="D57" s="4">
-        <v>70.35619439999931</v>
+        <v>9558.8049673417518</v>
       </c>
       <c r="E57" s="4">
-        <v>174.35243586779998</v>
+        <v>9312.0249598840237</v>
       </c>
       <c r="F57" s="4">
-        <v>0.65969839061018776</v>
+        <v>8666.764510679297</v>
       </c>
       <c r="G57" s="4">
-        <v>0.66947527612567959</v>
+        <v>7992.7910405343282</v>
       </c>
       <c r="H57" s="4">
-        <v>0.62246201111017219</v>
+        <v>7231.7522186328661</v>
       </c>
       <c r="I57" s="4">
-        <v>0.65362677499330402</v>
+        <v>6939.5927342366722</v>
       </c>
       <c r="J57" s="4">
-        <v>0.65092004913306756</v>
+        <v>6641.5502674662948</v>
       </c>
       <c r="K57" s="4">
-        <v>0.64400087711195464</v>
+        <v>6428.2007399534241</v>
       </c>
       <c r="L57" s="4">
-        <v>0.62155648500595906</v>
+        <v>6119.5279553645905</v>
       </c>
       <c r="M57" s="4">
-        <v>0.64071009337427121</v>
+        <v>5896.259235531229</v>
       </c>
       <c r="N57" s="4">
-        <v>0.62147608421134559</v>
+        <v>5668.5319125448477</v>
       </c>
       <c r="O57" s="4">
-        <v>0.6438689689692465</v>
+        <v>5436.6569033792239</v>
       </c>
       <c r="P57" s="4">
-        <v>0.62790338968997006</v>
+        <v>5200.9289870833545</v>
       </c>
       <c r="Q57" s="4">
-        <v>0.65359412019717733</v>
+        <v>5051.8183299381972</v>
       </c>
       <c r="R57" s="4">
-        <v>0.64146482239677427</v>
+        <v>4809.2087187230163</v>
       </c>
       <c r="S57" s="4">
-        <v>0.67000427188445699</v>
+        <v>5099.2167571217396</v>
       </c>
       <c r="T57" s="4">
-        <v>0.62075391033141569</v>
+        <v>4929.3134908072534</v>
       </c>
       <c r="U57" s="4">
-        <v>0.65322029552439742</v>
+        <v>4478.6003618073246</v>
       </c>
       <c r="V57" s="4">
-        <v>0.56741887818411307</v>
+        <v>4143.4773551581529</v>
       </c>
       <c r="W57" s="4">
-        <v>0.64336524808776818</v>
+        <v>3708.1193862656041</v>
       </c>
       <c r="X57" s="4">
-        <v>0.61106195483249026</v>
+        <v>3352.1940770678093</v>
       </c>
       <c r="Y57" s="4">
-        <v>0.66487511242580788</v>
+        <v>2961.9204175372579</v>
       </c>
       <c r="Z57" s="4">
-        <v>0.16421258843780379</v>
+        <v>2768.3019467310864</v>
       </c>
       <c r="AA57" s="5">
-        <v>0</v>
+        <v>2672.733379103548</v>
       </c>
       <c r="AB57" s="12">
         <f>SUM(B57:AA57)</f>
-        <v>491.5126998704348</v>
+        <v>159252.23455939555</v>
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.35">
@@ -4899,86 +4899,86 @@
         <v>11</v>
       </c>
       <c r="B58" s="6">
-        <v>0.47940000000000055</v>
+        <v>2413.9885322768387</v>
       </c>
       <c r="C58" s="7">
-        <v>0.40129999999999838</v>
+        <v>2265.7469347046895</v>
       </c>
       <c r="D58" s="7">
-        <v>0.26393709999999737</v>
+        <v>2260.5965095418974</v>
       </c>
       <c r="E58" s="7">
-        <v>0.20300000000000001</v>
+        <v>1949.7252897817209</v>
       </c>
       <c r="F58" s="7">
-        <v>0</v>
+        <v>1610.7981043449699</v>
       </c>
       <c r="G58" s="7">
-        <v>0</v>
+        <v>1150.4026949077515</v>
       </c>
       <c r="H58" s="7">
-        <v>0</v>
+        <v>928.34771465727567</v>
       </c>
       <c r="I58" s="7">
-        <v>0</v>
+        <v>824.4155061638063</v>
       </c>
       <c r="J58" s="7">
-        <v>0</v>
+        <v>736.34160047707815</v>
       </c>
       <c r="K58" s="7">
-        <v>0</v>
+        <v>620.5160256148597</v>
       </c>
       <c r="L58" s="7">
-        <v>0</v>
+        <v>561.54347727350807</v>
       </c>
       <c r="M58" s="7">
-        <v>3.8120617773529373E-15</v>
+        <v>473.18423535646116</v>
       </c>
       <c r="N58" s="7">
-        <v>0</v>
+        <v>397.40824655042297</v>
       </c>
       <c r="O58" s="7">
-        <v>0</v>
+        <v>333.5033878783658</v>
       </c>
       <c r="P58" s="7">
-        <v>0</v>
+        <v>280.79564981682495</v>
       </c>
       <c r="Q58" s="7">
-        <v>0</v>
+        <v>195.92471855937231</v>
       </c>
       <c r="R58" s="7">
-        <v>0</v>
+        <v>163.73146482239679</v>
       </c>
       <c r="S58" s="7">
-        <v>0</v>
+        <v>376.80973050205012</v>
       </c>
       <c r="T58" s="7">
-        <v>0</v>
+        <v>356.79383208200716</v>
       </c>
       <c r="U58" s="7">
-        <v>0</v>
+        <v>199.98936917622359</v>
       </c>
       <c r="V58" s="7">
-        <v>0</v>
+        <v>207.3977942417543</v>
       </c>
       <c r="W58" s="7">
-        <v>0</v>
+        <v>98.517424047124294</v>
       </c>
       <c r="X58" s="7">
-        <v>0</v>
+        <v>128.3450141128038</v>
       </c>
       <c r="Y58" s="7">
-        <v>0</v>
+        <v>20.110079478993992</v>
       </c>
       <c r="Z58" s="7">
-        <v>0</v>
+        <v>76.764230252013448</v>
       </c>
       <c r="AA58" s="8">
-        <v>0</v>
+        <v>17.963283589016996</v>
       </c>
       <c r="AB58" s="13">
         <f t="shared" ref="AB58:AB61" si="0">SUM(B58:AA58)</f>
-        <v>1.3476371</v>
+        <v>18649.660850210232</v>
       </c>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.35">
@@ -4986,86 +4986,86 @@
         <v>12</v>
       </c>
       <c r="B59" s="6">
-        <v>106950.48810000002</v>
+        <v>14017815.711210009</v>
       </c>
       <c r="C59" s="7">
-        <v>90435.657349999659</v>
+        <v>13261661.088989636</v>
       </c>
       <c r="D59" s="7">
-        <v>61389.24192324945</v>
+        <v>12546295.261862921</v>
       </c>
       <c r="E59" s="7">
-        <v>13084.016274990165</v>
+        <v>11869517.984329406</v>
       </c>
       <c r="F59" s="7">
-        <v>5436.8218239150356</v>
+        <v>11229247.697411515</v>
       </c>
       <c r="G59" s="7">
-        <v>5517.3968037802724</v>
+        <v>10623515.126418665</v>
       </c>
       <c r="H59" s="7">
-        <v>5129.9428568130952</v>
+        <v>10050457.224063339</v>
       </c>
       <c r="I59" s="7">
-        <v>5386.7833627604405</v>
+        <v>9508311.440300025</v>
       </c>
       <c r="J59" s="7">
-        <v>5364.476219924034</v>
+        <v>8995410.3012627847</v>
       </c>
       <c r="K59" s="7">
-        <v>5307.4527286085349</v>
+        <v>8510176.2806279473</v>
       </c>
       <c r="L59" s="7">
-        <v>5122.480076615986</v>
+        <v>8051116.9476278024</v>
       </c>
       <c r="M59" s="7">
-        <v>5280.3321457556458</v>
+        <v>7616820.3767920844</v>
       </c>
       <c r="N59" s="7">
-        <v>5121.8174635172782</v>
+        <v>7205950.8052990157</v>
       </c>
       <c r="O59" s="7">
-        <v>5306.3656241389235</v>
+        <v>6817244.524579254</v>
       </c>
       <c r="P59" s="7">
-        <v>5174.7872982061763</v>
+        <v>6449505.9935365906</v>
       </c>
       <c r="Q59" s="7">
-        <v>5386.5142423400121</v>
+        <v>6101604.1614308432</v>
       </c>
       <c r="R59" s="7">
-        <v>5286.5521506802152</v>
+        <v>5772468.9891132768</v>
       </c>
       <c r="S59" s="7">
-        <v>5521.7564562017669</v>
+        <v>5461088.1579149328</v>
       </c>
       <c r="T59" s="7">
-        <v>5115.8657577575705</v>
+        <v>5166503.9560654229</v>
       </c>
       <c r="U59" s="7">
-        <v>5383.433413027381</v>
+        <v>4887810.3330657594</v>
       </c>
       <c r="V59" s="7">
-        <v>4676.311757194595</v>
+        <v>4624150.1129553933</v>
       </c>
       <c r="W59" s="7">
-        <v>5302.2142714593301</v>
+        <v>4374712.3579023089</v>
       </c>
       <c r="X59" s="7">
-        <v>5035.9907180076143</v>
+        <v>4138729.8740073997</v>
       </c>
       <c r="Y59" s="7">
-        <v>5479.4851296682418</v>
+        <v>3895260.8637902332</v>
       </c>
       <c r="Z59" s="7">
-        <v>1353.337521036605</v>
+        <v>3685141.1441713148</v>
       </c>
       <c r="AA59" s="8">
-        <v>0</v>
+        <v>3479546.1153387371</v>
       </c>
       <c r="AB59" s="13">
         <f t="shared" si="0"/>
-        <v>378549.52146964805</v>
+        <v>198340062.83006662</v>
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.35">
@@ -5073,86 +5073,86 @@
         <v>13</v>
       </c>
       <c r="B60" s="6">
-        <v>5.3156999999999783</v>
+        <v>1143.0110237631638</v>
       </c>
       <c r="C60" s="7">
-        <v>4.8080499999999891</v>
+        <v>1129.461877637516</v>
       </c>
       <c r="D60" s="7">
-        <v>3.9151911499999823</v>
+        <v>1120.245623083795</v>
       </c>
       <c r="E60" s="7">
-        <v>2.3351665703499758</v>
+        <v>973.64233599940439</v>
       </c>
       <c r="F60" s="7">
-        <v>2.1440197694831102</v>
+        <v>815.41852060693736</v>
       </c>
       <c r="G60" s="7">
-        <v>2.1757946474084586</v>
+        <v>642.61487861710486</v>
       </c>
       <c r="H60" s="7">
-        <v>2.0230015361080596</v>
+        <v>595.01606521456324</v>
       </c>
       <c r="I60" s="7">
-        <v>2.1242870187282379</v>
+        <v>537.99196538490799</v>
       </c>
       <c r="J60" s="7">
-        <v>2.1154901596824693</v>
+        <v>488.96918648957904</v>
       </c>
       <c r="K60" s="7">
-        <v>2.0930028506138525</v>
+        <v>426.97572359472974</v>
       </c>
       <c r="L60" s="7">
-        <v>2.020058576269367</v>
+        <v>392.63835467871473</v>
       </c>
       <c r="M60" s="7">
-        <v>2.0823078034557843</v>
+        <v>344.50679858806569</v>
       </c>
       <c r="N60" s="7">
-        <v>2.0197972736868728</v>
+        <v>302.72703766061375</v>
       </c>
       <c r="O60" s="7">
-        <v>2.0925741491500509</v>
+        <v>266.94041760029432</v>
       </c>
       <c r="P60" s="7">
-        <v>2.0406860164924026</v>
+        <v>236.80748657556288</v>
       </c>
       <c r="Q60" s="7">
-        <v>2.1241808906408259</v>
+        <v>191.48202274852434</v>
       </c>
       <c r="R60" s="7">
-        <v>2.0847606727895163</v>
+        <v>171.70979446719025</v>
       </c>
       <c r="S60" s="7">
-        <v>2.1775138836244854</v>
+        <v>157.16414508817181</v>
       </c>
       <c r="T60" s="7">
-        <v>2.0174502085771007</v>
+        <v>150.30403313900888</v>
       </c>
       <c r="U60" s="7">
-        <v>2.1229659604542914</v>
+        <v>121.44847929844805</v>
       </c>
       <c r="V60" s="7">
-        <v>1.8441113540983674</v>
+        <v>118.44625605412557</v>
       </c>
       <c r="W60" s="7">
-        <v>2.0909370562852465</v>
+        <v>97.38665749821466</v>
       </c>
       <c r="X60" s="7">
-        <v>1.9859513532055935</v>
+        <v>97.772843926952973</v>
       </c>
       <c r="Y60" s="7">
-        <v>2.1608441153838753</v>
+        <v>76.892153504437545</v>
       </c>
       <c r="Z60" s="7">
-        <v>0.53369091242286226</v>
+        <v>81.722504254116757</v>
       </c>
       <c r="AA60" s="8">
-        <v>0</v>
+        <v>69.096041433177902</v>
       </c>
       <c r="AB60" s="13">
         <f t="shared" si="0"/>
-        <v>58.447533928910758</v>
+        <v>10750.392226907323</v>
       </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.35">
@@ -5160,86 +5160,86 @@
         <v>14</v>
       </c>
       <c r="B61" s="9">
-        <v>0.61334999999999762</v>
+        <v>163.1824521842118</v>
       </c>
       <c r="C61" s="10">
-        <v>0.55477499999999869</v>
+        <v>161.56613470468946</v>
       </c>
       <c r="D61" s="10">
-        <v>0.45175282499999803</v>
+        <v>161.01364910837947</v>
       </c>
       <c r="E61" s="10">
-        <v>0.26728845042499721</v>
+        <v>139.11516895775793</v>
       </c>
       <c r="F61" s="10">
-        <v>0.24738689647882042</v>
+        <v>115.37616262474299</v>
       </c>
       <c r="G61" s="10">
-        <v>0.25105322854712986</v>
+        <v>89.137713296906114</v>
       </c>
       <c r="H61" s="10">
-        <v>0.23342325416631457</v>
+        <v>82.409472665777457</v>
       </c>
       <c r="I61" s="10">
-        <v>0.24511004062248901</v>
+        <v>74.190732041892119</v>
       </c>
       <c r="J61" s="10">
-        <v>0.24409501842490033</v>
+        <v>67.177252576430988</v>
       </c>
       <c r="K61" s="10">
-        <v>0.241500328916983</v>
+        <v>58.126512249630601</v>
       </c>
       <c r="L61" s="10">
-        <v>0.23308368187723466</v>
+        <v>53.324951211379648</v>
       </c>
       <c r="M61" s="10">
-        <v>0.24026628501412892</v>
+        <v>46.361965442218128</v>
       </c>
       <c r="N61" s="10">
-        <v>0.2330535315792546</v>
+        <v>40.355533278724046</v>
       </c>
       <c r="O61" s="10">
-        <v>0.24145086336346744</v>
+        <v>35.251577202966487</v>
       </c>
       <c r="P61" s="10">
-        <v>0.23546377113373876</v>
+        <v>30.998914459632267</v>
       </c>
       <c r="Q61" s="10">
-        <v>0.2450977950739415</v>
+        <v>24.373984823504852</v>
       </c>
       <c r="R61" s="10">
-        <v>0.24054930839879035</v>
+        <v>21.68116620559919</v>
       </c>
       <c r="S61" s="10">
-        <v>0.2512516019566714</v>
+        <v>19.741154271884451</v>
       </c>
       <c r="T61" s="10">
-        <v>0.23278271637428088</v>
+        <v>19.046411826165961</v>
       </c>
       <c r="U61" s="10">
-        <v>0.24495761082164905</v>
+        <v>14.890935490292108</v>
       </c>
       <c r="V61" s="10">
-        <v>0.21278207931904239</v>
+        <v>14.697145183149884</v>
       </c>
       <c r="W61" s="10">
-        <v>0.24126196803291305</v>
+        <v>11.699693810643776</v>
       </c>
       <c r="X61" s="10">
-        <v>0.22914823306218388</v>
+        <v>11.955175369863897</v>
       </c>
       <c r="Y61" s="10">
-        <v>0.24932816715967795</v>
+        <v>8.9762281671597286</v>
       </c>
       <c r="Z61" s="10">
-        <v>6.157972066417642E-2</v>
+        <v>9.866635508458943</v>
       </c>
       <c r="AA61" s="11">
-        <v>0</v>
+        <v>8.092821538150142</v>
       </c>
       <c r="AB61" s="14">
         <f t="shared" si="0"/>
-        <v>6.7417923764127794</v>
+        <v>1482.6095442002122</v>
       </c>
     </row>
   </sheetData>

--- a/717A11_output.xlsx
+++ b/717A11_output.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jawessel\opl\ENV717A11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lfi\Google Drive\School\College\Semester 6 (Spring 2020)\ENV 717\Assignments\Assignment 11 (group project)\ENV717A11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -719,10 +719,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>519.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4">
-        <v>519.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -734,49 +734,49 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>495.9191783774736</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4">
-        <v>396.80584595544178</v>
+        <v>0</v>
       </c>
       <c r="I3" s="4">
-        <v>421.67530116495027</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4">
-        <v>407.00758733670591</v>
+        <v>0</v>
       </c>
       <c r="K3" s="4">
-        <v>514.22584895567707</v>
+        <v>0</v>
       </c>
       <c r="L3" s="4">
-        <v>427.12120987953153</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4">
-        <v>466.05298510391117</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4">
-        <v>473.76113038564449</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4">
-        <v>452.05418306798612</v>
+        <v>0</v>
       </c>
       <c r="P3" s="4">
-        <v>402.64424198762902</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="4">
-        <v>486.3227090409855</v>
+        <v>0</v>
       </c>
       <c r="R3" s="4">
-        <v>386.28310279959396</v>
+        <v>0</v>
       </c>
       <c r="S3" s="4">
-        <v>419.45037015797811</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4">
-        <v>129.03291882239137</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4">
-        <v>117.86808104206641</v>
+        <v>0</v>
       </c>
       <c r="V3" s="4">
         <v>0</v>
@@ -805,79 +805,79 @@
         <v>0</v>
       </c>
       <c r="C4" s="7">
-        <v>130.26735234473745</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>641.0518916205184</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="F4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="G4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="H4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="K4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="L4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="M4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="P4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="R4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="S4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="T4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="U4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="V4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="W4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="X4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="8">
-        <v>665.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
@@ -885,7 +885,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -894,73 +894,73 @@
         <v>0</v>
       </c>
       <c r="E5" s="7">
-        <v>46.5</v>
+        <v>7</v>
       </c>
       <c r="F5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="G5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="H5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="K5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="L5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="M5" s="7">
-        <v>46.5</v>
+        <v>1.3145040611561853E-13</v>
       </c>
       <c r="N5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="P5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="R5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="S5" s="7">
-        <v>42.477210131937454</v>
+        <v>0</v>
       </c>
       <c r="T5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="U5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="V5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="W5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="X5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="8">
-        <v>46.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.35">
@@ -968,82 +968,82 @@
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>0</v>
+        <v>119.84999999999815</v>
       </c>
       <c r="C6" s="7">
-        <v>212</v>
+        <v>100.32499999999959</v>
       </c>
       <c r="D6" s="7">
-        <v>212</v>
+        <v>65.984274999999343</v>
       </c>
       <c r="E6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="F6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="G6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="H6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="K6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="L6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="M6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="P6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="R6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="S6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="T6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="U6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="V6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="W6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="X6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="8">
-        <v>212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
@@ -1051,82 +1051,82 @@
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>192.67035526309974</v>
+        <v>0</v>
       </c>
       <c r="C7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="F7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="G7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="H7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="K7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="L7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="M7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="P7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="R7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="S7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="T7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="U7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="V7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="W7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="X7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="8">
-        <v>464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
@@ -1134,7 +1134,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1149,55 +1149,55 @@
         <v>0</v>
       </c>
       <c r="G8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="H8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="K8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="L8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="M8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="P8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="R8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="S8" s="7">
         <v>0</v>
       </c>
       <c r="T8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="U8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="V8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="W8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="X8" s="7">
         <v>0</v>
@@ -1217,82 +1217,82 @@
         <v>7</v>
       </c>
       <c r="B9" s="6">
-        <v>0</v>
+        <v>84.6</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>84.6</v>
       </c>
       <c r="D9" s="7">
         <v>84.6</v>
       </c>
       <c r="E9" s="7">
-        <v>84.6</v>
+        <v>84.429483474999074</v>
       </c>
       <c r="F9" s="7">
-        <v>84.6</v>
+        <v>82.462298826273468</v>
       </c>
       <c r="G9" s="7">
-        <v>84.6</v>
+        <v>83.684409515709945</v>
       </c>
       <c r="H9" s="7">
-        <v>84.6</v>
+        <v>77.807751388771521</v>
       </c>
       <c r="I9" s="7">
-        <v>84.6</v>
+        <v>81.703346874163003</v>
       </c>
       <c r="J9" s="7">
-        <v>84.6</v>
+        <v>81.365006141633444</v>
       </c>
       <c r="K9" s="7">
-        <v>84.6</v>
+        <v>80.500109638994331</v>
       </c>
       <c r="L9" s="7">
-        <v>84.6</v>
+        <v>77.694560625744884</v>
       </c>
       <c r="M9" s="7">
-        <v>84.6</v>
+        <v>80.088761671376218</v>
       </c>
       <c r="N9" s="7">
-        <v>84.6</v>
+        <v>77.684510526418194</v>
       </c>
       <c r="O9" s="7">
-        <v>84.6</v>
+        <v>80.483621121155807</v>
       </c>
       <c r="P9" s="7">
-        <v>84.6</v>
+        <v>78.487923711246253</v>
       </c>
       <c r="Q9" s="7">
-        <v>84.6</v>
+        <v>81.699265024647161</v>
       </c>
       <c r="R9" s="7">
-        <v>84.6</v>
+        <v>80.183102799596782</v>
       </c>
       <c r="S9" s="7">
-        <v>84.6</v>
+        <v>83.750533985557126</v>
       </c>
       <c r="T9" s="7">
-        <v>84.6</v>
+        <v>77.59423879142696</v>
       </c>
       <c r="U9" s="7">
-        <v>84.6</v>
+        <v>81.65253694054968</v>
       </c>
       <c r="V9" s="7">
-        <v>84.6</v>
+        <v>70.927359773014132</v>
       </c>
       <c r="W9" s="7">
-        <v>84.6</v>
+        <v>80.420656010971015</v>
       </c>
       <c r="X9" s="7">
-        <v>84.6</v>
+        <v>76.382744354061288</v>
       </c>
       <c r="Y9" s="7">
-        <v>84.6</v>
+        <v>83.109389053225982</v>
       </c>
       <c r="Z9" s="7">
-        <v>84.6</v>
+        <v>20.526573554725474</v>
       </c>
       <c r="AA9" s="8">
-        <v>84.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.35">
@@ -1300,7 +1300,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1312,64 +1312,64 @@
         <v>0</v>
       </c>
       <c r="F10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="G10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="H10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="K10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="L10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="M10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="P10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="R10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="S10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="T10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="U10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="V10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="W10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="X10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="7">
-        <v>85.513755621295331</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="7">
         <v>0</v>
@@ -1386,79 +1386,79 @@
         <v>0</v>
       </c>
       <c r="C11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="F11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="G11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="H11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="K11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="L11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="M11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="P11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="R11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="S11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="T11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="U11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="V11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="W11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="X11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="8">
-        <v>650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.35">
@@ -1466,82 +1466,82 @@
         <v>10</v>
       </c>
       <c r="B12" s="6">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="C12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="F12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="G12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="H12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="K12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="L12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="M12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="P12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="R12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="S12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="T12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="U12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="V12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="W12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="X12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="8">
-        <v>186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
@@ -1549,10 +1549,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="6">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="C13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
         <v>0</v>
@@ -1564,55 +1564,55 @@
         <v>0</v>
       </c>
       <c r="G13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="H13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="K13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="L13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="M13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="P13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="R13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="S13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="T13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="U13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="V13" s="7">
-        <v>90.066924690421729</v>
+        <v>0</v>
       </c>
       <c r="W13" s="7">
-        <v>44.932226380950823</v>
+        <v>0</v>
       </c>
       <c r="X13" s="7">
         <v>0</v>
@@ -1632,79 +1632,79 @@
         <v>12</v>
       </c>
       <c r="B14" s="6">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="C14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>85.515108379479443</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7">
         <v>0</v>
       </c>
       <c r="F14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="H14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="K14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="L14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="M14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="P14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="R14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="S14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="T14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="U14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="V14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="W14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="X14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="7">
-        <v>132.9612588437767</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="8">
         <v>0</v>
@@ -1715,19 +1715,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="6">
-        <v>1848</v>
+        <v>0</v>
       </c>
       <c r="C15" s="7">
-        <v>1848</v>
+        <v>0</v>
       </c>
       <c r="D15" s="7">
-        <v>1848</v>
+        <v>0</v>
       </c>
       <c r="E15" s="7">
-        <v>1254.6797472637277</v>
+        <v>0</v>
       </c>
       <c r="F15" s="7">
-        <v>607.83770948545941</v>
+        <v>0</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="6">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -1807,73 +1807,73 @@
         <v>0</v>
       </c>
       <c r="E16" s="7">
-        <v>604.92635573626876</v>
+        <v>0</v>
       </c>
       <c r="F16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="U16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="V16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="W16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="X16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="8">
-        <v>651.55241017337084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.35">
@@ -1881,7 +1881,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="6">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -1893,58 +1893,58 @@
         <v>0</v>
       </c>
       <c r="F17" s="7">
-        <v>24.084748441537158</v>
+        <v>0</v>
       </c>
       <c r="G17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="H17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="K17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="L17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="M17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="P17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="R17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="S17" s="7">
-        <v>28.36637043487417</v>
+        <v>0</v>
       </c>
       <c r="T17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="U17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="V17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="W17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="X17" s="7">
         <v>0</v>
@@ -1964,82 +1964,82 @@
         <v>16</v>
       </c>
       <c r="B18" s="6">
-        <v>67</v>
+        <v>1.5916157281026244E-12</v>
       </c>
       <c r="C18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
         <v>0</v>
       </c>
       <c r="E18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="F18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="H18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="K18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="L18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="M18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="P18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="R18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="S18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="T18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="U18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="V18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="W18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="X18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="8">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.35">
@@ -2047,22 +2047,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="6">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="C19" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="F19" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="G19" s="7">
-        <v>152.50208167086572</v>
+        <v>0</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2083,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>-5.2295945351943374E-12</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7">
-        <v>-1.3642420526593924E-11</v>
+        <v>0</v>
       </c>
       <c r="P19" s="7">
-        <v>-7.1622707764618099E-12</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="7">
         <v>0</v>
@@ -2098,28 +2098,28 @@
         <v>0</v>
       </c>
       <c r="S19" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="T19" s="7">
-        <v>243.32627745892165</v>
+        <v>0</v>
       </c>
       <c r="U19" s="7">
-        <v>128.51664800577859</v>
+        <v>0</v>
       </c>
       <c r="V19" s="7">
-        <v>135.00956691885051</v>
+        <v>0</v>
       </c>
       <c r="W19" s="7">
-        <v>55.508253652803432</v>
+        <v>0</v>
       </c>
       <c r="X19" s="7">
-        <v>79.06445869096126</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="7">
         <v>0</v>
       </c>
       <c r="Z19" s="7">
-        <v>42.67138750893254</v>
+        <v>0</v>
       </c>
       <c r="AA19" s="8">
         <v>0</v>
@@ -2130,55 +2130,55 @@
         <v>18</v>
       </c>
       <c r="B20" s="6">
-        <v>2269.6</v>
+        <v>0</v>
       </c>
       <c r="C20" s="7">
-        <v>2269.6</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>2269.6</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7">
-        <v>2269.6</v>
+        <v>0</v>
       </c>
       <c r="F20" s="7">
-        <v>2269.6</v>
+        <v>0</v>
       </c>
       <c r="G20" s="7">
-        <v>2269.6</v>
+        <v>0</v>
       </c>
       <c r="H20" s="7">
-        <v>2237.1019054333301</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>1978.7119199863191</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7">
-        <v>1760.4574188049241</v>
+        <v>0</v>
       </c>
       <c r="K20" s="7">
-        <v>1470.9206422412265</v>
+        <v>0</v>
       </c>
       <c r="L20" s="7">
-        <v>1326.3158997381433</v>
+        <v>0</v>
       </c>
       <c r="M20" s="7">
-        <v>1106.2893585003221</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>918.10659431102954</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7">
-        <v>759.96465115096896</v>
+        <v>0</v>
       </c>
       <c r="P20" s="7">
-        <v>630.15706173928947</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="7">
-        <v>417.89810641946508</v>
+        <v>0</v>
       </c>
       <c r="R20" s="7">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="S20" s="7">
         <v>0</v>
@@ -2187,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="7">
-        <v>-1.7621459846850485E-12</v>
+        <v>0</v>
       </c>
       <c r="V20" s="7">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6">
-        <v>15.829644736900207</v>
+        <v>0</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="6">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -2308,70 +2308,70 @@
         <v>0</v>
       </c>
       <c r="F22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="G22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="H22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="K22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="L22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="M22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="P22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="R22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="S22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="T22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="U22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="V22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="W22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="X22" s="7">
-        <v>397.51828566309723</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="7">
-        <v>355.79563343194718</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="7">
-        <v>243.09392720201333</v>
+        <v>0</v>
       </c>
       <c r="AA22" s="8">
-        <v>301.38810254334294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.35">
@@ -2379,10 +2379,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="6">
-        <v>0</v>
+        <v>28.100000000000009</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>28.100000000000009</v>
       </c>
       <c r="D23" s="7">
         <v>28.1</v>
@@ -2394,25 +2394,25 @@
         <v>28.1</v>
       </c>
       <c r="G23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.1</v>
       </c>
       <c r="H23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.1</v>
       </c>
       <c r="I23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.1</v>
       </c>
       <c r="J23" s="7">
         <v>28.099999999999994</v>
       </c>
       <c r="K23" s="7">
-        <v>28.1</v>
+        <v>28.099999999999994</v>
       </c>
       <c r="L23" s="7">
         <v>28.100000000000009</v>
       </c>
       <c r="M23" s="7">
-        <v>28.099999999999994</v>
+        <v>28.100000000000009</v>
       </c>
       <c r="N23" s="7">
         <v>28.100000000000009</v>
@@ -2430,7 +2430,7 @@
         <v>28.100000000000009</v>
       </c>
       <c r="S23" s="7">
-        <v>28.099999999999994</v>
+        <v>28.100000000000009</v>
       </c>
       <c r="T23" s="7">
         <v>28.099999999999994</v>
@@ -2439,22 +2439,22 @@
         <v>28.099999999999994</v>
       </c>
       <c r="V23" s="7">
-        <v>28.1</v>
+        <v>28.100000000000009</v>
       </c>
       <c r="W23" s="7">
-        <v>28.1</v>
+        <v>28.100000000000009</v>
       </c>
       <c r="X23" s="7">
-        <v>28.099999999999994</v>
+        <v>28.100000000000009</v>
       </c>
       <c r="Y23" s="7">
-        <v>28.099999999999994</v>
+        <v>28.100000000000009</v>
       </c>
       <c r="Z23" s="7">
         <v>28.100000000000009</v>
       </c>
       <c r="AA23" s="8">
-        <v>28.1</v>
+        <v>28.099999999999994</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.35">
@@ -2462,10 +2462,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="6">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C24" s="7">
-        <v>5.9326476552607801</v>
+        <v>25</v>
       </c>
       <c r="D24" s="7">
         <v>25</v>
@@ -2545,7 +2545,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="6">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C25" s="7">
         <v>70</v>
@@ -2628,10 +2628,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="6">
-        <v>0</v>
+        <v>30.6</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>30.6</v>
       </c>
       <c r="D26" s="7">
         <v>30.6</v>
@@ -2685,7 +2685,7 @@
         <v>30.6</v>
       </c>
       <c r="U26" s="7">
-        <v>30.599999999999998</v>
+        <v>30.6</v>
       </c>
       <c r="V26" s="7">
         <v>30.6</v>
@@ -2697,13 +2697,13 @@
         <v>30.6</v>
       </c>
       <c r="Y26" s="7">
-        <v>30.599999999999998</v>
+        <v>30.6</v>
       </c>
       <c r="Z26" s="7">
         <v>30.6</v>
       </c>
       <c r="AA26" s="8">
-        <v>30.6</v>
+        <v>30.599999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.35">
@@ -2711,10 +2711,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C27" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D27" s="7">
         <v>10</v>
@@ -2732,7 +2732,7 @@
         <v>10</v>
       </c>
       <c r="I27" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="J27" s="7">
         <v>10</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="W27" s="7">
-        <v>10.000000000000014</v>
+        <v>10</v>
       </c>
       <c r="X27" s="7">
         <v>10</v>
@@ -2794,10 +2794,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D28" s="7">
         <v>10</v>
@@ -2877,10 +2877,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D29" s="7">
         <v>10</v>
@@ -2889,22 +2889,22 @@
         <v>10</v>
       </c>
       <c r="F29" s="7">
+        <v>10</v>
+      </c>
+      <c r="G29" s="7">
         <v>9.9999999999999929</v>
       </c>
-      <c r="G29" s="7">
-        <v>10</v>
-      </c>
       <c r="H29" s="7">
         <v>10</v>
       </c>
       <c r="I29" s="7">
-        <v>10</v>
+        <v>10.000000000000014</v>
       </c>
       <c r="J29" s="7">
         <v>10</v>
       </c>
       <c r="K29" s="7">
-        <v>10</v>
+        <v>9.9999999999999858</v>
       </c>
       <c r="L29" s="7">
         <v>10</v>
@@ -2916,10 +2916,10 @@
         <v>10</v>
       </c>
       <c r="O29" s="7">
-        <v>9.9999999999999858</v>
+        <v>10</v>
       </c>
       <c r="P29" s="7">
-        <v>9.9999999999999858</v>
+        <v>10</v>
       </c>
       <c r="Q29" s="7">
         <v>10</v>
@@ -2931,7 +2931,7 @@
         <v>10</v>
       </c>
       <c r="T29" s="7">
-        <v>9.9999999999999858</v>
+        <v>10</v>
       </c>
       <c r="U29" s="7">
         <v>10</v>
@@ -2960,10 +2960,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="6">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="C30" s="7">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="D30" s="7">
         <v>52.20000000000001</v>
@@ -2975,10 +2975,10 @@
         <v>52.200000000000017</v>
       </c>
       <c r="G30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="H30" s="7">
-        <v>52.2</v>
+        <v>52.20000000000001</v>
       </c>
       <c r="I30" s="7">
         <v>52.2</v>
@@ -2987,13 +2987,13 @@
         <v>52.200000000000017</v>
       </c>
       <c r="K30" s="7">
-        <v>52.20000000000001</v>
+        <v>52.2</v>
       </c>
       <c r="L30" s="7">
         <v>52.2</v>
       </c>
       <c r="M30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.2</v>
       </c>
       <c r="N30" s="7">
         <v>52.2</v>
@@ -3017,19 +3017,19 @@
         <v>52.2</v>
       </c>
       <c r="U30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.2</v>
       </c>
       <c r="V30" s="7">
-        <v>52.20000000000001</v>
+        <v>52.2</v>
       </c>
       <c r="W30" s="7">
         <v>52.2</v>
       </c>
       <c r="X30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.2</v>
       </c>
       <c r="Y30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.2</v>
       </c>
       <c r="Z30" s="7">
         <v>52.2</v>
@@ -3043,16 +3043,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D31" s="7">
         <v>10</v>
       </c>
       <c r="E31" s="7">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
       <c r="F31" s="7">
         <v>10</v>
@@ -3118,7 +3118,7 @@
         <v>10</v>
       </c>
       <c r="AA31" s="8">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.35">
@@ -3126,13 +3126,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="6">
-        <v>0</v>
+        <v>20.200000000000003</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="D32" s="7">
-        <v>20.199999999999996</v>
+        <v>20.200000000000003</v>
       </c>
       <c r="E32" s="7">
         <v>20.199999999999996</v>
@@ -3141,19 +3141,19 @@
         <v>20.199999999999996</v>
       </c>
       <c r="G32" s="7">
-        <v>20.200000000000003</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="H32" s="7">
         <v>20.199999999999996</v>
       </c>
       <c r="I32" s="7">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="J32" s="7">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="K32" s="7">
         <v>20.2</v>
-      </c>
-      <c r="J32" s="7">
-        <v>20.200000000000003</v>
-      </c>
-      <c r="K32" s="7">
-        <v>20.199999999999996</v>
       </c>
       <c r="L32" s="7">
         <v>20.200000000000003</v>
@@ -3162,7 +3162,7 @@
         <v>20.199999999999996</v>
       </c>
       <c r="N32" s="7">
-        <v>20.200000000000003</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="O32" s="7">
         <v>20.2</v>
@@ -3183,25 +3183,25 @@
         <v>20.2</v>
       </c>
       <c r="U32" s="7">
-        <v>20.2</v>
+        <v>20.200000000000003</v>
       </c>
       <c r="V32" s="7">
         <v>20.200000000000003</v>
       </c>
       <c r="W32" s="7">
-        <v>20.200000000000003</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="X32" s="7">
         <v>20.199999999999996</v>
       </c>
       <c r="Y32" s="7">
-        <v>20.2</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="Z32" s="7">
         <v>20.200000000000003</v>
       </c>
       <c r="AA32" s="8">
-        <v>20.199999999999996</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.35">
@@ -3209,7 +3209,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="6">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C33" s="7">
         <v>70</v>
@@ -3292,10 +3292,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="6">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="C34" s="7">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="D34" s="7">
         <v>10.5</v>
@@ -3331,10 +3331,10 @@
         <v>10.5</v>
       </c>
       <c r="O34" s="7">
-        <v>10.5</v>
+        <v>10.499999999999986</v>
       </c>
       <c r="P34" s="7">
-        <v>10.5</v>
+        <v>10.499999999999986</v>
       </c>
       <c r="Q34" s="7">
         <v>10.5</v>
@@ -3343,13 +3343,13 @@
         <v>10.5</v>
       </c>
       <c r="S34" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="T34" s="7">
         <v>10.499999999999986</v>
       </c>
-      <c r="T34" s="7">
-        <v>10.5</v>
-      </c>
       <c r="U34" s="7">
-        <v>10.5</v>
+        <v>10.499999999999986</v>
       </c>
       <c r="V34" s="7">
         <v>10.5</v>
@@ -3375,10 +3375,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C35" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D35" s="7">
         <v>10</v>
@@ -3458,10 +3458,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C36" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D36" s="7">
         <v>10</v>
@@ -3476,7 +3476,7 @@
         <v>10</v>
       </c>
       <c r="H36" s="7">
-        <v>10.000000000000002</v>
+        <v>10</v>
       </c>
       <c r="I36" s="7">
         <v>10</v>
@@ -3515,7 +3515,7 @@
         <v>10</v>
       </c>
       <c r="U36" s="7">
-        <v>10.000000000000002</v>
+        <v>10</v>
       </c>
       <c r="V36" s="7">
         <v>10</v>
@@ -3527,7 +3527,7 @@
         <v>10</v>
       </c>
       <c r="Y36" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="Z36" s="7">
         <v>10</v>
@@ -3541,10 +3541,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C37" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D37" s="7">
         <v>10</v>
@@ -3610,7 +3610,7 @@
         <v>10</v>
       </c>
       <c r="Y37" s="7">
-        <v>10</v>
+        <v>10.000000000000002</v>
       </c>
       <c r="Z37" s="7">
         <v>10</v>
@@ -3624,7 +3624,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C38" s="7">
         <v>10</v>
@@ -3707,28 +3707,28 @@
         <v>37</v>
       </c>
       <c r="B39" s="6">
-        <v>0</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="C39" s="7">
-        <v>0</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="D39" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="E39" s="7">
         <v>10.099999999999994</v>
-      </c>
-      <c r="E39" s="7">
-        <v>10.1</v>
       </c>
       <c r="F39" s="7">
         <v>10.099999999999994</v>
       </c>
       <c r="G39" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="H39" s="7">
         <v>10.099999999999994</v>
       </c>
-      <c r="H39" s="7">
-        <v>10.1</v>
-      </c>
       <c r="I39" s="7">
-        <v>10.100000000000001</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="J39" s="7">
         <v>10.099999999999994</v>
@@ -3743,10 +3743,10 @@
         <v>10.099999999999994</v>
       </c>
       <c r="N39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.1</v>
       </c>
       <c r="O39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="P39" s="7">
         <v>10.099999999999994</v>
@@ -3758,25 +3758,25 @@
         <v>10.099999999999994</v>
       </c>
       <c r="S39" s="7">
-        <v>10.1</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="T39" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="U39" s="7">
         <v>10.099999999999994</v>
       </c>
-      <c r="U39" s="7">
-        <v>10.1</v>
-      </c>
       <c r="V39" s="7">
-        <v>10.1</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="W39" s="7">
         <v>10.099999999999994</v>
       </c>
       <c r="X39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.1</v>
       </c>
       <c r="Y39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.1</v>
       </c>
       <c r="Z39" s="7">
         <v>10.099999999999994</v>
@@ -3790,16 +3790,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="6">
-        <v>0</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="C40" s="7">
-        <v>0</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="D40" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="E40" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="F40" s="7">
         <v>10.100000000000001</v>
@@ -3811,13 +3811,13 @@
         <v>10.100000000000001</v>
       </c>
       <c r="I40" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="J40" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="K40" s="7">
         <v>10.099999999999998</v>
-      </c>
-      <c r="J40" s="7">
-        <v>10.1</v>
-      </c>
-      <c r="K40" s="7">
-        <v>10.1</v>
       </c>
       <c r="L40" s="7">
         <v>10.1</v>
@@ -3841,28 +3841,28 @@
         <v>10.100000000000001</v>
       </c>
       <c r="S40" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="T40" s="7">
         <v>10.099999999999998</v>
       </c>
       <c r="U40" s="7">
-        <v>10.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="V40" s="7">
         <v>10.1</v>
       </c>
       <c r="W40" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="X40" s="7">
         <v>10.1</v>
       </c>
-      <c r="X40" s="7">
+      <c r="Y40" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="Z40" s="7">
         <v>10.100000000000001</v>
-      </c>
-      <c r="Y40" s="7">
-        <v>10.100000000000001</v>
-      </c>
-      <c r="Z40" s="7">
-        <v>10.1</v>
       </c>
       <c r="AA40" s="8">
         <v>10.100000000000001</v>
@@ -3873,10 +3873,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C41" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D41" s="7">
         <v>10</v>
@@ -3936,7 +3936,7 @@
         <v>10</v>
       </c>
       <c r="W41" s="7">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
       <c r="X41" s="7">
         <v>10</v>
@@ -3956,19 +3956,19 @@
         <v>40</v>
       </c>
       <c r="B42" s="6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C42" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D42" s="7">
         <v>12</v>
       </c>
       <c r="E42" s="7">
-        <v>12</v>
+        <v>11.999999999999993</v>
       </c>
       <c r="F42" s="7">
-        <v>12</v>
+        <v>11.999999999999993</v>
       </c>
       <c r="G42" s="7">
         <v>12</v>
@@ -4039,82 +4039,82 @@
         <v>41</v>
       </c>
       <c r="B43" s="6">
-        <v>0</v>
+        <v>5996.7499999999991</v>
       </c>
       <c r="C43" s="7">
-        <v>0</v>
+        <v>5999.2749999999978</v>
       </c>
       <c r="D43" s="7">
-        <v>0</v>
+        <v>5987.1827249999988</v>
       </c>
       <c r="E43" s="7">
-        <v>0</v>
+        <v>5950.4766195249977</v>
       </c>
       <c r="F43" s="7">
-        <v>0</v>
+        <v>5964.160159100722</v>
       </c>
       <c r="G43" s="7">
-        <v>0</v>
+        <v>5988.2368505326276</v>
       </c>
       <c r="H43" s="7">
-        <v>350</v>
+        <v>6000.0000000000018</v>
       </c>
       <c r="I43" s="7">
-        <v>650</v>
+        <v>6032.5838742771075</v>
       </c>
       <c r="J43" s="7">
-        <v>950</v>
+        <v>6049.9999999999973</v>
       </c>
       <c r="K43" s="7">
-        <v>1200.0000000000007</v>
+        <v>6078.5463815579114</v>
       </c>
       <c r="L43" s="7">
-        <v>1500.0000000000007</v>
+        <v>6099.642548991932</v>
       </c>
       <c r="M43" s="7">
-        <v>1749.9999999999998</v>
+        <v>6126.1535819328583</v>
       </c>
       <c r="N43" s="7">
-        <v>2000.0000000000005</v>
+        <v>6148.0832141702531</v>
       </c>
       <c r="O43" s="7">
-        <v>2249.9999999999995</v>
+        <v>6175.4352130977859</v>
       </c>
       <c r="P43" s="7">
-        <v>2500.0000000000005</v>
+        <v>6198.2133800156662</v>
       </c>
       <c r="Q43" s="7">
-        <v>2700.0000000000009</v>
+        <v>6226.4215504358053</v>
       </c>
       <c r="R43" s="7">
-        <v>2950.0000000000005</v>
+        <v>6249.9999999999991</v>
       </c>
       <c r="S43" s="7">
-        <v>3200.0000000000005</v>
+        <v>6279.1434167392345</v>
       </c>
       <c r="T43" s="7">
-        <v>3450.0000000000005</v>
+        <v>6298.6649574898875</v>
       </c>
       <c r="U43" s="7">
-        <v>3650.0000000000005</v>
+        <v>6328.6321921072949</v>
       </c>
       <c r="V43" s="7">
-        <v>3900.0000000000009</v>
+        <v>6344.049131836261</v>
       </c>
       <c r="W43" s="7">
-        <v>4100.0000000000009</v>
+        <v>6379.9198240227852</v>
       </c>
       <c r="X43" s="7">
-        <v>4350.0000000000009</v>
+        <v>6400</v>
       </c>
       <c r="Y43" s="7">
-        <v>4550</v>
+        <v>6400.0000000000309</v>
       </c>
       <c r="Z43" s="7">
-        <v>4800.0000000000009</v>
+        <v>6400</v>
       </c>
       <c r="AA43" s="8">
-        <v>5000.0000000000009</v>
+        <v>6399.9999999999827</v>
       </c>
       <c r="AB43" t="s">
         <v>17</v>
@@ -4125,82 +4125,82 @@
         <v>42</v>
       </c>
       <c r="B44" s="6">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="C44" s="7">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="D44" s="7">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="E44" s="7">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="F44" s="7">
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="G44" s="7">
-        <v>0</v>
+        <v>820</v>
       </c>
       <c r="H44" s="7">
-        <v>0</v>
+        <v>880</v>
       </c>
       <c r="I44" s="7">
-        <v>0</v>
+        <v>910</v>
       </c>
       <c r="J44" s="7">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="K44" s="7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L44" s="7">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="M44" s="7">
-        <v>0</v>
+        <v>1090</v>
       </c>
       <c r="N44" s="7">
-        <v>0</v>
+        <v>1140</v>
       </c>
       <c r="O44" s="7">
-        <v>0</v>
+        <v>1180</v>
       </c>
       <c r="P44" s="7">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="Q44" s="7">
-        <v>0</v>
+        <v>1270</v>
       </c>
       <c r="R44" s="7">
-        <v>0</v>
+        <v>1320</v>
       </c>
       <c r="S44" s="7">
-        <v>0</v>
+        <v>1360</v>
       </c>
       <c r="T44" s="7">
-        <v>0</v>
+        <v>1420</v>
       </c>
       <c r="U44" s="7">
-        <v>0</v>
+        <v>1460</v>
       </c>
       <c r="V44" s="7">
-        <v>0</v>
+        <v>1530</v>
       </c>
       <c r="W44" s="7">
-        <v>0</v>
+        <v>1560</v>
       </c>
       <c r="X44" s="7">
-        <v>0</v>
+        <v>1620</v>
       </c>
       <c r="Y44" s="7">
-        <v>0</v>
+        <v>1689.9999999999902</v>
       </c>
       <c r="Z44" s="7">
-        <v>0</v>
+        <v>1830</v>
       </c>
       <c r="AA44" s="8">
-        <v>0</v>
+        <v>1928.6405127167338</v>
       </c>
       <c r="AB44" t="s">
         <v>18</v>
@@ -4307,82 +4307,82 @@
         <v>1</v>
       </c>
       <c r="B49" s="3">
-        <v>134.59011842103328</v>
+        <v>-1100.0000000000007</v>
       </c>
       <c r="C49" s="4">
-        <v>321.81666666666598</v>
+        <v>-1100</v>
       </c>
       <c r="D49" s="4">
-        <v>389.57841108034597</v>
+        <v>-1100</v>
       </c>
       <c r="E49" s="4">
-        <v>445.38034435000066</v>
+        <v>-1100</v>
       </c>
       <c r="F49" s="4">
-        <v>630.82005026299657</v>
+        <v>-1100</v>
       </c>
       <c r="G49" s="4">
-        <v>988.85720646479751</v>
+        <v>-1100</v>
       </c>
       <c r="H49" s="4">
-        <v>846.83951964717062</v>
+        <v>-1098.1931785417196</v>
       </c>
       <c r="I49" s="4">
-        <v>762.88527618929811</v>
+        <v>-1100</v>
       </c>
       <c r="J49" s="4">
-        <v>665.82177982875953</v>
+        <v>-1098.0924139029312</v>
       </c>
       <c r="K49" s="4">
-        <v>626.12404029153163</v>
+        <v>-1100</v>
       </c>
       <c r="L49" s="4">
-        <v>505.05639941523896</v>
+        <v>-1100</v>
       </c>
       <c r="M49" s="4">
-        <v>442.73926845513068</v>
+        <v>-1100</v>
       </c>
       <c r="N49" s="4">
-        <v>370.08661134315912</v>
+        <v>-1100</v>
       </c>
       <c r="O49" s="4">
-        <v>287.70192501487213</v>
+        <v>-1100</v>
       </c>
       <c r="P49" s="4">
-        <v>196.15656609734944</v>
+        <v>-1100</v>
       </c>
       <c r="Q49" s="4">
-        <v>165.71499815071456</v>
+        <v>-1100</v>
       </c>
       <c r="R49" s="4">
-        <v>57.44239625981777</v>
+        <v>-1099.9576037401812</v>
       </c>
       <c r="S49" s="4">
-        <v>-41.526512318802361</v>
+        <v>-1100</v>
       </c>
       <c r="T49" s="4">
-        <v>-177.9321208263826</v>
+        <v>-1100</v>
       </c>
       <c r="U49" s="4">
-        <v>-239.68408793039612</v>
+        <v>-1100</v>
       </c>
       <c r="V49" s="4">
-        <v>-332.28171754239207</v>
+        <v>-1100</v>
       </c>
       <c r="W49" s="4">
-        <v>-375.11101945637893</v>
+        <v>-1100</v>
       </c>
       <c r="X49" s="4">
-        <v>-468.42867982536023</v>
+        <v>-1099.1677650406721</v>
       </c>
       <c r="Y49" s="4">
-        <v>-526.97265273668859</v>
+        <v>-1087.9741082593891</v>
       </c>
       <c r="Z49" s="4">
-        <v>-624.09898603320767</v>
+        <v>-1099.8030419003735</v>
       </c>
       <c r="AA49" s="5">
-        <v>-635.81607690750707</v>
+        <v>-1097.5319401830441</v>
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.35">
@@ -4390,82 +4390,82 @@
         <v>2</v>
       </c>
       <c r="B50" s="6">
-        <v>-371.30988157896684</v>
+        <v>1559.5499999999995</v>
       </c>
       <c r="C50" s="7">
-        <v>-221.68333333333354</v>
+        <v>1530.5749999999998</v>
       </c>
       <c r="D50" s="7">
-        <v>-241.38998054017327</v>
+        <v>1486.6992249999996</v>
       </c>
       <c r="E50" s="7">
-        <v>-291.5666041500009</v>
+        <v>1417.9235680249994</v>
       </c>
       <c r="F50" s="7">
-        <v>-584.15346921504249</v>
+        <v>1399.2489301372245</v>
       </c>
       <c r="G50" s="7">
-        <v>-712.60342355937212</v>
+        <v>1390.6762205084592</v>
       </c>
       <c r="H50" s="7">
-        <v>-537.56435604721537</v>
+        <v>1371.302945763895</v>
       </c>
       <c r="I50" s="7">
-        <v>-354.7583343863364</v>
+        <v>1368.8402637014724</v>
       </c>
       <c r="J50" s="7">
-        <v>-185.36072324205668</v>
+        <v>1354.6250830262511</v>
       </c>
       <c r="K50" s="7">
-        <v>-8.8992053069208055</v>
+        <v>1347.4231359594585</v>
       </c>
       <c r="L50" s="7">
-        <v>135.88784460640204</v>
+        <v>1334.3739941830934</v>
       </c>
       <c r="M50" s="7">
-        <v>289.1180966530145</v>
+        <v>1326.4324101307411</v>
       </c>
       <c r="N50" s="7">
-        <v>431.70274899482547</v>
+        <v>1313.5993518219175</v>
       </c>
       <c r="O50" s="7">
-        <v>564.24250790540077</v>
+        <v>1305.8757959883146</v>
       </c>
       <c r="P50" s="7">
-        <v>687.30591423389342</v>
+        <v>1293.2627281522095</v>
       </c>
       <c r="Q50" s="7">
-        <v>821.1545904204886</v>
+        <v>1285.7611427055792</v>
       </c>
       <c r="R50" s="7">
-        <v>926.85084486002029</v>
+        <v>1273.3508448600198</v>
       </c>
       <c r="S50" s="7">
-        <v>1041.5265123188024</v>
+        <v>1266.0964413768384</v>
       </c>
       <c r="T50" s="7">
-        <v>1118.4382810329603</v>
+        <v>1248.9353593492299</v>
       </c>
       <c r="U50" s="7">
-        <v>1219.6735475456819</v>
+        <v>1241.8898275833728</v>
       </c>
       <c r="V50" s="7">
-        <v>1275.7969613433931</v>
+        <v>1219.960886031623</v>
       </c>
       <c r="W50" s="7">
-        <v>1350.1509669076945</v>
+        <v>1218.1495840059074</v>
       </c>
       <c r="X50" s="7">
-        <v>1423.8799479976115</v>
+        <v>1201.0408627822962</v>
       </c>
       <c r="Y50" s="7">
-        <v>1526.9726527366886</v>
+        <v>1173.8711972140172</v>
       </c>
       <c r="Z50" s="7">
-        <v>1624.0989860332077</v>
+        <v>1123.3336713222634</v>
       </c>
       <c r="AA50" s="8">
-        <v>1635.8160769075071</v>
+        <v>1086.5478034585801</v>
       </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.35">
@@ -4473,82 +4473,82 @@
         <v>3</v>
       </c>
       <c r="B51" s="9">
-        <v>236.71976315793358</v>
+        <v>-459.54999999999882</v>
       </c>
       <c r="C51" s="10">
-        <v>-100.13333333333244</v>
+        <v>-430.57499999999982</v>
       </c>
       <c r="D51" s="10">
-        <v>-148.1884305401727</v>
+        <v>-386.69922499999961</v>
       </c>
       <c r="E51" s="10">
-        <v>-153.81374019999976</v>
+        <v>-317.92356802499944</v>
       </c>
       <c r="F51" s="10">
-        <v>-46.666581047954082</v>
+        <v>-299.24893013722408</v>
       </c>
       <c r="G51" s="10">
-        <v>-276.2537829054254</v>
+        <v>-290.67622050845921</v>
       </c>
       <c r="H51" s="10">
-        <v>-309.27516359995525</v>
+        <v>-273.10976722217526</v>
       </c>
       <c r="I51" s="10">
-        <v>-408.12694180296171</v>
+        <v>-268.8402637014724</v>
       </c>
       <c r="J51" s="10">
-        <v>-480.46105658670285</v>
+        <v>-256.53266912331992</v>
       </c>
       <c r="K51" s="10">
-        <v>-617.22483498461077</v>
+        <v>-247.42313595945848</v>
       </c>
       <c r="L51" s="10">
-        <v>-640.944244021641</v>
+        <v>-234.37399418309337</v>
       </c>
       <c r="M51" s="10">
-        <v>-731.85736510814525</v>
+        <v>-226.43241013074112</v>
       </c>
       <c r="N51" s="10">
-        <v>-801.78936033798459</v>
+        <v>-213.59935182191748</v>
       </c>
       <c r="O51" s="10">
-        <v>-851.9444329202729</v>
+        <v>-205.87579598831462</v>
       </c>
       <c r="P51" s="10">
-        <v>-883.46248033124289</v>
+        <v>-193.26272815220955</v>
       </c>
       <c r="Q51" s="10">
-        <v>-986.86958857120317</v>
+        <v>-185.76114270557923</v>
       </c>
       <c r="R51" s="10">
-        <v>-984.29324111983783</v>
+        <v>-173.39324111983865</v>
       </c>
       <c r="S51" s="10">
-        <v>-1000</v>
+        <v>-166.09644137683836</v>
       </c>
       <c r="T51" s="10">
-        <v>-940.50616020657753</v>
+        <v>-148.93535934922988</v>
       </c>
       <c r="U51" s="10">
-        <v>-979.9894596152858</v>
+        <v>-141.88982758337283</v>
       </c>
       <c r="V51" s="10">
-        <v>-943.51524380100113</v>
+        <v>-119.96088603162298</v>
       </c>
       <c r="W51" s="10">
-        <v>-975.03994745131547</v>
+        <v>-118.1495840059074</v>
       </c>
       <c r="X51" s="10">
-        <v>-955.45126817225128</v>
+        <v>-101.87309774162418</v>
       </c>
       <c r="Y51" s="10">
-        <v>-1000</v>
+        <v>-85.897088954628202</v>
       </c>
       <c r="Z51" s="10">
-        <v>-1000</v>
+        <v>-23.530629421889898</v>
       </c>
       <c r="AA51" s="11">
-        <v>-1000</v>
+        <v>10.984136724463951</v>
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.35">
@@ -4639,86 +4639,86 @@
         <v>8</v>
       </c>
       <c r="B54" s="15">
-        <v>185343.29577303451</v>
+        <v>419066448.64103276</v>
       </c>
       <c r="C54" s="16">
-        <v>150354.42590554862</v>
+        <v>125273086.48681155</v>
       </c>
       <c r="D54" s="16">
-        <v>122850.98857876577</v>
+        <v>121082739.88063765</v>
       </c>
       <c r="E54" s="16">
-        <v>115767.04458876408</v>
+        <v>120287243.3532899</v>
       </c>
       <c r="F54" s="16">
-        <v>110839.76863109937</v>
+        <v>101061042.67947546</v>
       </c>
       <c r="G54" s="16">
-        <v>107601.08884452166</v>
+        <v>91054722.542002589</v>
       </c>
       <c r="H54" s="16">
-        <v>11641550.231811121</v>
+        <v>85756835.58219102</v>
       </c>
       <c r="I54" s="16">
-        <v>12324968.133583765</v>
+        <v>77835636.33026889</v>
       </c>
       <c r="J54" s="16">
-        <v>13729770.539331574</v>
+        <v>72095477.491315469</v>
       </c>
       <c r="K54" s="16">
-        <v>13539056.792083383</v>
+        <v>66837002.123430684</v>
       </c>
       <c r="L54" s="16">
-        <v>15173431.935465468</v>
+        <v>61305279.967726842</v>
       </c>
       <c r="M54" s="16">
-        <v>14667613.021367941</v>
+        <v>56802866.981785446</v>
       </c>
       <c r="N54" s="16">
-        <v>14771698.232724929</v>
+        <v>52088861.87211591</v>
       </c>
       <c r="O54" s="16">
-        <v>14735518.731834147</v>
+        <v>48238464.927511126</v>
       </c>
       <c r="P54" s="16">
-        <v>14583734.508809632</v>
+        <v>44224961.578445897</v>
       </c>
       <c r="Q54" s="16">
-        <v>13638852.260879792</v>
+        <v>40935877.731673487</v>
       </c>
       <c r="R54" s="16">
-        <v>13819966.051143177</v>
+        <v>37521716.813343227</v>
       </c>
       <c r="S54" s="16">
-        <v>13455936.071670968</v>
+        <v>34715087.464546926</v>
       </c>
       <c r="T54" s="16">
-        <v>13043632.510209477</v>
+        <v>32145404.736540187</v>
       </c>
       <c r="U54" s="16">
-        <v>12117802.26314237</v>
+        <v>29485302.677763384</v>
       </c>
       <c r="V54" s="16">
-        <v>11986589.48512092</v>
+        <v>27563924.879889011</v>
       </c>
       <c r="W54" s="16">
-        <v>11111677.895684551</v>
+        <v>24829028.306883618</v>
       </c>
       <c r="X54" s="16">
-        <v>10903515.051872116</v>
+        <v>23150557.073793795</v>
       </c>
       <c r="Y54" s="16">
-        <v>10089803.231113574</v>
+        <v>21517631.109444827</v>
       </c>
       <c r="Z54" s="16">
-        <v>9835358.2539883424</v>
+        <v>21155858.060010906</v>
       </c>
       <c r="AA54" s="17">
-        <v>9087917.6781258415</v>
+        <v>19062229.216091473</v>
       </c>
       <c r="AB54" s="18">
         <f>SUM(TotalCost)</f>
-        <v>255051149.4922848</v>
+        <v>1855093288.5080221</v>
       </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.35">
@@ -4812,86 +4812,86 @@
         <v>10</v>
       </c>
       <c r="B57" s="3">
-        <v>13395.809006237763</v>
+        <v>127.23839999999862</v>
       </c>
       <c r="C57" s="4">
-        <v>10788.134900264893</v>
+        <v>106.61999999999958</v>
       </c>
       <c r="D57" s="4">
-        <v>9558.8049673417518</v>
+        <v>70.35619439999931</v>
       </c>
       <c r="E57" s="4">
-        <v>9312.0249598840237</v>
+        <v>174.35243586779998</v>
       </c>
       <c r="F57" s="4">
-        <v>8666.764510679297</v>
+        <v>0.65969839061018776</v>
       </c>
       <c r="G57" s="4">
-        <v>7992.7910405343282</v>
+        <v>0.66947527612567959</v>
       </c>
       <c r="H57" s="4">
-        <v>7231.7522186328661</v>
+        <v>0.62246201111017219</v>
       </c>
       <c r="I57" s="4">
-        <v>6939.5927342366722</v>
+        <v>0.65362677499330402</v>
       </c>
       <c r="J57" s="4">
-        <v>6641.5502674662948</v>
+        <v>0.65092004913306756</v>
       </c>
       <c r="K57" s="4">
-        <v>6428.2007399534241</v>
+        <v>0.64400087711195464</v>
       </c>
       <c r="L57" s="4">
-        <v>6119.5279553645905</v>
+        <v>0.62155648500595906</v>
       </c>
       <c r="M57" s="4">
-        <v>5896.259235531229</v>
+        <v>0.64071009337427121</v>
       </c>
       <c r="N57" s="4">
-        <v>5668.5319125448477</v>
+        <v>0.62147608421134559</v>
       </c>
       <c r="O57" s="4">
-        <v>5436.6569033792239</v>
+        <v>0.6438689689692465</v>
       </c>
       <c r="P57" s="4">
-        <v>5200.9289870833545</v>
+        <v>0.62790338968997006</v>
       </c>
       <c r="Q57" s="4">
-        <v>5051.8183299381972</v>
+        <v>0.65359412019717733</v>
       </c>
       <c r="R57" s="4">
-        <v>4809.2087187230163</v>
+        <v>0.64146482239677427</v>
       </c>
       <c r="S57" s="4">
-        <v>5099.2167571217396</v>
+        <v>0.67000427188445699</v>
       </c>
       <c r="T57" s="4">
-        <v>4929.3134908072534</v>
+        <v>0.62075391033141569</v>
       </c>
       <c r="U57" s="4">
-        <v>4478.6003618073246</v>
+        <v>0.65322029552439742</v>
       </c>
       <c r="V57" s="4">
-        <v>4143.4773551581529</v>
+        <v>0.56741887818411307</v>
       </c>
       <c r="W57" s="4">
-        <v>3708.1193862656041</v>
+        <v>0.64336524808776818</v>
       </c>
       <c r="X57" s="4">
-        <v>3352.1940770678093</v>
+        <v>0.61106195483249026</v>
       </c>
       <c r="Y57" s="4">
-        <v>2961.9204175372579</v>
+        <v>0.66487511242580788</v>
       </c>
       <c r="Z57" s="4">
-        <v>2768.3019467310864</v>
+        <v>0.16421258843780379</v>
       </c>
       <c r="AA57" s="5">
-        <v>2672.733379103548</v>
+        <v>0</v>
       </c>
       <c r="AB57" s="12">
         <f>SUM(B57:AA57)</f>
-        <v>159252.23455939555</v>
+        <v>491.5126998704348</v>
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.35">
@@ -4899,86 +4899,86 @@
         <v>11</v>
       </c>
       <c r="B58" s="6">
-        <v>2413.9885322768387</v>
+        <v>0.47940000000000055</v>
       </c>
       <c r="C58" s="7">
-        <v>2265.7469347046895</v>
+        <v>0.40129999999999838</v>
       </c>
       <c r="D58" s="7">
-        <v>2260.5965095418974</v>
+        <v>0.26393709999999737</v>
       </c>
       <c r="E58" s="7">
-        <v>1949.7252897817209</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="F58" s="7">
-        <v>1610.7981043449699</v>
+        <v>0</v>
       </c>
       <c r="G58" s="7">
-        <v>1150.4026949077515</v>
+        <v>0</v>
       </c>
       <c r="H58" s="7">
-        <v>928.34771465727567</v>
+        <v>0</v>
       </c>
       <c r="I58" s="7">
-        <v>824.4155061638063</v>
+        <v>0</v>
       </c>
       <c r="J58" s="7">
-        <v>736.34160047707815</v>
+        <v>0</v>
       </c>
       <c r="K58" s="7">
-        <v>620.5160256148597</v>
+        <v>0</v>
       </c>
       <c r="L58" s="7">
-        <v>561.54347727350807</v>
+        <v>0</v>
       </c>
       <c r="M58" s="7">
-        <v>473.18423535646116</v>
+        <v>3.8120617773529373E-15</v>
       </c>
       <c r="N58" s="7">
-        <v>397.40824655042297</v>
+        <v>0</v>
       </c>
       <c r="O58" s="7">
-        <v>333.5033878783658</v>
+        <v>0</v>
       </c>
       <c r="P58" s="7">
-        <v>280.79564981682495</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="7">
-        <v>195.92471855937231</v>
+        <v>0</v>
       </c>
       <c r="R58" s="7">
-        <v>163.73146482239679</v>
+        <v>0</v>
       </c>
       <c r="S58" s="7">
-        <v>376.80973050205012</v>
+        <v>0</v>
       </c>
       <c r="T58" s="7">
-        <v>356.79383208200716</v>
+        <v>0</v>
       </c>
       <c r="U58" s="7">
-        <v>199.98936917622359</v>
+        <v>0</v>
       </c>
       <c r="V58" s="7">
-        <v>207.3977942417543</v>
+        <v>0</v>
       </c>
       <c r="W58" s="7">
-        <v>98.517424047124294</v>
+        <v>0</v>
       </c>
       <c r="X58" s="7">
-        <v>128.3450141128038</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="7">
-        <v>20.110079478993992</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="7">
-        <v>76.764230252013448</v>
+        <v>0</v>
       </c>
       <c r="AA58" s="8">
-        <v>17.963283589016996</v>
+        <v>0</v>
       </c>
       <c r="AB58" s="13">
         <f t="shared" ref="AB58:AB61" si="0">SUM(B58:AA58)</f>
-        <v>18649.660850210232</v>
+        <v>1.3476371</v>
       </c>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.35">
@@ -4986,86 +4986,86 @@
         <v>12</v>
       </c>
       <c r="B59" s="6">
-        <v>14017815.711210009</v>
+        <v>106950.48810000002</v>
       </c>
       <c r="C59" s="7">
-        <v>13261661.088989636</v>
+        <v>90435.657349999659</v>
       </c>
       <c r="D59" s="7">
-        <v>12546295.261862921</v>
+        <v>61389.24192324945</v>
       </c>
       <c r="E59" s="7">
-        <v>11869517.984329406</v>
+        <v>13084.016274990165</v>
       </c>
       <c r="F59" s="7">
-        <v>11229247.697411515</v>
+        <v>5436.8218239150356</v>
       </c>
       <c r="G59" s="7">
-        <v>10623515.126418665</v>
+        <v>5517.3968037802724</v>
       </c>
       <c r="H59" s="7">
-        <v>10050457.224063339</v>
+        <v>5129.9428568130952</v>
       </c>
       <c r="I59" s="7">
-        <v>9508311.440300025</v>
+        <v>5386.7833627604405</v>
       </c>
       <c r="J59" s="7">
-        <v>8995410.3012627847</v>
+        <v>5364.476219924034</v>
       </c>
       <c r="K59" s="7">
-        <v>8510176.2806279473</v>
+        <v>5307.4527286085349</v>
       </c>
       <c r="L59" s="7">
-        <v>8051116.9476278024</v>
+        <v>5122.480076615986</v>
       </c>
       <c r="M59" s="7">
-        <v>7616820.3767920844</v>
+        <v>5280.3321457556458</v>
       </c>
       <c r="N59" s="7">
-        <v>7205950.8052990157</v>
+        <v>5121.8174635172782</v>
       </c>
       <c r="O59" s="7">
-        <v>6817244.524579254</v>
+        <v>5306.3656241389235</v>
       </c>
       <c r="P59" s="7">
-        <v>6449505.9935365906</v>
+        <v>5174.7872982061763</v>
       </c>
       <c r="Q59" s="7">
-        <v>6101604.1614308432</v>
+        <v>5386.5142423400121</v>
       </c>
       <c r="R59" s="7">
-        <v>5772468.9891132768</v>
+        <v>5286.5521506802152</v>
       </c>
       <c r="S59" s="7">
-        <v>5461088.1579149328</v>
+        <v>5521.7564562017669</v>
       </c>
       <c r="T59" s="7">
-        <v>5166503.9560654229</v>
+        <v>5115.8657577575705</v>
       </c>
       <c r="U59" s="7">
-        <v>4887810.3330657594</v>
+        <v>5383.433413027381</v>
       </c>
       <c r="V59" s="7">
-        <v>4624150.1129553933</v>
+        <v>4676.311757194595</v>
       </c>
       <c r="W59" s="7">
-        <v>4374712.3579023089</v>
+        <v>5302.2142714593301</v>
       </c>
       <c r="X59" s="7">
-        <v>4138729.8740073997</v>
+        <v>5035.9907180076143</v>
       </c>
       <c r="Y59" s="7">
-        <v>3895260.8637902332</v>
+        <v>5479.4851296682418</v>
       </c>
       <c r="Z59" s="7">
-        <v>3685141.1441713148</v>
+        <v>1353.337521036605</v>
       </c>
       <c r="AA59" s="8">
-        <v>3479546.1153387371</v>
+        <v>0</v>
       </c>
       <c r="AB59" s="13">
         <f t="shared" si="0"/>
-        <v>198340062.83006662</v>
+        <v>378549.52146964805</v>
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.35">
@@ -5073,86 +5073,86 @@
         <v>13</v>
       </c>
       <c r="B60" s="6">
-        <v>1143.0110237631638</v>
+        <v>5.3156999999999783</v>
       </c>
       <c r="C60" s="7">
-        <v>1129.461877637516</v>
+        <v>4.8080499999999891</v>
       </c>
       <c r="D60" s="7">
-        <v>1120.245623083795</v>
+        <v>3.9151911499999823</v>
       </c>
       <c r="E60" s="7">
-        <v>973.64233599940439</v>
+        <v>2.3351665703499758</v>
       </c>
       <c r="F60" s="7">
-        <v>815.41852060693736</v>
+        <v>2.1440197694831102</v>
       </c>
       <c r="G60" s="7">
-        <v>642.61487861710486</v>
+        <v>2.1757946474084586</v>
       </c>
       <c r="H60" s="7">
-        <v>595.01606521456324</v>
+        <v>2.0230015361080596</v>
       </c>
       <c r="I60" s="7">
-        <v>537.99196538490799</v>
+        <v>2.1242870187282379</v>
       </c>
       <c r="J60" s="7">
-        <v>488.96918648957904</v>
+        <v>2.1154901596824693</v>
       </c>
       <c r="K60" s="7">
-        <v>426.97572359472974</v>
+        <v>2.0930028506138525</v>
       </c>
       <c r="L60" s="7">
-        <v>392.63835467871473</v>
+        <v>2.020058576269367</v>
       </c>
       <c r="M60" s="7">
-        <v>344.50679858806569</v>
+        <v>2.0823078034557843</v>
       </c>
       <c r="N60" s="7">
-        <v>302.72703766061375</v>
+        <v>2.0197972736868728</v>
       </c>
       <c r="O60" s="7">
-        <v>266.94041760029432</v>
+        <v>2.0925741491500509</v>
       </c>
       <c r="P60" s="7">
-        <v>236.80748657556288</v>
+        <v>2.0406860164924026</v>
       </c>
       <c r="Q60" s="7">
-        <v>191.48202274852434</v>
+        <v>2.1241808906408259</v>
       </c>
       <c r="R60" s="7">
-        <v>171.70979446719025</v>
+        <v>2.0847606727895163</v>
       </c>
       <c r="S60" s="7">
-        <v>157.16414508817181</v>
+        <v>2.1775138836244854</v>
       </c>
       <c r="T60" s="7">
-        <v>150.30403313900888</v>
+        <v>2.0174502085771007</v>
       </c>
       <c r="U60" s="7">
-        <v>121.44847929844805</v>
+        <v>2.1229659604542914</v>
       </c>
       <c r="V60" s="7">
-        <v>118.44625605412557</v>
+        <v>1.8441113540983674</v>
       </c>
       <c r="W60" s="7">
-        <v>97.38665749821466</v>
+        <v>2.0909370562852465</v>
       </c>
       <c r="X60" s="7">
-        <v>97.772843926952973</v>
+        <v>1.9859513532055935</v>
       </c>
       <c r="Y60" s="7">
-        <v>76.892153504437545</v>
+        <v>2.1608441153838753</v>
       </c>
       <c r="Z60" s="7">
-        <v>81.722504254116757</v>
+        <v>0.53369091242286226</v>
       </c>
       <c r="AA60" s="8">
-        <v>69.096041433177902</v>
+        <v>0</v>
       </c>
       <c r="AB60" s="13">
         <f t="shared" si="0"/>
-        <v>10750.392226907323</v>
+        <v>58.447533928910758</v>
       </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.35">
@@ -5160,86 +5160,86 @@
         <v>14</v>
       </c>
       <c r="B61" s="9">
-        <v>163.1824521842118</v>
+        <v>0.61334999999999762</v>
       </c>
       <c r="C61" s="10">
-        <v>161.56613470468946</v>
+        <v>0.55477499999999869</v>
       </c>
       <c r="D61" s="10">
-        <v>161.01364910837947</v>
+        <v>0.45175282499999803</v>
       </c>
       <c r="E61" s="10">
-        <v>139.11516895775793</v>
+        <v>0.26728845042499721</v>
       </c>
       <c r="F61" s="10">
-        <v>115.37616262474299</v>
+        <v>0.24738689647882042</v>
       </c>
       <c r="G61" s="10">
-        <v>89.137713296906114</v>
+        <v>0.25105322854712986</v>
       </c>
       <c r="H61" s="10">
-        <v>82.409472665777457</v>
+        <v>0.23342325416631457</v>
       </c>
       <c r="I61" s="10">
-        <v>74.190732041892119</v>
+        <v>0.24511004062248901</v>
       </c>
       <c r="J61" s="10">
-        <v>67.177252576430988</v>
+        <v>0.24409501842490033</v>
       </c>
       <c r="K61" s="10">
-        <v>58.126512249630601</v>
+        <v>0.241500328916983</v>
       </c>
       <c r="L61" s="10">
-        <v>53.324951211379648</v>
+        <v>0.23308368187723466</v>
       </c>
       <c r="M61" s="10">
-        <v>46.361965442218128</v>
+        <v>0.24026628501412892</v>
       </c>
       <c r="N61" s="10">
-        <v>40.355533278724046</v>
+        <v>0.2330535315792546</v>
       </c>
       <c r="O61" s="10">
-        <v>35.251577202966487</v>
+        <v>0.24145086336346744</v>
       </c>
       <c r="P61" s="10">
-        <v>30.998914459632267</v>
+        <v>0.23546377113373876</v>
       </c>
       <c r="Q61" s="10">
-        <v>24.373984823504852</v>
+        <v>0.2450977950739415</v>
       </c>
       <c r="R61" s="10">
-        <v>21.68116620559919</v>
+        <v>0.24054930839879035</v>
       </c>
       <c r="S61" s="10">
-        <v>19.741154271884451</v>
+        <v>0.2512516019566714</v>
       </c>
       <c r="T61" s="10">
-        <v>19.046411826165961</v>
+        <v>0.23278271637428088</v>
       </c>
       <c r="U61" s="10">
-        <v>14.890935490292108</v>
+        <v>0.24495761082164905</v>
       </c>
       <c r="V61" s="10">
-        <v>14.697145183149884</v>
+        <v>0.21278207931904239</v>
       </c>
       <c r="W61" s="10">
-        <v>11.699693810643776</v>
+        <v>0.24126196803291305</v>
       </c>
       <c r="X61" s="10">
-        <v>11.955175369863897</v>
+        <v>0.22914823306218388</v>
       </c>
       <c r="Y61" s="10">
-        <v>8.9762281671597286</v>
+        <v>0.24932816715967795</v>
       </c>
       <c r="Z61" s="10">
-        <v>9.866635508458943</v>
+        <v>6.157972066417642E-2</v>
       </c>
       <c r="AA61" s="11">
-        <v>8.092821538150142</v>
+        <v>0</v>
       </c>
       <c r="AB61" s="14">
         <f t="shared" si="0"/>
-        <v>1482.6095442002122</v>
+        <v>6.7417923764127794</v>
       </c>
     </row>
   </sheetData>

--- a/717A11_output.xlsx
+++ b/717A11_output.xlsx
@@ -727,10 +727,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <v>519.20000000000005</v>
       </c>
       <c r="C3" s="4">
-        <v>0</v>
+        <v>519.20000000000005</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -742,49 +742,49 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>0</v>
+        <v>495.91917837745336</v>
       </c>
       <c r="H3" s="4">
-        <v>0</v>
+        <v>396.80584595542905</v>
       </c>
       <c r="I3" s="4">
-        <v>0</v>
+        <v>421.67530116494049</v>
       </c>
       <c r="J3" s="4">
-        <v>0</v>
+        <v>407.00758733669346</v>
       </c>
       <c r="K3" s="4">
-        <v>0</v>
+        <v>514.22584895567297</v>
       </c>
       <c r="L3" s="4">
-        <v>0</v>
+        <v>427.12120987952324</v>
       </c>
       <c r="M3" s="4">
-        <v>0</v>
+        <v>466.0529851039019</v>
       </c>
       <c r="N3" s="4">
-        <v>0</v>
+        <v>473.76113038564114</v>
       </c>
       <c r="O3" s="4">
-        <v>0</v>
+        <v>452.05418306797816</v>
       </c>
       <c r="P3" s="4">
-        <v>0</v>
+        <v>402.64424198762578</v>
       </c>
       <c r="Q3" s="4">
-        <v>0</v>
+        <v>486.3227090409859</v>
       </c>
       <c r="R3" s="4">
-        <v>0</v>
+        <v>386.28310279959442</v>
       </c>
       <c r="S3" s="4">
-        <v>0</v>
+        <v>419.45037015797988</v>
       </c>
       <c r="T3" s="4">
-        <v>0</v>
+        <v>129.03291882238901</v>
       </c>
       <c r="U3" s="4">
-        <v>0</v>
+        <v>117.8680810420648</v>
       </c>
       <c r="V3" s="4">
         <v>0</v>
@@ -813,79 +813,79 @@
         <v>0</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>130.26735234474813</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>641.05189162049328</v>
       </c>
       <c r="E4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="F4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="G4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="J4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="K4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="L4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="O4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="P4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="Q4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="R4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="S4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="T4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="U4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="V4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="W4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="X4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="Y4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="Z4" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="AA4" s="8">
-        <v>0</v>
+        <v>665.6</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
@@ -893,7 +893,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -902,73 +902,73 @@
         <v>0</v>
       </c>
       <c r="E5" s="7">
+        <v>46.5</v>
+      </c>
+      <c r="F5" s="7">
+        <v>46.5</v>
+      </c>
+      <c r="G5" s="7">
+        <v>46.5</v>
+      </c>
+      <c r="H5" s="7">
+        <v>46.5</v>
+      </c>
+      <c r="I5" s="7">
+        <v>46.5</v>
+      </c>
+      <c r="J5" s="7">
+        <v>46.5</v>
+      </c>
+      <c r="K5" s="7">
+        <v>46.5</v>
+      </c>
+      <c r="L5" s="7">
+        <v>46.5</v>
+      </c>
+      <c r="M5" s="7">
+        <v>46.5</v>
+      </c>
+      <c r="N5" s="7">
+        <v>46.5</v>
+      </c>
+      <c r="O5" s="7">
+        <v>46.5</v>
+      </c>
+      <c r="P5" s="7">
+        <v>46.5</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>46.5</v>
+      </c>
+      <c r="R5" s="7">
+        <v>46.5</v>
+      </c>
+      <c r="S5" s="7">
+        <v>42.477210131935919</v>
+      </c>
+      <c r="T5" s="7">
+        <v>46.5</v>
+      </c>
+      <c r="U5" s="7">
+        <v>46.5</v>
+      </c>
+      <c r="V5" s="7">
+        <v>46.5</v>
+      </c>
+      <c r="W5" s="7">
+        <v>46.5</v>
+      </c>
+      <c r="X5" s="7">
+        <v>46.5</v>
+      </c>
+      <c r="Y5" s="7">
         <v>7</v>
       </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1.3145040611561853E-13</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7">
-        <v>0</v>
-      </c>
-      <c r="S5" s="7">
-        <v>0</v>
-      </c>
-      <c r="T5" s="7">
-        <v>0</v>
-      </c>
-      <c r="U5" s="7">
-        <v>0</v>
-      </c>
-      <c r="V5" s="7">
-        <v>0</v>
-      </c>
-      <c r="W5" s="7">
-        <v>0</v>
-      </c>
-      <c r="X5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="7">
-        <v>0</v>
-      </c>
       <c r="Z5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="AA5" s="8">
-        <v>0</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.35">
@@ -976,82 +976,82 @@
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>119.84999999999815</v>
+        <v>0</v>
       </c>
       <c r="C6" s="7">
-        <v>100.32499999999959</v>
+        <v>212</v>
       </c>
       <c r="D6" s="7">
-        <v>65.984274999999343</v>
+        <v>212</v>
       </c>
       <c r="E6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="F6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="G6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="J6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="K6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="L6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="O6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="P6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="Q6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="R6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="S6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="T6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="U6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="V6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="W6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="X6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="Y6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="Z6" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="AA6" s="8">
-        <v>0</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
@@ -1059,82 +1059,82 @@
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>0</v>
+        <v>192.67035526309559</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="E7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="F7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="G7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="J7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="K7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="L7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="O7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="P7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="Q7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="R7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="S7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="T7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="U7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="V7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="W7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="X7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="Y7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="Z7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="AA7" s="8">
-        <v>0</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
@@ -1142,7 +1142,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1157,55 +1157,55 @@
         <v>0</v>
       </c>
       <c r="G8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="J8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="K8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="L8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="O8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="P8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="Q8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="R8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="S8" s="7">
         <v>0</v>
       </c>
       <c r="T8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="U8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="V8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="W8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="X8" s="7">
         <v>0</v>
@@ -1225,82 +1225,82 @@
         <v>7</v>
       </c>
       <c r="B9" s="6">
-        <v>84.6</v>
+        <v>0</v>
       </c>
       <c r="C9" s="7">
-        <v>84.6</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
         <v>84.6</v>
       </c>
       <c r="E9" s="7">
-        <v>84.429483474999074</v>
+        <v>84.6</v>
       </c>
       <c r="F9" s="7">
-        <v>82.462298826273468</v>
+        <v>84.6</v>
       </c>
       <c r="G9" s="7">
-        <v>83.684409515709945</v>
+        <v>84.6</v>
       </c>
       <c r="H9" s="7">
-        <v>77.807751388771521</v>
+        <v>84.6</v>
       </c>
       <c r="I9" s="7">
-        <v>81.703346874163003</v>
+        <v>84.6</v>
       </c>
       <c r="J9" s="7">
-        <v>81.365006141633444</v>
+        <v>84.6</v>
       </c>
       <c r="K9" s="7">
-        <v>80.500109638994331</v>
+        <v>84.6</v>
       </c>
       <c r="L9" s="7">
-        <v>77.694560625744884</v>
+        <v>84.6</v>
       </c>
       <c r="M9" s="7">
-        <v>80.088761671376218</v>
+        <v>84.6</v>
       </c>
       <c r="N9" s="7">
-        <v>77.684510526418194</v>
+        <v>84.6</v>
       </c>
       <c r="O9" s="7">
-        <v>80.483621121155807</v>
+        <v>84.6</v>
       </c>
       <c r="P9" s="7">
-        <v>78.487923711246253</v>
+        <v>84.6</v>
       </c>
       <c r="Q9" s="7">
-        <v>81.699265024647161</v>
+        <v>84.6</v>
       </c>
       <c r="R9" s="7">
-        <v>80.183102799596782</v>
+        <v>84.6</v>
       </c>
       <c r="S9" s="7">
-        <v>83.750533985557126</v>
+        <v>84.6</v>
       </c>
       <c r="T9" s="7">
-        <v>77.59423879142696</v>
+        <v>84.6</v>
       </c>
       <c r="U9" s="7">
-        <v>81.65253694054968</v>
+        <v>84.6</v>
       </c>
       <c r="V9" s="7">
-        <v>70.927359773014132</v>
+        <v>84.6</v>
       </c>
       <c r="W9" s="7">
-        <v>80.420656010971015</v>
+        <v>84.6</v>
       </c>
       <c r="X9" s="7">
-        <v>76.382744354061288</v>
+        <v>84.6</v>
       </c>
       <c r="Y9" s="7">
-        <v>83.109389053225982</v>
+        <v>80.286696024931487</v>
       </c>
       <c r="Z9" s="7">
-        <v>20.526573554725474</v>
+        <v>84.6</v>
       </c>
       <c r="AA9" s="8">
-        <v>0</v>
+        <v>84.6</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.35">
@@ -1308,7 +1308,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1320,64 +1320,64 @@
         <v>0</v>
       </c>
       <c r="F10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="J10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="K10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="L10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="O10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="P10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="Q10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="R10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="S10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="T10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="U10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="V10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="W10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="X10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="Y10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="Z10" s="7">
         <v>0</v>
@@ -1394,79 +1394,79 @@
         <v>0</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="F11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="G11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="J11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="K11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="L11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="O11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="P11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="Q11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="R11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="S11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="T11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="U11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="V11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="W11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="X11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="Y11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="Z11" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="AA11" s="8">
-        <v>0</v>
+        <v>650</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.35">
@@ -1474,82 +1474,82 @@
         <v>10</v>
       </c>
       <c r="B12" s="6">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="E12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="F12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="G12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="J12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="K12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="L12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="O12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="P12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="Q12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="R12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="S12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="T12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="U12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="V12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="W12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="X12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="Y12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="Z12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="AA12" s="8">
-        <v>0</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
@@ -1557,10 +1557,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="6">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="D13" s="7">
         <v>0</v>
@@ -1572,55 +1572,55 @@
         <v>0</v>
       </c>
       <c r="G13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="J13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="K13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="L13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="O13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="P13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="Q13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="R13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="S13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="T13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="U13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="V13" s="7">
-        <v>0</v>
+        <v>90.066924690421729</v>
       </c>
       <c r="W13" s="7">
-        <v>0</v>
+        <v>44.932226380951619</v>
       </c>
       <c r="X13" s="7">
         <v>0</v>
@@ -1640,79 +1640,79 @@
         <v>12</v>
       </c>
       <c r="B14" s="6">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>85.515108379504568</v>
       </c>
       <c r="E14" s="7">
         <v>0</v>
       </c>
       <c r="F14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="K14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="O14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="P14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="Q14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="R14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="S14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="T14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="U14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="V14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="W14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="X14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="Y14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="Z14" s="7">
-        <v>0</v>
+        <v>132.96125884377807</v>
       </c>
       <c r="AA14" s="8">
         <v>0</v>
@@ -1723,19 +1723,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="6">
-        <v>0</v>
+        <v>1848</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
+        <v>1848</v>
       </c>
       <c r="D15" s="7">
-        <v>0</v>
+        <v>1848</v>
       </c>
       <c r="E15" s="7">
-        <v>0</v>
+        <v>1254.6797472637372</v>
       </c>
       <c r="F15" s="7">
-        <v>0</v>
+        <v>607.8377094854726</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="6">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -1815,73 +1815,73 @@
         <v>0</v>
       </c>
       <c r="E16" s="7">
-        <v>0</v>
+        <v>604.92635573625898</v>
       </c>
       <c r="F16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="G16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="J16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="K16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="L16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="O16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="P16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="Q16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="R16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="S16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="T16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="U16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="V16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="W16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="X16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="Y16" s="7">
-        <v>0</v>
+        <v>654.92269302831357</v>
       </c>
       <c r="Z16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="AA16" s="8">
-        <v>0</v>
+        <v>651.55241017337175</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.35">
@@ -1889,7 +1889,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="6">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -1901,58 +1901,58 @@
         <v>0</v>
       </c>
       <c r="F17" s="7">
-        <v>0</v>
+        <v>24.084748441522727</v>
       </c>
       <c r="G17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="J17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="K17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="L17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="O17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="P17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="Q17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="R17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="S17" s="7">
-        <v>0</v>
+        <v>28.366370434874398</v>
       </c>
       <c r="T17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="U17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="V17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="W17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="X17" s="7">
         <v>0</v>
@@ -1972,82 +1972,82 @@
         <v>16</v>
       </c>
       <c r="B18" s="6">
-        <v>1.5916157281026244E-12</v>
+        <v>67</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D18" s="7">
         <v>0</v>
       </c>
       <c r="E18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="F18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="L18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="O18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="P18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="Q18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="R18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="S18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="T18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="U18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="V18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="W18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="X18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="Y18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="Z18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="AA18" s="8">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.35">
@@ -2055,22 +2055,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="6">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="E19" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="F19" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="G19" s="7">
-        <v>0</v>
+        <v>152.50208167088411</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2106,28 +2106,28 @@
         <v>0</v>
       </c>
       <c r="S19" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="T19" s="7">
-        <v>0</v>
+        <v>243.3262774589235</v>
       </c>
       <c r="U19" s="7">
-        <v>0</v>
+        <v>128.51664800577814</v>
       </c>
       <c r="V19" s="7">
-        <v>0</v>
+        <v>135.00956691885131</v>
       </c>
       <c r="W19" s="7">
-        <v>0</v>
+        <v>55.508253652803575</v>
       </c>
       <c r="X19" s="7">
-        <v>0</v>
+        <v>79.064458690961544</v>
       </c>
       <c r="Y19" s="7">
         <v>0</v>
       </c>
       <c r="Z19" s="7">
-        <v>0</v>
+        <v>65.354925502311204</v>
       </c>
       <c r="AA19" s="8">
         <v>0</v>
@@ -2138,55 +2138,55 @@
         <v>18</v>
       </c>
       <c r="B20" s="6">
-        <v>0</v>
+        <v>2269.6</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>2269.6</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>2269.6</v>
       </c>
       <c r="E20" s="7">
-        <v>0</v>
+        <v>2269.6</v>
       </c>
       <c r="F20" s="7">
-        <v>0</v>
+        <v>2269.6</v>
       </c>
       <c r="G20" s="7">
-        <v>0</v>
+        <v>2269.6</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>2237.1019054333428</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>1978.7119199863289</v>
       </c>
       <c r="J20" s="7">
-        <v>0</v>
+        <v>1760.4574188049367</v>
       </c>
       <c r="K20" s="7">
-        <v>0</v>
+        <v>1470.9206422412312</v>
       </c>
       <c r="L20" s="7">
-        <v>0</v>
+        <v>1326.3158997381524</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>1106.2893585003312</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>918.10659431102886</v>
       </c>
       <c r="O20" s="7">
-        <v>0</v>
+        <v>759.96465115096225</v>
       </c>
       <c r="P20" s="7">
-        <v>0</v>
+        <v>630.15706173928538</v>
       </c>
       <c r="Q20" s="7">
-        <v>0</v>
+        <v>417.89810641946548</v>
       </c>
       <c r="R20" s="7">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="S20" s="7">
         <v>0</v>
@@ -2221,7 +2221,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6">
-        <v>0</v>
+        <v>15.829644736904577</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="6">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -2316,70 +2316,70 @@
         <v>0</v>
       </c>
       <c r="F22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="G22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="J22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="K22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="L22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="O22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="P22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="Q22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="R22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="S22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="T22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="U22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="V22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="W22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="X22" s="7">
-        <v>0</v>
+        <v>397.51828566309774</v>
       </c>
       <c r="Y22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="Z22" s="7">
-        <v>0</v>
+        <v>220.4103892086342</v>
       </c>
       <c r="AA22" s="8">
-        <v>0</v>
+        <v>301.38810254334294</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.35">
@@ -2387,82 +2387,82 @@
         <v>21</v>
       </c>
       <c r="B23" s="6">
+        <v>0</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7">
+        <v>28.099999999999994</v>
+      </c>
+      <c r="E23" s="7">
+        <v>28.099999999999994</v>
+      </c>
+      <c r="F23" s="7">
+        <v>28.099999999999994</v>
+      </c>
+      <c r="G23" s="7">
         <v>28.100000000000009</v>
       </c>
-      <c r="C23" s="7">
+      <c r="H23" s="7">
         <v>28.100000000000009</v>
       </c>
-      <c r="D23" s="7">
-        <v>28.1</v>
-      </c>
-      <c r="E23" s="7">
-        <v>28.1</v>
-      </c>
-      <c r="F23" s="7">
-        <v>28.1</v>
-      </c>
-      <c r="G23" s="7">
-        <v>28.1</v>
-      </c>
-      <c r="H23" s="7">
-        <v>28.1</v>
-      </c>
       <c r="I23" s="7">
-        <v>28.1</v>
+        <v>28.100000000000009</v>
       </c>
       <c r="J23" s="7">
-        <v>28.099999999999994</v>
+        <v>28.100000000000009</v>
       </c>
       <c r="K23" s="7">
         <v>28.099999999999994</v>
       </c>
       <c r="L23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.099999999999994</v>
       </c>
       <c r="M23" s="7">
         <v>28.100000000000009</v>
       </c>
       <c r="N23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.1</v>
       </c>
       <c r="O23" s="7">
         <v>28.099999999999994</v>
       </c>
       <c r="P23" s="7">
-        <v>28.099999999999994</v>
+        <v>28.1</v>
       </c>
       <c r="Q23" s="7">
         <v>28.100000000000009</v>
       </c>
       <c r="R23" s="7">
+        <v>28.1</v>
+      </c>
+      <c r="S23" s="7">
+        <v>28.1</v>
+      </c>
+      <c r="T23" s="7">
+        <v>28.1</v>
+      </c>
+      <c r="U23" s="7">
         <v>28.100000000000009</v>
-      </c>
-      <c r="S23" s="7">
-        <v>28.100000000000009</v>
-      </c>
-      <c r="T23" s="7">
-        <v>28.099999999999994</v>
-      </c>
-      <c r="U23" s="7">
-        <v>28.099999999999994</v>
       </c>
       <c r="V23" s="7">
         <v>28.100000000000009</v>
       </c>
       <c r="W23" s="7">
+        <v>28.099999999999994</v>
+      </c>
+      <c r="X23" s="7">
+        <v>28.1</v>
+      </c>
+      <c r="Y23" s="7">
+        <v>28.1</v>
+      </c>
+      <c r="Z23" s="7">
+        <v>28.099999999999994</v>
+      </c>
+      <c r="AA23" s="8">
         <v>28.100000000000009</v>
-      </c>
-      <c r="X23" s="7">
-        <v>28.100000000000009</v>
-      </c>
-      <c r="Y23" s="7">
-        <v>28.100000000000009</v>
-      </c>
-      <c r="Z23" s="7">
-        <v>28.100000000000009</v>
-      </c>
-      <c r="AA23" s="8">
-        <v>28.099999999999994</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.35">
@@ -2470,7 +2470,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="6">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C24" s="7">
         <v>25</v>
@@ -2553,7 +2553,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="6">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C25" s="7">
         <v>70</v>
@@ -2636,10 +2636,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="6">
-        <v>30.6</v>
+        <v>0</v>
       </c>
       <c r="C26" s="7">
-        <v>30.6</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
         <v>30.6</v>
@@ -2660,10 +2660,10 @@
         <v>30.6</v>
       </c>
       <c r="J26" s="7">
-        <v>30.6</v>
+        <v>30.599999999999998</v>
       </c>
       <c r="K26" s="7">
-        <v>30.6</v>
+        <v>30.599999999999998</v>
       </c>
       <c r="L26" s="7">
         <v>30.6</v>
@@ -2678,10 +2678,10 @@
         <v>30.6</v>
       </c>
       <c r="P26" s="7">
-        <v>30.6</v>
+        <v>30.599999999999998</v>
       </c>
       <c r="Q26" s="7">
-        <v>30.6</v>
+        <v>30.599999999999998</v>
       </c>
       <c r="R26" s="7">
         <v>30.6</v>
@@ -2711,7 +2711,7 @@
         <v>30.6</v>
       </c>
       <c r="AA26" s="8">
-        <v>30.599999999999998</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.35">
@@ -2719,10 +2719,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C27" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D27" s="7">
         <v>10</v>
@@ -2740,52 +2740,52 @@
         <v>10</v>
       </c>
       <c r="I27" s="7">
+        <v>10</v>
+      </c>
+      <c r="J27" s="7">
+        <v>10</v>
+      </c>
+      <c r="K27" s="7">
+        <v>10</v>
+      </c>
+      <c r="L27" s="7">
+        <v>10</v>
+      </c>
+      <c r="M27" s="7">
+        <v>10</v>
+      </c>
+      <c r="N27" s="7">
+        <v>10</v>
+      </c>
+      <c r="O27" s="7">
+        <v>10</v>
+      </c>
+      <c r="P27" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>10</v>
+      </c>
+      <c r="R27" s="7">
+        <v>10</v>
+      </c>
+      <c r="S27" s="7">
+        <v>10</v>
+      </c>
+      <c r="T27" s="7">
+        <v>10</v>
+      </c>
+      <c r="U27" s="7">
+        <v>10</v>
+      </c>
+      <c r="V27" s="7">
+        <v>10</v>
+      </c>
+      <c r="W27" s="7">
+        <v>10</v>
+      </c>
+      <c r="X27" s="7">
         <v>9.9999999999999929</v>
-      </c>
-      <c r="J27" s="7">
-        <v>10</v>
-      </c>
-      <c r="K27" s="7">
-        <v>10</v>
-      </c>
-      <c r="L27" s="7">
-        <v>10</v>
-      </c>
-      <c r="M27" s="7">
-        <v>10</v>
-      </c>
-      <c r="N27" s="7">
-        <v>10</v>
-      </c>
-      <c r="O27" s="7">
-        <v>10</v>
-      </c>
-      <c r="P27" s="7">
-        <v>10</v>
-      </c>
-      <c r="Q27" s="7">
-        <v>10</v>
-      </c>
-      <c r="R27" s="7">
-        <v>10</v>
-      </c>
-      <c r="S27" s="7">
-        <v>10</v>
-      </c>
-      <c r="T27" s="7">
-        <v>10</v>
-      </c>
-      <c r="U27" s="7">
-        <v>10</v>
-      </c>
-      <c r="V27" s="7">
-        <v>10</v>
-      </c>
-      <c r="W27" s="7">
-        <v>10</v>
-      </c>
-      <c r="X27" s="7">
-        <v>10</v>
       </c>
       <c r="Y27" s="7">
         <v>10</v>
@@ -2802,10 +2802,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C28" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
         <v>10</v>
@@ -2829,10 +2829,10 @@
         <v>10</v>
       </c>
       <c r="K28" s="7">
-        <v>10</v>
+        <v>9.9999999999999858</v>
       </c>
       <c r="L28" s="7">
-        <v>10</v>
+        <v>9.9999999999999858</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -2885,10 +2885,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C29" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D29" s="7">
         <v>10</v>
@@ -2900,46 +2900,46 @@
         <v>10</v>
       </c>
       <c r="G29" s="7">
+        <v>10</v>
+      </c>
+      <c r="H29" s="7">
+        <v>10</v>
+      </c>
+      <c r="I29" s="7">
+        <v>10</v>
+      </c>
+      <c r="J29" s="7">
+        <v>10</v>
+      </c>
+      <c r="K29" s="7">
+        <v>10</v>
+      </c>
+      <c r="L29" s="7">
+        <v>10</v>
+      </c>
+      <c r="M29" s="7">
+        <v>10</v>
+      </c>
+      <c r="N29" s="7">
+        <v>10</v>
+      </c>
+      <c r="O29" s="7">
+        <v>10</v>
+      </c>
+      <c r="P29" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>10</v>
+      </c>
+      <c r="R29" s="7">
         <v>9.9999999999999929</v>
       </c>
-      <c r="H29" s="7">
-        <v>10</v>
-      </c>
-      <c r="I29" s="7">
-        <v>10.000000000000014</v>
-      </c>
-      <c r="J29" s="7">
-        <v>10</v>
-      </c>
-      <c r="K29" s="7">
-        <v>9.9999999999999858</v>
-      </c>
-      <c r="L29" s="7">
-        <v>10</v>
-      </c>
-      <c r="M29" s="7">
-        <v>10</v>
-      </c>
-      <c r="N29" s="7">
-        <v>10</v>
-      </c>
-      <c r="O29" s="7">
-        <v>10</v>
-      </c>
-      <c r="P29" s="7">
-        <v>10</v>
-      </c>
-      <c r="Q29" s="7">
-        <v>10</v>
-      </c>
-      <c r="R29" s="7">
-        <v>10</v>
-      </c>
       <c r="S29" s="7">
         <v>10</v>
       </c>
       <c r="T29" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="U29" s="7">
         <v>10</v>
@@ -2968,31 +2968,31 @@
         <v>28</v>
       </c>
       <c r="B30" s="6">
+        <v>0</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
         <v>52.2</v>
       </c>
-      <c r="C30" s="7">
+      <c r="E30" s="7">
         <v>52.2</v>
       </c>
-      <c r="D30" s="7">
-        <v>52.20000000000001</v>
-      </c>
-      <c r="E30" s="7">
-        <v>52.200000000000017</v>
-      </c>
       <c r="F30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.2</v>
       </c>
       <c r="G30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.2</v>
       </c>
       <c r="H30" s="7">
-        <v>52.20000000000001</v>
+        <v>52.2</v>
       </c>
       <c r="I30" s="7">
         <v>52.2</v>
       </c>
       <c r="J30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.2</v>
       </c>
       <c r="K30" s="7">
         <v>52.2</v>
@@ -3004,22 +3004,22 @@
         <v>52.2</v>
       </c>
       <c r="N30" s="7">
-        <v>52.2</v>
+        <v>52.20000000000001</v>
       </c>
       <c r="O30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="P30" s="7">
-        <v>52.2</v>
+        <v>52.20000000000001</v>
       </c>
       <c r="Q30" s="7">
         <v>52.2</v>
       </c>
       <c r="R30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="S30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="T30" s="7">
         <v>52.2</v>
@@ -3031,19 +3031,19 @@
         <v>52.2</v>
       </c>
       <c r="W30" s="7">
+        <v>52.200000000000017</v>
+      </c>
+      <c r="X30" s="7">
+        <v>52.200000000000017</v>
+      </c>
+      <c r="Y30" s="7">
+        <v>52.20000000000001</v>
+      </c>
+      <c r="Z30" s="7">
+        <v>52.200000000000017</v>
+      </c>
+      <c r="AA30" s="8">
         <v>52.2</v>
-      </c>
-      <c r="X30" s="7">
-        <v>52.2</v>
-      </c>
-      <c r="Y30" s="7">
-        <v>52.2</v>
-      </c>
-      <c r="Z30" s="7">
-        <v>52.2</v>
-      </c>
-      <c r="AA30" s="8">
-        <v>52.200000000000017</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.35">
@@ -3051,10 +3051,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C31" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7">
         <v>10</v>
@@ -3102,10 +3102,10 @@
         <v>10</v>
       </c>
       <c r="S31" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="T31" s="7">
-        <v>10</v>
+        <v>10.000000000000014</v>
       </c>
       <c r="U31" s="7">
         <v>10</v>
@@ -3134,73 +3134,73 @@
         <v>30</v>
       </c>
       <c r="B32" s="6">
-        <v>20.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="C32" s="7">
-        <v>20.199999999999996</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
         <v>20.200000000000003</v>
       </c>
       <c r="E32" s="7">
-        <v>20.199999999999996</v>
+        <v>20.2</v>
       </c>
       <c r="F32" s="7">
-        <v>20.199999999999996</v>
+        <v>20.200000000000003</v>
       </c>
       <c r="G32" s="7">
-        <v>20.199999999999996</v>
+        <v>20.200000000000003</v>
       </c>
       <c r="H32" s="7">
         <v>20.199999999999996</v>
       </c>
       <c r="I32" s="7">
-        <v>20.199999999999996</v>
+        <v>20.2</v>
       </c>
       <c r="J32" s="7">
-        <v>20.199999999999996</v>
+        <v>20.2</v>
       </c>
       <c r="K32" s="7">
         <v>20.2</v>
       </c>
       <c r="L32" s="7">
-        <v>20.200000000000003</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="M32" s="7">
         <v>20.199999999999996</v>
       </c>
       <c r="N32" s="7">
-        <v>20.199999999999996</v>
+        <v>20.200000000000003</v>
       </c>
       <c r="O32" s="7">
+        <v>20.200000000000003</v>
+      </c>
+      <c r="P32" s="7">
         <v>20.2</v>
       </c>
-      <c r="P32" s="7">
+      <c r="Q32" s="7">
+        <v>20.2</v>
+      </c>
+      <c r="R32" s="7">
+        <v>20.2</v>
+      </c>
+      <c r="S32" s="7">
+        <v>20.2</v>
+      </c>
+      <c r="T32" s="7">
         <v>20.200000000000003</v>
-      </c>
-      <c r="Q32" s="7">
-        <v>20.200000000000003</v>
-      </c>
-      <c r="R32" s="7">
-        <v>20.199999999999996</v>
-      </c>
-      <c r="S32" s="7">
-        <v>20.199999999999996</v>
-      </c>
-      <c r="T32" s="7">
-        <v>20.2</v>
       </c>
       <c r="U32" s="7">
         <v>20.200000000000003</v>
       </c>
       <c r="V32" s="7">
-        <v>20.200000000000003</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="W32" s="7">
-        <v>20.199999999999996</v>
+        <v>20.2</v>
       </c>
       <c r="X32" s="7">
-        <v>20.199999999999996</v>
+        <v>20.2</v>
       </c>
       <c r="Y32" s="7">
         <v>20.199999999999996</v>
@@ -3209,7 +3209,7 @@
         <v>20.200000000000003</v>
       </c>
       <c r="AA32" s="8">
-        <v>20.2</v>
+        <v>20.200000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.35">
@@ -3217,10 +3217,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="6">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C33" s="7">
-        <v>70</v>
+        <v>30.932647655250321</v>
       </c>
       <c r="D33" s="7">
         <v>70</v>
@@ -3300,19 +3300,19 @@
         <v>32</v>
       </c>
       <c r="B34" s="6">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="C34" s="7">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="D34" s="7">
-        <v>10.5</v>
+        <v>10.499999999999986</v>
       </c>
       <c r="E34" s="7">
-        <v>10.5</v>
+        <v>10.499999999999986</v>
       </c>
       <c r="F34" s="7">
-        <v>10.5</v>
+        <v>10.499999999999986</v>
       </c>
       <c r="G34" s="7">
         <v>10.5</v>
@@ -3339,10 +3339,10 @@
         <v>10.5</v>
       </c>
       <c r="O34" s="7">
-        <v>10.499999999999986</v>
+        <v>10.5</v>
       </c>
       <c r="P34" s="7">
-        <v>10.499999999999986</v>
+        <v>10.5</v>
       </c>
       <c r="Q34" s="7">
         <v>10.5</v>
@@ -3354,10 +3354,10 @@
         <v>10.5</v>
       </c>
       <c r="T34" s="7">
-        <v>10.499999999999986</v>
+        <v>10.5</v>
       </c>
       <c r="U34" s="7">
-        <v>10.499999999999986</v>
+        <v>10.5</v>
       </c>
       <c r="V34" s="7">
         <v>10.5</v>
@@ -3383,10 +3383,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C35" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D35" s="7">
         <v>10</v>
@@ -3466,7 +3466,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C36" s="7">
         <v>10</v>
@@ -3535,7 +3535,7 @@
         <v>10</v>
       </c>
       <c r="Y36" s="7">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
       <c r="Z36" s="7">
         <v>10</v>
@@ -3549,7 +3549,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C37" s="7">
         <v>10</v>
@@ -3618,7 +3618,7 @@
         <v>10</v>
       </c>
       <c r="Y37" s="7">
-        <v>10.000000000000002</v>
+        <v>10</v>
       </c>
       <c r="Z37" s="7">
         <v>10</v>
@@ -3632,7 +3632,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C38" s="7">
         <v>10</v>
@@ -3715,22 +3715,22 @@
         <v>37</v>
       </c>
       <c r="B39" s="6">
-        <v>10.099999999999994</v>
+        <v>0</v>
       </c>
       <c r="C39" s="7">
-        <v>10.099999999999994</v>
+        <v>0</v>
       </c>
       <c r="D39" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="E39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="F39" s="7">
         <v>10.099999999999994</v>
       </c>
       <c r="G39" s="7">
-        <v>10.1</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="H39" s="7">
         <v>10.099999999999994</v>
@@ -3742,7 +3742,7 @@
         <v>10.099999999999994</v>
       </c>
       <c r="K39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.1</v>
       </c>
       <c r="L39" s="7">
         <v>10.099999999999994</v>
@@ -3751,16 +3751,16 @@
         <v>10.099999999999994</v>
       </c>
       <c r="N39" s="7">
-        <v>10.1</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="O39" s="7">
-        <v>10.100000000000001</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="P39" s="7">
         <v>10.099999999999994</v>
       </c>
       <c r="Q39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="R39" s="7">
         <v>10.099999999999994</v>
@@ -3769,22 +3769,22 @@
         <v>10.099999999999994</v>
       </c>
       <c r="T39" s="7">
-        <v>10.100000000000001</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="U39" s="7">
         <v>10.099999999999994</v>
       </c>
       <c r="V39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="W39" s="7">
         <v>10.099999999999994</v>
       </c>
       <c r="X39" s="7">
-        <v>10.1</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="Y39" s="7">
-        <v>10.1</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="Z39" s="7">
         <v>10.099999999999994</v>
@@ -3798,34 +3798,34 @@
         <v>38</v>
       </c>
       <c r="B40" s="6">
-        <v>10.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="C40" s="7">
-        <v>10.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="D40" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="E40" s="7">
-        <v>10.100000000000001</v>
+        <v>10.099999999999998</v>
       </c>
       <c r="F40" s="7">
-        <v>10.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="G40" s="7">
-        <v>10.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="H40" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="I40" s="7">
-        <v>10.100000000000001</v>
+        <v>10.099999999999998</v>
       </c>
       <c r="J40" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="K40" s="7">
-        <v>10.099999999999998</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="L40" s="7">
         <v>10.1</v>
@@ -3837,40 +3837,40 @@
         <v>10.1</v>
       </c>
       <c r="O40" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="P40" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="Q40" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="R40" s="7">
         <v>10.099999999999998</v>
       </c>
-      <c r="P40" s="7">
+      <c r="S40" s="7">
+        <v>10.099999999999998</v>
+      </c>
+      <c r="T40" s="7">
         <v>10.1</v>
       </c>
-      <c r="Q40" s="7">
+      <c r="U40" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="V40" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="W40" s="7">
+        <v>10.099999999999998</v>
+      </c>
+      <c r="X40" s="7">
+        <v>10.099999999999998</v>
+      </c>
+      <c r="Y40" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="Z40" s="7">
         <v>10.1</v>
-      </c>
-      <c r="R40" s="7">
-        <v>10.100000000000001</v>
-      </c>
-      <c r="S40" s="7">
-        <v>10.100000000000001</v>
-      </c>
-      <c r="T40" s="7">
-        <v>10.099999999999998</v>
-      </c>
-      <c r="U40" s="7">
-        <v>10.1</v>
-      </c>
-      <c r="V40" s="7">
-        <v>10.1</v>
-      </c>
-      <c r="W40" s="7">
-        <v>10.100000000000001</v>
-      </c>
-      <c r="X40" s="7">
-        <v>10.1</v>
-      </c>
-      <c r="Y40" s="7">
-        <v>10.1</v>
-      </c>
-      <c r="Z40" s="7">
-        <v>10.100000000000001</v>
       </c>
       <c r="AA40" s="8">
         <v>10.100000000000001</v>
@@ -3881,10 +3881,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C41" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D41" s="7">
         <v>10</v>
@@ -3964,19 +3964,19 @@
         <v>40</v>
       </c>
       <c r="B42" s="6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C42" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D42" s="7">
         <v>12</v>
       </c>
       <c r="E42" s="7">
-        <v>11.999999999999993</v>
+        <v>12</v>
       </c>
       <c r="F42" s="7">
-        <v>11.999999999999993</v>
+        <v>12</v>
       </c>
       <c r="G42" s="7">
         <v>12</v>
@@ -4047,82 +4047,82 @@
         <v>41</v>
       </c>
       <c r="B43" s="6">
-        <v>5996.7499999999991</v>
+        <v>0</v>
       </c>
       <c r="C43" s="7">
-        <v>5999.2749999999978</v>
+        <v>0</v>
       </c>
       <c r="D43" s="7">
-        <v>5987.1827249999988</v>
+        <v>0</v>
       </c>
       <c r="E43" s="7">
-        <v>5950.4766195249977</v>
+        <v>0</v>
       </c>
       <c r="F43" s="7">
-        <v>5964.160159100722</v>
+        <v>0</v>
       </c>
       <c r="G43" s="7">
-        <v>5988.2368505326276</v>
+        <v>0</v>
       </c>
       <c r="H43" s="7">
-        <v>6000.0000000000018</v>
+        <v>350</v>
       </c>
       <c r="I43" s="7">
-        <v>6032.5838742771075</v>
+        <v>650</v>
       </c>
       <c r="J43" s="7">
-        <v>6049.9999999999973</v>
+        <v>950</v>
       </c>
       <c r="K43" s="7">
-        <v>6078.5463815579114</v>
+        <v>1200</v>
       </c>
       <c r="L43" s="7">
-        <v>6099.642548991932</v>
+        <v>1500</v>
       </c>
       <c r="M43" s="7">
-        <v>6126.1535819328583</v>
+        <v>1750</v>
       </c>
       <c r="N43" s="7">
-        <v>6148.0832141702531</v>
+        <v>2000</v>
       </c>
       <c r="O43" s="7">
-        <v>6175.4352130977859</v>
+        <v>2250</v>
       </c>
       <c r="P43" s="7">
-        <v>6198.2133800156662</v>
+        <v>2500</v>
       </c>
       <c r="Q43" s="7">
-        <v>6226.4215504358053</v>
+        <v>2700</v>
       </c>
       <c r="R43" s="7">
-        <v>6249.9999999999991</v>
+        <v>2950</v>
       </c>
       <c r="S43" s="7">
-        <v>6279.1434167392345</v>
+        <v>3200</v>
       </c>
       <c r="T43" s="7">
-        <v>6298.6649574898875</v>
+        <v>3450</v>
       </c>
       <c r="U43" s="7">
-        <v>6328.6321921072949</v>
+        <v>3650</v>
       </c>
       <c r="V43" s="7">
-        <v>6344.049131836261</v>
+        <v>3900</v>
       </c>
       <c r="W43" s="7">
-        <v>6379.9198240227852</v>
+        <v>4100</v>
       </c>
       <c r="X43" s="7">
-        <v>6400</v>
+        <v>4350</v>
       </c>
       <c r="Y43" s="7">
-        <v>6400.0000000000309</v>
+        <v>4550</v>
       </c>
       <c r="Z43" s="7">
-        <v>6400</v>
+        <v>4800</v>
       </c>
       <c r="AA43" s="8">
-        <v>6399.9999999999827</v>
+        <v>5000</v>
       </c>
       <c r="AB43" t="s">
         <v>15</v>
@@ -4133,82 +4133,82 @@
         <v>42</v>
       </c>
       <c r="B44" s="6">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="C44" s="7">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="D44" s="7">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="E44" s="7">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="F44" s="7">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="G44" s="7">
-        <v>820</v>
+        <v>0</v>
       </c>
       <c r="H44" s="7">
-        <v>880</v>
+        <v>0</v>
       </c>
       <c r="I44" s="7">
-        <v>910</v>
+        <v>0</v>
       </c>
       <c r="J44" s="7">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="K44" s="7">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L44" s="7">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="M44" s="7">
-        <v>1090</v>
+        <v>0</v>
       </c>
       <c r="N44" s="7">
-        <v>1140</v>
+        <v>0</v>
       </c>
       <c r="O44" s="7">
-        <v>1180</v>
+        <v>0</v>
       </c>
       <c r="P44" s="7">
-        <v>1230</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="7">
-        <v>1270</v>
+        <v>0</v>
       </c>
       <c r="R44" s="7">
-        <v>1320</v>
+        <v>0</v>
       </c>
       <c r="S44" s="7">
-        <v>1360</v>
+        <v>0</v>
       </c>
       <c r="T44" s="7">
-        <v>1420</v>
+        <v>0</v>
       </c>
       <c r="U44" s="7">
-        <v>1460</v>
+        <v>0</v>
       </c>
       <c r="V44" s="7">
-        <v>1530</v>
+        <v>0</v>
       </c>
       <c r="W44" s="7">
-        <v>1560</v>
+        <v>0</v>
       </c>
       <c r="X44" s="7">
-        <v>1620</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="7">
-        <v>1689.9999999999902</v>
+        <v>0</v>
       </c>
       <c r="Z44" s="7">
-        <v>1830</v>
+        <v>0</v>
       </c>
       <c r="AA44" s="8">
-        <v>1928.6405127167338</v>
+        <v>0</v>
       </c>
       <c r="AB44" t="s">
         <v>16</v>
@@ -7984,82 +7984,82 @@
         <v>1</v>
       </c>
       <c r="B95" s="3">
-        <v>-1100.0000000000007</v>
+        <v>134.59011842103195</v>
       </c>
       <c r="C95" s="4">
-        <v>-1100</v>
+        <v>321.81666666666609</v>
       </c>
       <c r="D95" s="4">
-        <v>-1100</v>
+        <v>389.57841108032937</v>
       </c>
       <c r="E95" s="4">
-        <v>-1100</v>
+        <v>445.3803443500006</v>
       </c>
       <c r="F95" s="4">
-        <v>-1100</v>
+        <v>630.82005026299237</v>
       </c>
       <c r="G95" s="4">
-        <v>-1100</v>
+        <v>988.85720646479035</v>
       </c>
       <c r="H95" s="4">
-        <v>-1098.1931785417196</v>
+        <v>846.83951964716641</v>
       </c>
       <c r="I95" s="4">
-        <v>-1100</v>
+        <v>762.8852761892947</v>
       </c>
       <c r="J95" s="4">
-        <v>-1098.0924139029312</v>
+        <v>665.82177982875544</v>
       </c>
       <c r="K95" s="4">
-        <v>-1100</v>
+        <v>626.12404029153049</v>
       </c>
       <c r="L95" s="4">
-        <v>-1100</v>
+        <v>505.05639941523714</v>
       </c>
       <c r="M95" s="4">
-        <v>-1100</v>
+        <v>442.73926845512881</v>
       </c>
       <c r="N95" s="4">
-        <v>-1100</v>
+        <v>370.08661134315946</v>
       </c>
       <c r="O95" s="4">
-        <v>-1100</v>
+        <v>287.70192501486963</v>
       </c>
       <c r="P95" s="4">
-        <v>-1100</v>
+        <v>196.15656609734845</v>
       </c>
       <c r="Q95" s="4">
-        <v>-1100</v>
+        <v>165.71499815071491</v>
       </c>
       <c r="R95" s="4">
-        <v>-1099.9576037401812</v>
+        <v>57.442396259817713</v>
       </c>
       <c r="S95" s="4">
-        <v>-1100</v>
+        <v>-41.526512318802133</v>
       </c>
       <c r="T95" s="4">
-        <v>-1100</v>
+        <v>-177.93212082638343</v>
       </c>
       <c r="U95" s="4">
-        <v>-1100</v>
+        <v>-239.68408793039612</v>
       </c>
       <c r="V95" s="4">
-        <v>-1100</v>
+        <v>-332.28171754239173</v>
       </c>
       <c r="W95" s="4">
-        <v>-1100</v>
+        <v>-375.11101945637859</v>
       </c>
       <c r="X95" s="4">
-        <v>-1099.1677650406721</v>
+        <v>-468.4286798253595</v>
       </c>
       <c r="Y95" s="4">
-        <v>-1087.9741082593891</v>
+        <v>-540.35590361158188</v>
       </c>
       <c r="Z95" s="4">
-        <v>-1099.8030419003735</v>
+        <v>-624.09898603320789</v>
       </c>
       <c r="AA95" s="5">
-        <v>-1097.5319401830441</v>
+        <v>-635.81607690750707</v>
       </c>
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.35">
@@ -8067,82 +8067,82 @@
         <v>2</v>
       </c>
       <c r="B96" s="6">
-        <v>1559.5499999999995</v>
+        <v>-371.30988157896832</v>
       </c>
       <c r="C96" s="7">
-        <v>1530.5749999999998</v>
+        <v>-221.68333333333345</v>
       </c>
       <c r="D96" s="7">
-        <v>1486.6992249999996</v>
+        <v>-241.3899805401652</v>
       </c>
       <c r="E96" s="7">
-        <v>1417.9235680249994</v>
+        <v>-291.56660415000079</v>
       </c>
       <c r="F96" s="7">
-        <v>1399.2489301372245</v>
+        <v>-584.15346921503317</v>
       </c>
       <c r="G96" s="7">
-        <v>1390.6762205084592</v>
+        <v>-712.60342355937803</v>
       </c>
       <c r="H96" s="7">
-        <v>1371.302945763895</v>
+        <v>-537.56435604721969</v>
       </c>
       <c r="I96" s="7">
-        <v>1368.8402637014724</v>
+        <v>-354.75833438633958</v>
       </c>
       <c r="J96" s="7">
-        <v>1354.6250830262511</v>
+        <v>-185.36072324206077</v>
       </c>
       <c r="K96" s="7">
-        <v>1347.4231359594585</v>
+        <v>-8.8992053069225676</v>
       </c>
       <c r="L96" s="7">
-        <v>1334.3739941830934</v>
+        <v>135.8878446063984</v>
       </c>
       <c r="M96" s="7">
-        <v>1326.4324101307411</v>
+        <v>289.11809665301087</v>
       </c>
       <c r="N96" s="7">
-        <v>1313.5993518219175</v>
+        <v>431.70274899482308</v>
       </c>
       <c r="O96" s="7">
-        <v>1305.8757959883146</v>
+        <v>564.2425079053985</v>
       </c>
       <c r="P96" s="7">
-        <v>1293.2627281522095</v>
+        <v>687.30591423389239</v>
       </c>
       <c r="Q96" s="7">
-        <v>1285.7611427055792</v>
+        <v>821.15459042048826</v>
       </c>
       <c r="R96" s="7">
-        <v>1273.3508448600198</v>
+        <v>926.85084486001972</v>
       </c>
       <c r="S96" s="7">
-        <v>1266.0964413768384</v>
+        <v>1041.5265123188021</v>
       </c>
       <c r="T96" s="7">
-        <v>1248.9353593492299</v>
+        <v>1118.4382810329596</v>
       </c>
       <c r="U96" s="7">
-        <v>1241.8898275833728</v>
+        <v>1219.6735475456815</v>
       </c>
       <c r="V96" s="7">
-        <v>1219.960886031623</v>
+        <v>1275.7969613433925</v>
       </c>
       <c r="W96" s="7">
-        <v>1218.1495840059074</v>
+        <v>1350.1509669076947</v>
       </c>
       <c r="X96" s="7">
-        <v>1201.0408627822962</v>
+        <v>1423.8799479976101</v>
       </c>
       <c r="Y96" s="7">
-        <v>1173.8711972140172</v>
+        <v>1512.4120948901086</v>
       </c>
       <c r="Z96" s="7">
-        <v>1123.3336713222634</v>
+        <v>1624.0989860332079</v>
       </c>
       <c r="AA96" s="8">
-        <v>1086.5478034585801</v>
+        <v>1635.8160769075071</v>
       </c>
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.35">
@@ -8150,82 +8150,82 @@
         <v>3</v>
       </c>
       <c r="B97" s="9">
-        <v>-459.54999999999882</v>
+        <v>236.71976315793634</v>
       </c>
       <c r="C97" s="10">
-        <v>-430.57499999999982</v>
+        <v>-100.13333333333259</v>
       </c>
       <c r="D97" s="10">
-        <v>-386.69922499999961</v>
+        <v>-148.18843054016418</v>
       </c>
       <c r="E97" s="10">
-        <v>-317.92356802499944</v>
+        <v>-153.81374019999981</v>
       </c>
       <c r="F97" s="10">
-        <v>-299.24893013722408</v>
+        <v>-46.666581047959198</v>
       </c>
       <c r="G97" s="10">
-        <v>-290.67622050845921</v>
+        <v>-276.25378290541232</v>
       </c>
       <c r="H97" s="10">
-        <v>-273.10976722217526</v>
+        <v>-309.27516359994678</v>
       </c>
       <c r="I97" s="10">
-        <v>-268.8402637014724</v>
+        <v>-408.12694180295512</v>
       </c>
       <c r="J97" s="10">
-        <v>-256.53266912331992</v>
+        <v>-480.46105658669467</v>
       </c>
       <c r="K97" s="10">
-        <v>-247.42313595945848</v>
+        <v>-617.22483498460792</v>
       </c>
       <c r="L97" s="10">
-        <v>-234.37399418309337</v>
+        <v>-640.94424402163554</v>
       </c>
       <c r="M97" s="10">
-        <v>-226.43241013074112</v>
+        <v>-731.85736510813967</v>
       </c>
       <c r="N97" s="10">
-        <v>-213.59935182191748</v>
+        <v>-801.78936033798254</v>
       </c>
       <c r="O97" s="10">
-        <v>-205.87579598831462</v>
+        <v>-851.94443292026813</v>
       </c>
       <c r="P97" s="10">
-        <v>-193.26272815220955</v>
+        <v>-883.46248033124084</v>
       </c>
       <c r="Q97" s="10">
-        <v>-185.76114270557923</v>
+        <v>-986.86958857120317</v>
       </c>
       <c r="R97" s="10">
-        <v>-173.39324111983865</v>
+        <v>-984.29324111983738</v>
       </c>
       <c r="S97" s="10">
-        <v>-166.09644137683836</v>
+        <v>-1000</v>
       </c>
       <c r="T97" s="10">
-        <v>-148.93535934922988</v>
+        <v>-940.50616020657617</v>
       </c>
       <c r="U97" s="10">
-        <v>-141.88982758337283</v>
+        <v>-979.98945961528545</v>
       </c>
       <c r="V97" s="10">
-        <v>-119.96088603162298</v>
+        <v>-943.51524380100068</v>
       </c>
       <c r="W97" s="10">
-        <v>-118.1495840059074</v>
+        <v>-975.03994745131627</v>
       </c>
       <c r="X97" s="10">
-        <v>-101.87309774162418</v>
+        <v>-955.45126817225048</v>
       </c>
       <c r="Y97" s="10">
-        <v>-85.897088954628202</v>
+        <v>-972.05619127852651</v>
       </c>
       <c r="Z97" s="10">
-        <v>-23.530629421889898</v>
+        <v>-1000</v>
       </c>
       <c r="AA97" s="11">
-        <v>10.984136724463951</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.35">
@@ -8575,86 +8575,86 @@
         <v>6</v>
       </c>
       <c r="B106" s="15">
-        <v>419066448.64103276</v>
+        <v>185343.29577303529</v>
       </c>
       <c r="C106" s="16">
-        <v>125273086.48681155</v>
+        <v>150354.42590554885</v>
       </c>
       <c r="D106" s="16">
-        <v>121082739.88063765</v>
+        <v>122850.988578766</v>
       </c>
       <c r="E106" s="16">
-        <v>120287243.3532899</v>
+        <v>115767.04458876402</v>
       </c>
       <c r="F106" s="16">
-        <v>101061042.67947546</v>
+        <v>110839.76863109926</v>
       </c>
       <c r="G106" s="16">
-        <v>91054722.542002589</v>
+        <v>107601.08884452145</v>
       </c>
       <c r="H106" s="16">
-        <v>85756835.58219102</v>
+        <v>11641550.231811121</v>
       </c>
       <c r="I106" s="16">
-        <v>77835636.33026889</v>
+        <v>12324968.133583765</v>
       </c>
       <c r="J106" s="16">
-        <v>72095477.491315469</v>
+        <v>13729770.539331574</v>
       </c>
       <c r="K106" s="16">
-        <v>66837002.123430684</v>
+        <v>13539056.792083366</v>
       </c>
       <c r="L106" s="16">
-        <v>61305279.967726842</v>
+        <v>15173431.935465464</v>
       </c>
       <c r="M106" s="16">
-        <v>56802866.981785446</v>
+        <v>14667613.021367956</v>
       </c>
       <c r="N106" s="16">
-        <v>52088861.87211591</v>
+        <v>14771698.232724916</v>
       </c>
       <c r="O106" s="16">
-        <v>48238464.927511126</v>
+        <v>14735518.731834156</v>
       </c>
       <c r="P106" s="16">
-        <v>44224961.578445897</v>
+        <v>14583734.508809622</v>
       </c>
       <c r="Q106" s="16">
-        <v>40935877.731673487</v>
+        <v>13638852.26087979</v>
       </c>
       <c r="R106" s="16">
-        <v>37521716.813343227</v>
+        <v>13819966.051143175</v>
       </c>
       <c r="S106" s="16">
-        <v>34715087.464546926</v>
+        <v>13455936.071670964</v>
       </c>
       <c r="T106" s="16">
-        <v>32145404.736540187</v>
+        <v>13043632.510209475</v>
       </c>
       <c r="U106" s="16">
-        <v>29485302.677763384</v>
+        <v>12117802.26314237</v>
       </c>
       <c r="V106" s="16">
-        <v>27563924.879889011</v>
+        <v>11986589.48512092</v>
       </c>
       <c r="W106" s="16">
-        <v>24829028.306883618</v>
+        <v>11111677.895684551</v>
       </c>
       <c r="X106" s="16">
-        <v>23150557.073793795</v>
+        <v>10903515.051872116</v>
       </c>
       <c r="Y106" s="16">
-        <v>21517631.109444827</v>
+        <v>10089854.202114003</v>
       </c>
       <c r="Z106" s="16">
-        <v>21155858.060010906</v>
+        <v>9835330.0367435943</v>
       </c>
       <c r="AA106" s="17">
-        <v>19062229.216091473</v>
+        <v>9087917.6781258415</v>
       </c>
       <c r="AB106" s="18">
         <f>SUM(TotalCost)</f>
-        <v>1855093288.5080221</v>
+        <v>255051172.24604046</v>
       </c>
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.35">
@@ -8922,86 +8922,86 @@
         <v>10</v>
       </c>
       <c r="B111" s="6">
-        <v>106950.48810000002</v>
+        <v>81864043753.466522</v>
       </c>
       <c r="C111" s="7">
-        <v>90435.657349999659</v>
+        <v>77448100759.699539</v>
       </c>
       <c r="D111" s="7">
-        <v>61389.24192324945</v>
+        <v>73270364329.279526</v>
       </c>
       <c r="E111" s="7">
-        <v>13084.016274990165</v>
+        <v>69317985028.483795</v>
       </c>
       <c r="F111" s="7">
-        <v>5436.8218239150356</v>
+        <v>65578806552.883316</v>
       </c>
       <c r="G111" s="7">
-        <v>5517.3968037802724</v>
+        <v>62041328338.285065</v>
       </c>
       <c r="H111" s="7">
-        <v>5129.9428568130952</v>
+        <v>58694670188.529953</v>
       </c>
       <c r="I111" s="7">
-        <v>5386.7833627604405</v>
+        <v>55528538811.352196</v>
       </c>
       <c r="J111" s="7">
-        <v>5364.476219924034</v>
+        <v>52533196159.37471</v>
       </c>
       <c r="K111" s="7">
-        <v>5307.4527286085349</v>
+        <v>49699429478.867256</v>
       </c>
       <c r="L111" s="7">
-        <v>5122.480076615986</v>
+        <v>47018522974.146408</v>
       </c>
       <c r="M111" s="7">
-        <v>5280.3321457556458</v>
+        <v>44482231000.465813</v>
       </c>
       <c r="N111" s="7">
-        <v>5121.8174635172782</v>
+        <v>42082752702.946281</v>
       </c>
       <c r="O111" s="7">
-        <v>5306.3656241389235</v>
+        <v>39812708023.54287</v>
       </c>
       <c r="P111" s="7">
-        <v>5174.7872982061763</v>
+        <v>37665115002.253708</v>
       </c>
       <c r="Q111" s="7">
-        <v>5386.5142423400121</v>
+        <v>35633368302.756134</v>
       </c>
       <c r="R111" s="7">
-        <v>5286.5521506802152</v>
+        <v>33711218896.421543</v>
       </c>
       <c r="S111" s="7">
-        <v>5521.7564562017669</v>
+        <v>31892754842.223217</v>
       </c>
       <c r="T111" s="7">
-        <v>5115.8657577575705</v>
+        <v>30172383103.422077</v>
       </c>
       <c r="U111" s="7">
-        <v>5383.433413027381</v>
+        <v>28544812345.104042</v>
       </c>
       <c r="V111" s="7">
-        <v>4676.311757194595</v>
+        <v>27005036659.659504</v>
       </c>
       <c r="W111" s="7">
-        <v>5302.2142714593301</v>
+        <v>25548320170.14949</v>
       </c>
       <c r="X111" s="7">
-        <v>5035.9907180076143</v>
+        <v>24170182464.20322</v>
       </c>
       <c r="Y111" s="7">
-        <v>5479.4851296682418</v>
+        <v>22866384813.646187</v>
       </c>
       <c r="Z111" s="7">
-        <v>1353.337521036605</v>
+        <v>21632917137.47456</v>
       </c>
       <c r="AA111" s="8">
-        <v>0</v>
+        <v>20320549313.578232</v>
       </c>
       <c r="AB111" s="13">
         <f t="shared" si="0"/>
-        <v>378549.52146964805</v>
+        <v>1158535721152.2151</v>
       </c>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.35">

--- a/717A11_output.xlsx
+++ b/717A11_output.xlsx
@@ -622,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105:XFD105"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC61" sqref="AC61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/717A11_output.xlsx
+++ b/717A11_output.xlsx
@@ -742,55 +742,55 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>495.91917837745336</v>
+        <v>476.58096263725793</v>
       </c>
       <c r="H3" s="4">
-        <v>396.80584595542905</v>
+        <v>377.70348649885864</v>
       </c>
       <c r="I3" s="4">
-        <v>421.67530116494049</v>
+        <v>403.60336882312225</v>
       </c>
       <c r="J3" s="4">
-        <v>407.00758733669346</v>
+        <v>389.91049839803054</v>
       </c>
       <c r="K3" s="4">
-        <v>514.22584895567297</v>
+        <v>498.05101802737397</v>
       </c>
       <c r="L3" s="4">
-        <v>427.12120987952324</v>
+        <v>411.81888815109181</v>
       </c>
       <c r="M3" s="4">
-        <v>466.0529851039019</v>
+        <v>451.57610733507386</v>
       </c>
       <c r="N3" s="4">
-        <v>473.76113038564114</v>
+        <v>460.06517014817018</v>
       </c>
       <c r="O3" s="4">
-        <v>452.05418306797816</v>
+        <v>439.09701579602063</v>
       </c>
       <c r="P3" s="4">
-        <v>402.64424198762578</v>
+        <v>390.38601541551873</v>
       </c>
       <c r="Q3" s="4">
-        <v>486.3227090409859</v>
+        <v>474.72572062992197</v>
       </c>
       <c r="R3" s="4">
-        <v>386.28310279959442</v>
+        <v>375.31168377619593</v>
       </c>
       <c r="S3" s="4">
-        <v>419.45037015797988</v>
+        <v>435.1396077248308</v>
       </c>
       <c r="T3" s="4">
-        <v>129.03291882238901</v>
+        <v>243.2736785125249</v>
       </c>
       <c r="U3" s="4">
-        <v>117.8680810420648</v>
+        <v>78.059328724960324</v>
       </c>
       <c r="V3" s="4">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="W3" s="4">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X3" s="4">
         <v>0</v>
@@ -813,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="7">
-        <v>130.26735234474813</v>
+        <v>149.65758779767953</v>
       </c>
       <c r="D4" s="7">
-        <v>641.05189162049328</v>
+        <v>606.04188169903796</v>
       </c>
       <c r="E4" s="7">
         <v>665.6</v>
@@ -885,7 +885,7 @@
         <v>665.6</v>
       </c>
       <c r="AA4" s="8">
-        <v>665.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
@@ -944,7 +944,7 @@
         <v>46.5</v>
       </c>
       <c r="S5" s="7">
-        <v>42.477210131935919</v>
+        <v>26.787972565084999</v>
       </c>
       <c r="T5" s="7">
         <v>46.5</v>
@@ -959,16 +959,16 @@
         <v>46.5</v>
       </c>
       <c r="X5" s="7">
+        <v>34.372432155944182</v>
+      </c>
+      <c r="Y5" s="7">
         <v>46.5</v>
-      </c>
-      <c r="Y5" s="7">
-        <v>7</v>
       </c>
       <c r="Z5" s="7">
         <v>46.5</v>
       </c>
       <c r="AA5" s="8">
-        <v>46.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.35">
@@ -1051,7 +1051,7 @@
         <v>212</v>
       </c>
       <c r="AA6" s="8">
-        <v>212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
@@ -1059,7 +1059,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>192.67035526309559</v>
+        <v>183.18806320476443</v>
       </c>
       <c r="C7" s="7">
         <v>464</v>
@@ -1134,7 +1134,7 @@
         <v>464</v>
       </c>
       <c r="AA7" s="8">
-        <v>464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
@@ -1205,7 +1205,7 @@
         <v>101.5</v>
       </c>
       <c r="W8" s="7">
-        <v>101.5</v>
+        <v>38.087889959491179</v>
       </c>
       <c r="X8" s="7">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>84.6</v>
       </c>
       <c r="Y9" s="7">
-        <v>80.286696024931487</v>
+        <v>84.6</v>
       </c>
       <c r="Z9" s="7">
         <v>84.6</v>
       </c>
       <c r="AA9" s="8">
-        <v>84.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.35">
@@ -1377,10 +1377,10 @@
         <v>88</v>
       </c>
       <c r="Y10" s="7">
-        <v>88</v>
+        <v>85.513755621297207</v>
       </c>
       <c r="Z10" s="7">
-        <v>0</v>
+        <v>16.480629421888807</v>
       </c>
       <c r="AA10" s="8">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>650</v>
       </c>
       <c r="AA11" s="8">
-        <v>650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.35">
@@ -1549,7 +1549,7 @@
         <v>186</v>
       </c>
       <c r="AA12" s="8">
-        <v>186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
@@ -1617,13 +1617,13 @@
         <v>154</v>
       </c>
       <c r="V13" s="7">
-        <v>90.066924690421729</v>
+        <v>126.02157994994678</v>
       </c>
       <c r="W13" s="7">
-        <v>44.932226380951619</v>
+        <v>0</v>
       </c>
       <c r="X13" s="7">
-        <v>0</v>
+        <v>130.41031219811521</v>
       </c>
       <c r="Y13" s="7">
         <v>0</v>
@@ -1646,7 +1646,7 @@
         <v>150</v>
       </c>
       <c r="D14" s="7">
-        <v>85.515108379504568</v>
+        <v>120.52511830096</v>
       </c>
       <c r="E14" s="7">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>150</v>
       </c>
       <c r="Z14" s="7">
-        <v>132.96125884377807</v>
+        <v>150</v>
       </c>
       <c r="AA14" s="8">
         <v>0</v>
@@ -1732,10 +1732,10 @@
         <v>1848</v>
       </c>
       <c r="E15" s="7">
-        <v>1254.6797472637372</v>
+        <v>1267.9555255442688</v>
       </c>
       <c r="F15" s="7">
-        <v>607.8377094854726</v>
+        <v>621.3425041496821</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="7">
-        <v>604.92635573625898</v>
+        <v>591.65057745572744</v>
       </c>
       <c r="F16" s="7">
         <v>656.1</v>
@@ -1875,13 +1875,13 @@
         <v>656.1</v>
       </c>
       <c r="Y16" s="7">
-        <v>654.92269302831357</v>
+        <v>656.1</v>
       </c>
       <c r="Z16" s="7">
         <v>656.1</v>
       </c>
       <c r="AA16" s="8">
-        <v>651.55241017337175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.35">
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="7">
-        <v>24.084748441522727</v>
+        <v>10.579953777313113</v>
       </c>
       <c r="G17" s="7">
         <v>50.3</v>
@@ -2047,7 +2047,7 @@
         <v>67</v>
       </c>
       <c r="AA18" s="8">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.35">
@@ -2070,7 +2070,7 @@
         <v>257</v>
       </c>
       <c r="G19" s="7">
-        <v>152.50208167088411</v>
+        <v>171.84029741107952</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2109,25 +2109,25 @@
         <v>257</v>
       </c>
       <c r="T19" s="7">
-        <v>243.3262774589235</v>
+        <v>169.08551776878789</v>
       </c>
       <c r="U19" s="7">
-        <v>128.51664800577814</v>
+        <v>158.32540032288381</v>
       </c>
       <c r="V19" s="7">
-        <v>135.00956691885131</v>
+        <v>61.054911659326535</v>
       </c>
       <c r="W19" s="7">
-        <v>55.508253652803575</v>
+        <v>75.852590074264299</v>
       </c>
       <c r="X19" s="7">
-        <v>79.064458690961544</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="7">
-        <v>0</v>
+        <v>47.218760842125732</v>
       </c>
       <c r="Z19" s="7">
-        <v>65.354925502311204</v>
+        <v>0</v>
       </c>
       <c r="AA19" s="8">
         <v>0</v>
@@ -2156,37 +2156,37 @@
         <v>2269.6</v>
       </c>
       <c r="H20" s="7">
-        <v>2237.1019054333428</v>
+        <v>2256.2042648899132</v>
       </c>
       <c r="I20" s="7">
-        <v>1978.7119199863289</v>
+        <v>1996.7838523281471</v>
       </c>
       <c r="J20" s="7">
-        <v>1760.4574188049367</v>
+        <v>1777.5545077435995</v>
       </c>
       <c r="K20" s="7">
-        <v>1470.9206422412312</v>
+        <v>1487.0954731695301</v>
       </c>
       <c r="L20" s="7">
-        <v>1326.3158997381524</v>
+        <v>1341.6182214665837</v>
       </c>
       <c r="M20" s="7">
-        <v>1106.2893585003312</v>
+        <v>1120.7662362691592</v>
       </c>
       <c r="N20" s="7">
-        <v>918.10659431102886</v>
+        <v>931.80255454849976</v>
       </c>
       <c r="O20" s="7">
-        <v>759.96465115096225</v>
+        <v>772.92181842291973</v>
       </c>
       <c r="P20" s="7">
-        <v>630.15706173928538</v>
+        <v>642.41528831139237</v>
       </c>
       <c r="Q20" s="7">
-        <v>417.89810641946548</v>
+        <v>429.49509483052941</v>
       </c>
       <c r="R20" s="7">
-        <v>340</v>
+        <v>350.97141902339848</v>
       </c>
       <c r="S20" s="7">
         <v>0</v>
@@ -2221,7 +2221,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6">
-        <v>15.829644736904577</v>
+        <v>25.311936795235738</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -2370,16 +2370,16 @@
         <v>398.3</v>
       </c>
       <c r="X22" s="7">
-        <v>397.51828566309774</v>
+        <v>398.3</v>
       </c>
       <c r="Y22" s="7">
-        <v>398.3</v>
+        <v>298.5768725898219</v>
       </c>
       <c r="Z22" s="7">
-        <v>220.4103892086342</v>
+        <v>292.24594413283495</v>
       </c>
       <c r="AA22" s="8">
-        <v>301.38810254334294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.35">
@@ -2393,13 +2393,13 @@
         <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>28.099999999999994</v>
+        <v>28.100000000000009</v>
       </c>
       <c r="E23" s="7">
-        <v>28.099999999999994</v>
+        <v>28.100000000000009</v>
       </c>
       <c r="F23" s="7">
-        <v>28.099999999999994</v>
+        <v>28.100000000000009</v>
       </c>
       <c r="G23" s="7">
         <v>28.100000000000009</v>
@@ -2408,61 +2408,61 @@
         <v>28.100000000000009</v>
       </c>
       <c r="I23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.099999999999994</v>
       </c>
       <c r="J23" s="7">
         <v>28.100000000000009</v>
       </c>
       <c r="K23" s="7">
-        <v>28.099999999999994</v>
+        <v>28.100000000000009</v>
       </c>
       <c r="L23" s="7">
-        <v>28.099999999999994</v>
+        <v>28.1</v>
       </c>
       <c r="M23" s="7">
         <v>28.100000000000009</v>
       </c>
       <c r="N23" s="7">
+        <v>28.100000000000009</v>
+      </c>
+      <c r="O23" s="7">
         <v>28.1</v>
-      </c>
-      <c r="O23" s="7">
-        <v>28.099999999999994</v>
       </c>
       <c r="P23" s="7">
         <v>28.1</v>
       </c>
       <c r="Q23" s="7">
+        <v>28.099999999999994</v>
+      </c>
+      <c r="R23" s="7">
+        <v>28.099999999999994</v>
+      </c>
+      <c r="S23" s="7">
+        <v>28.099999999999994</v>
+      </c>
+      <c r="T23" s="7">
+        <v>28.099999999999994</v>
+      </c>
+      <c r="U23" s="7">
+        <v>28.099999999999994</v>
+      </c>
+      <c r="V23" s="7">
+        <v>28.1</v>
+      </c>
+      <c r="W23" s="7">
         <v>28.100000000000009</v>
       </c>
-      <c r="R23" s="7">
-        <v>28.1</v>
-      </c>
-      <c r="S23" s="7">
-        <v>28.1</v>
-      </c>
-      <c r="T23" s="7">
-        <v>28.1</v>
-      </c>
-      <c r="U23" s="7">
+      <c r="X23" s="7">
         <v>28.100000000000009</v>
-      </c>
-      <c r="V23" s="7">
-        <v>28.100000000000009</v>
-      </c>
-      <c r="W23" s="7">
-        <v>28.099999999999994</v>
-      </c>
-      <c r="X23" s="7">
-        <v>28.1</v>
       </c>
       <c r="Y23" s="7">
         <v>28.1</v>
       </c>
       <c r="Z23" s="7">
-        <v>28.099999999999994</v>
+        <v>28.1</v>
       </c>
       <c r="AA23" s="8">
-        <v>28.100000000000009</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.35">
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D24" s="7">
         <v>25</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="7">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
         <v>70</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>30.599999999999998</v>
       </c>
       <c r="D26" s="7">
         <v>30.6</v>
@@ -2654,19 +2654,19 @@
         <v>30.6</v>
       </c>
       <c r="H26" s="7">
-        <v>30.6</v>
+        <v>30.599999999999998</v>
       </c>
       <c r="I26" s="7">
         <v>30.6</v>
       </c>
       <c r="J26" s="7">
+        <v>30.6</v>
+      </c>
+      <c r="K26" s="7">
+        <v>30.6</v>
+      </c>
+      <c r="L26" s="7">
         <v>30.599999999999998</v>
-      </c>
-      <c r="K26" s="7">
-        <v>30.599999999999998</v>
-      </c>
-      <c r="L26" s="7">
-        <v>30.6</v>
       </c>
       <c r="M26" s="7">
         <v>30.6</v>
@@ -2678,10 +2678,10 @@
         <v>30.6</v>
       </c>
       <c r="P26" s="7">
-        <v>30.599999999999998</v>
+        <v>30.6</v>
       </c>
       <c r="Q26" s="7">
-        <v>30.599999999999998</v>
+        <v>30.6</v>
       </c>
       <c r="R26" s="7">
         <v>30.6</v>
@@ -2690,10 +2690,10 @@
         <v>30.6</v>
       </c>
       <c r="T26" s="7">
-        <v>30.6</v>
+        <v>30.599999999999998</v>
       </c>
       <c r="U26" s="7">
-        <v>30.6</v>
+        <v>30.599999999999998</v>
       </c>
       <c r="V26" s="7">
         <v>30.6</v>
@@ -2705,10 +2705,10 @@
         <v>30.6</v>
       </c>
       <c r="Y26" s="7">
-        <v>30.6</v>
+        <v>30.599999999999998</v>
       </c>
       <c r="Z26" s="7">
-        <v>30.6</v>
+        <v>30.599999999999998</v>
       </c>
       <c r="AA26" s="8">
         <v>30.6</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D27" s="7">
         <v>10</v>
@@ -2758,7 +2758,7 @@
         <v>10</v>
       </c>
       <c r="O27" s="7">
-        <v>10</v>
+        <v>10.000000000000014</v>
       </c>
       <c r="P27" s="7">
         <v>10</v>
@@ -2770,10 +2770,10 @@
         <v>10</v>
       </c>
       <c r="S27" s="7">
-        <v>10</v>
+        <v>9.9999999999999858</v>
       </c>
       <c r="T27" s="7">
-        <v>10</v>
+        <v>9.9999999999999858</v>
       </c>
       <c r="U27" s="7">
         <v>10</v>
@@ -2785,7 +2785,7 @@
         <v>10</v>
       </c>
       <c r="X27" s="7">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
       <c r="Y27" s="7">
         <v>10</v>
@@ -2829,10 +2829,10 @@
         <v>10</v>
       </c>
       <c r="K28" s="7">
-        <v>9.9999999999999858</v>
+        <v>10</v>
       </c>
       <c r="L28" s="7">
-        <v>9.9999999999999858</v>
+        <v>10</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -2841,7 +2841,7 @@
         <v>10</v>
       </c>
       <c r="O28" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="P28" s="7">
         <v>10</v>
@@ -2862,7 +2862,7 @@
         <v>10</v>
       </c>
       <c r="V28" s="7">
-        <v>10</v>
+        <v>10.000000000000014</v>
       </c>
       <c r="W28" s="7">
         <v>10</v>
@@ -2933,28 +2933,28 @@
         <v>10</v>
       </c>
       <c r="R29" s="7">
+        <v>10</v>
+      </c>
+      <c r="S29" s="7">
+        <v>10</v>
+      </c>
+      <c r="T29" s="7">
+        <v>10</v>
+      </c>
+      <c r="U29" s="7">
+        <v>10</v>
+      </c>
+      <c r="V29" s="7">
+        <v>10</v>
+      </c>
+      <c r="W29" s="7">
+        <v>10</v>
+      </c>
+      <c r="X29" s="7">
+        <v>10</v>
+      </c>
+      <c r="Y29" s="7">
         <v>9.9999999999999929</v>
-      </c>
-      <c r="S29" s="7">
-        <v>10</v>
-      </c>
-      <c r="T29" s="7">
-        <v>9.9999999999999929</v>
-      </c>
-      <c r="U29" s="7">
-        <v>10</v>
-      </c>
-      <c r="V29" s="7">
-        <v>10</v>
-      </c>
-      <c r="W29" s="7">
-        <v>10</v>
-      </c>
-      <c r="X29" s="7">
-        <v>10</v>
-      </c>
-      <c r="Y29" s="7">
-        <v>10</v>
       </c>
       <c r="Z29" s="7">
         <v>10</v>
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="7">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="D30" s="7">
         <v>52.2</v>
@@ -2989,7 +2989,7 @@
         <v>52.2</v>
       </c>
       <c r="I30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="J30" s="7">
         <v>52.2</v>
@@ -2998,16 +2998,16 @@
         <v>52.2</v>
       </c>
       <c r="L30" s="7">
-        <v>52.2</v>
+        <v>52.20000000000001</v>
       </c>
       <c r="M30" s="7">
         <v>52.2</v>
       </c>
       <c r="N30" s="7">
-        <v>52.20000000000001</v>
+        <v>52.2</v>
       </c>
       <c r="O30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.2</v>
       </c>
       <c r="P30" s="7">
         <v>52.20000000000001</v>
@@ -3019,31 +3019,31 @@
         <v>52.200000000000017</v>
       </c>
       <c r="S30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.2</v>
       </c>
       <c r="T30" s="7">
         <v>52.2</v>
       </c>
       <c r="U30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="V30" s="7">
         <v>52.2</v>
       </c>
       <c r="W30" s="7">
+        <v>52.2</v>
+      </c>
+      <c r="X30" s="7">
+        <v>52.2</v>
+      </c>
+      <c r="Y30" s="7">
         <v>52.200000000000017</v>
-      </c>
-      <c r="X30" s="7">
-        <v>52.200000000000017</v>
-      </c>
-      <c r="Y30" s="7">
-        <v>52.20000000000001</v>
       </c>
       <c r="Z30" s="7">
         <v>52.200000000000017</v>
       </c>
       <c r="AA30" s="8">
-        <v>52.2</v>
+        <v>52.20000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.35">
@@ -3054,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>1.4424122023189199</v>
       </c>
       <c r="D31" s="7">
         <v>10</v>
@@ -3102,28 +3102,28 @@
         <v>10</v>
       </c>
       <c r="S31" s="7">
+        <v>10</v>
+      </c>
+      <c r="T31" s="7">
+        <v>10</v>
+      </c>
+      <c r="U31" s="7">
+        <v>10</v>
+      </c>
+      <c r="V31" s="7">
+        <v>10</v>
+      </c>
+      <c r="W31" s="7">
+        <v>10</v>
+      </c>
+      <c r="X31" s="7">
+        <v>10</v>
+      </c>
+      <c r="Y31" s="7">
+        <v>10</v>
+      </c>
+      <c r="Z31" s="7">
         <v>9.9999999999999929</v>
-      </c>
-      <c r="T31" s="7">
-        <v>10.000000000000014</v>
-      </c>
-      <c r="U31" s="7">
-        <v>10</v>
-      </c>
-      <c r="V31" s="7">
-        <v>10</v>
-      </c>
-      <c r="W31" s="7">
-        <v>10</v>
-      </c>
-      <c r="X31" s="7">
-        <v>10</v>
-      </c>
-      <c r="Y31" s="7">
-        <v>10</v>
-      </c>
-      <c r="Z31" s="7">
-        <v>10</v>
       </c>
       <c r="AA31" s="8">
         <v>10</v>
@@ -3137,37 +3137,37 @@
         <v>0</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>20.2</v>
       </c>
       <c r="D32" s="7">
+        <v>20.2</v>
+      </c>
+      <c r="E32" s="7">
         <v>20.200000000000003</v>
       </c>
-      <c r="E32" s="7">
+      <c r="F32" s="7">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="G32" s="7">
         <v>20.2</v>
       </c>
-      <c r="F32" s="7">
+      <c r="H32" s="7">
+        <v>20.2</v>
+      </c>
+      <c r="I32" s="7">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="J32" s="7">
         <v>20.200000000000003</v>
       </c>
-      <c r="G32" s="7">
+      <c r="K32" s="7">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="L32" s="7">
+        <v>20.2</v>
+      </c>
+      <c r="M32" s="7">
         <v>20.200000000000003</v>
-      </c>
-      <c r="H32" s="7">
-        <v>20.199999999999996</v>
-      </c>
-      <c r="I32" s="7">
-        <v>20.2</v>
-      </c>
-      <c r="J32" s="7">
-        <v>20.2</v>
-      </c>
-      <c r="K32" s="7">
-        <v>20.2</v>
-      </c>
-      <c r="L32" s="7">
-        <v>20.199999999999996</v>
-      </c>
-      <c r="M32" s="7">
-        <v>20.199999999999996</v>
       </c>
       <c r="N32" s="7">
         <v>20.200000000000003</v>
@@ -3179,34 +3179,34 @@
         <v>20.2</v>
       </c>
       <c r="Q32" s="7">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="R32" s="7">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="S32" s="7">
+        <v>20.200000000000003</v>
+      </c>
+      <c r="T32" s="7">
         <v>20.2</v>
       </c>
-      <c r="R32" s="7">
+      <c r="U32" s="7">
         <v>20.2</v>
       </c>
-      <c r="S32" s="7">
+      <c r="V32" s="7">
+        <v>20.200000000000003</v>
+      </c>
+      <c r="W32" s="7">
+        <v>20.200000000000003</v>
+      </c>
+      <c r="X32" s="7">
+        <v>20.200000000000003</v>
+      </c>
+      <c r="Y32" s="7">
         <v>20.2</v>
       </c>
-      <c r="T32" s="7">
-        <v>20.200000000000003</v>
-      </c>
-      <c r="U32" s="7">
-        <v>20.200000000000003</v>
-      </c>
-      <c r="V32" s="7">
-        <v>20.199999999999996</v>
-      </c>
-      <c r="W32" s="7">
+      <c r="Z32" s="7">
         <v>20.2</v>
-      </c>
-      <c r="X32" s="7">
-        <v>20.2</v>
-      </c>
-      <c r="Y32" s="7">
-        <v>20.199999999999996</v>
-      </c>
-      <c r="Z32" s="7">
-        <v>20.200000000000003</v>
       </c>
       <c r="AA32" s="8">
         <v>20.200000000000003</v>
@@ -3220,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="7">
-        <v>30.932647655250321</v>
+        <v>0</v>
       </c>
       <c r="D33" s="7">
         <v>70</v>
@@ -3306,13 +3306,13 @@
         <v>0</v>
       </c>
       <c r="D34" s="7">
-        <v>10.499999999999986</v>
+        <v>10.5</v>
       </c>
       <c r="E34" s="7">
-        <v>10.499999999999986</v>
+        <v>10.5</v>
       </c>
       <c r="F34" s="7">
-        <v>10.499999999999986</v>
+        <v>10.5</v>
       </c>
       <c r="G34" s="7">
         <v>10.5</v>
@@ -3345,7 +3345,7 @@
         <v>10.5</v>
       </c>
       <c r="Q34" s="7">
-        <v>10.5</v>
+        <v>10.499999999999986</v>
       </c>
       <c r="R34" s="7">
         <v>10.5</v>
@@ -3443,7 +3443,7 @@
         <v>10</v>
       </c>
       <c r="V35" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="W35" s="7">
         <v>10</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D36" s="7">
         <v>10</v>
@@ -3552,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D37" s="7">
         <v>10</v>
@@ -3606,7 +3606,7 @@
         <v>10</v>
       </c>
       <c r="U37" s="7">
-        <v>10</v>
+        <v>10.000000000000002</v>
       </c>
       <c r="V37" s="7">
         <v>10</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D38" s="7">
         <v>10</v>
@@ -3650,7 +3650,7 @@
         <v>10</v>
       </c>
       <c r="H38" s="7">
-        <v>10</v>
+        <v>10.000000000000002</v>
       </c>
       <c r="I38" s="7">
         <v>10</v>
@@ -3721,10 +3721,10 @@
         <v>0</v>
       </c>
       <c r="D39" s="7">
-        <v>10.100000000000001</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="E39" s="7">
-        <v>10.100000000000001</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="F39" s="7">
         <v>10.099999999999994</v>
@@ -3733,22 +3733,22 @@
         <v>10.099999999999994</v>
       </c>
       <c r="H39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.1</v>
       </c>
       <c r="I39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="J39" s="7">
         <v>10.099999999999994</v>
       </c>
       <c r="K39" s="7">
-        <v>10.1</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="L39" s="7">
         <v>10.099999999999994</v>
       </c>
       <c r="M39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.1</v>
       </c>
       <c r="N39" s="7">
         <v>10.099999999999994</v>
@@ -3772,16 +3772,16 @@
         <v>10.099999999999994</v>
       </c>
       <c r="U39" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="V39" s="7">
         <v>10.099999999999994</v>
-      </c>
-      <c r="V39" s="7">
-        <v>10.100000000000001</v>
       </c>
       <c r="W39" s="7">
         <v>10.099999999999994</v>
       </c>
       <c r="X39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="Y39" s="7">
         <v>10.099999999999994</v>
@@ -3801,58 +3801,58 @@
         <v>0</v>
       </c>
       <c r="C40" s="7">
-        <v>0</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="D40" s="7">
+        <v>10.099999999999998</v>
+      </c>
+      <c r="E40" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="F40" s="7">
         <v>10.100000000000001</v>
       </c>
-      <c r="E40" s="7">
+      <c r="G40" s="7">
         <v>10.099999999999998</v>
-      </c>
-      <c r="F40" s="7">
-        <v>10.1</v>
-      </c>
-      <c r="G40" s="7">
-        <v>10.1</v>
       </c>
       <c r="H40" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="I40" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="J40" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="K40" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="L40" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="M40" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="N40" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="O40" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="P40" s="7">
         <v>10.099999999999998</v>
-      </c>
-      <c r="J40" s="7">
-        <v>10.100000000000001</v>
-      </c>
-      <c r="K40" s="7">
-        <v>10.100000000000001</v>
-      </c>
-      <c r="L40" s="7">
-        <v>10.1</v>
-      </c>
-      <c r="M40" s="7">
-        <v>10.100000000000001</v>
-      </c>
-      <c r="N40" s="7">
-        <v>10.1</v>
-      </c>
-      <c r="O40" s="7">
-        <v>10.100000000000001</v>
-      </c>
-      <c r="P40" s="7">
-        <v>10.100000000000001</v>
       </c>
       <c r="Q40" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="R40" s="7">
-        <v>10.099999999999998</v>
+        <v>10.1</v>
       </c>
       <c r="S40" s="7">
-        <v>10.099999999999998</v>
+        <v>10.1</v>
       </c>
       <c r="T40" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="U40" s="7">
         <v>10.100000000000001</v>
@@ -3861,16 +3861,16 @@
         <v>10.100000000000001</v>
       </c>
       <c r="W40" s="7">
-        <v>10.099999999999998</v>
+        <v>10.1</v>
       </c>
       <c r="X40" s="7">
-        <v>10.099999999999998</v>
+        <v>10.1</v>
       </c>
       <c r="Y40" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="Z40" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="AA40" s="8">
         <v>10.100000000000001</v>
@@ -3967,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D42" s="7">
         <v>12</v>
@@ -4101,28 +4101,28 @@
         <v>3200</v>
       </c>
       <c r="T43" s="7">
-        <v>3450</v>
+        <v>3400</v>
       </c>
       <c r="U43" s="7">
         <v>3650</v>
       </c>
       <c r="V43" s="7">
-        <v>3900</v>
+        <v>3850</v>
       </c>
       <c r="W43" s="7">
         <v>4100</v>
       </c>
       <c r="X43" s="7">
-        <v>4350</v>
+        <v>4300</v>
       </c>
       <c r="Y43" s="7">
         <v>4550</v>
       </c>
       <c r="Z43" s="7">
-        <v>4800</v>
+        <v>4750</v>
       </c>
       <c r="AA43" s="8">
-        <v>5000</v>
+        <v>6398.6405127167163</v>
       </c>
       <c r="AB43" t="s">
         <v>15</v>
@@ -4187,28 +4187,28 @@
         <v>0</v>
       </c>
       <c r="T44" s="7">
-        <v>0</v>
+        <v>9.9999999999997158</v>
       </c>
       <c r="U44" s="7">
-        <v>0</v>
+        <v>9.9999999999997158</v>
       </c>
       <c r="V44" s="7">
-        <v>0</v>
+        <v>9.9999999999997158</v>
       </c>
       <c r="W44" s="7">
-        <v>0</v>
+        <v>9.9999999999997158</v>
       </c>
       <c r="X44" s="7">
-        <v>0</v>
+        <v>9.9999999999997158</v>
       </c>
       <c r="Y44" s="7">
-        <v>0</v>
+        <v>9.9999999999997158</v>
       </c>
       <c r="Z44" s="7">
-        <v>0</v>
+        <v>9.9999999999997158</v>
       </c>
       <c r="AA44" s="8">
-        <v>0</v>
+        <v>1929.9999999999998</v>
       </c>
       <c r="AB44" t="s">
         <v>16</v>
@@ -7984,82 +7984,82 @@
         <v>1</v>
       </c>
       <c r="B95" s="3">
-        <v>134.59011842103195</v>
+        <v>131.42935440158806</v>
       </c>
       <c r="C95" s="4">
-        <v>321.81666666666609</v>
+        <v>251.08839186511989</v>
       </c>
       <c r="D95" s="4">
-        <v>389.57841108032937</v>
+        <v>366.23840446602577</v>
       </c>
       <c r="E95" s="4">
-        <v>445.3803443500006</v>
+        <v>445.38034435000094</v>
       </c>
       <c r="F95" s="4">
-        <v>630.82005026299237</v>
+        <v>626.31845204158913</v>
       </c>
       <c r="G95" s="4">
-        <v>988.85720646479035</v>
+        <v>982.41113455139237</v>
       </c>
       <c r="H95" s="4">
-        <v>846.83951964716641</v>
+        <v>840.47206649497662</v>
       </c>
       <c r="I95" s="4">
-        <v>762.8852761892947</v>
+        <v>756.861298742023</v>
       </c>
       <c r="J95" s="4">
-        <v>665.82177982875544</v>
+        <v>660.12275018253445</v>
       </c>
       <c r="K95" s="4">
-        <v>626.12404029153049</v>
+        <v>620.73242998209753</v>
       </c>
       <c r="L95" s="4">
-        <v>505.05639941523714</v>
+        <v>499.95562550576005</v>
       </c>
       <c r="M95" s="4">
-        <v>442.73926845512881</v>
+        <v>437.91364253218552</v>
       </c>
       <c r="N95" s="4">
-        <v>370.08661134315946</v>
+        <v>365.52129126400195</v>
       </c>
       <c r="O95" s="4">
-        <v>287.70192501486963</v>
+        <v>283.38286925755017</v>
       </c>
       <c r="P95" s="4">
-        <v>196.15656609734845</v>
+        <v>192.07049057331278</v>
       </c>
       <c r="Q95" s="4">
-        <v>165.71499815071491</v>
+        <v>161.84933534702691</v>
       </c>
       <c r="R95" s="4">
-        <v>57.442396259817713</v>
+        <v>53.785256585351476</v>
       </c>
       <c r="S95" s="4">
         <v>-41.526512318802133</v>
       </c>
       <c r="T95" s="4">
-        <v>-177.93212082638343</v>
+        <v>-123.18520092967128</v>
       </c>
       <c r="U95" s="4">
-        <v>-239.68408793039612</v>
+        <v>-252.95367203609771</v>
       </c>
       <c r="V95" s="4">
-        <v>-332.28171754239173</v>
+        <v>-301.59993596223347</v>
       </c>
       <c r="W95" s="4">
-        <v>-375.11101945637859</v>
+        <v>-355.27098067623137</v>
       </c>
       <c r="X95" s="4">
-        <v>-468.4286798253595</v>
+        <v>-499.27463983941703</v>
       </c>
       <c r="Y95" s="4">
-        <v>-540.35590361158188</v>
+        <v>-526.97265273668881</v>
       </c>
       <c r="Z95" s="4">
-        <v>-624.09898603320789</v>
+        <v>-607.61835661131897</v>
       </c>
       <c r="AA95" s="5">
-        <v>-635.81607690750707</v>
+        <v>-1097.0787777552882</v>
       </c>
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.35">
@@ -8067,82 +8067,82 @@
         <v>2</v>
       </c>
       <c r="B96" s="6">
-        <v>-371.30988157896832</v>
+        <v>-374.47064559841192</v>
       </c>
       <c r="C96" s="7">
-        <v>-221.68333333333345</v>
+        <v>-216.76919593256002</v>
       </c>
       <c r="D96" s="7">
-        <v>-241.3899805401652</v>
+        <v>-229.71997723301337</v>
       </c>
       <c r="E96" s="7">
-        <v>-291.56660415000079</v>
+        <v>-291.56660415000147</v>
       </c>
       <c r="F96" s="7">
-        <v>-584.15346921503317</v>
+        <v>-575.1502727722268</v>
       </c>
       <c r="G96" s="7">
-        <v>-712.60342355937803</v>
+        <v>-719.04949547277727</v>
       </c>
       <c r="H96" s="7">
-        <v>-537.56435604721969</v>
+        <v>-543.93180919941005</v>
       </c>
       <c r="I96" s="7">
-        <v>-354.75833438633958</v>
+        <v>-360.78231183361288</v>
       </c>
       <c r="J96" s="7">
-        <v>-185.36072324206077</v>
+        <v>-191.05975288828176</v>
       </c>
       <c r="K96" s="7">
-        <v>-8.8992053069225676</v>
+        <v>-14.290815616355474</v>
       </c>
       <c r="L96" s="7">
-        <v>135.8878446063984</v>
+        <v>130.78707069692132</v>
       </c>
       <c r="M96" s="7">
-        <v>289.11809665301087</v>
+        <v>284.29247073006758</v>
       </c>
       <c r="N96" s="7">
-        <v>431.70274899482308</v>
+        <v>427.13742891566557</v>
       </c>
       <c r="O96" s="7">
-        <v>564.2425079053985</v>
+        <v>559.92345214807904</v>
       </c>
       <c r="P96" s="7">
-        <v>687.30591423389239</v>
+        <v>683.21983870985673</v>
       </c>
       <c r="Q96" s="7">
-        <v>821.15459042048826</v>
+        <v>817.28892761680027</v>
       </c>
       <c r="R96" s="7">
-        <v>926.85084486001972</v>
+        <v>923.19370518555354</v>
       </c>
       <c r="S96" s="7">
         <v>1041.5265123188021</v>
       </c>
       <c r="T96" s="7">
-        <v>1118.4382810329596</v>
+        <v>1123.1852009296717</v>
       </c>
       <c r="U96" s="7">
-        <v>1219.6735475456815</v>
+        <v>1206.4039634399799</v>
       </c>
       <c r="V96" s="7">
-        <v>1275.7969613433925</v>
+        <v>1292.433398183076</v>
       </c>
       <c r="W96" s="7">
-        <v>1350.1509669076947</v>
+        <v>1325.0587793068903</v>
       </c>
       <c r="X96" s="7">
-        <v>1423.8799479976101</v>
+        <v>1473.4443001816692</v>
       </c>
       <c r="Y96" s="7">
-        <v>1512.4120948901086</v>
+        <v>1526.9726527366884</v>
       </c>
       <c r="Z96" s="7">
-        <v>1624.0989860332079</v>
+        <v>1607.6183566113186</v>
       </c>
       <c r="AA96" s="8">
-        <v>1635.8160769075071</v>
+        <v>1085.6414786030691</v>
       </c>
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.35">
@@ -8150,82 +8150,82 @@
         <v>3</v>
       </c>
       <c r="B97" s="9">
-        <v>236.71976315793634</v>
+        <v>243.04129119682381</v>
       </c>
       <c r="C97" s="10">
-        <v>-100.13333333333259</v>
+        <v>-34.31919593255985</v>
       </c>
       <c r="D97" s="10">
-        <v>-148.18843054016418</v>
+        <v>-136.51842723301246</v>
       </c>
       <c r="E97" s="10">
-        <v>-153.81374019999981</v>
+        <v>-153.81374019999947</v>
       </c>
       <c r="F97" s="10">
-        <v>-46.666581047959198</v>
+        <v>-51.16817926936244</v>
       </c>
       <c r="G97" s="10">
-        <v>-276.25378290541232</v>
+        <v>-263.36163907861487</v>
       </c>
       <c r="H97" s="10">
-        <v>-309.27516359994678</v>
+        <v>-296.54025729556628</v>
       </c>
       <c r="I97" s="10">
-        <v>-408.12694180295512</v>
+        <v>-396.07898690841012</v>
       </c>
       <c r="J97" s="10">
-        <v>-480.46105658669467</v>
+        <v>-469.06299729425268</v>
       </c>
       <c r="K97" s="10">
-        <v>-617.22483498460792</v>
+        <v>-606.44161436574211</v>
       </c>
       <c r="L97" s="10">
-        <v>-640.94424402163554</v>
+        <v>-630.74269620268137</v>
       </c>
       <c r="M97" s="10">
-        <v>-731.85736510813967</v>
+        <v>-722.2061132622531</v>
       </c>
       <c r="N97" s="10">
-        <v>-801.78936033798254</v>
+        <v>-792.65872017966751</v>
       </c>
       <c r="O97" s="10">
-        <v>-851.94443292026813</v>
+        <v>-843.30632140562921</v>
       </c>
       <c r="P97" s="10">
-        <v>-883.46248033124084</v>
+        <v>-875.29032928316951</v>
       </c>
       <c r="Q97" s="10">
-        <v>-986.86958857120317</v>
+        <v>-979.13826296382717</v>
       </c>
       <c r="R97" s="10">
-        <v>-984.29324111983738</v>
+        <v>-976.97896177090502</v>
       </c>
       <c r="S97" s="10">
         <v>-1000</v>
       </c>
       <c r="T97" s="10">
-        <v>-940.50616020657617</v>
+        <v>-1000</v>
       </c>
       <c r="U97" s="10">
-        <v>-979.98945961528545</v>
+        <v>-953.45029140388203</v>
       </c>
       <c r="V97" s="10">
-        <v>-943.51524380100068</v>
+        <v>-990.83346222084242</v>
       </c>
       <c r="W97" s="10">
-        <v>-975.03994745131627</v>
+        <v>-969.78779863065893</v>
       </c>
       <c r="X97" s="10">
-        <v>-955.45126817225048</v>
+        <v>-974.1696603422522</v>
       </c>
       <c r="Y97" s="10">
-        <v>-972.05619127852651</v>
+        <v>-1000</v>
       </c>
       <c r="Z97" s="10">
         <v>-1000</v>
       </c>
       <c r="AA97" s="11">
-        <v>-1000</v>
+        <v>11.437299152219111</v>
       </c>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.35">
@@ -8575,86 +8575,86 @@
         <v>6</v>
       </c>
       <c r="B106" s="15">
-        <v>185343.29577303529</v>
+        <v>187067.81092078128</v>
       </c>
       <c r="C106" s="16">
-        <v>150354.42590554885</v>
+        <v>150732.88932861557</v>
       </c>
       <c r="D106" s="16">
-        <v>122850.988578766</v>
+        <v>123175.51953414551</v>
       </c>
       <c r="E106" s="16">
-        <v>115767.04458876402</v>
+        <v>115689.69506787838</v>
       </c>
       <c r="F106" s="16">
-        <v>110839.76863109926</v>
+        <v>110744.52859723852</v>
       </c>
       <c r="G106" s="16">
-        <v>107601.08884452145</v>
+        <v>107424.10359766646</v>
       </c>
       <c r="H106" s="16">
-        <v>11641550.231811121</v>
+        <v>11641393.204089461</v>
       </c>
       <c r="I106" s="16">
-        <v>12324968.133583765</v>
+        <v>12324833.081520598</v>
       </c>
       <c r="J106" s="16">
-        <v>13729770.539331574</v>
+        <v>13729654.387485432</v>
       </c>
       <c r="K106" s="16">
-        <v>13539056.792083366</v>
+        <v>13538956.895413551</v>
       </c>
       <c r="L106" s="16">
-        <v>15173431.935465464</v>
+        <v>15173346.019098468</v>
       </c>
       <c r="M106" s="16">
-        <v>14667613.021367956</v>
+        <v>14667539.128793448</v>
       </c>
       <c r="N106" s="16">
-        <v>14771698.232724916</v>
+        <v>14771634.681241557</v>
       </c>
       <c r="O106" s="16">
-        <v>14735518.731834156</v>
+        <v>14735464.074230678</v>
       </c>
       <c r="P106" s="16">
-        <v>14583734.508809622</v>
+        <v>14583687.500408562</v>
       </c>
       <c r="Q106" s="16">
-        <v>13638852.26087979</v>
+        <v>13638811.831193347</v>
       </c>
       <c r="R106" s="16">
-        <v>13819966.051143175</v>
+        <v>13819931.279495789</v>
       </c>
       <c r="S106" s="16">
-        <v>13455936.071670964</v>
+        <v>13455968.66823986</v>
       </c>
       <c r="T106" s="16">
-        <v>13043632.510209475</v>
+        <v>12850723.047757942</v>
       </c>
       <c r="U106" s="16">
-        <v>12117802.26314237</v>
+        <v>12512626.558646161</v>
       </c>
       <c r="V106" s="16">
-        <v>11986589.48512092</v>
+        <v>11611405.027762979</v>
       </c>
       <c r="W106" s="16">
-        <v>11111677.895684551</v>
+        <v>11438012.743528252</v>
       </c>
       <c r="X106" s="16">
-        <v>10903515.051872116</v>
+        <v>10593462.841980059</v>
       </c>
       <c r="Y106" s="16">
-        <v>10089854.202114003</v>
+        <v>10359460.770883728</v>
       </c>
       <c r="Z106" s="16">
-        <v>9835330.0367435943</v>
+        <v>9579034.8366412465</v>
       </c>
       <c r="AA106" s="17">
-        <v>9087917.6781258415</v>
+        <v>49594736.655303575</v>
       </c>
       <c r="AB106" s="18">
         <f>SUM(TotalCost)</f>
-        <v>255051172.24604046</v>
+        <v>295415517.78076106</v>
       </c>
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.35">
@@ -8748,86 +8748,86 @@
         <v>8</v>
       </c>
       <c r="B109" s="3">
-        <v>127.23839999999862</v>
+        <v>79109686.491201267</v>
       </c>
       <c r="C109" s="4">
-        <v>106.61999999999958</v>
+        <v>63008256.527324185</v>
       </c>
       <c r="D109" s="4">
-        <v>70.35619439999931</v>
+        <v>55897639.429508567</v>
       </c>
       <c r="E109" s="4">
-        <v>174.35243586779998</v>
+        <v>54564500.077389985</v>
       </c>
       <c r="F109" s="4">
-        <v>0.65969839061018776</v>
+        <v>50523285.409402966</v>
       </c>
       <c r="G109" s="4">
-        <v>0.66947527612567959</v>
+        <v>46943184.414359212</v>
       </c>
       <c r="H109" s="4">
-        <v>0.62246201111017219</v>
+        <v>42214691.249905884</v>
       </c>
       <c r="I109" s="4">
-        <v>0.65362677499330402</v>
+        <v>40509490.833682947</v>
       </c>
       <c r="J109" s="4">
-        <v>0.65092004913306756</v>
+        <v>38769879.26610364</v>
       </c>
       <c r="K109" s="4">
-        <v>0.64400087711195464</v>
+        <v>37524822.871207617</v>
       </c>
       <c r="L109" s="4">
-        <v>0.62155648500595906</v>
+        <v>35723029.845435001</v>
       </c>
       <c r="M109" s="4">
-        <v>0.64071009337427121</v>
+        <v>34419950.381185815</v>
       </c>
       <c r="N109" s="4">
-        <v>0.62147608421134559</v>
+        <v>33090788.988753803</v>
       </c>
       <c r="O109" s="4">
-        <v>0.6438689689692465</v>
+        <v>31737363.779780988</v>
       </c>
       <c r="P109" s="4">
-        <v>0.62790338968997006</v>
+        <v>30361398.493312463</v>
       </c>
       <c r="Q109" s="4">
-        <v>0.65359412019717733</v>
+        <v>29491241.009569217</v>
       </c>
       <c r="R109" s="4">
-        <v>0.64146482239677427</v>
+        <v>28075014.638710182</v>
       </c>
       <c r="S109" s="4">
-        <v>0.67000427188445699</v>
+        <v>27637779.666487332</v>
       </c>
       <c r="T109" s="4">
-        <v>0.62075391033141569</v>
+        <v>28104427.366363555</v>
       </c>
       <c r="U109" s="4">
-        <v>0.65322029552439742</v>
+        <v>26480026.546641205</v>
       </c>
       <c r="V109" s="4">
-        <v>0.56741887818411307</v>
+        <v>23842430.948070701</v>
       </c>
       <c r="W109" s="4">
-        <v>0.64336524808776818</v>
+        <v>21562393.070920095</v>
       </c>
       <c r="X109" s="4">
-        <v>0.61106195483249026</v>
+        <v>18348308.303627934</v>
       </c>
       <c r="Y109" s="4">
-        <v>0.66487511242580788</v>
+        <v>17639234.17504514</v>
       </c>
       <c r="Z109" s="4">
-        <v>0.16421258843780379</v>
+        <v>15992996.94091936</v>
       </c>
       <c r="AA109" s="5">
         <v>0</v>
       </c>
       <c r="AB109" s="12">
         <f>SUM(B109:AA109)</f>
-        <v>491.5126998704348</v>
+        <v>911571820.72490895</v>
       </c>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.35">
@@ -8835,86 +8835,86 @@
         <v>9</v>
       </c>
       <c r="B110" s="6">
-        <v>0.47940000000000055</v>
+        <v>14596137.675668476</v>
       </c>
       <c r="C110" s="7">
-        <v>0.40129999999999838</v>
+        <v>13232188.576625478</v>
       </c>
       <c r="D110" s="7">
-        <v>0.26393709999999737</v>
+        <v>13202905.908014389</v>
       </c>
       <c r="E110" s="7">
-        <v>0.20300000000000001</v>
+        <v>11427176.759078547</v>
       </c>
       <c r="F110" s="7">
-        <v>0</v>
+        <v>9446021.7217891198</v>
       </c>
       <c r="G110" s="7">
-        <v>0</v>
+        <v>6871604.7774165729</v>
       </c>
       <c r="H110" s="7">
-        <v>0</v>
+        <v>5465615.9763929341</v>
       </c>
       <c r="I110" s="7">
-        <v>0</v>
+        <v>4856274.8895227564</v>
       </c>
       <c r="J110" s="7">
-        <v>0</v>
+        <v>4339674.5115498714</v>
       </c>
       <c r="K110" s="7">
-        <v>0</v>
+        <v>3661125.6895761918</v>
       </c>
       <c r="L110" s="7">
-        <v>0</v>
+        <v>3314713.3030404528</v>
       </c>
       <c r="M110" s="7">
-        <v>3.8120617773529373E-15</v>
+        <v>2796791.1961188861</v>
       </c>
       <c r="N110" s="7">
-        <v>0</v>
+        <v>2352458.0009303079</v>
       </c>
       <c r="O110" s="7">
-        <v>0</v>
+        <v>1977549.3786726999</v>
       </c>
       <c r="P110" s="7">
-        <v>0</v>
+        <v>1668123.8719868409</v>
       </c>
       <c r="Q110" s="7">
-        <v>0</v>
+        <v>1170952.2892533776</v>
       </c>
       <c r="R110" s="7">
-        <v>0</v>
+        <v>981500.62396597257</v>
       </c>
       <c r="S110" s="7">
-        <v>0</v>
+        <v>2198644.6980367741</v>
       </c>
       <c r="T110" s="7">
-        <v>0</v>
+        <v>1497195.667705775</v>
       </c>
       <c r="U110" s="7">
-        <v>0</v>
+        <v>1403701.5010519307</v>
       </c>
       <c r="V110" s="7">
-        <v>0</v>
+        <v>626990.14999874891</v>
       </c>
       <c r="W110" s="7">
-        <v>0</v>
+        <v>739063.59503600525</v>
       </c>
       <c r="X110" s="7">
-        <v>0</v>
+        <v>123335.44489582664</v>
       </c>
       <c r="Y110" s="7">
-        <v>0</v>
+        <v>491512.83514318842</v>
       </c>
       <c r="Z110" s="7">
-        <v>0</v>
+        <v>111619.72520274094</v>
       </c>
       <c r="AA110" s="8">
         <v>0</v>
       </c>
       <c r="AB110" s="13">
         <f t="shared" ref="AB110:AB113" si="0">SUM(B110:AA110)</f>
-        <v>1.3476371</v>
+        <v>108552878.76667392</v>
       </c>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.35">
@@ -8922,86 +8922,86 @@
         <v>10</v>
       </c>
       <c r="B111" s="6">
-        <v>81864043753.466522</v>
+        <v>81973843561.409775</v>
       </c>
       <c r="C111" s="7">
-        <v>77448100759.699539</v>
+        <v>77551977702.482803</v>
       </c>
       <c r="D111" s="7">
-        <v>73270364329.279526</v>
+        <v>73368637900.464386</v>
       </c>
       <c r="E111" s="7">
-        <v>69317985028.483795</v>
+        <v>69410957487.38237</v>
       </c>
       <c r="F111" s="7">
-        <v>65578806552.883316</v>
+        <v>65666763854.214989</v>
       </c>
       <c r="G111" s="7">
-        <v>62041328338.285065</v>
+        <v>62124541011.685379</v>
       </c>
       <c r="H111" s="7">
-        <v>58694670188.529953</v>
+        <v>58773394170.616638</v>
       </c>
       <c r="I111" s="7">
-        <v>55528538811.352196</v>
+        <v>55603016232.907562</v>
       </c>
       <c r="J111" s="7">
-        <v>52533196159.37471</v>
+        <v>52603656090.065567</v>
       </c>
       <c r="K111" s="7">
-        <v>49699429478.867256</v>
+        <v>49766088631.792816</v>
       </c>
       <c r="L111" s="7">
-        <v>47018522974.146408</v>
+        <v>47081586372.381195</v>
       </c>
       <c r="M111" s="7">
-        <v>44482231000.465813</v>
+        <v>44541892607.647659</v>
       </c>
       <c r="N111" s="7">
-        <v>42082752702.946281</v>
+        <v>42139196019.848885</v>
       </c>
       <c r="O111" s="7">
-        <v>39812708023.54287</v>
+        <v>39866106652.467789</v>
       </c>
       <c r="P111" s="7">
-        <v>37665115002.253708</v>
+        <v>37715633180.977707</v>
       </c>
       <c r="Q111" s="7">
-        <v>35633368302.756134</v>
+        <v>35681161409.676132</v>
       </c>
       <c r="R111" s="7">
-        <v>33711218896.421543</v>
+        <v>33756433928.450821</v>
       </c>
       <c r="S111" s="7">
-        <v>31892754842.223217</v>
+        <v>31935530866.908756</v>
       </c>
       <c r="T111" s="7">
-        <v>30172383103.422077</v>
+        <v>30212851686.673618</v>
       </c>
       <c r="U111" s="7">
-        <v>28544812345.104042</v>
+        <v>28583097955.850395</v>
       </c>
       <c r="V111" s="7">
-        <v>27005036659.659504</v>
+        <v>27041257052.676731</v>
       </c>
       <c r="W111" s="7">
-        <v>25548320170.14949</v>
+        <v>25582586748.238422</v>
       </c>
       <c r="X111" s="7">
-        <v>24170182464.20322</v>
+        <v>24202600620.830246</v>
       </c>
       <c r="Y111" s="7">
-        <v>22866384813.646187</v>
+        <v>22897054257.101181</v>
       </c>
       <c r="Z111" s="7">
-        <v>21632917137.47456</v>
+        <v>21641622074.728207</v>
       </c>
       <c r="AA111" s="8">
-        <v>20320549313.578232</v>
+        <v>0</v>
       </c>
       <c r="AB111" s="13">
         <f t="shared" si="0"/>
-        <v>1158535721152.2151</v>
+        <v>1139721488077.48</v>
       </c>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.35">
@@ -9009,86 +9009,86 @@
         <v>11</v>
       </c>
       <c r="B112" s="6">
-        <v>5.3156999999999783</v>
+        <v>6680832.790510186</v>
       </c>
       <c r="C112" s="7">
-        <v>4.8080499999999891</v>
+        <v>6597869.1890038159</v>
       </c>
       <c r="D112" s="7">
-        <v>3.9151911499999823</v>
+        <v>6544279.0233887751</v>
       </c>
       <c r="E112" s="7">
-        <v>2.3351665703499758</v>
+        <v>5705298.8174357945</v>
       </c>
       <c r="F112" s="7">
-        <v>2.1440197694831102</v>
+        <v>4781524.5565517619</v>
       </c>
       <c r="G112" s="7">
-        <v>2.1757946474084586</v>
+        <v>3778281.306606533</v>
       </c>
       <c r="H112" s="7">
-        <v>2.0230015361080596</v>
+        <v>3497093.818919112</v>
       </c>
       <c r="I112" s="7">
-        <v>2.1242870187282379</v>
+        <v>3162875.5547382412</v>
       </c>
       <c r="J112" s="7">
-        <v>2.1154901596824693</v>
+        <v>2875449.6019801125</v>
       </c>
       <c r="K112" s="7">
-        <v>2.0930028506138525</v>
+        <v>2512335.9673048593</v>
       </c>
       <c r="L112" s="7">
-        <v>2.020058576269367</v>
+        <v>2310791.7375436183</v>
       </c>
       <c r="M112" s="7">
-        <v>2.0823078034557843</v>
+        <v>2028744.1520221352</v>
       </c>
       <c r="N112" s="7">
-        <v>2.0197972736868728</v>
+        <v>1783842.7970875695</v>
       </c>
       <c r="O112" s="7">
-        <v>2.0925741491500509</v>
+        <v>1573990.3403025069</v>
       </c>
       <c r="P112" s="7">
-        <v>2.0406860164924026</v>
+        <v>1397201.7421943315</v>
       </c>
       <c r="Q112" s="7">
-        <v>2.1241808906408259</v>
+        <v>1131732.5689031847</v>
       </c>
       <c r="R112" s="7">
-        <v>2.0847606727895163</v>
+        <v>1015535.744020624</v>
       </c>
       <c r="S112" s="7">
-        <v>2.1775138836244854</v>
+        <v>918205.10790448519</v>
       </c>
       <c r="T112" s="7">
-        <v>2.0174502085771007</v>
+        <v>785829.59529897617</v>
       </c>
       <c r="U112" s="7">
-        <v>2.1229659604542914</v>
+        <v>747026.21964761522</v>
       </c>
       <c r="V112" s="7">
-        <v>1.8441113540983674</v>
+        <v>600996.01909194165</v>
       </c>
       <c r="W112" s="7">
-        <v>2.0909370562852465</v>
+        <v>591538.01414856827</v>
       </c>
       <c r="X112" s="7">
-        <v>1.9859513532055935</v>
+        <v>476052.49032645009</v>
       </c>
       <c r="Y112" s="7">
-        <v>2.1608441153838753</v>
+        <v>508691.5555225148</v>
       </c>
       <c r="Z112" s="7">
-        <v>0.53369091242286226</v>
+        <v>428144.51811810886</v>
       </c>
       <c r="AA112" s="8">
         <v>0</v>
       </c>
       <c r="AB112" s="13">
         <f t="shared" si="0"/>
-        <v>58.447533928910758</v>
+        <v>62434163.228571825</v>
       </c>
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.35">
@@ -9096,86 +9096,86 @@
         <v>12</v>
       </c>
       <c r="B113" s="9">
-        <v>0.61334999999999762</v>
+        <v>954203.80563945195</v>
       </c>
       <c r="C113" s="10">
-        <v>0.55477499999999869</v>
+        <v>943772.70462547685</v>
       </c>
       <c r="D113" s="10">
-        <v>0.45175282499999803</v>
+        <v>940524.16925087757</v>
       </c>
       <c r="E113" s="10">
-        <v>0.26728845042499721</v>
+        <v>815301.21688416554</v>
       </c>
       <c r="F113" s="10">
-        <v>0.24738689647882042</v>
+        <v>676714.90575954423</v>
       </c>
       <c r="G113" s="10">
-        <v>0.25105322854712986</v>
+        <v>524404.04177130852</v>
       </c>
       <c r="H113" s="10">
-        <v>0.23342325416631457</v>
+        <v>484618.05374493368</v>
       </c>
       <c r="I113" s="10">
-        <v>0.24511004062248901</v>
+        <v>436440.07767093822</v>
       </c>
       <c r="J113" s="10">
-        <v>0.24409501842490033</v>
+        <v>395310.56502841291</v>
       </c>
       <c r="K113" s="10">
-        <v>0.241500328916983</v>
+        <v>342292.66191648156</v>
       </c>
       <c r="L113" s="10">
-        <v>0.23308368187723466</v>
+        <v>314098.6818412799</v>
       </c>
       <c r="M113" s="10">
-        <v>0.24026628501412892</v>
+        <v>273290.22716765414</v>
       </c>
       <c r="N113" s="10">
-        <v>0.2330535315792546</v>
+        <v>238075.84658135427</v>
       </c>
       <c r="O113" s="10">
-        <v>0.24145086336346744</v>
+        <v>208139.30657137278</v>
       </c>
       <c r="P113" s="10">
-        <v>0.23546377113373876</v>
+        <v>183181.30173968629</v>
       </c>
       <c r="Q113" s="10">
-        <v>0.2450977950739415</v>
+        <v>144375.86373888684</v>
       </c>
       <c r="R113" s="10">
-        <v>0.24054930839879035</v>
+        <v>128540.20325359867</v>
       </c>
       <c r="S113" s="10">
-        <v>0.2512516019566714</v>
+        <v>115288.34094780521</v>
       </c>
       <c r="T113" s="10">
-        <v>0.23278271637428088</v>
+        <v>96956.999820736251</v>
       </c>
       <c r="U113" s="10">
-        <v>0.24495761082164905</v>
+        <v>92765.08912339063</v>
       </c>
       <c r="V113" s="10">
-        <v>0.21278207931904239</v>
+        <v>71824.066707979873</v>
       </c>
       <c r="W113" s="10">
-        <v>0.24126196803291305</v>
+        <v>71616.252369303606</v>
       </c>
       <c r="X113" s="10">
-        <v>0.22914823306218388</v>
+        <v>55352.546677292397</v>
       </c>
       <c r="Y113" s="10">
-        <v>0.24932816715967795</v>
+        <v>61345.972085707312</v>
       </c>
       <c r="Z113" s="10">
-        <v>6.157972066417642E-2</v>
+        <v>50098.321568678759</v>
       </c>
       <c r="AA113" s="11">
         <v>0</v>
       </c>
       <c r="AB113" s="14">
         <f t="shared" si="0"/>
-        <v>6.7417923764127794</v>
+        <v>8618531.222486319</v>
       </c>
     </row>
   </sheetData>

--- a/717A11_output.xlsx
+++ b/717A11_output.xlsx
@@ -742,55 +742,55 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>476.58096263725793</v>
+        <v>476.58096263726014</v>
       </c>
       <c r="H3" s="4">
-        <v>377.70348649885864</v>
+        <v>379.42441201882252</v>
       </c>
       <c r="I3" s="4">
-        <v>403.60336882312225</v>
+        <v>405.3242943430842</v>
       </c>
       <c r="J3" s="4">
-        <v>389.91049839803054</v>
+        <v>391.63142391799244</v>
       </c>
       <c r="K3" s="4">
-        <v>498.05101802737397</v>
+        <v>499.77194354733638</v>
       </c>
       <c r="L3" s="4">
-        <v>411.81888815109181</v>
+        <v>413.53981367105558</v>
       </c>
       <c r="M3" s="4">
-        <v>451.57610733507386</v>
+        <v>453.29703285503615</v>
       </c>
       <c r="N3" s="4">
-        <v>460.06517014817018</v>
+        <v>461.78609566813196</v>
       </c>
       <c r="O3" s="4">
-        <v>439.09701579602063</v>
+        <v>440.81794131598269</v>
       </c>
       <c r="P3" s="4">
-        <v>390.38601541551873</v>
+        <v>392.10694093548045</v>
       </c>
       <c r="Q3" s="4">
-        <v>474.72572062992197</v>
+        <v>476.44664614988278</v>
       </c>
       <c r="R3" s="4">
-        <v>375.31168377619593</v>
+        <v>375.31168377619633</v>
       </c>
       <c r="S3" s="4">
-        <v>435.1396077248308</v>
+        <v>435.13960772482977</v>
       </c>
       <c r="T3" s="4">
-        <v>243.2736785125249</v>
+        <v>243.27367851252529</v>
       </c>
       <c r="U3" s="4">
-        <v>78.059328724960324</v>
+        <v>78.059328724959414</v>
       </c>
       <c r="V3" s="4">
         <v>78</v>
       </c>
       <c r="W3" s="4">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="X3" s="4">
         <v>0</v>
@@ -813,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="7">
-        <v>149.65758779767953</v>
+        <v>148.72323737661523</v>
       </c>
       <c r="D4" s="7">
-        <v>606.04188169903796</v>
+        <v>606.04188169904342</v>
       </c>
       <c r="E4" s="7">
         <v>665.6</v>
@@ -944,7 +944,7 @@
         <v>46.5</v>
       </c>
       <c r="S5" s="7">
-        <v>26.787972565084999</v>
+        <v>26.787972565086477</v>
       </c>
       <c r="T5" s="7">
         <v>46.5</v>
@@ -959,7 +959,7 @@
         <v>46.5</v>
       </c>
       <c r="X5" s="7">
-        <v>34.372432155944182</v>
+        <v>34.372432155943898</v>
       </c>
       <c r="Y5" s="7">
         <v>46.5</v>
@@ -976,7 +976,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C6" s="7">
         <v>212</v>
@@ -1059,7 +1059,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>183.18806320476443</v>
+        <v>149.82931106635917</v>
       </c>
       <c r="C7" s="7">
         <v>464</v>
@@ -1205,7 +1205,7 @@
         <v>101.5</v>
       </c>
       <c r="W8" s="7">
-        <v>38.087889959491179</v>
+        <v>86.928738357001748</v>
       </c>
       <c r="X8" s="7">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D9" s="7">
         <v>84.6</v>
@@ -1377,10 +1377,10 @@
         <v>88</v>
       </c>
       <c r="Y10" s="7">
-        <v>85.513755621297207</v>
+        <v>85.51375562129715</v>
       </c>
       <c r="Z10" s="7">
-        <v>16.480629421888807</v>
+        <v>16.480629421889489</v>
       </c>
       <c r="AA10" s="8">
         <v>0</v>
@@ -1617,10 +1617,10 @@
         <v>154</v>
       </c>
       <c r="V13" s="7">
-        <v>126.02157994994678</v>
+        <v>126.02157994994501</v>
       </c>
       <c r="W13" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="X13" s="7">
         <v>130.41031219811521</v>
@@ -1646,7 +1646,7 @@
         <v>150</v>
       </c>
       <c r="D14" s="7">
-        <v>120.52511830096</v>
+        <v>120.52511830095455</v>
       </c>
       <c r="E14" s="7">
         <v>0</v>
@@ -1732,10 +1732,10 @@
         <v>1848</v>
       </c>
       <c r="E15" s="7">
-        <v>1267.9555255442688</v>
+        <v>1267.9555255442669</v>
       </c>
       <c r="F15" s="7">
-        <v>621.3425041496821</v>
+        <v>621.34250414968039</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="7">
-        <v>591.65057745572744</v>
+        <v>591.65057745572904</v>
       </c>
       <c r="F16" s="7">
         <v>656.1</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="7">
-        <v>10.579953777313113</v>
+        <v>10.579953777314245</v>
       </c>
       <c r="G17" s="7">
         <v>50.3</v>
@@ -2070,37 +2070,37 @@
         <v>257</v>
       </c>
       <c r="G19" s="7">
-        <v>171.84029741107952</v>
+        <v>171.84029741107685</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="J19" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="O19" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="R19" s="7">
         <v>0</v>
@@ -2109,22 +2109,22 @@
         <v>257</v>
       </c>
       <c r="T19" s="7">
-        <v>169.08551776878789</v>
+        <v>169.08551776878767</v>
       </c>
       <c r="U19" s="7">
-        <v>158.32540032288381</v>
+        <v>158.32540032288443</v>
       </c>
       <c r="V19" s="7">
-        <v>61.054911659326535</v>
+        <v>61.054911659328027</v>
       </c>
       <c r="W19" s="7">
-        <v>75.852590074264299</v>
+        <v>82.011741676753445</v>
       </c>
       <c r="X19" s="7">
         <v>0</v>
       </c>
       <c r="Y19" s="7">
-        <v>47.218760842125732</v>
+        <v>47.218760842124084</v>
       </c>
       <c r="Z19" s="7">
         <v>0</v>
@@ -2156,37 +2156,37 @@
         <v>2269.6</v>
       </c>
       <c r="H20" s="7">
-        <v>2256.2042648899132</v>
+        <v>2215.4833393699491</v>
       </c>
       <c r="I20" s="7">
-        <v>1996.7838523281471</v>
+        <v>1956.0629268081852</v>
       </c>
       <c r="J20" s="7">
-        <v>1777.5545077435995</v>
+        <v>1736.8335822236377</v>
       </c>
       <c r="K20" s="7">
-        <v>1487.0954731695301</v>
+        <v>1446.3745476495678</v>
       </c>
       <c r="L20" s="7">
-        <v>1341.6182214665837</v>
+        <v>1300.8972959466209</v>
       </c>
       <c r="M20" s="7">
-        <v>1120.7662362691592</v>
+        <v>1080.0453107491969</v>
       </c>
       <c r="N20" s="7">
-        <v>931.80255454849976</v>
+        <v>891.08162902853792</v>
       </c>
       <c r="O20" s="7">
-        <v>772.92181842291973</v>
+        <v>732.20089290295812</v>
       </c>
       <c r="P20" s="7">
-        <v>642.41528831139237</v>
+        <v>601.69436279143065</v>
       </c>
       <c r="Q20" s="7">
-        <v>429.49509483052941</v>
+        <v>388.77416931056905</v>
       </c>
       <c r="R20" s="7">
-        <v>350.97141902339848</v>
+        <v>350.97141902339808</v>
       </c>
       <c r="S20" s="7">
         <v>0</v>
@@ -2221,7 +2221,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6">
-        <v>25.311936795235738</v>
+        <v>26.670688933641006</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -2373,10 +2373,10 @@
         <v>398.3</v>
       </c>
       <c r="Y22" s="7">
-        <v>298.5768725898219</v>
+        <v>298.57687258982332</v>
       </c>
       <c r="Z22" s="7">
-        <v>292.24594413283495</v>
+        <v>292.24594413283467</v>
       </c>
       <c r="AA22" s="8">
         <v>0</v>
@@ -2399,25 +2399,25 @@
         <v>28.100000000000009</v>
       </c>
       <c r="F23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.1</v>
       </c>
       <c r="G23" s="7">
         <v>28.100000000000009</v>
       </c>
       <c r="H23" s="7">
+        <v>28.099999999999994</v>
+      </c>
+      <c r="I23" s="7">
+        <v>28.1</v>
+      </c>
+      <c r="J23" s="7">
+        <v>28.099999999999994</v>
+      </c>
+      <c r="K23" s="7">
+        <v>28.099999999999994</v>
+      </c>
+      <c r="L23" s="7">
         <v>28.100000000000009</v>
-      </c>
-      <c r="I23" s="7">
-        <v>28.099999999999994</v>
-      </c>
-      <c r="J23" s="7">
-        <v>28.100000000000009</v>
-      </c>
-      <c r="K23" s="7">
-        <v>28.100000000000009</v>
-      </c>
-      <c r="L23" s="7">
-        <v>28.1</v>
       </c>
       <c r="M23" s="7">
         <v>28.100000000000009</v>
@@ -2429,10 +2429,10 @@
         <v>28.1</v>
       </c>
       <c r="P23" s="7">
+        <v>28.100000000000009</v>
+      </c>
+      <c r="Q23" s="7">
         <v>28.1</v>
-      </c>
-      <c r="Q23" s="7">
-        <v>28.099999999999994</v>
       </c>
       <c r="R23" s="7">
         <v>28.099999999999994</v>
@@ -2441,25 +2441,25 @@
         <v>28.099999999999994</v>
       </c>
       <c r="T23" s="7">
-        <v>28.099999999999994</v>
+        <v>28.100000000000009</v>
       </c>
       <c r="U23" s="7">
         <v>28.099999999999994</v>
       </c>
       <c r="V23" s="7">
-        <v>28.1</v>
+        <v>28.099999999999994</v>
       </c>
       <c r="W23" s="7">
+        <v>28.099999999999994</v>
+      </c>
+      <c r="X23" s="7">
+        <v>28.099999999999994</v>
+      </c>
+      <c r="Y23" s="7">
+        <v>28.099999999999994</v>
+      </c>
+      <c r="Z23" s="7">
         <v>28.100000000000009</v>
-      </c>
-      <c r="X23" s="7">
-        <v>28.100000000000009</v>
-      </c>
-      <c r="Y23" s="7">
-        <v>28.1</v>
-      </c>
-      <c r="Z23" s="7">
-        <v>28.1</v>
       </c>
       <c r="AA23" s="8">
         <v>28.1</v>
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D24" s="7">
         <v>25</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>9.4767626233832232</v>
       </c>
       <c r="D25" s="7">
         <v>70</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="7">
-        <v>30.599999999999998</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
         <v>30.6</v>
@@ -2651,10 +2651,10 @@
         <v>30.6</v>
       </c>
       <c r="G26" s="7">
+        <v>30.599999999999998</v>
+      </c>
+      <c r="H26" s="7">
         <v>30.6</v>
-      </c>
-      <c r="H26" s="7">
-        <v>30.599999999999998</v>
       </c>
       <c r="I26" s="7">
         <v>30.6</v>
@@ -2666,7 +2666,7 @@
         <v>30.6</v>
       </c>
       <c r="L26" s="7">
-        <v>30.599999999999998</v>
+        <v>30.6</v>
       </c>
       <c r="M26" s="7">
         <v>30.6</v>
@@ -2687,16 +2687,16 @@
         <v>30.6</v>
       </c>
       <c r="S26" s="7">
+        <v>30.599999999999998</v>
+      </c>
+      <c r="T26" s="7">
         <v>30.6</v>
       </c>
-      <c r="T26" s="7">
+      <c r="U26" s="7">
+        <v>30.6</v>
+      </c>
+      <c r="V26" s="7">
         <v>30.599999999999998</v>
-      </c>
-      <c r="U26" s="7">
-        <v>30.599999999999998</v>
-      </c>
-      <c r="V26" s="7">
-        <v>30.6</v>
       </c>
       <c r="W26" s="7">
         <v>30.6</v>
@@ -2705,10 +2705,10 @@
         <v>30.6</v>
       </c>
       <c r="Y26" s="7">
-        <v>30.599999999999998</v>
+        <v>30.6</v>
       </c>
       <c r="Z26" s="7">
-        <v>30.599999999999998</v>
+        <v>30.6</v>
       </c>
       <c r="AA26" s="8">
         <v>30.6</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D27" s="7">
         <v>10</v>
@@ -2731,7 +2731,7 @@
         <v>10</v>
       </c>
       <c r="F27" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="G27" s="7">
         <v>10</v>
@@ -2758,7 +2758,7 @@
         <v>10</v>
       </c>
       <c r="O27" s="7">
-        <v>10.000000000000014</v>
+        <v>10</v>
       </c>
       <c r="P27" s="7">
         <v>10</v>
@@ -2770,13 +2770,13 @@
         <v>10</v>
       </c>
       <c r="S27" s="7">
+        <v>10</v>
+      </c>
+      <c r="T27" s="7">
+        <v>10</v>
+      </c>
+      <c r="U27" s="7">
         <v>9.9999999999999858</v>
-      </c>
-      <c r="T27" s="7">
-        <v>9.9999999999999858</v>
-      </c>
-      <c r="U27" s="7">
-        <v>10</v>
       </c>
       <c r="V27" s="7">
         <v>10</v>
@@ -2820,7 +2820,7 @@
         <v>10</v>
       </c>
       <c r="H28" s="7">
-        <v>10</v>
+        <v>9.9999999999999858</v>
       </c>
       <c r="I28" s="7">
         <v>10</v>
@@ -2841,43 +2841,43 @@
         <v>10</v>
       </c>
       <c r="O28" s="7">
+        <v>10</v>
+      </c>
+      <c r="P28" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>10</v>
+      </c>
+      <c r="R28" s="7">
+        <v>10</v>
+      </c>
+      <c r="S28" s="7">
+        <v>10</v>
+      </c>
+      <c r="T28" s="7">
+        <v>10</v>
+      </c>
+      <c r="U28" s="7">
+        <v>10</v>
+      </c>
+      <c r="V28" s="7">
+        <v>10</v>
+      </c>
+      <c r="W28" s="7">
+        <v>10</v>
+      </c>
+      <c r="X28" s="7">
+        <v>10</v>
+      </c>
+      <c r="Y28" s="7">
+        <v>10</v>
+      </c>
+      <c r="Z28" s="7">
+        <v>10</v>
+      </c>
+      <c r="AA28" s="8">
         <v>9.9999999999999929</v>
-      </c>
-      <c r="P28" s="7">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="7">
-        <v>10</v>
-      </c>
-      <c r="R28" s="7">
-        <v>10</v>
-      </c>
-      <c r="S28" s="7">
-        <v>10</v>
-      </c>
-      <c r="T28" s="7">
-        <v>10</v>
-      </c>
-      <c r="U28" s="7">
-        <v>10</v>
-      </c>
-      <c r="V28" s="7">
-        <v>10.000000000000014</v>
-      </c>
-      <c r="W28" s="7">
-        <v>10</v>
-      </c>
-      <c r="X28" s="7">
-        <v>10</v>
-      </c>
-      <c r="Y28" s="7">
-        <v>10</v>
-      </c>
-      <c r="Z28" s="7">
-        <v>10</v>
-      </c>
-      <c r="AA28" s="8">
-        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.35">
@@ -2954,7 +2954,7 @@
         <v>10</v>
       </c>
       <c r="Y29" s="7">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
       <c r="Z29" s="7">
         <v>10</v>
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="7">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="D30" s="7">
         <v>52.2</v>
@@ -2980,7 +2980,7 @@
         <v>52.2</v>
       </c>
       <c r="F30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="G30" s="7">
         <v>52.2</v>
@@ -2989,16 +2989,16 @@
         <v>52.2</v>
       </c>
       <c r="I30" s="7">
+        <v>52.20000000000001</v>
+      </c>
+      <c r="J30" s="7">
         <v>52.200000000000017</v>
       </c>
-      <c r="J30" s="7">
+      <c r="K30" s="7">
+        <v>52.200000000000017</v>
+      </c>
+      <c r="L30" s="7">
         <v>52.2</v>
-      </c>
-      <c r="K30" s="7">
-        <v>52.2</v>
-      </c>
-      <c r="L30" s="7">
-        <v>52.20000000000001</v>
       </c>
       <c r="M30" s="7">
         <v>52.2</v>
@@ -3007,43 +3007,43 @@
         <v>52.2</v>
       </c>
       <c r="O30" s="7">
+        <v>52.20000000000001</v>
+      </c>
+      <c r="P30" s="7">
         <v>52.2</v>
       </c>
-      <c r="P30" s="7">
+      <c r="Q30" s="7">
         <v>52.20000000000001</v>
-      </c>
-      <c r="Q30" s="7">
-        <v>52.2</v>
       </c>
       <c r="R30" s="7">
         <v>52.200000000000017</v>
       </c>
       <c r="S30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="T30" s="7">
         <v>52.2</v>
       </c>
       <c r="U30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.2</v>
       </c>
       <c r="V30" s="7">
         <v>52.2</v>
       </c>
       <c r="W30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="X30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="Y30" s="7">
         <v>52.200000000000017</v>
       </c>
       <c r="Z30" s="7">
+        <v>52.2</v>
+      </c>
+      <c r="AA30" s="8">
         <v>52.200000000000017</v>
-      </c>
-      <c r="AA30" s="8">
-        <v>52.20000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.35">
@@ -3054,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="7">
-        <v>1.4424122023189199</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7">
         <v>10</v>
@@ -3111,7 +3111,7 @@
         <v>10</v>
       </c>
       <c r="V31" s="7">
-        <v>10</v>
+        <v>9.9999999999999858</v>
       </c>
       <c r="W31" s="7">
         <v>10</v>
@@ -3123,7 +3123,7 @@
         <v>10</v>
       </c>
       <c r="Z31" s="7">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
       <c r="AA31" s="8">
         <v>10</v>
@@ -3137,34 +3137,34 @@
         <v>0</v>
       </c>
       <c r="C32" s="7">
-        <v>20.2</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>20.2</v>
+        <v>20.200000000000003</v>
       </c>
       <c r="E32" s="7">
         <v>20.200000000000003</v>
       </c>
       <c r="F32" s="7">
-        <v>20.199999999999996</v>
+        <v>20.2</v>
       </c>
       <c r="G32" s="7">
         <v>20.2</v>
       </c>
       <c r="H32" s="7">
-        <v>20.2</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="I32" s="7">
         <v>20.199999999999996</v>
       </c>
       <c r="J32" s="7">
-        <v>20.200000000000003</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="K32" s="7">
         <v>20.199999999999996</v>
       </c>
       <c r="L32" s="7">
-        <v>20.2</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="M32" s="7">
         <v>20.200000000000003</v>
@@ -3176,37 +3176,37 @@
         <v>20.200000000000003</v>
       </c>
       <c r="P32" s="7">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>20.200000000000003</v>
+      </c>
+      <c r="R32" s="7">
+        <v>20.200000000000003</v>
+      </c>
+      <c r="S32" s="7">
         <v>20.2</v>
       </c>
-      <c r="Q32" s="7">
-        <v>20.199999999999996</v>
-      </c>
-      <c r="R32" s="7">
-        <v>20.199999999999996</v>
-      </c>
-      <c r="S32" s="7">
+      <c r="T32" s="7">
         <v>20.200000000000003</v>
-      </c>
-      <c r="T32" s="7">
-        <v>20.2</v>
       </c>
       <c r="U32" s="7">
         <v>20.2</v>
       </c>
       <c r="V32" s="7">
-        <v>20.200000000000003</v>
+        <v>20.2</v>
       </c>
       <c r="W32" s="7">
-        <v>20.200000000000003</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="X32" s="7">
-        <v>20.200000000000003</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="Y32" s="7">
-        <v>20.2</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="Z32" s="7">
-        <v>20.2</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="AA32" s="8">
         <v>20.200000000000003</v>
@@ -3220,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D33" s="7">
         <v>70</v>
@@ -3345,7 +3345,7 @@
         <v>10.5</v>
       </c>
       <c r="Q34" s="7">
-        <v>10.499999999999986</v>
+        <v>10.5</v>
       </c>
       <c r="R34" s="7">
         <v>10.5</v>
@@ -3443,7 +3443,7 @@
         <v>10</v>
       </c>
       <c r="V35" s="7">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
       <c r="W35" s="7">
         <v>10</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D36" s="7">
         <v>10</v>
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="I36" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="J36" s="7">
         <v>10</v>
@@ -3508,7 +3508,7 @@
         <v>10</v>
       </c>
       <c r="P36" s="7">
-        <v>10</v>
+        <v>10.000000000000002</v>
       </c>
       <c r="Q36" s="7">
         <v>10</v>
@@ -3552,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D37" s="7">
         <v>10</v>
@@ -3573,7 +3573,7 @@
         <v>10</v>
       </c>
       <c r="J37" s="7">
-        <v>10</v>
+        <v>10.000000000000002</v>
       </c>
       <c r="K37" s="7">
         <v>10</v>
@@ -3606,7 +3606,7 @@
         <v>10</v>
       </c>
       <c r="U37" s="7">
-        <v>10.000000000000002</v>
+        <v>10</v>
       </c>
       <c r="V37" s="7">
         <v>10</v>
@@ -3650,10 +3650,10 @@
         <v>10</v>
       </c>
       <c r="H38" s="7">
+        <v>10</v>
+      </c>
+      <c r="I38" s="7">
         <v>10.000000000000002</v>
-      </c>
-      <c r="I38" s="7">
-        <v>10</v>
       </c>
       <c r="J38" s="7">
         <v>10</v>
@@ -3730,16 +3730,16 @@
         <v>10.099999999999994</v>
       </c>
       <c r="G39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.1</v>
       </c>
       <c r="H39" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="I39" s="7">
         <v>10.1</v>
       </c>
-      <c r="I39" s="7">
-        <v>10.100000000000001</v>
-      </c>
       <c r="J39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.1</v>
       </c>
       <c r="K39" s="7">
         <v>10.099999999999994</v>
@@ -3748,7 +3748,7 @@
         <v>10.099999999999994</v>
       </c>
       <c r="M39" s="7">
-        <v>10.1</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="N39" s="7">
         <v>10.099999999999994</v>
@@ -3757,7 +3757,7 @@
         <v>10.099999999999994</v>
       </c>
       <c r="P39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.1</v>
       </c>
       <c r="Q39" s="7">
         <v>10.100000000000001</v>
@@ -3766,13 +3766,13 @@
         <v>10.099999999999994</v>
       </c>
       <c r="S39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.1</v>
       </c>
       <c r="T39" s="7">
         <v>10.099999999999994</v>
       </c>
       <c r="U39" s="7">
-        <v>10.1</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="V39" s="7">
         <v>10.099999999999994</v>
@@ -3781,13 +3781,13 @@
         <v>10.099999999999994</v>
       </c>
       <c r="X39" s="7">
-        <v>10.100000000000001</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="Y39" s="7">
         <v>10.099999999999994</v>
       </c>
       <c r="Z39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="AA39" s="8">
         <v>10.099999999999994</v>
@@ -3801,31 +3801,31 @@
         <v>0</v>
       </c>
       <c r="C40" s="7">
-        <v>10.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="D40" s="7">
-        <v>10.099999999999998</v>
+        <v>10.1</v>
       </c>
       <c r="E40" s="7">
         <v>10.1</v>
       </c>
       <c r="F40" s="7">
+        <v>10.099999999999998</v>
+      </c>
+      <c r="G40" s="7">
         <v>10.100000000000001</v>
       </c>
-      <c r="G40" s="7">
-        <v>10.099999999999998</v>
-      </c>
       <c r="H40" s="7">
-        <v>10.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="I40" s="7">
-        <v>10.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="J40" s="7">
         <v>10.1</v>
       </c>
       <c r="K40" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="L40" s="7">
         <v>10.100000000000001</v>
@@ -3834,13 +3834,13 @@
         <v>10.1</v>
       </c>
       <c r="N40" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="O40" s="7">
         <v>10.100000000000001</v>
       </c>
-      <c r="O40" s="7">
+      <c r="P40" s="7">
         <v>10.1</v>
-      </c>
-      <c r="P40" s="7">
-        <v>10.099999999999998</v>
       </c>
       <c r="Q40" s="7">
         <v>10.100000000000001</v>
@@ -3849,28 +3849,28 @@
         <v>10.1</v>
       </c>
       <c r="S40" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="T40" s="7">
         <v>10.1</v>
       </c>
-      <c r="T40" s="7">
-        <v>10.100000000000001</v>
-      </c>
       <c r="U40" s="7">
-        <v>10.100000000000001</v>
+        <v>10.099999999999998</v>
       </c>
       <c r="V40" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="W40" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="X40" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="Y40" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="Z40" s="7">
-        <v>10.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="AA40" s="8">
         <v>10.100000000000001</v>
@@ -3967,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D42" s="7">
         <v>12</v>
@@ -4122,7 +4122,7 @@
         <v>4750</v>
       </c>
       <c r="AA43" s="8">
-        <v>6398.6405127167163</v>
+        <v>5698.6405127167163</v>
       </c>
       <c r="AB43" t="s">
         <v>15</v>
@@ -4187,28 +4187,28 @@
         <v>0</v>
       </c>
       <c r="T44" s="7">
-        <v>9.9999999999997158</v>
+        <v>10</v>
       </c>
       <c r="U44" s="7">
-        <v>9.9999999999997158</v>
+        <v>10</v>
       </c>
       <c r="V44" s="7">
-        <v>9.9999999999997158</v>
+        <v>10</v>
       </c>
       <c r="W44" s="7">
-        <v>9.9999999999997158</v>
+        <v>10</v>
       </c>
       <c r="X44" s="7">
-        <v>9.9999999999997158</v>
+        <v>10</v>
       </c>
       <c r="Y44" s="7">
-        <v>9.9999999999997158</v>
+        <v>10</v>
       </c>
       <c r="Z44" s="7">
-        <v>9.9999999999997158</v>
+        <v>10</v>
       </c>
       <c r="AA44" s="8">
-        <v>1929.9999999999998</v>
+        <v>2630</v>
       </c>
       <c r="AB44" t="s">
         <v>16</v>
@@ -4482,76 +4482,76 @@
         <v>0</v>
       </c>
       <c r="C50" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="D50" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="E50" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="F50" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="G50" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="H50" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="I50" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="J50" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="K50" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="L50" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="M50" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="N50" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="O50" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="P50" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="Q50" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="R50" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="S50" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="T50" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="U50" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="V50" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="W50" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="X50" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="Y50" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="Z50" s="7">
-        <v>0</v>
+        <v>665.6</v>
       </c>
       <c r="AA50" s="8">
         <v>0</v>
@@ -4613,28 +4613,28 @@
         <v>0</v>
       </c>
       <c r="S51" s="7">
-        <v>0</v>
+        <v>45.308185217437426</v>
       </c>
       <c r="T51" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="U51" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="V51" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="W51" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="X51" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="Y51" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="Z51" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="AA51" s="8">
         <v>0</v>
@@ -4645,79 +4645,79 @@
         <v>4</v>
       </c>
       <c r="B52" s="6">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="C52" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="D52" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="E52" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="F52" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="G52" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="H52" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="I52" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="J52" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="K52" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="L52" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="M52" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="N52" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="O52" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="P52" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="Q52" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="R52" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="S52" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="T52" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="U52" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="V52" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="W52" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="X52" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="Y52" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="Z52" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="AA52" s="8">
         <v>0</v>
@@ -4779,28 +4779,28 @@
         <v>0</v>
       </c>
       <c r="S53" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="T53" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="U53" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="V53" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="W53" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="X53" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="Y53" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="Z53" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="AA53" s="8">
         <v>0</v>
@@ -4897,76 +4897,76 @@
         <v>0</v>
       </c>
       <c r="C55" s="7">
-        <v>0</v>
+        <v>84.6</v>
       </c>
       <c r="D55" s="7">
-        <v>0</v>
+        <v>84.6</v>
       </c>
       <c r="E55" s="7">
-        <v>0</v>
+        <v>84.6</v>
       </c>
       <c r="F55" s="7">
-        <v>0</v>
+        <v>84.6</v>
       </c>
       <c r="G55" s="7">
-        <v>0</v>
+        <v>84.6</v>
       </c>
       <c r="H55" s="7">
-        <v>0</v>
+        <v>84.6</v>
       </c>
       <c r="I55" s="7">
-        <v>0</v>
+        <v>84.6</v>
       </c>
       <c r="J55" s="7">
-        <v>0</v>
+        <v>84.6</v>
       </c>
       <c r="K55" s="7">
-        <v>0</v>
+        <v>84.6</v>
       </c>
       <c r="L55" s="7">
-        <v>0</v>
+        <v>84.6</v>
       </c>
       <c r="M55" s="7">
-        <v>0</v>
+        <v>84.6</v>
       </c>
       <c r="N55" s="7">
-        <v>0</v>
+        <v>84.6</v>
       </c>
       <c r="O55" s="7">
-        <v>0</v>
+        <v>84.6</v>
       </c>
       <c r="P55" s="7">
-        <v>0</v>
+        <v>84.6</v>
       </c>
       <c r="Q55" s="7">
-        <v>0</v>
+        <v>84.6</v>
       </c>
       <c r="R55" s="7">
-        <v>0</v>
+        <v>84.6</v>
       </c>
       <c r="S55" s="7">
-        <v>0</v>
+        <v>84.6</v>
       </c>
       <c r="T55" s="7">
-        <v>0</v>
+        <v>84.6</v>
       </c>
       <c r="U55" s="7">
-        <v>0</v>
+        <v>84.6</v>
       </c>
       <c r="V55" s="7">
-        <v>0</v>
+        <v>84.6</v>
       </c>
       <c r="W55" s="7">
-        <v>0</v>
+        <v>84.6</v>
       </c>
       <c r="X55" s="7">
-        <v>0</v>
+        <v>84.6</v>
       </c>
       <c r="Y55" s="7">
-        <v>0</v>
+        <v>84.6</v>
       </c>
       <c r="Z55" s="7">
-        <v>0</v>
+        <v>84.6</v>
       </c>
       <c r="AA55" s="8">
         <v>0</v>
@@ -5063,76 +5063,76 @@
         <v>0</v>
       </c>
       <c r="C57" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="D57" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E57" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="F57" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="G57" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="H57" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="I57" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="J57" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="K57" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="L57" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="M57" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="N57" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="O57" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="P57" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="Q57" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="R57" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="S57" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="T57" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="U57" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="V57" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="W57" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="X57" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="Y57" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="Z57" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="AA57" s="8">
         <v>0</v>
@@ -5197,25 +5197,25 @@
         <v>0</v>
       </c>
       <c r="T58" s="7">
-        <v>0</v>
+        <v>10.817758884394085</v>
       </c>
       <c r="U58" s="7">
-        <v>0</v>
+        <v>33.025418714353322</v>
       </c>
       <c r="V58" s="7">
-        <v>0</v>
+        <v>55.432947482782197</v>
       </c>
       <c r="W58" s="7">
-        <v>0</v>
+        <v>78.042144010127004</v>
       </c>
       <c r="X58" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="Y58" s="7">
-        <v>0</v>
+        <v>123.87281671597373</v>
       </c>
       <c r="Z58" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="AA58" s="8">
         <v>0</v>
@@ -5541,13 +5541,13 @@
         <v>0</v>
       </c>
       <c r="X62" s="7">
-        <v>0</v>
+        <v>171.85482330621812</v>
       </c>
       <c r="Y62" s="7">
         <v>0</v>
       </c>
       <c r="Z62" s="7">
-        <v>0</v>
+        <v>218.09797206641741</v>
       </c>
       <c r="AA62" s="8">
         <v>0</v>
@@ -5692,28 +5692,28 @@
         <v>0</v>
       </c>
       <c r="S64" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="T64" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="U64" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="V64" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="W64" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="X64" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="Y64" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="Z64" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="AA64" s="8">
         <v>0</v>
@@ -5724,76 +5724,76 @@
         <v>17</v>
       </c>
       <c r="B65" s="6">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="C65" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="D65" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="E65" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="F65" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="G65" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="H65" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="I65" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="J65" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="K65" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="L65" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="M65" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="N65" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="O65" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="P65" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="Q65" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="R65" s="7">
         <v>0</v>
       </c>
       <c r="S65" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="T65" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="U65" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="V65" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="W65" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="X65" s="7">
         <v>0</v>
       </c>
       <c r="Y65" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="Z65" s="7">
         <v>0</v>
@@ -5807,55 +5807,55 @@
         <v>18</v>
       </c>
       <c r="B66" s="6">
-        <v>0</v>
+        <v>1631</v>
       </c>
       <c r="C66" s="7">
-        <v>0</v>
+        <v>249.69999999999948</v>
       </c>
       <c r="D66" s="7">
-        <v>0</v>
+        <v>268.77009999999956</v>
       </c>
       <c r="E66" s="7">
-        <v>0</v>
+        <v>288.01183089999921</v>
       </c>
       <c r="F66" s="7">
-        <v>0</v>
+        <v>307.42673737809878</v>
       </c>
       <c r="G66" s="7">
-        <v>0</v>
+        <v>327.01637801450141</v>
       </c>
       <c r="H66" s="7">
-        <v>0</v>
+        <v>346.78232541663152</v>
       </c>
       <c r="I66" s="7">
-        <v>0</v>
+        <v>366.72616634538105</v>
       </c>
       <c r="J66" s="7">
-        <v>0</v>
+        <v>386.84950184248936</v>
       </c>
       <c r="K66" s="7">
-        <v>0</v>
+        <v>407.15394735907165</v>
       </c>
       <c r="L66" s="7">
-        <v>0</v>
+        <v>427.64113288530291</v>
       </c>
       <c r="M66" s="7">
-        <v>0</v>
+        <v>448.31270308127046</v>
       </c>
       <c r="N66" s="7">
-        <v>0</v>
+        <v>469.17031740900126</v>
       </c>
       <c r="O66" s="7">
-        <v>0</v>
+        <v>490.21565026568237</v>
       </c>
       <c r="P66" s="7">
-        <v>0</v>
+        <v>511.45039111807336</v>
       </c>
       <c r="Q66" s="7">
-        <v>0</v>
+        <v>532.87624463813563</v>
       </c>
       <c r="R66" s="7">
-        <v>0</v>
+        <v>811.49493083987886</v>
       </c>
       <c r="S66" s="7">
         <v>0</v>
@@ -5864,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="U66" s="7">
-        <v>0</v>
+        <v>2.2737367544323206E-13</v>
       </c>
       <c r="V66" s="7">
         <v>0</v>
@@ -7856,28 +7856,28 @@
         <v>0</v>
       </c>
       <c r="T90" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U90" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V90" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W90" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X90" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y90" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z90" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA90" s="8">
-        <v>0</v>
+        <v>2627.2321538150145</v>
       </c>
       <c r="AB90" t="s">
         <v>16</v>
@@ -7984,55 +7984,55 @@
         <v>1</v>
       </c>
       <c r="B95" s="3">
-        <v>131.42935440158806</v>
+        <v>130.97643702211982</v>
       </c>
       <c r="C95" s="4">
-        <v>251.08839186511989</v>
+        <v>321.81666666666626</v>
       </c>
       <c r="D95" s="4">
-        <v>366.23840446602577</v>
+        <v>366.23840446602952</v>
       </c>
       <c r="E95" s="4">
-        <v>445.38034435000094</v>
+        <v>445.3803443500006</v>
       </c>
       <c r="F95" s="4">
-        <v>626.31845204158913</v>
+        <v>626.3184520415889</v>
       </c>
       <c r="G95" s="4">
         <v>982.41113455139237</v>
       </c>
       <c r="H95" s="4">
-        <v>840.47206649497662</v>
+        <v>841.04570833496473</v>
       </c>
       <c r="I95" s="4">
-        <v>756.861298742023</v>
+        <v>757.4349405820102</v>
       </c>
       <c r="J95" s="4">
-        <v>660.12275018253445</v>
+        <v>660.69639202252176</v>
       </c>
       <c r="K95" s="4">
-        <v>620.73242998209753</v>
+        <v>621.30607182208564</v>
       </c>
       <c r="L95" s="4">
-        <v>499.95562550576005</v>
+        <v>500.52926734574737</v>
       </c>
       <c r="M95" s="4">
-        <v>437.91364253218552</v>
+        <v>438.48728437217358</v>
       </c>
       <c r="N95" s="4">
-        <v>365.52129126400195</v>
+        <v>366.09493310398977</v>
       </c>
       <c r="O95" s="4">
-        <v>283.38286925755017</v>
+        <v>283.95651109753749</v>
       </c>
       <c r="P95" s="4">
-        <v>192.07049057331278</v>
+        <v>192.6441324132999</v>
       </c>
       <c r="Q95" s="4">
-        <v>161.84933534702691</v>
+        <v>162.42297718701388</v>
       </c>
       <c r="R95" s="4">
-        <v>53.785256585351476</v>
+        <v>53.78525658535159</v>
       </c>
       <c r="S95" s="4">
         <v>-41.526512318802133</v>
@@ -8041,16 +8041,16 @@
         <v>-123.18520092967128</v>
       </c>
       <c r="U95" s="4">
-        <v>-252.95367203609771</v>
+        <v>-252.95367203609817</v>
       </c>
       <c r="V95" s="4">
-        <v>-301.59993596223347</v>
+        <v>-301.59993596223262</v>
       </c>
       <c r="W95" s="4">
-        <v>-355.27098067623137</v>
+        <v>-372.65736454372745</v>
       </c>
       <c r="X95" s="4">
-        <v>-499.27463983941703</v>
+        <v>-499.27463983941669</v>
       </c>
       <c r="Y95" s="4">
         <v>-526.97265273668881</v>
@@ -8059,7 +8059,7 @@
         <v>-607.61835661131897</v>
       </c>
       <c r="AA95" s="5">
-        <v>-1097.0787777552882</v>
+        <v>-863.74544442195486</v>
       </c>
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.35">
@@ -8067,55 +8067,55 @@
         <v>2</v>
       </c>
       <c r="B96" s="6">
-        <v>-374.47064559841192</v>
+        <v>-374.92356297788047</v>
       </c>
       <c r="C96" s="7">
-        <v>-216.76919593256002</v>
+        <v>-221.68333333333322</v>
       </c>
       <c r="D96" s="7">
-        <v>-229.71997723301337</v>
+        <v>-229.71997723301507</v>
       </c>
       <c r="E96" s="7">
-        <v>-291.56660415000147</v>
+        <v>-291.56660415000079</v>
       </c>
       <c r="F96" s="7">
-        <v>-575.1502727722268</v>
+        <v>-575.15027277222725</v>
       </c>
       <c r="G96" s="7">
-        <v>-719.04949547277727</v>
+        <v>-719.04949547277533</v>
       </c>
       <c r="H96" s="7">
-        <v>-543.93180919941005</v>
+        <v>-543.35816735942194</v>
       </c>
       <c r="I96" s="7">
-        <v>-360.78231183361288</v>
+        <v>-360.20866999362568</v>
       </c>
       <c r="J96" s="7">
-        <v>-191.05975288828176</v>
+        <v>-190.48611104829445</v>
       </c>
       <c r="K96" s="7">
-        <v>-14.290815616355474</v>
+        <v>-13.717173776367304</v>
       </c>
       <c r="L96" s="7">
-        <v>130.78707069692132</v>
+        <v>131.36071253690886</v>
       </c>
       <c r="M96" s="7">
-        <v>284.29247073006758</v>
+        <v>284.86611257005563</v>
       </c>
       <c r="N96" s="7">
-        <v>427.13742891566557</v>
+        <v>427.7110707556534</v>
       </c>
       <c r="O96" s="7">
-        <v>559.92345214807904</v>
+        <v>560.49709398806635</v>
       </c>
       <c r="P96" s="7">
-        <v>683.21983870985673</v>
+        <v>683.79348054984382</v>
       </c>
       <c r="Q96" s="7">
-        <v>817.28892761680027</v>
+        <v>817.86256945678724</v>
       </c>
       <c r="R96" s="7">
-        <v>923.19370518555354</v>
+        <v>923.19370518555365</v>
       </c>
       <c r="S96" s="7">
         <v>1041.5265123188021</v>
@@ -8124,16 +8124,16 @@
         <v>1123.1852009296717</v>
       </c>
       <c r="U96" s="7">
-        <v>1206.4039634399799</v>
+        <v>1206.4039634399794</v>
       </c>
       <c r="V96" s="7">
-        <v>1292.433398183076</v>
+        <v>1292.433398183075</v>
       </c>
       <c r="W96" s="7">
-        <v>1325.0587793068903</v>
+        <v>1330.6723954393942</v>
       </c>
       <c r="X96" s="7">
-        <v>1473.4443001816692</v>
+        <v>1473.4443001816683</v>
       </c>
       <c r="Y96" s="7">
         <v>1526.9726527366884</v>
@@ -8142,7 +8142,7 @@
         <v>1607.6183566113186</v>
       </c>
       <c r="AA96" s="8">
-        <v>1085.6414786030691</v>
+        <v>618.97481193640238</v>
       </c>
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.35">
@@ -8150,55 +8150,55 @@
         <v>3</v>
       </c>
       <c r="B97" s="9">
-        <v>243.04129119682381</v>
+        <v>243.94712595576061</v>
       </c>
       <c r="C97" s="10">
-        <v>-34.31919593255985</v>
+        <v>-100.13333333333304</v>
       </c>
       <c r="D97" s="10">
-        <v>-136.51842723301246</v>
+        <v>-136.51842723301448</v>
       </c>
       <c r="E97" s="10">
-        <v>-153.81374019999947</v>
+        <v>-153.81374019999978</v>
       </c>
       <c r="F97" s="10">
-        <v>-51.16817926936244</v>
+        <v>-51.168179269361758</v>
       </c>
       <c r="G97" s="10">
-        <v>-263.36163907861487</v>
+        <v>-263.36163907861692</v>
       </c>
       <c r="H97" s="10">
-        <v>-296.54025729556628</v>
+        <v>-297.68754097554302</v>
       </c>
       <c r="I97" s="10">
-        <v>-396.07898690841012</v>
+        <v>-397.22627058838452</v>
       </c>
       <c r="J97" s="10">
-        <v>-469.06299729425268</v>
+        <v>-470.21028097422732</v>
       </c>
       <c r="K97" s="10">
-        <v>-606.44161436574211</v>
+        <v>-607.58889804571834</v>
       </c>
       <c r="L97" s="10">
-        <v>-630.74269620268137</v>
+        <v>-631.88997988265623</v>
       </c>
       <c r="M97" s="10">
-        <v>-722.2061132622531</v>
+        <v>-723.35339694222921</v>
       </c>
       <c r="N97" s="10">
-        <v>-792.65872017966751</v>
+        <v>-793.80600385964317</v>
       </c>
       <c r="O97" s="10">
-        <v>-843.30632140562921</v>
+        <v>-844.45360508560384</v>
       </c>
       <c r="P97" s="10">
-        <v>-875.29032928316951</v>
+        <v>-876.43761296314381</v>
       </c>
       <c r="Q97" s="10">
-        <v>-979.13826296382717</v>
+        <v>-980.28554664380113</v>
       </c>
       <c r="R97" s="10">
-        <v>-976.97896177090502</v>
+        <v>-976.97896177090547</v>
       </c>
       <c r="S97" s="10">
         <v>-1000</v>
@@ -8207,16 +8207,16 @@
         <v>-1000</v>
       </c>
       <c r="U97" s="10">
-        <v>-953.45029140388203</v>
+        <v>-953.45029140388135</v>
       </c>
       <c r="V97" s="10">
-        <v>-990.83346222084242</v>
+        <v>-990.83346222084231</v>
       </c>
       <c r="W97" s="10">
-        <v>-969.78779863065893</v>
+        <v>-958.01503089566677</v>
       </c>
       <c r="X97" s="10">
-        <v>-974.1696603422522</v>
+        <v>-974.16966034225152</v>
       </c>
       <c r="Y97" s="10">
         <v>-1000</v>
@@ -8225,7 +8225,7 @@
         <v>-1000</v>
       </c>
       <c r="AA97" s="11">
-        <v>11.437299152219111</v>
+        <v>244.77063248555248</v>
       </c>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.35">
@@ -8243,82 +8243,82 @@
         <v>1</v>
       </c>
       <c r="B101" s="3">
-        <v>-1100.0000000000007</v>
+        <v>315.66666666666663</v>
       </c>
       <c r="C101" s="4">
-        <v>-1100</v>
+        <v>351.27166666666665</v>
       </c>
       <c r="D101" s="4">
-        <v>-1100</v>
+        <v>353.49651166666666</v>
       </c>
       <c r="E101" s="4">
-        <v>-1100</v>
+        <v>355.74138027166663</v>
       </c>
       <c r="F101" s="4">
-        <v>-1100</v>
+        <v>358.00645269411154</v>
       </c>
       <c r="G101" s="4">
-        <v>-1100</v>
+        <v>360.29191076835849</v>
       </c>
       <c r="H101" s="4">
-        <v>-1098.1931785417196</v>
+        <v>362.59793796527373</v>
       </c>
       <c r="I101" s="4">
-        <v>-1100</v>
+        <v>364.92471940696117</v>
       </c>
       <c r="J101" s="4">
-        <v>-1098.0924139029312</v>
+        <v>367.27244188162382</v>
       </c>
       <c r="K101" s="4">
-        <v>-1100</v>
+        <v>369.64129385855841</v>
       </c>
       <c r="L101" s="4">
-        <v>-1100</v>
+        <v>372.0314655032854</v>
       </c>
       <c r="M101" s="4">
-        <v>-1100</v>
+        <v>374.44314869281487</v>
       </c>
       <c r="N101" s="4">
-        <v>-1100</v>
+        <v>376.87653703105019</v>
       </c>
       <c r="O101" s="4">
-        <v>-1100</v>
+        <v>379.33182586432963</v>
       </c>
       <c r="P101" s="4">
-        <v>-1100</v>
+        <v>381.80921229710856</v>
       </c>
       <c r="Q101" s="4">
-        <v>-1100</v>
+        <v>384.30889520778254</v>
       </c>
       <c r="R101" s="4">
-        <v>-1099.9576037401812</v>
+        <v>386.83107526465255</v>
       </c>
       <c r="S101" s="4">
-        <v>-1100</v>
+        <v>559.1453500145135</v>
       </c>
       <c r="T101" s="4">
-        <v>-1100</v>
+        <v>558.50448557504785</v>
       </c>
       <c r="U101" s="4">
-        <v>-1100</v>
+        <v>553.69282594522338</v>
       </c>
       <c r="V101" s="4">
-        <v>-1100</v>
+        <v>548.83786137873051</v>
       </c>
       <c r="W101" s="4">
-        <v>-1100</v>
+        <v>543.93920213113915</v>
       </c>
       <c r="X101" s="4">
-        <v>-1099.1677650406721</v>
+        <v>453.32978828365276</v>
       </c>
       <c r="Y101" s="4">
-        <v>-1087.9741082593891</v>
+        <v>534.00922304487233</v>
       </c>
       <c r="Z101" s="4">
-        <v>-1099.8030419003735</v>
+        <v>443.31043938560953</v>
       </c>
       <c r="AA101" s="5">
-        <v>-1097.5319401830441</v>
+        <v>306.51041794508501</v>
       </c>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.35">
@@ -8326,82 +8326,82 @@
         <v>2</v>
       </c>
       <c r="B102" s="6">
-        <v>1559.5499999999995</v>
+        <v>-734.33333333333326</v>
       </c>
       <c r="C102" s="7">
-        <v>1530.5749999999998</v>
+        <v>-58.178333333333171</v>
       </c>
       <c r="D102" s="7">
-        <v>1486.6992249999996</v>
+        <v>-65.488538333333125</v>
       </c>
       <c r="E102" s="7">
-        <v>1417.9235680249994</v>
+        <v>-72.864535178333043</v>
       </c>
       <c r="F102" s="7">
-        <v>1399.2489301372245</v>
+        <v>-80.306915994937867</v>
       </c>
       <c r="G102" s="7">
-        <v>1390.6762205084592</v>
+        <v>-87.816278238892238</v>
       </c>
       <c r="H102" s="7">
-        <v>1371.302945763895</v>
+        <v>-95.393224743042111</v>
       </c>
       <c r="I102" s="7">
-        <v>1368.8402637014724</v>
+        <v>-103.03836376572943</v>
       </c>
       <c r="J102" s="7">
-        <v>1354.6250830262511</v>
+        <v>-110.75230903962093</v>
       </c>
       <c r="K102" s="7">
-        <v>1347.4231359594585</v>
+        <v>-118.53567982097748</v>
       </c>
       <c r="L102" s="7">
-        <v>1334.3739941830934</v>
+        <v>-126.38910093936613</v>
       </c>
       <c r="M102" s="7">
-        <v>1326.4324101307411</v>
+        <v>-134.31320284782035</v>
       </c>
       <c r="N102" s="7">
-        <v>1313.5993518219175</v>
+        <v>-142.30862167345052</v>
       </c>
       <c r="O102" s="7">
-        <v>1305.8757959883146</v>
+        <v>-150.37599926851158</v>
       </c>
       <c r="P102" s="7">
-        <v>1293.2627281522095</v>
+        <v>-158.51598326192814</v>
       </c>
       <c r="Q102" s="7">
-        <v>1285.7611427055792</v>
+        <v>-166.72922711128538</v>
       </c>
       <c r="R102" s="7">
-        <v>1273.3508448600198</v>
+        <v>-175.0163901552869</v>
       </c>
       <c r="S102" s="7">
-        <v>1266.0964413768384</v>
+        <v>-13.608742594205182</v>
       </c>
       <c r="T102" s="7">
-        <v>1248.9353593492299</v>
+        <v>-14.436634982754981</v>
       </c>
       <c r="U102" s="7">
-        <v>1241.8898275833728</v>
+        <v>-8.1444646975999895</v>
       </c>
       <c r="V102" s="7">
-        <v>1219.960886031623</v>
+        <v>-1.795664879878359</v>
       </c>
       <c r="W102" s="7">
-        <v>1218.1495840059074</v>
+        <v>4.6102741362026336</v>
       </c>
       <c r="X102" s="7">
-        <v>1201.0408627822962</v>
+        <v>182.4071999367618</v>
       </c>
       <c r="Y102" s="7">
-        <v>1173.8711972140172</v>
+        <v>17.595631402859226</v>
       </c>
       <c r="Z102" s="7">
-        <v>1123.3336713222634</v>
+        <v>195.50942541881818</v>
       </c>
       <c r="AA102" s="8">
-        <v>1086.5478034585801</v>
+        <v>-1007.1056589624222</v>
       </c>
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.35">
@@ -8409,82 +8409,82 @@
         <v>3</v>
       </c>
       <c r="B103" s="9">
-        <v>-459.54999999999882</v>
+        <v>418.66666666666663</v>
       </c>
       <c r="C103" s="10">
-        <v>-430.57499999999982</v>
+        <v>-293.09333333333348</v>
       </c>
       <c r="D103" s="10">
-        <v>-386.69922499999961</v>
+        <v>-288.00797333333338</v>
       </c>
       <c r="E103" s="10">
-        <v>-317.92356802499944</v>
+        <v>-282.87684509333354</v>
       </c>
       <c r="F103" s="10">
-        <v>-299.24893013722408</v>
+        <v>-277.69953669917368</v>
       </c>
       <c r="G103" s="10">
-        <v>-290.67622050845921</v>
+        <v>-272.47563252946628</v>
       </c>
       <c r="H103" s="10">
-        <v>-273.10976722217526</v>
+        <v>-267.20471322223165</v>
       </c>
       <c r="I103" s="10">
-        <v>-268.8402637014724</v>
+        <v>-261.88635564123177</v>
       </c>
       <c r="J103" s="10">
-        <v>-256.53266912331992</v>
+        <v>-256.52013284200285</v>
       </c>
       <c r="K103" s="10">
-        <v>-247.42313595945848</v>
+        <v>-251.10561403758089</v>
       </c>
       <c r="L103" s="10">
-        <v>-234.37399418309337</v>
+        <v>-245.64236456391927</v>
       </c>
       <c r="M103" s="10">
-        <v>-226.43241013074112</v>
+        <v>-240.12994584499455</v>
       </c>
       <c r="N103" s="10">
-        <v>-213.59935182191748</v>
+        <v>-234.5679153575997</v>
       </c>
       <c r="O103" s="10">
-        <v>-205.87579598831462</v>
+        <v>-228.95582659581805</v>
       </c>
       <c r="P103" s="10">
-        <v>-193.26272815220955</v>
+        <v>-223.29322903518045</v>
       </c>
       <c r="Q103" s="10">
-        <v>-185.76114270557923</v>
+        <v>-217.57966809649719</v>
       </c>
       <c r="R103" s="10">
-        <v>-173.39324111983865</v>
+        <v>-211.81468510936566</v>
       </c>
       <c r="S103" s="10">
-        <v>-166.09644137683836</v>
+        <v>-545.53660742030831</v>
       </c>
       <c r="T103" s="10">
-        <v>-148.93535934922988</v>
+        <v>-544.06785059229287</v>
       </c>
       <c r="U103" s="10">
-        <v>-141.88982758337283</v>
+        <v>-545.54836124762346</v>
       </c>
       <c r="V103" s="10">
-        <v>-119.96088603162298</v>
+        <v>-547.04219649885204</v>
       </c>
       <c r="W103" s="10">
-        <v>-118.1495840059074</v>
+        <v>-548.54947626734179</v>
       </c>
       <c r="X103" s="10">
-        <v>-101.87309774162418</v>
+        <v>-635.73698822041456</v>
       </c>
       <c r="Y103" s="10">
-        <v>-85.897088954628202</v>
+        <v>-551.60485444773144</v>
       </c>
       <c r="Z103" s="10">
-        <v>-23.530629421889898</v>
+        <v>-638.81986480442788</v>
       </c>
       <c r="AA103" s="11">
-        <v>10.984136724463951</v>
+        <v>700.59524101733723</v>
       </c>
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.35">
@@ -8575,86 +8575,86 @@
         <v>6</v>
       </c>
       <c r="B106" s="15">
-        <v>187067.81092078128</v>
+        <v>231991.12588150462</v>
       </c>
       <c r="C106" s="16">
-        <v>150732.88932861557</v>
+        <v>190140.63153965492</v>
       </c>
       <c r="D106" s="16">
-        <v>123175.51953414551</v>
+        <v>159339.54690181487</v>
       </c>
       <c r="E106" s="16">
-        <v>115689.69506787838</v>
+        <v>148876.86993389658</v>
       </c>
       <c r="F106" s="16">
-        <v>110744.52859723852</v>
+        <v>141199.76340916846</v>
       </c>
       <c r="G106" s="16">
-        <v>107424.10359766646</v>
+        <v>135372.17299524634</v>
       </c>
       <c r="H106" s="16">
-        <v>11641393.204089461</v>
+        <v>11667050.655674972</v>
       </c>
       <c r="I106" s="16">
-        <v>12324833.081520598</v>
+        <v>12348378.054315709</v>
       </c>
       <c r="J106" s="16">
-        <v>13729654.387485432</v>
+        <v>13751260.723626044</v>
       </c>
       <c r="K106" s="16">
-        <v>13538956.895413551</v>
+        <v>13558784.138956418</v>
       </c>
       <c r="L106" s="16">
-        <v>15173346.019098468</v>
+        <v>15191540.591279879</v>
       </c>
       <c r="M106" s="16">
-        <v>14667539.128793448</v>
+        <v>14684235.406751253</v>
       </c>
       <c r="N106" s="16">
-        <v>14771634.681241557</v>
+        <v>14786955.988124127</v>
       </c>
       <c r="O106" s="16">
-        <v>14735464.074230678</v>
+        <v>14749523.58796652</v>
       </c>
       <c r="P106" s="16">
-        <v>14583687.500408562</v>
+        <v>14596589.087813787</v>
       </c>
       <c r="Q106" s="16">
-        <v>13638811.831193347</v>
+        <v>13650650.813546522</v>
       </c>
       <c r="R106" s="16">
-        <v>13819931.279495789</v>
+        <v>13830801.065545823</v>
       </c>
       <c r="S106" s="16">
-        <v>13455968.66823986</v>
+        <v>13466016.171551844</v>
       </c>
       <c r="T106" s="16">
-        <v>12850723.047757942</v>
+        <v>12859918.526223721</v>
       </c>
       <c r="U106" s="16">
-        <v>12512626.558646161</v>
+        <v>12521090.419230273</v>
       </c>
       <c r="V106" s="16">
-        <v>11611405.027762979</v>
+        <v>11619195.149856256</v>
       </c>
       <c r="W106" s="16">
-        <v>11438012.743528252</v>
+        <v>11445159.650363134</v>
       </c>
       <c r="X106" s="16">
-        <v>10593462.841980059</v>
+        <v>10600356.968824476</v>
       </c>
       <c r="Y106" s="16">
-        <v>10359460.770883728</v>
+        <v>10365533.221142804</v>
       </c>
       <c r="Z106" s="16">
-        <v>9579034.8366412465</v>
+        <v>9584881.0747875217</v>
       </c>
       <c r="AA106" s="17">
-        <v>49594736.655303575</v>
+        <v>57754327.603814974</v>
       </c>
       <c r="AB106" s="18">
         <f>SUM(TotalCost)</f>
-        <v>295415517.78076106</v>
+        <v>304039169.01005739</v>
       </c>
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.35">
@@ -8748,86 +8748,86 @@
         <v>8</v>
       </c>
       <c r="B109" s="3">
-        <v>79109686.491201267</v>
+        <v>79410814.945040509</v>
       </c>
       <c r="C109" s="4">
-        <v>63008256.527324185</v>
+        <v>63008596.513607681</v>
       </c>
       <c r="D109" s="4">
-        <v>55897639.429508567</v>
+        <v>55897639.429508552</v>
       </c>
       <c r="E109" s="4">
-        <v>54564500.077389985</v>
+        <v>54564500.07738997</v>
       </c>
       <c r="F109" s="4">
         <v>50523285.409402966</v>
       </c>
       <c r="G109" s="4">
-        <v>46943184.414359212</v>
+        <v>46943184.414359182</v>
       </c>
       <c r="H109" s="4">
-        <v>42214691.249905884</v>
+        <v>42789651.604352027</v>
       </c>
       <c r="I109" s="4">
-        <v>40509490.833682947</v>
+        <v>41084451.18812909</v>
       </c>
       <c r="J109" s="4">
-        <v>38769879.26610364</v>
+        <v>39344839.620549791</v>
       </c>
       <c r="K109" s="4">
-        <v>37524822.871207617</v>
+        <v>38099783.225653768</v>
       </c>
       <c r="L109" s="4">
-        <v>35723029.845435001</v>
+        <v>36297990.199881151</v>
       </c>
       <c r="M109" s="4">
-        <v>34419950.381185815</v>
+        <v>34994910.735631958</v>
       </c>
       <c r="N109" s="4">
-        <v>33090788.988753803</v>
+        <v>33665749.343199946</v>
       </c>
       <c r="O109" s="4">
-        <v>31737363.779780988</v>
+        <v>32312324.134227134</v>
       </c>
       <c r="P109" s="4">
-        <v>30361398.493312463</v>
+        <v>30936358.847758602</v>
       </c>
       <c r="Q109" s="4">
-        <v>29491241.009569217</v>
+        <v>30066201.364015359</v>
       </c>
       <c r="R109" s="4">
-        <v>28075014.638710182</v>
+        <v>28075014.638710186</v>
       </c>
       <c r="S109" s="4">
-        <v>27637779.666487332</v>
+        <v>27637779.666487537</v>
       </c>
       <c r="T109" s="4">
-        <v>28104427.366363555</v>
+        <v>28104427.366363551</v>
       </c>
       <c r="U109" s="4">
-        <v>26480026.546641205</v>
+        <v>26480026.546641212</v>
       </c>
       <c r="V109" s="4">
         <v>23842430.948070701</v>
       </c>
       <c r="W109" s="4">
-        <v>21562393.070920095</v>
+        <v>21764460.934464518</v>
       </c>
       <c r="X109" s="4">
-        <v>18348308.303627934</v>
+        <v>18348308.303627893</v>
       </c>
       <c r="Y109" s="4">
-        <v>17639234.17504514</v>
+        <v>17639234.175045125</v>
       </c>
       <c r="Z109" s="4">
-        <v>15992996.94091936</v>
+        <v>15992996.940919366</v>
       </c>
       <c r="AA109" s="5">
         <v>0</v>
       </c>
       <c r="AB109" s="12">
         <f>SUM(B109:AA109)</f>
-        <v>911571820.72490895</v>
+        <v>917824960.57303786</v>
       </c>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.35">
@@ -8835,86 +8835,86 @@
         <v>9</v>
       </c>
       <c r="B110" s="6">
-        <v>14596137.675668476</v>
+        <v>14667374.743175548</v>
       </c>
       <c r="C110" s="7">
-        <v>13232188.576625478</v>
+        <v>13232177.66341256</v>
       </c>
       <c r="D110" s="7">
         <v>13202905.908014389</v>
       </c>
       <c r="E110" s="7">
-        <v>11427176.759078547</v>
+        <v>11427176.759078542</v>
       </c>
       <c r="F110" s="7">
-        <v>9446021.7217891198</v>
+        <v>9446021.7217891142</v>
       </c>
       <c r="G110" s="7">
-        <v>6871604.7774165729</v>
+        <v>6871604.7774165524</v>
       </c>
       <c r="H110" s="7">
-        <v>5465615.9763929341</v>
+        <v>5680751.2654034821</v>
       </c>
       <c r="I110" s="7">
-        <v>4856274.8895227564</v>
+        <v>5071410.1785333082</v>
       </c>
       <c r="J110" s="7">
-        <v>4339674.5115498714</v>
+        <v>4554809.8005604241</v>
       </c>
       <c r="K110" s="7">
-        <v>3661125.6895761918</v>
+        <v>3876260.9785867427</v>
       </c>
       <c r="L110" s="7">
-        <v>3314713.3030404528</v>
+        <v>3529848.5920510031</v>
       </c>
       <c r="M110" s="7">
-        <v>2796791.1961188861</v>
+        <v>3011926.4851294374</v>
       </c>
       <c r="N110" s="7">
-        <v>2352458.0009303079</v>
+        <v>2567593.2899408601</v>
       </c>
       <c r="O110" s="7">
-        <v>1977549.3786726999</v>
+        <v>2192684.6676832531</v>
       </c>
       <c r="P110" s="7">
-        <v>1668123.8719868409</v>
+        <v>1883259.1609973933</v>
       </c>
       <c r="Q110" s="7">
-        <v>1170952.2892533776</v>
+        <v>1386087.5782639331</v>
       </c>
       <c r="R110" s="7">
-        <v>981500.62396597257</v>
+        <v>981500.62396597164</v>
       </c>
       <c r="S110" s="7">
-        <v>2198644.6980367741</v>
+        <v>2198644.6980367745</v>
       </c>
       <c r="T110" s="7">
-        <v>1497195.667705775</v>
+        <v>1497195.6677057731</v>
       </c>
       <c r="U110" s="7">
-        <v>1403701.5010519307</v>
+        <v>1403701.5010519358</v>
       </c>
       <c r="V110" s="7">
-        <v>626990.14999874891</v>
+        <v>626990.14999876067</v>
       </c>
       <c r="W110" s="7">
-        <v>739063.59503600525</v>
+        <v>785592.28795040783</v>
       </c>
       <c r="X110" s="7">
-        <v>123335.44489582664</v>
+        <v>123335.4448958266</v>
       </c>
       <c r="Y110" s="7">
-        <v>491512.83514318842</v>
+        <v>491512.83514317533</v>
       </c>
       <c r="Z110" s="7">
-        <v>111619.72520274094</v>
+        <v>111619.72520274097</v>
       </c>
       <c r="AA110" s="8">
         <v>0</v>
       </c>
       <c r="AB110" s="13">
         <f t="shared" ref="AB110:AB113" si="0">SUM(B110:AA110)</f>
-        <v>108552878.76667392</v>
+        <v>110821986.50398794</v>
       </c>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.35">
@@ -8922,49 +8922,49 @@
         <v>10</v>
       </c>
       <c r="B111" s="6">
-        <v>81973843561.409775</v>
+        <v>81973843561.409744</v>
       </c>
       <c r="C111" s="7">
-        <v>77551977702.482803</v>
+        <v>77551977702.482773</v>
       </c>
       <c r="D111" s="7">
-        <v>73368637900.464386</v>
+        <v>73368637900.464371</v>
       </c>
       <c r="E111" s="7">
-        <v>69410957487.38237</v>
+        <v>69410957487.382355</v>
       </c>
       <c r="F111" s="7">
-        <v>65666763854.214989</v>
+        <v>65666763854.214973</v>
       </c>
       <c r="G111" s="7">
-        <v>62124541011.685379</v>
+        <v>62124541011.685364</v>
       </c>
       <c r="H111" s="7">
-        <v>58773394170.616638</v>
+        <v>58773394170.616623</v>
       </c>
       <c r="I111" s="7">
-        <v>55603016232.907562</v>
+        <v>55603016232.907555</v>
       </c>
       <c r="J111" s="7">
-        <v>52603656090.065567</v>
+        <v>52603656090.065559</v>
       </c>
       <c r="K111" s="7">
-        <v>49766088631.792816</v>
+        <v>49766088631.792809</v>
       </c>
       <c r="L111" s="7">
-        <v>47081586372.381195</v>
+        <v>47081586372.381187</v>
       </c>
       <c r="M111" s="7">
-        <v>44541892607.647659</v>
+        <v>44541892607.647652</v>
       </c>
       <c r="N111" s="7">
-        <v>42139196019.848885</v>
+        <v>42139196019.848877</v>
       </c>
       <c r="O111" s="7">
-        <v>39866106652.467789</v>
+        <v>39866106652.467781</v>
       </c>
       <c r="P111" s="7">
-        <v>37715633180.977707</v>
+        <v>37715633180.977699</v>
       </c>
       <c r="Q111" s="7">
         <v>35681161409.676132</v>
@@ -8991,7 +8991,7 @@
         <v>24202600620.830246</v>
       </c>
       <c r="Y111" s="7">
-        <v>22897054257.101181</v>
+        <v>22897054257.101173</v>
       </c>
       <c r="Z111" s="7">
         <v>21641622074.728207</v>
@@ -9009,86 +9009,86 @@
         <v>11</v>
       </c>
       <c r="B112" s="6">
-        <v>6680832.790510186</v>
+        <v>6683510.9719839916</v>
       </c>
       <c r="C112" s="7">
-        <v>6597869.1890038159</v>
+        <v>6599755.803300471</v>
       </c>
       <c r="D112" s="7">
         <v>6544279.0233887751</v>
       </c>
       <c r="E112" s="7">
-        <v>5705298.8174357945</v>
+        <v>5705298.8174357917</v>
       </c>
       <c r="F112" s="7">
-        <v>4781524.5565517619</v>
+        <v>4781524.5565517591</v>
       </c>
       <c r="G112" s="7">
-        <v>3778281.306606533</v>
+        <v>3778281.3066065297</v>
       </c>
       <c r="H112" s="7">
-        <v>3497093.818919112</v>
+        <v>3501015.5881168302</v>
       </c>
       <c r="I112" s="7">
-        <v>3162875.5547382412</v>
+        <v>3166797.3239359627</v>
       </c>
       <c r="J112" s="7">
-        <v>2875449.6019801125</v>
+        <v>2879371.3711778335</v>
       </c>
       <c r="K112" s="7">
-        <v>2512335.9673048593</v>
+        <v>2516257.7365025799</v>
       </c>
       <c r="L112" s="7">
-        <v>2310791.7375436183</v>
+        <v>2314713.5067413384</v>
       </c>
       <c r="M112" s="7">
-        <v>2028744.1520221352</v>
+        <v>2032665.9212198558</v>
       </c>
       <c r="N112" s="7">
-        <v>1783842.7970875695</v>
+        <v>1787764.5662852908</v>
       </c>
       <c r="O112" s="7">
-        <v>1573990.3403025069</v>
+        <v>1577912.1095002284</v>
       </c>
       <c r="P112" s="7">
-        <v>1397201.7421943315</v>
+        <v>1401123.5113920528</v>
       </c>
       <c r="Q112" s="7">
-        <v>1131732.5689031847</v>
+        <v>1135654.3381009076</v>
       </c>
       <c r="R112" s="7">
-        <v>1015535.744020624</v>
+        <v>1015535.7440206235</v>
       </c>
       <c r="S112" s="7">
         <v>918205.10790448519</v>
       </c>
       <c r="T112" s="7">
-        <v>785829.59529897617</v>
+        <v>785829.59529897582</v>
       </c>
       <c r="U112" s="7">
-        <v>747026.21964761522</v>
+        <v>747026.21964761592</v>
       </c>
       <c r="V112" s="7">
-        <v>600996.01909194165</v>
+        <v>600996.01909194351</v>
       </c>
       <c r="W112" s="7">
-        <v>591538.01414856827</v>
+        <v>601309.34157280484</v>
       </c>
       <c r="X112" s="7">
-        <v>476052.49032645009</v>
+        <v>476052.49032645003</v>
       </c>
       <c r="Y112" s="7">
-        <v>508691.5555225148</v>
+        <v>508691.55552251264</v>
       </c>
       <c r="Z112" s="7">
-        <v>428144.51811810886</v>
+        <v>428144.51811810891</v>
       </c>
       <c r="AA112" s="8">
         <v>0</v>
       </c>
       <c r="AB112" s="13">
         <f t="shared" si="0"/>
-        <v>62434163.228571825</v>
+        <v>62487717.043743722</v>
       </c>
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.35">
@@ -9096,86 +9096,86 @@
         <v>12</v>
       </c>
       <c r="B113" s="9">
-        <v>954203.80563945195</v>
+        <v>954565.25811419426</v>
       </c>
       <c r="C113" s="10">
-        <v>943772.70462547685</v>
+        <v>943989.55141255888</v>
       </c>
       <c r="D113" s="10">
         <v>940524.16925087757</v>
       </c>
       <c r="E113" s="10">
-        <v>815301.21688416554</v>
+        <v>815301.21688416507</v>
       </c>
       <c r="F113" s="10">
-        <v>676714.90575954423</v>
+        <v>676714.90575954388</v>
       </c>
       <c r="G113" s="10">
-        <v>524404.04177130852</v>
+        <v>524404.04177130794</v>
       </c>
       <c r="H113" s="10">
-        <v>484618.05374493368</v>
+        <v>485227.58759383595</v>
       </c>
       <c r="I113" s="10">
-        <v>436440.07767093822</v>
+        <v>437049.6115198409</v>
       </c>
       <c r="J113" s="10">
-        <v>395310.56502841291</v>
+        <v>395920.09887731553</v>
       </c>
       <c r="K113" s="10">
-        <v>342292.66191648156</v>
+        <v>342902.19576538412</v>
       </c>
       <c r="L113" s="10">
-        <v>314098.6818412799</v>
+        <v>314708.21569018246</v>
       </c>
       <c r="M113" s="10">
-        <v>273290.22716765414</v>
+        <v>273899.76101655676</v>
       </c>
       <c r="N113" s="10">
-        <v>238075.84658135427</v>
+        <v>238685.38043025695</v>
       </c>
       <c r="O113" s="10">
-        <v>208139.30657137278</v>
+        <v>208748.84042027546</v>
       </c>
       <c r="P113" s="10">
-        <v>183181.30173968629</v>
+        <v>183790.83558858896</v>
       </c>
       <c r="Q113" s="10">
-        <v>144375.86373888684</v>
+        <v>144985.3975877898</v>
       </c>
       <c r="R113" s="10">
-        <v>128540.20325359867</v>
+        <v>128540.20325359861</v>
       </c>
       <c r="S113" s="10">
         <v>115288.34094780521</v>
       </c>
       <c r="T113" s="10">
-        <v>96956.999820736251</v>
+        <v>96956.999820736222</v>
       </c>
       <c r="U113" s="10">
-        <v>92765.08912339063</v>
+        <v>92765.089123390746</v>
       </c>
       <c r="V113" s="10">
-        <v>71824.066707979873</v>
+        <v>71824.066707980164</v>
       </c>
       <c r="W113" s="10">
-        <v>71616.252369303606</v>
+        <v>73258.764066135307</v>
       </c>
       <c r="X113" s="10">
         <v>55352.546677292397</v>
       </c>
       <c r="Y113" s="10">
-        <v>61345.972085707312</v>
+        <v>61345.972085706991</v>
       </c>
       <c r="Z113" s="10">
-        <v>50098.321568678759</v>
+        <v>50098.321568678766</v>
       </c>
       <c r="AA113" s="11">
         <v>0</v>
       </c>
       <c r="AB113" s="14">
         <f t="shared" si="0"/>
-        <v>8618531.222486319</v>
+        <v>8626847.3719340004</v>
       </c>
     </row>
   </sheetData>

--- a/717A11_output.xlsx
+++ b/717A11_output.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lfi\Google Drive\School\College\Semester 6 (Spring 2020)\ENV 717\Assignments\Assignment 11 (group project)\ENV717A11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jawessel\opl\ENV717A11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -742,52 +742,52 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>476.58096263726014</v>
+        <v>490.11743424114729</v>
       </c>
       <c r="H3" s="4">
-        <v>379.42441201882252</v>
+        <v>392.79578763201243</v>
       </c>
       <c r="I3" s="4">
-        <v>405.3242943430842</v>
+        <v>417.97438586439841</v>
       </c>
       <c r="J3" s="4">
-        <v>391.63142391799244</v>
+        <v>403.59913914242748</v>
       </c>
       <c r="K3" s="4">
-        <v>499.77194354733638</v>
+        <v>511.0940914900491</v>
       </c>
       <c r="L3" s="4">
-        <v>413.53981367105558</v>
+        <v>424.25121778058224</v>
       </c>
       <c r="M3" s="4">
-        <v>453.29703285503615</v>
+        <v>463.43063811952624</v>
       </c>
       <c r="N3" s="4">
-        <v>461.78609566813196</v>
+        <v>471.37306994400296</v>
       </c>
       <c r="O3" s="4">
-        <v>440.81794131598269</v>
+        <v>449.88777119067481</v>
       </c>
       <c r="P3" s="4">
-        <v>392.10694093548045</v>
+        <v>400.68752241914024</v>
       </c>
       <c r="Q3" s="4">
-        <v>476.44664614988278</v>
+        <v>484.56437047491789</v>
       </c>
       <c r="R3" s="4">
-        <v>375.31168377619633</v>
+        <v>382.99151856860357</v>
       </c>
       <c r="S3" s="4">
-        <v>435.13960772482977</v>
+        <v>424.15736811887871</v>
       </c>
       <c r="T3" s="4">
-        <v>243.27367851252529</v>
+        <v>126.2113730651149</v>
       </c>
       <c r="U3" s="4">
-        <v>78.059328724959414</v>
+        <v>115.19873623464923</v>
       </c>
       <c r="V3" s="4">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="W3" s="4">
         <v>0</v>
@@ -813,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="7">
-        <v>148.72323737661523</v>
+        <v>135.1503527254354</v>
       </c>
       <c r="D4" s="7">
-        <v>606.04188169904342</v>
+        <v>630.54838279100284</v>
       </c>
       <c r="E4" s="7">
         <v>665.6</v>
@@ -944,7 +944,7 @@
         <v>46.5</v>
       </c>
       <c r="S5" s="7">
-        <v>26.787972565086477</v>
+        <v>37.770212171037088</v>
       </c>
       <c r="T5" s="7">
         <v>46.5</v>
@@ -959,7 +959,7 @@
         <v>46.5</v>
       </c>
       <c r="X5" s="7">
-        <v>34.372432155943898</v>
+        <v>43.188165168920847</v>
       </c>
       <c r="Y5" s="7">
         <v>46.5</v>
@@ -1059,7 +1059,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>149.82931106635917</v>
+        <v>137.80142614627539</v>
       </c>
       <c r="C7" s="7">
         <v>464</v>
@@ -1205,7 +1205,7 @@
         <v>101.5</v>
       </c>
       <c r="W8" s="7">
-        <v>86.928738357001748</v>
+        <v>101.5</v>
       </c>
       <c r="X8" s="7">
         <v>0</v>
@@ -1225,10 +1225,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="6">
-        <v>0</v>
+        <v>13.000000000000002</v>
       </c>
       <c r="C9" s="7">
-        <v>13</v>
+        <v>13.000000000000002</v>
       </c>
       <c r="D9" s="7">
         <v>84.6</v>
@@ -1380,7 +1380,7 @@
         <v>85.51375562129715</v>
       </c>
       <c r="Z10" s="7">
-        <v>16.480629421889489</v>
+        <v>16.480629421889262</v>
       </c>
       <c r="AA10" s="8">
         <v>0</v>
@@ -1617,13 +1617,13 @@
         <v>154</v>
       </c>
       <c r="V13" s="7">
-        <v>126.02157994994501</v>
+        <v>87.627949026233381</v>
       </c>
       <c r="W13" s="7">
-        <v>23</v>
+        <v>42.624814917632364</v>
       </c>
       <c r="X13" s="7">
-        <v>130.41031219811521</v>
+        <v>121.59457918513826</v>
       </c>
       <c r="Y13" s="7">
         <v>0</v>
@@ -1646,7 +1646,7 @@
         <v>150</v>
       </c>
       <c r="D14" s="7">
-        <v>120.52511830095455</v>
+        <v>96.018617208995636</v>
       </c>
       <c r="E14" s="7">
         <v>0</v>
@@ -1732,10 +1732,10 @@
         <v>1848</v>
       </c>
       <c r="E15" s="7">
-        <v>1267.9555255442669</v>
+        <v>1258.6626725671222</v>
       </c>
       <c r="F15" s="7">
-        <v>621.34250414968039</v>
+        <v>611.88934301297775</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="7">
-        <v>591.65057745572904</v>
+        <v>600.94343043287427</v>
       </c>
       <c r="F16" s="7">
         <v>656.1</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="7">
-        <v>10.579953777314245</v>
+        <v>20.033114914017144</v>
       </c>
       <c r="G17" s="7">
         <v>50.3</v>
@@ -2070,37 +2070,37 @@
         <v>257</v>
       </c>
       <c r="G19" s="7">
-        <v>171.84029741107685</v>
+        <v>158.30382580719007</v>
       </c>
       <c r="H19" s="7">
         <v>39</v>
       </c>
       <c r="I19" s="7">
-        <v>39</v>
+        <v>39.000000000000007</v>
       </c>
       <c r="J19" s="7">
-        <v>39</v>
+        <v>39.000000000000007</v>
       </c>
       <c r="K19" s="7">
-        <v>39</v>
+        <v>39.000000000000007</v>
       </c>
       <c r="L19" s="7">
-        <v>39</v>
+        <v>39.000000000000007</v>
       </c>
       <c r="M19" s="7">
-        <v>39</v>
+        <v>39.000000000000007</v>
       </c>
       <c r="N19" s="7">
-        <v>39</v>
+        <v>39.000000000000007</v>
       </c>
       <c r="O19" s="7">
-        <v>39</v>
+        <v>39.000000000000007</v>
       </c>
       <c r="P19" s="7">
-        <v>39</v>
+        <v>39.000000000000007</v>
       </c>
       <c r="Q19" s="7">
-        <v>39</v>
+        <v>39.000000000000007</v>
       </c>
       <c r="R19" s="7">
         <v>0</v>
@@ -2109,22 +2109,22 @@
         <v>257</v>
       </c>
       <c r="T19" s="7">
-        <v>169.08551776878767</v>
+        <v>246.14782321619759</v>
       </c>
       <c r="U19" s="7">
-        <v>158.32540032288443</v>
+        <v>131.18599281319416</v>
       </c>
       <c r="V19" s="7">
-        <v>61.054911659328027</v>
+        <v>137.44854258303965</v>
       </c>
       <c r="W19" s="7">
-        <v>82.011741676753445</v>
+        <v>57.81566511612283</v>
       </c>
       <c r="X19" s="7">
         <v>0</v>
       </c>
       <c r="Y19" s="7">
-        <v>47.218760842124084</v>
+        <v>42.858822277242325</v>
       </c>
       <c r="Z19" s="7">
         <v>0</v>
@@ -2156,37 +2156,37 @@
         <v>2269.6</v>
       </c>
       <c r="H20" s="7">
-        <v>2215.4833393699491</v>
+        <v>2202.1119637567595</v>
       </c>
       <c r="I20" s="7">
-        <v>1956.0629268081852</v>
+        <v>1943.4128352868711</v>
       </c>
       <c r="J20" s="7">
-        <v>1736.8335822236377</v>
+        <v>1724.8658669992026</v>
       </c>
       <c r="K20" s="7">
-        <v>1446.3745476495678</v>
+        <v>1435.0523997068551</v>
       </c>
       <c r="L20" s="7">
-        <v>1300.8972959466209</v>
+        <v>1290.1858918370933</v>
       </c>
       <c r="M20" s="7">
-        <v>1080.0453107491969</v>
+        <v>1069.9117054847068</v>
       </c>
       <c r="N20" s="7">
-        <v>891.08162902853792</v>
+        <v>881.49465475266697</v>
       </c>
       <c r="O20" s="7">
-        <v>732.20089290295812</v>
+        <v>723.13106302826554</v>
       </c>
       <c r="P20" s="7">
-        <v>601.69436279143065</v>
+        <v>593.11378130777086</v>
       </c>
       <c r="Q20" s="7">
-        <v>388.77416931056905</v>
+        <v>380.65644498553348</v>
       </c>
       <c r="R20" s="7">
-        <v>350.97141902339808</v>
+        <v>343.29158423099085</v>
       </c>
       <c r="S20" s="7">
         <v>0</v>
@@ -2221,7 +2221,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6">
-        <v>26.670688933641006</v>
+        <v>25.698573853724611</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -2373,10 +2373,10 @@
         <v>398.3</v>
       </c>
       <c r="Y22" s="7">
-        <v>298.57687258982332</v>
+        <v>302.93681115470508</v>
       </c>
       <c r="Z22" s="7">
-        <v>292.24594413283467</v>
+        <v>292.24594413283421</v>
       </c>
       <c r="AA22" s="8">
         <v>0</v>
@@ -2390,22 +2390,22 @@
         <v>0</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>2.9496472745626505</v>
       </c>
       <c r="D23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.099999999999994</v>
       </c>
       <c r="E23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.099999999999994</v>
       </c>
       <c r="F23" s="7">
         <v>28.1</v>
       </c>
       <c r="G23" s="7">
+        <v>28.1</v>
+      </c>
+      <c r="H23" s="7">
         <v>28.100000000000009</v>
-      </c>
-      <c r="H23" s="7">
-        <v>28.099999999999994</v>
       </c>
       <c r="I23" s="7">
         <v>28.1</v>
@@ -2414,7 +2414,7 @@
         <v>28.099999999999994</v>
       </c>
       <c r="K23" s="7">
-        <v>28.099999999999994</v>
+        <v>28.100000000000009</v>
       </c>
       <c r="L23" s="7">
         <v>28.100000000000009</v>
@@ -2423,10 +2423,10 @@
         <v>28.100000000000009</v>
       </c>
       <c r="N23" s="7">
+        <v>28.099999999999994</v>
+      </c>
+      <c r="O23" s="7">
         <v>28.100000000000009</v>
-      </c>
-      <c r="O23" s="7">
-        <v>28.1</v>
       </c>
       <c r="P23" s="7">
         <v>28.100000000000009</v>
@@ -2435,34 +2435,34 @@
         <v>28.1</v>
       </c>
       <c r="R23" s="7">
-        <v>28.099999999999994</v>
+        <v>28.1</v>
       </c>
       <c r="S23" s="7">
-        <v>28.099999999999994</v>
+        <v>28.1</v>
       </c>
       <c r="T23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.1</v>
       </c>
       <c r="U23" s="7">
-        <v>28.099999999999994</v>
+        <v>28.1</v>
       </c>
       <c r="V23" s="7">
-        <v>28.099999999999994</v>
+        <v>28.1</v>
       </c>
       <c r="W23" s="7">
-        <v>28.099999999999994</v>
+        <v>28.1</v>
       </c>
       <c r="X23" s="7">
-        <v>28.099999999999994</v>
+        <v>28.1</v>
       </c>
       <c r="Y23" s="7">
         <v>28.099999999999994</v>
       </c>
       <c r="Z23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.1</v>
       </c>
       <c r="AA23" s="8">
-        <v>28.1</v>
+        <v>28.099999999999994</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.35">
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D24" s="7">
         <v>25</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="7">
-        <v>9.4767626233832232</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
         <v>70</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>30.6</v>
       </c>
       <c r="D26" s="7">
         <v>30.6</v>
@@ -2651,7 +2651,7 @@
         <v>30.6</v>
       </c>
       <c r="G26" s="7">
-        <v>30.599999999999998</v>
+        <v>30.6</v>
       </c>
       <c r="H26" s="7">
         <v>30.6</v>
@@ -2687,19 +2687,19 @@
         <v>30.6</v>
       </c>
       <c r="S26" s="7">
+        <v>30.6</v>
+      </c>
+      <c r="T26" s="7">
         <v>30.599999999999998</v>
       </c>
-      <c r="T26" s="7">
+      <c r="U26" s="7">
+        <v>30.599999999999998</v>
+      </c>
+      <c r="V26" s="7">
         <v>30.6</v>
       </c>
-      <c r="U26" s="7">
-        <v>30.6</v>
-      </c>
-      <c r="V26" s="7">
+      <c r="W26" s="7">
         <v>30.599999999999998</v>
-      </c>
-      <c r="W26" s="7">
-        <v>30.6</v>
       </c>
       <c r="X26" s="7">
         <v>30.6</v>
@@ -2708,7 +2708,7 @@
         <v>30.6</v>
       </c>
       <c r="Z26" s="7">
-        <v>30.6</v>
+        <v>30.599999999999998</v>
       </c>
       <c r="AA26" s="8">
         <v>30.6</v>
@@ -2731,11 +2731,11 @@
         <v>10</v>
       </c>
       <c r="F27" s="7">
+        <v>10</v>
+      </c>
+      <c r="G27" s="7">
         <v>9.9999999999999929</v>
       </c>
-      <c r="G27" s="7">
-        <v>10</v>
-      </c>
       <c r="H27" s="7">
         <v>10</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>10</v>
       </c>
       <c r="Q27" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="R27" s="7">
         <v>10</v>
@@ -2776,25 +2776,25 @@
         <v>10</v>
       </c>
       <c r="U27" s="7">
+        <v>10</v>
+      </c>
+      <c r="V27" s="7">
+        <v>9.9999999999999929</v>
+      </c>
+      <c r="W27" s="7">
+        <v>10</v>
+      </c>
+      <c r="X27" s="7">
+        <v>10</v>
+      </c>
+      <c r="Y27" s="7">
+        <v>10</v>
+      </c>
+      <c r="Z27" s="7">
+        <v>10</v>
+      </c>
+      <c r="AA27" s="8">
         <v>9.9999999999999858</v>
-      </c>
-      <c r="V27" s="7">
-        <v>10</v>
-      </c>
-      <c r="W27" s="7">
-        <v>10</v>
-      </c>
-      <c r="X27" s="7">
-        <v>10</v>
-      </c>
-      <c r="Y27" s="7">
-        <v>10</v>
-      </c>
-      <c r="Z27" s="7">
-        <v>10</v>
-      </c>
-      <c r="AA27" s="8">
-        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.35">
@@ -2820,7 +2820,7 @@
         <v>10</v>
       </c>
       <c r="H28" s="7">
-        <v>9.9999999999999858</v>
+        <v>10</v>
       </c>
       <c r="I28" s="7">
         <v>10</v>
@@ -2877,7 +2877,7 @@
         <v>10</v>
       </c>
       <c r="AA28" s="8">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.35">
@@ -2957,7 +2957,7 @@
         <v>10</v>
       </c>
       <c r="Z29" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="AA29" s="8">
         <v>10</v>
@@ -2971,31 +2971,31 @@
         <v>0</v>
       </c>
       <c r="C30" s="7">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="D30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="E30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="F30" s="7">
         <v>52.200000000000017</v>
       </c>
       <c r="G30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="H30" s="7">
         <v>52.2</v>
       </c>
       <c r="I30" s="7">
-        <v>52.20000000000001</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="J30" s="7">
         <v>52.200000000000017</v>
       </c>
       <c r="K30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.2</v>
       </c>
       <c r="L30" s="7">
         <v>52.2</v>
@@ -3004,46 +3004,46 @@
         <v>52.2</v>
       </c>
       <c r="N30" s="7">
+        <v>52.200000000000017</v>
+      </c>
+      <c r="O30" s="7">
         <v>52.2</v>
-      </c>
-      <c r="O30" s="7">
-        <v>52.20000000000001</v>
       </c>
       <c r="P30" s="7">
         <v>52.2</v>
       </c>
       <c r="Q30" s="7">
-        <v>52.20000000000001</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="R30" s="7">
         <v>52.200000000000017</v>
       </c>
       <c r="S30" s="7">
+        <v>52.20000000000001</v>
+      </c>
+      <c r="T30" s="7">
         <v>52.200000000000017</v>
       </c>
-      <c r="T30" s="7">
-        <v>52.2</v>
-      </c>
       <c r="U30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="V30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="W30" s="7">
         <v>52.200000000000017</v>
       </c>
       <c r="X30" s="7">
+        <v>52.20000000000001</v>
+      </c>
+      <c r="Y30" s="7">
+        <v>52.2</v>
+      </c>
+      <c r="Z30" s="7">
         <v>52.200000000000017</v>
       </c>
-      <c r="Y30" s="7">
-        <v>52.200000000000017</v>
-      </c>
-      <c r="Z30" s="7">
+      <c r="AA30" s="8">
         <v>52.2</v>
-      </c>
-      <c r="AA30" s="8">
-        <v>52.200000000000017</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.35">
@@ -3054,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D31" s="7">
         <v>10</v>
@@ -3072,7 +3072,7 @@
         <v>10</v>
       </c>
       <c r="I31" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="J31" s="7">
         <v>10</v>
@@ -3105,13 +3105,13 @@
         <v>10</v>
       </c>
       <c r="T31" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="U31" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="V31" s="7">
-        <v>9.9999999999999858</v>
+        <v>10</v>
       </c>
       <c r="W31" s="7">
         <v>10</v>
@@ -3137,25 +3137,25 @@
         <v>0</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>20.200000000000003</v>
       </c>
       <c r="D32" s="7">
-        <v>20.200000000000003</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="E32" s="7">
         <v>20.200000000000003</v>
       </c>
       <c r="F32" s="7">
-        <v>20.2</v>
+        <v>20.200000000000003</v>
       </c>
       <c r="G32" s="7">
-        <v>20.2</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="H32" s="7">
         <v>20.199999999999996</v>
       </c>
       <c r="I32" s="7">
-        <v>20.199999999999996</v>
+        <v>20.200000000000003</v>
       </c>
       <c r="J32" s="7">
         <v>20.199999999999996</v>
@@ -3167,49 +3167,49 @@
         <v>20.199999999999996</v>
       </c>
       <c r="M32" s="7">
-        <v>20.200000000000003</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="N32" s="7">
-        <v>20.200000000000003</v>
+        <v>20.2</v>
       </c>
       <c r="O32" s="7">
         <v>20.200000000000003</v>
       </c>
       <c r="P32" s="7">
-        <v>20.199999999999996</v>
+        <v>20.200000000000003</v>
       </c>
       <c r="Q32" s="7">
         <v>20.200000000000003</v>
       </c>
       <c r="R32" s="7">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="S32" s="7">
         <v>20.200000000000003</v>
       </c>
-      <c r="S32" s="7">
+      <c r="T32" s="7">
         <v>20.2</v>
-      </c>
-      <c r="T32" s="7">
-        <v>20.200000000000003</v>
       </c>
       <c r="U32" s="7">
         <v>20.2</v>
       </c>
       <c r="V32" s="7">
+        <v>20.200000000000003</v>
+      </c>
+      <c r="W32" s="7">
         <v>20.2</v>
       </c>
-      <c r="W32" s="7">
-        <v>20.199999999999996</v>
-      </c>
       <c r="X32" s="7">
-        <v>20.199999999999996</v>
+        <v>20.2</v>
       </c>
       <c r="Y32" s="7">
         <v>20.199999999999996</v>
       </c>
       <c r="Z32" s="7">
+        <v>20.2</v>
+      </c>
+      <c r="AA32" s="8">
         <v>20.199999999999996</v>
-      </c>
-      <c r="AA32" s="8">
-        <v>20.200000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.35">
@@ -3220,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="7">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D33" s="7">
         <v>70</v>
@@ -3348,7 +3348,7 @@
         <v>10.5</v>
       </c>
       <c r="R34" s="7">
-        <v>10.5</v>
+        <v>10.499999999999993</v>
       </c>
       <c r="S34" s="7">
         <v>10.5</v>
@@ -3395,7 +3395,7 @@
         <v>10</v>
       </c>
       <c r="F35" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="G35" s="7">
         <v>10</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D36" s="7">
         <v>10</v>
@@ -3484,10 +3484,10 @@
         <v>10</v>
       </c>
       <c r="H36" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="I36" s="7">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
       <c r="J36" s="7">
         <v>10</v>
@@ -3508,7 +3508,7 @@
         <v>10</v>
       </c>
       <c r="P36" s="7">
-        <v>10.000000000000002</v>
+        <v>10</v>
       </c>
       <c r="Q36" s="7">
         <v>10</v>
@@ -3552,10 +3552,10 @@
         <v>0</v>
       </c>
       <c r="C37" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D37" s="7">
-        <v>10</v>
+        <v>10.000000000000002</v>
       </c>
       <c r="E37" s="7">
         <v>10</v>
@@ -3573,7 +3573,7 @@
         <v>10</v>
       </c>
       <c r="J37" s="7">
-        <v>10.000000000000002</v>
+        <v>10</v>
       </c>
       <c r="K37" s="7">
         <v>10</v>
@@ -3653,41 +3653,41 @@
         <v>10</v>
       </c>
       <c r="I38" s="7">
+        <v>10</v>
+      </c>
+      <c r="J38" s="7">
+        <v>10</v>
+      </c>
+      <c r="K38" s="7">
+        <v>10</v>
+      </c>
+      <c r="L38" s="7">
+        <v>10</v>
+      </c>
+      <c r="M38" s="7">
+        <v>10</v>
+      </c>
+      <c r="N38" s="7">
+        <v>10</v>
+      </c>
+      <c r="O38" s="7">
+        <v>10</v>
+      </c>
+      <c r="P38" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="7">
+        <v>10</v>
+      </c>
+      <c r="R38" s="7">
+        <v>10</v>
+      </c>
+      <c r="S38" s="7">
+        <v>10</v>
+      </c>
+      <c r="T38" s="7">
         <v>10.000000000000002</v>
       </c>
-      <c r="J38" s="7">
-        <v>10</v>
-      </c>
-      <c r="K38" s="7">
-        <v>10</v>
-      </c>
-      <c r="L38" s="7">
-        <v>10</v>
-      </c>
-      <c r="M38" s="7">
-        <v>10</v>
-      </c>
-      <c r="N38" s="7">
-        <v>10</v>
-      </c>
-      <c r="O38" s="7">
-        <v>10</v>
-      </c>
-      <c r="P38" s="7">
-        <v>10</v>
-      </c>
-      <c r="Q38" s="7">
-        <v>10</v>
-      </c>
-      <c r="R38" s="7">
-        <v>10</v>
-      </c>
-      <c r="S38" s="7">
-        <v>10</v>
-      </c>
-      <c r="T38" s="7">
-        <v>10</v>
-      </c>
       <c r="U38" s="7">
         <v>10</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>10</v>
       </c>
       <c r="Y38" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="Z38" s="7">
         <v>10</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="D39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.1</v>
       </c>
       <c r="E39" s="7">
         <v>10.099999999999994</v>
@@ -3730,67 +3730,67 @@
         <v>10.099999999999994</v>
       </c>
       <c r="G39" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="H39" s="7">
         <v>10.1</v>
       </c>
-      <c r="H39" s="7">
+      <c r="I39" s="7">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="J39" s="7">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="K39" s="7">
         <v>10.100000000000001</v>
       </c>
-      <c r="I39" s="7">
-        <v>10.1</v>
-      </c>
-      <c r="J39" s="7">
-        <v>10.1</v>
-      </c>
-      <c r="K39" s="7">
-        <v>10.099999999999994</v>
-      </c>
       <c r="L39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="M39" s="7">
         <v>10.099999999999994</v>
       </c>
       <c r="N39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.1</v>
       </c>
       <c r="O39" s="7">
         <v>10.099999999999994</v>
       </c>
       <c r="P39" s="7">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="Q39" s="7">
         <v>10.1</v>
-      </c>
-      <c r="Q39" s="7">
-        <v>10.100000000000001</v>
       </c>
       <c r="R39" s="7">
         <v>10.099999999999994</v>
       </c>
       <c r="S39" s="7">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="T39" s="7">
         <v>10.1</v>
       </c>
-      <c r="T39" s="7">
-        <v>10.099999999999994</v>
-      </c>
       <c r="U39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="V39" s="7">
         <v>10.099999999999994</v>
       </c>
       <c r="W39" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="X39" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="Y39" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="Z39" s="7">
         <v>10.099999999999994</v>
       </c>
-      <c r="X39" s="7">
-        <v>10.099999999999994</v>
-      </c>
-      <c r="Y39" s="7">
-        <v>10.099999999999994</v>
-      </c>
-      <c r="Z39" s="7">
+      <c r="AA39" s="8">
         <v>10.100000000000001</v>
-      </c>
-      <c r="AA39" s="8">
-        <v>10.099999999999994</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.35">
@@ -3801,22 +3801,22 @@
         <v>0</v>
       </c>
       <c r="C40" s="7">
-        <v>0</v>
+        <v>10.1</v>
       </c>
       <c r="D40" s="7">
         <v>10.1</v>
       </c>
       <c r="E40" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="F40" s="7">
         <v>10.1</v>
-      </c>
-      <c r="F40" s="7">
-        <v>10.099999999999998</v>
       </c>
       <c r="G40" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="H40" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="I40" s="7">
         <v>10.1</v>
@@ -3825,19 +3825,19 @@
         <v>10.1</v>
       </c>
       <c r="K40" s="7">
-        <v>10.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="L40" s="7">
-        <v>10.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="M40" s="7">
         <v>10.1</v>
       </c>
       <c r="N40" s="7">
+        <v>10.099999999999998</v>
+      </c>
+      <c r="O40" s="7">
         <v>10.1</v>
-      </c>
-      <c r="O40" s="7">
-        <v>10.100000000000001</v>
       </c>
       <c r="P40" s="7">
         <v>10.1</v>
@@ -3846,16 +3846,16 @@
         <v>10.100000000000001</v>
       </c>
       <c r="R40" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="S40" s="7">
         <v>10.1</v>
       </c>
-      <c r="S40" s="7">
+      <c r="T40" s="7">
         <v>10.100000000000001</v>
       </c>
-      <c r="T40" s="7">
-        <v>10.1</v>
-      </c>
       <c r="U40" s="7">
-        <v>10.099999999999998</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="V40" s="7">
         <v>10.100000000000001</v>
@@ -3864,16 +3864,16 @@
         <v>10.100000000000001</v>
       </c>
       <c r="X40" s="7">
+        <v>10.099999999999998</v>
+      </c>
+      <c r="Y40" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="Z40" s="7">
         <v>10.100000000000001</v>
       </c>
-      <c r="Y40" s="7">
-        <v>10.100000000000001</v>
-      </c>
-      <c r="Z40" s="7">
+      <c r="AA40" s="8">
         <v>10.1</v>
-      </c>
-      <c r="AA40" s="8">
-        <v>10.100000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.35">
@@ -3950,7 +3950,7 @@
         <v>10</v>
       </c>
       <c r="Y41" s="7">
-        <v>10</v>
+        <v>9.9999999999999858</v>
       </c>
       <c r="Z41" s="7">
         <v>10</v>
@@ -3967,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D42" s="7">
         <v>12</v>
@@ -4027,7 +4027,7 @@
         <v>12</v>
       </c>
       <c r="W42" s="7">
-        <v>12</v>
+        <v>11.999999999999993</v>
       </c>
       <c r="X42" s="7">
         <v>12</v>
@@ -4101,13 +4101,13 @@
         <v>3200</v>
       </c>
       <c r="T43" s="7">
-        <v>3400</v>
+        <v>3450</v>
       </c>
       <c r="U43" s="7">
         <v>3650</v>
       </c>
       <c r="V43" s="7">
-        <v>3850</v>
+        <v>3900</v>
       </c>
       <c r="W43" s="7">
         <v>4100</v>
@@ -4187,16 +4187,16 @@
         <v>0</v>
       </c>
       <c r="T44" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U44" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V44" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W44" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X44" s="7">
         <v>10</v>
@@ -4894,7 +4894,7 @@
         <v>7</v>
       </c>
       <c r="B55" s="6">
-        <v>0</v>
+        <v>84.6</v>
       </c>
       <c r="C55" s="7">
         <v>84.6</v>
@@ -5197,16 +5197,16 @@
         <v>0</v>
       </c>
       <c r="T58" s="7">
-        <v>10.817758884394085</v>
+        <v>20.817758884394152</v>
       </c>
       <c r="U58" s="7">
-        <v>33.025418714353322</v>
+        <v>43.025418714353684</v>
       </c>
       <c r="V58" s="7">
-        <v>55.432947482782197</v>
+        <v>65.432947482785224</v>
       </c>
       <c r="W58" s="7">
-        <v>78.042144010127004</v>
+        <v>88.042144010127117</v>
       </c>
       <c r="X58" s="7">
         <v>186</v>
@@ -5807,7 +5807,7 @@
         <v>18</v>
       </c>
       <c r="B66" s="6">
-        <v>1631</v>
+        <v>1546.3999999999999</v>
       </c>
       <c r="C66" s="7">
         <v>249.69999999999948</v>
@@ -5825,13 +5825,13 @@
         <v>327.01637801450141</v>
       </c>
       <c r="H66" s="7">
-        <v>346.78232541663152</v>
+        <v>346.78232541663169</v>
       </c>
       <c r="I66" s="7">
-        <v>366.72616634538105</v>
+        <v>366.72616634538127</v>
       </c>
       <c r="J66" s="7">
-        <v>386.84950184248936</v>
+        <v>386.84950184248942</v>
       </c>
       <c r="K66" s="7">
         <v>407.15394735907165</v>
@@ -5840,7 +5840,7 @@
         <v>427.64113288530291</v>
       </c>
       <c r="M66" s="7">
-        <v>448.31270308127046</v>
+        <v>448.3127030812704</v>
       </c>
       <c r="N66" s="7">
         <v>469.17031740900126</v>
@@ -5864,10 +5864,10 @@
         <v>0</v>
       </c>
       <c r="U66" s="7">
-        <v>2.2737367544323206E-13</v>
+        <v>-1.1368683772161603E-13</v>
       </c>
       <c r="V66" s="7">
-        <v>0</v>
+        <v>-3.1832314562052488E-12</v>
       </c>
       <c r="W66" s="7">
         <v>0</v>
@@ -7856,16 +7856,16 @@
         <v>0</v>
       </c>
       <c r="T90" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U90" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V90" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W90" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X90" s="7">
         <v>10</v>
@@ -7984,82 +7984,82 @@
         <v>1</v>
       </c>
       <c r="B95" s="3">
-        <v>130.97643702211982</v>
+        <v>131.30047538209178</v>
       </c>
       <c r="C95" s="4">
-        <v>321.81666666666626</v>
+        <v>250.08356848362453</v>
       </c>
       <c r="D95" s="4">
-        <v>366.23840446602952</v>
+        <v>382.57607186066889</v>
       </c>
       <c r="E95" s="4">
-        <v>445.3803443500006</v>
+        <v>445.38034435000134</v>
       </c>
       <c r="F95" s="4">
-        <v>626.3184520415889</v>
+        <v>629.46950575382402</v>
       </c>
       <c r="G95" s="4">
-        <v>982.41113455139237</v>
+        <v>986.92329175268833</v>
       </c>
       <c r="H95" s="4">
-        <v>841.04570833496473</v>
+        <v>845.50283353936084</v>
       </c>
       <c r="I95" s="4">
-        <v>757.4349405820102</v>
+        <v>761.65163775578162</v>
       </c>
       <c r="J95" s="4">
-        <v>660.69639202252176</v>
+        <v>664.6856304306657</v>
       </c>
       <c r="K95" s="4">
-        <v>621.30607182208564</v>
+        <v>625.08012113632162</v>
       </c>
       <c r="L95" s="4">
-        <v>500.52926734574737</v>
+        <v>504.09973538225682</v>
       </c>
       <c r="M95" s="4">
-        <v>438.48728437217358</v>
+        <v>441.86515279367029</v>
       </c>
       <c r="N95" s="4">
-        <v>366.09493310398977</v>
+        <v>369.29059119594672</v>
       </c>
       <c r="O95" s="4">
-        <v>283.95651109753749</v>
+        <v>286.97978772243459</v>
       </c>
       <c r="P95" s="4">
-        <v>192.6441324132999</v>
+        <v>195.50432624118662</v>
       </c>
       <c r="Q95" s="4">
-        <v>162.42297718701388</v>
+        <v>165.12888529535888</v>
       </c>
       <c r="R95" s="4">
-        <v>53.78525658535159</v>
+        <v>56.34520151615402</v>
       </c>
       <c r="S95" s="4">
         <v>-41.526512318802133</v>
       </c>
       <c r="T95" s="4">
-        <v>-123.18520092967128</v>
+        <v>-178.87263607880823</v>
       </c>
       <c r="U95" s="4">
-        <v>-252.95367203609817</v>
+        <v>-240.573869532868</v>
       </c>
       <c r="V95" s="4">
-        <v>-301.59993596223262</v>
+        <v>-331.46872565432903</v>
       </c>
       <c r="W95" s="4">
-        <v>-372.65736454372745</v>
+        <v>-374.34188230193911</v>
       </c>
       <c r="X95" s="4">
-        <v>-499.27463983941669</v>
+        <v>-493.39748449743206</v>
       </c>
       <c r="Y95" s="4">
         <v>-526.97265273668881</v>
       </c>
       <c r="Z95" s="4">
-        <v>-607.61835661131897</v>
+        <v>-607.61835661131863</v>
       </c>
       <c r="AA95" s="5">
-        <v>-863.74544442195486</v>
+        <v>-863.7454444219552</v>
       </c>
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.35">
@@ -8067,82 +8067,82 @@
         <v>2</v>
       </c>
       <c r="B96" s="6">
-        <v>-374.92356297788047</v>
+        <v>-374.59952461790817</v>
       </c>
       <c r="C96" s="7">
-        <v>-221.68333333333322</v>
+        <v>-216.26678424181236</v>
       </c>
       <c r="D96" s="7">
-        <v>-229.71997723301507</v>
+        <v>-237.88881093033467</v>
       </c>
       <c r="E96" s="7">
-        <v>-291.56660415000079</v>
+        <v>-291.56660415000113</v>
       </c>
       <c r="F96" s="7">
-        <v>-575.15027277222725</v>
+        <v>-581.45238019669614</v>
       </c>
       <c r="G96" s="7">
-        <v>-719.04949547277533</v>
+        <v>-714.53733827147994</v>
       </c>
       <c r="H96" s="7">
-        <v>-543.35816735942194</v>
+        <v>-538.90104215502515</v>
       </c>
       <c r="I96" s="7">
-        <v>-360.20866999362568</v>
+        <v>-355.99197281985425</v>
       </c>
       <c r="J96" s="7">
-        <v>-190.48611104829445</v>
+        <v>-186.49687264014892</v>
       </c>
       <c r="K96" s="7">
-        <v>-13.717173776367304</v>
+        <v>-9.9431244621301857</v>
       </c>
       <c r="L96" s="7">
-        <v>131.36071253690886</v>
+        <v>134.93118057341809</v>
       </c>
       <c r="M96" s="7">
-        <v>284.86611257005563</v>
+        <v>288.24398099155235</v>
       </c>
       <c r="N96" s="7">
-        <v>427.7110707556534</v>
+        <v>430.90672884761034</v>
       </c>
       <c r="O96" s="7">
-        <v>560.49709398806635</v>
+        <v>563.52037061296437</v>
       </c>
       <c r="P96" s="7">
-        <v>683.79348054984382</v>
+        <v>686.65367437773057</v>
       </c>
       <c r="Q96" s="7">
-        <v>817.86256945678724</v>
+        <v>820.5684775651323</v>
       </c>
       <c r="R96" s="7">
-        <v>923.19370518555365</v>
+        <v>925.75365011635608</v>
       </c>
       <c r="S96" s="7">
         <v>1041.5265123188021</v>
       </c>
       <c r="T96" s="7">
-        <v>1123.1852009296717</v>
+        <v>1117.4977657805348</v>
       </c>
       <c r="U96" s="7">
-        <v>1206.4039634399794</v>
+        <v>1218.7837659432096</v>
       </c>
       <c r="V96" s="7">
-        <v>1292.433398183075</v>
+        <v>1274.1709775672671</v>
       </c>
       <c r="W96" s="7">
-        <v>1330.6723954393942</v>
+        <v>1348.6126925988149</v>
       </c>
       <c r="X96" s="7">
-        <v>1473.4443001816683</v>
+        <v>1470.5057225106759</v>
       </c>
       <c r="Y96" s="7">
         <v>1526.9726527366884</v>
       </c>
       <c r="Z96" s="7">
-        <v>1607.6183566113186</v>
+        <v>1607.6183566113191</v>
       </c>
       <c r="AA96" s="8">
-        <v>618.97481193640238</v>
+        <v>618.9748119364026</v>
       </c>
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.35">
@@ -8150,73 +8150,73 @@
         <v>3</v>
       </c>
       <c r="B97" s="9">
-        <v>243.94712595576061</v>
+        <v>243.29904923581643</v>
       </c>
       <c r="C97" s="10">
-        <v>-100.13333333333304</v>
+        <v>-33.816784241812172</v>
       </c>
       <c r="D97" s="10">
-        <v>-136.51842723301448</v>
+        <v>-144.68726093033422</v>
       </c>
       <c r="E97" s="10">
-        <v>-153.81374019999978</v>
+        <v>-153.81374020000018</v>
       </c>
       <c r="F97" s="10">
-        <v>-51.168179269361758</v>
+        <v>-48.01712555712777</v>
       </c>
       <c r="G97" s="10">
-        <v>-263.36163907861692</v>
+        <v>-272.38595348120833</v>
       </c>
       <c r="H97" s="10">
-        <v>-297.68754097554302</v>
+        <v>-306.60179138433568</v>
       </c>
       <c r="I97" s="10">
-        <v>-397.22627058838452</v>
+        <v>-405.65966493592737</v>
       </c>
       <c r="J97" s="10">
-        <v>-470.21028097422732</v>
+        <v>-478.188757790517</v>
       </c>
       <c r="K97" s="10">
-        <v>-607.58889804571834</v>
+        <v>-615.13699667419166</v>
       </c>
       <c r="L97" s="10">
-        <v>-631.88997988265623</v>
+        <v>-639.03091595567491</v>
       </c>
       <c r="M97" s="10">
-        <v>-723.35339694222921</v>
+        <v>-730.10913378522264</v>
       </c>
       <c r="N97" s="10">
-        <v>-793.80600385964317</v>
+        <v>-800.19732004355706</v>
       </c>
       <c r="O97" s="10">
-        <v>-844.45360508560384</v>
+        <v>-850.50015833539896</v>
       </c>
       <c r="P97" s="10">
-        <v>-876.43761296314381</v>
+        <v>-882.15800061891719</v>
       </c>
       <c r="Q97" s="10">
-        <v>-980.28554664380113</v>
+        <v>-985.69736286049113</v>
       </c>
       <c r="R97" s="10">
-        <v>-976.97896177090547</v>
+        <v>-982.0988516325101</v>
       </c>
       <c r="S97" s="10">
         <v>-1000</v>
       </c>
       <c r="T97" s="10">
-        <v>-1000</v>
+        <v>-938.62512970172679</v>
       </c>
       <c r="U97" s="10">
-        <v>-953.45029140388135</v>
+        <v>-978.20989641034146</v>
       </c>
       <c r="V97" s="10">
-        <v>-990.83346222084231</v>
+        <v>-942.70225191293798</v>
       </c>
       <c r="W97" s="10">
-        <v>-958.01503089566677</v>
+        <v>-974.27081029687565</v>
       </c>
       <c r="X97" s="10">
-        <v>-974.16966034225152</v>
+        <v>-977.10823801324386</v>
       </c>
       <c r="Y97" s="10">
         <v>-1000</v>
@@ -8225,7 +8225,7 @@
         <v>-1000</v>
       </c>
       <c r="AA97" s="11">
-        <v>244.77063248555248</v>
+        <v>244.7706324855526</v>
       </c>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.35">
@@ -8243,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="B101" s="3">
-        <v>315.66666666666663</v>
+        <v>343.86666666666667</v>
       </c>
       <c r="C101" s="4">
         <v>351.27166666666665</v>
@@ -8267,7 +8267,7 @@
         <v>364.92471940696117</v>
       </c>
       <c r="J101" s="4">
-        <v>367.27244188162382</v>
+        <v>367.27244188162376</v>
       </c>
       <c r="K101" s="4">
         <v>369.64129385855841</v>
@@ -8297,16 +8297,16 @@
         <v>559.1453500145135</v>
       </c>
       <c r="T101" s="4">
-        <v>558.50448557504785</v>
+        <v>555.17115224171448</v>
       </c>
       <c r="U101" s="4">
-        <v>553.69282594522338</v>
+        <v>550.35949261189</v>
       </c>
       <c r="V101" s="4">
-        <v>548.83786137873051</v>
+        <v>545.50452804539611</v>
       </c>
       <c r="W101" s="4">
-        <v>543.93920213113915</v>
+        <v>540.60586879780578</v>
       </c>
       <c r="X101" s="4">
         <v>453.32978828365276</v>
@@ -8326,7 +8326,7 @@
         <v>2</v>
       </c>
       <c r="B102" s="6">
-        <v>-734.33333333333326</v>
+        <v>-706.13333333333333</v>
       </c>
       <c r="C102" s="7">
         <v>-58.178333333333171</v>
@@ -8344,13 +8344,13 @@
         <v>-87.816278238892238</v>
       </c>
       <c r="H102" s="7">
-        <v>-95.393224743042111</v>
+        <v>-95.393224743042154</v>
       </c>
       <c r="I102" s="7">
-        <v>-103.03836376572943</v>
+        <v>-103.03836376572947</v>
       </c>
       <c r="J102" s="7">
-        <v>-110.75230903962093</v>
+        <v>-110.75230903962097</v>
       </c>
       <c r="K102" s="7">
         <v>-118.53567982097748</v>
@@ -8380,16 +8380,16 @@
         <v>-13.608742594205182</v>
       </c>
       <c r="T102" s="7">
-        <v>-14.436634982754981</v>
+        <v>-7.7699683160883524</v>
       </c>
       <c r="U102" s="7">
-        <v>-8.1444646975999895</v>
+        <v>-1.4777980309330965</v>
       </c>
       <c r="V102" s="7">
-        <v>-1.795664879878359</v>
+        <v>4.8710017867903534</v>
       </c>
       <c r="W102" s="7">
-        <v>4.6102741362026336</v>
+        <v>11.276940802869376</v>
       </c>
       <c r="X102" s="7">
         <v>182.4071999367618</v>
@@ -8409,7 +8409,7 @@
         <v>3</v>
       </c>
       <c r="B103" s="9">
-        <v>418.66666666666663</v>
+        <v>362.26666666666665</v>
       </c>
       <c r="C103" s="10">
         <v>-293.09333333333348</v>
@@ -8427,13 +8427,13 @@
         <v>-272.47563252946628</v>
       </c>
       <c r="H103" s="10">
-        <v>-267.20471322223165</v>
+        <v>-267.20471322223153</v>
       </c>
       <c r="I103" s="10">
-        <v>-261.88635564123177</v>
+        <v>-261.88635564123166</v>
       </c>
       <c r="J103" s="10">
-        <v>-256.52013284200285</v>
+        <v>-256.52013284200279</v>
       </c>
       <c r="K103" s="10">
         <v>-251.10561403758089</v>
@@ -8463,16 +8463,16 @@
         <v>-545.53660742030831</v>
       </c>
       <c r="T103" s="10">
-        <v>-544.06785059229287</v>
+        <v>-547.40118392562624</v>
       </c>
       <c r="U103" s="10">
-        <v>-545.54836124762346</v>
+        <v>-548.88169458095683</v>
       </c>
       <c r="V103" s="10">
-        <v>-547.04219649885204</v>
+        <v>-550.37552983218654</v>
       </c>
       <c r="W103" s="10">
-        <v>-548.54947626734179</v>
+        <v>-551.88280960067505</v>
       </c>
       <c r="X103" s="10">
         <v>-635.73698822041456</v>
@@ -8575,76 +8575,76 @@
         <v>6</v>
       </c>
       <c r="B106" s="15">
-        <v>231991.12588150462</v>
+        <v>229863.34998209408</v>
       </c>
       <c r="C106" s="16">
-        <v>190140.63153965492</v>
+        <v>189875.71261185518</v>
       </c>
       <c r="D106" s="16">
-        <v>159339.54690181487</v>
+        <v>159112.37992213608</v>
       </c>
       <c r="E106" s="16">
-        <v>148876.86993389658</v>
+        <v>148931.01348090786</v>
       </c>
       <c r="F106" s="16">
-        <v>141199.76340916846</v>
+        <v>141266.43005676562</v>
       </c>
       <c r="G106" s="16">
-        <v>135372.17299524634</v>
+        <v>135496.06011081822</v>
       </c>
       <c r="H106" s="16">
-        <v>11667050.655674972</v>
+        <v>11667160.572811268</v>
       </c>
       <c r="I106" s="16">
-        <v>12348378.054315709</v>
+        <v>12348472.588808587</v>
       </c>
       <c r="J106" s="16">
-        <v>13751260.723626044</v>
+        <v>13751342.028240088</v>
       </c>
       <c r="K106" s="16">
-        <v>13558784.138956418</v>
+        <v>13558854.0651819</v>
       </c>
       <c r="L106" s="16">
-        <v>15191540.591279879</v>
+        <v>15191600.731495388</v>
       </c>
       <c r="M106" s="16">
-        <v>14684235.406751253</v>
+        <v>14684287.130485751</v>
       </c>
       <c r="N106" s="16">
-        <v>14786955.988124127</v>
+        <v>14787000.473244235</v>
       </c>
       <c r="O106" s="16">
-        <v>14749523.58796652</v>
+        <v>14749561.847499218</v>
       </c>
       <c r="P106" s="16">
-        <v>14596589.087813787</v>
+        <v>14596621.993015315</v>
       </c>
       <c r="Q106" s="16">
-        <v>13650650.813546522</v>
+        <v>13650679.113742871</v>
       </c>
       <c r="R106" s="16">
-        <v>13830801.065545823</v>
+        <v>13830825.405196585</v>
       </c>
       <c r="S106" s="16">
-        <v>13466016.171551844</v>
+        <v>13465993.354424601</v>
       </c>
       <c r="T106" s="16">
-        <v>12859918.526223721</v>
+        <v>13052872.188199122</v>
       </c>
       <c r="U106" s="16">
-        <v>12521090.419230273</v>
+        <v>12126306.671921205</v>
       </c>
       <c r="V106" s="16">
-        <v>11619195.149856256</v>
+        <v>11994417.194799118</v>
       </c>
       <c r="W106" s="16">
-        <v>11445159.650363134</v>
+        <v>11118882.032706637</v>
       </c>
       <c r="X106" s="16">
-        <v>10600356.968824476</v>
+        <v>10778653.087909246</v>
       </c>
       <c r="Y106" s="16">
-        <v>10365533.221142804</v>
+        <v>10365539.187055131</v>
       </c>
       <c r="Z106" s="16">
         <v>9584881.0747875217</v>
@@ -8654,7 +8654,7 @@
       </c>
       <c r="AB106" s="18">
         <f>SUM(TotalCost)</f>
-        <v>304039169.01005739</v>
+        <v>304062823.29150337</v>
       </c>
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.35">
@@ -8748,86 +8748,86 @@
         <v>8</v>
       </c>
       <c r="B109" s="3">
-        <v>79410814.945040509</v>
+        <v>79312435.467566609</v>
       </c>
       <c r="C109" s="4">
-        <v>63008596.513607681</v>
+        <v>63004712.496935904</v>
       </c>
       <c r="D109" s="4">
-        <v>55897639.429508552</v>
+        <v>55845687.607713684</v>
       </c>
       <c r="E109" s="4">
-        <v>54564500.07738997</v>
+        <v>54436910.692870244</v>
       </c>
       <c r="F109" s="4">
-        <v>50523285.409402966</v>
+        <v>50586717.633136034</v>
       </c>
       <c r="G109" s="4">
-        <v>46943184.414359182</v>
+        <v>46757488.931061611</v>
       </c>
       <c r="H109" s="4">
-        <v>42789651.604352027</v>
+        <v>42802770.528393649</v>
       </c>
       <c r="I109" s="4">
-        <v>41084451.18812909</v>
+        <v>41096862.445922486</v>
       </c>
       <c r="J109" s="4">
-        <v>39344839.620549791</v>
+        <v>39356581.385310784</v>
       </c>
       <c r="K109" s="4">
-        <v>38099783.225653768</v>
+        <v>38110891.611443318</v>
       </c>
       <c r="L109" s="4">
-        <v>36297990.199881151</v>
+        <v>36308499.372681089</v>
       </c>
       <c r="M109" s="4">
-        <v>34994910.735631958</v>
+        <v>35004853.018429048</v>
       </c>
       <c r="N109" s="4">
-        <v>33665749.343199946</v>
+        <v>33675155.315401487</v>
       </c>
       <c r="O109" s="4">
-        <v>32312324.134227134</v>
+        <v>32321222.725713793</v>
       </c>
       <c r="P109" s="4">
-        <v>30936358.847758602</v>
+        <v>30944777.427863855</v>
       </c>
       <c r="Q109" s="4">
-        <v>30066201.364015359</v>
+        <v>30074165.825705137</v>
       </c>
       <c r="R109" s="4">
-        <v>28075014.638710186</v>
+        <v>28082549.478221711</v>
       </c>
       <c r="S109" s="4">
-        <v>27637779.666487537</v>
+        <v>29136901.058816552</v>
       </c>
       <c r="T109" s="4">
-        <v>28104427.366363551</v>
+        <v>28825897.202459987</v>
       </c>
       <c r="U109" s="4">
-        <v>26480026.546641212</v>
+        <v>26191644.612118073</v>
       </c>
       <c r="V109" s="4">
-        <v>23842430.948070701</v>
+        <v>24209430.84098763</v>
       </c>
       <c r="W109" s="4">
-        <v>21764460.934464518</v>
+        <v>21666318.719694287</v>
       </c>
       <c r="X109" s="4">
-        <v>18348308.303627893</v>
+        <v>19472407.35692307</v>
       </c>
       <c r="Y109" s="4">
-        <v>17639234.175045125</v>
+        <v>17596356.097632479</v>
       </c>
       <c r="Z109" s="4">
-        <v>15992996.940919366</v>
+        <v>15992996.940919355</v>
       </c>
       <c r="AA109" s="5">
         <v>0</v>
       </c>
       <c r="AB109" s="12">
         <f>SUM(B109:AA109)</f>
-        <v>917824960.57303786</v>
+        <v>920814234.79392207</v>
       </c>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.35">
@@ -8835,86 +8835,86 @@
         <v>9</v>
       </c>
       <c r="B110" s="6">
-        <v>14667374.743175548</v>
+        <v>14615895.097423073</v>
       </c>
       <c r="C110" s="7">
-        <v>13232177.66341256</v>
+        <v>13232019.132119834</v>
       </c>
       <c r="D110" s="7">
-        <v>13202905.908014389</v>
+        <v>13202190.318182502</v>
       </c>
       <c r="E110" s="7">
-        <v>11427176.759078542</v>
+        <v>11398630.601589229</v>
       </c>
       <c r="F110" s="7">
-        <v>9446021.7217891142</v>
+        <v>9418749.730036173</v>
       </c>
       <c r="G110" s="7">
-        <v>6871604.7774165524</v>
+        <v>6764329.8643323416</v>
       </c>
       <c r="H110" s="7">
-        <v>5680751.2654034821</v>
+        <v>5649906.1761389757</v>
       </c>
       <c r="I110" s="7">
-        <v>5071410.1785333082</v>
+        <v>5042228.9474119404</v>
       </c>
       <c r="J110" s="7">
-        <v>4554809.8005604241</v>
+        <v>4527202.6750806971</v>
       </c>
       <c r="K110" s="7">
-        <v>3876260.9785867427</v>
+        <v>3850143.0477124928</v>
       </c>
       <c r="L110" s="7">
-        <v>3529848.5920510031</v>
+        <v>3505139.5250511449</v>
       </c>
       <c r="M110" s="7">
-        <v>3011926.4851294374</v>
+        <v>2988550.2845053119</v>
       </c>
       <c r="N110" s="7">
-        <v>2567593.2899408601</v>
+        <v>2545478.0576812807</v>
       </c>
       <c r="O110" s="7">
-        <v>2192684.6676832531</v>
+        <v>2171762.3841283121</v>
       </c>
       <c r="P110" s="7">
-        <v>1883259.1609973933</v>
+        <v>1863465.4756308871</v>
       </c>
       <c r="Q110" s="7">
-        <v>1386087.5782639331</v>
+        <v>1367361.6117909409</v>
       </c>
       <c r="R110" s="7">
-        <v>981500.62396597164</v>
+        <v>963784.78106684668</v>
       </c>
       <c r="S110" s="7">
-        <v>2198644.6980367745</v>
+        <v>2199991.5599020482</v>
       </c>
       <c r="T110" s="7">
-        <v>1497195.6677057731</v>
+        <v>2106036.3908998435</v>
       </c>
       <c r="U110" s="7">
-        <v>1403701.5010519358</v>
+        <v>1189092.1532665414</v>
       </c>
       <c r="V110" s="7">
-        <v>626990.14999876067</v>
+        <v>1230531.7078334645</v>
       </c>
       <c r="W110" s="7">
-        <v>785592.28795040783</v>
+        <v>593627.71539263648</v>
       </c>
       <c r="X110" s="7">
-        <v>123335.4448958266</v>
+        <v>124416.60639253809</v>
       </c>
       <c r="Y110" s="7">
-        <v>491512.83514317533</v>
+        <v>456935.38316789625</v>
       </c>
       <c r="Z110" s="7">
-        <v>111619.72520274097</v>
+        <v>111619.72520274093</v>
       </c>
       <c r="AA110" s="8">
         <v>0</v>
       </c>
       <c r="AB110" s="13">
         <f t="shared" ref="AB110:AB113" si="0">SUM(B110:AA110)</f>
-        <v>110821986.50398794</v>
+        <v>111119088.95193969</v>
       </c>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.35">
@@ -8922,86 +8922,86 @@
         <v>10</v>
       </c>
       <c r="B111" s="6">
-        <v>81973843561.409744</v>
+        <v>81896985282.326309</v>
       </c>
       <c r="C111" s="7">
-        <v>77551977702.482773</v>
+        <v>77479265343.432953</v>
       </c>
       <c r="D111" s="7">
-        <v>73368637900.464371</v>
+        <v>73299847820.57135</v>
       </c>
       <c r="E111" s="7">
-        <v>69410957487.382355</v>
+        <v>69345878109.494965</v>
       </c>
       <c r="F111" s="7">
-        <v>65666763854.214973</v>
+        <v>65605195014.161346</v>
       </c>
       <c r="G111" s="7">
-        <v>62124541011.685364</v>
+        <v>62066293342.629448</v>
       </c>
       <c r="H111" s="7">
-        <v>58773394170.616623</v>
+        <v>58718288520.623993</v>
       </c>
       <c r="I111" s="7">
-        <v>55603016232.907555</v>
+        <v>55550883113.929085</v>
       </c>
       <c r="J111" s="7">
-        <v>52603656090.065559</v>
+        <v>52554335156.644272</v>
       </c>
       <c r="K111" s="7">
-        <v>49766088631.792809</v>
+        <v>49719428187.890503</v>
       </c>
       <c r="L111" s="7">
-        <v>47081586372.381187</v>
+        <v>47037442904.808037</v>
       </c>
       <c r="M111" s="7">
-        <v>44541892607.647652</v>
+        <v>44500130344.659721</v>
       </c>
       <c r="N111" s="7">
-        <v>42139196019.848877</v>
+        <v>42099686513.555946</v>
       </c>
       <c r="O111" s="7">
-        <v>39866106652.467781</v>
+        <v>39828728383.767105</v>
       </c>
       <c r="P111" s="7">
-        <v>37715633180.977699</v>
+        <v>37680271185.798584</v>
       </c>
       <c r="Q111" s="7">
-        <v>35681161409.676132</v>
+        <v>35647706925.385765</v>
       </c>
       <c r="R111" s="7">
-        <v>33756433928.450821</v>
+        <v>33724784059.333832</v>
       </c>
       <c r="S111" s="7">
-        <v>31935530866.908756</v>
+        <v>31905588267.69162</v>
       </c>
       <c r="T111" s="7">
-        <v>30212851686.673618</v>
+        <v>30184524263.120491</v>
       </c>
       <c r="U111" s="7">
-        <v>28583097955.850395</v>
+        <v>28556298581.509541</v>
       </c>
       <c r="V111" s="7">
-        <v>27041257052.676731</v>
+        <v>27015903300.906319</v>
       </c>
       <c r="W111" s="7">
-        <v>25582586748.238422</v>
+        <v>25558600638.687508</v>
       </c>
       <c r="X111" s="7">
-        <v>24202600620.830246</v>
+        <v>24179908379.595169</v>
       </c>
       <c r="Y111" s="7">
-        <v>22897054257.101173</v>
+        <v>22875586089.819695</v>
       </c>
       <c r="Z111" s="7">
-        <v>21641622074.728207</v>
+        <v>21641622074.728203</v>
       </c>
       <c r="AA111" s="8">
         <v>0</v>
       </c>
       <c r="AB111" s="13">
         <f t="shared" si="0"/>
-        <v>1139721488077.48</v>
+        <v>1138673181805.0718</v>
       </c>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.35">
@@ -9009,86 +9009,86 @@
         <v>11</v>
       </c>
       <c r="B112" s="6">
-        <v>6683510.9719839916</v>
+        <v>6683691.1024731873</v>
       </c>
       <c r="C112" s="7">
-        <v>6599755.803300471</v>
+        <v>6598487.5529586654</v>
       </c>
       <c r="D112" s="7">
-        <v>6544279.0233887751</v>
+        <v>6542847.8437250052</v>
       </c>
       <c r="E112" s="7">
-        <v>5705298.8174357917</v>
+        <v>5691839.7926119342</v>
       </c>
       <c r="F112" s="7">
-        <v>4781524.5565517591</v>
+        <v>4767888.5606752886</v>
       </c>
       <c r="G112" s="7">
-        <v>3778281.3066065297</v>
+        <v>3760494.3829190223</v>
       </c>
       <c r="H112" s="7">
-        <v>3501015.5881168302</v>
+        <v>3485475.9102342054</v>
       </c>
       <c r="I112" s="7">
-        <v>3166797.3239359627</v>
+        <v>3152095.8935735524</v>
       </c>
       <c r="J112" s="7">
-        <v>2879371.3711778335</v>
+        <v>2865462.9712526039</v>
       </c>
       <c r="K112" s="7">
-        <v>2516257.7365025799</v>
+        <v>2503099.5890494771</v>
       </c>
       <c r="L112" s="7">
-        <v>2314713.5067413384</v>
+        <v>2302265.1413414096</v>
       </c>
       <c r="M112" s="7">
-        <v>2032665.9212198558</v>
+        <v>2020889.0505256758</v>
       </c>
       <c r="N112" s="7">
-        <v>1787764.5662852908</v>
+        <v>1776622.9682608445</v>
       </c>
       <c r="O112" s="7">
-        <v>1577912.1095002284</v>
+        <v>1567371.5160130558</v>
       </c>
       <c r="P112" s="7">
-        <v>1401123.5113920528</v>
+        <v>1391151.5028150028</v>
       </c>
       <c r="Q112" s="7">
-        <v>1135654.3381009076</v>
+        <v>1126220.2435993243</v>
       </c>
       <c r="R112" s="7">
-        <v>1015535.7440206235</v>
+        <v>1006610.5472182796</v>
       </c>
       <c r="S112" s="7">
-        <v>918205.10790448519</v>
+        <v>917948.56278729008</v>
       </c>
       <c r="T112" s="7">
-        <v>785829.59529897582</v>
+        <v>881483.06465687242</v>
       </c>
       <c r="U112" s="7">
-        <v>747026.21964761592</v>
+        <v>712766.6381798829</v>
       </c>
       <c r="V112" s="7">
-        <v>600996.01909194351</v>
+        <v>694873.97490732267</v>
       </c>
       <c r="W112" s="7">
-        <v>601309.34157280484</v>
+        <v>571716.1173205924</v>
       </c>
       <c r="X112" s="7">
-        <v>476052.49032645003</v>
+        <v>475640.61928008375</v>
       </c>
       <c r="Y112" s="7">
-        <v>508691.55552251264</v>
+        <v>503038.98237191478</v>
       </c>
       <c r="Z112" s="7">
-        <v>428144.51811810891</v>
+        <v>428144.5181181088</v>
       </c>
       <c r="AA112" s="8">
         <v>0</v>
       </c>
       <c r="AB112" s="13">
         <f t="shared" si="0"/>
-        <v>62487717.043743722</v>
+        <v>62428127.046868593</v>
       </c>
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.35">
@@ -9096,86 +9096,86 @@
         <v>12</v>
       </c>
       <c r="B113" s="9">
-        <v>954565.25811419426</v>
+        <v>954516.28076872649</v>
       </c>
       <c r="C113" s="10">
-        <v>943989.55141255888</v>
+        <v>943831.02011983306</v>
       </c>
       <c r="D113" s="10">
-        <v>940524.16925087757</v>
+        <v>940381.05128450051</v>
       </c>
       <c r="E113" s="10">
-        <v>815301.21688416507</v>
+        <v>813293.21721286373</v>
       </c>
       <c r="F113" s="10">
-        <v>676714.90575954388</v>
+        <v>674672.26670112507</v>
       </c>
       <c r="G113" s="10">
-        <v>524404.04177130794</v>
+        <v>521716.23996964027</v>
       </c>
       <c r="H113" s="10">
-        <v>485227.58759383595</v>
+        <v>482884.92258640507</v>
       </c>
       <c r="I113" s="10">
-        <v>437049.6115198409</v>
+        <v>434833.31548530667</v>
       </c>
       <c r="J113" s="10">
-        <v>395920.09887731553</v>
+        <v>393823.35516999452</v>
       </c>
       <c r="K113" s="10">
-        <v>342902.19576538412</v>
+        <v>340918.55544582085</v>
       </c>
       <c r="L113" s="10">
-        <v>314708.21569018246</v>
+        <v>312831.5776901932</v>
       </c>
       <c r="M113" s="10">
-        <v>273899.76101655676</v>
+        <v>272124.3533742181</v>
       </c>
       <c r="N113" s="10">
-        <v>238685.38043025695</v>
+        <v>237005.74253712437</v>
       </c>
       <c r="O113" s="10">
-        <v>208748.84042027546</v>
+        <v>207159.80622622935</v>
       </c>
       <c r="P113" s="10">
-        <v>183790.83558858896</v>
+        <v>182287.51771265175</v>
       </c>
       <c r="Q113" s="10">
-        <v>144985.3975877898</v>
+        <v>143563.17228604353</v>
       </c>
       <c r="R113" s="10">
-        <v>128540.20325359861</v>
+        <v>127194.69619796886</v>
       </c>
       <c r="S113" s="10">
         <v>115288.34094780521</v>
       </c>
       <c r="T113" s="10">
-        <v>96956.999820736222</v>
+        <v>111791.29119037392</v>
       </c>
       <c r="U113" s="10">
-        <v>92765.089123390746</v>
+        <v>87493.088368266632</v>
       </c>
       <c r="V113" s="10">
-        <v>71824.066707980164</v>
+        <v>86301.367259597857</v>
       </c>
       <c r="W113" s="10">
-        <v>73258.764066135307</v>
+        <v>68770.896191370586</v>
       </c>
       <c r="X113" s="10">
-        <v>55352.546677292397</v>
+        <v>55301.062796496612</v>
       </c>
       <c r="Y113" s="10">
-        <v>61345.972085706991</v>
+        <v>60505.724725482978</v>
       </c>
       <c r="Z113" s="10">
-        <v>50098.321568678766</v>
+        <v>50098.321568678752</v>
       </c>
       <c r="AA113" s="11">
         <v>0</v>
       </c>
       <c r="AB113" s="14">
         <f t="shared" si="0"/>
-        <v>8626847.3719340004</v>
+        <v>8618587.1838167161</v>
       </c>
     </row>
   </sheetData>

--- a/717A11_output.xlsx
+++ b/717A11_output.xlsx
@@ -742,55 +742,55 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>490.11743424114729</v>
+        <v>476.58096263727066</v>
       </c>
       <c r="H3" s="4">
-        <v>392.79578763201243</v>
+        <v>379.42441201882912</v>
       </c>
       <c r="I3" s="4">
-        <v>417.97438586439841</v>
+        <v>405.32429434309006</v>
       </c>
       <c r="J3" s="4">
-        <v>403.59913914242748</v>
+        <v>391.63142391799693</v>
       </c>
       <c r="K3" s="4">
-        <v>511.0940914900491</v>
+        <v>499.77194354734092</v>
       </c>
       <c r="L3" s="4">
-        <v>424.25121778058224</v>
+        <v>413.53981367105735</v>
       </c>
       <c r="M3" s="4">
-        <v>463.43063811952624</v>
+        <v>453.29703285504002</v>
       </c>
       <c r="N3" s="4">
-        <v>471.37306994400296</v>
+        <v>461.78609566813202</v>
       </c>
       <c r="O3" s="4">
-        <v>449.88777119067481</v>
+        <v>440.81794131598281</v>
       </c>
       <c r="P3" s="4">
-        <v>400.68752241914024</v>
+        <v>392.10694093547863</v>
       </c>
       <c r="Q3" s="4">
-        <v>484.56437047491789</v>
+        <v>476.44664614988051</v>
       </c>
       <c r="R3" s="4">
-        <v>382.99151856860357</v>
+        <v>375.31168377619451</v>
       </c>
       <c r="S3" s="4">
-        <v>424.15736811887871</v>
+        <v>435.13960772482824</v>
       </c>
       <c r="T3" s="4">
-        <v>126.2113730651149</v>
+        <v>243.27367851252461</v>
       </c>
       <c r="U3" s="4">
-        <v>115.19873623464923</v>
+        <v>78.059328724956686</v>
       </c>
       <c r="V3" s="4">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="W3" s="4">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X3" s="4">
         <v>0</v>
@@ -813,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="7">
-        <v>135.1503527254354</v>
+        <v>148.72323737659462</v>
       </c>
       <c r="D4" s="7">
-        <v>630.54838279100284</v>
+        <v>606.04188169907502</v>
       </c>
       <c r="E4" s="7">
         <v>665.6</v>
@@ -944,7 +944,7 @@
         <v>46.5</v>
       </c>
       <c r="S5" s="7">
-        <v>37.770212171037088</v>
+        <v>26.787972565087784</v>
       </c>
       <c r="T5" s="7">
         <v>46.5</v>
@@ -959,7 +959,7 @@
         <v>46.5</v>
       </c>
       <c r="X5" s="7">
-        <v>43.188165168920847</v>
+        <v>34.372432155943898</v>
       </c>
       <c r="Y5" s="7">
         <v>46.5</v>
@@ -1059,7 +1059,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>137.80142614627539</v>
+        <v>149.8293110663673</v>
       </c>
       <c r="C7" s="7">
         <v>464</v>
@@ -1205,7 +1205,7 @@
         <v>101.5</v>
       </c>
       <c r="W8" s="7">
-        <v>101.5</v>
+        <v>38.087889959491804</v>
       </c>
       <c r="X8" s="7">
         <v>0</v>
@@ -1225,7 +1225,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6">
-        <v>13.000000000000002</v>
+        <v>0</v>
       </c>
       <c r="C9" s="7">
         <v>13.000000000000002</v>
@@ -1380,7 +1380,7 @@
         <v>85.51375562129715</v>
       </c>
       <c r="Z10" s="7">
-        <v>16.480629421889262</v>
+        <v>16.480629421889148</v>
       </c>
       <c r="AA10" s="8">
         <v>0</v>
@@ -1617,13 +1617,13 @@
         <v>154</v>
       </c>
       <c r="V13" s="7">
-        <v>87.627949026233381</v>
+        <v>126.02157994994559</v>
       </c>
       <c r="W13" s="7">
-        <v>42.624814917632364</v>
+        <v>0</v>
       </c>
       <c r="X13" s="7">
-        <v>121.59457918513826</v>
+        <v>130.41031219811521</v>
       </c>
       <c r="Y13" s="7">
         <v>0</v>
@@ -1646,7 +1646,7 @@
         <v>150</v>
       </c>
       <c r="D14" s="7">
-        <v>96.018617208995636</v>
+        <v>120.52511830092271</v>
       </c>
       <c r="E14" s="7">
         <v>0</v>
@@ -1732,10 +1732,10 @@
         <v>1848</v>
       </c>
       <c r="E15" s="7">
-        <v>1258.6626725671222</v>
+        <v>1267.9555255442574</v>
       </c>
       <c r="F15" s="7">
-        <v>611.88934301297775</v>
+        <v>621.3425041496721</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="7">
-        <v>600.94343043287427</v>
+        <v>591.65057745573858</v>
       </c>
       <c r="F16" s="7">
         <v>656.1</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="7">
-        <v>20.033114914017144</v>
+        <v>10.579953777322771</v>
       </c>
       <c r="G17" s="7">
         <v>50.3</v>
@@ -1940,7 +1940,7 @@
         <v>50.3</v>
       </c>
       <c r="S17" s="7">
-        <v>28.366370434874398</v>
+        <v>28.366370434874625</v>
       </c>
       <c r="T17" s="7">
         <v>50.3</v>
@@ -2070,7 +2070,7 @@
         <v>257</v>
       </c>
       <c r="G19" s="7">
-        <v>158.30382580719007</v>
+        <v>171.84029741106679</v>
       </c>
       <c r="H19" s="7">
         <v>39</v>
@@ -2109,22 +2109,22 @@
         <v>257</v>
       </c>
       <c r="T19" s="7">
-        <v>246.14782321619759</v>
+        <v>169.08551776878789</v>
       </c>
       <c r="U19" s="7">
-        <v>131.18599281319416</v>
+        <v>158.32540032288671</v>
       </c>
       <c r="V19" s="7">
-        <v>137.44854258303965</v>
+        <v>61.054911659327445</v>
       </c>
       <c r="W19" s="7">
-        <v>57.81566511612283</v>
+        <v>75.852590074263389</v>
       </c>
       <c r="X19" s="7">
         <v>0</v>
       </c>
       <c r="Y19" s="7">
-        <v>42.858822277242325</v>
+        <v>47.218760842124993</v>
       </c>
       <c r="Z19" s="7">
         <v>0</v>
@@ -2156,37 +2156,37 @@
         <v>2269.6</v>
       </c>
       <c r="H20" s="7">
-        <v>2202.1119637567595</v>
+        <v>2215.4833393699428</v>
       </c>
       <c r="I20" s="7">
-        <v>1943.4128352868711</v>
+        <v>1956.0629268081793</v>
       </c>
       <c r="J20" s="7">
-        <v>1724.8658669992026</v>
+        <v>1736.8335822236331</v>
       </c>
       <c r="K20" s="7">
-        <v>1435.0523997068551</v>
+        <v>1446.3745476495633</v>
       </c>
       <c r="L20" s="7">
-        <v>1290.1858918370933</v>
+        <v>1300.8972959466182</v>
       </c>
       <c r="M20" s="7">
-        <v>1069.9117054847068</v>
+        <v>1080.045310749194</v>
       </c>
       <c r="N20" s="7">
-        <v>881.49465475266697</v>
+        <v>891.08162902853837</v>
       </c>
       <c r="O20" s="7">
-        <v>723.13106302826554</v>
+        <v>732.200892902958</v>
       </c>
       <c r="P20" s="7">
-        <v>593.11378130777086</v>
+        <v>601.69436279143292</v>
       </c>
       <c r="Q20" s="7">
-        <v>380.65644498553348</v>
+        <v>388.77416931057087</v>
       </c>
       <c r="R20" s="7">
-        <v>343.29158423099085</v>
+        <v>350.9714190233999</v>
       </c>
       <c r="S20" s="7">
         <v>0</v>
@@ -2221,7 +2221,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6">
-        <v>25.698573853724611</v>
+        <v>26.67068893363259</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -2373,10 +2373,10 @@
         <v>398.3</v>
       </c>
       <c r="Y22" s="7">
-        <v>302.93681115470508</v>
+        <v>298.57687258982241</v>
       </c>
       <c r="Z22" s="7">
-        <v>292.24594413283421</v>
+        <v>292.24594413283467</v>
       </c>
       <c r="AA22" s="8">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>0</v>
       </c>
       <c r="C23" s="7">
-        <v>2.9496472745626505</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>28.099999999999994</v>
+        <v>28.1</v>
       </c>
       <c r="E23" s="7">
-        <v>28.099999999999994</v>
+        <v>28.100000000000009</v>
       </c>
       <c r="F23" s="7">
         <v>28.1</v>
@@ -2408,34 +2408,34 @@
         <v>28.100000000000009</v>
       </c>
       <c r="I23" s="7">
+        <v>28.100000000000009</v>
+      </c>
+      <c r="J23" s="7">
+        <v>28.100000000000009</v>
+      </c>
+      <c r="K23" s="7">
         <v>28.1</v>
-      </c>
-      <c r="J23" s="7">
-        <v>28.099999999999994</v>
-      </c>
-      <c r="K23" s="7">
-        <v>28.100000000000009</v>
       </c>
       <c r="L23" s="7">
         <v>28.100000000000009</v>
       </c>
       <c r="M23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.1</v>
       </c>
       <c r="N23" s="7">
         <v>28.099999999999994</v>
       </c>
       <c r="O23" s="7">
+        <v>28.099999999999994</v>
+      </c>
+      <c r="P23" s="7">
+        <v>28.099999999999994</v>
+      </c>
+      <c r="Q23" s="7">
         <v>28.100000000000009</v>
       </c>
-      <c r="P23" s="7">
+      <c r="R23" s="7">
         <v>28.100000000000009</v>
-      </c>
-      <c r="Q23" s="7">
-        <v>28.1</v>
-      </c>
-      <c r="R23" s="7">
-        <v>28.1</v>
       </c>
       <c r="S23" s="7">
         <v>28.1</v>
@@ -2444,25 +2444,25 @@
         <v>28.1</v>
       </c>
       <c r="U23" s="7">
-        <v>28.1</v>
+        <v>28.099999999999994</v>
       </c>
       <c r="V23" s="7">
-        <v>28.1</v>
+        <v>28.100000000000009</v>
       </c>
       <c r="W23" s="7">
         <v>28.1</v>
       </c>
       <c r="X23" s="7">
-        <v>28.1</v>
+        <v>28.099999999999994</v>
       </c>
       <c r="Y23" s="7">
         <v>28.099999999999994</v>
       </c>
       <c r="Z23" s="7">
-        <v>28.1</v>
+        <v>28.099999999999994</v>
       </c>
       <c r="AA23" s="8">
-        <v>28.099999999999994</v>
+        <v>28.100000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.35">
@@ -2521,7 +2521,7 @@
         <v>25</v>
       </c>
       <c r="S24" s="7">
-        <v>25</v>
+        <v>24.999999999999993</v>
       </c>
       <c r="T24" s="7">
         <v>25</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="7">
-        <v>30.6</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
         <v>30.6</v>
@@ -2690,25 +2690,25 @@
         <v>30.6</v>
       </c>
       <c r="T26" s="7">
-        <v>30.599999999999998</v>
+        <v>30.6</v>
       </c>
       <c r="U26" s="7">
-        <v>30.599999999999998</v>
+        <v>30.6</v>
       </c>
       <c r="V26" s="7">
         <v>30.6</v>
       </c>
       <c r="W26" s="7">
-        <v>30.599999999999998</v>
+        <v>30.6</v>
       </c>
       <c r="X26" s="7">
         <v>30.6</v>
       </c>
       <c r="Y26" s="7">
+        <v>30.599999999999998</v>
+      </c>
+      <c r="Z26" s="7">
         <v>30.6</v>
-      </c>
-      <c r="Z26" s="7">
-        <v>30.599999999999998</v>
       </c>
       <c r="AA26" s="8">
         <v>30.6</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D27" s="7">
         <v>10</v>
@@ -2764,7 +2764,7 @@
         <v>10</v>
       </c>
       <c r="Q27" s="7">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
       <c r="R27" s="7">
         <v>10</v>
@@ -2779,13 +2779,13 @@
         <v>10</v>
       </c>
       <c r="V27" s="7">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
       <c r="W27" s="7">
         <v>10</v>
       </c>
       <c r="X27" s="7">
-        <v>10</v>
+        <v>10.000000000000014</v>
       </c>
       <c r="Y27" s="7">
         <v>10</v>
@@ -2794,7 +2794,7 @@
         <v>10</v>
       </c>
       <c r="AA27" s="8">
-        <v>9.9999999999999858</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.35">
@@ -2805,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D28" s="7">
         <v>10</v>
@@ -2814,7 +2814,7 @@
         <v>10</v>
       </c>
       <c r="F28" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="G28" s="7">
         <v>10</v>
@@ -2957,7 +2957,7 @@
         <v>10</v>
       </c>
       <c r="Z29" s="7">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
       <c r="AA29" s="8">
         <v>10</v>
@@ -2974,10 +2974,10 @@
         <v>52.2</v>
       </c>
       <c r="D30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.20000000000001</v>
       </c>
       <c r="E30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.2</v>
       </c>
       <c r="F30" s="7">
         <v>52.200000000000017</v>
@@ -2989,34 +2989,34 @@
         <v>52.2</v>
       </c>
       <c r="I30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.2</v>
       </c>
       <c r="J30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.2</v>
       </c>
       <c r="K30" s="7">
-        <v>52.2</v>
+        <v>52.20000000000001</v>
       </c>
       <c r="L30" s="7">
         <v>52.2</v>
       </c>
       <c r="M30" s="7">
+        <v>52.20000000000001</v>
+      </c>
+      <c r="N30" s="7">
+        <v>52.199999999999989</v>
+      </c>
+      <c r="O30" s="7">
+        <v>52.200000000000017</v>
+      </c>
+      <c r="P30" s="7">
+        <v>52.200000000000017</v>
+      </c>
+      <c r="Q30" s="7">
         <v>52.2</v>
       </c>
-      <c r="N30" s="7">
-        <v>52.200000000000017</v>
-      </c>
-      <c r="O30" s="7">
+      <c r="R30" s="7">
         <v>52.2</v>
-      </c>
-      <c r="P30" s="7">
-        <v>52.2</v>
-      </c>
-      <c r="Q30" s="7">
-        <v>52.200000000000017</v>
-      </c>
-      <c r="R30" s="7">
-        <v>52.200000000000017</v>
       </c>
       <c r="S30" s="7">
         <v>52.20000000000001</v>
@@ -3028,16 +3028,16 @@
         <v>52.200000000000017</v>
       </c>
       <c r="V30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.2</v>
       </c>
       <c r="W30" s="7">
         <v>52.200000000000017</v>
       </c>
       <c r="X30" s="7">
-        <v>52.20000000000001</v>
+        <v>52.2</v>
       </c>
       <c r="Y30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="Z30" s="7">
         <v>52.200000000000017</v>
@@ -3072,7 +3072,7 @@
         <v>10</v>
       </c>
       <c r="I31" s="7">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
       <c r="J31" s="7">
         <v>10</v>
@@ -3108,7 +3108,7 @@
         <v>9.9999999999999929</v>
       </c>
       <c r="U31" s="7">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
       <c r="V31" s="7">
         <v>10</v>
@@ -3137,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="7">
-        <v>20.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
         <v>20.199999999999996</v>
@@ -3146,13 +3146,13 @@
         <v>20.200000000000003</v>
       </c>
       <c r="F32" s="7">
-        <v>20.200000000000003</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="G32" s="7">
-        <v>20.199999999999996</v>
+        <v>20.2</v>
       </c>
       <c r="H32" s="7">
-        <v>20.199999999999996</v>
+        <v>20.2</v>
       </c>
       <c r="I32" s="7">
         <v>20.200000000000003</v>
@@ -3164,19 +3164,19 @@
         <v>20.199999999999996</v>
       </c>
       <c r="L32" s="7">
+        <v>20.2</v>
+      </c>
+      <c r="M32" s="7">
+        <v>20.200000000000003</v>
+      </c>
+      <c r="N32" s="7">
         <v>20.199999999999996</v>
       </c>
-      <c r="M32" s="7">
+      <c r="O32" s="7">
+        <v>20.2</v>
+      </c>
+      <c r="P32" s="7">
         <v>20.199999999999996</v>
-      </c>
-      <c r="N32" s="7">
-        <v>20.2</v>
-      </c>
-      <c r="O32" s="7">
-        <v>20.200000000000003</v>
-      </c>
-      <c r="P32" s="7">
-        <v>20.200000000000003</v>
       </c>
       <c r="Q32" s="7">
         <v>20.200000000000003</v>
@@ -3185,7 +3185,7 @@
         <v>20.199999999999996</v>
       </c>
       <c r="S32" s="7">
-        <v>20.200000000000003</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="T32" s="7">
         <v>20.2</v>
@@ -3197,19 +3197,19 @@
         <v>20.200000000000003</v>
       </c>
       <c r="W32" s="7">
+        <v>20.200000000000003</v>
+      </c>
+      <c r="X32" s="7">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="Y32" s="7">
         <v>20.2</v>
       </c>
-      <c r="X32" s="7">
-        <v>20.2</v>
-      </c>
-      <c r="Y32" s="7">
-        <v>20.199999999999996</v>
-      </c>
       <c r="Z32" s="7">
-        <v>20.2</v>
+        <v>20.200000000000003</v>
       </c>
       <c r="AA32" s="8">
-        <v>20.199999999999996</v>
+        <v>20.200000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.35">
@@ -3303,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="7">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="D34" s="7">
         <v>10.5</v>
@@ -3348,7 +3348,7 @@
         <v>10.5</v>
       </c>
       <c r="R34" s="7">
-        <v>10.499999999999993</v>
+        <v>10.5</v>
       </c>
       <c r="S34" s="7">
         <v>10.5</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D35" s="7">
         <v>10</v>
@@ -3395,58 +3395,58 @@
         <v>10</v>
       </c>
       <c r="F35" s="7">
+        <v>10</v>
+      </c>
+      <c r="G35" s="7">
+        <v>10</v>
+      </c>
+      <c r="H35" s="7">
+        <v>10</v>
+      </c>
+      <c r="I35" s="7">
+        <v>10</v>
+      </c>
+      <c r="J35" s="7">
+        <v>10</v>
+      </c>
+      <c r="K35" s="7">
+        <v>10</v>
+      </c>
+      <c r="L35" s="7">
+        <v>10</v>
+      </c>
+      <c r="M35" s="7">
+        <v>10</v>
+      </c>
+      <c r="N35" s="7">
+        <v>10</v>
+      </c>
+      <c r="O35" s="7">
+        <v>10</v>
+      </c>
+      <c r="P35" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>10</v>
+      </c>
+      <c r="R35" s="7">
+        <v>10</v>
+      </c>
+      <c r="S35" s="7">
+        <v>10</v>
+      </c>
+      <c r="T35" s="7">
+        <v>10</v>
+      </c>
+      <c r="U35" s="7">
+        <v>10</v>
+      </c>
+      <c r="V35" s="7">
+        <v>10</v>
+      </c>
+      <c r="W35" s="7">
         <v>9.9999999999999929</v>
-      </c>
-      <c r="G35" s="7">
-        <v>10</v>
-      </c>
-      <c r="H35" s="7">
-        <v>10</v>
-      </c>
-      <c r="I35" s="7">
-        <v>10</v>
-      </c>
-      <c r="J35" s="7">
-        <v>10</v>
-      </c>
-      <c r="K35" s="7">
-        <v>10</v>
-      </c>
-      <c r="L35" s="7">
-        <v>10</v>
-      </c>
-      <c r="M35" s="7">
-        <v>10</v>
-      </c>
-      <c r="N35" s="7">
-        <v>10</v>
-      </c>
-      <c r="O35" s="7">
-        <v>10</v>
-      </c>
-      <c r="P35" s="7">
-        <v>10</v>
-      </c>
-      <c r="Q35" s="7">
-        <v>10</v>
-      </c>
-      <c r="R35" s="7">
-        <v>10</v>
-      </c>
-      <c r="S35" s="7">
-        <v>10</v>
-      </c>
-      <c r="T35" s="7">
-        <v>10</v>
-      </c>
-      <c r="U35" s="7">
-        <v>10</v>
-      </c>
-      <c r="V35" s="7">
-        <v>10</v>
-      </c>
-      <c r="W35" s="7">
-        <v>10</v>
       </c>
       <c r="X35" s="7">
         <v>10</v>
@@ -3484,7 +3484,7 @@
         <v>10</v>
       </c>
       <c r="H36" s="7">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
       <c r="I36" s="7">
         <v>10</v>
@@ -3526,7 +3526,7 @@
         <v>10</v>
       </c>
       <c r="V36" s="7">
-        <v>10</v>
+        <v>10.000000000000002</v>
       </c>
       <c r="W36" s="7">
         <v>10</v>
@@ -3555,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="D37" s="7">
-        <v>10.000000000000002</v>
+        <v>10</v>
       </c>
       <c r="E37" s="7">
         <v>10</v>
@@ -3606,7 +3606,7 @@
         <v>10</v>
       </c>
       <c r="U37" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="V37" s="7">
         <v>10</v>
@@ -3647,7 +3647,7 @@
         <v>10</v>
       </c>
       <c r="G38" s="7">
-        <v>10</v>
+        <v>10.000000000000002</v>
       </c>
       <c r="H38" s="7">
         <v>10</v>
@@ -3686,7 +3686,7 @@
         <v>10</v>
       </c>
       <c r="T38" s="7">
-        <v>10.000000000000002</v>
+        <v>10</v>
       </c>
       <c r="U38" s="7">
         <v>10</v>
@@ -3701,7 +3701,7 @@
         <v>10</v>
       </c>
       <c r="Y38" s="7">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
       <c r="Z38" s="7">
         <v>10</v>
@@ -3721,19 +3721,19 @@
         <v>0</v>
       </c>
       <c r="D39" s="7">
-        <v>10.1</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="E39" s="7">
         <v>10.099999999999994</v>
       </c>
       <c r="F39" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="G39" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="H39" s="7">
         <v>10.099999999999994</v>
-      </c>
-      <c r="G39" s="7">
-        <v>10.100000000000001</v>
-      </c>
-      <c r="H39" s="7">
-        <v>10.1</v>
       </c>
       <c r="I39" s="7">
         <v>10.099999999999994</v>
@@ -3742,16 +3742,16 @@
         <v>10.099999999999994</v>
       </c>
       <c r="K39" s="7">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="L39" s="7">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="M39" s="7">
         <v>10.100000000000001</v>
       </c>
-      <c r="L39" s="7">
-        <v>10.100000000000001</v>
-      </c>
-      <c r="M39" s="7">
+      <c r="N39" s="7">
         <v>10.099999999999994</v>
-      </c>
-      <c r="N39" s="7">
-        <v>10.1</v>
       </c>
       <c r="O39" s="7">
         <v>10.099999999999994</v>
@@ -3760,28 +3760,28 @@
         <v>10.099999999999994</v>
       </c>
       <c r="Q39" s="7">
-        <v>10.1</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="R39" s="7">
         <v>10.099999999999994</v>
       </c>
       <c r="S39" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="T39" s="7">
         <v>10.099999999999994</v>
-      </c>
-      <c r="T39" s="7">
-        <v>10.1</v>
       </c>
       <c r="U39" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="V39" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="W39" s="7">
         <v>10.099999999999994</v>
       </c>
-      <c r="W39" s="7">
-        <v>10.1</v>
-      </c>
       <c r="X39" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="Y39" s="7">
         <v>10.100000000000001</v>
@@ -3790,7 +3790,7 @@
         <v>10.099999999999994</v>
       </c>
       <c r="AA39" s="8">
-        <v>10.100000000000001</v>
+        <v>10.099999999999994</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.35">
@@ -3801,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="7">
-        <v>10.1</v>
+        <v>0</v>
       </c>
       <c r="D40" s="7">
         <v>10.1</v>
@@ -3813,10 +3813,10 @@
         <v>10.1</v>
       </c>
       <c r="G40" s="7">
-        <v>10.100000000000001</v>
+        <v>10.099999999999998</v>
       </c>
       <c r="H40" s="7">
-        <v>10.100000000000001</v>
+        <v>10.099999999999998</v>
       </c>
       <c r="I40" s="7">
         <v>10.1</v>
@@ -3825,55 +3825,55 @@
         <v>10.1</v>
       </c>
       <c r="K40" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="L40" s="7">
-        <v>10.1</v>
+        <v>10.099999999999998</v>
       </c>
       <c r="M40" s="7">
         <v>10.1</v>
       </c>
       <c r="N40" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="O40" s="7">
         <v>10.099999999999998</v>
-      </c>
-      <c r="O40" s="7">
-        <v>10.1</v>
       </c>
       <c r="P40" s="7">
         <v>10.1</v>
       </c>
       <c r="Q40" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="R40" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="S40" s="7">
         <v>10.100000000000001</v>
       </c>
-      <c r="R40" s="7">
-        <v>10.100000000000001</v>
-      </c>
-      <c r="S40" s="7">
-        <v>10.1</v>
-      </c>
       <c r="T40" s="7">
-        <v>10.100000000000001</v>
+        <v>10.099999999999998</v>
       </c>
       <c r="U40" s="7">
-        <v>10.100000000000001</v>
+        <v>10.099999999999998</v>
       </c>
       <c r="V40" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="W40" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="X40" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="Y40" s="7">
         <v>10.100000000000001</v>
       </c>
-      <c r="X40" s="7">
-        <v>10.099999999999998</v>
-      </c>
-      <c r="Y40" s="7">
+      <c r="Z40" s="7">
         <v>10.1</v>
       </c>
-      <c r="Z40" s="7">
+      <c r="AA40" s="8">
         <v>10.100000000000001</v>
-      </c>
-      <c r="AA40" s="8">
-        <v>10.1</v>
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.35">
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D41" s="7">
         <v>10</v>
@@ -3950,7 +3950,7 @@
         <v>10</v>
       </c>
       <c r="Y41" s="7">
-        <v>9.9999999999999858</v>
+        <v>10</v>
       </c>
       <c r="Z41" s="7">
         <v>10</v>
@@ -3967,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="7">
-        <v>12</v>
+        <v>11.776762623403826</v>
       </c>
       <c r="D42" s="7">
         <v>12</v>
@@ -4027,7 +4027,7 @@
         <v>12</v>
       </c>
       <c r="W42" s="7">
-        <v>11.999999999999993</v>
+        <v>12</v>
       </c>
       <c r="X42" s="7">
         <v>12</v>
@@ -4101,13 +4101,13 @@
         <v>3200</v>
       </c>
       <c r="T43" s="7">
-        <v>3450</v>
+        <v>3400</v>
       </c>
       <c r="U43" s="7">
         <v>3650</v>
       </c>
       <c r="V43" s="7">
-        <v>3900</v>
+        <v>3850</v>
       </c>
       <c r="W43" s="7">
         <v>4100</v>
@@ -4122,7 +4122,7 @@
         <v>4750</v>
       </c>
       <c r="AA43" s="8">
-        <v>5698.6405127167163</v>
+        <v>5700</v>
       </c>
       <c r="AB43" t="s">
         <v>15</v>
@@ -4187,16 +4187,16 @@
         <v>0</v>
       </c>
       <c r="T44" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U44" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V44" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W44" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X44" s="7">
         <v>10</v>
@@ -4208,7 +4208,7 @@
         <v>10</v>
       </c>
       <c r="AA44" s="8">
-        <v>2630</v>
+        <v>2628.6405127167163</v>
       </c>
       <c r="AB44" t="s">
         <v>16</v>
@@ -4613,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="S51" s="7">
-        <v>45.308185217437426</v>
+        <v>45.308185217437803</v>
       </c>
       <c r="T51" s="7">
         <v>46.5</v>
@@ -4622,7 +4622,7 @@
         <v>46.5</v>
       </c>
       <c r="V51" s="7">
-        <v>46.5</v>
+        <v>46.499999999999659</v>
       </c>
       <c r="W51" s="7">
         <v>46.5</v>
@@ -4894,7 +4894,7 @@
         <v>7</v>
       </c>
       <c r="B55" s="6">
-        <v>84.6</v>
+        <v>0</v>
       </c>
       <c r="C55" s="7">
         <v>84.6</v>
@@ -5197,16 +5197,16 @@
         <v>0</v>
       </c>
       <c r="T58" s="7">
-        <v>20.817758884394152</v>
+        <v>10.817758884394152</v>
       </c>
       <c r="U58" s="7">
-        <v>43.025418714353684</v>
+        <v>33.025418714353322</v>
       </c>
       <c r="V58" s="7">
-        <v>65.432947482785224</v>
+        <v>55.432947482782374</v>
       </c>
       <c r="W58" s="7">
-        <v>88.042144010127117</v>
+        <v>78.042144010127004</v>
       </c>
       <c r="X58" s="7">
         <v>186</v>
@@ -5443,13 +5443,13 @@
         <v>0</v>
       </c>
       <c r="S61" s="7">
-        <v>0</v>
+        <v>-2.2737367544323206E-13</v>
       </c>
       <c r="T61" s="7">
         <v>0</v>
       </c>
       <c r="U61" s="7">
-        <v>0</v>
+        <v>2.5579538487363607E-13</v>
       </c>
       <c r="V61" s="7">
         <v>0</v>
@@ -5807,7 +5807,7 @@
         <v>18</v>
       </c>
       <c r="B66" s="6">
-        <v>1546.3999999999999</v>
+        <v>1631</v>
       </c>
       <c r="C66" s="7">
         <v>249.69999999999948</v>
@@ -5825,13 +5825,13 @@
         <v>327.01637801450141</v>
       </c>
       <c r="H66" s="7">
-        <v>346.78232541663169</v>
+        <v>346.78232541663147</v>
       </c>
       <c r="I66" s="7">
-        <v>366.72616634538127</v>
+        <v>366.72616634538105</v>
       </c>
       <c r="J66" s="7">
-        <v>386.84950184248942</v>
+        <v>386.84950184248936</v>
       </c>
       <c r="K66" s="7">
         <v>407.15394735907165</v>
@@ -5864,10 +5864,10 @@
         <v>0</v>
       </c>
       <c r="U66" s="7">
-        <v>-1.1368683772161603E-13</v>
+        <v>0</v>
       </c>
       <c r="V66" s="7">
-        <v>-3.1832314562052488E-12</v>
+        <v>0</v>
       </c>
       <c r="W66" s="7">
         <v>0</v>
@@ -7856,16 +7856,16 @@
         <v>0</v>
       </c>
       <c r="T90" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U90" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V90" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W90" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X90" s="7">
         <v>10</v>
@@ -7984,82 +7984,82 @@
         <v>1</v>
       </c>
       <c r="B95" s="3">
-        <v>131.30047538209178</v>
+        <v>130.97643702212244</v>
       </c>
       <c r="C95" s="4">
-        <v>250.08356848362453</v>
+        <v>238.83215825106373</v>
       </c>
       <c r="D95" s="4">
-        <v>382.57607186066889</v>
+        <v>366.23840446605072</v>
       </c>
       <c r="E95" s="4">
-        <v>445.38034435000134</v>
+        <v>445.38034435000054</v>
       </c>
       <c r="F95" s="4">
-        <v>629.46950575382402</v>
+        <v>626.31845204159174</v>
       </c>
       <c r="G95" s="4">
-        <v>986.92329175268833</v>
+        <v>982.41113455139612</v>
       </c>
       <c r="H95" s="4">
-        <v>845.50283353936084</v>
+        <v>841.04570833496632</v>
       </c>
       <c r="I95" s="4">
-        <v>761.65163775578162</v>
+        <v>757.43494058201168</v>
       </c>
       <c r="J95" s="4">
-        <v>664.6856304306657</v>
+        <v>660.69639202252279</v>
       </c>
       <c r="K95" s="4">
-        <v>625.08012113632162</v>
+        <v>621.30607182208655</v>
       </c>
       <c r="L95" s="4">
-        <v>504.09973538225682</v>
+        <v>500.52926734574851</v>
       </c>
       <c r="M95" s="4">
-        <v>441.86515279367029</v>
+        <v>438.48728437217414</v>
       </c>
       <c r="N95" s="4">
-        <v>369.29059119594672</v>
+        <v>366.09493310398921</v>
       </c>
       <c r="O95" s="4">
-        <v>286.97978772243459</v>
+        <v>283.95651109753737</v>
       </c>
       <c r="P95" s="4">
-        <v>195.50432624118662</v>
+        <v>192.64413241329919</v>
       </c>
       <c r="Q95" s="4">
-        <v>165.12888529535888</v>
+        <v>162.42297718701309</v>
       </c>
       <c r="R95" s="4">
-        <v>56.34520151615402</v>
+        <v>53.785256585351021</v>
       </c>
       <c r="S95" s="4">
         <v>-41.526512318802133</v>
       </c>
       <c r="T95" s="4">
-        <v>-178.87263607880823</v>
+        <v>-123.18520092967151</v>
       </c>
       <c r="U95" s="4">
-        <v>-240.573869532868</v>
+        <v>-252.95367203609925</v>
       </c>
       <c r="V95" s="4">
-        <v>-331.46872565432903</v>
+        <v>-301.59993596223313</v>
       </c>
       <c r="W95" s="4">
-        <v>-374.34188230193911</v>
+        <v>-355.27098067623143</v>
       </c>
       <c r="X95" s="4">
-        <v>-493.39748449743206</v>
+        <v>-499.27463983941618</v>
       </c>
       <c r="Y95" s="4">
         <v>-526.97265273668881</v>
       </c>
       <c r="Z95" s="4">
-        <v>-607.61835661131863</v>
+        <v>-607.61835661131897</v>
       </c>
       <c r="AA95" s="5">
-        <v>-863.7454444219552</v>
+        <v>-864.19860684971627</v>
       </c>
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.35">
@@ -8067,82 +8067,82 @@
         <v>2</v>
       </c>
       <c r="B96" s="6">
-        <v>-374.59952461790817</v>
+        <v>-374.92356297787751</v>
       </c>
       <c r="C96" s="7">
-        <v>-216.26678424181236</v>
+        <v>-180.19107912553196</v>
       </c>
       <c r="D96" s="7">
-        <v>-237.88881093033467</v>
+        <v>-229.7199772330257</v>
       </c>
       <c r="E96" s="7">
-        <v>-291.56660415000113</v>
+        <v>-291.56660415000079</v>
       </c>
       <c r="F96" s="7">
-        <v>-581.45238019669614</v>
+        <v>-575.15027277223294</v>
       </c>
       <c r="G96" s="7">
-        <v>-714.53733827147994</v>
+        <v>-719.04949547277226</v>
       </c>
       <c r="H96" s="7">
-        <v>-538.90104215502515</v>
+        <v>-543.35816735941955</v>
       </c>
       <c r="I96" s="7">
-        <v>-355.99197281985425</v>
+        <v>-360.20866999362397</v>
       </c>
       <c r="J96" s="7">
-        <v>-186.49687264014892</v>
+        <v>-190.4861110482932</v>
       </c>
       <c r="K96" s="7">
-        <v>-9.9431244621301857</v>
+        <v>-13.717173776366508</v>
       </c>
       <c r="L96" s="7">
-        <v>134.93118057341809</v>
+        <v>131.36071253690977</v>
       </c>
       <c r="M96" s="7">
-        <v>288.24398099155235</v>
+        <v>284.86611257005643</v>
       </c>
       <c r="N96" s="7">
-        <v>430.90672884761034</v>
+        <v>427.71107075565283</v>
       </c>
       <c r="O96" s="7">
-        <v>563.52037061296437</v>
+        <v>560.49709398806681</v>
       </c>
       <c r="P96" s="7">
-        <v>686.65367437773057</v>
+        <v>683.79348054984337</v>
       </c>
       <c r="Q96" s="7">
-        <v>820.5684775651323</v>
+        <v>817.86256945678645</v>
       </c>
       <c r="R96" s="7">
-        <v>925.75365011635608</v>
+        <v>923.19370518555309</v>
       </c>
       <c r="S96" s="7">
         <v>1041.5265123188021</v>
       </c>
       <c r="T96" s="7">
-        <v>1117.4977657805348</v>
+        <v>1123.1852009296715</v>
       </c>
       <c r="U96" s="7">
-        <v>1218.7837659432096</v>
+        <v>1206.4039634399783</v>
       </c>
       <c r="V96" s="7">
-        <v>1274.1709775672671</v>
+        <v>1292.4333981830753</v>
       </c>
       <c r="W96" s="7">
-        <v>1348.6126925988149</v>
+        <v>1325.0587793068912</v>
       </c>
       <c r="X96" s="7">
-        <v>1470.5057225106759</v>
+        <v>1473.4443001816687</v>
       </c>
       <c r="Y96" s="7">
         <v>1526.9726527366884</v>
       </c>
       <c r="Z96" s="7">
-        <v>1607.6183566113191</v>
+        <v>1607.6183566113186</v>
       </c>
       <c r="AA96" s="8">
-        <v>618.9748119364026</v>
+        <v>619.8811367919252</v>
       </c>
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.35">
@@ -8150,73 +8150,73 @@
         <v>3</v>
       </c>
       <c r="B97" s="9">
-        <v>243.29904923581643</v>
+        <v>243.9471259557551</v>
       </c>
       <c r="C97" s="10">
-        <v>-33.816784241812172</v>
+        <v>-58.641079125531775</v>
       </c>
       <c r="D97" s="10">
-        <v>-144.68726093033422</v>
+        <v>-136.51842723302502</v>
       </c>
       <c r="E97" s="10">
-        <v>-153.81374020000018</v>
+        <v>-153.81374019999976</v>
       </c>
       <c r="F97" s="10">
-        <v>-48.01712555712777</v>
+        <v>-51.168179269358916</v>
       </c>
       <c r="G97" s="10">
-        <v>-272.38595348120833</v>
+        <v>-263.36163907862385</v>
       </c>
       <c r="H97" s="10">
-        <v>-306.60179138433568</v>
+        <v>-297.68754097554677</v>
       </c>
       <c r="I97" s="10">
-        <v>-405.65966493592737</v>
+        <v>-397.22627058838776</v>
       </c>
       <c r="J97" s="10">
-        <v>-478.188757790517</v>
+        <v>-470.21028097422936</v>
       </c>
       <c r="K97" s="10">
-        <v>-615.13699667419166</v>
+        <v>-607.58889804572004</v>
       </c>
       <c r="L97" s="10">
-        <v>-639.03091595567491</v>
+        <v>-631.88997988265828</v>
       </c>
       <c r="M97" s="10">
-        <v>-730.10913378522264</v>
+        <v>-723.35339694223057</v>
       </c>
       <c r="N97" s="10">
-        <v>-800.19732004355706</v>
+        <v>-793.80600385964203</v>
       </c>
       <c r="O97" s="10">
-        <v>-850.50015833539896</v>
+        <v>-844.45360508560407</v>
       </c>
       <c r="P97" s="10">
-        <v>-882.15800061891719</v>
+        <v>-876.43761296314244</v>
       </c>
       <c r="Q97" s="10">
-        <v>-985.69736286049113</v>
+        <v>-980.28554664379953</v>
       </c>
       <c r="R97" s="10">
-        <v>-982.0988516325101</v>
+        <v>-976.97896177090411</v>
       </c>
       <c r="S97" s="10">
         <v>-1000</v>
       </c>
       <c r="T97" s="10">
-        <v>-938.62512970172679</v>
+        <v>-1000</v>
       </c>
       <c r="U97" s="10">
-        <v>-978.20989641034146</v>
+        <v>-953.45029140387908</v>
       </c>
       <c r="V97" s="10">
-        <v>-942.70225191293798</v>
+        <v>-990.83346222084219</v>
       </c>
       <c r="W97" s="10">
-        <v>-974.27081029687565</v>
+        <v>-969.78779863065984</v>
       </c>
       <c r="X97" s="10">
-        <v>-977.10823801324386</v>
+        <v>-974.1696603422522</v>
       </c>
       <c r="Y97" s="10">
         <v>-1000</v>
@@ -8225,7 +8225,7 @@
         <v>-1000</v>
       </c>
       <c r="AA97" s="11">
-        <v>244.7706324855526</v>
+        <v>244.31747005779107</v>
       </c>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.35">
@@ -8243,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="B101" s="3">
-        <v>343.86666666666667</v>
+        <v>315.66666666666663</v>
       </c>
       <c r="C101" s="4">
         <v>351.27166666666665</v>
@@ -8267,7 +8267,7 @@
         <v>364.92471940696117</v>
       </c>
       <c r="J101" s="4">
-        <v>367.27244188162376</v>
+        <v>367.27244188162382</v>
       </c>
       <c r="K101" s="4">
         <v>369.64129385855841</v>
@@ -8294,19 +8294,19 @@
         <v>386.83107526465255</v>
       </c>
       <c r="S101" s="4">
-        <v>559.1453500145135</v>
+        <v>559.14535001451372</v>
       </c>
       <c r="T101" s="4">
-        <v>555.17115224171448</v>
+        <v>558.50448557504785</v>
       </c>
       <c r="U101" s="4">
-        <v>550.35949261189</v>
+        <v>553.69282594522338</v>
       </c>
       <c r="V101" s="4">
-        <v>545.50452804539611</v>
+        <v>548.83786137873028</v>
       </c>
       <c r="W101" s="4">
-        <v>540.60586879780578</v>
+        <v>543.93920213113915</v>
       </c>
       <c r="X101" s="4">
         <v>453.32978828365276</v>
@@ -8326,7 +8326,7 @@
         <v>2</v>
       </c>
       <c r="B102" s="6">
-        <v>-706.13333333333333</v>
+        <v>-734.33333333333326</v>
       </c>
       <c r="C102" s="7">
         <v>-58.178333333333171</v>
@@ -8344,13 +8344,13 @@
         <v>-87.816278238892238</v>
       </c>
       <c r="H102" s="7">
-        <v>-95.393224743042154</v>
+        <v>-95.393224743042111</v>
       </c>
       <c r="I102" s="7">
-        <v>-103.03836376572947</v>
+        <v>-103.03836376572943</v>
       </c>
       <c r="J102" s="7">
-        <v>-110.75230903962097</v>
+        <v>-110.75230903962093</v>
       </c>
       <c r="K102" s="7">
         <v>-118.53567982097748</v>
@@ -8377,19 +8377,19 @@
         <v>-175.0163901552869</v>
       </c>
       <c r="S102" s="7">
-        <v>-13.608742594205182</v>
+        <v>-13.608742594205296</v>
       </c>
       <c r="T102" s="7">
-        <v>-7.7699683160883524</v>
+        <v>-14.436634982754981</v>
       </c>
       <c r="U102" s="7">
-        <v>-1.4777980309330965</v>
+        <v>-8.1444646975998012</v>
       </c>
       <c r="V102" s="7">
-        <v>4.8710017867903534</v>
+        <v>-1.7956648798783021</v>
       </c>
       <c r="W102" s="7">
-        <v>11.276940802869376</v>
+        <v>4.6102741362026336</v>
       </c>
       <c r="X102" s="7">
         <v>182.4071999367618</v>
@@ -8409,7 +8409,7 @@
         <v>3</v>
       </c>
       <c r="B103" s="9">
-        <v>362.26666666666665</v>
+        <v>418.66666666666663</v>
       </c>
       <c r="C103" s="10">
         <v>-293.09333333333348</v>
@@ -8427,13 +8427,13 @@
         <v>-272.47563252946628</v>
       </c>
       <c r="H103" s="10">
-        <v>-267.20471322223153</v>
+        <v>-267.20471322223165</v>
       </c>
       <c r="I103" s="10">
-        <v>-261.88635564123166</v>
+        <v>-261.88635564123177</v>
       </c>
       <c r="J103" s="10">
-        <v>-256.52013284200279</v>
+        <v>-256.52013284200285</v>
       </c>
       <c r="K103" s="10">
         <v>-251.10561403758089</v>
@@ -8460,19 +8460,19 @@
         <v>-211.81468510936566</v>
       </c>
       <c r="S103" s="10">
-        <v>-545.53660742030831</v>
+        <v>-545.53660742030843</v>
       </c>
       <c r="T103" s="10">
-        <v>-547.40118392562624</v>
+        <v>-544.06785059229287</v>
       </c>
       <c r="U103" s="10">
-        <v>-548.88169458095683</v>
+        <v>-545.54836124762346</v>
       </c>
       <c r="V103" s="10">
-        <v>-550.37552983218654</v>
+        <v>-547.04219649885204</v>
       </c>
       <c r="W103" s="10">
-        <v>-551.88280960067505</v>
+        <v>-548.54947626734179</v>
       </c>
       <c r="X103" s="10">
         <v>-635.73698822041456</v>
@@ -8575,86 +8575,86 @@
         <v>6</v>
       </c>
       <c r="B106" s="15">
-        <v>229863.34998209408</v>
+        <v>231991.1258815031</v>
       </c>
       <c r="C106" s="16">
-        <v>189875.71261185518</v>
+        <v>190140.63153965454</v>
       </c>
       <c r="D106" s="16">
-        <v>159112.37992213608</v>
+        <v>159339.54690181458</v>
       </c>
       <c r="E106" s="16">
-        <v>148931.01348090786</v>
+        <v>148876.86993389667</v>
       </c>
       <c r="F106" s="16">
-        <v>141266.43005676562</v>
+        <v>141199.76340916852</v>
       </c>
       <c r="G106" s="16">
-        <v>135496.06011081822</v>
+        <v>135372.17299524642</v>
       </c>
       <c r="H106" s="16">
-        <v>11667160.572811268</v>
+        <v>11667050.655674972</v>
       </c>
       <c r="I106" s="16">
-        <v>12348472.588808587</v>
+        <v>12348378.054315709</v>
       </c>
       <c r="J106" s="16">
-        <v>13751342.028240088</v>
+        <v>13751260.723626044</v>
       </c>
       <c r="K106" s="16">
-        <v>13558854.0651819</v>
+        <v>13558784.138956418</v>
       </c>
       <c r="L106" s="16">
-        <v>15191600.731495388</v>
+        <v>15191540.591279879</v>
       </c>
       <c r="M106" s="16">
-        <v>14684287.130485751</v>
+        <v>14684235.406751253</v>
       </c>
       <c r="N106" s="16">
-        <v>14787000.473244235</v>
+        <v>14786955.988124127</v>
       </c>
       <c r="O106" s="16">
-        <v>14749561.847499218</v>
+        <v>14749523.58796652</v>
       </c>
       <c r="P106" s="16">
-        <v>14596621.993015315</v>
+        <v>14596589.087813787</v>
       </c>
       <c r="Q106" s="16">
-        <v>13650679.113742871</v>
+        <v>13650650.813546522</v>
       </c>
       <c r="R106" s="16">
-        <v>13830825.405196585</v>
+        <v>13830801.065545823</v>
       </c>
       <c r="S106" s="16">
-        <v>13465993.354424601</v>
+        <v>13466016.171551844</v>
       </c>
       <c r="T106" s="16">
-        <v>13052872.188199122</v>
+        <v>12859918.526223721</v>
       </c>
       <c r="U106" s="16">
-        <v>12126306.671921205</v>
+        <v>12521090.419230273</v>
       </c>
       <c r="V106" s="16">
-        <v>11994417.194799118</v>
+        <v>11619195.149856256</v>
       </c>
       <c r="W106" s="16">
-        <v>11118882.032706637</v>
+        <v>11445182.458804749</v>
       </c>
       <c r="X106" s="16">
-        <v>10778653.087909246</v>
+        <v>10600356.968824476</v>
       </c>
       <c r="Y106" s="16">
-        <v>10365539.187055131</v>
+        <v>10365533.221142804</v>
       </c>
       <c r="Z106" s="16">
         <v>9584881.0747875217</v>
       </c>
       <c r="AA106" s="17">
-        <v>57754327.603814974</v>
+        <v>57754327.603814982</v>
       </c>
       <c r="AB106" s="18">
         <f>SUM(TotalCost)</f>
-        <v>304062823.29150337</v>
+        <v>304039191.81849897</v>
       </c>
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.35">
@@ -8748,86 +8748,86 @@
         <v>8</v>
       </c>
       <c r="B109" s="3">
-        <v>79312435.467566609</v>
+        <v>79410814.945039734</v>
       </c>
       <c r="C109" s="4">
-        <v>63004712.496935904</v>
+        <v>63008596.513607681</v>
       </c>
       <c r="D109" s="4">
-        <v>55845687.607713684</v>
+        <v>55897639.429508492</v>
       </c>
       <c r="E109" s="4">
-        <v>54436910.692870244</v>
+        <v>54564500.077389836</v>
       </c>
       <c r="F109" s="4">
-        <v>50586717.633136034</v>
+        <v>50523285.409403034</v>
       </c>
       <c r="G109" s="4">
-        <v>46757488.931061611</v>
+        <v>46943184.414359048</v>
       </c>
       <c r="H109" s="4">
-        <v>42802770.528393649</v>
+        <v>42789651.604352042</v>
       </c>
       <c r="I109" s="4">
-        <v>41096862.445922486</v>
+        <v>41084451.188129097</v>
       </c>
       <c r="J109" s="4">
-        <v>39356581.385310784</v>
+        <v>39344839.620549791</v>
       </c>
       <c r="K109" s="4">
-        <v>38110891.611443318</v>
+        <v>38099783.225653768</v>
       </c>
       <c r="L109" s="4">
-        <v>36308499.372681089</v>
+        <v>36297990.199881151</v>
       </c>
       <c r="M109" s="4">
-        <v>35004853.018429048</v>
+        <v>34994910.735631965</v>
       </c>
       <c r="N109" s="4">
-        <v>33675155.315401487</v>
+        <v>33665749.343199946</v>
       </c>
       <c r="O109" s="4">
-        <v>32321222.725713793</v>
+        <v>32312324.134227134</v>
       </c>
       <c r="P109" s="4">
-        <v>30944777.427863855</v>
+        <v>30936358.847758606</v>
       </c>
       <c r="Q109" s="4">
-        <v>30074165.825705137</v>
+        <v>30066201.364015356</v>
       </c>
       <c r="R109" s="4">
-        <v>28082549.478221711</v>
+        <v>28075014.638710182</v>
       </c>
       <c r="S109" s="4">
-        <v>29136901.058816552</v>
+        <v>27637779.66648772</v>
       </c>
       <c r="T109" s="4">
-        <v>28825897.202459987</v>
+        <v>28104427.366363551</v>
       </c>
       <c r="U109" s="4">
-        <v>26191644.612118073</v>
+        <v>26480026.546641234</v>
       </c>
       <c r="V109" s="4">
-        <v>24209430.84098763</v>
+        <v>23842430.948070697</v>
       </c>
       <c r="W109" s="4">
-        <v>21666318.719694287</v>
+        <v>21562393.07092008</v>
       </c>
       <c r="X109" s="4">
-        <v>19472407.35692307</v>
+        <v>18348308.303627893</v>
       </c>
       <c r="Y109" s="4">
-        <v>17596356.097632479</v>
+        <v>17639234.175045133</v>
       </c>
       <c r="Z109" s="4">
-        <v>15992996.940919355</v>
+        <v>15992996.940919362</v>
       </c>
       <c r="AA109" s="5">
         <v>0</v>
       </c>
       <c r="AB109" s="12">
         <f>SUM(B109:AA109)</f>
-        <v>920814234.79392207</v>
+        <v>917622892.70949256</v>
       </c>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.35">
@@ -8835,86 +8835,86 @@
         <v>9</v>
       </c>
       <c r="B110" s="6">
-        <v>14615895.097423073</v>
+        <v>14667374.743175104</v>
       </c>
       <c r="C110" s="7">
-        <v>13232019.132119834</v>
+        <v>13232177.66341256</v>
       </c>
       <c r="D110" s="7">
-        <v>13202190.318182502</v>
+        <v>13202905.908014387</v>
       </c>
       <c r="E110" s="7">
-        <v>11398630.601589229</v>
+        <v>11427176.759078512</v>
       </c>
       <c r="F110" s="7">
-        <v>9418749.730036173</v>
+        <v>9446021.7217890918</v>
       </c>
       <c r="G110" s="7">
-        <v>6764329.8643323416</v>
+        <v>6871604.7774164723</v>
       </c>
       <c r="H110" s="7">
-        <v>5649906.1761389757</v>
+        <v>5680751.2654034672</v>
       </c>
       <c r="I110" s="7">
-        <v>5042228.9474119404</v>
+        <v>5071410.1785332952</v>
       </c>
       <c r="J110" s="7">
-        <v>4527202.6750806971</v>
+        <v>4554809.8005604139</v>
       </c>
       <c r="K110" s="7">
-        <v>3850143.0477124928</v>
+        <v>3876260.9785867319</v>
       </c>
       <c r="L110" s="7">
-        <v>3505139.5250511449</v>
+        <v>3529848.5920509966</v>
       </c>
       <c r="M110" s="7">
-        <v>2988550.2845053119</v>
+        <v>3011926.4851294304</v>
       </c>
       <c r="N110" s="7">
-        <v>2545478.0576812807</v>
+        <v>2567593.2899408611</v>
       </c>
       <c r="O110" s="7">
-        <v>2171762.3841283121</v>
+        <v>2192684.6676832526</v>
       </c>
       <c r="P110" s="7">
-        <v>1863465.4756308871</v>
+        <v>1883259.1609973987</v>
       </c>
       <c r="Q110" s="7">
-        <v>1367361.6117909409</v>
+        <v>1386087.5782639373</v>
       </c>
       <c r="R110" s="7">
-        <v>963784.78106684668</v>
+        <v>981500.62396597594</v>
       </c>
       <c r="S110" s="7">
-        <v>2199991.5599020482</v>
+        <v>2198644.6980367745</v>
       </c>
       <c r="T110" s="7">
-        <v>2106036.3908998435</v>
+        <v>1497195.6677057748</v>
       </c>
       <c r="U110" s="7">
-        <v>1189092.1532665414</v>
+        <v>1403701.5010519538</v>
       </c>
       <c r="V110" s="7">
-        <v>1230531.7078334645</v>
+        <v>626990.14999875613</v>
       </c>
       <c r="W110" s="7">
-        <v>593627.71539263648</v>
+        <v>739063.59503599803</v>
       </c>
       <c r="X110" s="7">
-        <v>124416.60639253809</v>
+        <v>123335.4448958266</v>
       </c>
       <c r="Y110" s="7">
-        <v>456935.38316789625</v>
+        <v>491512.83514318248</v>
       </c>
       <c r="Z110" s="7">
-        <v>111619.72520274093</v>
+        <v>111619.72520274094</v>
       </c>
       <c r="AA110" s="8">
         <v>0</v>
       </c>
       <c r="AB110" s="13">
         <f t="shared" ref="AB110:AB113" si="0">SUM(B110:AA110)</f>
-        <v>111119088.95193969</v>
+        <v>110775457.81107292</v>
       </c>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.35">
@@ -8922,76 +8922,76 @@
         <v>10</v>
       </c>
       <c r="B111" s="6">
-        <v>81896985282.326309</v>
+        <v>81973843561.409653</v>
       </c>
       <c r="C111" s="7">
-        <v>77479265343.432953</v>
+        <v>77551977702.482681</v>
       </c>
       <c r="D111" s="7">
-        <v>73299847820.57135</v>
+        <v>73368637900.464279</v>
       </c>
       <c r="E111" s="7">
-        <v>69345878109.494965</v>
+        <v>69410957487.382294</v>
       </c>
       <c r="F111" s="7">
-        <v>65605195014.161346</v>
+        <v>65666763854.214928</v>
       </c>
       <c r="G111" s="7">
-        <v>62066293342.629448</v>
+        <v>62124541011.685326</v>
       </c>
       <c r="H111" s="7">
-        <v>58718288520.623993</v>
+        <v>58773394170.616592</v>
       </c>
       <c r="I111" s="7">
-        <v>55550883113.929085</v>
+        <v>55603016232.907524</v>
       </c>
       <c r="J111" s="7">
-        <v>52554335156.644272</v>
+        <v>52603656090.065536</v>
       </c>
       <c r="K111" s="7">
-        <v>49719428187.890503</v>
+        <v>49766088631.792786</v>
       </c>
       <c r="L111" s="7">
-        <v>47037442904.808037</v>
+        <v>47081586372.381172</v>
       </c>
       <c r="M111" s="7">
-        <v>44500130344.659721</v>
+        <v>44541892607.647644</v>
       </c>
       <c r="N111" s="7">
-        <v>42099686513.555946</v>
+        <v>42139196019.848877</v>
       </c>
       <c r="O111" s="7">
-        <v>39828728383.767105</v>
+        <v>39866106652.467781</v>
       </c>
       <c r="P111" s="7">
-        <v>37680271185.798584</v>
+        <v>37715633180.977707</v>
       </c>
       <c r="Q111" s="7">
-        <v>35647706925.385765</v>
+        <v>35681161409.67614</v>
       </c>
       <c r="R111" s="7">
-        <v>33724784059.333832</v>
+        <v>33756433928.450829</v>
       </c>
       <c r="S111" s="7">
-        <v>31905588267.69162</v>
+        <v>31935530866.908756</v>
       </c>
       <c r="T111" s="7">
-        <v>30184524263.120491</v>
+        <v>30212851686.673618</v>
       </c>
       <c r="U111" s="7">
-        <v>28556298581.509541</v>
+        <v>28583097955.850395</v>
       </c>
       <c r="V111" s="7">
-        <v>27015903300.906319</v>
+        <v>27041257052.676731</v>
       </c>
       <c r="W111" s="7">
-        <v>25558600638.687508</v>
+        <v>25582586748.238422</v>
       </c>
       <c r="X111" s="7">
-        <v>24179908379.595169</v>
+        <v>24202600620.830246</v>
       </c>
       <c r="Y111" s="7">
-        <v>22875586089.819695</v>
+        <v>22897054257.101181</v>
       </c>
       <c r="Z111" s="7">
         <v>21641622074.728203</v>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="AB111" s="13">
         <f t="shared" si="0"/>
-        <v>1138673181805.0718</v>
+        <v>1139721488077.479</v>
       </c>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.35">
@@ -9009,86 +9009,86 @@
         <v>11</v>
       </c>
       <c r="B112" s="6">
-        <v>6683691.1024731873</v>
+        <v>6683510.971983986</v>
       </c>
       <c r="C112" s="7">
-        <v>6598487.5529586654</v>
+        <v>6599755.8033004692</v>
       </c>
       <c r="D112" s="7">
-        <v>6542847.8437250052</v>
+        <v>6544279.0233887732</v>
       </c>
       <c r="E112" s="7">
-        <v>5691839.7926119342</v>
+        <v>5705298.8174357787</v>
       </c>
       <c r="F112" s="7">
-        <v>4767888.5606752886</v>
+        <v>4781524.556551747</v>
       </c>
       <c r="G112" s="7">
-        <v>3760494.3829190223</v>
+        <v>3778281.3066065162</v>
       </c>
       <c r="H112" s="7">
-        <v>3485475.9102342054</v>
+        <v>3501015.5881168228</v>
       </c>
       <c r="I112" s="7">
-        <v>3152095.8935735524</v>
+        <v>3166797.3239359558</v>
       </c>
       <c r="J112" s="7">
-        <v>2865462.9712526039</v>
+        <v>2879371.3711778284</v>
       </c>
       <c r="K112" s="7">
-        <v>2503099.5890494771</v>
+        <v>2516257.7365025748</v>
       </c>
       <c r="L112" s="7">
-        <v>2302265.1413414096</v>
+        <v>2314713.5067413356</v>
       </c>
       <c r="M112" s="7">
-        <v>2020889.0505256758</v>
+        <v>2032665.9212198525</v>
       </c>
       <c r="N112" s="7">
-        <v>1776622.9682608445</v>
+        <v>1787764.5662852912</v>
       </c>
       <c r="O112" s="7">
-        <v>1567371.5160130558</v>
+        <v>1577912.1095002282</v>
       </c>
       <c r="P112" s="7">
-        <v>1391151.5028150028</v>
+        <v>1401123.5113920553</v>
       </c>
       <c r="Q112" s="7">
-        <v>1126220.2435993243</v>
+        <v>1135654.3381009097</v>
       </c>
       <c r="R112" s="7">
-        <v>1006610.5472182796</v>
+        <v>1015535.7440206256</v>
       </c>
       <c r="S112" s="7">
-        <v>917948.56278729008</v>
+        <v>918205.10790448519</v>
       </c>
       <c r="T112" s="7">
-        <v>881483.06465687242</v>
+        <v>785829.59529897606</v>
       </c>
       <c r="U112" s="7">
-        <v>712766.6381798829</v>
+        <v>747026.21964761883</v>
       </c>
       <c r="V112" s="7">
-        <v>694873.97490732267</v>
+        <v>600996.0190919427</v>
       </c>
       <c r="W112" s="7">
-        <v>571716.1173205924</v>
+        <v>591538.01414856699</v>
       </c>
       <c r="X112" s="7">
-        <v>475640.61928008375</v>
+        <v>476052.49032645003</v>
       </c>
       <c r="Y112" s="7">
-        <v>503038.98237191478</v>
+        <v>508691.55552251381</v>
       </c>
       <c r="Z112" s="7">
-        <v>428144.5181181088</v>
+        <v>428144.51811810886</v>
       </c>
       <c r="AA112" s="8">
         <v>0</v>
       </c>
       <c r="AB112" s="13">
         <f t="shared" si="0"/>
-        <v>62428127.046868593</v>
+        <v>62477945.716319419</v>
       </c>
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.35">
@@ -9096,76 +9096,76 @@
         <v>12</v>
       </c>
       <c r="B113" s="9">
-        <v>954516.28076872649</v>
+        <v>954565.2581141931</v>
       </c>
       <c r="C113" s="10">
-        <v>943831.02011983306</v>
+        <v>943989.55141255865</v>
       </c>
       <c r="D113" s="10">
-        <v>940381.05128450051</v>
+        <v>940524.16925087734</v>
       </c>
       <c r="E113" s="10">
-        <v>813293.21721286373</v>
+        <v>815301.21688416298</v>
       </c>
       <c r="F113" s="10">
-        <v>674672.26670112507</v>
+        <v>676714.90575954202</v>
       </c>
       <c r="G113" s="10">
-        <v>521716.23996964027</v>
+        <v>524404.04177130596</v>
       </c>
       <c r="H113" s="10">
-        <v>482884.92258640507</v>
+        <v>485227.58759383485</v>
       </c>
       <c r="I113" s="10">
-        <v>434833.31548530667</v>
+        <v>437049.61151983985</v>
       </c>
       <c r="J113" s="10">
-        <v>393823.35516999452</v>
+        <v>395920.09887731477</v>
       </c>
       <c r="K113" s="10">
-        <v>340918.55544582085</v>
+        <v>342902.19576538331</v>
       </c>
       <c r="L113" s="10">
-        <v>312831.5776901932</v>
+        <v>314708.215690182</v>
       </c>
       <c r="M113" s="10">
-        <v>272124.3533742181</v>
+        <v>273899.76101655624</v>
       </c>
       <c r="N113" s="10">
-        <v>237005.74253712437</v>
+        <v>238685.38043025706</v>
       </c>
       <c r="O113" s="10">
-        <v>207159.80622622935</v>
+        <v>208748.84042027546</v>
       </c>
       <c r="P113" s="10">
-        <v>182287.51771265175</v>
+        <v>183790.83558858937</v>
       </c>
       <c r="Q113" s="10">
-        <v>143563.17228604353</v>
+        <v>144985.3975877901</v>
       </c>
       <c r="R113" s="10">
-        <v>127194.69619796886</v>
+        <v>128540.20325359893</v>
       </c>
       <c r="S113" s="10">
         <v>115288.34094780521</v>
       </c>
       <c r="T113" s="10">
-        <v>111791.29119037392</v>
+        <v>96956.999820736251</v>
       </c>
       <c r="U113" s="10">
-        <v>87493.088368266632</v>
+        <v>92765.089123391183</v>
       </c>
       <c r="V113" s="10">
-        <v>86301.367259597857</v>
+        <v>71824.066707980048</v>
       </c>
       <c r="W113" s="10">
-        <v>68770.896191370586</v>
+        <v>71616.252369303431</v>
       </c>
       <c r="X113" s="10">
-        <v>55301.062796496612</v>
+        <v>55352.546677292397</v>
       </c>
       <c r="Y113" s="10">
-        <v>60505.724725482978</v>
+        <v>61345.972085707166</v>
       </c>
       <c r="Z113" s="10">
         <v>50098.321568678752</v>
@@ -9175,7 +9175,7 @@
       </c>
       <c r="AB113" s="14">
         <f t="shared" si="0"/>
-        <v>8618587.1838167161</v>
+        <v>8625204.860237157</v>
       </c>
     </row>
   </sheetData>

--- a/717A11_output.xlsx
+++ b/717A11_output.xlsx
@@ -742,31 +742,31 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>476.58096263727066</v>
+        <v>476.58096263726509</v>
       </c>
       <c r="H3" s="4">
-        <v>379.42441201882912</v>
+        <v>379.42441201882548</v>
       </c>
       <c r="I3" s="4">
-        <v>405.32429434309006</v>
+        <v>405.32429434308688</v>
       </c>
       <c r="J3" s="4">
-        <v>391.63142391799693</v>
+        <v>391.63142391799283</v>
       </c>
       <c r="K3" s="4">
-        <v>499.77194354734092</v>
+        <v>499.77194354733729</v>
       </c>
       <c r="L3" s="4">
-        <v>413.53981367105735</v>
+        <v>413.5398136710528</v>
       </c>
       <c r="M3" s="4">
-        <v>453.29703285504002</v>
+        <v>453.29703285503911</v>
       </c>
       <c r="N3" s="4">
-        <v>461.78609566813202</v>
+        <v>461.78609566813248</v>
       </c>
       <c r="O3" s="4">
-        <v>440.81794131598281</v>
+        <v>440.81794131598326</v>
       </c>
       <c r="P3" s="4">
         <v>392.10694093547863</v>
@@ -778,13 +778,13 @@
         <v>375.31168377619451</v>
       </c>
       <c r="S3" s="4">
-        <v>435.13960772482824</v>
+        <v>435.13960772483006</v>
       </c>
       <c r="T3" s="4">
-        <v>243.27367851252461</v>
+        <v>243.27367851252507</v>
       </c>
       <c r="U3" s="4">
-        <v>78.059328724956686</v>
+        <v>78.059328724957595</v>
       </c>
       <c r="V3" s="4">
         <v>78</v>
@@ -813,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="7">
-        <v>148.72323737659462</v>
+        <v>148.7232373766019</v>
       </c>
       <c r="D4" s="7">
-        <v>606.04188169907502</v>
+        <v>606.04188169906411</v>
       </c>
       <c r="E4" s="7">
         <v>665.6</v>
@@ -944,7 +944,7 @@
         <v>46.5</v>
       </c>
       <c r="S5" s="7">
-        <v>26.787972565087784</v>
+        <v>26.787972565085738</v>
       </c>
       <c r="T5" s="7">
         <v>46.5</v>
@@ -959,7 +959,7 @@
         <v>46.5</v>
       </c>
       <c r="X5" s="7">
-        <v>34.372432155943898</v>
+        <v>34.37243215594026</v>
       </c>
       <c r="Y5" s="7">
         <v>46.5</v>
@@ -1059,7 +1059,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>149.8293110663673</v>
+        <v>149.82931106636715</v>
       </c>
       <c r="C7" s="7">
         <v>464</v>
@@ -1205,7 +1205,7 @@
         <v>101.5</v>
       </c>
       <c r="W8" s="7">
-        <v>38.087889959491804</v>
+        <v>38.087889959489075</v>
       </c>
       <c r="X8" s="7">
         <v>0</v>
@@ -1380,7 +1380,7 @@
         <v>85.51375562129715</v>
       </c>
       <c r="Z10" s="7">
-        <v>16.480629421889148</v>
+        <v>16.480629421889489</v>
       </c>
       <c r="AA10" s="8">
         <v>0</v>
@@ -1617,13 +1617,13 @@
         <v>154</v>
       </c>
       <c r="V13" s="7">
-        <v>126.02157994994559</v>
+        <v>126.02157994994468</v>
       </c>
       <c r="W13" s="7">
         <v>0</v>
       </c>
       <c r="X13" s="7">
-        <v>130.41031219811521</v>
+        <v>130.41031219811885</v>
       </c>
       <c r="Y13" s="7">
         <v>0</v>
@@ -1646,7 +1646,7 @@
         <v>150</v>
       </c>
       <c r="D14" s="7">
-        <v>120.52511830092271</v>
+        <v>120.52511830093437</v>
       </c>
       <c r="E14" s="7">
         <v>0</v>
@@ -1732,10 +1732,10 @@
         <v>1848</v>
       </c>
       <c r="E15" s="7">
-        <v>1267.9555255442574</v>
+        <v>1267.9555255442583</v>
       </c>
       <c r="F15" s="7">
-        <v>621.3425041496721</v>
+        <v>621.34250414967335</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="7">
-        <v>591.65057745573858</v>
+        <v>591.65057745573904</v>
       </c>
       <c r="F16" s="7">
         <v>656.1</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="7">
-        <v>10.579953777322771</v>
+        <v>10.579953777321862</v>
       </c>
       <c r="G17" s="7">
         <v>50.3</v>
@@ -1940,7 +1940,7 @@
         <v>50.3</v>
       </c>
       <c r="S17" s="7">
-        <v>28.366370434874625</v>
+        <v>28.366370434874398</v>
       </c>
       <c r="T17" s="7">
         <v>50.3</v>
@@ -2070,10 +2070,10 @@
         <v>257</v>
       </c>
       <c r="G19" s="7">
-        <v>171.84029741106679</v>
+        <v>171.84029741107224</v>
       </c>
       <c r="H19" s="7">
-        <v>39</v>
+        <v>39.000000000000007</v>
       </c>
       <c r="I19" s="7">
         <v>39.000000000000007</v>
@@ -2112,19 +2112,19 @@
         <v>169.08551776878789</v>
       </c>
       <c r="U19" s="7">
-        <v>158.32540032288671</v>
+        <v>158.32540032288625</v>
       </c>
       <c r="V19" s="7">
-        <v>61.054911659327445</v>
+        <v>61.054911659328354</v>
       </c>
       <c r="W19" s="7">
-        <v>75.852590074263389</v>
+        <v>75.852590074266118</v>
       </c>
       <c r="X19" s="7">
         <v>0</v>
       </c>
       <c r="Y19" s="7">
-        <v>47.218760842124993</v>
+        <v>47.218760842125903</v>
       </c>
       <c r="Z19" s="7">
         <v>0</v>
@@ -2156,31 +2156,31 @@
         <v>2269.6</v>
       </c>
       <c r="H20" s="7">
-        <v>2215.4833393699428</v>
+        <v>2215.4833393699464</v>
       </c>
       <c r="I20" s="7">
-        <v>1956.0629268081793</v>
+        <v>1956.0629268081825</v>
       </c>
       <c r="J20" s="7">
-        <v>1736.8335822236331</v>
+        <v>1736.8335822236368</v>
       </c>
       <c r="K20" s="7">
-        <v>1446.3745476495633</v>
+        <v>1446.3745476495669</v>
       </c>
       <c r="L20" s="7">
-        <v>1300.8972959466182</v>
+        <v>1300.8972959466228</v>
       </c>
       <c r="M20" s="7">
         <v>1080.045310749194</v>
       </c>
       <c r="N20" s="7">
-        <v>891.08162902853837</v>
+        <v>891.08162902853746</v>
       </c>
       <c r="O20" s="7">
-        <v>732.200892902958</v>
+        <v>732.20089290295709</v>
       </c>
       <c r="P20" s="7">
-        <v>601.69436279143292</v>
+        <v>601.69436279143247</v>
       </c>
       <c r="Q20" s="7">
         <v>388.77416931057087</v>
@@ -2221,7 +2221,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6">
-        <v>26.67068893363259</v>
+        <v>26.670688933635006</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -2373,7 +2373,7 @@
         <v>398.3</v>
       </c>
       <c r="Y22" s="7">
-        <v>298.57687258982241</v>
+        <v>298.57687258982151</v>
       </c>
       <c r="Z22" s="7">
         <v>292.24594413283467</v>
@@ -2390,31 +2390,31 @@
         <v>0</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>28.100000000000009</v>
       </c>
       <c r="D23" s="7">
-        <v>28.1</v>
+        <v>28.099999999999994</v>
       </c>
       <c r="E23" s="7">
         <v>28.100000000000009</v>
       </c>
       <c r="F23" s="7">
-        <v>28.1</v>
+        <v>28.100000000000009</v>
       </c>
       <c r="G23" s="7">
         <v>28.1</v>
       </c>
       <c r="H23" s="7">
+        <v>28.1</v>
+      </c>
+      <c r="I23" s="7">
+        <v>28.1</v>
+      </c>
+      <c r="J23" s="7">
+        <v>28.1</v>
+      </c>
+      <c r="K23" s="7">
         <v>28.100000000000009</v>
-      </c>
-      <c r="I23" s="7">
-        <v>28.100000000000009</v>
-      </c>
-      <c r="J23" s="7">
-        <v>28.100000000000009</v>
-      </c>
-      <c r="K23" s="7">
-        <v>28.1</v>
       </c>
       <c r="L23" s="7">
         <v>28.100000000000009</v>
@@ -2423,46 +2423,46 @@
         <v>28.1</v>
       </c>
       <c r="N23" s="7">
+        <v>28.1</v>
+      </c>
+      <c r="O23" s="7">
+        <v>28.100000000000009</v>
+      </c>
+      <c r="P23" s="7">
+        <v>28.1</v>
+      </c>
+      <c r="Q23" s="7">
         <v>28.099999999999994</v>
       </c>
-      <c r="O23" s="7">
+      <c r="R23" s="7">
         <v>28.099999999999994</v>
       </c>
-      <c r="P23" s="7">
+      <c r="S23" s="7">
         <v>28.099999999999994</v>
       </c>
-      <c r="Q23" s="7">
+      <c r="T23" s="7">
+        <v>28.099999999999994</v>
+      </c>
+      <c r="U23" s="7">
         <v>28.100000000000009</v>
       </c>
-      <c r="R23" s="7">
-        <v>28.100000000000009</v>
-      </c>
-      <c r="S23" s="7">
+      <c r="V23" s="7">
         <v>28.1</v>
       </c>
-      <c r="T23" s="7">
-        <v>28.1</v>
-      </c>
-      <c r="U23" s="7">
+      <c r="W23" s="7">
         <v>28.099999999999994</v>
-      </c>
-      <c r="V23" s="7">
-        <v>28.100000000000009</v>
-      </c>
-      <c r="W23" s="7">
-        <v>28.1</v>
       </c>
       <c r="X23" s="7">
         <v>28.099999999999994</v>
       </c>
       <c r="Y23" s="7">
-        <v>28.099999999999994</v>
+        <v>28.1</v>
       </c>
       <c r="Z23" s="7">
         <v>28.099999999999994</v>
       </c>
       <c r="AA23" s="8">
-        <v>28.100000000000009</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.35">
@@ -2521,7 +2521,7 @@
         <v>25</v>
       </c>
       <c r="S24" s="7">
-        <v>24.999999999999993</v>
+        <v>25</v>
       </c>
       <c r="T24" s="7">
         <v>25</v>
@@ -2660,7 +2660,7 @@
         <v>30.6</v>
       </c>
       <c r="J26" s="7">
-        <v>30.6</v>
+        <v>30.599999999999998</v>
       </c>
       <c r="K26" s="7">
         <v>30.6</v>
@@ -2672,7 +2672,7 @@
         <v>30.6</v>
       </c>
       <c r="N26" s="7">
-        <v>30.6</v>
+        <v>30.599999999999998</v>
       </c>
       <c r="O26" s="7">
         <v>30.6</v>
@@ -2699,13 +2699,13 @@
         <v>30.6</v>
       </c>
       <c r="W26" s="7">
-        <v>30.6</v>
+        <v>30.599999999999998</v>
       </c>
       <c r="X26" s="7">
         <v>30.6</v>
       </c>
       <c r="Y26" s="7">
-        <v>30.599999999999998</v>
+        <v>30.6</v>
       </c>
       <c r="Z26" s="7">
         <v>30.6</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D27" s="7">
         <v>10</v>
@@ -2734,13 +2734,13 @@
         <v>10</v>
       </c>
       <c r="G27" s="7">
+        <v>10</v>
+      </c>
+      <c r="H27" s="7">
         <v>9.9999999999999929</v>
       </c>
-      <c r="H27" s="7">
-        <v>10</v>
-      </c>
       <c r="I27" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="J27" s="7">
         <v>10</v>
@@ -2785,7 +2785,7 @@
         <v>10</v>
       </c>
       <c r="X27" s="7">
-        <v>10.000000000000014</v>
+        <v>10</v>
       </c>
       <c r="Y27" s="7">
         <v>10</v>
@@ -2805,20 +2805,20 @@
         <v>0</v>
       </c>
       <c r="C28" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>10</v>
+        <v>9.9999999999999858</v>
       </c>
       <c r="E28" s="7">
         <v>10</v>
       </c>
       <c r="F28" s="7">
+        <v>10</v>
+      </c>
+      <c r="G28" s="7">
         <v>9.9999999999999929</v>
       </c>
-      <c r="G28" s="7">
-        <v>10</v>
-      </c>
       <c r="H28" s="7">
         <v>10</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>10</v>
       </c>
       <c r="J28" s="7">
-        <v>10</v>
+        <v>10.000000000000014</v>
       </c>
       <c r="K28" s="7">
         <v>10</v>
@@ -2974,19 +2974,19 @@
         <v>52.2</v>
       </c>
       <c r="D30" s="7">
-        <v>52.20000000000001</v>
+        <v>52.2</v>
       </c>
       <c r="E30" s="7">
         <v>52.2</v>
       </c>
       <c r="F30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.2</v>
       </c>
       <c r="G30" s="7">
         <v>52.200000000000017</v>
       </c>
       <c r="H30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="I30" s="7">
         <v>52.2</v>
@@ -2995,49 +2995,49 @@
         <v>52.2</v>
       </c>
       <c r="K30" s="7">
-        <v>52.20000000000001</v>
+        <v>52.2</v>
       </c>
       <c r="L30" s="7">
         <v>52.2</v>
       </c>
       <c r="M30" s="7">
+        <v>52.200000000000017</v>
+      </c>
+      <c r="N30" s="7">
+        <v>52.2</v>
+      </c>
+      <c r="O30" s="7">
+        <v>52.2</v>
+      </c>
+      <c r="P30" s="7">
         <v>52.20000000000001</v>
       </c>
-      <c r="N30" s="7">
-        <v>52.199999999999989</v>
-      </c>
-      <c r="O30" s="7">
+      <c r="Q30" s="7">
         <v>52.200000000000017</v>
       </c>
-      <c r="P30" s="7">
+      <c r="R30" s="7">
         <v>52.200000000000017</v>
       </c>
-      <c r="Q30" s="7">
-        <v>52.2</v>
-      </c>
-      <c r="R30" s="7">
-        <v>52.2</v>
-      </c>
       <c r="S30" s="7">
-        <v>52.20000000000001</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="T30" s="7">
         <v>52.200000000000017</v>
       </c>
       <c r="U30" s="7">
+        <v>52.2</v>
+      </c>
+      <c r="V30" s="7">
         <v>52.200000000000017</v>
       </c>
-      <c r="V30" s="7">
+      <c r="W30" s="7">
         <v>52.2</v>
       </c>
-      <c r="W30" s="7">
+      <c r="X30" s="7">
         <v>52.200000000000017</v>
       </c>
-      <c r="X30" s="7">
-        <v>52.2</v>
-      </c>
       <c r="Y30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.20000000000001</v>
       </c>
       <c r="Z30" s="7">
         <v>52.200000000000017</v>
@@ -3075,7 +3075,7 @@
         <v>10</v>
       </c>
       <c r="J31" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="K31" s="7">
         <v>10</v>
@@ -3105,7 +3105,7 @@
         <v>10</v>
       </c>
       <c r="T31" s="7">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
       <c r="U31" s="7">
         <v>10</v>
@@ -3146,67 +3146,67 @@
         <v>20.200000000000003</v>
       </c>
       <c r="F32" s="7">
+        <v>20.2</v>
+      </c>
+      <c r="G32" s="7">
         <v>20.199999999999996</v>
-      </c>
-      <c r="G32" s="7">
-        <v>20.2</v>
       </c>
       <c r="H32" s="7">
         <v>20.2</v>
       </c>
       <c r="I32" s="7">
-        <v>20.200000000000003</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="J32" s="7">
-        <v>20.199999999999996</v>
+        <v>20.2</v>
       </c>
       <c r="K32" s="7">
         <v>20.199999999999996</v>
       </c>
       <c r="L32" s="7">
+        <v>20.200000000000003</v>
+      </c>
+      <c r="M32" s="7">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="N32" s="7">
         <v>20.2</v>
       </c>
-      <c r="M32" s="7">
+      <c r="O32" s="7">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="P32" s="7">
         <v>20.200000000000003</v>
-      </c>
-      <c r="N32" s="7">
-        <v>20.199999999999996</v>
-      </c>
-      <c r="O32" s="7">
-        <v>20.2</v>
-      </c>
-      <c r="P32" s="7">
-        <v>20.199999999999996</v>
       </c>
       <c r="Q32" s="7">
         <v>20.200000000000003</v>
       </c>
       <c r="R32" s="7">
-        <v>20.199999999999996</v>
+        <v>20.2</v>
       </c>
       <c r="S32" s="7">
-        <v>20.199999999999996</v>
+        <v>20.200000000000003</v>
       </c>
       <c r="T32" s="7">
         <v>20.2</v>
       </c>
       <c r="U32" s="7">
-        <v>20.2</v>
+        <v>20.200000000000003</v>
       </c>
       <c r="V32" s="7">
         <v>20.200000000000003</v>
       </c>
       <c r="W32" s="7">
+        <v>20.2</v>
+      </c>
+      <c r="X32" s="7">
         <v>20.200000000000003</v>
       </c>
-      <c r="X32" s="7">
+      <c r="Y32" s="7">
+        <v>20.200000000000003</v>
+      </c>
+      <c r="Z32" s="7">
         <v>20.199999999999996</v>
-      </c>
-      <c r="Y32" s="7">
-        <v>20.2</v>
-      </c>
-      <c r="Z32" s="7">
-        <v>20.200000000000003</v>
       </c>
       <c r="AA32" s="8">
         <v>20.200000000000003</v>
@@ -3419,7 +3419,7 @@
         <v>10</v>
       </c>
       <c r="N35" s="7">
-        <v>10</v>
+        <v>10.000000000000014</v>
       </c>
       <c r="O35" s="7">
         <v>10</v>
@@ -3443,22 +3443,22 @@
         <v>10</v>
       </c>
       <c r="V35" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="W35" s="7">
+        <v>9.9999999999999858</v>
+      </c>
+      <c r="X35" s="7">
+        <v>10</v>
+      </c>
+      <c r="Y35" s="7">
+        <v>10</v>
+      </c>
+      <c r="Z35" s="7">
+        <v>10</v>
+      </c>
+      <c r="AA35" s="8">
         <v>9.9999999999999929</v>
-      </c>
-      <c r="X35" s="7">
-        <v>10</v>
-      </c>
-      <c r="Y35" s="7">
-        <v>10</v>
-      </c>
-      <c r="Z35" s="7">
-        <v>10</v>
-      </c>
-      <c r="AA35" s="8">
-        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.35">
@@ -3526,7 +3526,7 @@
         <v>10</v>
       </c>
       <c r="V36" s="7">
-        <v>10.000000000000002</v>
+        <v>10</v>
       </c>
       <c r="W36" s="7">
         <v>10</v>
@@ -3606,7 +3606,7 @@
         <v>10</v>
       </c>
       <c r="U37" s="7">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
       <c r="V37" s="7">
         <v>10</v>
@@ -3615,7 +3615,7 @@
         <v>10</v>
       </c>
       <c r="X37" s="7">
-        <v>10</v>
+        <v>10.000000000000002</v>
       </c>
       <c r="Y37" s="7">
         <v>10</v>
@@ -3647,7 +3647,7 @@
         <v>10</v>
       </c>
       <c r="G38" s="7">
-        <v>10.000000000000002</v>
+        <v>10</v>
       </c>
       <c r="H38" s="7">
         <v>10</v>
@@ -3724,13 +3724,13 @@
         <v>10.099999999999994</v>
       </c>
       <c r="E39" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="F39" s="7">
         <v>10.099999999999994</v>
       </c>
-      <c r="F39" s="7">
-        <v>10.100000000000001</v>
-      </c>
       <c r="G39" s="7">
-        <v>10.1</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="H39" s="7">
         <v>10.099999999999994</v>
@@ -3748,16 +3748,16 @@
         <v>10.099999999999994</v>
       </c>
       <c r="M39" s="7">
-        <v>10.100000000000001</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="N39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.1</v>
       </c>
       <c r="O39" s="7">
         <v>10.099999999999994</v>
       </c>
       <c r="P39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="Q39" s="7">
         <v>10.099999999999994</v>
@@ -3766,22 +3766,22 @@
         <v>10.099999999999994</v>
       </c>
       <c r="S39" s="7">
-        <v>10.100000000000001</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="T39" s="7">
         <v>10.099999999999994</v>
       </c>
       <c r="U39" s="7">
+        <v>10.099999999999994</v>
+      </c>
+      <c r="V39" s="7">
         <v>10.100000000000001</v>
-      </c>
-      <c r="V39" s="7">
-        <v>10.1</v>
       </c>
       <c r="W39" s="7">
         <v>10.099999999999994</v>
       </c>
       <c r="X39" s="7">
-        <v>10.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="Y39" s="7">
         <v>10.100000000000001</v>
@@ -3790,7 +3790,7 @@
         <v>10.099999999999994</v>
       </c>
       <c r="AA39" s="8">
-        <v>10.099999999999994</v>
+        <v>10.100000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.35">
@@ -3807,73 +3807,73 @@
         <v>10.1</v>
       </c>
       <c r="E40" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="F40" s="7">
+        <v>10.099999999999998</v>
+      </c>
+      <c r="G40" s="7">
         <v>10.100000000000001</v>
-      </c>
-      <c r="F40" s="7">
-        <v>10.1</v>
-      </c>
-      <c r="G40" s="7">
-        <v>10.099999999999998</v>
       </c>
       <c r="H40" s="7">
         <v>10.099999999999998</v>
       </c>
       <c r="I40" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="J40" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="K40" s="7">
         <v>10.1</v>
       </c>
-      <c r="J40" s="7">
-        <v>10.1</v>
-      </c>
-      <c r="K40" s="7">
+      <c r="L40" s="7">
         <v>10.100000000000001</v>
       </c>
-      <c r="L40" s="7">
-        <v>10.099999999999998</v>
-      </c>
       <c r="M40" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="N40" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="O40" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="P40" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="Q40" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="R40" s="7">
         <v>10.099999999999998</v>
       </c>
-      <c r="P40" s="7">
+      <c r="S40" s="7">
         <v>10.1</v>
-      </c>
-      <c r="Q40" s="7">
-        <v>10.1</v>
-      </c>
-      <c r="R40" s="7">
-        <v>10.1</v>
-      </c>
-      <c r="S40" s="7">
-        <v>10.100000000000001</v>
       </c>
       <c r="T40" s="7">
         <v>10.099999999999998</v>
       </c>
       <c r="U40" s="7">
-        <v>10.099999999999998</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="V40" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="W40" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="X40" s="7">
         <v>10.1</v>
       </c>
       <c r="Y40" s="7">
-        <v>10.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="Z40" s="7">
         <v>10.1</v>
       </c>
       <c r="AA40" s="8">
-        <v>10.100000000000001</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.35">
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="7">
-        <v>10</v>
+        <v>1.6767626233960868</v>
       </c>
       <c r="D41" s="7">
         <v>10</v>
@@ -3902,7 +3902,7 @@
         <v>10</v>
       </c>
       <c r="I41" s="7">
-        <v>10</v>
+        <v>10.000000000000014</v>
       </c>
       <c r="J41" s="7">
         <v>10</v>
@@ -3914,7 +3914,7 @@
         <v>10</v>
       </c>
       <c r="M41" s="7">
-        <v>10</v>
+        <v>9.9999999999999929</v>
       </c>
       <c r="N41" s="7">
         <v>10</v>
@@ -3967,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="7">
-        <v>11.776762623403826</v>
+        <v>12</v>
       </c>
       <c r="D42" s="7">
         <v>12</v>
@@ -4000,7 +4000,7 @@
         <v>12</v>
       </c>
       <c r="N42" s="7">
-        <v>12</v>
+        <v>11.999999999999993</v>
       </c>
       <c r="O42" s="7">
         <v>12</v>
@@ -4039,7 +4039,7 @@
         <v>12</v>
       </c>
       <c r="AA42" s="8">
-        <v>12</v>
+        <v>12.000000000000014</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.35">
@@ -4122,7 +4122,7 @@
         <v>4750</v>
       </c>
       <c r="AA43" s="8">
-        <v>5700</v>
+        <v>5698.6405127167163</v>
       </c>
       <c r="AB43" t="s">
         <v>15</v>
@@ -4208,7 +4208,7 @@
         <v>10</v>
       </c>
       <c r="AA44" s="8">
-        <v>2628.6405127167163</v>
+        <v>2630</v>
       </c>
       <c r="AB44" t="s">
         <v>16</v>
@@ -4613,16 +4613,16 @@
         <v>0</v>
       </c>
       <c r="S51" s="7">
-        <v>45.308185217437803</v>
+        <v>45.308185217437426</v>
       </c>
       <c r="T51" s="7">
+        <v>46.500000000000021</v>
+      </c>
+      <c r="U51" s="7">
+        <v>46.500000000000078</v>
+      </c>
+      <c r="V51" s="7">
         <v>46.5</v>
-      </c>
-      <c r="U51" s="7">
-        <v>46.5</v>
-      </c>
-      <c r="V51" s="7">
-        <v>46.499999999999659</v>
       </c>
       <c r="W51" s="7">
         <v>46.5</v>
@@ -4782,7 +4782,7 @@
         <v>464</v>
       </c>
       <c r="T53" s="7">
-        <v>464</v>
+        <v>463.99999999999977</v>
       </c>
       <c r="U53" s="7">
         <v>464</v>
@@ -5197,13 +5197,13 @@
         <v>0</v>
       </c>
       <c r="T58" s="7">
-        <v>10.817758884394152</v>
+        <v>10.817758884394168</v>
       </c>
       <c r="U58" s="7">
-        <v>33.025418714353322</v>
+        <v>33.025418714353229</v>
       </c>
       <c r="V58" s="7">
-        <v>55.432947482782374</v>
+        <v>55.432947482789984</v>
       </c>
       <c r="W58" s="7">
         <v>78.042144010127004</v>
@@ -5443,13 +5443,13 @@
         <v>0</v>
       </c>
       <c r="S61" s="7">
-        <v>-2.2737367544323206E-13</v>
+        <v>0</v>
       </c>
       <c r="T61" s="7">
         <v>0</v>
       </c>
       <c r="U61" s="7">
-        <v>2.5579538487363607E-13</v>
+        <v>3.4816594052244909E-13</v>
       </c>
       <c r="V61" s="7">
         <v>0</v>
@@ -5695,7 +5695,7 @@
         <v>67</v>
       </c>
       <c r="T64" s="7">
-        <v>67</v>
+        <v>66.999999999999929</v>
       </c>
       <c r="U64" s="7">
         <v>67</v>
@@ -5825,7 +5825,7 @@
         <v>327.01637801450141</v>
       </c>
       <c r="H66" s="7">
-        <v>346.78232541663147</v>
+        <v>346.78232541663152</v>
       </c>
       <c r="I66" s="7">
         <v>366.72616634538105</v>
@@ -5861,13 +5861,13 @@
         <v>0</v>
       </c>
       <c r="T66" s="7">
-        <v>0</v>
+        <v>1.1368683772161603E-13</v>
       </c>
       <c r="U66" s="7">
         <v>0</v>
       </c>
       <c r="V66" s="7">
-        <v>0</v>
+        <v>-7.9580786405131221E-12</v>
       </c>
       <c r="W66" s="7">
         <v>0</v>
@@ -7984,49 +7984,49 @@
         <v>1</v>
       </c>
       <c r="B95" s="3">
-        <v>130.97643702212244</v>
+        <v>130.97643702212164</v>
       </c>
       <c r="C95" s="4">
-        <v>238.83215825106373</v>
+        <v>238.8321582510689</v>
       </c>
       <c r="D95" s="4">
-        <v>366.23840446605072</v>
+        <v>366.23840446604299</v>
       </c>
       <c r="E95" s="4">
-        <v>445.38034435000054</v>
+        <v>445.3803443500006</v>
       </c>
       <c r="F95" s="4">
-        <v>626.31845204159174</v>
+        <v>626.31845204159231</v>
       </c>
       <c r="G95" s="4">
-        <v>982.41113455139612</v>
+        <v>982.41113455139418</v>
       </c>
       <c r="H95" s="4">
-        <v>841.04570833496632</v>
+        <v>841.04570833496518</v>
       </c>
       <c r="I95" s="4">
-        <v>757.43494058201168</v>
+        <v>757.43494058201111</v>
       </c>
       <c r="J95" s="4">
-        <v>660.69639202252279</v>
+        <v>660.69639202252074</v>
       </c>
       <c r="K95" s="4">
-        <v>621.30607182208655</v>
+        <v>621.3060718220853</v>
       </c>
       <c r="L95" s="4">
-        <v>500.52926734574851</v>
+        <v>500.52926734574658</v>
       </c>
       <c r="M95" s="4">
-        <v>438.48728437217414</v>
+        <v>438.48728437217329</v>
       </c>
       <c r="N95" s="4">
-        <v>366.09493310398921</v>
+        <v>366.09493310398989</v>
       </c>
       <c r="O95" s="4">
-        <v>283.95651109753737</v>
+        <v>283.95651109753805</v>
       </c>
       <c r="P95" s="4">
-        <v>192.64413241329919</v>
+        <v>192.64413241329942</v>
       </c>
       <c r="Q95" s="4">
         <v>162.42297718701309</v>
@@ -8041,16 +8041,16 @@
         <v>-123.18520092967151</v>
       </c>
       <c r="U95" s="4">
-        <v>-252.95367203609925</v>
+        <v>-252.95367203609862</v>
       </c>
       <c r="V95" s="4">
-        <v>-301.59993596223313</v>
+        <v>-301.59993596223279</v>
       </c>
       <c r="W95" s="4">
-        <v>-355.27098067623143</v>
+        <v>-355.27098067623211</v>
       </c>
       <c r="X95" s="4">
-        <v>-499.27463983941618</v>
+        <v>-499.27463983941919</v>
       </c>
       <c r="Y95" s="4">
         <v>-526.97265273668881</v>
@@ -8059,7 +8059,7 @@
         <v>-607.61835661131897</v>
       </c>
       <c r="AA95" s="5">
-        <v>-864.19860684971627</v>
+        <v>-863.7454444219552</v>
       </c>
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.35">
@@ -8067,46 +8067,46 @@
         <v>2</v>
       </c>
       <c r="B96" s="6">
-        <v>-374.92356297787751</v>
+        <v>-374.9235629778783</v>
       </c>
       <c r="C96" s="7">
-        <v>-180.19107912553196</v>
+        <v>-180.19107912553454</v>
       </c>
       <c r="D96" s="7">
-        <v>-229.7199772330257</v>
+        <v>-229.71997723302178</v>
       </c>
       <c r="E96" s="7">
         <v>-291.56660415000079</v>
       </c>
       <c r="F96" s="7">
-        <v>-575.15027277223294</v>
+        <v>-575.15027277223271</v>
       </c>
       <c r="G96" s="7">
-        <v>-719.04949547277226</v>
+        <v>-719.04949547277397</v>
       </c>
       <c r="H96" s="7">
-        <v>-543.35816735941955</v>
+        <v>-543.3581673594208</v>
       </c>
       <c r="I96" s="7">
-        <v>-360.20866999362397</v>
+        <v>-360.20866999362477</v>
       </c>
       <c r="J96" s="7">
-        <v>-190.4861110482932</v>
+        <v>-190.48611104829354</v>
       </c>
       <c r="K96" s="7">
-        <v>-13.717173776366508</v>
+        <v>-13.717173776367758</v>
       </c>
       <c r="L96" s="7">
-        <v>131.36071253690977</v>
+        <v>131.36071253690807</v>
       </c>
       <c r="M96" s="7">
-        <v>284.86611257005643</v>
+        <v>284.86611257005734</v>
       </c>
       <c r="N96" s="7">
-        <v>427.71107075565283</v>
+        <v>427.71107075565351</v>
       </c>
       <c r="O96" s="7">
-        <v>560.49709398806681</v>
+        <v>560.49709398806692</v>
       </c>
       <c r="P96" s="7">
         <v>683.79348054984337</v>
@@ -8124,16 +8124,16 @@
         <v>1123.1852009296715</v>
       </c>
       <c r="U96" s="7">
-        <v>1206.4039634399783</v>
+        <v>1206.403963439979</v>
       </c>
       <c r="V96" s="7">
-        <v>1292.4333981830753</v>
+        <v>1292.4333981830746</v>
       </c>
       <c r="W96" s="7">
-        <v>1325.0587793068912</v>
+        <v>1325.0587793068896</v>
       </c>
       <c r="X96" s="7">
-        <v>1473.4443001816687</v>
+        <v>1473.4443001816696</v>
       </c>
       <c r="Y96" s="7">
         <v>1526.9726527366884</v>
@@ -8142,7 +8142,7 @@
         <v>1607.6183566113186</v>
       </c>
       <c r="AA96" s="8">
-        <v>619.8811367919252</v>
+        <v>618.9748119364026</v>
       </c>
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.35">
@@ -8150,49 +8150,49 @@
         <v>3</v>
       </c>
       <c r="B97" s="9">
-        <v>243.9471259557551</v>
+        <v>243.94712595575669</v>
       </c>
       <c r="C97" s="10">
-        <v>-58.641079125531775</v>
+        <v>-58.641079125534361</v>
       </c>
       <c r="D97" s="10">
-        <v>-136.51842723302502</v>
+        <v>-136.51842723302121</v>
       </c>
       <c r="E97" s="10">
-        <v>-153.81374019999976</v>
+        <v>-153.81374019999981</v>
       </c>
       <c r="F97" s="10">
-        <v>-51.168179269358916</v>
+        <v>-51.168179269359598</v>
       </c>
       <c r="G97" s="10">
-        <v>-263.36163907862385</v>
+        <v>-263.36163907862021</v>
       </c>
       <c r="H97" s="10">
-        <v>-297.68754097554677</v>
+        <v>-297.68754097554438</v>
       </c>
       <c r="I97" s="10">
-        <v>-397.22627058838776</v>
+        <v>-397.22627058838634</v>
       </c>
       <c r="J97" s="10">
-        <v>-470.21028097422936</v>
+        <v>-470.21028097422743</v>
       </c>
       <c r="K97" s="10">
-        <v>-607.58889804572004</v>
+        <v>-607.58889804571754</v>
       </c>
       <c r="L97" s="10">
-        <v>-631.88997988265828</v>
+        <v>-631.88997988265464</v>
       </c>
       <c r="M97" s="10">
         <v>-723.35339694223057</v>
       </c>
       <c r="N97" s="10">
-        <v>-793.80600385964203</v>
+        <v>-793.8060038596434</v>
       </c>
       <c r="O97" s="10">
-        <v>-844.45360508560407</v>
+        <v>-844.45360508560498</v>
       </c>
       <c r="P97" s="10">
-        <v>-876.43761296314244</v>
+        <v>-876.43761296314278</v>
       </c>
       <c r="Q97" s="10">
         <v>-980.28554664379953</v>
@@ -8207,16 +8207,16 @@
         <v>-1000</v>
       </c>
       <c r="U97" s="10">
-        <v>-953.45029140387908</v>
+        <v>-953.45029140388021</v>
       </c>
       <c r="V97" s="10">
-        <v>-990.83346222084219</v>
+        <v>-990.83346222084174</v>
       </c>
       <c r="W97" s="10">
-        <v>-969.78779863065984</v>
+        <v>-969.78779863065745</v>
       </c>
       <c r="X97" s="10">
-        <v>-974.1696603422522</v>
+        <v>-974.16966034225038</v>
       </c>
       <c r="Y97" s="10">
         <v>-1000</v>
@@ -8225,7 +8225,7 @@
         <v>-1000</v>
       </c>
       <c r="AA97" s="11">
-        <v>244.31747005779107</v>
+        <v>244.7706324855526</v>
       </c>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.35">
@@ -8294,7 +8294,7 @@
         <v>386.83107526465255</v>
       </c>
       <c r="S101" s="4">
-        <v>559.14535001451372</v>
+        <v>559.1453500145135</v>
       </c>
       <c r="T101" s="4">
         <v>558.50448557504785</v>
@@ -8303,7 +8303,7 @@
         <v>553.69282594522338</v>
       </c>
       <c r="V101" s="4">
-        <v>548.83786137873028</v>
+        <v>548.83786137872789</v>
       </c>
       <c r="W101" s="4">
         <v>543.93920213113915</v>
@@ -8377,7 +8377,7 @@
         <v>-175.0163901552869</v>
       </c>
       <c r="S102" s="7">
-        <v>-13.608742594205296</v>
+        <v>-13.608742594205182</v>
       </c>
       <c r="T102" s="7">
         <v>-14.436634982754981</v>
@@ -8386,7 +8386,7 @@
         <v>-8.1444646975998012</v>
       </c>
       <c r="V102" s="7">
-        <v>-1.7956648798783021</v>
+        <v>-1.7956648798731294</v>
       </c>
       <c r="W102" s="7">
         <v>4.6102741362026336</v>
@@ -8460,7 +8460,7 @@
         <v>-211.81468510936566</v>
       </c>
       <c r="S103" s="10">
-        <v>-545.53660742030843</v>
+        <v>-545.53660742030831</v>
       </c>
       <c r="T103" s="10">
         <v>-544.06785059229287</v>
@@ -8469,7 +8469,7 @@
         <v>-545.54836124762346</v>
       </c>
       <c r="V103" s="10">
-        <v>-547.04219649885204</v>
+        <v>-547.04219649885476</v>
       </c>
       <c r="W103" s="10">
         <v>-548.54947626734179</v>
@@ -8575,22 +8575,22 @@
         <v>6</v>
       </c>
       <c r="B106" s="15">
-        <v>231991.1258815031</v>
+        <v>231991.12588150357</v>
       </c>
       <c r="C106" s="16">
-        <v>190140.63153965454</v>
+        <v>190140.63153965469</v>
       </c>
       <c r="D106" s="16">
-        <v>159339.54690181458</v>
+        <v>159339.5469018147</v>
       </c>
       <c r="E106" s="16">
-        <v>148876.86993389667</v>
+        <v>148876.8699338967</v>
       </c>
       <c r="F106" s="16">
         <v>141199.76340916852</v>
       </c>
       <c r="G106" s="16">
-        <v>135372.17299524642</v>
+        <v>135372.17299524636</v>
       </c>
       <c r="H106" s="16">
         <v>11667050.655674972</v>
@@ -8650,7 +8650,7 @@
         <v>9584881.0747875217</v>
       </c>
       <c r="AA106" s="17">
-        <v>57754327.603814982</v>
+        <v>57754327.603814974</v>
       </c>
       <c r="AB106" s="18">
         <f>SUM(TotalCost)</f>
@@ -8748,22 +8748,22 @@
         <v>8</v>
       </c>
       <c r="B109" s="3">
-        <v>79410814.945039734</v>
+        <v>79410814.945039973</v>
       </c>
       <c r="C109" s="4">
         <v>63008596.513607681</v>
       </c>
       <c r="D109" s="4">
-        <v>55897639.429508492</v>
+        <v>55897639.429508507</v>
       </c>
       <c r="E109" s="4">
-        <v>54564500.077389836</v>
+        <v>54564500.077389851</v>
       </c>
       <c r="F109" s="4">
-        <v>50523285.409403034</v>
+        <v>50523285.409403026</v>
       </c>
       <c r="G109" s="4">
-        <v>46943184.414359048</v>
+        <v>46943184.414359115</v>
       </c>
       <c r="H109" s="4">
         <v>42789651.604352042</v>
@@ -8772,16 +8772,16 @@
         <v>41084451.188129097</v>
       </c>
       <c r="J109" s="4">
-        <v>39344839.620549791</v>
+        <v>39344839.620549783</v>
       </c>
       <c r="K109" s="4">
         <v>38099783.225653768</v>
       </c>
       <c r="L109" s="4">
-        <v>36297990.199881151</v>
+        <v>36297990.199881144</v>
       </c>
       <c r="M109" s="4">
-        <v>34994910.735631965</v>
+        <v>34994910.735631958</v>
       </c>
       <c r="N109" s="4">
         <v>33665749.343199946</v>
@@ -8790,7 +8790,7 @@
         <v>32312324.134227134</v>
       </c>
       <c r="P109" s="4">
-        <v>30936358.847758606</v>
+        <v>30936358.847758602</v>
       </c>
       <c r="Q109" s="4">
         <v>30066201.364015356</v>
@@ -8799,35 +8799,35 @@
         <v>28075014.638710182</v>
       </c>
       <c r="S109" s="4">
-        <v>27637779.66648772</v>
+        <v>27637779.666487433</v>
       </c>
       <c r="T109" s="4">
-        <v>28104427.366363551</v>
+        <v>28104427.366363555</v>
       </c>
       <c r="U109" s="4">
-        <v>26480026.546641234</v>
+        <v>26480026.546641231</v>
       </c>
       <c r="V109" s="4">
-        <v>23842430.948070697</v>
+        <v>23842430.948070701</v>
       </c>
       <c r="W109" s="4">
-        <v>21562393.07092008</v>
+        <v>21562393.070920121</v>
       </c>
       <c r="X109" s="4">
-        <v>18348308.303627893</v>
+        <v>18348308.303627428</v>
       </c>
       <c r="Y109" s="4">
-        <v>17639234.175045133</v>
+        <v>17639234.17504514</v>
       </c>
       <c r="Z109" s="4">
-        <v>15992996.940919362</v>
+        <v>15992996.940919366</v>
       </c>
       <c r="AA109" s="5">
         <v>0</v>
       </c>
       <c r="AB109" s="12">
         <f>SUM(B109:AA109)</f>
-        <v>917622892.70949256</v>
+        <v>917622892.70949209</v>
       </c>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.35">
@@ -8835,7 +8835,7 @@
         <v>9</v>
       </c>
       <c r="B110" s="6">
-        <v>14667374.743175104</v>
+        <v>14667374.743175231</v>
       </c>
       <c r="C110" s="7">
         <v>13232177.66341256</v>
@@ -8844,40 +8844,40 @@
         <v>13202905.908014387</v>
       </c>
       <c r="E110" s="7">
-        <v>11427176.759078512</v>
+        <v>11427176.759078516</v>
       </c>
       <c r="F110" s="7">
-        <v>9446021.7217890918</v>
+        <v>9446021.7217890956</v>
       </c>
       <c r="G110" s="7">
-        <v>6871604.7774164723</v>
+        <v>6871604.7774165161</v>
       </c>
       <c r="H110" s="7">
-        <v>5680751.2654034672</v>
+        <v>5680751.2654034756</v>
       </c>
       <c r="I110" s="7">
-        <v>5071410.1785332952</v>
+        <v>5071410.1785333026</v>
       </c>
       <c r="J110" s="7">
-        <v>4554809.8005604139</v>
+        <v>4554809.8005604213</v>
       </c>
       <c r="K110" s="7">
-        <v>3876260.9785867319</v>
+        <v>3876260.9785867403</v>
       </c>
       <c r="L110" s="7">
-        <v>3529848.5920509966</v>
+        <v>3529848.5920510073</v>
       </c>
       <c r="M110" s="7">
         <v>3011926.4851294304</v>
       </c>
       <c r="N110" s="7">
-        <v>2567593.2899408611</v>
+        <v>2567593.2899408587</v>
       </c>
       <c r="O110" s="7">
-        <v>2192684.6676832526</v>
+        <v>2192684.6676832503</v>
       </c>
       <c r="P110" s="7">
-        <v>1883259.1609973987</v>
+        <v>1883259.1609973975</v>
       </c>
       <c r="Q110" s="7">
         <v>1386087.5782639373</v>
@@ -8889,32 +8889,32 @@
         <v>2198644.6980367745</v>
       </c>
       <c r="T110" s="7">
-        <v>1497195.6677057748</v>
+        <v>1497195.667705775</v>
       </c>
       <c r="U110" s="7">
-        <v>1403701.5010519538</v>
+        <v>1403701.5010519503</v>
       </c>
       <c r="V110" s="7">
-        <v>626990.14999875613</v>
+        <v>626990.14999876323</v>
       </c>
       <c r="W110" s="7">
-        <v>739063.59503599803</v>
+        <v>739063.5950360198</v>
       </c>
       <c r="X110" s="7">
-        <v>123335.4448958266</v>
+        <v>123335.44489582615</v>
       </c>
       <c r="Y110" s="7">
-        <v>491512.83514318248</v>
+        <v>491512.83514318976</v>
       </c>
       <c r="Z110" s="7">
-        <v>111619.72520274094</v>
+        <v>111619.72520274097</v>
       </c>
       <c r="AA110" s="8">
         <v>0</v>
       </c>
       <c r="AB110" s="13">
         <f t="shared" ref="AB110:AB113" si="0">SUM(B110:AA110)</f>
-        <v>110775457.81107292</v>
+        <v>110775457.81107312</v>
       </c>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.35">
@@ -8922,37 +8922,37 @@
         <v>10</v>
       </c>
       <c r="B111" s="6">
-        <v>81973843561.409653</v>
+        <v>81973843561.409683</v>
       </c>
       <c r="C111" s="7">
-        <v>77551977702.482681</v>
+        <v>77551977702.482712</v>
       </c>
       <c r="D111" s="7">
-        <v>73368637900.464279</v>
+        <v>73368637900.46431</v>
       </c>
       <c r="E111" s="7">
-        <v>69410957487.382294</v>
+        <v>69410957487.382309</v>
       </c>
       <c r="F111" s="7">
-        <v>65666763854.214928</v>
+        <v>65666763854.214943</v>
       </c>
       <c r="G111" s="7">
-        <v>62124541011.685326</v>
+        <v>62124541011.685341</v>
       </c>
       <c r="H111" s="7">
-        <v>58773394170.616592</v>
+        <v>58773394170.616608</v>
       </c>
       <c r="I111" s="7">
-        <v>55603016232.907524</v>
+        <v>55603016232.907539</v>
       </c>
       <c r="J111" s="7">
-        <v>52603656090.065536</v>
+        <v>52603656090.065552</v>
       </c>
       <c r="K111" s="7">
-        <v>49766088631.792786</v>
+        <v>49766088631.792801</v>
       </c>
       <c r="L111" s="7">
-        <v>47081586372.381172</v>
+        <v>47081586372.38118</v>
       </c>
       <c r="M111" s="7">
         <v>44541892607.647644</v>
@@ -8973,35 +8973,35 @@
         <v>33756433928.450829</v>
       </c>
       <c r="S111" s="7">
-        <v>31935530866.908756</v>
+        <v>31935530866.908764</v>
       </c>
       <c r="T111" s="7">
-        <v>30212851686.673618</v>
+        <v>30212851686.673626</v>
       </c>
       <c r="U111" s="7">
-        <v>28583097955.850395</v>
+        <v>28583097955.850403</v>
       </c>
       <c r="V111" s="7">
-        <v>27041257052.676731</v>
+        <v>27041257052.676739</v>
       </c>
       <c r="W111" s="7">
-        <v>25582586748.238422</v>
+        <v>25582586748.23843</v>
       </c>
       <c r="X111" s="7">
-        <v>24202600620.830246</v>
+        <v>24202600620.830254</v>
       </c>
       <c r="Y111" s="7">
-        <v>22897054257.101181</v>
+        <v>22897054257.101185</v>
       </c>
       <c r="Z111" s="7">
-        <v>21641622074.728203</v>
+        <v>21641622074.728207</v>
       </c>
       <c r="AA111" s="8">
         <v>0</v>
       </c>
       <c r="AB111" s="13">
         <f t="shared" si="0"/>
-        <v>1139721488077.479</v>
+        <v>1139721488077.4795</v>
       </c>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.35">
@@ -9009,49 +9009,49 @@
         <v>11</v>
       </c>
       <c r="B112" s="6">
-        <v>6683510.971983986</v>
+        <v>6683510.9719839878</v>
       </c>
       <c r="C112" s="7">
-        <v>6599755.8033004692</v>
+        <v>6599755.8033004701</v>
       </c>
       <c r="D112" s="7">
-        <v>6544279.0233887732</v>
+        <v>6544279.0233887741</v>
       </c>
       <c r="E112" s="7">
-        <v>5705298.8174357787</v>
+        <v>5705298.8174357796</v>
       </c>
       <c r="F112" s="7">
-        <v>4781524.556551747</v>
+        <v>4781524.5565517489</v>
       </c>
       <c r="G112" s="7">
-        <v>3778281.3066065162</v>
+        <v>3778281.3066065237</v>
       </c>
       <c r="H112" s="7">
-        <v>3501015.5881168228</v>
+        <v>3501015.5881168274</v>
       </c>
       <c r="I112" s="7">
-        <v>3166797.3239359558</v>
+        <v>3166797.3239359595</v>
       </c>
       <c r="J112" s="7">
-        <v>2879371.3711778284</v>
+        <v>2879371.3711778326</v>
       </c>
       <c r="K112" s="7">
-        <v>2516257.7365025748</v>
+        <v>2516257.7365025789</v>
       </c>
       <c r="L112" s="7">
-        <v>2314713.5067413356</v>
+        <v>2314713.5067413407</v>
       </c>
       <c r="M112" s="7">
         <v>2032665.9212198525</v>
       </c>
       <c r="N112" s="7">
-        <v>1787764.5662852912</v>
+        <v>1787764.5662852901</v>
       </c>
       <c r="O112" s="7">
-        <v>1577912.1095002282</v>
+        <v>1577912.1095002273</v>
       </c>
       <c r="P112" s="7">
-        <v>1401123.5113920553</v>
+        <v>1401123.5113920548</v>
       </c>
       <c r="Q112" s="7">
         <v>1135654.3381009097</v>
@@ -9063,32 +9063,32 @@
         <v>918205.10790448519</v>
       </c>
       <c r="T112" s="7">
-        <v>785829.59529897606</v>
+        <v>785829.59529897617</v>
       </c>
       <c r="U112" s="7">
-        <v>747026.21964761883</v>
+        <v>747026.21964761836</v>
       </c>
       <c r="V112" s="7">
-        <v>600996.0190919427</v>
+        <v>600996.01909194386</v>
       </c>
       <c r="W112" s="7">
-        <v>591538.01414856699</v>
+        <v>591538.01414857048</v>
       </c>
       <c r="X112" s="7">
-        <v>476052.49032645003</v>
+        <v>476052.49032645021</v>
       </c>
       <c r="Y112" s="7">
-        <v>508691.55552251381</v>
+        <v>508691.55552251503</v>
       </c>
       <c r="Z112" s="7">
-        <v>428144.51811810886</v>
+        <v>428144.51811810891</v>
       </c>
       <c r="AA112" s="8">
         <v>0</v>
       </c>
       <c r="AB112" s="13">
         <f t="shared" si="0"/>
-        <v>62477945.716319419</v>
+        <v>62477945.716319442</v>
       </c>
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.35">
@@ -9096,7 +9096,7 @@
         <v>12</v>
       </c>
       <c r="B113" s="9">
-        <v>954565.2581141931</v>
+        <v>954565.25811419345</v>
       </c>
       <c r="C113" s="10">
         <v>943989.55141255865</v>
@@ -9105,40 +9105,40 @@
         <v>940524.16925087734</v>
       </c>
       <c r="E113" s="10">
-        <v>815301.21688416298</v>
+        <v>815301.21688416321</v>
       </c>
       <c r="F113" s="10">
-        <v>676714.90575954202</v>
+        <v>676714.90575954237</v>
       </c>
       <c r="G113" s="10">
-        <v>524404.04177130596</v>
+        <v>524404.04177130712</v>
       </c>
       <c r="H113" s="10">
-        <v>485227.58759383485</v>
+        <v>485227.58759383543</v>
       </c>
       <c r="I113" s="10">
-        <v>437049.61151983985</v>
+        <v>437049.61151984037</v>
       </c>
       <c r="J113" s="10">
-        <v>395920.09887731477</v>
+        <v>395920.09887731541</v>
       </c>
       <c r="K113" s="10">
-        <v>342902.19576538331</v>
+        <v>342902.19576538401</v>
       </c>
       <c r="L113" s="10">
-        <v>314708.215690182</v>
+        <v>314708.21569018275</v>
       </c>
       <c r="M113" s="10">
         <v>273899.76101655624</v>
       </c>
       <c r="N113" s="10">
-        <v>238685.38043025706</v>
+        <v>238685.38043025689</v>
       </c>
       <c r="O113" s="10">
-        <v>208748.84042027546</v>
+        <v>208748.84042027534</v>
       </c>
       <c r="P113" s="10">
-        <v>183790.83558858937</v>
+        <v>183790.83558858931</v>
       </c>
       <c r="Q113" s="10">
         <v>144985.3975877901</v>
@@ -9153,29 +9153,29 @@
         <v>96956.999820736251</v>
       </c>
       <c r="U113" s="10">
-        <v>92765.089123391183</v>
+        <v>92765.08912339111</v>
       </c>
       <c r="V113" s="10">
-        <v>71824.066707980048</v>
+        <v>71824.066707980222</v>
       </c>
       <c r="W113" s="10">
-        <v>71616.252369303431</v>
+        <v>71616.252369303955</v>
       </c>
       <c r="X113" s="10">
-        <v>55352.546677292397</v>
+        <v>55352.546677292426</v>
       </c>
       <c r="Y113" s="10">
-        <v>61345.972085707166</v>
+        <v>61345.972085707333</v>
       </c>
       <c r="Z113" s="10">
-        <v>50098.321568678752</v>
+        <v>50098.321568678766</v>
       </c>
       <c r="AA113" s="11">
         <v>0</v>
       </c>
       <c r="AB113" s="14">
         <f t="shared" si="0"/>
-        <v>8625204.860237157</v>
+        <v>8625204.8602371626</v>
       </c>
     </row>
   </sheetData>

--- a/717A11_output.xlsx
+++ b/717A11_output.xlsx
@@ -320,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -340,6 +340,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB113"/>
+  <dimension ref="A1:AB116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC61" sqref="AC61"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -730,67 +731,67 @@
         <v>519.20000000000005</v>
       </c>
       <c r="C3" s="4">
-        <v>519.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4">
-        <v>0</v>
+        <v>444.39767768616434</v>
       </c>
       <c r="E3" s="4">
-        <v>0</v>
+        <v>489.05601470060719</v>
       </c>
       <c r="F3" s="4">
-        <v>0</v>
+        <v>342.89686747396632</v>
       </c>
       <c r="G3" s="4">
-        <v>476.58096263726509</v>
+        <v>177.42738062174587</v>
       </c>
       <c r="H3" s="4">
-        <v>379.42441201882548</v>
+        <v>78</v>
       </c>
       <c r="I3" s="4">
-        <v>405.32429434308688</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4">
-        <v>391.63142391799283</v>
+        <v>0</v>
       </c>
       <c r="K3" s="4">
-        <v>499.77194354733729</v>
+        <v>0</v>
       </c>
       <c r="L3" s="4">
-        <v>413.5398136710528</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4">
-        <v>453.29703285503911</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4">
-        <v>461.78609566813248</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4">
-        <v>440.81794131598326</v>
+        <v>0</v>
       </c>
       <c r="P3" s="4">
-        <v>392.10694093547863</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="4">
-        <v>476.44664614988051</v>
+        <v>0</v>
       </c>
       <c r="R3" s="4">
-        <v>375.31168377619451</v>
+        <v>0</v>
       </c>
       <c r="S3" s="4">
-        <v>435.13960772483006</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4">
-        <v>243.27367851252507</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4">
-        <v>78.059328724957595</v>
+        <v>0</v>
       </c>
       <c r="V3" s="4">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="W3" s="4">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="X3" s="4">
         <v>0</v>
@@ -813,10 +814,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="7">
-        <v>148.7232373766019</v>
+        <v>665.6</v>
       </c>
       <c r="D4" s="7">
-        <v>606.04188169906411</v>
+        <v>665.6</v>
       </c>
       <c r="E4" s="7">
         <v>665.6</v>
@@ -834,55 +835,55 @@
         <v>665.6</v>
       </c>
       <c r="J4" s="7">
-        <v>665.6</v>
+        <v>653.67922323560242</v>
       </c>
       <c r="K4" s="7">
         <v>665.6</v>
       </c>
       <c r="L4" s="7">
-        <v>665.6</v>
+        <v>661.09286013743906</v>
       </c>
       <c r="M4" s="7">
-        <v>665.6</v>
+        <v>322.93018137873707</v>
       </c>
       <c r="N4" s="7">
-        <v>665.6</v>
+        <v>269.08451052641817</v>
       </c>
       <c r="O4" s="7">
-        <v>665.6</v>
+        <v>281.88362112115578</v>
       </c>
       <c r="P4" s="7">
-        <v>665.6</v>
+        <v>100</v>
       </c>
       <c r="Q4" s="7">
-        <v>665.6</v>
+        <v>100</v>
       </c>
       <c r="R4" s="7">
-        <v>665.6</v>
+        <v>100</v>
       </c>
       <c r="S4" s="7">
-        <v>665.6</v>
+        <v>100</v>
       </c>
       <c r="T4" s="7">
-        <v>665.6</v>
+        <v>100</v>
       </c>
       <c r="U4" s="7">
-        <v>665.6</v>
+        <v>100</v>
       </c>
       <c r="V4" s="7">
-        <v>665.6</v>
+        <v>100</v>
       </c>
       <c r="W4" s="7">
-        <v>665.6</v>
+        <v>100</v>
       </c>
       <c r="X4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="8">
         <v>0</v>
@@ -896,10 +897,10 @@
         <v>46.5</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="E5" s="7">
         <v>46.5</v>
@@ -911,61 +912,61 @@
         <v>46.5</v>
       </c>
       <c r="H5" s="7">
-        <v>46.5</v>
+        <v>8.6312241231941194</v>
       </c>
       <c r="I5" s="7">
-        <v>46.5</v>
+        <v>7</v>
       </c>
       <c r="J5" s="7">
-        <v>46.5</v>
+        <v>7</v>
       </c>
       <c r="K5" s="7">
-        <v>46.5</v>
+        <v>7</v>
       </c>
       <c r="L5" s="7">
-        <v>46.5</v>
+        <v>7</v>
       </c>
       <c r="M5" s="7">
-        <v>46.5</v>
+        <v>7</v>
       </c>
       <c r="N5" s="7">
-        <v>46.5</v>
+        <v>7</v>
       </c>
       <c r="O5" s="7">
-        <v>46.5</v>
+        <v>7</v>
       </c>
       <c r="P5" s="7">
-        <v>46.5</v>
+        <v>7</v>
       </c>
       <c r="Q5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="R5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="S5" s="7">
-        <v>26.787972565085738</v>
+        <v>7</v>
       </c>
       <c r="T5" s="7">
-        <v>46.5</v>
+        <v>7</v>
       </c>
       <c r="U5" s="7">
-        <v>46.5</v>
+        <v>7.0000000000000124</v>
       </c>
       <c r="V5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="W5" s="7">
-        <v>46.5</v>
+        <v>7</v>
       </c>
       <c r="X5" s="7">
-        <v>34.37243215594026</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="8">
         <v>0</v>
@@ -976,7 +977,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C6" s="7">
         <v>212</v>
@@ -1018,37 +1019,37 @@
         <v>212</v>
       </c>
       <c r="P6" s="7">
-        <v>212</v>
+        <v>140.52171704068627</v>
       </c>
       <c r="Q6" s="7">
-        <v>212</v>
+        <v>168.15685600738999</v>
       </c>
       <c r="R6" s="7">
-        <v>212</v>
+        <v>184.58310279959551</v>
       </c>
       <c r="S6" s="7">
-        <v>212</v>
+        <v>117.15053398555699</v>
       </c>
       <c r="T6" s="7">
-        <v>212</v>
+        <v>59.659196281313598</v>
       </c>
       <c r="U6" s="7">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="V6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="W6" s="7">
-        <v>212</v>
+        <v>33.952731507069984</v>
       </c>
       <c r="X6" s="7">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="Y6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="8">
         <v>0</v>
@@ -1059,7 +1060,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>149.82931106636715</v>
+        <v>182.25324173761368</v>
       </c>
       <c r="C7" s="7">
         <v>464</v>
@@ -1086,52 +1087,52 @@
         <v>464</v>
       </c>
       <c r="K7" s="7">
-        <v>464</v>
+        <v>375.46618401444209</v>
       </c>
       <c r="L7" s="7">
-        <v>464</v>
+        <v>70</v>
       </c>
       <c r="M7" s="7">
-        <v>464</v>
+        <v>70</v>
       </c>
       <c r="N7" s="7">
-        <v>464</v>
+        <v>70</v>
       </c>
       <c r="O7" s="7">
-        <v>464</v>
+        <v>70</v>
       </c>
       <c r="P7" s="7">
-        <v>464</v>
+        <v>316.57958668622592</v>
       </c>
       <c r="Q7" s="7">
-        <v>464</v>
+        <v>177.36395945306248</v>
       </c>
       <c r="R7" s="7">
-        <v>464</v>
+        <v>70</v>
       </c>
       <c r="S7" s="7">
-        <v>464</v>
+        <v>70</v>
       </c>
       <c r="T7" s="7">
-        <v>464</v>
+        <v>70</v>
       </c>
       <c r="U7" s="7">
-        <v>464</v>
+        <v>74.736248586459894</v>
       </c>
       <c r="V7" s="7">
-        <v>464</v>
+        <v>73.591961217307173</v>
       </c>
       <c r="W7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="X7" s="7">
-        <v>464</v>
+        <v>70.180390886334806</v>
       </c>
       <c r="Y7" s="7">
-        <v>464</v>
+        <v>77.120563137821605</v>
       </c>
       <c r="Z7" s="7">
-        <v>464</v>
+        <v>70</v>
       </c>
       <c r="AA7" s="8">
         <v>0</v>
@@ -1148,64 +1149,64 @@
         <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="E8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="F8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="G8" s="7">
-        <v>101.5</v>
+        <v>42.093879426591023</v>
       </c>
       <c r="H8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="K8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="L8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="M8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="P8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="R8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="S8" s="7">
         <v>0</v>
       </c>
       <c r="T8" s="7">
-        <v>101.5</v>
+        <v>15</v>
       </c>
       <c r="U8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="V8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="W8" s="7">
-        <v>38.087889959489075</v>
+        <v>0</v>
       </c>
       <c r="X8" s="7">
         <v>0</v>
@@ -1228,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="7">
-        <v>13.000000000000002</v>
+        <v>84.6</v>
       </c>
       <c r="D9" s="7">
         <v>84.6</v>
@@ -1249,7 +1250,7 @@
         <v>84.6</v>
       </c>
       <c r="J9" s="7">
-        <v>84.6</v>
+        <v>80.386779221049665</v>
       </c>
       <c r="K9" s="7">
         <v>84.6</v>
@@ -1282,22 +1283,22 @@
         <v>84.6</v>
       </c>
       <c r="U9" s="7">
-        <v>84.6</v>
+        <v>82.916288354089829</v>
       </c>
       <c r="V9" s="7">
-        <v>84.6</v>
+        <v>13.000000000000002</v>
       </c>
       <c r="W9" s="7">
-        <v>84.6</v>
+        <v>13</v>
       </c>
       <c r="X9" s="7">
-        <v>84.6</v>
+        <v>13.000000000000002</v>
       </c>
       <c r="Y9" s="7">
-        <v>84.6</v>
+        <v>13</v>
       </c>
       <c r="Z9" s="7">
-        <v>84.6</v>
+        <v>13</v>
       </c>
       <c r="AA9" s="8">
         <v>0</v>
@@ -1311,13 +1312,13 @@
         <v>88</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>69.634618197440432</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="F10" s="7">
         <v>88</v>
@@ -1326,61 +1327,61 @@
         <v>88</v>
       </c>
       <c r="H10" s="7">
-        <v>88</v>
+        <v>84.261876432314565</v>
       </c>
       <c r="I10" s="7">
         <v>88</v>
       </c>
       <c r="J10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="K10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="L10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="M10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="P10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="R10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="S10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="T10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="U10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="V10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="W10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="X10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="7">
-        <v>85.51375562129715</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="7">
-        <v>16.480629421889489</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="8">
         <v>0</v>
@@ -1427,43 +1428,43 @@
         <v>650</v>
       </c>
       <c r="N11" s="7">
-        <v>650</v>
+        <v>376.73328663132179</v>
       </c>
       <c r="O11" s="7">
-        <v>650</v>
+        <v>196.9663196290264</v>
       </c>
       <c r="P11" s="7">
-        <v>650</v>
+        <v>98</v>
       </c>
       <c r="Q11" s="7">
-        <v>650</v>
+        <v>98</v>
       </c>
       <c r="R11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="S11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="T11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="U11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="V11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="W11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="X11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="8">
         <v>0</v>
@@ -1501,52 +1502,52 @@
         <v>186</v>
       </c>
       <c r="K12" s="7">
-        <v>186</v>
+        <v>104.38030718246284</v>
       </c>
       <c r="L12" s="7">
-        <v>186</v>
+        <v>32.64424948023759</v>
       </c>
       <c r="M12" s="7">
-        <v>186</v>
+        <v>39.712162225497082</v>
       </c>
       <c r="N12" s="7">
-        <v>186</v>
+        <v>86.34992753893107</v>
       </c>
       <c r="O12" s="7">
-        <v>186</v>
+        <v>53.468893468759262</v>
       </c>
       <c r="P12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="R12" s="7">
-        <v>186</v>
+        <v>28</v>
       </c>
       <c r="S12" s="7">
-        <v>186</v>
+        <v>29.396630603979872</v>
       </c>
       <c r="T12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="U12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="V12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="W12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="X12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="8">
         <v>0</v>
@@ -1560,70 +1561,70 @@
         <v>154</v>
       </c>
       <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
         <v>154</v>
       </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
       <c r="E13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="F13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="G13" s="7">
         <v>154</v>
       </c>
       <c r="H13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="K13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="L13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="M13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="P13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="R13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="S13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="T13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="U13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="V13" s="7">
-        <v>126.02157994994468</v>
+        <v>0</v>
       </c>
       <c r="W13" s="7">
         <v>0</v>
       </c>
       <c r="X13" s="7">
-        <v>130.41031219811885</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="7">
         <v>0</v>
@@ -1646,10 +1647,10 @@
         <v>150</v>
       </c>
       <c r="D14" s="7">
-        <v>120.52511830093437</v>
+        <v>150</v>
       </c>
       <c r="E14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7">
         <v>150</v>
@@ -1667,52 +1668,52 @@
         <v>150</v>
       </c>
       <c r="K14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="L14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="M14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="P14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="R14" s="7">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="S14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="T14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="U14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="V14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="W14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="X14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="8">
         <v>0</v>
@@ -1726,16 +1727,16 @@
         <v>1848</v>
       </c>
       <c r="C15" s="7">
-        <v>1848</v>
+        <v>856.16538180255702</v>
       </c>
       <c r="D15" s="7">
-        <v>1848</v>
+        <v>0</v>
       </c>
       <c r="E15" s="7">
-        <v>1267.9555255442583</v>
+        <v>0</v>
       </c>
       <c r="F15" s="7">
-        <v>621.34250414967335</v>
+        <v>0</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -1809,13 +1810,13 @@
         <v>656.1</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="E16" s="7">
-        <v>591.65057745573904</v>
+        <v>656.1</v>
       </c>
       <c r="F16" s="7">
         <v>656.1</v>
@@ -1827,58 +1828,58 @@
         <v>656.1</v>
       </c>
       <c r="I16" s="7">
-        <v>656.1</v>
+        <v>204.63990573415393</v>
       </c>
       <c r="J16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="U16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="V16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="W16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="X16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="8">
         <v>0</v>
@@ -1895,64 +1896,64 @@
         <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="E17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="F17" s="7">
-        <v>10.579953777321862</v>
+        <v>50.3</v>
       </c>
       <c r="G17" s="7">
         <v>50.3</v>
       </c>
       <c r="H17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="K17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="L17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="M17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="P17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="R17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="S17" s="7">
-        <v>28.366370434874398</v>
+        <v>0</v>
       </c>
       <c r="T17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="U17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="V17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="W17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="X17" s="7">
         <v>0</v>
@@ -1978,7 +1979,7 @@
         <v>67</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E18" s="7">
         <v>67</v>
@@ -1996,55 +1997,55 @@
         <v>67</v>
       </c>
       <c r="J18" s="7">
-        <v>67</v>
+        <v>65.29900368497897</v>
       </c>
       <c r="K18" s="7">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="L18" s="7">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="M18" s="7">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="N18" s="7">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="O18" s="7">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="P18" s="7">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="Q18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="R18" s="7">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="S18" s="7">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="T18" s="7">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="U18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="V18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="W18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="X18" s="7">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="Y18" s="7">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="Z18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="8">
         <v>0</v>
@@ -2061,70 +2062,70 @@
         <v>257</v>
       </c>
       <c r="D19" s="7">
-        <v>257</v>
+        <v>39</v>
       </c>
       <c r="E19" s="7">
-        <v>257</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="G19" s="7">
-        <v>171.84029741107224</v>
+        <v>0</v>
       </c>
       <c r="H19" s="7">
-        <v>39.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>39.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7">
-        <v>39.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="K19" s="7">
-        <v>39.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="L19" s="7">
-        <v>39.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="M19" s="7">
-        <v>39.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>39.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7">
-        <v>39.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="P19" s="7">
-        <v>39.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="7">
-        <v>39.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="R19" s="7">
         <v>0</v>
       </c>
       <c r="S19" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="T19" s="7">
-        <v>169.08551776878789</v>
+        <v>0</v>
       </c>
       <c r="U19" s="7">
-        <v>158.32540032288625</v>
+        <v>0</v>
       </c>
       <c r="V19" s="7">
-        <v>61.054911659328354</v>
+        <v>0</v>
       </c>
       <c r="W19" s="7">
-        <v>75.852590074266118</v>
+        <v>0</v>
       </c>
       <c r="X19" s="7">
         <v>0</v>
       </c>
       <c r="Y19" s="7">
-        <v>47.218760842125903</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="7">
         <v>0</v>
@@ -2144,49 +2145,49 @@
         <v>2269.6</v>
       </c>
       <c r="D20" s="7">
-        <v>2269.6</v>
+        <v>1690.4693223138331</v>
       </c>
       <c r="E20" s="7">
-        <v>2269.6</v>
+        <v>859.95008829938843</v>
       </c>
       <c r="F20" s="7">
-        <v>2269.6</v>
+        <v>359.82559045302827</v>
       </c>
       <c r="G20" s="7">
-        <v>2269.6</v>
+        <v>0</v>
       </c>
       <c r="H20" s="7">
-        <v>2215.4833393699464</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>1956.0629268081825</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7">
-        <v>1736.8335822236368</v>
+        <v>0</v>
       </c>
       <c r="K20" s="7">
-        <v>1446.3745476495669</v>
+        <v>0</v>
       </c>
       <c r="L20" s="7">
-        <v>1300.8972959466228</v>
+        <v>0</v>
       </c>
       <c r="M20" s="7">
-        <v>1080.045310749194</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>891.08162902853746</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7">
-        <v>732.20089290295709</v>
+        <v>0</v>
       </c>
       <c r="P20" s="7">
-        <v>601.69436279143247</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="7">
-        <v>388.77416931057087</v>
+        <v>0</v>
       </c>
       <c r="R20" s="7">
-        <v>350.9714190233999</v>
+        <v>0</v>
       </c>
       <c r="S20" s="7">
         <v>0</v>
@@ -2221,7 +2222,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6">
-        <v>26.670688933635006</v>
+        <v>26.246758262386479</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -2310,10 +2311,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="E22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="F22" s="7">
         <v>398.3</v>
@@ -2322,61 +2323,61 @@
         <v>398.3</v>
       </c>
       <c r="H22" s="7">
-        <v>398.3</v>
+        <v>151.61465083326357</v>
       </c>
       <c r="I22" s="7">
-        <v>398.3</v>
+        <v>145.44731541711573</v>
       </c>
       <c r="J22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="K22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="L22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="M22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="P22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="R22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="S22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="T22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="U22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="V22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="W22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="X22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="7">
-        <v>298.57687258982151</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="7">
-        <v>292.24594413283467</v>
+        <v>0</v>
       </c>
       <c r="AA22" s="8">
         <v>0</v>
@@ -2473,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D24" s="7">
         <v>25</v>
@@ -2545,7 +2546,7 @@
         <v>25</v>
       </c>
       <c r="AA24" s="8">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.35">
@@ -2556,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D25" s="7">
         <v>70</v>
@@ -2628,7 +2629,7 @@
         <v>70</v>
       </c>
       <c r="AA25" s="8">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.35">
@@ -2639,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>30.6</v>
       </c>
       <c r="D26" s="7">
         <v>30.6</v>
@@ -2722,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D27" s="7">
         <v>10</v>
@@ -2805,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D28" s="7">
         <v>9.9999999999999858</v>
@@ -2888,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D29" s="7">
         <v>10</v>
@@ -2942,7 +2943,7 @@
         <v>10</v>
       </c>
       <c r="U29" s="7">
-        <v>10</v>
+        <v>3.6321921072951113</v>
       </c>
       <c r="V29" s="7">
         <v>10</v>
@@ -3137,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>20.200000000000003</v>
       </c>
       <c r="D32" s="7">
         <v>20.199999999999996</v>
@@ -3220,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D33" s="7">
         <v>70</v>
@@ -3292,7 +3293,7 @@
         <v>70</v>
       </c>
       <c r="AA33" s="8">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.35">
@@ -3469,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D36" s="7">
         <v>10</v>
@@ -3541,7 +3542,7 @@
         <v>10</v>
       </c>
       <c r="AA36" s="8">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.35">
@@ -3552,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D37" s="7">
         <v>10</v>
@@ -3624,7 +3625,7 @@
         <v>10</v>
       </c>
       <c r="AA37" s="8">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.35">
@@ -3635,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D38" s="7">
         <v>10</v>
@@ -3707,7 +3708,7 @@
         <v>10</v>
       </c>
       <c r="AA38" s="8">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.35">
@@ -3718,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="7">
-        <v>0</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="D39" s="7">
         <v>10.099999999999994</v>
@@ -3790,7 +3791,7 @@
         <v>10.099999999999994</v>
       </c>
       <c r="AA39" s="8">
-        <v>10.100000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.35">
@@ -3801,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="7">
-        <v>0</v>
+        <v>10.1</v>
       </c>
       <c r="D40" s="7">
         <v>10.1</v>
@@ -3884,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="7">
-        <v>1.6767626233960868</v>
+        <v>10</v>
       </c>
       <c r="D41" s="7">
         <v>10</v>
@@ -4053,76 +4054,76 @@
         <v>0</v>
       </c>
       <c r="D43" s="7">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E43" s="7">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="F43" s="7">
-        <v>0</v>
+        <v>2150</v>
       </c>
       <c r="G43" s="7">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="H43" s="7">
-        <v>350</v>
+        <v>3500</v>
       </c>
       <c r="I43" s="7">
-        <v>650</v>
+        <v>4100</v>
       </c>
       <c r="J43" s="7">
-        <v>950</v>
+        <v>4600</v>
       </c>
       <c r="K43" s="7">
-        <v>1200</v>
+        <v>5050</v>
       </c>
       <c r="L43" s="7">
-        <v>1500</v>
+        <v>5500</v>
       </c>
       <c r="M43" s="7">
-        <v>1750</v>
+        <v>5900</v>
       </c>
       <c r="N43" s="7">
-        <v>2000</v>
+        <v>6250</v>
       </c>
       <c r="O43" s="7">
-        <v>2250</v>
+        <v>6500</v>
       </c>
       <c r="P43" s="7">
-        <v>2500</v>
+        <v>6550</v>
       </c>
       <c r="Q43" s="7">
-        <v>2700</v>
+        <v>6550</v>
       </c>
       <c r="R43" s="7">
-        <v>2950</v>
+        <v>6550</v>
       </c>
       <c r="S43" s="7">
-        <v>3200</v>
+        <v>6544.7467861352543</v>
       </c>
       <c r="T43" s="7">
-        <v>3400</v>
+        <v>6550</v>
       </c>
       <c r="U43" s="7">
-        <v>3650</v>
+        <v>6550</v>
       </c>
       <c r="V43" s="7">
-        <v>3850</v>
+        <v>6459.7137332805532</v>
       </c>
       <c r="W43" s="7">
-        <v>4100</v>
+        <v>6453.4518995188846</v>
       </c>
       <c r="X43" s="7">
-        <v>4300</v>
+        <v>6441.2943514102553</v>
       </c>
       <c r="Y43" s="7">
-        <v>4550</v>
+        <v>6102.9888259154241</v>
       </c>
       <c r="Z43" s="7">
-        <v>4750</v>
+        <v>6107.5265735547255</v>
       </c>
       <c r="AA43" s="8">
-        <v>5698.6405127167163</v>
+        <v>6202.3041794508499</v>
       </c>
       <c r="AB43" t="s">
         <v>15</v>
@@ -4172,43 +4173,43 @@
         <v>0</v>
       </c>
       <c r="O44" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P44" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q44" s="7">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="R44" s="7">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="S44" s="7">
-        <v>0</v>
+        <v>760</v>
       </c>
       <c r="T44" s="7">
-        <v>10</v>
+        <v>900</v>
       </c>
       <c r="U44" s="7">
-        <v>10</v>
+        <v>1030</v>
       </c>
       <c r="V44" s="7">
-        <v>10</v>
+        <v>1298.6707971114138</v>
       </c>
       <c r="W44" s="7">
-        <v>10</v>
+        <v>1412.9358490078021</v>
       </c>
       <c r="X44" s="7">
-        <v>10</v>
+        <v>1529.9080020574711</v>
       </c>
       <c r="Y44" s="7">
-        <v>10</v>
+        <v>1970</v>
       </c>
       <c r="Z44" s="7">
-        <v>10</v>
+        <v>2060</v>
       </c>
       <c r="AA44" s="8">
-        <v>2630</v>
+        <v>2331.4363332658663</v>
       </c>
       <c r="AB44" t="s">
         <v>16</v>
@@ -4545,13 +4546,13 @@
         <v>665.6</v>
       </c>
       <c r="X50" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="Y50" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="AA50" s="8">
         <v>0</v>
@@ -4577,34 +4578,34 @@
         <v>0</v>
       </c>
       <c r="G51" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="H51" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="I51" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="J51" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="K51" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="L51" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="M51" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="N51" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="O51" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="P51" s="7">
-        <v>0</v>
+        <v>37.450391118073526</v>
       </c>
       <c r="Q51" s="7">
         <v>0</v>
@@ -4613,28 +4614,28 @@
         <v>0</v>
       </c>
       <c r="S51" s="7">
-        <v>45.308185217437426</v>
+        <v>46.5</v>
       </c>
       <c r="T51" s="7">
-        <v>46.500000000000021</v>
+        <v>46.5</v>
       </c>
       <c r="U51" s="7">
-        <v>46.500000000000078</v>
+        <v>33.52541871435335</v>
       </c>
       <c r="V51" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="W51" s="7">
-        <v>46.5</v>
+        <v>42.54214401012689</v>
       </c>
       <c r="X51" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="Y51" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="Z51" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="AA51" s="8">
         <v>0</v>
@@ -4645,7 +4646,7 @@
         <v>4</v>
       </c>
       <c r="B52" s="6">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="C52" s="7">
         <v>212</v>
@@ -4705,7 +4706,7 @@
         <v>212</v>
       </c>
       <c r="V52" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="W52" s="7">
         <v>212</v>
@@ -4714,10 +4715,10 @@
         <v>212</v>
       </c>
       <c r="Y52" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="AA52" s="8">
         <v>0</v>
@@ -4743,55 +4744,55 @@
         <v>0</v>
       </c>
       <c r="G53" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="H53" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="I53" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="J53" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="K53" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="L53" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="M53" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="N53" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="O53" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="P53" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="Q53" s="7">
-        <v>0</v>
+        <v>389.87624463813569</v>
       </c>
       <c r="R53" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="S53" s="7">
         <v>464</v>
       </c>
       <c r="T53" s="7">
-        <v>463.99999999999977</v>
+        <v>464</v>
       </c>
       <c r="U53" s="7">
         <v>464</v>
       </c>
       <c r="V53" s="7">
-        <v>464</v>
+        <v>461.93294748278197</v>
       </c>
       <c r="W53" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="X53" s="7">
         <v>464</v>
@@ -4800,7 +4801,7 @@
         <v>464</v>
       </c>
       <c r="Z53" s="7">
-        <v>464</v>
+        <v>459.19797206641749</v>
       </c>
       <c r="AA53" s="8">
         <v>0</v>
@@ -4865,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="T54" s="7">
-        <v>0</v>
+        <v>27.817758884393811</v>
       </c>
       <c r="U54" s="7">
         <v>0</v>
@@ -5108,31 +5109,31 @@
         <v>650</v>
       </c>
       <c r="R57" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="S57" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="T57" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="U57" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="V57" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="W57" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="X57" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="AA57" s="8">
         <v>0</v>
@@ -5158,31 +5159,31 @@
         <v>0</v>
       </c>
       <c r="G58" s="7">
-        <v>0</v>
+        <v>6.5163780145016261</v>
       </c>
       <c r="H58" s="7">
-        <v>0</v>
+        <v>26.282325416631807</v>
       </c>
       <c r="I58" s="7">
-        <v>0</v>
+        <v>46.22616634538133</v>
       </c>
       <c r="J58" s="7">
-        <v>0</v>
+        <v>66.349501842489531</v>
       </c>
       <c r="K58" s="7">
-        <v>0</v>
+        <v>86.653947359071765</v>
       </c>
       <c r="L58" s="7">
-        <v>0</v>
+        <v>107.14113288530302</v>
       </c>
       <c r="M58" s="7">
-        <v>0</v>
+        <v>127.81270308127063</v>
       </c>
       <c r="N58" s="7">
-        <v>0</v>
+        <v>148.67031740900131</v>
       </c>
       <c r="O58" s="7">
-        <v>0</v>
+        <v>149.7156502656826</v>
       </c>
       <c r="P58" s="7">
         <v>0</v>
@@ -5191,31 +5192,31 @@
         <v>0</v>
       </c>
       <c r="R58" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="S58" s="7">
-        <v>0</v>
+        <v>145.80818521743771</v>
       </c>
       <c r="T58" s="7">
-        <v>10.817758884394168</v>
+        <v>0</v>
       </c>
       <c r="U58" s="7">
-        <v>33.025418714353229</v>
+        <v>0</v>
       </c>
       <c r="V58" s="7">
-        <v>55.432947482789984</v>
+        <v>0</v>
       </c>
       <c r="W58" s="7">
-        <v>78.042144010127004</v>
+        <v>0</v>
       </c>
       <c r="X58" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="7">
-        <v>123.87281671597373</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="AA58" s="8">
         <v>0</v>
@@ -5357,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="R60" s="7">
-        <v>0</v>
+        <v>144.49493083987886</v>
       </c>
       <c r="S60" s="7">
         <v>0</v>
@@ -5449,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="U61" s="7">
-        <v>3.4816594052244909E-13</v>
+        <v>0</v>
       </c>
       <c r="V61" s="7">
         <v>0</v>
@@ -5541,13 +5542,13 @@
         <v>0</v>
       </c>
       <c r="X62" s="7">
-        <v>171.85482330621812</v>
+        <v>0</v>
       </c>
       <c r="Y62" s="7">
         <v>0</v>
       </c>
       <c r="Z62" s="7">
-        <v>218.09797206641741</v>
+        <v>0</v>
       </c>
       <c r="AA62" s="8">
         <v>0</v>
@@ -5656,64 +5657,64 @@
         <v>0</v>
       </c>
       <c r="G64" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="H64" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I64" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J64" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K64" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="L64" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="M64" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="N64" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="O64" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="P64" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="Q64" s="7">
         <v>0</v>
       </c>
       <c r="R64" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="S64" s="7">
         <v>67</v>
       </c>
       <c r="T64" s="7">
-        <v>66.999999999999929</v>
+        <v>67</v>
       </c>
       <c r="U64" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="V64" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="W64" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="X64" s="7">
-        <v>67</v>
+        <v>66.954823306218259</v>
       </c>
       <c r="Y64" s="7">
-        <v>67</v>
+        <v>61.972816715973295</v>
       </c>
       <c r="Z64" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="AA64" s="8">
         <v>0</v>
@@ -5736,64 +5737,64 @@
         <v>257</v>
       </c>
       <c r="F65" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="G65" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="H65" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="I65" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="J65" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="K65" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="L65" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="M65" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="N65" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="O65" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="P65" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="R65" s="7">
         <v>0</v>
       </c>
       <c r="S65" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="T65" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="U65" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="V65" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="W65" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="X65" s="7">
         <v>0</v>
       </c>
       <c r="Y65" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="Z65" s="7">
         <v>0</v>
@@ -5807,67 +5808,67 @@
         <v>18</v>
       </c>
       <c r="B66" s="6">
-        <v>1631</v>
+        <v>1843</v>
       </c>
       <c r="C66" s="7">
         <v>249.69999999999948</v>
       </c>
       <c r="D66" s="7">
-        <v>268.77009999999956</v>
+        <v>268.7700999999995</v>
       </c>
       <c r="E66" s="7">
-        <v>288.01183089999921</v>
+        <v>288.01183089999927</v>
       </c>
       <c r="F66" s="7">
-        <v>307.42673737809878</v>
+        <v>564.42673737809878</v>
       </c>
       <c r="G66" s="7">
-        <v>327.01637801450141</v>
+        <v>0</v>
       </c>
       <c r="H66" s="7">
-        <v>346.78232541663152</v>
+        <v>0</v>
       </c>
       <c r="I66" s="7">
-        <v>366.72616634538105</v>
+        <v>0</v>
       </c>
       <c r="J66" s="7">
-        <v>386.84950184248936</v>
+        <v>0</v>
       </c>
       <c r="K66" s="7">
-        <v>407.15394735907165</v>
+        <v>0</v>
       </c>
       <c r="L66" s="7">
-        <v>427.64113288530291</v>
+        <v>0</v>
       </c>
       <c r="M66" s="7">
-        <v>448.3127030812704</v>
+        <v>0</v>
       </c>
       <c r="N66" s="7">
-        <v>469.17031740900126</v>
+        <v>0</v>
       </c>
       <c r="O66" s="7">
-        <v>490.21565026568237</v>
+        <v>0</v>
       </c>
       <c r="P66" s="7">
-        <v>511.45039111807336</v>
+        <v>0</v>
       </c>
       <c r="Q66" s="7">
-        <v>532.87624463813563</v>
+        <v>0</v>
       </c>
       <c r="R66" s="7">
-        <v>811.49493083987886</v>
+        <v>0</v>
       </c>
       <c r="S66" s="7">
         <v>0</v>
       </c>
       <c r="T66" s="7">
-        <v>1.1368683772161603E-13</v>
+        <v>0</v>
       </c>
       <c r="U66" s="7">
         <v>0</v>
       </c>
       <c r="V66" s="7">
-        <v>-7.9580786405131221E-12</v>
+        <v>0</v>
       </c>
       <c r="W66" s="7">
         <v>0</v>
@@ -7841,40 +7842,40 @@
         <v>0</v>
       </c>
       <c r="O90" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P90" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q90" s="7">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="R90" s="7">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="S90" s="7">
-        <v>0</v>
+        <v>760</v>
       </c>
       <c r="T90" s="7">
-        <v>10</v>
+        <v>900</v>
       </c>
       <c r="U90" s="7">
-        <v>10</v>
+        <v>1030</v>
       </c>
       <c r="V90" s="7">
-        <v>10</v>
+        <v>1300</v>
       </c>
       <c r="W90" s="7">
-        <v>10</v>
+        <v>1530</v>
       </c>
       <c r="X90" s="7">
-        <v>10</v>
+        <v>1730</v>
       </c>
       <c r="Y90" s="7">
-        <v>10</v>
+        <v>1970</v>
       </c>
       <c r="Z90" s="7">
-        <v>10</v>
+        <v>2060</v>
       </c>
       <c r="AA90" s="8">
         <v>2627.2321538150145</v>
@@ -7984,82 +7985,82 @@
         <v>1</v>
       </c>
       <c r="B95" s="3">
-        <v>130.97643702212164</v>
+        <v>131.1177472458713</v>
       </c>
       <c r="C95" s="4">
-        <v>238.8321582510689</v>
+        <v>519.47307879829384</v>
       </c>
       <c r="D95" s="4">
-        <v>366.23840446604299</v>
+        <v>765.69870922872087</v>
       </c>
       <c r="E95" s="4">
-        <v>445.3803443500006</v>
+        <v>504.73438358353587</v>
       </c>
       <c r="F95" s="4">
-        <v>626.31845204159231</v>
+        <v>213.56490924947218</v>
       </c>
       <c r="G95" s="4">
-        <v>982.41113455139418</v>
+        <v>-70.442099644914833</v>
       </c>
       <c r="H95" s="4">
-        <v>841.04570833496518</v>
+        <v>-305.79806215280684</v>
       </c>
       <c r="I95" s="4">
-        <v>757.43494058201111</v>
+        <v>-372.85312611040291</v>
       </c>
       <c r="J95" s="4">
-        <v>660.69639202252074</v>
+        <v>-505.85874846459205</v>
       </c>
       <c r="K95" s="4">
-        <v>621.3060718220853</v>
+        <v>-587.22261708303461</v>
       </c>
       <c r="L95" s="4">
-        <v>500.52926734574658</v>
+        <v>-808.66780032553697</v>
       </c>
       <c r="M95" s="4">
-        <v>438.48728437217329</v>
+        <v>-1049.0390535284255</v>
       </c>
       <c r="N95" s="4">
-        <v>366.09493310398989</v>
+        <v>-1100</v>
       </c>
       <c r="O95" s="4">
-        <v>283.95651109753805</v>
+        <v>-1100</v>
       </c>
       <c r="P95" s="4">
-        <v>192.64413241329942</v>
+        <v>-1059.8577466562231</v>
       </c>
       <c r="Q95" s="4">
-        <v>162.42297718701309</v>
+        <v>-1091.0522997094629</v>
       </c>
       <c r="R95" s="4">
-        <v>53.785256585351021</v>
+        <v>-1097.2909370735151</v>
       </c>
       <c r="S95" s="4">
-        <v>-41.526512318802133</v>
+        <v>-1100</v>
       </c>
       <c r="T95" s="4">
-        <v>-123.18520092967151</v>
+        <v>-1097.5566950067421</v>
       </c>
       <c r="U95" s="4">
-        <v>-252.95367203609862</v>
+        <v>-1100</v>
       </c>
       <c r="V95" s="4">
-        <v>-301.59993596223279</v>
+        <v>-1100</v>
       </c>
       <c r="W95" s="4">
-        <v>-355.27098067623211</v>
+        <v>-1100</v>
       </c>
       <c r="X95" s="4">
-        <v>-499.27463983941919</v>
+        <v>-1100</v>
       </c>
       <c r="Y95" s="4">
-        <v>-526.97265273668881</v>
+        <v>-986.63332553632222</v>
       </c>
       <c r="Z95" s="4">
-        <v>-607.61835661131897</v>
+        <v>-981.48742427019033</v>
       </c>
       <c r="AA95" s="5">
-        <v>-863.7454444219552</v>
+        <v>-1100</v>
       </c>
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.35">
@@ -8067,82 +8068,82 @@
         <v>2</v>
       </c>
       <c r="B96" s="6">
-        <v>-374.9235629778783</v>
+        <v>-374.78225275412893</v>
       </c>
       <c r="C96" s="7">
-        <v>-180.19107912553454</v>
+        <v>-350.96153939914706</v>
       </c>
       <c r="D96" s="7">
-        <v>-229.71997723302178</v>
+        <v>-288.68479077127756</v>
       </c>
       <c r="E96" s="7">
-        <v>-291.56660415000079</v>
+        <v>268.28133208353711</v>
       </c>
       <c r="F96" s="7">
-        <v>-575.15027277223271</v>
+        <v>694.75368028597393</v>
       </c>
       <c r="G96" s="7">
-        <v>-719.04949547277397</v>
+        <v>1028.0972703309155</v>
       </c>
       <c r="H96" s="7">
-        <v>-543.3581673594208</v>
+        <v>1305.7980621528068</v>
       </c>
       <c r="I96" s="7">
-        <v>-360.20866999362477</v>
+        <v>1354.0431690481153</v>
       </c>
       <c r="J96" s="7">
-        <v>-190.48611104829354</v>
+        <v>1505.8587484645921</v>
       </c>
       <c r="K96" s="7">
-        <v>-13.717173776367758</v>
+        <v>1586.0344445009755</v>
       </c>
       <c r="L96" s="7">
-        <v>131.36071253690807</v>
+        <v>1708.7078943458621</v>
       </c>
       <c r="M96" s="7">
-        <v>284.86611257005734</v>
+        <v>1840.9519368949539</v>
       </c>
       <c r="N96" s="7">
-        <v>427.71107075565351</v>
+        <v>1878.5993518219175</v>
       </c>
       <c r="O96" s="7">
-        <v>560.49709398806692</v>
+        <v>1880.8757959883146</v>
       </c>
       <c r="P96" s="7">
-        <v>683.79348054984337</v>
+        <v>1783.191601480321</v>
       </c>
       <c r="Q96" s="7">
-        <v>817.86256945678645</v>
+        <v>1716.2872925603106</v>
       </c>
       <c r="R96" s="7">
-        <v>923.19370518555309</v>
+        <v>1627.0175115266868</v>
       </c>
       <c r="S96" s="7">
-        <v>1041.5265123188021</v>
+        <v>1561.0964413768386</v>
       </c>
       <c r="T96" s="7">
-        <v>1123.1852009296715</v>
+        <v>1502.7137068526008</v>
       </c>
       <c r="U96" s="7">
-        <v>1206.403963439979</v>
+        <v>1456.8898275833728</v>
       </c>
       <c r="V96" s="7">
-        <v>1292.4333981830746</v>
+        <v>1335.6254874759161</v>
       </c>
       <c r="W96" s="7">
-        <v>1325.0587793068896</v>
+        <v>1291.6816595020064</v>
       </c>
       <c r="X96" s="7">
-        <v>1473.4443001816696</v>
+        <v>1241.502979233225</v>
       </c>
       <c r="Y96" s="7">
-        <v>1526.9726527366884</v>
+        <v>978.20080585247911</v>
       </c>
       <c r="Z96" s="7">
-        <v>1607.6183566113186</v>
+        <v>949.17586250717181</v>
       </c>
       <c r="AA96" s="8">
-        <v>618.9748119364026</v>
+        <v>886.38392309249184</v>
       </c>
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.35">
@@ -8150,82 +8151,82 @@
         <v>3</v>
       </c>
       <c r="B97" s="9">
-        <v>243.94712595575669</v>
+        <v>243.66450550825761</v>
       </c>
       <c r="C97" s="10">
-        <v>-58.641079125534361</v>
+        <v>-168.51153939914678</v>
       </c>
       <c r="D97" s="10">
-        <v>-136.51842723302121</v>
+        <v>-477.01391845744354</v>
       </c>
       <c r="E97" s="10">
-        <v>-153.81374019999981</v>
+        <v>-773.01571566707298</v>
       </c>
       <c r="F97" s="10">
-        <v>-51.168179269359598</v>
+        <v>-908.31858953544611</v>
       </c>
       <c r="G97" s="10">
-        <v>-263.36163907862021</v>
+        <v>-957.65517068600093</v>
       </c>
       <c r="H97" s="10">
-        <v>-297.68754097554438</v>
+        <v>-1000</v>
       </c>
       <c r="I97" s="10">
-        <v>-397.22627058838634</v>
+        <v>-981.19004293771241</v>
       </c>
       <c r="J97" s="10">
-        <v>-470.21028097422743</v>
+        <v>-1000</v>
       </c>
       <c r="K97" s="10">
-        <v>-607.58889804571754</v>
+        <v>-998.81182741794089</v>
       </c>
       <c r="L97" s="10">
-        <v>-631.88997988265464</v>
+        <v>-900.04009402032466</v>
       </c>
       <c r="M97" s="10">
-        <v>-723.35339694223057</v>
+        <v>-791.91288336652838</v>
       </c>
       <c r="N97" s="10">
-        <v>-793.8060038596434</v>
+        <v>-778.59935182191748</v>
       </c>
       <c r="O97" s="10">
-        <v>-844.45360508560498</v>
+        <v>-780.87579598831462</v>
       </c>
       <c r="P97" s="10">
-        <v>-876.43761296314278</v>
+        <v>-723.33385482409813</v>
       </c>
       <c r="Q97" s="10">
-        <v>-980.28554664379953</v>
+        <v>-625.2349928508479</v>
       </c>
       <c r="R97" s="10">
-        <v>-976.97896177090411</v>
+        <v>-529.72657445317168</v>
       </c>
       <c r="S97" s="10">
-        <v>-1000</v>
+        <v>-461.09644137683813</v>
       </c>
       <c r="T97" s="10">
-        <v>-1000</v>
+        <v>-405.15701184585896</v>
       </c>
       <c r="U97" s="10">
-        <v>-953.45029140388021</v>
+        <v>-356.88982758337283</v>
       </c>
       <c r="V97" s="10">
-        <v>-990.83346222084174</v>
+        <v>-235.62548747591609</v>
       </c>
       <c r="W97" s="10">
-        <v>-969.78779863065745</v>
+        <v>-191.68165950200637</v>
       </c>
       <c r="X97" s="10">
-        <v>-974.16966034225038</v>
+        <v>-141.50297923322501</v>
       </c>
       <c r="Y97" s="10">
-        <v>-1000</v>
+        <v>8.4325196838433385</v>
       </c>
       <c r="Z97" s="10">
-        <v>-1000</v>
+        <v>32.31156176301846</v>
       </c>
       <c r="AA97" s="11">
-        <v>244.7706324855526</v>
+        <v>213.61607690750816</v>
       </c>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.35">
@@ -8243,7 +8244,7 @@
         <v>1</v>
       </c>
       <c r="B101" s="3">
-        <v>315.66666666666663</v>
+        <v>245</v>
       </c>
       <c r="C101" s="4">
         <v>351.27166666666665</v>
@@ -8258,64 +8259,64 @@
         <v>358.00645269411154</v>
       </c>
       <c r="G101" s="4">
-        <v>360.29191076835849</v>
+        <v>528.28645143019116</v>
       </c>
       <c r="H101" s="4">
-        <v>362.59793796527373</v>
+        <v>524.00382949306311</v>
       </c>
       <c r="I101" s="4">
-        <v>364.92471940696117</v>
+        <v>519.68266395850071</v>
       </c>
       <c r="J101" s="4">
-        <v>367.27244188162382</v>
+        <v>515.32260793412718</v>
       </c>
       <c r="K101" s="4">
-        <v>369.64129385855841</v>
+        <v>510.92331140553443</v>
       </c>
       <c r="L101" s="4">
-        <v>372.0314655032854</v>
+        <v>506.48442120818436</v>
       </c>
       <c r="M101" s="4">
-        <v>374.44314869281487</v>
+        <v>502.00558099905794</v>
       </c>
       <c r="N101" s="4">
-        <v>376.87653703105019</v>
+        <v>497.48643122804981</v>
       </c>
       <c r="O101" s="4">
-        <v>379.33182586432963</v>
+        <v>499.59327577576869</v>
       </c>
       <c r="P101" s="4">
-        <v>381.80921229710856</v>
+        <v>548.95934266979975</v>
       </c>
       <c r="Q101" s="4">
-        <v>384.30889520778254</v>
+        <v>514.26764342049444</v>
       </c>
       <c r="R101" s="4">
-        <v>386.83107526465255</v>
+        <v>647.9994316513596</v>
       </c>
       <c r="S101" s="4">
-        <v>559.1453500145135</v>
+        <v>727.6065598695551</v>
       </c>
       <c r="T101" s="4">
-        <v>558.50448557504785</v>
+        <v>788.04965816464392</v>
       </c>
       <c r="U101" s="4">
-        <v>553.69282594522338</v>
+        <v>777.04310508812569</v>
       </c>
       <c r="V101" s="4">
-        <v>548.83786137872789</v>
+        <v>697.12649303391856</v>
       </c>
       <c r="W101" s="4">
-        <v>543.93920213113915</v>
+        <v>630.63396480455708</v>
       </c>
       <c r="X101" s="4">
-        <v>453.32978828365276</v>
+        <v>551.91472938572554</v>
       </c>
       <c r="Y101" s="4">
-        <v>534.00922304487233</v>
+        <v>483.93349528353025</v>
       </c>
       <c r="Z101" s="4">
-        <v>443.31043938560953</v>
+        <v>485.04242076322117</v>
       </c>
       <c r="AA101" s="5">
         <v>306.51041794508501</v>
@@ -8326,7 +8327,7 @@
         <v>2</v>
       </c>
       <c r="B102" s="6">
-        <v>-734.33333333333326</v>
+        <v>-805</v>
       </c>
       <c r="C102" s="7">
         <v>-58.178333333333171</v>
@@ -8341,64 +8342,64 @@
         <v>-80.306915994937867</v>
       </c>
       <c r="G102" s="7">
-        <v>-87.816278238892238</v>
+        <v>86.694640437442104</v>
       </c>
       <c r="H102" s="7">
-        <v>-95.393224743042111</v>
+        <v>92.294992201379046</v>
       </c>
       <c r="I102" s="7">
-        <v>-103.03836376572943</v>
+        <v>97.945747131191411</v>
       </c>
       <c r="J102" s="7">
-        <v>-110.75230903962093</v>
+        <v>103.64735885537198</v>
       </c>
       <c r="K102" s="7">
-        <v>-118.53567982097748</v>
+        <v>109.40028508507032</v>
       </c>
       <c r="L102" s="7">
-        <v>-126.38910093936613</v>
+        <v>115.20498765083585</v>
       </c>
       <c r="M102" s="7">
-        <v>-134.31320284782035</v>
+        <v>121.06193253969332</v>
       </c>
       <c r="N102" s="7">
-        <v>-142.30862167345052</v>
+        <v>126.97158993255039</v>
       </c>
       <c r="O102" s="7">
-        <v>-150.37599926851158</v>
+        <v>119.60110090861008</v>
       </c>
       <c r="P102" s="7">
-        <v>-158.51598326192814</v>
+        <v>8.6341471107629673</v>
       </c>
       <c r="Q102" s="7">
-        <v>-166.72922711128538</v>
+        <v>-36.770478898573458</v>
       </c>
       <c r="R102" s="7">
-        <v>-175.0163901552869</v>
+        <v>-233.35310292870099</v>
       </c>
       <c r="S102" s="7">
-        <v>-13.608742594205182</v>
+        <v>-349.33934752172598</v>
       </c>
       <c r="T102" s="7">
-        <v>-14.436634982754981</v>
+        <v>-445.70922127755301</v>
       </c>
       <c r="U102" s="7">
-        <v>-8.1444646975998012</v>
+        <v>-467.81960426905101</v>
       </c>
       <c r="V102" s="7">
-        <v>-1.7956648798731294</v>
+        <v>-558.93998070747239</v>
       </c>
       <c r="W102" s="7">
-        <v>4.6102741362026336</v>
+        <v>-636.73710720050633</v>
       </c>
       <c r="X102" s="7">
-        <v>182.4071999367618</v>
+        <v>-726.86268226738366</v>
       </c>
       <c r="Y102" s="7">
-        <v>17.595631402859226</v>
+        <v>-806.35291307445652</v>
       </c>
       <c r="Z102" s="7">
-        <v>195.50942541881818</v>
+        <v>-816.85656526998753</v>
       </c>
       <c r="AA102" s="8">
         <v>-1007.1056589624222</v>
@@ -8409,7 +8410,7 @@
         <v>3</v>
       </c>
       <c r="B103" s="9">
-        <v>418.66666666666663</v>
+        <v>560</v>
       </c>
       <c r="C103" s="10">
         <v>-293.09333333333348</v>
@@ -8424,64 +8425,64 @@
         <v>-277.69953669917368</v>
       </c>
       <c r="G103" s="10">
-        <v>-272.47563252946628</v>
+        <v>-614.98109186763338</v>
       </c>
       <c r="H103" s="10">
-        <v>-267.20471322223165</v>
+        <v>-616.29882169444204</v>
       </c>
       <c r="I103" s="10">
-        <v>-261.88635564123177</v>
+        <v>-617.62841108969201</v>
       </c>
       <c r="J103" s="10">
-        <v>-256.52013284200285</v>
+        <v>-618.96996678949927</v>
       </c>
       <c r="K103" s="10">
-        <v>-251.10561403758089</v>
+        <v>-620.3235964906047</v>
       </c>
       <c r="L103" s="10">
-        <v>-245.64236456391927</v>
+        <v>-621.6894088590202</v>
       </c>
       <c r="M103" s="10">
-        <v>-240.12994584499455</v>
+        <v>-623.06751353875131</v>
       </c>
       <c r="N103" s="10">
-        <v>-234.5679153575997</v>
+        <v>-624.45802116060008</v>
       </c>
       <c r="O103" s="10">
-        <v>-228.95582659581805</v>
+        <v>-619.19437668437877</v>
       </c>
       <c r="P103" s="10">
-        <v>-223.29322903518045</v>
+        <v>-557.59348978056278</v>
       </c>
       <c r="Q103" s="10">
-        <v>-217.57966809649719</v>
+        <v>-477.49716452192098</v>
       </c>
       <c r="R103" s="10">
-        <v>-211.81468510936566</v>
+        <v>-414.64632872265861</v>
       </c>
       <c r="S103" s="10">
-        <v>-545.53660742030831</v>
+        <v>-378.26721234782912</v>
       </c>
       <c r="T103" s="10">
-        <v>-544.06785059229287</v>
+        <v>-342.3404368870909</v>
       </c>
       <c r="U103" s="10">
-        <v>-545.54836124762346</v>
+        <v>-309.22350081907467</v>
       </c>
       <c r="V103" s="10">
-        <v>-547.04219649885476</v>
+        <v>-138.18651232644606</v>
       </c>
       <c r="W103" s="10">
-        <v>-548.54947626734179</v>
+        <v>6.1031423959492486</v>
       </c>
       <c r="X103" s="10">
-        <v>-635.73698822041456</v>
+        <v>174.94795288165824</v>
       </c>
       <c r="Y103" s="10">
-        <v>-551.60485444773144</v>
+        <v>322.41941779092627</v>
       </c>
       <c r="Z103" s="10">
-        <v>-638.81986480442788</v>
+        <v>331.81414450676641</v>
       </c>
       <c r="AA103" s="11">
         <v>700.59524101733723</v>
@@ -8575,86 +8576,86 @@
         <v>6</v>
       </c>
       <c r="B106" s="15">
-        <v>231991.12588150357</v>
+        <v>232337.97601156379</v>
       </c>
       <c r="C106" s="16">
-        <v>190140.63153965469</v>
+        <v>178868.01833794318</v>
       </c>
       <c r="D106" s="16">
-        <v>159339.5469018147</v>
+        <v>26734319.930805065</v>
       </c>
       <c r="E106" s="16">
-        <v>148876.8699338967</v>
+        <v>44929887.883031353</v>
       </c>
       <c r="F106" s="16">
-        <v>141199.76340916852</v>
+        <v>47327429.201370098</v>
       </c>
       <c r="G106" s="16">
-        <v>135372.17299524636</v>
+        <v>47797219.81597846</v>
       </c>
       <c r="H106" s="16">
-        <v>11667050.655674972</v>
+        <v>51716614.661634952</v>
       </c>
       <c r="I106" s="16">
-        <v>12348378.054315709</v>
+        <v>50494819.782062761</v>
       </c>
       <c r="J106" s="16">
-        <v>13751260.723626044</v>
+        <v>48226806.176602289</v>
       </c>
       <c r="K106" s="16">
-        <v>13558784.138956418</v>
+        <v>46428511.624729328</v>
       </c>
       <c r="L106" s="16">
-        <v>15191540.591279879</v>
+        <v>45338069.111478627</v>
       </c>
       <c r="M106" s="16">
-        <v>14684235.406751253</v>
+        <v>43038456.236952685</v>
       </c>
       <c r="N106" s="16">
-        <v>14786955.988124127</v>
+        <v>40494968.262888253</v>
       </c>
       <c r="O106" s="16">
-        <v>14749523.58796652</v>
+        <v>38020554.265129432</v>
       </c>
       <c r="P106" s="16">
-        <v>14596589.087813787</v>
+        <v>40665089.963106111</v>
       </c>
       <c r="Q106" s="16">
-        <v>13650650.813546522</v>
+        <v>39074054.970545374</v>
       </c>
       <c r="R106" s="16">
-        <v>13830801.065545823</v>
+        <v>37244843.974598467</v>
       </c>
       <c r="S106" s="16">
-        <v>13466016.171551844</v>
+        <v>33962535.888263889</v>
       </c>
       <c r="T106" s="16">
-        <v>12859918.526223721</v>
+        <v>31349209.168412223</v>
       </c>
       <c r="U106" s="16">
-        <v>12521090.419230273</v>
+        <v>29103032.433956821</v>
       </c>
       <c r="V106" s="16">
-        <v>11619195.149856256</v>
+        <v>31066219.257415082</v>
       </c>
       <c r="W106" s="16">
-        <v>11445182.458804749</v>
+        <v>28687490.674660448</v>
       </c>
       <c r="X106" s="16">
-        <v>10600356.968824476</v>
+        <v>26517023.592867594</v>
       </c>
       <c r="Y106" s="16">
-        <v>10365533.221142804</v>
+        <v>25815627.381460711</v>
       </c>
       <c r="Z106" s="16">
-        <v>9584881.0747875217</v>
+        <v>21619979.022921167</v>
       </c>
       <c r="AA106" s="17">
-        <v>57754327.603814974</v>
+        <v>28167053.662725583</v>
       </c>
       <c r="AB106" s="18">
         <f>SUM(TotalCost)</f>
-        <v>304039191.81849897</v>
+        <v>904231022.93794632</v>
       </c>
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.35">
@@ -8748,86 +8749,86 @@
         <v>8</v>
       </c>
       <c r="B109" s="3">
-        <v>79410814.945039973</v>
+        <v>79196260.980345547</v>
       </c>
       <c r="C109" s="4">
-        <v>63008596.513607681</v>
+        <v>49011597.220977031</v>
       </c>
       <c r="D109" s="4">
-        <v>55897639.429508507</v>
+        <v>39444054.567851424</v>
       </c>
       <c r="E109" s="4">
-        <v>54564500.077389851</v>
+        <v>33663886.082231902</v>
       </c>
       <c r="F109" s="4">
-        <v>50523285.409403026</v>
+        <v>27868604.817414697</v>
       </c>
       <c r="G109" s="4">
-        <v>46943184.414359115</v>
+        <v>23423367.307944994</v>
       </c>
       <c r="H109" s="4">
-        <v>42789651.604352042</v>
+        <v>9949182.2582214996</v>
       </c>
       <c r="I109" s="4">
-        <v>41084451.188129097</v>
+        <v>7985326.2211701991</v>
       </c>
       <c r="J109" s="4">
-        <v>39344839.620549783</v>
+        <v>5459075.0236490462</v>
       </c>
       <c r="K109" s="4">
-        <v>38099783.225653768</v>
+        <v>3903081.6028209636</v>
       </c>
       <c r="L109" s="4">
-        <v>36297990.199881144</v>
+        <v>3144155.2014126806</v>
       </c>
       <c r="M109" s="4">
-        <v>34994910.735631958</v>
+        <v>3101293.8224836946</v>
       </c>
       <c r="N109" s="4">
-        <v>33665749.343199946</v>
+        <v>3310731.4831707757</v>
       </c>
       <c r="O109" s="4">
-        <v>32312324.134227134</v>
+        <v>2977522.3094059438</v>
       </c>
       <c r="P109" s="4">
-        <v>30936358.847758602</v>
+        <v>2199385.6066358062</v>
       </c>
       <c r="Q109" s="4">
-        <v>30066201.364015356</v>
+        <v>1238753.8610101088</v>
       </c>
       <c r="R109" s="4">
-        <v>28075014.638710182</v>
+        <v>1508884.0502892176</v>
       </c>
       <c r="S109" s="4">
-        <v>27637779.666487433</v>
+        <v>2062610.6985920682</v>
       </c>
       <c r="T109" s="4">
-        <v>28104427.366363555</v>
+        <v>1582312.4418347122</v>
       </c>
       <c r="U109" s="4">
-        <v>26480026.546641231</v>
+        <v>1295611.052617806</v>
       </c>
       <c r="V109" s="4">
-        <v>23842430.948070701</v>
+        <v>79937.052314070723</v>
       </c>
       <c r="W109" s="4">
-        <v>21562393.070920121</v>
+        <v>1252884.8933133609</v>
       </c>
       <c r="X109" s="4">
-        <v>18348308.303627428</v>
+        <v>267164.15096759103</v>
       </c>
       <c r="Y109" s="4">
-        <v>17639234.17504514</v>
+        <v>74601.482469535636</v>
       </c>
       <c r="Z109" s="4">
-        <v>15992996.940919366</v>
+        <v>48845.760000000002</v>
       </c>
       <c r="AA109" s="5">
         <v>0</v>
       </c>
       <c r="AB109" s="12">
         <f>SUM(B109:AA109)</f>
-        <v>917622892.70949209</v>
+        <v>304049129.94914466</v>
       </c>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.35">
@@ -8835,86 +8836,86 @@
         <v>9</v>
       </c>
       <c r="B110" s="6">
-        <v>14667374.743175231</v>
+        <v>14645277.351339288</v>
       </c>
       <c r="C110" s="7">
-        <v>13232177.66341256</v>
+        <v>10157409.364606641</v>
       </c>
       <c r="D110" s="7">
-        <v>13202905.908014387</v>
+        <v>4448155.8269535499</v>
       </c>
       <c r="E110" s="7">
-        <v>11427176.759078516</v>
+        <v>2495598.636821189</v>
       </c>
       <c r="F110" s="7">
-        <v>9446021.7217890956</v>
+        <v>1000824.6732913947</v>
       </c>
       <c r="G110" s="7">
-        <v>6871604.7774165161</v>
+        <v>146237.21522264797</v>
       </c>
       <c r="H110" s="7">
-        <v>5680751.2654034756</v>
+        <v>106268.16191048569</v>
       </c>
       <c r="I110" s="7">
-        <v>5071410.1785333026</v>
+        <v>83814.573600663905</v>
       </c>
       <c r="J110" s="7">
-        <v>4554809.8005604213</v>
+        <v>66277.304234993222</v>
       </c>
       <c r="K110" s="7">
-        <v>3876260.9785867403</v>
+        <v>50243.470512677537</v>
       </c>
       <c r="L110" s="7">
-        <v>3529848.5920510073</v>
+        <v>37081.828776051167</v>
       </c>
       <c r="M110" s="7">
-        <v>3011926.4851294304</v>
+        <v>33544.854792472674</v>
       </c>
       <c r="N110" s="7">
-        <v>2567593.2899408587</v>
+        <v>27660.194820856734</v>
       </c>
       <c r="O110" s="7">
-        <v>2192684.6676832503</v>
+        <v>20640.240606438208</v>
       </c>
       <c r="P110" s="7">
-        <v>1883259.1609973975</v>
+        <v>18033.831241308228</v>
       </c>
       <c r="Q110" s="7">
-        <v>1386087.5782639373</v>
+        <v>13136.771772362054</v>
       </c>
       <c r="R110" s="7">
-        <v>981500.62396597594</v>
+        <v>10391.301281398552</v>
       </c>
       <c r="S110" s="7">
-        <v>2198644.6980367745</v>
+        <v>9142.9197011750366</v>
       </c>
       <c r="T110" s="7">
-        <v>1497195.667705775</v>
+        <v>6083.1588251314861</v>
       </c>
       <c r="U110" s="7">
-        <v>1403701.5010519503</v>
+        <v>5283.338458724631</v>
       </c>
       <c r="V110" s="7">
-        <v>626990.14999876323</v>
+        <v>3316.8852675453695</v>
       </c>
       <c r="W110" s="7">
-        <v>739063.5950360198</v>
+        <v>3146.6558080051545</v>
       </c>
       <c r="X110" s="7">
-        <v>123335.44489582615</v>
+        <v>3088.7874138809761</v>
       </c>
       <c r="Y110" s="7">
-        <v>491512.83514318976</v>
+        <v>2543.9204436243908</v>
       </c>
       <c r="Z110" s="7">
-        <v>111619.72520274097</v>
+        <v>2044</v>
       </c>
       <c r="AA110" s="8">
         <v>0</v>
       </c>
       <c r="AB110" s="13">
         <f t="shared" ref="AB110:AB113" si="0">SUM(B110:AA110)</f>
-        <v>110775457.81107312</v>
+        <v>33395245.267702509</v>
       </c>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.35">
@@ -8922,86 +8923,86 @@
         <v>10</v>
       </c>
       <c r="B111" s="6">
-        <v>81973843561.409683</v>
+        <v>81984668287.849655</v>
       </c>
       <c r="C111" s="7">
-        <v>77551977702.482712</v>
+        <v>65587734630.279724</v>
       </c>
       <c r="D111" s="7">
-        <v>73368637900.46431</v>
+        <v>52470187704.223778</v>
       </c>
       <c r="E111" s="7">
-        <v>69410957487.382309</v>
+        <v>41976150163.379021</v>
       </c>
       <c r="F111" s="7">
-        <v>65666763854.214943</v>
+        <v>33580920130.703217</v>
       </c>
       <c r="G111" s="7">
-        <v>62124541011.685341</v>
+        <v>26864736104.562572</v>
       </c>
       <c r="H111" s="7">
-        <v>58773394170.616608</v>
+        <v>21491788883.650059</v>
       </c>
       <c r="I111" s="7">
-        <v>55603016232.907539</v>
+        <v>17193431106.920048</v>
       </c>
       <c r="J111" s="7">
-        <v>52603656090.065552</v>
+        <v>13754744885.536039</v>
       </c>
       <c r="K111" s="7">
-        <v>49766088631.792801</v>
+        <v>11003795908.428831</v>
       </c>
       <c r="L111" s="7">
-        <v>47081586372.38118</v>
+        <v>8803036726.7430649</v>
       </c>
       <c r="M111" s="7">
-        <v>44541892607.647644</v>
+        <v>7042429381.3944521</v>
       </c>
       <c r="N111" s="7">
-        <v>42139196019.848877</v>
+        <v>5633943505.1155615</v>
       </c>
       <c r="O111" s="7">
-        <v>39866106652.467781</v>
+        <v>4507154804.0924492</v>
       </c>
       <c r="P111" s="7">
-        <v>37715633180.977707</v>
+        <v>3605723843.2739592</v>
       </c>
       <c r="Q111" s="7">
-        <v>35681161409.67614</v>
+        <v>2884579074.6191673</v>
       </c>
       <c r="R111" s="7">
-        <v>33756433928.450829</v>
+        <v>2307663259.695334</v>
       </c>
       <c r="S111" s="7">
-        <v>31935530866.908764</v>
+        <v>1840771698.1115513</v>
       </c>
       <c r="T111" s="7">
-        <v>30212851686.673626</v>
+        <v>1472617358.4892411</v>
       </c>
       <c r="U111" s="7">
-        <v>28583097955.850403</v>
+        <v>1175531208.2519529</v>
       </c>
       <c r="V111" s="7">
-        <v>27041257052.676739</v>
+        <v>940424966.60156238</v>
       </c>
       <c r="W111" s="7">
-        <v>25582586748.23843</v>
+        <v>752339973.28124988</v>
       </c>
       <c r="X111" s="7">
-        <v>24202600620.830254</v>
+        <v>601871978.62499988</v>
       </c>
       <c r="Y111" s="7">
-        <v>22897054257.101185</v>
+        <v>481497582.89999992</v>
       </c>
       <c r="Z111" s="7">
-        <v>21641622074.728207</v>
+        <v>385198066.31999993</v>
       </c>
       <c r="AA111" s="8">
         <v>0</v>
       </c>
       <c r="AB111" s="13">
         <f t="shared" si="0"/>
-        <v>1139721488077.4795</v>
+        <v>408342941233.04755</v>
       </c>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.35">
@@ -9009,86 +9010,86 @@
         <v>11</v>
       </c>
       <c r="B112" s="6">
-        <v>6683510.9719839878</v>
+        <v>6681389.644961739</v>
       </c>
       <c r="C112" s="7">
-        <v>6599755.8033004701</v>
+        <v>5089910.6879425514</v>
       </c>
       <c r="D112" s="7">
-        <v>6544279.0233887741</v>
+        <v>2826385.9863402438</v>
       </c>
       <c r="E112" s="7">
-        <v>5705298.8174357796</v>
+        <v>1751043.4900144965</v>
       </c>
       <c r="F112" s="7">
-        <v>4781524.5565517489</v>
+        <v>1022523.4479039389</v>
       </c>
       <c r="G112" s="7">
-        <v>3778281.3066065237</v>
+        <v>521009.09283178009</v>
       </c>
       <c r="H112" s="7">
-        <v>3501015.5881168274</v>
+        <v>423166.9297968254</v>
       </c>
       <c r="I112" s="7">
-        <v>3166797.3239359595</v>
+        <v>343111.18398164475</v>
       </c>
       <c r="J112" s="7">
-        <v>2879371.3711778326</v>
+        <v>277067.1602619036</v>
       </c>
       <c r="K112" s="7">
-        <v>2516257.7365025789</v>
+        <v>227081.31208900345</v>
       </c>
       <c r="L112" s="7">
-        <v>2314713.5067413407</v>
+        <v>188062.87885839242</v>
       </c>
       <c r="M112" s="7">
-        <v>2032665.9212198525</v>
+        <v>157455.59680555487</v>
       </c>
       <c r="N112" s="7">
-        <v>1787764.5662852901</v>
+        <v>130235.20959812964</v>
       </c>
       <c r="O112" s="7">
-        <v>1577912.1095002273</v>
+        <v>107925.44918554535</v>
       </c>
       <c r="P112" s="7">
-        <v>1401123.5113920548</v>
+        <v>85219.83809541876</v>
       </c>
       <c r="Q112" s="7">
-        <v>1135654.3381009097</v>
+        <v>74597.24938745625</v>
       </c>
       <c r="R112" s="7">
-        <v>1015535.7440206256</v>
+        <v>65167.162329090585</v>
       </c>
       <c r="S112" s="7">
-        <v>918205.10790448519</v>
+        <v>52449.232825820785</v>
       </c>
       <c r="T112" s="7">
-        <v>785829.59529897617</v>
+        <v>42052.316363354657</v>
       </c>
       <c r="U112" s="7">
-        <v>747026.21964761836</v>
+        <v>34593.844291603818</v>
       </c>
       <c r="V112" s="7">
-        <v>600996.01909194386</v>
+        <v>18194.352856145182</v>
       </c>
       <c r="W112" s="7">
-        <v>591538.01414857048</v>
+        <v>17290.902752033508</v>
       </c>
       <c r="X112" s="7">
-        <v>476052.49032645021</v>
+        <v>14383.255724419125</v>
       </c>
       <c r="Y112" s="7">
-        <v>508691.55552251503</v>
+        <v>10172.865419598049</v>
       </c>
       <c r="Z112" s="7">
-        <v>428144.51811810891</v>
+        <v>8514.7200000000012</v>
       </c>
       <c r="AA112" s="8">
         <v>0</v>
       </c>
       <c r="AB112" s="13">
         <f t="shared" si="0"/>
-        <v>62477945.716319442</v>
+        <v>20169003.810616687</v>
       </c>
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.35">
@@ -9096,87 +9097,90 @@
         <v>12</v>
       </c>
       <c r="B113" s="9">
-        <v>954565.25811419345</v>
+        <v>954323.9115015514</v>
       </c>
       <c r="C113" s="10">
-        <v>943989.55141255865</v>
+        <v>724084.19169989647</v>
       </c>
       <c r="D113" s="10">
-        <v>940524.16925087734</v>
+        <v>387871.85582938354</v>
       </c>
       <c r="E113" s="10">
-        <v>815301.21688416321</v>
+        <v>233186.03075309278</v>
       </c>
       <c r="F113" s="10">
-        <v>676714.90575954237</v>
+        <v>129816.26575595785</v>
       </c>
       <c r="G113" s="10">
-        <v>524404.04177130712</v>
+        <v>59598.580573215862</v>
       </c>
       <c r="H113" s="10">
-        <v>485227.58759383543</v>
+        <v>49290.721455451836</v>
       </c>
       <c r="I113" s="10">
-        <v>437049.61151984037</v>
+        <v>40408.488114570246</v>
       </c>
       <c r="J113" s="10">
-        <v>395920.09887731541</v>
+        <v>32903.242062385179</v>
       </c>
       <c r="K113" s="10">
-        <v>342902.19576538401</v>
+        <v>26975.388011125433</v>
       </c>
       <c r="L113" s="10">
-        <v>314708.21569018275</v>
+        <v>22098.083857299047</v>
       </c>
       <c r="M113" s="10">
-        <v>273899.76101655624</v>
+        <v>18272.173600694357</v>
       </c>
       <c r="N113" s="10">
-        <v>238685.38043025689</v>
+        <v>15268.594601284474</v>
       </c>
       <c r="O113" s="10">
-        <v>208748.84042027534</v>
+        <v>12742.334321534789</v>
       </c>
       <c r="P113" s="10">
-        <v>183790.83558858931</v>
+        <v>10152.982055047942</v>
       </c>
       <c r="Q113" s="10">
-        <v>144985.3975877901</v>
+        <v>8812.5511636612409</v>
       </c>
       <c r="R113" s="10">
-        <v>128540.20325359893</v>
+        <v>7712.0079610489138</v>
       </c>
       <c r="S113" s="10">
-        <v>115288.34094780521</v>
+        <v>6233.8583236086861</v>
       </c>
       <c r="T113" s="10">
-        <v>96956.999820736251</v>
+        <v>4974.3811188486143</v>
       </c>
       <c r="U113" s="10">
-        <v>92765.08912339111</v>
+        <v>4136.0127554535047</v>
       </c>
       <c r="V113" s="10">
-        <v>71824.066707980222</v>
+        <v>2255.3141070181478</v>
       </c>
       <c r="W113" s="10">
-        <v>71616.252369303955</v>
+        <v>2072.371856003866</v>
       </c>
       <c r="X113" s="10">
-        <v>55352.546677292426</v>
+        <v>1724.9069655523904</v>
       </c>
       <c r="Y113" s="10">
-        <v>61345.972085707333</v>
+        <v>1245.3281774497561</v>
       </c>
       <c r="Z113" s="10">
-        <v>50098.321568678766</v>
+        <v>1045.3600000000001</v>
       </c>
       <c r="AA113" s="11">
         <v>0</v>
       </c>
       <c r="AB113" s="14">
         <f t="shared" si="0"/>
-        <v>8625204.8602371626</v>
-      </c>
+        <v>2757204.9366211356</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B116" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/717A11_output.xlsx
+++ b/717A11_output.xlsx
@@ -734,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="D3" s="4">
-        <v>444.39767768616434</v>
+        <v>457.65467936389945</v>
       </c>
       <c r="E3" s="4">
-        <v>489.05601470060719</v>
+        <v>499.66161604279506</v>
       </c>
       <c r="F3" s="4">
-        <v>342.89686747396632</v>
+        <v>511.0760482624591</v>
       </c>
       <c r="G3" s="4">
-        <v>177.42738062174587</v>
+        <v>118.0212600483369</v>
       </c>
       <c r="H3" s="4">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="I3" s="4">
         <v>0</v>
@@ -835,16 +835,16 @@
         <v>665.6</v>
       </c>
       <c r="J4" s="7">
-        <v>653.67922323560242</v>
+        <v>665.6</v>
       </c>
       <c r="K4" s="7">
         <v>665.6</v>
       </c>
       <c r="L4" s="7">
-        <v>661.09286013743906</v>
+        <v>665.6</v>
       </c>
       <c r="M4" s="7">
-        <v>322.93018137873707</v>
+        <v>334.6423436042345</v>
       </c>
       <c r="N4" s="7">
         <v>269.08451052641817</v>
@@ -912,19 +912,19 @@
         <v>46.5</v>
       </c>
       <c r="H5" s="7">
-        <v>8.6312241231941194</v>
+        <v>46.5</v>
       </c>
       <c r="I5" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7">
-        <v>7</v>
+        <v>10.717900355684321</v>
       </c>
       <c r="K5" s="7">
         <v>7</v>
       </c>
       <c r="L5" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S5" s="7">
         <v>7</v>
@@ -951,7 +951,7 @@
         <v>7</v>
       </c>
       <c r="U5" s="7">
-        <v>7.0000000000000124</v>
+        <v>7</v>
       </c>
       <c r="V5" s="7">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C6" s="7">
         <v>212</v>
@@ -1019,19 +1019,19 @@
         <v>212</v>
       </c>
       <c r="P6" s="7">
-        <v>140.52171704068627</v>
+        <v>175.55734287955269</v>
       </c>
       <c r="Q6" s="7">
-        <v>168.15685600738999</v>
+        <v>196.18535667848235</v>
       </c>
       <c r="R6" s="7">
-        <v>184.58310279959551</v>
+        <v>185.58310279959551</v>
       </c>
       <c r="S6" s="7">
-        <v>117.15053398555699</v>
+        <v>117.15053398555688</v>
       </c>
       <c r="T6" s="7">
-        <v>59.659196281313598</v>
+        <v>48.08907029393594</v>
       </c>
       <c r="U6" s="7">
         <v>32</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="7">
-        <v>33.952731507069984</v>
+        <v>33.952731507069913</v>
       </c>
       <c r="X6" s="7">
         <v>32</v>
@@ -1060,7 +1060,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>182.25324173761368</v>
+        <v>137.60133752658996</v>
       </c>
       <c r="C7" s="7">
         <v>464</v>
@@ -1087,10 +1087,10 @@
         <v>464</v>
       </c>
       <c r="K7" s="7">
-        <v>375.46618401444209</v>
+        <v>382.66823890291812</v>
       </c>
       <c r="L7" s="7">
-        <v>70</v>
+        <v>77.137109617676288</v>
       </c>
       <c r="M7" s="7">
         <v>70</v>
@@ -1102,10 +1102,10 @@
         <v>70</v>
       </c>
       <c r="P7" s="7">
-        <v>316.57958668622592</v>
+        <v>281.54396084735947</v>
       </c>
       <c r="Q7" s="7">
-        <v>177.36395945306248</v>
+        <v>149.33545878197012</v>
       </c>
       <c r="R7" s="7">
         <v>70</v>
@@ -1114,19 +1114,19 @@
         <v>70</v>
       </c>
       <c r="T7" s="7">
-        <v>70</v>
+        <v>83.570125987377651</v>
       </c>
       <c r="U7" s="7">
-        <v>74.736248586459894</v>
+        <v>74.736248586459823</v>
       </c>
       <c r="V7" s="7">
-        <v>73.591961217307173</v>
+        <v>73.591961217307102</v>
       </c>
       <c r="W7" s="7">
         <v>0</v>
       </c>
       <c r="X7" s="7">
-        <v>70.180390886334806</v>
+        <v>70.180390886334777</v>
       </c>
       <c r="Y7" s="7">
         <v>77.120563137821605</v>
@@ -1149,17 +1149,17 @@
         <v>0</v>
       </c>
       <c r="D8" s="7">
+        <v>101.50000000000003</v>
+      </c>
+      <c r="E8" s="7">
+        <v>101.50000000000003</v>
+      </c>
+      <c r="F8" s="7">
+        <v>101.50000000000003</v>
+      </c>
+      <c r="G8" s="7">
         <v>101.5</v>
       </c>
-      <c r="E8" s="7">
-        <v>101.5</v>
-      </c>
-      <c r="F8" s="7">
-        <v>101.5</v>
-      </c>
-      <c r="G8" s="7">
-        <v>42.093879426591023</v>
-      </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
@@ -1191,13 +1191,13 @@
         <v>0</v>
       </c>
       <c r="R8" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S8" s="7">
         <v>0</v>
       </c>
       <c r="T8" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U8" s="7">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C9" s="7">
         <v>84.6</v>
@@ -1247,10 +1247,10 @@
         <v>84.6</v>
       </c>
       <c r="I9" s="7">
+        <v>70.361364447312411</v>
+      </c>
+      <c r="J9" s="7">
         <v>84.6</v>
-      </c>
-      <c r="J9" s="7">
-        <v>80.386779221049665</v>
       </c>
       <c r="K9" s="7">
         <v>84.6</v>
@@ -1283,16 +1283,16 @@
         <v>84.6</v>
       </c>
       <c r="U9" s="7">
-        <v>82.916288354089829</v>
+        <v>82.916288354089914</v>
       </c>
       <c r="V9" s="7">
-        <v>13.000000000000002</v>
+        <v>13</v>
       </c>
       <c r="W9" s="7">
         <v>13</v>
       </c>
       <c r="X9" s="7">
-        <v>13.000000000000002</v>
+        <v>13</v>
       </c>
       <c r="Y9" s="7">
         <v>13</v>
@@ -1312,7 +1312,7 @@
         <v>88</v>
       </c>
       <c r="C10" s="7">
-        <v>69.634618197440432</v>
+        <v>80.010796973076836</v>
       </c>
       <c r="D10" s="7">
         <v>88</v>
@@ -1327,10 +1327,10 @@
         <v>88</v>
       </c>
       <c r="H10" s="7">
-        <v>84.261876432314565</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="U10" s="7">
         <v>0</v>
@@ -1428,10 +1428,10 @@
         <v>650</v>
       </c>
       <c r="N11" s="7">
-        <v>376.73328663132179</v>
+        <v>391.01655391079163</v>
       </c>
       <c r="O11" s="7">
-        <v>196.9663196290264</v>
+        <v>208.39293345260231</v>
       </c>
       <c r="P11" s="7">
         <v>98</v>
@@ -1502,19 +1502,19 @@
         <v>186</v>
       </c>
       <c r="K12" s="7">
-        <v>104.38030718246284</v>
+        <v>93.54071515168701</v>
       </c>
       <c r="L12" s="7">
-        <v>32.64424948023759</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>39.712162225497082</v>
+        <v>28</v>
       </c>
       <c r="N12" s="7">
-        <v>86.34992753893107</v>
+        <v>72.06666025946123</v>
       </c>
       <c r="O12" s="7">
-        <v>53.468893468759262</v>
+        <v>42.042279645183356</v>
       </c>
       <c r="P12" s="7">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>28</v>
       </c>
       <c r="S12" s="7">
-        <v>29.396630603979872</v>
+        <v>28.841599119532162</v>
       </c>
       <c r="T12" s="7">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>154</v>
       </c>
       <c r="F13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="G13" s="7">
         <v>154</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K13" s="7">
         <v>0</v>
@@ -1659,10 +1659,10 @@
         <v>150</v>
       </c>
       <c r="H14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7">
         <v>150</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="S14" s="7">
         <v>0</v>
@@ -1727,7 +1727,7 @@
         <v>1848</v>
       </c>
       <c r="C15" s="7">
-        <v>856.16538180255702</v>
+        <v>845.78920302692109</v>
       </c>
       <c r="D15" s="7">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>656.1</v>
       </c>
       <c r="I16" s="7">
-        <v>204.63990573415393</v>
+        <v>609.32585670395758</v>
       </c>
       <c r="J16" s="7">
         <v>0</v>
@@ -1896,25 +1896,25 @@
         <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>50.3</v>
+        <v>50.300000000000011</v>
       </c>
       <c r="E17" s="7">
-        <v>50.3</v>
+        <v>50.300000000000011</v>
       </c>
       <c r="F17" s="7">
-        <v>50.3</v>
+        <v>50.300000000000011</v>
       </c>
       <c r="G17" s="7">
         <v>50.3</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>34.342136474464638</v>
       </c>
       <c r="I17" s="7">
         <v>0</v>
       </c>
       <c r="J17" s="7">
-        <v>0</v>
+        <v>9.7990036849789703</v>
       </c>
       <c r="K17" s="7">
         <v>0</v>
@@ -1997,10 +1997,10 @@
         <v>67</v>
       </c>
       <c r="J18" s="7">
-        <v>65.29900368497897</v>
+        <v>67</v>
       </c>
       <c r="K18" s="7">
-        <v>10</v>
+        <v>13.63753714229982</v>
       </c>
       <c r="L18" s="7">
         <v>10</v>
@@ -2145,13 +2145,13 @@
         <v>2269.6</v>
       </c>
       <c r="D20" s="7">
-        <v>1690.4693223138331</v>
+        <v>1677.2123206360975</v>
       </c>
       <c r="E20" s="7">
-        <v>859.95008829938843</v>
+        <v>849.34448695720084</v>
       </c>
       <c r="F20" s="7">
-        <v>359.82559045302827</v>
+        <v>345.64640966453572</v>
       </c>
       <c r="G20" s="7">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6">
-        <v>26.246758262386479</v>
+        <v>25.898662473409711</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -2311,10 +2311,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>398.3</v>
+        <v>398.30000000000013</v>
       </c>
       <c r="E22" s="7">
-        <v>398.3</v>
+        <v>398.30000000000013</v>
       </c>
       <c r="F22" s="7">
         <v>398.3</v>
@@ -2323,10 +2323,10 @@
         <v>398.3</v>
       </c>
       <c r="H22" s="7">
-        <v>151.61465083326357</v>
+        <v>398.3</v>
       </c>
       <c r="I22" s="7">
-        <v>145.44731541711573</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7">
         <v>0</v>
@@ -2391,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.099999999999994</v>
       </c>
       <c r="D23" s="7">
         <v>28.099999999999994</v>
@@ -2400,13 +2400,13 @@
         <v>28.100000000000009</v>
       </c>
       <c r="F23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.1</v>
       </c>
       <c r="G23" s="7">
         <v>28.1</v>
       </c>
       <c r="H23" s="7">
-        <v>28.1</v>
+        <v>28.099999999999994</v>
       </c>
       <c r="I23" s="7">
         <v>28.1</v>
@@ -2415,10 +2415,10 @@
         <v>28.1</v>
       </c>
       <c r="K23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.1</v>
       </c>
       <c r="L23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.099999999999994</v>
       </c>
       <c r="M23" s="7">
         <v>28.1</v>
@@ -2427,40 +2427,40 @@
         <v>28.1</v>
       </c>
       <c r="O23" s="7">
+        <v>28.1</v>
+      </c>
+      <c r="P23" s="7">
         <v>28.100000000000009</v>
       </c>
-      <c r="P23" s="7">
+      <c r="Q23" s="7">
         <v>28.1</v>
       </c>
-      <c r="Q23" s="7">
-        <v>28.099999999999994</v>
-      </c>
       <c r="R23" s="7">
-        <v>28.099999999999994</v>
+        <v>28.1</v>
       </c>
       <c r="S23" s="7">
-        <v>28.099999999999994</v>
+        <v>28.1</v>
       </c>
       <c r="T23" s="7">
-        <v>28.099999999999994</v>
+        <v>28.1</v>
       </c>
       <c r="U23" s="7">
-        <v>28.100000000000009</v>
+        <v>28.1</v>
       </c>
       <c r="V23" s="7">
         <v>28.1</v>
       </c>
       <c r="W23" s="7">
-        <v>28.099999999999994</v>
+        <v>28.1</v>
       </c>
       <c r="X23" s="7">
-        <v>28.099999999999994</v>
+        <v>28.1</v>
       </c>
       <c r="Y23" s="7">
+        <v>28.100000000000009</v>
+      </c>
+      <c r="Z23" s="7">
         <v>28.1</v>
-      </c>
-      <c r="Z23" s="7">
-        <v>28.099999999999994</v>
       </c>
       <c r="AA23" s="8">
         <v>28.1</v>
@@ -2546,7 +2546,7 @@
         <v>25</v>
       </c>
       <c r="AA24" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.35">
@@ -2629,7 +2629,7 @@
         <v>70</v>
       </c>
       <c r="AA25" s="8">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.35">
@@ -2661,19 +2661,19 @@
         <v>30.6</v>
       </c>
       <c r="J26" s="7">
+        <v>30.6</v>
+      </c>
+      <c r="K26" s="7">
         <v>30.599999999999998</v>
-      </c>
-      <c r="K26" s="7">
-        <v>30.6</v>
       </c>
       <c r="L26" s="7">
         <v>30.6</v>
       </c>
       <c r="M26" s="7">
+        <v>30.599999999999998</v>
+      </c>
+      <c r="N26" s="7">
         <v>30.6</v>
-      </c>
-      <c r="N26" s="7">
-        <v>30.599999999999998</v>
       </c>
       <c r="O26" s="7">
         <v>30.6</v>
@@ -2700,7 +2700,7 @@
         <v>30.6</v>
       </c>
       <c r="W26" s="7">
-        <v>30.599999999999998</v>
+        <v>30.6</v>
       </c>
       <c r="X26" s="7">
         <v>30.6</v>
@@ -2738,25 +2738,25 @@
         <v>10</v>
       </c>
       <c r="H27" s="7">
+        <v>10</v>
+      </c>
+      <c r="I27" s="7">
+        <v>10</v>
+      </c>
+      <c r="J27" s="7">
+        <v>10</v>
+      </c>
+      <c r="K27" s="7">
+        <v>10</v>
+      </c>
+      <c r="L27" s="7">
+        <v>10</v>
+      </c>
+      <c r="M27" s="7">
+        <v>10</v>
+      </c>
+      <c r="N27" s="7">
         <v>9.9999999999999929</v>
-      </c>
-      <c r="I27" s="7">
-        <v>9.9999999999999929</v>
-      </c>
-      <c r="J27" s="7">
-        <v>10</v>
-      </c>
-      <c r="K27" s="7">
-        <v>10</v>
-      </c>
-      <c r="L27" s="7">
-        <v>10</v>
-      </c>
-      <c r="M27" s="7">
-        <v>10</v>
-      </c>
-      <c r="N27" s="7">
-        <v>10</v>
       </c>
       <c r="O27" s="7">
         <v>10</v>
@@ -2809,7 +2809,7 @@
         <v>10</v>
       </c>
       <c r="D28" s="7">
-        <v>9.9999999999999858</v>
+        <v>10</v>
       </c>
       <c r="E28" s="7">
         <v>10</v>
@@ -2818,16 +2818,16 @@
         <v>10</v>
       </c>
       <c r="G28" s="7">
+        <v>10</v>
+      </c>
+      <c r="H28" s="7">
+        <v>10</v>
+      </c>
+      <c r="I28" s="7">
         <v>9.9999999999999929</v>
       </c>
-      <c r="H28" s="7">
-        <v>10</v>
-      </c>
-      <c r="I28" s="7">
-        <v>10</v>
-      </c>
       <c r="J28" s="7">
-        <v>10.000000000000014</v>
+        <v>10</v>
       </c>
       <c r="K28" s="7">
         <v>10</v>
@@ -2943,7 +2943,7 @@
         <v>10</v>
       </c>
       <c r="U29" s="7">
-        <v>3.6321921072951113</v>
+        <v>10</v>
       </c>
       <c r="V29" s="7">
         <v>10</v>
@@ -2972,79 +2972,79 @@
         <v>0</v>
       </c>
       <c r="C30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="D30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="E30" s="7">
         <v>52.2</v>
       </c>
       <c r="F30" s="7">
-        <v>52.2</v>
+        <v>52.200000000000017</v>
       </c>
       <c r="G30" s="7">
         <v>52.200000000000017</v>
       </c>
       <c r="H30" s="7">
-        <v>52.200000000000017</v>
+        <v>52.199999999999989</v>
       </c>
       <c r="I30" s="7">
         <v>52.2</v>
       </c>
       <c r="J30" s="7">
+        <v>52.200000000000017</v>
+      </c>
+      <c r="K30" s="7">
+        <v>52.20000000000001</v>
+      </c>
+      <c r="L30" s="7">
+        <v>52.200000000000017</v>
+      </c>
+      <c r="M30" s="7">
+        <v>52.20000000000001</v>
+      </c>
+      <c r="N30" s="7">
+        <v>52.200000000000017</v>
+      </c>
+      <c r="O30" s="7">
+        <v>52.20000000000001</v>
+      </c>
+      <c r="P30" s="7">
         <v>52.2</v>
       </c>
-      <c r="K30" s="7">
+      <c r="Q30" s="7">
+        <v>52.20000000000001</v>
+      </c>
+      <c r="R30" s="7">
+        <v>52.20000000000001</v>
+      </c>
+      <c r="S30" s="7">
+        <v>52.20000000000001</v>
+      </c>
+      <c r="T30" s="7">
+        <v>52.20000000000001</v>
+      </c>
+      <c r="U30" s="7">
+        <v>52.20000000000001</v>
+      </c>
+      <c r="V30" s="7">
+        <v>52.20000000000001</v>
+      </c>
+      <c r="W30" s="7">
+        <v>52.20000000000001</v>
+      </c>
+      <c r="X30" s="7">
+        <v>52.20000000000001</v>
+      </c>
+      <c r="Y30" s="7">
         <v>52.2</v>
       </c>
-      <c r="L30" s="7">
-        <v>52.2</v>
-      </c>
-      <c r="M30" s="7">
-        <v>52.200000000000017</v>
-      </c>
-      <c r="N30" s="7">
-        <v>52.2</v>
-      </c>
-      <c r="O30" s="7">
-        <v>52.2</v>
-      </c>
-      <c r="P30" s="7">
+      <c r="Z30" s="7">
         <v>52.20000000000001</v>
       </c>
-      <c r="Q30" s="7">
-        <v>52.200000000000017</v>
-      </c>
-      <c r="R30" s="7">
-        <v>52.200000000000017</v>
-      </c>
-      <c r="S30" s="7">
-        <v>52.200000000000017</v>
-      </c>
-      <c r="T30" s="7">
-        <v>52.200000000000017</v>
-      </c>
-      <c r="U30" s="7">
-        <v>52.2</v>
-      </c>
-      <c r="V30" s="7">
-        <v>52.200000000000017</v>
-      </c>
-      <c r="W30" s="7">
-        <v>52.2</v>
-      </c>
-      <c r="X30" s="7">
-        <v>52.200000000000017</v>
-      </c>
-      <c r="Y30" s="7">
+      <c r="AA30" s="8">
         <v>52.20000000000001</v>
-      </c>
-      <c r="Z30" s="7">
-        <v>52.200000000000017</v>
-      </c>
-      <c r="AA30" s="8">
-        <v>52.2</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.35">
@@ -3073,10 +3073,10 @@
         <v>10</v>
       </c>
       <c r="I31" s="7">
-        <v>10</v>
+        <v>10.000000000000014</v>
       </c>
       <c r="J31" s="7">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
       <c r="K31" s="7">
         <v>10</v>
@@ -3147,31 +3147,31 @@
         <v>20.200000000000003</v>
       </c>
       <c r="F32" s="7">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="G32" s="7">
+        <v>20.200000000000003</v>
+      </c>
+      <c r="H32" s="7">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="I32" s="7">
         <v>20.2</v>
       </c>
-      <c r="G32" s="7">
+      <c r="J32" s="7">
         <v>20.199999999999996</v>
       </c>
-      <c r="H32" s="7">
+      <c r="K32" s="7">
         <v>20.2</v>
-      </c>
-      <c r="I32" s="7">
-        <v>20.199999999999996</v>
-      </c>
-      <c r="J32" s="7">
-        <v>20.2</v>
-      </c>
-      <c r="K32" s="7">
-        <v>20.199999999999996</v>
       </c>
       <c r="L32" s="7">
         <v>20.200000000000003</v>
       </c>
       <c r="M32" s="7">
+        <v>20.2</v>
+      </c>
+      <c r="N32" s="7">
         <v>20.199999999999996</v>
-      </c>
-      <c r="N32" s="7">
-        <v>20.2</v>
       </c>
       <c r="O32" s="7">
         <v>20.199999999999996</v>
@@ -3180,37 +3180,37 @@
         <v>20.200000000000003</v>
       </c>
       <c r="Q32" s="7">
-        <v>20.200000000000003</v>
+        <v>20.199999999999996</v>
       </c>
       <c r="R32" s="7">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="S32" s="7">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="T32" s="7">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="U32" s="7">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="V32" s="7">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="W32" s="7">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="X32" s="7">
+        <v>20.199999999999996</v>
+      </c>
+      <c r="Y32" s="7">
         <v>20.2</v>
-      </c>
-      <c r="S32" s="7">
-        <v>20.200000000000003</v>
-      </c>
-      <c r="T32" s="7">
-        <v>20.2</v>
-      </c>
-      <c r="U32" s="7">
-        <v>20.200000000000003</v>
-      </c>
-      <c r="V32" s="7">
-        <v>20.200000000000003</v>
-      </c>
-      <c r="W32" s="7">
-        <v>20.2</v>
-      </c>
-      <c r="X32" s="7">
-        <v>20.200000000000003</v>
-      </c>
-      <c r="Y32" s="7">
-        <v>20.200000000000003</v>
       </c>
       <c r="Z32" s="7">
         <v>20.199999999999996</v>
       </c>
       <c r="AA32" s="8">
-        <v>20.200000000000003</v>
+        <v>20.199999999999996</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.35">
@@ -3293,7 +3293,7 @@
         <v>70</v>
       </c>
       <c r="AA33" s="8">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.35">
@@ -3313,7 +3313,7 @@
         <v>10.5</v>
       </c>
       <c r="F34" s="7">
-        <v>10.5</v>
+        <v>10.499999999999993</v>
       </c>
       <c r="G34" s="7">
         <v>10.5</v>
@@ -3420,7 +3420,7 @@
         <v>10</v>
       </c>
       <c r="N35" s="7">
-        <v>10.000000000000014</v>
+        <v>10</v>
       </c>
       <c r="O35" s="7">
         <v>10</v>
@@ -3444,10 +3444,10 @@
         <v>10</v>
       </c>
       <c r="V35" s="7">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
       <c r="W35" s="7">
-        <v>9.9999999999999858</v>
+        <v>10</v>
       </c>
       <c r="X35" s="7">
         <v>10</v>
@@ -3459,7 +3459,7 @@
         <v>10</v>
       </c>
       <c r="AA35" s="8">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.35">
@@ -3491,7 +3491,7 @@
         <v>10</v>
       </c>
       <c r="J36" s="7">
-        <v>10</v>
+        <v>1.648102100967634</v>
       </c>
       <c r="K36" s="7">
         <v>10</v>
@@ -3542,7 +3542,7 @@
         <v>10</v>
       </c>
       <c r="AA36" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.35">
@@ -3616,7 +3616,7 @@
         <v>10</v>
       </c>
       <c r="X37" s="7">
-        <v>10.000000000000002</v>
+        <v>10</v>
       </c>
       <c r="Y37" s="7">
         <v>10</v>
@@ -3625,7 +3625,7 @@
         <v>10</v>
       </c>
       <c r="AA37" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.35">
@@ -3708,7 +3708,7 @@
         <v>10</v>
       </c>
       <c r="AA38" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.35">
@@ -3725,7 +3725,7 @@
         <v>10.099999999999994</v>
       </c>
       <c r="E39" s="7">
-        <v>10.100000000000001</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="F39" s="7">
         <v>10.099999999999994</v>
@@ -3746,19 +3746,19 @@
         <v>10.099999999999994</v>
       </c>
       <c r="L39" s="7">
-        <v>10.099999999999994</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="M39" s="7">
         <v>10.099999999999994</v>
       </c>
       <c r="N39" s="7">
-        <v>10.1</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="O39" s="7">
         <v>10.099999999999994</v>
       </c>
       <c r="P39" s="7">
-        <v>10.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="Q39" s="7">
         <v>10.099999999999994</v>
@@ -3776,13 +3776,13 @@
         <v>10.099999999999994</v>
       </c>
       <c r="V39" s="7">
-        <v>10.100000000000001</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="W39" s="7">
         <v>10.099999999999994</v>
       </c>
       <c r="X39" s="7">
-        <v>10.1</v>
+        <v>10.099999999999994</v>
       </c>
       <c r="Y39" s="7">
         <v>10.100000000000001</v>
@@ -3791,7 +3791,7 @@
         <v>10.099999999999994</v>
       </c>
       <c r="AA39" s="8">
-        <v>0</v>
+        <v>10.099999999999994</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.35">
@@ -3808,28 +3808,28 @@
         <v>10.1</v>
       </c>
       <c r="E40" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="F40" s="7">
         <v>10.1</v>
       </c>
-      <c r="F40" s="7">
+      <c r="G40" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="H40" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="I40" s="7">
         <v>10.099999999999998</v>
-      </c>
-      <c r="G40" s="7">
-        <v>10.100000000000001</v>
-      </c>
-      <c r="H40" s="7">
-        <v>10.099999999999998</v>
-      </c>
-      <c r="I40" s="7">
-        <v>10.100000000000001</v>
       </c>
       <c r="J40" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="K40" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="L40" s="7">
         <v>10.1</v>
-      </c>
-      <c r="L40" s="7">
-        <v>10.100000000000001</v>
       </c>
       <c r="M40" s="7">
         <v>10.100000000000001</v>
@@ -3838,7 +3838,7 @@
         <v>10.100000000000001</v>
       </c>
       <c r="O40" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="P40" s="7">
         <v>10.100000000000001</v>
@@ -3847,13 +3847,13 @@
         <v>10.100000000000001</v>
       </c>
       <c r="R40" s="7">
-        <v>10.099999999999998</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="S40" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="T40" s="7">
-        <v>10.099999999999998</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="U40" s="7">
         <v>10.100000000000001</v>
@@ -3865,16 +3865,16 @@
         <v>10.100000000000001</v>
       </c>
       <c r="X40" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="Y40" s="7">
-        <v>10.1</v>
+        <v>10.099999999999998</v>
       </c>
       <c r="Z40" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="AA40" s="8">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.35">
@@ -3903,7 +3903,7 @@
         <v>10</v>
       </c>
       <c r="I41" s="7">
-        <v>10.000000000000014</v>
+        <v>10</v>
       </c>
       <c r="J41" s="7">
         <v>10</v>
@@ -3915,7 +3915,7 @@
         <v>10</v>
       </c>
       <c r="M41" s="7">
-        <v>9.9999999999999929</v>
+        <v>10</v>
       </c>
       <c r="N41" s="7">
         <v>10</v>
@@ -3980,7 +3980,7 @@
         <v>12</v>
       </c>
       <c r="G42" s="7">
-        <v>12</v>
+        <v>11.999999999999993</v>
       </c>
       <c r="H42" s="7">
         <v>12</v>
@@ -3989,7 +3989,7 @@
         <v>12</v>
       </c>
       <c r="J42" s="7">
-        <v>12</v>
+        <v>11.999999999999993</v>
       </c>
       <c r="K42" s="7">
         <v>12</v>
@@ -4001,7 +4001,7 @@
         <v>12</v>
       </c>
       <c r="N42" s="7">
-        <v>11.999999999999993</v>
+        <v>12</v>
       </c>
       <c r="O42" s="7">
         <v>12</v>
@@ -4040,7 +4040,7 @@
         <v>12</v>
       </c>
       <c r="AA42" s="8">
-        <v>12.000000000000014</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.35">
@@ -4066,7 +4066,7 @@
         <v>2800</v>
       </c>
       <c r="H43" s="7">
-        <v>3500</v>
+        <v>3493.3656149143071</v>
       </c>
       <c r="I43" s="7">
         <v>4100</v>
@@ -4099,31 +4099,31 @@
         <v>6550</v>
       </c>
       <c r="S43" s="7">
-        <v>6544.7467861352543</v>
+        <v>6545.301817619702</v>
       </c>
       <c r="T43" s="7">
         <v>6550</v>
       </c>
       <c r="U43" s="7">
-        <v>6550</v>
+        <v>6543.6321921072949</v>
       </c>
       <c r="V43" s="7">
-        <v>6459.7137332805532</v>
+        <v>6458.3845303919679</v>
       </c>
       <c r="W43" s="7">
-        <v>6453.4518995188846</v>
+        <v>6453.4518995188828</v>
       </c>
       <c r="X43" s="7">
-        <v>6441.2943514102553</v>
+        <v>6241.2023534677255</v>
       </c>
       <c r="Y43" s="7">
-        <v>6102.9888259154241</v>
+        <v>6102.988825915425</v>
       </c>
       <c r="Z43" s="7">
         <v>6107.5265735547255</v>
       </c>
       <c r="AA43" s="8">
-        <v>6202.3041794508499</v>
+        <v>5698.6405127167163</v>
       </c>
       <c r="AB43" t="s">
         <v>15</v>
@@ -4194,13 +4194,13 @@
         <v>1030</v>
       </c>
       <c r="V44" s="7">
-        <v>1298.6707971114138</v>
+        <v>1300</v>
       </c>
       <c r="W44" s="7">
-        <v>1412.9358490078021</v>
+        <v>1412.9358490078048</v>
       </c>
       <c r="X44" s="7">
-        <v>1529.9080020574711</v>
+        <v>1730</v>
       </c>
       <c r="Y44" s="7">
         <v>1970</v>
@@ -4209,7 +4209,7 @@
         <v>2060</v>
       </c>
       <c r="AA44" s="8">
-        <v>2331.4363332658663</v>
+        <v>2630</v>
       </c>
       <c r="AB44" t="s">
         <v>16</v>
@@ -4397,22 +4397,22 @@
         <v>1</v>
       </c>
       <c r="B49" s="3">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="C49" s="4">
         <v>0</v>
       </c>
       <c r="D49" s="4">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="E49" s="4">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="F49" s="4">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="G49" s="4">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="H49" s="4">
         <v>0</v>
@@ -4483,16 +4483,16 @@
         <v>0</v>
       </c>
       <c r="C50" s="7">
-        <v>665.6</v>
+        <v>100</v>
       </c>
       <c r="D50" s="7">
-        <v>665.6</v>
+        <v>161.37009999999952</v>
       </c>
       <c r="E50" s="7">
-        <v>665.6</v>
+        <v>180.61183089999918</v>
       </c>
       <c r="F50" s="7">
-        <v>665.6</v>
+        <v>480.0267373780988</v>
       </c>
       <c r="G50" s="7">
         <v>665.6</v>
@@ -4563,28 +4563,28 @@
         <v>3</v>
       </c>
       <c r="B51" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C51" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D51" s="7">
-        <v>0</v>
+        <v>6.9999999999999929</v>
       </c>
       <c r="E51" s="7">
-        <v>0</v>
+        <v>6.9999999999999929</v>
       </c>
       <c r="F51" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G51" s="7">
-        <v>46.5</v>
+        <v>7</v>
       </c>
       <c r="H51" s="7">
-        <v>46.5</v>
+        <v>7</v>
       </c>
       <c r="I51" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="J51" s="7">
         <v>46.5</v>
@@ -4593,7 +4593,7 @@
         <v>46.5</v>
       </c>
       <c r="L51" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="M51" s="7">
         <v>46.5</v>
@@ -4611,7 +4611,7 @@
         <v>0</v>
       </c>
       <c r="R51" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="S51" s="7">
         <v>46.5</v>
@@ -4620,13 +4620,13 @@
         <v>46.5</v>
       </c>
       <c r="U51" s="7">
-        <v>33.52541871435335</v>
+        <v>33.525418714387285</v>
       </c>
       <c r="V51" s="7">
         <v>0</v>
       </c>
       <c r="W51" s="7">
-        <v>42.54214401012689</v>
+        <v>42.542144010126862</v>
       </c>
       <c r="X51" s="7">
         <v>0</v>
@@ -4646,7 +4646,7 @@
         <v>4</v>
       </c>
       <c r="B52" s="6">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="C52" s="7">
         <v>212</v>
@@ -4729,25 +4729,25 @@
         <v>5</v>
       </c>
       <c r="B53" s="6">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C53" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D53" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E53" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F53" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G53" s="7">
-        <v>464</v>
+        <v>221.01637801450158</v>
       </c>
       <c r="H53" s="7">
-        <v>464</v>
+        <v>392.78232541663158</v>
       </c>
       <c r="I53" s="7">
         <v>464</v>
@@ -4774,7 +4774,7 @@
         <v>464</v>
       </c>
       <c r="Q53" s="7">
-        <v>389.87624463813569</v>
+        <v>389.87624463813574</v>
       </c>
       <c r="R53" s="7">
         <v>464</v>
@@ -4786,7 +4786,7 @@
         <v>464</v>
       </c>
       <c r="U53" s="7">
-        <v>464</v>
+        <v>463.99999999996601</v>
       </c>
       <c r="V53" s="7">
         <v>461.93294748278197</v>
@@ -4801,7 +4801,7 @@
         <v>464</v>
       </c>
       <c r="Z53" s="7">
-        <v>459.19797206641749</v>
+        <v>459.19797206641738</v>
       </c>
       <c r="AA53" s="8">
         <v>0</v>
@@ -4812,22 +4812,22 @@
         <v>6</v>
       </c>
       <c r="B54" s="6">
-        <v>0</v>
+        <v>14.999999999999972</v>
       </c>
       <c r="C54" s="7">
         <v>0</v>
       </c>
       <c r="D54" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E54" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F54" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G54" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -4860,13 +4860,13 @@
         <v>0</v>
       </c>
       <c r="R54" s="7">
-        <v>0</v>
+        <v>97.994930839878634</v>
       </c>
       <c r="S54" s="7">
         <v>0</v>
       </c>
       <c r="T54" s="7">
-        <v>27.817758884393811</v>
+        <v>0</v>
       </c>
       <c r="U54" s="7">
         <v>0</v>
@@ -4895,7 +4895,7 @@
         <v>7</v>
       </c>
       <c r="B55" s="6">
-        <v>0</v>
+        <v>84.6</v>
       </c>
       <c r="C55" s="7">
         <v>84.6</v>
@@ -4978,22 +4978,22 @@
         <v>8</v>
       </c>
       <c r="B56" s="6">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C56" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D56" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E56" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F56" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G56" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -5032,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="T56" s="7">
-        <v>0</v>
+        <v>27.817758884393811</v>
       </c>
       <c r="U56" s="7">
         <v>0</v>
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="C57" s="7">
-        <v>650</v>
+        <v>599.29999999999905</v>
       </c>
       <c r="D57" s="7">
         <v>650</v>
@@ -5144,46 +5144,46 @@
         <v>10</v>
       </c>
       <c r="B58" s="6">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C58" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D58" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E58" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F58" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G58" s="7">
-        <v>6.5163780145016261</v>
+        <v>28</v>
       </c>
       <c r="H58" s="7">
-        <v>26.282325416631807</v>
+        <v>28</v>
       </c>
       <c r="I58" s="7">
-        <v>46.22616634538133</v>
+        <v>28</v>
       </c>
       <c r="J58" s="7">
-        <v>66.349501842489531</v>
+        <v>35.34950184248919</v>
       </c>
       <c r="K58" s="7">
-        <v>86.653947359071765</v>
+        <v>86.653947359071481</v>
       </c>
       <c r="L58" s="7">
-        <v>107.14113288530302</v>
+        <v>153.64113288530302</v>
       </c>
       <c r="M58" s="7">
-        <v>127.81270308127063</v>
+        <v>127.81270308127034</v>
       </c>
       <c r="N58" s="7">
-        <v>148.67031740900131</v>
+        <v>148.67031740900143</v>
       </c>
       <c r="O58" s="7">
-        <v>149.7156502656826</v>
+        <v>149.71565026568248</v>
       </c>
       <c r="P58" s="7">
         <v>0</v>
@@ -5227,22 +5227,22 @@
         <v>11</v>
       </c>
       <c r="B59" s="6">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C59" s="7">
         <v>0</v>
       </c>
       <c r="D59" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E59" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F59" s="7">
         <v>0</v>
       </c>
       <c r="G59" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -5310,22 +5310,22 @@
         <v>12</v>
       </c>
       <c r="B60" s="6">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C60" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D60" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E60" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F60" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G60" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -5334,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K60" s="7">
         <v>0</v>
@@ -5358,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="R60" s="7">
-        <v>144.49493083987886</v>
+        <v>0</v>
       </c>
       <c r="S60" s="7">
         <v>0</v>
@@ -5393,10 +5393,10 @@
         <v>13</v>
       </c>
       <c r="B61" s="6">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="C61" s="7">
-        <v>0</v>
+        <v>277.0000000000004</v>
       </c>
       <c r="D61" s="7">
         <v>0</v>
@@ -5476,28 +5476,28 @@
         <v>14</v>
       </c>
       <c r="B62" s="6">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="C62" s="7">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="D62" s="7">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="E62" s="7">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F62" s="7">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="G62" s="7">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="H62" s="7">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="I62" s="7">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="J62" s="7">
         <v>0</v>
@@ -5559,31 +5559,31 @@
         <v>15</v>
       </c>
       <c r="B63" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C63" s="7">
         <v>0</v>
       </c>
       <c r="D63" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E63" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F63" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G63" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H63" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I63" s="7">
         <v>0</v>
       </c>
       <c r="J63" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K63" s="7">
         <v>0</v>
@@ -5642,28 +5642,28 @@
         <v>16</v>
       </c>
       <c r="B64" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C64" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D64" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E64" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F64" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G64" s="7">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="H64" s="7">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="I64" s="7">
-        <v>67</v>
+        <v>33.72616634538133</v>
       </c>
       <c r="J64" s="7">
         <v>67</v>
@@ -5808,19 +5808,19 @@
         <v>18</v>
       </c>
       <c r="B66" s="6">
-        <v>1843</v>
+        <v>832.40000000000009</v>
       </c>
       <c r="C66" s="7">
-        <v>249.69999999999948</v>
+        <v>340</v>
       </c>
       <c r="D66" s="7">
-        <v>268.7700999999995</v>
+        <v>340</v>
       </c>
       <c r="E66" s="7">
-        <v>288.01183089999927</v>
+        <v>340</v>
       </c>
       <c r="F66" s="7">
-        <v>564.42673737809878</v>
+        <v>340</v>
       </c>
       <c r="G66" s="7">
         <v>0</v>
@@ -5891,7 +5891,7 @@
         <v>19</v>
       </c>
       <c r="B67" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C67" s="7">
         <v>0</v>
@@ -5974,25 +5974,25 @@
         <v>20</v>
       </c>
       <c r="B68" s="6">
-        <v>0</v>
+        <v>59.999999999999886</v>
       </c>
       <c r="C68" s="7">
         <v>0</v>
       </c>
       <c r="D68" s="7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E68" s="7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F68" s="7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G68" s="7">
-        <v>0</v>
+        <v>59.999999999999886</v>
       </c>
       <c r="H68" s="7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I68" s="7">
         <v>0</v>
@@ -7985,40 +7985,40 @@
         <v>1</v>
       </c>
       <c r="B95" s="3">
-        <v>131.1177472458713</v>
+        <v>131.23377917552992</v>
       </c>
       <c r="C95" s="4">
-        <v>519.47307879829384</v>
+        <v>526.39053131538549</v>
       </c>
       <c r="D95" s="4">
-        <v>765.69870922872087</v>
+        <v>770.11770978796642</v>
       </c>
       <c r="E95" s="4">
-        <v>504.73438358353587</v>
+        <v>508.26958403093175</v>
       </c>
       <c r="F95" s="4">
-        <v>213.56490924947218</v>
+        <v>320.95796951230295</v>
       </c>
       <c r="G95" s="4">
-        <v>-70.442099644914833</v>
+        <v>-70.442099644914293</v>
       </c>
       <c r="H95" s="4">
-        <v>-305.79806215280684</v>
+        <v>-295.05096730941193</v>
       </c>
       <c r="I95" s="4">
-        <v>-372.85312611040291</v>
+        <v>-494.16132161789972</v>
       </c>
       <c r="J95" s="4">
-        <v>-505.85874846459205</v>
+        <v>-494.35874846459205</v>
       </c>
       <c r="K95" s="4">
-        <v>-587.22261708303461</v>
+        <v>-581.20873477661712</v>
       </c>
       <c r="L95" s="4">
-        <v>-808.66780032553697</v>
+        <v>-805.57163400537866</v>
       </c>
       <c r="M95" s="4">
-        <v>-1049.0390535284255</v>
+        <v>-1041.230945378094</v>
       </c>
       <c r="N95" s="4">
         <v>-1100</v>
@@ -8027,13 +8027,13 @@
         <v>-1100</v>
       </c>
       <c r="P95" s="4">
-        <v>-1059.8577466562231</v>
+        <v>-1059.8577466562228</v>
       </c>
       <c r="Q95" s="4">
         <v>-1091.0522997094629</v>
       </c>
       <c r="R95" s="4">
-        <v>-1097.2909370735151</v>
+        <v>-1081.9576037401821</v>
       </c>
       <c r="S95" s="4">
         <v>-1100</v>
@@ -8045,22 +8045,22 @@
         <v>-1100</v>
       </c>
       <c r="V95" s="4">
-        <v>-1100</v>
+        <v>-1099.5569323704715</v>
       </c>
       <c r="W95" s="4">
         <v>-1100</v>
       </c>
       <c r="X95" s="4">
-        <v>-1100</v>
+        <v>-1033.3026673524898</v>
       </c>
       <c r="Y95" s="4">
-        <v>-986.63332553632222</v>
+        <v>-986.6333255363221</v>
       </c>
       <c r="Z95" s="4">
         <v>-981.48742427019033</v>
       </c>
       <c r="AA95" s="5">
-        <v>-1100</v>
+        <v>-863.74544442195486</v>
       </c>
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.35">
@@ -8068,40 +8068,40 @@
         <v>2</v>
       </c>
       <c r="B96" s="6">
-        <v>-374.78225275412893</v>
+        <v>-374.6662208244698</v>
       </c>
       <c r="C96" s="7">
-        <v>-350.96153939914706</v>
+        <v>-354.42026565769282</v>
       </c>
       <c r="D96" s="7">
-        <v>-288.68479077127756</v>
+        <v>-284.26579021203258</v>
       </c>
       <c r="E96" s="7">
-        <v>268.28133208353711</v>
+        <v>271.81653253093299</v>
       </c>
       <c r="F96" s="7">
-        <v>694.75368028597393</v>
+        <v>648.1467405488047</v>
       </c>
       <c r="G96" s="7">
-        <v>1028.0972703309155</v>
+        <v>1028.0972703309162</v>
       </c>
       <c r="H96" s="7">
-        <v>1305.7980621528068</v>
+        <v>1159.9107719105086</v>
       </c>
       <c r="I96" s="7">
-        <v>1354.0431690481153</v>
+        <v>1487.4209245104223</v>
       </c>
       <c r="J96" s="7">
-        <v>1505.8587484645921</v>
+        <v>1494.3587484645921</v>
       </c>
       <c r="K96" s="7">
-        <v>1586.0344445009755</v>
+        <v>1581.2087347766171</v>
       </c>
       <c r="L96" s="7">
-        <v>1708.7078943458621</v>
+        <v>1707.1598111857829</v>
       </c>
       <c r="M96" s="7">
-        <v>1840.9519368949539</v>
+        <v>1837.0478828197881</v>
       </c>
       <c r="N96" s="7">
         <v>1878.5993518219175</v>
@@ -8116,34 +8116,34 @@
         <v>1716.2872925603106</v>
       </c>
       <c r="R96" s="7">
-        <v>1627.0175115266868</v>
+        <v>1619.3508448600203</v>
       </c>
       <c r="S96" s="7">
         <v>1561.0964413768386</v>
       </c>
       <c r="T96" s="7">
-        <v>1502.7137068526008</v>
+        <v>1502.713706852601</v>
       </c>
       <c r="U96" s="7">
         <v>1456.8898275833728</v>
       </c>
       <c r="V96" s="7">
-        <v>1335.6254874759161</v>
+        <v>1334.7393522168586</v>
       </c>
       <c r="W96" s="7">
-        <v>1291.6816595020064</v>
+        <v>1291.681659502005</v>
       </c>
       <c r="X96" s="7">
-        <v>1241.502979233225</v>
+        <v>1108.1083139382054</v>
       </c>
       <c r="Y96" s="7">
-        <v>978.20080585247911</v>
+        <v>978.20080585247888</v>
       </c>
       <c r="Z96" s="7">
         <v>949.17586250717181</v>
       </c>
       <c r="AA96" s="8">
-        <v>886.38392309249184</v>
+        <v>618.97481193640238</v>
       </c>
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.35">
@@ -8151,40 +8151,40 @@
         <v>3</v>
       </c>
       <c r="B97" s="9">
-        <v>243.66450550825761</v>
+        <v>243.43244164893991</v>
       </c>
       <c r="C97" s="10">
-        <v>-168.51153939914678</v>
+        <v>-171.97026565769264</v>
       </c>
       <c r="D97" s="10">
-        <v>-477.01391845744354</v>
+        <v>-485.85191957593395</v>
       </c>
       <c r="E97" s="10">
-        <v>-773.01571566707298</v>
+        <v>-780.08611656186463</v>
       </c>
       <c r="F97" s="10">
-        <v>-908.31858953544611</v>
+        <v>-969.10471006110811</v>
       </c>
       <c r="G97" s="10">
-        <v>-957.65517068600093</v>
+        <v>-957.65517068600184</v>
       </c>
       <c r="H97" s="10">
-        <v>-1000</v>
+        <v>-864.85980460109681</v>
       </c>
       <c r="I97" s="10">
-        <v>-981.19004293771241</v>
+        <v>-993.25960289252248</v>
       </c>
       <c r="J97" s="10">
         <v>-1000</v>
       </c>
       <c r="K97" s="10">
-        <v>-998.81182741794089</v>
+        <v>-1000</v>
       </c>
       <c r="L97" s="10">
-        <v>-900.04009402032466</v>
+        <v>-901.58817718040382</v>
       </c>
       <c r="M97" s="10">
-        <v>-791.91288336652838</v>
+        <v>-795.81693744169411</v>
       </c>
       <c r="N97" s="10">
         <v>-778.59935182191748</v>
@@ -8199,34 +8199,34 @@
         <v>-625.2349928508479</v>
       </c>
       <c r="R97" s="10">
-        <v>-529.72657445317168</v>
+        <v>-537.39324111983819</v>
       </c>
       <c r="S97" s="10">
         <v>-461.09644137683813</v>
       </c>
       <c r="T97" s="10">
-        <v>-405.15701184585896</v>
+        <v>-405.15701184585879</v>
       </c>
       <c r="U97" s="10">
-        <v>-356.88982758337283</v>
+        <v>-356.88982758337289</v>
       </c>
       <c r="V97" s="10">
-        <v>-235.62548747591609</v>
+        <v>-235.18241984638735</v>
       </c>
       <c r="W97" s="10">
-        <v>-191.68165950200637</v>
+        <v>-191.681659502005</v>
       </c>
       <c r="X97" s="10">
-        <v>-141.50297923322501</v>
+        <v>-74.805646585715635</v>
       </c>
       <c r="Y97" s="10">
-        <v>8.4325196838433385</v>
+        <v>8.4325196838432248</v>
       </c>
       <c r="Z97" s="10">
         <v>32.31156176301846</v>
       </c>
       <c r="AA97" s="11">
-        <v>213.61607690750816</v>
+        <v>244.77063248555248</v>
       </c>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.35">
@@ -8244,46 +8244,46 @@
         <v>1</v>
       </c>
       <c r="B101" s="3">
-        <v>245</v>
+        <v>255.2</v>
       </c>
       <c r="C101" s="4">
-        <v>351.27166666666665</v>
+        <v>67.638333333333449</v>
       </c>
       <c r="D101" s="4">
-        <v>353.49651166666666</v>
+        <v>189.08654499999977</v>
       </c>
       <c r="E101" s="4">
-        <v>355.74138027166663</v>
+        <v>197.74532390499965</v>
       </c>
       <c r="F101" s="4">
-        <v>358.00645269411154</v>
+        <v>307.48203182014447</v>
       </c>
       <c r="G101" s="4">
-        <v>528.28645143019116</v>
+        <v>414.2973701065257</v>
       </c>
       <c r="H101" s="4">
-        <v>524.00382949306311</v>
+        <v>453.85871310415098</v>
       </c>
       <c r="I101" s="4">
-        <v>519.68266395850071</v>
+        <v>477.59138607362786</v>
       </c>
       <c r="J101" s="4">
-        <v>515.32260793412718</v>
+        <v>517.98927460079403</v>
       </c>
       <c r="K101" s="4">
-        <v>510.92331140553443</v>
+        <v>510.92331140553461</v>
       </c>
       <c r="L101" s="4">
-        <v>506.48442120818436</v>
+        <v>475.48442120818436</v>
       </c>
       <c r="M101" s="4">
-        <v>502.00558099905794</v>
+        <v>502.00558099905811</v>
       </c>
       <c r="N101" s="4">
-        <v>497.48643122804981</v>
+        <v>497.4864312280497</v>
       </c>
       <c r="O101" s="4">
-        <v>499.59327577576869</v>
+        <v>499.5932757757688</v>
       </c>
       <c r="P101" s="4">
         <v>548.95934266979975</v>
@@ -8292,7 +8292,7 @@
         <v>514.26764342049444</v>
       </c>
       <c r="R101" s="4">
-        <v>647.9994316513596</v>
+        <v>744.32938554461202</v>
       </c>
       <c r="S101" s="4">
         <v>727.6065598695551</v>
@@ -8327,40 +8327,40 @@
         <v>2</v>
       </c>
       <c r="B102" s="6">
-        <v>-805</v>
+        <v>-345.8</v>
       </c>
       <c r="C102" s="7">
-        <v>-58.178333333333171</v>
+        <v>33.488333333333173</v>
       </c>
       <c r="D102" s="7">
-        <v>-65.488538333333125</v>
+        <v>-57.898505</v>
       </c>
       <c r="E102" s="7">
-        <v>-72.864535178333043</v>
+        <v>-58.860591544999991</v>
       </c>
       <c r="F102" s="7">
-        <v>-80.306915994937867</v>
+        <v>18.168663131095059</v>
       </c>
       <c r="G102" s="7">
-        <v>86.694640437442104</v>
+        <v>138.18918109927495</v>
       </c>
       <c r="H102" s="7">
-        <v>92.294992201379046</v>
+        <v>121.86755039583511</v>
       </c>
       <c r="I102" s="7">
-        <v>97.945747131191411</v>
+        <v>135.62830290093717</v>
       </c>
       <c r="J102" s="7">
-        <v>103.64735885537198</v>
+        <v>98.314025522038492</v>
       </c>
       <c r="K102" s="7">
-        <v>109.40028508507032</v>
+        <v>109.40028508507021</v>
       </c>
       <c r="L102" s="7">
-        <v>115.20498765083585</v>
+        <v>130.70498765083585</v>
       </c>
       <c r="M102" s="7">
-        <v>121.06193253969332</v>
+        <v>121.0619325396932</v>
       </c>
       <c r="N102" s="7">
         <v>126.97158993255039</v>
@@ -8375,7 +8375,7 @@
         <v>-36.770478898573458</v>
       </c>
       <c r="R102" s="7">
-        <v>-233.35310292870099</v>
+        <v>-281.5180798753272</v>
       </c>
       <c r="S102" s="7">
         <v>-349.33934752172598</v>
@@ -8410,40 +8410,40 @@
         <v>3</v>
       </c>
       <c r="B103" s="9">
-        <v>560</v>
+        <v>90.600000000000023</v>
       </c>
       <c r="C103" s="10">
-        <v>-293.09333333333348</v>
+        <v>-101.12666666666661</v>
       </c>
       <c r="D103" s="10">
-        <v>-288.00797333333338</v>
+        <v>-131.18803999999977</v>
       </c>
       <c r="E103" s="10">
-        <v>-282.87684509333354</v>
+        <v>-138.88473235999965</v>
       </c>
       <c r="F103" s="10">
-        <v>-277.69953669917368</v>
+        <v>-325.65069495123953</v>
       </c>
       <c r="G103" s="10">
-        <v>-614.98109186763338</v>
+        <v>-552.48655120580065</v>
       </c>
       <c r="H103" s="10">
-        <v>-616.29882169444204</v>
+        <v>-575.72626349998598</v>
       </c>
       <c r="I103" s="10">
-        <v>-617.62841108969201</v>
+        <v>-613.21968897456497</v>
       </c>
       <c r="J103" s="10">
-        <v>-618.96996678949927</v>
+        <v>-616.30330012283275</v>
       </c>
       <c r="K103" s="10">
-        <v>-620.3235964906047</v>
+        <v>-620.32359649060481</v>
       </c>
       <c r="L103" s="10">
-        <v>-621.6894088590202</v>
+        <v>-606.1894088590202</v>
       </c>
       <c r="M103" s="10">
-        <v>-623.06751353875131</v>
+        <v>-623.06751353875143</v>
       </c>
       <c r="N103" s="10">
         <v>-624.45802116060008</v>
@@ -8458,7 +8458,7 @@
         <v>-477.49716452192098</v>
       </c>
       <c r="R103" s="10">
-        <v>-414.64632872265861</v>
+        <v>-462.81130566928482</v>
       </c>
       <c r="S103" s="10">
         <v>-378.26721234782912</v>
@@ -8479,7 +8479,7 @@
         <v>174.94795288165824</v>
       </c>
       <c r="Y103" s="10">
-        <v>322.41941779092627</v>
+        <v>322.41941779092633</v>
       </c>
       <c r="Z103" s="10">
         <v>331.81414450676641</v>
@@ -8576,61 +8576,61 @@
         <v>6</v>
       </c>
       <c r="B106" s="15">
-        <v>232337.97601156379</v>
+        <v>235447.82115362774</v>
       </c>
       <c r="C106" s="16">
-        <v>178868.01833794318</v>
+        <v>181102.86416429491</v>
       </c>
       <c r="D106" s="16">
-        <v>26734319.930805065</v>
+        <v>26737924.400910635</v>
       </c>
       <c r="E106" s="16">
-        <v>44929887.883031353</v>
+        <v>44933135.262217492</v>
       </c>
       <c r="F106" s="16">
-        <v>47327429.201370098</v>
+        <v>47330256.098922305</v>
       </c>
       <c r="G106" s="16">
-        <v>47797219.81597846</v>
+        <v>47799486.124721013</v>
       </c>
       <c r="H106" s="16">
-        <v>51716614.661634952</v>
+        <v>51717440.964336187</v>
       </c>
       <c r="I106" s="16">
-        <v>50494819.782062761</v>
+        <v>50495081.636269525</v>
       </c>
       <c r="J106" s="16">
-        <v>48226806.176602289</v>
+        <v>48226830.242874466</v>
       </c>
       <c r="K106" s="16">
-        <v>46428511.624729328</v>
+        <v>46428481.641732492</v>
       </c>
       <c r="L106" s="16">
-        <v>45338069.111478627</v>
+        <v>45338102.785007775</v>
       </c>
       <c r="M106" s="16">
-        <v>43038456.236952685</v>
+        <v>43038426.420693457</v>
       </c>
       <c r="N106" s="16">
-        <v>40494968.262888253</v>
+        <v>40494934.700426333</v>
       </c>
       <c r="O106" s="16">
-        <v>38020554.265129432</v>
+        <v>38020529.85606622</v>
       </c>
       <c r="P106" s="16">
-        <v>40665089.963106111</v>
+        <v>40665071.792296141</v>
       </c>
       <c r="Q106" s="16">
-        <v>39074054.970545374</v>
+        <v>39074041.755410857</v>
       </c>
       <c r="R106" s="16">
-        <v>37244843.974598467</v>
+        <v>37244808.94663319</v>
       </c>
       <c r="S106" s="16">
-        <v>33962535.888263889</v>
+        <v>33962532.733048648</v>
       </c>
       <c r="T106" s="16">
-        <v>31349209.168412223</v>
+        <v>31349198.262053393</v>
       </c>
       <c r="U106" s="16">
         <v>29103032.433956821</v>
@@ -8655,7 +8655,7 @@
       </c>
       <c r="AB106" s="18">
         <f>SUM(TotalCost)</f>
-        <v>904231022.93794632</v>
+        <v>904249260.33494556</v>
       </c>
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.35">
@@ -8749,70 +8749,70 @@
         <v>8</v>
       </c>
       <c r="B109" s="3">
-        <v>79196260.980345547</v>
+        <v>79330965.818699449</v>
       </c>
       <c r="C109" s="4">
-        <v>49011597.220977031</v>
+        <v>48924398.304829493</v>
       </c>
       <c r="D109" s="4">
-        <v>39444054.567851424</v>
+        <v>39457061.277337477</v>
       </c>
       <c r="E109" s="4">
-        <v>33663886.082231902</v>
+        <v>33674291.449820757</v>
       </c>
       <c r="F109" s="4">
-        <v>27868604.817414697</v>
+        <v>26497501.895269904</v>
       </c>
       <c r="G109" s="4">
-        <v>23423367.307944994</v>
+        <v>23314777.672026444</v>
       </c>
       <c r="H109" s="4">
-        <v>9949182.2582214996</v>
+        <v>17588723.769495286</v>
       </c>
       <c r="I109" s="4">
-        <v>7985326.2211701991</v>
+        <v>5074750.0471727615</v>
       </c>
       <c r="J109" s="4">
-        <v>5459075.0236490462</v>
+        <v>5827621.2501656786</v>
       </c>
       <c r="K109" s="4">
-        <v>3903081.6028209636</v>
+        <v>3832954.5093205399</v>
       </c>
       <c r="L109" s="4">
-        <v>3144155.2014126806</v>
+        <v>2100667.732979733</v>
       </c>
       <c r="M109" s="4">
-        <v>3101293.8224836946</v>
+        <v>3015316.2450457877</v>
       </c>
       <c r="N109" s="4">
-        <v>3310731.4831707757</v>
+        <v>3208632.403334361</v>
       </c>
       <c r="O109" s="4">
-        <v>2977522.3094059438</v>
+        <v>2895843.0455368115</v>
       </c>
       <c r="P109" s="4">
-        <v>2199385.6066358062</v>
+        <v>2391307.962131049</v>
       </c>
       <c r="Q109" s="4">
-        <v>1238753.8610101088</v>
+        <v>1392291.7454062989</v>
       </c>
       <c r="R109" s="4">
-        <v>1508884.0502892176</v>
+        <v>2572447.3302892172</v>
       </c>
       <c r="S109" s="4">
-        <v>2062610.6985920682</v>
+        <v>2058377.4512589253</v>
       </c>
       <c r="T109" s="4">
-        <v>1582312.4418347122</v>
+        <v>1520619.9772859365</v>
       </c>
       <c r="U109" s="4">
-        <v>1295611.052617806</v>
+        <v>1295611.0526178041</v>
       </c>
       <c r="V109" s="4">
-        <v>79937.052314070723</v>
+        <v>79937.052314070679</v>
       </c>
       <c r="W109" s="4">
-        <v>1252884.8933133609</v>
+        <v>1252884.8933133604</v>
       </c>
       <c r="X109" s="4">
         <v>267164.15096759103</v>
@@ -8828,7 +8828,7 @@
       </c>
       <c r="AB109" s="12">
         <f>SUM(B109:AA109)</f>
-        <v>304049129.94914466</v>
+        <v>307697594.27908826</v>
       </c>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.35">
@@ -8836,73 +8836,73 @@
         <v>9</v>
       </c>
       <c r="B110" s="6">
-        <v>14645277.351339288</v>
+        <v>14626412.923791261</v>
       </c>
       <c r="C110" s="7">
-        <v>10157409.364606641</v>
+        <v>10125596.00048054</v>
       </c>
       <c r="D110" s="7">
-        <v>4448155.8269535499</v>
+        <v>4417574.5754833492</v>
       </c>
       <c r="E110" s="7">
-        <v>2495598.636821189</v>
+        <v>2471133.6356450305</v>
       </c>
       <c r="F110" s="7">
-        <v>1000824.6732913947</v>
+        <v>968116.1390485001</v>
       </c>
       <c r="G110" s="7">
-        <v>146237.21522264797</v>
+        <v>143461.76126945828</v>
       </c>
       <c r="H110" s="7">
-        <v>106268.16191048569</v>
+        <v>116875.00500342406</v>
       </c>
       <c r="I110" s="7">
-        <v>83814.573600663905</v>
+        <v>82983.369022057785</v>
       </c>
       <c r="J110" s="7">
-        <v>66277.304234993222</v>
+        <v>68253.132683529504</v>
       </c>
       <c r="K110" s="7">
-        <v>50243.470512677537</v>
+        <v>49926.954425378884</v>
       </c>
       <c r="L110" s="7">
-        <v>37081.828776051167</v>
+        <v>35886.131600836146</v>
       </c>
       <c r="M110" s="7">
-        <v>33544.854792472674</v>
+        <v>32997.662573297464</v>
       </c>
       <c r="N110" s="7">
-        <v>27660.194820856734</v>
+        <v>27243.123416296217</v>
       </c>
       <c r="O110" s="7">
-        <v>20640.240606438208</v>
+        <v>20306.583482789792</v>
       </c>
       <c r="P110" s="7">
-        <v>18033.831241308228</v>
+        <v>17829.223186409246</v>
       </c>
       <c r="Q110" s="7">
-        <v>13136.771772362054</v>
+        <v>12973.085328442876</v>
       </c>
       <c r="R110" s="7">
-        <v>10391.301281398552</v>
+        <v>10659.941281398551</v>
       </c>
       <c r="S110" s="7">
-        <v>9142.9197011750366</v>
+        <v>9110.5058624832873</v>
       </c>
       <c r="T110" s="7">
-        <v>6083.1588251314861</v>
+        <v>6816.4883608977707</v>
       </c>
       <c r="U110" s="7">
-        <v>5283.338458724631</v>
+        <v>5283.3384587246273</v>
       </c>
       <c r="V110" s="7">
-        <v>3316.8852675453695</v>
+        <v>3316.8852675453672</v>
       </c>
       <c r="W110" s="7">
-        <v>3146.6558080051545</v>
+        <v>3146.6558080051532</v>
       </c>
       <c r="X110" s="7">
-        <v>3088.7874138809761</v>
+        <v>3088.7874138809752</v>
       </c>
       <c r="Y110" s="7">
         <v>2543.9204436243908</v>
@@ -8915,7 +8915,7 @@
       </c>
       <c r="AB110" s="13">
         <f t="shared" ref="AB110:AB113" si="0">SUM(B110:AA110)</f>
-        <v>33395245.267702509</v>
+        <v>33263579.829337154</v>
       </c>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.35">
@@ -8923,73 +8923,73 @@
         <v>10</v>
       </c>
       <c r="B111" s="6">
-        <v>81984668287.849655</v>
+        <v>81899302200.206284</v>
       </c>
       <c r="C111" s="7">
-        <v>65587734630.279724</v>
+        <v>65519441760.165039</v>
       </c>
       <c r="D111" s="7">
-        <v>52470187704.223778</v>
+        <v>52415553408.132034</v>
       </c>
       <c r="E111" s="7">
-        <v>41976150163.379021</v>
+        <v>41932442726.50563</v>
       </c>
       <c r="F111" s="7">
-        <v>33580920130.703217</v>
+        <v>33545954181.204506</v>
       </c>
       <c r="G111" s="7">
-        <v>26864736104.562572</v>
+        <v>26836763344.963604</v>
       </c>
       <c r="H111" s="7">
-        <v>21491788883.650059</v>
+        <v>21456393691.588493</v>
       </c>
       <c r="I111" s="7">
-        <v>17193431106.920048</v>
+        <v>17165114953.270796</v>
       </c>
       <c r="J111" s="7">
-        <v>13754744885.536039</v>
+        <v>13732091962.616636</v>
       </c>
       <c r="K111" s="7">
-        <v>11003795908.428831</v>
+        <v>10985673570.093309</v>
       </c>
       <c r="L111" s="7">
-        <v>8803036726.7430649</v>
+        <v>8788538856.0746479</v>
       </c>
       <c r="M111" s="7">
-        <v>7042429381.3944521</v>
+        <v>7020678011.8890476</v>
       </c>
       <c r="N111" s="7">
-        <v>5633943505.1155615</v>
+        <v>5607027635.1936865</v>
       </c>
       <c r="O111" s="7">
-        <v>4507154804.0924492</v>
+        <v>4485622108.1549492</v>
       </c>
       <c r="P111" s="7">
-        <v>3605723843.2739592</v>
+        <v>3588497686.5239596</v>
       </c>
       <c r="Q111" s="7">
-        <v>2884579074.6191673</v>
+        <v>2870798149.2191677</v>
       </c>
       <c r="R111" s="7">
-        <v>2307663259.695334</v>
+        <v>2296638519.3753343</v>
       </c>
       <c r="S111" s="7">
-        <v>1840771698.1115513</v>
+        <v>1836767512.8936756</v>
       </c>
       <c r="T111" s="7">
-        <v>1472617358.4892411</v>
+        <v>1469414010.3149405</v>
       </c>
       <c r="U111" s="7">
-        <v>1175531208.2519529</v>
+        <v>1175531208.2519524</v>
       </c>
       <c r="V111" s="7">
-        <v>940424966.60156238</v>
+        <v>940424966.60156202</v>
       </c>
       <c r="W111" s="7">
-        <v>752339973.28124988</v>
+        <v>752339973.28124964</v>
       </c>
       <c r="X111" s="7">
-        <v>601871978.62499988</v>
+        <v>601871978.62499976</v>
       </c>
       <c r="Y111" s="7">
         <v>481497582.89999992</v>
@@ -9002,7 +9002,7 @@
       </c>
       <c r="AB111" s="13">
         <f t="shared" si="0"/>
-        <v>408342941233.04755</v>
+        <v>407789578064.3656</v>
       </c>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.35">
@@ -9010,73 +9010,73 @@
         <v>11</v>
       </c>
       <c r="B112" s="6">
-        <v>6681389.644961739</v>
+        <v>6683810.291262161</v>
       </c>
       <c r="C112" s="7">
-        <v>5089910.6879425514</v>
+        <v>5074943.2575822724</v>
       </c>
       <c r="D112" s="7">
-        <v>2826385.9863402438</v>
+        <v>2810979.2292704466</v>
       </c>
       <c r="E112" s="7">
-        <v>1751043.4900144965</v>
+        <v>1738718.08435866</v>
       </c>
       <c r="F112" s="7">
-        <v>1022523.4479039389</v>
+        <v>1002447.5311587845</v>
       </c>
       <c r="G112" s="7">
-        <v>521009.09283178009</v>
+        <v>522396.81980837492</v>
       </c>
       <c r="H112" s="7">
-        <v>423166.9297968254</v>
+        <v>424907.52407929359</v>
       </c>
       <c r="I112" s="7">
-        <v>343111.18398164475</v>
+        <v>341993.13165960886</v>
       </c>
       <c r="J112" s="7">
-        <v>277067.1602619036</v>
+        <v>277208.04566259147</v>
       </c>
       <c r="K112" s="7">
-        <v>227081.31208900345</v>
+        <v>226596.12956623663</v>
       </c>
       <c r="L112" s="7">
-        <v>188062.87885839242</v>
+        <v>187682.37952267568</v>
       </c>
       <c r="M112" s="7">
-        <v>157455.59680555487</v>
+        <v>156908.40458637971</v>
       </c>
       <c r="N112" s="7">
-        <v>130235.20959812964</v>
+        <v>129734.72391265701</v>
       </c>
       <c r="O112" s="7">
-        <v>107925.44918554535</v>
+        <v>107525.06063716725</v>
       </c>
       <c r="P112" s="7">
-        <v>85219.83809541876</v>
+        <v>87265.91864440855</v>
       </c>
       <c r="Q112" s="7">
-        <v>74597.24938745625</v>
+        <v>76234.113826648041</v>
       </c>
       <c r="R112" s="7">
-        <v>65167.162329090585</v>
+        <v>65097.082329090576</v>
       </c>
       <c r="S112" s="7">
-        <v>52449.232825820785</v>
+        <v>52371.439612960581</v>
       </c>
       <c r="T112" s="7">
-        <v>42052.316363354657</v>
+        <v>41160.541005691797</v>
       </c>
       <c r="U112" s="7">
         <v>34593.844291603818</v>
       </c>
       <c r="V112" s="7">
-        <v>18194.352856145182</v>
+        <v>18194.352856145175</v>
       </c>
       <c r="W112" s="7">
-        <v>17290.902752033508</v>
+        <v>17290.902752033497</v>
       </c>
       <c r="X112" s="7">
-        <v>14383.255724419125</v>
+        <v>14383.255724419123</v>
       </c>
       <c r="Y112" s="7">
         <v>10172.865419598049</v>
@@ -9089,7 +9089,7 @@
       </c>
       <c r="AB112" s="13">
         <f t="shared" si="0"/>
-        <v>20169003.810616687</v>
+        <v>20111129.649529915</v>
       </c>
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.35">
@@ -9097,70 +9097,70 @@
         <v>12</v>
       </c>
       <c r="B113" s="9">
-        <v>954323.9115015514</v>
+        <v>954541.98815458373</v>
       </c>
       <c r="C113" s="10">
-        <v>724084.19169989647</v>
+        <v>721842.10699005704</v>
       </c>
       <c r="D113" s="10">
-        <v>387871.85582938354</v>
+        <v>385549.22913544427</v>
       </c>
       <c r="E113" s="10">
-        <v>233186.03075309278</v>
+        <v>231327.92939794157</v>
       </c>
       <c r="F113" s="10">
-        <v>129816.26575595785</v>
+        <v>126432.71328181397</v>
       </c>
       <c r="G113" s="10">
-        <v>59598.580573215862</v>
+        <v>59945.512317364577</v>
       </c>
       <c r="H113" s="10">
-        <v>49290.721455451836</v>
+        <v>49641.322231032624</v>
       </c>
       <c r="I113" s="10">
-        <v>40408.488114570246</v>
+        <v>40449.36811457025</v>
       </c>
       <c r="J113" s="10">
-        <v>32903.242062385179</v>
+        <v>32948.303620715218</v>
       </c>
       <c r="K113" s="10">
-        <v>26975.388011125433</v>
+        <v>26912.084793665701</v>
       </c>
       <c r="L113" s="10">
-        <v>22098.083857299047</v>
+        <v>22070.96144033446</v>
       </c>
       <c r="M113" s="10">
-        <v>18272.173600694357</v>
+        <v>18203.774573297458</v>
       </c>
       <c r="N113" s="10">
-        <v>15268.594601284474</v>
+        <v>15185.18032037237</v>
       </c>
       <c r="O113" s="10">
-        <v>12742.334321534789</v>
+        <v>12675.602896805107</v>
       </c>
       <c r="P113" s="10">
-        <v>10152.982055047942</v>
+        <v>10357.590109946923</v>
       </c>
       <c r="Q113" s="10">
-        <v>8812.5511636612409</v>
+        <v>8976.2376075804204</v>
       </c>
       <c r="R113" s="10">
-        <v>7712.0079610489138</v>
+        <v>7671.1279610489128</v>
       </c>
       <c r="S113" s="10">
-        <v>6233.8583236086861</v>
+        <v>6224.1341720011596</v>
       </c>
       <c r="T113" s="10">
-        <v>4974.3811188486143</v>
+        <v>4895.1315830823287</v>
       </c>
       <c r="U113" s="10">
-        <v>4136.0127554535047</v>
+        <v>4136.0127554535065</v>
       </c>
       <c r="V113" s="10">
-        <v>2255.3141070181478</v>
+        <v>2255.3141070181468</v>
       </c>
       <c r="W113" s="10">
-        <v>2072.371856003866</v>
+        <v>2072.3718560038651</v>
       </c>
       <c r="X113" s="10">
         <v>1724.9069655523904</v>
@@ -9176,7 +9176,7 @@
       </c>
       <c r="AB113" s="14">
         <f t="shared" si="0"/>
-        <v>2757204.9366211356</v>
+        <v>2748329.592563136</v>
       </c>
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.35">

--- a/717A11_output.xlsx
+++ b/717A11_output.xlsx
@@ -734,16 +734,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="4">
-        <v>457.65467936389945</v>
+        <v>506.38347009689596</v>
       </c>
       <c r="E3" s="4">
-        <v>499.66161604279506</v>
+        <v>519.20000000000005</v>
       </c>
       <c r="F3" s="4">
-        <v>511.0760482624591</v>
+        <v>512.68404664546983</v>
       </c>
       <c r="G3" s="4">
-        <v>118.0212600483369</v>
+        <v>272.0212600483369</v>
       </c>
       <c r="H3" s="4">
         <v>0</v>
@@ -841,40 +841,40 @@
         <v>665.6</v>
       </c>
       <c r="L4" s="7">
-        <v>665.6</v>
+        <v>514.01695197695256</v>
       </c>
       <c r="M4" s="7">
-        <v>334.6423436042345</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>269.08451052641817</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7">
-        <v>281.88362112115578</v>
+        <v>0</v>
       </c>
       <c r="P4" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R4" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S4" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T4" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U4" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V4" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W4" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X4" s="7">
         <v>0</v>
@@ -915,49 +915,49 @@
         <v>46.5</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>16.559470043443312</v>
       </c>
       <c r="J5" s="7">
-        <v>10.717900355684321</v>
+        <v>27.962774111066487</v>
       </c>
       <c r="K5" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L5" s="7">
         <v>0</v>
       </c>
       <c r="M5" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P5" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="7">
         <v>0</v>
       </c>
       <c r="R5" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S5" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T5" s="7">
-        <v>7</v>
+        <v>45.723686448094384</v>
       </c>
       <c r="U5" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V5" s="7">
         <v>0</v>
       </c>
       <c r="W5" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X5" s="7">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C6" s="7">
         <v>212</v>
@@ -992,64 +992,64 @@
         <v>212</v>
       </c>
       <c r="G6" s="7">
-        <v>212</v>
+        <v>212.00000000000006</v>
       </c>
       <c r="H6" s="7">
-        <v>212</v>
+        <v>212.00000000000006</v>
       </c>
       <c r="I6" s="7">
-        <v>212</v>
+        <v>212.00000000000006</v>
       </c>
       <c r="J6" s="7">
-        <v>212</v>
+        <v>212.00000000000006</v>
       </c>
       <c r="K6" s="7">
-        <v>212</v>
+        <v>212.00000000000006</v>
       </c>
       <c r="L6" s="7">
-        <v>212</v>
+        <v>212.00000000000006</v>
       </c>
       <c r="M6" s="7">
         <v>212</v>
       </c>
       <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>203.32355843043547</v>
+      </c>
+      <c r="P6" s="7">
+        <v>80.869054843514846</v>
+      </c>
+      <c r="Q6" s="7">
         <v>212</v>
       </c>
-      <c r="O6" s="7">
-        <v>212</v>
-      </c>
-      <c r="P6" s="7">
-        <v>175.55734287955269</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>196.18535667848235</v>
-      </c>
       <c r="R6" s="7">
-        <v>185.58310279959551</v>
+        <v>0</v>
       </c>
       <c r="S6" s="7">
-        <v>117.15053398555688</v>
+        <v>158.4214912785749</v>
       </c>
       <c r="T6" s="7">
-        <v>48.08907029393594</v>
+        <v>212.00000000000006</v>
       </c>
       <c r="U6" s="7">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="V6" s="7">
-        <v>0</v>
+        <v>180.74272494925566</v>
       </c>
       <c r="W6" s="7">
-        <v>33.952731507069913</v>
+        <v>142.5348977517433</v>
       </c>
       <c r="X6" s="7">
-        <v>32</v>
+        <v>112.32783118150742</v>
       </c>
       <c r="Y6" s="7">
-        <v>0</v>
+        <v>88.509389053246196</v>
       </c>
       <c r="Z6" s="7">
-        <v>0</v>
+        <v>65.926573554725479</v>
       </c>
       <c r="AA6" s="8">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>137.60133752658996</v>
+        <v>182.27465497101917</v>
       </c>
       <c r="C7" s="7">
         <v>464</v>
@@ -1087,52 +1087,52 @@
         <v>464</v>
       </c>
       <c r="K7" s="7">
-        <v>382.66823890291812</v>
+        <v>464</v>
       </c>
       <c r="L7" s="7">
-        <v>77.137109617676288</v>
+        <v>276.7201576407241</v>
       </c>
       <c r="M7" s="7">
-        <v>70</v>
+        <v>459.64234360423416</v>
       </c>
       <c r="N7" s="7">
-        <v>70</v>
+        <v>432.22033346733224</v>
       </c>
       <c r="O7" s="7">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="P7" s="7">
-        <v>281.54396084735947</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="7">
-        <v>149.33545878197012</v>
+        <v>331.52081546045247</v>
       </c>
       <c r="R7" s="7">
-        <v>70</v>
+        <v>415.58310279959551</v>
       </c>
       <c r="S7" s="7">
-        <v>70</v>
+        <v>179.8724594462162</v>
       </c>
       <c r="T7" s="7">
-        <v>83.570125987377651</v>
+        <v>0</v>
       </c>
       <c r="U7" s="7">
-        <v>74.736248586459823</v>
+        <v>206.65743952714405</v>
       </c>
       <c r="V7" s="7">
-        <v>73.591961217307102</v>
+        <v>0</v>
       </c>
       <c r="W7" s="7">
         <v>0</v>
       </c>
       <c r="X7" s="7">
-        <v>70.180390886334777</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="7">
-        <v>77.120563137821605</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="7">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="8">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>101.50000000000003</v>
       </c>
       <c r="E8" s="7">
-        <v>101.50000000000003</v>
+        <v>101.5</v>
       </c>
       <c r="F8" s="7">
         <v>101.50000000000003</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S8" s="7">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C9" s="7">
         <v>84.6</v>
@@ -1247,13 +1247,13 @@
         <v>84.6</v>
       </c>
       <c r="I9" s="7">
-        <v>70.361364447312411</v>
+        <v>84.6</v>
       </c>
       <c r="J9" s="7">
         <v>84.6</v>
       </c>
       <c r="K9" s="7">
-        <v>84.6</v>
+        <v>82.959216037209245</v>
       </c>
       <c r="L9" s="7">
         <v>84.6</v>
@@ -1265,7 +1265,7 @@
         <v>84.6</v>
       </c>
       <c r="O9" s="7">
-        <v>84.6</v>
+        <v>82.595275788506342</v>
       </c>
       <c r="P9" s="7">
         <v>84.6</v>
@@ -1283,22 +1283,22 @@
         <v>84.6</v>
       </c>
       <c r="U9" s="7">
-        <v>82.916288354089914</v>
+        <v>63.627289520700799</v>
       </c>
       <c r="V9" s="7">
-        <v>13</v>
+        <v>64.233766660019754</v>
       </c>
       <c r="W9" s="7">
-        <v>13</v>
+        <v>77.805582282014257</v>
       </c>
       <c r="X9" s="7">
-        <v>13</v>
+        <v>84.054913172552958</v>
       </c>
       <c r="Y9" s="7">
-        <v>13</v>
+        <v>84.6</v>
       </c>
       <c r="Z9" s="7">
-        <v>13</v>
+        <v>84.6</v>
       </c>
       <c r="AA9" s="8">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>88</v>
       </c>
       <c r="C10" s="7">
-        <v>80.010796973076836</v>
+        <v>69.664756762525172</v>
       </c>
       <c r="D10" s="7">
         <v>88</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="U10" s="7">
         <v>0</v>
@@ -1428,16 +1428,16 @@
         <v>650</v>
       </c>
       <c r="N11" s="7">
-        <v>391.01655391079163</v>
+        <v>608.94739122933879</v>
       </c>
       <c r="O11" s="7">
-        <v>208.39293345260231</v>
+        <v>650</v>
       </c>
       <c r="P11" s="7">
-        <v>98</v>
+        <v>594.46293329449963</v>
       </c>
       <c r="Q11" s="7">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="R11" s="7">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>186</v>
       </c>
       <c r="K12" s="7">
-        <v>93.54071515168701</v>
+        <v>0</v>
       </c>
       <c r="L12" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="M12" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>72.06666025946123</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7">
-        <v>42.042279645183356</v>
+        <v>0</v>
       </c>
       <c r="P12" s="7">
         <v>0</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="R12" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="S12" s="7">
-        <v>28.841599119532162</v>
+        <v>0</v>
       </c>
       <c r="T12" s="7">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>154</v>
       </c>
       <c r="F13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="G13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="K14" s="7">
         <v>0</v>
@@ -1727,7 +1727,7 @@
         <v>1848</v>
       </c>
       <c r="C15" s="7">
-        <v>845.78920302692109</v>
+        <v>856.13524323747231</v>
       </c>
       <c r="D15" s="7">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>656.1</v>
       </c>
       <c r="I16" s="7">
-        <v>609.32585670395758</v>
+        <v>598.52775110782636</v>
       </c>
       <c r="J16" s="7">
-        <v>0</v>
+        <v>154.20223203056383</v>
       </c>
       <c r="K16" s="7">
         <v>0</v>
@@ -1899,7 +1899,7 @@
         <v>50.300000000000011</v>
       </c>
       <c r="E17" s="7">
-        <v>50.300000000000011</v>
+        <v>50.3</v>
       </c>
       <c r="F17" s="7">
         <v>50.300000000000011</v>
@@ -1908,13 +1908,13 @@
         <v>50.3</v>
       </c>
       <c r="H17" s="7">
-        <v>34.342136474464638</v>
+        <v>37.926596851692885</v>
       </c>
       <c r="I17" s="7">
         <v>0</v>
       </c>
       <c r="J17" s="7">
-        <v>9.7990036849789703</v>
+        <v>0</v>
       </c>
       <c r="K17" s="7">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U17" s="7">
         <v>0</v>
@@ -2000,34 +2000,34 @@
         <v>67</v>
       </c>
       <c r="K18" s="7">
-        <v>13.63753714229982</v>
+        <v>64.487275159696054</v>
       </c>
       <c r="L18" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M18" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P18" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="7">
         <v>0</v>
       </c>
       <c r="R18" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S18" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T18" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U18" s="7">
         <v>0</v>
@@ -2039,10 +2039,10 @@
         <v>0</v>
       </c>
       <c r="X18" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="7">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         <v>257</v>
       </c>
       <c r="D19" s="7">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="F19" s="7">
-        <v>0</v>
+        <v>240.03841128152476</v>
       </c>
       <c r="G19" s="7">
         <v>0</v>
@@ -2145,13 +2145,13 @@
         <v>2269.6</v>
       </c>
       <c r="D20" s="7">
-        <v>1677.2123206360975</v>
+        <v>1687.483529903101</v>
       </c>
       <c r="E20" s="7">
-        <v>849.34448695720084</v>
+        <v>878.8061029999958</v>
       </c>
       <c r="F20" s="7">
-        <v>345.64640966453572</v>
+        <v>0</v>
       </c>
       <c r="G20" s="7">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6">
-        <v>25.898662473409711</v>
+        <v>26.225345028981053</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -2314,13 +2314,13 @@
         <v>398.30000000000013</v>
       </c>
       <c r="E22" s="7">
+        <v>398.3</v>
+      </c>
+      <c r="F22" s="7">
         <v>398.30000000000013</v>
       </c>
-      <c r="F22" s="7">
-        <v>398.3</v>
-      </c>
       <c r="G22" s="7">
-        <v>398.3</v>
+        <v>398.30000000000013</v>
       </c>
       <c r="H22" s="7">
         <v>398.3</v>
@@ -3491,7 +3491,7 @@
         <v>10</v>
       </c>
       <c r="J36" s="7">
-        <v>1.648102100967634</v>
+        <v>10</v>
       </c>
       <c r="K36" s="7">
         <v>10</v>
@@ -4054,76 +4054,76 @@
         <v>0</v>
       </c>
       <c r="D43" s="7">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E43" s="7">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="F43" s="7">
-        <v>2150</v>
+        <v>0</v>
       </c>
       <c r="G43" s="7">
+        <v>0</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7">
+        <v>0</v>
+      </c>
+      <c r="K43" s="7">
+        <v>200</v>
+      </c>
+      <c r="L43" s="7">
+        <v>600</v>
+      </c>
+      <c r="M43" s="7">
+        <v>1000</v>
+      </c>
+      <c r="N43" s="7">
+        <v>1350</v>
+      </c>
+      <c r="O43" s="7">
+        <v>1600</v>
+      </c>
+      <c r="P43" s="7">
+        <v>1850</v>
+      </c>
+      <c r="Q43" s="7">
+        <v>2050</v>
+      </c>
+      <c r="R43" s="7">
+        <v>2250</v>
+      </c>
+      <c r="S43" s="7">
+        <v>2400</v>
+      </c>
+      <c r="T43" s="7">
+        <v>2545.9355098332194</v>
+      </c>
+      <c r="U43" s="7">
+        <v>2700</v>
+      </c>
+      <c r="V43" s="7">
         <v>2800</v>
       </c>
-      <c r="H43" s="7">
-        <v>3493.3656149143071</v>
-      </c>
-      <c r="I43" s="7">
-        <v>4100</v>
-      </c>
-      <c r="J43" s="7">
-        <v>4600</v>
-      </c>
-      <c r="K43" s="7">
-        <v>5050</v>
-      </c>
-      <c r="L43" s="7">
-        <v>5500</v>
-      </c>
-      <c r="M43" s="7">
-        <v>5900</v>
-      </c>
-      <c r="N43" s="7">
-        <v>6250</v>
-      </c>
-      <c r="O43" s="7">
-        <v>6500</v>
-      </c>
-      <c r="P43" s="7">
-        <v>6550</v>
-      </c>
-      <c r="Q43" s="7">
-        <v>6550</v>
-      </c>
-      <c r="R43" s="7">
-        <v>6550</v>
-      </c>
-      <c r="S43" s="7">
-        <v>6545.301817619702</v>
-      </c>
-      <c r="T43" s="7">
-        <v>6550</v>
-      </c>
-      <c r="U43" s="7">
-        <v>6543.6321921072949</v>
-      </c>
-      <c r="V43" s="7">
-        <v>6458.3845303919679</v>
-      </c>
       <c r="W43" s="7">
-        <v>6453.4518995188828</v>
+        <v>2900</v>
       </c>
       <c r="X43" s="7">
-        <v>6241.2023534677255</v>
+        <v>3000</v>
       </c>
       <c r="Y43" s="7">
-        <v>6102.988825915425</v>
+        <v>3100</v>
       </c>
       <c r="Z43" s="7">
-        <v>6107.5265735547255</v>
+        <v>3200</v>
       </c>
       <c r="AA43" s="8">
-        <v>5698.6405127167163</v>
+        <v>3432.9524101733732</v>
       </c>
       <c r="AB43" t="s">
         <v>15</v>
@@ -4140,76 +4140,76 @@
         <v>0</v>
       </c>
       <c r="D44" s="7">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="E44" s="7">
-        <v>0</v>
+        <v>1390</v>
       </c>
       <c r="F44" s="7">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="G44" s="7">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="H44" s="7">
-        <v>0</v>
+        <v>3489.7811545370787</v>
       </c>
       <c r="I44" s="7">
-        <v>0</v>
+        <v>4080</v>
       </c>
       <c r="J44" s="7">
-        <v>0</v>
+        <v>4580</v>
       </c>
       <c r="K44" s="7">
-        <v>0</v>
+        <v>4820</v>
       </c>
       <c r="L44" s="7">
-        <v>0</v>
+        <v>4890</v>
       </c>
       <c r="M44" s="7">
-        <v>0</v>
+        <v>4890</v>
       </c>
       <c r="N44" s="7">
-        <v>0</v>
+        <v>4890</v>
       </c>
       <c r="O44" s="7">
-        <v>20</v>
+        <v>4900</v>
       </c>
       <c r="P44" s="7">
-        <v>200</v>
+        <v>4896.7693155888974</v>
       </c>
       <c r="Q44" s="7">
-        <v>400</v>
+        <v>4900</v>
       </c>
       <c r="R44" s="7">
-        <v>600</v>
+        <v>4900</v>
       </c>
       <c r="S44" s="7">
-        <v>760</v>
+        <v>4900</v>
       </c>
       <c r="T44" s="7">
-        <v>900</v>
+        <v>4900</v>
       </c>
       <c r="U44" s="7">
-        <v>1030</v>
+        <v>4900</v>
       </c>
       <c r="V44" s="7">
-        <v>1300</v>
+        <v>4900</v>
       </c>
       <c r="W44" s="7">
-        <v>1412.9358490078048</v>
+        <v>4900</v>
       </c>
       <c r="X44" s="7">
-        <v>1730</v>
+        <v>4900</v>
       </c>
       <c r="Y44" s="7">
-        <v>1970</v>
+        <v>4900</v>
       </c>
       <c r="Z44" s="7">
-        <v>2060</v>
+        <v>4900</v>
       </c>
       <c r="AA44" s="8">
-        <v>2630</v>
+        <v>4895.6881025433431</v>
       </c>
       <c r="AB44" t="s">
         <v>16</v>
@@ -4486,64 +4486,64 @@
         <v>100</v>
       </c>
       <c r="D50" s="7">
-        <v>161.37009999999952</v>
+        <v>100</v>
       </c>
       <c r="E50" s="7">
-        <v>180.61183089999918</v>
+        <v>100</v>
       </c>
       <c r="F50" s="7">
-        <v>480.0267373780988</v>
+        <v>100</v>
       </c>
       <c r="G50" s="7">
-        <v>665.6</v>
+        <v>100</v>
       </c>
       <c r="H50" s="7">
-        <v>665.6</v>
+        <v>100</v>
       </c>
       <c r="I50" s="7">
-        <v>665.6</v>
+        <v>100</v>
       </c>
       <c r="J50" s="7">
-        <v>665.6</v>
+        <v>100</v>
       </c>
       <c r="K50" s="7">
-        <v>665.6</v>
+        <v>100</v>
       </c>
       <c r="L50" s="7">
-        <v>665.6</v>
+        <v>100</v>
       </c>
       <c r="M50" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="N50" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="O50" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="P50" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="R50" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="S50" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="T50" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="U50" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="V50" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="W50" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="X50" s="7">
         <v>0</v>
@@ -4569,10 +4569,10 @@
         <v>7</v>
       </c>
       <c r="D51" s="7">
-        <v>6.9999999999999929</v>
+        <v>7</v>
       </c>
       <c r="E51" s="7">
-        <v>6.9999999999999929</v>
+        <v>7</v>
       </c>
       <c r="F51" s="7">
         <v>7</v>
@@ -4584,49 +4584,49 @@
         <v>7</v>
       </c>
       <c r="I51" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J51" s="7">
-        <v>46.5</v>
+        <v>7</v>
       </c>
       <c r="K51" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="L51" s="7">
         <v>0</v>
       </c>
       <c r="M51" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="N51" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="O51" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="P51" s="7">
-        <v>37.450391118073526</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="7">
         <v>0</v>
       </c>
       <c r="R51" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="S51" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="T51" s="7">
-        <v>46.5</v>
+        <v>7</v>
       </c>
       <c r="U51" s="7">
-        <v>33.525418714387285</v>
+        <v>0</v>
       </c>
       <c r="V51" s="7">
         <v>0</v>
       </c>
       <c r="W51" s="7">
-        <v>42.542144010126862</v>
+        <v>0</v>
       </c>
       <c r="X51" s="7">
         <v>0</v>
@@ -4646,7 +4646,7 @@
         <v>4</v>
       </c>
       <c r="B52" s="6">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="C52" s="7">
         <v>212</v>
@@ -4655,70 +4655,70 @@
         <v>212</v>
       </c>
       <c r="E52" s="7">
-        <v>212</v>
+        <v>31.999999999999943</v>
       </c>
       <c r="F52" s="7">
-        <v>212</v>
+        <v>31.999999999999943</v>
       </c>
       <c r="G52" s="7">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="H52" s="7">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="I52" s="7">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="J52" s="7">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="K52" s="7">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="L52" s="7">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="M52" s="7">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="N52" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="O52" s="7">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="P52" s="7">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="Q52" s="7">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="R52" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="S52" s="7">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="T52" s="7">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="U52" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="V52" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="W52" s="7">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="X52" s="7">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="Y52" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Z52" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA52" s="8">
         <v>0</v>
@@ -4744,64 +4744,64 @@
         <v>70</v>
       </c>
       <c r="G53" s="7">
-        <v>221.01637801450158</v>
+        <v>70</v>
       </c>
       <c r="H53" s="7">
-        <v>392.78232541663158</v>
+        <v>70</v>
       </c>
       <c r="I53" s="7">
-        <v>464</v>
+        <v>70</v>
       </c>
       <c r="J53" s="7">
-        <v>464</v>
+        <v>70</v>
       </c>
       <c r="K53" s="7">
-        <v>464</v>
+        <v>70</v>
       </c>
       <c r="L53" s="7">
-        <v>464</v>
+        <v>70</v>
       </c>
       <c r="M53" s="7">
-        <v>464</v>
+        <v>70</v>
       </c>
       <c r="N53" s="7">
-        <v>464</v>
+        <v>70</v>
       </c>
       <c r="O53" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="P53" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="7">
-        <v>389.87624463813574</v>
+        <v>70</v>
       </c>
       <c r="R53" s="7">
-        <v>464</v>
+        <v>70</v>
       </c>
       <c r="S53" s="7">
-        <v>464</v>
+        <v>70</v>
       </c>
       <c r="T53" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="U53" s="7">
-        <v>463.99999999996601</v>
+        <v>70</v>
       </c>
       <c r="V53" s="7">
-        <v>461.93294748278197</v>
+        <v>0</v>
       </c>
       <c r="W53" s="7">
         <v>0</v>
       </c>
       <c r="X53" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="Z53" s="7">
-        <v>459.19797206641738</v>
+        <v>0</v>
       </c>
       <c r="AA53" s="8">
         <v>0</v>
@@ -4821,7 +4821,7 @@
         <v>15</v>
       </c>
       <c r="E54" s="7">
-        <v>15</v>
+        <v>14.999999999999972</v>
       </c>
       <c r="F54" s="7">
         <v>15</v>
@@ -4860,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="R54" s="7">
-        <v>97.994930839878634</v>
+        <v>0</v>
       </c>
       <c r="S54" s="7">
         <v>0</v>
@@ -4895,7 +4895,7 @@
         <v>7</v>
       </c>
       <c r="B55" s="6">
-        <v>84.6</v>
+        <v>0</v>
       </c>
       <c r="C55" s="7">
         <v>84.6</v>
@@ -4904,70 +4904,70 @@
         <v>84.6</v>
       </c>
       <c r="E55" s="7">
-        <v>84.6</v>
+        <v>13</v>
       </c>
       <c r="F55" s="7">
-        <v>84.6</v>
+        <v>13</v>
       </c>
       <c r="G55" s="7">
-        <v>84.6</v>
+        <v>13</v>
       </c>
       <c r="H55" s="7">
-        <v>84.6</v>
+        <v>13</v>
       </c>
       <c r="I55" s="7">
-        <v>84.6</v>
+        <v>13</v>
       </c>
       <c r="J55" s="7">
-        <v>84.6</v>
+        <v>13</v>
       </c>
       <c r="K55" s="7">
-        <v>84.6</v>
+        <v>13</v>
       </c>
       <c r="L55" s="7">
-        <v>84.6</v>
+        <v>13</v>
       </c>
       <c r="M55" s="7">
-        <v>84.6</v>
+        <v>13</v>
       </c>
       <c r="N55" s="7">
-        <v>84.6</v>
+        <v>13</v>
       </c>
       <c r="O55" s="7">
-        <v>84.6</v>
+        <v>13</v>
       </c>
       <c r="P55" s="7">
-        <v>84.6</v>
+        <v>13</v>
       </c>
       <c r="Q55" s="7">
-        <v>84.6</v>
+        <v>13</v>
       </c>
       <c r="R55" s="7">
-        <v>84.6</v>
+        <v>13</v>
       </c>
       <c r="S55" s="7">
-        <v>84.6</v>
+        <v>13</v>
       </c>
       <c r="T55" s="7">
-        <v>84.6</v>
+        <v>13</v>
       </c>
       <c r="U55" s="7">
-        <v>84.6</v>
+        <v>13</v>
       </c>
       <c r="V55" s="7">
-        <v>84.6</v>
+        <v>13</v>
       </c>
       <c r="W55" s="7">
-        <v>84.6</v>
+        <v>13</v>
       </c>
       <c r="X55" s="7">
-        <v>84.6</v>
+        <v>13</v>
       </c>
       <c r="Y55" s="7">
-        <v>84.6</v>
+        <v>13</v>
       </c>
       <c r="Z55" s="7">
-        <v>84.6</v>
+        <v>13</v>
       </c>
       <c r="AA55" s="8">
         <v>0</v>
@@ -5032,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="T56" s="7">
-        <v>27.817758884393811</v>
+        <v>0</v>
       </c>
       <c r="U56" s="7">
         <v>0</v>
@@ -5064,49 +5064,49 @@
         <v>0</v>
       </c>
       <c r="C57" s="7">
-        <v>599.29999999999905</v>
+        <v>599.2999999999995</v>
       </c>
       <c r="D57" s="7">
-        <v>650</v>
+        <v>438.37009999999952</v>
       </c>
       <c r="E57" s="7">
-        <v>650</v>
+        <v>98</v>
       </c>
       <c r="F57" s="7">
-        <v>650</v>
+        <v>98</v>
       </c>
       <c r="G57" s="7">
-        <v>650</v>
+        <v>98</v>
       </c>
       <c r="H57" s="7">
-        <v>650</v>
+        <v>98</v>
       </c>
       <c r="I57" s="7">
-        <v>650</v>
+        <v>98</v>
       </c>
       <c r="J57" s="7">
-        <v>650</v>
+        <v>98</v>
       </c>
       <c r="K57" s="7">
-        <v>650</v>
+        <v>98</v>
       </c>
       <c r="L57" s="7">
-        <v>650</v>
+        <v>98</v>
       </c>
       <c r="M57" s="7">
-        <v>650</v>
+        <v>98</v>
       </c>
       <c r="N57" s="7">
-        <v>650</v>
+        <v>98</v>
       </c>
       <c r="O57" s="7">
-        <v>650</v>
+        <v>98</v>
       </c>
       <c r="P57" s="7">
-        <v>650</v>
+        <v>98</v>
       </c>
       <c r="Q57" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="R57" s="7">
         <v>0</v>
@@ -5168,22 +5168,22 @@
         <v>28</v>
       </c>
       <c r="J58" s="7">
-        <v>35.34950184248919</v>
+        <v>28</v>
       </c>
       <c r="K58" s="7">
-        <v>86.653947359071481</v>
+        <v>0</v>
       </c>
       <c r="L58" s="7">
-        <v>153.64113288530302</v>
+        <v>0</v>
       </c>
       <c r="M58" s="7">
-        <v>127.81270308127034</v>
+        <v>0</v>
       </c>
       <c r="N58" s="7">
-        <v>148.67031740900143</v>
+        <v>0</v>
       </c>
       <c r="O58" s="7">
-        <v>149.71565026568248</v>
+        <v>0</v>
       </c>
       <c r="P58" s="7">
         <v>0</v>
@@ -5192,10 +5192,10 @@
         <v>0</v>
       </c>
       <c r="R58" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="S58" s="7">
-        <v>145.80818521743771</v>
+        <v>0</v>
       </c>
       <c r="T58" s="7">
         <v>0</v>
@@ -5239,10 +5239,10 @@
         <v>23</v>
       </c>
       <c r="F59" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G59" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -5334,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K60" s="7">
         <v>0</v>
@@ -5500,7 +5500,7 @@
         <v>98</v>
       </c>
       <c r="J62" s="7">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="K62" s="7">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>15</v>
       </c>
       <c r="B63" s="6">
-        <v>8</v>
+        <v>7.9999999999999858</v>
       </c>
       <c r="C63" s="7">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>8</v>
       </c>
       <c r="E63" s="7">
-        <v>8</v>
+        <v>7.9999999999999982</v>
       </c>
       <c r="F63" s="7">
         <v>8</v>
@@ -5583,37 +5583,37 @@
         <v>0</v>
       </c>
       <c r="J63" s="7">
+        <v>0</v>
+      </c>
+      <c r="K63" s="7">
+        <v>0</v>
+      </c>
+      <c r="L63" s="7">
+        <v>0</v>
+      </c>
+      <c r="M63" s="7">
+        <v>0</v>
+      </c>
+      <c r="N63" s="7">
+        <v>0</v>
+      </c>
+      <c r="O63" s="7">
+        <v>0</v>
+      </c>
+      <c r="P63" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="7">
+        <v>0</v>
+      </c>
+      <c r="R63" s="7">
+        <v>0</v>
+      </c>
+      <c r="S63" s="7">
+        <v>0</v>
+      </c>
+      <c r="T63" s="7">
         <v>8</v>
-      </c>
-      <c r="K63" s="7">
-        <v>0</v>
-      </c>
-      <c r="L63" s="7">
-        <v>0</v>
-      </c>
-      <c r="M63" s="7">
-        <v>0</v>
-      </c>
-      <c r="N63" s="7">
-        <v>0</v>
-      </c>
-      <c r="O63" s="7">
-        <v>0</v>
-      </c>
-      <c r="P63" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="7">
-        <v>0</v>
-      </c>
-      <c r="R63" s="7">
-        <v>0</v>
-      </c>
-      <c r="S63" s="7">
-        <v>0</v>
-      </c>
-      <c r="T63" s="7">
-        <v>0</v>
       </c>
       <c r="U63" s="7">
         <v>0</v>
@@ -5663,40 +5663,40 @@
         <v>10</v>
       </c>
       <c r="I64" s="7">
-        <v>33.72616634538133</v>
+        <v>10</v>
       </c>
       <c r="J64" s="7">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="K64" s="7">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="L64" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="M64" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="N64" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="O64" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="P64" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="Q64" s="7">
         <v>0</v>
       </c>
       <c r="R64" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="S64" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="T64" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="U64" s="7">
         <v>0</v>
@@ -5708,10 +5708,10 @@
         <v>0</v>
       </c>
       <c r="X64" s="7">
-        <v>66.954823306218259</v>
+        <v>0</v>
       </c>
       <c r="Y64" s="7">
-        <v>61.972816715973295</v>
+        <v>0</v>
       </c>
       <c r="Z64" s="7">
         <v>0</v>
@@ -5731,13 +5731,13 @@
         <v>257</v>
       </c>
       <c r="D65" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="E65" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="F65" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G65" s="7">
         <v>0</v>
@@ -5808,10 +5808,10 @@
         <v>18</v>
       </c>
       <c r="B66" s="6">
-        <v>832.40000000000009</v>
+        <v>1129</v>
       </c>
       <c r="C66" s="7">
-        <v>340</v>
+        <v>339.99999999999955</v>
       </c>
       <c r="D66" s="7">
         <v>340</v>
@@ -5820,7 +5820,7 @@
         <v>340</v>
       </c>
       <c r="F66" s="7">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="G66" s="7">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>20</v>
       </c>
       <c r="B68" s="6">
-        <v>59.999999999999886</v>
+        <v>60</v>
       </c>
       <c r="C68" s="7">
         <v>0</v>
@@ -5983,13 +5983,13 @@
         <v>60</v>
       </c>
       <c r="E68" s="7">
-        <v>60</v>
+        <v>59.999999999999886</v>
       </c>
       <c r="F68" s="7">
         <v>60</v>
       </c>
       <c r="G68" s="7">
-        <v>59.999999999999886</v>
+        <v>60</v>
       </c>
       <c r="H68" s="7">
         <v>60</v>
@@ -7809,73 +7809,73 @@
         <v>0</v>
       </c>
       <c r="D90" s="7">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="E90" s="7">
-        <v>0</v>
+        <v>1141.2118308999993</v>
       </c>
       <c r="F90" s="7">
-        <v>0</v>
+        <v>1461.6267373780988</v>
       </c>
       <c r="G90" s="7">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="H90" s="7">
-        <v>0</v>
+        <v>1691.9823254166315</v>
       </c>
       <c r="I90" s="7">
-        <v>0</v>
+        <v>1779.926166345381</v>
       </c>
       <c r="J90" s="7">
-        <v>0</v>
+        <v>1800.0495018424895</v>
       </c>
       <c r="K90" s="7">
-        <v>0</v>
+        <v>3796.7238815756759</v>
       </c>
       <c r="L90" s="7">
-        <v>0</v>
+        <v>3803.894396509857</v>
       </c>
       <c r="M90" s="7">
-        <v>0</v>
+        <v>2104.5127030812705</v>
       </c>
       <c r="N90" s="7">
-        <v>0</v>
+        <v>2157.3703174090015</v>
       </c>
       <c r="O90" s="7">
-        <v>20</v>
+        <v>3516.8831300531365</v>
       </c>
       <c r="P90" s="7">
-        <v>200</v>
+        <v>2237.6503911180735</v>
       </c>
       <c r="Q90" s="7">
-        <v>400</v>
+        <v>3840.7266856233482</v>
       </c>
       <c r="R90" s="7">
-        <v>600</v>
+        <v>3848.2932257939583</v>
       </c>
       <c r="S90" s="7">
-        <v>760</v>
+        <v>3855.9278648261043</v>
       </c>
       <c r="T90" s="7">
-        <v>900</v>
+        <v>2407.5177588843935</v>
       </c>
       <c r="U90" s="7">
-        <v>1030</v>
+        <v>3871.4038965500245</v>
       </c>
       <c r="V90" s="7">
-        <v>1300</v>
+        <v>3879.2465316189746</v>
       </c>
       <c r="W90" s="7">
-        <v>1530</v>
+        <v>3887.1597504035453</v>
       </c>
       <c r="X90" s="7">
-        <v>1730</v>
+        <v>2512.5548233062182</v>
       </c>
       <c r="Y90" s="7">
-        <v>1970</v>
+        <v>3903.2004858505916</v>
       </c>
       <c r="Z90" s="7">
-        <v>2060</v>
+        <v>3062.2787832398508</v>
       </c>
       <c r="AA90" s="8">
         <v>2627.2321538150145</v>
@@ -7985,82 +7985,82 @@
         <v>1</v>
       </c>
       <c r="B95" s="3">
-        <v>131.23377917552992</v>
+        <v>131.12488499033964</v>
       </c>
       <c r="C95" s="4">
-        <v>526.39053131538549</v>
+        <v>519.49317117501801</v>
       </c>
       <c r="D95" s="4">
-        <v>770.11770978796642</v>
+        <v>969.69397336563156</v>
       </c>
       <c r="E95" s="4">
-        <v>508.26958403093175</v>
+        <v>981.44904535000023</v>
       </c>
       <c r="F95" s="4">
-        <v>320.95796951230295</v>
+        <v>986.82730230663969</v>
       </c>
       <c r="G95" s="4">
-        <v>-70.442099644914293</v>
+        <v>965.55790035508483</v>
       </c>
       <c r="H95" s="4">
-        <v>-295.05096730941193</v>
+        <v>869.40423766202389</v>
       </c>
       <c r="I95" s="4">
-        <v>-494.16132161789972</v>
+        <v>886.37074877952068</v>
       </c>
       <c r="J95" s="4">
-        <v>-494.35874846459205</v>
+        <v>1046.1060980766915</v>
       </c>
       <c r="K95" s="4">
-        <v>-581.20873477661712</v>
+        <v>1090.8684959853754</v>
       </c>
       <c r="L95" s="4">
-        <v>-805.57163400537866</v>
+        <v>853.09503266128786</v>
       </c>
       <c r="M95" s="4">
-        <v>-1041.230945378094</v>
+        <v>617.43572128857227</v>
       </c>
       <c r="N95" s="4">
-        <v>-1100</v>
+        <v>442.75721529394281</v>
       </c>
       <c r="O95" s="4">
-        <v>-1100</v>
+        <v>276.95680873185717</v>
       </c>
       <c r="P95" s="4">
-        <v>-1059.8577466562228</v>
+        <v>180.24385928447805</v>
       </c>
       <c r="Q95" s="4">
-        <v>-1091.0522997094629</v>
+        <v>474.28103362387037</v>
       </c>
       <c r="R95" s="4">
-        <v>-1081.9576037401821</v>
+        <v>373.37572959315128</v>
       </c>
       <c r="S95" s="4">
-        <v>-1100</v>
+        <v>306.09561115948873</v>
       </c>
       <c r="T95" s="4">
-        <v>-1097.5566950067421</v>
+        <v>239.15296510444492</v>
       </c>
       <c r="U95" s="4">
-        <v>-1100</v>
+        <v>172.42146140486344</v>
       </c>
       <c r="V95" s="4">
-        <v>-1099.5569323704715</v>
+        <v>139.36608789084008</v>
       </c>
       <c r="W95" s="4">
-        <v>-1100</v>
+        <v>106.61321601519043</v>
       </c>
       <c r="X95" s="4">
-        <v>-1033.3026673524898</v>
+        <v>74.165568292660353</v>
       </c>
       <c r="Y95" s="4">
-        <v>-986.6333255363221</v>
+        <v>42.025891740627287</v>
       </c>
       <c r="Z95" s="4">
-        <v>-981.48742427019033</v>
+        <v>10.196958099625817</v>
       </c>
       <c r="AA95" s="5">
-        <v>-863.74544442195486</v>
+        <v>-108.51607690750734</v>
       </c>
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.35">
@@ -8068,82 +8068,82 @@
         <v>2</v>
       </c>
       <c r="B96" s="6">
-        <v>-374.6662208244698</v>
+        <v>-374.77511500966034</v>
       </c>
       <c r="C96" s="7">
-        <v>-354.42026565769282</v>
+        <v>-350.97158558750914</v>
       </c>
       <c r="D96" s="7">
-        <v>-284.26579021203258</v>
+        <v>-634.68952663436687</v>
       </c>
       <c r="E96" s="7">
-        <v>271.81653253093299</v>
+        <v>-655.00400614999876</v>
       </c>
       <c r="F96" s="7">
-        <v>648.1467405488047</v>
+        <v>-681.98392665685878</v>
       </c>
       <c r="G96" s="7">
-        <v>1028.0972703309162</v>
+        <v>-889.90272966908333</v>
       </c>
       <c r="H96" s="7">
-        <v>1159.9107719105086</v>
+        <v>-1168.9996380323628</v>
       </c>
       <c r="I96" s="7">
-        <v>1487.4209245104223</v>
+        <v>-1242.8451106882885</v>
       </c>
       <c r="J96" s="7">
-        <v>1494.3587484645921</v>
+        <v>-1560.9741729635602</v>
       </c>
       <c r="K96" s="7">
-        <v>1581.2087347766171</v>
+        <v>-1690.2547496130774</v>
       </c>
       <c r="L96" s="7">
-        <v>1707.1598111857829</v>
+        <v>-1562.1735221475506</v>
       </c>
       <c r="M96" s="7">
-        <v>1837.0478828197881</v>
+        <v>-1432.2854505135456</v>
       </c>
       <c r="N96" s="7">
-        <v>1878.5993518219175</v>
+        <v>-1332.7792558250542</v>
       </c>
       <c r="O96" s="7">
-        <v>1880.8757959883146</v>
+        <v>-1242.6026083776137</v>
       </c>
       <c r="P96" s="7">
-        <v>1783.191601480321</v>
+        <v>-1180.243859284478</v>
       </c>
       <c r="Q96" s="7">
-        <v>1716.2872925603106</v>
+        <v>-1316.379374106356</v>
       </c>
       <c r="R96" s="7">
-        <v>1619.3508448600203</v>
+        <v>-1253.3158218066465</v>
       </c>
       <c r="S96" s="7">
-        <v>1561.0964413768386</v>
+        <v>-1206.951364202906</v>
       </c>
       <c r="T96" s="7">
-        <v>1502.713706852601</v>
+        <v>-1164.6411232029925</v>
       </c>
       <c r="U96" s="7">
-        <v>1456.8898275833728</v>
+        <v>-1114.3209031190588</v>
       </c>
       <c r="V96" s="7">
-        <v>1334.7393522168586</v>
+        <v>-1084.722157913797</v>
       </c>
       <c r="W96" s="7">
-        <v>1291.681659502005</v>
+        <v>-1055.1570240016879</v>
       </c>
       <c r="X96" s="7">
-        <v>1108.1083139382054</v>
+        <v>-1025.6258038843698</v>
       </c>
       <c r="Y96" s="7">
-        <v>978.20080585247888</v>
+        <v>-996.12880278599528</v>
       </c>
       <c r="Z96" s="7">
-        <v>949.17586250717181</v>
+        <v>-966.66632867773637</v>
       </c>
       <c r="AA96" s="8">
-        <v>618.97481193640238</v>
+        <v>-891.48392309249266</v>
       </c>
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.35">
@@ -8151,82 +8151,82 @@
         <v>3</v>
       </c>
       <c r="B97" s="9">
-        <v>243.43244164893991</v>
+        <v>243.6502300193207</v>
       </c>
       <c r="C97" s="10">
-        <v>-171.97026565769264</v>
+        <v>-168.52158558750887</v>
       </c>
       <c r="D97" s="10">
-        <v>-485.85191957593395</v>
+        <v>-335.00444673126469</v>
       </c>
       <c r="E97" s="10">
-        <v>-780.08611656186463</v>
+        <v>-326.44503920000147</v>
       </c>
       <c r="F97" s="10">
-        <v>-969.10471006110811</v>
+        <v>-304.84337564978091</v>
       </c>
       <c r="G97" s="10">
-        <v>-957.65517068600184</v>
+        <v>-75.655170686001384</v>
       </c>
       <c r="H97" s="10">
-        <v>-864.85980460109681</v>
+        <v>299.59540037033867</v>
       </c>
       <c r="I97" s="10">
-        <v>-993.25960289252248</v>
+        <v>356.47436190876783</v>
       </c>
       <c r="J97" s="10">
-        <v>-1000</v>
+        <v>514.86807488686873</v>
       </c>
       <c r="K97" s="10">
-        <v>-1000</v>
+        <v>599.38625362770176</v>
       </c>
       <c r="L97" s="10">
-        <v>-901.58817718040382</v>
+        <v>709.0784894862627</v>
       </c>
       <c r="M97" s="10">
-        <v>-795.81693744169411</v>
+        <v>814.84972922497332</v>
       </c>
       <c r="N97" s="10">
-        <v>-778.59935182191748</v>
+        <v>890.02204053111132</v>
       </c>
       <c r="O97" s="10">
-        <v>-780.87579598831462</v>
+        <v>965.6457996457566</v>
       </c>
       <c r="P97" s="10">
-        <v>-723.33385482409813</v>
+        <v>1000</v>
       </c>
       <c r="Q97" s="10">
-        <v>-625.2349928508479</v>
+        <v>842.09834048248581</v>
       </c>
       <c r="R97" s="10">
-        <v>-537.39324111983819</v>
+        <v>879.94009221349518</v>
       </c>
       <c r="S97" s="10">
-        <v>-461.09644137683813</v>
+        <v>900.85575304341728</v>
       </c>
       <c r="T97" s="10">
-        <v>-405.15701184585879</v>
+        <v>925.48815809854773</v>
       </c>
       <c r="U97" s="10">
-        <v>-356.88982758337289</v>
+        <v>941.89944171419552</v>
       </c>
       <c r="V97" s="10">
-        <v>-235.18241984638735</v>
+        <v>945.35607002295706</v>
       </c>
       <c r="W97" s="10">
-        <v>-191.681659502005</v>
+        <v>948.54380798649731</v>
       </c>
       <c r="X97" s="10">
-        <v>-74.805646585715635</v>
+        <v>951.46023559170908</v>
       </c>
       <c r="Y97" s="10">
-        <v>8.4325196838432248</v>
+        <v>954.10291104536805</v>
       </c>
       <c r="Z97" s="10">
-        <v>32.31156176301846</v>
+        <v>956.46937057811033</v>
       </c>
       <c r="AA97" s="11">
-        <v>244.77063248555248</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.35">
@@ -8244,79 +8244,79 @@
         <v>1</v>
       </c>
       <c r="B101" s="3">
-        <v>255.2</v>
+        <v>156.33333333333331</v>
       </c>
       <c r="C101" s="4">
-        <v>67.638333333333449</v>
+        <v>67.638333333333307</v>
       </c>
       <c r="D101" s="4">
-        <v>189.08654499999977</v>
+        <v>239.17314500000009</v>
       </c>
       <c r="E101" s="4">
-        <v>197.74532390499965</v>
+        <v>271.00804693833317</v>
       </c>
       <c r="F101" s="4">
-        <v>307.48203182014447</v>
+        <v>273.2731193607782</v>
       </c>
       <c r="G101" s="4">
-        <v>414.2973701065257</v>
+        <v>283.22524410169183</v>
       </c>
       <c r="H101" s="4">
-        <v>453.85871310415098</v>
+        <v>257.86460463194032</v>
       </c>
       <c r="I101" s="4">
-        <v>477.59138607362786</v>
+        <v>260.19138607362777</v>
       </c>
       <c r="J101" s="4">
-        <v>517.98927460079403</v>
+        <v>262.53910854829041</v>
       </c>
       <c r="K101" s="4">
-        <v>510.92331140553461</v>
+        <v>873.54690789613926</v>
       </c>
       <c r="L101" s="4">
-        <v>475.48442120818436</v>
+        <v>870.47383006720452</v>
       </c>
       <c r="M101" s="4">
-        <v>502.00558099905811</v>
+        <v>276.0431486928149</v>
       </c>
       <c r="N101" s="4">
-        <v>497.4864312280497</v>
+        <v>267.80987036438353</v>
       </c>
       <c r="O101" s="4">
-        <v>499.5932757757688</v>
+        <v>691.08765246014764</v>
       </c>
       <c r="P101" s="4">
-        <v>548.95934266979975</v>
+        <v>260.07587896377527</v>
       </c>
       <c r="Q101" s="4">
-        <v>514.26764342049444</v>
+        <v>754.68856330427957</v>
       </c>
       <c r="R101" s="4">
-        <v>744.32938554461202</v>
+        <v>719.44576037401816</v>
       </c>
       <c r="S101" s="4">
-        <v>727.6065598695551</v>
+        <v>748.17377221738434</v>
       </c>
       <c r="T101" s="4">
-        <v>788.04965816464392</v>
+        <v>305.21040520317928</v>
       </c>
       <c r="U101" s="4">
-        <v>777.04310508812569</v>
+        <v>709.54118719284702</v>
       </c>
       <c r="V101" s="4">
-        <v>697.12649303391856</v>
+        <v>668.18005787758261</v>
       </c>
       <c r="W101" s="4">
-        <v>630.63396480455708</v>
+        <v>133.68553600253179</v>
       </c>
       <c r="X101" s="4">
-        <v>551.91472938572554</v>
+        <v>313.38139605239212</v>
       </c>
       <c r="Y101" s="4">
-        <v>483.93349528353025</v>
+        <v>657.91407749260395</v>
       </c>
       <c r="Z101" s="4">
-        <v>485.04242076322117</v>
+        <v>150.94949301660435</v>
       </c>
       <c r="AA101" s="5">
         <v>306.51041794508501</v>
@@ -8327,79 +8327,79 @@
         <v>2</v>
       </c>
       <c r="B102" s="6">
-        <v>-345.8</v>
+        <v>-444.66666666666663</v>
       </c>
       <c r="C102" s="7">
-        <v>33.488333333333173</v>
+        <v>33.488333333333465</v>
       </c>
       <c r="D102" s="7">
-        <v>-57.898505</v>
+        <v>-219.44180500000016</v>
       </c>
       <c r="E102" s="7">
-        <v>-58.860591544999991</v>
+        <v>-537.59786851166632</v>
       </c>
       <c r="F102" s="7">
-        <v>18.168663131095059</v>
+        <v>-545.04024932827122</v>
       </c>
       <c r="G102" s="7">
-        <v>138.18918109927495</v>
+        <v>-567.88294490555882</v>
       </c>
       <c r="H102" s="7">
-        <v>121.86755039583511</v>
+        <v>-626.12655807637543</v>
       </c>
       <c r="I102" s="7">
-        <v>135.62830290093717</v>
+        <v>-633.77169709906275</v>
       </c>
       <c r="J102" s="7">
-        <v>98.314025522038492</v>
+        <v>-641.48564237295432</v>
       </c>
       <c r="K102" s="7">
-        <v>109.40028508507021</v>
+        <v>-1873.5469078961391</v>
       </c>
       <c r="L102" s="7">
-        <v>130.70498765083585</v>
+        <v>-1870.4738300672045</v>
       </c>
       <c r="M102" s="7">
-        <v>121.0619325396932</v>
+        <v>-784.71320284782041</v>
       </c>
       <c r="N102" s="7">
-        <v>126.97158993255039</v>
+        <v>-803.37528834011721</v>
       </c>
       <c r="O102" s="7">
-        <v>119.60110090861008</v>
+        <v>-1691.0876524601476</v>
       </c>
       <c r="P102" s="7">
-        <v>8.6341471107629673</v>
+        <v>-832.24931659526146</v>
       </c>
       <c r="Q102" s="7">
-        <v>-36.770478898573458</v>
+        <v>-1754.6885633042796</v>
       </c>
       <c r="R102" s="7">
-        <v>-281.5180798753272</v>
+        <v>-1719.4457603740182</v>
       </c>
       <c r="S102" s="7">
-        <v>-349.33934752172598</v>
+        <v>-1748.1737722173843</v>
       </c>
       <c r="T102" s="7">
-        <v>-445.70922127755301</v>
+        <v>-928.54847423901765</v>
       </c>
       <c r="U102" s="7">
-        <v>-467.81960426905101</v>
+        <v>-1709.541187192847</v>
       </c>
       <c r="V102" s="7">
-        <v>-558.93998070747239</v>
+        <v>-1668.1800578775826</v>
       </c>
       <c r="W102" s="7">
-        <v>-636.73710720050633</v>
+        <v>-1133.6855360025318</v>
       </c>
       <c r="X102" s="7">
-        <v>-726.86268226738366</v>
+        <v>-965.39601560071696</v>
       </c>
       <c r="Y102" s="7">
-        <v>-806.35291307445652</v>
+        <v>-1657.9140774926041</v>
       </c>
       <c r="Z102" s="7">
-        <v>-816.85656526998753</v>
+        <v>-1150.9494930166045</v>
       </c>
       <c r="AA102" s="8">
         <v>-1007.1056589624222</v>
@@ -8410,79 +8410,79 @@
         <v>3</v>
       </c>
       <c r="B103" s="9">
-        <v>90.600000000000023</v>
+        <v>288.33333333333337</v>
       </c>
       <c r="C103" s="10">
-        <v>-101.12666666666661</v>
+        <v>-101.12666666666676</v>
       </c>
       <c r="D103" s="10">
-        <v>-131.18803999999977</v>
+        <v>-19.731339999999918</v>
       </c>
       <c r="E103" s="10">
-        <v>-138.88473235999965</v>
+        <v>266.5898215733331</v>
       </c>
       <c r="F103" s="10">
-        <v>-325.65069495123953</v>
+        <v>271.76712996749308</v>
       </c>
       <c r="G103" s="10">
-        <v>-552.48655120580065</v>
+        <v>284.65770080386704</v>
       </c>
       <c r="H103" s="10">
-        <v>-575.72626349998598</v>
+        <v>368.26195344443505</v>
       </c>
       <c r="I103" s="10">
-        <v>-613.21968897456497</v>
+        <v>373.58031102543492</v>
       </c>
       <c r="J103" s="10">
-        <v>-616.30330012283275</v>
+        <v>378.94653382466385</v>
       </c>
       <c r="K103" s="10">
-        <v>-620.32359649060481</v>
+        <v>1000</v>
       </c>
       <c r="L103" s="10">
-        <v>-606.1894088590202</v>
+        <v>1000</v>
       </c>
       <c r="M103" s="10">
-        <v>-623.06751353875143</v>
+        <v>508.67005415500546</v>
       </c>
       <c r="N103" s="10">
-        <v>-624.45802116060008</v>
+        <v>535.56541797573368</v>
       </c>
       <c r="O103" s="10">
-        <v>-619.19437668437877</v>
+        <v>1000</v>
       </c>
       <c r="P103" s="10">
-        <v>-557.59348978056278</v>
+        <v>572.17343763148619</v>
       </c>
       <c r="Q103" s="10">
-        <v>-477.49716452192098</v>
+        <v>1000</v>
       </c>
       <c r="R103" s="10">
-        <v>-462.81130566928482</v>
+        <v>1000</v>
       </c>
       <c r="S103" s="10">
-        <v>-378.26721234782912</v>
+        <v>1000</v>
       </c>
       <c r="T103" s="10">
-        <v>-342.3404368870909</v>
+        <v>623.33806903583832</v>
       </c>
       <c r="U103" s="10">
-        <v>-309.22350081907467</v>
+        <v>1000</v>
       </c>
       <c r="V103" s="10">
-        <v>-138.18651232644606</v>
+        <v>1000</v>
       </c>
       <c r="W103" s="10">
-        <v>6.1031423959492486</v>
+        <v>1000</v>
       </c>
       <c r="X103" s="10">
-        <v>174.94795288165824</v>
+        <v>652.01461954832484</v>
       </c>
       <c r="Y103" s="10">
-        <v>322.41941779092633</v>
+        <v>1000</v>
       </c>
       <c r="Z103" s="10">
-        <v>331.81414450676641</v>
+        <v>1000</v>
       </c>
       <c r="AA103" s="11">
         <v>700.59524101733723</v>
@@ -8576,86 +8576,86 @@
         <v>6</v>
       </c>
       <c r="B106" s="15">
-        <v>235447.82115362774</v>
+        <v>237882.16332571799</v>
       </c>
       <c r="C106" s="16">
-        <v>181102.86416429491</v>
+        <v>181014.04383660964</v>
       </c>
       <c r="D106" s="16">
-        <v>26737924.400910635</v>
+        <v>653272587.56715488</v>
       </c>
       <c r="E106" s="16">
-        <v>44933135.262217492</v>
+        <v>979317772.09185123</v>
       </c>
       <c r="F106" s="16">
-        <v>47330256.098922305</v>
+        <v>760772810.52714705</v>
       </c>
       <c r="G106" s="16">
-        <v>47799486.124721013</v>
+        <v>699798140.16734123</v>
       </c>
       <c r="H106" s="16">
-        <v>51717440.964336187</v>
+        <v>643395920.3579123</v>
       </c>
       <c r="I106" s="16">
-        <v>50495081.636269525</v>
+        <v>522401589.27040696</v>
       </c>
       <c r="J106" s="16">
-        <v>48226830.242874466</v>
+        <v>423200165.6368795</v>
       </c>
       <c r="K106" s="16">
-        <v>46428481.641732492</v>
+        <v>401530890.72974008</v>
       </c>
       <c r="L106" s="16">
-        <v>45338102.785007775</v>
+        <v>429467768.88174188</v>
       </c>
       <c r="M106" s="16">
-        <v>43038426.420693457</v>
+        <v>357343026.0776183</v>
       </c>
       <c r="N106" s="16">
-        <v>40494934.700426333</v>
+        <v>294695577.47757769</v>
       </c>
       <c r="O106" s="16">
-        <v>38020529.85606622</v>
+        <v>215032513.85946238</v>
       </c>
       <c r="P106" s="16">
-        <v>40665071.792296141</v>
+        <v>192850000.76520586</v>
       </c>
       <c r="Q106" s="16">
-        <v>39074041.755410857</v>
+        <v>152009366.30197003</v>
       </c>
       <c r="R106" s="16">
-        <v>37244808.94663319</v>
+        <v>138975803.93308836</v>
       </c>
       <c r="S106" s="16">
-        <v>33962532.733048648</v>
+        <v>106899905.33467326</v>
       </c>
       <c r="T106" s="16">
-        <v>31349198.262053393</v>
+        <v>97668552.485134482</v>
       </c>
       <c r="U106" s="16">
-        <v>29103032.433956821</v>
+        <v>89232442.695713744</v>
       </c>
       <c r="V106" s="16">
-        <v>31066219.257415082</v>
+        <v>66379239.529817514</v>
       </c>
       <c r="W106" s="16">
-        <v>28687490.674660448</v>
+        <v>60588724.388377085</v>
       </c>
       <c r="X106" s="16">
-        <v>26517023.592867594</v>
+        <v>55302459.492643744</v>
       </c>
       <c r="Y106" s="16">
-        <v>25815627.381460711</v>
+        <v>50476613.549356028</v>
       </c>
       <c r="Z106" s="16">
-        <v>21619979.022921167</v>
+        <v>46071151.419287607</v>
       </c>
       <c r="AA106" s="17">
-        <v>28167053.662725583</v>
+        <v>70258309.847093493</v>
       </c>
       <c r="AB106" s="18">
         <f>SUM(TotalCost)</f>
-        <v>904249260.33494556</v>
+        <v>7507360228.5943565</v>
       </c>
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.35">
@@ -8749,86 +8749,86 @@
         <v>8</v>
       </c>
       <c r="B109" s="3">
-        <v>79330965.818699449</v>
+        <v>79194277.885382354</v>
       </c>
       <c r="C109" s="4">
-        <v>48924398.304829493</v>
+        <v>49011343.943709314</v>
       </c>
       <c r="D109" s="4">
-        <v>39457061.277337477</v>
+        <v>39079817.348501444</v>
       </c>
       <c r="E109" s="4">
-        <v>33674291.449820757</v>
+        <v>33194298.629088849</v>
       </c>
       <c r="F109" s="4">
-        <v>26497501.895269904</v>
+        <v>31934126.232825737</v>
       </c>
       <c r="G109" s="4">
-        <v>23314777.672026444</v>
+        <v>21929763.272026449</v>
       </c>
       <c r="H109" s="4">
-        <v>17588723.769495286</v>
+        <v>17670133.173312403</v>
       </c>
       <c r="I109" s="4">
-        <v>5074750.0471727615</v>
+        <v>7450289.5175442882</v>
       </c>
       <c r="J109" s="4">
-        <v>5827621.2501656786</v>
+        <v>8093184.4593006298</v>
       </c>
       <c r="K109" s="4">
-        <v>3832954.5093205399</v>
+        <v>2267228.3408082058</v>
       </c>
       <c r="L109" s="4">
-        <v>2100667.732979733</v>
+        <v>1960421.478011101</v>
       </c>
       <c r="M109" s="4">
-        <v>3015316.2450457877</v>
+        <v>1939385.7238245499</v>
       </c>
       <c r="N109" s="4">
-        <v>3208632.403334361</v>
+        <v>593416.91491091368</v>
       </c>
       <c r="O109" s="4">
-        <v>2895843.0455368115</v>
+        <v>1569035.3690676717</v>
       </c>
       <c r="P109" s="4">
-        <v>2391307.962131049</v>
+        <v>787351.61747821979</v>
       </c>
       <c r="Q109" s="4">
-        <v>1392291.7454062989</v>
+        <v>1539822.6163501069</v>
       </c>
       <c r="R109" s="4">
-        <v>2572447.3302892172</v>
+        <v>290339.13980125723</v>
       </c>
       <c r="S109" s="4">
-        <v>2058377.4512589253</v>
+        <v>1104897.8948281992</v>
       </c>
       <c r="T109" s="4">
-        <v>1520619.9772859365</v>
+        <v>8118249.3172678314</v>
       </c>
       <c r="U109" s="4">
-        <v>1295611.0526178041</v>
+        <v>145384.44169335265</v>
       </c>
       <c r="V109" s="4">
-        <v>79937.052314070679</v>
+        <v>1117648.6160494138</v>
       </c>
       <c r="W109" s="4">
-        <v>1252884.8933133604</v>
+        <v>882653.49263512669</v>
       </c>
       <c r="X109" s="4">
-        <v>267164.15096759103</v>
+        <v>696657.27355302521</v>
       </c>
       <c r="Y109" s="4">
-        <v>74601.482469535636</v>
+        <v>549793.45466693141</v>
       </c>
       <c r="Z109" s="4">
-        <v>48845.760000000002</v>
+        <v>410524.3281749342</v>
       </c>
       <c r="AA109" s="5">
         <v>0</v>
       </c>
       <c r="AB109" s="12">
         <f>SUM(B109:AA109)</f>
-        <v>307697594.27908826</v>
+        <v>311530044.48081225</v>
       </c>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.35">
@@ -8836,86 +8836,86 @@
         <v>9</v>
       </c>
       <c r="B110" s="6">
-        <v>14626412.923791261</v>
+        <v>14644151.746738214</v>
       </c>
       <c r="C110" s="7">
-        <v>10125596.00048054</v>
+        <v>10157316.95976609</v>
       </c>
       <c r="D110" s="7">
-        <v>4417574.5754833492</v>
+        <v>4133132.2810204732</v>
       </c>
       <c r="E110" s="7">
-        <v>2471133.6356450305</v>
+        <v>2230492.5715325503</v>
       </c>
       <c r="F110" s="7">
-        <v>968116.1390485001</v>
+        <v>2075390.6060310793</v>
       </c>
       <c r="G110" s="7">
-        <v>143461.76126945828</v>
+        <v>143461.76126945831</v>
       </c>
       <c r="H110" s="7">
-        <v>116875.00500342406</v>
+        <v>117691.40169894155</v>
       </c>
       <c r="I110" s="7">
-        <v>82983.369022057785</v>
+        <v>85346.454311845504</v>
       </c>
       <c r="J110" s="7">
-        <v>68253.132683529504</v>
+        <v>69113.690668859665</v>
       </c>
       <c r="K110" s="7">
-        <v>49926.954425378884</v>
+        <v>47138.356434663125</v>
       </c>
       <c r="L110" s="7">
-        <v>35886.131600836146</v>
+        <v>38016.266602199947</v>
       </c>
       <c r="M110" s="7">
-        <v>32997.662573297464</v>
+        <v>37353.87643324364</v>
       </c>
       <c r="N110" s="7">
-        <v>27243.123416296217</v>
+        <v>30402.097561142793</v>
       </c>
       <c r="O110" s="7">
-        <v>20306.583482789792</v>
+        <v>23729.638324934975</v>
       </c>
       <c r="P110" s="7">
-        <v>17829.223186409246</v>
+        <v>19247.418773343896</v>
       </c>
       <c r="Q110" s="7">
-        <v>12973.085328442876</v>
+        <v>14632.727811445211</v>
       </c>
       <c r="R110" s="7">
-        <v>10659.941281398551</v>
+        <v>12135.026601748188</v>
       </c>
       <c r="S110" s="7">
-        <v>9110.5058624832873</v>
+        <v>8953.0018520970225</v>
       </c>
       <c r="T110" s="7">
-        <v>6816.4883608977707</v>
+        <v>14518.163536849266</v>
       </c>
       <c r="U110" s="7">
-        <v>5283.3384587246273</v>
+        <v>6034.3972341926064</v>
       </c>
       <c r="V110" s="7">
-        <v>3316.8852675453672</v>
+        <v>4222.1500548146123</v>
       </c>
       <c r="W110" s="7">
-        <v>3146.6558080051532</v>
+        <v>3329.6152114807232</v>
       </c>
       <c r="X110" s="7">
-        <v>3088.7874138809752</v>
+        <v>2623.9781364000132</v>
       </c>
       <c r="Y110" s="7">
-        <v>2543.9204436243908</v>
+        <v>2067.5793282838313</v>
       </c>
       <c r="Z110" s="7">
-        <v>2044</v>
+        <v>1540.0447582383872</v>
       </c>
       <c r="AA110" s="8">
         <v>0</v>
       </c>
       <c r="AB110" s="13">
         <f t="shared" ref="AB110:AB113" si="0">SUM(B110:AA110)</f>
-        <v>33263579.829337154</v>
+        <v>33922041.811692588</v>
       </c>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.35">
@@ -8923,86 +8923,86 @@
         <v>10</v>
       </c>
       <c r="B111" s="6">
-        <v>81899302200.206284</v>
+        <v>81984420334.200806</v>
       </c>
       <c r="C111" s="7">
-        <v>65519441760.165039</v>
+        <v>65587536267.360649</v>
       </c>
       <c r="D111" s="7">
-        <v>52415553408.132034</v>
+        <v>52470029013.888519</v>
       </c>
       <c r="E111" s="7">
-        <v>41932442726.50563</v>
+        <v>41976023211.110817</v>
       </c>
       <c r="F111" s="7">
-        <v>33545954181.204506</v>
+        <v>33580818568.888657</v>
       </c>
       <c r="G111" s="7">
-        <v>26836763344.963604</v>
+        <v>26860232144.163609</v>
       </c>
       <c r="H111" s="7">
-        <v>21456393691.588493</v>
+        <v>21486461142.286182</v>
       </c>
       <c r="I111" s="7">
-        <v>17165114953.270796</v>
+        <v>17189168913.828945</v>
       </c>
       <c r="J111" s="7">
-        <v>13732091962.616636</v>
+        <v>13751335131.063156</v>
       </c>
       <c r="K111" s="7">
-        <v>10985673570.093309</v>
+        <v>11001068104.850525</v>
       </c>
       <c r="L111" s="7">
-        <v>8788538856.0746479</v>
+        <v>8800854483.8804207</v>
       </c>
       <c r="M111" s="7">
-        <v>7020678011.8890476</v>
+        <v>7040683587.1043358</v>
       </c>
       <c r="N111" s="7">
-        <v>5607027635.1936865</v>
+        <v>5625734083.2531576</v>
       </c>
       <c r="O111" s="7">
-        <v>4485622108.1549492</v>
+        <v>4500587266.6025267</v>
       </c>
       <c r="P111" s="7">
-        <v>3588497686.5239596</v>
+        <v>3600469813.2820215</v>
       </c>
       <c r="Q111" s="7">
-        <v>2870798149.2191677</v>
+        <v>2880375850.6256175</v>
       </c>
       <c r="R111" s="7">
-        <v>2296638519.3753343</v>
+        <v>2289740048.6208906</v>
       </c>
       <c r="S111" s="7">
-        <v>1836767512.8936756</v>
+        <v>1792065770.700753</v>
       </c>
       <c r="T111" s="7">
-        <v>1469414010.3149405</v>
+        <v>1433652616.5606024</v>
       </c>
       <c r="U111" s="7">
-        <v>1175531208.2519524</v>
+        <v>1146922093.248482</v>
       </c>
       <c r="V111" s="7">
-        <v>940424966.60156202</v>
+        <v>917537674.59878552</v>
       </c>
       <c r="W111" s="7">
-        <v>752339973.28124964</v>
+        <v>734030139.67902839</v>
       </c>
       <c r="X111" s="7">
-        <v>601871978.62499976</v>
+        <v>587224111.74322271</v>
       </c>
       <c r="Y111" s="7">
-        <v>481497582.89999992</v>
+        <v>469779289.39457822</v>
       </c>
       <c r="Z111" s="7">
-        <v>385198066.31999993</v>
+        <v>358228148.04919374</v>
       </c>
       <c r="AA111" s="8">
         <v>0</v>
       </c>
       <c r="AB111" s="13">
         <f t="shared" si="0"/>
-        <v>407789578064.3656</v>
+        <v>408064977808.9856</v>
       </c>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.35">
@@ -9010,86 +9010,86 @@
         <v>11</v>
       </c>
       <c r="B112" s="6">
-        <v>6683810.291262161</v>
+        <v>6681376.8895268636</v>
       </c>
       <c r="C112" s="7">
-        <v>5074943.2575822724</v>
+        <v>5089867.2136651883</v>
       </c>
       <c r="D112" s="7">
-        <v>2810979.2292704466</v>
+        <v>2774473.2178321877</v>
       </c>
       <c r="E112" s="7">
-        <v>1738718.08435866</v>
+        <v>1723112.7960589544</v>
       </c>
       <c r="F112" s="7">
-        <v>1002447.5311587845</v>
+        <v>926767.01212697115</v>
       </c>
       <c r="G112" s="7">
-        <v>522396.81980837492</v>
+        <v>518799.37980837491</v>
       </c>
       <c r="H112" s="7">
-        <v>424907.52407929359</v>
+        <v>425472.72179157496</v>
       </c>
       <c r="I112" s="7">
-        <v>341993.13165960886</v>
+        <v>344449.68782928656</v>
       </c>
       <c r="J112" s="7">
-        <v>277208.04566259147</v>
+        <v>278315.20692769339</v>
       </c>
       <c r="K112" s="7">
-        <v>226596.12956623663</v>
+        <v>225066.72804094449</v>
       </c>
       <c r="L112" s="7">
-        <v>187682.37952267568</v>
+        <v>187250.2195226757</v>
       </c>
       <c r="M112" s="7">
-        <v>156908.40458637971</v>
+        <v>156312.72458637966</v>
       </c>
       <c r="N112" s="7">
-        <v>129734.72391265701</v>
+        <v>117244.88172521562</v>
       </c>
       <c r="O112" s="7">
-        <v>107525.06063716725</v>
+        <v>111741.91578780412</v>
       </c>
       <c r="P112" s="7">
-        <v>87265.91864440855</v>
+        <v>87614.764835357084</v>
       </c>
       <c r="Q112" s="7">
-        <v>76234.113826648041</v>
+        <v>76013.048996624682</v>
       </c>
       <c r="R112" s="7">
-        <v>65097.082329090576</v>
+        <v>51677.7491255942</v>
       </c>
       <c r="S112" s="7">
-        <v>52371.439612960581</v>
+        <v>53707.665846393254</v>
       </c>
       <c r="T112" s="7">
-        <v>41160.541005691797</v>
+        <v>51637.710577137434</v>
       </c>
       <c r="U112" s="7">
-        <v>34593.844291603818</v>
+        <v>28971.238790239549</v>
       </c>
       <c r="V112" s="7">
-        <v>18194.352856145175</v>
+        <v>37197.230485952379</v>
       </c>
       <c r="W112" s="7">
-        <v>17290.902752033497</v>
+        <v>33456.498488325749</v>
       </c>
       <c r="X112" s="7">
-        <v>14383.255724419123</v>
+        <v>29818.755902720528</v>
       </c>
       <c r="Y112" s="7">
-        <v>10172.865419598049</v>
+        <v>26284.929633844902</v>
       </c>
       <c r="Z112" s="7">
-        <v>8514.7200000000012</v>
+        <v>22855.954928549516</v>
       </c>
       <c r="AA112" s="8">
         <v>0</v>
       </c>
       <c r="AB112" s="13">
         <f t="shared" si="0"/>
-        <v>20111129.649529915</v>
+        <v>20059486.142840855</v>
       </c>
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.35">
@@ -9097,86 +9097,86 @@
         <v>12</v>
       </c>
       <c r="B113" s="9">
-        <v>954541.98815458373</v>
+        <v>954321.16032932338</v>
       </c>
       <c r="C113" s="10">
-        <v>721842.10699005704</v>
+        <v>724077.67935875291</v>
       </c>
       <c r="D113" s="10">
-        <v>385549.22913544427</v>
+        <v>379838.50499902328</v>
       </c>
       <c r="E113" s="10">
-        <v>231327.92939794157</v>
+        <v>228862.56452863925</v>
       </c>
       <c r="F113" s="10">
-        <v>126432.71328181397</v>
+        <v>115020.84925264685</v>
       </c>
       <c r="G113" s="10">
-        <v>59945.512317364577</v>
+        <v>59046.152317364576</v>
       </c>
       <c r="H113" s="10">
-        <v>49641.322231032624</v>
+        <v>49704.121976841656</v>
       </c>
       <c r="I113" s="10">
-        <v>40449.36811457025</v>
+        <v>40703.060809516537</v>
       </c>
       <c r="J113" s="10">
-        <v>32948.303620715218</v>
+        <v>33051.668306792737</v>
       </c>
       <c r="K113" s="10">
-        <v>26912.084793665701</v>
+        <v>26706.624838837153</v>
       </c>
       <c r="L113" s="10">
-        <v>22070.96144033446</v>
+        <v>22024.241440334463</v>
       </c>
       <c r="M113" s="10">
-        <v>18203.774573297458</v>
+        <v>18157.054573297457</v>
       </c>
       <c r="N113" s="10">
-        <v>15185.18032037237</v>
+        <v>13643.031024457117</v>
       </c>
       <c r="O113" s="10">
-        <v>12675.602896805107</v>
+        <v>12601.297975515861</v>
       </c>
       <c r="P113" s="10">
-        <v>10357.590109946923</v>
+        <v>9842.3449017381354</v>
       </c>
       <c r="Q113" s="10">
-        <v>8976.2376075804204</v>
+        <v>9068.5951245780852</v>
       </c>
       <c r="R113" s="10">
-        <v>7671.1279610489128</v>
+        <v>6336.2026406992754</v>
       </c>
       <c r="S113" s="10">
-        <v>6224.1341720011596</v>
+        <v>6358.6468535324366</v>
       </c>
       <c r="T113" s="10">
-        <v>4895.1315830823287</v>
+        <v>5870.6446577137431</v>
       </c>
       <c r="U113" s="10">
-        <v>4136.0127554535065</v>
+        <v>3528.5090060797206</v>
       </c>
       <c r="V113" s="10">
-        <v>2255.3141070181468</v>
+        <v>4291.9881329945056</v>
       </c>
       <c r="W113" s="10">
-        <v>2072.3718560038651</v>
+        <v>3860.3652101914322</v>
       </c>
       <c r="X113" s="10">
-        <v>1724.9069655523904</v>
+        <v>3440.6256810831378</v>
       </c>
       <c r="Y113" s="10">
-        <v>1245.3281774497561</v>
+        <v>3032.876496212873</v>
       </c>
       <c r="Z113" s="10">
-        <v>1045.3600000000001</v>
+        <v>2637.2255686787903</v>
       </c>
       <c r="AA113" s="11">
         <v>0</v>
       </c>
       <c r="AB113" s="14">
         <f t="shared" si="0"/>
-        <v>2748329.592563136</v>
+        <v>2736026.0360048455</v>
       </c>
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.35">

--- a/717A11_output.xlsx
+++ b/717A11_output.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lfi\Google Drive\School\College\Semester 6 (Spring 2020)\ENV 717\Assignments\Assignment 11 (group project)\ENV717A11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jawessel\opl\ENV717A11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="K3" s="4">
-        <v>0</v>
+        <v>362.23993857780215</v>
       </c>
       <c r="L3" s="4">
-        <v>403.19479802500206</v>
+        <v>403.194798025002</v>
       </c>
       <c r="M3" s="4">
-        <v>269.51825120723021</v>
+        <v>244.51825120722663</v>
       </c>
       <c r="N3" s="4">
-        <v>101.21361546809433</v>
+        <v>61.213615468090836</v>
       </c>
       <c r="O3" s="4">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="AN3" s="4">
-        <v>478.70145608190001</v>
+        <v>519.20000000000005</v>
       </c>
       <c r="AO3" s="4">
         <v>519.20000000000005</v>
@@ -1153,10 +1153,10 @@
         <v>519.20000000000005</v>
       </c>
       <c r="AQ3" s="4">
-        <v>496.8136011685267</v>
+        <v>436.81360116852329</v>
       </c>
       <c r="AR3" s="4">
-        <v>229.56646357904285</v>
+        <v>194.56646357903946</v>
       </c>
       <c r="AS3" s="4">
         <v>0</v>
@@ -1243,10 +1243,10 @@
         <v>519.20000000000005</v>
       </c>
       <c r="BV3" s="4">
-        <v>360.63499308010933</v>
+        <v>472.5339972320412</v>
       </c>
       <c r="BW3" s="4">
-        <v>0</v>
+        <v>110.77500801782662</v>
       </c>
       <c r="BX3" s="4">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>451.00040787533175</v>
       </c>
       <c r="CS3" s="4">
-        <v>493.52595154621247</v>
+        <v>493.52595154620889</v>
       </c>
       <c r="CT3" s="4">
-        <v>291.43422511012818</v>
+        <v>256.43422511012466</v>
       </c>
       <c r="CU3" s="4">
-        <v>44.728673136118431</v>
+        <v>0</v>
       </c>
       <c r="CV3" s="4">
         <v>0</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="AI4" s="7">
-        <v>174.73892066343387</v>
+        <v>244.46393590610194</v>
       </c>
       <c r="AJ4" s="7">
         <v>665.6</v>
@@ -1515,10 +1515,10 @@
         <v>665.6</v>
       </c>
       <c r="BC4" s="7">
-        <v>606.3815889983257</v>
+        <v>556.3815889983257</v>
       </c>
       <c r="BD4" s="8">
-        <v>334.55486329931</v>
+        <v>284.55486329931</v>
       </c>
       <c r="BF4">
         <v>2</v>
@@ -1527,16 +1527,16 @@
         <v>0</v>
       </c>
       <c r="BH4" s="7">
-        <v>277.76599999999939</v>
+        <v>406.40599999999944</v>
       </c>
       <c r="BI4" s="7">
-        <v>332.01589399999898</v>
+        <v>460.65589399999902</v>
       </c>
       <c r="BJ4" s="7">
-        <v>386.75403704599751</v>
+        <v>515.39403704599704</v>
       </c>
       <c r="BK4" s="7">
-        <v>441.98482337941101</v>
+        <v>570.6248233794106</v>
       </c>
       <c r="BL4" s="7">
         <v>665.6</v>
@@ -1596,10 +1596,10 @@
         <v>665.6</v>
       </c>
       <c r="CE4" s="7">
-        <v>401.78527863084764</v>
+        <v>450.42527863084797</v>
       </c>
       <c r="CF4" s="8">
-        <v>51.851232495020213</v>
+        <v>132.51623249502018</v>
       </c>
       <c r="CH4">
         <v>2</v>
@@ -1671,13 +1671,13 @@
         <v>665.6</v>
       </c>
       <c r="DE4" s="7">
-        <v>665.6</v>
+        <v>631.99308323419382</v>
       </c>
       <c r="DF4" s="7">
-        <v>404.77186098330185</v>
+        <v>354.77186098330185</v>
       </c>
       <c r="DG4" s="7">
-        <v>102.98064773215128</v>
+        <v>52.980647732151283</v>
       </c>
       <c r="DH4" s="8">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>46.5</v>
       </c>
       <c r="Y5" s="7">
-        <v>46.087945035074881</v>
+        <v>16.087945035074881</v>
       </c>
       <c r="Z5" s="7">
         <v>0</v>
@@ -1787,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="AK5" s="7">
-        <v>33.174262007273796</v>
+        <v>46.5</v>
       </c>
       <c r="AL5" s="7">
         <v>46.5</v>
@@ -1916,7 +1916,7 @@
         <v>46.5</v>
       </c>
       <c r="CC5" s="7">
-        <v>33.634530681593787</v>
+        <v>46.5</v>
       </c>
       <c r="CD5" s="7">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>46.5</v>
       </c>
       <c r="DB5" s="7">
-        <v>34.598619131365808</v>
+        <v>29.598619131365922</v>
       </c>
       <c r="DC5" s="7">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="AF6" s="7">
-        <v>48.524999999999068</v>
+        <v>48.524999999999054</v>
       </c>
       <c r="AG6" s="7">
-        <v>91.795964999998773</v>
+        <v>91.795964999998759</v>
       </c>
       <c r="AH6" s="7">
         <v>212</v>
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="7">
-        <v>37.141121383275376</v>
+        <v>37.141121383275362</v>
       </c>
       <c r="H7" s="7">
         <v>464</v>
@@ -2412,10 +2412,10 @@
         <v>464</v>
       </c>
       <c r="Z7" s="7">
-        <v>373.51613654038965</v>
+        <v>343.51613654038965</v>
       </c>
       <c r="AA7" s="8">
-        <v>185.3621817692524</v>
+        <v>155.3621817692524</v>
       </c>
       <c r="AD7">
         <v>5</v>
@@ -2487,10 +2487,10 @@
         <v>464</v>
       </c>
       <c r="BA7" s="7">
-        <v>464</v>
+        <v>460.85368240673006</v>
       </c>
       <c r="BB7" s="7">
-        <v>238.08260554838989</v>
+        <v>188.08260554839035</v>
       </c>
       <c r="BC7" s="7">
         <v>0</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="BL7" s="7">
-        <v>152.36803670890239</v>
+        <v>351.69841884750542</v>
       </c>
       <c r="BM7" s="7">
         <v>464</v>
@@ -2571,7 +2571,7 @@
         <v>464</v>
       </c>
       <c r="CD7" s="7">
-        <v>170.11524145772728</v>
+        <v>218.75524145772761</v>
       </c>
       <c r="CE7" s="7">
         <v>0</v>
@@ -2643,13 +2643,13 @@
         <v>464</v>
       </c>
       <c r="DC7" s="7">
-        <v>327.11024670354755</v>
+        <v>322.11024670354755</v>
       </c>
       <c r="DD7" s="7">
-        <v>194.04047892387871</v>
+        <v>189.04047892387871</v>
       </c>
       <c r="DE7" s="7">
-        <v>16.393083234193455</v>
+        <v>0</v>
       </c>
       <c r="DF7" s="7">
         <v>0</v>
@@ -2708,7 +2708,7 @@
         <v>101.5</v>
       </c>
       <c r="P8" s="7">
-        <v>6.2334961493721437</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="7">
         <v>0</v>
@@ -2948,7 +2948,7 @@
         <v>101.5</v>
       </c>
       <c r="CV8" s="7">
-        <v>28.912771194343094</v>
+        <v>0</v>
       </c>
       <c r="CW8" s="7">
         <v>0</v>
@@ -3534,7 +3534,7 @@
         <v>88</v>
       </c>
       <c r="BY10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="BZ10" s="7">
         <v>0</v>
@@ -3606,7 +3606,7 @@
         <v>88</v>
       </c>
       <c r="CX10" s="7">
-        <v>49.063976370306563</v>
+        <v>44.063976370302726</v>
       </c>
       <c r="CY10" s="7">
         <v>0</v>
@@ -3734,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="AH11" s="7">
-        <v>62.657794102351176</v>
+        <v>131.99794535068881</v>
       </c>
       <c r="AI11" s="7">
         <v>650</v>
@@ -3881,7 +3881,7 @@
         <v>650</v>
       </c>
       <c r="CF11" s="8">
-        <v>606.59871364350283</v>
+        <v>574.5737136435032</v>
       </c>
       <c r="CH11">
         <v>9</v>
@@ -3962,7 +3962,7 @@
         <v>650</v>
       </c>
       <c r="DH11" s="8">
-        <v>476.623313561739</v>
+        <v>426.623313561739</v>
       </c>
     </row>
     <row r="12" spans="1:112" x14ac:dyDescent="0.35">
@@ -4036,7 +4036,7 @@
         <v>186</v>
       </c>
       <c r="X12" s="7">
-        <v>186</v>
+        <v>158.57388011404873</v>
       </c>
       <c r="Y12" s="7">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>186</v>
       </c>
       <c r="AZ12" s="7">
-        <v>106.5906267658379</v>
+        <v>101.5906267658379</v>
       </c>
       <c r="BA12" s="7">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>186</v>
       </c>
       <c r="CC12" s="7">
-        <v>0</v>
+        <v>35.774530681594115</v>
       </c>
       <c r="CD12" s="7">
         <v>0</v>
@@ -4335,7 +4335,7 @@
         <v>154</v>
       </c>
       <c r="O13" s="7">
-        <v>72.284238007306698</v>
+        <v>47.284238007303088</v>
       </c>
       <c r="P13" s="7">
         <v>0</v>
@@ -4419,7 +4419,7 @@
         <v>154</v>
       </c>
       <c r="AS13" s="7">
-        <v>141.74910175125407</v>
+        <v>111.74910175125046</v>
       </c>
       <c r="AT13" s="7">
         <v>0</v>
@@ -4506,7 +4506,7 @@
         <v>154</v>
       </c>
       <c r="BW13" s="7">
-        <v>126.13500801781953</v>
+        <v>154</v>
       </c>
       <c r="BX13" s="7">
         <v>0</v>
@@ -4575,7 +4575,7 @@
         <v>154</v>
       </c>
       <c r="CU13" s="7">
-        <v>154</v>
+        <v>138.72867313611494</v>
       </c>
       <c r="CV13" s="7">
         <v>0</v>
@@ -4673,7 +4673,7 @@
         <v>150</v>
       </c>
       <c r="S14" s="7">
-        <v>147.48731502038254</v>
+        <v>132.48731502038254</v>
       </c>
       <c r="T14" s="7">
         <v>0</v>
@@ -4754,7 +4754,7 @@
         <v>150</v>
       </c>
       <c r="AV14" s="7">
-        <v>132.01452502909297</v>
+        <v>127.01452502909319</v>
       </c>
       <c r="AW14" s="7">
         <v>0</v>
@@ -4838,7 +4838,7 @@
         <v>150</v>
       </c>
       <c r="BY14" s="7">
-        <v>138.90051979779616</v>
+        <v>150</v>
       </c>
       <c r="BZ14" s="7">
         <v>0</v>
@@ -5038,16 +5038,16 @@
         <v>1848</v>
       </c>
       <c r="AH15" s="7">
-        <v>1708.7985745826472</v>
+        <v>1639.4584233343094</v>
       </c>
       <c r="AI15" s="7">
-        <v>990.77079533972937</v>
+        <v>921.04578009706108</v>
       </c>
       <c r="AJ15" s="7">
-        <v>80.359543447191641</v>
+        <v>80.359543447191584</v>
       </c>
       <c r="AK15" s="7">
-        <v>25.035157330942411</v>
+        <v>11.709419338216179</v>
       </c>
       <c r="AL15" s="7">
         <v>0</v>
@@ -5125,10 +5125,10 @@
         <v>1848</v>
       </c>
       <c r="BL15" s="7">
-        <v>1527.7446500809231</v>
+        <v>1457.0542679423197</v>
       </c>
       <c r="BM15" s="7">
-        <v>1158.8421009709341</v>
+        <v>1287.4821009709337</v>
       </c>
       <c r="BN15" s="7">
         <v>0</v>
@@ -5197,7 +5197,7 @@
         <v>1848</v>
       </c>
       <c r="CK15" s="7">
-        <v>1526.4550789999987</v>
+        <v>1526.4550789999989</v>
       </c>
       <c r="CL15" s="7">
         <v>1354.3954147109985</v>
@@ -5206,7 +5206,7 @@
         <v>744.69521344339717</v>
       </c>
       <c r="CN15" s="7">
-        <v>119.75771036438741</v>
+        <v>119.75771036438738</v>
       </c>
       <c r="CO15" s="7">
         <v>0</v>
@@ -5328,19 +5328,19 @@
         <v>656.1</v>
       </c>
       <c r="T16" s="7">
-        <v>622.58550085556533</v>
+        <v>607.58550085556544</v>
       </c>
       <c r="U16" s="7">
-        <v>456.97967036326452</v>
+        <v>441.97967036326463</v>
       </c>
       <c r="V16" s="7">
-        <v>286.77338739653351</v>
+        <v>271.77338739653351</v>
       </c>
       <c r="W16" s="7">
-        <v>151.97024788310137</v>
+        <v>136.97024788310137</v>
       </c>
       <c r="X16" s="7">
-        <v>2.573880114048734</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="7">
         <v>0</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="AL16" s="7">
-        <v>127.96294411225961</v>
+        <v>127.96294411225955</v>
       </c>
       <c r="AM16" s="7">
         <v>656.1</v>
@@ -5409,13 +5409,13 @@
         <v>656.1</v>
       </c>
       <c r="AW16" s="7">
-        <v>523.05529575435355</v>
+        <v>518.05529575435366</v>
       </c>
       <c r="AX16" s="7">
-        <v>283.44553341614244</v>
+        <v>278.44553341614255</v>
       </c>
       <c r="AY16" s="7">
-        <v>49.289283216886815</v>
+        <v>44.289283216886815</v>
       </c>
       <c r="AZ16" s="7">
         <v>0</v>
@@ -5493,13 +5493,13 @@
         <v>656.1</v>
       </c>
       <c r="BZ16" s="7">
-        <v>448.17602447597517</v>
+        <v>586.81602447597561</v>
       </c>
       <c r="CA16" s="7">
-        <v>121.92010869625847</v>
+        <v>260.56010869625879</v>
       </c>
       <c r="CB16" s="7">
-        <v>6.2378896745240127</v>
+        <v>144.87788967452434</v>
       </c>
       <c r="CC16" s="7">
         <v>0</v>
@@ -5538,7 +5538,7 @@
         <v>0</v>
       </c>
       <c r="CP16" s="7">
-        <v>270.7136025896209</v>
+        <v>472.09860254242767</v>
       </c>
       <c r="CQ16" s="7">
         <v>656.1</v>
@@ -5565,13 +5565,13 @@
         <v>656.1</v>
       </c>
       <c r="CY16" s="7">
-        <v>585.03819215762724</v>
+        <v>580.03819215763451</v>
       </c>
       <c r="CZ16" s="7">
-        <v>315.31627588705305</v>
+        <v>310.31627588705328</v>
       </c>
       <c r="DA16" s="7">
-        <v>46.001862370036065</v>
+        <v>41.001862370036179</v>
       </c>
       <c r="DB16" s="7">
         <v>0</v>
@@ -5642,7 +5642,7 @@
         <v>50.3</v>
       </c>
       <c r="P17" s="7">
-        <v>50.3</v>
+        <v>26.533496149368489</v>
       </c>
       <c r="Q17" s="7">
         <v>0</v>
@@ -5726,7 +5726,7 @@
         <v>50.3</v>
       </c>
       <c r="AT17" s="7">
-        <v>27.165383667014083</v>
+        <v>22.165383667010474</v>
       </c>
       <c r="AU17" s="7">
         <v>0</v>
@@ -5813,7 +5813,7 @@
         <v>50.3</v>
       </c>
       <c r="BX17" s="7">
-        <v>0</v>
+        <v>28.62852308998572</v>
       </c>
       <c r="BY17" s="7">
         <v>0</v>
@@ -5882,7 +5882,7 @@
         <v>50.3</v>
       </c>
       <c r="CV17" s="7">
-        <v>50.3</v>
+        <v>44.212771194339552</v>
       </c>
       <c r="CW17" s="7">
         <v>0</v>
@@ -5944,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I18" s="7">
         <v>67</v>
@@ -6073,7 +6073,7 @@
         <v>67</v>
       </c>
       <c r="BA18" s="7">
-        <v>46.853682406730059</v>
+        <v>0</v>
       </c>
       <c r="BB18" s="7">
         <v>0</v>
@@ -6187,7 +6187,7 @@
         <v>0</v>
       </c>
       <c r="CO18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="CP18" s="7">
         <v>67</v>
@@ -6438,7 +6438,7 @@
         <v>257</v>
       </c>
       <c r="BO19" s="7">
-        <v>51.423678098588539</v>
+        <v>180.0636780985883</v>
       </c>
       <c r="BP19" s="7">
         <v>0</v>
@@ -6596,16 +6596,16 @@
         <v>2269.6</v>
       </c>
       <c r="H20" s="7">
-        <v>1882.2541914757244</v>
+        <v>1815.2541914757244</v>
       </c>
       <c r="I20" s="7">
-        <v>1879.6228791990056</v>
+        <v>1879.6228791990059</v>
       </c>
       <c r="J20" s="7">
         <v>1025.7503851117963</v>
       </c>
       <c r="K20" s="7">
-        <v>362.23993857780226</v>
+        <v>0</v>
       </c>
       <c r="L20" s="7">
         <v>0</v>
@@ -6683,16 +6683,16 @@
         <v>2269.6</v>
       </c>
       <c r="AM20" s="7">
-        <v>1549.1237506092693</v>
+        <v>1416.4040152939237</v>
       </c>
       <c r="AN20" s="7">
-        <v>412.39404828285205</v>
+        <v>371.89550436475275</v>
       </c>
       <c r="AO20" s="7">
-        <v>418.38190390403889</v>
+        <v>418.38190390403525</v>
       </c>
       <c r="AP20" s="7">
-        <v>220.28668103917499</v>
+        <v>185.28668103917136</v>
       </c>
       <c r="AQ20" s="7">
         <v>0</v>
@@ -6767,25 +6767,25 @@
         <v>2269.6</v>
       </c>
       <c r="BP20" s="7">
-        <v>1553.7849912014749</v>
+        <v>1682.4249912014752</v>
       </c>
       <c r="BQ20" s="7">
-        <v>1612.066156122291</v>
+        <v>1740.7061561222877</v>
       </c>
       <c r="BR20" s="7">
-        <v>1320.8718515273893</v>
+        <v>1399.5118515273857</v>
       </c>
       <c r="BS20" s="7">
-        <v>970.2067981911357</v>
+        <v>1008.8467981911322</v>
       </c>
       <c r="BT20" s="7">
-        <v>580.07575937485535</v>
+        <v>658.71575937485159</v>
       </c>
       <c r="BU20" s="7">
-        <v>230.48354120922929</v>
+        <v>329.12354120922555</v>
       </c>
       <c r="BV20" s="7">
-        <v>0</v>
+        <v>26.740995848064358</v>
       </c>
       <c r="BW20" s="7">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>2227</v>
       </c>
       <c r="CJ20" s="7">
-        <v>2087.839958509257</v>
+        <v>2038.0938834123644</v>
       </c>
       <c r="CK20" s="7">
         <v>2269.6</v>
@@ -6839,13 +6839,13 @@
         <v>2269.6</v>
       </c>
       <c r="CO20" s="7">
-        <v>1966.3861697576663</v>
+        <v>1899.3861697576667</v>
       </c>
       <c r="CP20" s="7">
-        <v>1694.5702826958643</v>
+        <v>1493.185282743058</v>
       </c>
       <c r="CQ20" s="7">
-        <v>938.97890604784629</v>
+        <v>714.65418025305428</v>
       </c>
       <c r="CR20" s="7">
         <v>0</v>
@@ -7275,10 +7275,10 @@
         <v>398.3</v>
       </c>
       <c r="Q22" s="7">
-        <v>272.66479761471555</v>
+        <v>257.66479761471192</v>
       </c>
       <c r="R22" s="7">
-        <v>90.881580793236537</v>
+        <v>75.881580793243756</v>
       </c>
       <c r="S22" s="7">
         <v>0</v>
@@ -7335,7 +7335,7 @@
         <v>0</v>
       </c>
       <c r="AM22" s="7">
-        <v>0</v>
+        <v>132.71973531534559</v>
       </c>
       <c r="AN22" s="7">
         <v>398.3</v>
@@ -7359,7 +7359,7 @@
         <v>398.3</v>
       </c>
       <c r="AU22" s="7">
-        <v>159.51921212000599</v>
+        <v>154.51921212001321</v>
       </c>
       <c r="AV22" s="7">
         <v>0</v>
@@ -7413,7 +7413,7 @@
         <v>0</v>
       </c>
       <c r="BN22" s="7">
-        <v>135.47757987967179</v>
+        <v>264.11757987967133</v>
       </c>
       <c r="BO22" s="7">
         <v>398.3</v>
@@ -7443,10 +7443,10 @@
         <v>398.3</v>
       </c>
       <c r="BX22" s="7">
-        <v>288.28852308998603</v>
+        <v>398.3</v>
       </c>
       <c r="BY22" s="7">
-        <v>0</v>
+        <v>39.540519797796151</v>
       </c>
       <c r="BZ22" s="7">
         <v>0</v>
@@ -7497,7 +7497,7 @@
         <v>0</v>
       </c>
       <c r="CQ22" s="7">
-        <v>173.97527420520782</v>
+        <v>398.3</v>
       </c>
       <c r="CR22" s="7">
         <v>398.3</v>
@@ -7515,7 +7515,7 @@
         <v>398.3</v>
       </c>
       <c r="CW22" s="7">
-        <v>231.59002613509139</v>
+        <v>201.59002613508778</v>
       </c>
       <c r="CX22" s="7">
         <v>0</v>
@@ -7559,55 +7559,55 @@
         <v>0</v>
       </c>
       <c r="C23" s="7">
-        <v>14.05</v>
+        <v>14.050000000000004</v>
       </c>
       <c r="D23" s="7">
-        <v>14.05</v>
+        <v>14.050000000000004</v>
       </c>
       <c r="E23" s="7">
-        <v>14.050000000000004</v>
+        <v>14.049999999999997</v>
       </c>
       <c r="F23" s="7">
-        <v>14.050000000000004</v>
+        <v>14.049999999999997</v>
       </c>
       <c r="G23" s="7">
-        <v>14.050000000000004</v>
+        <v>14.049999999999997</v>
       </c>
       <c r="H23" s="7">
-        <v>14.050000000000004</v>
+        <v>14.049999999999997</v>
       </c>
       <c r="I23" s="7">
-        <v>14.050000000000004</v>
+        <v>14.049999999999997</v>
       </c>
       <c r="J23" s="7">
-        <v>14.050000000000004</v>
+        <v>14.049999999999997</v>
       </c>
       <c r="K23" s="7">
-        <v>14.05</v>
+        <v>14.049999999999997</v>
       </c>
       <c r="L23" s="7">
         <v>14.049999999999997</v>
       </c>
       <c r="M23" s="7">
-        <v>14.049999999999997</v>
+        <v>14.050000000000004</v>
       </c>
       <c r="N23" s="7">
-        <v>14.049999999999997</v>
+        <v>14.050000000000004</v>
       </c>
       <c r="O23" s="7">
-        <v>14.049999999999997</v>
+        <v>14.050000000000004</v>
       </c>
       <c r="P23" s="7">
         <v>14.049999999999997</v>
       </c>
       <c r="Q23" s="7">
+        <v>14.049999999999997</v>
+      </c>
+      <c r="R23" s="7">
+        <v>14.049999999999997</v>
+      </c>
+      <c r="S23" s="7">
         <v>14.05</v>
-      </c>
-      <c r="R23" s="7">
-        <v>14.05</v>
-      </c>
-      <c r="S23" s="7">
-        <v>14.050000000000004</v>
       </c>
       <c r="T23" s="7">
         <v>14.050000000000004</v>
@@ -7616,7 +7616,7 @@
         <v>14.050000000000004</v>
       </c>
       <c r="V23" s="7">
-        <v>14.049999999999997</v>
+        <v>14.050000000000004</v>
       </c>
       <c r="W23" s="7">
         <v>14.050000000000004</v>
@@ -7625,10 +7625,10 @@
         <v>14.050000000000004</v>
       </c>
       <c r="Y23" s="7">
-        <v>14.049999999999997</v>
+        <v>14.050000000000004</v>
       </c>
       <c r="Z23" s="7">
-        <v>14.05</v>
+        <v>14.050000000000004</v>
       </c>
       <c r="AA23" s="8">
         <v>14.05</v>
@@ -7640,10 +7640,10 @@
         <v>0</v>
       </c>
       <c r="AF23" s="7">
-        <v>19.669999999999995</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="AG23" s="7">
-        <v>19.669999999999995</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="AH23" s="7">
         <v>19.670000000000002</v>
@@ -7679,7 +7679,7 @@
         <v>19.670000000000002</v>
       </c>
       <c r="AS23" s="7">
-        <v>19.669999999999995</v>
+        <v>19.669999999999998</v>
       </c>
       <c r="AT23" s="7">
         <v>19.669999999999998</v>
@@ -7697,7 +7697,7 @@
         <v>19.670000000000002</v>
       </c>
       <c r="AY23" s="7">
-        <v>19.669999999999995</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="AZ23" s="7">
         <v>19.670000000000002</v>
@@ -7709,7 +7709,7 @@
         <v>19.670000000000002</v>
       </c>
       <c r="BC23" s="7">
-        <v>19.669999999999998</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="BD23" s="8">
         <v>19.669999999999998</v>
@@ -7721,79 +7721,79 @@
         <v>0</v>
       </c>
       <c r="BH23" s="7">
-        <v>28.1</v>
+        <v>19.669999999999995</v>
       </c>
       <c r="BI23" s="7">
-        <v>28.1</v>
+        <v>19.669999999999995</v>
       </c>
       <c r="BJ23" s="7">
-        <v>28.100000000000009</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="BK23" s="7">
-        <v>28.100000000000009</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="BL23" s="7">
-        <v>28.100000000000009</v>
+        <v>19.669999999999995</v>
       </c>
       <c r="BM23" s="7">
-        <v>28.100000000000009</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="BN23" s="7">
-        <v>28.1</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="BO23" s="7">
-        <v>28.1</v>
+        <v>19.669999999999995</v>
       </c>
       <c r="BP23" s="7">
-        <v>28.100000000000009</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="BQ23" s="7">
-        <v>28.100000000000009</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="BR23" s="7">
-        <v>28.100000000000009</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="BS23" s="7">
-        <v>28.099999999999994</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="BT23" s="7">
-        <v>28.099999999999994</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="BU23" s="7">
-        <v>28.100000000000009</v>
+        <v>19.669999999999998</v>
       </c>
       <c r="BV23" s="7">
-        <v>28.099999999999994</v>
+        <v>19.669999999999998</v>
       </c>
       <c r="BW23" s="7">
-        <v>28.099999999999994</v>
+        <v>19.669999999999998</v>
       </c>
       <c r="BX23" s="7">
-        <v>28.100000000000009</v>
+        <v>19.669999999999995</v>
       </c>
       <c r="BY23" s="7">
-        <v>28.100000000000009</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="BZ23" s="7">
-        <v>28.100000000000009</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="CA23" s="7">
-        <v>28.100000000000009</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="CB23" s="7">
-        <v>28.100000000000009</v>
+        <v>19.669999999999998</v>
       </c>
       <c r="CC23" s="7">
-        <v>28.100000000000009</v>
+        <v>19.669999999999998</v>
       </c>
       <c r="CD23" s="7">
-        <v>28.099999999999994</v>
+        <v>19.669999999999998</v>
       </c>
       <c r="CE23" s="7">
-        <v>28.099999999999994</v>
+        <v>19.669999999999995</v>
       </c>
       <c r="CF23" s="8">
-        <v>28.099999999999994</v>
+        <v>19.669999999999995</v>
       </c>
       <c r="CH23">
         <v>21</v>
@@ -7802,16 +7802,16 @@
         <v>0</v>
       </c>
       <c r="CJ23" s="7">
-        <v>10.931041490742572</v>
+        <v>19.669999999999995</v>
       </c>
       <c r="CK23" s="7">
-        <v>19.670000000000002</v>
+        <v>19.669999999999995</v>
       </c>
       <c r="CL23" s="7">
-        <v>19.670000000000002</v>
+        <v>19.669999999999995</v>
       </c>
       <c r="CM23" s="7">
-        <v>19.670000000000002</v>
+        <v>19.669999999999995</v>
       </c>
       <c r="CN23" s="7">
         <v>19.670000000000002</v>
@@ -7820,19 +7820,19 @@
         <v>19.670000000000002</v>
       </c>
       <c r="CP23" s="7">
-        <v>19.669999999999998</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="CQ23" s="7">
-        <v>19.669999999999998</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="CR23" s="7">
         <v>19.670000000000002</v>
       </c>
       <c r="CS23" s="7">
-        <v>19.669999999999995</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="CT23" s="7">
-        <v>19.669999999999995</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="CU23" s="7">
         <v>19.670000000000002</v>
@@ -7841,40 +7841,40 @@
         <v>19.670000000000002</v>
       </c>
       <c r="CW23" s="7">
-        <v>19.669999999999995</v>
+        <v>19.669999999999998</v>
       </c>
       <c r="CX23" s="7">
-        <v>19.670000000000002</v>
+        <v>19.669999999999998</v>
       </c>
       <c r="CY23" s="7">
-        <v>19.670000000000002</v>
+        <v>19.669999999999998</v>
       </c>
       <c r="CZ23" s="7">
         <v>19.670000000000002</v>
       </c>
       <c r="DA23" s="7">
-        <v>19.670000000000002</v>
+        <v>19.669999999999995</v>
       </c>
       <c r="DB23" s="7">
-        <v>19.670000000000002</v>
+        <v>19.669999999999995</v>
       </c>
       <c r="DC23" s="7">
-        <v>19.670000000000002</v>
+        <v>19.669999999999998</v>
       </c>
       <c r="DD23" s="7">
-        <v>19.670000000000002</v>
+        <v>19.669999999999995</v>
       </c>
       <c r="DE23" s="7">
-        <v>19.670000000000002</v>
+        <v>19.669999999999995</v>
       </c>
       <c r="DF23" s="7">
-        <v>19.670000000000002</v>
+        <v>19.669999999999995</v>
       </c>
       <c r="DG23" s="7">
-        <v>19.670000000000002</v>
+        <v>19.669999999999995</v>
       </c>
       <c r="DH23" s="8">
-        <v>19.670000000000002</v>
+        <v>19.669999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:112" x14ac:dyDescent="0.35">
@@ -7966,10 +7966,10 @@
         <v>0</v>
       </c>
       <c r="AF24" s="7">
-        <v>17.499999999999993</v>
+        <v>17.5</v>
       </c>
       <c r="AG24" s="7">
-        <v>17.499999999999993</v>
+        <v>17.5</v>
       </c>
       <c r="AH24" s="7">
         <v>17.5</v>
@@ -8023,19 +8023,19 @@
         <v>17.5</v>
       </c>
       <c r="AY24" s="7">
+        <v>17.5</v>
+      </c>
+      <c r="AZ24" s="7">
         <v>17.499999999999993</v>
       </c>
-      <c r="AZ24" s="7">
-        <v>17.5</v>
-      </c>
       <c r="BA24" s="7">
-        <v>17.5</v>
+        <v>17.499999999999993</v>
       </c>
       <c r="BB24" s="7">
         <v>17.499999999999993</v>
       </c>
       <c r="BC24" s="7">
-        <v>17.5</v>
+        <v>17.499999999999993</v>
       </c>
       <c r="BD24" s="8">
         <v>17.5</v>
@@ -8047,79 +8047,79 @@
         <v>0</v>
       </c>
       <c r="BH24" s="7">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="BI24" s="7">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="BJ24" s="7">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="BK24" s="7">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="BL24" s="7">
-        <v>25</v>
+        <v>17.499999999999993</v>
       </c>
       <c r="BM24" s="7">
-        <v>25</v>
+        <v>17.499999999999993</v>
       </c>
       <c r="BN24" s="7">
-        <v>25</v>
+        <v>17.499999999999993</v>
       </c>
       <c r="BO24" s="7">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="BP24" s="7">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="BQ24" s="7">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="BR24" s="7">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="BS24" s="7">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="BT24" s="7">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="BU24" s="7">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="BV24" s="7">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="BW24" s="7">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="BX24" s="7">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="BY24" s="7">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="BZ24" s="7">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="CA24" s="7">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="CB24" s="7">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="CC24" s="7">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="CD24" s="7">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="CE24" s="7">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="CF24" s="8">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="CH24">
         <v>22</v>
@@ -8143,10 +8143,10 @@
         <v>17.5</v>
       </c>
       <c r="CO24" s="7">
-        <v>17.5</v>
+        <v>17.499999999999993</v>
       </c>
       <c r="CP24" s="7">
-        <v>17.5</v>
+        <v>17.499999999999993</v>
       </c>
       <c r="CQ24" s="7">
         <v>17.5</v>
@@ -8188,13 +8188,13 @@
         <v>17.5</v>
       </c>
       <c r="DD24" s="7">
-        <v>17.5</v>
+        <v>17.499999999999993</v>
       </c>
       <c r="DE24" s="7">
-        <v>17.5</v>
+        <v>17.499999999999993</v>
       </c>
       <c r="DF24" s="7">
-        <v>17.5</v>
+        <v>17.499999999999993</v>
       </c>
       <c r="DG24" s="7">
         <v>17.5</v>
@@ -8316,10 +8316,10 @@
         <v>49</v>
       </c>
       <c r="AN25" s="7">
-        <v>49</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="AO25" s="7">
-        <v>49</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="AP25" s="7">
         <v>49</v>
@@ -8331,25 +8331,25 @@
         <v>49</v>
       </c>
       <c r="AS25" s="7">
-        <v>49</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="AT25" s="7">
-        <v>49</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="AU25" s="7">
-        <v>49</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="AV25" s="7">
-        <v>49</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="AW25" s="7">
-        <v>49</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="AX25" s="7">
-        <v>49</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="AY25" s="7">
-        <v>49</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="AZ25" s="7">
         <v>49</v>
@@ -8373,79 +8373,79 @@
         <v>0</v>
       </c>
       <c r="BH25" s="7">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="BI25" s="7">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="BJ25" s="7">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="BK25" s="7">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="BL25" s="7">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="BM25" s="7">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="BN25" s="7">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="BO25" s="7">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="BP25" s="7">
-        <v>70</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="BQ25" s="7">
-        <v>70</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="BR25" s="7">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="BS25" s="7">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="BT25" s="7">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="BU25" s="7">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="BV25" s="7">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="BW25" s="7">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="BX25" s="7">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="BY25" s="7">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="BZ25" s="7">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="CA25" s="7">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="CB25" s="7">
-        <v>70</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="CC25" s="7">
-        <v>70</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="CD25" s="7">
-        <v>70</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="CE25" s="7">
-        <v>70</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="CF25" s="8">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="CH25">
         <v>23</v>
@@ -8487,10 +8487,10 @@
         <v>49</v>
       </c>
       <c r="CU25" s="7">
-        <v>48.999999999999993</v>
+        <v>49</v>
       </c>
       <c r="CV25" s="7">
-        <v>48.999999999999993</v>
+        <v>49</v>
       </c>
       <c r="CW25" s="7">
         <v>49</v>
@@ -8505,13 +8505,13 @@
         <v>49</v>
       </c>
       <c r="DA25" s="7">
-        <v>49</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="DB25" s="7">
-        <v>49</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="DC25" s="7">
-        <v>49</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="DD25" s="7">
         <v>49</v>
@@ -8549,16 +8549,16 @@
         <v>15.3</v>
       </c>
       <c r="G26" s="7">
-        <v>15.299999999999999</v>
+        <v>15.3</v>
       </c>
       <c r="H26" s="7">
-        <v>15.299999999999999</v>
+        <v>15.3</v>
       </c>
       <c r="I26" s="7">
         <v>15.3</v>
       </c>
       <c r="J26" s="7">
-        <v>15.3</v>
+        <v>15.299999999999999</v>
       </c>
       <c r="K26" s="7">
         <v>15.3</v>
@@ -8597,13 +8597,13 @@
         <v>15.3</v>
       </c>
       <c r="W26" s="7">
-        <v>15.3</v>
+        <v>15.299999999999999</v>
       </c>
       <c r="X26" s="7">
-        <v>15.3</v>
+        <v>15.299999999999999</v>
       </c>
       <c r="Y26" s="7">
-        <v>15.3</v>
+        <v>15.299999999999999</v>
       </c>
       <c r="Z26" s="7">
         <v>15.3</v>
@@ -8621,7 +8621,7 @@
         <v>21.419999999999998</v>
       </c>
       <c r="AG26" s="7">
-        <v>21.419999999999995</v>
+        <v>21.419999999999998</v>
       </c>
       <c r="AH26" s="7">
         <v>21.419999999999998</v>
@@ -8687,7 +8687,7 @@
         <v>21.419999999999998</v>
       </c>
       <c r="BC26" s="7">
-        <v>21.419999999999998</v>
+        <v>21.419999999999995</v>
       </c>
       <c r="BD26" s="8">
         <v>21.419999999999998</v>
@@ -8699,79 +8699,79 @@
         <v>0</v>
       </c>
       <c r="BH26" s="7">
-        <v>30.6</v>
+        <v>21.419999999999998</v>
       </c>
       <c r="BI26" s="7">
-        <v>30.599999999999998</v>
+        <v>21.419999999999998</v>
       </c>
       <c r="BJ26" s="7">
-        <v>30.6</v>
+        <v>21.419999999999998</v>
       </c>
       <c r="BK26" s="7">
-        <v>30.6</v>
+        <v>21.419999999999998</v>
       </c>
       <c r="BL26" s="7">
-        <v>30.6</v>
+        <v>21.419999999999998</v>
       </c>
       <c r="BM26" s="7">
-        <v>30.6</v>
+        <v>21.419999999999998</v>
       </c>
       <c r="BN26" s="7">
-        <v>30.6</v>
+        <v>21.419999999999998</v>
       </c>
       <c r="BO26" s="7">
-        <v>30.6</v>
+        <v>21.419999999999998</v>
       </c>
       <c r="BP26" s="7">
-        <v>30.6</v>
+        <v>21.419999999999998</v>
       </c>
       <c r="BQ26" s="7">
-        <v>30.6</v>
+        <v>21.419999999999998</v>
       </c>
       <c r="BR26" s="7">
-        <v>30.6</v>
+        <v>21.419999999999998</v>
       </c>
       <c r="BS26" s="7">
-        <v>30.6</v>
+        <v>21.419999999999998</v>
       </c>
       <c r="BT26" s="7">
-        <v>30.6</v>
+        <v>21.419999999999998</v>
       </c>
       <c r="BU26" s="7">
-        <v>30.6</v>
+        <v>21.419999999999998</v>
       </c>
       <c r="BV26" s="7">
-        <v>30.6</v>
+        <v>21.419999999999998</v>
       </c>
       <c r="BW26" s="7">
-        <v>30.6</v>
+        <v>21.419999999999998</v>
       </c>
       <c r="BX26" s="7">
-        <v>30.6</v>
+        <v>21.419999999999998</v>
       </c>
       <c r="BY26" s="7">
-        <v>30.6</v>
+        <v>21.419999999999998</v>
       </c>
       <c r="BZ26" s="7">
-        <v>30.6</v>
+        <v>21.419999999999998</v>
       </c>
       <c r="CA26" s="7">
-        <v>30.6</v>
+        <v>21.419999999999998</v>
       </c>
       <c r="CB26" s="7">
-        <v>30.6</v>
+        <v>21.419999999999998</v>
       </c>
       <c r="CC26" s="7">
-        <v>30.6</v>
+        <v>21.419999999999998</v>
       </c>
       <c r="CD26" s="7">
-        <v>30.6</v>
+        <v>21.419999999999998</v>
       </c>
       <c r="CE26" s="7">
-        <v>30.6</v>
+        <v>21.419999999999998</v>
       </c>
       <c r="CF26" s="8">
-        <v>30.6</v>
+        <v>21.419999999999998</v>
       </c>
       <c r="CH26">
         <v>24</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="CJ26" s="7">
-        <v>0</v>
+        <v>21.419999999999998</v>
       </c>
       <c r="CK26" s="7">
         <v>21.419999999999998</v>
@@ -9025,79 +9025,79 @@
         <v>0</v>
       </c>
       <c r="BH27" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BI27" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BJ27" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BK27" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BL27" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BM27" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BN27" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BO27" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BP27" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BQ27" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BR27" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BS27" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BT27" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BU27" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BV27" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BW27" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BX27" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BY27" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BZ27" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CA27" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CB27" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CC27" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CD27" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CE27" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CF27" s="8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CH27">
         <v>25</v>
@@ -9106,7 +9106,7 @@
         <v>0</v>
       </c>
       <c r="CJ27" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CK27" s="7">
         <v>7</v>
@@ -9118,10 +9118,10 @@
         <v>7</v>
       </c>
       <c r="CN27" s="7">
-        <v>7.0000000000000018</v>
+        <v>7</v>
       </c>
       <c r="CO27" s="7">
-        <v>7.0000000000000018</v>
+        <v>7</v>
       </c>
       <c r="CP27" s="7">
         <v>7</v>
@@ -9139,10 +9139,10 @@
         <v>7</v>
       </c>
       <c r="CU27" s="7">
-        <v>6.9999999999999929</v>
+        <v>7</v>
       </c>
       <c r="CV27" s="7">
-        <v>6.9999999999999929</v>
+        <v>7</v>
       </c>
       <c r="CW27" s="7">
         <v>7</v>
@@ -9318,7 +9318,7 @@
         <v>7</v>
       </c>
       <c r="AV28" s="7">
-        <v>6.9999999999999929</v>
+        <v>7</v>
       </c>
       <c r="AW28" s="7">
         <v>7</v>
@@ -9327,7 +9327,7 @@
         <v>7</v>
       </c>
       <c r="AY28" s="7">
-        <v>6.9999999999999929</v>
+        <v>7</v>
       </c>
       <c r="AZ28" s="7">
         <v>7</v>
@@ -9351,79 +9351,79 @@
         <v>0</v>
       </c>
       <c r="BH28" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BI28" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BJ28" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BK28" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BL28" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BM28" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BN28" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BO28" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BP28" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BQ28" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BR28" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BS28" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BT28" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BU28" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BV28" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BW28" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BX28" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BY28" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BZ28" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CA28" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CB28" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CC28" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CD28" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CE28" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CF28" s="8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CH28">
         <v>26</v>
@@ -9432,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="CJ28" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CK28" s="7">
         <v>7</v>
@@ -9447,13 +9447,13 @@
         <v>7</v>
       </c>
       <c r="CO28" s="7">
-        <v>7</v>
+        <v>6.9999999999999929</v>
       </c>
       <c r="CP28" s="7">
-        <v>6.9999999999999964</v>
+        <v>6.9999999999999929</v>
       </c>
       <c r="CQ28" s="7">
-        <v>6.9999999999999964</v>
+        <v>7</v>
       </c>
       <c r="CR28" s="7">
         <v>7</v>
@@ -9462,43 +9462,43 @@
         <v>7</v>
       </c>
       <c r="CT28" s="7">
-        <v>7</v>
+        <v>6.9999999999999929</v>
       </c>
       <c r="CU28" s="7">
-        <v>7.0000000000000018</v>
+        <v>6.9999999999999929</v>
       </c>
       <c r="CV28" s="7">
-        <v>7.0000000000000018</v>
+        <v>6.9999999999999929</v>
       </c>
       <c r="CW28" s="7">
-        <v>7</v>
+        <v>7.0000000000000036</v>
       </c>
       <c r="CX28" s="7">
-        <v>7</v>
+        <v>7.0000000000000036</v>
       </c>
       <c r="CY28" s="7">
-        <v>7</v>
+        <v>7.0000000000000036</v>
       </c>
       <c r="CZ28" s="7">
         <v>7</v>
       </c>
       <c r="DA28" s="7">
-        <v>6.9999999999999929</v>
+        <v>7</v>
       </c>
       <c r="DB28" s="7">
-        <v>6.9999999999999929</v>
+        <v>7</v>
       </c>
       <c r="DC28" s="7">
         <v>7</v>
       </c>
       <c r="DD28" s="7">
-        <v>6.9999999999999929</v>
+        <v>7</v>
       </c>
       <c r="DE28" s="7">
-        <v>6.9999999999999929</v>
+        <v>7</v>
       </c>
       <c r="DF28" s="7">
-        <v>6.9999999999999929</v>
+        <v>7</v>
       </c>
       <c r="DG28" s="7">
         <v>7</v>
@@ -9635,7 +9635,7 @@
         <v>7</v>
       </c>
       <c r="AS29" s="7">
-        <v>7.0000000000000018</v>
+        <v>7</v>
       </c>
       <c r="AT29" s="7">
         <v>7</v>
@@ -9677,79 +9677,79 @@
         <v>0</v>
       </c>
       <c r="BH29" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BI29" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BJ29" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BK29" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BL29" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BM29" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BN29" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BO29" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BP29" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BQ29" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BR29" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BS29" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BT29" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BU29" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BV29" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BW29" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BX29" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BY29" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BZ29" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CA29" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CB29" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CC29" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CD29" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CE29" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CF29" s="8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CH29">
         <v>27</v>
@@ -9758,16 +9758,16 @@
         <v>0</v>
       </c>
       <c r="CJ29" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CK29" s="7">
         <v>7</v>
       </c>
       <c r="CL29" s="7">
-        <v>7</v>
+        <v>7.0000000000000018</v>
       </c>
       <c r="CM29" s="7">
-        <v>7</v>
+        <v>7.0000000000000018</v>
       </c>
       <c r="CN29" s="7">
         <v>7</v>
@@ -9785,10 +9785,10 @@
         <v>7</v>
       </c>
       <c r="CS29" s="7">
-        <v>7.0000000000000018</v>
+        <v>7</v>
       </c>
       <c r="CT29" s="7">
-        <v>7.0000000000000018</v>
+        <v>7</v>
       </c>
       <c r="CU29" s="7">
         <v>7</v>
@@ -9830,7 +9830,7 @@
         <v>7</v>
       </c>
       <c r="DH29" s="8">
-        <v>7</v>
+        <v>7.0000000000000036</v>
       </c>
     </row>
     <row r="30" spans="1:112" x14ac:dyDescent="0.35">
@@ -9841,37 +9841,37 @@
         <v>0</v>
       </c>
       <c r="C30" s="7">
-        <v>26.100000000000005</v>
+        <v>26.1</v>
       </c>
       <c r="D30" s="7">
-        <v>26.100000000000005</v>
+        <v>26.1</v>
       </c>
       <c r="E30" s="7">
-        <v>26.1</v>
+        <v>26.100000000000009</v>
       </c>
       <c r="F30" s="7">
-        <v>26.1</v>
+        <v>26.100000000000009</v>
       </c>
       <c r="G30" s="7">
-        <v>26.1</v>
+        <v>26.100000000000009</v>
       </c>
       <c r="H30" s="7">
-        <v>26.1</v>
+        <v>26.100000000000009</v>
       </c>
       <c r="I30" s="7">
-        <v>26.1</v>
+        <v>26.100000000000009</v>
       </c>
       <c r="J30" s="7">
         <v>26.1</v>
       </c>
       <c r="K30" s="7">
-        <v>26.100000000000005</v>
+        <v>26.100000000000009</v>
       </c>
       <c r="L30" s="7">
         <v>26.100000000000009</v>
       </c>
       <c r="M30" s="7">
-        <v>26.100000000000009</v>
+        <v>26.1</v>
       </c>
       <c r="N30" s="7">
         <v>26.1</v>
@@ -9880,16 +9880,16 @@
         <v>26.1</v>
       </c>
       <c r="P30" s="7">
-        <v>26.1</v>
+        <v>26.100000000000009</v>
       </c>
       <c r="Q30" s="7">
-        <v>26.1</v>
+        <v>26.100000000000009</v>
       </c>
       <c r="R30" s="7">
-        <v>26.1</v>
+        <v>26.100000000000009</v>
       </c>
       <c r="S30" s="7">
-        <v>26.1</v>
+        <v>26.100000000000005</v>
       </c>
       <c r="T30" s="7">
         <v>26.1</v>
@@ -9898,7 +9898,7 @@
         <v>26.1</v>
       </c>
       <c r="V30" s="7">
-        <v>26.099999999999994</v>
+        <v>26.1</v>
       </c>
       <c r="W30" s="7">
         <v>26.1</v>
@@ -9907,7 +9907,7 @@
         <v>26.1</v>
       </c>
       <c r="Y30" s="7">
-        <v>26.099999999999994</v>
+        <v>26.1</v>
       </c>
       <c r="Z30" s="7">
         <v>26.1</v>
@@ -9922,10 +9922,10 @@
         <v>0</v>
       </c>
       <c r="AF30" s="7">
-        <v>36.539999999999992</v>
+        <v>36.54</v>
       </c>
       <c r="AG30" s="7">
-        <v>36.539999999999992</v>
+        <v>36.54</v>
       </c>
       <c r="AH30" s="7">
         <v>36.54</v>
@@ -9934,25 +9934,25 @@
         <v>36.54</v>
       </c>
       <c r="AJ30" s="7">
-        <v>36.54</v>
+        <v>36.540000000000006</v>
       </c>
       <c r="AK30" s="7">
-        <v>36.54</v>
+        <v>36.540000000000006</v>
       </c>
       <c r="AL30" s="7">
-        <v>36.54</v>
+        <v>36.540000000000006</v>
       </c>
       <c r="AM30" s="7">
-        <v>36.54</v>
+        <v>36.540000000000006</v>
       </c>
       <c r="AN30" s="7">
-        <v>36.54</v>
+        <v>36.540000000000006</v>
       </c>
       <c r="AO30" s="7">
-        <v>36.54</v>
+        <v>36.540000000000006</v>
       </c>
       <c r="AP30" s="7">
-        <v>36.54</v>
+        <v>36.539999999999992</v>
       </c>
       <c r="AQ30" s="7">
         <v>36.539999999999992</v>
@@ -9961,16 +9961,16 @@
         <v>36.539999999999992</v>
       </c>
       <c r="AS30" s="7">
-        <v>36.539999999999992</v>
+        <v>36.540000000000006</v>
       </c>
       <c r="AT30" s="7">
-        <v>36.539999999999992</v>
+        <v>36.540000000000006</v>
       </c>
       <c r="AU30" s="7">
-        <v>36.539999999999992</v>
+        <v>36.540000000000006</v>
       </c>
       <c r="AV30" s="7">
-        <v>36.539999999999992</v>
+        <v>36.540000000000006</v>
       </c>
       <c r="AW30" s="7">
         <v>36.539999999999992</v>
@@ -9988,13 +9988,13 @@
         <v>36.539999999999992</v>
       </c>
       <c r="BB30" s="7">
+        <v>36.539999999999992</v>
+      </c>
+      <c r="BC30" s="7">
         <v>36.54</v>
       </c>
-      <c r="BC30" s="7">
-        <v>36.539999999999992</v>
-      </c>
       <c r="BD30" s="8">
-        <v>36.539999999999992</v>
+        <v>36.540000000000006</v>
       </c>
       <c r="BF30">
         <v>28</v>
@@ -10003,79 +10003,79 @@
         <v>0</v>
       </c>
       <c r="BH30" s="7">
-        <v>52.20000000000001</v>
+        <v>36.54</v>
       </c>
       <c r="BI30" s="7">
-        <v>52.20000000000001</v>
+        <v>36.54</v>
       </c>
       <c r="BJ30" s="7">
-        <v>52.2</v>
+        <v>36.539999999999992</v>
       </c>
       <c r="BK30" s="7">
-        <v>52.2</v>
+        <v>36.539999999999992</v>
       </c>
       <c r="BL30" s="7">
-        <v>52.2</v>
+        <v>36.54</v>
       </c>
       <c r="BM30" s="7">
-        <v>52.2</v>
+        <v>36.54</v>
       </c>
       <c r="BN30" s="7">
-        <v>52.20000000000001</v>
+        <v>36.54</v>
       </c>
       <c r="BO30" s="7">
-        <v>52.20000000000001</v>
+        <v>36.540000000000006</v>
       </c>
       <c r="BP30" s="7">
-        <v>52.2</v>
+        <v>36.540000000000006</v>
       </c>
       <c r="BQ30" s="7">
-        <v>52.2</v>
+        <v>36.540000000000006</v>
       </c>
       <c r="BR30" s="7">
-        <v>52.2</v>
+        <v>36.539999999999992</v>
       </c>
       <c r="BS30" s="7">
-        <v>52.200000000000017</v>
+        <v>36.539999999999992</v>
       </c>
       <c r="BT30" s="7">
-        <v>52.200000000000017</v>
+        <v>36.539999999999992</v>
       </c>
       <c r="BU30" s="7">
-        <v>52.2</v>
+        <v>36.54</v>
       </c>
       <c r="BV30" s="7">
-        <v>52.200000000000017</v>
+        <v>36.54</v>
       </c>
       <c r="BW30" s="7">
-        <v>52.200000000000017</v>
+        <v>36.54</v>
       </c>
       <c r="BX30" s="7">
-        <v>52.2</v>
+        <v>36.54</v>
       </c>
       <c r="BY30" s="7">
-        <v>52.2</v>
+        <v>36.539999999999992</v>
       </c>
       <c r="BZ30" s="7">
-        <v>52.2</v>
+        <v>36.539999999999992</v>
       </c>
       <c r="CA30" s="7">
-        <v>52.2</v>
+        <v>36.539999999999992</v>
       </c>
       <c r="CB30" s="7">
-        <v>52.2</v>
+        <v>36.539999999999992</v>
       </c>
       <c r="CC30" s="7">
-        <v>52.2</v>
+        <v>36.539999999999992</v>
       </c>
       <c r="CD30" s="7">
-        <v>52.200000000000017</v>
+        <v>36.539999999999992</v>
       </c>
       <c r="CE30" s="7">
-        <v>52.200000000000017</v>
+        <v>36.54</v>
       </c>
       <c r="CF30" s="8">
-        <v>52.200000000000017</v>
+        <v>36.54</v>
       </c>
       <c r="CH30">
         <v>28</v>
@@ -10090,31 +10090,31 @@
         <v>36.54</v>
       </c>
       <c r="CL30" s="7">
+        <v>36.540000000000006</v>
+      </c>
+      <c r="CM30" s="7">
+        <v>36.540000000000006</v>
+      </c>
+      <c r="CN30" s="7">
         <v>36.54</v>
       </c>
-      <c r="CM30" s="7">
+      <c r="CO30" s="7">
         <v>36.54</v>
       </c>
-      <c r="CN30" s="7">
-        <v>36.540000000000006</v>
-      </c>
-      <c r="CO30" s="7">
-        <v>36.540000000000006</v>
-      </c>
       <c r="CP30" s="7">
-        <v>36.539999999999992</v>
+        <v>36.54</v>
       </c>
       <c r="CQ30" s="7">
-        <v>36.539999999999992</v>
+        <v>36.54</v>
       </c>
       <c r="CR30" s="7">
         <v>36.54</v>
       </c>
       <c r="CS30" s="7">
-        <v>36.540000000000006</v>
+        <v>36.54</v>
       </c>
       <c r="CT30" s="7">
-        <v>36.540000000000006</v>
+        <v>36.54</v>
       </c>
       <c r="CU30" s="7">
         <v>36.54</v>
@@ -10123,40 +10123,40 @@
         <v>36.54</v>
       </c>
       <c r="CW30" s="7">
+        <v>36.540000000000006</v>
+      </c>
+      <c r="CX30" s="7">
+        <v>36.540000000000006</v>
+      </c>
+      <c r="CY30" s="7">
+        <v>36.540000000000006</v>
+      </c>
+      <c r="CZ30" s="7">
         <v>36.54</v>
       </c>
-      <c r="CX30" s="7">
-        <v>36.54</v>
-      </c>
-      <c r="CY30" s="7">
-        <v>36.54</v>
-      </c>
-      <c r="CZ30" s="7">
+      <c r="DA30" s="7">
         <v>36.540000000000006</v>
       </c>
-      <c r="DA30" s="7">
-        <v>36.54</v>
-      </c>
       <c r="DB30" s="7">
-        <v>36.54</v>
+        <v>36.540000000000006</v>
       </c>
       <c r="DC30" s="7">
         <v>36.540000000000006</v>
       </c>
       <c r="DD30" s="7">
-        <v>36.54</v>
+        <v>36.540000000000006</v>
       </c>
       <c r="DE30" s="7">
-        <v>36.54</v>
+        <v>36.540000000000006</v>
       </c>
       <c r="DF30" s="7">
-        <v>36.54</v>
+        <v>36.540000000000006</v>
       </c>
       <c r="DG30" s="7">
         <v>36.54</v>
       </c>
       <c r="DH30" s="8">
-        <v>36.54</v>
+        <v>36.540000000000006</v>
       </c>
     </row>
     <row r="31" spans="1:112" x14ac:dyDescent="0.35">
@@ -10200,13 +10200,13 @@
         <v>5</v>
       </c>
       <c r="N31" s="7">
-        <v>4.9999999999999929</v>
+        <v>5</v>
       </c>
       <c r="O31" s="7">
-        <v>4.9999999999999929</v>
+        <v>5</v>
       </c>
       <c r="P31" s="7">
-        <v>4.9999999999999929</v>
+        <v>5</v>
       </c>
       <c r="Q31" s="7">
         <v>5</v>
@@ -10254,10 +10254,10 @@
         <v>7</v>
       </c>
       <c r="AH31" s="7">
-        <v>7</v>
+        <v>6.9999999999999929</v>
       </c>
       <c r="AI31" s="7">
-        <v>7</v>
+        <v>6.9999999999999929</v>
       </c>
       <c r="AJ31" s="7">
         <v>7</v>
@@ -10275,16 +10275,16 @@
         <v>7</v>
       </c>
       <c r="AO31" s="7">
-        <v>6.9999999999999929</v>
+        <v>7</v>
       </c>
       <c r="AP31" s="7">
-        <v>6.9999999999999929</v>
+        <v>7.0000000000000018</v>
       </c>
       <c r="AQ31" s="7">
-        <v>7</v>
+        <v>7.0000000000000018</v>
       </c>
       <c r="AR31" s="7">
-        <v>7</v>
+        <v>7.0000000000000018</v>
       </c>
       <c r="AS31" s="7">
         <v>7</v>
@@ -10305,13 +10305,13 @@
         <v>7.0000000000000018</v>
       </c>
       <c r="AY31" s="7">
-        <v>7</v>
+        <v>7.0000000000000018</v>
       </c>
       <c r="AZ31" s="7">
-        <v>7.0000000000000018</v>
+        <v>7</v>
       </c>
       <c r="BA31" s="7">
-        <v>7.0000000000000018</v>
+        <v>7</v>
       </c>
       <c r="BB31" s="7">
         <v>7</v>
@@ -10320,7 +10320,7 @@
         <v>7</v>
       </c>
       <c r="BD31" s="8">
-        <v>7</v>
+        <v>7.0000000000000036</v>
       </c>
       <c r="BF31">
         <v>29</v>
@@ -10329,79 +10329,79 @@
         <v>0</v>
       </c>
       <c r="BH31" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BI31" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BJ31" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BK31" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BL31" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BM31" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BN31" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BO31" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BP31" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BQ31" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BR31" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BS31" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BT31" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BU31" s="7">
-        <v>10</v>
+        <v>7.0000000000000036</v>
       </c>
       <c r="BV31" s="7">
-        <v>10</v>
+        <v>7.0000000000000036</v>
       </c>
       <c r="BW31" s="7">
-        <v>10</v>
+        <v>7.0000000000000036</v>
       </c>
       <c r="BX31" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BY31" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BZ31" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CA31" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CB31" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CC31" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CD31" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CE31" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CF31" s="8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CH31">
         <v>29</v>
@@ -10410,7 +10410,7 @@
         <v>0</v>
       </c>
       <c r="CJ31" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CK31" s="7">
         <v>7</v>
@@ -10505,67 +10505,67 @@
         <v>10.100000000000001</v>
       </c>
       <c r="G32" s="7">
+        <v>10.099999999999998</v>
+      </c>
+      <c r="H32" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="I32" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="J32" s="7">
         <v>10.1</v>
       </c>
-      <c r="H32" s="7">
-        <v>10.1</v>
-      </c>
-      <c r="I32" s="7">
+      <c r="K32" s="7">
         <v>10.099999999999998</v>
       </c>
-      <c r="J32" s="7">
-        <v>10.100000000000001</v>
-      </c>
-      <c r="K32" s="7">
-        <v>10.100000000000001</v>
-      </c>
       <c r="L32" s="7">
-        <v>10.100000000000001</v>
+        <v>10.099999999999998</v>
       </c>
       <c r="M32" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="N32" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="O32" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="P32" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="R32" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="S32" s="7">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="T32" s="7">
         <v>10.099999999999998</v>
       </c>
-      <c r="Q32" s="7">
+      <c r="U32" s="7">
         <v>10.099999999999998</v>
-      </c>
-      <c r="R32" s="7">
-        <v>10.099999999999998</v>
-      </c>
-      <c r="S32" s="7">
-        <v>10.099999999999998</v>
-      </c>
-      <c r="T32" s="7">
-        <v>10.100000000000001</v>
-      </c>
-      <c r="U32" s="7">
-        <v>10.100000000000001</v>
       </c>
       <c r="V32" s="7">
         <v>10.099999999999998</v>
       </c>
       <c r="W32" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="X32" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="Y32" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="Z32" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="AA32" s="8">
         <v>10.100000000000001</v>
-      </c>
-      <c r="X32" s="7">
-        <v>10.100000000000001</v>
-      </c>
-      <c r="Y32" s="7">
-        <v>10.099999999999998</v>
-      </c>
-      <c r="Z32" s="7">
-        <v>10.099999999999998</v>
-      </c>
-      <c r="AA32" s="8">
-        <v>10.099999999999998</v>
       </c>
       <c r="AD32">
         <v>30</v>
@@ -10574,19 +10574,19 @@
         <v>0</v>
       </c>
       <c r="AF32" s="7">
+        <v>14.139999999999997</v>
+      </c>
+      <c r="AG32" s="7">
+        <v>14.139999999999997</v>
+      </c>
+      <c r="AH32" s="7">
         <v>14.139999999999999</v>
       </c>
-      <c r="AG32" s="7">
+      <c r="AI32" s="7">
         <v>14.139999999999999</v>
       </c>
-      <c r="AH32" s="7">
-        <v>14.139999999999997</v>
-      </c>
-      <c r="AI32" s="7">
-        <v>14.139999999999997</v>
-      </c>
       <c r="AJ32" s="7">
-        <v>14.139999999999997</v>
+        <v>14.139999999999999</v>
       </c>
       <c r="AK32" s="7">
         <v>14.139999999999997</v>
@@ -10598,22 +10598,22 @@
         <v>14.139999999999997</v>
       </c>
       <c r="AN32" s="7">
-        <v>14.139999999999999</v>
+        <v>14.139999999999997</v>
       </c>
       <c r="AO32" s="7">
-        <v>14.139999999999999</v>
+        <v>14.139999999999997</v>
       </c>
       <c r="AP32" s="7">
-        <v>14.139999999999999</v>
+        <v>14.139999999999997</v>
       </c>
       <c r="AQ32" s="7">
-        <v>14.139999999999999</v>
+        <v>14.139999999999997</v>
       </c>
       <c r="AR32" s="7">
-        <v>14.139999999999999</v>
+        <v>14.139999999999997</v>
       </c>
       <c r="AS32" s="7">
-        <v>14.139999999999999</v>
+        <v>14.139999999999997</v>
       </c>
       <c r="AT32" s="7">
         <v>14.139999999999997</v>
@@ -10622,28 +10622,28 @@
         <v>14.139999999999997</v>
       </c>
       <c r="AV32" s="7">
+        <v>14.139999999999997</v>
+      </c>
+      <c r="AW32" s="7">
         <v>14.139999999999999</v>
       </c>
-      <c r="AW32" s="7">
-        <v>14.139999999999997</v>
-      </c>
       <c r="AX32" s="7">
-        <v>14.139999999999997</v>
+        <v>14.139999999999999</v>
       </c>
       <c r="AY32" s="7">
         <v>14.139999999999999</v>
       </c>
       <c r="AZ32" s="7">
-        <v>14.139999999999997</v>
+        <v>14.139999999999999</v>
       </c>
       <c r="BA32" s="7">
-        <v>14.139999999999997</v>
+        <v>14.139999999999999</v>
       </c>
       <c r="BB32" s="7">
-        <v>14.139999999999997</v>
+        <v>14.139999999999999</v>
       </c>
       <c r="BC32" s="7">
-        <v>14.139999999999997</v>
+        <v>14.139999999999999</v>
       </c>
       <c r="BD32" s="8">
         <v>14.139999999999997</v>
@@ -10655,79 +10655,79 @@
         <v>0</v>
       </c>
       <c r="BH32" s="7">
-        <v>20.2</v>
+        <v>14.139999999999997</v>
       </c>
       <c r="BI32" s="7">
-        <v>20.2</v>
+        <v>14.139999999999997</v>
       </c>
       <c r="BJ32" s="7">
-        <v>20.200000000000003</v>
+        <v>14.139999999999999</v>
       </c>
       <c r="BK32" s="7">
-        <v>20.200000000000003</v>
+        <v>14.139999999999999</v>
       </c>
       <c r="BL32" s="7">
-        <v>20.199999999999996</v>
+        <v>14.139999999999997</v>
       </c>
       <c r="BM32" s="7">
-        <v>20.199999999999996</v>
+        <v>14.139999999999997</v>
       </c>
       <c r="BN32" s="7">
-        <v>20.200000000000003</v>
+        <v>14.139999999999997</v>
       </c>
       <c r="BO32" s="7">
-        <v>20.200000000000003</v>
+        <v>14.139999999999997</v>
       </c>
       <c r="BP32" s="7">
-        <v>20.200000000000003</v>
+        <v>14.139999999999997</v>
       </c>
       <c r="BQ32" s="7">
-        <v>20.2</v>
+        <v>14.139999999999997</v>
       </c>
       <c r="BR32" s="7">
-        <v>20.2</v>
+        <v>14.139999999999997</v>
       </c>
       <c r="BS32" s="7">
-        <v>20.199999999999996</v>
+        <v>14.139999999999997</v>
       </c>
       <c r="BT32" s="7">
-        <v>20.199999999999996</v>
+        <v>14.139999999999997</v>
       </c>
       <c r="BU32" s="7">
-        <v>20.199999999999996</v>
+        <v>14.139999999999999</v>
       </c>
       <c r="BV32" s="7">
-        <v>20.199999999999996</v>
+        <v>14.139999999999999</v>
       </c>
       <c r="BW32" s="7">
-        <v>20.199999999999996</v>
+        <v>14.139999999999999</v>
       </c>
       <c r="BX32" s="7">
-        <v>20.199999999999996</v>
+        <v>14.139999999999997</v>
       </c>
       <c r="BY32" s="7">
-        <v>20.200000000000003</v>
+        <v>14.139999999999999</v>
       </c>
       <c r="BZ32" s="7">
-        <v>20.200000000000003</v>
+        <v>14.139999999999999</v>
       </c>
       <c r="CA32" s="7">
-        <v>20.199999999999996</v>
+        <v>14.139999999999999</v>
       </c>
       <c r="CB32" s="7">
-        <v>20.200000000000003</v>
+        <v>14.139999999999999</v>
       </c>
       <c r="CC32" s="7">
-        <v>20.200000000000003</v>
+        <v>14.139999999999999</v>
       </c>
       <c r="CD32" s="7">
-        <v>20.199999999999996</v>
+        <v>14.139999999999999</v>
       </c>
       <c r="CE32" s="7">
-        <v>20.199999999999996</v>
+        <v>14.139999999999997</v>
       </c>
       <c r="CF32" s="8">
-        <v>20.199999999999996</v>
+        <v>14.139999999999997</v>
       </c>
       <c r="CH32">
         <v>30</v>
@@ -10736,7 +10736,7 @@
         <v>0</v>
       </c>
       <c r="CJ32" s="7">
-        <v>0</v>
+        <v>14.139999999999997</v>
       </c>
       <c r="CK32" s="7">
         <v>14.139999999999997</v>
@@ -10754,10 +10754,10 @@
         <v>14.139999999999997</v>
       </c>
       <c r="CP32" s="7">
-        <v>14.139999999999999</v>
+        <v>14.139999999999997</v>
       </c>
       <c r="CQ32" s="7">
-        <v>14.139999999999999</v>
+        <v>14.139999999999997</v>
       </c>
       <c r="CR32" s="7">
         <v>14.139999999999997</v>
@@ -10775,22 +10775,22 @@
         <v>14.139999999999997</v>
       </c>
       <c r="CW32" s="7">
-        <v>14.139999999999997</v>
+        <v>14.139999999999999</v>
       </c>
       <c r="CX32" s="7">
-        <v>14.139999999999997</v>
+        <v>14.139999999999999</v>
       </c>
       <c r="CY32" s="7">
-        <v>14.139999999999997</v>
+        <v>14.139999999999999</v>
       </c>
       <c r="CZ32" s="7">
-        <v>14.139999999999997</v>
+        <v>14.139999999999999</v>
       </c>
       <c r="DA32" s="7">
-        <v>14.139999999999997</v>
+        <v>14.139999999999999</v>
       </c>
       <c r="DB32" s="7">
-        <v>14.139999999999997</v>
+        <v>14.139999999999999</v>
       </c>
       <c r="DC32" s="7">
         <v>14.139999999999997</v>
@@ -10805,10 +10805,10 @@
         <v>14.139999999999997</v>
       </c>
       <c r="DG32" s="7">
-        <v>14.139999999999997</v>
+        <v>14.139999999999999</v>
       </c>
       <c r="DH32" s="8">
-        <v>14.139999999999997</v>
+        <v>14.139999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:112" x14ac:dyDescent="0.35">
@@ -10921,7 +10921,7 @@
         <v>49</v>
       </c>
       <c r="AM33" s="7">
-        <v>49</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="AN33" s="7">
         <v>49</v>
@@ -10942,13 +10942,13 @@
         <v>49</v>
       </c>
       <c r="AT33" s="7">
-        <v>48.999999999999993</v>
+        <v>49</v>
       </c>
       <c r="AU33" s="7">
-        <v>48.999999999999993</v>
+        <v>49</v>
       </c>
       <c r="AV33" s="7">
-        <v>48.999999999999993</v>
+        <v>49</v>
       </c>
       <c r="AW33" s="7">
         <v>49</v>
@@ -10969,10 +10969,10 @@
         <v>49</v>
       </c>
       <c r="BC33" s="7">
-        <v>48.999999999999993</v>
+        <v>49</v>
       </c>
       <c r="BD33" s="8">
-        <v>48.999999999999993</v>
+        <v>49</v>
       </c>
       <c r="BF33">
         <v>31</v>
@@ -10981,79 +10981,79 @@
         <v>0</v>
       </c>
       <c r="BH33" s="7">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="BI33" s="7">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="BJ33" s="7">
-        <v>70</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="BK33" s="7">
-        <v>70</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="BL33" s="7">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="BM33" s="7">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="BN33" s="7">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="BO33" s="7">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="BP33" s="7">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="BQ33" s="7">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="BR33" s="7">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="BS33" s="7">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="BT33" s="7">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="BU33" s="7">
-        <v>70</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="BV33" s="7">
-        <v>70</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="BW33" s="7">
-        <v>70</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="BX33" s="7">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="BY33" s="7">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="BZ33" s="7">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="CA33" s="7">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="CB33" s="7">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="CC33" s="7">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="CD33" s="7">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="CE33" s="7">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="CF33" s="8">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="CH33">
         <v>31</v>
@@ -11062,16 +11062,16 @@
         <v>0</v>
       </c>
       <c r="CJ33" s="7">
-        <v>49</v>
+        <v>25.047116587635173</v>
       </c>
       <c r="CK33" s="7">
         <v>49</v>
       </c>
       <c r="CL33" s="7">
-        <v>49</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="CM33" s="7">
-        <v>49</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="CN33" s="7">
         <v>49</v>
@@ -11089,10 +11089,10 @@
         <v>49</v>
       </c>
       <c r="CS33" s="7">
-        <v>48.999999999999993</v>
+        <v>49</v>
       </c>
       <c r="CT33" s="7">
-        <v>48.999999999999993</v>
+        <v>49</v>
       </c>
       <c r="CU33" s="7">
         <v>49</v>
@@ -11110,7 +11110,7 @@
         <v>49</v>
       </c>
       <c r="CZ33" s="7">
-        <v>49</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="DA33" s="7">
         <v>49</v>
@@ -11131,10 +11131,10 @@
         <v>49</v>
       </c>
       <c r="DG33" s="7">
-        <v>49</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="DH33" s="8">
-        <v>49</v>
+        <v>48.999999999999993</v>
       </c>
     </row>
     <row r="34" spans="1:112" x14ac:dyDescent="0.35">
@@ -11187,10 +11187,10 @@
         <v>5.25</v>
       </c>
       <c r="Q34" s="7">
-        <v>5.2500000000000071</v>
+        <v>5.25</v>
       </c>
       <c r="R34" s="7">
-        <v>5.2500000000000071</v>
+        <v>5.25</v>
       </c>
       <c r="S34" s="7">
         <v>5.25</v>
@@ -11214,10 +11214,10 @@
         <v>5.25</v>
       </c>
       <c r="Z34" s="7">
-        <v>5.2500000000000071</v>
+        <v>5.25</v>
       </c>
       <c r="AA34" s="8">
-        <v>5.2500000000000071</v>
+        <v>5.25</v>
       </c>
       <c r="AD34">
         <v>32</v>
@@ -11238,25 +11238,25 @@
         <v>7.3499999999999943</v>
       </c>
       <c r="AJ34" s="7">
-        <v>7.3499999999999943</v>
+        <v>7.35</v>
       </c>
       <c r="AK34" s="7">
-        <v>7.3499999999999943</v>
+        <v>7.3500000000000014</v>
       </c>
       <c r="AL34" s="7">
-        <v>7.3499999999999943</v>
+        <v>7.3500000000000014</v>
       </c>
       <c r="AM34" s="7">
-        <v>7.3499999999999943</v>
+        <v>7.3500000000000014</v>
       </c>
       <c r="AN34" s="7">
-        <v>7.3499999999999943</v>
+        <v>7.3500000000000014</v>
       </c>
       <c r="AO34" s="7">
-        <v>7.3499999999999943</v>
+        <v>7.3500000000000014</v>
       </c>
       <c r="AP34" s="7">
-        <v>7.3499999999999943</v>
+        <v>7.35</v>
       </c>
       <c r="AQ34" s="7">
         <v>7.35</v>
@@ -11265,13 +11265,13 @@
         <v>7.35</v>
       </c>
       <c r="AS34" s="7">
-        <v>7.35</v>
+        <v>7.3499999999999979</v>
       </c>
       <c r="AT34" s="7">
-        <v>7.3499999999999943</v>
+        <v>7.3499999999999979</v>
       </c>
       <c r="AU34" s="7">
-        <v>7.3499999999999943</v>
+        <v>7.3499999999999979</v>
       </c>
       <c r="AV34" s="7">
         <v>7.3500000000000014</v>
@@ -11283,22 +11283,22 @@
         <v>7.35</v>
       </c>
       <c r="AY34" s="7">
+        <v>7.35</v>
+      </c>
+      <c r="AZ34" s="7">
         <v>7.3500000000000014</v>
       </c>
-      <c r="AZ34" s="7">
-        <v>7.35</v>
-      </c>
       <c r="BA34" s="7">
-        <v>7.35</v>
+        <v>7.3500000000000014</v>
       </c>
       <c r="BB34" s="7">
-        <v>7.35</v>
+        <v>7.3500000000000014</v>
       </c>
       <c r="BC34" s="7">
         <v>7.3499999999999943</v>
       </c>
       <c r="BD34" s="8">
-        <v>7.3499999999999943</v>
+        <v>7.3500000000000014</v>
       </c>
       <c r="BF34">
         <v>32</v>
@@ -11307,79 +11307,79 @@
         <v>0</v>
       </c>
       <c r="BH34" s="7">
-        <v>10.5</v>
+        <v>7.3499999999999943</v>
       </c>
       <c r="BI34" s="7">
-        <v>10.5</v>
+        <v>7.3499999999999943</v>
       </c>
       <c r="BJ34" s="7">
-        <v>10.5</v>
+        <v>7.3499999999999943</v>
       </c>
       <c r="BK34" s="7">
-        <v>10.5</v>
+        <v>7.3499999999999943</v>
       </c>
       <c r="BL34" s="7">
-        <v>10.5</v>
+        <v>7.3499999999999943</v>
       </c>
       <c r="BM34" s="7">
-        <v>10.5</v>
+        <v>7.3500000000000014</v>
       </c>
       <c r="BN34" s="7">
-        <v>10.5</v>
+        <v>7.3500000000000014</v>
       </c>
       <c r="BO34" s="7">
-        <v>10.5</v>
+        <v>7.3500000000000014</v>
       </c>
       <c r="BP34" s="7">
-        <v>10.5</v>
+        <v>7.3500000000000014</v>
       </c>
       <c r="BQ34" s="7">
-        <v>10.5</v>
+        <v>7.3500000000000014</v>
       </c>
       <c r="BR34" s="7">
-        <v>10.5</v>
+        <v>7.3500000000000014</v>
       </c>
       <c r="BS34" s="7">
-        <v>10.5</v>
+        <v>7.3500000000000014</v>
       </c>
       <c r="BT34" s="7">
-        <v>10.5</v>
+        <v>7.3500000000000014</v>
       </c>
       <c r="BU34" s="7">
-        <v>10.5</v>
+        <v>7.3500000000000014</v>
       </c>
       <c r="BV34" s="7">
-        <v>10.5</v>
+        <v>7.3500000000000014</v>
       </c>
       <c r="BW34" s="7">
-        <v>10.5</v>
+        <v>7.3500000000000014</v>
       </c>
       <c r="BX34" s="7">
-        <v>10.5</v>
+        <v>7.35</v>
       </c>
       <c r="BY34" s="7">
-        <v>10.5</v>
+        <v>7.3500000000000014</v>
       </c>
       <c r="BZ34" s="7">
-        <v>10.5</v>
+        <v>7.3500000000000014</v>
       </c>
       <c r="CA34" s="7">
-        <v>10.5</v>
+        <v>7.3500000000000014</v>
       </c>
       <c r="CB34" s="7">
-        <v>10.5</v>
+        <v>7.3499999999999943</v>
       </c>
       <c r="CC34" s="7">
-        <v>10.5</v>
+        <v>7.3499999999999943</v>
       </c>
       <c r="CD34" s="7">
-        <v>10.5</v>
+        <v>7.3499999999999943</v>
       </c>
       <c r="CE34" s="7">
-        <v>10.5</v>
+        <v>7.3499999999999943</v>
       </c>
       <c r="CF34" s="8">
-        <v>10.5</v>
+        <v>7.3499999999999943</v>
       </c>
       <c r="CH34">
         <v>32</v>
@@ -11388,46 +11388,46 @@
         <v>0</v>
       </c>
       <c r="CJ34" s="7">
+        <v>7.3499999999999943</v>
+      </c>
+      <c r="CK34" s="7">
+        <v>7.3499999999999943</v>
+      </c>
+      <c r="CL34" s="7">
+        <v>7.35</v>
+      </c>
+      <c r="CM34" s="7">
+        <v>7.35</v>
+      </c>
+      <c r="CN34" s="7">
         <v>7.3500000000000014</v>
       </c>
-      <c r="CK34" s="7">
-        <v>7.3500000000000014</v>
-      </c>
-      <c r="CL34" s="7">
+      <c r="CO34" s="7">
         <v>7.3499999999999943</v>
       </c>
-      <c r="CM34" s="7">
+      <c r="CP34" s="7">
         <v>7.3499999999999943</v>
-      </c>
-      <c r="CN34" s="7">
-        <v>7.35</v>
-      </c>
-      <c r="CO34" s="7">
-        <v>7.35</v>
-      </c>
-      <c r="CP34" s="7">
-        <v>7.3500000000000014</v>
       </c>
       <c r="CQ34" s="7">
         <v>7.3500000000000014</v>
       </c>
       <c r="CR34" s="7">
+        <v>7.3500000000000014</v>
+      </c>
+      <c r="CS34" s="7">
+        <v>7.3500000000000014</v>
+      </c>
+      <c r="CT34" s="7">
         <v>7.3499999999999943</v>
       </c>
-      <c r="CS34" s="7">
-        <v>7.35</v>
-      </c>
-      <c r="CT34" s="7">
-        <v>7.35</v>
-      </c>
       <c r="CU34" s="7">
-        <v>7.35</v>
+        <v>7.3499999999999943</v>
       </c>
       <c r="CV34" s="7">
-        <v>7.35</v>
+        <v>7.3499999999999943</v>
       </c>
       <c r="CW34" s="7">
-        <v>7.3499999999999943</v>
+        <v>7.3500000000000014</v>
       </c>
       <c r="CX34" s="7">
         <v>7.3500000000000014</v>
@@ -11436,31 +11436,31 @@
         <v>7.3500000000000014</v>
       </c>
       <c r="CZ34" s="7">
+        <v>7.3499999999999943</v>
+      </c>
+      <c r="DA34" s="7">
         <v>7.3500000000000014</v>
       </c>
-      <c r="DA34" s="7">
+      <c r="DB34" s="7">
+        <v>7.3500000000000014</v>
+      </c>
+      <c r="DC34" s="7">
         <v>7.3499999999999943</v>
       </c>
-      <c r="DB34" s="7">
+      <c r="DD34" s="7">
+        <v>7.35</v>
+      </c>
+      <c r="DE34" s="7">
+        <v>7.35</v>
+      </c>
+      <c r="DF34" s="7">
+        <v>7.35</v>
+      </c>
+      <c r="DG34" s="7">
         <v>7.3499999999999943</v>
       </c>
-      <c r="DC34" s="7">
-        <v>7.3500000000000014</v>
-      </c>
-      <c r="DD34" s="7">
+      <c r="DH34" s="8">
         <v>7.3499999999999943</v>
-      </c>
-      <c r="DE34" s="7">
-        <v>7.3499999999999943</v>
-      </c>
-      <c r="DF34" s="7">
-        <v>7.3499999999999943</v>
-      </c>
-      <c r="DG34" s="7">
-        <v>7.3500000000000014</v>
-      </c>
-      <c r="DH34" s="8">
-        <v>7.3500000000000014</v>
       </c>
     </row>
     <row r="35" spans="1:112" x14ac:dyDescent="0.35">
@@ -11492,7 +11492,7 @@
         <v>5</v>
       </c>
       <c r="J35" s="7">
-        <v>5</v>
+        <v>4.9999999999999929</v>
       </c>
       <c r="K35" s="7">
         <v>5</v>
@@ -11618,7 +11618,7 @@
         <v>7</v>
       </c>
       <c r="BB35" s="7">
-        <v>7.0000000000000018</v>
+        <v>7</v>
       </c>
       <c r="BC35" s="7">
         <v>7</v>
@@ -11633,79 +11633,79 @@
         <v>0</v>
       </c>
       <c r="BH35" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BI35" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BJ35" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BK35" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BL35" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BM35" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BN35" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BO35" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BP35" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BQ35" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BR35" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BS35" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BT35" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BU35" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BV35" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BW35" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BX35" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BY35" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BZ35" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CA35" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CB35" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CC35" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CD35" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CE35" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CF35" s="8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CH35">
         <v>33</v>
@@ -11774,13 +11774,13 @@
         <v>7</v>
       </c>
       <c r="DD35" s="7">
-        <v>7</v>
+        <v>7.0000000000000018</v>
       </c>
       <c r="DE35" s="7">
-        <v>7</v>
+        <v>7.0000000000000018</v>
       </c>
       <c r="DF35" s="7">
-        <v>7</v>
+        <v>7.0000000000000018</v>
       </c>
       <c r="DG35" s="7">
         <v>7</v>
@@ -11917,13 +11917,13 @@
         <v>7</v>
       </c>
       <c r="AS36" s="7">
-        <v>7</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="AT36" s="7">
-        <v>7</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="AU36" s="7">
-        <v>7</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="AV36" s="7">
         <v>7</v>
@@ -11935,7 +11935,7 @@
         <v>7</v>
       </c>
       <c r="AY36" s="7">
-        <v>7.0000000000000009</v>
+        <v>7</v>
       </c>
       <c r="AZ36" s="7">
         <v>7</v>
@@ -11944,13 +11944,13 @@
         <v>7</v>
       </c>
       <c r="BB36" s="7">
-        <v>7.0000000000000009</v>
+        <v>7</v>
       </c>
       <c r="BC36" s="7">
         <v>7</v>
       </c>
       <c r="BD36" s="8">
-        <v>7</v>
+        <v>6.9999999999999929</v>
       </c>
       <c r="BF36">
         <v>34</v>
@@ -11959,79 +11959,79 @@
         <v>0</v>
       </c>
       <c r="BH36" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BI36" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BJ36" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BK36" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BL36" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BM36" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BN36" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BO36" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BP36" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BQ36" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BR36" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BS36" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BT36" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BU36" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BV36" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BW36" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BX36" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BY36" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BZ36" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CA36" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CB36" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CC36" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CD36" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CE36" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CF36" s="8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CH36">
         <v>34</v>
@@ -12285,79 +12285,79 @@
         <v>0</v>
       </c>
       <c r="BH37" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BI37" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BJ37" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BK37" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BL37" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BM37" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BN37" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BO37" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BP37" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BQ37" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BR37" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BS37" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BT37" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BU37" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BV37" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BW37" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BX37" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BY37" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BZ37" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CA37" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CB37" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CC37" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CD37" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CE37" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CF37" s="8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CH37">
         <v>35</v>
@@ -12366,7 +12366,7 @@
         <v>0</v>
       </c>
       <c r="CJ37" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CK37" s="7">
         <v>7</v>
@@ -12578,7 +12578,7 @@
         <v>7</v>
       </c>
       <c r="AV38" s="7">
-        <v>7.0000000000000009</v>
+        <v>7</v>
       </c>
       <c r="AW38" s="7">
         <v>7</v>
@@ -12611,79 +12611,79 @@
         <v>0</v>
       </c>
       <c r="BH38" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BI38" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BJ38" s="7">
-        <v>10</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="BK38" s="7">
-        <v>10</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="BL38" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BM38" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BN38" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BO38" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BP38" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BQ38" s="7">
-        <v>10.000000000000002</v>
+        <v>7</v>
       </c>
       <c r="BR38" s="7">
-        <v>10.000000000000002</v>
+        <v>7</v>
       </c>
       <c r="BS38" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BT38" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BU38" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BV38" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BW38" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BX38" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BY38" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BZ38" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CA38" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CB38" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CC38" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CD38" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CE38" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CF38" s="8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CH38">
         <v>36</v>
@@ -12692,16 +12692,16 @@
         <v>0</v>
       </c>
       <c r="CJ38" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CK38" s="7">
         <v>7</v>
       </c>
       <c r="CL38" s="7">
-        <v>7</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="CM38" s="7">
-        <v>7</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="CN38" s="7">
         <v>7</v>
@@ -12710,7 +12710,7 @@
         <v>7</v>
       </c>
       <c r="CP38" s="7">
-        <v>6.9999999999999929</v>
+        <v>7</v>
       </c>
       <c r="CQ38" s="7">
         <v>7</v>
@@ -12719,10 +12719,10 @@
         <v>7</v>
       </c>
       <c r="CS38" s="7">
-        <v>7.0000000000000009</v>
+        <v>7</v>
       </c>
       <c r="CT38" s="7">
-        <v>7.0000000000000009</v>
+        <v>7</v>
       </c>
       <c r="CU38" s="7">
         <v>7</v>
@@ -12781,13 +12781,13 @@
         <v>5.0499999999999972</v>
       </c>
       <c r="E39" s="7">
-        <v>5.0499999999999972</v>
+        <v>5.05</v>
       </c>
       <c r="F39" s="7">
-        <v>5.0499999999999972</v>
+        <v>5.05</v>
       </c>
       <c r="G39" s="7">
-        <v>5.0499999999999972</v>
+        <v>5.05</v>
       </c>
       <c r="H39" s="7">
         <v>5.0499999999999972</v>
@@ -12802,10 +12802,10 @@
         <v>5.0499999999999972</v>
       </c>
       <c r="L39" s="7">
-        <v>5.05</v>
+        <v>5.0499999999999972</v>
       </c>
       <c r="M39" s="7">
-        <v>5.05</v>
+        <v>5.0499999999999972</v>
       </c>
       <c r="N39" s="7">
         <v>5.0499999999999972</v>
@@ -12814,25 +12814,25 @@
         <v>5.0499999999999972</v>
       </c>
       <c r="P39" s="7">
-        <v>5.0499999999999972</v>
+        <v>5.05</v>
       </c>
       <c r="Q39" s="7">
-        <v>5.0499999999999972</v>
+        <v>5.05</v>
       </c>
       <c r="R39" s="7">
-        <v>5.0499999999999972</v>
+        <v>5.05</v>
       </c>
       <c r="S39" s="7">
-        <v>5.0499999999999972</v>
+        <v>5.05</v>
       </c>
       <c r="T39" s="7">
-        <v>5.0499999999999972</v>
+        <v>5.05</v>
       </c>
       <c r="U39" s="7">
-        <v>5.0499999999999972</v>
+        <v>5.05</v>
       </c>
       <c r="V39" s="7">
-        <v>5.0499999999999972</v>
+        <v>5.05</v>
       </c>
       <c r="W39" s="7">
         <v>5.0499999999999972</v>
@@ -12856,10 +12856,10 @@
         <v>0</v>
       </c>
       <c r="AF39" s="7">
-        <v>7.07</v>
+        <v>7.0699999999999932</v>
       </c>
       <c r="AG39" s="7">
-        <v>7.07</v>
+        <v>7.0699999999999932</v>
       </c>
       <c r="AH39" s="7">
         <v>7.0699999999999932</v>
@@ -12877,13 +12877,13 @@
         <v>7.0699999999999932</v>
       </c>
       <c r="AM39" s="7">
-        <v>7.0699999999999932</v>
+        <v>7.0699999999999994</v>
       </c>
       <c r="AN39" s="7">
-        <v>7.0699999999999932</v>
+        <v>7.07</v>
       </c>
       <c r="AO39" s="7">
-        <v>7.0699999999999932</v>
+        <v>7.07</v>
       </c>
       <c r="AP39" s="7">
         <v>7.0699999999999932</v>
@@ -12895,40 +12895,40 @@
         <v>7.0699999999999932</v>
       </c>
       <c r="AS39" s="7">
-        <v>7.0699999999999932</v>
+        <v>7.0699999999999994</v>
       </c>
       <c r="AT39" s="7">
+        <v>7.0699999999999994</v>
+      </c>
+      <c r="AU39" s="7">
+        <v>7.0699999999999994</v>
+      </c>
+      <c r="AV39" s="7">
         <v>7.07</v>
       </c>
-      <c r="AU39" s="7">
-        <v>7.07</v>
-      </c>
-      <c r="AV39" s="7">
+      <c r="AW39" s="7">
         <v>7.0699999999999994</v>
       </c>
-      <c r="AW39" s="7">
-        <v>7.0699999999999932</v>
-      </c>
       <c r="AX39" s="7">
-        <v>7.0699999999999932</v>
+        <v>7.0699999999999994</v>
       </c>
       <c r="AY39" s="7">
         <v>7.0699999999999994</v>
       </c>
       <c r="AZ39" s="7">
-        <v>7.0699999999999932</v>
+        <v>7.07</v>
       </c>
       <c r="BA39" s="7">
-        <v>7.0699999999999932</v>
+        <v>7.07</v>
       </c>
       <c r="BB39" s="7">
-        <v>7.0699999999999994</v>
+        <v>7.07</v>
       </c>
       <c r="BC39" s="7">
         <v>7.07</v>
       </c>
       <c r="BD39" s="8">
-        <v>7.07</v>
+        <v>7.0699999999999994</v>
       </c>
       <c r="BF39">
         <v>37</v>
@@ -12937,79 +12937,79 @@
         <v>0</v>
       </c>
       <c r="BH39" s="7">
-        <v>10.100000000000001</v>
+        <v>7.0699999999999932</v>
       </c>
       <c r="BI39" s="7">
-        <v>10.100000000000001</v>
+        <v>7.0699999999999932</v>
       </c>
       <c r="BJ39" s="7">
-        <v>10.099999999999994</v>
+        <v>7.0699999999999994</v>
       </c>
       <c r="BK39" s="7">
-        <v>10.099999999999994</v>
+        <v>7.0699999999999994</v>
       </c>
       <c r="BL39" s="7">
-        <v>10.099999999999994</v>
+        <v>7.0699999999999994</v>
       </c>
       <c r="BM39" s="7">
-        <v>10.099999999999994</v>
+        <v>7.07</v>
       </c>
       <c r="BN39" s="7">
-        <v>10.1</v>
+        <v>7.07</v>
       </c>
       <c r="BO39" s="7">
-        <v>10.099999999999994</v>
+        <v>7.0699999999999932</v>
       </c>
       <c r="BP39" s="7">
-        <v>10.099999999999994</v>
+        <v>7.07</v>
       </c>
       <c r="BQ39" s="7">
-        <v>10.1</v>
+        <v>7.07</v>
       </c>
       <c r="BR39" s="7">
-        <v>10.1</v>
+        <v>7.0699999999999932</v>
       </c>
       <c r="BS39" s="7">
-        <v>10.099999999999994</v>
+        <v>7.0699999999999932</v>
       </c>
       <c r="BT39" s="7">
-        <v>10.099999999999994</v>
+        <v>7.0699999999999932</v>
       </c>
       <c r="BU39" s="7">
-        <v>10.099999999999994</v>
+        <v>7.07</v>
       </c>
       <c r="BV39" s="7">
-        <v>10.099999999999994</v>
+        <v>7.07</v>
       </c>
       <c r="BW39" s="7">
-        <v>10.099999999999994</v>
+        <v>7.07</v>
       </c>
       <c r="BX39" s="7">
-        <v>10.099999999999994</v>
+        <v>7.0699999999999932</v>
       </c>
       <c r="BY39" s="7">
-        <v>10.099999999999994</v>
+        <v>7.0699999999999932</v>
       </c>
       <c r="BZ39" s="7">
-        <v>10.099999999999994</v>
+        <v>7.0699999999999932</v>
       </c>
       <c r="CA39" s="7">
-        <v>10.099999999999994</v>
+        <v>7.0699999999999932</v>
       </c>
       <c r="CB39" s="7">
-        <v>10.099999999999994</v>
+        <v>7.07</v>
       </c>
       <c r="CC39" s="7">
-        <v>10.099999999999994</v>
+        <v>7.07</v>
       </c>
       <c r="CD39" s="7">
-        <v>10.099999999999994</v>
+        <v>7.07</v>
       </c>
       <c r="CE39" s="7">
-        <v>10.099999999999994</v>
+        <v>7.07</v>
       </c>
       <c r="CF39" s="8">
-        <v>10.099999999999994</v>
+        <v>7.0699999999999932</v>
       </c>
       <c r="CH39">
         <v>37</v>
@@ -13018,25 +13018,25 @@
         <v>0</v>
       </c>
       <c r="CJ39" s="7">
-        <v>7.0699999999999932</v>
+        <v>0</v>
       </c>
       <c r="CK39" s="7">
         <v>7.0699999999999932</v>
       </c>
       <c r="CL39" s="7">
-        <v>7.0699999999999932</v>
+        <v>7.0699999999999994</v>
       </c>
       <c r="CM39" s="7">
-        <v>7.0699999999999932</v>
+        <v>7.0699999999999994</v>
       </c>
       <c r="CN39" s="7">
         <v>7.0699999999999932</v>
       </c>
       <c r="CO39" s="7">
-        <v>7.0699999999999932</v>
+        <v>7.0699999999999994</v>
       </c>
       <c r="CP39" s="7">
-        <v>7.07</v>
+        <v>7.0699999999999994</v>
       </c>
       <c r="CQ39" s="7">
         <v>7.07</v>
@@ -13045,16 +13045,16 @@
         <v>7.0699999999999932</v>
       </c>
       <c r="CS39" s="7">
-        <v>7.0699999999999994</v>
+        <v>7.0699999999999932</v>
       </c>
       <c r="CT39" s="7">
-        <v>7.0699999999999994</v>
+        <v>7.0699999999999932</v>
       </c>
       <c r="CU39" s="7">
-        <v>7.07</v>
+        <v>7.0699999999999932</v>
       </c>
       <c r="CV39" s="7">
-        <v>7.07</v>
+        <v>7.0699999999999932</v>
       </c>
       <c r="CW39" s="7">
         <v>7.0699999999999932</v>
@@ -13066,31 +13066,31 @@
         <v>7.0699999999999932</v>
       </c>
       <c r="CZ39" s="7">
-        <v>7.0699999999999932</v>
+        <v>7.07</v>
       </c>
       <c r="DA39" s="7">
-        <v>7.0699999999999932</v>
+        <v>7.07</v>
       </c>
       <c r="DB39" s="7">
-        <v>7.0699999999999932</v>
+        <v>7.07</v>
       </c>
       <c r="DC39" s="7">
-        <v>7.0699999999999932</v>
+        <v>7.07</v>
       </c>
       <c r="DD39" s="7">
-        <v>7.0699999999999932</v>
+        <v>7.0699999999999994</v>
       </c>
       <c r="DE39" s="7">
-        <v>7.0699999999999932</v>
+        <v>7.0699999999999994</v>
       </c>
       <c r="DF39" s="7">
-        <v>7.0699999999999932</v>
+        <v>7.0699999999999994</v>
       </c>
       <c r="DG39" s="7">
-        <v>7.0699999999999932</v>
+        <v>7.07</v>
       </c>
       <c r="DH39" s="8">
-        <v>7.0699999999999932</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="40" spans="1:112" x14ac:dyDescent="0.35">
@@ -13107,22 +13107,22 @@
         <v>5.05</v>
       </c>
       <c r="E40" s="7">
+        <v>5.0500000000000007</v>
+      </c>
+      <c r="F40" s="7">
+        <v>5.0500000000000007</v>
+      </c>
+      <c r="G40" s="7">
         <v>5.05</v>
-      </c>
-      <c r="F40" s="7">
-        <v>5.05</v>
-      </c>
-      <c r="G40" s="7">
-        <v>5.0500000000000007</v>
       </c>
       <c r="H40" s="7">
         <v>5.0500000000000007</v>
       </c>
       <c r="I40" s="7">
-        <v>5.05</v>
+        <v>5.0500000000000007</v>
       </c>
       <c r="J40" s="7">
-        <v>5.05</v>
+        <v>5.0500000000000007</v>
       </c>
       <c r="K40" s="7">
         <v>5.0500000000000007</v>
@@ -13131,13 +13131,13 @@
         <v>5.0500000000000007</v>
       </c>
       <c r="M40" s="7">
-        <v>5.0500000000000007</v>
+        <v>5.05</v>
       </c>
       <c r="N40" s="7">
-        <v>5.0499999999999989</v>
+        <v>5.05</v>
       </c>
       <c r="O40" s="7">
-        <v>5.0499999999999989</v>
+        <v>5.05</v>
       </c>
       <c r="P40" s="7">
         <v>5.05</v>
@@ -13152,28 +13152,28 @@
         <v>5.0500000000000007</v>
       </c>
       <c r="T40" s="7">
-        <v>5.05</v>
+        <v>5.0500000000000007</v>
       </c>
       <c r="U40" s="7">
-        <v>5.05</v>
+        <v>5.0500000000000007</v>
       </c>
       <c r="V40" s="7">
         <v>5.0500000000000007</v>
       </c>
       <c r="W40" s="7">
-        <v>5.05</v>
+        <v>5.0500000000000007</v>
       </c>
       <c r="X40" s="7">
-        <v>5.05</v>
+        <v>5.0500000000000007</v>
       </c>
       <c r="Y40" s="7">
         <v>5.0500000000000007</v>
       </c>
       <c r="Z40" s="7">
-        <v>5.05</v>
+        <v>5.0499999999999989</v>
       </c>
       <c r="AA40" s="8">
-        <v>5.05</v>
+        <v>5.0500000000000007</v>
       </c>
       <c r="AD40">
         <v>38</v>
@@ -13182,46 +13182,46 @@
         <v>0</v>
       </c>
       <c r="AF40" s="7">
-        <v>7.0699999999999985</v>
+        <v>7.07</v>
       </c>
       <c r="AG40" s="7">
         <v>7.07</v>
       </c>
       <c r="AH40" s="7">
-        <v>7.0699999999999994</v>
+        <v>7.0699999999999985</v>
       </c>
       <c r="AI40" s="7">
-        <v>7.0699999999999994</v>
+        <v>7.0699999999999985</v>
       </c>
       <c r="AJ40" s="7">
-        <v>7.0699999999999994</v>
+        <v>7.0699999999999985</v>
       </c>
       <c r="AK40" s="7">
-        <v>7.0699999999999994</v>
+        <v>7.07</v>
       </c>
       <c r="AL40" s="7">
-        <v>7.0699999999999994</v>
+        <v>7.07</v>
       </c>
       <c r="AM40" s="7">
         <v>7.0699999999999994</v>
       </c>
       <c r="AN40" s="7">
-        <v>7.0699999999999985</v>
+        <v>7.0699999999999994</v>
       </c>
       <c r="AO40" s="7">
-        <v>7.0699999999999985</v>
+        <v>7.0699999999999994</v>
       </c>
       <c r="AP40" s="7">
-        <v>7.0699999999999985</v>
+        <v>7.0699999999999994</v>
       </c>
       <c r="AQ40" s="7">
-        <v>7.0699999999999985</v>
+        <v>7.0699999999999994</v>
       </c>
       <c r="AR40" s="7">
-        <v>7.0699999999999985</v>
+        <v>7.0699999999999994</v>
       </c>
       <c r="AS40" s="7">
-        <v>7.0699999999999985</v>
+        <v>7.07</v>
       </c>
       <c r="AT40" s="7">
         <v>7.07</v>
@@ -13230,25 +13230,25 @@
         <v>7.07</v>
       </c>
       <c r="AV40" s="7">
+        <v>7.0699999999999994</v>
+      </c>
+      <c r="AW40" s="7">
         <v>7.0699999999999985</v>
       </c>
-      <c r="AW40" s="7">
-        <v>7.0699999999999994</v>
-      </c>
       <c r="AX40" s="7">
-        <v>7.0699999999999994</v>
+        <v>7.0699999999999985</v>
       </c>
       <c r="AY40" s="7">
         <v>7.0699999999999985</v>
       </c>
       <c r="AZ40" s="7">
-        <v>7.0699999999999994</v>
+        <v>7.0699999999999985</v>
       </c>
       <c r="BA40" s="7">
-        <v>7.0699999999999994</v>
+        <v>7.0699999999999985</v>
       </c>
       <c r="BB40" s="7">
-        <v>7.07</v>
+        <v>7.0699999999999985</v>
       </c>
       <c r="BC40" s="7">
         <v>7.07</v>
@@ -13263,79 +13263,79 @@
         <v>0</v>
       </c>
       <c r="BH40" s="7">
-        <v>10.099999999999998</v>
+        <v>7.0699999999999994</v>
       </c>
       <c r="BI40" s="7">
-        <v>10.100000000000001</v>
+        <v>7.0699999999999994</v>
       </c>
       <c r="BJ40" s="7">
-        <v>10.1</v>
+        <v>7.0699999999999985</v>
       </c>
       <c r="BK40" s="7">
-        <v>10.1</v>
+        <v>7.0699999999999985</v>
       </c>
       <c r="BL40" s="7">
-        <v>10.1</v>
+        <v>7.07</v>
       </c>
       <c r="BM40" s="7">
-        <v>10.1</v>
+        <v>7.0699999999999994</v>
       </c>
       <c r="BN40" s="7">
-        <v>10.100000000000001</v>
+        <v>7.0699999999999994</v>
       </c>
       <c r="BO40" s="7">
-        <v>10.100000000000001</v>
+        <v>7.07</v>
       </c>
       <c r="BP40" s="7">
-        <v>10.1</v>
+        <v>7.07</v>
       </c>
       <c r="BQ40" s="7">
-        <v>10.099999999999998</v>
+        <v>7.07</v>
       </c>
       <c r="BR40" s="7">
-        <v>10.099999999999998</v>
+        <v>7.07</v>
       </c>
       <c r="BS40" s="7">
-        <v>10.1</v>
+        <v>7.07</v>
       </c>
       <c r="BT40" s="7">
-        <v>10.1</v>
+        <v>7.07</v>
       </c>
       <c r="BU40" s="7">
-        <v>10.100000000000001</v>
+        <v>7.0699999999999985</v>
       </c>
       <c r="BV40" s="7">
-        <v>10.100000000000001</v>
+        <v>7.0699999999999985</v>
       </c>
       <c r="BW40" s="7">
-        <v>10.100000000000001</v>
+        <v>7.0699999999999985</v>
       </c>
       <c r="BX40" s="7">
-        <v>10.100000000000001</v>
+        <v>7.07</v>
       </c>
       <c r="BY40" s="7">
-        <v>10.100000000000001</v>
+        <v>7.0699999999999985</v>
       </c>
       <c r="BZ40" s="7">
-        <v>10.100000000000001</v>
+        <v>7.0699999999999985</v>
       </c>
       <c r="CA40" s="7">
-        <v>10.100000000000001</v>
+        <v>7.0699999999999985</v>
       </c>
       <c r="CB40" s="7">
-        <v>10.100000000000001</v>
+        <v>7.0699999999999985</v>
       </c>
       <c r="CC40" s="7">
-        <v>10.100000000000001</v>
+        <v>7.0699999999999985</v>
       </c>
       <c r="CD40" s="7">
-        <v>10.1</v>
+        <v>7.0699999999999985</v>
       </c>
       <c r="CE40" s="7">
-        <v>10.100000000000001</v>
+        <v>7.07</v>
       </c>
       <c r="CF40" s="8">
-        <v>10.100000000000001</v>
+        <v>7.0699999999999994</v>
       </c>
       <c r="CH40">
         <v>38</v>
@@ -13344,16 +13344,16 @@
         <v>0</v>
       </c>
       <c r="CJ40" s="7">
-        <v>0</v>
+        <v>7.0699999999999994</v>
       </c>
       <c r="CK40" s="7">
-        <v>7.07</v>
+        <v>7.0699999999999994</v>
       </c>
       <c r="CL40" s="7">
         <v>7.0699999999999994</v>
       </c>
       <c r="CM40" s="7">
-        <v>7.07</v>
+        <v>7.0699999999999994</v>
       </c>
       <c r="CN40" s="7">
         <v>7.0699999999999994</v>
@@ -13362,61 +13362,61 @@
         <v>7.0699999999999994</v>
       </c>
       <c r="CP40" s="7">
-        <v>7.0699999999999985</v>
+        <v>7.0699999999999994</v>
       </c>
       <c r="CQ40" s="7">
-        <v>7.0699999999999985</v>
+        <v>7.07</v>
       </c>
       <c r="CR40" s="7">
         <v>7.07</v>
       </c>
       <c r="CS40" s="7">
+        <v>7.07</v>
+      </c>
+      <c r="CT40" s="7">
         <v>7.0699999999999994</v>
       </c>
-      <c r="CT40" s="7">
+      <c r="CU40" s="7">
+        <v>7.0699999999999994</v>
+      </c>
+      <c r="CV40" s="7">
+        <v>7.0699999999999994</v>
+      </c>
+      <c r="CW40" s="7">
+        <v>7.0699999999999985</v>
+      </c>
+      <c r="CX40" s="7">
+        <v>7.0699999999999985</v>
+      </c>
+      <c r="CY40" s="7">
+        <v>7.0699999999999985</v>
+      </c>
+      <c r="CZ40" s="7">
+        <v>7.0699999999999985</v>
+      </c>
+      <c r="DA40" s="7">
+        <v>7.0699999999999985</v>
+      </c>
+      <c r="DB40" s="7">
+        <v>7.0699999999999985</v>
+      </c>
+      <c r="DC40" s="7">
         <v>7.07</v>
       </c>
-      <c r="CU40" s="7">
+      <c r="DD40" s="7">
         <v>7.07</v>
       </c>
-      <c r="CV40" s="7">
+      <c r="DE40" s="7">
         <v>7.07</v>
       </c>
-      <c r="CW40" s="7">
+      <c r="DF40" s="7">
         <v>7.07</v>
       </c>
-      <c r="CX40" s="7">
-        <v>7.0699999999999994</v>
-      </c>
-      <c r="CY40" s="7">
-        <v>7.0699999999999994</v>
-      </c>
-      <c r="CZ40" s="7">
-        <v>7.0699999999999994</v>
-      </c>
-      <c r="DA40" s="7">
-        <v>7.0699999999999994</v>
-      </c>
-      <c r="DB40" s="7">
-        <v>7.0699999999999994</v>
-      </c>
-      <c r="DC40" s="7">
-        <v>7.0699999999999994</v>
-      </c>
-      <c r="DD40" s="7">
-        <v>7.0699999999999994</v>
-      </c>
-      <c r="DE40" s="7">
-        <v>7.0699999999999994</v>
-      </c>
-      <c r="DF40" s="7">
-        <v>7.0699999999999994</v>
-      </c>
       <c r="DG40" s="7">
-        <v>7.0699999999999994</v>
+        <v>7.0699999999999985</v>
       </c>
       <c r="DH40" s="8">
-        <v>7.0699999999999994</v>
+        <v>7.0699999999999985</v>
       </c>
     </row>
     <row r="41" spans="1:112" x14ac:dyDescent="0.35">
@@ -13499,7 +13499,7 @@
         <v>5</v>
       </c>
       <c r="AA41" s="8">
-        <v>5</v>
+        <v>5.0000000000000071</v>
       </c>
       <c r="AD41">
         <v>39</v>
@@ -13541,10 +13541,10 @@
         <v>7</v>
       </c>
       <c r="AQ41" s="7">
-        <v>7.0000000000000018</v>
+        <v>7</v>
       </c>
       <c r="AR41" s="7">
-        <v>7.0000000000000018</v>
+        <v>7</v>
       </c>
       <c r="AS41" s="7">
         <v>7</v>
@@ -13589,79 +13589,79 @@
         <v>0</v>
       </c>
       <c r="BH41" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BI41" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BJ41" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BK41" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BL41" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BM41" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BN41" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BO41" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BP41" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BQ41" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BR41" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BS41" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BT41" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BU41" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BV41" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BW41" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BX41" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BY41" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BZ41" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CA41" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CB41" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CC41" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CD41" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CE41" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CF41" s="8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CH41">
         <v>39</v>
@@ -13670,7 +13670,7 @@
         <v>0</v>
       </c>
       <c r="CJ41" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CK41" s="7">
         <v>7</v>
@@ -13688,10 +13688,10 @@
         <v>7</v>
       </c>
       <c r="CP41" s="7">
-        <v>6.9999999999999929</v>
+        <v>7</v>
       </c>
       <c r="CQ41" s="7">
-        <v>6.9999999999999929</v>
+        <v>7</v>
       </c>
       <c r="CR41" s="7">
         <v>7</v>
@@ -13727,7 +13727,7 @@
         <v>7</v>
       </c>
       <c r="DC41" s="7">
-        <v>7</v>
+        <v>7.0000000000000036</v>
       </c>
       <c r="DD41" s="7">
         <v>7</v>
@@ -13795,10 +13795,10 @@
         <v>6</v>
       </c>
       <c r="Q42" s="7">
-        <v>5.9999999999999964</v>
+        <v>6</v>
       </c>
       <c r="R42" s="7">
-        <v>5.9999999999999964</v>
+        <v>6</v>
       </c>
       <c r="S42" s="7">
         <v>6</v>
@@ -13822,7 +13822,7 @@
         <v>6</v>
       </c>
       <c r="Z42" s="7">
-        <v>5.9999999999999964</v>
+        <v>6</v>
       </c>
       <c r="AA42" s="8">
         <v>5.9999999999999964</v>
@@ -13840,13 +13840,13 @@
         <v>8.3999999999999986</v>
       </c>
       <c r="AH42" s="7">
-        <v>8.3999999999999986</v>
+        <v>8.4000000000000057</v>
       </c>
       <c r="AI42" s="7">
-        <v>8.3999999999999986</v>
+        <v>8.4000000000000057</v>
       </c>
       <c r="AJ42" s="7">
-        <v>8.3999999999999986</v>
+        <v>8.4</v>
       </c>
       <c r="AK42" s="7">
         <v>8.3999999999999986</v>
@@ -13861,10 +13861,10 @@
         <v>8.3999999999999986</v>
       </c>
       <c r="AO42" s="7">
-        <v>8.4000000000000057</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="AP42" s="7">
-        <v>8.4000000000000057</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="AQ42" s="7">
         <v>8.3999999999999986</v>
@@ -13873,16 +13873,16 @@
         <v>8.3999999999999986</v>
       </c>
       <c r="AS42" s="7">
-        <v>8.3999999999999915</v>
+        <v>8.4000000000000057</v>
       </c>
       <c r="AT42" s="7">
-        <v>8.3999999999999915</v>
+        <v>8.4000000000000057</v>
       </c>
       <c r="AU42" s="7">
-        <v>8.3999999999999915</v>
+        <v>8.4000000000000057</v>
       </c>
       <c r="AV42" s="7">
-        <v>8.3999999999999986</v>
+        <v>8.4000000000000057</v>
       </c>
       <c r="AW42" s="7">
         <v>8.3999999999999986</v>
@@ -13900,13 +13900,13 @@
         <v>8.3999999999999986</v>
       </c>
       <c r="BB42" s="7">
-        <v>8.3999999999999915</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="BC42" s="7">
-        <v>8.3999999999999915</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="BD42" s="8">
-        <v>8.3999999999999915</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="BF42">
         <v>40</v>
@@ -13915,79 +13915,79 @@
         <v>0</v>
       </c>
       <c r="BH42" s="7">
-        <v>12</v>
+        <v>8.3999999999999915</v>
       </c>
       <c r="BI42" s="7">
-        <v>12</v>
+        <v>8.3999999999999915</v>
       </c>
       <c r="BJ42" s="7">
-        <v>12</v>
+        <v>8.4000000000000057</v>
       </c>
       <c r="BK42" s="7">
-        <v>12</v>
+        <v>8.4000000000000057</v>
       </c>
       <c r="BL42" s="7">
-        <v>12</v>
+        <v>8.3999999999999915</v>
       </c>
       <c r="BM42" s="7">
-        <v>12</v>
+        <v>8.4000000000000057</v>
       </c>
       <c r="BN42" s="7">
-        <v>12</v>
+        <v>8.4000000000000057</v>
       </c>
       <c r="BO42" s="7">
-        <v>12</v>
+        <v>8.4000000000000057</v>
       </c>
       <c r="BP42" s="7">
-        <v>12</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="BQ42" s="7">
-        <v>12</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="BR42" s="7">
-        <v>12</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="BS42" s="7">
-        <v>12</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="BT42" s="7">
-        <v>12</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="BU42" s="7">
-        <v>12</v>
+        <v>8.4000000000000057</v>
       </c>
       <c r="BV42" s="7">
-        <v>12</v>
+        <v>8.4000000000000057</v>
       </c>
       <c r="BW42" s="7">
-        <v>12</v>
+        <v>8.4000000000000057</v>
       </c>
       <c r="BX42" s="7">
-        <v>12</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="BY42" s="7">
-        <v>12</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="BZ42" s="7">
-        <v>12</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="CA42" s="7">
-        <v>12</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="CB42" s="7">
-        <v>12</v>
+        <v>8.399999999999995</v>
       </c>
       <c r="CC42" s="7">
-        <v>12</v>
+        <v>8.399999999999995</v>
       </c>
       <c r="CD42" s="7">
-        <v>12</v>
+        <v>8.399999999999995</v>
       </c>
       <c r="CE42" s="7">
-        <v>12</v>
+        <v>8.3999999999999915</v>
       </c>
       <c r="CF42" s="8">
-        <v>12</v>
+        <v>8.3999999999999915</v>
       </c>
       <c r="CH42">
         <v>40</v>
@@ -13996,52 +13996,52 @@
         <v>0</v>
       </c>
       <c r="CJ42" s="7">
-        <v>0</v>
+        <v>8.3999999999999915</v>
       </c>
       <c r="CK42" s="7">
+        <v>8.3999999999999915</v>
+      </c>
+      <c r="CL42" s="7">
         <v>8.4000000000000057</v>
       </c>
-      <c r="CL42" s="7">
-        <v>8.3999999999999986</v>
-      </c>
       <c r="CM42" s="7">
-        <v>8.3999999999999986</v>
+        <v>8.4000000000000057</v>
       </c>
       <c r="CN42" s="7">
-        <v>8.3999999999999986</v>
+        <v>8.4000000000000057</v>
       </c>
       <c r="CO42" s="7">
-        <v>8.3999999999999986</v>
+        <v>8.3999999999999915</v>
       </c>
       <c r="CP42" s="7">
-        <v>8.3999999999999986</v>
+        <v>8.3999999999999915</v>
       </c>
       <c r="CQ42" s="7">
-        <v>8.3999999999999986</v>
+        <v>8.3999999999999915</v>
       </c>
       <c r="CR42" s="7">
-        <v>8.3999999999999986</v>
+        <v>8.3999999999999915</v>
       </c>
       <c r="CS42" s="7">
-        <v>8.4000000000000057</v>
+        <v>8.3999999999999915</v>
       </c>
       <c r="CT42" s="7">
         <v>8.4000000000000057</v>
       </c>
       <c r="CU42" s="7">
+        <v>8.4000000000000057</v>
+      </c>
+      <c r="CV42" s="7">
+        <v>8.4000000000000057</v>
+      </c>
+      <c r="CW42" s="7">
         <v>8.3999999999999986</v>
       </c>
-      <c r="CV42" s="7">
+      <c r="CX42" s="7">
         <v>8.3999999999999986</v>
       </c>
-      <c r="CW42" s="7">
-        <v>8.3999999999999915</v>
-      </c>
-      <c r="CX42" s="7">
-        <v>8.4000000000000057</v>
-      </c>
       <c r="CY42" s="7">
-        <v>8.4000000000000057</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="CZ42" s="7">
         <v>8.3999999999999986</v>
@@ -14053,7 +14053,7 @@
         <v>8.4000000000000057</v>
       </c>
       <c r="DC42" s="7">
-        <v>8.3999999999999986</v>
+        <v>8.4000000000000057</v>
       </c>
       <c r="DD42" s="7">
         <v>8.4000000000000057</v>
@@ -14062,10 +14062,10 @@
         <v>8.4000000000000057</v>
       </c>
       <c r="DF42" s="7">
+        <v>8.4000000000000057</v>
+      </c>
+      <c r="DG42" s="7">
         <v>8.3999999999999915</v>
-      </c>
-      <c r="DG42" s="7">
-        <v>8.4000000000000057</v>
       </c>
       <c r="DH42" s="8">
         <v>8.4000000000000057</v>
@@ -14109,49 +14109,49 @@
         <v>0</v>
       </c>
       <c r="M43" s="7">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="N43" s="7">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="O43" s="7">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="P43" s="7">
         <v>800</v>
       </c>
       <c r="Q43" s="7">
-        <v>1025</v>
+        <v>1000</v>
       </c>
       <c r="R43" s="7">
-        <v>1250</v>
+        <v>1225</v>
       </c>
       <c r="S43" s="7">
-        <v>1475</v>
+        <v>1450</v>
       </c>
       <c r="T43" s="7">
-        <v>1700</v>
+        <v>1675</v>
       </c>
       <c r="U43" s="7">
-        <v>1900</v>
+        <v>1875</v>
       </c>
       <c r="V43" s="7">
-        <v>2075</v>
+        <v>2050</v>
       </c>
       <c r="W43" s="7">
-        <v>2075</v>
+        <v>2050</v>
       </c>
       <c r="X43" s="7">
-        <v>2150</v>
+        <v>2200</v>
       </c>
       <c r="Y43" s="7">
-        <v>2375</v>
+        <v>2425</v>
       </c>
       <c r="Z43" s="7">
-        <v>2625</v>
+        <v>2675</v>
       </c>
       <c r="AA43" s="8">
-        <v>2850</v>
+        <v>2900</v>
       </c>
       <c r="AB43" t="s">
         <v>15</v>
@@ -14193,49 +14193,49 @@
         <v>0</v>
       </c>
       <c r="AP43" s="7">
-        <v>244.99999999999997</v>
+        <v>280</v>
       </c>
       <c r="AQ43" s="7">
-        <v>525</v>
+        <v>595</v>
       </c>
       <c r="AR43" s="7">
-        <v>840</v>
+        <v>875</v>
       </c>
       <c r="AS43" s="7">
         <v>1120</v>
       </c>
       <c r="AT43" s="7">
-        <v>1435</v>
+        <v>1400</v>
       </c>
       <c r="AU43" s="7">
-        <v>1750</v>
+        <v>1715</v>
       </c>
       <c r="AV43" s="7">
-        <v>2065</v>
+        <v>2029.9999999999998</v>
       </c>
       <c r="AW43" s="7">
-        <v>2380</v>
+        <v>2345</v>
       </c>
       <c r="AX43" s="7">
-        <v>2660</v>
+        <v>2625</v>
       </c>
       <c r="AY43" s="7">
-        <v>2905</v>
+        <v>2870</v>
       </c>
       <c r="AZ43" s="7">
-        <v>2905</v>
+        <v>2870</v>
       </c>
       <c r="BA43" s="7">
-        <v>3010</v>
+        <v>3080</v>
       </c>
       <c r="BB43" s="7">
-        <v>3325</v>
+        <v>3395</v>
       </c>
       <c r="BC43" s="7">
-        <v>3674.9999999999995</v>
+        <v>3744.9999999999995</v>
       </c>
       <c r="BD43" s="8">
-        <v>3989.9999999999995</v>
+        <v>4059.9999999999995</v>
       </c>
       <c r="BF43">
         <v>41</v>
@@ -14274,49 +14274,49 @@
         <v>0</v>
       </c>
       <c r="BR43" s="7">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BS43" s="7">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="BT43" s="7">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="BU43" s="7">
         <v>1600</v>
       </c>
       <c r="BV43" s="7">
-        <v>2050</v>
+        <v>2000</v>
       </c>
       <c r="BW43" s="7">
-        <v>2500</v>
+        <v>2450</v>
       </c>
       <c r="BX43" s="7">
-        <v>2950</v>
+        <v>2900</v>
       </c>
       <c r="BY43" s="7">
-        <v>3400</v>
+        <v>3350</v>
       </c>
       <c r="BZ43" s="7">
-        <v>3800</v>
+        <v>3750</v>
       </c>
       <c r="CA43" s="7">
-        <v>4150</v>
+        <v>4100</v>
       </c>
       <c r="CB43" s="7">
-        <v>4150</v>
+        <v>4100</v>
       </c>
       <c r="CC43" s="7">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="CD43" s="7">
-        <v>4750</v>
+        <v>4850</v>
       </c>
       <c r="CE43" s="7">
-        <v>5250</v>
+        <v>5350</v>
       </c>
       <c r="CF43" s="8">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="CH43">
         <v>41</v>
@@ -14355,49 +14355,49 @@
         <v>0</v>
       </c>
       <c r="CT43" s="7">
-        <v>244.99999999999997</v>
+        <v>280</v>
       </c>
       <c r="CU43" s="7">
-        <v>525</v>
+        <v>595</v>
       </c>
       <c r="CV43" s="7">
-        <v>840</v>
+        <v>875</v>
       </c>
       <c r="CW43" s="7">
         <v>1120</v>
       </c>
       <c r="CX43" s="7">
-        <v>1435</v>
+        <v>1400</v>
       </c>
       <c r="CY43" s="7">
-        <v>1750</v>
+        <v>1715</v>
       </c>
       <c r="CZ43" s="7">
-        <v>2065</v>
+        <v>2029.9999999999998</v>
       </c>
       <c r="DA43" s="7">
-        <v>2380</v>
+        <v>2345</v>
       </c>
       <c r="DB43" s="7">
-        <v>2660</v>
+        <v>2625</v>
       </c>
       <c r="DC43" s="7">
-        <v>2905</v>
+        <v>2870</v>
       </c>
       <c r="DD43" s="7">
-        <v>2905</v>
+        <v>2870</v>
       </c>
       <c r="DE43" s="7">
-        <v>3010</v>
+        <v>3080</v>
       </c>
       <c r="DF43" s="7">
-        <v>3325</v>
+        <v>3395</v>
       </c>
       <c r="DG43" s="7">
-        <v>3674.9999999999995</v>
+        <v>3744.9999999999995</v>
       </c>
       <c r="DH43" s="8">
-        <v>3989.9999999999995</v>
+        <v>4059.9999999999995</v>
       </c>
     </row>
     <row r="44" spans="1:112" x14ac:dyDescent="0.35">
@@ -14438,49 +14438,49 @@
         <v>0</v>
       </c>
       <c r="M44" s="7">
-        <v>-3.610750537891107E-12</v>
+        <v>0</v>
       </c>
       <c r="N44" s="7">
-        <v>9.9999999999963887</v>
+        <v>0</v>
       </c>
       <c r="O44" s="7">
-        <v>9.9999999999963887</v>
+        <v>10</v>
       </c>
       <c r="P44" s="7">
-        <v>19.99999999999639</v>
+        <v>50</v>
       </c>
       <c r="Q44" s="7">
-        <v>19.99999999999639</v>
+        <v>60</v>
       </c>
       <c r="R44" s="7">
-        <v>20.000000000007223</v>
+        <v>60</v>
       </c>
       <c r="S44" s="7">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="T44" s="7">
-        <v>20.000000000000114</v>
+        <v>60</v>
       </c>
       <c r="U44" s="7">
-        <v>30.000000000000114</v>
+        <v>70</v>
       </c>
       <c r="V44" s="7">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="W44" s="7">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="X44" s="7">
+        <v>350</v>
+      </c>
+      <c r="Y44" s="7">
+        <v>360</v>
+      </c>
+      <c r="Z44" s="7">
+        <v>360</v>
+      </c>
+      <c r="AA44" s="8">
         <v>370</v>
-      </c>
-      <c r="Y44" s="7">
-        <v>380</v>
-      </c>
-      <c r="Z44" s="7">
-        <v>380</v>
-      </c>
-      <c r="AA44" s="8">
-        <v>390</v>
       </c>
       <c r="AB44" t="s">
         <v>16</v>
@@ -14519,52 +14519,52 @@
         <v>0</v>
       </c>
       <c r="AO44" s="7">
-        <v>-3.610750537891107E-12</v>
+        <v>0</v>
       </c>
       <c r="AP44" s="7">
-        <v>-3.610750537891107E-12</v>
+        <v>0</v>
       </c>
       <c r="AQ44" s="7">
-        <v>9.9999999999963887</v>
+        <v>0</v>
       </c>
       <c r="AR44" s="7">
-        <v>9.9999999999963887</v>
+        <v>10</v>
       </c>
       <c r="AS44" s="7">
-        <v>19.99999999999639</v>
+        <v>50</v>
       </c>
       <c r="AT44" s="7">
-        <v>19.99999999999639</v>
+        <v>60</v>
       </c>
       <c r="AU44" s="7">
-        <v>20.000000000007219</v>
+        <v>60</v>
       </c>
       <c r="AV44" s="7">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AW44" s="7">
-        <v>20.000000000000114</v>
+        <v>60</v>
       </c>
       <c r="AX44" s="7">
-        <v>30.000000000000114</v>
+        <v>70</v>
       </c>
       <c r="AY44" s="7">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AZ44" s="7">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="BA44" s="7">
+        <v>350</v>
+      </c>
+      <c r="BB44" s="7">
+        <v>360</v>
+      </c>
+      <c r="BC44" s="7">
+        <v>360</v>
+      </c>
+      <c r="BD44" s="8">
         <v>370</v>
-      </c>
-      <c r="BB44" s="7">
-        <v>380</v>
-      </c>
-      <c r="BC44" s="7">
-        <v>380</v>
-      </c>
-      <c r="BD44" s="8">
-        <v>390</v>
       </c>
       <c r="BF44">
         <v>42</v>
@@ -14600,52 +14600,52 @@
         <v>0</v>
       </c>
       <c r="BQ44" s="7">
-        <v>-3.610750537891107E-12</v>
+        <v>0</v>
       </c>
       <c r="BR44" s="7">
-        <v>-3.610750537891107E-12</v>
+        <v>0</v>
       </c>
       <c r="BS44" s="7">
-        <v>9.999999999996362</v>
+        <v>0</v>
       </c>
       <c r="BT44" s="7">
-        <v>9.9999999999963887</v>
+        <v>10</v>
       </c>
       <c r="BU44" s="7">
-        <v>19.99999999999639</v>
+        <v>50</v>
       </c>
       <c r="BV44" s="7">
-        <v>19.99999999999639</v>
+        <v>60</v>
       </c>
       <c r="BW44" s="7">
-        <v>20.000000000007219</v>
+        <v>60</v>
       </c>
       <c r="BX44" s="7">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="BY44" s="7">
-        <v>20.000000000000114</v>
+        <v>60</v>
       </c>
       <c r="BZ44" s="7">
-        <v>30.000000000000114</v>
+        <v>70</v>
       </c>
       <c r="CA44" s="7">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="CB44" s="7">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="CC44" s="7">
+        <v>350</v>
+      </c>
+      <c r="CD44" s="7">
+        <v>360</v>
+      </c>
+      <c r="CE44" s="7">
+        <v>360</v>
+      </c>
+      <c r="CF44" s="8">
         <v>370</v>
-      </c>
-      <c r="CD44" s="7">
-        <v>380</v>
-      </c>
-      <c r="CE44" s="7">
-        <v>380</v>
-      </c>
-      <c r="CF44" s="8">
-        <v>390</v>
       </c>
       <c r="CH44">
         <v>42</v>
@@ -14681,52 +14681,52 @@
         <v>0</v>
       </c>
       <c r="CS44" s="7">
-        <v>-3.610750537891107E-12</v>
+        <v>0</v>
       </c>
       <c r="CT44" s="7">
-        <v>-3.610750537891107E-12</v>
+        <v>0</v>
       </c>
       <c r="CU44" s="7">
-        <v>9.9999999999963887</v>
+        <v>0</v>
       </c>
       <c r="CV44" s="7">
-        <v>9.9999999999963887</v>
+        <v>10</v>
       </c>
       <c r="CW44" s="7">
-        <v>19.99999999999639</v>
+        <v>50</v>
       </c>
       <c r="CX44" s="7">
-        <v>19.99999999999639</v>
+        <v>60</v>
       </c>
       <c r="CY44" s="7">
-        <v>20.000000000007276</v>
+        <v>60</v>
       </c>
       <c r="CZ44" s="7">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="DA44" s="7">
-        <v>20.000000000000114</v>
+        <v>60</v>
       </c>
       <c r="DB44" s="7">
-        <v>30.000000000000114</v>
+        <v>70</v>
       </c>
       <c r="DC44" s="7">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="DD44" s="7">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="DE44" s="7">
+        <v>350</v>
+      </c>
+      <c r="DF44" s="7">
+        <v>360</v>
+      </c>
+      <c r="DG44" s="7">
+        <v>360</v>
+      </c>
+      <c r="DH44" s="8">
         <v>370</v>
-      </c>
-      <c r="DF44" s="7">
-        <v>380</v>
-      </c>
-      <c r="DG44" s="7">
-        <v>380</v>
-      </c>
-      <c r="DH44" s="8">
-        <v>390</v>
       </c>
     </row>
     <row r="45" spans="1:112" x14ac:dyDescent="0.35">
@@ -15448,49 +15448,49 @@
         <v>0</v>
       </c>
       <c r="M49" s="4">
-        <v>41.487737716034133</v>
+        <v>52.177708757573555</v>
       </c>
       <c r="N49" s="4">
-        <v>131.93769330637616</v>
+        <v>0</v>
       </c>
       <c r="O49" s="4">
-        <v>20.636208416567115</v>
+        <v>113.64055091050676</v>
       </c>
       <c r="P49" s="4">
-        <v>143.94003558742961</v>
+        <v>43.025546875251791</v>
       </c>
       <c r="Q49" s="4">
-        <v>0</v>
+        <v>82.076788685997286</v>
       </c>
       <c r="R49" s="4">
-        <v>158.87645377504572</v>
+        <v>191.09856591319243</v>
       </c>
       <c r="S49" s="4">
-        <v>220.44913573028319</v>
+        <v>214.72672166283394</v>
       </c>
       <c r="T49" s="4">
-        <v>176.11737755055128</v>
+        <v>169.54102191856558</v>
       </c>
       <c r="U49" s="4">
-        <v>404.8465980812598</v>
+        <v>373.42322690574201</v>
       </c>
       <c r="V49" s="4">
-        <v>402.32028662914155</v>
+        <v>373.34160110516569</v>
       </c>
       <c r="W49" s="4">
-        <v>259.70537839173426</v>
+        <v>232.74508465234652</v>
       </c>
       <c r="X49" s="4">
-        <v>100.95228472809352</v>
+        <v>120.88641916859437</v>
       </c>
       <c r="Y49" s="4">
-        <v>224.77348337320018</v>
+        <v>230.80063202283887</v>
       </c>
       <c r="Z49" s="4">
-        <v>219.24098023898426</v>
+        <v>237.82224610155279</v>
       </c>
       <c r="AA49" s="5">
-        <v>281.20327052746535</v>
+        <v>301.16720555128626</v>
       </c>
       <c r="AD49">
         <v>1</v>
@@ -15529,10 +15529,10 @@
         <v>0</v>
       </c>
       <c r="AP49" s="4">
-        <v>495.58878451388392</v>
+        <v>495.58878451388028</v>
       </c>
       <c r="AQ49" s="4">
-        <v>519.20000000000005</v>
+        <v>307.73881024838039</v>
       </c>
       <c r="AR49" s="4">
         <v>519.20000000000005</v>
@@ -15541,7 +15541,7 @@
         <v>519.20000000000005</v>
       </c>
       <c r="AT49" s="4">
-        <v>513.85891947851235</v>
+        <v>519.20000000000005</v>
       </c>
       <c r="AU49" s="4">
         <v>519.20000000000005</v>
@@ -15607,7 +15607,7 @@
         <v>0</v>
       </c>
       <c r="BQ49" s="4">
-        <v>0</v>
+        <v>519.20000000000005</v>
       </c>
       <c r="BR49" s="4">
         <v>519.20000000000005</v>
@@ -15688,52 +15688,52 @@
         <v>0</v>
       </c>
       <c r="CS49" s="4">
-        <v>0</v>
+        <v>17.956931319826992</v>
       </c>
       <c r="CT49" s="4">
-        <v>197.6228655462908</v>
+        <v>197.62286554628719</v>
       </c>
       <c r="CU49" s="4">
-        <v>225.166571336207</v>
+        <v>235.16657133620339</v>
       </c>
       <c r="CV49" s="4">
-        <v>263.04817047823218</v>
+        <v>263.04817047822854</v>
       </c>
       <c r="CW49" s="4">
-        <v>291.27070401253582</v>
+        <v>261.27070401253224</v>
       </c>
       <c r="CX49" s="4">
-        <v>329.83724034864804</v>
+        <v>289.83724034864446</v>
       </c>
       <c r="CY49" s="4">
-        <v>368.75087551177501</v>
+        <v>328.75087551178223</v>
       </c>
       <c r="CZ49" s="4">
-        <v>408.01473339138812</v>
+        <v>368.01473339138812</v>
       </c>
       <c r="DA49" s="4">
-        <v>447.63196599190968</v>
+        <v>407.63196599190979</v>
       </c>
       <c r="DB49" s="4">
-        <v>477.60575368583676</v>
+        <v>437.60575368583687</v>
       </c>
       <c r="DC49" s="4">
-        <v>477.93930546900901</v>
+        <v>437.93930546900901</v>
       </c>
       <c r="DD49" s="4">
-        <v>338.6358592182296</v>
+        <v>298.6358592182296</v>
       </c>
       <c r="DE49" s="4">
-        <v>259.69868195119307</v>
+        <v>279.69868195119307</v>
       </c>
       <c r="DF49" s="4">
-        <v>291.1310700887534</v>
+        <v>311.1310700887534</v>
       </c>
       <c r="DG49" s="4">
-        <v>332.9363497195518</v>
+        <v>352.9363497195518</v>
       </c>
       <c r="DH49" s="5">
-        <v>365.11787686702701</v>
+        <v>385.11787686702701</v>
       </c>
     </row>
     <row r="50" spans="1:112" x14ac:dyDescent="0.35">
@@ -15828,7 +15828,7 @@
         <v>0</v>
       </c>
       <c r="AG50" s="7">
-        <v>361.93483920776242</v>
+        <v>500.61669061997043</v>
       </c>
       <c r="AH50" s="7">
         <v>665.6</v>
@@ -16247,7 +16247,7 @@
         <v>0</v>
       </c>
       <c r="BM51" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="BN51" s="7">
         <v>46.5</v>
@@ -18705,7 +18705,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="M59" s="7">
         <v>154</v>
@@ -18786,7 +18786,7 @@
         <v>0</v>
       </c>
       <c r="AO59" s="7">
-        <v>41.988528598334597</v>
+        <v>154</v>
       </c>
       <c r="AP59" s="7">
         <v>154</v>
@@ -19414,7 +19414,7 @@
         <v>1475.2499999999995</v>
       </c>
       <c r="AG61" s="7">
-        <v>288.09321079223656</v>
+        <v>149.41135938002859</v>
       </c>
       <c r="AH61" s="7">
         <v>0</v>
@@ -19507,7 +19507,7 @@
         <v>635.69897022601799</v>
       </c>
       <c r="BM61" s="7">
-        <v>615.84546095805126</v>
+        <v>569.34546095805126</v>
       </c>
       <c r="BN61" s="7">
         <v>430.91627010667344</v>
@@ -19842,7 +19842,7 @@
         <v>478.91521653763266</v>
       </c>
       <c r="BP62" s="7">
-        <v>527.34615348647094</v>
+        <v>541.69390186504006</v>
       </c>
       <c r="BQ62" s="7">
         <v>656.1</v>
@@ -20323,7 +20323,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="7">
-        <v>0</v>
+        <v>30.437210044999119</v>
       </c>
       <c r="I64" s="7">
         <v>67</v>
@@ -20404,7 +20404,7 @@
         <v>0</v>
       </c>
       <c r="AK64" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="AL64" s="7">
         <v>67</v>
@@ -20566,7 +20566,7 @@
         <v>0</v>
       </c>
       <c r="CO64" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="CP64" s="7">
         <v>67</v>
@@ -20820,7 +20820,7 @@
         <v>257</v>
       </c>
       <c r="BP65" s="7">
-        <v>257</v>
+        <v>242.65225162143088</v>
       </c>
       <c r="BQ65" s="7">
         <v>0</v>
@@ -20957,7 +20957,7 @@
         <v>18</v>
       </c>
       <c r="B66" s="6">
-        <v>1614.4379047991897</v>
+        <v>1594.1625210476682</v>
       </c>
       <c r="C66" s="7">
         <v>2269.6</v>
@@ -20975,7 +20975,7 @@
         <v>2269.6</v>
       </c>
       <c r="H66" s="7">
-        <v>1598.5857830963673</v>
+        <v>1568.1485730513682</v>
       </c>
       <c r="I66" s="7">
         <v>1520.4718551442347</v>
@@ -20987,52 +20987,52 @@
         <v>1663.2022894570964</v>
       </c>
       <c r="L66" s="7">
-        <v>255.35241006221375</v>
+        <v>101.35241006221014</v>
       </c>
       <c r="M66" s="7">
-        <v>96.541944036738954</v>
+        <v>85.851972995195922</v>
       </c>
       <c r="N66" s="7">
-        <v>33.099355582171</v>
+        <v>175.03704888854355</v>
       </c>
       <c r="O66" s="7">
-        <v>181.74127391197661</v>
+        <v>88.73693141803335</v>
       </c>
       <c r="P66" s="7">
-        <v>86.113944082070418</v>
+        <v>157.02843279424462</v>
       </c>
       <c r="Q66" s="7">
-        <v>268.06956548652465</v>
+        <v>145.99277680052379</v>
       </c>
       <c r="R66" s="7">
-        <v>147.55083780084618</v>
+        <v>75.328725662706688</v>
       </c>
       <c r="S66" s="7">
-        <v>124.68110146979851</v>
+        <v>90.403515537247756</v>
       </c>
       <c r="T66" s="7">
-        <v>208.06413178433075</v>
+        <v>174.64048741631657</v>
       </c>
       <c r="U66" s="7">
-        <v>8.737644837635969</v>
+        <v>0.16101601315384678</v>
       </c>
       <c r="V66" s="7">
-        <v>11.021314476024129</v>
+        <v>0</v>
       </c>
       <c r="W66" s="7">
-        <v>13.751397123377728</v>
+        <v>0.71169086276547466</v>
       </c>
       <c r="X66" s="7">
-        <v>92.980701766654121</v>
+        <v>93.046567326153266</v>
       </c>
       <c r="Y66" s="7">
-        <v>0</v>
+        <v>13.972851350361323</v>
       </c>
       <c r="Z66" s="7">
-        <v>46.740564484574456</v>
+        <v>48.159298622005927</v>
       </c>
       <c r="AA66" s="8">
-        <v>16.357208098604762</v>
+        <v>16.393273074783831</v>
       </c>
       <c r="AD66">
         <v>18</v>
@@ -21056,7 +21056,7 @@
         <v>2269.6</v>
       </c>
       <c r="AK66" s="7">
-        <v>1940.4801990177903</v>
+        <v>1873.4801990177903</v>
       </c>
       <c r="AL66" s="7">
         <v>1865.4433208089504</v>
@@ -21068,52 +21068,52 @@
         <v>2014.411184192496</v>
       </c>
       <c r="AO66" s="7">
-        <v>567.73365625189763</v>
+        <v>455.72218485022842</v>
       </c>
       <c r="AP66" s="7">
         <v>0</v>
       </c>
       <c r="AQ66" s="7">
-        <v>6.6141835745081332</v>
+        <v>228.07537332612418</v>
       </c>
       <c r="AR66" s="7">
-        <v>47.201611226678125</v>
+        <v>47.201611226674515</v>
       </c>
       <c r="AS66" s="7">
-        <v>78.154325727717861</v>
+        <v>48.154325727714252</v>
       </c>
       <c r="AT66" s="7">
-        <v>124.81669518075466</v>
+        <v>79.475614659263385</v>
       </c>
       <c r="AU66" s="7">
-        <v>161.16879519118891</v>
+        <v>121.16879519119612</v>
       </c>
       <c r="AV66" s="7">
-        <v>203.23721434791679</v>
+        <v>163.23721434791679</v>
       </c>
       <c r="AW66" s="7">
-        <v>245.68424927704717</v>
+        <v>205.68424927704729</v>
       </c>
       <c r="AX66" s="7">
-        <v>278.51330752054008</v>
+        <v>238.5133075205402</v>
       </c>
       <c r="AY66" s="7">
-        <v>281.72782728822477</v>
+        <v>241.72782728822477</v>
       </c>
       <c r="AZ66" s="7">
-        <v>145.33127773381858</v>
+        <v>105.33127773381858</v>
       </c>
       <c r="BA66" s="7">
-        <v>69.327159233422037</v>
+        <v>89.327159233422037</v>
       </c>
       <c r="BB66" s="7">
-        <v>103.71900366652227</v>
+        <v>123.71900366652227</v>
       </c>
       <c r="BC66" s="7">
-        <v>148.51037469952098</v>
+        <v>168.51037469952098</v>
       </c>
       <c r="BD66" s="8">
-        <v>183.70486807181624</v>
+        <v>203.70486807181624</v>
       </c>
       <c r="BF66">
         <v>18</v>
@@ -21149,52 +21149,52 @@
         <v>2269.6</v>
       </c>
       <c r="BQ66" s="7">
-        <v>1504.6129688678525</v>
+        <v>985.41296886784903</v>
       </c>
       <c r="BR66" s="7">
-        <v>1034.719585587663</v>
+        <v>1034.7195855876594</v>
       </c>
       <c r="BS66" s="7">
-        <v>1074.4699618579511</v>
+        <v>1084.4699618579475</v>
       </c>
       <c r="BT66" s="7">
-        <v>1124.6680915146721</v>
+        <v>1124.6680915146685</v>
       </c>
       <c r="BU66" s="7">
-        <v>1165.3180043383031</v>
+        <v>1135.3180043382995</v>
       </c>
       <c r="BV66" s="7">
-        <v>1216.423766377347</v>
+        <v>1176.4237663773433</v>
       </c>
       <c r="BW66" s="7">
-        <v>1267.9894802747317</v>
+        <v>1227.989480274739</v>
       </c>
       <c r="BX66" s="7">
-        <v>1320.0192855972114</v>
+        <v>1280.0192855972114</v>
       </c>
       <c r="BY66" s="7">
-        <v>1372.5173591675853</v>
+        <v>1332.5173591675853</v>
       </c>
       <c r="BZ66" s="7">
-        <v>1415.4879154000932</v>
+        <v>1375.4879154000932</v>
       </c>
       <c r="CA66" s="7">
-        <v>1428.9352066386932</v>
+        <v>1388.9352066386932</v>
       </c>
       <c r="CB66" s="7">
-        <v>1302.8635234984399</v>
+        <v>1262.8635234984399</v>
       </c>
       <c r="CC66" s="7">
-        <v>1237.2771952099258</v>
+        <v>1257.2771952099258</v>
       </c>
       <c r="CD66" s="7">
-        <v>1282.1805899668145</v>
+        <v>1302.1805899668145</v>
       </c>
       <c r="CE66" s="7">
-        <v>1337.5781152765137</v>
+        <v>1357.5781152765137</v>
       </c>
       <c r="CF66" s="8">
-        <v>1383.4742183140022</v>
+        <v>1403.4742183140022</v>
       </c>
       <c r="CH66">
         <v>18</v>
@@ -21218,7 +21218,7 @@
         <v>2269.6</v>
       </c>
       <c r="CO66" s="7">
-        <v>1655.5681857499376</v>
+        <v>1588.5681857499376</v>
       </c>
       <c r="CP66" s="7">
         <v>1834.9670994216867</v>
@@ -21230,7 +21230,7 @@
         <v>1721.7371052463295</v>
       </c>
       <c r="CS66" s="7">
-        <v>160.4140391935496</v>
+        <v>142.457107873719</v>
       </c>
       <c r="CT66" s="7">
         <v>0</v>
@@ -21283,7 +21283,7 @@
         <v>19</v>
       </c>
       <c r="B67" s="6">
-        <v>6.5620952008102904</v>
+        <v>26.837478952331821</v>
       </c>
       <c r="C67" s="7">
         <v>0</v>
@@ -28814,52 +28814,52 @@
         <v>0</v>
       </c>
       <c r="L90" s="7">
-        <v>-3.610750537891107E-12</v>
+        <v>0</v>
       </c>
       <c r="M90" s="7">
-        <v>-3.610750537891107E-12</v>
+        <v>0</v>
       </c>
       <c r="N90" s="7">
-        <v>9.9999999999963887</v>
+        <v>0</v>
       </c>
       <c r="O90" s="7">
-        <v>9.9999999999963887</v>
+        <v>10</v>
       </c>
       <c r="P90" s="7">
-        <v>19.99999999999639</v>
+        <v>50</v>
       </c>
       <c r="Q90" s="7">
-        <v>19.99999999999639</v>
+        <v>60</v>
       </c>
       <c r="R90" s="7">
-        <v>20.000000000007223</v>
+        <v>60</v>
       </c>
       <c r="S90" s="7">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="T90" s="7">
-        <v>20.000000000000114</v>
+        <v>60</v>
       </c>
       <c r="U90" s="7">
-        <v>30.000000000000114</v>
+        <v>70</v>
       </c>
       <c r="V90" s="7">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="W90" s="7">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="X90" s="7">
+        <v>350</v>
+      </c>
+      <c r="Y90" s="7">
+        <v>360</v>
+      </c>
+      <c r="Z90" s="7">
+        <v>360</v>
+      </c>
+      <c r="AA90" s="8">
         <v>370</v>
-      </c>
-      <c r="Y90" s="7">
-        <v>380</v>
-      </c>
-      <c r="Z90" s="7">
-        <v>380</v>
-      </c>
-      <c r="AA90" s="8">
-        <v>390</v>
       </c>
       <c r="AB90" t="s">
         <v>16</v>
@@ -28898,52 +28898,52 @@
         <v>0</v>
       </c>
       <c r="AO90" s="7">
-        <v>-3.610750537891107E-12</v>
+        <v>0</v>
       </c>
       <c r="AP90" s="7">
-        <v>-3.610750537891107E-12</v>
+        <v>0</v>
       </c>
       <c r="AQ90" s="7">
-        <v>9.9999999999963904</v>
+        <v>0</v>
       </c>
       <c r="AR90" s="7">
-        <v>9.9999999999963904</v>
+        <v>10</v>
       </c>
       <c r="AS90" s="7">
-        <v>19.99999999999639</v>
+        <v>50</v>
       </c>
       <c r="AT90" s="7">
-        <v>19.99999999999639</v>
+        <v>60</v>
       </c>
       <c r="AU90" s="7">
-        <v>20.000000000007223</v>
+        <v>60</v>
       </c>
       <c r="AV90" s="7">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AW90" s="7">
-        <v>20.000000000000114</v>
+        <v>60</v>
       </c>
       <c r="AX90" s="7">
-        <v>30.000000000000114</v>
+        <v>70</v>
       </c>
       <c r="AY90" s="7">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AZ90" s="7">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="BA90" s="7">
+        <v>350</v>
+      </c>
+      <c r="BB90" s="7">
+        <v>360</v>
+      </c>
+      <c r="BC90" s="7">
+        <v>360</v>
+      </c>
+      <c r="BD90" s="8">
         <v>370</v>
-      </c>
-      <c r="BB90" s="7">
-        <v>380</v>
-      </c>
-      <c r="BC90" s="7">
-        <v>380</v>
-      </c>
-      <c r="BD90" s="8">
-        <v>390</v>
       </c>
       <c r="BF90">
         <v>42</v>
@@ -28979,52 +28979,52 @@
         <v>0</v>
       </c>
       <c r="BQ90" s="7">
-        <v>-3.637978807091713E-12</v>
+        <v>0</v>
       </c>
       <c r="BR90" s="7">
-        <v>-3.610750537891107E-12</v>
+        <v>0</v>
       </c>
       <c r="BS90" s="7">
-        <v>9.999999999996362</v>
+        <v>0</v>
       </c>
       <c r="BT90" s="7">
-        <v>9.999999999996362</v>
+        <v>10</v>
       </c>
       <c r="BU90" s="7">
-        <v>19.999999999996362</v>
+        <v>50</v>
       </c>
       <c r="BV90" s="7">
-        <v>19.999999999996362</v>
+        <v>60</v>
       </c>
       <c r="BW90" s="7">
-        <v>20.000000000007276</v>
+        <v>60</v>
       </c>
       <c r="BX90" s="7">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="BY90" s="7">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="BZ90" s="7">
-        <v>30.000000000000114</v>
+        <v>70</v>
       </c>
       <c r="CA90" s="7">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="CB90" s="7">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="CC90" s="7">
+        <v>350</v>
+      </c>
+      <c r="CD90" s="7">
+        <v>360</v>
+      </c>
+      <c r="CE90" s="7">
+        <v>360</v>
+      </c>
+      <c r="CF90" s="8">
         <v>370</v>
-      </c>
-      <c r="CD90" s="7">
-        <v>380</v>
-      </c>
-      <c r="CE90" s="7">
-        <v>380</v>
-      </c>
-      <c r="CF90" s="8">
-        <v>390</v>
       </c>
       <c r="CH90">
         <v>42</v>
@@ -29060,52 +29060,52 @@
         <v>0</v>
       </c>
       <c r="CS90" s="7">
-        <v>-3.6095570976613089E-12</v>
+        <v>0</v>
       </c>
       <c r="CT90" s="7">
-        <v>-3.610750537891107E-12</v>
+        <v>0</v>
       </c>
       <c r="CU90" s="7">
-        <v>9.9999999999963887</v>
+        <v>0</v>
       </c>
       <c r="CV90" s="7">
-        <v>9.9999999999963887</v>
+        <v>10</v>
       </c>
       <c r="CW90" s="7">
-        <v>19.99999999999639</v>
+        <v>50</v>
       </c>
       <c r="CX90" s="7">
-        <v>19.99999999999639</v>
+        <v>60</v>
       </c>
       <c r="CY90" s="7">
-        <v>20.000000000007223</v>
+        <v>60</v>
       </c>
       <c r="CZ90" s="7">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="DA90" s="7">
-        <v>20.000000000000114</v>
+        <v>60</v>
       </c>
       <c r="DB90" s="7">
-        <v>30.000000000000114</v>
+        <v>70</v>
       </c>
       <c r="DC90" s="7">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="DD90" s="7">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="DE90" s="7">
+        <v>350</v>
+      </c>
+      <c r="DF90" s="7">
+        <v>360</v>
+      </c>
+      <c r="DG90" s="7">
+        <v>360</v>
+      </c>
+      <c r="DH90" s="8">
         <v>370</v>
-      </c>
-      <c r="DF90" s="7">
-        <v>380</v>
-      </c>
-      <c r="DG90" s="7">
-        <v>380</v>
-      </c>
-      <c r="DH90" s="8">
-        <v>390</v>
       </c>
     </row>
     <row r="91" spans="1:112" x14ac:dyDescent="0.35">
@@ -29470,7 +29470,7 @@
         <v>1</v>
       </c>
       <c r="B95" s="3">
-        <v>-126.23333333333323</v>
+        <v>-126.23333333333326</v>
       </c>
       <c r="C95" s="4">
         <v>-114.77543333333347</v>
@@ -29479,7 +29479,7 @@
         <v>51.104125100000331</v>
       </c>
       <c r="E95" s="4">
-        <v>184.10334555923367</v>
+        <v>184.10334555923342</v>
       </c>
       <c r="F95" s="4">
         <v>618.08122360998459</v>
@@ -29497,61 +29497,61 @@
         <v>506.07754492970963</v>
       </c>
       <c r="K95" s="4">
-        <v>493.31299283407708</v>
+        <v>614.05963902667781</v>
       </c>
       <c r="L95" s="4">
         <v>632.48932577791766</v>
       </c>
       <c r="M95" s="4">
-        <v>534.41821304325322</v>
+        <v>517.75154637658545</v>
       </c>
       <c r="N95" s="4">
-        <v>416.51446029397522</v>
+        <v>386.51446029397431</v>
       </c>
       <c r="O95" s="4">
-        <v>339.92341509841623</v>
+        <v>339.92341509841782</v>
       </c>
       <c r="P95" s="4">
-        <v>270.54840660055027</v>
+        <v>268.47057455075975</v>
       </c>
       <c r="Q95" s="4">
-        <v>198.46755972171627</v>
+        <v>206.80089305504967</v>
       </c>
       <c r="R95" s="4">
-        <v>128.50951775921172</v>
+        <v>136.84285109254506</v>
       </c>
       <c r="S95" s="4">
-        <v>30.10108174558377</v>
+        <v>43.434415078917098</v>
       </c>
       <c r="T95" s="4">
-        <v>20.568141481294219</v>
+        <v>33.901474814627512</v>
       </c>
       <c r="U95" s="4">
-        <v>14.282738087959387</v>
+        <v>27.616071421292645</v>
       </c>
       <c r="V95" s="4">
-        <v>17.910766064084328</v>
+        <v>31.24409939741766</v>
       </c>
       <c r="W95" s="4">
-        <v>68.118112958661328</v>
+        <v>81.451446291994671</v>
       </c>
       <c r="X95" s="4">
-        <v>98.237325975289423</v>
+        <v>91.570659308622751</v>
       </c>
       <c r="Y95" s="4">
-        <v>91.32624193245033</v>
+        <v>64.659575265783658</v>
       </c>
       <c r="Z95" s="4">
-        <v>-32.114405223491453</v>
+        <v>-58.781071890158117</v>
       </c>
       <c r="AA95" s="5">
-        <v>-164.36701820383661</v>
+        <v>-191.03368487050329</v>
       </c>
       <c r="AD95" s="1" t="s">
         <v>1</v>
       </c>
       <c r="AE95" s="3">
-        <v>61.050000000000011</v>
+        <v>61.050000000000026</v>
       </c>
       <c r="AF95" s="4">
         <v>-0.83508333333372775</v>
@@ -29560,73 +29560,73 @@
         <v>18.636850916666123</v>
       </c>
       <c r="AH95" s="4">
-        <v>89.313120118250026</v>
+        <v>89.313120118250396</v>
       </c>
       <c r="AI95" s="4">
-        <v>196.26084197493722</v>
+        <v>242.74418547004927</v>
       </c>
       <c r="AJ95" s="4">
         <v>823.20409891977511</v>
       </c>
       <c r="AK95" s="4">
-        <v>857.93613381490229</v>
+        <v>866.81995914338643</v>
       </c>
       <c r="AL95" s="4">
         <v>771.3483621090104</v>
       </c>
       <c r="AM95" s="4">
-        <v>579.96310423774798</v>
+        <v>579.96310423774821</v>
       </c>
       <c r="AN95" s="4">
-        <v>727.40529420318762</v>
+        <v>740.90480884255442</v>
       </c>
       <c r="AO95" s="4">
-        <v>746.32822212213762</v>
+        <v>746.32822212213716</v>
       </c>
       <c r="AP95" s="4">
-        <v>670.13377945456989</v>
+        <v>658.46711278790326</v>
       </c>
       <c r="AQ95" s="4">
-        <v>574.85978719250306</v>
+        <v>531.52645385916867</v>
       </c>
       <c r="AR95" s="4">
-        <v>386.34857527723545</v>
+        <v>363.01524194390106</v>
       </c>
       <c r="AS95" s="4">
-        <v>226.19802795389461</v>
+        <v>236.19802795389569</v>
       </c>
       <c r="AT95" s="4">
-        <v>140.28629476115103</v>
+        <v>151.95296142781768</v>
       </c>
       <c r="AU95" s="4">
-        <v>41.009241414001508</v>
+        <v>52.675908080668172</v>
       </c>
       <c r="AV95" s="4">
-        <v>-81.554480422970144</v>
+        <v>-68.221147089636816</v>
       </c>
       <c r="AW95" s="4">
-        <v>-92.374980746776828</v>
+        <v>-79.041647413443485</v>
       </c>
       <c r="AX95" s="4">
-        <v>-99.959532240164322</v>
+        <v>-86.626198906831021</v>
       </c>
       <c r="AY95" s="4">
-        <v>-97.64234469699241</v>
+        <v>-84.309011363659081</v>
       </c>
       <c r="AZ95" s="4">
-        <v>-48.757635799264939</v>
+        <v>-35.424302465931603</v>
       </c>
       <c r="BA95" s="4">
-        <v>-57.688403719215103</v>
+        <v>-82.070509583638412</v>
       </c>
       <c r="BB95" s="4">
-        <v>-231.90082750322478</v>
+        <v>-271.90082750322449</v>
       </c>
       <c r="BC95" s="4">
-        <v>-441.5196182840865</v>
+        <v>-481.5196182840865</v>
       </c>
       <c r="BD95" s="5">
-        <v>-630.92497818197717</v>
+        <v>-670.92497818197717</v>
       </c>
       <c r="BF95" s="1" t="s">
         <v>1</v>
@@ -29635,76 +29635,76 @@
         <v>178.83333333333329</v>
       </c>
       <c r="BH95" s="4">
-        <v>76.128033333333136</v>
+        <v>114.77803333333316</v>
       </c>
       <c r="BI95" s="4">
-        <v>100.54048563333289</v>
+        <v>139.19048563333291</v>
       </c>
       <c r="BJ95" s="4">
-        <v>125.17265000403253</v>
+        <v>163.82265000403254</v>
       </c>
       <c r="BK95" s="4">
-        <v>150.02650385406849</v>
+        <v>188.67650385406787</v>
       </c>
       <c r="BL95" s="4">
-        <v>388.60760900147284</v>
+        <v>474.38453042720846</v>
       </c>
       <c r="BM95" s="4">
-        <v>637.51254478963085</v>
+        <v>590.40254478963107</v>
       </c>
       <c r="BN95" s="4">
-        <v>729.04571765262835</v>
+        <v>724.81571765262834</v>
       </c>
       <c r="BO95" s="4">
-        <v>735.72442911150199</v>
+        <v>731.49442911150197</v>
       </c>
       <c r="BP95" s="4">
-        <v>898.02991564017213</v>
+        <v>893.79991564017212</v>
       </c>
       <c r="BQ95" s="4">
-        <v>904.82938488093362</v>
+        <v>900.5993848809336</v>
       </c>
       <c r="BR95" s="4">
-        <v>795.02338267819562</v>
+        <v>774.12671601152806</v>
       </c>
       <c r="BS95" s="4">
-        <v>668.61245978896534</v>
+        <v>631.04912645563195</v>
       </c>
       <c r="BT95" s="4">
-        <v>525.59717192706626</v>
+        <v>504.70050526039915</v>
       </c>
       <c r="BU95" s="4">
-        <v>399.3114131410764</v>
+        <v>395.08141314107627</v>
       </c>
       <c r="BV95" s="4">
-        <v>203.56741355271578</v>
+        <v>253.30374827002697</v>
       </c>
       <c r="BW95" s="4">
-        <v>-50.180918403860119</v>
+        <v>-10.107579725311627</v>
       </c>
       <c r="BX95" s="4">
-        <v>-184.72967230616851</v>
+        <v>-172.2930056395021</v>
       </c>
       <c r="BY95" s="4">
-        <v>-353.05844595618908</v>
+        <v>-314.98827269025696</v>
       </c>
       <c r="BZ95" s="4">
-        <v>-363.41313863646121</v>
+        <v>-397.18980530312786</v>
       </c>
       <c r="CA95" s="4">
-        <v>-363.89102355085612</v>
+        <v>-397.66769021752253</v>
       </c>
       <c r="CB95" s="4">
-        <v>-317.82654276281352</v>
+        <v>-351.60320942948022</v>
       </c>
       <c r="CC95" s="4">
-        <v>-300.46446119328266</v>
+        <v>-345.66414831434531</v>
       </c>
       <c r="CD95" s="4">
-        <v>-551.99814134402288</v>
+        <v>-573.34814134402268</v>
       </c>
       <c r="CE95" s="4">
-        <v>-855.59995794945166</v>
+        <v>-876.94995794945191</v>
       </c>
       <c r="CF95" s="5">
         <v>-1100</v>
@@ -29713,13 +29713,13 @@
         <v>1</v>
       </c>
       <c r="CI95" s="3">
-        <v>-107.4500000000001</v>
+        <v>-107.44999999999993</v>
       </c>
       <c r="CJ95" s="4">
-        <v>-75.623397163580904</v>
+        <v>-108.01067780412166</v>
       </c>
       <c r="CK95" s="4">
-        <v>46.996732883333678</v>
+        <v>46.996732883333642</v>
       </c>
       <c r="CL95" s="4">
         <v>179.67632681261705</v>
@@ -29731,64 +29731,64 @@
         <v>605.86782942104946</v>
       </c>
       <c r="CO95" s="4">
-        <v>805.24038647172779</v>
+        <v>805.24038647172802</v>
       </c>
       <c r="CP95" s="4">
-        <v>673.33225242009973</v>
+        <v>606.20391910249759</v>
       </c>
       <c r="CQ95" s="4">
-        <v>529.0766543628564</v>
+        <v>529.07665436285652</v>
       </c>
       <c r="CR95" s="4">
         <v>666.82718354389954</v>
       </c>
       <c r="CS95" s="4">
-        <v>685.96367819579518</v>
+        <v>685.96367819579405</v>
       </c>
       <c r="CT95" s="4">
-        <v>541.93906796622389</v>
+        <v>518.60573463288949</v>
       </c>
       <c r="CU95" s="4">
-        <v>371.42156957791951</v>
+        <v>338.26912082050842</v>
       </c>
       <c r="CV95" s="4">
-        <v>283.74608037078735</v>
+        <v>262.44182330600626</v>
       </c>
       <c r="CW95" s="4">
-        <v>185.91750304909374</v>
+        <v>185.91750304909365</v>
       </c>
       <c r="CX95" s="4">
-        <v>73.127456033304256</v>
+        <v>83.127456033302906</v>
       </c>
       <c r="CY95" s="4">
-        <v>30.695391699181528</v>
+        <v>44.028725032512625</v>
       </c>
       <c r="CZ95" s="4">
-        <v>20.885140224471797</v>
+        <v>34.218473557805126</v>
       </c>
       <c r="DA95" s="4">
-        <v>10.98659648649209</v>
+        <v>24.319929819825422</v>
       </c>
       <c r="DB95" s="4">
-        <v>-3.60195472421875</v>
+        <v>6.39804527578129</v>
       </c>
       <c r="DC95" s="4">
-        <v>-137.00505565007043</v>
+        <v>-127.00505565007043</v>
       </c>
       <c r="DD95" s="4">
-        <v>-175.88645115092146</v>
+        <v>-165.88645115092146</v>
       </c>
       <c r="DE95" s="4">
-        <v>-264.57777921127979</v>
+        <v>-304.57777921127956</v>
       </c>
       <c r="DF95" s="4">
-        <v>-456.41066255751412</v>
+        <v>-496.41066255751412</v>
       </c>
       <c r="DG95" s="4">
-        <v>-668.05004185386508</v>
+        <v>-708.05004185386508</v>
       </c>
       <c r="DH95" s="5">
-        <v>-743.90971793837684</v>
+        <v>-750.57638460504359</v>
       </c>
     </row>
     <row r="96" spans="1:112" x14ac:dyDescent="0.35">
@@ -29796,7 +29796,7 @@
         <v>2</v>
       </c>
       <c r="B96" s="6">
-        <v>-377.23333333333323</v>
+        <v>-377.23333333333341</v>
       </c>
       <c r="C96" s="7">
         <v>-303.266433333333</v>
@@ -29805,7 +29805,7 @@
         <v>-556.1438559000004</v>
       </c>
       <c r="E96" s="7">
-        <v>-615.91206726976714</v>
+        <v>-615.91206726976702</v>
       </c>
       <c r="F96" s="7">
         <v>-826.10902484555402</v>
@@ -29817,67 +29817,67 @@
         <v>-700.92744006569433</v>
       </c>
       <c r="I96" s="7">
-        <v>-576.7104370262856</v>
+        <v>-576.71043702628572</v>
       </c>
       <c r="J96" s="7">
         <v>-25.397647626188757</v>
       </c>
       <c r="K96" s="7">
-        <v>95.543023545175629</v>
+        <v>216.28966973777642</v>
       </c>
       <c r="L96" s="7">
         <v>214.24192676541645</v>
       </c>
       <c r="M96" s="7">
-        <v>270.50908743963964</v>
+        <v>278.84242077297176</v>
       </c>
       <c r="N96" s="7">
-        <v>331.75765255993002</v>
+        <v>351.75765255992872</v>
       </c>
       <c r="O96" s="7">
-        <v>377.41553410207166</v>
+        <v>377.41553410206905</v>
       </c>
       <c r="P96" s="7">
-        <v>414.53165852586619</v>
+        <v>412.45382647607528</v>
       </c>
       <c r="Q96" s="7">
-        <v>546.0351609143604</v>
+        <v>529.36849424769377</v>
       </c>
       <c r="R96" s="7">
-        <v>679.4687273625899</v>
+        <v>662.80206069592327</v>
       </c>
       <c r="S96" s="7">
-        <v>781.74473925577502</v>
+        <v>755.07807258910839</v>
       </c>
       <c r="T96" s="7">
-        <v>794.21089190907674</v>
+        <v>767.54422524241011</v>
       </c>
       <c r="U96" s="7">
-        <v>800.1225732695915</v>
+        <v>773.45590660292498</v>
       </c>
       <c r="V96" s="7">
-        <v>786.1474597623511</v>
+        <v>759.48079309568448</v>
       </c>
       <c r="W96" s="7">
-        <v>678.953236900212</v>
+        <v>652.28657023354538</v>
       </c>
       <c r="X96" s="7">
-        <v>611.87426603231381</v>
+        <v>625.20759936564718</v>
       </c>
       <c r="Y96" s="7">
-        <v>618.38226941491291</v>
+        <v>641.71560274824628</v>
       </c>
       <c r="Z96" s="7">
-        <v>721.72752650631401</v>
+        <v>745.06085983964726</v>
       </c>
       <c r="AA96" s="8">
-        <v>791.05189091153738</v>
+        <v>814.38522424487076</v>
       </c>
       <c r="AD96" t="s">
         <v>2</v>
       </c>
       <c r="AE96" s="6">
-        <v>-473.44999999999993</v>
+        <v>-473.45</v>
       </c>
       <c r="AF96" s="7">
         <v>-442.81758333333318</v>
@@ -29886,16 +29886,16 @@
         <v>-444.98113158333319</v>
       </c>
       <c r="AH96" s="7">
-        <v>-472.67869553925033</v>
+        <v>-472.6786955392505</v>
       </c>
       <c r="AI96" s="7">
-        <v>-518.44322068691497</v>
+        <v>-541.68489243447107</v>
       </c>
       <c r="AJ96" s="7">
         <v>-824.13612935662889</v>
       </c>
       <c r="AK96" s="7">
-        <v>-867.15341852326333</v>
+        <v>-871.59533118750528</v>
       </c>
       <c r="AL96" s="7">
         <v>-687.44016583485973</v>
@@ -29904,55 +29904,55 @@
         <v>-223.51877106688664</v>
       </c>
       <c r="AN96" s="7">
-        <v>54.887542020811679</v>
+        <v>68.387056660177905</v>
       </c>
       <c r="AO96" s="7">
-        <v>50.567270170119627</v>
+        <v>50.567270170119912</v>
       </c>
       <c r="AP96" s="7">
-        <v>195.92043893498453</v>
+        <v>219.25377226831768</v>
       </c>
       <c r="AQ96" s="7">
-        <v>356.98298660824173</v>
+        <v>383.64965327490711</v>
       </c>
       <c r="AR96" s="7">
-        <v>459.59534348771581</v>
+        <v>471.26201015438141</v>
       </c>
       <c r="AS96" s="7">
-        <v>543.10257882952328</v>
+        <v>523.10257882952101</v>
       </c>
       <c r="AT96" s="7">
-        <v>606.13360292764617</v>
+        <v>582.80026959431291</v>
       </c>
       <c r="AU96" s="7">
-        <v>797.32963535399483</v>
+        <v>773.99630202066157</v>
       </c>
       <c r="AV96" s="7">
-        <v>947.03278209157622</v>
+        <v>920.36611542490959</v>
       </c>
       <c r="AW96" s="7">
-        <v>961.18266713040032</v>
+        <v>934.51600046373358</v>
       </c>
       <c r="AX96" s="7">
-        <v>968.79323446790715</v>
+        <v>942.12656780124064</v>
       </c>
       <c r="AY96" s="7">
-        <v>956.53229691145145</v>
+        <v>929.86563024478471</v>
       </c>
       <c r="AZ96" s="7">
-        <v>851.06767758365424</v>
+        <v>824.4010109169875</v>
       </c>
       <c r="BA96" s="7">
-        <v>814.6647550774203</v>
+        <v>860.28264921299694</v>
       </c>
       <c r="BB96" s="7">
-        <v>929.33786972258076</v>
+        <v>959.33786972258065</v>
       </c>
       <c r="BC96" s="7">
-        <v>1043.36958721675</v>
+        <v>1073.36958721675</v>
       </c>
       <c r="BD96" s="8">
-        <v>1142.3775901683675</v>
+        <v>1172.3775901683675</v>
       </c>
       <c r="BF96" t="s">
         <v>2</v>
@@ -29961,91 +29961,91 @@
         <v>-545.06666666666638</v>
       </c>
       <c r="BH96" s="7">
-        <v>-276.95496666666668</v>
+        <v>-287.14496666666673</v>
       </c>
       <c r="BI96" s="7">
-        <v>-279.66746136666654</v>
+        <v>-289.85746136666654</v>
       </c>
       <c r="BJ96" s="7">
-        <v>-282.40436851896663</v>
+        <v>-292.59436851896663</v>
       </c>
       <c r="BK96" s="7">
-        <v>-285.16590783563743</v>
+        <v>-295.35590783563691</v>
       </c>
       <c r="BL96" s="7">
-        <v>-394.70408431251701</v>
+        <v>-428.45754502538477</v>
       </c>
       <c r="BM96" s="7">
-        <v>-542.81640472490187</v>
+        <v>-510.12640472490216</v>
       </c>
       <c r="BN96" s="7">
-        <v>-646.39307228720747</v>
+        <v>-699.4630722872073</v>
       </c>
       <c r="BO96" s="7">
-        <v>-668.33740993779236</v>
+        <v>-721.40740993779218</v>
       </c>
       <c r="BP96" s="7">
-        <v>-380.91257996056561</v>
+        <v>-433.98257996056554</v>
       </c>
       <c r="BQ96" s="7">
-        <v>-403.25369318021035</v>
+        <v>-456.32369318021028</v>
       </c>
       <c r="BR96" s="7">
-        <v>-192.46254308549817</v>
+        <v>-212.19920975216428</v>
       </c>
       <c r="BS96" s="7">
-        <v>51.459060693399351</v>
+        <v>65.055727360066044</v>
       </c>
       <c r="BT96" s="7">
-        <v>328.50929223963976</v>
+        <v>308.77262557297377</v>
       </c>
       <c r="BU96" s="7">
-        <v>572.01964253646315</v>
+        <v>518.94964253646367</v>
       </c>
       <c r="BV96" s="7">
-        <v>795.79991701266181</v>
+        <v>746.69625172997303</v>
       </c>
       <c r="BW96" s="7">
-        <v>933.43658560504616</v>
+        <v>902.53491626577545</v>
       </c>
       <c r="BX96" s="7">
-        <v>1091.726066148839</v>
+        <v>1005.322732815506</v>
       </c>
       <c r="BY96" s="7">
-        <v>1330.9918139427086</v>
+        <v>1281.3214674108444</v>
       </c>
       <c r="BZ96" s="7">
-        <v>1342.2248736015263</v>
+        <v>1348.2482069348594</v>
       </c>
       <c r="CA96" s="7">
-        <v>1333.6190307972734</v>
+        <v>1339.6423641306067</v>
       </c>
       <c r="CB96" s="7">
-        <v>1231.8424020744485</v>
+        <v>1237.8657354077818</v>
       </c>
       <c r="CC96" s="7">
-        <v>1174.5182734659202</v>
+        <v>1216.2531170264515</v>
       </c>
       <c r="CD96" s="7">
-        <v>1340.2442379271138</v>
+        <v>1370.0542379271137</v>
       </c>
       <c r="CE96" s="7">
-        <v>1503.6074027351242</v>
+        <v>1533.4174027351244</v>
       </c>
       <c r="CF96" s="8">
-        <v>1632.4737405742417</v>
+        <v>1651.6087405742417</v>
       </c>
       <c r="CH96" t="s">
         <v>2</v>
       </c>
       <c r="CI96" s="6">
-        <v>-438.9500000000001</v>
+        <v>-438.95000000000005</v>
       </c>
       <c r="CJ96" s="7">
-        <v>-364.91785567283824</v>
+        <v>-345.16617780412139</v>
       </c>
       <c r="CK96" s="7">
-        <v>-531.49572761666707</v>
+        <v>-531.49572761666695</v>
       </c>
       <c r="CL96" s="7">
         <v>-590.84596583188363</v>
@@ -30057,64 +30057,64 @@
         <v>-789.77331539675697</v>
       </c>
       <c r="CO96" s="7">
-        <v>-730.67269840710549</v>
+        <v>-730.67269840710583</v>
       </c>
       <c r="CP96" s="7">
-        <v>-426.56608763302222</v>
+        <v>-292.30942099781805</v>
       </c>
       <c r="CQ96" s="7">
-        <v>-56.32043576367073</v>
+        <v>-56.320435763671014</v>
       </c>
       <c r="CR96" s="7">
         <v>214.35697960623315</v>
       </c>
       <c r="CS96" s="7">
-        <v>212.23070242269068</v>
+        <v>212.23070242268943</v>
       </c>
       <c r="CT96" s="7">
-        <v>291.75195541116182</v>
+        <v>303.41862207782719</v>
       </c>
       <c r="CU96" s="7">
-        <v>379.5872330098623</v>
+        <v>401.16345738856603</v>
       </c>
       <c r="CV96" s="7">
-        <v>431.06969477361758</v>
+        <v>444.76543770883666</v>
       </c>
       <c r="CW96" s="7">
-        <v>591.20248998154943</v>
+        <v>591.20248998154966</v>
       </c>
       <c r="CX96" s="7">
-        <v>771.17546784815249</v>
+        <v>746.17546784815136</v>
       </c>
       <c r="CY96" s="7">
-        <v>800.24448777799171</v>
+        <v>773.57782111132951</v>
       </c>
       <c r="CZ96" s="7">
-        <v>813.07327816799852</v>
+        <v>786.40661150133189</v>
       </c>
       <c r="DA96" s="7">
-        <v>826.01752767151027</v>
+        <v>799.35086100484375</v>
       </c>
       <c r="DB96" s="7">
-        <v>836.37873571009857</v>
+        <v>811.37873571009857</v>
       </c>
       <c r="DC96" s="7">
-        <v>924.71982099815614</v>
+        <v>899.71982099815614</v>
       </c>
       <c r="DD96" s="7">
-        <v>862.37330938713967</v>
+        <v>837.37330938713967</v>
       </c>
       <c r="DE96" s="7">
-        <v>855.00567917162402</v>
+        <v>885.0056791716238</v>
       </c>
       <c r="DF96" s="7">
-        <v>954.28340695083489</v>
+        <v>984.28340695083489</v>
       </c>
       <c r="DG96" s="7">
-        <v>1068.5396342800589</v>
+        <v>1098.5396342800589</v>
       </c>
       <c r="DH96" s="8">
-        <v>1109.9819388424926</v>
+        <v>1123.3152721758261</v>
       </c>
     </row>
     <row r="97" spans="1:112" x14ac:dyDescent="0.35">
@@ -30122,7 +30122,7 @@
         <v>3</v>
       </c>
       <c r="B97" s="9">
-        <v>503.46666666666647</v>
+        <v>503.46666666666664</v>
       </c>
       <c r="C97" s="10">
         <v>418.04186666666646</v>
@@ -30131,7 +30131,7 @@
         <v>505.03973080000003</v>
       </c>
       <c r="E97" s="10">
-        <v>431.8087217105334</v>
+        <v>431.80872171053352</v>
       </c>
       <c r="F97" s="10">
         <v>208.02780123556943</v>
@@ -30143,61 +30143,61 @@
         <v>-81.672215606473401</v>
       </c>
       <c r="I97" s="10">
-        <v>-164.04056554693182</v>
+        <v>-164.0405655469317</v>
       </c>
       <c r="J97" s="10">
         <v>-480.67989730352093</v>
       </c>
       <c r="K97" s="10">
-        <v>-588.85601637925276</v>
+        <v>-830.34930876445424</v>
       </c>
       <c r="L97" s="10">
         <v>-846.73125254333411</v>
       </c>
       <c r="M97" s="10">
-        <v>-804.92730048289309</v>
+        <v>-796.59396714955733</v>
       </c>
       <c r="N97" s="10">
-        <v>-748.27211285390524</v>
+        <v>-738.27211285390297</v>
       </c>
       <c r="O97" s="10">
-        <v>-717.33894920048783</v>
+        <v>-717.33894920048681</v>
       </c>
       <c r="P97" s="10">
-        <v>-685.08006512641646</v>
+        <v>-680.92440102683497</v>
       </c>
       <c r="Q97" s="10">
-        <v>-744.5027206360769</v>
+        <v>-736.16938730274353</v>
       </c>
       <c r="R97" s="10">
-        <v>-807.97824512180171</v>
+        <v>-799.64491178846833</v>
       </c>
       <c r="S97" s="10">
-        <v>-811.84582100135879</v>
+        <v>-798.51248766802541</v>
       </c>
       <c r="T97" s="10">
-        <v>-814.77903339037096</v>
+        <v>-801.4457000570377</v>
       </c>
       <c r="U97" s="10">
-        <v>-814.40531135755089</v>
+        <v>-801.07197802421763</v>
       </c>
       <c r="V97" s="10">
-        <v>-804.05822582643566</v>
+        <v>-790.72489249310229</v>
       </c>
       <c r="W97" s="10">
-        <v>-747.07134985887342</v>
+        <v>-733.73801652554005</v>
       </c>
       <c r="X97" s="10">
-        <v>-710.11159200760324</v>
+        <v>-716.77825867426986</v>
       </c>
       <c r="Y97" s="10">
-        <v>-709.70851134736324</v>
+        <v>-706.37517801402987</v>
       </c>
       <c r="Z97" s="10">
-        <v>-689.61312128282248</v>
+        <v>-686.27978794948922</v>
       </c>
       <c r="AA97" s="11">
-        <v>-626.68487270770106</v>
+        <v>-623.35153937436769</v>
       </c>
       <c r="AD97" t="s">
         <v>3</v>
@@ -30212,73 +30212,73 @@
         <v>426.34428066666715</v>
       </c>
       <c r="AH97" s="10">
-        <v>383.3655754210003</v>
+        <v>383.36557542100013</v>
       </c>
       <c r="AI97" s="10">
-        <v>322.18237871197789</v>
+        <v>298.94070696442185</v>
       </c>
       <c r="AJ97" s="10">
         <v>0.93203043685389275</v>
       </c>
       <c r="AK97" s="10">
-        <v>9.2172847083610918</v>
+        <v>4.7753720441190239</v>
       </c>
       <c r="AL97" s="10">
         <v>-83.908196274150612</v>
       </c>
       <c r="AM97" s="10">
-        <v>-356.44433317086134</v>
+        <v>-356.44433317086151</v>
       </c>
       <c r="AN97" s="10">
-        <v>-782.2928362239993</v>
+        <v>-809.29186550273243</v>
       </c>
       <c r="AO97" s="10">
-        <v>-796.89549229225736</v>
+        <v>-796.89549229225713</v>
       </c>
       <c r="AP97" s="10">
-        <v>-866.05421838955442</v>
+        <v>-877.72088505622094</v>
       </c>
       <c r="AQ97" s="10">
-        <v>-931.84277380074502</v>
+        <v>-915.17610713407601</v>
       </c>
       <c r="AR97" s="10">
-        <v>-845.94391876495126</v>
+        <v>-834.27725209828247</v>
       </c>
       <c r="AS97" s="10">
-        <v>-769.30060678341783</v>
+        <v>-759.3006067834167</v>
       </c>
       <c r="AT97" s="10">
-        <v>-746.41989768879728</v>
+        <v>-734.75323102213054</v>
       </c>
       <c r="AU97" s="10">
-        <v>-838.33887676799645</v>
+        <v>-826.67221010132982</v>
       </c>
       <c r="AV97" s="10">
-        <v>-865.47830166860615</v>
+        <v>-852.14496833527278</v>
       </c>
       <c r="AW97" s="10">
-        <v>-868.8076863836236</v>
+        <v>-855.47435305029023</v>
       </c>
       <c r="AX97" s="10">
-        <v>-868.83370222774295</v>
+        <v>-855.50036889440969</v>
       </c>
       <c r="AY97" s="10">
-        <v>-858.88995221445919</v>
+        <v>-845.55661888112593</v>
       </c>
       <c r="AZ97" s="10">
-        <v>-802.31004178438923</v>
+        <v>-788.97670845105597</v>
       </c>
       <c r="BA97" s="10">
-        <v>-756.97635135820542</v>
+        <v>-778.21213962935883</v>
       </c>
       <c r="BB97" s="10">
-        <v>-697.43704221935604</v>
+        <v>-687.43704221935616</v>
       </c>
       <c r="BC97" s="10">
-        <v>-601.84996893266361</v>
+        <v>-591.84996893266361</v>
       </c>
       <c r="BD97" s="11">
-        <v>-511.45261198639071</v>
+        <v>-501.45261198639071</v>
       </c>
       <c r="BF97" t="s">
         <v>3</v>
@@ -30287,91 +30287,91 @@
         <v>366.23333333333329</v>
       </c>
       <c r="BH97" s="10">
-        <v>200.82693333333359</v>
+        <v>172.36693333333358</v>
       </c>
       <c r="BI97" s="10">
-        <v>179.12697573333369</v>
+        <v>150.66697573333369</v>
       </c>
       <c r="BJ97" s="10">
-        <v>157.23171851493407</v>
+        <v>128.77171851493409</v>
       </c>
       <c r="BK97" s="10">
-        <v>135.13940398156896</v>
+        <v>106.67940398156905</v>
       </c>
       <c r="BL97" s="10">
-        <v>6.0964753110440597</v>
+        <v>-45.926985401823686</v>
       </c>
       <c r="BM97" s="10">
-        <v>-94.696140064728979</v>
+        <v>-80.276140064728907</v>
       </c>
       <c r="BN97" s="10">
-        <v>-82.652645365420838</v>
+        <v>-25.35264536542104</v>
       </c>
       <c r="BO97" s="10">
-        <v>-67.387019173709632</v>
+        <v>-10.087019173709752</v>
       </c>
       <c r="BP97" s="10">
-        <v>-517.11733567960653</v>
+        <v>-459.81733567960657</v>
       </c>
       <c r="BQ97" s="10">
-        <v>-501.57569170072327</v>
+        <v>-444.27569170072331</v>
       </c>
       <c r="BR97" s="10">
-        <v>-602.56083959269756</v>
+        <v>-561.92750625936378</v>
       </c>
       <c r="BS97" s="10">
-        <v>-720.07152048236469</v>
+        <v>-696.10485381569799</v>
       </c>
       <c r="BT97" s="10">
-        <v>-854.10646416670579</v>
+        <v>-813.47313083337281</v>
       </c>
       <c r="BU97" s="10">
-        <v>-971.33105567753978</v>
+        <v>-914.03105567753983</v>
       </c>
       <c r="BV97" s="10">
-        <v>-999.36733056537753</v>
+        <v>-1000</v>
       </c>
       <c r="BW97" s="10">
-        <v>-883.25566720118604</v>
+        <v>-892.42733654046413</v>
       </c>
       <c r="BX97" s="10">
-        <v>-906.99639384267039</v>
+        <v>-833.02972717600392</v>
       </c>
       <c r="BY97" s="10">
-        <v>-977.93336798651967</v>
+        <v>-966.33319472058747</v>
       </c>
       <c r="BZ97" s="10">
-        <v>-978.81173496506494</v>
+        <v>-951.0584016317315</v>
       </c>
       <c r="CA97" s="10">
-        <v>-969.72800724641729</v>
+        <v>-941.97467391308396</v>
       </c>
       <c r="CB97" s="10">
-        <v>-914.01585931163504</v>
+        <v>-886.26252597830171</v>
       </c>
       <c r="CC97" s="10">
-        <v>-874.05381227263751</v>
+        <v>-870.58896871210618</v>
       </c>
       <c r="CD97" s="10">
-        <v>-788.246096583091</v>
+        <v>-796.70609658309104</v>
       </c>
       <c r="CE97" s="10">
-        <v>-648.00744478567242</v>
+        <v>-656.46744478567211</v>
       </c>
       <c r="CF97" s="11">
-        <v>-532.47374057424167</v>
+        <v>-551.60874057424166</v>
       </c>
       <c r="CH97" t="s">
         <v>3</v>
       </c>
       <c r="CI97" s="9">
-        <v>546.4000000000002</v>
+        <v>546.40000000000009</v>
       </c>
       <c r="CJ97" s="10">
-        <v>440.54125283641901</v>
+        <v>453.17685560824316</v>
       </c>
       <c r="CK97" s="10">
-        <v>484.49899473333335</v>
+        <v>484.49899473333346</v>
       </c>
       <c r="CL97" s="10">
         <v>411.16963901926675</v>
@@ -30383,64 +30383,64 @@
         <v>183.90548597570756</v>
       </c>
       <c r="CO97" s="10">
-        <v>-74.567688064622303</v>
+        <v>-74.567688064622132</v>
       </c>
       <c r="CP97" s="10">
-        <v>-246.76616478707763</v>
+        <v>-313.89449810467971</v>
       </c>
       <c r="CQ97" s="10">
-        <v>-472.75621859918567</v>
+        <v>-472.7562185991855</v>
       </c>
       <c r="CR97" s="10">
         <v>-881.18416315013269</v>
       </c>
       <c r="CS97" s="10">
-        <v>-898.19438061848587</v>
+        <v>-898.19438061848348</v>
       </c>
       <c r="CT97" s="10">
-        <v>-833.69102337738559</v>
+        <v>-822.02435671071657</v>
       </c>
       <c r="CU97" s="10">
-        <v>-751.0088025877817</v>
+        <v>-739.43257820907434</v>
       </c>
       <c r="CV97" s="10">
-        <v>-714.81577514440482</v>
+        <v>-707.20726101484286</v>
       </c>
       <c r="CW97" s="10">
         <v>-777.11999303064317</v>
       </c>
       <c r="CX97" s="10">
-        <v>-844.30292388145699</v>
+        <v>-829.30292388145449</v>
       </c>
       <c r="CY97" s="10">
-        <v>-830.93987947717324</v>
+        <v>-817.60654614384214</v>
       </c>
       <c r="CZ97" s="10">
-        <v>-833.95841839247032</v>
+        <v>-820.62508505913695</v>
       </c>
       <c r="DA97" s="10">
-        <v>-837.00412415800247</v>
+        <v>-823.6707908246691</v>
       </c>
       <c r="DB97" s="10">
-        <v>-832.77678098587978</v>
+        <v>-817.77678098587978</v>
       </c>
       <c r="DC97" s="10">
-        <v>-787.71476534808562</v>
+        <v>-772.71476534808562</v>
       </c>
       <c r="DD97" s="10">
-        <v>-686.48685823621827</v>
+        <v>-671.48685823621827</v>
       </c>
       <c r="DE97" s="10">
-        <v>-590.42789996034412</v>
+        <v>-580.42789996034435</v>
       </c>
       <c r="DF97" s="10">
-        <v>-497.87274439332077</v>
+        <v>-487.87274439332077</v>
       </c>
       <c r="DG97" s="10">
-        <v>-400.48959242619384</v>
+        <v>-390.48959242619384</v>
       </c>
       <c r="DH97" s="11">
-        <v>-366.07222090411597</v>
+        <v>-372.73888757078259</v>
       </c>
     </row>
     <row r="99" spans="1:112" x14ac:dyDescent="0.35">
@@ -30476,10 +30476,10 @@
         <v>1</v>
       </c>
       <c r="B101" s="3">
-        <v>-181.3</v>
+        <v>-181.29999999999995</v>
       </c>
       <c r="C101" s="4">
-        <v>84.034300000000101</v>
+        <v>84.034299999999945</v>
       </c>
       <c r="D101" s="4">
         <v>431.4830793666664</v>
@@ -30491,13 +30491,13 @@
         <v>462.34764312469486</v>
       </c>
       <c r="G101" s="4">
-        <v>477.98857191281701</v>
+        <v>477.98857191281684</v>
       </c>
       <c r="H101" s="4">
         <v>717.44167469457625</v>
       </c>
       <c r="I101" s="4">
-        <v>737.07004976682731</v>
+        <v>737.07004976682742</v>
       </c>
       <c r="J101" s="4">
         <v>679.23558021472877</v>
@@ -30506,52 +30506,52 @@
         <v>683.4386004366612</v>
       </c>
       <c r="L101" s="4">
-        <v>482.14611450725783</v>
+        <v>430.81278117392441</v>
       </c>
       <c r="M101" s="4">
-        <v>448.92104210983462</v>
+        <v>452.48436579034768</v>
       </c>
       <c r="N101" s="4">
-        <v>483.38855347245538</v>
+        <v>439.40932237033019</v>
       </c>
       <c r="O101" s="4">
-        <v>450.64444241051876</v>
+        <v>481.64588990849853</v>
       </c>
       <c r="P101" s="4">
-        <v>496.14130949058449</v>
+        <v>462.50314658652513</v>
       </c>
       <c r="Q101" s="4">
-        <v>452.59644930676086</v>
+        <v>479.95537886875996</v>
       </c>
       <c r="R101" s="4">
-        <v>510.0303352755368</v>
+        <v>520.7710393215857</v>
       </c>
       <c r="S101" s="4">
-        <v>535.06990625010394</v>
+        <v>533.16243489428757</v>
       </c>
       <c r="T101" s="4">
-        <v>524.84863527258688</v>
+        <v>522.65651672859144</v>
       </c>
       <c r="U101" s="4">
-        <v>605.68869436762463</v>
+        <v>595.21423730911852</v>
       </c>
       <c r="V101" s="4">
-        <v>609.48494900531659</v>
+        <v>599.82538716399119</v>
       </c>
       <c r="W101" s="4">
-        <v>566.62674994067424</v>
+        <v>557.63998536087865</v>
       </c>
       <c r="X101" s="4">
-        <v>518.43127666708529</v>
+        <v>525.07598814725213</v>
       </c>
       <c r="Y101" s="4">
-        <v>564.46973418460675</v>
+        <v>566.47878373448634</v>
       </c>
       <c r="Z101" s="4">
-        <v>567.43317363074334</v>
+        <v>573.62692891826623</v>
       </c>
       <c r="AA101" s="5">
-        <v>592.93814601553004</v>
+        <v>599.59279102347045</v>
       </c>
       <c r="AD101" s="1" t="s">
         <v>1</v>
@@ -30563,7 +30563,7 @@
         <v>13.202500000000024</v>
       </c>
       <c r="AG101" s="4">
-        <v>387.85714863850853</v>
+        <v>480.31171624664722</v>
       </c>
       <c r="AH101" s="4">
         <v>596.6183627691662</v>
@@ -30587,22 +30587,22 @@
         <v>724.41297148912463</v>
       </c>
       <c r="AO101" s="4">
-        <v>509.49307869974837</v>
+        <v>472.15592156586001</v>
       </c>
       <c r="AP101" s="4">
-        <v>642.00328636458084</v>
+        <v>642.00328636457948</v>
       </c>
       <c r="AQ101" s="4">
-        <v>654.56665475035891</v>
+        <v>584.07959149981912</v>
       </c>
       <c r="AR101" s="4">
-        <v>659.30185464311205</v>
+        <v>659.30185464311194</v>
       </c>
       <c r="AS101" s="4">
-        <v>664.07967133489979</v>
+        <v>664.07967133490001</v>
       </c>
       <c r="AT101" s="4">
-        <v>667.12012820308496</v>
+        <v>668.90048837691415</v>
       </c>
       <c r="AU101" s="4">
         <v>673.76469277230615</v>
@@ -30611,7 +30611,7 @@
         <v>678.672675007257</v>
       </c>
       <c r="AW101" s="4">
-        <v>683.62482908232221</v>
+        <v>683.62482908232209</v>
       </c>
       <c r="AX101" s="4">
         <v>688.62155254406298</v>
@@ -30620,7 +30620,7 @@
         <v>693.6632465169597</v>
       </c>
       <c r="AZ101" s="4">
-        <v>698.75031573561193</v>
+        <v>698.75031573561228</v>
       </c>
       <c r="BA101" s="4">
         <v>703.8831685772326</v>
@@ -30629,7 +30629,7 @@
         <v>709.06221709442764</v>
       </c>
       <c r="BC101" s="4">
-        <v>714.28787704827732</v>
+        <v>714.28787704827755</v>
       </c>
       <c r="BD101" s="5">
         <v>719.56056794171184</v>
@@ -30650,13 +30650,13 @@
         <v>678.1495016451172</v>
       </c>
       <c r="BK101" s="4">
-        <v>668.11584715992331</v>
+        <v>668.11584715992342</v>
       </c>
       <c r="BL101" s="4">
         <v>657.9918897843628</v>
       </c>
       <c r="BM101" s="4">
-        <v>670.11015012575558</v>
+        <v>701.11015012575558</v>
       </c>
       <c r="BN101" s="4">
         <v>690.8031414768875</v>
@@ -30665,13 +30665,13 @@
         <v>680.40336975017954</v>
       </c>
       <c r="BP101" s="4">
-        <v>669.91000007793127</v>
+        <v>665.1274172850749</v>
       </c>
       <c r="BQ101" s="4">
-        <v>594.52651303458231</v>
+        <v>767.59317970124903</v>
       </c>
       <c r="BR101" s="4">
-        <v>773.34561831856035</v>
+        <v>773.34561831856024</v>
       </c>
       <c r="BS101" s="4">
         <v>779.14982888342706</v>
@@ -30683,10 +30683,10 @@
         <v>790.91543383946828</v>
       </c>
       <c r="BV101" s="4">
-        <v>796.87777274402333</v>
+        <v>796.87777274402345</v>
       </c>
       <c r="BW101" s="4">
-        <v>802.89377269871954</v>
+        <v>802.89377269871966</v>
       </c>
       <c r="BX101" s="4">
         <v>808.96391665300803</v>
@@ -30701,7 +30701,7 @@
         <v>827.50410744118085</v>
       </c>
       <c r="CB101" s="4">
-        <v>833.79574440815145</v>
+        <v>833.79574440815122</v>
       </c>
       <c r="CC101" s="4">
         <v>840.14400610782468</v>
@@ -30722,7 +30722,7 @@
         <v>-175</v>
       </c>
       <c r="CJ101" s="4">
-        <v>72.229000000000113</v>
+        <v>72.228999999999957</v>
       </c>
       <c r="CK101" s="4">
         <v>206.1249943333336</v>
@@ -30737,10 +30737,10 @@
         <v>503.40193285841315</v>
       </c>
       <c r="CO101" s="4">
-        <v>724.08962167082586</v>
+        <v>724.08962167082609</v>
       </c>
       <c r="CP101" s="4">
-        <v>743.77782826586338</v>
+        <v>743.77782826586349</v>
       </c>
       <c r="CQ101" s="4">
         <v>686.00372872025605</v>
@@ -30749,52 +30749,52 @@
         <v>690.2676622787385</v>
       </c>
       <c r="CS101" s="4">
-        <v>437.70330457258041</v>
+        <v>443.68894834585592</v>
       </c>
       <c r="CT101" s="4">
-        <v>507.91862282916389</v>
+        <v>507.91862282916264</v>
       </c>
       <c r="CU101" s="4">
-        <v>521.47995710129283</v>
+        <v>524.81329043462495</v>
       </c>
       <c r="CV101" s="4">
-        <v>538.52667671520419</v>
+        <v>538.52667671520294</v>
       </c>
       <c r="CW101" s="4">
-        <v>552.39348347230748</v>
+        <v>542.39348347230623</v>
       </c>
       <c r="CX101" s="4">
-        <v>569.74842482355791</v>
+        <v>556.4150914902234</v>
       </c>
       <c r="CY101" s="4">
-        <v>587.25956064696629</v>
+        <v>573.92622731363531</v>
       </c>
       <c r="CZ101" s="4">
-        <v>604.92829669279138</v>
+        <v>591.59496335945801</v>
       </c>
       <c r="DA101" s="4">
-        <v>622.75605136302602</v>
+        <v>609.42271802969276</v>
       </c>
       <c r="DB101" s="4">
-        <v>637.41092249195992</v>
+        <v>624.07758915862667</v>
       </c>
       <c r="DC101" s="4">
-        <v>642.22768746105419</v>
+        <v>628.89435412772082</v>
       </c>
       <c r="DD101" s="4">
-        <v>600.54113664820352</v>
+        <v>587.20780331487015</v>
       </c>
       <c r="DE101" s="4">
-        <v>579.01940687803688</v>
+        <v>585.6860735447035</v>
       </c>
       <c r="DF101" s="4">
-        <v>594.3306482066057</v>
+        <v>600.99731487327244</v>
       </c>
       <c r="DG101" s="4">
-        <v>613.14302404046498</v>
+        <v>619.80969070713172</v>
       </c>
       <c r="DH101" s="5">
-        <v>628.79137792349547</v>
+        <v>635.45804459016222</v>
       </c>
     </row>
     <row r="102" spans="1:112" x14ac:dyDescent="0.35">
@@ -30802,7 +30802,7 @@
         <v>2</v>
       </c>
       <c r="B102" s="6">
-        <v>-196.29999999999998</v>
+        <v>-196.30000000000004</v>
       </c>
       <c r="C102" s="7">
         <v>-647.39870000000008</v>
@@ -30817,7 +30817,7 @@
         <v>-818.63121960644753</v>
       </c>
       <c r="G102" s="7">
-        <v>-820.36910058290562</v>
+        <v>-820.3691005829055</v>
       </c>
       <c r="H102" s="7">
         <v>-598.45121685360755</v>
@@ -30832,52 +30832,52 @@
         <v>-500.01254429188697</v>
       </c>
       <c r="L102" s="7">
-        <v>86.61990947615277</v>
+        <v>189.2865761428194</v>
       </c>
       <c r="M102" s="7">
-        <v>189.05620123344954</v>
+        <v>192.61952491396278</v>
       </c>
       <c r="N102" s="7">
-        <v>205.02002902818373</v>
+        <v>161.0407979260583</v>
       </c>
       <c r="O102" s="7">
-        <v>153.60570124624863</v>
+        <v>184.6071487442286</v>
       </c>
       <c r="P102" s="7">
-        <v>180.26431965583618</v>
+        <v>146.62615675177688</v>
       </c>
       <c r="Q102" s="7">
-        <v>117.71166656350022</v>
+        <v>145.07059612549926</v>
       </c>
       <c r="R102" s="7">
-        <v>155.96668948758708</v>
+        <v>166.70739353363604</v>
       </c>
       <c r="S102" s="7">
-        <v>161.6547876500631</v>
+        <v>159.74731629424662</v>
       </c>
       <c r="T102" s="7">
-        <v>131.90788060514549</v>
+        <v>129.71576206115037</v>
       </c>
       <c r="U102" s="7">
-        <v>193.04657290817639</v>
+        <v>182.57211584967058</v>
       </c>
       <c r="V102" s="7">
-        <v>176.96414845273364</v>
+        <v>167.30458661140847</v>
       </c>
       <c r="W102" s="7">
-        <v>114.04836218311851</v>
+        <v>105.06159760332241</v>
       </c>
       <c r="X102" s="7">
-        <v>45.614783419710989</v>
+        <v>52.259494899878064</v>
       </c>
       <c r="Y102" s="7">
-        <v>71.232992498006638</v>
+        <v>73.24204204788623</v>
       </c>
       <c r="Z102" s="7">
-        <v>53.59240126896384</v>
+        <v>59.786156556486503</v>
       </c>
       <c r="AA102" s="8">
-        <v>58.307906702494734</v>
+        <v>64.962551710435037</v>
       </c>
       <c r="AD102" t="s">
         <v>2</v>
@@ -30889,7 +30889,7 @@
         <v>-554.77250000000015</v>
       </c>
       <c r="AG102" s="7">
-        <v>-735.66366556925448</v>
+        <v>-781.89094937332379</v>
       </c>
       <c r="AH102" s="7">
         <v>-833.55018845583322</v>
@@ -30913,22 +30913,22 @@
         <v>-634.6426206071236</v>
       </c>
       <c r="AO102" s="7">
-        <v>-21.229485127031126</v>
+        <v>53.444829140745696</v>
       </c>
       <c r="AP102" s="7">
-        <v>203.35889410764037</v>
+        <v>203.35889410763923</v>
       </c>
       <c r="AQ102" s="7">
-        <v>195.80956296310652</v>
+        <v>125.32249971256658</v>
       </c>
       <c r="AR102" s="7">
-        <v>180.25104902977455</v>
+        <v>180.25104902977478</v>
       </c>
       <c r="AS102" s="7">
-        <v>164.55250847104293</v>
+        <v>164.55250847104287</v>
       </c>
       <c r="AT102" s="7">
-        <v>146.93232087345308</v>
+        <v>148.71268104728233</v>
       </c>
       <c r="AU102" s="7">
         <v>132.7302951767083</v>
@@ -30937,16 +30937,16 @@
         <v>116.60406783329859</v>
       </c>
       <c r="AW102" s="7">
-        <v>100.33270444379833</v>
+        <v>100.33270444379855</v>
       </c>
       <c r="AX102" s="7">
-        <v>83.914898783792736</v>
+        <v>83.914898783792751</v>
       </c>
       <c r="AY102" s="7">
         <v>67.349332872846958</v>
       </c>
       <c r="AZ102" s="7">
-        <v>50.634676868702911</v>
+        <v>50.634676868702741</v>
       </c>
       <c r="BA102" s="7">
         <v>33.769588960521446</v>
@@ -30955,7 +30955,7 @@
         <v>16.752715261166486</v>
       </c>
       <c r="BC102" s="7">
-        <v>-0.41731030148283327</v>
+        <v>-0.41731030148321224</v>
       </c>
       <c r="BD102" s="8">
         <v>-17.741866094195984</v>
@@ -30982,7 +30982,7 @@
         <v>-675.55862510262818</v>
       </c>
       <c r="BM102" s="7">
-        <v>-706.86711939521877</v>
+        <v>-722.36711939521877</v>
       </c>
       <c r="BN102" s="7">
         <v>-708.88872346977587</v>
@@ -30991,34 +30991,34 @@
         <v>-695.289021981004</v>
       </c>
       <c r="BP102" s="7">
-        <v>-681.56692317883324</v>
+        <v>-672.00175759312049</v>
       </c>
       <c r="BQ102" s="7">
-        <v>-348.62997139934214</v>
+        <v>-175.56330473267553</v>
       </c>
       <c r="BR102" s="7">
-        <v>-194.46417447526932</v>
+        <v>-194.46417447526937</v>
       </c>
       <c r="BS102" s="7">
-        <v>-213.53515204554662</v>
+        <v>-213.53515204554651</v>
       </c>
       <c r="BT102" s="7">
-        <v>-232.77776841395621</v>
+        <v>-232.77776841395627</v>
       </c>
       <c r="BU102" s="7">
-        <v>-252.19356832968157</v>
+        <v>-252.19356832968151</v>
       </c>
       <c r="BV102" s="7">
-        <v>-271.78411044464843</v>
+        <v>-271.78411044464838</v>
       </c>
       <c r="BW102" s="7">
-        <v>-291.55096743865005</v>
+        <v>-291.55096743864988</v>
       </c>
       <c r="BX102" s="7">
         <v>-311.4957261455977</v>
       </c>
       <c r="BY102" s="7">
-        <v>-331.61998768090751</v>
+        <v>-331.61998768090757</v>
       </c>
       <c r="BZ102" s="7">
         <v>-351.92536757003575</v>
@@ -31027,7 +31027,7 @@
         <v>-372.41349587816569</v>
       </c>
       <c r="CB102" s="7">
-        <v>-393.08601734106901</v>
+        <v>-393.08601734106867</v>
       </c>
       <c r="CC102" s="7">
         <v>-413.94459149713839</v>
@@ -31063,7 +31063,7 @@
         <v>-823.19280735463849</v>
       </c>
       <c r="CO102" s="7">
-        <v>-620.29447120414272</v>
+        <v>-620.29447120414284</v>
       </c>
       <c r="CP102" s="7">
         <v>-618.55572144498001</v>
@@ -31075,52 +31075,52 @@
         <v>-522.4508903444264</v>
       </c>
       <c r="CS102" s="7">
-        <v>166.6462849758073</v>
+        <v>172.63192874908304</v>
       </c>
       <c r="CT102" s="7">
-        <v>218.25719005602002</v>
+        <v>218.25719005601889</v>
       </c>
       <c r="CU102" s="7">
-        <v>213.04667143319102</v>
+        <v>216.38000476652314</v>
       </c>
       <c r="CV102" s="7">
-        <v>211.15259147608958</v>
+        <v>211.15259147608845</v>
       </c>
       <c r="CW102" s="7">
-        <v>205.90813146604114</v>
+        <v>195.90813146604</v>
       </c>
       <c r="CX102" s="7">
-        <v>203.97980464923558</v>
+        <v>190.64647131590107</v>
       </c>
       <c r="CY102" s="7">
-        <v>202.03412289107496</v>
+        <v>188.7007895577442</v>
       </c>
       <c r="CZ102" s="7">
-        <v>200.07092999709721</v>
+        <v>186.73759666376384</v>
       </c>
       <c r="DA102" s="7">
-        <v>198.09006836707101</v>
+        <v>184.75673503373775</v>
       </c>
       <c r="DB102" s="7">
-        <v>192.75804564904138</v>
+        <v>179.42471231570812</v>
       </c>
       <c r="DC102" s="7">
-        <v>177.40803472654943</v>
+        <v>164.07470139321606</v>
       </c>
       <c r="DD102" s="7">
-        <v>115.37320703908836</v>
+        <v>102.0398737057551</v>
       </c>
       <c r="DE102" s="7">
-        <v>73.320065902440319</v>
+        <v>79.986732569106948</v>
       </c>
       <c r="DF102" s="7">
-        <v>67.915113162228977</v>
+        <v>74.581779828895606</v>
       </c>
       <c r="DG102" s="7">
-        <v>65.824849180689057</v>
+        <v>72.491515847355686</v>
       </c>
       <c r="DH102" s="8">
-        <v>60.382439489981948</v>
+        <v>67.049106156648577</v>
       </c>
     </row>
     <row r="103" spans="1:112" x14ac:dyDescent="0.35">
@@ -31128,7 +31128,7 @@
         <v>3</v>
       </c>
       <c r="B103" s="9">
-        <v>377.59999999999997</v>
+        <v>377.6</v>
       </c>
       <c r="C103" s="10">
         <v>563.36440000000005</v>
@@ -31143,10 +31143,10 @@
         <v>356.28357648175285</v>
       </c>
       <c r="G103" s="10">
-        <v>342.38052867008867</v>
+        <v>342.38052867008878</v>
       </c>
       <c r="H103" s="10">
-        <v>-118.9904578409687</v>
+        <v>-118.99045784096876</v>
       </c>
       <c r="I103" s="10">
         <v>-140.55417196153735</v>
@@ -31158,52 +31158,52 @@
         <v>-183.42605614477424</v>
       </c>
       <c r="L103" s="10">
-        <v>-568.76602398341061</v>
+        <v>-620.09935731674398</v>
       </c>
       <c r="M103" s="10">
-        <v>-637.97724334328427</v>
+        <v>-645.10389070431052</v>
       </c>
       <c r="N103" s="10">
-        <v>-688.40858250063911</v>
+        <v>-600.45012029638838</v>
       </c>
       <c r="O103" s="10">
-        <v>-604.25014365676736</v>
+        <v>-666.25303865272713</v>
       </c>
       <c r="P103" s="10">
-        <v>-676.40562914642055</v>
+        <v>-609.12930333830218</v>
       </c>
       <c r="Q103" s="10">
-        <v>-570.30811587026108</v>
+        <v>-625.02597499425929</v>
       </c>
       <c r="R103" s="10">
-        <v>-665.99702476312405</v>
+        <v>-687.47843285522185</v>
       </c>
       <c r="S103" s="10">
-        <v>-696.72469390016704</v>
+        <v>-692.90975118853419</v>
       </c>
       <c r="T103" s="10">
-        <v>-656.75651587773234</v>
+        <v>-652.37227878974181</v>
       </c>
       <c r="U103" s="10">
-        <v>-798.73526727580099</v>
+        <v>-777.7863531587891</v>
       </c>
       <c r="V103" s="10">
-        <v>-786.44909745805023</v>
+        <v>-767.12997377539955</v>
       </c>
       <c r="W103" s="10">
-        <v>-680.67511212379281</v>
+        <v>-662.70158296420118</v>
       </c>
       <c r="X103" s="10">
-        <v>-564.04606008679639</v>
+        <v>-577.33548304713008</v>
       </c>
       <c r="Y103" s="10">
-        <v>-635.70272668261339</v>
+        <v>-639.72082578237246</v>
       </c>
       <c r="Z103" s="10">
-        <v>-621.02557489970718</v>
+        <v>-633.41308547475296</v>
       </c>
       <c r="AA103" s="11">
-        <v>-651.24605271802477</v>
+        <v>-664.55534273390549</v>
       </c>
       <c r="AD103" t="s">
         <v>3</v>
@@ -31215,7 +31215,7 @@
         <v>541.57000000000005</v>
       </c>
       <c r="AG103" s="10">
-        <v>347.80651693074594</v>
+        <v>301.57923312667663</v>
       </c>
       <c r="AH103" s="10">
         <v>236.93182568666725</v>
@@ -31239,22 +31239,22 @@
         <v>-89.770350882001026</v>
       </c>
       <c r="AO103" s="10">
-        <v>-488.26359357271724</v>
+        <v>-525.60075070660582</v>
       </c>
       <c r="AP103" s="10">
-        <v>-845.36218047222121</v>
+        <v>-845.36218047221871</v>
       </c>
       <c r="AQ103" s="10">
-        <v>-850.37621771346551</v>
+        <v>-709.4020912123857</v>
       </c>
       <c r="AR103" s="10">
-        <v>-839.55290367288683</v>
+        <v>-839.55290367288671</v>
       </c>
       <c r="AS103" s="10">
-        <v>-828.63217980594277</v>
+        <v>-828.63217980594288</v>
       </c>
       <c r="AT103" s="10">
-        <v>-814.0524490765381</v>
+        <v>-817.61316942419649</v>
       </c>
       <c r="AU103" s="10">
         <v>-806.49498794901444</v>
@@ -31263,7 +31263,7 @@
         <v>-795.27674284055547</v>
       </c>
       <c r="AW103" s="10">
-        <v>-783.95753352612076</v>
+        <v>-783.95753352612064</v>
       </c>
       <c r="AX103" s="10">
         <v>-772.53645132785596</v>
@@ -31272,7 +31272,7 @@
         <v>-761.01257938980677</v>
       </c>
       <c r="AZ103" s="10">
-        <v>-749.3849926043149</v>
+        <v>-749.38499260431502</v>
       </c>
       <c r="BA103" s="10">
         <v>-737.65275753775416</v>
@@ -31281,7 +31281,7 @@
         <v>-725.81493235559401</v>
       </c>
       <c r="BC103" s="10">
-        <v>-713.87056674679457</v>
+        <v>-713.87056674679434</v>
       </c>
       <c r="BD103" s="11">
         <v>-701.81870184751585</v>
@@ -31308,7 +31308,7 @@
         <v>17.566735318265501</v>
       </c>
       <c r="BM103" s="10">
-        <v>36.756969269463184</v>
+        <v>21.256969269463184</v>
       </c>
       <c r="BN103" s="10">
         <v>18.085581992888422</v>
@@ -31317,28 +31317,28 @@
         <v>14.885652230824462</v>
       </c>
       <c r="BP103" s="10">
-        <v>11.656923100901963</v>
+        <v>6.8743403080455323</v>
       </c>
       <c r="BQ103" s="10">
-        <v>-245.89654163524017</v>
+        <v>-592.02987496857349</v>
       </c>
       <c r="BR103" s="10">
-        <v>-578.88144384329098</v>
+        <v>-578.88144384329087</v>
       </c>
       <c r="BS103" s="10">
         <v>-565.61467683788055</v>
       </c>
       <c r="BT103" s="10">
-        <v>-552.22850892942176</v>
+        <v>-552.22850892942165</v>
       </c>
       <c r="BU103" s="10">
-        <v>-538.72186550978665</v>
+        <v>-538.72186550978677</v>
       </c>
       <c r="BV103" s="10">
         <v>-525.09366229937518</v>
       </c>
       <c r="BW103" s="10">
-        <v>-511.34280526006967</v>
+        <v>-511.34280526006955</v>
       </c>
       <c r="BX103" s="10">
         <v>-497.46819050741033</v>
@@ -31347,13 +31347,13 @@
         <v>-483.4687042219773</v>
       </c>
       <c r="BZ103" s="10">
-        <v>-469.34322255997517</v>
+        <v>-469.34322255997506</v>
       </c>
       <c r="CA103" s="10">
         <v>-455.09061156301516</v>
       </c>
       <c r="CB103" s="10">
-        <v>-440.70972706708244</v>
+        <v>-440.70972706708255</v>
       </c>
       <c r="CC103" s="10">
         <v>-426.19941461068629</v>
@@ -31389,7 +31389,7 @@
         <v>319.79087449622557</v>
       </c>
       <c r="CO103" s="10">
-        <v>-103.79515046668314</v>
+        <v>-103.79515046668325</v>
       </c>
       <c r="CP103" s="10">
         <v>-125.22210682088348</v>
@@ -31401,52 +31401,52 @@
         <v>-167.8167719343121</v>
       </c>
       <c r="CS103" s="10">
-        <v>-604.34958954838771</v>
+        <v>-616.32087709493908</v>
       </c>
       <c r="CT103" s="10">
-        <v>-726.17581288518397</v>
+        <v>-726.17581288518147</v>
       </c>
       <c r="CU103" s="10">
-        <v>-734.52662853448373</v>
+        <v>-741.19329520114798</v>
       </c>
       <c r="CV103" s="10">
-        <v>-749.67926819129389</v>
+        <v>-749.67926819129138</v>
       </c>
       <c r="CW103" s="10">
-        <v>-758.30161493834862</v>
+        <v>-738.30161493834612</v>
       </c>
       <c r="CX103" s="10">
-        <v>-773.7282294727936</v>
+        <v>-747.06156280612447</v>
       </c>
       <c r="CY103" s="10">
-        <v>-789.29368353804148</v>
+        <v>-762.62701687137951</v>
       </c>
       <c r="CZ103" s="10">
-        <v>-804.99922668988847</v>
+        <v>-778.33256002322184</v>
       </c>
       <c r="DA103" s="10">
-        <v>-820.84611973009714</v>
+        <v>-794.17945306343051</v>
       </c>
       <c r="DB103" s="10">
-        <v>-830.1689681410013</v>
+        <v>-803.50230147433467</v>
       </c>
       <c r="DC103" s="10">
-        <v>-819.63572218760351</v>
+        <v>-792.96905552093688</v>
       </c>
       <c r="DD103" s="10">
-        <v>-715.91434368729188</v>
+        <v>-689.24767702062513</v>
       </c>
       <c r="DE103" s="10">
-        <v>-652.33947278047708</v>
+        <v>-665.67280611381045</v>
       </c>
       <c r="DF103" s="10">
-        <v>-662.24576136883468</v>
+        <v>-675.57909470216805</v>
       </c>
       <c r="DG103" s="10">
-        <v>-678.96787322115404</v>
+        <v>-692.30120655448741</v>
       </c>
       <c r="DH103" s="11">
-        <v>-689.17381741347742</v>
+        <v>-702.50715074681079</v>
       </c>
     </row>
     <row r="105" spans="1:112" x14ac:dyDescent="0.35">
@@ -31537,86 +31537,86 @@
         <v>6</v>
       </c>
       <c r="B106" s="15">
-        <v>876133.03728686459</v>
+        <v>879825.87329377746</v>
       </c>
       <c r="C106" s="16">
-        <v>702827.31363933883</v>
+        <v>704365.92678483692</v>
       </c>
       <c r="D106" s="16">
-        <v>630868.84300903464</v>
+        <v>632872.97857124964</v>
       </c>
       <c r="E106" s="16">
-        <v>572920.97237509466</v>
+        <v>574863.67959270917</v>
       </c>
       <c r="F106" s="16">
-        <v>522449.70427177247</v>
+        <v>524220.43305176595</v>
       </c>
       <c r="G106" s="16">
-        <v>476811.91480358806</v>
+        <v>478456.70799985348</v>
       </c>
       <c r="H106" s="16">
-        <v>437530.67631837301</v>
+        <v>439591.1536114224</v>
       </c>
       <c r="I106" s="16">
-        <v>411988.46139841556</v>
+        <v>415254.34295159124</v>
       </c>
       <c r="J106" s="16">
-        <v>395415.67974242591</v>
+        <v>398706.59912379994</v>
       </c>
       <c r="K106" s="16">
-        <v>384032.63473732164</v>
+        <v>387755.68312656414</v>
       </c>
       <c r="L106" s="16">
-        <v>379537.00154347741</v>
+        <v>385050.20314327115</v>
       </c>
       <c r="M106" s="16">
-        <v>7516418.8037147485</v>
+        <v>8540384.6987172831</v>
       </c>
       <c r="N106" s="16">
-        <v>10359747.221321896</v>
+        <v>10987203.587902743</v>
       </c>
       <c r="O106" s="16">
-        <v>11927565.832412938</v>
+        <v>12024515.123985283</v>
       </c>
       <c r="P106" s="16">
-        <v>12693648.433003373</v>
+        <v>13619896.10670343</v>
       </c>
       <c r="Q106" s="16">
-        <v>13613368.047390465</v>
+        <v>13640640.092308564</v>
       </c>
       <c r="R106" s="16">
-        <v>14137776.545545856</v>
+        <v>14286100.651059719</v>
       </c>
       <c r="S106" s="16">
-        <v>14454227.374968212</v>
+        <v>14588900.488033794</v>
       </c>
       <c r="T106" s="16">
-        <v>14596207.763566781</v>
+        <v>14718630.564376092</v>
       </c>
       <c r="U106" s="16">
-        <v>14418416.163190305</v>
+        <v>14529616.858287061</v>
       </c>
       <c r="V106" s="16">
-        <v>14625609.03365072</v>
+        <v>14726708.686652685</v>
       </c>
       <c r="W106" s="16">
-        <v>15090751.59438223</v>
+        <v>15182666.315315859</v>
       </c>
       <c r="X106" s="16">
-        <v>14306289.661264878</v>
+        <v>14105362.463978609</v>
       </c>
       <c r="Y106" s="16">
-        <v>13525414.773928788</v>
+        <v>13638694.180574922</v>
       </c>
       <c r="Z106" s="16">
-        <v>13268046.916320072</v>
+        <v>13371058.353913194</v>
       </c>
       <c r="AA106" s="17">
-        <v>12794289.34515195</v>
+        <v>12887938.807430813</v>
       </c>
       <c r="AB106" s="18">
         <f>SUM(TotalCost)</f>
-        <v>203118293.74893895</v>
+        <v>206669280.56049091</v>
       </c>
     </row>
     <row r="108" spans="1:112" x14ac:dyDescent="0.35">
@@ -31884,86 +31884,86 @@
         <v>10</v>
       </c>
       <c r="B111" s="6">
-        <v>93184942083.640488</v>
+        <v>93194669484.472702</v>
       </c>
       <c r="C111" s="7">
-        <v>88158322663.787918</v>
+        <v>88167525345.273468</v>
       </c>
       <c r="D111" s="7">
-        <v>83402851159.328796</v>
+        <v>83411557426.088593</v>
       </c>
       <c r="E111" s="7">
-        <v>78903901200.951813</v>
+        <v>78912137830.787552</v>
       </c>
       <c r="F111" s="7">
-        <v>74647635400.809586</v>
+        <v>74655427727.064072</v>
       </c>
       <c r="G111" s="7">
-        <v>70620962792.964951</v>
+        <v>70628334782.439682</v>
       </c>
       <c r="H111" s="7">
-        <v>66811498569.601715</v>
+        <v>66818472896.271408</v>
       </c>
       <c r="I111" s="7">
-        <v>63207525989.160828</v>
+        <v>63214124103.911575</v>
       </c>
       <c r="J111" s="7">
-        <v>59797960339.243118</v>
+        <v>59804202535.848732</v>
       </c>
       <c r="K111" s="7">
-        <v>56572314843.439529</v>
+        <v>56578220320.978966</v>
       </c>
       <c r="L111" s="7">
-        <v>53520668407.228775</v>
+        <v>53526255329.136589</v>
       </c>
       <c r="M111" s="7">
-        <v>50633635103.738678</v>
+        <v>50638920653.670174</v>
       </c>
       <c r="N111" s="7">
-        <v>47902335305.518761</v>
+        <v>47907335740.201637</v>
       </c>
       <c r="O111" s="7">
-        <v>45318368373.534348</v>
+        <v>45323099072.769386</v>
       </c>
       <c r="P111" s="7">
-        <v>42873786819.381805</v>
+        <v>42878262333.346428</v>
       </c>
       <c r="Q111" s="7">
-        <v>40561071861.255981</v>
+        <v>40565305955.256119</v>
       </c>
       <c r="R111" s="7">
-        <v>38373110298.487366</v>
+        <v>38377115995.295311</v>
       </c>
       <c r="S111" s="7">
-        <v>36303172633.52224</v>
+        <v>36306962253.430695</v>
       </c>
       <c r="T111" s="7">
-        <v>34344892374.055729</v>
+        <v>34348477572.771233</v>
       </c>
       <c r="U111" s="7">
-        <v>32492246451.657463</v>
+        <v>32495638256.149776</v>
       </c>
       <c r="V111" s="7">
-        <v>30739536696.663574</v>
+        <v>30742745539.081242</v>
       </c>
       <c r="W111" s="7">
-        <v>29081372312.357468</v>
+        <v>29084408062.113907</v>
       </c>
       <c r="X111" s="7">
-        <v>27512653294.535355</v>
+        <v>27515525288.664135</v>
       </c>
       <c r="Y111" s="7">
-        <v>26028554745.460209</v>
+        <v>26031271817.332901</v>
       </c>
       <c r="Z111" s="7">
-        <v>24624512033.958698</v>
+        <v>24627082540.453606</v>
       </c>
       <c r="AA111" s="8">
-        <v>23296206756.018089</v>
+        <v>23298638603.223442</v>
       </c>
       <c r="AB111" s="13">
         <f t="shared" si="0"/>
-        <v>1318914038510.3032</v>
+        <v>1319051717466.0334</v>
       </c>
     </row>
     <row r="112" spans="1:112" x14ac:dyDescent="0.35">

--- a/717A11_output.xlsx
+++ b/717A11_output.xlsx
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="K3" s="4">
-        <v>362.23993857780215</v>
+        <v>362.23993857780226</v>
       </c>
       <c r="L3" s="4">
-        <v>403.194798025002</v>
+        <v>403.19479802500211</v>
       </c>
       <c r="M3" s="4">
-        <v>244.51825120722663</v>
+        <v>244.51825120722646</v>
       </c>
       <c r="N3" s="4">
-        <v>61.213615468090836</v>
+        <v>61.213615468090566</v>
       </c>
       <c r="O3" s="4">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>519.20000000000005</v>
       </c>
       <c r="AQ3" s="4">
-        <v>436.81360116852329</v>
+        <v>436.81360116852358</v>
       </c>
       <c r="AR3" s="4">
-        <v>194.56646357903946</v>
+        <v>194.56646357903963</v>
       </c>
       <c r="AS3" s="4">
         <v>0</v>
@@ -1243,10 +1243,10 @@
         <v>519.20000000000005</v>
       </c>
       <c r="BV3" s="4">
-        <v>472.5339972320412</v>
+        <v>472.53399723204257</v>
       </c>
       <c r="BW3" s="4">
-        <v>110.77500801782662</v>
+        <v>110.77500801782816</v>
       </c>
       <c r="BX3" s="4">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>451.00040787533175</v>
       </c>
       <c r="CS3" s="4">
-        <v>493.52595154620889</v>
+        <v>493.52595154620877</v>
       </c>
       <c r="CT3" s="4">
-        <v>256.43422511012466</v>
+        <v>256.43422511012511</v>
       </c>
       <c r="CU3" s="4">
         <v>0</v>
@@ -1515,10 +1515,10 @@
         <v>665.6</v>
       </c>
       <c r="BC4" s="7">
-        <v>556.3815889983257</v>
+        <v>556.38158899832615</v>
       </c>
       <c r="BD4" s="8">
-        <v>284.55486329931</v>
+        <v>284.55486329931023</v>
       </c>
       <c r="BF4">
         <v>2</v>
@@ -1530,10 +1530,10 @@
         <v>406.40599999999944</v>
       </c>
       <c r="BI4" s="7">
-        <v>460.65589399999902</v>
+        <v>460.65589399999891</v>
       </c>
       <c r="BJ4" s="7">
-        <v>515.39403704599704</v>
+        <v>515.39403704599715</v>
       </c>
       <c r="BK4" s="7">
         <v>570.6248233794106</v>
@@ -1596,7 +1596,7 @@
         <v>665.6</v>
       </c>
       <c r="CE4" s="7">
-        <v>450.42527863084797</v>
+        <v>450.42527863084842</v>
       </c>
       <c r="CF4" s="8">
         <v>132.51623249502018</v>
@@ -1671,13 +1671,13 @@
         <v>665.6</v>
       </c>
       <c r="DE4" s="7">
-        <v>631.99308323419382</v>
+        <v>631.99308323419473</v>
       </c>
       <c r="DF4" s="7">
-        <v>354.77186098330185</v>
+        <v>354.77186098330219</v>
       </c>
       <c r="DG4" s="7">
-        <v>52.980647732151283</v>
+        <v>52.980647732151681</v>
       </c>
       <c r="DH4" s="8">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>46.5</v>
       </c>
       <c r="Y5" s="7">
-        <v>16.087945035074881</v>
+        <v>16.08794503507545</v>
       </c>
       <c r="Z5" s="7">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>46.5</v>
       </c>
       <c r="DB5" s="7">
-        <v>29.598619131365922</v>
+        <v>29.598619131366718</v>
       </c>
       <c r="DC5" s="7">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="AF6" s="7">
-        <v>48.524999999999054</v>
+        <v>48.524999999999068</v>
       </c>
       <c r="AG6" s="7">
-        <v>91.795964999998759</v>
+        <v>91.795964999998773</v>
       </c>
       <c r="AH6" s="7">
         <v>212</v>
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="7">
-        <v>37.141121383275362</v>
+        <v>37.141121383275348</v>
       </c>
       <c r="H7" s="7">
         <v>464</v>
@@ -2412,10 +2412,10 @@
         <v>464</v>
       </c>
       <c r="Z7" s="7">
-        <v>343.51613654038965</v>
+        <v>343.51613654039068</v>
       </c>
       <c r="AA7" s="8">
-        <v>155.3621817692524</v>
+        <v>155.36218176925343</v>
       </c>
       <c r="AD7">
         <v>5</v>
@@ -2487,10 +2487,10 @@
         <v>464</v>
       </c>
       <c r="BA7" s="7">
-        <v>460.85368240673006</v>
+        <v>460.8536824067312</v>
       </c>
       <c r="BB7" s="7">
-        <v>188.08260554839035</v>
+        <v>188.08260554839114</v>
       </c>
       <c r="BC7" s="7">
         <v>0</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="BL7" s="7">
-        <v>351.69841884750542</v>
+        <v>231.94070848311912</v>
       </c>
       <c r="BM7" s="7">
         <v>464</v>
@@ -2571,7 +2571,7 @@
         <v>464</v>
       </c>
       <c r="CD7" s="7">
-        <v>218.75524145772761</v>
+        <v>218.7552414577284</v>
       </c>
       <c r="CE7" s="7">
         <v>0</v>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="CN7" s="7">
-        <v>0</v>
+        <v>119.75771036438744</v>
       </c>
       <c r="CO7" s="7">
         <v>464</v>
@@ -2643,10 +2643,10 @@
         <v>464</v>
       </c>
       <c r="DC7" s="7">
-        <v>322.11024670354755</v>
+        <v>322.11024670354874</v>
       </c>
       <c r="DD7" s="7">
-        <v>189.04047892387871</v>
+        <v>189.04047892387996</v>
       </c>
       <c r="DE7" s="7">
         <v>0</v>
@@ -3606,7 +3606,7 @@
         <v>88</v>
       </c>
       <c r="CX10" s="7">
-        <v>44.063976370302726</v>
+        <v>44.06397637030318</v>
       </c>
       <c r="CY10" s="7">
         <v>0</v>
@@ -3734,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="AH11" s="7">
-        <v>131.99794535068881</v>
+        <v>131.9979453506952</v>
       </c>
       <c r="AI11" s="7">
         <v>650</v>
@@ -3881,7 +3881,7 @@
         <v>650</v>
       </c>
       <c r="CF11" s="8">
-        <v>574.5737136435032</v>
+        <v>574.57371364350342</v>
       </c>
       <c r="CH11">
         <v>9</v>
@@ -3962,7 +3962,7 @@
         <v>650</v>
       </c>
       <c r="DH11" s="8">
-        <v>426.623313561739</v>
+        <v>426.62331356173922</v>
       </c>
     </row>
     <row r="12" spans="1:112" x14ac:dyDescent="0.35">
@@ -4036,7 +4036,7 @@
         <v>186</v>
       </c>
       <c r="X12" s="7">
-        <v>158.57388011404873</v>
+        <v>158.5738801140493</v>
       </c>
       <c r="Y12" s="7">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>186</v>
       </c>
       <c r="AZ12" s="7">
-        <v>101.5906267658379</v>
+        <v>101.59062676583909</v>
       </c>
       <c r="BA12" s="7">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>186</v>
       </c>
       <c r="CC12" s="7">
-        <v>35.774530681594115</v>
+        <v>35.774530681594968</v>
       </c>
       <c r="CD12" s="7">
         <v>0</v>
@@ -4335,7 +4335,7 @@
         <v>154</v>
       </c>
       <c r="O13" s="7">
-        <v>47.284238007303088</v>
+        <v>47.284238007302903</v>
       </c>
       <c r="P13" s="7">
         <v>0</v>
@@ -4419,7 +4419,7 @@
         <v>154</v>
       </c>
       <c r="AS13" s="7">
-        <v>111.74910175125046</v>
+        <v>111.74910175125086</v>
       </c>
       <c r="AT13" s="7">
         <v>0</v>
@@ -4575,7 +4575,7 @@
         <v>154</v>
       </c>
       <c r="CU13" s="7">
-        <v>138.72867313611494</v>
+        <v>138.72867313611522</v>
       </c>
       <c r="CV13" s="7">
         <v>0</v>
@@ -4673,7 +4673,7 @@
         <v>150</v>
       </c>
       <c r="S14" s="7">
-        <v>132.48731502038254</v>
+        <v>132.48731502038297</v>
       </c>
       <c r="T14" s="7">
         <v>0</v>
@@ -4754,7 +4754,7 @@
         <v>150</v>
       </c>
       <c r="AV14" s="7">
-        <v>127.01452502909319</v>
+        <v>127.01452502909362</v>
       </c>
       <c r="AW14" s="7">
         <v>0</v>
@@ -5038,13 +5038,13 @@
         <v>1848</v>
       </c>
       <c r="AH15" s="7">
-        <v>1639.4584233343094</v>
+        <v>1639.458423334303</v>
       </c>
       <c r="AI15" s="7">
         <v>921.04578009706108</v>
       </c>
       <c r="AJ15" s="7">
-        <v>80.359543447191584</v>
+        <v>80.359543447191612</v>
       </c>
       <c r="AK15" s="7">
         <v>11.709419338216179</v>
@@ -5125,10 +5125,10 @@
         <v>1848</v>
       </c>
       <c r="BL15" s="7">
-        <v>1457.0542679423197</v>
+        <v>1576.8119783067064</v>
       </c>
       <c r="BM15" s="7">
-        <v>1287.4821009709337</v>
+        <v>1287.4821009709333</v>
       </c>
       <c r="BN15" s="7">
         <v>0</v>
@@ -5200,13 +5200,13 @@
         <v>1526.4550789999989</v>
       </c>
       <c r="CL15" s="7">
-        <v>1354.3954147109985</v>
+        <v>1354.3954147109982</v>
       </c>
       <c r="CM15" s="7">
-        <v>744.69521344339717</v>
+        <v>744.69521344339705</v>
       </c>
       <c r="CN15" s="7">
-        <v>119.75771036438738</v>
+        <v>0</v>
       </c>
       <c r="CO15" s="7">
         <v>0</v>
@@ -5328,16 +5328,16 @@
         <v>656.1</v>
       </c>
       <c r="T16" s="7">
-        <v>607.58550085556544</v>
+        <v>607.58550085556601</v>
       </c>
       <c r="U16" s="7">
-        <v>441.97967036326463</v>
+        <v>441.9796703632652</v>
       </c>
       <c r="V16" s="7">
-        <v>271.77338739653351</v>
+        <v>271.77338739653408</v>
       </c>
       <c r="W16" s="7">
-        <v>136.97024788310137</v>
+        <v>136.97024788310188</v>
       </c>
       <c r="X16" s="7">
         <v>0</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="AL16" s="7">
-        <v>127.96294411225955</v>
+        <v>127.96294411225961</v>
       </c>
       <c r="AM16" s="7">
         <v>656.1</v>
@@ -5409,13 +5409,13 @@
         <v>656.1</v>
       </c>
       <c r="AW16" s="7">
-        <v>518.05529575435366</v>
+        <v>518.0552957543548</v>
       </c>
       <c r="AX16" s="7">
-        <v>278.44553341614255</v>
+        <v>278.44553341614375</v>
       </c>
       <c r="AY16" s="7">
-        <v>44.289283216886815</v>
+        <v>44.289283216888066</v>
       </c>
       <c r="AZ16" s="7">
         <v>0</v>
@@ -5493,13 +5493,13 @@
         <v>656.1</v>
       </c>
       <c r="BZ16" s="7">
-        <v>586.81602447597561</v>
+        <v>586.81602447597641</v>
       </c>
       <c r="CA16" s="7">
-        <v>260.56010869625879</v>
+        <v>260.56010869625965</v>
       </c>
       <c r="CB16" s="7">
-        <v>144.87788967452434</v>
+        <v>144.87788967452519</v>
       </c>
       <c r="CC16" s="7">
         <v>0</v>
@@ -5538,7 +5538,7 @@
         <v>0</v>
       </c>
       <c r="CP16" s="7">
-        <v>472.09860254242767</v>
+        <v>472.09860254242915</v>
       </c>
       <c r="CQ16" s="7">
         <v>656.1</v>
@@ -5565,13 +5565,13 @@
         <v>656.1</v>
       </c>
       <c r="CY16" s="7">
-        <v>580.03819215763451</v>
+        <v>580.03819215763519</v>
       </c>
       <c r="CZ16" s="7">
-        <v>310.31627588705328</v>
+        <v>310.31627588705379</v>
       </c>
       <c r="DA16" s="7">
-        <v>41.001862370036179</v>
+        <v>41.001862370036974</v>
       </c>
       <c r="DB16" s="7">
         <v>0</v>
@@ -5642,7 +5642,7 @@
         <v>50.3</v>
       </c>
       <c r="P17" s="7">
-        <v>26.533496149368489</v>
+        <v>26.53349614936829</v>
       </c>
       <c r="Q17" s="7">
         <v>0</v>
@@ -5726,7 +5726,7 @@
         <v>50.3</v>
       </c>
       <c r="AT17" s="7">
-        <v>22.165383667010474</v>
+        <v>22.165383667010616</v>
       </c>
       <c r="AU17" s="7">
         <v>0</v>
@@ -5813,7 +5813,7 @@
         <v>50.3</v>
       </c>
       <c r="BX17" s="7">
-        <v>28.62852308998572</v>
+        <v>28.628523089987027</v>
       </c>
       <c r="BY17" s="7">
         <v>0</v>
@@ -5882,7 +5882,7 @@
         <v>50.3</v>
       </c>
       <c r="CV17" s="7">
-        <v>44.212771194339552</v>
+        <v>44.212771194339823</v>
       </c>
       <c r="CW17" s="7">
         <v>0</v>
@@ -6438,7 +6438,7 @@
         <v>257</v>
       </c>
       <c r="BO19" s="7">
-        <v>180.0636780985883</v>
+        <v>180.0636780985879</v>
       </c>
       <c r="BP19" s="7">
         <v>0</v>
@@ -6599,7 +6599,7 @@
         <v>1815.2541914757244</v>
       </c>
       <c r="I20" s="7">
-        <v>1879.6228791990059</v>
+        <v>1879.6228791990056</v>
       </c>
       <c r="J20" s="7">
         <v>1025.7503851117963</v>
@@ -6683,7 +6683,7 @@
         <v>2269.6</v>
       </c>
       <c r="AM20" s="7">
-        <v>1416.4040152939237</v>
+        <v>1416.4040152939272</v>
       </c>
       <c r="AN20" s="7">
         <v>371.89550436475275</v>
@@ -6692,7 +6692,7 @@
         <v>418.38190390403525</v>
       </c>
       <c r="AP20" s="7">
-        <v>185.28668103917136</v>
+        <v>185.28668103917124</v>
       </c>
       <c r="AQ20" s="7">
         <v>0</v>
@@ -6767,25 +6767,25 @@
         <v>2269.6</v>
       </c>
       <c r="BP20" s="7">
-        <v>1682.4249912014752</v>
+        <v>1682.4249912014743</v>
       </c>
       <c r="BQ20" s="7">
-        <v>1740.7061561222877</v>
+        <v>1740.7061561222868</v>
       </c>
       <c r="BR20" s="7">
         <v>1399.5118515273857</v>
       </c>
       <c r="BS20" s="7">
-        <v>1008.8467981911322</v>
+        <v>1008.846798191133</v>
       </c>
       <c r="BT20" s="7">
-        <v>658.71575937485159</v>
+        <v>658.71575937485284</v>
       </c>
       <c r="BU20" s="7">
-        <v>329.12354120922555</v>
+        <v>329.12354120922726</v>
       </c>
       <c r="BV20" s="7">
-        <v>26.740995848064358</v>
+        <v>26.740995848064244</v>
       </c>
       <c r="BW20" s="7">
         <v>0</v>
@@ -6842,10 +6842,10 @@
         <v>1899.3861697576667</v>
       </c>
       <c r="CP20" s="7">
-        <v>1493.185282743058</v>
+        <v>1493.1852827430562</v>
       </c>
       <c r="CQ20" s="7">
-        <v>714.65418025305428</v>
+        <v>714.65418025305416</v>
       </c>
       <c r="CR20" s="7">
         <v>0</v>
@@ -7275,10 +7275,10 @@
         <v>398.3</v>
       </c>
       <c r="Q22" s="7">
-        <v>257.66479761471192</v>
+        <v>257.66479761471237</v>
       </c>
       <c r="R22" s="7">
-        <v>75.881580793243756</v>
+        <v>75.881580793244183</v>
       </c>
       <c r="S22" s="7">
         <v>0</v>
@@ -7335,7 +7335,7 @@
         <v>0</v>
       </c>
       <c r="AM22" s="7">
-        <v>132.71973531534559</v>
+        <v>132.71973531534218</v>
       </c>
       <c r="AN22" s="7">
         <v>398.3</v>
@@ -7359,7 +7359,7 @@
         <v>398.3</v>
       </c>
       <c r="AU22" s="7">
-        <v>154.51921212001321</v>
+        <v>154.51921212001366</v>
       </c>
       <c r="AV22" s="7">
         <v>0</v>
@@ -7413,7 +7413,7 @@
         <v>0</v>
       </c>
       <c r="BN22" s="7">
-        <v>264.11757987967133</v>
+        <v>264.11757987967104</v>
       </c>
       <c r="BO22" s="7">
         <v>398.3</v>
@@ -7446,7 +7446,7 @@
         <v>398.3</v>
       </c>
       <c r="BY22" s="7">
-        <v>39.540519797796151</v>
+        <v>39.540519797797288</v>
       </c>
       <c r="BZ22" s="7">
         <v>0</v>
@@ -7515,7 +7515,7 @@
         <v>398.3</v>
       </c>
       <c r="CW22" s="7">
-        <v>201.59002613508778</v>
+        <v>201.59002613508824</v>
       </c>
       <c r="CX22" s="7">
         <v>0</v>
@@ -7565,19 +7565,19 @@
         <v>14.050000000000004</v>
       </c>
       <c r="E23" s="7">
-        <v>14.049999999999997</v>
+        <v>14.05</v>
       </c>
       <c r="F23" s="7">
-        <v>14.049999999999997</v>
+        <v>14.05</v>
       </c>
       <c r="G23" s="7">
-        <v>14.049999999999997</v>
+        <v>14.050000000000004</v>
       </c>
       <c r="H23" s="7">
-        <v>14.049999999999997</v>
+        <v>14.050000000000004</v>
       </c>
       <c r="I23" s="7">
-        <v>14.049999999999997</v>
+        <v>14.050000000000004</v>
       </c>
       <c r="J23" s="7">
         <v>14.049999999999997</v>
@@ -7586,13 +7586,13 @@
         <v>14.049999999999997</v>
       </c>
       <c r="L23" s="7">
-        <v>14.049999999999997</v>
+        <v>14.05</v>
       </c>
       <c r="M23" s="7">
         <v>14.050000000000004</v>
       </c>
       <c r="N23" s="7">
-        <v>14.050000000000004</v>
+        <v>14.05</v>
       </c>
       <c r="O23" s="7">
         <v>14.050000000000004</v>
@@ -7604,19 +7604,19 @@
         <v>14.049999999999997</v>
       </c>
       <c r="R23" s="7">
-        <v>14.049999999999997</v>
+        <v>14.050000000000004</v>
       </c>
       <c r="S23" s="7">
-        <v>14.05</v>
+        <v>14.050000000000004</v>
       </c>
       <c r="T23" s="7">
         <v>14.050000000000004</v>
       </c>
       <c r="U23" s="7">
-        <v>14.050000000000004</v>
+        <v>14.049999999999997</v>
       </c>
       <c r="V23" s="7">
-        <v>14.050000000000004</v>
+        <v>14.05</v>
       </c>
       <c r="W23" s="7">
         <v>14.050000000000004</v>
@@ -7625,10 +7625,10 @@
         <v>14.050000000000004</v>
       </c>
       <c r="Y23" s="7">
-        <v>14.050000000000004</v>
+        <v>14.05</v>
       </c>
       <c r="Z23" s="7">
-        <v>14.050000000000004</v>
+        <v>14.05</v>
       </c>
       <c r="AA23" s="8">
         <v>14.05</v>
@@ -7652,28 +7652,28 @@
         <v>19.670000000000002</v>
       </c>
       <c r="AJ23" s="7">
-        <v>19.670000000000002</v>
+        <v>19.669999999999995</v>
       </c>
       <c r="AK23" s="7">
-        <v>19.670000000000002</v>
+        <v>19.669999999999998</v>
       </c>
       <c r="AL23" s="7">
         <v>19.670000000000002</v>
       </c>
       <c r="AM23" s="7">
-        <v>19.670000000000002</v>
+        <v>19.669999999999995</v>
       </c>
       <c r="AN23" s="7">
-        <v>19.670000000000002</v>
+        <v>19.669999999999998</v>
       </c>
       <c r="AO23" s="7">
         <v>19.670000000000002</v>
       </c>
       <c r="AP23" s="7">
-        <v>19.670000000000002</v>
+        <v>19.669999999999995</v>
       </c>
       <c r="AQ23" s="7">
-        <v>19.670000000000002</v>
+        <v>19.669999999999995</v>
       </c>
       <c r="AR23" s="7">
         <v>19.670000000000002</v>
@@ -7682,28 +7682,28 @@
         <v>19.669999999999998</v>
       </c>
       <c r="AT23" s="7">
-        <v>19.669999999999998</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="AU23" s="7">
-        <v>19.669999999999998</v>
+        <v>19.669999999999995</v>
       </c>
       <c r="AV23" s="7">
-        <v>19.669999999999995</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="AW23" s="7">
         <v>19.670000000000002</v>
       </c>
       <c r="AX23" s="7">
-        <v>19.670000000000002</v>
+        <v>19.669999999999995</v>
       </c>
       <c r="AY23" s="7">
-        <v>19.670000000000002</v>
+        <v>19.669999999999995</v>
       </c>
       <c r="AZ23" s="7">
         <v>19.670000000000002</v>
       </c>
       <c r="BA23" s="7">
-        <v>19.670000000000002</v>
+        <v>19.669999999999998</v>
       </c>
       <c r="BB23" s="7">
         <v>19.670000000000002</v>
@@ -7712,7 +7712,7 @@
         <v>19.670000000000002</v>
       </c>
       <c r="BD23" s="8">
-        <v>19.669999999999998</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="BF23">
         <v>21</v>
@@ -7724,7 +7724,7 @@
         <v>19.669999999999995</v>
       </c>
       <c r="BI23" s="7">
-        <v>19.669999999999995</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="BJ23" s="7">
         <v>19.670000000000002</v>
@@ -7733,7 +7733,7 @@
         <v>19.670000000000002</v>
       </c>
       <c r="BL23" s="7">
-        <v>19.669999999999995</v>
+        <v>19.669999999999998</v>
       </c>
       <c r="BM23" s="7">
         <v>19.670000000000002</v>
@@ -7748,7 +7748,7 @@
         <v>19.670000000000002</v>
       </c>
       <c r="BQ23" s="7">
-        <v>19.670000000000002</v>
+        <v>19.669999999999995</v>
       </c>
       <c r="BR23" s="7">
         <v>19.670000000000002</v>
@@ -7757,43 +7757,43 @@
         <v>19.670000000000002</v>
       </c>
       <c r="BT23" s="7">
+        <v>19.669999999999998</v>
+      </c>
+      <c r="BU23" s="7">
         <v>19.670000000000002</v>
       </c>
-      <c r="BU23" s="7">
-        <v>19.669999999999998</v>
-      </c>
       <c r="BV23" s="7">
-        <v>19.669999999999998</v>
+        <v>19.669999999999995</v>
       </c>
       <c r="BW23" s="7">
-        <v>19.669999999999998</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="BX23" s="7">
-        <v>19.669999999999995</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="BY23" s="7">
         <v>19.670000000000002</v>
       </c>
       <c r="BZ23" s="7">
-        <v>19.670000000000002</v>
+        <v>19.669999999999998</v>
       </c>
       <c r="CA23" s="7">
         <v>19.670000000000002</v>
       </c>
       <c r="CB23" s="7">
-        <v>19.669999999999998</v>
+        <v>19.669999999999995</v>
       </c>
       <c r="CC23" s="7">
-        <v>19.669999999999998</v>
+        <v>19.669999999999995</v>
       </c>
       <c r="CD23" s="7">
-        <v>19.669999999999998</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="CE23" s="7">
         <v>19.669999999999995</v>
       </c>
       <c r="CF23" s="8">
-        <v>19.669999999999995</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="CH23">
         <v>21</v>
@@ -7802,19 +7802,19 @@
         <v>0</v>
       </c>
       <c r="CJ23" s="7">
+        <v>19.670000000000002</v>
+      </c>
+      <c r="CK23" s="7">
+        <v>19.670000000000002</v>
+      </c>
+      <c r="CL23" s="7">
+        <v>19.670000000000002</v>
+      </c>
+      <c r="CM23" s="7">
+        <v>19.669999999999998</v>
+      </c>
+      <c r="CN23" s="7">
         <v>19.669999999999995</v>
-      </c>
-      <c r="CK23" s="7">
-        <v>19.669999999999995</v>
-      </c>
-      <c r="CL23" s="7">
-        <v>19.669999999999995</v>
-      </c>
-      <c r="CM23" s="7">
-        <v>19.669999999999995</v>
-      </c>
-      <c r="CN23" s="7">
-        <v>19.670000000000002</v>
       </c>
       <c r="CO23" s="7">
         <v>19.670000000000002</v>
@@ -7826,7 +7826,7 @@
         <v>19.670000000000002</v>
       </c>
       <c r="CR23" s="7">
-        <v>19.670000000000002</v>
+        <v>19.669999999999995</v>
       </c>
       <c r="CS23" s="7">
         <v>19.670000000000002</v>
@@ -7841,37 +7841,37 @@
         <v>19.670000000000002</v>
       </c>
       <c r="CW23" s="7">
-        <v>19.669999999999998</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="CX23" s="7">
-        <v>19.669999999999998</v>
+        <v>19.669999999999995</v>
       </c>
       <c r="CY23" s="7">
-        <v>19.669999999999998</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="CZ23" s="7">
         <v>19.670000000000002</v>
       </c>
       <c r="DA23" s="7">
-        <v>19.669999999999995</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="DB23" s="7">
         <v>19.669999999999995</v>
       </c>
       <c r="DC23" s="7">
+        <v>19.669999999999995</v>
+      </c>
+      <c r="DD23" s="7">
+        <v>19.670000000000002</v>
+      </c>
+      <c r="DE23" s="7">
         <v>19.669999999999998</v>
-      </c>
-      <c r="DD23" s="7">
-        <v>19.669999999999995</v>
-      </c>
-      <c r="DE23" s="7">
-        <v>19.669999999999995</v>
       </c>
       <c r="DF23" s="7">
         <v>19.669999999999995</v>
       </c>
       <c r="DG23" s="7">
-        <v>19.669999999999995</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="DH23" s="8">
         <v>19.669999999999998</v>
@@ -7990,7 +7990,7 @@
         <v>17.5</v>
       </c>
       <c r="AN24" s="7">
-        <v>17.5</v>
+        <v>17.499999999999993</v>
       </c>
       <c r="AO24" s="7">
         <v>17.5</v>
@@ -8029,13 +8029,13 @@
         <v>17.499999999999993</v>
       </c>
       <c r="BA24" s="7">
-        <v>17.499999999999993</v>
+        <v>17.5</v>
       </c>
       <c r="BB24" s="7">
-        <v>17.499999999999993</v>
+        <v>17.5</v>
       </c>
       <c r="BC24" s="7">
-        <v>17.499999999999993</v>
+        <v>17.5</v>
       </c>
       <c r="BD24" s="8">
         <v>17.5</v>
@@ -8059,10 +8059,10 @@
         <v>17.5</v>
       </c>
       <c r="BL24" s="7">
-        <v>17.499999999999993</v>
+        <v>17.5</v>
       </c>
       <c r="BM24" s="7">
-        <v>17.499999999999993</v>
+        <v>17.5</v>
       </c>
       <c r="BN24" s="7">
         <v>17.499999999999993</v>
@@ -8128,7 +8128,7 @@
         <v>0</v>
       </c>
       <c r="CJ24" s="7">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="CK24" s="7">
         <v>17.5</v>
@@ -8143,10 +8143,10 @@
         <v>17.5</v>
       </c>
       <c r="CO24" s="7">
-        <v>17.499999999999993</v>
+        <v>17.5</v>
       </c>
       <c r="CP24" s="7">
-        <v>17.499999999999993</v>
+        <v>17.5</v>
       </c>
       <c r="CQ24" s="7">
         <v>17.5</v>
@@ -8188,13 +8188,13 @@
         <v>17.5</v>
       </c>
       <c r="DD24" s="7">
-        <v>17.499999999999993</v>
+        <v>17.5</v>
       </c>
       <c r="DE24" s="7">
-        <v>17.499999999999993</v>
+        <v>17.5</v>
       </c>
       <c r="DF24" s="7">
-        <v>17.499999999999993</v>
+        <v>17.5</v>
       </c>
       <c r="DG24" s="7">
         <v>17.5</v>
@@ -8316,10 +8316,10 @@
         <v>49</v>
       </c>
       <c r="AN25" s="7">
-        <v>48.999999999999993</v>
+        <v>49</v>
       </c>
       <c r="AO25" s="7">
-        <v>48.999999999999993</v>
+        <v>49</v>
       </c>
       <c r="AP25" s="7">
         <v>49</v>
@@ -8331,25 +8331,25 @@
         <v>49</v>
       </c>
       <c r="AS25" s="7">
-        <v>48.999999999999993</v>
+        <v>49</v>
       </c>
       <c r="AT25" s="7">
-        <v>48.999999999999993</v>
+        <v>49</v>
       </c>
       <c r="AU25" s="7">
-        <v>48.999999999999993</v>
+        <v>49</v>
       </c>
       <c r="AV25" s="7">
-        <v>48.999999999999993</v>
+        <v>49</v>
       </c>
       <c r="AW25" s="7">
-        <v>48.999999999999993</v>
+        <v>49</v>
       </c>
       <c r="AX25" s="7">
         <v>48.999999999999993</v>
       </c>
       <c r="AY25" s="7">
-        <v>48.999999999999993</v>
+        <v>49</v>
       </c>
       <c r="AZ25" s="7">
         <v>49</v>
@@ -8388,19 +8388,19 @@
         <v>49</v>
       </c>
       <c r="BM25" s="7">
-        <v>49</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="BN25" s="7">
         <v>49</v>
       </c>
       <c r="BO25" s="7">
+        <v>48.999999999999993</v>
+      </c>
+      <c r="BP25" s="7">
         <v>49</v>
       </c>
-      <c r="BP25" s="7">
-        <v>48.999999999999993</v>
-      </c>
       <c r="BQ25" s="7">
-        <v>48.999999999999993</v>
+        <v>49</v>
       </c>
       <c r="BR25" s="7">
         <v>49</v>
@@ -8412,37 +8412,37 @@
         <v>49</v>
       </c>
       <c r="BU25" s="7">
-        <v>49</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="BV25" s="7">
         <v>49</v>
       </c>
       <c r="BW25" s="7">
-        <v>49</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="BX25" s="7">
-        <v>49</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="BY25" s="7">
         <v>49</v>
       </c>
       <c r="BZ25" s="7">
-        <v>49</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="CA25" s="7">
         <v>49</v>
       </c>
       <c r="CB25" s="7">
-        <v>48.999999999999993</v>
+        <v>49</v>
       </c>
       <c r="CC25" s="7">
-        <v>48.999999999999993</v>
+        <v>49</v>
       </c>
       <c r="CD25" s="7">
-        <v>48.999999999999993</v>
+        <v>49</v>
       </c>
       <c r="CE25" s="7">
-        <v>48.999999999999993</v>
+        <v>49</v>
       </c>
       <c r="CF25" s="8">
         <v>49</v>
@@ -8454,7 +8454,7 @@
         <v>0</v>
       </c>
       <c r="CJ25" s="7">
-        <v>49</v>
+        <v>42.547116587635173</v>
       </c>
       <c r="CK25" s="7">
         <v>49</v>
@@ -8472,10 +8472,10 @@
         <v>49</v>
       </c>
       <c r="CP25" s="7">
+        <v>48.999999999999993</v>
+      </c>
+      <c r="CQ25" s="7">
         <v>49</v>
-      </c>
-      <c r="CQ25" s="7">
-        <v>48.999999999999993</v>
       </c>
       <c r="CR25" s="7">
         <v>49</v>
@@ -8505,13 +8505,13 @@
         <v>49</v>
       </c>
       <c r="DA25" s="7">
-        <v>48.999999999999993</v>
+        <v>49</v>
       </c>
       <c r="DB25" s="7">
-        <v>48.999999999999993</v>
+        <v>49</v>
       </c>
       <c r="DC25" s="7">
-        <v>48.999999999999993</v>
+        <v>49</v>
       </c>
       <c r="DD25" s="7">
         <v>49</v>
@@ -8520,13 +8520,13 @@
         <v>49</v>
       </c>
       <c r="DF25" s="7">
-        <v>49</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="DG25" s="7">
         <v>49</v>
       </c>
       <c r="DH25" s="8">
-        <v>49</v>
+        <v>48.999999999999993</v>
       </c>
     </row>
     <row r="26" spans="1:112" x14ac:dyDescent="0.35">
@@ -8543,7 +8543,7 @@
         <v>15.3</v>
       </c>
       <c r="E26" s="7">
-        <v>15.3</v>
+        <v>15.299999999999999</v>
       </c>
       <c r="F26" s="7">
         <v>15.3</v>
@@ -8570,7 +8570,7 @@
         <v>15.3</v>
       </c>
       <c r="N26" s="7">
-        <v>15.3</v>
+        <v>15.299999999999999</v>
       </c>
       <c r="O26" s="7">
         <v>15.3</v>
@@ -8600,10 +8600,10 @@
         <v>15.299999999999999</v>
       </c>
       <c r="X26" s="7">
-        <v>15.299999999999999</v>
+        <v>15.3</v>
       </c>
       <c r="Y26" s="7">
-        <v>15.299999999999999</v>
+        <v>15.3</v>
       </c>
       <c r="Z26" s="7">
         <v>15.3</v>
@@ -8624,7 +8624,7 @@
         <v>21.419999999999998</v>
       </c>
       <c r="AH26" s="7">
-        <v>21.419999999999998</v>
+        <v>21.419999999999995</v>
       </c>
       <c r="AI26" s="7">
         <v>21.419999999999998</v>
@@ -8642,13 +8642,13 @@
         <v>21.419999999999998</v>
       </c>
       <c r="AN26" s="7">
-        <v>21.419999999999998</v>
+        <v>21.419999999999995</v>
       </c>
       <c r="AO26" s="7">
         <v>21.419999999999998</v>
       </c>
       <c r="AP26" s="7">
-        <v>21.419999999999998</v>
+        <v>21.419999999999995</v>
       </c>
       <c r="AQ26" s="7">
         <v>21.419999999999998</v>
@@ -8663,7 +8663,7 @@
         <v>21.419999999999998</v>
       </c>
       <c r="AU26" s="7">
-        <v>21.419999999999998</v>
+        <v>21.419999999999995</v>
       </c>
       <c r="AV26" s="7">
         <v>21.419999999999998</v>
@@ -8672,13 +8672,13 @@
         <v>21.419999999999998</v>
       </c>
       <c r="AX26" s="7">
-        <v>21.419999999999998</v>
+        <v>21.419999999999995</v>
       </c>
       <c r="AY26" s="7">
-        <v>21.419999999999998</v>
+        <v>21.419999999999995</v>
       </c>
       <c r="AZ26" s="7">
-        <v>21.419999999999998</v>
+        <v>21.419999999999995</v>
       </c>
       <c r="BA26" s="7">
         <v>21.419999999999998</v>
@@ -8687,7 +8687,7 @@
         <v>21.419999999999998</v>
       </c>
       <c r="BC26" s="7">
-        <v>21.419999999999995</v>
+        <v>21.419999999999998</v>
       </c>
       <c r="BD26" s="8">
         <v>21.419999999999998</v>
@@ -8792,7 +8792,7 @@
         <v>21.419999999999998</v>
       </c>
       <c r="CN26" s="7">
-        <v>21.419999999999998</v>
+        <v>21.419999999999995</v>
       </c>
       <c r="CO26" s="7">
         <v>21.419999999999998</v>
@@ -8828,13 +8828,13 @@
         <v>21.419999999999998</v>
       </c>
       <c r="CZ26" s="7">
-        <v>21.419999999999998</v>
+        <v>21.419999999999995</v>
       </c>
       <c r="DA26" s="7">
         <v>21.419999999999998</v>
       </c>
       <c r="DB26" s="7">
-        <v>21.419999999999998</v>
+        <v>21.419999999999995</v>
       </c>
       <c r="DC26" s="7">
         <v>21.419999999999998</v>
@@ -9049,7 +9049,7 @@
         <v>7</v>
       </c>
       <c r="BP27" s="7">
-        <v>7</v>
+        <v>7.0000000000000018</v>
       </c>
       <c r="BQ27" s="7">
         <v>7</v>
@@ -9372,7 +9372,7 @@
         <v>7</v>
       </c>
       <c r="BO28" s="7">
-        <v>7</v>
+        <v>6.9999999999999929</v>
       </c>
       <c r="BP28" s="7">
         <v>7</v>
@@ -9447,10 +9447,10 @@
         <v>7</v>
       </c>
       <c r="CO28" s="7">
-        <v>6.9999999999999929</v>
+        <v>7</v>
       </c>
       <c r="CP28" s="7">
-        <v>6.9999999999999929</v>
+        <v>7</v>
       </c>
       <c r="CQ28" s="7">
         <v>7</v>
@@ -9462,22 +9462,22 @@
         <v>7</v>
       </c>
       <c r="CT28" s="7">
-        <v>6.9999999999999929</v>
+        <v>7</v>
       </c>
       <c r="CU28" s="7">
-        <v>6.9999999999999929</v>
+        <v>7</v>
       </c>
       <c r="CV28" s="7">
-        <v>6.9999999999999929</v>
+        <v>7</v>
       </c>
       <c r="CW28" s="7">
-        <v>7.0000000000000036</v>
+        <v>7</v>
       </c>
       <c r="CX28" s="7">
-        <v>7.0000000000000036</v>
+        <v>7</v>
       </c>
       <c r="CY28" s="7">
-        <v>7.0000000000000036</v>
+        <v>7</v>
       </c>
       <c r="CZ28" s="7">
         <v>7</v>
@@ -9521,7 +9521,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="7">
-        <v>5</v>
+        <v>4.9999999999999964</v>
       </c>
       <c r="F29" s="7">
         <v>5</v>
@@ -9581,7 +9581,7 @@
         <v>5</v>
       </c>
       <c r="Y29" s="7">
-        <v>5</v>
+        <v>5.0000000000000071</v>
       </c>
       <c r="Z29" s="7">
         <v>5</v>
@@ -9608,7 +9608,7 @@
         <v>7</v>
       </c>
       <c r="AJ29" s="7">
-        <v>7</v>
+        <v>7.0000000000000018</v>
       </c>
       <c r="AK29" s="7">
         <v>7</v>
@@ -9629,7 +9629,7 @@
         <v>7</v>
       </c>
       <c r="AQ29" s="7">
-        <v>7</v>
+        <v>6.9999999999999929</v>
       </c>
       <c r="AR29" s="7">
         <v>7</v>
@@ -9656,10 +9656,10 @@
         <v>7</v>
       </c>
       <c r="AZ29" s="7">
-        <v>7</v>
+        <v>6.9999999999999929</v>
       </c>
       <c r="BA29" s="7">
-        <v>7</v>
+        <v>7.0000000000000036</v>
       </c>
       <c r="BB29" s="7">
         <v>7</v>
@@ -9710,7 +9710,7 @@
         <v>7</v>
       </c>
       <c r="BS29" s="7">
-        <v>7</v>
+        <v>6.9999999999999929</v>
       </c>
       <c r="BT29" s="7">
         <v>7</v>
@@ -9746,7 +9746,7 @@
         <v>7</v>
       </c>
       <c r="CE29" s="7">
-        <v>7</v>
+        <v>7.0000000000000018</v>
       </c>
       <c r="CF29" s="8">
         <v>7</v>
@@ -9764,10 +9764,10 @@
         <v>7</v>
       </c>
       <c r="CL29" s="7">
-        <v>7.0000000000000018</v>
+        <v>7</v>
       </c>
       <c r="CM29" s="7">
-        <v>7.0000000000000018</v>
+        <v>7.0000000000000036</v>
       </c>
       <c r="CN29" s="7">
         <v>7</v>
@@ -9830,7 +9830,7 @@
         <v>7</v>
       </c>
       <c r="DH29" s="8">
-        <v>7.0000000000000036</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:112" x14ac:dyDescent="0.35">
@@ -9853,43 +9853,43 @@
         <v>26.100000000000009</v>
       </c>
       <c r="G30" s="7">
-        <v>26.100000000000009</v>
+        <v>26.1</v>
       </c>
       <c r="H30" s="7">
-        <v>26.100000000000009</v>
+        <v>26.1</v>
       </c>
       <c r="I30" s="7">
-        <v>26.100000000000009</v>
+        <v>26.1</v>
       </c>
       <c r="J30" s="7">
         <v>26.1</v>
       </c>
       <c r="K30" s="7">
-        <v>26.100000000000009</v>
+        <v>26.1</v>
       </c>
       <c r="L30" s="7">
-        <v>26.100000000000009</v>
+        <v>26.1</v>
       </c>
       <c r="M30" s="7">
         <v>26.1</v>
       </c>
       <c r="N30" s="7">
-        <v>26.1</v>
+        <v>26.100000000000009</v>
       </c>
       <c r="O30" s="7">
         <v>26.1</v>
       </c>
       <c r="P30" s="7">
-        <v>26.100000000000009</v>
+        <v>26.1</v>
       </c>
       <c r="Q30" s="7">
         <v>26.100000000000009</v>
       </c>
       <c r="R30" s="7">
-        <v>26.100000000000009</v>
+        <v>26.1</v>
       </c>
       <c r="S30" s="7">
-        <v>26.100000000000005</v>
+        <v>26.1</v>
       </c>
       <c r="T30" s="7">
         <v>26.1</v>
@@ -9898,7 +9898,7 @@
         <v>26.1</v>
       </c>
       <c r="V30" s="7">
-        <v>26.1</v>
+        <v>26.100000000000005</v>
       </c>
       <c r="W30" s="7">
         <v>26.1</v>
@@ -9910,10 +9910,10 @@
         <v>26.1</v>
       </c>
       <c r="Z30" s="7">
-        <v>26.1</v>
+        <v>26.100000000000009</v>
       </c>
       <c r="AA30" s="8">
-        <v>26.1</v>
+        <v>26.100000000000009</v>
       </c>
       <c r="AD30">
         <v>28</v>
@@ -9940,13 +9940,13 @@
         <v>36.540000000000006</v>
       </c>
       <c r="AL30" s="7">
-        <v>36.540000000000006</v>
+        <v>36.539999999999992</v>
       </c>
       <c r="AM30" s="7">
-        <v>36.540000000000006</v>
+        <v>36.54</v>
       </c>
       <c r="AN30" s="7">
-        <v>36.540000000000006</v>
+        <v>36.54</v>
       </c>
       <c r="AO30" s="7">
         <v>36.540000000000006</v>
@@ -9958,7 +9958,7 @@
         <v>36.539999999999992</v>
       </c>
       <c r="AR30" s="7">
-        <v>36.539999999999992</v>
+        <v>36.540000000000006</v>
       </c>
       <c r="AS30" s="7">
         <v>36.540000000000006</v>
@@ -9967,34 +9967,34 @@
         <v>36.540000000000006</v>
       </c>
       <c r="AU30" s="7">
-        <v>36.540000000000006</v>
+        <v>36.54</v>
       </c>
       <c r="AV30" s="7">
-        <v>36.540000000000006</v>
+        <v>36.54</v>
       </c>
       <c r="AW30" s="7">
-        <v>36.539999999999992</v>
+        <v>36.54</v>
       </c>
       <c r="AX30" s="7">
         <v>36.539999999999992</v>
       </c>
       <c r="AY30" s="7">
-        <v>36.539999999999992</v>
+        <v>36.54</v>
       </c>
       <c r="AZ30" s="7">
-        <v>36.539999999999992</v>
+        <v>36.54</v>
       </c>
       <c r="BA30" s="7">
-        <v>36.539999999999992</v>
+        <v>36.54</v>
       </c>
       <c r="BB30" s="7">
-        <v>36.539999999999992</v>
+        <v>36.54</v>
       </c>
       <c r="BC30" s="7">
         <v>36.54</v>
       </c>
       <c r="BD30" s="8">
-        <v>36.540000000000006</v>
+        <v>36.54</v>
       </c>
       <c r="BF30">
         <v>28</v>
@@ -10009,43 +10009,43 @@
         <v>36.54</v>
       </c>
       <c r="BJ30" s="7">
+        <v>36.54</v>
+      </c>
+      <c r="BK30" s="7">
+        <v>36.54</v>
+      </c>
+      <c r="BL30" s="7">
+        <v>36.540000000000006</v>
+      </c>
+      <c r="BM30" s="7">
         <v>36.539999999999992</v>
-      </c>
-      <c r="BK30" s="7">
-        <v>36.539999999999992</v>
-      </c>
-      <c r="BL30" s="7">
-        <v>36.54</v>
-      </c>
-      <c r="BM30" s="7">
-        <v>36.54</v>
       </c>
       <c r="BN30" s="7">
         <v>36.54</v>
       </c>
       <c r="BO30" s="7">
+        <v>36.539999999999992</v>
+      </c>
+      <c r="BP30" s="7">
+        <v>36.54</v>
+      </c>
+      <c r="BQ30" s="7">
+        <v>36.539999999999992</v>
+      </c>
+      <c r="BR30" s="7">
+        <v>36.54</v>
+      </c>
+      <c r="BS30" s="7">
+        <v>36.54</v>
+      </c>
+      <c r="BT30" s="7">
         <v>36.540000000000006</v>
-      </c>
-      <c r="BP30" s="7">
-        <v>36.540000000000006</v>
-      </c>
-      <c r="BQ30" s="7">
-        <v>36.540000000000006</v>
-      </c>
-      <c r="BR30" s="7">
-        <v>36.539999999999992</v>
-      </c>
-      <c r="BS30" s="7">
-        <v>36.539999999999992</v>
-      </c>
-      <c r="BT30" s="7">
-        <v>36.539999999999992</v>
       </c>
       <c r="BU30" s="7">
         <v>36.54</v>
       </c>
       <c r="BV30" s="7">
-        <v>36.54</v>
+        <v>36.540000000000006</v>
       </c>
       <c r="BW30" s="7">
         <v>36.54</v>
@@ -10054,13 +10054,13 @@
         <v>36.54</v>
       </c>
       <c r="BY30" s="7">
-        <v>36.539999999999992</v>
+        <v>36.54</v>
       </c>
       <c r="BZ30" s="7">
-        <v>36.539999999999992</v>
+        <v>36.540000000000006</v>
       </c>
       <c r="CA30" s="7">
-        <v>36.539999999999992</v>
+        <v>36.54</v>
       </c>
       <c r="CB30" s="7">
         <v>36.539999999999992</v>
@@ -10069,13 +10069,13 @@
         <v>36.539999999999992</v>
       </c>
       <c r="CD30" s="7">
+        <v>36.540000000000006</v>
+      </c>
+      <c r="CE30" s="7">
         <v>36.539999999999992</v>
       </c>
-      <c r="CE30" s="7">
-        <v>36.54</v>
-      </c>
       <c r="CF30" s="8">
-        <v>36.54</v>
+        <v>36.540000000000006</v>
       </c>
       <c r="CH30">
         <v>28</v>
@@ -10084,13 +10084,13 @@
         <v>0</v>
       </c>
       <c r="CJ30" s="7">
-        <v>36.54</v>
+        <v>36.540000000000006</v>
       </c>
       <c r="CK30" s="7">
         <v>36.54</v>
       </c>
       <c r="CL30" s="7">
-        <v>36.540000000000006</v>
+        <v>36.54</v>
       </c>
       <c r="CM30" s="7">
         <v>36.540000000000006</v>
@@ -10105,13 +10105,13 @@
         <v>36.54</v>
       </c>
       <c r="CQ30" s="7">
-        <v>36.54</v>
+        <v>36.539999999999992</v>
       </c>
       <c r="CR30" s="7">
-        <v>36.54</v>
+        <v>36.539999999999992</v>
       </c>
       <c r="CS30" s="7">
-        <v>36.54</v>
+        <v>36.539999999999992</v>
       </c>
       <c r="CT30" s="7">
         <v>36.54</v>
@@ -10123,40 +10123,40 @@
         <v>36.54</v>
       </c>
       <c r="CW30" s="7">
-        <v>36.540000000000006</v>
+        <v>36.54</v>
       </c>
       <c r="CX30" s="7">
-        <v>36.540000000000006</v>
+        <v>36.539999999999992</v>
       </c>
       <c r="CY30" s="7">
-        <v>36.540000000000006</v>
+        <v>36.539999999999992</v>
       </c>
       <c r="CZ30" s="7">
         <v>36.54</v>
       </c>
       <c r="DA30" s="7">
-        <v>36.540000000000006</v>
+        <v>36.539999999999992</v>
       </c>
       <c r="DB30" s="7">
-        <v>36.540000000000006</v>
+        <v>36.54</v>
       </c>
       <c r="DC30" s="7">
-        <v>36.540000000000006</v>
+        <v>36.54</v>
       </c>
       <c r="DD30" s="7">
-        <v>36.540000000000006</v>
+        <v>36.54</v>
       </c>
       <c r="DE30" s="7">
-        <v>36.540000000000006</v>
+        <v>36.54</v>
       </c>
       <c r="DF30" s="7">
-        <v>36.540000000000006</v>
+        <v>36.54</v>
       </c>
       <c r="DG30" s="7">
-        <v>36.54</v>
+        <v>36.539999999999992</v>
       </c>
       <c r="DH30" s="8">
-        <v>36.540000000000006</v>
+        <v>36.539999999999992</v>
       </c>
     </row>
     <row r="31" spans="1:112" x14ac:dyDescent="0.35">
@@ -10194,7 +10194,7 @@
         <v>5</v>
       </c>
       <c r="L31" s="7">
-        <v>5</v>
+        <v>4.9999999999999964</v>
       </c>
       <c r="M31" s="7">
         <v>5</v>
@@ -10221,7 +10221,7 @@
         <v>5</v>
       </c>
       <c r="U31" s="7">
-        <v>5</v>
+        <v>4.9999999999999929</v>
       </c>
       <c r="V31" s="7">
         <v>5</v>
@@ -10233,7 +10233,7 @@
         <v>5</v>
       </c>
       <c r="Y31" s="7">
-        <v>5</v>
+        <v>4.9999999999999964</v>
       </c>
       <c r="Z31" s="7">
         <v>5</v>
@@ -10254,10 +10254,10 @@
         <v>7</v>
       </c>
       <c r="AH31" s="7">
-        <v>6.9999999999999929</v>
+        <v>7</v>
       </c>
       <c r="AI31" s="7">
-        <v>6.9999999999999929</v>
+        <v>7</v>
       </c>
       <c r="AJ31" s="7">
         <v>7</v>
@@ -10278,49 +10278,49 @@
         <v>7</v>
       </c>
       <c r="AP31" s="7">
+        <v>7</v>
+      </c>
+      <c r="AQ31" s="7">
+        <v>7</v>
+      </c>
+      <c r="AR31" s="7">
+        <v>7</v>
+      </c>
+      <c r="AS31" s="7">
+        <v>7</v>
+      </c>
+      <c r="AT31" s="7">
+        <v>7</v>
+      </c>
+      <c r="AU31" s="7">
+        <v>7</v>
+      </c>
+      <c r="AV31" s="7">
+        <v>7</v>
+      </c>
+      <c r="AW31" s="7">
+        <v>7</v>
+      </c>
+      <c r="AX31" s="7">
+        <v>7</v>
+      </c>
+      <c r="AY31" s="7">
+        <v>7</v>
+      </c>
+      <c r="AZ31" s="7">
+        <v>7</v>
+      </c>
+      <c r="BA31" s="7">
+        <v>7</v>
+      </c>
+      <c r="BB31" s="7">
+        <v>7</v>
+      </c>
+      <c r="BC31" s="7">
+        <v>7</v>
+      </c>
+      <c r="BD31" s="8">
         <v>7.0000000000000018</v>
-      </c>
-      <c r="AQ31" s="7">
-        <v>7.0000000000000018</v>
-      </c>
-      <c r="AR31" s="7">
-        <v>7.0000000000000018</v>
-      </c>
-      <c r="AS31" s="7">
-        <v>7</v>
-      </c>
-      <c r="AT31" s="7">
-        <v>7</v>
-      </c>
-      <c r="AU31" s="7">
-        <v>7</v>
-      </c>
-      <c r="AV31" s="7">
-        <v>7</v>
-      </c>
-      <c r="AW31" s="7">
-        <v>7.0000000000000018</v>
-      </c>
-      <c r="AX31" s="7">
-        <v>7.0000000000000018</v>
-      </c>
-      <c r="AY31" s="7">
-        <v>7.0000000000000018</v>
-      </c>
-      <c r="AZ31" s="7">
-        <v>7</v>
-      </c>
-      <c r="BA31" s="7">
-        <v>7</v>
-      </c>
-      <c r="BB31" s="7">
-        <v>7</v>
-      </c>
-      <c r="BC31" s="7">
-        <v>7</v>
-      </c>
-      <c r="BD31" s="8">
-        <v>7.0000000000000036</v>
       </c>
       <c r="BF31">
         <v>29</v>
@@ -10332,7 +10332,7 @@
         <v>7</v>
       </c>
       <c r="BI31" s="7">
-        <v>7</v>
+        <v>6.9999999999999929</v>
       </c>
       <c r="BJ31" s="7">
         <v>7</v>
@@ -10368,13 +10368,13 @@
         <v>7</v>
       </c>
       <c r="BU31" s="7">
-        <v>7.0000000000000036</v>
+        <v>7</v>
       </c>
       <c r="BV31" s="7">
-        <v>7.0000000000000036</v>
+        <v>7</v>
       </c>
       <c r="BW31" s="7">
-        <v>7.0000000000000036</v>
+        <v>7</v>
       </c>
       <c r="BX31" s="7">
         <v>7</v>
@@ -10392,7 +10392,7 @@
         <v>7</v>
       </c>
       <c r="CC31" s="7">
-        <v>7</v>
+        <v>6.9999999999999929</v>
       </c>
       <c r="CD31" s="7">
         <v>7</v>
@@ -10443,7 +10443,7 @@
         <v>7</v>
       </c>
       <c r="CU31" s="7">
-        <v>7</v>
+        <v>6.9999999999999929</v>
       </c>
       <c r="CV31" s="7">
         <v>7</v>
@@ -10493,19 +10493,19 @@
         <v>0</v>
       </c>
       <c r="C32" s="7">
+        <v>10.099999999999998</v>
+      </c>
+      <c r="D32" s="7">
+        <v>10.099999999999998</v>
+      </c>
+      <c r="E32" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="F32" s="7">
+        <v>10.099999999999998</v>
+      </c>
+      <c r="G32" s="7">
         <v>10.100000000000001</v>
-      </c>
-      <c r="D32" s="7">
-        <v>10.100000000000001</v>
-      </c>
-      <c r="E32" s="7">
-        <v>10.100000000000001</v>
-      </c>
-      <c r="F32" s="7">
-        <v>10.100000000000001</v>
-      </c>
-      <c r="G32" s="7">
-        <v>10.099999999999998</v>
       </c>
       <c r="H32" s="7">
         <v>10.100000000000001</v>
@@ -10517,25 +10517,25 @@
         <v>10.1</v>
       </c>
       <c r="K32" s="7">
-        <v>10.099999999999998</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="L32" s="7">
-        <v>10.099999999999998</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="M32" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="N32" s="7">
-        <v>10.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="O32" s="7">
-        <v>10.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="P32" s="7">
         <v>10.100000000000001</v>
       </c>
       <c r="Q32" s="7">
-        <v>10.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="R32" s="7">
         <v>10.100000000000001</v>
@@ -10544,28 +10544,28 @@
         <v>10.100000000000001</v>
       </c>
       <c r="T32" s="7">
-        <v>10.099999999999998</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="U32" s="7">
-        <v>10.099999999999998</v>
+        <v>10.1</v>
       </c>
       <c r="V32" s="7">
-        <v>10.099999999999998</v>
+        <v>10.1</v>
       </c>
       <c r="W32" s="7">
         <v>10.1</v>
       </c>
       <c r="X32" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="Y32" s="7">
-        <v>10.1</v>
+        <v>10.099999999999998</v>
       </c>
       <c r="Z32" s="7">
-        <v>10.1</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="AA32" s="8">
-        <v>10.100000000000001</v>
+        <v>10.099999999999998</v>
       </c>
       <c r="AD32">
         <v>30</v>
@@ -10583,13 +10583,13 @@
         <v>14.139999999999999</v>
       </c>
       <c r="AI32" s="7">
+        <v>14.139999999999997</v>
+      </c>
+      <c r="AJ32" s="7">
+        <v>14.139999999999997</v>
+      </c>
+      <c r="AK32" s="7">
         <v>14.139999999999999</v>
-      </c>
-      <c r="AJ32" s="7">
-        <v>14.139999999999999</v>
-      </c>
-      <c r="AK32" s="7">
-        <v>14.139999999999997</v>
       </c>
       <c r="AL32" s="7">
         <v>14.139999999999997</v>
@@ -10598,13 +10598,13 @@
         <v>14.139999999999997</v>
       </c>
       <c r="AN32" s="7">
-        <v>14.139999999999997</v>
+        <v>14.139999999999999</v>
       </c>
       <c r="AO32" s="7">
         <v>14.139999999999997</v>
       </c>
       <c r="AP32" s="7">
-        <v>14.139999999999997</v>
+        <v>14.139999999999999</v>
       </c>
       <c r="AQ32" s="7">
         <v>14.139999999999997</v>
@@ -10619,13 +10619,13 @@
         <v>14.139999999999997</v>
       </c>
       <c r="AU32" s="7">
-        <v>14.139999999999997</v>
+        <v>14.139999999999999</v>
       </c>
       <c r="AV32" s="7">
         <v>14.139999999999997</v>
       </c>
       <c r="AW32" s="7">
-        <v>14.139999999999999</v>
+        <v>14.139999999999997</v>
       </c>
       <c r="AX32" s="7">
         <v>14.139999999999999</v>
@@ -10640,13 +10640,13 @@
         <v>14.139999999999999</v>
       </c>
       <c r="BB32" s="7">
+        <v>14.139999999999997</v>
+      </c>
+      <c r="BC32" s="7">
+        <v>14.139999999999997</v>
+      </c>
+      <c r="BD32" s="8">
         <v>14.139999999999999</v>
-      </c>
-      <c r="BC32" s="7">
-        <v>14.139999999999999</v>
-      </c>
-      <c r="BD32" s="8">
-        <v>14.139999999999997</v>
       </c>
       <c r="BF32">
         <v>30</v>
@@ -10661,10 +10661,10 @@
         <v>14.139999999999997</v>
       </c>
       <c r="BJ32" s="7">
-        <v>14.139999999999999</v>
+        <v>14.139999999999997</v>
       </c>
       <c r="BK32" s="7">
-        <v>14.139999999999999</v>
+        <v>14.139999999999997</v>
       </c>
       <c r="BL32" s="7">
         <v>14.139999999999997</v>
@@ -10694,40 +10694,40 @@
         <v>14.139999999999997</v>
       </c>
       <c r="BU32" s="7">
+        <v>14.139999999999997</v>
+      </c>
+      <c r="BV32" s="7">
+        <v>14.139999999999997</v>
+      </c>
+      <c r="BW32" s="7">
+        <v>14.139999999999997</v>
+      </c>
+      <c r="BX32" s="7">
         <v>14.139999999999999</v>
       </c>
-      <c r="BV32" s="7">
-        <v>14.139999999999999</v>
-      </c>
-      <c r="BW32" s="7">
-        <v>14.139999999999999</v>
-      </c>
-      <c r="BX32" s="7">
+      <c r="BY32" s="7">
         <v>14.139999999999997</v>
       </c>
-      <c r="BY32" s="7">
-        <v>14.139999999999999</v>
-      </c>
       <c r="BZ32" s="7">
-        <v>14.139999999999999</v>
+        <v>14.139999999999997</v>
       </c>
       <c r="CA32" s="7">
-        <v>14.139999999999999</v>
+        <v>14.139999999999997</v>
       </c>
       <c r="CB32" s="7">
         <v>14.139999999999999</v>
       </c>
       <c r="CC32" s="7">
-        <v>14.139999999999999</v>
+        <v>14.139999999999997</v>
       </c>
       <c r="CD32" s="7">
         <v>14.139999999999999</v>
       </c>
       <c r="CE32" s="7">
-        <v>14.139999999999997</v>
+        <v>14.139999999999999</v>
       </c>
       <c r="CF32" s="8">
-        <v>14.139999999999997</v>
+        <v>14.139999999999999</v>
       </c>
       <c r="CH32">
         <v>30</v>
@@ -10748,7 +10748,7 @@
         <v>14.139999999999997</v>
       </c>
       <c r="CN32" s="7">
-        <v>14.139999999999997</v>
+        <v>14.139999999999999</v>
       </c>
       <c r="CO32" s="7">
         <v>14.139999999999997</v>
@@ -10763,7 +10763,7 @@
         <v>14.139999999999997</v>
       </c>
       <c r="CS32" s="7">
-        <v>14.139999999999997</v>
+        <v>14.139999999999999</v>
       </c>
       <c r="CT32" s="7">
         <v>14.139999999999997</v>
@@ -10775,25 +10775,25 @@
         <v>14.139999999999997</v>
       </c>
       <c r="CW32" s="7">
-        <v>14.139999999999999</v>
+        <v>14.139999999999997</v>
       </c>
       <c r="CX32" s="7">
-        <v>14.139999999999999</v>
+        <v>14.139999999999997</v>
       </c>
       <c r="CY32" s="7">
-        <v>14.139999999999999</v>
+        <v>14.139999999999997</v>
       </c>
       <c r="CZ32" s="7">
         <v>14.139999999999999</v>
       </c>
       <c r="DA32" s="7">
-        <v>14.139999999999999</v>
+        <v>14.139999999999997</v>
       </c>
       <c r="DB32" s="7">
         <v>14.139999999999999</v>
       </c>
       <c r="DC32" s="7">
-        <v>14.139999999999997</v>
+        <v>14.139999999999999</v>
       </c>
       <c r="DD32" s="7">
         <v>14.139999999999997</v>
@@ -10805,10 +10805,10 @@
         <v>14.139999999999997</v>
       </c>
       <c r="DG32" s="7">
-        <v>14.139999999999999</v>
+        <v>14.139999999999997</v>
       </c>
       <c r="DH32" s="8">
-        <v>14.139999999999999</v>
+        <v>14.139999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:112" x14ac:dyDescent="0.35">
@@ -10921,19 +10921,19 @@
         <v>49</v>
       </c>
       <c r="AM33" s="7">
-        <v>48.999999999999993</v>
+        <v>49</v>
       </c>
       <c r="AN33" s="7">
         <v>49</v>
       </c>
       <c r="AO33" s="7">
-        <v>49</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="AP33" s="7">
         <v>49</v>
       </c>
       <c r="AQ33" s="7">
-        <v>49</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="AR33" s="7">
         <v>49</v>
@@ -10957,16 +10957,16 @@
         <v>49</v>
       </c>
       <c r="AY33" s="7">
-        <v>49</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="AZ33" s="7">
         <v>49</v>
       </c>
       <c r="BA33" s="7">
-        <v>49</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="BB33" s="7">
-        <v>49</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="BC33" s="7">
         <v>49</v>
@@ -10987,7 +10987,7 @@
         <v>49</v>
       </c>
       <c r="BJ33" s="7">
-        <v>48.999999999999993</v>
+        <v>49</v>
       </c>
       <c r="BK33" s="7">
         <v>48.999999999999993</v>
@@ -11005,7 +11005,7 @@
         <v>49</v>
       </c>
       <c r="BP33" s="7">
-        <v>49</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="BQ33" s="7">
         <v>49</v>
@@ -11014,19 +11014,19 @@
         <v>49</v>
       </c>
       <c r="BS33" s="7">
-        <v>49</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="BT33" s="7">
         <v>49</v>
       </c>
       <c r="BU33" s="7">
-        <v>48.999999999999993</v>
+        <v>49</v>
       </c>
       <c r="BV33" s="7">
         <v>48.999999999999993</v>
       </c>
       <c r="BW33" s="7">
-        <v>48.999999999999993</v>
+        <v>49</v>
       </c>
       <c r="BX33" s="7">
         <v>49</v>
@@ -11062,13 +11062,13 @@
         <v>0</v>
       </c>
       <c r="CJ33" s="7">
-        <v>25.047116587635173</v>
+        <v>49</v>
       </c>
       <c r="CK33" s="7">
         <v>49</v>
       </c>
       <c r="CL33" s="7">
-        <v>48.999999999999993</v>
+        <v>49</v>
       </c>
       <c r="CM33" s="7">
         <v>48.999999999999993</v>
@@ -11089,7 +11089,7 @@
         <v>49</v>
       </c>
       <c r="CS33" s="7">
-        <v>49</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="CT33" s="7">
         <v>49</v>
@@ -11110,7 +11110,7 @@
         <v>49</v>
       </c>
       <c r="CZ33" s="7">
-        <v>48.999999999999993</v>
+        <v>49</v>
       </c>
       <c r="DA33" s="7">
         <v>49</v>
@@ -11122,7 +11122,7 @@
         <v>49</v>
       </c>
       <c r="DD33" s="7">
-        <v>49</v>
+        <v>48.999999999999993</v>
       </c>
       <c r="DE33" s="7">
         <v>49</v>
@@ -11131,10 +11131,10 @@
         <v>49</v>
       </c>
       <c r="DG33" s="7">
-        <v>48.999999999999993</v>
+        <v>49</v>
       </c>
       <c r="DH33" s="8">
-        <v>48.999999999999993</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:112" x14ac:dyDescent="0.35">
@@ -11169,7 +11169,7 @@
         <v>5.25</v>
       </c>
       <c r="K34" s="7">
-        <v>5.25</v>
+        <v>5.2499999999999929</v>
       </c>
       <c r="L34" s="7">
         <v>5.25</v>
@@ -11217,7 +11217,7 @@
         <v>5.25</v>
       </c>
       <c r="AA34" s="8">
-        <v>5.25</v>
+        <v>5.2499999999999964</v>
       </c>
       <c r="AD34">
         <v>32</v>
@@ -11232,7 +11232,7 @@
         <v>7.3499999999999943</v>
       </c>
       <c r="AH34" s="7">
-        <v>7.3499999999999943</v>
+        <v>7.3500000000000014</v>
       </c>
       <c r="AI34" s="7">
         <v>7.3499999999999943</v>
@@ -11244,43 +11244,43 @@
         <v>7.3500000000000014</v>
       </c>
       <c r="AL34" s="7">
-        <v>7.3500000000000014</v>
+        <v>7.3499999999999943</v>
       </c>
       <c r="AM34" s="7">
-        <v>7.3500000000000014</v>
+        <v>7.3499999999999943</v>
       </c>
       <c r="AN34" s="7">
         <v>7.3500000000000014</v>
       </c>
       <c r="AO34" s="7">
+        <v>7.35</v>
+      </c>
+      <c r="AP34" s="7">
         <v>7.3500000000000014</v>
       </c>
-      <c r="AP34" s="7">
-        <v>7.35</v>
-      </c>
       <c r="AQ34" s="7">
-        <v>7.35</v>
+        <v>7.3500000000000014</v>
       </c>
       <c r="AR34" s="7">
-        <v>7.35</v>
+        <v>7.3500000000000014</v>
       </c>
       <c r="AS34" s="7">
         <v>7.3499999999999979</v>
       </c>
       <c r="AT34" s="7">
-        <v>7.3499999999999979</v>
+        <v>7.3500000000000014</v>
       </c>
       <c r="AU34" s="7">
-        <v>7.3499999999999979</v>
+        <v>7.3499999999999943</v>
       </c>
       <c r="AV34" s="7">
         <v>7.3500000000000014</v>
       </c>
       <c r="AW34" s="7">
-        <v>7.35</v>
+        <v>7.3500000000000014</v>
       </c>
       <c r="AX34" s="7">
-        <v>7.35</v>
+        <v>7.3499999999999943</v>
       </c>
       <c r="AY34" s="7">
         <v>7.35</v>
@@ -11289,16 +11289,16 @@
         <v>7.3500000000000014</v>
       </c>
       <c r="BA34" s="7">
-        <v>7.3500000000000014</v>
+        <v>7.3499999999999943</v>
       </c>
       <c r="BB34" s="7">
         <v>7.3500000000000014</v>
       </c>
       <c r="BC34" s="7">
-        <v>7.3499999999999943</v>
+        <v>7.35</v>
       </c>
       <c r="BD34" s="8">
-        <v>7.3500000000000014</v>
+        <v>7.35</v>
       </c>
       <c r="BF34">
         <v>32</v>
@@ -11319,7 +11319,7 @@
         <v>7.3499999999999943</v>
       </c>
       <c r="BL34" s="7">
-        <v>7.3499999999999943</v>
+        <v>7.3499999999999979</v>
       </c>
       <c r="BM34" s="7">
         <v>7.3500000000000014</v>
@@ -11331,55 +11331,55 @@
         <v>7.3500000000000014</v>
       </c>
       <c r="BP34" s="7">
-        <v>7.3500000000000014</v>
+        <v>7.35</v>
       </c>
       <c r="BQ34" s="7">
         <v>7.3500000000000014</v>
       </c>
       <c r="BR34" s="7">
-        <v>7.3500000000000014</v>
+        <v>7.3499999999999943</v>
       </c>
       <c r="BS34" s="7">
-        <v>7.3500000000000014</v>
+        <v>7.35</v>
       </c>
       <c r="BT34" s="7">
-        <v>7.3500000000000014</v>
+        <v>7.3499999999999979</v>
       </c>
       <c r="BU34" s="7">
         <v>7.3500000000000014</v>
       </c>
       <c r="BV34" s="7">
+        <v>7.35</v>
+      </c>
+      <c r="BW34" s="7">
+        <v>7.3499999999999943</v>
+      </c>
+      <c r="BX34" s="7">
         <v>7.3500000000000014</v>
       </c>
-      <c r="BW34" s="7">
-        <v>7.3500000000000014</v>
-      </c>
-      <c r="BX34" s="7">
-        <v>7.35</v>
-      </c>
       <c r="BY34" s="7">
-        <v>7.3500000000000014</v>
+        <v>7.3499999999999943</v>
       </c>
       <c r="BZ34" s="7">
-        <v>7.3500000000000014</v>
+        <v>7.3499999999999979</v>
       </c>
       <c r="CA34" s="7">
-        <v>7.3500000000000014</v>
+        <v>7.3499999999999943</v>
       </c>
       <c r="CB34" s="7">
         <v>7.3499999999999943</v>
       </c>
       <c r="CC34" s="7">
-        <v>7.3499999999999943</v>
+        <v>7.35</v>
       </c>
       <c r="CD34" s="7">
-        <v>7.3499999999999943</v>
+        <v>7.3500000000000014</v>
       </c>
       <c r="CE34" s="7">
-        <v>7.3499999999999943</v>
+        <v>7.35</v>
       </c>
       <c r="CF34" s="8">
-        <v>7.3499999999999943</v>
+        <v>7.35</v>
       </c>
       <c r="CH34">
         <v>32</v>
@@ -11394,16 +11394,16 @@
         <v>7.3499999999999943</v>
       </c>
       <c r="CL34" s="7">
-        <v>7.35</v>
+        <v>7.3499999999999943</v>
       </c>
       <c r="CM34" s="7">
-        <v>7.35</v>
+        <v>7.3500000000000014</v>
       </c>
       <c r="CN34" s="7">
+        <v>7.3499999999999943</v>
+      </c>
+      <c r="CO34" s="7">
         <v>7.3500000000000014</v>
-      </c>
-      <c r="CO34" s="7">
-        <v>7.3499999999999943</v>
       </c>
       <c r="CP34" s="7">
         <v>7.3499999999999943</v>
@@ -11412,10 +11412,10 @@
         <v>7.3500000000000014</v>
       </c>
       <c r="CR34" s="7">
-        <v>7.3500000000000014</v>
+        <v>7.35</v>
       </c>
       <c r="CS34" s="7">
-        <v>7.3500000000000014</v>
+        <v>7.3499999999999943</v>
       </c>
       <c r="CT34" s="7">
         <v>7.3499999999999943</v>
@@ -11427,10 +11427,10 @@
         <v>7.3499999999999943</v>
       </c>
       <c r="CW34" s="7">
-        <v>7.3500000000000014</v>
+        <v>7.3499999999999943</v>
       </c>
       <c r="CX34" s="7">
-        <v>7.3500000000000014</v>
+        <v>7.3499999999999943</v>
       </c>
       <c r="CY34" s="7">
         <v>7.3500000000000014</v>
@@ -11439,28 +11439,28 @@
         <v>7.3499999999999943</v>
       </c>
       <c r="DA34" s="7">
-        <v>7.3500000000000014</v>
+        <v>7.3499999999999943</v>
       </c>
       <c r="DB34" s="7">
-        <v>7.3500000000000014</v>
+        <v>7.3499999999999943</v>
       </c>
       <c r="DC34" s="7">
         <v>7.3499999999999943</v>
       </c>
       <c r="DD34" s="7">
+        <v>7.3500000000000014</v>
+      </c>
+      <c r="DE34" s="7">
+        <v>7.3500000000000014</v>
+      </c>
+      <c r="DF34" s="7">
+        <v>7.3499999999999943</v>
+      </c>
+      <c r="DG34" s="7">
         <v>7.35</v>
       </c>
-      <c r="DE34" s="7">
-        <v>7.35</v>
-      </c>
-      <c r="DF34" s="7">
-        <v>7.35</v>
-      </c>
-      <c r="DG34" s="7">
-        <v>7.3499999999999943</v>
-      </c>
       <c r="DH34" s="8">
-        <v>7.3499999999999943</v>
+        <v>7.3500000000000014</v>
       </c>
     </row>
     <row r="35" spans="1:112" x14ac:dyDescent="0.35">
@@ -11480,7 +11480,7 @@
         <v>5</v>
       </c>
       <c r="F35" s="7">
-        <v>5</v>
+        <v>4.9999999999999964</v>
       </c>
       <c r="G35" s="7">
         <v>5</v>
@@ -11492,7 +11492,7 @@
         <v>5</v>
       </c>
       <c r="J35" s="7">
-        <v>4.9999999999999929</v>
+        <v>5</v>
       </c>
       <c r="K35" s="7">
         <v>5</v>
@@ -11561,7 +11561,7 @@
         <v>7</v>
       </c>
       <c r="AI35" s="7">
-        <v>7</v>
+        <v>6.9999999999999929</v>
       </c>
       <c r="AJ35" s="7">
         <v>7</v>
@@ -11582,7 +11582,7 @@
         <v>7</v>
       </c>
       <c r="AP35" s="7">
-        <v>7</v>
+        <v>6.9999999999999929</v>
       </c>
       <c r="AQ35" s="7">
         <v>7</v>
@@ -11684,7 +11684,7 @@
         <v>7</v>
       </c>
       <c r="BY35" s="7">
-        <v>7</v>
+        <v>6.9999999999999929</v>
       </c>
       <c r="BZ35" s="7">
         <v>7</v>
@@ -11696,7 +11696,7 @@
         <v>7</v>
       </c>
       <c r="CC35" s="7">
-        <v>7</v>
+        <v>7.0000000000000018</v>
       </c>
       <c r="CD35" s="7">
         <v>7</v>
@@ -11705,7 +11705,7 @@
         <v>7</v>
       </c>
       <c r="CF35" s="8">
-        <v>7</v>
+        <v>7.0000000000000018</v>
       </c>
       <c r="CH35">
         <v>33</v>
@@ -11738,7 +11738,7 @@
         <v>7</v>
       </c>
       <c r="CR35" s="7">
-        <v>7</v>
+        <v>7.0000000000000018</v>
       </c>
       <c r="CS35" s="7">
         <v>7</v>
@@ -11774,13 +11774,13 @@
         <v>7</v>
       </c>
       <c r="DD35" s="7">
-        <v>7.0000000000000018</v>
+        <v>7</v>
       </c>
       <c r="DE35" s="7">
-        <v>7.0000000000000018</v>
+        <v>7.0000000000000036</v>
       </c>
       <c r="DF35" s="7">
-        <v>7.0000000000000018</v>
+        <v>7</v>
       </c>
       <c r="DG35" s="7">
         <v>7</v>
@@ -11815,7 +11815,7 @@
         <v>5</v>
       </c>
       <c r="I36" s="7">
-        <v>5</v>
+        <v>5.0000000000000009</v>
       </c>
       <c r="J36" s="7">
         <v>5</v>
@@ -11842,7 +11842,7 @@
         <v>5</v>
       </c>
       <c r="R36" s="7">
-        <v>5</v>
+        <v>5.0000000000000009</v>
       </c>
       <c r="S36" s="7">
         <v>5</v>
@@ -11917,13 +11917,13 @@
         <v>7</v>
       </c>
       <c r="AS36" s="7">
-        <v>7.0000000000000009</v>
+        <v>7</v>
       </c>
       <c r="AT36" s="7">
-        <v>7.0000000000000009</v>
+        <v>7</v>
       </c>
       <c r="AU36" s="7">
-        <v>7.0000000000000009</v>
+        <v>7</v>
       </c>
       <c r="AV36" s="7">
         <v>7</v>
@@ -12007,7 +12007,7 @@
         <v>7</v>
       </c>
       <c r="BX36" s="7">
-        <v>7</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="BY36" s="7">
         <v>7</v>
@@ -12046,7 +12046,7 @@
         <v>7</v>
       </c>
       <c r="CL36" s="7">
-        <v>7</v>
+        <v>6.9999999999999929</v>
       </c>
       <c r="CM36" s="7">
         <v>7</v>
@@ -12061,7 +12061,7 @@
         <v>7</v>
       </c>
       <c r="CQ36" s="7">
-        <v>7</v>
+        <v>6.9999999999999929</v>
       </c>
       <c r="CR36" s="7">
         <v>7</v>
@@ -12255,7 +12255,7 @@
         <v>7</v>
       </c>
       <c r="AW37" s="7">
-        <v>7</v>
+        <v>6.9999999999999929</v>
       </c>
       <c r="AX37" s="7">
         <v>7</v>
@@ -12315,7 +12315,7 @@
         <v>7</v>
       </c>
       <c r="BR37" s="7">
-        <v>7</v>
+        <v>6.9999999999999929</v>
       </c>
       <c r="BS37" s="7">
         <v>7</v>
@@ -12354,7 +12354,7 @@
         <v>7</v>
       </c>
       <c r="CE37" s="7">
-        <v>7</v>
+        <v>6.9999999999999929</v>
       </c>
       <c r="CF37" s="8">
         <v>7</v>
@@ -12387,7 +12387,7 @@
         <v>7</v>
       </c>
       <c r="CQ37" s="7">
-        <v>7</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="CR37" s="7">
         <v>7</v>
@@ -12414,7 +12414,7 @@
         <v>7</v>
       </c>
       <c r="CZ37" s="7">
-        <v>7</v>
+        <v>6.9999999999999929</v>
       </c>
       <c r="DA37" s="7">
         <v>7</v>
@@ -12548,7 +12548,7 @@
         <v>7</v>
       </c>
       <c r="AL38" s="7">
-        <v>7</v>
+        <v>6.9999999999999929</v>
       </c>
       <c r="AM38" s="7">
         <v>7</v>
@@ -12557,7 +12557,7 @@
         <v>7</v>
       </c>
       <c r="AO38" s="7">
-        <v>7</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="AP38" s="7">
         <v>7</v>
@@ -12590,7 +12590,7 @@
         <v>7</v>
       </c>
       <c r="AZ38" s="7">
-        <v>7</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="BA38" s="7">
         <v>7</v>
@@ -12617,7 +12617,7 @@
         <v>7</v>
       </c>
       <c r="BJ38" s="7">
-        <v>7.0000000000000009</v>
+        <v>7</v>
       </c>
       <c r="BK38" s="7">
         <v>7.0000000000000009</v>
@@ -12698,10 +12698,10 @@
         <v>7</v>
       </c>
       <c r="CL38" s="7">
-        <v>7.0000000000000009</v>
+        <v>7</v>
       </c>
       <c r="CM38" s="7">
-        <v>7.0000000000000009</v>
+        <v>7</v>
       </c>
       <c r="CN38" s="7">
         <v>7</v>
@@ -12781,19 +12781,19 @@
         <v>5.0499999999999972</v>
       </c>
       <c r="E39" s="7">
-        <v>5.05</v>
+        <v>5.0499999999999972</v>
       </c>
       <c r="F39" s="7">
-        <v>5.05</v>
+        <v>5.0499999999999972</v>
       </c>
       <c r="G39" s="7">
-        <v>5.05</v>
+        <v>5.0499999999999972</v>
       </c>
       <c r="H39" s="7">
         <v>5.0499999999999972</v>
       </c>
       <c r="I39" s="7">
-        <v>5.0499999999999972</v>
+        <v>5.05</v>
       </c>
       <c r="J39" s="7">
         <v>5.0499999999999972</v>
@@ -12805,7 +12805,7 @@
         <v>5.0499999999999972</v>
       </c>
       <c r="M39" s="7">
-        <v>5.0499999999999972</v>
+        <v>5.05</v>
       </c>
       <c r="N39" s="7">
         <v>5.0499999999999972</v>
@@ -12814,25 +12814,25 @@
         <v>5.0499999999999972</v>
       </c>
       <c r="P39" s="7">
-        <v>5.05</v>
+        <v>5.0499999999999972</v>
       </c>
       <c r="Q39" s="7">
-        <v>5.05</v>
+        <v>5.0499999999999972</v>
       </c>
       <c r="R39" s="7">
         <v>5.05</v>
       </c>
       <c r="S39" s="7">
-        <v>5.05</v>
+        <v>5.0499999999999972</v>
       </c>
       <c r="T39" s="7">
         <v>5.05</v>
       </c>
       <c r="U39" s="7">
-        <v>5.05</v>
+        <v>5.0499999999999972</v>
       </c>
       <c r="V39" s="7">
-        <v>5.05</v>
+        <v>5.0500000000000007</v>
       </c>
       <c r="W39" s="7">
         <v>5.0499999999999972</v>
@@ -12841,10 +12841,10 @@
         <v>5.0499999999999972</v>
       </c>
       <c r="Y39" s="7">
-        <v>5.0499999999999972</v>
+        <v>5.0500000000000007</v>
       </c>
       <c r="Z39" s="7">
-        <v>5.0499999999999972</v>
+        <v>5.0500000000000007</v>
       </c>
       <c r="AA39" s="8">
         <v>5.0499999999999972</v>
@@ -12874,40 +12874,40 @@
         <v>7.0699999999999932</v>
       </c>
       <c r="AL39" s="7">
+        <v>7.07</v>
+      </c>
+      <c r="AM39" s="7">
         <v>7.0699999999999932</v>
       </c>
-      <c r="AM39" s="7">
+      <c r="AN39" s="7">
         <v>7.0699999999999994</v>
       </c>
-      <c r="AN39" s="7">
-        <v>7.07</v>
-      </c>
       <c r="AO39" s="7">
-        <v>7.07</v>
+        <v>7.0699999999999994</v>
       </c>
       <c r="AP39" s="7">
         <v>7.0699999999999932</v>
       </c>
       <c r="AQ39" s="7">
-        <v>7.0699999999999932</v>
+        <v>7.0699999999999994</v>
       </c>
       <c r="AR39" s="7">
         <v>7.0699999999999932</v>
       </c>
       <c r="AS39" s="7">
-        <v>7.0699999999999994</v>
+        <v>7.0699999999999932</v>
       </c>
       <c r="AT39" s="7">
-        <v>7.0699999999999994</v>
+        <v>7.0699999999999932</v>
       </c>
       <c r="AU39" s="7">
-        <v>7.0699999999999994</v>
+        <v>7.0699999999999932</v>
       </c>
       <c r="AV39" s="7">
+        <v>7.0699999999999932</v>
+      </c>
+      <c r="AW39" s="7">
         <v>7.07</v>
-      </c>
-      <c r="AW39" s="7">
-        <v>7.0699999999999994</v>
       </c>
       <c r="AX39" s="7">
         <v>7.0699999999999994</v>
@@ -12916,19 +12916,19 @@
         <v>7.0699999999999994</v>
       </c>
       <c r="AZ39" s="7">
-        <v>7.07</v>
+        <v>7.0699999999999994</v>
       </c>
       <c r="BA39" s="7">
-        <v>7.07</v>
+        <v>7.0699999999999994</v>
       </c>
       <c r="BB39" s="7">
         <v>7.07</v>
       </c>
       <c r="BC39" s="7">
+        <v>7.0699999999999932</v>
+      </c>
+      <c r="BD39" s="8">
         <v>7.07</v>
-      </c>
-      <c r="BD39" s="8">
-        <v>7.0699999999999994</v>
       </c>
       <c r="BF39">
         <v>37</v>
@@ -12943,34 +12943,34 @@
         <v>7.0699999999999932</v>
       </c>
       <c r="BJ39" s="7">
-        <v>7.0699999999999994</v>
+        <v>7.0699999999999932</v>
       </c>
       <c r="BK39" s="7">
         <v>7.0699999999999994</v>
       </c>
       <c r="BL39" s="7">
-        <v>7.0699999999999994</v>
+        <v>7.0699999999999932</v>
       </c>
       <c r="BM39" s="7">
         <v>7.07</v>
       </c>
       <c r="BN39" s="7">
+        <v>7.0699999999999994</v>
+      </c>
+      <c r="BO39" s="7">
         <v>7.07</v>
-      </c>
-      <c r="BO39" s="7">
-        <v>7.0699999999999932</v>
       </c>
       <c r="BP39" s="7">
         <v>7.07</v>
       </c>
       <c r="BQ39" s="7">
+        <v>7.0699999999999932</v>
+      </c>
+      <c r="BR39" s="7">
+        <v>7.0699999999999994</v>
+      </c>
+      <c r="BS39" s="7">
         <v>7.07</v>
-      </c>
-      <c r="BR39" s="7">
-        <v>7.0699999999999932</v>
-      </c>
-      <c r="BS39" s="7">
-        <v>7.0699999999999932</v>
       </c>
       <c r="BT39" s="7">
         <v>7.0699999999999932</v>
@@ -12979,31 +12979,31 @@
         <v>7.07</v>
       </c>
       <c r="BV39" s="7">
-        <v>7.07</v>
+        <v>7.0699999999999994</v>
       </c>
       <c r="BW39" s="7">
         <v>7.07</v>
       </c>
       <c r="BX39" s="7">
-        <v>7.0699999999999932</v>
+        <v>7.0699999999999994</v>
       </c>
       <c r="BY39" s="7">
         <v>7.0699999999999932</v>
       </c>
       <c r="BZ39" s="7">
-        <v>7.0699999999999932</v>
+        <v>7.07</v>
       </c>
       <c r="CA39" s="7">
         <v>7.0699999999999932</v>
       </c>
       <c r="CB39" s="7">
-        <v>7.07</v>
+        <v>7.0699999999999932</v>
       </c>
       <c r="CC39" s="7">
-        <v>7.07</v>
+        <v>7.0699999999999932</v>
       </c>
       <c r="CD39" s="7">
-        <v>7.07</v>
+        <v>7.0699999999999932</v>
       </c>
       <c r="CE39" s="7">
         <v>7.07</v>
@@ -13024,7 +13024,7 @@
         <v>7.0699999999999932</v>
       </c>
       <c r="CL39" s="7">
-        <v>7.0699999999999994</v>
+        <v>7.07</v>
       </c>
       <c r="CM39" s="7">
         <v>7.0699999999999994</v>
@@ -13033,19 +13033,19 @@
         <v>7.0699999999999932</v>
       </c>
       <c r="CO39" s="7">
+        <v>7.0699999999999932</v>
+      </c>
+      <c r="CP39" s="7">
+        <v>7.07</v>
+      </c>
+      <c r="CQ39" s="7">
         <v>7.0699999999999994</v>
-      </c>
-      <c r="CP39" s="7">
-        <v>7.0699999999999994</v>
-      </c>
-      <c r="CQ39" s="7">
-        <v>7.07</v>
       </c>
       <c r="CR39" s="7">
         <v>7.0699999999999932</v>
       </c>
       <c r="CS39" s="7">
-        <v>7.0699999999999932</v>
+        <v>7.07</v>
       </c>
       <c r="CT39" s="7">
         <v>7.0699999999999932</v>
@@ -13069,25 +13069,25 @@
         <v>7.07</v>
       </c>
       <c r="DA39" s="7">
-        <v>7.07</v>
+        <v>7.0699999999999932</v>
       </c>
       <c r="DB39" s="7">
-        <v>7.07</v>
+        <v>7.0699999999999932</v>
       </c>
       <c r="DC39" s="7">
-        <v>7.07</v>
+        <v>7.0699999999999932</v>
       </c>
       <c r="DD39" s="7">
         <v>7.0699999999999994</v>
       </c>
       <c r="DE39" s="7">
-        <v>7.0699999999999994</v>
+        <v>7.0699999999999932</v>
       </c>
       <c r="DF39" s="7">
         <v>7.0699999999999994</v>
       </c>
       <c r="DG39" s="7">
-        <v>7.07</v>
+        <v>7.0699999999999932</v>
       </c>
       <c r="DH39" s="8">
         <v>7.07</v>
@@ -13110,7 +13110,7 @@
         <v>5.0500000000000007</v>
       </c>
       <c r="F40" s="7">
-        <v>5.0500000000000007</v>
+        <v>5.05</v>
       </c>
       <c r="G40" s="7">
         <v>5.05</v>
@@ -13119,46 +13119,46 @@
         <v>5.0500000000000007</v>
       </c>
       <c r="I40" s="7">
-        <v>5.0500000000000007</v>
+        <v>5.05</v>
       </c>
       <c r="J40" s="7">
         <v>5.0500000000000007</v>
       </c>
       <c r="K40" s="7">
-        <v>5.0500000000000007</v>
+        <v>5.05</v>
       </c>
       <c r="L40" s="7">
         <v>5.0500000000000007</v>
       </c>
       <c r="M40" s="7">
-        <v>5.05</v>
+        <v>5.0500000000000007</v>
       </c>
       <c r="N40" s="7">
-        <v>5.05</v>
+        <v>5.0500000000000007</v>
       </c>
       <c r="O40" s="7">
-        <v>5.05</v>
+        <v>5.0499999999999989</v>
       </c>
       <c r="P40" s="7">
-        <v>5.05</v>
+        <v>5.0500000000000007</v>
       </c>
       <c r="Q40" s="7">
-        <v>5.05</v>
+        <v>5.0499999999999989</v>
       </c>
       <c r="R40" s="7">
-        <v>5.05</v>
+        <v>5.0500000000000007</v>
       </c>
       <c r="S40" s="7">
         <v>5.0500000000000007</v>
       </c>
       <c r="T40" s="7">
-        <v>5.0500000000000007</v>
+        <v>5.05</v>
       </c>
       <c r="U40" s="7">
-        <v>5.0500000000000007</v>
+        <v>5.0499999999999989</v>
       </c>
       <c r="V40" s="7">
-        <v>5.0500000000000007</v>
+        <v>5.0499999999999989</v>
       </c>
       <c r="W40" s="7">
         <v>5.0500000000000007</v>
@@ -13167,13 +13167,13 @@
         <v>5.0500000000000007</v>
       </c>
       <c r="Y40" s="7">
-        <v>5.0500000000000007</v>
+        <v>5.05</v>
       </c>
       <c r="Z40" s="7">
-        <v>5.0499999999999989</v>
+        <v>5.05</v>
       </c>
       <c r="AA40" s="8">
-        <v>5.0500000000000007</v>
+        <v>5.05</v>
       </c>
       <c r="AD40">
         <v>38</v>
@@ -13182,43 +13182,43 @@
         <v>0</v>
       </c>
       <c r="AF40" s="7">
+        <v>7.0699999999999994</v>
+      </c>
+      <c r="AG40" s="7">
+        <v>7.0699999999999994</v>
+      </c>
+      <c r="AH40" s="7">
         <v>7.07</v>
       </c>
-      <c r="AG40" s="7">
+      <c r="AI40" s="7">
         <v>7.07</v>
       </c>
-      <c r="AH40" s="7">
+      <c r="AJ40" s="7">
+        <v>7.0699999999999994</v>
+      </c>
+      <c r="AK40" s="7">
         <v>7.0699999999999985</v>
       </c>
-      <c r="AI40" s="7">
-        <v>7.0699999999999985</v>
-      </c>
-      <c r="AJ40" s="7">
-        <v>7.0699999999999985</v>
-      </c>
-      <c r="AK40" s="7">
-        <v>7.07</v>
-      </c>
       <c r="AL40" s="7">
-        <v>7.07</v>
+        <v>7.0699999999999994</v>
       </c>
       <c r="AM40" s="7">
         <v>7.0699999999999994</v>
       </c>
       <c r="AN40" s="7">
-        <v>7.0699999999999994</v>
+        <v>7.07</v>
       </c>
       <c r="AO40" s="7">
         <v>7.0699999999999994</v>
       </c>
       <c r="AP40" s="7">
-        <v>7.0699999999999994</v>
+        <v>7.07</v>
       </c>
       <c r="AQ40" s="7">
-        <v>7.0699999999999994</v>
+        <v>7.07</v>
       </c>
       <c r="AR40" s="7">
-        <v>7.0699999999999994</v>
+        <v>7.07</v>
       </c>
       <c r="AS40" s="7">
         <v>7.07</v>
@@ -13230,31 +13230,31 @@
         <v>7.07</v>
       </c>
       <c r="AV40" s="7">
-        <v>7.0699999999999994</v>
+        <v>7.07</v>
       </c>
       <c r="AW40" s="7">
-        <v>7.0699999999999985</v>
+        <v>7.07</v>
       </c>
       <c r="AX40" s="7">
-        <v>7.0699999999999985</v>
+        <v>7.07</v>
       </c>
       <c r="AY40" s="7">
-        <v>7.0699999999999985</v>
+        <v>7.07</v>
       </c>
       <c r="AZ40" s="7">
-        <v>7.0699999999999985</v>
+        <v>7.07</v>
       </c>
       <c r="BA40" s="7">
         <v>7.0699999999999985</v>
       </c>
       <c r="BB40" s="7">
-        <v>7.0699999999999985</v>
+        <v>7.07</v>
       </c>
       <c r="BC40" s="7">
         <v>7.07</v>
       </c>
       <c r="BD40" s="8">
-        <v>7.07</v>
+        <v>7.0699999999999985</v>
       </c>
       <c r="BF40">
         <v>38</v>
@@ -13263,28 +13263,28 @@
         <v>0</v>
       </c>
       <c r="BH40" s="7">
+        <v>7.07</v>
+      </c>
+      <c r="BI40" s="7">
+        <v>7.07</v>
+      </c>
+      <c r="BJ40" s="7">
         <v>7.0699999999999994</v>
       </c>
-      <c r="BI40" s="7">
-        <v>7.0699999999999994</v>
-      </c>
-      <c r="BJ40" s="7">
-        <v>7.0699999999999985</v>
-      </c>
       <c r="BK40" s="7">
-        <v>7.0699999999999985</v>
+        <v>7.07</v>
       </c>
       <c r="BL40" s="7">
         <v>7.07</v>
       </c>
       <c r="BM40" s="7">
+        <v>7.07</v>
+      </c>
+      <c r="BN40" s="7">
+        <v>7.07</v>
+      </c>
+      <c r="BO40" s="7">
         <v>7.0699999999999994</v>
-      </c>
-      <c r="BN40" s="7">
-        <v>7.0699999999999994</v>
-      </c>
-      <c r="BO40" s="7">
-        <v>7.07</v>
       </c>
       <c r="BP40" s="7">
         <v>7.07</v>
@@ -13293,49 +13293,49 @@
         <v>7.07</v>
       </c>
       <c r="BR40" s="7">
+        <v>7.0699999999999994</v>
+      </c>
+      <c r="BS40" s="7">
+        <v>7.0699999999999994</v>
+      </c>
+      <c r="BT40" s="7">
+        <v>7.0699999999999994</v>
+      </c>
+      <c r="BU40" s="7">
+        <v>7.0699999999999994</v>
+      </c>
+      <c r="BV40" s="7">
+        <v>7.0699999999999994</v>
+      </c>
+      <c r="BW40" s="7">
         <v>7.07</v>
       </c>
-      <c r="BS40" s="7">
+      <c r="BX40" s="7">
+        <v>7.0699999999999985</v>
+      </c>
+      <c r="BY40" s="7">
+        <v>7.0699999999999994</v>
+      </c>
+      <c r="BZ40" s="7">
+        <v>7.0699999999999994</v>
+      </c>
+      <c r="CA40" s="7">
         <v>7.07</v>
-      </c>
-      <c r="BT40" s="7">
-        <v>7.07</v>
-      </c>
-      <c r="BU40" s="7">
-        <v>7.0699999999999985</v>
-      </c>
-      <c r="BV40" s="7">
-        <v>7.0699999999999985</v>
-      </c>
-      <c r="BW40" s="7">
-        <v>7.0699999999999985</v>
-      </c>
-      <c r="BX40" s="7">
-        <v>7.07</v>
-      </c>
-      <c r="BY40" s="7">
-        <v>7.0699999999999985</v>
-      </c>
-      <c r="BZ40" s="7">
-        <v>7.0699999999999985</v>
-      </c>
-      <c r="CA40" s="7">
-        <v>7.0699999999999985</v>
       </c>
       <c r="CB40" s="7">
         <v>7.0699999999999985</v>
       </c>
       <c r="CC40" s="7">
-        <v>7.0699999999999985</v>
+        <v>7.07</v>
       </c>
       <c r="CD40" s="7">
         <v>7.0699999999999985</v>
       </c>
       <c r="CE40" s="7">
-        <v>7.07</v>
+        <v>7.0699999999999985</v>
       </c>
       <c r="CF40" s="8">
-        <v>7.0699999999999994</v>
+        <v>7.0699999999999985</v>
       </c>
       <c r="CH40">
         <v>38</v>
@@ -13347,22 +13347,22 @@
         <v>7.0699999999999994</v>
       </c>
       <c r="CK40" s="7">
-        <v>7.0699999999999994</v>
+        <v>7.07</v>
       </c>
       <c r="CL40" s="7">
-        <v>7.0699999999999994</v>
+        <v>7.07</v>
       </c>
       <c r="CM40" s="7">
-        <v>7.0699999999999994</v>
+        <v>7.07</v>
       </c>
       <c r="CN40" s="7">
-        <v>7.0699999999999994</v>
+        <v>7.07</v>
       </c>
       <c r="CO40" s="7">
         <v>7.0699999999999994</v>
       </c>
       <c r="CP40" s="7">
-        <v>7.0699999999999994</v>
+        <v>7.07</v>
       </c>
       <c r="CQ40" s="7">
         <v>7.07</v>
@@ -13371,7 +13371,7 @@
         <v>7.07</v>
       </c>
       <c r="CS40" s="7">
-        <v>7.07</v>
+        <v>7.0699999999999985</v>
       </c>
       <c r="CT40" s="7">
         <v>7.0699999999999994</v>
@@ -13380,43 +13380,43 @@
         <v>7.0699999999999994</v>
       </c>
       <c r="CV40" s="7">
+        <v>7.07</v>
+      </c>
+      <c r="CW40" s="7">
         <v>7.0699999999999994</v>
       </c>
-      <c r="CW40" s="7">
+      <c r="CX40" s="7">
+        <v>7.0699999999999994</v>
+      </c>
+      <c r="CY40" s="7">
+        <v>7.07</v>
+      </c>
+      <c r="CZ40" s="7">
+        <v>7.07</v>
+      </c>
+      <c r="DA40" s="7">
+        <v>7.0699999999999994</v>
+      </c>
+      <c r="DB40" s="7">
+        <v>7.07</v>
+      </c>
+      <c r="DC40" s="7">
         <v>7.0699999999999985</v>
       </c>
-      <c r="CX40" s="7">
-        <v>7.0699999999999985</v>
-      </c>
-      <c r="CY40" s="7">
-        <v>7.0699999999999985</v>
-      </c>
-      <c r="CZ40" s="7">
-        <v>7.0699999999999985</v>
-      </c>
-      <c r="DA40" s="7">
-        <v>7.0699999999999985</v>
-      </c>
-      <c r="DB40" s="7">
-        <v>7.0699999999999985</v>
-      </c>
-      <c r="DC40" s="7">
+      <c r="DD40" s="7">
+        <v>7.0699999999999994</v>
+      </c>
+      <c r="DE40" s="7">
+        <v>7.0699999999999994</v>
+      </c>
+      <c r="DF40" s="7">
+        <v>7.0699999999999994</v>
+      </c>
+      <c r="DG40" s="7">
+        <v>7.0699999999999994</v>
+      </c>
+      <c r="DH40" s="8">
         <v>7.07</v>
-      </c>
-      <c r="DD40" s="7">
-        <v>7.07</v>
-      </c>
-      <c r="DE40" s="7">
-        <v>7.07</v>
-      </c>
-      <c r="DF40" s="7">
-        <v>7.07</v>
-      </c>
-      <c r="DG40" s="7">
-        <v>7.0699999999999985</v>
-      </c>
-      <c r="DH40" s="8">
-        <v>7.0699999999999985</v>
       </c>
     </row>
     <row r="41" spans="1:112" x14ac:dyDescent="0.35">
@@ -13448,7 +13448,7 @@
         <v>5</v>
       </c>
       <c r="J41" s="7">
-        <v>5</v>
+        <v>4.9999999999999929</v>
       </c>
       <c r="K41" s="7">
         <v>5</v>
@@ -13460,13 +13460,13 @@
         <v>5</v>
       </c>
       <c r="N41" s="7">
-        <v>5</v>
+        <v>4.9999999999999964</v>
       </c>
       <c r="O41" s="7">
         <v>5</v>
       </c>
       <c r="P41" s="7">
-        <v>5</v>
+        <v>5.0000000000000071</v>
       </c>
       <c r="Q41" s="7">
         <v>5</v>
@@ -13499,7 +13499,7 @@
         <v>5</v>
       </c>
       <c r="AA41" s="8">
-        <v>5.0000000000000071</v>
+        <v>5</v>
       </c>
       <c r="AD41">
         <v>39</v>
@@ -13523,7 +13523,7 @@
         <v>7</v>
       </c>
       <c r="AK41" s="7">
-        <v>7</v>
+        <v>7.0000000000000036</v>
       </c>
       <c r="AL41" s="7">
         <v>7</v>
@@ -13532,7 +13532,7 @@
         <v>7</v>
       </c>
       <c r="AN41" s="7">
-        <v>7</v>
+        <v>7.0000000000000036</v>
       </c>
       <c r="AO41" s="7">
         <v>7</v>
@@ -13637,7 +13637,7 @@
         <v>7</v>
       </c>
       <c r="BX41" s="7">
-        <v>7</v>
+        <v>6.9999999999999929</v>
       </c>
       <c r="BY41" s="7">
         <v>7</v>
@@ -13658,7 +13658,7 @@
         <v>7</v>
       </c>
       <c r="CE41" s="7">
-        <v>7</v>
+        <v>6.9999999999999929</v>
       </c>
       <c r="CF41" s="8">
         <v>7</v>
@@ -13727,7 +13727,7 @@
         <v>7</v>
       </c>
       <c r="DC41" s="7">
-        <v>7.0000000000000036</v>
+        <v>7</v>
       </c>
       <c r="DD41" s="7">
         <v>7</v>
@@ -13739,10 +13739,10 @@
         <v>7</v>
       </c>
       <c r="DG41" s="7">
-        <v>7</v>
+        <v>7.0000000000000018</v>
       </c>
       <c r="DH41" s="8">
-        <v>7</v>
+        <v>6.9999999999999929</v>
       </c>
     </row>
     <row r="42" spans="1:112" x14ac:dyDescent="0.35">
@@ -13780,7 +13780,7 @@
         <v>6</v>
       </c>
       <c r="L42" s="7">
-        <v>6</v>
+        <v>6.0000000000000071</v>
       </c>
       <c r="M42" s="7">
         <v>6</v>
@@ -13822,10 +13822,10 @@
         <v>6</v>
       </c>
       <c r="Z42" s="7">
+        <v>5.9999999999999964</v>
+      </c>
+      <c r="AA42" s="8">
         <v>6</v>
-      </c>
-      <c r="AA42" s="8">
-        <v>5.9999999999999964</v>
       </c>
       <c r="AD42">
         <v>40</v>
@@ -13846,22 +13846,22 @@
         <v>8.4000000000000057</v>
       </c>
       <c r="AJ42" s="7">
-        <v>8.4</v>
+        <v>8.4000000000000057</v>
       </c>
       <c r="AK42" s="7">
         <v>8.3999999999999986</v>
       </c>
       <c r="AL42" s="7">
-        <v>8.3999999999999986</v>
+        <v>8.3999999999999915</v>
       </c>
       <c r="AM42" s="7">
-        <v>8.3999999999999986</v>
+        <v>8.3999999999999915</v>
       </c>
       <c r="AN42" s="7">
-        <v>8.3999999999999986</v>
+        <v>8.4000000000000057</v>
       </c>
       <c r="AO42" s="7">
-        <v>8.3999999999999986</v>
+        <v>8.4</v>
       </c>
       <c r="AP42" s="7">
         <v>8.3999999999999986</v>
@@ -13876,16 +13876,16 @@
         <v>8.4000000000000057</v>
       </c>
       <c r="AT42" s="7">
-        <v>8.4000000000000057</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="AU42" s="7">
-        <v>8.4000000000000057</v>
+        <v>8.3999999999999915</v>
       </c>
       <c r="AV42" s="7">
         <v>8.4000000000000057</v>
       </c>
       <c r="AW42" s="7">
-        <v>8.3999999999999986</v>
+        <v>8.4000000000000057</v>
       </c>
       <c r="AX42" s="7">
         <v>8.3999999999999986</v>
@@ -13900,13 +13900,13 @@
         <v>8.3999999999999986</v>
       </c>
       <c r="BB42" s="7">
-        <v>8.3999999999999986</v>
+        <v>8.3999999999999915</v>
       </c>
       <c r="BC42" s="7">
-        <v>8.3999999999999986</v>
+        <v>8.3999999999999915</v>
       </c>
       <c r="BD42" s="8">
-        <v>8.3999999999999986</v>
+        <v>8.3999999999999915</v>
       </c>
       <c r="BF42">
         <v>40</v>
@@ -13921,37 +13921,37 @@
         <v>8.3999999999999915</v>
       </c>
       <c r="BJ42" s="7">
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="BK42" s="7">
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="BL42" s="7">
         <v>8.4000000000000057</v>
       </c>
-      <c r="BK42" s="7">
-        <v>8.4000000000000057</v>
-      </c>
-      <c r="BL42" s="7">
-        <v>8.3999999999999915</v>
-      </c>
       <c r="BM42" s="7">
-        <v>8.4000000000000057</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="BN42" s="7">
         <v>8.4000000000000057</v>
       </c>
       <c r="BO42" s="7">
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="BP42" s="7">
         <v>8.4000000000000057</v>
       </c>
-      <c r="BP42" s="7">
-        <v>8.3999999999999986</v>
-      </c>
       <c r="BQ42" s="7">
-        <v>8.3999999999999986</v>
+        <v>8.3999999999999915</v>
       </c>
       <c r="BR42" s="7">
         <v>8.3999999999999986</v>
       </c>
       <c r="BS42" s="7">
-        <v>8.3999999999999986</v>
+        <v>8.4</v>
       </c>
       <c r="BT42" s="7">
-        <v>8.3999999999999986</v>
+        <v>8.4000000000000057</v>
       </c>
       <c r="BU42" s="7">
         <v>8.4000000000000057</v>
@@ -13960,34 +13960,34 @@
         <v>8.4000000000000057</v>
       </c>
       <c r="BW42" s="7">
-        <v>8.4000000000000057</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="BX42" s="7">
         <v>8.3999999999999986</v>
       </c>
       <c r="BY42" s="7">
-        <v>8.3999999999999986</v>
+        <v>8.3999999999999915</v>
       </c>
       <c r="BZ42" s="7">
-        <v>8.3999999999999986</v>
+        <v>8.4000000000000057</v>
       </c>
       <c r="CA42" s="7">
         <v>8.3999999999999986</v>
       </c>
       <c r="CB42" s="7">
-        <v>8.399999999999995</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="CC42" s="7">
-        <v>8.399999999999995</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="CD42" s="7">
-        <v>8.399999999999995</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="CE42" s="7">
-        <v>8.3999999999999915</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="CF42" s="8">
-        <v>8.3999999999999915</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="CH42">
         <v>40</v>
@@ -13996,28 +13996,28 @@
         <v>0</v>
       </c>
       <c r="CJ42" s="7">
+        <v>8.4000000000000057</v>
+      </c>
+      <c r="CK42" s="7">
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="CL42" s="7">
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="CM42" s="7">
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="CN42" s="7">
         <v>8.3999999999999915</v>
       </c>
-      <c r="CK42" s="7">
-        <v>8.3999999999999915</v>
-      </c>
-      <c r="CL42" s="7">
+      <c r="CO42" s="7">
         <v>8.4000000000000057</v>
       </c>
-      <c r="CM42" s="7">
-        <v>8.4000000000000057</v>
-      </c>
-      <c r="CN42" s="7">
-        <v>8.4000000000000057</v>
-      </c>
-      <c r="CO42" s="7">
-        <v>8.3999999999999915</v>
-      </c>
       <c r="CP42" s="7">
-        <v>8.3999999999999915</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="CQ42" s="7">
-        <v>8.3999999999999915</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="CR42" s="7">
         <v>8.3999999999999915</v>
@@ -14026,13 +14026,13 @@
         <v>8.3999999999999915</v>
       </c>
       <c r="CT42" s="7">
-        <v>8.4000000000000057</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="CU42" s="7">
         <v>8.4000000000000057</v>
       </c>
       <c r="CV42" s="7">
-        <v>8.4000000000000057</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="CW42" s="7">
         <v>8.3999999999999986</v>
@@ -14050,10 +14050,10 @@
         <v>8.4000000000000057</v>
       </c>
       <c r="DB42" s="7">
-        <v>8.4000000000000057</v>
+        <v>8.3999999999999915</v>
       </c>
       <c r="DC42" s="7">
-        <v>8.4000000000000057</v>
+        <v>8.3999999999999915</v>
       </c>
       <c r="DD42" s="7">
         <v>8.4000000000000057</v>
@@ -14062,13 +14062,13 @@
         <v>8.4000000000000057</v>
       </c>
       <c r="DF42" s="7">
-        <v>8.4000000000000057</v>
+        <v>8.3999999999999915</v>
       </c>
       <c r="DG42" s="7">
-        <v>8.3999999999999915</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="DH42" s="8">
-        <v>8.4000000000000057</v>
+        <v>8.399999999999995</v>
       </c>
     </row>
     <row r="43" spans="1:112" x14ac:dyDescent="0.35">
@@ -15457,28 +15457,28 @@
         <v>113.64055091050676</v>
       </c>
       <c r="P49" s="4">
-        <v>43.025546875251791</v>
+        <v>43.025546875266826</v>
       </c>
       <c r="Q49" s="4">
-        <v>82.076788685997286</v>
+        <v>82.07678868600243</v>
       </c>
       <c r="R49" s="4">
-        <v>191.09856591319243</v>
+        <v>191.09856591317742</v>
       </c>
       <c r="S49" s="4">
-        <v>214.72672166283394</v>
+        <v>214.72672166284895</v>
       </c>
       <c r="T49" s="4">
         <v>169.54102191856558</v>
       </c>
       <c r="U49" s="4">
-        <v>373.42322690574201</v>
+        <v>373.42322690574861</v>
       </c>
       <c r="V49" s="4">
         <v>373.34160110516569</v>
       </c>
       <c r="W49" s="4">
-        <v>232.74508465234652</v>
+        <v>232.74508465235402</v>
       </c>
       <c r="X49" s="4">
         <v>120.88641916859437</v>
@@ -15490,7 +15490,7 @@
         <v>237.82224610155279</v>
       </c>
       <c r="AA49" s="5">
-        <v>301.16720555128626</v>
+        <v>301.16720555128677</v>
       </c>
       <c r="AD49">
         <v>1</v>
@@ -15532,7 +15532,7 @@
         <v>495.58878451388028</v>
       </c>
       <c r="AQ49" s="4">
-        <v>307.73881024838039</v>
+        <v>307.73881024839523</v>
       </c>
       <c r="AR49" s="4">
         <v>519.20000000000005</v>
@@ -15607,7 +15607,7 @@
         <v>0</v>
       </c>
       <c r="BQ49" s="4">
-        <v>519.20000000000005</v>
+        <v>376.742892126279</v>
       </c>
       <c r="BR49" s="4">
         <v>519.20000000000005</v>
@@ -15688,7 +15688,7 @@
         <v>0</v>
       </c>
       <c r="CS49" s="4">
-        <v>17.956931319826992</v>
+        <v>160.41403919354599</v>
       </c>
       <c r="CT49" s="4">
         <v>197.62286554628719</v>
@@ -19842,7 +19842,7 @@
         <v>478.91521653763266</v>
       </c>
       <c r="BP62" s="7">
-        <v>541.69390186504006</v>
+        <v>541.69390186503506</v>
       </c>
       <c r="BQ62" s="7">
         <v>656.1</v>
@@ -20323,7 +20323,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="7">
-        <v>30.437210044999119</v>
+        <v>30.437210045001269</v>
       </c>
       <c r="I64" s="7">
         <v>67</v>
@@ -20820,7 +20820,7 @@
         <v>257</v>
       </c>
       <c r="BP65" s="7">
-        <v>242.65225162143088</v>
+        <v>242.65225162143588</v>
       </c>
       <c r="BQ65" s="7">
         <v>0</v>
@@ -20975,7 +20975,7 @@
         <v>2269.6</v>
       </c>
       <c r="H66" s="7">
-        <v>1568.1485730513682</v>
+        <v>1568.1485730513662</v>
       </c>
       <c r="I66" s="7">
         <v>1520.4718551442347</v>
@@ -20999,28 +20999,28 @@
         <v>88.73693141803335</v>
       </c>
       <c r="P66" s="7">
-        <v>157.02843279424462</v>
+        <v>157.02843279422959</v>
       </c>
       <c r="Q66" s="7">
-        <v>145.99277680052379</v>
+        <v>145.99277680051864</v>
       </c>
       <c r="R66" s="7">
-        <v>75.328725662706688</v>
+        <v>75.328725662721709</v>
       </c>
       <c r="S66" s="7">
-        <v>90.403515537247756</v>
+        <v>90.403515537232735</v>
       </c>
       <c r="T66" s="7">
         <v>174.64048741631657</v>
       </c>
       <c r="U66" s="7">
-        <v>0.16101601315384678</v>
+        <v>0.16101601314727731</v>
       </c>
       <c r="V66" s="7">
         <v>0</v>
       </c>
       <c r="W66" s="7">
-        <v>0.71169086276547466</v>
+        <v>0.71169086275796678</v>
       </c>
       <c r="X66" s="7">
         <v>93.046567326153266</v>
@@ -21032,7 +21032,7 @@
         <v>48.159298622005927</v>
       </c>
       <c r="AA66" s="8">
-        <v>16.393273074783831</v>
+        <v>16.393273074783362</v>
       </c>
       <c r="AD66">
         <v>18</v>
@@ -21074,7 +21074,7 @@
         <v>0</v>
       </c>
       <c r="AQ66" s="7">
-        <v>228.07537332612418</v>
+        <v>228.07537332610934</v>
       </c>
       <c r="AR66" s="7">
         <v>47.201611226674515</v>
@@ -21149,7 +21149,7 @@
         <v>2269.6</v>
       </c>
       <c r="BQ66" s="7">
-        <v>985.41296886784903</v>
+        <v>1127.8700767415698</v>
       </c>
       <c r="BR66" s="7">
         <v>1034.7195855876594</v>
@@ -21230,7 +21230,7 @@
         <v>1721.7371052463295</v>
       </c>
       <c r="CS66" s="7">
-        <v>142.457107873719</v>
+        <v>0</v>
       </c>
       <c r="CT66" s="7">
         <v>0</v>
@@ -29479,7 +29479,7 @@
         <v>51.104125100000331</v>
       </c>
       <c r="E95" s="4">
-        <v>184.10334555923342</v>
+        <v>184.10334555923367</v>
       </c>
       <c r="F95" s="4">
         <v>618.08122360998459</v>
@@ -29488,7 +29488,7 @@
         <v>635.70350462247393</v>
       </c>
       <c r="H95" s="4">
-        <v>782.59965567216773</v>
+        <v>782.59965567216784</v>
       </c>
       <c r="I95" s="4">
         <v>740.75100257321742</v>
@@ -29500,25 +29500,25 @@
         <v>614.05963902667781</v>
       </c>
       <c r="L95" s="4">
-        <v>632.48932577791766</v>
+        <v>632.48932577791788</v>
       </c>
       <c r="M95" s="4">
-        <v>517.75154637658545</v>
+        <v>517.75154637658534</v>
       </c>
       <c r="N95" s="4">
-        <v>386.51446029397431</v>
+        <v>386.51446029397414</v>
       </c>
       <c r="O95" s="4">
         <v>339.92341509841782</v>
       </c>
       <c r="P95" s="4">
-        <v>268.47057455075975</v>
+        <v>268.47057455075952</v>
       </c>
       <c r="Q95" s="4">
         <v>206.80089305504967</v>
       </c>
       <c r="R95" s="4">
-        <v>136.84285109254506</v>
+        <v>136.8428510925452</v>
       </c>
       <c r="S95" s="4">
         <v>43.434415078917098</v>
@@ -29539,19 +29539,19 @@
         <v>91.570659308622751</v>
       </c>
       <c r="Y95" s="4">
-        <v>64.659575265783658</v>
+        <v>64.659575265784042</v>
       </c>
       <c r="Z95" s="4">
-        <v>-58.781071890158117</v>
+        <v>-58.781071890157435</v>
       </c>
       <c r="AA95" s="5">
-        <v>-191.03368487050329</v>
+        <v>-191.03368487050261</v>
       </c>
       <c r="AD95" s="1" t="s">
         <v>1</v>
       </c>
       <c r="AE95" s="3">
-        <v>61.050000000000026</v>
+        <v>61.050000000000011</v>
       </c>
       <c r="AF95" s="4">
         <v>-0.83508333333372775</v>
@@ -29581,25 +29581,25 @@
         <v>740.90480884255442</v>
       </c>
       <c r="AO95" s="4">
-        <v>746.32822212213716</v>
+        <v>746.32822212213762</v>
       </c>
       <c r="AP95" s="4">
         <v>658.46711278790326</v>
       </c>
       <c r="AQ95" s="4">
-        <v>531.52645385916867</v>
+        <v>531.5264538591689</v>
       </c>
       <c r="AR95" s="4">
-        <v>363.01524194390106</v>
+        <v>363.01524194390117</v>
       </c>
       <c r="AS95" s="4">
-        <v>236.19802795389569</v>
+        <v>236.19802795389552</v>
       </c>
       <c r="AT95" s="4">
-        <v>151.95296142781768</v>
+        <v>151.95296142781777</v>
       </c>
       <c r="AU95" s="4">
-        <v>52.675908080668172</v>
+        <v>52.67590808066825</v>
       </c>
       <c r="AV95" s="4">
         <v>-68.221147089636816</v>
@@ -29617,16 +29617,16 @@
         <v>-35.424302465931603</v>
       </c>
       <c r="BA95" s="4">
-        <v>-82.070509583638412</v>
+        <v>-82.070509583637659</v>
       </c>
       <c r="BB95" s="4">
-        <v>-271.90082750322449</v>
+        <v>-271.90082750322392</v>
       </c>
       <c r="BC95" s="4">
-        <v>-481.5196182840865</v>
+        <v>-481.51961828408668</v>
       </c>
       <c r="BD95" s="5">
-        <v>-670.92497818197717</v>
+        <v>-670.92497818197694</v>
       </c>
       <c r="BF95" s="1" t="s">
         <v>1</v>
@@ -29638,16 +29638,16 @@
         <v>114.77803333333316</v>
       </c>
       <c r="BI95" s="4">
-        <v>139.19048563333291</v>
+        <v>139.19048563333283</v>
       </c>
       <c r="BJ95" s="4">
-        <v>163.82265000403254</v>
+        <v>163.82265000403186</v>
       </c>
       <c r="BK95" s="4">
         <v>188.67650385406787</v>
       </c>
       <c r="BL95" s="4">
-        <v>474.38453042720846</v>
+        <v>394.54605685095055</v>
       </c>
       <c r="BM95" s="4">
         <v>590.40254478963107</v>
@@ -29656,55 +29656,55 @@
         <v>724.81571765262834</v>
       </c>
       <c r="BO95" s="4">
-        <v>731.49442911150197</v>
+        <v>731.4944291115022</v>
       </c>
       <c r="BP95" s="4">
-        <v>893.79991564017212</v>
+        <v>893.799915640172</v>
       </c>
       <c r="BQ95" s="4">
-        <v>900.5993848809336</v>
+        <v>900.59938488093371</v>
       </c>
       <c r="BR95" s="4">
-        <v>774.12671601152806</v>
+        <v>774.12671601152897</v>
       </c>
       <c r="BS95" s="4">
-        <v>631.04912645563195</v>
+        <v>631.04912645563218</v>
       </c>
       <c r="BT95" s="4">
-        <v>504.70050526039915</v>
+        <v>504.70050526039961</v>
       </c>
       <c r="BU95" s="4">
-        <v>395.08141314107627</v>
+        <v>395.08141314107638</v>
       </c>
       <c r="BV95" s="4">
         <v>253.30374827002697</v>
       </c>
       <c r="BW95" s="4">
-        <v>-10.107579725311627</v>
+        <v>-10.1075797253107</v>
       </c>
       <c r="BX95" s="4">
-        <v>-172.2930056395021</v>
+        <v>-172.29300563950164</v>
       </c>
       <c r="BY95" s="4">
-        <v>-314.98827269025696</v>
+        <v>-314.98827269025662</v>
       </c>
       <c r="BZ95" s="4">
-        <v>-397.18980530312786</v>
+        <v>-397.18980530312803</v>
       </c>
       <c r="CA95" s="4">
-        <v>-397.66769021752253</v>
+        <v>-397.66769021752282</v>
       </c>
       <c r="CB95" s="4">
-        <v>-351.60320942948022</v>
+        <v>-351.60320942948067</v>
       </c>
       <c r="CC95" s="4">
         <v>-345.66414831434531</v>
       </c>
       <c r="CD95" s="4">
-        <v>-573.34814134402268</v>
+        <v>-573.34814134402211</v>
       </c>
       <c r="CE95" s="4">
-        <v>-876.94995794945191</v>
+        <v>-876.94995794945135</v>
       </c>
       <c r="CF95" s="5">
         <v>-1100</v>
@@ -29728,13 +29728,13 @@
         <v>170.94470375393064</v>
       </c>
       <c r="CN95" s="4">
-        <v>605.86782942104946</v>
+        <v>685.7063029973076</v>
       </c>
       <c r="CO95" s="4">
-        <v>805.24038647172802</v>
+        <v>805.24038647172756</v>
       </c>
       <c r="CP95" s="4">
-        <v>606.20391910249759</v>
+        <v>606.20391910249703</v>
       </c>
       <c r="CQ95" s="4">
         <v>529.07665436285652</v>
@@ -29743,25 +29743,25 @@
         <v>666.82718354389954</v>
       </c>
       <c r="CS95" s="4">
-        <v>685.96367819579405</v>
+        <v>685.96367819579393</v>
       </c>
       <c r="CT95" s="4">
-        <v>518.60573463288949</v>
+        <v>518.60573463288983</v>
       </c>
       <c r="CU95" s="4">
         <v>338.26912082050842</v>
       </c>
       <c r="CV95" s="4">
-        <v>262.44182330600626</v>
+        <v>262.44182330600643</v>
       </c>
       <c r="CW95" s="4">
-        <v>185.91750304909365</v>
+        <v>185.9175030490938</v>
       </c>
       <c r="CX95" s="4">
-        <v>83.127456033302906</v>
+        <v>83.127456033303204</v>
       </c>
       <c r="CY95" s="4">
-        <v>44.028725032512625</v>
+        <v>44.028725032512433</v>
       </c>
       <c r="CZ95" s="4">
         <v>34.218473557805126</v>
@@ -29770,22 +29770,22 @@
         <v>24.319929819825422</v>
       </c>
       <c r="DB95" s="4">
-        <v>6.39804527578129</v>
+        <v>6.3980452757818203</v>
       </c>
       <c r="DC95" s="4">
-        <v>-127.00505565007043</v>
+        <v>-127.00505565006961</v>
       </c>
       <c r="DD95" s="4">
-        <v>-165.88645115092146</v>
+        <v>-165.88645115092064</v>
       </c>
       <c r="DE95" s="4">
-        <v>-304.57777921127956</v>
+        <v>-304.57777921127894</v>
       </c>
       <c r="DF95" s="4">
-        <v>-496.41066255751412</v>
+        <v>-496.41066255751394</v>
       </c>
       <c r="DG95" s="4">
-        <v>-708.05004185386508</v>
+        <v>-708.05004185386497</v>
       </c>
       <c r="DH95" s="5">
         <v>-750.57638460504359</v>
@@ -29805,7 +29805,7 @@
         <v>-556.1438559000004</v>
       </c>
       <c r="E96" s="7">
-        <v>-615.91206726976702</v>
+        <v>-615.91206726976714</v>
       </c>
       <c r="F96" s="7">
         <v>-826.10902484555402</v>
@@ -29814,10 +29814,10 @@
         <v>-828.06705606916387</v>
       </c>
       <c r="H96" s="7">
-        <v>-700.92744006569433</v>
+        <v>-700.92744006569421</v>
       </c>
       <c r="I96" s="7">
-        <v>-576.71043702628572</v>
+        <v>-576.7104370262856</v>
       </c>
       <c r="J96" s="7">
         <v>-25.397647626188757</v>
@@ -29826,25 +29826,25 @@
         <v>216.28966973777642</v>
       </c>
       <c r="L96" s="7">
-        <v>214.24192676541645</v>
+        <v>214.24192676541634</v>
       </c>
       <c r="M96" s="7">
         <v>278.84242077297176</v>
       </c>
       <c r="N96" s="7">
-        <v>351.75765255992872</v>
+        <v>351.75765255992883</v>
       </c>
       <c r="O96" s="7">
         <v>377.41553410206905</v>
       </c>
       <c r="P96" s="7">
-        <v>412.45382647607528</v>
+        <v>412.45382647607551</v>
       </c>
       <c r="Q96" s="7">
-        <v>529.36849424769377</v>
+        <v>529.36849424769355</v>
       </c>
       <c r="R96" s="7">
-        <v>662.80206069592327</v>
+        <v>662.80206069592293</v>
       </c>
       <c r="S96" s="7">
         <v>755.07807258910839</v>
@@ -29865,19 +29865,19 @@
         <v>625.20759936564718</v>
       </c>
       <c r="Y96" s="7">
-        <v>641.71560274824628</v>
+        <v>641.71560274824606</v>
       </c>
       <c r="Z96" s="7">
-        <v>745.06085983964726</v>
+        <v>745.06085983964692</v>
       </c>
       <c r="AA96" s="8">
-        <v>814.38522424487076</v>
+        <v>814.38522424487041</v>
       </c>
       <c r="AD96" t="s">
         <v>2</v>
       </c>
       <c r="AE96" s="6">
-        <v>-473.45</v>
+        <v>-473.44999999999993</v>
       </c>
       <c r="AF96" s="7">
         <v>-442.81758333333318</v>
@@ -29907,25 +29907,25 @@
         <v>68.387056660177905</v>
       </c>
       <c r="AO96" s="7">
-        <v>50.567270170119912</v>
+        <v>50.567270170119627</v>
       </c>
       <c r="AP96" s="7">
         <v>219.25377226831768</v>
       </c>
       <c r="AQ96" s="7">
-        <v>383.64965327490711</v>
+        <v>383.649653274907</v>
       </c>
       <c r="AR96" s="7">
-        <v>471.26201015438141</v>
+        <v>471.26201015438119</v>
       </c>
       <c r="AS96" s="7">
-        <v>523.10257882952101</v>
+        <v>523.10257882952112</v>
       </c>
       <c r="AT96" s="7">
-        <v>582.80026959431291</v>
+        <v>582.80026959431268</v>
       </c>
       <c r="AU96" s="7">
-        <v>773.99630202066157</v>
+        <v>773.99630202066123</v>
       </c>
       <c r="AV96" s="7">
         <v>920.36611542490959</v>
@@ -29943,13 +29943,13 @@
         <v>824.4010109169875</v>
       </c>
       <c r="BA96" s="7">
-        <v>860.28264921299694</v>
+        <v>860.2826492129966</v>
       </c>
       <c r="BB96" s="7">
-        <v>959.33786972258065</v>
+        <v>959.33786972258031</v>
       </c>
       <c r="BC96" s="7">
-        <v>1073.36958721675</v>
+        <v>1073.3695872167502</v>
       </c>
       <c r="BD96" s="8">
         <v>1172.3775901683675</v>
@@ -29964,19 +29964,19 @@
         <v>-287.14496666666673</v>
       </c>
       <c r="BI96" s="7">
-        <v>-289.85746136666654</v>
+        <v>-289.85746136666648</v>
       </c>
       <c r="BJ96" s="7">
-        <v>-292.59436851896663</v>
+        <v>-292.59436851896629</v>
       </c>
       <c r="BK96" s="7">
         <v>-295.35590783563691</v>
       </c>
       <c r="BL96" s="7">
-        <v>-428.45754502538477</v>
+        <v>-388.53830823725582</v>
       </c>
       <c r="BM96" s="7">
-        <v>-510.12640472490216</v>
+        <v>-510.1264047249021</v>
       </c>
       <c r="BN96" s="7">
         <v>-699.4630722872073</v>
@@ -29985,52 +29985,52 @@
         <v>-721.40740993779218</v>
       </c>
       <c r="BP96" s="7">
-        <v>-433.98257996056554</v>
+        <v>-433.98257996056543</v>
       </c>
       <c r="BQ96" s="7">
-        <v>-456.32369318021028</v>
+        <v>-456.32369318020994</v>
       </c>
       <c r="BR96" s="7">
-        <v>-212.19920975216428</v>
+        <v>-212.19920975216473</v>
       </c>
       <c r="BS96" s="7">
-        <v>65.055727360066044</v>
+        <v>65.055727360065475</v>
       </c>
       <c r="BT96" s="7">
-        <v>308.77262557297377</v>
+        <v>308.77262557297286</v>
       </c>
       <c r="BU96" s="7">
-        <v>518.94964253646367</v>
+        <v>518.94964253646344</v>
       </c>
       <c r="BV96" s="7">
-        <v>746.69625172997303</v>
+        <v>746.69625172997314</v>
       </c>
       <c r="BW96" s="7">
         <v>902.53491626577545</v>
       </c>
       <c r="BX96" s="7">
-        <v>1005.322732815506</v>
+        <v>1005.3227328155051</v>
       </c>
       <c r="BY96" s="7">
-        <v>1281.3214674108444</v>
+        <v>1281.3214674108438</v>
       </c>
       <c r="BZ96" s="7">
-        <v>1348.2482069348594</v>
+        <v>1348.2482069348598</v>
       </c>
       <c r="CA96" s="7">
         <v>1339.6423641306067</v>
       </c>
       <c r="CB96" s="7">
-        <v>1237.8657354077818</v>
+        <v>1237.865735407782</v>
       </c>
       <c r="CC96" s="7">
         <v>1216.2531170264515</v>
       </c>
       <c r="CD96" s="7">
-        <v>1370.0542379271137</v>
+        <v>1370.0542379271135</v>
       </c>
       <c r="CE96" s="7">
-        <v>1533.4174027351244</v>
+        <v>1533.4174027351237</v>
       </c>
       <c r="CF96" s="8">
         <v>1651.6087405742417</v>
@@ -30054,40 +30054,40 @@
         <v>-579.42768952437063</v>
       </c>
       <c r="CN96" s="7">
-        <v>-789.77331539675697</v>
+        <v>-829.69255218488581</v>
       </c>
       <c r="CO96" s="7">
-        <v>-730.67269840710583</v>
+        <v>-730.6726984071056</v>
       </c>
       <c r="CP96" s="7">
-        <v>-292.30942099781805</v>
+        <v>-292.3094209978168</v>
       </c>
       <c r="CQ96" s="7">
-        <v>-56.320435763671014</v>
+        <v>-56.320435763670957</v>
       </c>
       <c r="CR96" s="7">
         <v>214.35697960623315</v>
       </c>
       <c r="CS96" s="7">
-        <v>212.23070242268943</v>
+        <v>212.23070242268955</v>
       </c>
       <c r="CT96" s="7">
-        <v>303.41862207782719</v>
+        <v>303.41862207782697</v>
       </c>
       <c r="CU96" s="7">
         <v>401.16345738856603</v>
       </c>
       <c r="CV96" s="7">
-        <v>444.76543770883666</v>
+        <v>444.76543770883632</v>
       </c>
       <c r="CW96" s="7">
-        <v>591.20248998154966</v>
+        <v>591.20248998154932</v>
       </c>
       <c r="CX96" s="7">
-        <v>746.17546784815136</v>
+        <v>746.17546784815124</v>
       </c>
       <c r="CY96" s="7">
-        <v>773.57782111132951</v>
+        <v>773.57782111132985</v>
       </c>
       <c r="CZ96" s="7">
         <v>786.40661150133189</v>
@@ -30096,19 +30096,19 @@
         <v>799.35086100484375</v>
       </c>
       <c r="DB96" s="7">
-        <v>811.37873571009857</v>
+        <v>811.37873571009823</v>
       </c>
       <c r="DC96" s="7">
-        <v>899.71982099815614</v>
+        <v>899.71982099815568</v>
       </c>
       <c r="DD96" s="7">
-        <v>837.37330938713967</v>
+        <v>837.37330938713933</v>
       </c>
       <c r="DE96" s="7">
-        <v>885.0056791716238</v>
+        <v>885.00567917162357</v>
       </c>
       <c r="DF96" s="7">
-        <v>984.28340695083489</v>
+        <v>984.28340695083477</v>
       </c>
       <c r="DG96" s="7">
         <v>1098.5396342800589</v>
@@ -30131,7 +30131,7 @@
         <v>505.03973080000003</v>
       </c>
       <c r="E97" s="10">
-        <v>431.80872171053352</v>
+        <v>431.8087217105334</v>
       </c>
       <c r="F97" s="10">
         <v>208.02780123556943</v>
@@ -30140,10 +30140,10 @@
         <v>192.36355144668994</v>
       </c>
       <c r="H97" s="10">
-        <v>-81.672215606473401</v>
+        <v>-81.672215606473515</v>
       </c>
       <c r="I97" s="10">
-        <v>-164.0405655469317</v>
+        <v>-164.04056554693182</v>
       </c>
       <c r="J97" s="10">
         <v>-480.67989730352093</v>
@@ -30152,13 +30152,13 @@
         <v>-830.34930876445424</v>
       </c>
       <c r="L97" s="10">
-        <v>-846.73125254333411</v>
+        <v>-846.73125254333422</v>
       </c>
       <c r="M97" s="10">
         <v>-796.59396714955733</v>
       </c>
       <c r="N97" s="10">
-        <v>-738.27211285390297</v>
+        <v>-738.27211285390285</v>
       </c>
       <c r="O97" s="10">
         <v>-717.33894920048681</v>
@@ -30167,10 +30167,10 @@
         <v>-680.92440102683497</v>
       </c>
       <c r="Q97" s="10">
-        <v>-736.16938730274353</v>
+        <v>-736.1693873027433</v>
       </c>
       <c r="R97" s="10">
-        <v>-799.64491178846833</v>
+        <v>-799.64491178846822</v>
       </c>
       <c r="S97" s="10">
         <v>-798.51248766802541</v>
@@ -30191,13 +30191,13 @@
         <v>-716.77825867426986</v>
       </c>
       <c r="Y97" s="10">
-        <v>-706.37517801402987</v>
+        <v>-706.3751780140301</v>
       </c>
       <c r="Z97" s="10">
-        <v>-686.27978794948922</v>
+        <v>-686.27978794948956</v>
       </c>
       <c r="AA97" s="11">
-        <v>-623.35153937436769</v>
+        <v>-623.35153937436803</v>
       </c>
       <c r="AD97" t="s">
         <v>3</v>
@@ -30233,25 +30233,25 @@
         <v>-809.29186550273243</v>
       </c>
       <c r="AO97" s="10">
-        <v>-796.89549229225713</v>
+        <v>-796.89549229225736</v>
       </c>
       <c r="AP97" s="10">
         <v>-877.72088505622094</v>
       </c>
       <c r="AQ97" s="10">
-        <v>-915.17610713407601</v>
+        <v>-915.17610713407612</v>
       </c>
       <c r="AR97" s="10">
-        <v>-834.27725209828247</v>
+        <v>-834.27725209828259</v>
       </c>
       <c r="AS97" s="10">
-        <v>-759.3006067834167</v>
+        <v>-759.30060678341658</v>
       </c>
       <c r="AT97" s="10">
         <v>-734.75323102213054</v>
       </c>
       <c r="AU97" s="10">
-        <v>-826.67221010132982</v>
+        <v>-826.67221010132971</v>
       </c>
       <c r="AV97" s="10">
         <v>-852.14496833527278</v>
@@ -30269,16 +30269,16 @@
         <v>-788.97670845105597</v>
       </c>
       <c r="BA97" s="10">
-        <v>-778.21213962935883</v>
+        <v>-778.21213962935917</v>
       </c>
       <c r="BB97" s="10">
-        <v>-687.43704221935616</v>
+        <v>-687.4370422193565</v>
       </c>
       <c r="BC97" s="10">
-        <v>-591.84996893266361</v>
+        <v>-591.84996893266339</v>
       </c>
       <c r="BD97" s="11">
-        <v>-501.45261198639071</v>
+        <v>-501.45261198639082</v>
       </c>
       <c r="BF97" t="s">
         <v>3</v>
@@ -30290,40 +30290,40 @@
         <v>172.36693333333358</v>
       </c>
       <c r="BI97" s="10">
-        <v>150.66697573333369</v>
+        <v>150.66697573333374</v>
       </c>
       <c r="BJ97" s="10">
-        <v>128.77171851493409</v>
+        <v>128.77171851493443</v>
       </c>
       <c r="BK97" s="10">
         <v>106.67940398156905</v>
       </c>
       <c r="BL97" s="10">
-        <v>-45.926985401823686</v>
+        <v>-6.00774861369473</v>
       </c>
       <c r="BM97" s="10">
-        <v>-80.276140064728907</v>
+        <v>-80.276140064728963</v>
       </c>
       <c r="BN97" s="10">
         <v>-25.35264536542104</v>
       </c>
       <c r="BO97" s="10">
-        <v>-10.087019173709752</v>
+        <v>-10.087019173710132</v>
       </c>
       <c r="BP97" s="10">
-        <v>-459.81733567960657</v>
+        <v>-459.81733567960669</v>
       </c>
       <c r="BQ97" s="10">
-        <v>-444.27569170072331</v>
+        <v>-444.27569170072377</v>
       </c>
       <c r="BR97" s="10">
-        <v>-561.92750625936378</v>
+        <v>-561.92750625936424</v>
       </c>
       <c r="BS97" s="10">
-        <v>-696.10485381569799</v>
+        <v>-696.10485381569777</v>
       </c>
       <c r="BT97" s="10">
-        <v>-813.47313083337281</v>
+        <v>-813.47313083337235</v>
       </c>
       <c r="BU97" s="10">
         <v>-914.03105567753983</v>
@@ -30332,31 +30332,31 @@
         <v>-1000</v>
       </c>
       <c r="BW97" s="10">
-        <v>-892.42733654046413</v>
+        <v>-892.42733654046469</v>
       </c>
       <c r="BX97" s="10">
-        <v>-833.02972717600392</v>
+        <v>-833.02972717600346</v>
       </c>
       <c r="BY97" s="10">
-        <v>-966.33319472058747</v>
+        <v>-966.33319472058724</v>
       </c>
       <c r="BZ97" s="10">
-        <v>-951.0584016317315</v>
+        <v>-951.05840163173173</v>
       </c>
       <c r="CA97" s="10">
         <v>-941.97467391308396</v>
       </c>
       <c r="CB97" s="10">
-        <v>-886.26252597830171</v>
+        <v>-886.26252597830148</v>
       </c>
       <c r="CC97" s="10">
         <v>-870.58896871210618</v>
       </c>
       <c r="CD97" s="10">
-        <v>-796.70609658309104</v>
+        <v>-796.70609658309127</v>
       </c>
       <c r="CE97" s="10">
-        <v>-656.46744478567211</v>
+        <v>-656.4674447856728</v>
       </c>
       <c r="CF97" s="11">
         <v>-551.60874057424166</v>
@@ -30380,40 +30380,40 @@
         <v>408.48298577044017</v>
       </c>
       <c r="CN97" s="10">
-        <v>183.90548597570756</v>
+        <v>143.9862491875781</v>
       </c>
       <c r="CO97" s="10">
-        <v>-74.567688064622132</v>
+        <v>-74.567688064621962</v>
       </c>
       <c r="CP97" s="10">
-        <v>-313.89449810467971</v>
+        <v>-313.89449810468034</v>
       </c>
       <c r="CQ97" s="10">
-        <v>-472.7562185991855</v>
+        <v>-472.75621859918556</v>
       </c>
       <c r="CR97" s="10">
         <v>-881.18416315013269</v>
       </c>
       <c r="CS97" s="10">
-        <v>-898.19438061848348</v>
+        <v>-898.19438061848336</v>
       </c>
       <c r="CT97" s="10">
-        <v>-822.02435671071657</v>
+        <v>-822.0243567107168</v>
       </c>
       <c r="CU97" s="10">
         <v>-739.43257820907434</v>
       </c>
       <c r="CV97" s="10">
-        <v>-707.20726101484286</v>
+        <v>-707.20726101484274</v>
       </c>
       <c r="CW97" s="10">
-        <v>-777.11999303064317</v>
+        <v>-777.11999303064306</v>
       </c>
       <c r="CX97" s="10">
-        <v>-829.30292388145449</v>
+        <v>-829.3029238814546</v>
       </c>
       <c r="CY97" s="10">
-        <v>-817.60654614384214</v>
+        <v>-817.60654614384237</v>
       </c>
       <c r="CZ97" s="10">
         <v>-820.62508505913695</v>
@@ -30422,22 +30422,22 @@
         <v>-823.6707908246691</v>
       </c>
       <c r="DB97" s="10">
-        <v>-817.77678098587978</v>
+        <v>-817.77678098588012</v>
       </c>
       <c r="DC97" s="10">
-        <v>-772.71476534808562</v>
+        <v>-772.71476534808608</v>
       </c>
       <c r="DD97" s="10">
-        <v>-671.48685823621827</v>
+        <v>-671.48685823621861</v>
       </c>
       <c r="DE97" s="10">
-        <v>-580.42789996034435</v>
+        <v>-580.42789996034458</v>
       </c>
       <c r="DF97" s="10">
-        <v>-487.87274439332077</v>
+        <v>-487.87274439332089</v>
       </c>
       <c r="DG97" s="10">
-        <v>-390.48959242619384</v>
+        <v>-390.48959242619389</v>
       </c>
       <c r="DH97" s="11">
         <v>-372.73888757078259</v>
@@ -30479,7 +30479,7 @@
         <v>-181.29999999999995</v>
       </c>
       <c r="C101" s="4">
-        <v>84.034299999999945</v>
+        <v>84.034300000000002</v>
       </c>
       <c r="D101" s="4">
         <v>431.4830793666664</v>
@@ -30491,7 +30491,7 @@
         <v>462.34764312469486</v>
       </c>
       <c r="G101" s="4">
-        <v>477.98857191281684</v>
+        <v>477.98857191281701</v>
       </c>
       <c r="H101" s="4">
         <v>717.44167469457625</v>
@@ -30515,31 +30515,31 @@
         <v>439.40932237033019</v>
       </c>
       <c r="O101" s="4">
-        <v>481.64588990849853</v>
+        <v>481.64588990849859</v>
       </c>
       <c r="P101" s="4">
-        <v>462.50314658652513</v>
+        <v>462.50314658653014</v>
       </c>
       <c r="Q101" s="4">
-        <v>479.95537886875996</v>
+        <v>479.95537886876161</v>
       </c>
       <c r="R101" s="4">
-        <v>520.7710393215857</v>
+        <v>520.7710393215807</v>
       </c>
       <c r="S101" s="4">
-        <v>533.16243489428757</v>
+        <v>533.16243489429257</v>
       </c>
       <c r="T101" s="4">
         <v>522.65651672859144</v>
       </c>
       <c r="U101" s="4">
-        <v>595.21423730911852</v>
+        <v>595.21423730912079</v>
       </c>
       <c r="V101" s="4">
         <v>599.82538716399119</v>
       </c>
       <c r="W101" s="4">
-        <v>557.63998536087865</v>
+        <v>557.63998536088116</v>
       </c>
       <c r="X101" s="4">
         <v>525.07598814725213</v>
@@ -30551,7 +30551,7 @@
         <v>573.62692891826623</v>
       </c>
       <c r="AA101" s="5">
-        <v>599.59279102347045</v>
+        <v>599.59279102347057</v>
       </c>
       <c r="AD101" s="1" t="s">
         <v>1</v>
@@ -30560,7 +30560,7 @@
         <v>-143.5</v>
       </c>
       <c r="AF101" s="4">
-        <v>13.202500000000024</v>
+        <v>13.2025000000001</v>
       </c>
       <c r="AG101" s="4">
         <v>480.31171624664722</v>
@@ -30578,13 +30578,13 @@
         <v>757.32935655207552</v>
       </c>
       <c r="AL101" s="4">
-        <v>777.31672076104428</v>
+        <v>777.31672076104405</v>
       </c>
       <c r="AM101" s="4">
-        <v>719.84447124789369</v>
+        <v>719.84447124789335</v>
       </c>
       <c r="AN101" s="4">
-        <v>724.41297148912463</v>
+        <v>724.4129714891244</v>
       </c>
       <c r="AO101" s="4">
         <v>472.15592156586001</v>
@@ -30593,7 +30593,7 @@
         <v>642.00328636457948</v>
       </c>
       <c r="AQ101" s="4">
-        <v>584.07959149981912</v>
+        <v>584.07959149982401</v>
       </c>
       <c r="AR101" s="4">
         <v>659.30185464311194</v>
@@ -30602,10 +30602,10 @@
         <v>664.07967133490001</v>
       </c>
       <c r="AT101" s="4">
-        <v>668.90048837691415</v>
+        <v>668.90048837691393</v>
       </c>
       <c r="AU101" s="4">
-        <v>673.76469277230615</v>
+        <v>673.76469277230626</v>
       </c>
       <c r="AV101" s="4">
         <v>678.672675007257</v>
@@ -30632,7 +30632,7 @@
         <v>714.28787704827755</v>
       </c>
       <c r="BD101" s="5">
-        <v>719.56056794171184</v>
+        <v>719.5605679417115</v>
       </c>
       <c r="BF101" s="1" t="s">
         <v>1</v>
@@ -30650,7 +30650,7 @@
         <v>678.1495016451172</v>
       </c>
       <c r="BK101" s="4">
-        <v>668.11584715992342</v>
+        <v>668.11584715992331</v>
       </c>
       <c r="BL101" s="4">
         <v>657.9918897843628</v>
@@ -30665,13 +30665,13 @@
         <v>680.40336975017954</v>
       </c>
       <c r="BP101" s="4">
-        <v>665.1274172850749</v>
+        <v>665.1274172850766</v>
       </c>
       <c r="BQ101" s="4">
-        <v>767.59317970124903</v>
+        <v>720.10747707667542</v>
       </c>
       <c r="BR101" s="4">
-        <v>773.34561831856024</v>
+        <v>773.34561831856013</v>
       </c>
       <c r="BS101" s="4">
         <v>779.14982888342706</v>
@@ -30692,7 +30692,7 @@
         <v>808.96391665300803</v>
       </c>
       <c r="BY101" s="4">
-        <v>815.08869190288488</v>
+        <v>815.08869190288499</v>
       </c>
       <c r="BZ101" s="4">
         <v>821.26859013001081</v>
@@ -30701,7 +30701,7 @@
         <v>827.50410744118085</v>
       </c>
       <c r="CB101" s="4">
-        <v>833.79574440815122</v>
+        <v>833.79574440815145</v>
       </c>
       <c r="CC101" s="4">
         <v>840.14400610782468</v>
@@ -30710,7 +30710,7 @@
         <v>846.5494021627951</v>
       </c>
       <c r="CE101" s="4">
-        <v>853.01244678225976</v>
+        <v>853.01244678226044</v>
       </c>
       <c r="CF101" s="5">
         <v>859.53365880330034</v>
@@ -30722,10 +30722,10 @@
         <v>-175</v>
       </c>
       <c r="CJ101" s="4">
-        <v>72.228999999999957</v>
+        <v>72.229000000000042</v>
       </c>
       <c r="CK101" s="4">
-        <v>206.1249943333336</v>
+        <v>206.12499433333338</v>
       </c>
       <c r="CL101" s="4">
         <v>471.80824969566612</v>
@@ -30737,19 +30737,19 @@
         <v>503.40193285841315</v>
       </c>
       <c r="CO101" s="4">
-        <v>724.08962167082609</v>
+        <v>724.08962167082586</v>
       </c>
       <c r="CP101" s="4">
-        <v>743.77782826586349</v>
+        <v>743.77782826586338</v>
       </c>
       <c r="CQ101" s="4">
-        <v>686.00372872025605</v>
+        <v>686.00372872025616</v>
       </c>
       <c r="CR101" s="4">
-        <v>690.2676622787385</v>
+        <v>690.26766227873827</v>
       </c>
       <c r="CS101" s="4">
-        <v>443.68894834585592</v>
+        <v>491.17465097042896</v>
       </c>
       <c r="CT101" s="4">
         <v>507.91862282916264</v>
@@ -30758,10 +30758,10 @@
         <v>524.81329043462495</v>
       </c>
       <c r="CV101" s="4">
-        <v>538.52667671520294</v>
+        <v>538.52667671520271</v>
       </c>
       <c r="CW101" s="4">
-        <v>542.39348347230623</v>
+        <v>542.39348347230612</v>
       </c>
       <c r="CX101" s="4">
         <v>556.4150914902234</v>
@@ -30805,7 +30805,7 @@
         <v>-196.30000000000004</v>
       </c>
       <c r="C102" s="7">
-        <v>-647.39870000000008</v>
+        <v>-647.39869999999996</v>
       </c>
       <c r="D102" s="7">
         <v>-815.20182363333333</v>
@@ -30817,13 +30817,13 @@
         <v>-818.63121960644753</v>
       </c>
       <c r="G102" s="7">
-        <v>-820.3691005829055</v>
+        <v>-820.36910058290562</v>
       </c>
       <c r="H102" s="7">
         <v>-598.45121685360755</v>
       </c>
       <c r="I102" s="7">
-        <v>-596.51587780529007</v>
+        <v>-596.51587780528985</v>
       </c>
       <c r="J102" s="7">
         <v>-486.20262070553747</v>
@@ -30841,31 +30841,31 @@
         <v>161.0407979260583</v>
       </c>
       <c r="O102" s="7">
-        <v>184.6071487442286</v>
+        <v>184.60714874422854</v>
       </c>
       <c r="P102" s="7">
-        <v>146.62615675177688</v>
+        <v>146.62615675178188</v>
       </c>
       <c r="Q102" s="7">
-        <v>145.07059612549926</v>
+        <v>145.0705961255012</v>
       </c>
       <c r="R102" s="7">
-        <v>166.70739353363604</v>
+        <v>166.70739353363103</v>
       </c>
       <c r="S102" s="7">
-        <v>159.74731629424662</v>
+        <v>159.74731629425162</v>
       </c>
       <c r="T102" s="7">
         <v>129.71576206115037</v>
       </c>
       <c r="U102" s="7">
-        <v>182.57211584967058</v>
+        <v>182.57211584967274</v>
       </c>
       <c r="V102" s="7">
         <v>167.30458661140847</v>
       </c>
       <c r="W102" s="7">
-        <v>105.06159760332241</v>
+        <v>105.06159760332491</v>
       </c>
       <c r="X102" s="7">
         <v>52.259494899878064</v>
@@ -30877,7 +30877,7 @@
         <v>59.786156556486503</v>
       </c>
       <c r="AA102" s="8">
-        <v>64.962551710435037</v>
+        <v>64.962551710435264</v>
       </c>
       <c r="AD102" t="s">
         <v>2</v>
@@ -30886,7 +30886,7 @@
         <v>-320.5</v>
       </c>
       <c r="AF102" s="7">
-        <v>-554.77250000000015</v>
+        <v>-554.77250000000004</v>
       </c>
       <c r="AG102" s="7">
         <v>-781.89094937332379</v>
@@ -30901,16 +30901,16 @@
         <v>-837.31134121330319</v>
       </c>
       <c r="AK102" s="7">
-        <v>-729.51074295681963</v>
+        <v>-729.5107429568194</v>
       </c>
       <c r="AL102" s="7">
-        <v>-728.75493964343104</v>
+        <v>-728.75493964343093</v>
       </c>
       <c r="AM102" s="7">
-        <v>-619.63183410022179</v>
+        <v>-619.63183410022168</v>
       </c>
       <c r="AN102" s="7">
-        <v>-634.6426206071236</v>
+        <v>-634.64262060712349</v>
       </c>
       <c r="AO102" s="7">
         <v>53.444829140745696</v>
@@ -30919,19 +30919,19 @@
         <v>203.35889410763923</v>
       </c>
       <c r="AQ102" s="7">
-        <v>125.32249971256658</v>
+        <v>125.32249971257158</v>
       </c>
       <c r="AR102" s="7">
         <v>180.25104902977478</v>
       </c>
       <c r="AS102" s="7">
-        <v>164.55250847104287</v>
+        <v>164.55250847104313</v>
       </c>
       <c r="AT102" s="7">
-        <v>148.71268104728233</v>
+        <v>148.71268104728244</v>
       </c>
       <c r="AU102" s="7">
-        <v>132.7302951767083</v>
+        <v>132.73029517670807</v>
       </c>
       <c r="AV102" s="7">
         <v>116.60406783329859</v>
@@ -30958,7 +30958,7 @@
         <v>-0.41731030148321224</v>
       </c>
       <c r="BD102" s="8">
-        <v>-17.741866094195984</v>
+        <v>-17.741866094196098</v>
       </c>
       <c r="BF102" t="s">
         <v>2</v>
@@ -30991,10 +30991,10 @@
         <v>-695.289021981004</v>
       </c>
       <c r="BP102" s="7">
-        <v>-672.00175759312049</v>
+        <v>-672.00175759312378</v>
       </c>
       <c r="BQ102" s="7">
-        <v>-175.56330473267553</v>
+        <v>-223.04900735724908</v>
       </c>
       <c r="BR102" s="7">
         <v>-194.46417447526937</v>
@@ -31009,16 +31009,16 @@
         <v>-252.19356832968151</v>
       </c>
       <c r="BV102" s="7">
-        <v>-271.78411044464838</v>
+        <v>-271.78411044464832</v>
       </c>
       <c r="BW102" s="7">
-        <v>-291.55096743864988</v>
+        <v>-291.55096743864999</v>
       </c>
       <c r="BX102" s="7">
         <v>-311.4957261455977</v>
       </c>
       <c r="BY102" s="7">
-        <v>-331.61998768090757</v>
+        <v>-331.61998768090763</v>
       </c>
       <c r="BZ102" s="7">
         <v>-351.92536757003575</v>
@@ -31027,7 +31027,7 @@
         <v>-372.41349587816569</v>
       </c>
       <c r="CB102" s="7">
-        <v>-393.08601734106867</v>
+        <v>-393.08601734106878</v>
       </c>
       <c r="CC102" s="7">
         <v>-413.94459149713839</v>
@@ -31036,7 +31036,7 @@
         <v>-434.99089282061232</v>
       </c>
       <c r="CE102" s="7">
-        <v>-456.2266108559968</v>
+        <v>-456.22661085599714</v>
       </c>
       <c r="CF102" s="8">
         <v>-477.65345035370103</v>
@@ -31048,10 +31048,10 @@
         <v>-217</v>
       </c>
       <c r="CJ102" s="7">
-        <v>-631.96100000000013</v>
+        <v>-631.96100000000001</v>
       </c>
       <c r="CK102" s="7">
-        <v>-692.90191566666704</v>
+        <v>-692.90191566666692</v>
       </c>
       <c r="CL102" s="7">
         <v>-819.6823981143333</v>
@@ -31063,19 +31063,19 @@
         <v>-823.19280735463849</v>
       </c>
       <c r="CO102" s="7">
-        <v>-620.29447120414284</v>
+        <v>-620.29447120414272</v>
       </c>
       <c r="CP102" s="7">
         <v>-618.55572144498001</v>
       </c>
       <c r="CQ102" s="7">
-        <v>-508.44082293798442</v>
+        <v>-508.44082293798448</v>
       </c>
       <c r="CR102" s="7">
-        <v>-522.4508903444264</v>
+        <v>-522.45089034442628</v>
       </c>
       <c r="CS102" s="7">
-        <v>172.63192874908304</v>
+        <v>220.11763137365597</v>
       </c>
       <c r="CT102" s="7">
         <v>218.25719005601889</v>
@@ -31084,10 +31084,10 @@
         <v>216.38000476652314</v>
       </c>
       <c r="CV102" s="7">
-        <v>211.15259147608845</v>
+        <v>211.15259147608856</v>
       </c>
       <c r="CW102" s="7">
-        <v>195.90813146604</v>
+        <v>195.90813146604015</v>
       </c>
       <c r="CX102" s="7">
         <v>190.64647131590107</v>
@@ -31131,7 +31131,7 @@
         <v>377.6</v>
       </c>
       <c r="C103" s="10">
-        <v>563.36440000000005</v>
+        <v>563.36439999999993</v>
       </c>
       <c r="D103" s="10">
         <v>383.71874426666687</v>
@@ -31143,13 +31143,13 @@
         <v>356.28357648175285</v>
       </c>
       <c r="G103" s="10">
-        <v>342.38052867008878</v>
+        <v>342.38052867008867</v>
       </c>
       <c r="H103" s="10">
         <v>-118.99045784096876</v>
       </c>
       <c r="I103" s="10">
-        <v>-140.55417196153735</v>
+        <v>-140.55417196153746</v>
       </c>
       <c r="J103" s="10">
         <v>-193.0329595091913</v>
@@ -31170,28 +31170,28 @@
         <v>-666.25303865272713</v>
       </c>
       <c r="P103" s="10">
-        <v>-609.12930333830218</v>
+        <v>-609.12930333831218</v>
       </c>
       <c r="Q103" s="10">
-        <v>-625.02597499425929</v>
+        <v>-625.02597499426281</v>
       </c>
       <c r="R103" s="10">
-        <v>-687.47843285522185</v>
+        <v>-687.47843285521185</v>
       </c>
       <c r="S103" s="10">
-        <v>-692.90975118853419</v>
+        <v>-692.90975118854431</v>
       </c>
       <c r="T103" s="10">
         <v>-652.37227878974181</v>
       </c>
       <c r="U103" s="10">
-        <v>-777.7863531587891</v>
+        <v>-777.78635315879342</v>
       </c>
       <c r="V103" s="10">
         <v>-767.12997377539955</v>
       </c>
       <c r="W103" s="10">
-        <v>-662.70158296420118</v>
+        <v>-662.70158296420618</v>
       </c>
       <c r="X103" s="10">
         <v>-577.33548304713008</v>
@@ -31203,7 +31203,7 @@
         <v>-633.41308547475296</v>
       </c>
       <c r="AA103" s="11">
-        <v>-664.55534273390549</v>
+        <v>-664.55534273390572</v>
       </c>
       <c r="AD103" t="s">
         <v>3</v>
@@ -31212,7 +31212,7 @@
         <v>464</v>
       </c>
       <c r="AF103" s="10">
-        <v>541.57000000000005</v>
+        <v>541.56999999999994</v>
       </c>
       <c r="AG103" s="10">
         <v>301.57923312667663</v>
@@ -31227,16 +31227,16 @@
         <v>206.84260362690816</v>
       </c>
       <c r="AK103" s="10">
-        <v>-27.818613595255897</v>
+        <v>-27.818613595256011</v>
       </c>
       <c r="AL103" s="10">
-        <v>-48.561781117613236</v>
+        <v>-48.561781117613123</v>
       </c>
       <c r="AM103" s="10">
-        <v>-100.21263714767184</v>
+        <v>-100.21263714767167</v>
       </c>
       <c r="AN103" s="10">
-        <v>-89.770350882001026</v>
+        <v>-89.770350882000912</v>
       </c>
       <c r="AO103" s="10">
         <v>-525.60075070660582</v>
@@ -31245,19 +31245,19 @@
         <v>-845.36218047221871</v>
       </c>
       <c r="AQ103" s="10">
-        <v>-709.4020912123857</v>
+        <v>-709.40209121239559</v>
       </c>
       <c r="AR103" s="10">
         <v>-839.55290367288671</v>
       </c>
       <c r="AS103" s="10">
-        <v>-828.63217980594288</v>
+        <v>-828.632179805943</v>
       </c>
       <c r="AT103" s="10">
-        <v>-817.61316942419649</v>
+        <v>-817.61316942419637</v>
       </c>
       <c r="AU103" s="10">
-        <v>-806.49498794901444</v>
+        <v>-806.49498794901433</v>
       </c>
       <c r="AV103" s="10">
         <v>-795.27674284055547</v>
@@ -31284,7 +31284,7 @@
         <v>-713.87056674679434</v>
       </c>
       <c r="BD103" s="11">
-        <v>-701.81870184751585</v>
+        <v>-701.8187018475154</v>
       </c>
       <c r="BF103" t="s">
         <v>3</v>
@@ -31317,13 +31317,13 @@
         <v>14.885652230824462</v>
       </c>
       <c r="BP103" s="10">
-        <v>6.8743403080455323</v>
+        <v>6.8743403080471808</v>
       </c>
       <c r="BQ103" s="10">
-        <v>-592.02987496857349</v>
+        <v>-497.05846971942628</v>
       </c>
       <c r="BR103" s="10">
-        <v>-578.88144384329087</v>
+        <v>-578.88144384329075</v>
       </c>
       <c r="BS103" s="10">
         <v>-565.61467683788055</v>
@@ -31338,13 +31338,13 @@
         <v>-525.09366229937518</v>
       </c>
       <c r="BW103" s="10">
-        <v>-511.34280526006955</v>
+        <v>-511.34280526006967</v>
       </c>
       <c r="BX103" s="10">
         <v>-497.46819050741033</v>
       </c>
       <c r="BY103" s="10">
-        <v>-483.4687042219773</v>
+        <v>-483.46870422197736</v>
       </c>
       <c r="BZ103" s="10">
         <v>-469.34322255997506</v>
@@ -31353,7 +31353,7 @@
         <v>-455.09061156301516</v>
       </c>
       <c r="CB103" s="10">
-        <v>-440.70972706708255</v>
+        <v>-440.70972706708267</v>
       </c>
       <c r="CC103" s="10">
         <v>-426.19941461068629</v>
@@ -31362,7 +31362,7 @@
         <v>-411.55850934218279</v>
       </c>
       <c r="CE103" s="10">
-        <v>-396.78583592626296</v>
+        <v>-396.7858359262633</v>
       </c>
       <c r="CF103" s="11">
         <v>-381.88020844959931</v>
@@ -31374,10 +31374,10 @@
         <v>392</v>
       </c>
       <c r="CJ103" s="10">
-        <v>559.73200000000008</v>
+        <v>559.73199999999997</v>
       </c>
       <c r="CK103" s="10">
-        <v>486.77692133333341</v>
+        <v>486.77692133333346</v>
       </c>
       <c r="CL103" s="10">
         <v>347.87414841866723</v>
@@ -31389,19 +31389,19 @@
         <v>319.79087449622557</v>
       </c>
       <c r="CO103" s="10">
-        <v>-103.79515046668325</v>
+        <v>-103.79515046668314</v>
       </c>
       <c r="CP103" s="10">
         <v>-125.22210682088348</v>
       </c>
       <c r="CQ103" s="10">
-        <v>-177.56290578227163</v>
+        <v>-177.56290578227174</v>
       </c>
       <c r="CR103" s="10">
-        <v>-167.8167719343121</v>
+        <v>-167.81677193431199</v>
       </c>
       <c r="CS103" s="10">
-        <v>-616.32087709493908</v>
+        <v>-711.29228234408515</v>
       </c>
       <c r="CT103" s="10">
         <v>-726.17581288518147</v>
@@ -31410,10 +31410,10 @@
         <v>-741.19329520114798</v>
       </c>
       <c r="CV103" s="10">
-        <v>-749.67926819129138</v>
+        <v>-749.67926819129127</v>
       </c>
       <c r="CW103" s="10">
-        <v>-738.30161493834612</v>
+        <v>-738.30161493834635</v>
       </c>
       <c r="CX103" s="10">
         <v>-747.06156280612447</v>
@@ -31549,7 +31549,7 @@
         <v>574863.67959270917</v>
       </c>
       <c r="F106" s="16">
-        <v>524220.43305176595</v>
+        <v>524220.4330517659</v>
       </c>
       <c r="G106" s="16">
         <v>478456.70799985348</v>
@@ -31558,7 +31558,7 @@
         <v>439591.1536114224</v>
       </c>
       <c r="I106" s="16">
-        <v>415254.34295159124</v>
+        <v>415254.34295159118</v>
       </c>
       <c r="J106" s="16">
         <v>398706.59912379994</v>
@@ -31938,28 +31938,28 @@
         <v>36306962253.430695</v>
       </c>
       <c r="T111" s="7">
-        <v>34348477572.771233</v>
+        <v>34348477572.771236</v>
       </c>
       <c r="U111" s="7">
-        <v>32495638256.149776</v>
+        <v>32495638256.14978</v>
       </c>
       <c r="V111" s="7">
-        <v>30742745539.081242</v>
+        <v>30742745539.081245</v>
       </c>
       <c r="W111" s="7">
-        <v>29084408062.113907</v>
+        <v>29084408062.113911</v>
       </c>
       <c r="X111" s="7">
-        <v>27515525288.664135</v>
+        <v>27515525288.664139</v>
       </c>
       <c r="Y111" s="7">
-        <v>26031271817.332901</v>
+        <v>26031271817.332905</v>
       </c>
       <c r="Z111" s="7">
-        <v>24627082540.453606</v>
+        <v>24627082540.453609</v>
       </c>
       <c r="AA111" s="8">
-        <v>23298638603.223442</v>
+        <v>23298638603.223446</v>
       </c>
       <c r="AB111" s="13">
         <f t="shared" si="0"/>

--- a/717A11_output.xlsx
+++ b/717A11_output.xlsx
@@ -1069,10 +1069,10 @@
         <v>403.194798025002</v>
       </c>
       <c r="M3" s="4">
-        <v>244.5182512072264</v>
+        <v>244.51825120722646</v>
       </c>
       <c r="N3" s="4">
-        <v>61.213615468090552</v>
+        <v>61.21361546809058</v>
       </c>
       <c r="O3" s="4">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>519.20000000000005</v>
       </c>
       <c r="AQ3" s="4">
-        <v>436.81360116852375</v>
+        <v>436.81360116852358</v>
       </c>
       <c r="AR3" s="4">
         <v>194.56646357903963</v>
@@ -1243,7 +1243,7 @@
         <v>519.20000000000005</v>
       </c>
       <c r="BV3" s="4">
-        <v>472.53399723204234</v>
+        <v>472.53399723204245</v>
       </c>
       <c r="BW3" s="4">
         <v>110.77500801782816</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="AI4" s="7">
-        <v>244.46393590613366</v>
+        <v>244.46393590610433</v>
       </c>
       <c r="AJ4" s="7">
         <v>665.6</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="BL7" s="7">
-        <v>351.69841884752884</v>
+        <v>351.69841884750639</v>
       </c>
       <c r="BM7" s="7">
         <v>464</v>
@@ -3734,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="AH11" s="7">
-        <v>131.99794535073352</v>
+        <v>131.99794535068889</v>
       </c>
       <c r="AI11" s="7">
         <v>650</v>
@@ -5038,10 +5038,10 @@
         <v>1848</v>
       </c>
       <c r="AH15" s="7">
-        <v>1639.4584233342646</v>
+        <v>1639.4584233343091</v>
       </c>
       <c r="AI15" s="7">
-        <v>921.04578009702936</v>
+        <v>921.0457800970587</v>
       </c>
       <c r="AJ15" s="7">
         <v>80.359543447191641</v>
@@ -5125,7 +5125,7 @@
         <v>1848</v>
       </c>
       <c r="BL15" s="7">
-        <v>1457.0542679422963</v>
+        <v>1457.0542679423197</v>
       </c>
       <c r="BM15" s="7">
         <v>1287.4821009709342</v>
@@ -5538,7 +5538,7 @@
         <v>0</v>
       </c>
       <c r="CP16" s="7">
-        <v>472.09860254246621</v>
+        <v>472.09860254242841</v>
       </c>
       <c r="CQ16" s="7">
         <v>656.1</v>
@@ -6438,7 +6438,7 @@
         <v>257</v>
       </c>
       <c r="BO19" s="7">
-        <v>180.0636780985883</v>
+        <v>180.06367809858853</v>
       </c>
       <c r="BP19" s="7">
         <v>0</v>
@@ -6683,7 +6683,7 @@
         <v>2269.6</v>
       </c>
       <c r="AM20" s="7">
-        <v>1416.4040152938971</v>
+        <v>1416.4040152939231</v>
       </c>
       <c r="AN20" s="7">
         <v>371.89550436475275</v>
@@ -6770,7 +6770,7 @@
         <v>1682.4249912014752</v>
       </c>
       <c r="BQ20" s="7">
-        <v>1740.7061561222879</v>
+        <v>1740.7061561222881</v>
       </c>
       <c r="BR20" s="7">
         <v>1399.5118515273859</v>
@@ -6785,7 +6785,7 @@
         <v>329.1235412092272</v>
       </c>
       <c r="BV20" s="7">
-        <v>26.740995848064358</v>
+        <v>26.740995848064244</v>
       </c>
       <c r="BW20" s="7">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>2227</v>
       </c>
       <c r="CJ20" s="7">
-        <v>2038.0938834123335</v>
+        <v>2038.0938834123644</v>
       </c>
       <c r="CK20" s="7">
         <v>2269.6</v>
@@ -6842,7 +6842,7 @@
         <v>1899.3861697576663</v>
       </c>
       <c r="CP20" s="7">
-        <v>1493.1852827430193</v>
+        <v>1493.1852827430571</v>
       </c>
       <c r="CQ20" s="7">
         <v>714.65418025305428</v>
@@ -7335,7 +7335,7 @@
         <v>0</v>
       </c>
       <c r="AM22" s="7">
-        <v>132.71973531537219</v>
+        <v>132.71973531534627</v>
       </c>
       <c r="AN22" s="7">
         <v>398.3</v>
@@ -7413,7 +7413,7 @@
         <v>0</v>
       </c>
       <c r="BN22" s="7">
-        <v>264.11757987967167</v>
+        <v>264.11757987967178</v>
       </c>
       <c r="BO22" s="7">
         <v>398.3</v>
@@ -13018,7 +13018,7 @@
         <v>0</v>
       </c>
       <c r="CJ39" s="7">
-        <v>4.6771165876662053</v>
+        <v>4.6771165876352825</v>
       </c>
       <c r="CK39" s="7">
         <v>7.07</v>
@@ -15448,49 +15448,49 @@
         <v>0</v>
       </c>
       <c r="M49" s="4">
-        <v>52.177708757619257</v>
+        <v>52.177708757573555</v>
       </c>
       <c r="N49" s="4">
         <v>0</v>
       </c>
       <c r="O49" s="4">
-        <v>113.64055091056031</v>
+        <v>113.64055091051597</v>
       </c>
       <c r="P49" s="4">
-        <v>43.025546875272767</v>
+        <v>43.025546875266826</v>
       </c>
       <c r="Q49" s="4">
-        <v>82.076788686031705</v>
+        <v>82.076788686016982</v>
       </c>
       <c r="R49" s="4">
-        <v>191.0985659132034</v>
+        <v>191.09856591317742</v>
       </c>
       <c r="S49" s="4">
-        <v>214.72672166285878</v>
+        <v>214.72672166286395</v>
       </c>
       <c r="T49" s="4">
-        <v>169.54102191858084</v>
+        <v>169.54102191857308</v>
       </c>
       <c r="U49" s="4">
-        <v>373.42322690576202</v>
+        <v>373.42322690574952</v>
       </c>
       <c r="V49" s="4">
         <v>373.34160110516569</v>
       </c>
       <c r="W49" s="4">
-        <v>232.74508465235431</v>
+        <v>232.74508465236153</v>
       </c>
       <c r="X49" s="4">
-        <v>120.88641916859069</v>
+        <v>120.88641916860188</v>
       </c>
       <c r="Y49" s="4">
-        <v>230.80063202283509</v>
+        <v>230.80063202284637</v>
       </c>
       <c r="Z49" s="4">
-        <v>237.82224610153844</v>
+        <v>237.82224610155279</v>
       </c>
       <c r="AA49" s="5">
-        <v>301.16720555129359</v>
+        <v>301.16720555129496</v>
       </c>
       <c r="AD49">
         <v>1</v>
@@ -15532,7 +15532,7 @@
         <v>495.58878451388028</v>
       </c>
       <c r="AQ49" s="4">
-        <v>307.73881024844439</v>
+        <v>307.73881024839523</v>
       </c>
       <c r="AR49" s="4">
         <v>519.20000000000005</v>
@@ -15541,10 +15541,10 @@
         <v>519.20000000000005</v>
       </c>
       <c r="AT49" s="4">
-        <v>519.20000000000005</v>
+        <v>519.19999999999982</v>
       </c>
       <c r="AU49" s="4">
-        <v>519.20000000000005</v>
+        <v>519.19999999999982</v>
       </c>
       <c r="AV49" s="4">
         <v>519.20000000000005</v>
@@ -15553,7 +15553,7 @@
         <v>519.20000000000005</v>
       </c>
       <c r="AX49" s="4">
-        <v>519.20000000000005</v>
+        <v>519.19999999999959</v>
       </c>
       <c r="AY49" s="4">
         <v>519.20000000000005</v>
@@ -15616,7 +15616,7 @@
         <v>519.20000000000005</v>
       </c>
       <c r="BT49" s="4">
-        <v>519.20000000000005</v>
+        <v>519.19999999999936</v>
       </c>
       <c r="BU49" s="4">
         <v>519.20000000000005</v>
@@ -15688,7 +15688,7 @@
         <v>0</v>
       </c>
       <c r="CS49" s="4">
-        <v>17.956931319883381</v>
+        <v>17.95693131983063</v>
       </c>
       <c r="CT49" s="4">
         <v>197.62286554628719</v>
@@ -15828,7 +15828,7 @@
         <v>0</v>
       </c>
       <c r="AG50" s="7">
-        <v>500.61669062007275</v>
+        <v>500.61669061997429</v>
       </c>
       <c r="AH50" s="7">
         <v>665.6</v>
@@ -19414,7 +19414,7 @@
         <v>1475.2499999999995</v>
       </c>
       <c r="AG61" s="7">
-        <v>149.41135937992624</v>
+        <v>149.41135938002469</v>
       </c>
       <c r="AH61" s="7">
         <v>0</v>
@@ -19842,7 +19842,7 @@
         <v>478.91521653763266</v>
       </c>
       <c r="BP62" s="7">
-        <v>541.69390186509281</v>
+        <v>541.69390186504006</v>
       </c>
       <c r="BQ62" s="7">
         <v>656.1</v>
@@ -20323,7 +20323,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="7">
-        <v>30.437210045058237</v>
+        <v>30.437210045000938</v>
       </c>
       <c r="I64" s="7">
         <v>67</v>
@@ -20820,13 +20820,13 @@
         <v>257</v>
       </c>
       <c r="BP65" s="7">
-        <v>242.65225162137813</v>
+        <v>242.65225162143088</v>
       </c>
       <c r="BQ65" s="7">
         <v>0</v>
       </c>
       <c r="BR65" s="7">
-        <v>0</v>
+        <v>-9.0949470177292824E-13</v>
       </c>
       <c r="BS65" s="7">
         <v>0</v>
@@ -20957,7 +20957,7 @@
         <v>18</v>
       </c>
       <c r="B66" s="6">
-        <v>1594.1625210479542</v>
+        <v>1594.1625210476682</v>
       </c>
       <c r="C66" s="7">
         <v>2269.6</v>
@@ -20975,7 +20975,7 @@
         <v>2269.6</v>
       </c>
       <c r="H66" s="7">
-        <v>1568.1485730513091</v>
+        <v>1568.1485730513664</v>
       </c>
       <c r="I66" s="7">
         <v>1520.4718551442347</v>
@@ -20990,49 +20990,49 @@
         <v>101.35241006221014</v>
       </c>
       <c r="M66" s="7">
-        <v>85.85197299515022</v>
+        <v>85.851972995195922</v>
       </c>
       <c r="N66" s="7">
         <v>175.03704888854355</v>
       </c>
       <c r="O66" s="7">
-        <v>88.736931417979804</v>
+        <v>88.736931418024142</v>
       </c>
       <c r="P66" s="7">
-        <v>157.02843279422365</v>
+        <v>157.02843279422959</v>
       </c>
       <c r="Q66" s="7">
-        <v>145.99277680048937</v>
+        <v>145.99277680050409</v>
       </c>
       <c r="R66" s="7">
-        <v>75.328725662695717</v>
+        <v>75.328725662721709</v>
       </c>
       <c r="S66" s="7">
-        <v>90.403515537222916</v>
+        <v>90.403515537217729</v>
       </c>
       <c r="T66" s="7">
-        <v>174.64048741630131</v>
+        <v>174.64048741630907</v>
       </c>
       <c r="U66" s="7">
-        <v>0.16101601313386027</v>
+        <v>0.16101601314633884</v>
       </c>
       <c r="V66" s="7">
         <v>0</v>
       </c>
       <c r="W66" s="7">
-        <v>0.71169086275767768</v>
+        <v>0.7116908627504589</v>
       </c>
       <c r="X66" s="7">
-        <v>93.046567326156946</v>
+        <v>93.046567326145762</v>
       </c>
       <c r="Y66" s="7">
-        <v>13.97285135036509</v>
+        <v>13.972851350353814</v>
       </c>
       <c r="Z66" s="7">
-        <v>48.159298622020287</v>
+        <v>48.159298622005927</v>
       </c>
       <c r="AA66" s="8">
-        <v>16.393273074776516</v>
+        <v>16.393273074775152</v>
       </c>
       <c r="AD66">
         <v>18</v>
@@ -21074,7 +21074,7 @@
         <v>0</v>
       </c>
       <c r="AQ66" s="7">
-        <v>228.07537332606017</v>
+        <v>228.07537332610934</v>
       </c>
       <c r="AR66" s="7">
         <v>47.201611226674515</v>
@@ -21083,10 +21083,10 @@
         <v>48.154325727714252</v>
       </c>
       <c r="AT66" s="7">
-        <v>79.475614659263385</v>
+        <v>79.475614659263556</v>
       </c>
       <c r="AU66" s="7">
-        <v>121.16879519119612</v>
+        <v>121.1687951911963</v>
       </c>
       <c r="AV66" s="7">
         <v>163.23721434791679</v>
@@ -21095,10 +21095,10 @@
         <v>205.68424927704729</v>
       </c>
       <c r="AX66" s="7">
-        <v>238.5133075205402</v>
+        <v>238.51330752054014</v>
       </c>
       <c r="AY66" s="7">
-        <v>241.72782728822477</v>
+        <v>241.72782728822432</v>
       </c>
       <c r="AZ66" s="7">
         <v>105.33127773381858</v>
@@ -21152,13 +21152,13 @@
         <v>985.41296886784903</v>
       </c>
       <c r="BR66" s="7">
-        <v>1034.7195855876594</v>
+        <v>1034.7195855876603</v>
       </c>
       <c r="BS66" s="7">
         <v>1084.4699618579475</v>
       </c>
       <c r="BT66" s="7">
-        <v>1124.6680915146685</v>
+        <v>1124.6680915146687</v>
       </c>
       <c r="BU66" s="7">
         <v>1135.3180043382995</v>
@@ -21230,7 +21230,7 @@
         <v>1721.7371052463295</v>
       </c>
       <c r="CS66" s="7">
-        <v>142.45710787366261</v>
+        <v>142.45710787371536</v>
       </c>
       <c r="CT66" s="7">
         <v>0</v>
@@ -21283,7 +21283,7 @@
         <v>19</v>
       </c>
       <c r="B67" s="6">
-        <v>26.837478952045785</v>
+        <v>26.837478952331821</v>
       </c>
       <c r="C67" s="7">
         <v>0</v>
@@ -29479,7 +29479,7 @@
         <v>51.104125100000331</v>
       </c>
       <c r="E95" s="4">
-        <v>184.10334555923367</v>
+        <v>184.10334555923342</v>
       </c>
       <c r="F95" s="4">
         <v>618.08122360998459</v>
@@ -29503,34 +29503,34 @@
         <v>632.48932577791766</v>
       </c>
       <c r="M95" s="4">
-        <v>517.75154637658522</v>
+        <v>517.75154637658534</v>
       </c>
       <c r="N95" s="4">
         <v>386.51446029397414</v>
       </c>
       <c r="O95" s="4">
-        <v>339.92341509841788</v>
+        <v>339.92341509841782</v>
       </c>
       <c r="P95" s="4">
         <v>268.47057455075969</v>
       </c>
       <c r="Q95" s="4">
-        <v>206.80089305504987</v>
+        <v>206.80089305504981</v>
       </c>
       <c r="R95" s="4">
-        <v>136.84285109254529</v>
+        <v>136.8428510925452</v>
       </c>
       <c r="S95" s="4">
-        <v>43.434415078917141</v>
+        <v>43.434415078917098</v>
       </c>
       <c r="T95" s="4">
-        <v>33.901474814627591</v>
+        <v>33.901474814627512</v>
       </c>
       <c r="U95" s="4">
-        <v>27.616071421292759</v>
+        <v>27.616071421292645</v>
       </c>
       <c r="V95" s="4">
-        <v>31.244099397417699</v>
+        <v>31.24409939741766</v>
       </c>
       <c r="W95" s="4">
         <v>81.451446291994671</v>
@@ -29551,7 +29551,7 @@
         <v>1</v>
       </c>
       <c r="AE95" s="3">
-        <v>61.050000000000026</v>
+        <v>61.050000000000011</v>
       </c>
       <c r="AF95" s="4">
         <v>-0.83508333333372775</v>
@@ -29563,7 +29563,7 @@
         <v>89.313120118250396</v>
       </c>
       <c r="AI95" s="4">
-        <v>242.74418547007042</v>
+        <v>242.74418547005087</v>
       </c>
       <c r="AJ95" s="4">
         <v>823.20409891977511</v>
@@ -29587,16 +29587,16 @@
         <v>658.46711278790326</v>
       </c>
       <c r="AQ95" s="4">
-        <v>531.52645385916912</v>
+        <v>531.5264538591689</v>
       </c>
       <c r="AR95" s="4">
-        <v>363.01524194390112</v>
+        <v>363.01524194390117</v>
       </c>
       <c r="AS95" s="4">
         <v>236.19802795389569</v>
       </c>
       <c r="AT95" s="4">
-        <v>151.95296142781785</v>
+        <v>151.95296142781777</v>
       </c>
       <c r="AU95" s="4">
         <v>52.67590808066825</v>
@@ -29605,13 +29605,13 @@
         <v>-68.221147089636816</v>
       </c>
       <c r="AW95" s="4">
-        <v>-79.041647413443457</v>
+        <v>-79.041647413443485</v>
       </c>
       <c r="AX95" s="4">
-        <v>-86.626198906831064</v>
+        <v>-86.626198906831021</v>
       </c>
       <c r="AY95" s="4">
-        <v>-84.30901136365901</v>
+        <v>-84.309011363659081</v>
       </c>
       <c r="AZ95" s="4">
         <v>-35.424302465931603</v>
@@ -29635,19 +29635,19 @@
         <v>178.83333333333329</v>
       </c>
       <c r="BH95" s="4">
-        <v>114.77803333333307</v>
+        <v>114.77803333333311</v>
       </c>
       <c r="BI95" s="4">
         <v>139.19048563333303</v>
       </c>
       <c r="BJ95" s="4">
-        <v>163.82265000403254</v>
+        <v>163.8226500040324</v>
       </c>
       <c r="BK95" s="4">
         <v>188.6765038540685</v>
       </c>
       <c r="BL95" s="4">
-        <v>474.38453042722347</v>
+        <v>474.38453042720869</v>
       </c>
       <c r="BM95" s="4">
         <v>590.40254478963084</v>
@@ -29656,16 +29656,16 @@
         <v>724.81571765262834</v>
       </c>
       <c r="BO95" s="4">
-        <v>731.49442911150186</v>
+        <v>731.49442911150197</v>
       </c>
       <c r="BP95" s="4">
         <v>893.79991564017212</v>
       </c>
       <c r="BQ95" s="4">
-        <v>900.59938488093337</v>
+        <v>900.59938488093326</v>
       </c>
       <c r="BR95" s="4">
-        <v>774.12671601152806</v>
+        <v>774.12671601152817</v>
       </c>
       <c r="BS95" s="4">
         <v>631.04912645563218</v>
@@ -29674,13 +29674,13 @@
         <v>504.7005052603995</v>
       </c>
       <c r="BU95" s="4">
-        <v>395.08141314107695</v>
+        <v>395.08141314107684</v>
       </c>
       <c r="BV95" s="4">
         <v>253.30374827002697</v>
       </c>
       <c r="BW95" s="4">
-        <v>-10.107579725310615</v>
+        <v>-10.107579725310567</v>
       </c>
       <c r="BX95" s="4">
         <v>-172.29300563950142</v>
@@ -29689,7 +29689,7 @@
         <v>-314.98827269025696</v>
       </c>
       <c r="BZ95" s="4">
-        <v>-397.18980530312797</v>
+        <v>-397.18980530312803</v>
       </c>
       <c r="CA95" s="4">
         <v>-397.66769021752293</v>
@@ -29704,7 +29704,7 @@
         <v>-573.34814134402222</v>
       </c>
       <c r="CE95" s="4">
-        <v>-876.94995794945191</v>
+        <v>-876.94995794945146</v>
       </c>
       <c r="CF95" s="5">
         <v>-1100</v>
@@ -29713,10 +29713,10 @@
         <v>1</v>
       </c>
       <c r="CI95" s="3">
-        <v>-107.44999999999993</v>
+        <v>-107.44999999999982</v>
       </c>
       <c r="CJ95" s="4">
-        <v>-93.800677804111245</v>
+        <v>-93.800677804121619</v>
       </c>
       <c r="CK95" s="4">
         <v>46.996732883333642</v>
@@ -29731,10 +29731,10 @@
         <v>605.86782942104946</v>
       </c>
       <c r="CO95" s="4">
-        <v>805.24038647172779</v>
+        <v>805.24038647172767</v>
       </c>
       <c r="CP95" s="4">
-        <v>606.20391910248486</v>
+        <v>606.20391910249737</v>
       </c>
       <c r="CQ95" s="4">
         <v>529.07665436285652</v>
@@ -29749,28 +29749,28 @@
         <v>518.60573463288961</v>
       </c>
       <c r="CU95" s="4">
-        <v>338.26912082050904</v>
+        <v>338.26912082050899</v>
       </c>
       <c r="CV95" s="4">
         <v>262.44182330600643</v>
       </c>
       <c r="CW95" s="4">
-        <v>185.91750304909374</v>
+        <v>185.9175030490938</v>
       </c>
       <c r="CX95" s="4">
-        <v>83.127456033303162</v>
+        <v>83.127456033303204</v>
       </c>
       <c r="CY95" s="4">
-        <v>44.028725032512511</v>
+        <v>44.028725032512433</v>
       </c>
       <c r="CZ95" s="4">
-        <v>34.218473557805169</v>
+        <v>34.218473557805126</v>
       </c>
       <c r="DA95" s="4">
-        <v>24.319929819825461</v>
+        <v>24.319929819825422</v>
       </c>
       <c r="DB95" s="4">
-        <v>6.3980452757818007</v>
+        <v>6.3980452757818203</v>
       </c>
       <c r="DC95" s="4">
         <v>-127.00505565006961</v>
@@ -29805,7 +29805,7 @@
         <v>-556.1438559000004</v>
       </c>
       <c r="E96" s="7">
-        <v>-615.91206726976714</v>
+        <v>-615.91206726976702</v>
       </c>
       <c r="F96" s="7">
         <v>-826.10902484555402</v>
@@ -29826,37 +29826,37 @@
         <v>216.28966973777642</v>
       </c>
       <c r="L96" s="7">
-        <v>214.24192676541645</v>
+        <v>214.24192676541679</v>
       </c>
       <c r="M96" s="7">
-        <v>278.8424207729721</v>
+        <v>278.84242077297222</v>
       </c>
       <c r="N96" s="7">
         <v>351.75765255992883</v>
       </c>
       <c r="O96" s="7">
-        <v>377.41553410206899</v>
+        <v>377.41553410206905</v>
       </c>
       <c r="P96" s="7">
         <v>412.45382647607539</v>
       </c>
       <c r="Q96" s="7">
-        <v>529.36849424769343</v>
+        <v>529.36849424769355</v>
       </c>
       <c r="R96" s="7">
         <v>662.80206069592293</v>
       </c>
       <c r="S96" s="7">
-        <v>755.07807258910827</v>
+        <v>755.07807258910839</v>
       </c>
       <c r="T96" s="7">
         <v>767.54422524241011</v>
       </c>
       <c r="U96" s="7">
-        <v>773.45590660292487</v>
+        <v>773.45590660292498</v>
       </c>
       <c r="V96" s="7">
-        <v>759.48079309568436</v>
+        <v>759.48079309568448</v>
       </c>
       <c r="W96" s="7">
         <v>652.28657023354538</v>
@@ -29877,7 +29877,7 @@
         <v>2</v>
       </c>
       <c r="AE96" s="6">
-        <v>-473.45</v>
+        <v>-473.44999999999993</v>
       </c>
       <c r="AF96" s="7">
         <v>-442.81758333333318</v>
@@ -29889,7 +29889,7 @@
         <v>-472.6786955392505</v>
       </c>
       <c r="AI96" s="7">
-        <v>-541.68489243448153</v>
+        <v>-541.68489243447175</v>
       </c>
       <c r="AJ96" s="7">
         <v>-824.136129356629</v>
@@ -29919,10 +29919,10 @@
         <v>471.26201015438119</v>
       </c>
       <c r="AS96" s="7">
-        <v>523.10257882952089</v>
+        <v>523.10257882952101</v>
       </c>
       <c r="AT96" s="7">
-        <v>582.80026959431257</v>
+        <v>582.80026959431268</v>
       </c>
       <c r="AU96" s="7">
         <v>773.99630202066123</v>
@@ -29931,7 +29931,7 @@
         <v>920.36611542490959</v>
       </c>
       <c r="AW96" s="7">
-        <v>934.51600046373369</v>
+        <v>934.51600046373358</v>
       </c>
       <c r="AX96" s="7">
         <v>942.12656780124064</v>
@@ -29961,49 +29961,49 @@
         <v>-545.06666666666638</v>
       </c>
       <c r="BH96" s="7">
-        <v>-287.14496666666668</v>
+        <v>-287.14496666666673</v>
       </c>
       <c r="BI96" s="7">
         <v>-289.8574613666666</v>
       </c>
       <c r="BJ96" s="7">
-        <v>-292.59436851896663</v>
+        <v>-292.5943685189668</v>
       </c>
       <c r="BK96" s="7">
         <v>-295.35590783563748</v>
       </c>
       <c r="BL96" s="7">
-        <v>-428.45754502539228</v>
+        <v>-428.45754502538466</v>
       </c>
       <c r="BM96" s="7">
         <v>-510.12640472490193</v>
       </c>
       <c r="BN96" s="7">
-        <v>-699.4630722872073</v>
+        <v>-699.46307228720752</v>
       </c>
       <c r="BO96" s="7">
-        <v>-721.40740993779195</v>
+        <v>-721.40740993779241</v>
       </c>
       <c r="BP96" s="7">
         <v>-433.98257996056554</v>
       </c>
       <c r="BQ96" s="7">
-        <v>-456.32369318021034</v>
+        <v>-456.32369318021051</v>
       </c>
       <c r="BR96" s="7">
-        <v>-212.19920975216439</v>
+        <v>-212.19920975216451</v>
       </c>
       <c r="BS96" s="7">
-        <v>65.055727360065703</v>
+        <v>65.055727360065475</v>
       </c>
       <c r="BT96" s="7">
-        <v>308.77262557297291</v>
+        <v>308.77262557297286</v>
       </c>
       <c r="BU96" s="7">
-        <v>518.94964253646231</v>
+        <v>518.94964253646253</v>
       </c>
       <c r="BV96" s="7">
-        <v>746.69625172997303</v>
+        <v>746.69625172997314</v>
       </c>
       <c r="BW96" s="7">
         <v>902.534916265775</v>
@@ -30015,7 +30015,7 @@
         <v>1281.3214674108444</v>
       </c>
       <c r="BZ96" s="7">
-        <v>1348.2482069348596</v>
+        <v>1348.2482069348598</v>
       </c>
       <c r="CA96" s="7">
         <v>1339.6423641306069</v>
@@ -30030,7 +30030,7 @@
         <v>1370.0542379271135</v>
       </c>
       <c r="CE96" s="7">
-        <v>1533.4174027351244</v>
+        <v>1533.4174027351237</v>
       </c>
       <c r="CF96" s="8">
         <v>1651.6087405742417</v>
@@ -30039,10 +30039,10 @@
         <v>2</v>
       </c>
       <c r="CI96" s="6">
-        <v>-438.95000000000005</v>
+        <v>-438.94999999999982</v>
       </c>
       <c r="CJ96" s="7">
-        <v>-330.95617780411123</v>
+        <v>-330.95617780412152</v>
       </c>
       <c r="CK96" s="7">
         <v>-531.49572761666695</v>
@@ -30057,10 +30057,10 @@
         <v>-789.77331539675697</v>
       </c>
       <c r="CO96" s="7">
-        <v>-730.67269840710549</v>
+        <v>-730.67269840710537</v>
       </c>
       <c r="CP96" s="7">
-        <v>-292.30942099779213</v>
+        <v>-292.30942099781737</v>
       </c>
       <c r="CQ96" s="7">
         <v>-56.320435763671014</v>
@@ -30075,13 +30075,13 @@
         <v>303.41862207782725</v>
       </c>
       <c r="CU96" s="7">
-        <v>401.16345738856569</v>
+        <v>401.1634573885658</v>
       </c>
       <c r="CV96" s="7">
-        <v>444.76543770883626</v>
+        <v>444.76543770883632</v>
       </c>
       <c r="CW96" s="7">
-        <v>591.20248998154921</v>
+        <v>591.20248998154932</v>
       </c>
       <c r="CX96" s="7">
         <v>746.17546784815124</v>
@@ -30090,10 +30090,10 @@
         <v>773.57782111132985</v>
       </c>
       <c r="CZ96" s="7">
-        <v>786.40661150133178</v>
+        <v>786.40661150133189</v>
       </c>
       <c r="DA96" s="7">
-        <v>799.35086100484364</v>
+        <v>799.35086100484375</v>
       </c>
       <c r="DB96" s="7">
         <v>811.37873571009823</v>
@@ -30131,7 +30131,7 @@
         <v>505.03973080000003</v>
       </c>
       <c r="E97" s="10">
-        <v>431.8087217105334</v>
+        <v>431.80872171053352</v>
       </c>
       <c r="F97" s="10">
         <v>208.02780123556943</v>
@@ -30152,7 +30152,7 @@
         <v>-830.34930876445424</v>
       </c>
       <c r="L97" s="10">
-        <v>-846.73125254333411</v>
+        <v>-846.73125254333422</v>
       </c>
       <c r="M97" s="10">
         <v>-796.59396714955733</v>
@@ -30170,16 +30170,16 @@
         <v>-736.1693873027433</v>
       </c>
       <c r="R97" s="10">
-        <v>-799.64491178846811</v>
+        <v>-799.64491178846822</v>
       </c>
       <c r="S97" s="10">
         <v>-798.51248766802541</v>
       </c>
       <c r="T97" s="10">
-        <v>-801.44570005703758</v>
+        <v>-801.4457000570377</v>
       </c>
       <c r="U97" s="10">
-        <v>-801.07197802421751</v>
+        <v>-801.07197802421763</v>
       </c>
       <c r="V97" s="10">
         <v>-790.72489249310229</v>
@@ -30215,7 +30215,7 @@
         <v>383.36557542100013</v>
       </c>
       <c r="AI97" s="10">
-        <v>298.94070696441128</v>
+        <v>298.94070696442105</v>
       </c>
       <c r="AJ97" s="10">
         <v>0.93203043685377907</v>
@@ -30236,7 +30236,7 @@
         <v>-796.89549229225736</v>
       </c>
       <c r="AP97" s="10">
-        <v>-877.72088505622105</v>
+        <v>-877.72088505622094</v>
       </c>
       <c r="AQ97" s="10">
         <v>-915.17610713407612</v>
@@ -30248,7 +30248,7 @@
         <v>-759.3006067834167</v>
       </c>
       <c r="AT97" s="10">
-        <v>-734.75323102213042</v>
+        <v>-734.75323102213054</v>
       </c>
       <c r="AU97" s="10">
         <v>-826.67221010132971</v>
@@ -30263,7 +30263,7 @@
         <v>-855.50036889440969</v>
       </c>
       <c r="AY97" s="10">
-        <v>-845.55661888112581</v>
+        <v>-845.55661888112593</v>
       </c>
       <c r="AZ97" s="10">
         <v>-788.97670845105597</v>
@@ -30287,46 +30287,46 @@
         <v>366.23333333333329</v>
       </c>
       <c r="BH97" s="10">
-        <v>172.36693333333363</v>
+        <v>172.36693333333358</v>
       </c>
       <c r="BI97" s="10">
         <v>150.6669757333336</v>
       </c>
       <c r="BJ97" s="10">
-        <v>128.77171851493409</v>
+        <v>128.77171851493438</v>
       </c>
       <c r="BK97" s="10">
         <v>106.67940398156897</v>
       </c>
       <c r="BL97" s="10">
-        <v>-45.926985401831189</v>
+        <v>-45.926985401824012</v>
       </c>
       <c r="BM97" s="10">
         <v>-80.276140064728907</v>
       </c>
       <c r="BN97" s="10">
-        <v>-25.35264536542104</v>
+        <v>-25.352645365420813</v>
       </c>
       <c r="BO97" s="10">
-        <v>-10.087019173709905</v>
+        <v>-10.087019173709601</v>
       </c>
       <c r="BP97" s="10">
         <v>-459.81733567960657</v>
       </c>
       <c r="BQ97" s="10">
-        <v>-444.27569170072303</v>
+        <v>-444.27569170072275</v>
       </c>
       <c r="BR97" s="10">
         <v>-561.92750625936378</v>
       </c>
       <c r="BS97" s="10">
-        <v>-696.10485381569788</v>
+        <v>-696.10485381569777</v>
       </c>
       <c r="BT97" s="10">
         <v>-813.47313083337258</v>
       </c>
       <c r="BU97" s="10">
-        <v>-914.03105567753926</v>
+        <v>-914.03105567753937</v>
       </c>
       <c r="BV97" s="10">
         <v>-1000</v>
@@ -30341,7 +30341,7 @@
         <v>-966.33319472058747</v>
       </c>
       <c r="BZ97" s="10">
-        <v>-951.05840163173161</v>
+        <v>-951.05840163173173</v>
       </c>
       <c r="CA97" s="10">
         <v>-941.97467391308396</v>
@@ -30356,7 +30356,7 @@
         <v>-796.70609658309127</v>
       </c>
       <c r="CE97" s="10">
-        <v>-656.46744478567211</v>
+        <v>-656.4674447856728</v>
       </c>
       <c r="CF97" s="11">
         <v>-551.60874057424166</v>
@@ -30365,10 +30365,10 @@
         <v>3</v>
       </c>
       <c r="CI97" s="9">
-        <v>546.40000000000009</v>
+        <v>546.39999999999964</v>
       </c>
       <c r="CJ97" s="10">
-        <v>424.75685560822251</v>
+        <v>424.75685560824314</v>
       </c>
       <c r="CK97" s="10">
         <v>484.49899473333346</v>
@@ -30383,10 +30383,10 @@
         <v>183.90548597570756</v>
       </c>
       <c r="CO97" s="10">
-        <v>-74.567688064622303</v>
+        <v>-74.567688064622189</v>
       </c>
       <c r="CP97" s="10">
-        <v>-313.8944981046925</v>
+        <v>-313.89449810468</v>
       </c>
       <c r="CQ97" s="10">
         <v>-472.7562185991855</v>
@@ -30401,19 +30401,19 @@
         <v>-822.0243567107168</v>
       </c>
       <c r="CU97" s="10">
-        <v>-739.43257820907468</v>
+        <v>-739.43257820907479</v>
       </c>
       <c r="CV97" s="10">
         <v>-707.20726101484274</v>
       </c>
       <c r="CW97" s="10">
-        <v>-777.11999303064317</v>
+        <v>-777.11999303064306</v>
       </c>
       <c r="CX97" s="10">
         <v>-829.3029238814546</v>
       </c>
       <c r="CY97" s="10">
-        <v>-817.60654614384225</v>
+        <v>-817.60654614384237</v>
       </c>
       <c r="CZ97" s="10">
         <v>-820.62508505913695</v>
@@ -30476,10 +30476,10 @@
         <v>1</v>
       </c>
       <c r="B101" s="3">
-        <v>-181.29999999999987</v>
+        <v>-181.29999999999993</v>
       </c>
       <c r="C101" s="4">
-        <v>84.034299999999945</v>
+        <v>84.034300000000002</v>
       </c>
       <c r="D101" s="4">
         <v>431.4830793666664</v>
@@ -30509,49 +30509,49 @@
         <v>430.81278117392446</v>
       </c>
       <c r="M101" s="4">
-        <v>452.48436579036297</v>
+        <v>452.48436579034768</v>
       </c>
       <c r="N101" s="4">
         <v>439.40932237033019</v>
       </c>
       <c r="O101" s="4">
-        <v>481.64588990851644</v>
+        <v>481.64588990850166</v>
       </c>
       <c r="P101" s="4">
-        <v>462.50314658653224</v>
+        <v>462.50314658653014</v>
       </c>
       <c r="Q101" s="4">
-        <v>479.9553788687715</v>
+        <v>479.9553788687665</v>
       </c>
       <c r="R101" s="4">
-        <v>520.77103932158934</v>
+        <v>520.7710393215807</v>
       </c>
       <c r="S101" s="4">
-        <v>533.16243489429587</v>
+        <v>533.16243489429758</v>
       </c>
       <c r="T101" s="4">
-        <v>522.65651672859667</v>
+        <v>522.65651672859394</v>
       </c>
       <c r="U101" s="4">
-        <v>595.21423730912534</v>
+        <v>595.21423730912102</v>
       </c>
       <c r="V101" s="4">
-        <v>599.82538716399131</v>
+        <v>599.82538716399119</v>
       </c>
       <c r="W101" s="4">
-        <v>557.63998536088127</v>
+        <v>557.63998536088366</v>
       </c>
       <c r="X101" s="4">
-        <v>525.07598814725088</v>
+        <v>525.07598814725463</v>
       </c>
       <c r="Y101" s="4">
-        <v>566.47878373448509</v>
+        <v>566.47878373448884</v>
       </c>
       <c r="Z101" s="4">
-        <v>573.62692891826146</v>
+        <v>573.62692891826623</v>
       </c>
       <c r="AA101" s="5">
-        <v>599.59279102347284</v>
+        <v>599.59279102347318</v>
       </c>
       <c r="AD101" s="1" t="s">
         <v>1</v>
@@ -30563,7 +30563,7 @@
         <v>13.202500000000024</v>
       </c>
       <c r="AG101" s="4">
-        <v>480.31171624671543</v>
+        <v>480.31171624664978</v>
       </c>
       <c r="AH101" s="4">
         <v>596.6183627691662</v>
@@ -30590,13 +30590,13 @@
         <v>472.15592156586001</v>
       </c>
       <c r="AP101" s="4">
-        <v>642.00328636457959</v>
+        <v>642.00328636457948</v>
       </c>
       <c r="AQ101" s="4">
-        <v>584.07959149984049</v>
+        <v>584.07959149982378</v>
       </c>
       <c r="AR101" s="4">
-        <v>659.30185464311194</v>
+        <v>659.30185464311205</v>
       </c>
       <c r="AS101" s="4">
         <v>664.07967133490001</v>
@@ -30605,19 +30605,19 @@
         <v>668.90048837691404</v>
       </c>
       <c r="AU101" s="4">
-        <v>673.76469277230626</v>
+        <v>673.76469277230603</v>
       </c>
       <c r="AV101" s="4">
-        <v>678.67267500725711</v>
+        <v>678.672675007257</v>
       </c>
       <c r="AW101" s="4">
-        <v>683.62482908232221</v>
+        <v>683.62482908232209</v>
       </c>
       <c r="AX101" s="4">
-        <v>688.62155254406298</v>
+        <v>688.62155254406275</v>
       </c>
       <c r="AY101" s="4">
-        <v>693.66324651695982</v>
+        <v>693.66324651695959</v>
       </c>
       <c r="AZ101" s="4">
         <v>698.75031573561205</v>
@@ -30641,16 +30641,16 @@
         <v>112.05000000000007</v>
       </c>
       <c r="BH101" s="4">
-        <v>-55.117549999999781</v>
+        <v>-55.117549999999632</v>
       </c>
       <c r="BI101" s="4">
-        <v>-64.973007949999584</v>
+        <v>-64.973007949999513</v>
       </c>
       <c r="BJ101" s="4">
         <v>678.1495016451172</v>
       </c>
       <c r="BK101" s="4">
-        <v>668.11584715992342</v>
+        <v>668.11584715992331</v>
       </c>
       <c r="BL101" s="4">
         <v>657.9918897843628</v>
@@ -30665,25 +30665,25 @@
         <v>680.40336975017954</v>
       </c>
       <c r="BP101" s="4">
-        <v>665.12741728505739</v>
+        <v>665.12741728507478</v>
       </c>
       <c r="BQ101" s="4">
         <v>767.59317970124903</v>
       </c>
       <c r="BR101" s="4">
-        <v>773.34561831856024</v>
+        <v>773.34561831856013</v>
       </c>
       <c r="BS101" s="4">
-        <v>779.14982888342718</v>
+        <v>779.14982888342706</v>
       </c>
       <c r="BT101" s="4">
-        <v>785.00627734337809</v>
+        <v>785.00627734337786</v>
       </c>
       <c r="BU101" s="4">
         <v>790.91543383946828</v>
       </c>
       <c r="BV101" s="4">
-        <v>796.87777274402333</v>
+        <v>796.87777274402345</v>
       </c>
       <c r="BW101" s="4">
         <v>802.89377269871966</v>
@@ -30722,10 +30722,10 @@
         <v>-175</v>
       </c>
       <c r="CJ101" s="4">
-        <v>72.228999999999957</v>
+        <v>72.229000000000042</v>
       </c>
       <c r="CK101" s="4">
-        <v>206.12499433333338</v>
+        <v>206.12499433333352</v>
       </c>
       <c r="CL101" s="4">
         <v>471.80824969566612</v>
@@ -30749,19 +30749,19 @@
         <v>690.26766227873827</v>
       </c>
       <c r="CS101" s="4">
-        <v>443.68894834587479</v>
+        <v>443.68894834585717</v>
       </c>
       <c r="CT101" s="4">
-        <v>507.9186228291627</v>
+        <v>507.91862282916264</v>
       </c>
       <c r="CU101" s="4">
-        <v>524.81329043462506</v>
+        <v>524.81329043462495</v>
       </c>
       <c r="CV101" s="4">
         <v>538.52667671520294</v>
       </c>
       <c r="CW101" s="4">
-        <v>542.39348347230634</v>
+        <v>542.39348347230623</v>
       </c>
       <c r="CX101" s="4">
         <v>556.4150914902234</v>
@@ -30770,13 +30770,13 @@
         <v>573.92622731363531</v>
       </c>
       <c r="CZ101" s="4">
-        <v>591.59496335945812</v>
+        <v>591.59496335945801</v>
       </c>
       <c r="DA101" s="4">
         <v>609.42271802969276</v>
       </c>
       <c r="DB101" s="4">
-        <v>624.07758915862655</v>
+        <v>624.07758915862667</v>
       </c>
       <c r="DC101" s="4">
         <v>628.89435412772082</v>
@@ -30794,7 +30794,7 @@
         <v>619.80969070713172</v>
       </c>
       <c r="DH101" s="5">
-        <v>635.45804459016222</v>
+        <v>635.4580445901621</v>
       </c>
     </row>
     <row r="102" spans="1:112" x14ac:dyDescent="0.35">
@@ -30802,10 +30802,10 @@
         <v>2</v>
       </c>
       <c r="B102" s="6">
-        <v>-196.30000000000027</v>
+        <v>-196.3000000000001</v>
       </c>
       <c r="C102" s="7">
-        <v>-647.39870000000008</v>
+        <v>-647.39869999999996</v>
       </c>
       <c r="D102" s="7">
         <v>-815.20182363333333</v>
@@ -30835,49 +30835,49 @@
         <v>189.28657614281951</v>
       </c>
       <c r="M102" s="7">
-        <v>192.6195249139779</v>
+        <v>192.61952491396278</v>
       </c>
       <c r="N102" s="7">
         <v>161.0407979260583</v>
       </c>
       <c r="O102" s="7">
-        <v>184.60714874424639</v>
+        <v>184.60714874423161</v>
       </c>
       <c r="P102" s="7">
-        <v>146.62615675178392</v>
+        <v>146.62615675178188</v>
       </c>
       <c r="Q102" s="7">
-        <v>145.07059612551069</v>
+        <v>145.07059612550586</v>
       </c>
       <c r="R102" s="7">
-        <v>166.70739353363967</v>
+        <v>166.70739353363103</v>
       </c>
       <c r="S102" s="7">
-        <v>159.74731629425486</v>
+        <v>159.74731629425662</v>
       </c>
       <c r="T102" s="7">
-        <v>129.71576206115535</v>
+        <v>129.71576206115287</v>
       </c>
       <c r="U102" s="7">
-        <v>182.57211584967712</v>
+        <v>182.57211584967308</v>
       </c>
       <c r="V102" s="7">
-        <v>167.30458661140835</v>
+        <v>167.30458661140847</v>
       </c>
       <c r="W102" s="7">
-        <v>105.06159760332503</v>
+        <v>105.06159760332741</v>
       </c>
       <c r="X102" s="7">
-        <v>52.259494899876813</v>
+        <v>52.259494899880565</v>
       </c>
       <c r="Y102" s="7">
-        <v>73.242042047884979</v>
+        <v>73.242042047888731</v>
       </c>
       <c r="Z102" s="7">
-        <v>59.786156556481728</v>
+        <v>59.786156556486503</v>
       </c>
       <c r="AA102" s="8">
-        <v>64.962551710437538</v>
+        <v>64.962551710438333</v>
       </c>
       <c r="AD102" t="s">
         <v>2</v>
@@ -30889,7 +30889,7 @@
         <v>-554.77250000000015</v>
       </c>
       <c r="AG102" s="7">
-        <v>-781.8909493733579</v>
+        <v>-781.89094937332516</v>
       </c>
       <c r="AH102" s="7">
         <v>-833.55018845583322</v>
@@ -30916,34 +30916,34 @@
         <v>53.444829140745696</v>
       </c>
       <c r="AP102" s="7">
-        <v>203.35889410763912</v>
+        <v>203.35889410763923</v>
       </c>
       <c r="AQ102" s="7">
-        <v>125.32249971258784</v>
+        <v>125.3224997125717</v>
       </c>
       <c r="AR102" s="7">
-        <v>180.25104902977483</v>
+        <v>180.251049029775</v>
       </c>
       <c r="AS102" s="7">
-        <v>164.5525084710427</v>
+        <v>164.55250847104287</v>
       </c>
       <c r="AT102" s="7">
-        <v>148.71268104728256</v>
+        <v>148.71268104728222</v>
       </c>
       <c r="AU102" s="7">
-        <v>132.73029517670804</v>
+        <v>132.73029517670807</v>
       </c>
       <c r="AV102" s="7">
-        <v>116.60406783329847</v>
+        <v>116.60406783329859</v>
       </c>
       <c r="AW102" s="7">
-        <v>100.33270444379835</v>
+        <v>100.33270444379855</v>
       </c>
       <c r="AX102" s="7">
-        <v>83.914898783792722</v>
+        <v>83.914898783792978</v>
       </c>
       <c r="AY102" s="7">
-        <v>67.349332872846944</v>
+        <v>67.349332872847299</v>
       </c>
       <c r="AZ102" s="7">
         <v>50.634676868703004</v>
@@ -30967,10 +30967,10 @@
         <v>-456.25</v>
       </c>
       <c r="BH102" s="7">
-        <v>-351.2770500000002</v>
+        <v>-351.27705000000032</v>
       </c>
       <c r="BI102" s="7">
-        <v>-338.3891434500004</v>
+        <v>-338.38914345000052</v>
       </c>
       <c r="BJ102" s="7">
         <v>-701.91857907438384</v>
@@ -30991,7 +30991,7 @@
         <v>-695.289021981004</v>
       </c>
       <c r="BP102" s="7">
-        <v>-672.00175759308536</v>
+        <v>-672.00175759312037</v>
       </c>
       <c r="BQ102" s="7">
         <v>-175.56330473267553</v>
@@ -31003,13 +31003,13 @@
         <v>-213.53515204554651</v>
       </c>
       <c r="BT102" s="7">
-        <v>-232.77776841395635</v>
+        <v>-232.77776841395632</v>
       </c>
       <c r="BU102" s="7">
-        <v>-252.19356832968157</v>
+        <v>-252.19356832968151</v>
       </c>
       <c r="BV102" s="7">
-        <v>-271.78411044464838</v>
+        <v>-271.78411044464821</v>
       </c>
       <c r="BW102" s="7">
         <v>-291.55096743864988</v>
@@ -31048,10 +31048,10 @@
         <v>-217</v>
       </c>
       <c r="CJ102" s="7">
-        <v>-631.96100000000013</v>
+        <v>-631.96100000000001</v>
       </c>
       <c r="CK102" s="7">
-        <v>-692.90191566666692</v>
+        <v>-692.90191566666681</v>
       </c>
       <c r="CL102" s="7">
         <v>-819.6823981143333</v>
@@ -31075,19 +31075,19 @@
         <v>-522.45089034442628</v>
       </c>
       <c r="CS102" s="7">
-        <v>172.6319287491018</v>
+        <v>172.63192874908418</v>
       </c>
       <c r="CT102" s="7">
-        <v>218.25719005601877</v>
+        <v>218.25719005601889</v>
       </c>
       <c r="CU102" s="7">
-        <v>216.38000476652303</v>
+        <v>216.38000476652314</v>
       </c>
       <c r="CV102" s="7">
         <v>211.15259147608845</v>
       </c>
       <c r="CW102" s="7">
-        <v>195.90813146603989</v>
+        <v>195.90813146604</v>
       </c>
       <c r="CX102" s="7">
         <v>190.64647131590107</v>
@@ -31096,7 +31096,7 @@
         <v>188.7007895577442</v>
       </c>
       <c r="CZ102" s="7">
-        <v>186.73759666376372</v>
+        <v>186.73759666376384</v>
       </c>
       <c r="DA102" s="7">
         <v>184.75673503373775</v>
@@ -31120,7 +31120,7 @@
         <v>72.491515847355686</v>
       </c>
       <c r="DH102" s="8">
-        <v>67.049106156648577</v>
+        <v>67.049106156648804</v>
       </c>
     </row>
     <row r="103" spans="1:112" x14ac:dyDescent="0.35">
@@ -31128,10 +31128,10 @@
         <v>3</v>
       </c>
       <c r="B103" s="9">
-        <v>377.60000000000014</v>
+        <v>377.6</v>
       </c>
       <c r="C103" s="10">
-        <v>563.36440000000005</v>
+        <v>563.36439999999993</v>
       </c>
       <c r="D103" s="10">
         <v>383.71874426666687</v>
@@ -31161,49 +31161,49 @@
         <v>-620.09935731674398</v>
       </c>
       <c r="M103" s="10">
-        <v>-645.10389070434098</v>
+        <v>-645.10389070431052</v>
       </c>
       <c r="N103" s="10">
         <v>-600.45012029638838</v>
       </c>
       <c r="O103" s="10">
-        <v>-666.25303865276283</v>
+        <v>-666.25303865273327</v>
       </c>
       <c r="P103" s="10">
-        <v>-609.12930333831605</v>
+        <v>-609.12930333831218</v>
       </c>
       <c r="Q103" s="10">
-        <v>-625.02597499428225</v>
+        <v>-625.02597499427236</v>
       </c>
       <c r="R103" s="10">
-        <v>-687.47843285522913</v>
+        <v>-687.47843285521185</v>
       </c>
       <c r="S103" s="10">
-        <v>-692.90975118855079</v>
+        <v>-692.90975118855431</v>
       </c>
       <c r="T103" s="10">
-        <v>-652.37227878975204</v>
+        <v>-652.37227878974682</v>
       </c>
       <c r="U103" s="10">
-        <v>-777.78635315880251</v>
+        <v>-777.7863531587941</v>
       </c>
       <c r="V103" s="10">
-        <v>-767.12997377539966</v>
+        <v>-767.12997377539955</v>
       </c>
       <c r="W103" s="10">
-        <v>-662.70158296420641</v>
+        <v>-662.70158296421118</v>
       </c>
       <c r="X103" s="10">
-        <v>-577.3354830471277</v>
+        <v>-577.33548304713509</v>
       </c>
       <c r="Y103" s="10">
-        <v>-639.72082578236996</v>
+        <v>-639.72082578237746</v>
       </c>
       <c r="Z103" s="10">
-        <v>-633.41308547474341</v>
+        <v>-633.41308547475296</v>
       </c>
       <c r="AA103" s="11">
-        <v>-664.55534273391027</v>
+        <v>-664.5553427339114</v>
       </c>
       <c r="AD103" t="s">
         <v>3</v>
@@ -31215,7 +31215,7 @@
         <v>541.57000000000005</v>
       </c>
       <c r="AG103" s="10">
-        <v>301.57923312664252</v>
+        <v>301.57923312667532</v>
       </c>
       <c r="AH103" s="10">
         <v>236.93182568666725</v>
@@ -31242,34 +31242,34 @@
         <v>-525.60075070660582</v>
       </c>
       <c r="AP103" s="10">
-        <v>-845.36218047221882</v>
+        <v>-845.36218047221871</v>
       </c>
       <c r="AQ103" s="10">
-        <v>-709.40209121242833</v>
+        <v>-709.40209121239548</v>
       </c>
       <c r="AR103" s="10">
-        <v>-839.55290367288671</v>
+        <v>-839.55290367288683</v>
       </c>
       <c r="AS103" s="10">
-        <v>-828.632179805943</v>
+        <v>-828.63217980594288</v>
       </c>
       <c r="AT103" s="10">
-        <v>-817.6131694241966</v>
+        <v>-817.61316942419637</v>
       </c>
       <c r="AU103" s="10">
-        <v>-806.49498794901433</v>
+        <v>-806.4949879490141</v>
       </c>
       <c r="AV103" s="10">
         <v>-795.27674284055547</v>
       </c>
       <c r="AW103" s="10">
-        <v>-783.95753352612076</v>
+        <v>-783.95753352612064</v>
       </c>
       <c r="AX103" s="10">
-        <v>-772.53645132785596</v>
+        <v>-772.53645132785573</v>
       </c>
       <c r="AY103" s="10">
-        <v>-761.01257938980666</v>
+        <v>-761.01257938980689</v>
       </c>
       <c r="AZ103" s="10">
         <v>-749.38499260431513</v>
@@ -31293,10 +31293,10 @@
         <v>344.20000000000005</v>
       </c>
       <c r="BH103" s="10">
-        <v>406.39460000000003</v>
+        <v>406.39459999999991</v>
       </c>
       <c r="BI103" s="10">
-        <v>403.36215140000007</v>
+        <v>403.36215139999996</v>
       </c>
       <c r="BJ103" s="10">
         <v>23.769077429266815</v>
@@ -31317,25 +31317,25 @@
         <v>14.885652230824462</v>
       </c>
       <c r="BP103" s="10">
-        <v>6.8743403080279677</v>
+        <v>6.8743403080457028</v>
       </c>
       <c r="BQ103" s="10">
         <v>-592.02987496857349</v>
       </c>
       <c r="BR103" s="10">
-        <v>-578.88144384329087</v>
+        <v>-578.88144384329075</v>
       </c>
       <c r="BS103" s="10">
-        <v>-565.61467683788067</v>
+        <v>-565.61467683788055</v>
       </c>
       <c r="BT103" s="10">
-        <v>-552.22850892942165</v>
+        <v>-552.22850892942154</v>
       </c>
       <c r="BU103" s="10">
-        <v>-538.72186550978665</v>
+        <v>-538.72186550978677</v>
       </c>
       <c r="BV103" s="10">
-        <v>-525.09366229937518</v>
+        <v>-525.09366229937507</v>
       </c>
       <c r="BW103" s="10">
         <v>-511.34280526006955</v>
@@ -31374,10 +31374,10 @@
         <v>392</v>
       </c>
       <c r="CJ103" s="10">
-        <v>559.73200000000008</v>
+        <v>559.73199999999997</v>
       </c>
       <c r="CK103" s="10">
-        <v>486.77692133333346</v>
+        <v>486.77692133333329</v>
       </c>
       <c r="CL103" s="10">
         <v>347.87414841866723</v>
@@ -31401,19 +31401,19 @@
         <v>-167.81677193431199</v>
       </c>
       <c r="CS103" s="10">
-        <v>-616.32087709497671</v>
+        <v>-616.32087709494158</v>
       </c>
       <c r="CT103" s="10">
-        <v>-726.17581288518159</v>
+        <v>-726.17581288518147</v>
       </c>
       <c r="CU103" s="10">
-        <v>-741.19329520114809</v>
+        <v>-741.19329520114798</v>
       </c>
       <c r="CV103" s="10">
         <v>-749.67926819129138</v>
       </c>
       <c r="CW103" s="10">
-        <v>-738.30161493834623</v>
+        <v>-738.30161493834612</v>
       </c>
       <c r="CX103" s="10">
         <v>-747.06156280612447</v>
@@ -31422,7 +31422,7 @@
         <v>-762.62701687137951</v>
       </c>
       <c r="CZ103" s="10">
-        <v>-778.33256002322196</v>
+        <v>-778.33256002322184</v>
       </c>
       <c r="DA103" s="10">
         <v>-794.17945306343051</v>
@@ -31446,7 +31446,7 @@
         <v>-692.30120655448741</v>
       </c>
       <c r="DH103" s="11">
-        <v>-702.50715074681079</v>
+        <v>-702.50715074681091</v>
       </c>
     </row>
     <row r="105" spans="1:112" x14ac:dyDescent="0.35">
@@ -31537,13 +31537,13 @@
         <v>6</v>
       </c>
       <c r="B106" s="15">
-        <v>879825.87329372531</v>
+        <v>879825.87329377746</v>
       </c>
       <c r="C106" s="16">
-        <v>704365.92678483634</v>
+        <v>704365.92678483692</v>
       </c>
       <c r="D106" s="16">
-        <v>632872.9785712494</v>
+        <v>632872.97857124964</v>
       </c>
       <c r="E106" s="16">
         <v>574863.67959270906</v>
@@ -31552,22 +31552,22 @@
         <v>524220.4330517659</v>
       </c>
       <c r="G106" s="16">
-        <v>478456.70799985342</v>
+        <v>478456.70799985353</v>
       </c>
       <c r="H106" s="16">
-        <v>439591.15361142252</v>
+        <v>439591.15361142246</v>
       </c>
       <c r="I106" s="16">
-        <v>415254.34295159142</v>
+        <v>415254.34295159124</v>
       </c>
       <c r="J106" s="16">
-        <v>398706.59912380006</v>
+        <v>398706.59912379994</v>
       </c>
       <c r="K106" s="16">
-        <v>387755.68312656437</v>
+        <v>387755.68312656414</v>
       </c>
       <c r="L106" s="16">
-        <v>385050.2031432715</v>
+        <v>385050.20314327115</v>
       </c>
       <c r="M106" s="16">
         <v>8540384.6987172794</v>
@@ -31585,7 +31585,7 @@
         <v>13640640.092308568</v>
       </c>
       <c r="R106" s="16">
-        <v>14286100.651059721</v>
+        <v>14286100.651059719</v>
       </c>
       <c r="S106" s="16">
         <v>14588900.488033798</v>
@@ -31597,10 +31597,10 @@
         <v>14529616.858287059</v>
       </c>
       <c r="V106" s="16">
-        <v>14726708.686652686</v>
+        <v>14726708.686652685</v>
       </c>
       <c r="W106" s="16">
-        <v>15182666.315315856</v>
+        <v>15182666.315315858</v>
       </c>
       <c r="X106" s="16">
         <v>14105362.463978609</v>
@@ -31616,7 +31616,7 @@
       </c>
       <c r="AB106" s="18">
         <f>SUM(TotalCost)</f>
-        <v>206669280.56049082</v>
+        <v>206669280.56049091</v>
       </c>
     </row>
     <row r="108" spans="1:112" x14ac:dyDescent="0.35">
@@ -31884,86 +31884,86 @@
         <v>10</v>
       </c>
       <c r="B111" s="6">
-        <v>93194669484.472565</v>
+        <v>93194669484.472702</v>
       </c>
       <c r="C111" s="7">
-        <v>88167525345.273361</v>
+        <v>88167525345.273468</v>
       </c>
       <c r="D111" s="7">
-        <v>83411557426.088486</v>
+        <v>83411557426.088593</v>
       </c>
       <c r="E111" s="7">
-        <v>78912137830.78746</v>
+        <v>78912137830.787552</v>
       </c>
       <c r="F111" s="7">
-        <v>74655427727.063995</v>
+        <v>74655427727.064072</v>
       </c>
       <c r="G111" s="7">
-        <v>70628334782.439621</v>
+        <v>70628334782.439682</v>
       </c>
       <c r="H111" s="7">
-        <v>66818472896.271355</v>
+        <v>66818472896.271408</v>
       </c>
       <c r="I111" s="7">
-        <v>63214124103.91153</v>
+        <v>63214124103.911575</v>
       </c>
       <c r="J111" s="7">
-        <v>59804202535.848694</v>
+        <v>59804202535.848732</v>
       </c>
       <c r="K111" s="7">
-        <v>56578220320.978935</v>
+        <v>56578220320.978966</v>
       </c>
       <c r="L111" s="7">
-        <v>53526255329.136566</v>
+        <v>53526255329.136589</v>
       </c>
       <c r="M111" s="7">
-        <v>50638920653.670151</v>
+        <v>50638920653.670174</v>
       </c>
       <c r="N111" s="7">
-        <v>47907335740.201614</v>
+        <v>47907335740.201637</v>
       </c>
       <c r="O111" s="7">
-        <v>45323099072.769363</v>
+        <v>45323099072.769386</v>
       </c>
       <c r="P111" s="7">
-        <v>42878262333.346413</v>
+        <v>42878262333.346428</v>
       </c>
       <c r="Q111" s="7">
-        <v>40565305955.256111</v>
+        <v>40565305955.256119</v>
       </c>
       <c r="R111" s="7">
-        <v>38377115995.295303</v>
+        <v>38377115995.295311</v>
       </c>
       <c r="S111" s="7">
-        <v>36306962253.430687</v>
+        <v>36306962253.430695</v>
       </c>
       <c r="T111" s="7">
-        <v>34348477572.771229</v>
+        <v>34348477572.771233</v>
       </c>
       <c r="U111" s="7">
         <v>32495638256.149776</v>
       </c>
       <c r="V111" s="7">
-        <v>30742745539.081245</v>
+        <v>30742745539.081242</v>
       </c>
       <c r="W111" s="7">
-        <v>29084408062.113911</v>
+        <v>29084408062.113907</v>
       </c>
       <c r="X111" s="7">
-        <v>27515525288.664139</v>
+        <v>27515525288.664135</v>
       </c>
       <c r="Y111" s="7">
-        <v>26031271817.332905</v>
+        <v>26031271817.332901</v>
       </c>
       <c r="Z111" s="7">
-        <v>24627082540.453609</v>
+        <v>24627082540.453606</v>
       </c>
       <c r="AA111" s="8">
         <v>23298638603.223442</v>
       </c>
       <c r="AB111" s="13">
         <f t="shared" si="0"/>
-        <v>1319051717466.0325</v>
+        <v>1319051717466.0334</v>
       </c>
     </row>
     <row r="112" spans="1:112" x14ac:dyDescent="0.35">

--- a/717A11_output.xlsx
+++ b/717A11_output.xlsx
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="K3" s="4">
-        <v>362.23993857780226</v>
+        <v>0</v>
       </c>
       <c r="L3" s="4">
-        <v>403.194798025002</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4">
-        <v>244.51825120722646</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4">
-        <v>61.21361546809058</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="AE3" s="3">
-        <v>363.40000000000009</v>
+        <v>293.40000000000009</v>
       </c>
       <c r="AF3" s="4">
         <v>0</v>
@@ -1144,25 +1144,25 @@
         <v>0</v>
       </c>
       <c r="AN3" s="4">
-        <v>519.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="4">
-        <v>519.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="AP3" s="4">
-        <v>519.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="AQ3" s="4">
-        <v>436.81360116852358</v>
+        <v>0</v>
       </c>
       <c r="AR3" s="4">
-        <v>194.56646357903963</v>
+        <v>0</v>
       </c>
       <c r="AS3" s="4">
-        <v>0</v>
+        <v>77.749101751249896</v>
       </c>
       <c r="AT3" s="4">
-        <v>0</v>
+        <v>56.365383667009894</v>
       </c>
       <c r="AU3" s="4">
         <v>0</v>
@@ -1225,55 +1225,55 @@
         <v>0</v>
       </c>
       <c r="BP3" s="4">
-        <v>519.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="BQ3" s="4">
-        <v>519.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="BR3" s="4">
-        <v>519.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="4">
-        <v>519.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="BT3" s="4">
-        <v>519.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="BU3" s="4">
         <v>519.20000000000005</v>
       </c>
       <c r="BV3" s="4">
-        <v>472.53399723204245</v>
+        <v>519.20000000000005</v>
       </c>
       <c r="BW3" s="4">
-        <v>110.77500801782816</v>
+        <v>519.20000000000005</v>
       </c>
       <c r="BX3" s="4">
-        <v>0</v>
+        <v>519.20000000000005</v>
       </c>
       <c r="BY3" s="4">
-        <v>0</v>
+        <v>519.20000000000005</v>
       </c>
       <c r="BZ3" s="4">
-        <v>0</v>
+        <v>519.20000000000005</v>
       </c>
       <c r="CA3" s="4">
-        <v>0</v>
+        <v>519.20000000000005</v>
       </c>
       <c r="CB3" s="4">
-        <v>0</v>
+        <v>519.20000000000005</v>
       </c>
       <c r="CC3" s="4">
-        <v>0</v>
+        <v>519.20000000000005</v>
       </c>
       <c r="CD3" s="4">
-        <v>0</v>
+        <v>507.05524145772756</v>
       </c>
       <c r="CE3" s="4">
-        <v>0</v>
+        <v>403.12527863084802</v>
       </c>
       <c r="CF3" s="5">
-        <v>0</v>
+        <v>289.78994613852274</v>
       </c>
       <c r="CH3">
         <v>1</v>
@@ -1306,16 +1306,16 @@
         <v>0</v>
       </c>
       <c r="CR3" s="4">
-        <v>451.00040787533163</v>
+        <v>0</v>
       </c>
       <c r="CS3" s="4">
-        <v>493.52595154620883</v>
+        <v>0</v>
       </c>
       <c r="CT3" s="4">
-        <v>256.43422511012506</v>
+        <v>0</v>
       </c>
       <c r="CU3" s="4">
-        <v>9.0949470177292824E-13</v>
+        <v>0</v>
       </c>
       <c r="CV3" s="4">
         <v>0</v>
@@ -1374,16 +1374,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="7">
-        <v>663.58049691107647</v>
+        <v>0</v>
       </c>
       <c r="G4" s="7">
-        <v>665.6</v>
+        <v>282.74112138327519</v>
       </c>
       <c r="H4" s="7">
-        <v>665.6</v>
+        <v>252.25419147572438</v>
       </c>
       <c r="I4" s="7">
-        <v>665.6</v>
+        <v>250.58540577074382</v>
       </c>
       <c r="J4" s="7">
         <v>665.6</v>
@@ -1455,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="AI4" s="7">
-        <v>244.46393590610433</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="7">
-        <v>665.6</v>
+        <v>90.049622825748486</v>
       </c>
       <c r="AK4" s="7">
         <v>665.6</v>
@@ -1515,10 +1515,10 @@
         <v>665.6</v>
       </c>
       <c r="BC4" s="7">
-        <v>556.38158899832604</v>
+        <v>665.6</v>
       </c>
       <c r="BD4" s="8">
-        <v>284.55486329931034</v>
+        <v>665.6</v>
       </c>
       <c r="BF4">
         <v>2</v>
@@ -1527,19 +1527,19 @@
         <v>0</v>
       </c>
       <c r="BH4" s="7">
-        <v>406.40599999999932</v>
+        <v>266.40599999999949</v>
       </c>
       <c r="BI4" s="7">
-        <v>460.65589399999936</v>
+        <v>250.65589399999908</v>
       </c>
       <c r="BJ4" s="7">
-        <v>515.39403704599749</v>
+        <v>235.39403704599727</v>
       </c>
       <c r="BK4" s="7">
-        <v>570.62482337941105</v>
+        <v>220.62482337941083</v>
       </c>
       <c r="BL4" s="7">
-        <v>665.6</v>
+        <v>206.35268678982538</v>
       </c>
       <c r="BM4" s="7">
         <v>665.6</v>
@@ -1596,10 +1596,10 @@
         <v>665.6</v>
       </c>
       <c r="CE4" s="7">
-        <v>450.4252786308482</v>
+        <v>665.6</v>
       </c>
       <c r="CF4" s="8">
-        <v>132.51623249502018</v>
+        <v>665.6</v>
       </c>
       <c r="CH4">
         <v>2</v>
@@ -1620,13 +1620,13 @@
         <v>0</v>
       </c>
       <c r="CN4" s="7">
-        <v>665.6</v>
+        <v>0</v>
       </c>
       <c r="CO4" s="7">
-        <v>665.6</v>
+        <v>336.38616975766672</v>
       </c>
       <c r="CP4" s="7">
-        <v>665.6</v>
+        <v>307.78388528548544</v>
       </c>
       <c r="CQ4" s="7">
         <v>665.6</v>
@@ -1671,16 +1671,16 @@
         <v>665.6</v>
       </c>
       <c r="DE4" s="7">
-        <v>631.9930832341945</v>
+        <v>665.6</v>
       </c>
       <c r="DF4" s="7">
-        <v>354.77186098330208</v>
+        <v>665.6</v>
       </c>
       <c r="DG4" s="7">
-        <v>52.980647732151624</v>
+        <v>665.6</v>
       </c>
       <c r="DH4" s="8">
-        <v>0</v>
+        <v>665.6</v>
       </c>
     </row>
     <row r="5" spans="1:112" x14ac:dyDescent="0.35">
@@ -1709,13 +1709,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="K5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="L5" s="7">
         <v>46.5</v>
@@ -1757,10 +1757,10 @@
         <v>46.5</v>
       </c>
       <c r="Y5" s="7">
-        <v>16.087945035075393</v>
+        <v>46.5</v>
       </c>
       <c r="Z5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="AA5" s="8">
         <v>0</v>
@@ -1787,16 +1787,16 @@
         <v>0</v>
       </c>
       <c r="AK5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="AN5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="7">
         <v>46.5</v>
@@ -1835,16 +1835,16 @@
         <v>46.5</v>
       </c>
       <c r="BA5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="BB5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="BC5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="BD5" s="8">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="BF5">
         <v>3</v>
@@ -1868,13 +1868,13 @@
         <v>0</v>
       </c>
       <c r="BM5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="BO5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="BP5" s="7">
         <v>46.5</v>
@@ -1919,13 +1919,13 @@
         <v>46.5</v>
       </c>
       <c r="CD5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="CE5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="CF5" s="8">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="CH5">
         <v>3</v>
@@ -1952,13 +1952,13 @@
         <v>0</v>
       </c>
       <c r="CP5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="CQ5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="CR5" s="7">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="CS5" s="7">
         <v>46.5</v>
@@ -1988,25 +1988,25 @@
         <v>46.5</v>
       </c>
       <c r="DB5" s="7">
-        <v>29.598619131366689</v>
+        <v>46.5</v>
       </c>
       <c r="DC5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="DD5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="DE5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="DF5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="DG5" s="7">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="DH5" s="8">
-        <v>0</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="6" spans="1:112" x14ac:dyDescent="0.35">
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="F6" s="7">
         <v>212</v>
@@ -2098,13 +2098,13 @@
         <v>0</v>
       </c>
       <c r="AF6" s="7">
-        <v>48.524999999999054</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="7">
-        <v>91.795964999998773</v>
+        <v>0</v>
       </c>
       <c r="AH6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="7">
         <v>212</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="CL6" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="CM6" s="7">
         <v>212</v>
@@ -2355,16 +2355,16 @@
         <v>0</v>
       </c>
       <c r="G7" s="7">
-        <v>37.141121383275362</v>
+        <v>0</v>
       </c>
       <c r="H7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="K7" s="7">
         <v>464</v>
@@ -2412,10 +2412,10 @@
         <v>464</v>
       </c>
       <c r="Z7" s="7">
-        <v>343.51613654039068</v>
+        <v>464</v>
       </c>
       <c r="AA7" s="8">
-        <v>155.36218176925343</v>
+        <v>464</v>
       </c>
       <c r="AD7">
         <v>5</v>
@@ -2436,16 +2436,16 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="AK7" s="7">
-        <v>464</v>
+        <v>31.167033126886452</v>
       </c>
       <c r="AL7" s="7">
-        <v>464</v>
+        <v>74.462944112259947</v>
       </c>
       <c r="AM7" s="7">
-        <v>464</v>
+        <v>310.55717598544015</v>
       </c>
       <c r="AN7" s="7">
         <v>464</v>
@@ -2487,16 +2487,16 @@
         <v>464</v>
       </c>
       <c r="BA7" s="7">
-        <v>460.8536824067312</v>
+        <v>464</v>
       </c>
       <c r="BB7" s="7">
-        <v>188.08260554839114</v>
+        <v>464</v>
       </c>
       <c r="BC7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="BD7" s="8">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="BF7">
         <v>5</v>
@@ -2517,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="BL7" s="7">
-        <v>351.69841884750639</v>
+        <v>0</v>
       </c>
       <c r="BM7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="7">
         <v>464</v>
@@ -2571,13 +2571,13 @@
         <v>464</v>
       </c>
       <c r="CD7" s="7">
-        <v>218.75524145772829</v>
+        <v>464</v>
       </c>
       <c r="CE7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="CF7" s="8">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="CH7">
         <v>5</v>
@@ -2601,10 +2601,10 @@
         <v>0</v>
       </c>
       <c r="CO7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="CP7" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="CQ7" s="7">
         <v>464</v>
@@ -2643,22 +2643,22 @@
         <v>464</v>
       </c>
       <c r="DC7" s="7">
-        <v>322.11024670354874</v>
+        <v>464</v>
       </c>
       <c r="DD7" s="7">
-        <v>189.04047892387996</v>
+        <v>464</v>
       </c>
       <c r="DE7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="DF7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="DG7" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="DH7" s="8">
-        <v>0</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:112" x14ac:dyDescent="0.35">
@@ -2693,19 +2693,19 @@
         <v>0</v>
       </c>
       <c r="K8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="L8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="M8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="P8" s="7">
         <v>0</v>
@@ -2774,31 +2774,31 @@
         <v>0</v>
       </c>
       <c r="AN8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="AP8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="AQ8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="AR8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="AS8" s="7">
         <v>101.5</v>
       </c>
       <c r="AT8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="AU8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="AV8" s="7">
-        <v>0</v>
+        <v>40.414525029093568</v>
       </c>
       <c r="AW8" s="7">
         <v>0</v>
@@ -2855,19 +2855,19 @@
         <v>0</v>
       </c>
       <c r="BP8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="BQ8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="BR8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="BT8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="BU8" s="7">
         <v>101.5</v>
@@ -2879,31 +2879,31 @@
         <v>101.5</v>
       </c>
       <c r="BX8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="BY8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="BZ8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="CA8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="CB8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="CC8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="CD8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="CE8" s="7">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="CF8" s="8">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="CH8">
         <v>6</v>
@@ -2936,16 +2936,16 @@
         <v>0</v>
       </c>
       <c r="CR8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="CS8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="CT8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="CU8" s="7">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="CV8" s="7">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="AF9" s="7">
-        <v>84.6</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="7">
         <v>84.6</v>
@@ -3342,19 +3342,19 @@
         <v>0</v>
       </c>
       <c r="J10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="K10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="L10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="M10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7">
         <v>88</v>
@@ -3369,7 +3369,7 @@
         <v>88</v>
       </c>
       <c r="S10" s="7">
-        <v>0</v>
+        <v>2.48731502038288</v>
       </c>
       <c r="T10" s="7">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         <v>0</v>
       </c>
       <c r="AM10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="AN10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="AP10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="AQ10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="AR10" s="7">
         <v>88</v>
@@ -3450,19 +3450,19 @@
         <v>88</v>
       </c>
       <c r="AV10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="AW10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="AX10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="AY10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="AZ10" s="7">
-        <v>0</v>
+        <v>49.490626765839238</v>
       </c>
       <c r="BA10" s="7">
         <v>0</v>
@@ -3501,19 +3501,19 @@
         <v>0</v>
       </c>
       <c r="BN10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="BO10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="BP10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="BQ10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="BR10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="7">
         <v>88</v>
@@ -3537,25 +3537,25 @@
         <v>88</v>
       </c>
       <c r="BZ10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="CA10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="CB10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="CC10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="CD10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="CE10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="CF10" s="8">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="CH10">
         <v>8</v>
@@ -3585,16 +3585,16 @@
         <v>0</v>
       </c>
       <c r="CQ10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="CR10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="CS10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="CT10" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="CU10" s="7">
         <v>88</v>
@@ -3606,13 +3606,13 @@
         <v>88</v>
       </c>
       <c r="CX10" s="7">
-        <v>44.063976370303124</v>
+        <v>88</v>
       </c>
       <c r="CY10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="CZ10" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="DA10" s="7">
         <v>0</v>
@@ -3653,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="F11" s="7">
         <v>650</v>
@@ -3734,10 +3734,10 @@
         <v>0</v>
       </c>
       <c r="AH11" s="7">
-        <v>131.99794535068889</v>
+        <v>0</v>
       </c>
       <c r="AI11" s="7">
-        <v>650</v>
+        <v>197.91334951007471</v>
       </c>
       <c r="AJ11" s="7">
         <v>650</v>
@@ -3881,7 +3881,7 @@
         <v>650</v>
       </c>
       <c r="CF11" s="8">
-        <v>574.57371364350365</v>
+        <v>650</v>
       </c>
       <c r="CH11">
         <v>9</v>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="CM11" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="CN11" s="7">
         <v>650</v>
@@ -3962,7 +3962,7 @@
         <v>650</v>
       </c>
       <c r="DH11" s="8">
-        <v>426.62331356173934</v>
+        <v>650</v>
       </c>
     </row>
     <row r="12" spans="1:112" x14ac:dyDescent="0.35">
@@ -3991,16 +3991,16 @@
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="K12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="L12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="M12" s="7">
         <v>186</v>
@@ -4036,13 +4036,13 @@
         <v>186</v>
       </c>
       <c r="X12" s="7">
-        <v>158.57388011404936</v>
+        <v>186</v>
       </c>
       <c r="Y12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="Z12" s="7">
-        <v>0</v>
+        <v>71.016136540390562</v>
       </c>
       <c r="AA12" s="8">
         <v>0</v>
@@ -4072,16 +4072,16 @@
         <v>0</v>
       </c>
       <c r="AL12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="AN12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="AP12" s="7">
         <v>186</v>
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="AZ12" s="7">
-        <v>101.59062676583909</v>
+        <v>186</v>
       </c>
       <c r="BA12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="BB12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="BC12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="BD12" s="8">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="BF12">
         <v>10</v>
@@ -4153,13 +4153,13 @@
         <v>0</v>
       </c>
       <c r="BN12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="BO12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="BP12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="BQ12" s="7">
         <v>186</v>
@@ -4198,16 +4198,16 @@
         <v>186</v>
       </c>
       <c r="CC12" s="7">
-        <v>35.774530681594854</v>
+        <v>186</v>
       </c>
       <c r="CD12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="CE12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="CF12" s="8">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="CH12">
         <v>10</v>
@@ -4234,16 +4234,16 @@
         <v>0</v>
       </c>
       <c r="CP12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="CQ12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="CR12" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="CS12" s="7">
-        <v>186</v>
+        <v>152.57170090893621</v>
       </c>
       <c r="CT12" s="7">
         <v>186</v>
@@ -4270,25 +4270,25 @@
         <v>186</v>
       </c>
       <c r="DB12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="DC12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="DD12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="DE12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="DF12" s="7">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="DG12" s="7">
-        <v>0</v>
+        <v>184.88064773215137</v>
       </c>
       <c r="DH12" s="8">
-        <v>0</v>
+        <v>53.523313561739087</v>
       </c>
     </row>
     <row r="13" spans="1:112" x14ac:dyDescent="0.35">
@@ -4323,19 +4323,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="L13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="M13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7">
-        <v>47.284238007302903</v>
+        <v>0</v>
       </c>
       <c r="P13" s="7">
         <v>0</v>
@@ -4404,28 +4404,28 @@
         <v>0</v>
       </c>
       <c r="AN13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="7">
         <v>154</v>
       </c>
-      <c r="AO13" s="7">
+      <c r="AT13" s="7">
         <v>154</v>
       </c>
-      <c r="AP13" s="7">
-        <v>154</v>
-      </c>
-      <c r="AQ13" s="7">
-        <v>154</v>
-      </c>
-      <c r="AR13" s="7">
-        <v>154</v>
-      </c>
-      <c r="AS13" s="7">
-        <v>111.74910175125083</v>
-      </c>
-      <c r="AT13" s="7">
-        <v>0</v>
-      </c>
       <c r="AU13" s="7">
-        <v>0</v>
+        <v>79.419212120013867</v>
       </c>
       <c r="AV13" s="7">
         <v>0</v>
@@ -4485,19 +4485,19 @@
         <v>0</v>
       </c>
       <c r="BP13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="BQ13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="BR13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="BT13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="BU13" s="7">
         <v>154</v>
@@ -4509,31 +4509,31 @@
         <v>154</v>
       </c>
       <c r="BX13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="BY13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="BZ13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="CA13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="CB13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="CC13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="CD13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="CE13" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="CF13" s="8">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="CH13">
         <v>11</v>
@@ -4566,16 +4566,16 @@
         <v>0</v>
       </c>
       <c r="CR13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="CS13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="CT13" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="CU13" s="7">
-        <v>138.72867313611431</v>
+        <v>0</v>
       </c>
       <c r="CV13" s="7">
         <v>0</v>
@@ -4646,16 +4646,16 @@
         <v>0</v>
       </c>
       <c r="J14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="K14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="L14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="M14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
         <v>150</v>
@@ -4673,10 +4673,10 @@
         <v>150</v>
       </c>
       <c r="S14" s="7">
-        <v>132.48731502038297</v>
+        <v>150</v>
       </c>
       <c r="T14" s="7">
-        <v>0</v>
+        <v>6.4855008555659879</v>
       </c>
       <c r="U14" s="7">
         <v>0</v>
@@ -4727,16 +4727,16 @@
         <v>0</v>
       </c>
       <c r="AM14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AN14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AP14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AQ14" s="7">
         <v>150</v>
@@ -4754,22 +4754,22 @@
         <v>150</v>
       </c>
       <c r="AV14" s="7">
-        <v>127.01452502909365</v>
+        <v>150</v>
       </c>
       <c r="AW14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AX14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AY14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AZ14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="BA14" s="7">
-        <v>0</v>
+        <v>81.253682406731173</v>
       </c>
       <c r="BB14" s="7">
         <v>0</v>
@@ -4805,19 +4805,19 @@
         <v>0</v>
       </c>
       <c r="BN14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="BO14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="BP14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="BQ14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="BR14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="7">
         <v>150</v>
@@ -4841,25 +4841,25 @@
         <v>150</v>
       </c>
       <c r="BZ14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="CA14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="CB14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="CC14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="CD14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="CE14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="CF14" s="8">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="CH14">
         <v>12</v>
@@ -4889,16 +4889,16 @@
         <v>0</v>
       </c>
       <c r="CQ14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="CR14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="CS14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="CT14" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="CU14" s="7">
         <v>150</v>
@@ -4913,13 +4913,13 @@
         <v>150</v>
       </c>
       <c r="CY14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="CZ14" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="DA14" s="7">
-        <v>0</v>
+        <v>109.90186237003707</v>
       </c>
       <c r="DB14" s="7">
         <v>0</v>
@@ -4954,13 +4954,13 @@
         <v>1848</v>
       </c>
       <c r="D15" s="7">
-        <v>1448.3040379999984</v>
+        <v>1238.3040379999989</v>
       </c>
       <c r="E15" s="7">
-        <v>624.76917434199879</v>
+        <v>1206.7691743419987</v>
       </c>
       <c r="F15" s="7">
-        <v>0</v>
+        <v>313.58049691107635</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -5035,19 +5035,19 @@
         <v>1848</v>
       </c>
       <c r="AG15" s="7">
-        <v>1848</v>
+        <v>1729.7959649999989</v>
       </c>
       <c r="AH15" s="7">
-        <v>1639.4584233343091</v>
+        <v>1703.4563686849979</v>
       </c>
       <c r="AI15" s="7">
-        <v>921.0457800970587</v>
+        <v>1267.5963664930885</v>
       </c>
       <c r="AJ15" s="7">
-        <v>80.359543447191641</v>
+        <v>699.90992062144346</v>
       </c>
       <c r="AK15" s="7">
-        <v>11.709419338216208</v>
+        <v>68.042386211329884</v>
       </c>
       <c r="AL15" s="7">
         <v>0</v>
@@ -5125,19 +5125,19 @@
         <v>1848</v>
       </c>
       <c r="BL15" s="7">
-        <v>1457.0542679423197</v>
+        <v>1848</v>
       </c>
       <c r="BM15" s="7">
-        <v>1287.4821009709342</v>
+        <v>1374.982100970934</v>
       </c>
       <c r="BN15" s="7">
-        <v>0</v>
+        <v>830.71757987967112</v>
       </c>
       <c r="BO15" s="7">
-        <v>0</v>
+        <v>817.96367809858828</v>
       </c>
       <c r="BP15" s="7">
-        <v>0</v>
+        <v>759.22499120147495</v>
       </c>
       <c r="BQ15" s="7">
         <v>0</v>
@@ -5197,16 +5197,16 @@
         <v>1848</v>
       </c>
       <c r="CK15" s="7">
-        <v>1526.4550789999987</v>
+        <v>1316.4550789999985</v>
       </c>
       <c r="CL15" s="7">
-        <v>1354.3954147109982</v>
+        <v>1286.3954147109982</v>
       </c>
       <c r="CM15" s="7">
-        <v>744.69521344339705</v>
+        <v>1044.6952134433973</v>
       </c>
       <c r="CN15" s="7">
-        <v>119.75771036438744</v>
+        <v>365.35771036438712</v>
       </c>
       <c r="CO15" s="7">
         <v>0</v>
@@ -5298,16 +5298,16 @@
         <v>0</v>
       </c>
       <c r="J16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
         <v>656.1</v>
@@ -5328,22 +5328,22 @@
         <v>656.1</v>
       </c>
       <c r="T16" s="7">
-        <v>607.58550085556601</v>
+        <v>656.1</v>
       </c>
       <c r="U16" s="7">
-        <v>441.9796703632652</v>
+        <v>516.97967036326509</v>
       </c>
       <c r="V16" s="7">
-        <v>271.77338739653408</v>
+        <v>381.77338739653396</v>
       </c>
       <c r="W16" s="7">
-        <v>136.97024788310182</v>
+        <v>256.97024788310182</v>
       </c>
       <c r="X16" s="7">
-        <v>0</v>
+        <v>132.57388011404919</v>
       </c>
       <c r="Y16" s="7">
-        <v>0</v>
+        <v>8.5879450350753359</v>
       </c>
       <c r="Z16" s="7">
         <v>0</v>
@@ -5376,19 +5376,19 @@
         <v>0</v>
       </c>
       <c r="AL16" s="7">
-        <v>127.96294411225958</v>
+        <v>0</v>
       </c>
       <c r="AM16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="AN16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="AP16" s="7">
-        <v>656.1</v>
+        <v>587.53627426530511</v>
       </c>
       <c r="AQ16" s="7">
         <v>656.1</v>
@@ -5409,34 +5409,34 @@
         <v>656.1</v>
       </c>
       <c r="AW16" s="7">
-        <v>518.05529575435492</v>
+        <v>656.1</v>
       </c>
       <c r="AX16" s="7">
-        <v>278.4455334161438</v>
+        <v>656.1</v>
       </c>
       <c r="AY16" s="7">
-        <v>44.289283216888037</v>
+        <v>656.1</v>
       </c>
       <c r="AZ16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="BA16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="BB16" s="7">
-        <v>0</v>
+        <v>619.58260554839126</v>
       </c>
       <c r="BC16" s="7">
-        <v>0</v>
+        <v>502.28158899832579</v>
       </c>
       <c r="BD16" s="8">
-        <v>0</v>
+        <v>375.45486329931009</v>
       </c>
       <c r="BF16">
         <v>14</v>
       </c>
       <c r="BG16" s="6">
-        <v>111.10000000000008</v>
+        <v>41.100000000000023</v>
       </c>
       <c r="BH16" s="7">
         <v>0</v>
@@ -5457,16 +5457,16 @@
         <v>0</v>
       </c>
       <c r="BN16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="BO16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="BP16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="BQ16" s="7">
-        <v>656.1</v>
+        <v>561.50615612228682</v>
       </c>
       <c r="BR16" s="7">
         <v>656.1</v>
@@ -5493,25 +5493,25 @@
         <v>656.1</v>
       </c>
       <c r="BZ16" s="7">
-        <v>586.81602447597641</v>
+        <v>656.1</v>
       </c>
       <c r="CA16" s="7">
-        <v>260.56010869625953</v>
+        <v>656.1</v>
       </c>
       <c r="CB16" s="7">
-        <v>144.87788967452508</v>
+        <v>656.1</v>
       </c>
       <c r="CC16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="CD16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="CE16" s="7">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="CF16" s="8">
-        <v>0</v>
+        <v>656.1</v>
       </c>
       <c r="CH16">
         <v>14</v>
@@ -5538,16 +5538,16 @@
         <v>0</v>
       </c>
       <c r="CP16" s="7">
-        <v>472.09860254242841</v>
+        <v>0</v>
       </c>
       <c r="CQ16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="CR16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="CS16" s="7">
-        <v>656.1</v>
+        <v>0</v>
       </c>
       <c r="CT16" s="7">
         <v>656.1</v>
@@ -5565,28 +5565,28 @@
         <v>656.1</v>
       </c>
       <c r="CY16" s="7">
-        <v>580.03819215763542</v>
+        <v>656.1</v>
       </c>
       <c r="CZ16" s="7">
-        <v>310.31627588705379</v>
+        <v>656.1</v>
       </c>
       <c r="DA16" s="7">
-        <v>41.001862370036974</v>
+        <v>656.1</v>
       </c>
       <c r="DB16" s="7">
-        <v>0</v>
+        <v>622.0986191313666</v>
       </c>
       <c r="DC16" s="7">
-        <v>0</v>
+        <v>488.61024670354891</v>
       </c>
       <c r="DD16" s="7">
-        <v>0</v>
+        <v>365.54047892388007</v>
       </c>
       <c r="DE16" s="7">
-        <v>0</v>
+        <v>242.89308323419459</v>
       </c>
       <c r="DF16" s="7">
-        <v>0</v>
+        <v>120.67186098330217</v>
       </c>
       <c r="DG16" s="7">
         <v>0</v>
@@ -5627,22 +5627,22 @@
         <v>0</v>
       </c>
       <c r="K17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="L17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="M17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="P17" s="7">
-        <v>26.53349614936829</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="7">
         <v>0</v>
@@ -5708,31 +5708,31 @@
         <v>0</v>
       </c>
       <c r="AN17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="AP17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="AQ17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="AR17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="AS17" s="7">
         <v>50.3</v>
       </c>
       <c r="AT17" s="7">
-        <v>22.165383667010644</v>
+        <v>50.3</v>
       </c>
       <c r="AU17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="AV17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="AW17" s="7">
         <v>0</v>
@@ -5789,19 +5789,19 @@
         <v>0</v>
       </c>
       <c r="BP17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="BQ17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="BR17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="BT17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="BU17" s="7">
         <v>50.3</v>
@@ -5813,31 +5813,31 @@
         <v>50.3</v>
       </c>
       <c r="BX17" s="7">
-        <v>28.628523089987027</v>
+        <v>50.3</v>
       </c>
       <c r="BY17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="BZ17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="CA17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="CB17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="CC17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="CD17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="CE17" s="7">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="CF17" s="8">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="CH17">
         <v>15</v>
@@ -5870,19 +5870,19 @@
         <v>0</v>
       </c>
       <c r="CR17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="CS17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="CT17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="CU17" s="7">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="CV17" s="7">
-        <v>44.212771194339808</v>
+        <v>0</v>
       </c>
       <c r="CW17" s="7">
         <v>0</v>
@@ -5944,16 +5944,16 @@
         <v>0</v>
       </c>
       <c r="H18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="K18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="L18" s="7">
         <v>67</v>
@@ -5998,10 +5998,10 @@
         <v>67</v>
       </c>
       <c r="Z18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="AA18" s="8">
-        <v>0</v>
+        <v>51.362181769253311</v>
       </c>
       <c r="AD18">
         <v>16</v>
@@ -6025,16 +6025,16 @@
         <v>0</v>
       </c>
       <c r="AK18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="AL18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="AN18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="7">
         <v>67</v>
@@ -6073,16 +6073,16 @@
         <v>67</v>
       </c>
       <c r="BA18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="BB18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="BC18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="BD18" s="8">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="BF18">
         <v>16</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="BM18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="7">
         <v>67</v>
@@ -6157,13 +6157,13 @@
         <v>67</v>
       </c>
       <c r="CD18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="CE18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="CF18" s="8">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="CH18">
         <v>16</v>
@@ -6187,16 +6187,16 @@
         <v>0</v>
       </c>
       <c r="CO18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="CP18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="CQ18" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="CR18" s="7">
-        <v>67</v>
+        <v>34.339369419977629</v>
       </c>
       <c r="CS18" s="7">
         <v>67</v>
@@ -6229,22 +6229,22 @@
         <v>67</v>
       </c>
       <c r="DC18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="DD18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="DE18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="DF18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="DG18" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="DH18" s="8">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:112" x14ac:dyDescent="0.35">
@@ -6273,13 +6273,13 @@
         <v>257</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="J19" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="K19" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7">
         <v>0</v>
@@ -6354,13 +6354,13 @@
         <v>257</v>
       </c>
       <c r="AL19" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="AM19" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="AN19" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="AO19" s="7">
         <v>0</v>
@@ -6438,16 +6438,16 @@
         <v>257</v>
       </c>
       <c r="BO19" s="7">
-        <v>180.06367809858853</v>
+        <v>257</v>
       </c>
       <c r="BP19" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="BQ19" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="BR19" s="7">
-        <v>0</v>
+        <v>151.21185152738587</v>
       </c>
       <c r="BS19" s="7">
         <v>0</v>
@@ -6516,13 +6516,13 @@
         <v>257</v>
       </c>
       <c r="CP19" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="CQ19" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="CR19" s="7">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="CS19" s="7">
         <v>0</v>
@@ -6578,10 +6578,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="6">
-        <v>2066</v>
+        <v>1996</v>
       </c>
       <c r="C20" s="7">
-        <v>1916.3819999999994</v>
+        <v>1804.3642379757423</v>
       </c>
       <c r="D20" s="7">
         <v>2269.6</v>
@@ -6596,28 +6596,28 @@
         <v>2269.6</v>
       </c>
       <c r="H20" s="7">
-        <v>1815.2541914757244</v>
+        <v>2269.6</v>
       </c>
       <c r="I20" s="7">
-        <v>1879.6228791990056</v>
+        <v>2241.1374734282622</v>
       </c>
       <c r="J20" s="7">
-        <v>1025.7503851117963</v>
+        <v>1796.3503851117962</v>
       </c>
       <c r="K20" s="7">
-        <v>0</v>
+        <v>1302.939938577802</v>
       </c>
       <c r="L20" s="7">
-        <v>0</v>
+        <v>1417.3947980250018</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>1202.7182512072263</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>368.31361546809046</v>
       </c>
       <c r="O20" s="7">
-        <v>0</v>
+        <v>20.751948466969726</v>
       </c>
       <c r="P20" s="7">
         <v>0</v>
@@ -6683,22 +6683,22 @@
         <v>2269.6</v>
       </c>
       <c r="AM20" s="7">
-        <v>1416.4040152939231</v>
+        <v>2009.1665746238293</v>
       </c>
       <c r="AN20" s="7">
-        <v>371.89550436475275</v>
+        <v>1831.7955043647521</v>
       </c>
       <c r="AO20" s="7">
-        <v>418.38190390403525</v>
+        <v>1951.7819039040342</v>
       </c>
       <c r="AP20" s="7">
-        <v>185.28668103917124</v>
+        <v>1155.1504067738651</v>
       </c>
       <c r="AQ20" s="7">
-        <v>0</v>
+        <v>913.91360116852263</v>
       </c>
       <c r="AR20" s="7">
-        <v>0</v>
+        <v>405.36646357903862</v>
       </c>
       <c r="AS20" s="7">
         <v>0</v>
@@ -6767,46 +6767,46 @@
         <v>2269.6</v>
       </c>
       <c r="BP20" s="7">
-        <v>1682.4249912014752</v>
+        <v>2269.6</v>
       </c>
       <c r="BQ20" s="7">
-        <v>1740.7061561222881</v>
+        <v>2269.6</v>
       </c>
       <c r="BR20" s="7">
-        <v>1399.5118515273859</v>
+        <v>2269.6</v>
       </c>
       <c r="BS20" s="7">
-        <v>1008.846798191133</v>
+        <v>2172.1467981911323</v>
       </c>
       <c r="BT20" s="7">
-        <v>658.71575937485272</v>
+        <v>1763.7157593748525</v>
       </c>
       <c r="BU20" s="7">
-        <v>329.1235412092272</v>
+        <v>929.123541209226</v>
       </c>
       <c r="BV20" s="7">
-        <v>26.740995848064244</v>
+        <v>920.07499308010574</v>
       </c>
       <c r="BW20" s="7">
-        <v>0</v>
+        <v>801.57500801782703</v>
       </c>
       <c r="BX20" s="7">
-        <v>0</v>
+        <v>673.62852308998572</v>
       </c>
       <c r="BY20" s="7">
-        <v>0</v>
+        <v>546.24051979779642</v>
       </c>
       <c r="BZ20" s="7">
-        <v>0</v>
+        <v>419.41602447597529</v>
       </c>
       <c r="CA20" s="7">
-        <v>0</v>
+        <v>303.16010869625825</v>
       </c>
       <c r="CB20" s="7">
-        <v>0</v>
+        <v>197.47788967452379</v>
       </c>
       <c r="CC20" s="7">
-        <v>0</v>
+        <v>92.374530681593797</v>
       </c>
       <c r="CD20" s="7">
         <v>0</v>
@@ -6821,10 +6821,10 @@
         <v>18</v>
       </c>
       <c r="CI20" s="6">
-        <v>2227</v>
+        <v>2157</v>
       </c>
       <c r="CJ20" s="7">
-        <v>2038.0938834123644</v>
+        <v>2153.2309999999998</v>
       </c>
       <c r="CK20" s="7">
         <v>2269.6</v>
@@ -6839,25 +6839,25 @@
         <v>2269.6</v>
       </c>
       <c r="CO20" s="7">
-        <v>1899.3861697576663</v>
+        <v>2269.6</v>
       </c>
       <c r="CP20" s="7">
-        <v>1493.1852827430571</v>
+        <v>2269.6</v>
       </c>
       <c r="CQ20" s="7">
-        <v>714.65418025305428</v>
+        <v>1419.5541802530538</v>
       </c>
       <c r="CR20" s="7">
-        <v>0</v>
+        <v>1357.3610384553535</v>
       </c>
       <c r="CS20" s="7">
-        <v>0</v>
+        <v>1355.1542506372725</v>
       </c>
       <c r="CT20" s="7">
-        <v>0</v>
+        <v>638.53422511012457</v>
       </c>
       <c r="CU20" s="7">
-        <v>0</v>
+        <v>373.82867313611484</v>
       </c>
       <c r="CV20" s="7">
         <v>0</v>
@@ -7257,28 +7257,28 @@
         <v>0</v>
       </c>
       <c r="K22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="L22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="M22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7">
-        <v>398.3</v>
+        <v>231.63228954033303</v>
       </c>
       <c r="P22" s="7">
-        <v>398.3</v>
+        <v>224.83349614936822</v>
       </c>
       <c r="Q22" s="7">
-        <v>257.66479761471231</v>
+        <v>197.66479761471226</v>
       </c>
       <c r="R22" s="7">
-        <v>75.881580793244211</v>
+        <v>60.881580793244211</v>
       </c>
       <c r="S22" s="7">
         <v>0</v>
@@ -7335,19 +7335,19 @@
         <v>0</v>
       </c>
       <c r="AM22" s="7">
-        <v>132.71973531534627</v>
+        <v>0</v>
       </c>
       <c r="AN22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="AP22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="AQ22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="AR22" s="7">
         <v>398.3</v>
@@ -7359,19 +7359,19 @@
         <v>398.3</v>
       </c>
       <c r="AU22" s="7">
-        <v>154.51921212001366</v>
+        <v>398.3</v>
       </c>
       <c r="AV22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="AW22" s="7">
-        <v>0</v>
+        <v>348.95529575435501</v>
       </c>
       <c r="AX22" s="7">
-        <v>0</v>
+        <v>209.34553341614367</v>
       </c>
       <c r="AY22" s="7">
-        <v>0</v>
+        <v>80.189283216888157</v>
       </c>
       <c r="AZ22" s="7">
         <v>0</v>
@@ -7413,22 +7413,22 @@
         <v>0</v>
       </c>
       <c r="BN22" s="7">
-        <v>264.11757987967178</v>
+        <v>0</v>
       </c>
       <c r="BO22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="BP22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="BQ22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="BR22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="BT22" s="7">
         <v>398.3</v>
@@ -7446,28 +7446,28 @@
         <v>398.3</v>
       </c>
       <c r="BY22" s="7">
-        <v>39.540519797797231</v>
+        <v>398.3</v>
       </c>
       <c r="BZ22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="CA22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="CB22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="CC22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="CD22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="CE22" s="7">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="CF22" s="8">
-        <v>0</v>
+        <v>398.3</v>
       </c>
       <c r="CH22">
         <v>20</v>
@@ -7497,34 +7497,34 @@
         <v>0</v>
       </c>
       <c r="CQ22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="CR22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="CS22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="CT22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="CU22" s="7">
-        <v>398.3</v>
+        <v>0</v>
       </c>
       <c r="CV22" s="7">
-        <v>398.3</v>
+        <v>347.51277119433951</v>
       </c>
       <c r="CW22" s="7">
-        <v>201.59002613508824</v>
+        <v>321.59002613508773</v>
       </c>
       <c r="CX22" s="7">
-        <v>0</v>
+        <v>296.06397637030284</v>
       </c>
       <c r="CY22" s="7">
-        <v>0</v>
+        <v>160.93819215763529</v>
       </c>
       <c r="CZ22" s="7">
-        <v>0</v>
+        <v>16.216275887053712</v>
       </c>
       <c r="DA22" s="7">
         <v>0</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="CJ23" s="7">
-        <v>19.670000000000002</v>
+        <v>0</v>
       </c>
       <c r="CK23" s="7">
         <v>19.670000000000002</v>
@@ -8128,7 +8128,7 @@
         <v>0</v>
       </c>
       <c r="CJ24" s="7">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="CK24" s="7">
         <v>17.5</v>
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="7">
-        <v>35</v>
+        <v>22.067762024257036</v>
       </c>
       <c r="D25" s="7">
         <v>35</v>
@@ -8454,7 +8454,7 @@
         <v>0</v>
       </c>
       <c r="CJ25" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="CK25" s="7">
         <v>49</v>
@@ -9106,7 +9106,7 @@
         <v>0</v>
       </c>
       <c r="CJ27" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CK27" s="7">
         <v>7</v>
@@ -9432,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="CJ28" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CK28" s="7">
         <v>7</v>
@@ -9596,7 +9596,7 @@
         <v>0</v>
       </c>
       <c r="AF29" s="7">
-        <v>7</v>
+        <v>0.12499999999958789</v>
       </c>
       <c r="AG29" s="7">
         <v>7</v>
@@ -9758,7 +9758,7 @@
         <v>0</v>
       </c>
       <c r="CJ29" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CK29" s="7">
         <v>7</v>
@@ -10084,7 +10084,7 @@
         <v>0</v>
       </c>
       <c r="CJ30" s="7">
-        <v>36.54</v>
+        <v>0</v>
       </c>
       <c r="CK30" s="7">
         <v>36.54</v>
@@ -10410,7 +10410,7 @@
         <v>0</v>
       </c>
       <c r="CJ31" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CK31" s="7">
         <v>7</v>
@@ -11062,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="CJ33" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="CK33" s="7">
         <v>49</v>
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="CJ34" s="7">
-        <v>7.3499999999999943</v>
+        <v>0</v>
       </c>
       <c r="CK34" s="7">
         <v>7.3499999999999943</v>
@@ -11714,7 +11714,7 @@
         <v>0</v>
       </c>
       <c r="CJ35" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CK35" s="7">
         <v>7</v>
@@ -11797,7 +11797,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D36" s="7">
         <v>5</v>
@@ -12040,7 +12040,7 @@
         <v>0</v>
       </c>
       <c r="CJ36" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CK36" s="7">
         <v>6.9999999999999929</v>
@@ -12366,7 +12366,7 @@
         <v>0</v>
       </c>
       <c r="CJ37" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CK37" s="7">
         <v>7</v>
@@ -12449,7 +12449,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D38" s="7">
         <v>5</v>
@@ -12692,7 +12692,7 @@
         <v>0</v>
       </c>
       <c r="CJ38" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CK38" s="7">
         <v>7</v>
@@ -12775,7 +12775,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="7">
-        <v>5.0499999999999972</v>
+        <v>0</v>
       </c>
       <c r="D39" s="7">
         <v>5.0499999999999972</v>
@@ -13018,7 +13018,7 @@
         <v>0</v>
       </c>
       <c r="CJ39" s="7">
-        <v>4.6771165876352825</v>
+        <v>0</v>
       </c>
       <c r="CK39" s="7">
         <v>7.07</v>
@@ -13670,7 +13670,7 @@
         <v>0</v>
       </c>
       <c r="CJ41" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CK41" s="7">
         <v>7</v>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="CJ42" s="7">
-        <v>8.3999999999999986</v>
+        <v>0</v>
       </c>
       <c r="CK42" s="7">
         <v>8.3999999999999986</v>
@@ -14109,49 +14109,49 @@
         <v>0</v>
       </c>
       <c r="M43" s="7">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N43" s="7">
-        <v>425</v>
+        <v>0</v>
       </c>
       <c r="O43" s="7">
-        <v>625</v>
+        <v>0</v>
       </c>
       <c r="P43" s="7">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="7">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R43" s="7">
-        <v>1225</v>
+        <v>0</v>
       </c>
       <c r="S43" s="7">
-        <v>1450</v>
+        <v>0</v>
       </c>
       <c r="T43" s="7">
-        <v>1675</v>
+        <v>0</v>
       </c>
       <c r="U43" s="7">
-        <v>1875</v>
+        <v>0</v>
       </c>
       <c r="V43" s="7">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="W43" s="7">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="X43" s="7">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="7">
-        <v>2425</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="7">
-        <v>2675</v>
+        <v>0</v>
       </c>
       <c r="AA43" s="8">
-        <v>2900</v>
+        <v>0</v>
       </c>
       <c r="AB43" t="s">
         <v>15</v>
@@ -14193,49 +14193,49 @@
         <v>0</v>
       </c>
       <c r="AP43" s="7">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AQ43" s="7">
-        <v>595</v>
+        <v>0</v>
       </c>
       <c r="AR43" s="7">
-        <v>875</v>
+        <v>0</v>
       </c>
       <c r="AS43" s="7">
-        <v>1120</v>
+        <v>0</v>
       </c>
       <c r="AT43" s="7">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="AU43" s="7">
-        <v>1715</v>
+        <v>0</v>
       </c>
       <c r="AV43" s="7">
-        <v>2029.9999999999998</v>
+        <v>0</v>
       </c>
       <c r="AW43" s="7">
-        <v>2345</v>
+        <v>0</v>
       </c>
       <c r="AX43" s="7">
-        <v>2625</v>
+        <v>0</v>
       </c>
       <c r="AY43" s="7">
-        <v>2870</v>
+        <v>0</v>
       </c>
       <c r="AZ43" s="7">
-        <v>2870</v>
+        <v>0</v>
       </c>
       <c r="BA43" s="7">
-        <v>3080</v>
+        <v>0</v>
       </c>
       <c r="BB43" s="7">
-        <v>3395</v>
+        <v>0</v>
       </c>
       <c r="BC43" s="7">
-        <v>3744.9999999999995</v>
+        <v>0</v>
       </c>
       <c r="BD43" s="8">
-        <v>4059.9999999999995</v>
+        <v>0</v>
       </c>
       <c r="BF43">
         <v>41</v>
@@ -14274,49 +14274,49 @@
         <v>0</v>
       </c>
       <c r="BR43" s="7">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="BS43" s="7">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="BT43" s="7">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="BU43" s="7">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="BV43" s="7">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="BW43" s="7">
-        <v>2450</v>
+        <v>0</v>
       </c>
       <c r="BX43" s="7">
-        <v>2900</v>
+        <v>0</v>
       </c>
       <c r="BY43" s="7">
-        <v>3350</v>
+        <v>0</v>
       </c>
       <c r="BZ43" s="7">
-        <v>3750</v>
+        <v>0</v>
       </c>
       <c r="CA43" s="7">
-        <v>4100</v>
+        <v>0</v>
       </c>
       <c r="CB43" s="7">
-        <v>4100</v>
+        <v>0</v>
       </c>
       <c r="CC43" s="7">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="CD43" s="7">
-        <v>4850</v>
+        <v>0</v>
       </c>
       <c r="CE43" s="7">
-        <v>5350</v>
+        <v>0</v>
       </c>
       <c r="CF43" s="8">
-        <v>5800</v>
+        <v>0</v>
       </c>
       <c r="CH43">
         <v>41</v>
@@ -14355,49 +14355,49 @@
         <v>0</v>
       </c>
       <c r="CT43" s="7">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="CU43" s="7">
-        <v>595</v>
+        <v>0</v>
       </c>
       <c r="CV43" s="7">
-        <v>875</v>
+        <v>0</v>
       </c>
       <c r="CW43" s="7">
-        <v>1120</v>
+        <v>0</v>
       </c>
       <c r="CX43" s="7">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="CY43" s="7">
-        <v>1715</v>
+        <v>0</v>
       </c>
       <c r="CZ43" s="7">
-        <v>2029.9999999999998</v>
+        <v>0</v>
       </c>
       <c r="DA43" s="7">
-        <v>2345</v>
+        <v>0</v>
       </c>
       <c r="DB43" s="7">
-        <v>2625</v>
+        <v>0</v>
       </c>
       <c r="DC43" s="7">
-        <v>2870</v>
+        <v>0</v>
       </c>
       <c r="DD43" s="7">
-        <v>2870</v>
+        <v>0</v>
       </c>
       <c r="DE43" s="7">
-        <v>3080</v>
+        <v>0</v>
       </c>
       <c r="DF43" s="7">
-        <v>3395</v>
+        <v>0</v>
       </c>
       <c r="DG43" s="7">
-        <v>3744.9999999999995</v>
+        <v>0</v>
       </c>
       <c r="DH43" s="8">
-        <v>4059.9999999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:112" x14ac:dyDescent="0.35">
@@ -14444,43 +14444,43 @@
         <v>0</v>
       </c>
       <c r="O44" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P44" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="7">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="R44" s="7">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="S44" s="7">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="T44" s="7">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="U44" s="7">
-        <v>70</v>
+        <v>470</v>
       </c>
       <c r="V44" s="7">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="W44" s="7">
-        <v>290</v>
+        <v>680</v>
       </c>
       <c r="X44" s="7">
-        <v>350</v>
+        <v>780</v>
       </c>
       <c r="Y44" s="7">
-        <v>360</v>
+        <v>880</v>
       </c>
       <c r="Z44" s="7">
-        <v>360</v>
+        <v>980</v>
       </c>
       <c r="AA44" s="8">
-        <v>370</v>
+        <v>1090</v>
       </c>
       <c r="AB44" t="s">
         <v>16</v>
@@ -14528,43 +14528,43 @@
         <v>0</v>
       </c>
       <c r="AR44" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AS44" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="7">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AU44" s="7">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AV44" s="7">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="AW44" s="7">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="AX44" s="7">
-        <v>70</v>
+        <v>470</v>
       </c>
       <c r="AY44" s="7">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AZ44" s="7">
-        <v>290</v>
+        <v>680</v>
       </c>
       <c r="BA44" s="7">
-        <v>350</v>
+        <v>780</v>
       </c>
       <c r="BB44" s="7">
-        <v>360</v>
+        <v>880</v>
       </c>
       <c r="BC44" s="7">
-        <v>360</v>
+        <v>980</v>
       </c>
       <c r="BD44" s="8">
-        <v>370</v>
+        <v>1090</v>
       </c>
       <c r="BF44">
         <v>42</v>
@@ -14609,43 +14609,43 @@
         <v>0</v>
       </c>
       <c r="BT44" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BU44" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BV44" s="7">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="BW44" s="7">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="BX44" s="7">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="BY44" s="7">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="BZ44" s="7">
-        <v>70</v>
+        <v>470</v>
       </c>
       <c r="CA44" s="7">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="CB44" s="7">
-        <v>290</v>
+        <v>680</v>
       </c>
       <c r="CC44" s="7">
-        <v>350</v>
+        <v>780</v>
       </c>
       <c r="CD44" s="7">
-        <v>360</v>
+        <v>880</v>
       </c>
       <c r="CE44" s="7">
-        <v>360</v>
+        <v>980</v>
       </c>
       <c r="CF44" s="8">
-        <v>370</v>
+        <v>1090</v>
       </c>
       <c r="CH44">
         <v>42</v>
@@ -14690,43 +14690,43 @@
         <v>0</v>
       </c>
       <c r="CV44" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CW44" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="CX44" s="7">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="CY44" s="7">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="CZ44" s="7">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="DA44" s="7">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="DB44" s="7">
-        <v>70</v>
+        <v>470</v>
       </c>
       <c r="DC44" s="7">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="DD44" s="7">
-        <v>290</v>
+        <v>680</v>
       </c>
       <c r="DE44" s="7">
-        <v>350</v>
+        <v>780</v>
       </c>
       <c r="DF44" s="7">
-        <v>360</v>
+        <v>880</v>
       </c>
       <c r="DG44" s="7">
-        <v>360</v>
+        <v>980</v>
       </c>
       <c r="DH44" s="8">
-        <v>370</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="45" spans="1:112" x14ac:dyDescent="0.35">
@@ -15448,49 +15448,49 @@
         <v>0</v>
       </c>
       <c r="M49" s="4">
-        <v>52.177708757573555</v>
+        <v>0</v>
       </c>
       <c r="N49" s="4">
         <v>0</v>
       </c>
       <c r="O49" s="4">
-        <v>113.64055091051597</v>
+        <v>0</v>
       </c>
       <c r="P49" s="4">
-        <v>43.025546875266826</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="4">
-        <v>82.076788686016982</v>
+        <v>0</v>
       </c>
       <c r="R49" s="4">
-        <v>191.09856591317742</v>
+        <v>0</v>
       </c>
       <c r="S49" s="4">
-        <v>214.72672166286395</v>
+        <v>0</v>
       </c>
       <c r="T49" s="4">
-        <v>169.54102191857308</v>
+        <v>0</v>
       </c>
       <c r="U49" s="4">
-        <v>373.42322690574952</v>
+        <v>0</v>
       </c>
       <c r="V49" s="4">
-        <v>373.34160110516569</v>
+        <v>0</v>
       </c>
       <c r="W49" s="4">
-        <v>232.74508465236153</v>
+        <v>0</v>
       </c>
       <c r="X49" s="4">
-        <v>120.88641916860188</v>
+        <v>0</v>
       </c>
       <c r="Y49" s="4">
-        <v>230.80063202284637</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="4">
-        <v>237.82224610155279</v>
+        <v>0</v>
       </c>
       <c r="AA49" s="5">
-        <v>301.16720555129496</v>
+        <v>0</v>
       </c>
       <c r="AD49">
         <v>1</v>
@@ -15529,49 +15529,49 @@
         <v>0</v>
       </c>
       <c r="AP49" s="4">
-        <v>495.58878451388028</v>
+        <v>0</v>
       </c>
       <c r="AQ49" s="4">
-        <v>307.73881024839523</v>
+        <v>0</v>
       </c>
       <c r="AR49" s="4">
-        <v>519.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="AS49" s="4">
-        <v>519.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="AT49" s="4">
-        <v>519.19999999999982</v>
+        <v>0</v>
       </c>
       <c r="AU49" s="4">
-        <v>519.19999999999982</v>
+        <v>0</v>
       </c>
       <c r="AV49" s="4">
-        <v>519.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="AW49" s="4">
-        <v>519.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="AX49" s="4">
-        <v>519.19999999999959</v>
+        <v>0</v>
       </c>
       <c r="AY49" s="4">
-        <v>519.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="AZ49" s="4">
-        <v>519.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="BA49" s="4">
-        <v>519.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="BB49" s="4">
-        <v>519.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="BC49" s="4">
-        <v>519.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="BD49" s="5">
-        <v>519.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="BF49">
         <v>1</v>
@@ -15607,52 +15607,52 @@
         <v>0</v>
       </c>
       <c r="BQ49" s="4">
-        <v>519.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="BR49" s="4">
-        <v>519.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="BS49" s="4">
-        <v>519.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="BT49" s="4">
-        <v>519.19999999999936</v>
+        <v>0</v>
       </c>
       <c r="BU49" s="4">
-        <v>519.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="BV49" s="4">
-        <v>519.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="BW49" s="4">
-        <v>519.20000000000005</v>
+        <v>261.75259767564455</v>
       </c>
       <c r="BX49" s="4">
-        <v>519.20000000000005</v>
+        <v>316.55000546736562</v>
       </c>
       <c r="BY49" s="4">
-        <v>519.20000000000005</v>
+        <v>216.41519009961735</v>
       </c>
       <c r="BZ49" s="4">
-        <v>519.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="CA49" s="4">
-        <v>519.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="CB49" s="4">
-        <v>519.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="CC49" s="4">
-        <v>519.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="CD49" s="4">
-        <v>519.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="CE49" s="4">
-        <v>519.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="CF49" s="5">
-        <v>519.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="CH49">
         <v>1</v>
@@ -15688,52 +15688,52 @@
         <v>0</v>
       </c>
       <c r="CS49" s="4">
-        <v>17.95693131983063</v>
+        <v>0</v>
       </c>
       <c r="CT49" s="4">
-        <v>197.62286554628719</v>
+        <v>0</v>
       </c>
       <c r="CU49" s="4">
-        <v>235.16657133620339</v>
+        <v>0</v>
       </c>
       <c r="CV49" s="4">
-        <v>263.04817047822854</v>
+        <v>0</v>
       </c>
       <c r="CW49" s="4">
-        <v>261.27070401253224</v>
+        <v>0</v>
       </c>
       <c r="CX49" s="4">
-        <v>289.83724034864446</v>
+        <v>0</v>
       </c>
       <c r="CY49" s="4">
-        <v>328.75087551178223</v>
+        <v>0</v>
       </c>
       <c r="CZ49" s="4">
-        <v>368.01473339138812</v>
+        <v>0</v>
       </c>
       <c r="DA49" s="4">
-        <v>407.63196599190979</v>
+        <v>0</v>
       </c>
       <c r="DB49" s="4">
-        <v>437.60575368583687</v>
+        <v>0</v>
       </c>
       <c r="DC49" s="4">
-        <v>437.93930546900901</v>
+        <v>0</v>
       </c>
       <c r="DD49" s="4">
-        <v>298.6358592182296</v>
+        <v>0</v>
       </c>
       <c r="DE49" s="4">
-        <v>279.69868195119307</v>
+        <v>0</v>
       </c>
       <c r="DF49" s="4">
-        <v>311.1310700887534</v>
+        <v>0</v>
       </c>
       <c r="DG49" s="4">
-        <v>352.9363497195518</v>
+        <v>0</v>
       </c>
       <c r="DH49" s="5">
-        <v>385.11787686702701</v>
+        <v>0</v>
       </c>
     </row>
 